--- a/storage/backups/automatic-backup.xlsx
+++ b/storage/backups/automatic-backup.xlsx
@@ -896,7 +896,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="str">
-        <v>B3</v>
+        <v>B4</v>
       </c>
       <c r="F2" s="1">
         <v>45994.48252188657</v>

--- a/storage/backups/automatic-backup.xlsx
+++ b/storage/backups/automatic-backup.xlsx
@@ -6,8 +6,9 @@
     <sheet name="Record Days" sheetId="1" r:id="rId1"/>
     <sheet name="Contestants" sheetId="2" r:id="rId2"/>
     <sheet name="Seat Assignments" sheetId="3" r:id="rId3"/>
-    <sheet name="Groups" sheetId="4" r:id="rId4"/>
-    <sheet name="Block Types" sheetId="5" r:id="rId5"/>
+    <sheet name="Standbys" sheetId="4" r:id="rId4"/>
+    <sheet name="Groups" sheetId="5" r:id="rId5"/>
+    <sheet name="Block Types" sheetId="6" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
@@ -730,69 +731,69 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
+        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
       </c>
       <c r="B2" t="str">
-        <v>Peter Adamidis</v>
+        <v>Felicity Parker-Hill</v>
       </c>
       <c r="C2">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D2" t="str">
         <v>Not Specified</v>
       </c>
       <c r="E2" t="str">
-        <v>peter.adamidis@gmail.com</v>
+        <v>felicity.parkerhill@endemolshine.com.au</v>
       </c>
       <c r="F2" t="str">
         <v>498086080</v>
       </c>
       <c r="G2" t="str">
-        <v/>
+        <v>Melbourne</v>
       </c>
       <c r="I2" t="str">
         <v>assigned</v>
       </c>
       <c r="J2" t="str">
-        <v>Kathleen Reynolds, Felicity Parker-Hill</v>
+        <v>Peter Adamidis, Kathleen Reynolds</v>
       </c>
       <c r="K2" t="str">
         <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
       </c>
       <c r="L2" t="str">
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="M2" t="str">
-        <v>Broken Leg</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
+        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
       </c>
       <c r="B3" t="str">
-        <v>Felicity Parker-Hill</v>
+        <v>Kathleen Reynolds</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D3" t="str">
         <v>Not Specified</v>
       </c>
       <c r="E3" t="str">
-        <v>felicity.parkerhill@endemolshine.com.au</v>
+        <v>kathleenmonicareynolds@gmail.com</v>
       </c>
       <c r="F3" t="str">
         <v>498086080</v>
       </c>
       <c r="G3" t="str">
-        <v>Melbourne</v>
+        <v>Footscray</v>
       </c>
       <c r="I3" t="str">
         <v>assigned</v>
       </c>
       <c r="J3" t="str">
-        <v>Peter Adamidis, Kathleen Reynolds</v>
+        <v>Peter Adamidis, Felicity Parker-Hill</v>
       </c>
       <c r="K3" t="str">
         <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
@@ -806,40 +807,40 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
+        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
       </c>
       <c r="B4" t="str">
-        <v>Kathleen Reynolds</v>
+        <v>Peter Adamidis</v>
       </c>
       <c r="C4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" t="str">
         <v>Not Specified</v>
       </c>
       <c r="E4" t="str">
-        <v>kathleenmonicareynolds@gmail.com</v>
+        <v>peter.adamidis@gmail.com</v>
       </c>
       <c r="F4" t="str">
         <v>498086080</v>
       </c>
       <c r="G4" t="str">
-        <v>Footscray</v>
+        <v/>
       </c>
       <c r="I4" t="str">
         <v>assigned</v>
       </c>
       <c r="J4" t="str">
-        <v>Peter Adamidis, Felicity Parker-Hill</v>
+        <v>Kathleen Reynolds, Felicity Parker-Hill</v>
       </c>
       <c r="K4" t="str">
         <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
       </c>
       <c r="L4" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="M4" t="str">
-        <v>N/A</v>
+        <v>Broken Leg</v>
       </c>
     </row>
   </sheetData>
@@ -851,7 +852,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -884,78 +885,100 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>d87fb44f-0654-4aed-82a5-2ec6179bc2ab</v>
+        <v>1bd961ce-a605-4d4f-8bdd-844664d1b140</v>
       </c>
       <c r="B2" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
       </c>
       <c r="C2" t="str">
-        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
+        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2" t="str">
         <v>B4</v>
       </c>
       <c r="F2" s="1">
-        <v>45994.48252188657</v>
-      </c>
-      <c r="G2" s="1">
-        <v>45994.35363413194</v>
+        <v>45994.1424034375</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>1bd961ce-a605-4d4f-8bdd-844664d1b140</v>
+        <v>df836401-667b-4ac1-a68f-afe59d04a8b5</v>
       </c>
       <c r="B3" t="str">
         <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
       </c>
       <c r="C3" t="str">
-        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
+        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3" t="str">
-        <v>B4</v>
+        <v>B5</v>
       </c>
       <c r="F3" s="1">
-        <v>45994.1424034375</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>df836401-667b-4ac1-a68f-afe59d04a8b5</v>
-      </c>
-      <c r="B4" t="str">
-        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
-      </c>
-      <c r="C4" t="str">
-        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="str">
-        <v>B5</v>
-      </c>
-      <c r="F4" s="1">
         <v>45994.26563376158</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G3" s="1">
         <v>45994.266912141204</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H3"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>ID</v>
+      </c>
+      <c r="B1" t="str">
+        <v>RecordDayID</v>
+      </c>
+      <c r="C1" t="str">
+        <v>ContestantID</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Status</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Notes</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>69511596-e3b5-41be-a93b-920748af4fe0</v>
+      </c>
+      <c r="B2" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C2" t="str">
+        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
+      </c>
+      <c r="D2" t="str">
+        <v>pending</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -985,7 +1008,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D27"/>
   <sheetViews>

--- a/storage/backups/automatic-backup.xlsx
+++ b/storage/backups/automatic-backup.xlsx
@@ -9,6 +9,7 @@
     <sheet name="Standbys" sheetId="4" r:id="rId4"/>
     <sheet name="Groups" sheetId="5" r:id="rId5"/>
     <sheet name="Block Types" sheetId="6" r:id="rId6"/>
+    <sheet name="Canceled Assignments" sheetId="7" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
@@ -769,78 +770,78 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
+        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
       </c>
       <c r="B3" t="str">
-        <v>Kathleen Reynolds</v>
+        <v>Peter Adamidis</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" t="str">
         <v>Not Specified</v>
       </c>
       <c r="E3" t="str">
-        <v>kathleenmonicareynolds@gmail.com</v>
+        <v>peter.adamidis@gmail.com</v>
       </c>
       <c r="F3" t="str">
         <v>498086080</v>
       </c>
       <c r="G3" t="str">
-        <v>Footscray</v>
+        <v/>
       </c>
       <c r="I3" t="str">
         <v>assigned</v>
       </c>
       <c r="J3" t="str">
-        <v>Peter Adamidis, Felicity Parker-Hill</v>
+        <v>Kathleen Reynolds, Felicity Parker-Hill</v>
       </c>
       <c r="K3" t="str">
         <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
       </c>
       <c r="L3" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="M3" t="str">
-        <v>N/A</v>
+        <v>Broken Leg</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
+        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
       </c>
       <c r="B4" t="str">
-        <v>Peter Adamidis</v>
+        <v>Kathleen Reynolds</v>
       </c>
       <c r="C4">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" t="str">
         <v>Not Specified</v>
       </c>
       <c r="E4" t="str">
-        <v>peter.adamidis@gmail.com</v>
+        <v>kathleenmonicareynolds@gmail.com</v>
       </c>
       <c r="F4" t="str">
         <v>498086080</v>
       </c>
       <c r="G4" t="str">
-        <v/>
+        <v>Footscray</v>
       </c>
       <c r="I4" t="str">
         <v>assigned</v>
       </c>
       <c r="J4" t="str">
-        <v>Kathleen Reynolds, Felicity Parker-Hill</v>
+        <v>Peter Adamidis, Felicity Parker-Hill</v>
       </c>
       <c r="K4" t="str">
         <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
       </c>
       <c r="L4" t="str">
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="M4" t="str">
-        <v>Broken Leg</v>
+        <v>N/A</v>
       </c>
     </row>
   </sheetData>
@@ -852,7 +853,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -903,39 +904,16 @@
         <v>45994.1424034375</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>df836401-667b-4ac1-a68f-afe59d04a8b5</v>
-      </c>
-      <c r="B3" t="str">
-        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
-      </c>
-      <c r="C3" t="str">
-        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3" t="str">
-        <v>B5</v>
-      </c>
-      <c r="F3" s="1">
-        <v>45994.26563376158</v>
-      </c>
-      <c r="G3" s="1">
-        <v>45994.266912141204</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H2"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -959,21 +937,35 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>69511596-e3b5-41be-a93b-920748af4fe0</v>
+        <v>4e437be8-c154-44a8-b28d-d663c725a9a7</v>
       </c>
       <c r="B2" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C2" t="str">
-        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
+        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
       </c>
       <c r="D2" t="str">
         <v>pending</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>69511596-e3b5-41be-a93b-920748af4fe0</v>
+      </c>
+      <c r="B3" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C3" t="str">
+        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
+      </c>
+      <c r="D3" t="str">
+        <v>pending</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E3"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1398,4 +1390,52 @@
     <ignoredError numberStoredAsText="1" sqref="A1:D27"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>ID</v>
+      </c>
+      <c r="B1" t="str">
+        <v>RecordDayID</v>
+      </c>
+      <c r="C1" t="str">
+        <v>ContestantID</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Reason</v>
+      </c>
+      <c r="E1" t="str">
+        <v>CanceledAt</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>53071bc2-2450-41b6-ae7a-68a1ab35e988</v>
+      </c>
+      <c r="B2" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C2" t="str">
+        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Standby - eligible for reschedule</v>
+      </c>
+      <c r="E2" s="1">
+        <v>45998.113707662036</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/storage/backups/automatic-backup.xlsx
+++ b/storage/backups/automatic-backup.xlsx
@@ -5,11 +5,10 @@
   <sheets>
     <sheet name="Record Days" sheetId="1" r:id="rId1"/>
     <sheet name="Contestants" sheetId="2" r:id="rId2"/>
-    <sheet name="Seat Assignments" sheetId="3" r:id="rId3"/>
-    <sheet name="Standbys" sheetId="4" r:id="rId4"/>
-    <sheet name="Groups" sheetId="5" r:id="rId5"/>
-    <sheet name="Block Types" sheetId="6" r:id="rId6"/>
-    <sheet name="Canceled Assignments" sheetId="7" r:id="rId7"/>
+    <sheet name="Standbys" sheetId="3" r:id="rId3"/>
+    <sheet name="Groups" sheetId="4" r:id="rId4"/>
+    <sheet name="Block Types" sheetId="5" r:id="rId5"/>
+    <sheet name="Canceled Assignments" sheetId="6" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
@@ -732,107 +731,107 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
+        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
       </c>
       <c r="B2" t="str">
-        <v>Felicity Parker-Hill</v>
+        <v>Peter Adamidis</v>
       </c>
       <c r="C2">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D2" t="str">
         <v>Not Specified</v>
       </c>
       <c r="E2" t="str">
-        <v>felicity.parkerhill@endemolshine.com.au</v>
+        <v>peter.adamidis@gmail.com</v>
       </c>
       <c r="F2" t="str">
         <v>498086080</v>
       </c>
       <c r="G2" t="str">
-        <v>Melbourne</v>
+        <v/>
       </c>
       <c r="I2" t="str">
         <v>assigned</v>
       </c>
       <c r="J2" t="str">
-        <v>Peter Adamidis, Kathleen Reynolds</v>
+        <v>Kathleen Reynolds, Felicity Parker-Hill</v>
       </c>
       <c r="K2" t="str">
         <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
       </c>
       <c r="L2" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="M2" t="str">
-        <v>N/A</v>
+        <v>Broken Leg</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
+        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
       </c>
       <c r="B3" t="str">
-        <v>Peter Adamidis</v>
+        <v>Kathleen Reynolds</v>
       </c>
       <c r="C3">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" t="str">
         <v>Not Specified</v>
       </c>
       <c r="E3" t="str">
-        <v>peter.adamidis@gmail.com</v>
+        <v>kathleenmonicareynolds@gmail.com</v>
       </c>
       <c r="F3" t="str">
         <v>498086080</v>
       </c>
       <c r="G3" t="str">
-        <v/>
+        <v>Footscray</v>
       </c>
       <c r="I3" t="str">
         <v>assigned</v>
       </c>
       <c r="J3" t="str">
-        <v>Kathleen Reynolds, Felicity Parker-Hill</v>
+        <v>Peter Adamidis, Felicity Parker-Hill</v>
       </c>
       <c r="K3" t="str">
         <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
       </c>
       <c r="L3" t="str">
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="M3" t="str">
-        <v>Broken Leg</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
+        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
       </c>
       <c r="B4" t="str">
-        <v>Kathleen Reynolds</v>
+        <v>Felicity Parker-Hill</v>
       </c>
       <c r="C4">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D4" t="str">
         <v>Not Specified</v>
       </c>
       <c r="E4" t="str">
-        <v>kathleenmonicareynolds@gmail.com</v>
+        <v>felicity.parkerhill@endemolshine.com.au</v>
       </c>
       <c r="F4" t="str">
         <v>498086080</v>
       </c>
       <c r="G4" t="str">
-        <v>Footscray</v>
+        <v>Melbourne</v>
       </c>
       <c r="I4" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
       <c r="J4" t="str">
-        <v>Peter Adamidis, Felicity Parker-Hill</v>
+        <v>Peter Adamidis, Kathleen Reynolds</v>
       </c>
       <c r="K4" t="str">
         <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
@@ -853,66 +852,6 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>ID</v>
-      </c>
-      <c r="B1" t="str">
-        <v>RecordDayID</v>
-      </c>
-      <c r="C1" t="str">
-        <v>ContestantID</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Block</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Seat</v>
-      </c>
-      <c r="F1" t="str">
-        <v>BookingEmailSent</v>
-      </c>
-      <c r="G1" t="str">
-        <v>ConfirmedRSVP</v>
-      </c>
-      <c r="H1" t="str">
-        <v>Notes</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>1bd961ce-a605-4d4f-8bdd-844664d1b140</v>
-      </c>
-      <c r="B2" t="str">
-        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
-      </c>
-      <c r="C2" t="str">
-        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2" t="str">
-        <v>B4</v>
-      </c>
-      <c r="F2" s="1">
-        <v>45994.1424034375</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H2"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -970,7 +909,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1000,7 +939,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D27"/>
   <sheetViews>
@@ -1392,7 +1331,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>

--- a/storage/backups/automatic-backup.xlsx
+++ b/storage/backups/automatic-backup.xlsx
@@ -5,10 +5,11 @@
   <sheets>
     <sheet name="Record Days" sheetId="1" r:id="rId1"/>
     <sheet name="Contestants" sheetId="2" r:id="rId2"/>
-    <sheet name="Standbys" sheetId="3" r:id="rId3"/>
-    <sheet name="Groups" sheetId="4" r:id="rId4"/>
-    <sheet name="Block Types" sheetId="5" r:id="rId5"/>
-    <sheet name="Canceled Assignments" sheetId="6" r:id="rId6"/>
+    <sheet name="Seat Assignments" sheetId="3" r:id="rId3"/>
+    <sheet name="Standbys" sheetId="4" r:id="rId4"/>
+    <sheet name="Groups" sheetId="5" r:id="rId5"/>
+    <sheet name="Block Types" sheetId="6" r:id="rId6"/>
+    <sheet name="Canceled Assignments" sheetId="7" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
@@ -828,7 +829,7 @@
         <v>Melbourne</v>
       </c>
       <c r="I4" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J4" t="str">
         <v>Peter Adamidis, Kathleen Reynolds</v>
@@ -852,6 +853,63 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>ID</v>
+      </c>
+      <c r="B1" t="str">
+        <v>RecordDayID</v>
+      </c>
+      <c r="C1" t="str">
+        <v>ContestantID</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Block</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Seat</v>
+      </c>
+      <c r="F1" t="str">
+        <v>BookingEmailSent</v>
+      </c>
+      <c r="G1" t="str">
+        <v>ConfirmedRSVP</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Notes</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>15977bf4-12f1-4e38-bb08-bbd14d25e263</v>
+      </c>
+      <c r="B2" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C2" t="str">
+        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="str">
+        <v>B1</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:H2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -909,7 +967,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -939,7 +997,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D27"/>
   <sheetViews>
@@ -1331,7 +1389,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>

--- a/storage/backups/automatic-backup.xlsx
+++ b/storage/backups/automatic-backup.xlsx
@@ -828,6 +828,9 @@
       <c r="G4" t="str">
         <v>Melbourne</v>
       </c>
+      <c r="H4" t="str">
+        <v/>
+      </c>
       <c r="I4" t="str">
         <v>assigned</v>
       </c>

--- a/storage/backups/automatic-backup.xlsx
+++ b/storage/backups/automatic-backup.xlsx
@@ -732,110 +732,110 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
+        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
       </c>
       <c r="B2" t="str">
-        <v>Peter Adamidis</v>
+        <v>Felicity Parker-Hill</v>
       </c>
       <c r="C2">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D2" t="str">
         <v>Not Specified</v>
       </c>
       <c r="E2" t="str">
-        <v>peter.adamidis@gmail.com</v>
+        <v>felicity.parkerhill@endemolshine.com.au</v>
       </c>
       <c r="F2" t="str">
         <v>498086080</v>
       </c>
       <c r="G2" t="str">
+        <v>Melbourne</v>
+      </c>
+      <c r="H2" t="str">
         <v/>
       </c>
       <c r="I2" t="str">
         <v>assigned</v>
       </c>
       <c r="J2" t="str">
-        <v>Kathleen Reynolds, Felicity Parker-Hill</v>
+        <v>Peter Adamidis, Kathleen Reynolds</v>
       </c>
       <c r="K2" t="str">
         <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
       </c>
       <c r="L2" t="str">
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="M2" t="str">
-        <v>Broken Leg</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
+        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
       </c>
       <c r="B3" t="str">
-        <v>Kathleen Reynolds</v>
+        <v>Peter Adamidis</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" t="str">
         <v>Not Specified</v>
       </c>
       <c r="E3" t="str">
-        <v>kathleenmonicareynolds@gmail.com</v>
+        <v>peter.adamidis@gmail.com</v>
       </c>
       <c r="F3" t="str">
         <v>498086080</v>
       </c>
       <c r="G3" t="str">
-        <v>Footscray</v>
+        <v/>
       </c>
       <c r="I3" t="str">
         <v>assigned</v>
       </c>
       <c r="J3" t="str">
-        <v>Peter Adamidis, Felicity Parker-Hill</v>
+        <v>Kathleen Reynolds, Felicity Parker-Hill</v>
       </c>
       <c r="K3" t="str">
         <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
       </c>
       <c r="L3" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="M3" t="str">
-        <v>N/A</v>
+        <v>Broken Leg</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
+        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
       </c>
       <c r="B4" t="str">
-        <v>Felicity Parker-Hill</v>
+        <v>Kathleen Reynolds</v>
       </c>
       <c r="C4">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D4" t="str">
         <v>Not Specified</v>
       </c>
       <c r="E4" t="str">
-        <v>felicity.parkerhill@endemolshine.com.au</v>
+        <v>kathleenmonicareynolds@gmail.com</v>
       </c>
       <c r="F4" t="str">
         <v>498086080</v>
       </c>
       <c r="G4" t="str">
-        <v>Melbourne</v>
-      </c>
-      <c r="H4" t="str">
-        <v/>
+        <v>Footscray</v>
       </c>
       <c r="I4" t="str">
         <v>assigned</v>
       </c>
       <c r="J4" t="str">
-        <v>Peter Adamidis, Kathleen Reynolds</v>
+        <v>Peter Adamidis, Felicity Parker-Hill</v>
       </c>
       <c r="K4" t="str">
         <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
@@ -889,7 +889,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>15977bf4-12f1-4e38-bb08-bbd14d25e263</v>
+        <v>c1c5b1c6-2598-472f-b2bc-c2b063643aa5</v>
       </c>
       <c r="B2" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
@@ -901,7 +901,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="str">
-        <v>B1</v>
+        <v>A1</v>
       </c>
     </row>
   </sheetData>

--- a/storage/backups/automatic-backup.xlsx
+++ b/storage/backups/automatic-backup.xlsx
@@ -972,7 +972,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -993,9 +993,41 @@
         <v>GRP001</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>8a692ea1-5300-494c-8074-19f479c5284d</v>
+      </c>
+      <c r="B3" t="str">
+        <v>GRP002</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>6f3cbd80-aae5-463e-836b-f1ecf0c504a2</v>
+      </c>
+      <c r="B4" t="str">
+        <v>GRP003</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>3e3161fd-95f1-4ce9-9810-0ab1d377e2b2</v>
+      </c>
+      <c r="B5" t="str">
+        <v>GRP004</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>5b77330c-45dc-4177-b704-50e8d2e75d75</v>
+      </c>
+      <c r="B6" t="str">
+        <v>GRP005</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B6"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/storage/backups/automatic-backup.xlsx
+++ b/storage/backups/automatic-backup.xlsx
@@ -732,110 +732,110 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
+        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
       </c>
       <c r="B2" t="str">
-        <v>Felicity Parker-Hill</v>
+        <v>Peter Adamidis</v>
       </c>
       <c r="C2">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D2" t="str">
         <v>Not Specified</v>
       </c>
       <c r="E2" t="str">
-        <v>felicity.parkerhill@endemolshine.com.au</v>
+        <v>peter.adamidis@gmail.com</v>
       </c>
       <c r="F2" t="str">
         <v>498086080</v>
       </c>
       <c r="G2" t="str">
-        <v>Melbourne</v>
-      </c>
-      <c r="H2" t="str">
         <v/>
       </c>
       <c r="I2" t="str">
         <v>assigned</v>
       </c>
       <c r="J2" t="str">
-        <v>Peter Adamidis, Kathleen Reynolds</v>
+        <v>Kathleen Reynolds, Felicity Parker-Hill</v>
       </c>
       <c r="K2" t="str">
         <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
       </c>
       <c r="L2" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="M2" t="str">
-        <v>N/A</v>
+        <v>Broken Leg</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
+        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
       </c>
       <c r="B3" t="str">
-        <v>Peter Adamidis</v>
+        <v>Kathleen Reynolds</v>
       </c>
       <c r="C3">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" t="str">
         <v>Not Specified</v>
       </c>
       <c r="E3" t="str">
-        <v>peter.adamidis@gmail.com</v>
+        <v>kathleenmonicareynolds@gmail.com</v>
       </c>
       <c r="F3" t="str">
         <v>498086080</v>
       </c>
       <c r="G3" t="str">
-        <v/>
+        <v>Footscray</v>
       </c>
       <c r="I3" t="str">
         <v>assigned</v>
       </c>
       <c r="J3" t="str">
-        <v>Kathleen Reynolds, Felicity Parker-Hill</v>
+        <v>Peter Adamidis, Felicity Parker-Hill</v>
       </c>
       <c r="K3" t="str">
         <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
       </c>
       <c r="L3" t="str">
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="M3" t="str">
-        <v>Broken Leg</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
+        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
       </c>
       <c r="B4" t="str">
-        <v>Kathleen Reynolds</v>
+        <v>Felicity Parker-Hill</v>
       </c>
       <c r="C4">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D4" t="str">
         <v>Not Specified</v>
       </c>
       <c r="E4" t="str">
-        <v>kathleenmonicareynolds@gmail.com</v>
+        <v>felicity.parkerhill@endemolshine.com.au</v>
       </c>
       <c r="F4" t="str">
         <v>498086080</v>
       </c>
       <c r="G4" t="str">
-        <v>Footscray</v>
+        <v>Melbourne</v>
+      </c>
+      <c r="H4" t="str">
+        <v/>
       </c>
       <c r="I4" t="str">
         <v>assigned</v>
       </c>
       <c r="J4" t="str">
-        <v>Peter Adamidis, Felicity Parker-Hill</v>
+        <v>Peter Adamidis, Kathleen Reynolds</v>
       </c>
       <c r="K4" t="str">
         <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
@@ -856,7 +856,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -889,7 +889,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>c1c5b1c6-2598-472f-b2bc-c2b063643aa5</v>
+        <v>91e25164-6f67-42f7-b978-9132a406c060</v>
       </c>
       <c r="B2" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
@@ -901,19 +901,36 @@
         <v>1</v>
       </c>
       <c r="E2" t="str">
-        <v>A1</v>
+        <v>B2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>ff87f03b-8891-4bb6-ac5c-a510d216fdd6</v>
+      </c>
+      <c r="B3" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C3" t="str">
+        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="str">
+        <v>B1</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H3"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -937,35 +954,21 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>4e437be8-c154-44a8-b28d-d663c725a9a7</v>
+        <v>69511596-e3b5-41be-a93b-920748af4fe0</v>
       </c>
       <c r="B2" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C2" t="str">
-        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
+        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
       </c>
       <c r="D2" t="str">
         <v>pending</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>69511596-e3b5-41be-a93b-920748af4fe0</v>
-      </c>
-      <c r="B3" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C3" t="str">
-        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
-      </c>
-      <c r="D3" t="str">
-        <v>pending</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/storage/backups/automatic-backup.xlsx
+++ b/storage/backups/automatic-backup.xlsx
@@ -901,7 +901,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="str">
-        <v>B2</v>
+        <v>C2</v>
       </c>
     </row>
     <row r="3">

--- a/storage/backups/automatic-backup.xlsx
+++ b/storage/backups/automatic-backup.xlsx
@@ -889,36 +889,36 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>91e25164-6f67-42f7-b978-9132a406c060</v>
+        <v>ff87f03b-8891-4bb6-ac5c-a510d216fdd6</v>
       </c>
       <c r="B2" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C2" t="str">
-        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
+        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="str">
-        <v>C2</v>
+        <v>B1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>ff87f03b-8891-4bb6-ac5c-a510d216fdd6</v>
+        <v>91e25164-6f67-42f7-b978-9132a406c060</v>
       </c>
       <c r="B3" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C3" t="str">
-        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
+        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="str">
-        <v>B1</v>
+        <v>B2</v>
       </c>
     </row>
   </sheetData>

--- a/storage/backups/automatic-backup.xlsx
+++ b/storage/backups/automatic-backup.xlsx
@@ -889,13 +889,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>ff87f03b-8891-4bb6-ac5c-a510d216fdd6</v>
+        <v>91e25164-6f67-42f7-b978-9132a406c060</v>
       </c>
       <c r="B2" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C2" t="str">
-        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
+        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -906,13 +906,13 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>91e25164-6f67-42f7-b978-9132a406c060</v>
+        <v>ff87f03b-8891-4bb6-ac5c-a510d216fdd6</v>
       </c>
       <c r="B3" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C3" t="str">
-        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
+        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
       </c>
       <c r="D3">
         <v>1</v>

--- a/storage/backups/automatic-backup.xlsx
+++ b/storage/backups/automatic-backup.xlsx
@@ -770,31 +770,34 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
+        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
       </c>
       <c r="B3" t="str">
-        <v>Kathleen Reynolds</v>
+        <v>Felicity Parker-Hill</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D3" t="str">
         <v>Not Specified</v>
       </c>
       <c r="E3" t="str">
-        <v>kathleenmonicareynolds@gmail.com</v>
+        <v>felicity.parkerhill@endemolshine.com.au</v>
       </c>
       <c r="F3" t="str">
         <v>498086080</v>
       </c>
       <c r="G3" t="str">
-        <v>Footscray</v>
+        <v>Melbourne</v>
+      </c>
+      <c r="H3" t="str">
+        <v/>
       </c>
       <c r="I3" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
       <c r="J3" t="str">
-        <v>Peter Adamidis, Felicity Parker-Hill</v>
+        <v>Peter Adamidis, Kathleen Reynolds</v>
       </c>
       <c r="K3" t="str">
         <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
@@ -808,34 +811,31 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
+        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
       </c>
       <c r="B4" t="str">
-        <v>Felicity Parker-Hill</v>
+        <v>Kathleen Reynolds</v>
       </c>
       <c r="C4">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D4" t="str">
         <v>Not Specified</v>
       </c>
       <c r="E4" t="str">
-        <v>felicity.parkerhill@endemolshine.com.au</v>
+        <v>kathleenmonicareynolds@gmail.com</v>
       </c>
       <c r="F4" t="str">
         <v>498086080</v>
       </c>
       <c r="G4" t="str">
-        <v>Melbourne</v>
-      </c>
-      <c r="H4" t="str">
-        <v/>
+        <v>Footscray</v>
       </c>
       <c r="I4" t="str">
         <v>assigned</v>
       </c>
       <c r="J4" t="str">
-        <v>Peter Adamidis, Kathleen Reynolds</v>
+        <v>Peter Adamidis, Felicity Parker-Hill</v>
       </c>
       <c r="K4" t="str">
         <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
@@ -856,7 +856,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -889,41 +889,24 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>91e25164-6f67-42f7-b978-9132a406c060</v>
+        <v>6da0092e-89ab-452b-80c7-216b45398ce1</v>
       </c>
       <c r="B2" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C2" t="str">
-        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
+        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="str">
-        <v>B1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>ff87f03b-8891-4bb6-ac5c-a510d216fdd6</v>
-      </c>
-      <c r="B3" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C3" t="str">
-        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="str">
-        <v>B2</v>
+        <v>B5</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H2"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/storage/backups/automatic-backup.xlsx
+++ b/storage/backups/automatic-backup.xlsx
@@ -5,11 +5,10 @@
   <sheets>
     <sheet name="Record Days" sheetId="1" r:id="rId1"/>
     <sheet name="Contestants" sheetId="2" r:id="rId2"/>
-    <sheet name="Seat Assignments" sheetId="3" r:id="rId3"/>
-    <sheet name="Standbys" sheetId="4" r:id="rId4"/>
-    <sheet name="Groups" sheetId="5" r:id="rId5"/>
-    <sheet name="Block Types" sheetId="6" r:id="rId6"/>
-    <sheet name="Canceled Assignments" sheetId="7" r:id="rId7"/>
+    <sheet name="Standbys" sheetId="3" r:id="rId3"/>
+    <sheet name="Groups" sheetId="4" r:id="rId4"/>
+    <sheet name="Block Types" sheetId="5" r:id="rId5"/>
+    <sheet name="Canceled Assignments" sheetId="6" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
@@ -770,34 +769,31 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
+        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
       </c>
       <c r="B3" t="str">
-        <v>Felicity Parker-Hill</v>
+        <v>Kathleen Reynolds</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D3" t="str">
         <v>Not Specified</v>
       </c>
       <c r="E3" t="str">
-        <v>felicity.parkerhill@endemolshine.com.au</v>
+        <v>kathleenmonicareynolds@gmail.com</v>
       </c>
       <c r="F3" t="str">
         <v>498086080</v>
       </c>
       <c r="G3" t="str">
-        <v>Melbourne</v>
-      </c>
-      <c r="H3" t="str">
-        <v/>
+        <v>Footscray</v>
       </c>
       <c r="I3" t="str">
         <v>available</v>
       </c>
       <c r="J3" t="str">
-        <v>Peter Adamidis, Kathleen Reynolds</v>
+        <v>Peter Adamidis, Felicity Parker-Hill</v>
       </c>
       <c r="K3" t="str">
         <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
@@ -811,31 +807,34 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
+        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
       </c>
       <c r="B4" t="str">
-        <v>Kathleen Reynolds</v>
+        <v>Felicity Parker-Hill</v>
       </c>
       <c r="C4">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D4" t="str">
         <v>Not Specified</v>
       </c>
       <c r="E4" t="str">
-        <v>kathleenmonicareynolds@gmail.com</v>
+        <v>felicity.parkerhill@endemolshine.com.au</v>
       </c>
       <c r="F4" t="str">
         <v>498086080</v>
       </c>
       <c r="G4" t="str">
-        <v>Footscray</v>
+        <v>Melbourne</v>
+      </c>
+      <c r="H4" t="str">
+        <v/>
       </c>
       <c r="I4" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
       <c r="J4" t="str">
-        <v>Peter Adamidis, Felicity Parker-Hill</v>
+        <v>Peter Adamidis, Kathleen Reynolds</v>
       </c>
       <c r="K4" t="str">
         <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
@@ -856,7 +855,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -872,46 +871,488 @@
         <v>ContestantID</v>
       </c>
       <c r="D1" t="str">
-        <v>Block</v>
+        <v>Status</v>
       </c>
       <c r="E1" t="str">
-        <v>Seat</v>
-      </c>
-      <c r="F1" t="str">
-        <v>BookingEmailSent</v>
-      </c>
-      <c r="G1" t="str">
-        <v>ConfirmedRSVP</v>
-      </c>
-      <c r="H1" t="str">
         <v>Notes</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>6da0092e-89ab-452b-80c7-216b45398ce1</v>
+        <v>69511596-e3b5-41be-a93b-920748af4fe0</v>
       </c>
       <c r="B2" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C2" t="str">
-        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2" t="str">
-        <v>B5</v>
+        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
+      </c>
+      <c r="D2" t="str">
+        <v>pending</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>ID</v>
+      </c>
+      <c r="B1" t="str">
+        <v>ReferenceNumber</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
+      </c>
+      <c r="B2" t="str">
+        <v>GRP001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>8a692ea1-5300-494c-8074-19f479c5284d</v>
+      </c>
+      <c r="B3" t="str">
+        <v>GRP002</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>6f3cbd80-aae5-463e-836b-f1ecf0c504a2</v>
+      </c>
+      <c r="B4" t="str">
+        <v>GRP003</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>3e3161fd-95f1-4ce9-9810-0ab1d377e2b2</v>
+      </c>
+      <c r="B5" t="str">
+        <v>GRP004</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>5b77330c-45dc-4177-b704-50e8d2e75d75</v>
+      </c>
+      <c r="B6" t="str">
+        <v>GRP005</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:B6"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>ID</v>
+      </c>
+      <c r="B1" t="str">
+        <v>RecordDayID</v>
+      </c>
+      <c r="C1" t="str">
+        <v>BlockNumber</v>
+      </c>
+      <c r="D1" t="str">
+        <v>BlockType</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>4d9813bd-7b99-4771-8da1-ad6fa01c1c6a</v>
+      </c>
+      <c r="B2" t="str">
+        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="str">
+        <v>PB</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>0aa42536-5b93-4be9-b0f5-95b1834f5cbf</v>
+      </c>
+      <c r="B3" t="str">
+        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="str">
+        <v>NPB</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>ecc52a7a-af9e-483f-acfd-a9f947700b0c</v>
+      </c>
+      <c r="B4" t="str">
+        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="str">
+        <v>PB</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>d549fe45-cf7d-48a4-80c8-ad5d61aff471</v>
+      </c>
+      <c r="B5" t="str">
+        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5" t="str">
+        <v>PB</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>9a62a9c4-3466-4b55-b61e-18cd2c67c4c1</v>
+      </c>
+      <c r="B6" t="str">
+        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="str">
+        <v>NPB</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>5b28e1f6-5c8a-4113-8834-9e8ab82228d6</v>
+      </c>
+      <c r="B7" t="str">
+        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="str">
+        <v>PB</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>1d8f41b4-ac68-4c0d-89d5-3b22e715bc79</v>
+      </c>
+      <c r="B8" t="str">
+        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="str">
+        <v>PB</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>ef4554b1-e13a-4273-b9e6-c22d7e345256</v>
+      </c>
+      <c r="B9" t="str">
+        <v>4ca4a7ea-c1ac-44e5-9533-fdd34522899d</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="str">
+        <v>PB</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>a679d473-0969-4bba-8648-2709c720fd24</v>
+      </c>
+      <c r="B10" t="str">
+        <v>4ca4a7ea-c1ac-44e5-9533-fdd34522899d</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="str">
+        <v>NPB</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>4ef50f67-0475-4c43-9591-c16952e5bb9d</v>
+      </c>
+      <c r="B11" t="str">
+        <v>4ca4a7ea-c1ac-44e5-9533-fdd34522899d</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="str">
+        <v>PB</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>10be29ee-cd87-4370-993f-5ec424bdf89a</v>
+      </c>
+      <c r="B12" t="str">
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12" t="str">
+        <v>PB</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>5a87fc3a-f172-456c-8817-1d2e9f749c41</v>
+      </c>
+      <c r="B13" t="str">
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13" t="str">
+        <v>PB</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>ae5c8cf8-cd08-4a5b-9aa5-fdcd1f521fec</v>
+      </c>
+      <c r="B14" t="str">
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14" t="str">
+        <v>NPB</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>932323f8-f98a-4463-9650-1af4327df3a0</v>
+      </c>
+      <c r="B15" t="str">
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15" t="str">
+        <v>PB</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>53eb80a7-59e5-4b78-b5f0-a3b366587096</v>
+      </c>
+      <c r="B16" t="str">
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" t="str">
+        <v>PB</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>690c620f-62d8-4293-b265-ce93eda1b896</v>
+      </c>
+      <c r="B17" t="str">
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="str">
+        <v>PB</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>306f44e0-79d0-424a-9eb7-126bbf71f301</v>
+      </c>
+      <c r="B18" t="str">
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="str">
+        <v>NPB</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>badc1981-587e-4ebe-a4ca-d09f25a98a6b</v>
+      </c>
+      <c r="B19" t="str">
+        <v>eec54567-3e21-424c-8d62-28772c0a6c25</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="str">
+        <v>PB</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>321d3111-fcc3-4246-8800-231133dd823d</v>
+      </c>
+      <c r="B20" t="str">
+        <v>eec54567-3e21-424c-8d62-28772c0a6c25</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" t="str">
+        <v>PB</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>b248391e-18a0-4a53-bb54-8a0953ee2107</v>
+      </c>
+      <c r="B21" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" t="str">
+        <v>PB</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>60ae8d96-a0a8-4bf5-ab37-7d9bbc68104a</v>
+      </c>
+      <c r="B22" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22" t="str">
+        <v>PB</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>19e49e78-cb04-48f1-b38c-1b5ae955926c</v>
+      </c>
+      <c r="B23" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23" t="str">
+        <v>NPB</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>ff774508-8faa-437d-b90c-98020b4fce99</v>
+      </c>
+      <c r="B24" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24" t="str">
+        <v>PB</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>a2d47c69-208d-44d2-9033-3b6ab96616bd</v>
+      </c>
+      <c r="B25" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="str">
+        <v>PB</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>d1e4b23c-d687-4444-8a8d-c54032f59162</v>
+      </c>
+      <c r="B26" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26" t="str">
+        <v>NPB</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>51e9e36b-3d3e-42bb-87d4-4f6a5085828d</v>
+      </c>
+      <c r="B27" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="D27" t="str">
+        <v>PB</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:D27"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -929,505 +1370,6 @@
         <v>ContestantID</v>
       </c>
       <c r="D1" t="str">
-        <v>Status</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Notes</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>69511596-e3b5-41be-a93b-920748af4fe0</v>
-      </c>
-      <c r="B2" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C2" t="str">
-        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
-      </c>
-      <c r="D2" t="str">
-        <v>pending</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>ID</v>
-      </c>
-      <c r="B1" t="str">
-        <v>ReferenceNumber</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
-      </c>
-      <c r="B2" t="str">
-        <v>GRP001</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>8a692ea1-5300-494c-8074-19f479c5284d</v>
-      </c>
-      <c r="B3" t="str">
-        <v>GRP002</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>6f3cbd80-aae5-463e-836b-f1ecf0c504a2</v>
-      </c>
-      <c r="B4" t="str">
-        <v>GRP003</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>3e3161fd-95f1-4ce9-9810-0ab1d377e2b2</v>
-      </c>
-      <c r="B5" t="str">
-        <v>GRP004</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>5b77330c-45dc-4177-b704-50e8d2e75d75</v>
-      </c>
-      <c r="B6" t="str">
-        <v>GRP005</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B6"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>ID</v>
-      </c>
-      <c r="B1" t="str">
-        <v>RecordDayID</v>
-      </c>
-      <c r="C1" t="str">
-        <v>BlockNumber</v>
-      </c>
-      <c r="D1" t="str">
-        <v>BlockType</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>4d9813bd-7b99-4771-8da1-ad6fa01c1c6a</v>
-      </c>
-      <c r="B2" t="str">
-        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="str">
-        <v>PB</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>0aa42536-5b93-4be9-b0f5-95b1834f5cbf</v>
-      </c>
-      <c r="B3" t="str">
-        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="str">
-        <v>NPB</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>ecc52a7a-af9e-483f-acfd-a9f947700b0c</v>
-      </c>
-      <c r="B4" t="str">
-        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="str">
-        <v>PB</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>d549fe45-cf7d-48a4-80c8-ad5d61aff471</v>
-      </c>
-      <c r="B5" t="str">
-        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-      <c r="D5" t="str">
-        <v>PB</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>9a62a9c4-3466-4b55-b61e-18cd2c67c4c1</v>
-      </c>
-      <c r="B6" t="str">
-        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6" t="str">
-        <v>NPB</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>5b28e1f6-5c8a-4113-8834-9e8ab82228d6</v>
-      </c>
-      <c r="B7" t="str">
-        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7" t="str">
-        <v>PB</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>1d8f41b4-ac68-4c0d-89d5-3b22e715bc79</v>
-      </c>
-      <c r="B8" t="str">
-        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8" t="str">
-        <v>PB</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>ef4554b1-e13a-4273-b9e6-c22d7e345256</v>
-      </c>
-      <c r="B9" t="str">
-        <v>4ca4a7ea-c1ac-44e5-9533-fdd34522899d</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="str">
-        <v>PB</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>a679d473-0969-4bba-8648-2709c720fd24</v>
-      </c>
-      <c r="B10" t="str">
-        <v>4ca4a7ea-c1ac-44e5-9533-fdd34522899d</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" t="str">
-        <v>NPB</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>4ef50f67-0475-4c43-9591-c16952e5bb9d</v>
-      </c>
-      <c r="B11" t="str">
-        <v>4ca4a7ea-c1ac-44e5-9533-fdd34522899d</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11" t="str">
-        <v>PB</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>10be29ee-cd87-4370-993f-5ec424bdf89a</v>
-      </c>
-      <c r="B12" t="str">
-        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
-      </c>
-      <c r="C12">
-        <v>7</v>
-      </c>
-      <c r="D12" t="str">
-        <v>PB</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>5a87fc3a-f172-456c-8817-1d2e9f749c41</v>
-      </c>
-      <c r="B13" t="str">
-        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="D13" t="str">
-        <v>PB</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>ae5c8cf8-cd08-4a5b-9aa5-fdcd1f521fec</v>
-      </c>
-      <c r="B14" t="str">
-        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
-      </c>
-      <c r="C14">
-        <v>6</v>
-      </c>
-      <c r="D14" t="str">
-        <v>NPB</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>932323f8-f98a-4463-9650-1af4327df3a0</v>
-      </c>
-      <c r="B15" t="str">
-        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-      <c r="D15" t="str">
-        <v>PB</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>53eb80a7-59e5-4b78-b5f0-a3b366587096</v>
-      </c>
-      <c r="B16" t="str">
-        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="D16" t="str">
-        <v>PB</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>690c620f-62d8-4293-b265-ce93eda1b896</v>
-      </c>
-      <c r="B17" t="str">
-        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17" t="str">
-        <v>PB</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>306f44e0-79d0-424a-9eb7-126bbf71f301</v>
-      </c>
-      <c r="B18" t="str">
-        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="str">
-        <v>NPB</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>badc1981-587e-4ebe-a4ca-d09f25a98a6b</v>
-      </c>
-      <c r="B19" t="str">
-        <v>eec54567-3e21-424c-8d62-28772c0a6c25</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="str">
-        <v>PB</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>321d3111-fcc3-4246-8800-231133dd823d</v>
-      </c>
-      <c r="B20" t="str">
-        <v>eec54567-3e21-424c-8d62-28772c0a6c25</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20" t="str">
-        <v>PB</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>b248391e-18a0-4a53-bb54-8a0953ee2107</v>
-      </c>
-      <c r="B21" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21" t="str">
-        <v>PB</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>60ae8d96-a0a8-4bf5-ab37-7d9bbc68104a</v>
-      </c>
-      <c r="B22" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C22">
-        <v>3</v>
-      </c>
-      <c r="D22" t="str">
-        <v>PB</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>19e49e78-cb04-48f1-b38c-1b5ae955926c</v>
-      </c>
-      <c r="B23" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C23">
-        <v>5</v>
-      </c>
-      <c r="D23" t="str">
-        <v>NPB</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>ff774508-8faa-437d-b90c-98020b4fce99</v>
-      </c>
-      <c r="B24" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C24">
-        <v>4</v>
-      </c>
-      <c r="D24" t="str">
-        <v>PB</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>a2d47c69-208d-44d2-9033-3b6ab96616bd</v>
-      </c>
-      <c r="B25" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="str">
-        <v>PB</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>d1e4b23c-d687-4444-8a8d-c54032f59162</v>
-      </c>
-      <c r="B26" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C26">
-        <v>6</v>
-      </c>
-      <c r="D26" t="str">
-        <v>NPB</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>51e9e36b-3d3e-42bb-87d4-4f6a5085828d</v>
-      </c>
-      <c r="B27" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C27">
-        <v>7</v>
-      </c>
-      <c r="D27" t="str">
-        <v>PB</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D27"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>ID</v>
-      </c>
-      <c r="B1" t="str">
-        <v>RecordDayID</v>
-      </c>
-      <c r="C1" t="str">
-        <v>ContestantID</v>
-      </c>
-      <c r="D1" t="str">
         <v>Reason</v>
       </c>
       <c r="E1" t="str">

--- a/storage/backups/automatic-backup.xlsx
+++ b/storage/backups/automatic-backup.xlsx
@@ -5,10 +5,11 @@
   <sheets>
     <sheet name="Record Days" sheetId="1" r:id="rId1"/>
     <sheet name="Contestants" sheetId="2" r:id="rId2"/>
-    <sheet name="Standbys" sheetId="3" r:id="rId3"/>
-    <sheet name="Groups" sheetId="4" r:id="rId4"/>
-    <sheet name="Block Types" sheetId="5" r:id="rId5"/>
-    <sheet name="Canceled Assignments" sheetId="6" r:id="rId6"/>
+    <sheet name="Seat Assignments" sheetId="3" r:id="rId3"/>
+    <sheet name="Standbys" sheetId="4" r:id="rId4"/>
+    <sheet name="Groups" sheetId="5" r:id="rId5"/>
+    <sheet name="Block Types" sheetId="6" r:id="rId6"/>
+    <sheet name="Canceled Assignments" sheetId="7" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
@@ -731,40 +732,43 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
+        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
       </c>
       <c r="B2" t="str">
-        <v>Peter Adamidis</v>
+        <v>Felicity Parker-Hill</v>
       </c>
       <c r="C2">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D2" t="str">
         <v>Not Specified</v>
       </c>
       <c r="E2" t="str">
-        <v>peter.adamidis@gmail.com</v>
+        <v>felicity.parkerhill@endemolshine.com.au</v>
       </c>
       <c r="F2" t="str">
         <v>498086080</v>
       </c>
       <c r="G2" t="str">
+        <v>Melbourne</v>
+      </c>
+      <c r="H2" t="str">
         <v/>
       </c>
       <c r="I2" t="str">
         <v>assigned</v>
       </c>
       <c r="J2" t="str">
-        <v>Kathleen Reynolds, Felicity Parker-Hill</v>
+        <v>Peter Adamidis, Kathleen Reynolds</v>
       </c>
       <c r="K2" t="str">
         <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
       </c>
       <c r="L2" t="str">
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="M2" t="str">
-        <v>Broken Leg</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="3">
@@ -807,43 +811,43 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
+        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
       </c>
       <c r="B4" t="str">
-        <v>Felicity Parker-Hill</v>
+        <v>Peter Adamidis</v>
       </c>
       <c r="C4">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D4" t="str">
         <v>Not Specified</v>
       </c>
       <c r="E4" t="str">
-        <v>felicity.parkerhill@endemolshine.com.au</v>
+        <v>peter.adamidis@gmail.com</v>
       </c>
       <c r="F4" t="str">
         <v>498086080</v>
       </c>
       <c r="G4" t="str">
-        <v>Melbourne</v>
+        <v/>
       </c>
       <c r="H4" t="str">
         <v/>
       </c>
       <c r="I4" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J4" t="str">
-        <v>Peter Adamidis, Kathleen Reynolds</v>
+        <v>Kathleen Reynolds, Felicity Parker-Hill</v>
       </c>
       <c r="K4" t="str">
         <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
       </c>
       <c r="L4" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="M4" t="str">
-        <v>N/A</v>
+        <v>Broken Leg</v>
       </c>
     </row>
   </sheetData>
@@ -855,6 +859,63 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>ID</v>
+      </c>
+      <c r="B1" t="str">
+        <v>RecordDayID</v>
+      </c>
+      <c r="C1" t="str">
+        <v>ContestantID</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Block</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Seat</v>
+      </c>
+      <c r="F1" t="str">
+        <v>BookingEmailSent</v>
+      </c>
+      <c r="G1" t="str">
+        <v>ConfirmedRSVP</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Notes</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>ccd6460c-a021-4806-8e21-22177e70d8ba</v>
+      </c>
+      <c r="B2" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C2" t="str">
+        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="str">
+        <v>B3</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:H2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -898,7 +959,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -960,7 +1021,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D27"/>
   <sheetViews>
@@ -1352,7 +1413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>

--- a/storage/backups/automatic-backup.xlsx
+++ b/storage/backups/automatic-backup.xlsx
@@ -5,11 +5,10 @@
   <sheets>
     <sheet name="Record Days" sheetId="1" r:id="rId1"/>
     <sheet name="Contestants" sheetId="2" r:id="rId2"/>
-    <sheet name="Seat Assignments" sheetId="3" r:id="rId3"/>
-    <sheet name="Standbys" sheetId="4" r:id="rId4"/>
-    <sheet name="Groups" sheetId="5" r:id="rId5"/>
-    <sheet name="Block Types" sheetId="6" r:id="rId6"/>
-    <sheet name="Canceled Assignments" sheetId="7" r:id="rId7"/>
+    <sheet name="Standbys" sheetId="3" r:id="rId3"/>
+    <sheet name="Groups" sheetId="4" r:id="rId4"/>
+    <sheet name="Block Types" sheetId="5" r:id="rId5"/>
+    <sheet name="Canceled Assignments" sheetId="6" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
@@ -732,43 +731,43 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
+        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
       </c>
       <c r="B2" t="str">
-        <v>Felicity Parker-Hill</v>
+        <v>Peter Adamidis</v>
       </c>
       <c r="C2">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D2" t="str">
         <v>Not Specified</v>
       </c>
       <c r="E2" t="str">
-        <v>felicity.parkerhill@endemolshine.com.au</v>
+        <v>peter.adamidis@gmail.com</v>
       </c>
       <c r="F2" t="str">
         <v>498086080</v>
       </c>
       <c r="G2" t="str">
-        <v>Melbourne</v>
+        <v/>
       </c>
       <c r="H2" t="str">
         <v/>
       </c>
       <c r="I2" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
       <c r="J2" t="str">
-        <v>Peter Adamidis, Kathleen Reynolds</v>
+        <v>Kathleen Reynolds, Felicity Parker-Hill</v>
       </c>
       <c r="K2" t="str">
         <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
       </c>
       <c r="L2" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="M2" t="str">
-        <v>N/A</v>
+        <v>Broken Leg</v>
       </c>
     </row>
     <row r="3">
@@ -811,43 +810,43 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
+        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
       </c>
       <c r="B4" t="str">
-        <v>Peter Adamidis</v>
+        <v>Felicity Parker-Hill</v>
       </c>
       <c r="C4">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D4" t="str">
         <v>Not Specified</v>
       </c>
       <c r="E4" t="str">
-        <v>peter.adamidis@gmail.com</v>
+        <v>felicity.parkerhill@endemolshine.com.au</v>
       </c>
       <c r="F4" t="str">
         <v>498086080</v>
       </c>
       <c r="G4" t="str">
-        <v/>
+        <v>Melbourne</v>
       </c>
       <c r="H4" t="str">
         <v/>
       </c>
       <c r="I4" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
       <c r="J4" t="str">
-        <v>Kathleen Reynolds, Felicity Parker-Hill</v>
+        <v>Peter Adamidis, Kathleen Reynolds</v>
       </c>
       <c r="K4" t="str">
         <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
       </c>
       <c r="L4" t="str">
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="M4" t="str">
-        <v>Broken Leg</v>
+        <v>N/A</v>
       </c>
     </row>
   </sheetData>
@@ -859,7 +858,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -875,46 +874,488 @@
         <v>ContestantID</v>
       </c>
       <c r="D1" t="str">
-        <v>Block</v>
+        <v>Status</v>
       </c>
       <c r="E1" t="str">
-        <v>Seat</v>
-      </c>
-      <c r="F1" t="str">
-        <v>BookingEmailSent</v>
-      </c>
-      <c r="G1" t="str">
-        <v>ConfirmedRSVP</v>
-      </c>
-      <c r="H1" t="str">
         <v>Notes</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>ccd6460c-a021-4806-8e21-22177e70d8ba</v>
+        <v>69511596-e3b5-41be-a93b-920748af4fe0</v>
       </c>
       <c r="B2" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C2" t="str">
-        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="str">
-        <v>B3</v>
+        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
+      </c>
+      <c r="D2" t="str">
+        <v>pending</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>ID</v>
+      </c>
+      <c r="B1" t="str">
+        <v>ReferenceNumber</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
+      </c>
+      <c r="B2" t="str">
+        <v>GRP001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>8a692ea1-5300-494c-8074-19f479c5284d</v>
+      </c>
+      <c r="B3" t="str">
+        <v>GRP002</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>6f3cbd80-aae5-463e-836b-f1ecf0c504a2</v>
+      </c>
+      <c r="B4" t="str">
+        <v>GRP003</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>3e3161fd-95f1-4ce9-9810-0ab1d377e2b2</v>
+      </c>
+      <c r="B5" t="str">
+        <v>GRP004</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>5b77330c-45dc-4177-b704-50e8d2e75d75</v>
+      </c>
+      <c r="B6" t="str">
+        <v>GRP005</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:B6"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>ID</v>
+      </c>
+      <c r="B1" t="str">
+        <v>RecordDayID</v>
+      </c>
+      <c r="C1" t="str">
+        <v>BlockNumber</v>
+      </c>
+      <c r="D1" t="str">
+        <v>BlockType</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>4d9813bd-7b99-4771-8da1-ad6fa01c1c6a</v>
+      </c>
+      <c r="B2" t="str">
+        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="str">
+        <v>PB</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>0aa42536-5b93-4be9-b0f5-95b1834f5cbf</v>
+      </c>
+      <c r="B3" t="str">
+        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="str">
+        <v>NPB</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>ecc52a7a-af9e-483f-acfd-a9f947700b0c</v>
+      </c>
+      <c r="B4" t="str">
+        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="str">
+        <v>PB</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>d549fe45-cf7d-48a4-80c8-ad5d61aff471</v>
+      </c>
+      <c r="B5" t="str">
+        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5" t="str">
+        <v>PB</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>9a62a9c4-3466-4b55-b61e-18cd2c67c4c1</v>
+      </c>
+      <c r="B6" t="str">
+        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="str">
+        <v>NPB</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>5b28e1f6-5c8a-4113-8834-9e8ab82228d6</v>
+      </c>
+      <c r="B7" t="str">
+        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="str">
+        <v>PB</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>1d8f41b4-ac68-4c0d-89d5-3b22e715bc79</v>
+      </c>
+      <c r="B8" t="str">
+        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="str">
+        <v>PB</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>ef4554b1-e13a-4273-b9e6-c22d7e345256</v>
+      </c>
+      <c r="B9" t="str">
+        <v>4ca4a7ea-c1ac-44e5-9533-fdd34522899d</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="str">
+        <v>PB</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>a679d473-0969-4bba-8648-2709c720fd24</v>
+      </c>
+      <c r="B10" t="str">
+        <v>4ca4a7ea-c1ac-44e5-9533-fdd34522899d</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="str">
+        <v>NPB</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>4ef50f67-0475-4c43-9591-c16952e5bb9d</v>
+      </c>
+      <c r="B11" t="str">
+        <v>4ca4a7ea-c1ac-44e5-9533-fdd34522899d</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="str">
+        <v>PB</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>10be29ee-cd87-4370-993f-5ec424bdf89a</v>
+      </c>
+      <c r="B12" t="str">
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12" t="str">
+        <v>PB</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>5a87fc3a-f172-456c-8817-1d2e9f749c41</v>
+      </c>
+      <c r="B13" t="str">
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13" t="str">
+        <v>PB</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>ae5c8cf8-cd08-4a5b-9aa5-fdcd1f521fec</v>
+      </c>
+      <c r="B14" t="str">
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14" t="str">
+        <v>NPB</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>932323f8-f98a-4463-9650-1af4327df3a0</v>
+      </c>
+      <c r="B15" t="str">
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15" t="str">
+        <v>PB</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>53eb80a7-59e5-4b78-b5f0-a3b366587096</v>
+      </c>
+      <c r="B16" t="str">
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" t="str">
+        <v>PB</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>690c620f-62d8-4293-b265-ce93eda1b896</v>
+      </c>
+      <c r="B17" t="str">
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="str">
+        <v>PB</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>306f44e0-79d0-424a-9eb7-126bbf71f301</v>
+      </c>
+      <c r="B18" t="str">
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="str">
+        <v>NPB</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>badc1981-587e-4ebe-a4ca-d09f25a98a6b</v>
+      </c>
+      <c r="B19" t="str">
+        <v>eec54567-3e21-424c-8d62-28772c0a6c25</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="str">
+        <v>PB</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>321d3111-fcc3-4246-8800-231133dd823d</v>
+      </c>
+      <c r="B20" t="str">
+        <v>eec54567-3e21-424c-8d62-28772c0a6c25</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" t="str">
+        <v>PB</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>b248391e-18a0-4a53-bb54-8a0953ee2107</v>
+      </c>
+      <c r="B21" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" t="str">
+        <v>PB</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>60ae8d96-a0a8-4bf5-ab37-7d9bbc68104a</v>
+      </c>
+      <c r="B22" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22" t="str">
+        <v>PB</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>19e49e78-cb04-48f1-b38c-1b5ae955926c</v>
+      </c>
+      <c r="B23" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23" t="str">
+        <v>NPB</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>ff774508-8faa-437d-b90c-98020b4fce99</v>
+      </c>
+      <c r="B24" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24" t="str">
+        <v>PB</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>a2d47c69-208d-44d2-9033-3b6ab96616bd</v>
+      </c>
+      <c r="B25" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="str">
+        <v>PB</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>d1e4b23c-d687-4444-8a8d-c54032f59162</v>
+      </c>
+      <c r="B26" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26" t="str">
+        <v>NPB</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>51e9e36b-3d3e-42bb-87d4-4f6a5085828d</v>
+      </c>
+      <c r="B27" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="D27" t="str">
+        <v>PB</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:D27"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -932,505 +1373,6 @@
         <v>ContestantID</v>
       </c>
       <c r="D1" t="str">
-        <v>Status</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Notes</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>69511596-e3b5-41be-a93b-920748af4fe0</v>
-      </c>
-      <c r="B2" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C2" t="str">
-        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
-      </c>
-      <c r="D2" t="str">
-        <v>pending</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>ID</v>
-      </c>
-      <c r="B1" t="str">
-        <v>ReferenceNumber</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
-      </c>
-      <c r="B2" t="str">
-        <v>GRP001</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>8a692ea1-5300-494c-8074-19f479c5284d</v>
-      </c>
-      <c r="B3" t="str">
-        <v>GRP002</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>6f3cbd80-aae5-463e-836b-f1ecf0c504a2</v>
-      </c>
-      <c r="B4" t="str">
-        <v>GRP003</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>3e3161fd-95f1-4ce9-9810-0ab1d377e2b2</v>
-      </c>
-      <c r="B5" t="str">
-        <v>GRP004</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>5b77330c-45dc-4177-b704-50e8d2e75d75</v>
-      </c>
-      <c r="B6" t="str">
-        <v>GRP005</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B6"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>ID</v>
-      </c>
-      <c r="B1" t="str">
-        <v>RecordDayID</v>
-      </c>
-      <c r="C1" t="str">
-        <v>BlockNumber</v>
-      </c>
-      <c r="D1" t="str">
-        <v>BlockType</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>4d9813bd-7b99-4771-8da1-ad6fa01c1c6a</v>
-      </c>
-      <c r="B2" t="str">
-        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="str">
-        <v>PB</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>0aa42536-5b93-4be9-b0f5-95b1834f5cbf</v>
-      </c>
-      <c r="B3" t="str">
-        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="str">
-        <v>NPB</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>ecc52a7a-af9e-483f-acfd-a9f947700b0c</v>
-      </c>
-      <c r="B4" t="str">
-        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="str">
-        <v>PB</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>d549fe45-cf7d-48a4-80c8-ad5d61aff471</v>
-      </c>
-      <c r="B5" t="str">
-        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-      <c r="D5" t="str">
-        <v>PB</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>9a62a9c4-3466-4b55-b61e-18cd2c67c4c1</v>
-      </c>
-      <c r="B6" t="str">
-        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6" t="str">
-        <v>NPB</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>5b28e1f6-5c8a-4113-8834-9e8ab82228d6</v>
-      </c>
-      <c r="B7" t="str">
-        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7" t="str">
-        <v>PB</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>1d8f41b4-ac68-4c0d-89d5-3b22e715bc79</v>
-      </c>
-      <c r="B8" t="str">
-        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8" t="str">
-        <v>PB</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>ef4554b1-e13a-4273-b9e6-c22d7e345256</v>
-      </c>
-      <c r="B9" t="str">
-        <v>4ca4a7ea-c1ac-44e5-9533-fdd34522899d</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="str">
-        <v>PB</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>a679d473-0969-4bba-8648-2709c720fd24</v>
-      </c>
-      <c r="B10" t="str">
-        <v>4ca4a7ea-c1ac-44e5-9533-fdd34522899d</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" t="str">
-        <v>NPB</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>4ef50f67-0475-4c43-9591-c16952e5bb9d</v>
-      </c>
-      <c r="B11" t="str">
-        <v>4ca4a7ea-c1ac-44e5-9533-fdd34522899d</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11" t="str">
-        <v>PB</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>10be29ee-cd87-4370-993f-5ec424bdf89a</v>
-      </c>
-      <c r="B12" t="str">
-        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
-      </c>
-      <c r="C12">
-        <v>7</v>
-      </c>
-      <c r="D12" t="str">
-        <v>PB</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>5a87fc3a-f172-456c-8817-1d2e9f749c41</v>
-      </c>
-      <c r="B13" t="str">
-        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="D13" t="str">
-        <v>PB</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>ae5c8cf8-cd08-4a5b-9aa5-fdcd1f521fec</v>
-      </c>
-      <c r="B14" t="str">
-        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
-      </c>
-      <c r="C14">
-        <v>6</v>
-      </c>
-      <c r="D14" t="str">
-        <v>NPB</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>932323f8-f98a-4463-9650-1af4327df3a0</v>
-      </c>
-      <c r="B15" t="str">
-        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-      <c r="D15" t="str">
-        <v>PB</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>53eb80a7-59e5-4b78-b5f0-a3b366587096</v>
-      </c>
-      <c r="B16" t="str">
-        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="D16" t="str">
-        <v>PB</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>690c620f-62d8-4293-b265-ce93eda1b896</v>
-      </c>
-      <c r="B17" t="str">
-        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17" t="str">
-        <v>PB</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>306f44e0-79d0-424a-9eb7-126bbf71f301</v>
-      </c>
-      <c r="B18" t="str">
-        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="str">
-        <v>NPB</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>badc1981-587e-4ebe-a4ca-d09f25a98a6b</v>
-      </c>
-      <c r="B19" t="str">
-        <v>eec54567-3e21-424c-8d62-28772c0a6c25</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="str">
-        <v>PB</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>321d3111-fcc3-4246-8800-231133dd823d</v>
-      </c>
-      <c r="B20" t="str">
-        <v>eec54567-3e21-424c-8d62-28772c0a6c25</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20" t="str">
-        <v>PB</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>b248391e-18a0-4a53-bb54-8a0953ee2107</v>
-      </c>
-      <c r="B21" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21" t="str">
-        <v>PB</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>60ae8d96-a0a8-4bf5-ab37-7d9bbc68104a</v>
-      </c>
-      <c r="B22" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C22">
-        <v>3</v>
-      </c>
-      <c r="D22" t="str">
-        <v>PB</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>19e49e78-cb04-48f1-b38c-1b5ae955926c</v>
-      </c>
-      <c r="B23" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C23">
-        <v>5</v>
-      </c>
-      <c r="D23" t="str">
-        <v>NPB</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>ff774508-8faa-437d-b90c-98020b4fce99</v>
-      </c>
-      <c r="B24" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C24">
-        <v>4</v>
-      </c>
-      <c r="D24" t="str">
-        <v>PB</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>a2d47c69-208d-44d2-9033-3b6ab96616bd</v>
-      </c>
-      <c r="B25" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="str">
-        <v>PB</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>d1e4b23c-d687-4444-8a8d-c54032f59162</v>
-      </c>
-      <c r="B26" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C26">
-        <v>6</v>
-      </c>
-      <c r="D26" t="str">
-        <v>NPB</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>51e9e36b-3d3e-42bb-87d4-4f6a5085828d</v>
-      </c>
-      <c r="B27" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C27">
-        <v>7</v>
-      </c>
-      <c r="D27" t="str">
-        <v>PB</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D27"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>ID</v>
-      </c>
-      <c r="B1" t="str">
-        <v>RecordDayID</v>
-      </c>
-      <c r="C1" t="str">
-        <v>ContestantID</v>
-      </c>
-      <c r="D1" t="str">
         <v>Reason</v>
       </c>
       <c r="E1" t="str">

--- a/storage/backups/automatic-backup.xlsx
+++ b/storage/backups/automatic-backup.xlsx
@@ -8,7 +8,6 @@
     <sheet name="Standbys" sheetId="3" r:id="rId3"/>
     <sheet name="Groups" sheetId="4" r:id="rId4"/>
     <sheet name="Block Types" sheetId="5" r:id="rId5"/>
-    <sheet name="Canceled Assignments" sheetId="6" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
@@ -69,9 +68,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -731,72 +729,72 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
+        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
       </c>
       <c r="B2" t="str">
-        <v>Peter Adamidis</v>
+        <v>Kathleen Reynolds</v>
       </c>
       <c r="C2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" t="str">
         <v>Not Specified</v>
       </c>
       <c r="E2" t="str">
-        <v>peter.adamidis@gmail.com</v>
+        <v>kathleenmonicareynolds@gmail.com</v>
       </c>
       <c r="F2" t="str">
         <v>498086080</v>
       </c>
       <c r="G2" t="str">
-        <v/>
-      </c>
-      <c r="H2" t="str">
-        <v/>
+        <v>Footscray</v>
       </c>
       <c r="I2" t="str">
         <v>available</v>
       </c>
       <c r="J2" t="str">
-        <v>Kathleen Reynolds, Felicity Parker-Hill</v>
+        <v>Peter Adamidis, Felicity Parker-Hill</v>
       </c>
       <c r="K2" t="str">
         <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
       </c>
       <c r="L2" t="str">
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="M2" t="str">
-        <v>Broken Leg</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
+        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
       </c>
       <c r="B3" t="str">
-        <v>Kathleen Reynolds</v>
+        <v>Felicity Parker-Hill</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D3" t="str">
         <v>Not Specified</v>
       </c>
       <c r="E3" t="str">
-        <v>kathleenmonicareynolds@gmail.com</v>
+        <v>felicity.parkerhill@endemolshine.com.au</v>
       </c>
       <c r="F3" t="str">
         <v>498086080</v>
       </c>
       <c r="G3" t="str">
-        <v>Footscray</v>
+        <v>Melbourne</v>
+      </c>
+      <c r="H3" t="str">
+        <v/>
       </c>
       <c r="I3" t="str">
         <v>available</v>
       </c>
       <c r="J3" t="str">
-        <v>Peter Adamidis, Felicity Parker-Hill</v>
+        <v>Peter Adamidis, Kathleen Reynolds</v>
       </c>
       <c r="K3" t="str">
         <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
@@ -810,25 +808,25 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
+        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
       </c>
       <c r="B4" t="str">
-        <v>Felicity Parker-Hill</v>
+        <v>Peter Adamidis</v>
       </c>
       <c r="C4">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D4" t="str">
         <v>Not Specified</v>
       </c>
       <c r="E4" t="str">
-        <v>felicity.parkerhill@endemolshine.com.au</v>
+        <v>peter.adamidis@gmail.com</v>
       </c>
       <c r="F4" t="str">
         <v>498086080</v>
       </c>
       <c r="G4" t="str">
-        <v>Melbourne</v>
+        <v/>
       </c>
       <c r="H4" t="str">
         <v/>
@@ -837,16 +835,16 @@
         <v>available</v>
       </c>
       <c r="J4" t="str">
-        <v>Peter Adamidis, Kathleen Reynolds</v>
+        <v>Kathleen Reynolds, Felicity Parker-Hill</v>
       </c>
       <c r="K4" t="str">
         <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
       </c>
       <c r="L4" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="M4" t="str">
-        <v>N/A</v>
+        <v>Broken Leg</v>
       </c>
     </row>
   </sheetData>
@@ -1353,52 +1351,4 @@
     <ignoredError numberStoredAsText="1" sqref="A1:D27"/>
   </ignoredErrors>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>ID</v>
-      </c>
-      <c r="B1" t="str">
-        <v>RecordDayID</v>
-      </c>
-      <c r="C1" t="str">
-        <v>ContestantID</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Reason</v>
-      </c>
-      <c r="E1" t="str">
-        <v>CanceledAt</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>53071bc2-2450-41b6-ae7a-68a1ab35e988</v>
-      </c>
-      <c r="B2" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C2" t="str">
-        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Standby - eligible for reschedule</v>
-      </c>
-      <c r="E2" s="1">
-        <v>45998.113707662036</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
-  </ignoredErrors>
-</worksheet>
 </file>
--- a/storage/backups/automatic-backup.xlsx
+++ b/storage/backups/automatic-backup.xlsx
@@ -5,9 +5,8 @@
   <sheets>
     <sheet name="Record Days" sheetId="1" r:id="rId1"/>
     <sheet name="Contestants" sheetId="2" r:id="rId2"/>
-    <sheet name="Standbys" sheetId="3" r:id="rId3"/>
-    <sheet name="Groups" sheetId="4" r:id="rId4"/>
-    <sheet name="Block Types" sheetId="5" r:id="rId5"/>
+    <sheet name="Groups" sheetId="3" r:id="rId3"/>
+    <sheet name="Block Types" sheetId="4" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
@@ -856,51 +855,6 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>ID</v>
-      </c>
-      <c r="B1" t="str">
-        <v>RecordDayID</v>
-      </c>
-      <c r="C1" t="str">
-        <v>ContestantID</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Status</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Notes</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>69511596-e3b5-41be-a93b-920748af4fe0</v>
-      </c>
-      <c r="B2" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C2" t="str">
-        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
-      </c>
-      <c r="D2" t="str">
-        <v>pending</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -961,7 +915,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D27"/>
   <sheetViews>

--- a/storage/backups/automatic-backup.xlsx
+++ b/storage/backups/automatic-backup.xlsx
@@ -648,27 +648,27 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>628994d9-3a33-43b2-9214-c3bd9793ccd4</v>
       </c>
       <c r="B18" t="str">
-        <v>2026-02-04</v>
-      </c>
-      <c r="C18" t="str">
-        <v>RX1 - 1-5</v>
+        <v>2026-02-18</v>
       </c>
       <c r="D18" t="str">
-        <v>ready</v>
+        <v>draft</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>628994d9-3a33-43b2-9214-c3bd9793ccd4</v>
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="B19" t="str">
-        <v>2026-02-18</v>
+        <v>2026-02-04</v>
+      </c>
+      <c r="C19" t="str">
+        <v>RX EP 1 - 5</v>
       </c>
       <c r="D19" t="str">
-        <v>draft</v>
+        <v>ready</v>
       </c>
     </row>
   </sheetData>

--- a/storage/backups/automatic-backup.xlsx
+++ b/storage/backups/automatic-backup.xlsx
@@ -5,8 +5,9 @@
   <sheets>
     <sheet name="Record Days" sheetId="1" r:id="rId1"/>
     <sheet name="Contestants" sheetId="2" r:id="rId2"/>
-    <sheet name="Groups" sheetId="3" r:id="rId3"/>
-    <sheet name="Block Types" sheetId="4" r:id="rId4"/>
+    <sheet name="Seat Assignments" sheetId="3" r:id="rId3"/>
+    <sheet name="Groups" sheetId="4" r:id="rId4"/>
+    <sheet name="Block Types" sheetId="5" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
@@ -728,31 +729,34 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
+        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
       </c>
       <c r="B2" t="str">
-        <v>Kathleen Reynolds</v>
+        <v>Felicity Parker-Hill</v>
       </c>
       <c r="C2">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D2" t="str">
         <v>Not Specified</v>
       </c>
       <c r="E2" t="str">
-        <v>kathleenmonicareynolds@gmail.com</v>
+        <v>felicity.parkerhill@endemolshine.com.au</v>
       </c>
       <c r="F2" t="str">
         <v>498086080</v>
       </c>
       <c r="G2" t="str">
-        <v>Footscray</v>
+        <v>Melbourne</v>
+      </c>
+      <c r="H2" t="str">
+        <v/>
       </c>
       <c r="I2" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J2" t="str">
-        <v>Peter Adamidis, Felicity Parker-Hill</v>
+        <v>Peter Adamidis, Kathleen Reynolds</v>
       </c>
       <c r="K2" t="str">
         <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
@@ -766,84 +770,81 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
+        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
       </c>
       <c r="B3" t="str">
-        <v>Felicity Parker-Hill</v>
+        <v>Peter Adamidis</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D3" t="str">
         <v>Not Specified</v>
       </c>
       <c r="E3" t="str">
-        <v>felicity.parkerhill@endemolshine.com.au</v>
+        <v>peter.adamidis@gmail.com</v>
       </c>
       <c r="F3" t="str">
         <v>498086080</v>
       </c>
       <c r="G3" t="str">
-        <v>Melbourne</v>
+        <v/>
       </c>
       <c r="H3" t="str">
         <v/>
       </c>
       <c r="I3" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J3" t="str">
-        <v>Peter Adamidis, Kathleen Reynolds</v>
+        <v>Kathleen Reynolds, Felicity Parker-Hill</v>
       </c>
       <c r="K3" t="str">
         <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
       </c>
       <c r="L3" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="M3" t="str">
-        <v>N/A</v>
+        <v>Broken Leg</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
+        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
       </c>
       <c r="B4" t="str">
-        <v>Peter Adamidis</v>
+        <v>Kathleen Reynolds</v>
       </c>
       <c r="C4">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" t="str">
         <v>Not Specified</v>
       </c>
       <c r="E4" t="str">
-        <v>peter.adamidis@gmail.com</v>
+        <v>kathleenmonicareynolds@gmail.com</v>
       </c>
       <c r="F4" t="str">
         <v>498086080</v>
       </c>
       <c r="G4" t="str">
-        <v/>
-      </c>
-      <c r="H4" t="str">
-        <v/>
+        <v>Footscray</v>
       </c>
       <c r="I4" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J4" t="str">
-        <v>Kathleen Reynolds, Felicity Parker-Hill</v>
+        <v>Peter Adamidis, Felicity Parker-Hill</v>
       </c>
       <c r="K4" t="str">
         <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
       </c>
       <c r="L4" t="str">
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="M4" t="str">
-        <v>Broken Leg</v>
+        <v>N/A</v>
       </c>
     </row>
   </sheetData>
@@ -855,6 +856,97 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>ID</v>
+      </c>
+      <c r="B1" t="str">
+        <v>RecordDayID</v>
+      </c>
+      <c r="C1" t="str">
+        <v>ContestantID</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Block</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Seat</v>
+      </c>
+      <c r="F1" t="str">
+        <v>BookingEmailSent</v>
+      </c>
+      <c r="G1" t="str">
+        <v>ConfirmedRSVP</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Notes</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>a001b03c-7c5b-46ba-957e-bb1aeca919d8</v>
+      </c>
+      <c r="B2" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C2" t="str">
+        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="str">
+        <v>A1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>d5957e66-cb7f-4267-bbb8-1c8c7298b62b</v>
+      </c>
+      <c r="B3" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C3" t="str">
+        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="str">
+        <v>A2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>36cd33af-9bac-49bf-bb65-5b0cc9ad1077</v>
+      </c>
+      <c r="B4" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C4" t="str">
+        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="str">
+        <v>A3</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:H4"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -915,7 +1007,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D27"/>
   <sheetViews>

--- a/storage/backups/automatic-backup.xlsx
+++ b/storage/backups/automatic-backup.xlsx
@@ -6,8 +6,9 @@
     <sheet name="Record Days" sheetId="1" r:id="rId1"/>
     <sheet name="Contestants" sheetId="2" r:id="rId2"/>
     <sheet name="Seat Assignments" sheetId="3" r:id="rId3"/>
-    <sheet name="Groups" sheetId="4" r:id="rId4"/>
-    <sheet name="Block Types" sheetId="5" r:id="rId5"/>
+    <sheet name="Standbys" sheetId="4" r:id="rId4"/>
+    <sheet name="Groups" sheetId="5" r:id="rId5"/>
+    <sheet name="Block Types" sheetId="6" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
@@ -856,7 +857,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -889,63 +890,94 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>a001b03c-7c5b-46ba-957e-bb1aeca919d8</v>
+        <v>d5957e66-cb7f-4267-bbb8-1c8c7298b62b</v>
       </c>
       <c r="B2" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C2" t="str">
-        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
+        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="str">
-        <v>A1</v>
+        <v>A2</v>
+      </c>
+      <c r="H2" t="str">
+        <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>d5957e66-cb7f-4267-bbb8-1c8c7298b62b</v>
+        <v>36cd33af-9bac-49bf-bb65-5b0cc9ad1077</v>
       </c>
       <c r="B3" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C3" t="str">
-        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
+        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="str">
-        <v>A2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>36cd33af-9bac-49bf-bb65-5b0cc9ad1077</v>
-      </c>
-      <c r="B4" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C4" t="str">
-        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="str">
         <v>A3</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H3"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>ID</v>
+      </c>
+      <c r="B1" t="str">
+        <v>RecordDayID</v>
+      </c>
+      <c r="C1" t="str">
+        <v>ContestantID</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Status</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Notes</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>cc98ff1c-1a1d-43f8-82ea-abcca3482b1e</v>
+      </c>
+      <c r="B2" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C2" t="str">
+        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
+      </c>
+      <c r="D2" t="str">
+        <v>pending</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -1007,7 +1039,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D27"/>
   <sheetViews>

--- a/storage/backups/automatic-backup.xlsx
+++ b/storage/backups/automatic-backup.xlsx
@@ -402,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -650,32 +650,21 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>628994d9-3a33-43b2-9214-c3bd9793ccd4</v>
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="B18" t="str">
-        <v>2026-02-18</v>
+        <v>2026-02-04</v>
+      </c>
+      <c r="C18" t="str">
+        <v>RX EP 1 - 5</v>
       </c>
       <c r="D18" t="str">
-        <v>draft</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="B19" t="str">
-        <v>2026-02-04</v>
-      </c>
-      <c r="C19" t="str">
-        <v>RX EP 1 - 5</v>
-      </c>
-      <c r="D19" t="str">
         <v>ready</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E19"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E18"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/storage/backups/automatic-backup.xlsx
+++ b/storage/backups/automatic-backup.xlsx
@@ -956,7 +956,7 @@
         <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
       </c>
       <c r="D2" t="str">
-        <v>pending</v>
+        <v>seated</v>
       </c>
     </row>
   </sheetData>

--- a/storage/backups/automatic-backup.xlsx
+++ b/storage/backups/automatic-backup.xlsx
@@ -956,7 +956,7 @@
         <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
       </c>
       <c r="D2" t="str">
-        <v>seated</v>
+        <v>pending</v>
       </c>
     </row>
   </sheetData>

--- a/storage/backups/automatic-backup.xlsx
+++ b/storage/backups/automatic-backup.xlsx
@@ -6,9 +6,8 @@
     <sheet name="Record Days" sheetId="1" r:id="rId1"/>
     <sheet name="Contestants" sheetId="2" r:id="rId2"/>
     <sheet name="Seat Assignments" sheetId="3" r:id="rId3"/>
-    <sheet name="Standbys" sheetId="4" r:id="rId4"/>
-    <sheet name="Groups" sheetId="5" r:id="rId5"/>
-    <sheet name="Block Types" sheetId="6" r:id="rId6"/>
+    <sheet name="Groups" sheetId="4" r:id="rId4"/>
+    <sheet name="Block Types" sheetId="5" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
@@ -821,6 +820,9 @@
       <c r="G4" t="str">
         <v>Footscray</v>
       </c>
+      <c r="H4" t="str">
+        <v/>
+      </c>
       <c r="I4" t="str">
         <v>assigned</v>
       </c>
@@ -846,7 +848,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -899,74 +901,46 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>36cd33af-9bac-49bf-bb65-5b0cc9ad1077</v>
+        <v>479fcb75-5c6b-42a9-a757-6e4ae8cef47e</v>
       </c>
       <c r="B3" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C3" t="str">
-        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
+        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="str">
+        <v>A4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>36cd33af-9bac-49bf-bb65-5b0cc9ad1077</v>
+      </c>
+      <c r="B4" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C4" t="str">
+        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="str">
         <v>A3</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H4"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>ID</v>
-      </c>
-      <c r="B1" t="str">
-        <v>RecordDayID</v>
-      </c>
-      <c r="C1" t="str">
-        <v>ContestantID</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Status</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Notes</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>cc98ff1c-1a1d-43f8-82ea-abcca3482b1e</v>
-      </c>
-      <c r="B2" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C2" t="str">
-        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
-      </c>
-      <c r="D2" t="str">
-        <v>pending</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -1028,7 +1002,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D27"/>
   <sheetViews>

--- a/storage/backups/automatic-backup.xlsx
+++ b/storage/backups/automatic-backup.xlsx
@@ -881,39 +881,39 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>d5957e66-cb7f-4267-bbb8-1c8c7298b62b</v>
+        <v>479fcb75-5c6b-42a9-a757-6e4ae8cef47e</v>
       </c>
       <c r="B2" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C2" t="str">
-        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
+        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="str">
-        <v>A2</v>
-      </c>
-      <c r="H2" t="str">
-        <v/>
+        <v>A4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>479fcb75-5c6b-42a9-a757-6e4ae8cef47e</v>
+        <v>d5957e66-cb7f-4267-bbb8-1c8c7298b62b</v>
       </c>
       <c r="B3" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C3" t="str">
-        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
+        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="str">
-        <v>A4</v>
+        <v>A2</v>
+      </c>
+      <c r="H3" t="str">
+        <v/>
       </c>
     </row>
     <row r="4">

--- a/storage/backups/automatic-backup.xlsx
+++ b/storage/backups/automatic-backup.xlsx
@@ -898,39 +898,39 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>d5957e66-cb7f-4267-bbb8-1c8c7298b62b</v>
+        <v>36cd33af-9bac-49bf-bb65-5b0cc9ad1077</v>
       </c>
       <c r="B3" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C3" t="str">
-        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
+        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="str">
-        <v>A2</v>
-      </c>
-      <c r="H3" t="str">
-        <v/>
+        <v>A3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>36cd33af-9bac-49bf-bb65-5b0cc9ad1077</v>
+        <v>d5957e66-cb7f-4267-bbb8-1c8c7298b62b</v>
       </c>
       <c r="B4" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C4" t="str">
-        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
+        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="str">
-        <v>A3</v>
+        <v>A2</v>
+      </c>
+      <c r="H4" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/storage/backups/automatic-backup.xlsx
+++ b/storage/backups/automatic-backup.xlsx
@@ -881,36 +881,36 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>479fcb75-5c6b-42a9-a757-6e4ae8cef47e</v>
+        <v>36cd33af-9bac-49bf-bb65-5b0cc9ad1077</v>
       </c>
       <c r="B2" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C2" t="str">
-        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
+        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="str">
-        <v>A4</v>
+        <v>B3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>36cd33af-9bac-49bf-bb65-5b0cc9ad1077</v>
+        <v>479fcb75-5c6b-42a9-a757-6e4ae8cef47e</v>
       </c>
       <c r="B3" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C3" t="str">
-        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
+        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="str">
-        <v>A3</v>
+        <v>B4</v>
       </c>
     </row>
     <row r="4">
@@ -927,7 +927,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="str">
-        <v>A2</v>
+        <v>B2</v>
       </c>
       <c r="H4" t="str">
         <v/>

--- a/storage/backups/automatic-backup.xlsx
+++ b/storage/backups/automatic-backup.xlsx
@@ -718,25 +718,25 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
+        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
       </c>
       <c r="B2" t="str">
-        <v>Felicity Parker-Hill</v>
+        <v>Kathleen Reynolds</v>
       </c>
       <c r="C2">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D2" t="str">
         <v>Not Specified</v>
       </c>
       <c r="E2" t="str">
-        <v>felicity.parkerhill@endemolshine.com.au</v>
+        <v>kathleenmonicareynolds@gmail.com</v>
       </c>
       <c r="F2" t="str">
         <v>498086080</v>
       </c>
       <c r="G2" t="str">
-        <v>Melbourne</v>
+        <v>Footscray</v>
       </c>
       <c r="H2" t="str">
         <v/>
@@ -745,7 +745,7 @@
         <v>assigned</v>
       </c>
       <c r="J2" t="str">
-        <v>Peter Adamidis, Kathleen Reynolds</v>
+        <v>Peter Adamidis, Felicity Parker-Hill</v>
       </c>
       <c r="K2" t="str">
         <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
@@ -759,25 +759,25 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
+        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
       </c>
       <c r="B3" t="str">
-        <v>Peter Adamidis</v>
+        <v>Felicity Parker-Hill</v>
       </c>
       <c r="C3">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D3" t="str">
         <v>Not Specified</v>
       </c>
       <c r="E3" t="str">
-        <v>peter.adamidis@gmail.com</v>
+        <v>felicity.parkerhill@endemolshine.com.au</v>
       </c>
       <c r="F3" t="str">
         <v>498086080</v>
       </c>
       <c r="G3" t="str">
-        <v/>
+        <v>Melbourne</v>
       </c>
       <c r="H3" t="str">
         <v/>
@@ -786,39 +786,39 @@
         <v>assigned</v>
       </c>
       <c r="J3" t="str">
-        <v>Kathleen Reynolds, Felicity Parker-Hill</v>
+        <v>Peter Adamidis, Kathleen Reynolds</v>
       </c>
       <c r="K3" t="str">
         <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
       </c>
       <c r="L3" t="str">
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="M3" t="str">
-        <v>Broken Leg</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
+        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
       </c>
       <c r="B4" t="str">
-        <v>Kathleen Reynolds</v>
+        <v>Peter Adamidis</v>
       </c>
       <c r="C4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" t="str">
         <v>Not Specified</v>
       </c>
       <c r="E4" t="str">
-        <v>kathleenmonicareynolds@gmail.com</v>
+        <v>peter.adamidis@gmail.com</v>
       </c>
       <c r="F4" t="str">
         <v>498086080</v>
       </c>
       <c r="G4" t="str">
-        <v>Footscray</v>
+        <v/>
       </c>
       <c r="H4" t="str">
         <v/>
@@ -827,16 +827,16 @@
         <v>assigned</v>
       </c>
       <c r="J4" t="str">
-        <v>Peter Adamidis, Felicity Parker-Hill</v>
+        <v>Kathleen Reynolds, Felicity Parker-Hill</v>
       </c>
       <c r="K4" t="str">
         <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
       </c>
       <c r="L4" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="M4" t="str">
-        <v>N/A</v>
+        <v>Broken Leg</v>
       </c>
     </row>
   </sheetData>
@@ -881,24 +881,24 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>36cd33af-9bac-49bf-bb65-5b0cc9ad1077</v>
+        <v>20946cbf-8f88-4629-a6d2-d8510554cb9a</v>
       </c>
       <c r="B2" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C2" t="str">
-        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
+        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="str">
-        <v>B3</v>
+        <v>C1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>479fcb75-5c6b-42a9-a757-6e4ae8cef47e</v>
+        <v>c1d29895-e1ab-4926-8d3b-29a9df7058de</v>
       </c>
       <c r="B3" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
@@ -910,27 +910,24 @@
         <v>1</v>
       </c>
       <c r="E3" t="str">
-        <v>B4</v>
+        <v>C3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>d5957e66-cb7f-4267-bbb8-1c8c7298b62b</v>
+        <v>f8463207-3f82-429c-bf09-986ae9a6cc97</v>
       </c>
       <c r="B4" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C4" t="str">
-        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
+        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="str">
-        <v>B2</v>
-      </c>
-      <c r="H4" t="str">
-        <v/>
+        <v>D3</v>
       </c>
     </row>
   </sheetData>

--- a/storage/backups/automatic-backup.xlsx
+++ b/storage/backups/automatic-backup.xlsx
@@ -893,41 +893,41 @@
         <v>1</v>
       </c>
       <c r="E2" t="str">
-        <v>C1</v>
+        <v>B2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>c1d29895-e1ab-4926-8d3b-29a9df7058de</v>
+        <v>f8463207-3f82-429c-bf09-986ae9a6cc97</v>
       </c>
       <c r="B3" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C3" t="str">
-        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
+        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="str">
-        <v>C3</v>
+        <v>B3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>f8463207-3f82-429c-bf09-986ae9a6cc97</v>
+        <v>c1d29895-e1ab-4926-8d3b-29a9df7058de</v>
       </c>
       <c r="B4" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C4" t="str">
-        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
+        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="str">
-        <v>D3</v>
+        <v>B4</v>
       </c>
     </row>
   </sheetData>

--- a/storage/backups/automatic-backup.xlsx
+++ b/storage/backups/automatic-backup.xlsx
@@ -5,9 +5,8 @@
   <sheets>
     <sheet name="Record Days" sheetId="1" r:id="rId1"/>
     <sheet name="Contestants" sheetId="2" r:id="rId2"/>
-    <sheet name="Seat Assignments" sheetId="3" r:id="rId3"/>
-    <sheet name="Groups" sheetId="4" r:id="rId4"/>
-    <sheet name="Block Types" sheetId="5" r:id="rId5"/>
+    <sheet name="Groups" sheetId="3" r:id="rId3"/>
+    <sheet name="Block Types" sheetId="4" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
@@ -670,7 +669,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -742,7 +741,7 @@
         <v/>
       </c>
       <c r="I2" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
       <c r="J2" t="str">
         <v>Peter Adamidis, Felicity Parker-Hill</v>
@@ -783,7 +782,7 @@
         <v/>
       </c>
       <c r="I3" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
       <c r="J3" t="str">
         <v>Peter Adamidis, Kathleen Reynolds</v>
@@ -800,144 +799,2953 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
+        <v>8e115c7e-8033-4466-bcb9-07ea089eb4be</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Chloe Taylor</v>
+      </c>
+      <c r="C4">
+        <v>64</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E4" t="str">
+        <v>chloe.taylor7@gmail.com</v>
+      </c>
+      <c r="F4" t="str">
+        <v>0412 903 254</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Townsville</v>
+      </c>
+      <c r="H4" t="str">
+        <v>C</v>
+      </c>
+      <c r="I4" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>94116225-6732-4c15-9e4b-66f7727602d5</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Audrey Ramirez</v>
+      </c>
+      <c r="C5">
+        <v>43</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E5" t="str">
+        <v>audrey.ramirez12@gmail.com</v>
+      </c>
+      <c r="F5" t="str">
+        <v>0411 212 619</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Brisbane</v>
+      </c>
+      <c r="H5" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I5" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>b8c1889f-fd66-4304-90d7-bd50422cbc52</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Maya Moore</v>
+      </c>
+      <c r="C6">
+        <v>43</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E6" t="str">
+        <v>maya.moore54@outlook.com</v>
+      </c>
+      <c r="F6" t="str">
+        <v>0400 718 585</v>
+      </c>
+      <c r="G6" t="str">
+        <v>Toowoomba</v>
+      </c>
+      <c r="H6" t="str">
+        <v>C</v>
+      </c>
+      <c r="I6" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
         <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
       </c>
-      <c r="B4" t="str">
+      <c r="B7" t="str">
         <v>Peter Adamidis</v>
       </c>
-      <c r="C4">
+      <c r="C7">
         <v>34</v>
       </c>
-      <c r="D4" t="str">
+      <c r="D7" t="str">
         <v>Not Specified</v>
       </c>
-      <c r="E4" t="str">
+      <c r="E7" t="str">
         <v>peter.adamidis@gmail.com</v>
       </c>
-      <c r="F4" t="str">
+      <c r="F7" t="str">
         <v>498086080</v>
       </c>
-      <c r="G4" t="str">
+      <c r="G7" t="str">
         <v/>
       </c>
-      <c r="H4" t="str">
+      <c r="H7" t="str">
         <v/>
       </c>
-      <c r="I4" t="str">
-        <v>assigned</v>
-      </c>
-      <c r="J4" t="str">
+      <c r="I7" t="str">
+        <v>available</v>
+      </c>
+      <c r="J7" t="str">
         <v>Kathleen Reynolds, Felicity Parker-Hill</v>
       </c>
-      <c r="K4" t="str">
+      <c r="K7" t="str">
         <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
       </c>
-      <c r="L4" t="str">
+      <c r="L7" t="str">
         <v>Y</v>
       </c>
-      <c r="M4" t="str">
+      <c r="M7" t="str">
         <v>Broken Leg</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>b9e02c2d-410d-4307-811c-7e52cf93b14b</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Emily Moore</v>
+      </c>
+      <c r="C8">
+        <v>49</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E8" t="str">
+        <v>emily.moore11@hotmail.com</v>
+      </c>
+      <c r="F8" t="str">
+        <v>0410 362 279</v>
+      </c>
+      <c r="G8" t="str">
+        <v>Perth</v>
+      </c>
+      <c r="H8" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I8" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>5a16ef0a-cce8-4d1b-bfa5-3892331170c1</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Caroline Taylor</v>
+      </c>
+      <c r="C9">
+        <v>41</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E9" t="str">
+        <v>caroline.taylor54@outlook.com</v>
+      </c>
+      <c r="F9" t="str">
+        <v>0402 864 601</v>
+      </c>
+      <c r="G9" t="str">
+        <v>Darwin</v>
+      </c>
+      <c r="H9" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I9" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>47cc1288-cbc0-4159-a52d-924c8912434d</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Stella Martinez</v>
+      </c>
+      <c r="C10">
+        <v>47</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E10" t="str">
+        <v>stella.martinez75@gmail.com</v>
+      </c>
+      <c r="F10" t="str">
+        <v>0404 227 272</v>
+      </c>
+      <c r="G10" t="str">
+        <v>Ballarat</v>
+      </c>
+      <c r="H10" t="str">
+        <v>C</v>
+      </c>
+      <c r="I10" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>42504e80-d5df-4b97-a283-eb96728c425f</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Ella Anderson</v>
+      </c>
+      <c r="C11">
+        <v>38</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E11" t="str">
+        <v>ella.anderson1@yahoo.com</v>
+      </c>
+      <c r="F11" t="str">
+        <v>0412 908 910</v>
+      </c>
+      <c r="G11" t="str">
+        <v>Geelong</v>
+      </c>
+      <c r="H11" t="str">
+        <v>B</v>
+      </c>
+      <c r="I11" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>9b54470e-fe91-4ebb-b0aa-becf22a8cc3c</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Abigail Jackson</v>
+      </c>
+      <c r="C12">
+        <v>36</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E12" t="str">
+        <v>abigail.jackson65@outlook.com</v>
+      </c>
+      <c r="F12" t="str">
+        <v>0411 824 257</v>
+      </c>
+      <c r="G12" t="str">
+        <v>Newcastle</v>
+      </c>
+      <c r="H12" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I12" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>2d659242-2255-4502-b333-781c9b2645fd</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Evelyn Sanchez</v>
+      </c>
+      <c r="C13">
+        <v>56</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E13" t="str">
+        <v>evelyn.sanchez9@gmail.com</v>
+      </c>
+      <c r="F13" t="str">
+        <v>0404 119 469</v>
+      </c>
+      <c r="G13" t="str">
+        <v>Gold Coast</v>
+      </c>
+      <c r="H13" t="str">
+        <v>B</v>
+      </c>
+      <c r="I13" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>dbb200b8-766c-4984-9724-f68192d88939</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Hannah Torres</v>
+      </c>
+      <c r="C14">
+        <v>41</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E14" t="str">
+        <v>hannah.torres86@yahoo.com</v>
+      </c>
+      <c r="F14" t="str">
+        <v>0402 688 409</v>
+      </c>
+      <c r="G14" t="str">
+        <v>Wollongong</v>
+      </c>
+      <c r="H14" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I14" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>6849995e-3474-4988-87b0-1db2638461ca</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Audrey Smith</v>
+      </c>
+      <c r="C15">
+        <v>23</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E15" t="str">
+        <v>audrey.smith66@gmail.com</v>
+      </c>
+      <c r="F15" t="str">
+        <v>0410 904 568</v>
+      </c>
+      <c r="G15" t="str">
+        <v>Ballarat</v>
+      </c>
+      <c r="H15" t="str">
+        <v>B</v>
+      </c>
+      <c r="I15" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>97646711-3e33-4ee9-8d83-bd6e0363ece0</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Audrey Martin</v>
+      </c>
+      <c r="C16">
+        <v>32</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E16" t="str">
+        <v>audrey.martin33@yahoo.com</v>
+      </c>
+      <c r="F16" t="str">
+        <v>0403 767 239</v>
+      </c>
+      <c r="G16" t="str">
+        <v>Adelaide</v>
+      </c>
+      <c r="H16" t="str">
+        <v>A</v>
+      </c>
+      <c r="I16" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>d37f9e40-d1a2-4238-9089-80517a709859</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Mia Roberts</v>
+      </c>
+      <c r="C17">
+        <v>28</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E17" t="str">
+        <v>mia.roberts81@hotmail.com</v>
+      </c>
+      <c r="F17" t="str">
+        <v>0412 368 553</v>
+      </c>
+      <c r="G17" t="str">
+        <v>Toowoomba</v>
+      </c>
+      <c r="H17" t="str">
+        <v>C</v>
+      </c>
+      <c r="I17" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>dd2de8e6-e7c9-40e4-8308-27a14e5f00da</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Chloe Jones</v>
+      </c>
+      <c r="C18">
+        <v>46</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E18" t="str">
+        <v>chloe.jones20@outlook.com</v>
+      </c>
+      <c r="F18" t="str">
+        <v>0411 294 635</v>
+      </c>
+      <c r="G18" t="str">
+        <v>Toowoomba</v>
+      </c>
+      <c r="H18" t="str">
+        <v>C</v>
+      </c>
+      <c r="I18" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>eff76f3c-c868-4954-99ea-92a4ae6c8067</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Abigail Lee</v>
+      </c>
+      <c r="C19">
+        <v>27</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E19" t="str">
+        <v>abigail.lee94@hotmail.com</v>
+      </c>
+      <c r="F19" t="str">
+        <v>0402 888 384</v>
+      </c>
+      <c r="G19" t="str">
+        <v>Wollongong</v>
+      </c>
+      <c r="H19" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I19" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>1adac400-525f-40f4-8b6d-20df8ce78e9d</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Grace Scott</v>
+      </c>
+      <c r="C20">
+        <v>35</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E20" t="str">
+        <v>grace.scott40@outlook.com</v>
+      </c>
+      <c r="F20" t="str">
+        <v>0401 870 853</v>
+      </c>
+      <c r="G20" t="str">
+        <v>Ballarat</v>
+      </c>
+      <c r="H20" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I20" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>852226e3-fccb-4228-8627-5dc42cfe4387</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Aurora Rodriguez</v>
+      </c>
+      <c r="C21">
+        <v>25</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E21" t="str">
+        <v>aurora.rodriguez20@yahoo.com</v>
+      </c>
+      <c r="F21" t="str">
+        <v>0404 720 692</v>
+      </c>
+      <c r="G21" t="str">
+        <v>Hobart</v>
+      </c>
+      <c r="H21" t="str">
+        <v>A</v>
+      </c>
+      <c r="I21" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>992418b2-3029-4752-9552-0aa886433657</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Zoe Brown</v>
+      </c>
+      <c r="C22">
+        <v>44</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E22" t="str">
+        <v>zoe.brown45@outlook.com</v>
+      </c>
+      <c r="F22" t="str">
+        <v>0401 578 107</v>
+      </c>
+      <c r="G22" t="str">
+        <v>Sydney</v>
+      </c>
+      <c r="H22" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I22" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>210066e7-58e9-4ebb-a504-dfbf383961b5</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Grace Scott</v>
+      </c>
+      <c r="C23">
+        <v>47</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E23" t="str">
+        <v>grace.scott94@hotmail.com</v>
+      </c>
+      <c r="F23" t="str">
+        <v>0410 377 869</v>
+      </c>
+      <c r="G23" t="str">
+        <v>Toowoomba</v>
+      </c>
+      <c r="H23" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I23" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>bcc86f75-9a60-406c-be7c-4f31ea5c30ef</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Paisley Lee</v>
+      </c>
+      <c r="C24">
+        <v>61</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E24" t="str">
+        <v>paisley.lee78@hotmail.com</v>
+      </c>
+      <c r="F24" t="str">
+        <v>0400 179 607</v>
+      </c>
+      <c r="G24" t="str">
+        <v>Ballarat</v>
+      </c>
+      <c r="H24" t="str">
+        <v>B</v>
+      </c>
+      <c r="I24" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>0a153155-dcf5-4d56-9ed1-8960501157f8</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Aurora Gonzalez</v>
+      </c>
+      <c r="C25">
+        <v>42</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E25" t="str">
+        <v>aurora.gonzalez29@outlook.com</v>
+      </c>
+      <c r="F25" t="str">
+        <v>0404 610 172</v>
+      </c>
+      <c r="G25" t="str">
+        <v>Toowoomba</v>
+      </c>
+      <c r="H25" t="str">
+        <v>A</v>
+      </c>
+      <c r="I25" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>5c5fe7f9-35dd-4685-af6b-e44a56c1d47c</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Charlotte Johnson</v>
+      </c>
+      <c r="C26">
+        <v>59</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E26" t="str">
+        <v>charlotte.johnson36@yahoo.com</v>
+      </c>
+      <c r="F26" t="str">
+        <v>0410 304 177</v>
+      </c>
+      <c r="G26" t="str">
+        <v>Perth</v>
+      </c>
+      <c r="H26" t="str">
+        <v>A</v>
+      </c>
+      <c r="I26" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>aa6fa282-9894-4b21-a871-c9725586c397</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Audrey Thomas</v>
+      </c>
+      <c r="C27">
+        <v>21</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E27" t="str">
+        <v>audrey.thomas38@gmail.com</v>
+      </c>
+      <c r="F27" t="str">
+        <v>0400 437 270</v>
+      </c>
+      <c r="G27" t="str">
+        <v>Perth</v>
+      </c>
+      <c r="H27" t="str">
+        <v>C</v>
+      </c>
+      <c r="I27" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>0fc0ae2d-4068-4972-a5b1-963c241e317a</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Emilia Thompson</v>
+      </c>
+      <c r="C28">
+        <v>48</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E28" t="str">
+        <v>emilia.thompson0@gmail.com</v>
+      </c>
+      <c r="F28" t="str">
+        <v>0404 992 451</v>
+      </c>
+      <c r="G28" t="str">
+        <v>Perth</v>
+      </c>
+      <c r="H28" t="str">
+        <v>B</v>
+      </c>
+      <c r="I28" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>0dd7de5c-0409-45e3-84a5-5f2ffbd591d8</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Harper Sanchez</v>
+      </c>
+      <c r="C29">
+        <v>21</v>
+      </c>
+      <c r="D29" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E29" t="str">
+        <v>harper.sanchez76@gmail.com</v>
+      </c>
+      <c r="F29" t="str">
+        <v>0411 422 972</v>
+      </c>
+      <c r="G29" t="str">
+        <v>Geelong</v>
+      </c>
+      <c r="H29" t="str">
+        <v>C</v>
+      </c>
+      <c r="I29" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>0669e014-c952-45fd-9791-36cbe1d51444</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Sofia Williams</v>
+      </c>
+      <c r="C30">
+        <v>31</v>
+      </c>
+      <c r="D30" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E30" t="str">
+        <v>sofia.williams39@yahoo.com</v>
+      </c>
+      <c r="F30" t="str">
+        <v>0403 299 421</v>
+      </c>
+      <c r="G30" t="str">
+        <v>Geelong</v>
+      </c>
+      <c r="H30" t="str">
+        <v>A</v>
+      </c>
+      <c r="I30" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>22cf4684-eeba-4ed3-8f61-746028381f4d</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Harper Lewis</v>
+      </c>
+      <c r="C31">
+        <v>44</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E31" t="str">
+        <v>harper.lewis57@hotmail.com</v>
+      </c>
+      <c r="F31" t="str">
+        <v>0411 652 121</v>
+      </c>
+      <c r="G31" t="str">
+        <v>Geelong</v>
+      </c>
+      <c r="H31" t="str">
+        <v>B</v>
+      </c>
+      <c r="I31" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>ef837da0-c81f-4113-a389-db5e46ffaf4d</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Aria Scott</v>
+      </c>
+      <c r="C32">
+        <v>60</v>
+      </c>
+      <c r="D32" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E32" t="str">
+        <v>aria.scott42@outlook.com</v>
+      </c>
+      <c r="F32" t="str">
+        <v>0401 330 548</v>
+      </c>
+      <c r="G32" t="str">
+        <v>Hobart</v>
+      </c>
+      <c r="H32" t="str">
+        <v>C</v>
+      </c>
+      <c r="I32" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>2738f18e-1f2e-44d7-aa26-778ed59438ac</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Emilia Miller</v>
+      </c>
+      <c r="C33">
+        <v>40</v>
+      </c>
+      <c r="D33" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E33" t="str">
+        <v>emilia.miller56@outlook.com</v>
+      </c>
+      <c r="F33" t="str">
+        <v>0403 506 698</v>
+      </c>
+      <c r="G33" t="str">
+        <v>Melbourne</v>
+      </c>
+      <c r="H33" t="str">
+        <v>B</v>
+      </c>
+      <c r="I33" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>b09d810a-6eb0-4ea8-ac8b-df27315049f1</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Emily Thomas</v>
+      </c>
+      <c r="C34">
+        <v>57</v>
+      </c>
+      <c r="D34" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E34" t="str">
+        <v>emily.thomas25@outlook.com</v>
+      </c>
+      <c r="F34" t="str">
+        <v>0402 648 577</v>
+      </c>
+      <c r="G34" t="str">
+        <v>Geelong</v>
+      </c>
+      <c r="H34" t="str">
+        <v>C</v>
+      </c>
+      <c r="I34" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>2c188398-79a8-4bf6-b740-1ad9d535662e</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Everly Torres</v>
+      </c>
+      <c r="C35">
+        <v>42</v>
+      </c>
+      <c r="D35" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E35" t="str">
+        <v>everly.torres12@gmail.com</v>
+      </c>
+      <c r="F35" t="str">
+        <v>0412 804 179</v>
+      </c>
+      <c r="G35" t="str">
+        <v>Sydney</v>
+      </c>
+      <c r="H35" t="str">
+        <v>A+</v>
+      </c>
+      <c r="I35" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>55099144-967b-4cf2-b4ed-3cfe46413c92</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Maya Hernandez</v>
+      </c>
+      <c r="C36">
+        <v>43</v>
+      </c>
+      <c r="D36" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E36" t="str">
+        <v>maya.hernandez32@outlook.com</v>
+      </c>
+      <c r="F36" t="str">
+        <v>0400 358 904</v>
+      </c>
+      <c r="G36" t="str">
+        <v>Brisbane</v>
+      </c>
+      <c r="H36" t="str">
+        <v>C</v>
+      </c>
+      <c r="I36" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>c4e002c2-94ef-471f-b43d-e6b2a8d35a1c</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Paisley Scott</v>
+      </c>
+      <c r="C37">
+        <v>27</v>
+      </c>
+      <c r="D37" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E37" t="str">
+        <v>paisley.scott78@yahoo.com</v>
+      </c>
+      <c r="F37" t="str">
+        <v>0410 215 419</v>
+      </c>
+      <c r="G37" t="str">
+        <v>Ballarat</v>
+      </c>
+      <c r="H37" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I37" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>29fc5656-fb78-4c9b-9800-b68957bc0a07</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Aria Lopez</v>
+      </c>
+      <c r="C38">
+        <v>44</v>
+      </c>
+      <c r="D38" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E38" t="str">
+        <v>aria.lopez55@hotmail.com</v>
+      </c>
+      <c r="F38" t="str">
+        <v>0404 812 491</v>
+      </c>
+      <c r="G38" t="str">
+        <v>Sydney</v>
+      </c>
+      <c r="H38" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I38" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>bb319a54-7dbf-4a05-bd7f-8f2f6aa6b414</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Isabella Brown</v>
+      </c>
+      <c r="C39">
+        <v>55</v>
+      </c>
+      <c r="D39" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E39" t="str">
+        <v>isabella.brown43@outlook.com</v>
+      </c>
+      <c r="F39" t="str">
+        <v>0403 771 690</v>
+      </c>
+      <c r="G39" t="str">
+        <v>Darwin</v>
+      </c>
+      <c r="H39" t="str">
+        <v>B</v>
+      </c>
+      <c r="I39" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>da957311-60b3-4bfc-b980-ac0506dccd20</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Stella Garcia</v>
+      </c>
+      <c r="C40">
+        <v>53</v>
+      </c>
+      <c r="D40" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E40" t="str">
+        <v>stella.garcia89@hotmail.com</v>
+      </c>
+      <c r="F40" t="str">
+        <v>0403 655 540</v>
+      </c>
+      <c r="G40" t="str">
+        <v>Toowoomba</v>
+      </c>
+      <c r="H40" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I40" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>c1783cdf-a656-46b4-9331-4d9d18d40b51</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Aurora Walker</v>
+      </c>
+      <c r="C41">
+        <v>61</v>
+      </c>
+      <c r="D41" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E41" t="str">
+        <v>aurora.walker1@outlook.com</v>
+      </c>
+      <c r="F41" t="str">
+        <v>0403 522 404</v>
+      </c>
+      <c r="G41" t="str">
+        <v>Darwin</v>
+      </c>
+      <c r="H41" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I41" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>32ffeaf9-5f22-4db7-a70b-cbaab834db0d</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Isabella Hill</v>
+      </c>
+      <c r="C42">
+        <v>30</v>
+      </c>
+      <c r="D42" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E42" t="str">
+        <v>isabella.hill77@hotmail.com</v>
+      </c>
+      <c r="F42" t="str">
+        <v>0412 663 356</v>
+      </c>
+      <c r="G42" t="str">
+        <v>Darwin</v>
+      </c>
+      <c r="H42" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I42" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>f960de1f-a40f-4281-9d39-2a7822335b9b</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Victoria Carter</v>
+      </c>
+      <c r="C43">
+        <v>25</v>
+      </c>
+      <c r="D43" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E43" t="str">
+        <v>victoria.carter74@gmail.com</v>
+      </c>
+      <c r="F43" t="str">
+        <v>0411 641 632</v>
+      </c>
+      <c r="G43" t="str">
+        <v>Gold Coast</v>
+      </c>
+      <c r="H43" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I43" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>c5fdfaeb-862e-43ab-bf0e-ff3e14e5dbb3</v>
+      </c>
+      <c r="B44" t="str">
+        <v>Hannah Martin</v>
+      </c>
+      <c r="C44">
+        <v>27</v>
+      </c>
+      <c r="D44" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E44" t="str">
+        <v>hannah.martin78@yahoo.com</v>
+      </c>
+      <c r="F44" t="str">
+        <v>0410 940 985</v>
+      </c>
+      <c r="G44" t="str">
+        <v>Hobart</v>
+      </c>
+      <c r="H44" t="str">
+        <v>B</v>
+      </c>
+      <c r="I44" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>f6a281bb-caec-44cf-a596-a6e92d6e2610</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Leah Scott</v>
+      </c>
+      <c r="C45">
+        <v>21</v>
+      </c>
+      <c r="D45" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E45" t="str">
+        <v>leah.scott74@gmail.com</v>
+      </c>
+      <c r="F45" t="str">
+        <v>0402 414 358</v>
+      </c>
+      <c r="G45" t="str">
+        <v>Perth</v>
+      </c>
+      <c r="H45" t="str">
+        <v>B</v>
+      </c>
+      <c r="I45" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>cd648690-8cd1-44b6-be26-0521038f442f</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Stella Hall</v>
+      </c>
+      <c r="C46">
+        <v>58</v>
+      </c>
+      <c r="D46" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E46" t="str">
+        <v>stella.hall72@gmail.com</v>
+      </c>
+      <c r="F46" t="str">
+        <v>0410 133 818</v>
+      </c>
+      <c r="G46" t="str">
+        <v>Wollongong</v>
+      </c>
+      <c r="H46" t="str">
+        <v>B</v>
+      </c>
+      <c r="I46" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>f693d8fc-436b-426a-9bca-0b141221ab3f</v>
+      </c>
+      <c r="B47" t="str">
+        <v>Evelyn Clark</v>
+      </c>
+      <c r="C47">
+        <v>22</v>
+      </c>
+      <c r="D47" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E47" t="str">
+        <v>evelyn.clark47@outlook.com</v>
+      </c>
+      <c r="F47" t="str">
+        <v>0410 941 656</v>
+      </c>
+      <c r="G47" t="str">
+        <v>Hobart</v>
+      </c>
+      <c r="H47" t="str">
+        <v>C</v>
+      </c>
+      <c r="I47" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>e2f70c5c-0a8d-4055-8281-2ad2ae2e0cd6</v>
+      </c>
+      <c r="B48" t="str">
+        <v>Stella Green</v>
+      </c>
+      <c r="C48">
+        <v>65</v>
+      </c>
+      <c r="D48" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E48" t="str">
+        <v>stella.green92@gmail.com</v>
+      </c>
+      <c r="F48" t="str">
+        <v>0404 230 858</v>
+      </c>
+      <c r="G48" t="str">
+        <v>Wollongong</v>
+      </c>
+      <c r="H48" t="str">
+        <v>A</v>
+      </c>
+      <c r="I48" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>347bdea3-79f6-4991-9601-b2d86513429e</v>
+      </c>
+      <c r="B49" t="str">
+        <v>Violet Hall</v>
+      </c>
+      <c r="C49">
+        <v>61</v>
+      </c>
+      <c r="D49" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E49" t="str">
+        <v>violet.hall8@yahoo.com</v>
+      </c>
+      <c r="F49" t="str">
+        <v>0404 640 755</v>
+      </c>
+      <c r="G49" t="str">
+        <v>Adelaide</v>
+      </c>
+      <c r="H49" t="str">
+        <v>C</v>
+      </c>
+      <c r="I49" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>adb0c362-d095-4bfd-98dc-c93920fd22d6</v>
+      </c>
+      <c r="B50" t="str">
+        <v>Victoria Torres</v>
+      </c>
+      <c r="C50">
+        <v>46</v>
+      </c>
+      <c r="D50" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E50" t="str">
+        <v>victoria.torres48@outlook.com</v>
+      </c>
+      <c r="F50" t="str">
+        <v>0411 539 271</v>
+      </c>
+      <c r="G50" t="str">
+        <v>Geelong</v>
+      </c>
+      <c r="H50" t="str">
+        <v>B</v>
+      </c>
+      <c r="I50" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>567e589d-b232-43c2-9d30-3ff1e359f372</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Hazel Mitchell</v>
+      </c>
+      <c r="C51">
+        <v>28</v>
+      </c>
+      <c r="D51" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E51" t="str">
+        <v>hazel.mitchell91@gmail.com</v>
+      </c>
+      <c r="F51" t="str">
+        <v>0400 683 761</v>
+      </c>
+      <c r="G51" t="str">
+        <v>Perth</v>
+      </c>
+      <c r="H51" t="str">
+        <v>A</v>
+      </c>
+      <c r="I51" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>699a6b21-dcdf-4a6c-a093-53af77ccdedb</v>
+      </c>
+      <c r="B52" t="str">
+        <v>Emilia Lopez</v>
+      </c>
+      <c r="C52">
+        <v>50</v>
+      </c>
+      <c r="D52" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E52" t="str">
+        <v>emilia.lopez21@gmail.com</v>
+      </c>
+      <c r="F52" t="str">
+        <v>0403 491 553</v>
+      </c>
+      <c r="G52" t="str">
+        <v>Cairns</v>
+      </c>
+      <c r="H52" t="str">
+        <v>B</v>
+      </c>
+      <c r="I52" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>222469f4-a8d9-4550-b6ee-db9d00e24edd</v>
+      </c>
+      <c r="B53" t="str">
+        <v>Chloe Flores</v>
+      </c>
+      <c r="C53">
+        <v>63</v>
+      </c>
+      <c r="D53" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E53" t="str">
+        <v>chloe.flores93@yahoo.com</v>
+      </c>
+      <c r="F53" t="str">
+        <v>0400 918 463</v>
+      </c>
+      <c r="G53" t="str">
+        <v>Townsville</v>
+      </c>
+      <c r="H53" t="str">
+        <v>C</v>
+      </c>
+      <c r="I53" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>7664257a-dce4-407a-8f24-692043d568be</v>
+      </c>
+      <c r="B54" t="str">
+        <v>Nora Jackson</v>
+      </c>
+      <c r="C54">
+        <v>49</v>
+      </c>
+      <c r="D54" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E54" t="str">
+        <v>nora.jackson83@hotmail.com</v>
+      </c>
+      <c r="F54" t="str">
+        <v>0404 434 899</v>
+      </c>
+      <c r="G54" t="str">
+        <v>Wollongong</v>
+      </c>
+      <c r="H54" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I54" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>1df33560-ebf2-41ec-995c-52f3f1df78d5</v>
+      </c>
+      <c r="B55" t="str">
+        <v>Genesis Jones</v>
+      </c>
+      <c r="C55">
+        <v>39</v>
+      </c>
+      <c r="D55" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E55" t="str">
+        <v>genesis.jones50@yahoo.com</v>
+      </c>
+      <c r="F55" t="str">
+        <v>0404 967 604</v>
+      </c>
+      <c r="G55" t="str">
+        <v>Sydney</v>
+      </c>
+      <c r="H55" t="str">
+        <v>B</v>
+      </c>
+      <c r="I55" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>3d2128a1-336f-41e1-973b-b5dd54d90b19</v>
+      </c>
+      <c r="B56" t="str">
+        <v>Nova Brown</v>
+      </c>
+      <c r="C56">
+        <v>62</v>
+      </c>
+      <c r="D56" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E56" t="str">
+        <v>nova.brown80@outlook.com</v>
+      </c>
+      <c r="F56" t="str">
+        <v>0411 154 614</v>
+      </c>
+      <c r="G56" t="str">
+        <v>Ballarat</v>
+      </c>
+      <c r="H56" t="str">
+        <v>A</v>
+      </c>
+      <c r="I56" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>0faec83d-7c29-4269-bf33-391ef02d60e4</v>
+      </c>
+      <c r="B57" t="str">
+        <v>Anna White</v>
+      </c>
+      <c r="C57">
+        <v>48</v>
+      </c>
+      <c r="D57" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E57" t="str">
+        <v>anna.white24@yahoo.com</v>
+      </c>
+      <c r="F57" t="str">
+        <v>0400 132 564</v>
+      </c>
+      <c r="G57" t="str">
+        <v>Adelaide</v>
+      </c>
+      <c r="H57" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I57" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>bf283832-25b8-4d7f-9e0f-ef2f10903233</v>
+      </c>
+      <c r="B58" t="str">
+        <v>Hunter Jackson</v>
+      </c>
+      <c r="C58">
+        <v>64</v>
+      </c>
+      <c r="D58" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E58" t="str">
+        <v>hunter.jackson50@outlook.com</v>
+      </c>
+      <c r="F58" t="str">
+        <v>0404 841 788</v>
+      </c>
+      <c r="G58" t="str">
+        <v>Townsville</v>
+      </c>
+      <c r="H58" t="str">
+        <v>C</v>
+      </c>
+      <c r="I58" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>f5233693-d357-4cac-a660-70ef0398a969</v>
+      </c>
+      <c r="B59" t="str">
+        <v>Nathan Allen</v>
+      </c>
+      <c r="C59">
+        <v>60</v>
+      </c>
+      <c r="D59" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E59" t="str">
+        <v>nathan.allen87@outlook.com</v>
+      </c>
+      <c r="F59" t="str">
+        <v>0403 587 263</v>
+      </c>
+      <c r="G59" t="str">
+        <v>Adelaide</v>
+      </c>
+      <c r="H59" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I59" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>9efd8ec8-0e91-45d9-804b-518939fbac76</v>
+      </c>
+      <c r="B60" t="str">
+        <v>Noah Hernandez</v>
+      </c>
+      <c r="C60">
+        <v>36</v>
+      </c>
+      <c r="D60" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E60" t="str">
+        <v>noah.hernandez9@hotmail.com</v>
+      </c>
+      <c r="F60" t="str">
+        <v>0404 855 230</v>
+      </c>
+      <c r="G60" t="str">
+        <v>Cairns</v>
+      </c>
+      <c r="H60" t="str">
+        <v>C</v>
+      </c>
+      <c r="I60" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>d609a3ee-08af-4d16-aa51-c67e35cfa5c9</v>
+      </c>
+      <c r="B61" t="str">
+        <v>Ryan Williams</v>
+      </c>
+      <c r="C61">
+        <v>24</v>
+      </c>
+      <c r="D61" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E61" t="str">
+        <v>ryan.williams82@hotmail.com</v>
+      </c>
+      <c r="F61" t="str">
+        <v>0401 450 673</v>
+      </c>
+      <c r="G61" t="str">
+        <v>Perth</v>
+      </c>
+      <c r="H61" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I61" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>7728eead-ab7c-467f-bb41-2abd7952591a</v>
+      </c>
+      <c r="B62" t="str">
+        <v>Oliver Rivera</v>
+      </c>
+      <c r="C62">
+        <v>33</v>
+      </c>
+      <c r="D62" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E62" t="str">
+        <v>oliver.rivera58@outlook.com</v>
+      </c>
+      <c r="F62" t="str">
+        <v>0412 991 121</v>
+      </c>
+      <c r="G62" t="str">
+        <v>Canberra</v>
+      </c>
+      <c r="H62" t="str">
+        <v>C</v>
+      </c>
+      <c r="I62" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>7bfb9432-4b59-4ceb-895d-e03ae4837f91</v>
+      </c>
+      <c r="B63" t="str">
+        <v>Joshua Walker</v>
+      </c>
+      <c r="C63">
+        <v>55</v>
+      </c>
+      <c r="D63" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E63" t="str">
+        <v>joshua.walker97@gmail.com</v>
+      </c>
+      <c r="F63" t="str">
+        <v>0402 640 379</v>
+      </c>
+      <c r="G63" t="str">
+        <v>Darwin</v>
+      </c>
+      <c r="H63" t="str">
+        <v>B</v>
+      </c>
+      <c r="I63" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>0bb2a1aa-a74d-4711-a2ea-609663a77b4d</v>
+      </c>
+      <c r="B64" t="str">
+        <v>Carter Harris</v>
+      </c>
+      <c r="C64">
+        <v>59</v>
+      </c>
+      <c r="D64" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E64" t="str">
+        <v>carter.harris82@yahoo.com</v>
+      </c>
+      <c r="F64" t="str">
+        <v>0412 175 744</v>
+      </c>
+      <c r="G64" t="str">
+        <v>Geelong</v>
+      </c>
+      <c r="H64" t="str">
+        <v>C</v>
+      </c>
+      <c r="I64" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>939eed5c-b520-4a34-8d08-2243d6aa41c1</v>
+      </c>
+      <c r="B65" t="str">
+        <v>Andrew Garcia</v>
+      </c>
+      <c r="C65">
+        <v>41</v>
+      </c>
+      <c r="D65" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E65" t="str">
+        <v>andrew.garcia26@hotmail.com</v>
+      </c>
+      <c r="F65" t="str">
+        <v>0400 450 222</v>
+      </c>
+      <c r="G65" t="str">
+        <v>Darwin</v>
+      </c>
+      <c r="H65" t="str">
+        <v>B</v>
+      </c>
+      <c r="I65" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>f1466859-7323-4893-a189-a0ce994068ba</v>
+      </c>
+      <c r="B66" t="str">
+        <v>Anthony Thompson</v>
+      </c>
+      <c r="C66">
+        <v>56</v>
+      </c>
+      <c r="D66" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E66" t="str">
+        <v>anthony.thompson29@yahoo.com</v>
+      </c>
+      <c r="F66" t="str">
+        <v>0412 442 587</v>
+      </c>
+      <c r="G66" t="str">
+        <v>Townsville</v>
+      </c>
+      <c r="H66" t="str">
+        <v>A</v>
+      </c>
+      <c r="I66" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>df712cc5-31d8-4341-b177-6603bf089235</v>
+      </c>
+      <c r="B67" t="str">
+        <v>Samuel King</v>
+      </c>
+      <c r="C67">
+        <v>54</v>
+      </c>
+      <c r="D67" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E67" t="str">
+        <v>samuel.king24@yahoo.com</v>
+      </c>
+      <c r="F67" t="str">
+        <v>0400 774 736</v>
+      </c>
+      <c r="G67" t="str">
+        <v>Newcastle</v>
+      </c>
+      <c r="H67" t="str">
+        <v>B</v>
+      </c>
+      <c r="I67" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>adfcb6e3-82cb-46b9-8fb8-069fb91e2d4f</v>
+      </c>
+      <c r="B68" t="str">
+        <v>Mason Hill</v>
+      </c>
+      <c r="C68">
+        <v>40</v>
+      </c>
+      <c r="D68" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E68" t="str">
+        <v>mason.hill27@outlook.com</v>
+      </c>
+      <c r="F68" t="str">
+        <v>0410 682 884</v>
+      </c>
+      <c r="G68" t="str">
+        <v>Canberra</v>
+      </c>
+      <c r="H68" t="str">
+        <v>A</v>
+      </c>
+      <c r="I68" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>292da493-0524-4ee4-b911-1bb34e328b8c</v>
+      </c>
+      <c r="B69" t="str">
+        <v>Jackson Young</v>
+      </c>
+      <c r="C69">
+        <v>50</v>
+      </c>
+      <c r="D69" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E69" t="str">
+        <v>jackson.young79@yahoo.com</v>
+      </c>
+      <c r="F69" t="str">
+        <v>0412 940 993</v>
+      </c>
+      <c r="G69" t="str">
+        <v>Ballarat</v>
+      </c>
+      <c r="H69" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I69" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>182bd5d2-7f68-4c83-b156-e80856f3b6b7</v>
+      </c>
+      <c r="B70" t="str">
+        <v>Mason Nelson</v>
+      </c>
+      <c r="C70">
+        <v>59</v>
+      </c>
+      <c r="D70" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E70" t="str">
+        <v>mason.nelson14@hotmail.com</v>
+      </c>
+      <c r="F70" t="str">
+        <v>0403 485 650</v>
+      </c>
+      <c r="G70" t="str">
+        <v>Canberra</v>
+      </c>
+      <c r="H70" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I70" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>efe20d3d-2162-4ff8-a8ff-4102e5d3f3ab</v>
+      </c>
+      <c r="B71" t="str">
+        <v>Cameron Lee</v>
+      </c>
+      <c r="C71">
+        <v>44</v>
+      </c>
+      <c r="D71" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E71" t="str">
+        <v>cameron.lee78@yahoo.com</v>
+      </c>
+      <c r="F71" t="str">
+        <v>0404 821 708</v>
+      </c>
+      <c r="G71" t="str">
+        <v>Cairns</v>
+      </c>
+      <c r="H71" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I71" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>ad836319-db56-4a08-bca6-a8e3f19c37a8</v>
+      </c>
+      <c r="B72" t="str">
+        <v>Emily Johnson</v>
+      </c>
+      <c r="C72">
+        <v>37</v>
+      </c>
+      <c r="D72" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E72" t="str">
+        <v>emily.johnson58@hotmail.com</v>
+      </c>
+      <c r="F72" t="str">
+        <v>0412 663 939</v>
+      </c>
+      <c r="G72" t="str">
+        <v>Perth</v>
+      </c>
+      <c r="H72" t="str">
+        <v>B</v>
+      </c>
+      <c r="I72" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>3db7cdb3-9a92-467c-b554-d23b524f42f5</v>
+      </c>
+      <c r="B73" t="str">
+        <v>Claire Campbell</v>
+      </c>
+      <c r="C73">
+        <v>23</v>
+      </c>
+      <c r="D73" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E73" t="str">
+        <v>claire.campbell9@outlook.com</v>
+      </c>
+      <c r="F73" t="str">
+        <v>0401 164 490</v>
+      </c>
+      <c r="G73" t="str">
+        <v>Darwin</v>
+      </c>
+      <c r="H73" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I73" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>e15c67b6-0680-4284-a8aa-a525b34c592d</v>
+      </c>
+      <c r="B74" t="str">
+        <v>Aurora Williams</v>
+      </c>
+      <c r="C74">
+        <v>27</v>
+      </c>
+      <c r="D74" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E74" t="str">
+        <v>aurora.williams76@outlook.com</v>
+      </c>
+      <c r="F74" t="str">
+        <v>0401 416 170</v>
+      </c>
+      <c r="G74" t="str">
+        <v>Darwin</v>
+      </c>
+      <c r="H74" t="str">
+        <v>C</v>
+      </c>
+      <c r="I74" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>f68d2771-4820-4fef-b156-093280aeea67</v>
+      </c>
+      <c r="B75" t="str">
+        <v>Aria Nguyen</v>
+      </c>
+      <c r="C75">
+        <v>32</v>
+      </c>
+      <c r="D75" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E75" t="str">
+        <v>aria.nguyen36@gmail.com</v>
+      </c>
+      <c r="F75" t="str">
+        <v>0401 618 716</v>
+      </c>
+      <c r="G75" t="str">
+        <v>Sydney</v>
+      </c>
+      <c r="H75" t="str">
+        <v>C</v>
+      </c>
+      <c r="I75" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>a2ff3ad7-7964-4523-bf18-ce9994a910da</v>
+      </c>
+      <c r="B76" t="str">
+        <v>Nora Mitchell</v>
+      </c>
+      <c r="C76">
+        <v>29</v>
+      </c>
+      <c r="D76" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E76" t="str">
+        <v>nora.mitchell66@outlook.com</v>
+      </c>
+      <c r="F76" t="str">
+        <v>0412 196 419</v>
+      </c>
+      <c r="G76" t="str">
+        <v>Adelaide</v>
+      </c>
+      <c r="H76" t="str">
+        <v>C</v>
+      </c>
+      <c r="I76" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>45c0fc2b-415d-475a-998d-934235565d6b</v>
+      </c>
+      <c r="B77" t="str">
+        <v>Scarlett Wright</v>
+      </c>
+      <c r="C77">
+        <v>34</v>
+      </c>
+      <c r="D77" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E77" t="str">
+        <v>scarlett.wright68@outlook.com</v>
+      </c>
+      <c r="F77" t="str">
+        <v>0412 487 763</v>
+      </c>
+      <c r="G77" t="str">
+        <v>Newcastle</v>
+      </c>
+      <c r="H77" t="str">
+        <v>B</v>
+      </c>
+      <c r="I77" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>a8fa9125-28f1-47e1-adba-784701975e68</v>
+      </c>
+      <c r="B78" t="str">
+        <v>Abigail Williams</v>
+      </c>
+      <c r="C78">
+        <v>64</v>
+      </c>
+      <c r="D78" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E78" t="str">
+        <v>abigail.williams45@yahoo.com</v>
+      </c>
+      <c r="F78" t="str">
+        <v>0403 497 445</v>
+      </c>
+      <c r="G78" t="str">
+        <v>Toowoomba</v>
+      </c>
+      <c r="H78" t="str">
+        <v>C</v>
+      </c>
+      <c r="I78" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>6591420b-4762-4d90-b738-8a5b70458c40</v>
+      </c>
+      <c r="B79" t="str">
+        <v>Aurora Hill</v>
+      </c>
+      <c r="C79">
+        <v>34</v>
+      </c>
+      <c r="D79" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E79" t="str">
+        <v>aurora.hill33@hotmail.com</v>
+      </c>
+      <c r="F79" t="str">
+        <v>0410 373 844</v>
+      </c>
+      <c r="G79" t="str">
+        <v>Gold Coast</v>
+      </c>
+      <c r="H79" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I79" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>8774a9f4-b951-41cc-b6bd-809a709cb6ea</v>
+      </c>
+      <c r="B80" t="str">
+        <v>Lily Walker</v>
+      </c>
+      <c r="C80">
+        <v>62</v>
+      </c>
+      <c r="D80" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E80" t="str">
+        <v>lily.walker96@outlook.com</v>
+      </c>
+      <c r="F80" t="str">
+        <v>0410 155 426</v>
+      </c>
+      <c r="G80" t="str">
+        <v>Hobart</v>
+      </c>
+      <c r="H80" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I80" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>bf5a6984-f656-4e23-9646-85829e9daffe</v>
+      </c>
+      <c r="B81" t="str">
+        <v>Scarlett Lopez</v>
+      </c>
+      <c r="C81">
+        <v>64</v>
+      </c>
+      <c r="D81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E81" t="str">
+        <v>scarlett.lopez53@yahoo.com</v>
+      </c>
+      <c r="F81" t="str">
+        <v>0400 509 641</v>
+      </c>
+      <c r="G81" t="str">
+        <v>Sydney</v>
+      </c>
+      <c r="H81" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I81" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>34685ff7-6e85-4bbd-b546-77cfe11d7f7d</v>
+      </c>
+      <c r="B82" t="str">
+        <v>Grace Walker</v>
+      </c>
+      <c r="C82">
+        <v>56</v>
+      </c>
+      <c r="D82" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E82" t="str">
+        <v>grace.walker52@hotmail.com</v>
+      </c>
+      <c r="F82" t="str">
+        <v>0412 754 780</v>
+      </c>
+      <c r="G82" t="str">
+        <v>Canberra</v>
+      </c>
+      <c r="H82" t="str">
+        <v>A+</v>
+      </c>
+      <c r="I82" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>da40ad70-95be-413c-b0f1-d089ef285cc8</v>
+      </c>
+      <c r="B83" t="str">
+        <v>Emily Smith</v>
+      </c>
+      <c r="C83">
+        <v>24</v>
+      </c>
+      <c r="D83" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E83" t="str">
+        <v>emily.smith56@hotmail.com</v>
+      </c>
+      <c r="F83" t="str">
+        <v>0410 101 780</v>
+      </c>
+      <c r="G83" t="str">
+        <v>Toowoomba</v>
+      </c>
+      <c r="H83" t="str">
+        <v>A+</v>
+      </c>
+      <c r="I83" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>ee7f9d33-09d6-417b-a45f-3e6554489f5b</v>
+      </c>
+      <c r="B84" t="str">
+        <v>Dylan Miller</v>
+      </c>
+      <c r="C84">
+        <v>35</v>
+      </c>
+      <c r="D84" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E84" t="str">
+        <v>dylan.miller23@hotmail.com</v>
+      </c>
+      <c r="F84" t="str">
+        <v>0402 417 876</v>
+      </c>
+      <c r="G84" t="str">
+        <v>Melbourne</v>
+      </c>
+      <c r="H84" t="str">
+        <v>A</v>
+      </c>
+      <c r="I84" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>f9d68052-4310-45c2-a5a9-64c272347899</v>
+      </c>
+      <c r="B85" t="str">
+        <v>Christian Rivera</v>
+      </c>
+      <c r="C85">
+        <v>65</v>
+      </c>
+      <c r="D85" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E85" t="str">
+        <v>christian.rivera86@hotmail.com</v>
+      </c>
+      <c r="F85" t="str">
+        <v>0400 135 743</v>
+      </c>
+      <c r="G85" t="str">
+        <v>Adelaide</v>
+      </c>
+      <c r="H85" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I85" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>5a6b21ec-9fac-4adc-b5ab-bcad20d0eca4</v>
+      </c>
+      <c r="B86" t="str">
+        <v>Hunter Harris</v>
+      </c>
+      <c r="C86">
+        <v>37</v>
+      </c>
+      <c r="D86" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E86" t="str">
+        <v>hunter.harris1@gmail.com</v>
+      </c>
+      <c r="F86" t="str">
+        <v>0404 782 485</v>
+      </c>
+      <c r="G86" t="str">
+        <v>Gold Coast</v>
+      </c>
+      <c r="H86" t="str">
+        <v>A</v>
+      </c>
+      <c r="I86" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>d6c29b29-46c2-458d-9ed6-9955afb17b95</v>
+      </c>
+      <c r="B87" t="str">
+        <v>Ethan Taylor</v>
+      </c>
+      <c r="C87">
+        <v>30</v>
+      </c>
+      <c r="D87" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E87" t="str">
+        <v>ethan.taylor22@yahoo.com</v>
+      </c>
+      <c r="F87" t="str">
+        <v>0410 363 173</v>
+      </c>
+      <c r="G87" t="str">
+        <v>Adelaide</v>
+      </c>
+      <c r="H87" t="str">
+        <v>B</v>
+      </c>
+      <c r="I87" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>5c31add6-7626-46c5-a3e1-0e452ead739d</v>
+      </c>
+      <c r="B88" t="str">
+        <v>Charles Torres</v>
+      </c>
+      <c r="C88">
+        <v>46</v>
+      </c>
+      <c r="D88" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E88" t="str">
+        <v>charles.torres98@outlook.com</v>
+      </c>
+      <c r="F88" t="str">
+        <v>0401 744 176</v>
+      </c>
+      <c r="G88" t="str">
+        <v>Wollongong</v>
+      </c>
+      <c r="H88" t="str">
+        <v>B</v>
+      </c>
+      <c r="I88" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>df6c0d97-fd38-4b65-8765-b11a4939bd3b</v>
+      </c>
+      <c r="B89" t="str">
+        <v>Julian Rivera</v>
+      </c>
+      <c r="C89">
+        <v>53</v>
+      </c>
+      <c r="D89" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E89" t="str">
+        <v>julian.rivera31@outlook.com</v>
+      </c>
+      <c r="F89" t="str">
+        <v>0401 414 502</v>
+      </c>
+      <c r="G89" t="str">
+        <v>Perth</v>
+      </c>
+      <c r="H89" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I89" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>39b7a0a4-be8b-49f1-a5af-c5a105e0ab58</v>
+      </c>
+      <c r="B90" t="str">
+        <v>Joshua Carter</v>
+      </c>
+      <c r="C90">
+        <v>62</v>
+      </c>
+      <c r="D90" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E90" t="str">
+        <v>joshua.carter41@hotmail.com</v>
+      </c>
+      <c r="F90" t="str">
+        <v>0404 538 442</v>
+      </c>
+      <c r="G90" t="str">
+        <v>Wollongong</v>
+      </c>
+      <c r="H90" t="str">
+        <v>B</v>
+      </c>
+      <c r="I90" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>ca152dfe-8ddb-45c8-b084-8a5c9e6dacfa</v>
+      </c>
+      <c r="B91" t="str">
+        <v>Ryan Lewis</v>
+      </c>
+      <c r="C91">
+        <v>31</v>
+      </c>
+      <c r="D91" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E91" t="str">
+        <v>ryan.lewis85@yahoo.com</v>
+      </c>
+      <c r="F91" t="str">
+        <v>0400 187 811</v>
+      </c>
+      <c r="G91" t="str">
+        <v>Canberra</v>
+      </c>
+      <c r="H91" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I91" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>2811bf99-369b-4c0a-b5d6-4ff46cd7aa5e</v>
+      </c>
+      <c r="B92" t="str">
+        <v>Lucas Thomas</v>
+      </c>
+      <c r="C92">
+        <v>33</v>
+      </c>
+      <c r="D92" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E92" t="str">
+        <v>lucas.thomas30@yahoo.com</v>
+      </c>
+      <c r="F92" t="str">
+        <v>0412 527 117</v>
+      </c>
+      <c r="G92" t="str">
+        <v>Brisbane</v>
+      </c>
+      <c r="H92" t="str">
+        <v>B</v>
+      </c>
+      <c r="I92" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>0e8f635e-8f06-4224-a2cc-4263ac307ba2</v>
+      </c>
+      <c r="B93" t="str">
+        <v>Joshua Jones</v>
+      </c>
+      <c r="C93">
+        <v>32</v>
+      </c>
+      <c r="D93" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E93" t="str">
+        <v>joshua.jones82@yahoo.com</v>
+      </c>
+      <c r="F93" t="str">
+        <v>0400 652 840</v>
+      </c>
+      <c r="G93" t="str">
+        <v>Toowoomba</v>
+      </c>
+      <c r="H93" t="str">
+        <v>B</v>
+      </c>
+      <c r="I93" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>25370fa8-38bb-4172-9e02-23a59fcfd87a</v>
+      </c>
+      <c r="B94" t="str">
+        <v>Carter Hill</v>
+      </c>
+      <c r="C94">
+        <v>25</v>
+      </c>
+      <c r="D94" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E94" t="str">
+        <v>carter.hill93@gmail.com</v>
+      </c>
+      <c r="F94" t="str">
+        <v>0404 349 309</v>
+      </c>
+      <c r="G94" t="str">
+        <v>Newcastle</v>
+      </c>
+      <c r="H94" t="str">
+        <v>B</v>
+      </c>
+      <c r="I94" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>d7b0dd51-8aea-4b32-bb8d-8b60271fc6c9</v>
+      </c>
+      <c r="B95" t="str">
+        <v>Jayden Nguyen</v>
+      </c>
+      <c r="C95">
+        <v>53</v>
+      </c>
+      <c r="D95" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E95" t="str">
+        <v>jayden.nguyen88@hotmail.com</v>
+      </c>
+      <c r="F95" t="str">
+        <v>0401 108 628</v>
+      </c>
+      <c r="G95" t="str">
+        <v>Hobart</v>
+      </c>
+      <c r="H95" t="str">
+        <v>B</v>
+      </c>
+      <c r="I95" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>8956e289-91e9-4c15-bf2b-a13dee2fa476</v>
+      </c>
+      <c r="B96" t="str">
+        <v>Landon Wright</v>
+      </c>
+      <c r="C96">
+        <v>41</v>
+      </c>
+      <c r="D96" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E96" t="str">
+        <v>landon.wright36@outlook.com</v>
+      </c>
+      <c r="F96" t="str">
+        <v>0402 415 597</v>
+      </c>
+      <c r="G96" t="str">
+        <v>Cairns</v>
+      </c>
+      <c r="H96" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I96" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>ef94ff15-5215-4ecd-9ad1-9ac44fd0e56a</v>
+      </c>
+      <c r="B97" t="str">
+        <v>Luke Flores</v>
+      </c>
+      <c r="C97">
+        <v>65</v>
+      </c>
+      <c r="D97" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E97" t="str">
+        <v>luke.flores39@hotmail.com</v>
+      </c>
+      <c r="F97" t="str">
+        <v>0403 225 544</v>
+      </c>
+      <c r="G97" t="str">
+        <v>Melbourne</v>
+      </c>
+      <c r="H97" t="str">
+        <v>B</v>
+      </c>
+      <c r="I97" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>6ddd3228-f125-4d3e-88e2-157cd730b552</v>
+      </c>
+      <c r="B98" t="str">
+        <v>Theodore Nelson</v>
+      </c>
+      <c r="C98">
+        <v>41</v>
+      </c>
+      <c r="D98" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E98" t="str">
+        <v>theodore.nelson79@gmail.com</v>
+      </c>
+      <c r="F98" t="str">
+        <v>0403 813 793</v>
+      </c>
+      <c r="G98" t="str">
+        <v>Canberra</v>
+      </c>
+      <c r="H98" t="str">
+        <v>B</v>
+      </c>
+      <c r="I98" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>5331c6bd-19f8-416a-9166-06280a3c547e</v>
+      </c>
+      <c r="B99" t="str">
+        <v>Ethan Rodriguez</v>
+      </c>
+      <c r="C99">
+        <v>57</v>
+      </c>
+      <c r="D99" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E99" t="str">
+        <v>ethan.rodriguez60@hotmail.com</v>
+      </c>
+      <c r="F99" t="str">
+        <v>0411 690 563</v>
+      </c>
+      <c r="G99" t="str">
+        <v>Townsville</v>
+      </c>
+      <c r="H99" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I99" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>ecc70875-f282-4849-9e60-071edc278977</v>
+      </c>
+      <c r="B100" t="str">
+        <v>Noah White</v>
+      </c>
+      <c r="C100">
+        <v>22</v>
+      </c>
+      <c r="D100" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E100" t="str">
+        <v>noah.white20@gmail.com</v>
+      </c>
+      <c r="F100" t="str">
+        <v>0410 565 594</v>
+      </c>
+      <c r="G100" t="str">
+        <v>Adelaide</v>
+      </c>
+      <c r="H100" t="str">
+        <v>A</v>
+      </c>
+      <c r="I100" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>2fa810c7-61d0-4519-a314-824cf0873e30</v>
+      </c>
+      <c r="B101" t="str">
+        <v>Theodore Allen</v>
+      </c>
+      <c r="C101">
+        <v>49</v>
+      </c>
+      <c r="D101" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E101" t="str">
+        <v>theodore.allen25@outlook.com</v>
+      </c>
+      <c r="F101" t="str">
+        <v>0400 438 819</v>
+      </c>
+      <c r="G101" t="str">
+        <v>Newcastle</v>
+      </c>
+      <c r="H101" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I101" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>59bae9a1-93b9-471d-a2b7-074918634f6b</v>
+      </c>
+      <c r="B102" t="str">
+        <v>Joshua Clark</v>
+      </c>
+      <c r="C102">
+        <v>25</v>
+      </c>
+      <c r="D102" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E102" t="str">
+        <v>joshua.clark16@outlook.com</v>
+      </c>
+      <c r="F102" t="str">
+        <v>0403 901 485</v>
+      </c>
+      <c r="G102" t="str">
+        <v>Sydney</v>
+      </c>
+      <c r="H102" t="str">
+        <v>B</v>
+      </c>
+      <c r="I102" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>40727c14-a30e-4e3b-8b64-0359d25efc0c</v>
+      </c>
+      <c r="B103" t="str">
+        <v>Joshua Scott</v>
+      </c>
+      <c r="C103">
+        <v>56</v>
+      </c>
+      <c r="D103" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E103" t="str">
+        <v>joshua.scott95@outlook.com</v>
+      </c>
+      <c r="F103" t="str">
+        <v>0410 137 561</v>
+      </c>
+      <c r="G103" t="str">
+        <v>Canberra</v>
+      </c>
+      <c r="H103" t="str">
+        <v>B</v>
+      </c>
+      <c r="I103" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>e166fd4f-73eb-4bea-b8be-3acdee4f9fdc</v>
+      </c>
+      <c r="B104" t="str">
+        <v>Liam Lewis</v>
+      </c>
+      <c r="C104">
+        <v>23</v>
+      </c>
+      <c r="D104" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E104" t="str">
+        <v>liam.lewis79@yahoo.com</v>
+      </c>
+      <c r="F104" t="str">
+        <v>0404 203 198</v>
+      </c>
+      <c r="G104" t="str">
+        <v>Hobart</v>
+      </c>
+      <c r="H104" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I104" t="str">
+        <v>available</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M104"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>ID</v>
-      </c>
-      <c r="B1" t="str">
-        <v>RecordDayID</v>
-      </c>
-      <c r="C1" t="str">
-        <v>ContestantID</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Block</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Seat</v>
-      </c>
-      <c r="F1" t="str">
-        <v>BookingEmailSent</v>
-      </c>
-      <c r="G1" t="str">
-        <v>ConfirmedRSVP</v>
-      </c>
-      <c r="H1" t="str">
-        <v>Notes</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>20946cbf-8f88-4629-a6d2-d8510554cb9a</v>
-      </c>
-      <c r="B2" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C2" t="str">
-        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="str">
-        <v>B2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>f8463207-3f82-429c-bf09-986ae9a6cc97</v>
-      </c>
-      <c r="B3" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C3" t="str">
-        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="str">
-        <v>B3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>c1d29895-e1ab-4926-8d3b-29a9df7058de</v>
-      </c>
-      <c r="B4" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C4" t="str">
-        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="str">
-        <v>B4</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H4"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -999,7 +3807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D27"/>
   <sheetViews>

--- a/storage/backups/automatic-backup.xlsx
+++ b/storage/backups/automatic-backup.xlsx
@@ -5,8 +5,9 @@
   <sheets>
     <sheet name="Record Days" sheetId="1" r:id="rId1"/>
     <sheet name="Contestants" sheetId="2" r:id="rId2"/>
-    <sheet name="Groups" sheetId="3" r:id="rId3"/>
-    <sheet name="Block Types" sheetId="4" r:id="rId4"/>
+    <sheet name="Seat Assignments" sheetId="3" r:id="rId3"/>
+    <sheet name="Groups" sheetId="4" r:id="rId4"/>
+    <sheet name="Block Types" sheetId="5" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
@@ -717,25 +718,25 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
+        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
       </c>
       <c r="B2" t="str">
-        <v>Kathleen Reynolds</v>
+        <v>Felicity Parker-Hill</v>
       </c>
       <c r="C2">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D2" t="str">
         <v>Not Specified</v>
       </c>
       <c r="E2" t="str">
-        <v>kathleenmonicareynolds@gmail.com</v>
+        <v>felicity.parkerhill@endemolshine.com.au</v>
       </c>
       <c r="F2" t="str">
         <v>498086080</v>
       </c>
       <c r="G2" t="str">
-        <v>Footscray</v>
+        <v>Melbourne</v>
       </c>
       <c r="H2" t="str">
         <v/>
@@ -744,7 +745,7 @@
         <v>available</v>
       </c>
       <c r="J2" t="str">
-        <v>Peter Adamidis, Felicity Parker-Hill</v>
+        <v>Peter Adamidis, Kathleen Reynolds</v>
       </c>
       <c r="K2" t="str">
         <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
@@ -758,66 +759,60 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
+        <v>5a16ef0a-cce8-4d1b-bfa5-3892331170c1</v>
       </c>
       <c r="B3" t="str">
-        <v>Felicity Parker-Hill</v>
+        <v>Caroline Taylor</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D3" t="str">
-        <v>Not Specified</v>
+        <v>Female</v>
       </c>
       <c r="E3" t="str">
-        <v>felicity.parkerhill@endemolshine.com.au</v>
+        <v>caroline.taylor54@outlook.com</v>
       </c>
       <c r="F3" t="str">
-        <v>498086080</v>
+        <v>0402 864 601</v>
       </c>
       <c r="G3" t="str">
-        <v>Melbourne</v>
+        <v>Darwin</v>
       </c>
       <c r="H3" t="str">
-        <v/>
+        <v>B+</v>
       </c>
       <c r="I3" t="str">
         <v>available</v>
       </c>
       <c r="J3" t="str">
-        <v>Peter Adamidis, Kathleen Reynolds</v>
-      </c>
-      <c r="K3" t="str">
-        <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
-      </c>
-      <c r="L3" t="str">
-        <v>N</v>
+        <v>Hazel Mitchell</v>
       </c>
       <c r="M3" t="str">
-        <v>N/A</v>
+        <v>Arthritis - prefers aisle seating for easy exit</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>8e115c7e-8033-4466-bcb9-07ea089eb4be</v>
+        <v>0dd7de5c-0409-45e3-84a5-5f2ffbd591d8</v>
       </c>
       <c r="B4" t="str">
-        <v>Chloe Taylor</v>
+        <v>Harper Sanchez</v>
       </c>
       <c r="C4">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="D4" t="str">
         <v>Female</v>
       </c>
       <c r="E4" t="str">
-        <v>chloe.taylor7@gmail.com</v>
+        <v>harper.sanchez76@gmail.com</v>
       </c>
       <c r="F4" t="str">
-        <v>0412 903 254</v>
+        <v>0411 422 972</v>
       </c>
       <c r="G4" t="str">
-        <v>Townsville</v>
+        <v>Geelong</v>
       </c>
       <c r="H4" t="str">
         <v>C</v>
@@ -825,156 +820,156 @@
       <c r="I4" t="str">
         <v>available</v>
       </c>
+      <c r="J4" t="str">
+        <v>Leah Scott</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>94116225-6732-4c15-9e4b-66f7727602d5</v>
+        <v>8e115c7e-8033-4466-bcb9-07ea089eb4be</v>
       </c>
       <c r="B5" t="str">
-        <v>Audrey Ramirez</v>
+        <v>Chloe Taylor</v>
       </c>
       <c r="C5">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="D5" t="str">
         <v>Female</v>
       </c>
       <c r="E5" t="str">
-        <v>audrey.ramirez12@gmail.com</v>
+        <v>chloe.taylor7@gmail.com</v>
       </c>
       <c r="F5" t="str">
-        <v>0411 212 619</v>
+        <v>0412 903 254</v>
       </c>
       <c r="G5" t="str">
-        <v>Brisbane</v>
+        <v>Townsville</v>
       </c>
       <c r="H5" t="str">
-        <v>B+</v>
+        <v>C</v>
       </c>
       <c r="I5" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>b8c1889f-fd66-4304-90d7-bd50422cbc52</v>
+        <v>992418b2-3029-4752-9552-0aa886433657</v>
       </c>
       <c r="B6" t="str">
-        <v>Maya Moore</v>
+        <v>Zoe Brown</v>
       </c>
       <c r="C6">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D6" t="str">
         <v>Female</v>
       </c>
       <c r="E6" t="str">
-        <v>maya.moore54@outlook.com</v>
+        <v>zoe.brown45@outlook.com</v>
       </c>
       <c r="F6" t="str">
-        <v>0400 718 585</v>
+        <v>0401 578 107</v>
       </c>
       <c r="G6" t="str">
-        <v>Toowoomba</v>
+        <v>Sydney</v>
       </c>
       <c r="H6" t="str">
-        <v>C</v>
+        <v>B+</v>
       </c>
       <c r="I6" t="str">
         <v>available</v>
+      </c>
+      <c r="J6" t="str">
+        <v>Chloe Jones</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
+        <v>bcc86f75-9a60-406c-be7c-4f31ea5c30ef</v>
       </c>
       <c r="B7" t="str">
-        <v>Peter Adamidis</v>
+        <v>Paisley Lee</v>
       </c>
       <c r="C7">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="D7" t="str">
-        <v>Not Specified</v>
+        <v>Female</v>
       </c>
       <c r="E7" t="str">
-        <v>peter.adamidis@gmail.com</v>
+        <v>paisley.lee78@hotmail.com</v>
       </c>
       <c r="F7" t="str">
-        <v>498086080</v>
+        <v>0400 179 607</v>
       </c>
       <c r="G7" t="str">
-        <v/>
+        <v>Ballarat</v>
       </c>
       <c r="H7" t="str">
-        <v/>
+        <v>B</v>
       </c>
       <c r="I7" t="str">
         <v>available</v>
       </c>
       <c r="J7" t="str">
-        <v>Kathleen Reynolds, Felicity Parker-Hill</v>
-      </c>
-      <c r="K7" t="str">
-        <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
-      </c>
-      <c r="L7" t="str">
-        <v>Y</v>
-      </c>
-      <c r="M7" t="str">
-        <v>Broken Leg</v>
+        <v>Aria Lopez</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>b9e02c2d-410d-4307-811c-7e52cf93b14b</v>
+        <v>42504e80-d5df-4b97-a283-eb96728c425f</v>
       </c>
       <c r="B8" t="str">
-        <v>Emily Moore</v>
+        <v>Ella Anderson</v>
       </c>
       <c r="C8">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D8" t="str">
         <v>Female</v>
       </c>
       <c r="E8" t="str">
-        <v>emily.moore11@hotmail.com</v>
+        <v>ella.anderson1@yahoo.com</v>
       </c>
       <c r="F8" t="str">
-        <v>0410 362 279</v>
+        <v>0412 908 910</v>
       </c>
       <c r="G8" t="str">
-        <v>Perth</v>
+        <v>Geelong</v>
       </c>
       <c r="H8" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I8" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="J8" t="str">
+        <v>Isabella Brown</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>5a16ef0a-cce8-4d1b-bfa5-3892331170c1</v>
+        <v>210066e7-58e9-4ebb-a504-dfbf383961b5</v>
       </c>
       <c r="B9" t="str">
-        <v>Caroline Taylor</v>
+        <v>Grace Scott</v>
       </c>
       <c r="C9">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D9" t="str">
         <v>Female</v>
       </c>
       <c r="E9" t="str">
-        <v>caroline.taylor54@outlook.com</v>
+        <v>grace.scott94@hotmail.com</v>
       </c>
       <c r="F9" t="str">
-        <v>0402 864 601</v>
+        <v>0410 377 869</v>
       </c>
       <c r="G9" t="str">
-        <v>Darwin</v>
+        <v>Toowoomba</v>
       </c>
       <c r="H9" t="str">
         <v>B+</v>
@@ -982,31 +977,34 @@
       <c r="I9" t="str">
         <v>available</v>
       </c>
+      <c r="J9" t="str">
+        <v>Audrey Smith</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>47cc1288-cbc0-4159-a52d-924c8912434d</v>
+        <v>9b54470e-fe91-4ebb-b0aa-becf22a8cc3c</v>
       </c>
       <c r="B10" t="str">
-        <v>Stella Martinez</v>
+        <v>Abigail Jackson</v>
       </c>
       <c r="C10">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D10" t="str">
         <v>Female</v>
       </c>
       <c r="E10" t="str">
-        <v>stella.martinez75@gmail.com</v>
+        <v>abigail.jackson65@outlook.com</v>
       </c>
       <c r="F10" t="str">
-        <v>0404 227 272</v>
+        <v>0411 824 257</v>
       </c>
       <c r="G10" t="str">
-        <v>Ballarat</v>
+        <v>Newcastle</v>
       </c>
       <c r="H10" t="str">
-        <v>C</v>
+        <v>B+</v>
       </c>
       <c r="I10" t="str">
         <v>available</v>
@@ -1014,89 +1012,98 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>42504e80-d5df-4b97-a283-eb96728c425f</v>
+        <v>ef837da0-c81f-4113-a389-db5e46ffaf4d</v>
       </c>
       <c r="B11" t="str">
-        <v>Ella Anderson</v>
+        <v>Aria Scott</v>
       </c>
       <c r="C11">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D11" t="str">
         <v>Female</v>
       </c>
       <c r="E11" t="str">
-        <v>ella.anderson1@yahoo.com</v>
+        <v>aria.scott42@outlook.com</v>
       </c>
       <c r="F11" t="str">
-        <v>0412 908 910</v>
+        <v>0401 330 548</v>
       </c>
       <c r="G11" t="str">
-        <v>Geelong</v>
+        <v>Hobart</v>
       </c>
       <c r="H11" t="str">
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="I11" t="str">
         <v>available</v>
+      </c>
+      <c r="J11" t="str">
+        <v>Maya Hernandez</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>9b54470e-fe91-4ebb-b0aa-becf22a8cc3c</v>
+        <v>aa6fa282-9894-4b21-a871-c9725586c397</v>
       </c>
       <c r="B12" t="str">
-        <v>Abigail Jackson</v>
+        <v>Audrey Thomas</v>
       </c>
       <c r="C12">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D12" t="str">
         <v>Female</v>
       </c>
       <c r="E12" t="str">
-        <v>abigail.jackson65@outlook.com</v>
+        <v>audrey.thomas38@gmail.com</v>
       </c>
       <c r="F12" t="str">
-        <v>0411 824 257</v>
+        <v>0400 437 270</v>
       </c>
       <c r="G12" t="str">
-        <v>Newcastle</v>
+        <v>Perth</v>
       </c>
       <c r="H12" t="str">
-        <v>B+</v>
+        <v>C</v>
       </c>
       <c r="I12" t="str">
         <v>available</v>
+      </c>
+      <c r="J12" t="str">
+        <v>Hannah Torres</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2d659242-2255-4502-b333-781c9b2645fd</v>
+        <v>2c188398-79a8-4bf6-b740-1ad9d535662e</v>
       </c>
       <c r="B13" t="str">
-        <v>Evelyn Sanchez</v>
+        <v>Everly Torres</v>
       </c>
       <c r="C13">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D13" t="str">
         <v>Female</v>
       </c>
       <c r="E13" t="str">
-        <v>evelyn.sanchez9@gmail.com</v>
+        <v>everly.torres12@gmail.com</v>
       </c>
       <c r="F13" t="str">
-        <v>0404 119 469</v>
+        <v>0412 804 179</v>
       </c>
       <c r="G13" t="str">
-        <v>Gold Coast</v>
+        <v>Sydney</v>
       </c>
       <c r="H13" t="str">
-        <v>B</v>
+        <v>A+</v>
       </c>
       <c r="I13" t="str">
         <v>available</v>
+      </c>
+      <c r="J13" t="str">
+        <v>Stella Green</v>
       </c>
     </row>
     <row r="14">
@@ -1127,28 +1134,31 @@
       <c r="I14" t="str">
         <v>available</v>
       </c>
+      <c r="J14" t="str">
+        <v>Audrey Thomas</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>6849995e-3474-4988-87b0-1db2638461ca</v>
+        <v>2d659242-2255-4502-b333-781c9b2645fd</v>
       </c>
       <c r="B15" t="str">
-        <v>Audrey Smith</v>
+        <v>Evelyn Sanchez</v>
       </c>
       <c r="C15">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="D15" t="str">
         <v>Female</v>
       </c>
       <c r="E15" t="str">
-        <v>audrey.smith66@gmail.com</v>
+        <v>evelyn.sanchez9@gmail.com</v>
       </c>
       <c r="F15" t="str">
-        <v>0410 904 568</v>
+        <v>0404 119 469</v>
       </c>
       <c r="G15" t="str">
-        <v>Ballarat</v>
+        <v>Gold Coast</v>
       </c>
       <c r="H15" t="str">
         <v>B</v>
@@ -1156,234 +1166,258 @@
       <c r="I15" t="str">
         <v>available</v>
       </c>
+      <c r="J15" t="str">
+        <v>Chloe Flores</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>97646711-3e33-4ee9-8d83-bd6e0363ece0</v>
+        <v>47cc1288-cbc0-4159-a52d-924c8912434d</v>
       </c>
       <c r="B16" t="str">
-        <v>Audrey Martin</v>
+        <v>Stella Martinez</v>
       </c>
       <c r="C16">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D16" t="str">
         <v>Female</v>
       </c>
       <c r="E16" t="str">
-        <v>audrey.martin33@yahoo.com</v>
+        <v>stella.martinez75@gmail.com</v>
       </c>
       <c r="F16" t="str">
-        <v>0403 767 239</v>
+        <v>0404 227 272</v>
       </c>
       <c r="G16" t="str">
-        <v>Adelaide</v>
+        <v>Ballarat</v>
       </c>
       <c r="H16" t="str">
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="I16" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>d37f9e40-d1a2-4238-9089-80517a709859</v>
+        <v>22cf4684-eeba-4ed3-8f61-746028381f4d</v>
       </c>
       <c r="B17" t="str">
-        <v>Mia Roberts</v>
+        <v>Harper Lewis</v>
       </c>
       <c r="C17">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D17" t="str">
         <v>Female</v>
       </c>
       <c r="E17" t="str">
-        <v>mia.roberts81@hotmail.com</v>
+        <v>harper.lewis57@hotmail.com</v>
       </c>
       <c r="F17" t="str">
-        <v>0412 368 553</v>
+        <v>0411 652 121</v>
       </c>
       <c r="G17" t="str">
-        <v>Toowoomba</v>
+        <v>Geelong</v>
       </c>
       <c r="H17" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I17" t="str">
         <v>available</v>
+      </c>
+      <c r="J17" t="str">
+        <v>Audrey Ramirez</v>
+      </c>
+      <c r="M17" t="str">
+        <v>Back issues - needs lumbar support chair</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>dd2de8e6-e7c9-40e4-8308-27a14e5f00da</v>
+        <v>b9e02c2d-410d-4307-811c-7e52cf93b14b</v>
       </c>
       <c r="B18" t="str">
-        <v>Chloe Jones</v>
+        <v>Emily Moore</v>
       </c>
       <c r="C18">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D18" t="str">
         <v>Female</v>
       </c>
       <c r="E18" t="str">
-        <v>chloe.jones20@outlook.com</v>
+        <v>emily.moore11@hotmail.com</v>
       </c>
       <c r="F18" t="str">
-        <v>0411 294 635</v>
+        <v>0410 362 279</v>
       </c>
       <c r="G18" t="str">
-        <v>Toowoomba</v>
+        <v>Perth</v>
       </c>
       <c r="H18" t="str">
-        <v>C</v>
+        <v>B+</v>
       </c>
       <c r="I18" t="str">
         <v>available</v>
+      </c>
+      <c r="J18" t="str">
+        <v>Grace Scott</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>eff76f3c-c868-4954-99ea-92a4ae6c8067</v>
+        <v>d37f9e40-d1a2-4238-9089-80517a709859</v>
       </c>
       <c r="B19" t="str">
-        <v>Abigail Lee</v>
+        <v>Mia Roberts</v>
       </c>
       <c r="C19">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" t="str">
         <v>Female</v>
       </c>
       <c r="E19" t="str">
-        <v>abigail.lee94@hotmail.com</v>
+        <v>mia.roberts81@hotmail.com</v>
       </c>
       <c r="F19" t="str">
-        <v>0402 888 384</v>
+        <v>0412 368 553</v>
       </c>
       <c r="G19" t="str">
-        <v>Wollongong</v>
+        <v>Toowoomba</v>
       </c>
       <c r="H19" t="str">
-        <v>B+</v>
+        <v>C</v>
       </c>
       <c r="I19" t="str">
         <v>available</v>
+      </c>
+      <c r="J19" t="str">
+        <v>Paisley Scott</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>1adac400-525f-40f4-8b6d-20df8ce78e9d</v>
+        <v>dd2de8e6-e7c9-40e4-8308-27a14e5f00da</v>
       </c>
       <c r="B20" t="str">
-        <v>Grace Scott</v>
+        <v>Chloe Jones</v>
       </c>
       <c r="C20">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D20" t="str">
         <v>Female</v>
       </c>
       <c r="E20" t="str">
-        <v>grace.scott40@outlook.com</v>
+        <v>chloe.jones20@outlook.com</v>
       </c>
       <c r="F20" t="str">
-        <v>0401 870 853</v>
+        <v>0411 294 635</v>
       </c>
       <c r="G20" t="str">
-        <v>Ballarat</v>
+        <v>Toowoomba</v>
       </c>
       <c r="H20" t="str">
-        <v>B+</v>
+        <v>C</v>
       </c>
       <c r="I20" t="str">
         <v>available</v>
+      </c>
+      <c r="J20" t="str">
+        <v>Zoe Brown</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>852226e3-fccb-4228-8627-5dc42cfe4387</v>
+        <v>2738f18e-1f2e-44d7-aa26-778ed59438ac</v>
       </c>
       <c r="B21" t="str">
-        <v>Aurora Rodriguez</v>
+        <v>Emilia Miller</v>
       </c>
       <c r="C21">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D21" t="str">
         <v>Female</v>
       </c>
       <c r="E21" t="str">
-        <v>aurora.rodriguez20@yahoo.com</v>
+        <v>emilia.miller56@outlook.com</v>
       </c>
       <c r="F21" t="str">
-        <v>0404 720 692</v>
+        <v>0403 506 698</v>
       </c>
       <c r="G21" t="str">
-        <v>Hobart</v>
+        <v>Melbourne</v>
       </c>
       <c r="H21" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="I21" t="str">
         <v>available</v>
+      </c>
+      <c r="J21" t="str">
+        <v>Victoria Carter</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>992418b2-3029-4752-9552-0aa886433657</v>
+        <v>0fc0ae2d-4068-4972-a5b1-963c241e317a</v>
       </c>
       <c r="B22" t="str">
-        <v>Zoe Brown</v>
+        <v>Emilia Thompson</v>
       </c>
       <c r="C22">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D22" t="str">
         <v>Female</v>
       </c>
       <c r="E22" t="str">
-        <v>zoe.brown45@outlook.com</v>
+        <v>emilia.thompson0@gmail.com</v>
       </c>
       <c r="F22" t="str">
-        <v>0401 578 107</v>
+        <v>0404 992 451</v>
       </c>
       <c r="G22" t="str">
-        <v>Sydney</v>
+        <v>Perth</v>
       </c>
       <c r="H22" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I22" t="str">
         <v>available</v>
+      </c>
+      <c r="J22" t="str">
+        <v>Violet Hall</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>210066e7-58e9-4ebb-a504-dfbf383961b5</v>
+        <v>0a153155-dcf5-4d56-9ed1-8960501157f8</v>
       </c>
       <c r="B23" t="str">
-        <v>Grace Scott</v>
+        <v>Aurora Gonzalez</v>
       </c>
       <c r="C23">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D23" t="str">
         <v>Female</v>
       </c>
       <c r="E23" t="str">
-        <v>grace.scott94@hotmail.com</v>
+        <v>aurora.gonzalez29@outlook.com</v>
       </c>
       <c r="F23" t="str">
-        <v>0410 377 869</v>
+        <v>0404 610 172</v>
       </c>
       <c r="G23" t="str">
         <v>Toowoomba</v>
       </c>
       <c r="H23" t="str">
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="I23" t="str">
         <v>available</v>
@@ -1391,60 +1425,66 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>bcc86f75-9a60-406c-be7c-4f31ea5c30ef</v>
+        <v>97646711-3e33-4ee9-8d83-bd6e0363ece0</v>
       </c>
       <c r="B24" t="str">
-        <v>Paisley Lee</v>
+        <v>Audrey Martin</v>
       </c>
       <c r="C24">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="D24" t="str">
         <v>Female</v>
       </c>
       <c r="E24" t="str">
-        <v>paisley.lee78@hotmail.com</v>
+        <v>audrey.martin33@yahoo.com</v>
       </c>
       <c r="F24" t="str">
-        <v>0400 179 607</v>
+        <v>0403 767 239</v>
       </c>
       <c r="G24" t="str">
-        <v>Ballarat</v>
+        <v>Adelaide</v>
       </c>
       <c r="H24" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="I24" t="str">
         <v>available</v>
+      </c>
+      <c r="J24" t="str">
+        <v>Charlotte Johnson</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>0a153155-dcf5-4d56-9ed1-8960501157f8</v>
+        <v>94116225-6732-4c15-9e4b-66f7727602d5</v>
       </c>
       <c r="B25" t="str">
-        <v>Aurora Gonzalez</v>
+        <v>Audrey Ramirez</v>
       </c>
       <c r="C25">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D25" t="str">
         <v>Female</v>
       </c>
       <c r="E25" t="str">
-        <v>aurora.gonzalez29@outlook.com</v>
+        <v>audrey.ramirez12@gmail.com</v>
       </c>
       <c r="F25" t="str">
-        <v>0404 610 172</v>
+        <v>0411 212 619</v>
       </c>
       <c r="G25" t="str">
-        <v>Toowoomba</v>
+        <v>Brisbane</v>
       </c>
       <c r="H25" t="str">
-        <v>A</v>
+        <v>B+</v>
       </c>
       <c r="I25" t="str">
         <v>available</v>
+      </c>
+      <c r="J25" t="str">
+        <v>Harper Lewis</v>
       </c>
     </row>
     <row r="26">
@@ -1475,28 +1515,31 @@
       <c r="I26" t="str">
         <v>available</v>
       </c>
+      <c r="J26" t="str">
+        <v>Audrey Martin</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>aa6fa282-9894-4b21-a871-c9725586c397</v>
+        <v>b09d810a-6eb0-4ea8-ac8b-df27315049f1</v>
       </c>
       <c r="B27" t="str">
-        <v>Audrey Thomas</v>
+        <v>Emily Thomas</v>
       </c>
       <c r="C27">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="D27" t="str">
         <v>Female</v>
       </c>
       <c r="E27" t="str">
-        <v>audrey.thomas38@gmail.com</v>
+        <v>emily.thomas25@outlook.com</v>
       </c>
       <c r="F27" t="str">
-        <v>0400 437 270</v>
+        <v>0402 648 577</v>
       </c>
       <c r="G27" t="str">
-        <v>Perth</v>
+        <v>Geelong</v>
       </c>
       <c r="H27" t="str">
         <v>C</v>
@@ -1504,28 +1547,34 @@
       <c r="I27" t="str">
         <v>available</v>
       </c>
+      <c r="J27" t="str">
+        <v>Stella Garcia</v>
+      </c>
+      <c r="M27" t="str">
+        <v>Knee replacement - cannot climb stairs</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>0fc0ae2d-4068-4972-a5b1-963c241e317a</v>
+        <v>6849995e-3474-4988-87b0-1db2638461ca</v>
       </c>
       <c r="B28" t="str">
-        <v>Emilia Thompson</v>
+        <v>Audrey Smith</v>
       </c>
       <c r="C28">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D28" t="str">
         <v>Female</v>
       </c>
       <c r="E28" t="str">
-        <v>emilia.thompson0@gmail.com</v>
+        <v>audrey.smith66@gmail.com</v>
       </c>
       <c r="F28" t="str">
-        <v>0404 992 451</v>
+        <v>0410 904 568</v>
       </c>
       <c r="G28" t="str">
-        <v>Perth</v>
+        <v>Ballarat</v>
       </c>
       <c r="H28" t="str">
         <v>B</v>
@@ -1533,34 +1582,40 @@
       <c r="I28" t="str">
         <v>available</v>
       </c>
+      <c r="J28" t="str">
+        <v>Grace Scott</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>0dd7de5c-0409-45e3-84a5-5f2ffbd591d8</v>
+        <v>eff76f3c-c868-4954-99ea-92a4ae6c8067</v>
       </c>
       <c r="B29" t="str">
-        <v>Harper Sanchez</v>
+        <v>Abigail Lee</v>
       </c>
       <c r="C29">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D29" t="str">
         <v>Female</v>
       </c>
       <c r="E29" t="str">
-        <v>harper.sanchez76@gmail.com</v>
+        <v>abigail.lee94@hotmail.com</v>
       </c>
       <c r="F29" t="str">
-        <v>0411 422 972</v>
+        <v>0402 888 384</v>
       </c>
       <c r="G29" t="str">
-        <v>Geelong</v>
+        <v>Wollongong</v>
       </c>
       <c r="H29" t="str">
-        <v>C</v>
+        <v>B+</v>
       </c>
       <c r="I29" t="str">
         <v>available</v>
+      </c>
+      <c r="J29" t="str">
+        <v>Hannah Martin</v>
       </c>
     </row>
     <row r="30">
@@ -1591,57 +1646,63 @@
       <c r="I30" t="str">
         <v>available</v>
       </c>
+      <c r="J30" t="str">
+        <v>Maya Moore</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>22cf4684-eeba-4ed3-8f61-746028381f4d</v>
+        <v>347bdea3-79f6-4991-9601-b2d86513429e</v>
       </c>
       <c r="B31" t="str">
-        <v>Harper Lewis</v>
+        <v>Violet Hall</v>
       </c>
       <c r="C31">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D31" t="str">
         <v>Female</v>
       </c>
       <c r="E31" t="str">
-        <v>harper.lewis57@hotmail.com</v>
+        <v>violet.hall8@yahoo.com</v>
       </c>
       <c r="F31" t="str">
-        <v>0411 652 121</v>
+        <v>0404 640 755</v>
       </c>
       <c r="G31" t="str">
-        <v>Geelong</v>
+        <v>Adelaide</v>
       </c>
       <c r="H31" t="str">
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="I31" t="str">
         <v>available</v>
+      </c>
+      <c r="J31" t="str">
+        <v>Emilia Thompson</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>ef837da0-c81f-4113-a389-db5e46ffaf4d</v>
+        <v>55099144-967b-4cf2-b4ed-3cfe46413c92</v>
       </c>
       <c r="B32" t="str">
-        <v>Aria Scott</v>
+        <v>Maya Hernandez</v>
       </c>
       <c r="C32">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D32" t="str">
         <v>Female</v>
       </c>
       <c r="E32" t="str">
-        <v>aria.scott42@outlook.com</v>
+        <v>maya.hernandez32@outlook.com</v>
       </c>
       <c r="F32" t="str">
-        <v>0401 330 548</v>
+        <v>0400 358 904</v>
       </c>
       <c r="G32" t="str">
-        <v>Hobart</v>
+        <v>Brisbane</v>
       </c>
       <c r="H32" t="str">
         <v>C</v>
@@ -1649,118 +1710,127 @@
       <c r="I32" t="str">
         <v>available</v>
       </c>
+      <c r="J32" t="str">
+        <v>Aria Scott</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>2738f18e-1f2e-44d7-aa26-778ed59438ac</v>
+        <v>c4e002c2-94ef-471f-b43d-e6b2a8d35a1c</v>
       </c>
       <c r="B33" t="str">
-        <v>Emilia Miller</v>
+        <v>Paisley Scott</v>
       </c>
       <c r="C33">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D33" t="str">
         <v>Female</v>
       </c>
       <c r="E33" t="str">
-        <v>emilia.miller56@outlook.com</v>
+        <v>paisley.scott78@yahoo.com</v>
       </c>
       <c r="F33" t="str">
-        <v>0403 506 698</v>
+        <v>0410 215 419</v>
       </c>
       <c r="G33" t="str">
-        <v>Melbourne</v>
+        <v>Ballarat</v>
       </c>
       <c r="H33" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I33" t="str">
         <v>available</v>
+      </c>
+      <c r="J33" t="str">
+        <v>Mia Roberts</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>b09d810a-6eb0-4ea8-ac8b-df27315049f1</v>
+        <v>bf283832-25b8-4d7f-9e0f-ef2f10903233</v>
       </c>
       <c r="B34" t="str">
-        <v>Emily Thomas</v>
+        <v>Hunter Jackson</v>
       </c>
       <c r="C34">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D34" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E34" t="str">
-        <v>emily.thomas25@outlook.com</v>
+        <v>hunter.jackson50@outlook.com</v>
       </c>
       <c r="F34" t="str">
-        <v>0402 648 577</v>
+        <v>0404 841 788</v>
       </c>
       <c r="G34" t="str">
-        <v>Geelong</v>
+        <v>Townsville</v>
       </c>
       <c r="H34" t="str">
         <v>C</v>
       </c>
       <c r="I34" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>2c188398-79a8-4bf6-b740-1ad9d535662e</v>
+        <v>c5fdfaeb-862e-43ab-bf0e-ff3e14e5dbb3</v>
       </c>
       <c r="B35" t="str">
-        <v>Everly Torres</v>
+        <v>Hannah Martin</v>
       </c>
       <c r="C35">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D35" t="str">
         <v>Female</v>
       </c>
       <c r="E35" t="str">
-        <v>everly.torres12@gmail.com</v>
+        <v>hannah.martin78@yahoo.com</v>
       </c>
       <c r="F35" t="str">
-        <v>0412 804 179</v>
+        <v>0410 940 985</v>
       </c>
       <c r="G35" t="str">
-        <v>Sydney</v>
+        <v>Hobart</v>
       </c>
       <c r="H35" t="str">
-        <v>A+</v>
+        <v>B</v>
       </c>
       <c r="I35" t="str">
         <v>available</v>
+      </c>
+      <c r="J35" t="str">
+        <v>Abigail Lee</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>55099144-967b-4cf2-b4ed-3cfe46413c92</v>
+        <v>d609a3ee-08af-4d16-aa51-c67e35cfa5c9</v>
       </c>
       <c r="B36" t="str">
-        <v>Maya Hernandez</v>
+        <v>Ryan Williams</v>
       </c>
       <c r="C36">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D36" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E36" t="str">
-        <v>maya.hernandez32@outlook.com</v>
+        <v>ryan.williams82@hotmail.com</v>
       </c>
       <c r="F36" t="str">
-        <v>0400 358 904</v>
+        <v>0401 450 673</v>
       </c>
       <c r="G36" t="str">
-        <v>Brisbane</v>
+        <v>Perth</v>
       </c>
       <c r="H36" t="str">
-        <v>C</v>
+        <v>B+</v>
       </c>
       <c r="I36" t="str">
         <v>available</v>
@@ -1768,25 +1838,25 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>c4e002c2-94ef-471f-b43d-e6b2a8d35a1c</v>
+        <v>32ffeaf9-5f22-4db7-a70b-cbaab834db0d</v>
       </c>
       <c r="B37" t="str">
-        <v>Paisley Scott</v>
+        <v>Isabella Hill</v>
       </c>
       <c r="C37">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D37" t="str">
         <v>Female</v>
       </c>
       <c r="E37" t="str">
-        <v>paisley.scott78@yahoo.com</v>
+        <v>isabella.hill77@hotmail.com</v>
       </c>
       <c r="F37" t="str">
-        <v>0410 215 419</v>
+        <v>0412 663 356</v>
       </c>
       <c r="G37" t="str">
-        <v>Ballarat</v>
+        <v>Darwin</v>
       </c>
       <c r="H37" t="str">
         <v>B+</v>
@@ -1797,83 +1867,86 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>29fc5656-fb78-4c9b-9800-b68957bc0a07</v>
+        <v>1df33560-ebf2-41ec-995c-52f3f1df78d5</v>
       </c>
       <c r="B38" t="str">
-        <v>Aria Lopez</v>
+        <v>Genesis Jones</v>
       </c>
       <c r="C38">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D38" t="str">
         <v>Female</v>
       </c>
       <c r="E38" t="str">
-        <v>aria.lopez55@hotmail.com</v>
+        <v>genesis.jones50@yahoo.com</v>
       </c>
       <c r="F38" t="str">
-        <v>0404 812 491</v>
+        <v>0404 967 604</v>
       </c>
       <c r="G38" t="str">
         <v>Sydney</v>
       </c>
       <c r="H38" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I38" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>bb319a54-7dbf-4a05-bd7f-8f2f6aa6b414</v>
+        <v>567e589d-b232-43c2-9d30-3ff1e359f372</v>
       </c>
       <c r="B39" t="str">
-        <v>Isabella Brown</v>
+        <v>Hazel Mitchell</v>
       </c>
       <c r="C39">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="D39" t="str">
         <v>Female</v>
       </c>
       <c r="E39" t="str">
-        <v>isabella.brown43@outlook.com</v>
+        <v>hazel.mitchell91@gmail.com</v>
       </c>
       <c r="F39" t="str">
-        <v>0403 771 690</v>
+        <v>0400 683 761</v>
       </c>
       <c r="G39" t="str">
-        <v>Darwin</v>
+        <v>Perth</v>
       </c>
       <c r="H39" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="I39" t="str">
         <v>available</v>
+      </c>
+      <c r="J39" t="str">
+        <v>Caroline Taylor</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>da957311-60b3-4bfc-b980-ac0506dccd20</v>
+        <v>f960de1f-a40f-4281-9d39-2a7822335b9b</v>
       </c>
       <c r="B40" t="str">
-        <v>Stella Garcia</v>
+        <v>Victoria Carter</v>
       </c>
       <c r="C40">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D40" t="str">
         <v>Female</v>
       </c>
       <c r="E40" t="str">
-        <v>stella.garcia89@hotmail.com</v>
+        <v>victoria.carter74@gmail.com</v>
       </c>
       <c r="F40" t="str">
-        <v>0403 655 540</v>
+        <v>0411 641 632</v>
       </c>
       <c r="G40" t="str">
-        <v>Toowoomba</v>
+        <v>Gold Coast</v>
       </c>
       <c r="H40" t="str">
         <v>B+</v>
@@ -1881,86 +1954,92 @@
       <c r="I40" t="str">
         <v>available</v>
       </c>
+      <c r="J40" t="str">
+        <v>Emilia Miller</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>c1783cdf-a656-46b4-9331-4d9d18d40b51</v>
+        <v>939eed5c-b520-4a34-8d08-2243d6aa41c1</v>
       </c>
       <c r="B41" t="str">
-        <v>Aurora Walker</v>
+        <v>Andrew Garcia</v>
       </c>
       <c r="C41">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="D41" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E41" t="str">
-        <v>aurora.walker1@outlook.com</v>
+        <v>andrew.garcia26@hotmail.com</v>
       </c>
       <c r="F41" t="str">
-        <v>0403 522 404</v>
+        <v>0400 450 222</v>
       </c>
       <c r="G41" t="str">
         <v>Darwin</v>
       </c>
       <c r="H41" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I41" t="str">
         <v>available</v>
+      </c>
+      <c r="M41" t="str">
+        <v>Limited mobility - prefers ground floor seating</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>32ffeaf9-5f22-4db7-a70b-cbaab834db0d</v>
+        <v>9efd8ec8-0e91-45d9-804b-518939fbac76</v>
       </c>
       <c r="B42" t="str">
-        <v>Isabella Hill</v>
+        <v>Noah Hernandez</v>
       </c>
       <c r="C42">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D42" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E42" t="str">
-        <v>isabella.hill77@hotmail.com</v>
+        <v>noah.hernandez9@hotmail.com</v>
       </c>
       <c r="F42" t="str">
-        <v>0412 663 356</v>
+        <v>0404 855 230</v>
       </c>
       <c r="G42" t="str">
-        <v>Darwin</v>
+        <v>Cairns</v>
       </c>
       <c r="H42" t="str">
-        <v>B+</v>
+        <v>C</v>
       </c>
       <c r="I42" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>f960de1f-a40f-4281-9d39-2a7822335b9b</v>
+        <v>da957311-60b3-4bfc-b980-ac0506dccd20</v>
       </c>
       <c r="B43" t="str">
-        <v>Victoria Carter</v>
+        <v>Stella Garcia</v>
       </c>
       <c r="C43">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D43" t="str">
         <v>Female</v>
       </c>
       <c r="E43" t="str">
-        <v>victoria.carter74@gmail.com</v>
+        <v>stella.garcia89@hotmail.com</v>
       </c>
       <c r="F43" t="str">
-        <v>0411 641 632</v>
+        <v>0403 655 540</v>
       </c>
       <c r="G43" t="str">
-        <v>Gold Coast</v>
+        <v>Toowoomba</v>
       </c>
       <c r="H43" t="str">
         <v>B+</v>
@@ -1968,31 +2047,34 @@
       <c r="I43" t="str">
         <v>available</v>
       </c>
+      <c r="J43" t="str">
+        <v>Emily Thomas</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>c5fdfaeb-862e-43ab-bf0e-ff3e14e5dbb3</v>
+        <v>f5233693-d357-4cac-a660-70ef0398a969</v>
       </c>
       <c r="B44" t="str">
-        <v>Hannah Martin</v>
+        <v>Nathan Allen</v>
       </c>
       <c r="C44">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="D44" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E44" t="str">
-        <v>hannah.martin78@yahoo.com</v>
+        <v>nathan.allen87@outlook.com</v>
       </c>
       <c r="F44" t="str">
-        <v>0410 940 985</v>
+        <v>0403 587 263</v>
       </c>
       <c r="G44" t="str">
-        <v>Hobart</v>
+        <v>Adelaide</v>
       </c>
       <c r="H44" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I44" t="str">
         <v>available</v>
@@ -2000,28 +2082,28 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>f6a281bb-caec-44cf-a596-a6e92d6e2610</v>
+        <v>292da493-0524-4ee4-b911-1bb34e328b8c</v>
       </c>
       <c r="B45" t="str">
-        <v>Leah Scott</v>
+        <v>Jackson Young</v>
       </c>
       <c r="C45">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="D45" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E45" t="str">
-        <v>leah.scott74@gmail.com</v>
+        <v>jackson.young79@yahoo.com</v>
       </c>
       <c r="F45" t="str">
-        <v>0402 414 358</v>
+        <v>0412 940 993</v>
       </c>
       <c r="G45" t="str">
-        <v>Perth</v>
+        <v>Ballarat</v>
       </c>
       <c r="H45" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I45" t="str">
         <v>available</v>
@@ -2029,25 +2111,25 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>cd648690-8cd1-44b6-be26-0521038f442f</v>
+        <v>699a6b21-dcdf-4a6c-a093-53af77ccdedb</v>
       </c>
       <c r="B46" t="str">
-        <v>Stella Hall</v>
+        <v>Emilia Lopez</v>
       </c>
       <c r="C46">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D46" t="str">
         <v>Female</v>
       </c>
       <c r="E46" t="str">
-        <v>stella.hall72@gmail.com</v>
+        <v>emilia.lopez21@gmail.com</v>
       </c>
       <c r="F46" t="str">
-        <v>0410 133 818</v>
+        <v>0403 491 553</v>
       </c>
       <c r="G46" t="str">
-        <v>Wollongong</v>
+        <v>Cairns</v>
       </c>
       <c r="H46" t="str">
         <v>B</v>
@@ -2055,31 +2137,34 @@
       <c r="I46" t="str">
         <v>available</v>
       </c>
+      <c r="J46" t="str">
+        <v>Aurora Rodriguez</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>f693d8fc-436b-426a-9bca-0b141221ab3f</v>
+        <v>efe20d3d-2162-4ff8-a8ff-4102e5d3f3ab</v>
       </c>
       <c r="B47" t="str">
-        <v>Evelyn Clark</v>
+        <v>Cameron Lee</v>
       </c>
       <c r="C47">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D47" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E47" t="str">
-        <v>evelyn.clark47@outlook.com</v>
+        <v>cameron.lee78@yahoo.com</v>
       </c>
       <c r="F47" t="str">
-        <v>0410 941 656</v>
+        <v>0404 821 708</v>
       </c>
       <c r="G47" t="str">
-        <v>Hobart</v>
+        <v>Cairns</v>
       </c>
       <c r="H47" t="str">
-        <v>C</v>
+        <v>B+</v>
       </c>
       <c r="I47" t="str">
         <v>available</v>
@@ -2087,57 +2172,60 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>e2f70c5c-0a8d-4055-8281-2ad2ae2e0cd6</v>
+        <v>c1783cdf-a656-46b4-9331-4d9d18d40b51</v>
       </c>
       <c r="B48" t="str">
-        <v>Stella Green</v>
+        <v>Aurora Walker</v>
       </c>
       <c r="C48">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D48" t="str">
         <v>Female</v>
       </c>
       <c r="E48" t="str">
-        <v>stella.green92@gmail.com</v>
+        <v>aurora.walker1@outlook.com</v>
       </c>
       <c r="F48" t="str">
-        <v>0404 230 858</v>
+        <v>0403 522 404</v>
       </c>
       <c r="G48" t="str">
-        <v>Wollongong</v>
+        <v>Darwin</v>
       </c>
       <c r="H48" t="str">
-        <v>A</v>
+        <v>B+</v>
       </c>
       <c r="I48" t="str">
         <v>available</v>
+      </c>
+      <c r="M48" t="str">
+        <v>Vision impaired - needs assistance</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>347bdea3-79f6-4991-9601-b2d86513429e</v>
+        <v>182bd5d2-7f68-4c83-b156-e80856f3b6b7</v>
       </c>
       <c r="B49" t="str">
-        <v>Violet Hall</v>
+        <v>Mason Nelson</v>
       </c>
       <c r="C49">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D49" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E49" t="str">
-        <v>violet.hall8@yahoo.com</v>
+        <v>mason.nelson14@hotmail.com</v>
       </c>
       <c r="F49" t="str">
-        <v>0404 640 755</v>
+        <v>0403 485 650</v>
       </c>
       <c r="G49" t="str">
-        <v>Adelaide</v>
+        <v>Canberra</v>
       </c>
       <c r="H49" t="str">
-        <v>C</v>
+        <v>B+</v>
       </c>
       <c r="I49" t="str">
         <v>available</v>
@@ -2145,54 +2233,57 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>adb0c362-d095-4bfd-98dc-c93920fd22d6</v>
+        <v>7728eead-ab7c-467f-bb41-2abd7952591a</v>
       </c>
       <c r="B50" t="str">
-        <v>Victoria Torres</v>
+        <v>Oliver Rivera</v>
       </c>
       <c r="C50">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D50" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E50" t="str">
-        <v>victoria.torres48@outlook.com</v>
+        <v>oliver.rivera58@outlook.com</v>
       </c>
       <c r="F50" t="str">
-        <v>0411 539 271</v>
+        <v>0412 991 121</v>
       </c>
       <c r="G50" t="str">
-        <v>Geelong</v>
+        <v>Canberra</v>
       </c>
       <c r="H50" t="str">
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="I50" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="M50" t="str">
+        <v>Requires wheelchair access</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>567e589d-b232-43c2-9d30-3ff1e359f372</v>
+        <v>3d2128a1-336f-41e1-973b-b5dd54d90b19</v>
       </c>
       <c r="B51" t="str">
-        <v>Hazel Mitchell</v>
+        <v>Nova Brown</v>
       </c>
       <c r="C51">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="D51" t="str">
         <v>Female</v>
       </c>
       <c r="E51" t="str">
-        <v>hazel.mitchell91@gmail.com</v>
+        <v>nova.brown80@outlook.com</v>
       </c>
       <c r="F51" t="str">
-        <v>0400 683 761</v>
+        <v>0411 154 614</v>
       </c>
       <c r="G51" t="str">
-        <v>Perth</v>
+        <v>Ballarat</v>
       </c>
       <c r="H51" t="str">
         <v>A</v>
@@ -2203,28 +2294,28 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>699a6b21-dcdf-4a6c-a093-53af77ccdedb</v>
+        <v>0faec83d-7c29-4269-bf33-391ef02d60e4</v>
       </c>
       <c r="B52" t="str">
-        <v>Emilia Lopez</v>
+        <v>Anna White</v>
       </c>
       <c r="C52">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D52" t="str">
         <v>Female</v>
       </c>
       <c r="E52" t="str">
-        <v>emilia.lopez21@gmail.com</v>
+        <v>anna.white24@yahoo.com</v>
       </c>
       <c r="F52" t="str">
-        <v>0403 491 553</v>
+        <v>0400 132 564</v>
       </c>
       <c r="G52" t="str">
-        <v>Cairns</v>
+        <v>Adelaide</v>
       </c>
       <c r="H52" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I52" t="str">
         <v>available</v>
@@ -2232,202 +2323,211 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>222469f4-a8d9-4550-b6ee-db9d00e24edd</v>
+        <v>0bb2a1aa-a74d-4711-a2ea-609663a77b4d</v>
       </c>
       <c r="B53" t="str">
-        <v>Chloe Flores</v>
+        <v>Carter Harris</v>
       </c>
       <c r="C53">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D53" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E53" t="str">
-        <v>chloe.flores93@yahoo.com</v>
+        <v>carter.harris82@yahoo.com</v>
       </c>
       <c r="F53" t="str">
-        <v>0400 918 463</v>
+        <v>0412 175 744</v>
       </c>
       <c r="G53" t="str">
-        <v>Townsville</v>
+        <v>Geelong</v>
       </c>
       <c r="H53" t="str">
         <v>C</v>
       </c>
       <c r="I53" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>7664257a-dce4-407a-8f24-692043d568be</v>
+        <v>bb319a54-7dbf-4a05-bd7f-8f2f6aa6b414</v>
       </c>
       <c r="B54" t="str">
-        <v>Nora Jackson</v>
+        <v>Isabella Brown</v>
       </c>
       <c r="C54">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D54" t="str">
         <v>Female</v>
       </c>
       <c r="E54" t="str">
-        <v>nora.jackson83@hotmail.com</v>
+        <v>isabella.brown43@outlook.com</v>
       </c>
       <c r="F54" t="str">
-        <v>0404 434 899</v>
+        <v>0403 771 690</v>
       </c>
       <c r="G54" t="str">
-        <v>Wollongong</v>
+        <v>Darwin</v>
       </c>
       <c r="H54" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I54" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="J54" t="str">
+        <v>Ella Anderson</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>1df33560-ebf2-41ec-995c-52f3f1df78d5</v>
+        <v>cd648690-8cd1-44b6-be26-0521038f442f</v>
       </c>
       <c r="B55" t="str">
-        <v>Genesis Jones</v>
+        <v>Stella Hall</v>
       </c>
       <c r="C55">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="D55" t="str">
         <v>Female</v>
       </c>
       <c r="E55" t="str">
-        <v>genesis.jones50@yahoo.com</v>
+        <v>stella.hall72@gmail.com</v>
       </c>
       <c r="F55" t="str">
-        <v>0404 967 604</v>
+        <v>0410 133 818</v>
       </c>
       <c r="G55" t="str">
-        <v>Sydney</v>
+        <v>Wollongong</v>
       </c>
       <c r="H55" t="str">
         <v>B</v>
       </c>
       <c r="I55" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>3d2128a1-336f-41e1-973b-b5dd54d90b19</v>
+        <v>29fc5656-fb78-4c9b-9800-b68957bc0a07</v>
       </c>
       <c r="B56" t="str">
-        <v>Nova Brown</v>
+        <v>Aria Lopez</v>
       </c>
       <c r="C56">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D56" t="str">
         <v>Female</v>
       </c>
       <c r="E56" t="str">
-        <v>nova.brown80@outlook.com</v>
+        <v>aria.lopez55@hotmail.com</v>
       </c>
       <c r="F56" t="str">
-        <v>0411 154 614</v>
+        <v>0404 812 491</v>
       </c>
       <c r="G56" t="str">
-        <v>Ballarat</v>
+        <v>Sydney</v>
       </c>
       <c r="H56" t="str">
-        <v>A</v>
+        <v>B+</v>
       </c>
       <c r="I56" t="str">
         <v>available</v>
+      </c>
+      <c r="J56" t="str">
+        <v>Paisley Lee</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>0faec83d-7c29-4269-bf33-391ef02d60e4</v>
+        <v>f693d8fc-436b-426a-9bca-0b141221ab3f</v>
       </c>
       <c r="B57" t="str">
-        <v>Anna White</v>
+        <v>Evelyn Clark</v>
       </c>
       <c r="C57">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D57" t="str">
         <v>Female</v>
       </c>
       <c r="E57" t="str">
-        <v>anna.white24@yahoo.com</v>
+        <v>evelyn.clark47@outlook.com</v>
       </c>
       <c r="F57" t="str">
-        <v>0400 132 564</v>
+        <v>0410 941 656</v>
       </c>
       <c r="G57" t="str">
-        <v>Adelaide</v>
+        <v>Hobart</v>
       </c>
       <c r="H57" t="str">
-        <v>B+</v>
+        <v>C</v>
       </c>
       <c r="I57" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>bf283832-25b8-4d7f-9e0f-ef2f10903233</v>
+        <v>f1466859-7323-4893-a189-a0ce994068ba</v>
       </c>
       <c r="B58" t="str">
-        <v>Hunter Jackson</v>
+        <v>Anthony Thompson</v>
       </c>
       <c r="C58">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D58" t="str">
         <v>Male</v>
       </c>
       <c r="E58" t="str">
-        <v>hunter.jackson50@outlook.com</v>
+        <v>anthony.thompson29@yahoo.com</v>
       </c>
       <c r="F58" t="str">
-        <v>0404 841 788</v>
+        <v>0412 442 587</v>
       </c>
       <c r="G58" t="str">
         <v>Townsville</v>
       </c>
       <c r="H58" t="str">
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="I58" t="str">
         <v>available</v>
+      </c>
+      <c r="M58" t="str">
+        <v>Vision impaired - needs assistance</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>f5233693-d357-4cac-a660-70ef0398a969</v>
+        <v>adfcb6e3-82cb-46b9-8fb8-069fb91e2d4f</v>
       </c>
       <c r="B59" t="str">
-        <v>Nathan Allen</v>
+        <v>Mason Hill</v>
       </c>
       <c r="C59">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D59" t="str">
         <v>Male</v>
       </c>
       <c r="E59" t="str">
-        <v>nathan.allen87@outlook.com</v>
+        <v>mason.hill27@outlook.com</v>
       </c>
       <c r="F59" t="str">
-        <v>0403 587 263</v>
+        <v>0410 682 884</v>
       </c>
       <c r="G59" t="str">
-        <v>Adelaide</v>
+        <v>Canberra</v>
       </c>
       <c r="H59" t="str">
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="I59" t="str">
         <v>available</v>
@@ -2435,28 +2535,28 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>9efd8ec8-0e91-45d9-804b-518939fbac76</v>
+        <v>bf5a6984-f656-4e23-9646-85829e9daffe</v>
       </c>
       <c r="B60" t="str">
-        <v>Noah Hernandez</v>
+        <v>Scarlett Lopez</v>
       </c>
       <c r="C60">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="D60" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E60" t="str">
-        <v>noah.hernandez9@hotmail.com</v>
+        <v>scarlett.lopez53@yahoo.com</v>
       </c>
       <c r="F60" t="str">
-        <v>0404 855 230</v>
+        <v>0400 509 641</v>
       </c>
       <c r="G60" t="str">
-        <v>Cairns</v>
+        <v>Sydney</v>
       </c>
       <c r="H60" t="str">
-        <v>C</v>
+        <v>B+</v>
       </c>
       <c r="I60" t="str">
         <v>available</v>
@@ -2464,28 +2564,28 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>d609a3ee-08af-4d16-aa51-c67e35cfa5c9</v>
+        <v>34685ff7-6e85-4bbd-b546-77cfe11d7f7d</v>
       </c>
       <c r="B61" t="str">
-        <v>Ryan Williams</v>
+        <v>Grace Walker</v>
       </c>
       <c r="C61">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="D61" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E61" t="str">
-        <v>ryan.williams82@hotmail.com</v>
+        <v>grace.walker52@hotmail.com</v>
       </c>
       <c r="F61" t="str">
-        <v>0401 450 673</v>
+        <v>0412 754 780</v>
       </c>
       <c r="G61" t="str">
-        <v>Perth</v>
+        <v>Canberra</v>
       </c>
       <c r="H61" t="str">
-        <v>B+</v>
+        <v>A+</v>
       </c>
       <c r="I61" t="str">
         <v>available</v>
@@ -2493,28 +2593,28 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>7728eead-ab7c-467f-bb41-2abd7952591a</v>
+        <v>ee7f9d33-09d6-417b-a45f-3e6554489f5b</v>
       </c>
       <c r="B62" t="str">
-        <v>Oliver Rivera</v>
+        <v>Dylan Miller</v>
       </c>
       <c r="C62">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D62" t="str">
         <v>Male</v>
       </c>
       <c r="E62" t="str">
-        <v>oliver.rivera58@outlook.com</v>
+        <v>dylan.miller23@hotmail.com</v>
       </c>
       <c r="F62" t="str">
-        <v>0412 991 121</v>
+        <v>0402 417 876</v>
       </c>
       <c r="G62" t="str">
-        <v>Canberra</v>
+        <v>Melbourne</v>
       </c>
       <c r="H62" t="str">
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="I62" t="str">
         <v>available</v>
@@ -2522,28 +2622,28 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>7bfb9432-4b59-4ceb-895d-e03ae4837f91</v>
+        <v>f9d68052-4310-45c2-a5a9-64c272347899</v>
       </c>
       <c r="B63" t="str">
-        <v>Joshua Walker</v>
+        <v>Christian Rivera</v>
       </c>
       <c r="C63">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D63" t="str">
         <v>Male</v>
       </c>
       <c r="E63" t="str">
-        <v>joshua.walker97@gmail.com</v>
+        <v>christian.rivera86@hotmail.com</v>
       </c>
       <c r="F63" t="str">
-        <v>0402 640 379</v>
+        <v>0400 135 743</v>
       </c>
       <c r="G63" t="str">
-        <v>Darwin</v>
+        <v>Adelaide</v>
       </c>
       <c r="H63" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I63" t="str">
         <v>available</v>
@@ -2551,28 +2651,28 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>0bb2a1aa-a74d-4711-a2ea-609663a77b4d</v>
+        <v>5a6b21ec-9fac-4adc-b5ab-bcad20d0eca4</v>
       </c>
       <c r="B64" t="str">
-        <v>Carter Harris</v>
+        <v>Hunter Harris</v>
       </c>
       <c r="C64">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D64" t="str">
         <v>Male</v>
       </c>
       <c r="E64" t="str">
-        <v>carter.harris82@yahoo.com</v>
+        <v>hunter.harris1@gmail.com</v>
       </c>
       <c r="F64" t="str">
-        <v>0412 175 744</v>
+        <v>0404 782 485</v>
       </c>
       <c r="G64" t="str">
-        <v>Geelong</v>
+        <v>Gold Coast</v>
       </c>
       <c r="H64" t="str">
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="I64" t="str">
         <v>available</v>
@@ -2580,86 +2680,86 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>939eed5c-b520-4a34-8d08-2243d6aa41c1</v>
+        <v>39b7a0a4-be8b-49f1-a5af-c5a105e0ab58</v>
       </c>
       <c r="B65" t="str">
-        <v>Andrew Garcia</v>
+        <v>Joshua Carter</v>
       </c>
       <c r="C65">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="D65" t="str">
         <v>Male</v>
       </c>
       <c r="E65" t="str">
-        <v>andrew.garcia26@hotmail.com</v>
+        <v>joshua.carter41@hotmail.com</v>
       </c>
       <c r="F65" t="str">
-        <v>0400 450 222</v>
+        <v>0404 538 442</v>
       </c>
       <c r="G65" t="str">
-        <v>Darwin</v>
+        <v>Wollongong</v>
       </c>
       <c r="H65" t="str">
         <v>B</v>
       </c>
       <c r="I65" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>f1466859-7323-4893-a189-a0ce994068ba</v>
+        <v>2811bf99-369b-4c0a-b5d6-4ff46cd7aa5e</v>
       </c>
       <c r="B66" t="str">
-        <v>Anthony Thompson</v>
+        <v>Lucas Thomas</v>
       </c>
       <c r="C66">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D66" t="str">
         <v>Male</v>
       </c>
       <c r="E66" t="str">
-        <v>anthony.thompson29@yahoo.com</v>
+        <v>lucas.thomas30@yahoo.com</v>
       </c>
       <c r="F66" t="str">
-        <v>0412 442 587</v>
+        <v>0412 527 117</v>
       </c>
       <c r="G66" t="str">
-        <v>Townsville</v>
+        <v>Brisbane</v>
       </c>
       <c r="H66" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="I66" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>df712cc5-31d8-4341-b177-6603bf089235</v>
+        <v>df6c0d97-fd38-4b65-8765-b11a4939bd3b</v>
       </c>
       <c r="B67" t="str">
-        <v>Samuel King</v>
+        <v>Julian Rivera</v>
       </c>
       <c r="C67">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D67" t="str">
         <v>Male</v>
       </c>
       <c r="E67" t="str">
-        <v>samuel.king24@yahoo.com</v>
+        <v>julian.rivera31@outlook.com</v>
       </c>
       <c r="F67" t="str">
-        <v>0400 774 736</v>
+        <v>0401 414 502</v>
       </c>
       <c r="G67" t="str">
-        <v>Newcastle</v>
+        <v>Perth</v>
       </c>
       <c r="H67" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I67" t="str">
         <v>available</v>
@@ -2667,54 +2767,54 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>adfcb6e3-82cb-46b9-8fb8-069fb91e2d4f</v>
+        <v>0e8f635e-8f06-4224-a2cc-4263ac307ba2</v>
       </c>
       <c r="B68" t="str">
-        <v>Mason Hill</v>
+        <v>Joshua Jones</v>
       </c>
       <c r="C68">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D68" t="str">
         <v>Male</v>
       </c>
       <c r="E68" t="str">
-        <v>mason.hill27@outlook.com</v>
+        <v>joshua.jones82@yahoo.com</v>
       </c>
       <c r="F68" t="str">
-        <v>0410 682 884</v>
+        <v>0400 652 840</v>
       </c>
       <c r="G68" t="str">
-        <v>Canberra</v>
+        <v>Toowoomba</v>
       </c>
       <c r="H68" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="I68" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>292da493-0524-4ee4-b911-1bb34e328b8c</v>
+        <v>ca152dfe-8ddb-45c8-b084-8a5c9e6dacfa</v>
       </c>
       <c r="B69" t="str">
-        <v>Jackson Young</v>
+        <v>Ryan Lewis</v>
       </c>
       <c r="C69">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D69" t="str">
         <v>Male</v>
       </c>
       <c r="E69" t="str">
-        <v>jackson.young79@yahoo.com</v>
+        <v>ryan.lewis85@yahoo.com</v>
       </c>
       <c r="F69" t="str">
-        <v>0412 940 993</v>
+        <v>0400 187 811</v>
       </c>
       <c r="G69" t="str">
-        <v>Ballarat</v>
+        <v>Canberra</v>
       </c>
       <c r="H69" t="str">
         <v>B+</v>
@@ -2725,434 +2825,446 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>182bd5d2-7f68-4c83-b156-e80856f3b6b7</v>
+        <v>25370fa8-38bb-4172-9e02-23a59fcfd87a</v>
       </c>
       <c r="B70" t="str">
-        <v>Mason Nelson</v>
+        <v>Carter Hill</v>
       </c>
       <c r="C70">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="D70" t="str">
         <v>Male</v>
       </c>
       <c r="E70" t="str">
-        <v>mason.nelson14@hotmail.com</v>
+        <v>carter.hill93@gmail.com</v>
       </c>
       <c r="F70" t="str">
-        <v>0403 485 650</v>
+        <v>0404 349 309</v>
       </c>
       <c r="G70" t="str">
-        <v>Canberra</v>
+        <v>Newcastle</v>
       </c>
       <c r="H70" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I70" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>efe20d3d-2162-4ff8-a8ff-4102e5d3f3ab</v>
+        <v>a2ff3ad7-7964-4523-bf18-ce9994a910da</v>
       </c>
       <c r="B71" t="str">
-        <v>Cameron Lee</v>
+        <v>Nora Mitchell</v>
       </c>
       <c r="C71">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D71" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E71" t="str">
-        <v>cameron.lee78@yahoo.com</v>
+        <v>nora.mitchell66@outlook.com</v>
       </c>
       <c r="F71" t="str">
-        <v>0404 821 708</v>
+        <v>0412 196 419</v>
       </c>
       <c r="G71" t="str">
-        <v>Cairns</v>
+        <v>Adelaide</v>
       </c>
       <c r="H71" t="str">
-        <v>B+</v>
+        <v>C</v>
       </c>
       <c r="I71" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>ad836319-db56-4a08-bca6-a8e3f19c37a8</v>
+        <v>a8fa9125-28f1-47e1-adba-784701975e68</v>
       </c>
       <c r="B72" t="str">
-        <v>Emily Johnson</v>
+        <v>Abigail Williams</v>
       </c>
       <c r="C72">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="D72" t="str">
         <v>Female</v>
       </c>
       <c r="E72" t="str">
-        <v>emily.johnson58@hotmail.com</v>
+        <v>abigail.williams45@yahoo.com</v>
       </c>
       <c r="F72" t="str">
-        <v>0412 663 939</v>
+        <v>0403 497 445</v>
       </c>
       <c r="G72" t="str">
-        <v>Perth</v>
+        <v>Toowoomba</v>
       </c>
       <c r="H72" t="str">
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="I72" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>3db7cdb3-9a92-467c-b554-d23b524f42f5</v>
+        <v>ecc70875-f282-4849-9e60-071edc278977</v>
       </c>
       <c r="B73" t="str">
-        <v>Claire Campbell</v>
+        <v>Noah White</v>
       </c>
       <c r="C73">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D73" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E73" t="str">
-        <v>claire.campbell9@outlook.com</v>
+        <v>noah.white20@gmail.com</v>
       </c>
       <c r="F73" t="str">
-        <v>0401 164 490</v>
+        <v>0410 565 594</v>
       </c>
       <c r="G73" t="str">
-        <v>Darwin</v>
+        <v>Adelaide</v>
       </c>
       <c r="H73" t="str">
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="I73" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="M73" t="str">
+        <v>Requires wheelchair access</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>e15c67b6-0680-4284-a8aa-a525b34c592d</v>
+        <v>59bae9a1-93b9-471d-a2b7-074918634f6b</v>
       </c>
       <c r="B74" t="str">
-        <v>Aurora Williams</v>
+        <v>Joshua Clark</v>
       </c>
       <c r="C74">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D74" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E74" t="str">
-        <v>aurora.williams76@outlook.com</v>
+        <v>joshua.clark16@outlook.com</v>
       </c>
       <c r="F74" t="str">
-        <v>0401 416 170</v>
+        <v>0403 901 485</v>
       </c>
       <c r="G74" t="str">
-        <v>Darwin</v>
+        <v>Sydney</v>
       </c>
       <c r="H74" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I74" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>f68d2771-4820-4fef-b156-093280aeea67</v>
+        <v>da40ad70-95be-413c-b0f1-d089ef285cc8</v>
       </c>
       <c r="B75" t="str">
-        <v>Aria Nguyen</v>
+        <v>Emily Smith</v>
       </c>
       <c r="C75">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D75" t="str">
         <v>Female</v>
       </c>
       <c r="E75" t="str">
-        <v>aria.nguyen36@gmail.com</v>
+        <v>emily.smith56@hotmail.com</v>
       </c>
       <c r="F75" t="str">
-        <v>0401 618 716</v>
+        <v>0410 101 780</v>
       </c>
       <c r="G75" t="str">
-        <v>Sydney</v>
+        <v>Toowoomba</v>
       </c>
       <c r="H75" t="str">
-        <v>C</v>
+        <v>A+</v>
       </c>
       <c r="I75" t="str">
         <v>available</v>
+      </c>
+      <c r="M75" t="str">
+        <v>Limited mobility - prefers ground floor seating</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>a2ff3ad7-7964-4523-bf18-ce9994a910da</v>
+        <v>40727c14-a30e-4e3b-8b64-0359d25efc0c</v>
       </c>
       <c r="B76" t="str">
-        <v>Nora Mitchell</v>
+        <v>Joshua Scott</v>
       </c>
       <c r="C76">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="D76" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E76" t="str">
-        <v>nora.mitchell66@outlook.com</v>
+        <v>joshua.scott95@outlook.com</v>
       </c>
       <c r="F76" t="str">
-        <v>0412 196 419</v>
+        <v>0410 137 561</v>
       </c>
       <c r="G76" t="str">
-        <v>Adelaide</v>
+        <v>Canberra</v>
       </c>
       <c r="H76" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I76" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>45c0fc2b-415d-475a-998d-934235565d6b</v>
+        <v>f68d2771-4820-4fef-b156-093280aeea67</v>
       </c>
       <c r="B77" t="str">
-        <v>Scarlett Wright</v>
+        <v>Aria Nguyen</v>
       </c>
       <c r="C77">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D77" t="str">
         <v>Female</v>
       </c>
       <c r="E77" t="str">
-        <v>scarlett.wright68@outlook.com</v>
+        <v>aria.nguyen36@gmail.com</v>
       </c>
       <c r="F77" t="str">
-        <v>0412 487 763</v>
+        <v>0401 618 716</v>
       </c>
       <c r="G77" t="str">
-        <v>Newcastle</v>
+        <v>Sydney</v>
       </c>
       <c r="H77" t="str">
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="I77" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>a8fa9125-28f1-47e1-adba-784701975e68</v>
+        <v>d6c29b29-46c2-458d-9ed6-9955afb17b95</v>
       </c>
       <c r="B78" t="str">
-        <v>Abigail Williams</v>
+        <v>Ethan Taylor</v>
       </c>
       <c r="C78">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="D78" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E78" t="str">
-        <v>abigail.williams45@yahoo.com</v>
+        <v>ethan.taylor22@yahoo.com</v>
       </c>
       <c r="F78" t="str">
-        <v>0403 497 445</v>
+        <v>0410 363 173</v>
       </c>
       <c r="G78" t="str">
-        <v>Toowoomba</v>
+        <v>Adelaide</v>
       </c>
       <c r="H78" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I78" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>6591420b-4762-4d90-b738-8a5b70458c40</v>
+        <v>6ddd3228-f125-4d3e-88e2-157cd730b552</v>
       </c>
       <c r="B79" t="str">
-        <v>Aurora Hill</v>
+        <v>Theodore Nelson</v>
       </c>
       <c r="C79">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D79" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E79" t="str">
-        <v>aurora.hill33@hotmail.com</v>
+        <v>theodore.nelson79@gmail.com</v>
       </c>
       <c r="F79" t="str">
-        <v>0410 373 844</v>
+        <v>0403 813 793</v>
       </c>
       <c r="G79" t="str">
-        <v>Gold Coast</v>
+        <v>Canberra</v>
       </c>
       <c r="H79" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I79" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>8774a9f4-b951-41cc-b6bd-809a709cb6ea</v>
+        <v>b8c1889f-fd66-4304-90d7-bd50422cbc52</v>
       </c>
       <c r="B80" t="str">
-        <v>Lily Walker</v>
+        <v>Maya Moore</v>
       </c>
       <c r="C80">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="D80" t="str">
         <v>Female</v>
       </c>
       <c r="E80" t="str">
-        <v>lily.walker96@outlook.com</v>
+        <v>maya.moore54@outlook.com</v>
       </c>
       <c r="F80" t="str">
-        <v>0410 155 426</v>
+        <v>0400 718 585</v>
       </c>
       <c r="G80" t="str">
-        <v>Hobart</v>
+        <v>Toowoomba</v>
       </c>
       <c r="H80" t="str">
-        <v>B+</v>
+        <v>C</v>
       </c>
       <c r="I80" t="str">
         <v>available</v>
+      </c>
+      <c r="J80" t="str">
+        <v>Sofia Williams</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>bf5a6984-f656-4e23-9646-85829e9daffe</v>
+        <v>222469f4-a8d9-4550-b6ee-db9d00e24edd</v>
       </c>
       <c r="B81" t="str">
-        <v>Scarlett Lopez</v>
+        <v>Chloe Flores</v>
       </c>
       <c r="C81">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D81" t="str">
         <v>Female</v>
       </c>
       <c r="E81" t="str">
-        <v>scarlett.lopez53@yahoo.com</v>
+        <v>chloe.flores93@yahoo.com</v>
       </c>
       <c r="F81" t="str">
-        <v>0400 509 641</v>
+        <v>0400 918 463</v>
       </c>
       <c r="G81" t="str">
-        <v>Sydney</v>
+        <v>Townsville</v>
       </c>
       <c r="H81" t="str">
-        <v>B+</v>
+        <v>C</v>
       </c>
       <c r="I81" t="str">
         <v>available</v>
+      </c>
+      <c r="J81" t="str">
+        <v>Evelyn Sanchez</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>34685ff7-6e85-4bbd-b546-77cfe11d7f7d</v>
+        <v>2fa810c7-61d0-4519-a314-824cf0873e30</v>
       </c>
       <c r="B82" t="str">
-        <v>Grace Walker</v>
+        <v>Theodore Allen</v>
       </c>
       <c r="C82">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D82" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E82" t="str">
-        <v>grace.walker52@hotmail.com</v>
+        <v>theodore.allen25@outlook.com</v>
       </c>
       <c r="F82" t="str">
-        <v>0412 754 780</v>
+        <v>0400 438 819</v>
       </c>
       <c r="G82" t="str">
-        <v>Canberra</v>
+        <v>Newcastle</v>
       </c>
       <c r="H82" t="str">
-        <v>A+</v>
+        <v>B+</v>
       </c>
       <c r="I82" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>da40ad70-95be-413c-b0f1-d089ef285cc8</v>
+        <v>5c31add6-7626-46c5-a3e1-0e452ead739d</v>
       </c>
       <c r="B83" t="str">
-        <v>Emily Smith</v>
+        <v>Charles Torres</v>
       </c>
       <c r="C83">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="D83" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E83" t="str">
-        <v>emily.smith56@hotmail.com</v>
+        <v>charles.torres98@outlook.com</v>
       </c>
       <c r="F83" t="str">
-        <v>0410 101 780</v>
+        <v>0401 744 176</v>
       </c>
       <c r="G83" t="str">
-        <v>Toowoomba</v>
+        <v>Wollongong</v>
       </c>
       <c r="H83" t="str">
-        <v>A+</v>
+        <v>B</v>
       </c>
       <c r="I83" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>ee7f9d33-09d6-417b-a45f-3e6554489f5b</v>
+        <v>6591420b-4762-4d90-b738-8a5b70458c40</v>
       </c>
       <c r="B84" t="str">
-        <v>Dylan Miller</v>
+        <v>Aurora Hill</v>
       </c>
       <c r="C84">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D84" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E84" t="str">
-        <v>dylan.miller23@hotmail.com</v>
+        <v>aurora.hill33@hotmail.com</v>
       </c>
       <c r="F84" t="str">
-        <v>0402 417 876</v>
+        <v>0410 373 844</v>
       </c>
       <c r="G84" t="str">
-        <v>Melbourne</v>
+        <v>Gold Coast</v>
       </c>
       <c r="H84" t="str">
-        <v>A</v>
+        <v>B+</v>
       </c>
       <c r="I84" t="str">
         <v>available</v>
@@ -3160,25 +3272,25 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>f9d68052-4310-45c2-a5a9-64c272347899</v>
+        <v>8774a9f4-b951-41cc-b6bd-809a709cb6ea</v>
       </c>
       <c r="B85" t="str">
-        <v>Christian Rivera</v>
+        <v>Lily Walker</v>
       </c>
       <c r="C85">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D85" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E85" t="str">
-        <v>christian.rivera86@hotmail.com</v>
+        <v>lily.walker96@outlook.com</v>
       </c>
       <c r="F85" t="str">
-        <v>0400 135 743</v>
+        <v>0410 155 426</v>
       </c>
       <c r="G85" t="str">
-        <v>Adelaide</v>
+        <v>Hobart</v>
       </c>
       <c r="H85" t="str">
         <v>B+</v>
@@ -3189,28 +3301,28 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>5a6b21ec-9fac-4adc-b5ab-bcad20d0eca4</v>
+        <v>d7b0dd51-8aea-4b32-bb8d-8b60271fc6c9</v>
       </c>
       <c r="B86" t="str">
-        <v>Hunter Harris</v>
+        <v>Jayden Nguyen</v>
       </c>
       <c r="C86">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D86" t="str">
         <v>Male</v>
       </c>
       <c r="E86" t="str">
-        <v>hunter.harris1@gmail.com</v>
+        <v>jayden.nguyen88@hotmail.com</v>
       </c>
       <c r="F86" t="str">
-        <v>0404 782 485</v>
+        <v>0401 108 628</v>
       </c>
       <c r="G86" t="str">
-        <v>Gold Coast</v>
+        <v>Hobart</v>
       </c>
       <c r="H86" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="I86" t="str">
         <v>available</v>
@@ -3218,57 +3330,60 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>d6c29b29-46c2-458d-9ed6-9955afb17b95</v>
+        <v>e15c67b6-0680-4284-a8aa-a525b34c592d</v>
       </c>
       <c r="B87" t="str">
-        <v>Ethan Taylor</v>
+        <v>Aurora Williams</v>
       </c>
       <c r="C87">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D87" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E87" t="str">
-        <v>ethan.taylor22@yahoo.com</v>
+        <v>aurora.williams76@outlook.com</v>
       </c>
       <c r="F87" t="str">
-        <v>0410 363 173</v>
+        <v>0401 416 170</v>
       </c>
       <c r="G87" t="str">
-        <v>Adelaide</v>
+        <v>Darwin</v>
       </c>
       <c r="H87" t="str">
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="I87" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="M87" t="str">
+        <v>Uses walking cane</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>5c31add6-7626-46c5-a3e1-0e452ead739d</v>
+        <v>3db7cdb3-9a92-467c-b554-d23b524f42f5</v>
       </c>
       <c r="B88" t="str">
-        <v>Charles Torres</v>
+        <v>Claire Campbell</v>
       </c>
       <c r="C88">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D88" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E88" t="str">
-        <v>charles.torres98@outlook.com</v>
+        <v>claire.campbell9@outlook.com</v>
       </c>
       <c r="F88" t="str">
-        <v>0401 744 176</v>
+        <v>0401 164 490</v>
       </c>
       <c r="G88" t="str">
-        <v>Wollongong</v>
+        <v>Darwin</v>
       </c>
       <c r="H88" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I88" t="str">
         <v>available</v>
@@ -3276,28 +3391,28 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>df6c0d97-fd38-4b65-8765-b11a4939bd3b</v>
+        <v>ad836319-db56-4a08-bca6-a8e3f19c37a8</v>
       </c>
       <c r="B89" t="str">
-        <v>Julian Rivera</v>
+        <v>Emily Johnson</v>
       </c>
       <c r="C89">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D89" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E89" t="str">
-        <v>julian.rivera31@outlook.com</v>
+        <v>emily.johnson58@hotmail.com</v>
       </c>
       <c r="F89" t="str">
-        <v>0401 414 502</v>
+        <v>0412 663 939</v>
       </c>
       <c r="G89" t="str">
         <v>Perth</v>
       </c>
       <c r="H89" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I89" t="str">
         <v>available</v>
@@ -3305,54 +3420,60 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>39b7a0a4-be8b-49f1-a5af-c5a105e0ab58</v>
+        <v>852226e3-fccb-4228-8627-5dc42cfe4387</v>
       </c>
       <c r="B90" t="str">
-        <v>Joshua Carter</v>
+        <v>Aurora Rodriguez</v>
       </c>
       <c r="C90">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="D90" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E90" t="str">
-        <v>joshua.carter41@hotmail.com</v>
+        <v>aurora.rodriguez20@yahoo.com</v>
       </c>
       <c r="F90" t="str">
-        <v>0404 538 442</v>
+        <v>0404 720 692</v>
       </c>
       <c r="G90" t="str">
-        <v>Wollongong</v>
+        <v>Hobart</v>
       </c>
       <c r="H90" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="I90" t="str">
         <v>available</v>
+      </c>
+      <c r="J90" t="str">
+        <v>Emilia Lopez</v>
+      </c>
+      <c r="M90" t="str">
+        <v>Arthritis - prefers aisle seating for easy exit</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>ca152dfe-8ddb-45c8-b084-8a5c9e6dacfa</v>
+        <v>1adac400-525f-40f4-8b6d-20df8ce78e9d</v>
       </c>
       <c r="B91" t="str">
-        <v>Ryan Lewis</v>
+        <v>Grace Scott</v>
       </c>
       <c r="C91">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D91" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E91" t="str">
-        <v>ryan.lewis85@yahoo.com</v>
+        <v>grace.scott40@outlook.com</v>
       </c>
       <c r="F91" t="str">
-        <v>0400 187 811</v>
+        <v>0401 870 853</v>
       </c>
       <c r="G91" t="str">
-        <v>Canberra</v>
+        <v>Ballarat</v>
       </c>
       <c r="H91" t="str">
         <v>B+</v>
@@ -3360,28 +3481,34 @@
       <c r="I91" t="str">
         <v>available</v>
       </c>
+      <c r="J91" t="str">
+        <v>Emily Moore</v>
+      </c>
+      <c r="M91" t="str">
+        <v>Hearing impaired - requires front row seating</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>2811bf99-369b-4c0a-b5d6-4ff46cd7aa5e</v>
+        <v>f6a281bb-caec-44cf-a596-a6e92d6e2610</v>
       </c>
       <c r="B92" t="str">
-        <v>Lucas Thomas</v>
+        <v>Leah Scott</v>
       </c>
       <c r="C92">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D92" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E92" t="str">
-        <v>lucas.thomas30@yahoo.com</v>
+        <v>leah.scott74@gmail.com</v>
       </c>
       <c r="F92" t="str">
-        <v>0412 527 117</v>
+        <v>0402 414 358</v>
       </c>
       <c r="G92" t="str">
-        <v>Brisbane</v>
+        <v>Perth</v>
       </c>
       <c r="H92" t="str">
         <v>B</v>
@@ -3389,173 +3516,212 @@
       <c r="I92" t="str">
         <v>available</v>
       </c>
+      <c r="J92" t="str">
+        <v>Harper Sanchez</v>
+      </c>
+      <c r="M92" t="str">
+        <v>Limited mobility - prefers ground floor seating</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>0e8f635e-8f06-4224-a2cc-4263ac307ba2</v>
+        <v>7664257a-dce4-407a-8f24-692043d568be</v>
       </c>
       <c r="B93" t="str">
-        <v>Joshua Jones</v>
+        <v>Nora Jackson</v>
       </c>
       <c r="C93">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D93" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E93" t="str">
-        <v>joshua.jones82@yahoo.com</v>
+        <v>nora.jackson83@hotmail.com</v>
       </c>
       <c r="F93" t="str">
-        <v>0400 652 840</v>
+        <v>0404 434 899</v>
       </c>
       <c r="G93" t="str">
-        <v>Toowoomba</v>
+        <v>Wollongong</v>
       </c>
       <c r="H93" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I93" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>25370fa8-38bb-4172-9e02-23a59fcfd87a</v>
+        <v>5331c6bd-19f8-416a-9166-06280a3c547e</v>
       </c>
       <c r="B94" t="str">
-        <v>Carter Hill</v>
+        <v>Ethan Rodriguez</v>
       </c>
       <c r="C94">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="D94" t="str">
         <v>Male</v>
       </c>
       <c r="E94" t="str">
-        <v>carter.hill93@gmail.com</v>
+        <v>ethan.rodriguez60@hotmail.com</v>
       </c>
       <c r="F94" t="str">
-        <v>0404 349 309</v>
+        <v>0411 690 563</v>
       </c>
       <c r="G94" t="str">
-        <v>Newcastle</v>
+        <v>Townsville</v>
       </c>
       <c r="H94" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I94" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="M94" t="str">
+        <v>Hearing impaired - requires front row seating</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>d7b0dd51-8aea-4b32-bb8d-8b60271fc6c9</v>
+        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
       </c>
       <c r="B95" t="str">
-        <v>Jayden Nguyen</v>
+        <v>Kathleen Reynolds</v>
       </c>
       <c r="C95">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D95" t="str">
-        <v>Male</v>
+        <v>Not Specified</v>
       </c>
       <c r="E95" t="str">
-        <v>jayden.nguyen88@hotmail.com</v>
+        <v>kathleenmonicareynolds@gmail.com</v>
       </c>
       <c r="F95" t="str">
-        <v>0401 108 628</v>
+        <v>498086080</v>
       </c>
       <c r="G95" t="str">
-        <v>Hobart</v>
+        <v>Footscray</v>
       </c>
       <c r="H95" t="str">
-        <v>B</v>
+        <v/>
       </c>
       <c r="I95" t="str">
         <v>available</v>
+      </c>
+      <c r="J95" t="str">
+        <v>Peter Adamidis, Felicity Parker-Hill</v>
+      </c>
+      <c r="K95" t="str">
+        <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
+      </c>
+      <c r="L95" t="str">
+        <v>N</v>
+      </c>
+      <c r="M95" t="str">
+        <v>N/A</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>8956e289-91e9-4c15-bf2b-a13dee2fa476</v>
+        <v>e2f70c5c-0a8d-4055-8281-2ad2ae2e0cd6</v>
       </c>
       <c r="B96" t="str">
-        <v>Landon Wright</v>
+        <v>Stella Green</v>
       </c>
       <c r="C96">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="D96" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E96" t="str">
-        <v>landon.wright36@outlook.com</v>
+        <v>stella.green92@gmail.com</v>
       </c>
       <c r="F96" t="str">
-        <v>0402 415 597</v>
+        <v>0404 230 858</v>
       </c>
       <c r="G96" t="str">
-        <v>Cairns</v>
+        <v>Wollongong</v>
       </c>
       <c r="H96" t="str">
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="I96" t="str">
         <v>available</v>
+      </c>
+      <c r="J96" t="str">
+        <v>Everly Torres</v>
+      </c>
+      <c r="M96" t="str">
+        <v>Vision impaired - needs assistance</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>ef94ff15-5215-4ecd-9ad1-9ac44fd0e56a</v>
+        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
       </c>
       <c r="B97" t="str">
-        <v>Luke Flores</v>
+        <v>Peter Adamidis</v>
       </c>
       <c r="C97">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="D97" t="str">
-        <v>Male</v>
+        <v>Not Specified</v>
       </c>
       <c r="E97" t="str">
-        <v>luke.flores39@hotmail.com</v>
+        <v>peter.adamidis@gmail.com</v>
       </c>
       <c r="F97" t="str">
-        <v>0403 225 544</v>
+        <v>498086080</v>
       </c>
       <c r="G97" t="str">
-        <v>Melbourne</v>
+        <v/>
       </c>
       <c r="H97" t="str">
-        <v>B</v>
+        <v/>
       </c>
       <c r="I97" t="str">
         <v>available</v>
+      </c>
+      <c r="J97" t="str">
+        <v>Kathleen Reynolds, Felicity Parker-Hill</v>
+      </c>
+      <c r="K97" t="str">
+        <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
+      </c>
+      <c r="L97" t="str">
+        <v>Y</v>
+      </c>
+      <c r="M97" t="str">
+        <v>Broken Leg</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>6ddd3228-f125-4d3e-88e2-157cd730b552</v>
+        <v>adb0c362-d095-4bfd-98dc-c93920fd22d6</v>
       </c>
       <c r="B98" t="str">
-        <v>Theodore Nelson</v>
+        <v>Victoria Torres</v>
       </c>
       <c r="C98">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D98" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E98" t="str">
-        <v>theodore.nelson79@gmail.com</v>
+        <v>victoria.torres48@outlook.com</v>
       </c>
       <c r="F98" t="str">
-        <v>0403 813 793</v>
+        <v>0411 539 271</v>
       </c>
       <c r="G98" t="str">
-        <v>Canberra</v>
+        <v>Geelong</v>
       </c>
       <c r="H98" t="str">
         <v>B</v>
@@ -3566,28 +3732,28 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>5331c6bd-19f8-416a-9166-06280a3c547e</v>
+        <v>df712cc5-31d8-4341-b177-6603bf089235</v>
       </c>
       <c r="B99" t="str">
-        <v>Ethan Rodriguez</v>
+        <v>Samuel King</v>
       </c>
       <c r="C99">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D99" t="str">
         <v>Male</v>
       </c>
       <c r="E99" t="str">
-        <v>ethan.rodriguez60@hotmail.com</v>
+        <v>samuel.king24@yahoo.com</v>
       </c>
       <c r="F99" t="str">
-        <v>0411 690 563</v>
+        <v>0400 774 736</v>
       </c>
       <c r="G99" t="str">
-        <v>Townsville</v>
+        <v>Newcastle</v>
       </c>
       <c r="H99" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I99" t="str">
         <v>available</v>
@@ -3595,28 +3761,28 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>ecc70875-f282-4849-9e60-071edc278977</v>
+        <v>7bfb9432-4b59-4ceb-895d-e03ae4837f91</v>
       </c>
       <c r="B100" t="str">
-        <v>Noah White</v>
+        <v>Joshua Walker</v>
       </c>
       <c r="C100">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="D100" t="str">
         <v>Male</v>
       </c>
       <c r="E100" t="str">
-        <v>noah.white20@gmail.com</v>
+        <v>joshua.walker97@gmail.com</v>
       </c>
       <c r="F100" t="str">
-        <v>0410 565 594</v>
+        <v>0402 640 379</v>
       </c>
       <c r="G100" t="str">
-        <v>Adelaide</v>
+        <v>Darwin</v>
       </c>
       <c r="H100" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="I100" t="str">
         <v>available</v>
@@ -3624,28 +3790,28 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>2fa810c7-61d0-4519-a314-824cf0873e30</v>
+        <v>45c0fc2b-415d-475a-998d-934235565d6b</v>
       </c>
       <c r="B101" t="str">
-        <v>Theodore Allen</v>
+        <v>Scarlett Wright</v>
       </c>
       <c r="C101">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D101" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E101" t="str">
-        <v>theodore.allen25@outlook.com</v>
+        <v>scarlett.wright68@outlook.com</v>
       </c>
       <c r="F101" t="str">
-        <v>0400 438 819</v>
+        <v>0412 487 763</v>
       </c>
       <c r="G101" t="str">
         <v>Newcastle</v>
       </c>
       <c r="H101" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I101" t="str">
         <v>available</v>
@@ -3653,28 +3819,28 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>59bae9a1-93b9-471d-a2b7-074918634f6b</v>
+        <v>e166fd4f-73eb-4bea-b8be-3acdee4f9fdc</v>
       </c>
       <c r="B102" t="str">
-        <v>Joshua Clark</v>
+        <v>Liam Lewis</v>
       </c>
       <c r="C102">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D102" t="str">
         <v>Male</v>
       </c>
       <c r="E102" t="str">
-        <v>joshua.clark16@outlook.com</v>
+        <v>liam.lewis79@yahoo.com</v>
       </c>
       <c r="F102" t="str">
-        <v>0403 901 485</v>
+        <v>0404 203 198</v>
       </c>
       <c r="G102" t="str">
-        <v>Sydney</v>
+        <v>Hobart</v>
       </c>
       <c r="H102" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I102" t="str">
         <v>available</v>
@@ -3682,25 +3848,25 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>40727c14-a30e-4e3b-8b64-0359d25efc0c</v>
+        <v>ef94ff15-5215-4ecd-9ad1-9ac44fd0e56a</v>
       </c>
       <c r="B103" t="str">
-        <v>Joshua Scott</v>
+        <v>Luke Flores</v>
       </c>
       <c r="C103">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D103" t="str">
         <v>Male</v>
       </c>
       <c r="E103" t="str">
-        <v>joshua.scott95@outlook.com</v>
+        <v>luke.flores39@hotmail.com</v>
       </c>
       <c r="F103" t="str">
-        <v>0410 137 561</v>
+        <v>0403 225 544</v>
       </c>
       <c r="G103" t="str">
-        <v>Canberra</v>
+        <v>Melbourne</v>
       </c>
       <c r="H103" t="str">
         <v>B</v>
@@ -3711,25 +3877,25 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>e166fd4f-73eb-4bea-b8be-3acdee4f9fdc</v>
+        <v>8956e289-91e9-4c15-bf2b-a13dee2fa476</v>
       </c>
       <c r="B104" t="str">
-        <v>Liam Lewis</v>
+        <v>Landon Wright</v>
       </c>
       <c r="C104">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D104" t="str">
         <v>Male</v>
       </c>
       <c r="E104" t="str">
-        <v>liam.lewis79@yahoo.com</v>
+        <v>landon.wright36@outlook.com</v>
       </c>
       <c r="F104" t="str">
-        <v>0404 203 198</v>
+        <v>0402 415 597</v>
       </c>
       <c r="G104" t="str">
-        <v>Hobart</v>
+        <v>Cairns</v>
       </c>
       <c r="H104" t="str">
         <v>B+</v>
@@ -3747,6 +3913,522 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>ID</v>
+      </c>
+      <c r="B1" t="str">
+        <v>RecordDayID</v>
+      </c>
+      <c r="C1" t="str">
+        <v>ContestantID</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Block</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Seat</v>
+      </c>
+      <c r="F1" t="str">
+        <v>BookingEmailSent</v>
+      </c>
+      <c r="G1" t="str">
+        <v>ConfirmedRSVP</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Notes</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>a634c290-4c9c-414a-93fc-745bd097e76d</v>
+      </c>
+      <c r="B2" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C2" t="str">
+        <v>ecc70875-f282-4849-9e60-071edc278977</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="str">
+        <v>A5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>b8c8e258-37be-4899-875e-6d388063ccde</v>
+      </c>
+      <c r="B3" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C3" t="str">
+        <v>7664257a-dce4-407a-8f24-692043d568be</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="str">
+        <v>B1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>45375cb0-bd1b-4b9a-a6a6-27fee2fb4945</v>
+      </c>
+      <c r="B4" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C4" t="str">
+        <v>6ddd3228-f125-4d3e-88e2-157cd730b552</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="str">
+        <v>A1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>a616aafc-3ff8-4449-a8f9-1a4dbc9350d0</v>
+      </c>
+      <c r="B5" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C5" t="str">
+        <v>2fa810c7-61d0-4519-a314-824cf0873e30</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="str">
+        <v>A2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>d5b88b57-aa91-49ce-afab-69ab3e297842</v>
+      </c>
+      <c r="B6" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C6" t="str">
+        <v>59bae9a1-93b9-471d-a2b7-074918634f6b</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="str">
+        <v>A3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>40d2ebf0-17a6-485d-9dc1-2b1c6f764b92</v>
+      </c>
+      <c r="B7" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C7" t="str">
+        <v>40727c14-a30e-4e3b-8b64-0359d25efc0c</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="str">
+        <v>A4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>e860e9bf-0085-4cdd-a9d0-594335337f42</v>
+      </c>
+      <c r="B8" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C8" t="str">
+        <v>5331c6bd-19f8-416a-9166-06280a3c547e</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="str">
+        <v>A5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>231cd33c-26f8-47eb-abdb-18be9cb04e40</v>
+      </c>
+      <c r="B9" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C9" t="str">
+        <v>7728eead-ab7c-467f-bb41-2abd7952591a</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9" t="str">
+        <v>A1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>373d1ffe-5ae4-49a1-938f-0247d30da633</v>
+      </c>
+      <c r="B10" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C10" t="str">
+        <v>f693d8fc-436b-426a-9bca-0b141221ab3f</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10" t="str">
+        <v>A2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>a18d0693-98ff-4e9e-848f-9d3411c9f601</v>
+      </c>
+      <c r="B11" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C11" t="str">
+        <v>bf283832-25b8-4d7f-9e0f-ef2f10903233</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11" t="str">
+        <v>A3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>c0a18a7e-4e83-408c-9071-eb8eacc5af4b</v>
+      </c>
+      <c r="B12" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C12" t="str">
+        <v>9efd8ec8-0e91-45d9-804b-518939fbac76</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12" t="str">
+        <v>A4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>05863c6a-b5c7-4f02-9310-ed16f475fa5b</v>
+      </c>
+      <c r="B13" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C13" t="str">
+        <v>0bb2a1aa-a74d-4711-a2ea-609663a77b4d</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13" t="str">
+        <v>A5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>39179962-2dc4-430e-989a-8b933f871bc8</v>
+      </c>
+      <c r="B14" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C14" t="str">
+        <v>f68d2771-4820-4fef-b156-093280aeea67</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14" t="str">
+        <v>B1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>8fea80c2-f010-418e-9912-3e1811738244</v>
+      </c>
+      <c r="B15" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C15" t="str">
+        <v>42504e80-d5df-4b97-a283-eb96728c425f</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15" t="str">
+        <v>B2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>ec5bdd9f-9a20-4c40-b36a-6b6c4bb850da</v>
+      </c>
+      <c r="B16" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C16" t="str">
+        <v>bb319a54-7dbf-4a05-bd7f-8f2f6aa6b414</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16" t="str">
+        <v>B3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>47c2c439-7c97-4019-80fd-93fc83d7c8e6</v>
+      </c>
+      <c r="B17" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C17" t="str">
+        <v>cd648690-8cd1-44b6-be26-0521038f442f</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17" t="str">
+        <v>B4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>55aae62f-a92f-49f5-a5a2-f0aba343014a</v>
+      </c>
+      <c r="B18" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C18" t="str">
+        <v>1df33560-ebf2-41ec-995c-52f3f1df78d5</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18" t="str">
+        <v>B5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>eaacb9fd-9bff-4952-8551-663c60df9878</v>
+      </c>
+      <c r="B19" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C19" t="str">
+        <v>d6c29b29-46c2-458d-9ed6-9955afb17b95</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19" t="str">
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>190fda70-e765-41a5-9147-b1f36392b50d</v>
+      </c>
+      <c r="B20" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C20" t="str">
+        <v>5c31add6-7626-46c5-a3e1-0e452ead739d</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20" t="str">
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>7b5bf219-72c4-4e76-a04a-d00f276902e9</v>
+      </c>
+      <c r="B21" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C21" t="str">
+        <v>39b7a0a4-be8b-49f1-a5af-c5a105e0ab58</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21" t="str">
+        <v>C3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>a18846fc-8b75-4224-90ca-0ac6b286ea5a</v>
+      </c>
+      <c r="B22" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C22" t="str">
+        <v>2811bf99-369b-4c0a-b5d6-4ff46cd7aa5e</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22" t="str">
+        <v>C4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>77f1ebcc-83e6-48b3-aeee-af901920079c</v>
+      </c>
+      <c r="B23" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C23" t="str">
+        <v>0e8f635e-8f06-4224-a2cc-4263ac307ba2</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23" t="str">
+        <v>D1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>a86ddb54-5d1b-4d80-940e-b1f381a6333f</v>
+      </c>
+      <c r="B24" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C24" t="str">
+        <v>25370fa8-38bb-4172-9e02-23a59fcfd87a</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24" t="str">
+        <v>D2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>abe65c79-379e-46ec-aded-2652f9e64961</v>
+      </c>
+      <c r="B25" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C25" t="str">
+        <v>8e115c7e-8033-4466-bcb9-07ea089eb4be</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="E25" t="str">
+        <v>A1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>e46419c3-c90e-4432-a3bb-19dedad4bb04</v>
+      </c>
+      <c r="B26" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C26" t="str">
+        <v>47cc1288-cbc0-4159-a52d-924c8912434d</v>
+      </c>
+      <c r="D26">
+        <v>6</v>
+      </c>
+      <c r="E26" t="str">
+        <v>A2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>e2f751de-9d53-4fe5-8f08-756bfc12bb83</v>
+      </c>
+      <c r="B27" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C27" t="str">
+        <v>a2ff3ad7-7964-4523-bf18-ce9994a910da</v>
+      </c>
+      <c r="D27">
+        <v>6</v>
+      </c>
+      <c r="E27" t="str">
+        <v>A3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>dadf3bea-2f2a-48bf-9e6e-7947f8313921</v>
+      </c>
+      <c r="B28" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C28" t="str">
+        <v>a8fa9125-28f1-47e1-adba-784701975e68</v>
+      </c>
+      <c r="D28">
+        <v>6</v>
+      </c>
+      <c r="E28" t="str">
+        <v>A4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>2707752c-605e-4a31-871c-ece5c863b517</v>
+      </c>
+      <c r="B29" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C29" t="str">
+        <v>e15c67b6-0680-4284-a8aa-a525b34c592d</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="E29" t="str">
+        <v>A5</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:H29"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3807,7 +4489,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D27"/>
   <sheetViews>

--- a/storage/backups/automatic-backup.xlsx
+++ b/storage/backups/automatic-backup.xlsx
@@ -718,351 +718,348 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
+        <v>9b54470e-fe91-4ebb-b0aa-becf22a8cc3c</v>
       </c>
       <c r="B2" t="str">
-        <v>Felicity Parker-Hill</v>
+        <v>Abigail Jackson</v>
       </c>
       <c r="C2">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D2" t="str">
-        <v>Not Specified</v>
+        <v>Female</v>
       </c>
       <c r="E2" t="str">
-        <v>felicity.parkerhill@endemolshine.com.au</v>
+        <v>abigail.jackson65@outlook.com</v>
       </c>
       <c r="F2" t="str">
-        <v>498086080</v>
+        <v>0411 824 257</v>
       </c>
       <c r="G2" t="str">
-        <v>Melbourne</v>
+        <v>Newcastle</v>
       </c>
       <c r="H2" t="str">
-        <v/>
+        <v>B+</v>
       </c>
       <c r="I2" t="str">
         <v>available</v>
-      </c>
-      <c r="J2" t="str">
-        <v>Peter Adamidis, Kathleen Reynolds</v>
-      </c>
-      <c r="K2" t="str">
-        <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
-      </c>
-      <c r="L2" t="str">
-        <v>N</v>
-      </c>
-      <c r="M2" t="str">
-        <v>N/A</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>5a16ef0a-cce8-4d1b-bfa5-3892331170c1</v>
+        <v>8e115c7e-8033-4466-bcb9-07ea089eb4be</v>
       </c>
       <c r="B3" t="str">
-        <v>Caroline Taylor</v>
+        <v>Chloe Taylor</v>
       </c>
       <c r="C3">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="D3" t="str">
         <v>Female</v>
       </c>
       <c r="E3" t="str">
-        <v>caroline.taylor54@outlook.com</v>
+        <v>chloe.taylor7@gmail.com</v>
       </c>
       <c r="F3" t="str">
-        <v>0402 864 601</v>
+        <v>0412 903 254</v>
       </c>
       <c r="G3" t="str">
-        <v>Darwin</v>
+        <v>Townsville</v>
       </c>
       <c r="H3" t="str">
-        <v>B+</v>
+        <v>C</v>
       </c>
       <c r="I3" t="str">
         <v>available</v>
-      </c>
-      <c r="J3" t="str">
-        <v>Hazel Mitchell</v>
-      </c>
-      <c r="M3" t="str">
-        <v>Arthritis - prefers aisle seating for easy exit</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>0dd7de5c-0409-45e3-84a5-5f2ffbd591d8</v>
+        <v>0a153155-dcf5-4d56-9ed1-8960501157f8</v>
       </c>
       <c r="B4" t="str">
-        <v>Harper Sanchez</v>
+        <v>Aurora Gonzalez</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="D4" t="str">
         <v>Female</v>
       </c>
       <c r="E4" t="str">
-        <v>harper.sanchez76@gmail.com</v>
+        <v>aurora.gonzalez29@outlook.com</v>
       </c>
       <c r="F4" t="str">
-        <v>0411 422 972</v>
+        <v>0404 610 172</v>
       </c>
       <c r="G4" t="str">
-        <v>Geelong</v>
+        <v>Toowoomba</v>
       </c>
       <c r="H4" t="str">
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="I4" t="str">
         <v>available</v>
-      </c>
-      <c r="J4" t="str">
-        <v>Leah Scott</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>8e115c7e-8033-4466-bcb9-07ea089eb4be</v>
+        <v>5a16ef0a-cce8-4d1b-bfa5-3892331170c1</v>
       </c>
       <c r="B5" t="str">
-        <v>Chloe Taylor</v>
+        <v>Caroline Taylor</v>
       </c>
       <c r="C5">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D5" t="str">
         <v>Female</v>
       </c>
       <c r="E5" t="str">
-        <v>chloe.taylor7@gmail.com</v>
+        <v>caroline.taylor54@outlook.com</v>
       </c>
       <c r="F5" t="str">
-        <v>0412 903 254</v>
+        <v>0402 864 601</v>
       </c>
       <c r="G5" t="str">
-        <v>Townsville</v>
+        <v>Darwin</v>
       </c>
       <c r="H5" t="str">
-        <v>C</v>
+        <v>B+</v>
       </c>
       <c r="I5" t="str">
         <v>assigned</v>
       </c>
+      <c r="J5" t="str">
+        <v>Hazel Mitchell</v>
+      </c>
+      <c r="M5" t="str">
+        <v>Arthritis - prefers aisle seating for easy exit</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>992418b2-3029-4752-9552-0aa886433657</v>
+        <v>0dd7de5c-0409-45e3-84a5-5f2ffbd591d8</v>
       </c>
       <c r="B6" t="str">
-        <v>Zoe Brown</v>
+        <v>Harper Sanchez</v>
       </c>
       <c r="C6">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D6" t="str">
         <v>Female</v>
       </c>
       <c r="E6" t="str">
-        <v>zoe.brown45@outlook.com</v>
+        <v>harper.sanchez76@gmail.com</v>
       </c>
       <c r="F6" t="str">
-        <v>0401 578 107</v>
+        <v>0411 422 972</v>
       </c>
       <c r="G6" t="str">
-        <v>Sydney</v>
+        <v>Geelong</v>
       </c>
       <c r="H6" t="str">
-        <v>B+</v>
+        <v>C</v>
       </c>
       <c r="I6" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J6" t="str">
-        <v>Chloe Jones</v>
+        <v>Leah Scott</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>bcc86f75-9a60-406c-be7c-4f31ea5c30ef</v>
+        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
       </c>
       <c r="B7" t="str">
-        <v>Paisley Lee</v>
+        <v>Felicity Parker-Hill</v>
       </c>
       <c r="C7">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="D7" t="str">
-        <v>Female</v>
+        <v>Not Specified</v>
       </c>
       <c r="E7" t="str">
-        <v>paisley.lee78@hotmail.com</v>
+        <v>felicity.parkerhill@endemolshine.com.au</v>
       </c>
       <c r="F7" t="str">
-        <v>0400 179 607</v>
+        <v>498086080</v>
       </c>
       <c r="G7" t="str">
-        <v>Ballarat</v>
+        <v>Melbourne</v>
       </c>
       <c r="H7" t="str">
-        <v>B</v>
+        <v/>
       </c>
       <c r="I7" t="str">
         <v>available</v>
       </c>
       <c r="J7" t="str">
-        <v>Aria Lopez</v>
+        <v>Peter Adamidis, Kathleen Reynolds</v>
+      </c>
+      <c r="K7" t="str">
+        <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
+      </c>
+      <c r="L7" t="str">
+        <v>N</v>
+      </c>
+      <c r="M7" t="str">
+        <v>N/A</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>42504e80-d5df-4b97-a283-eb96728c425f</v>
+        <v>992418b2-3029-4752-9552-0aa886433657</v>
       </c>
       <c r="B8" t="str">
-        <v>Ella Anderson</v>
+        <v>Zoe Brown</v>
       </c>
       <c r="C8">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D8" t="str">
         <v>Female</v>
       </c>
       <c r="E8" t="str">
-        <v>ella.anderson1@yahoo.com</v>
+        <v>zoe.brown45@outlook.com</v>
       </c>
       <c r="F8" t="str">
-        <v>0412 908 910</v>
+        <v>0401 578 107</v>
       </c>
       <c r="G8" t="str">
-        <v>Geelong</v>
+        <v>Sydney</v>
       </c>
       <c r="H8" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I8" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
       <c r="J8" t="str">
-        <v>Isabella Brown</v>
+        <v>Chloe Jones</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>210066e7-58e9-4ebb-a504-dfbf383961b5</v>
+        <v>bcc86f75-9a60-406c-be7c-4f31ea5c30ef</v>
       </c>
       <c r="B9" t="str">
-        <v>Grace Scott</v>
+        <v>Paisley Lee</v>
       </c>
       <c r="C9">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="D9" t="str">
         <v>Female</v>
       </c>
       <c r="E9" t="str">
-        <v>grace.scott94@hotmail.com</v>
+        <v>paisley.lee78@hotmail.com</v>
       </c>
       <c r="F9" t="str">
-        <v>0410 377 869</v>
+        <v>0400 179 607</v>
       </c>
       <c r="G9" t="str">
-        <v>Toowoomba</v>
+        <v>Ballarat</v>
       </c>
       <c r="H9" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I9" t="str">
         <v>available</v>
       </c>
       <c r="J9" t="str">
-        <v>Audrey Smith</v>
+        <v>Aria Lopez</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>9b54470e-fe91-4ebb-b0aa-becf22a8cc3c</v>
+        <v>42504e80-d5df-4b97-a283-eb96728c425f</v>
       </c>
       <c r="B10" t="str">
-        <v>Abigail Jackson</v>
+        <v>Ella Anderson</v>
       </c>
       <c r="C10">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D10" t="str">
         <v>Female</v>
       </c>
       <c r="E10" t="str">
-        <v>abigail.jackson65@outlook.com</v>
+        <v>ella.anderson1@yahoo.com</v>
       </c>
       <c r="F10" t="str">
-        <v>0411 824 257</v>
+        <v>0412 908 910</v>
       </c>
       <c r="G10" t="str">
-        <v>Newcastle</v>
+        <v>Geelong</v>
       </c>
       <c r="H10" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I10" t="str">
         <v>available</v>
+      </c>
+      <c r="J10" t="str">
+        <v>Isabella Brown</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>ef837da0-c81f-4113-a389-db5e46ffaf4d</v>
+        <v>210066e7-58e9-4ebb-a504-dfbf383961b5</v>
       </c>
       <c r="B11" t="str">
-        <v>Aria Scott</v>
+        <v>Grace Scott</v>
       </c>
       <c r="C11">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D11" t="str">
         <v>Female</v>
       </c>
       <c r="E11" t="str">
-        <v>aria.scott42@outlook.com</v>
+        <v>grace.scott94@hotmail.com</v>
       </c>
       <c r="F11" t="str">
-        <v>0401 330 548</v>
+        <v>0410 377 869</v>
       </c>
       <c r="G11" t="str">
-        <v>Hobart</v>
+        <v>Toowoomba</v>
       </c>
       <c r="H11" t="str">
-        <v>C</v>
+        <v>B+</v>
       </c>
       <c r="I11" t="str">
         <v>available</v>
       </c>
       <c r="J11" t="str">
-        <v>Maya Hernandez</v>
+        <v>Audrey Smith</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>aa6fa282-9894-4b21-a871-c9725586c397</v>
+        <v>ef837da0-c81f-4113-a389-db5e46ffaf4d</v>
       </c>
       <c r="B12" t="str">
-        <v>Audrey Thomas</v>
+        <v>Aria Scott</v>
       </c>
       <c r="C12">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="D12" t="str">
         <v>Female</v>
       </c>
       <c r="E12" t="str">
-        <v>audrey.thomas38@gmail.com</v>
+        <v>aria.scott42@outlook.com</v>
       </c>
       <c r="F12" t="str">
-        <v>0400 437 270</v>
+        <v>0401 330 548</v>
       </c>
       <c r="G12" t="str">
-        <v>Perth</v>
+        <v>Hobart</v>
       </c>
       <c r="H12" t="str">
         <v>C</v>
@@ -1071,132 +1068,135 @@
         <v>available</v>
       </c>
       <c r="J12" t="str">
-        <v>Hannah Torres</v>
+        <v>Maya Hernandez</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2c188398-79a8-4bf6-b740-1ad9d535662e</v>
+        <v>aa6fa282-9894-4b21-a871-c9725586c397</v>
       </c>
       <c r="B13" t="str">
-        <v>Everly Torres</v>
+        <v>Audrey Thomas</v>
       </c>
       <c r="C13">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D13" t="str">
         <v>Female</v>
       </c>
       <c r="E13" t="str">
-        <v>everly.torres12@gmail.com</v>
+        <v>audrey.thomas38@gmail.com</v>
       </c>
       <c r="F13" t="str">
-        <v>0412 804 179</v>
+        <v>0400 437 270</v>
       </c>
       <c r="G13" t="str">
-        <v>Sydney</v>
+        <v>Perth</v>
       </c>
       <c r="H13" t="str">
-        <v>A+</v>
+        <v>C</v>
       </c>
       <c r="I13" t="str">
         <v>available</v>
       </c>
       <c r="J13" t="str">
-        <v>Stella Green</v>
+        <v>Hannah Torres</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>dbb200b8-766c-4984-9724-f68192d88939</v>
+        <v>2c188398-79a8-4bf6-b740-1ad9d535662e</v>
       </c>
       <c r="B14" t="str">
-        <v>Hannah Torres</v>
+        <v>Everly Torres</v>
       </c>
       <c r="C14">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" t="str">
         <v>Female</v>
       </c>
       <c r="E14" t="str">
-        <v>hannah.torres86@yahoo.com</v>
+        <v>everly.torres12@gmail.com</v>
       </c>
       <c r="F14" t="str">
-        <v>0402 688 409</v>
+        <v>0412 804 179</v>
       </c>
       <c r="G14" t="str">
-        <v>Wollongong</v>
+        <v>Sydney</v>
       </c>
       <c r="H14" t="str">
-        <v>B+</v>
+        <v>A+</v>
       </c>
       <c r="I14" t="str">
         <v>available</v>
       </c>
       <c r="J14" t="str">
-        <v>Audrey Thomas</v>
+        <v>Stella Green</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2d659242-2255-4502-b333-781c9b2645fd</v>
+        <v>dbb200b8-766c-4984-9724-f68192d88939</v>
       </c>
       <c r="B15" t="str">
-        <v>Evelyn Sanchez</v>
+        <v>Hannah Torres</v>
       </c>
       <c r="C15">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D15" t="str">
         <v>Female</v>
       </c>
       <c r="E15" t="str">
-        <v>evelyn.sanchez9@gmail.com</v>
+        <v>hannah.torres86@yahoo.com</v>
       </c>
       <c r="F15" t="str">
-        <v>0404 119 469</v>
+        <v>0402 688 409</v>
       </c>
       <c r="G15" t="str">
-        <v>Gold Coast</v>
+        <v>Wollongong</v>
       </c>
       <c r="H15" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I15" t="str">
         <v>available</v>
       </c>
       <c r="J15" t="str">
-        <v>Chloe Flores</v>
+        <v>Audrey Thomas</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>47cc1288-cbc0-4159-a52d-924c8912434d</v>
+        <v>2d659242-2255-4502-b333-781c9b2645fd</v>
       </c>
       <c r="B16" t="str">
-        <v>Stella Martinez</v>
+        <v>Evelyn Sanchez</v>
       </c>
       <c r="C16">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D16" t="str">
         <v>Female</v>
       </c>
       <c r="E16" t="str">
-        <v>stella.martinez75@gmail.com</v>
+        <v>evelyn.sanchez9@gmail.com</v>
       </c>
       <c r="F16" t="str">
-        <v>0404 227 272</v>
+        <v>0404 119 469</v>
       </c>
       <c r="G16" t="str">
-        <v>Ballarat</v>
+        <v>Gold Coast</v>
       </c>
       <c r="H16" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I16" t="str">
-        <v>assigned</v>
+        <v>available</v>
+      </c>
+      <c r="J16" t="str">
+        <v>Chloe Flores</v>
       </c>
     </row>
     <row r="17">
@@ -1396,28 +1396,28 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>0a153155-dcf5-4d56-9ed1-8960501157f8</v>
+        <v>47cc1288-cbc0-4159-a52d-924c8912434d</v>
       </c>
       <c r="B23" t="str">
-        <v>Aurora Gonzalez</v>
+        <v>Stella Martinez</v>
       </c>
       <c r="C23">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D23" t="str">
         <v>Female</v>
       </c>
       <c r="E23" t="str">
-        <v>aurora.gonzalez29@outlook.com</v>
+        <v>stella.martinez75@gmail.com</v>
       </c>
       <c r="F23" t="str">
-        <v>0404 610 172</v>
+        <v>0404 227 272</v>
       </c>
       <c r="G23" t="str">
-        <v>Toowoomba</v>
+        <v>Ballarat</v>
       </c>
       <c r="H23" t="str">
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="I23" t="str">
         <v>available</v>
@@ -1748,31 +1748,31 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>bf283832-25b8-4d7f-9e0f-ef2f10903233</v>
+        <v>292da493-0524-4ee4-b911-1bb34e328b8c</v>
       </c>
       <c r="B34" t="str">
-        <v>Hunter Jackson</v>
+        <v>Jackson Young</v>
       </c>
       <c r="C34">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D34" t="str">
         <v>Male</v>
       </c>
       <c r="E34" t="str">
-        <v>hunter.jackson50@outlook.com</v>
+        <v>jackson.young79@yahoo.com</v>
       </c>
       <c r="F34" t="str">
-        <v>0404 841 788</v>
+        <v>0412 940 993</v>
       </c>
       <c r="G34" t="str">
-        <v>Townsville</v>
+        <v>Ballarat</v>
       </c>
       <c r="H34" t="str">
-        <v>C</v>
+        <v>B+</v>
       </c>
       <c r="I34" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
     <row r="35">
@@ -1809,25 +1809,25 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>d609a3ee-08af-4d16-aa51-c67e35cfa5c9</v>
+        <v>c1783cdf-a656-46b4-9331-4d9d18d40b51</v>
       </c>
       <c r="B36" t="str">
-        <v>Ryan Williams</v>
+        <v>Aurora Walker</v>
       </c>
       <c r="C36">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="D36" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E36" t="str">
-        <v>ryan.williams82@hotmail.com</v>
+        <v>aurora.walker1@outlook.com</v>
       </c>
       <c r="F36" t="str">
-        <v>0401 450 673</v>
+        <v>0403 522 404</v>
       </c>
       <c r="G36" t="str">
-        <v>Perth</v>
+        <v>Darwin</v>
       </c>
       <c r="H36" t="str">
         <v>B+</v>
@@ -1835,31 +1835,34 @@
       <c r="I36" t="str">
         <v>available</v>
       </c>
+      <c r="M36" t="str">
+        <v>Vision impaired - needs assistance</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>32ffeaf9-5f22-4db7-a70b-cbaab834db0d</v>
+        <v>adfcb6e3-82cb-46b9-8fb8-069fb91e2d4f</v>
       </c>
       <c r="B37" t="str">
-        <v>Isabella Hill</v>
+        <v>Mason Hill</v>
       </c>
       <c r="C37">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D37" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E37" t="str">
-        <v>isabella.hill77@hotmail.com</v>
+        <v>mason.hill27@outlook.com</v>
       </c>
       <c r="F37" t="str">
-        <v>0412 663 356</v>
+        <v>0410 682 884</v>
       </c>
       <c r="G37" t="str">
-        <v>Darwin</v>
+        <v>Canberra</v>
       </c>
       <c r="H37" t="str">
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="I37" t="str">
         <v>available</v>
@@ -1867,31 +1870,31 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>1df33560-ebf2-41ec-995c-52f3f1df78d5</v>
+        <v>f5233693-d357-4cac-a660-70ef0398a969</v>
       </c>
       <c r="B38" t="str">
-        <v>Genesis Jones</v>
+        <v>Nathan Allen</v>
       </c>
       <c r="C38">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="D38" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E38" t="str">
-        <v>genesis.jones50@yahoo.com</v>
+        <v>nathan.allen87@outlook.com</v>
       </c>
       <c r="F38" t="str">
-        <v>0404 967 604</v>
+        <v>0403 587 263</v>
       </c>
       <c r="G38" t="str">
-        <v>Sydney</v>
+        <v>Adelaide</v>
       </c>
       <c r="H38" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I38" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
     <row r="39">
@@ -1960,63 +1963,63 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>939eed5c-b520-4a34-8d08-2243d6aa41c1</v>
+        <v>7728eead-ab7c-467f-bb41-2abd7952591a</v>
       </c>
       <c r="B41" t="str">
-        <v>Andrew Garcia</v>
+        <v>Oliver Rivera</v>
       </c>
       <c r="C41">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D41" t="str">
         <v>Male</v>
       </c>
       <c r="E41" t="str">
-        <v>andrew.garcia26@hotmail.com</v>
+        <v>oliver.rivera58@outlook.com</v>
       </c>
       <c r="F41" t="str">
-        <v>0400 450 222</v>
+        <v>0412 991 121</v>
       </c>
       <c r="G41" t="str">
-        <v>Darwin</v>
+        <v>Canberra</v>
       </c>
       <c r="H41" t="str">
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="I41" t="str">
         <v>available</v>
       </c>
       <c r="M41" t="str">
-        <v>Limited mobility - prefers ground floor seating</v>
+        <v>Requires wheelchair access</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>9efd8ec8-0e91-45d9-804b-518939fbac76</v>
+        <v>f693d8fc-436b-426a-9bca-0b141221ab3f</v>
       </c>
       <c r="B42" t="str">
-        <v>Noah Hernandez</v>
+        <v>Evelyn Clark</v>
       </c>
       <c r="C42">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D42" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E42" t="str">
-        <v>noah.hernandez9@hotmail.com</v>
+        <v>evelyn.clark47@outlook.com</v>
       </c>
       <c r="F42" t="str">
-        <v>0404 855 230</v>
+        <v>0410 941 656</v>
       </c>
       <c r="G42" t="str">
-        <v>Cairns</v>
+        <v>Hobart</v>
       </c>
       <c r="H42" t="str">
         <v>C</v>
       </c>
       <c r="I42" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
     <row r="43">
@@ -2053,28 +2056,28 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>f5233693-d357-4cac-a660-70ef0398a969</v>
+        <v>bf283832-25b8-4d7f-9e0f-ef2f10903233</v>
       </c>
       <c r="B44" t="str">
-        <v>Nathan Allen</v>
+        <v>Hunter Jackson</v>
       </c>
       <c r="C44">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D44" t="str">
         <v>Male</v>
       </c>
       <c r="E44" t="str">
-        <v>nathan.allen87@outlook.com</v>
+        <v>hunter.jackson50@outlook.com</v>
       </c>
       <c r="F44" t="str">
-        <v>0403 587 263</v>
+        <v>0404 841 788</v>
       </c>
       <c r="G44" t="str">
-        <v>Adelaide</v>
+        <v>Townsville</v>
       </c>
       <c r="H44" t="str">
-        <v>B+</v>
+        <v>C</v>
       </c>
       <c r="I44" t="str">
         <v>available</v>
@@ -2082,28 +2085,28 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>292da493-0524-4ee4-b911-1bb34e328b8c</v>
+        <v>0bb2a1aa-a74d-4711-a2ea-609663a77b4d</v>
       </c>
       <c r="B45" t="str">
-        <v>Jackson Young</v>
+        <v>Carter Harris</v>
       </c>
       <c r="C45">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D45" t="str">
         <v>Male</v>
       </c>
       <c r="E45" t="str">
-        <v>jackson.young79@yahoo.com</v>
+        <v>carter.harris82@yahoo.com</v>
       </c>
       <c r="F45" t="str">
-        <v>0412 940 993</v>
+        <v>0412 175 744</v>
       </c>
       <c r="G45" t="str">
-        <v>Ballarat</v>
+        <v>Geelong</v>
       </c>
       <c r="H45" t="str">
-        <v>B+</v>
+        <v>C</v>
       </c>
       <c r="I45" t="str">
         <v>available</v>
@@ -2143,28 +2146,28 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>efe20d3d-2162-4ff8-a8ff-4102e5d3f3ab</v>
+        <v>9efd8ec8-0e91-45d9-804b-518939fbac76</v>
       </c>
       <c r="B47" t="str">
-        <v>Cameron Lee</v>
+        <v>Noah Hernandez</v>
       </c>
       <c r="C47">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D47" t="str">
         <v>Male</v>
       </c>
       <c r="E47" t="str">
-        <v>cameron.lee78@yahoo.com</v>
+        <v>noah.hernandez9@hotmail.com</v>
       </c>
       <c r="F47" t="str">
-        <v>0404 821 708</v>
+        <v>0404 855 230</v>
       </c>
       <c r="G47" t="str">
         <v>Cairns</v>
       </c>
       <c r="H47" t="str">
-        <v>B+</v>
+        <v>C</v>
       </c>
       <c r="I47" t="str">
         <v>available</v>
@@ -2172,57 +2175,57 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>c1783cdf-a656-46b4-9331-4d9d18d40b51</v>
+        <v>bb319a54-7dbf-4a05-bd7f-8f2f6aa6b414</v>
       </c>
       <c r="B48" t="str">
-        <v>Aurora Walker</v>
+        <v>Isabella Brown</v>
       </c>
       <c r="C48">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D48" t="str">
         <v>Female</v>
       </c>
       <c r="E48" t="str">
-        <v>aurora.walker1@outlook.com</v>
+        <v>isabella.brown43@outlook.com</v>
       </c>
       <c r="F48" t="str">
-        <v>0403 522 404</v>
+        <v>0403 771 690</v>
       </c>
       <c r="G48" t="str">
         <v>Darwin</v>
       </c>
       <c r="H48" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I48" t="str">
         <v>available</v>
       </c>
-      <c r="M48" t="str">
-        <v>Vision impaired - needs assistance</v>
+      <c r="J48" t="str">
+        <v>Ella Anderson</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>182bd5d2-7f68-4c83-b156-e80856f3b6b7</v>
+        <v>0faec83d-7c29-4269-bf33-391ef02d60e4</v>
       </c>
       <c r="B49" t="str">
-        <v>Mason Nelson</v>
+        <v>Anna White</v>
       </c>
       <c r="C49">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D49" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E49" t="str">
-        <v>mason.nelson14@hotmail.com</v>
+        <v>anna.white24@yahoo.com</v>
       </c>
       <c r="F49" t="str">
-        <v>0403 485 650</v>
+        <v>0400 132 564</v>
       </c>
       <c r="G49" t="str">
-        <v>Canberra</v>
+        <v>Adelaide</v>
       </c>
       <c r="H49" t="str">
         <v>B+</v>
@@ -2233,60 +2236,57 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>7728eead-ab7c-467f-bb41-2abd7952591a</v>
+        <v>3d2128a1-336f-41e1-973b-b5dd54d90b19</v>
       </c>
       <c r="B50" t="str">
-        <v>Oliver Rivera</v>
+        <v>Nova Brown</v>
       </c>
       <c r="C50">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="D50" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E50" t="str">
-        <v>oliver.rivera58@outlook.com</v>
+        <v>nova.brown80@outlook.com</v>
       </c>
       <c r="F50" t="str">
-        <v>0412 991 121</v>
+        <v>0411 154 614</v>
       </c>
       <c r="G50" t="str">
-        <v>Canberra</v>
+        <v>Ballarat</v>
       </c>
       <c r="H50" t="str">
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="I50" t="str">
-        <v>assigned</v>
-      </c>
-      <c r="M50" t="str">
-        <v>Requires wheelchair access</v>
+        <v>available</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>3d2128a1-336f-41e1-973b-b5dd54d90b19</v>
+        <v>cd648690-8cd1-44b6-be26-0521038f442f</v>
       </c>
       <c r="B51" t="str">
-        <v>Nova Brown</v>
+        <v>Stella Hall</v>
       </c>
       <c r="C51">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D51" t="str">
         <v>Female</v>
       </c>
       <c r="E51" t="str">
-        <v>nova.brown80@outlook.com</v>
+        <v>stella.hall72@gmail.com</v>
       </c>
       <c r="F51" t="str">
-        <v>0411 154 614</v>
+        <v>0410 133 818</v>
       </c>
       <c r="G51" t="str">
-        <v>Ballarat</v>
+        <v>Wollongong</v>
       </c>
       <c r="H51" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="I51" t="str">
         <v>available</v>
@@ -2294,25 +2294,25 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>0faec83d-7c29-4269-bf33-391ef02d60e4</v>
+        <v>efe20d3d-2162-4ff8-a8ff-4102e5d3f3ab</v>
       </c>
       <c r="B52" t="str">
-        <v>Anna White</v>
+        <v>Cameron Lee</v>
       </c>
       <c r="C52">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D52" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E52" t="str">
-        <v>anna.white24@yahoo.com</v>
+        <v>cameron.lee78@yahoo.com</v>
       </c>
       <c r="F52" t="str">
-        <v>0400 132 564</v>
+        <v>0404 821 708</v>
       </c>
       <c r="G52" t="str">
-        <v>Adelaide</v>
+        <v>Cairns</v>
       </c>
       <c r="H52" t="str">
         <v>B+</v>
@@ -2323,211 +2323,211 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>0bb2a1aa-a74d-4711-a2ea-609663a77b4d</v>
+        <v>d609a3ee-08af-4d16-aa51-c67e35cfa5c9</v>
       </c>
       <c r="B53" t="str">
-        <v>Carter Harris</v>
+        <v>Ryan Williams</v>
       </c>
       <c r="C53">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D53" t="str">
         <v>Male</v>
       </c>
       <c r="E53" t="str">
-        <v>carter.harris82@yahoo.com</v>
+        <v>ryan.williams82@hotmail.com</v>
       </c>
       <c r="F53" t="str">
-        <v>0412 175 744</v>
+        <v>0401 450 673</v>
       </c>
       <c r="G53" t="str">
-        <v>Geelong</v>
+        <v>Perth</v>
       </c>
       <c r="H53" t="str">
-        <v>C</v>
+        <v>B+</v>
       </c>
       <c r="I53" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>bb319a54-7dbf-4a05-bd7f-8f2f6aa6b414</v>
+        <v>29fc5656-fb78-4c9b-9800-b68957bc0a07</v>
       </c>
       <c r="B54" t="str">
-        <v>Isabella Brown</v>
+        <v>Aria Lopez</v>
       </c>
       <c r="C54">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D54" t="str">
         <v>Female</v>
       </c>
       <c r="E54" t="str">
-        <v>isabella.brown43@outlook.com</v>
+        <v>aria.lopez55@hotmail.com</v>
       </c>
       <c r="F54" t="str">
-        <v>0403 771 690</v>
+        <v>0404 812 491</v>
       </c>
       <c r="G54" t="str">
-        <v>Darwin</v>
+        <v>Sydney</v>
       </c>
       <c r="H54" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I54" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
       <c r="J54" t="str">
-        <v>Ella Anderson</v>
+        <v>Paisley Lee</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>cd648690-8cd1-44b6-be26-0521038f442f</v>
+        <v>f1466859-7323-4893-a189-a0ce994068ba</v>
       </c>
       <c r="B55" t="str">
-        <v>Stella Hall</v>
+        <v>Anthony Thompson</v>
       </c>
       <c r="C55">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D55" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E55" t="str">
-        <v>stella.hall72@gmail.com</v>
+        <v>anthony.thompson29@yahoo.com</v>
       </c>
       <c r="F55" t="str">
-        <v>0410 133 818</v>
+        <v>0412 442 587</v>
       </c>
       <c r="G55" t="str">
-        <v>Wollongong</v>
+        <v>Townsville</v>
       </c>
       <c r="H55" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="I55" t="str">
-        <v>assigned</v>
+        <v>available</v>
+      </c>
+      <c r="M55" t="str">
+        <v>Vision impaired - needs assistance</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>29fc5656-fb78-4c9b-9800-b68957bc0a07</v>
+        <v>939eed5c-b520-4a34-8d08-2243d6aa41c1</v>
       </c>
       <c r="B56" t="str">
-        <v>Aria Lopez</v>
+        <v>Andrew Garcia</v>
       </c>
       <c r="C56">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D56" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E56" t="str">
-        <v>aria.lopez55@hotmail.com</v>
+        <v>andrew.garcia26@hotmail.com</v>
       </c>
       <c r="F56" t="str">
-        <v>0404 812 491</v>
+        <v>0400 450 222</v>
       </c>
       <c r="G56" t="str">
-        <v>Sydney</v>
+        <v>Darwin</v>
       </c>
       <c r="H56" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I56" t="str">
         <v>available</v>
       </c>
-      <c r="J56" t="str">
-        <v>Paisley Lee</v>
+      <c r="M56" t="str">
+        <v>Limited mobility - prefers ground floor seating</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>f693d8fc-436b-426a-9bca-0b141221ab3f</v>
+        <v>32ffeaf9-5f22-4db7-a70b-cbaab834db0d</v>
       </c>
       <c r="B57" t="str">
-        <v>Evelyn Clark</v>
+        <v>Isabella Hill</v>
       </c>
       <c r="C57">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D57" t="str">
         <v>Female</v>
       </c>
       <c r="E57" t="str">
-        <v>evelyn.clark47@outlook.com</v>
+        <v>isabella.hill77@hotmail.com</v>
       </c>
       <c r="F57" t="str">
-        <v>0410 941 656</v>
+        <v>0412 663 356</v>
       </c>
       <c r="G57" t="str">
-        <v>Hobart</v>
+        <v>Darwin</v>
       </c>
       <c r="H57" t="str">
-        <v>C</v>
+        <v>B+</v>
       </c>
       <c r="I57" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>f1466859-7323-4893-a189-a0ce994068ba</v>
+        <v>182bd5d2-7f68-4c83-b156-e80856f3b6b7</v>
       </c>
       <c r="B58" t="str">
-        <v>Anthony Thompson</v>
+        <v>Mason Nelson</v>
       </c>
       <c r="C58">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D58" t="str">
         <v>Male</v>
       </c>
       <c r="E58" t="str">
-        <v>anthony.thompson29@yahoo.com</v>
+        <v>mason.nelson14@hotmail.com</v>
       </c>
       <c r="F58" t="str">
-        <v>0412 442 587</v>
+        <v>0403 485 650</v>
       </c>
       <c r="G58" t="str">
-        <v>Townsville</v>
+        <v>Canberra</v>
       </c>
       <c r="H58" t="str">
-        <v>A</v>
+        <v>B+</v>
       </c>
       <c r="I58" t="str">
         <v>available</v>
-      </c>
-      <c r="M58" t="str">
-        <v>Vision impaired - needs assistance</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>adfcb6e3-82cb-46b9-8fb8-069fb91e2d4f</v>
+        <v>1df33560-ebf2-41ec-995c-52f3f1df78d5</v>
       </c>
       <c r="B59" t="str">
-        <v>Mason Hill</v>
+        <v>Genesis Jones</v>
       </c>
       <c r="C59">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D59" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E59" t="str">
-        <v>mason.hill27@outlook.com</v>
+        <v>genesis.jones50@yahoo.com</v>
       </c>
       <c r="F59" t="str">
-        <v>0410 682 884</v>
+        <v>0404 967 604</v>
       </c>
       <c r="G59" t="str">
-        <v>Canberra</v>
+        <v>Sydney</v>
       </c>
       <c r="H59" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="I59" t="str">
         <v>available</v>
@@ -2535,28 +2535,28 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>bf5a6984-f656-4e23-9646-85829e9daffe</v>
+        <v>34685ff7-6e85-4bbd-b546-77cfe11d7f7d</v>
       </c>
       <c r="B60" t="str">
-        <v>Scarlett Lopez</v>
+        <v>Grace Walker</v>
       </c>
       <c r="C60">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D60" t="str">
         <v>Female</v>
       </c>
       <c r="E60" t="str">
-        <v>scarlett.lopez53@yahoo.com</v>
+        <v>grace.walker52@hotmail.com</v>
       </c>
       <c r="F60" t="str">
-        <v>0400 509 641</v>
+        <v>0412 754 780</v>
       </c>
       <c r="G60" t="str">
-        <v>Sydney</v>
+        <v>Canberra</v>
       </c>
       <c r="H60" t="str">
-        <v>B+</v>
+        <v>A+</v>
       </c>
       <c r="I60" t="str">
         <v>available</v>
@@ -2564,57 +2564,60 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>34685ff7-6e85-4bbd-b546-77cfe11d7f7d</v>
+        <v>e15c67b6-0680-4284-a8aa-a525b34c592d</v>
       </c>
       <c r="B61" t="str">
-        <v>Grace Walker</v>
+        <v>Aurora Williams</v>
       </c>
       <c r="C61">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="D61" t="str">
         <v>Female</v>
       </c>
       <c r="E61" t="str">
-        <v>grace.walker52@hotmail.com</v>
+        <v>aurora.williams76@outlook.com</v>
       </c>
       <c r="F61" t="str">
-        <v>0412 754 780</v>
+        <v>0401 416 170</v>
       </c>
       <c r="G61" t="str">
-        <v>Canberra</v>
+        <v>Darwin</v>
       </c>
       <c r="H61" t="str">
-        <v>A+</v>
+        <v>C</v>
       </c>
       <c r="I61" t="str">
         <v>available</v>
+      </c>
+      <c r="M61" t="str">
+        <v>Uses walking cane</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>ee7f9d33-09d6-417b-a45f-3e6554489f5b</v>
+        <v>f9d68052-4310-45c2-a5a9-64c272347899</v>
       </c>
       <c r="B62" t="str">
-        <v>Dylan Miller</v>
+        <v>Christian Rivera</v>
       </c>
       <c r="C62">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="D62" t="str">
         <v>Male</v>
       </c>
       <c r="E62" t="str">
-        <v>dylan.miller23@hotmail.com</v>
+        <v>christian.rivera86@hotmail.com</v>
       </c>
       <c r="F62" t="str">
-        <v>0402 417 876</v>
+        <v>0400 135 743</v>
       </c>
       <c r="G62" t="str">
-        <v>Melbourne</v>
+        <v>Adelaide</v>
       </c>
       <c r="H62" t="str">
-        <v>A</v>
+        <v>B+</v>
       </c>
       <c r="I62" t="str">
         <v>available</v>
@@ -2622,28 +2625,28 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>f9d68052-4310-45c2-a5a9-64c272347899</v>
+        <v>59bae9a1-93b9-471d-a2b7-074918634f6b</v>
       </c>
       <c r="B63" t="str">
-        <v>Christian Rivera</v>
+        <v>Joshua Clark</v>
       </c>
       <c r="C63">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="D63" t="str">
         <v>Male</v>
       </c>
       <c r="E63" t="str">
-        <v>christian.rivera86@hotmail.com</v>
+        <v>joshua.clark16@outlook.com</v>
       </c>
       <c r="F63" t="str">
-        <v>0400 135 743</v>
+        <v>0403 901 485</v>
       </c>
       <c r="G63" t="str">
-        <v>Adelaide</v>
+        <v>Sydney</v>
       </c>
       <c r="H63" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I63" t="str">
         <v>available</v>
@@ -2651,28 +2654,28 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>5a6b21ec-9fac-4adc-b5ab-bcad20d0eca4</v>
+        <v>ca152dfe-8ddb-45c8-b084-8a5c9e6dacfa</v>
       </c>
       <c r="B64" t="str">
-        <v>Hunter Harris</v>
+        <v>Ryan Lewis</v>
       </c>
       <c r="C64">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D64" t="str">
         <v>Male</v>
       </c>
       <c r="E64" t="str">
-        <v>hunter.harris1@gmail.com</v>
+        <v>ryan.lewis85@yahoo.com</v>
       </c>
       <c r="F64" t="str">
-        <v>0404 782 485</v>
+        <v>0400 187 811</v>
       </c>
       <c r="G64" t="str">
-        <v>Gold Coast</v>
+        <v>Canberra</v>
       </c>
       <c r="H64" t="str">
-        <v>A</v>
+        <v>B+</v>
       </c>
       <c r="I64" t="str">
         <v>available</v>
@@ -2680,144 +2683,147 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>39b7a0a4-be8b-49f1-a5af-c5a105e0ab58</v>
+        <v>40727c14-a30e-4e3b-8b64-0359d25efc0c</v>
       </c>
       <c r="B65" t="str">
-        <v>Joshua Carter</v>
+        <v>Joshua Scott</v>
       </c>
       <c r="C65">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D65" t="str">
         <v>Male</v>
       </c>
       <c r="E65" t="str">
-        <v>joshua.carter41@hotmail.com</v>
+        <v>joshua.scott95@outlook.com</v>
       </c>
       <c r="F65" t="str">
-        <v>0404 538 442</v>
+        <v>0410 137 561</v>
       </c>
       <c r="G65" t="str">
-        <v>Wollongong</v>
+        <v>Canberra</v>
       </c>
       <c r="H65" t="str">
         <v>B</v>
       </c>
       <c r="I65" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>2811bf99-369b-4c0a-b5d6-4ff46cd7aa5e</v>
+        <v>2fa810c7-61d0-4519-a314-824cf0873e30</v>
       </c>
       <c r="B66" t="str">
-        <v>Lucas Thomas</v>
+        <v>Theodore Allen</v>
       </c>
       <c r="C66">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D66" t="str">
         <v>Male</v>
       </c>
       <c r="E66" t="str">
-        <v>lucas.thomas30@yahoo.com</v>
+        <v>theodore.allen25@outlook.com</v>
       </c>
       <c r="F66" t="str">
-        <v>0412 527 117</v>
+        <v>0400 438 819</v>
       </c>
       <c r="G66" t="str">
-        <v>Brisbane</v>
+        <v>Newcastle</v>
       </c>
       <c r="H66" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I66" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>df6c0d97-fd38-4b65-8765-b11a4939bd3b</v>
+        <v>ecc70875-f282-4849-9e60-071edc278977</v>
       </c>
       <c r="B67" t="str">
-        <v>Julian Rivera</v>
+        <v>Noah White</v>
       </c>
       <c r="C67">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="D67" t="str">
         <v>Male</v>
       </c>
       <c r="E67" t="str">
-        <v>julian.rivera31@outlook.com</v>
+        <v>noah.white20@gmail.com</v>
       </c>
       <c r="F67" t="str">
-        <v>0401 414 502</v>
+        <v>0410 565 594</v>
       </c>
       <c r="G67" t="str">
-        <v>Perth</v>
+        <v>Adelaide</v>
       </c>
       <c r="H67" t="str">
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="I67" t="str">
         <v>available</v>
+      </c>
+      <c r="M67" t="str">
+        <v>Requires wheelchair access</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>0e8f635e-8f06-4224-a2cc-4263ac307ba2</v>
+        <v>d7b0dd51-8aea-4b32-bb8d-8b60271fc6c9</v>
       </c>
       <c r="B68" t="str">
-        <v>Joshua Jones</v>
+        <v>Jayden Nguyen</v>
       </c>
       <c r="C68">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D68" t="str">
         <v>Male</v>
       </c>
       <c r="E68" t="str">
-        <v>joshua.jones82@yahoo.com</v>
+        <v>jayden.nguyen88@hotmail.com</v>
       </c>
       <c r="F68" t="str">
-        <v>0400 652 840</v>
+        <v>0401 108 628</v>
       </c>
       <c r="G68" t="str">
-        <v>Toowoomba</v>
+        <v>Hobart</v>
       </c>
       <c r="H68" t="str">
         <v>B</v>
       </c>
       <c r="I68" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>ca152dfe-8ddb-45c8-b084-8a5c9e6dacfa</v>
+        <v>25370fa8-38bb-4172-9e02-23a59fcfd87a</v>
       </c>
       <c r="B69" t="str">
-        <v>Ryan Lewis</v>
+        <v>Carter Hill</v>
       </c>
       <c r="C69">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D69" t="str">
         <v>Male</v>
       </c>
       <c r="E69" t="str">
-        <v>ryan.lewis85@yahoo.com</v>
+        <v>carter.hill93@gmail.com</v>
       </c>
       <c r="F69" t="str">
-        <v>0400 187 811</v>
+        <v>0404 349 309</v>
       </c>
       <c r="G69" t="str">
-        <v>Canberra</v>
+        <v>Newcastle</v>
       </c>
       <c r="H69" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I69" t="str">
         <v>available</v>
@@ -2825,321 +2831,321 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>25370fa8-38bb-4172-9e02-23a59fcfd87a</v>
+        <v>f68d2771-4820-4fef-b156-093280aeea67</v>
       </c>
       <c r="B70" t="str">
-        <v>Carter Hill</v>
+        <v>Aria Nguyen</v>
       </c>
       <c r="C70">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D70" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E70" t="str">
-        <v>carter.hill93@gmail.com</v>
+        <v>aria.nguyen36@gmail.com</v>
       </c>
       <c r="F70" t="str">
-        <v>0404 349 309</v>
+        <v>0401 618 716</v>
       </c>
       <c r="G70" t="str">
-        <v>Newcastle</v>
+        <v>Sydney</v>
       </c>
       <c r="H70" t="str">
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="I70" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>a2ff3ad7-7964-4523-bf18-ce9994a910da</v>
+        <v>0e8f635e-8f06-4224-a2cc-4263ac307ba2</v>
       </c>
       <c r="B71" t="str">
-        <v>Nora Mitchell</v>
+        <v>Joshua Jones</v>
       </c>
       <c r="C71">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D71" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E71" t="str">
-        <v>nora.mitchell66@outlook.com</v>
+        <v>joshua.jones82@yahoo.com</v>
       </c>
       <c r="F71" t="str">
-        <v>0412 196 419</v>
+        <v>0400 652 840</v>
       </c>
       <c r="G71" t="str">
-        <v>Adelaide</v>
+        <v>Toowoomba</v>
       </c>
       <c r="H71" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I71" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>a8fa9125-28f1-47e1-adba-784701975e68</v>
+        <v>d6c29b29-46c2-458d-9ed6-9955afb17b95</v>
       </c>
       <c r="B72" t="str">
-        <v>Abigail Williams</v>
+        <v>Ethan Taylor</v>
       </c>
       <c r="C72">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="D72" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E72" t="str">
-        <v>abigail.williams45@yahoo.com</v>
+        <v>ethan.taylor22@yahoo.com</v>
       </c>
       <c r="F72" t="str">
-        <v>0403 497 445</v>
+        <v>0410 363 173</v>
       </c>
       <c r="G72" t="str">
-        <v>Toowoomba</v>
+        <v>Adelaide</v>
       </c>
       <c r="H72" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I72" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>ecc70875-f282-4849-9e60-071edc278977</v>
+        <v>da40ad70-95be-413c-b0f1-d089ef285cc8</v>
       </c>
       <c r="B73" t="str">
-        <v>Noah White</v>
+        <v>Emily Smith</v>
       </c>
       <c r="C73">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D73" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E73" t="str">
-        <v>noah.white20@gmail.com</v>
+        <v>emily.smith56@hotmail.com</v>
       </c>
       <c r="F73" t="str">
-        <v>0410 565 594</v>
+        <v>0410 101 780</v>
       </c>
       <c r="G73" t="str">
-        <v>Adelaide</v>
+        <v>Toowoomba</v>
       </c>
       <c r="H73" t="str">
-        <v>A</v>
+        <v>A+</v>
       </c>
       <c r="I73" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
       <c r="M73" t="str">
-        <v>Requires wheelchair access</v>
+        <v>Limited mobility - prefers ground floor seating</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>59bae9a1-93b9-471d-a2b7-074918634f6b</v>
+        <v>ad836319-db56-4a08-bca6-a8e3f19c37a8</v>
       </c>
       <c r="B74" t="str">
-        <v>Joshua Clark</v>
+        <v>Emily Johnson</v>
       </c>
       <c r="C74">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D74" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E74" t="str">
-        <v>joshua.clark16@outlook.com</v>
+        <v>emily.johnson58@hotmail.com</v>
       </c>
       <c r="F74" t="str">
-        <v>0403 901 485</v>
+        <v>0412 663 939</v>
       </c>
       <c r="G74" t="str">
-        <v>Sydney</v>
+        <v>Perth</v>
       </c>
       <c r="H74" t="str">
         <v>B</v>
       </c>
       <c r="I74" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>da40ad70-95be-413c-b0f1-d089ef285cc8</v>
+        <v>39b7a0a4-be8b-49f1-a5af-c5a105e0ab58</v>
       </c>
       <c r="B75" t="str">
-        <v>Emily Smith</v>
+        <v>Joshua Carter</v>
       </c>
       <c r="C75">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="D75" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E75" t="str">
-        <v>emily.smith56@hotmail.com</v>
+        <v>joshua.carter41@hotmail.com</v>
       </c>
       <c r="F75" t="str">
-        <v>0410 101 780</v>
+        <v>0404 538 442</v>
       </c>
       <c r="G75" t="str">
-        <v>Toowoomba</v>
+        <v>Wollongong</v>
       </c>
       <c r="H75" t="str">
-        <v>A+</v>
+        <v>B</v>
       </c>
       <c r="I75" t="str">
         <v>available</v>
-      </c>
-      <c r="M75" t="str">
-        <v>Limited mobility - prefers ground floor seating</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>40727c14-a30e-4e3b-8b64-0359d25efc0c</v>
+        <v>5c31add6-7626-46c5-a3e1-0e452ead739d</v>
       </c>
       <c r="B76" t="str">
-        <v>Joshua Scott</v>
+        <v>Charles Torres</v>
       </c>
       <c r="C76">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D76" t="str">
         <v>Male</v>
       </c>
       <c r="E76" t="str">
-        <v>joshua.scott95@outlook.com</v>
+        <v>charles.torres98@outlook.com</v>
       </c>
       <c r="F76" t="str">
-        <v>0410 137 561</v>
+        <v>0401 744 176</v>
       </c>
       <c r="G76" t="str">
-        <v>Canberra</v>
+        <v>Wollongong</v>
       </c>
       <c r="H76" t="str">
         <v>B</v>
       </c>
       <c r="I76" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>f68d2771-4820-4fef-b156-093280aeea67</v>
+        <v>6591420b-4762-4d90-b738-8a5b70458c40</v>
       </c>
       <c r="B77" t="str">
-        <v>Aria Nguyen</v>
+        <v>Aurora Hill</v>
       </c>
       <c r="C77">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D77" t="str">
         <v>Female</v>
       </c>
       <c r="E77" t="str">
-        <v>aria.nguyen36@gmail.com</v>
+        <v>aurora.hill33@hotmail.com</v>
       </c>
       <c r="F77" t="str">
-        <v>0401 618 716</v>
+        <v>0410 373 844</v>
       </c>
       <c r="G77" t="str">
-        <v>Sydney</v>
+        <v>Gold Coast</v>
       </c>
       <c r="H77" t="str">
-        <v>C</v>
+        <v>B+</v>
       </c>
       <c r="I77" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>d6c29b29-46c2-458d-9ed6-9955afb17b95</v>
+        <v>a2ff3ad7-7964-4523-bf18-ce9994a910da</v>
       </c>
       <c r="B78" t="str">
-        <v>Ethan Taylor</v>
+        <v>Nora Mitchell</v>
       </c>
       <c r="C78">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D78" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E78" t="str">
-        <v>ethan.taylor22@yahoo.com</v>
+        <v>nora.mitchell66@outlook.com</v>
       </c>
       <c r="F78" t="str">
-        <v>0410 363 173</v>
+        <v>0412 196 419</v>
       </c>
       <c r="G78" t="str">
         <v>Adelaide</v>
       </c>
       <c r="H78" t="str">
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="I78" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>6ddd3228-f125-4d3e-88e2-157cd730b552</v>
+        <v>b8c1889f-fd66-4304-90d7-bd50422cbc52</v>
       </c>
       <c r="B79" t="str">
-        <v>Theodore Nelson</v>
+        <v>Maya Moore</v>
       </c>
       <c r="C79">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D79" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E79" t="str">
-        <v>theodore.nelson79@gmail.com</v>
+        <v>maya.moore54@outlook.com</v>
       </c>
       <c r="F79" t="str">
-        <v>0403 813 793</v>
+        <v>0400 718 585</v>
       </c>
       <c r="G79" t="str">
-        <v>Canberra</v>
+        <v>Toowoomba</v>
       </c>
       <c r="H79" t="str">
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="I79" t="str">
-        <v>assigned</v>
+        <v>available</v>
+      </c>
+      <c r="J79" t="str">
+        <v>Sofia Williams</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>b8c1889f-fd66-4304-90d7-bd50422cbc52</v>
+        <v>222469f4-a8d9-4550-b6ee-db9d00e24edd</v>
       </c>
       <c r="B80" t="str">
-        <v>Maya Moore</v>
+        <v>Chloe Flores</v>
       </c>
       <c r="C80">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="D80" t="str">
         <v>Female</v>
       </c>
       <c r="E80" t="str">
-        <v>maya.moore54@outlook.com</v>
+        <v>chloe.flores93@yahoo.com</v>
       </c>
       <c r="F80" t="str">
-        <v>0400 718 585</v>
+        <v>0400 918 463</v>
       </c>
       <c r="G80" t="str">
-        <v>Toowoomba</v>
+        <v>Townsville</v>
       </c>
       <c r="H80" t="str">
         <v>C</v>
@@ -3148,123 +3154,120 @@
         <v>available</v>
       </c>
       <c r="J80" t="str">
-        <v>Sofia Williams</v>
+        <v>Evelyn Sanchez</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>222469f4-a8d9-4550-b6ee-db9d00e24edd</v>
+        <v>6ddd3228-f125-4d3e-88e2-157cd730b552</v>
       </c>
       <c r="B81" t="str">
-        <v>Chloe Flores</v>
+        <v>Theodore Nelson</v>
       </c>
       <c r="C81">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="D81" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E81" t="str">
-        <v>chloe.flores93@yahoo.com</v>
+        <v>theodore.nelson79@gmail.com</v>
       </c>
       <c r="F81" t="str">
-        <v>0400 918 463</v>
+        <v>0403 813 793</v>
       </c>
       <c r="G81" t="str">
-        <v>Townsville</v>
+        <v>Canberra</v>
       </c>
       <c r="H81" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I81" t="str">
         <v>available</v>
-      </c>
-      <c r="J81" t="str">
-        <v>Evelyn Sanchez</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>2fa810c7-61d0-4519-a314-824cf0873e30</v>
+        <v>3db7cdb3-9a92-467c-b554-d23b524f42f5</v>
       </c>
       <c r="B82" t="str">
-        <v>Theodore Allen</v>
+        <v>Claire Campbell</v>
       </c>
       <c r="C82">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="D82" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E82" t="str">
-        <v>theodore.allen25@outlook.com</v>
+        <v>claire.campbell9@outlook.com</v>
       </c>
       <c r="F82" t="str">
-        <v>0400 438 819</v>
+        <v>0401 164 490</v>
       </c>
       <c r="G82" t="str">
-        <v>Newcastle</v>
+        <v>Darwin</v>
       </c>
       <c r="H82" t="str">
         <v>B+</v>
       </c>
       <c r="I82" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>5c31add6-7626-46c5-a3e1-0e452ead739d</v>
+        <v>a8fa9125-28f1-47e1-adba-784701975e68</v>
       </c>
       <c r="B83" t="str">
-        <v>Charles Torres</v>
+        <v>Abigail Williams</v>
       </c>
       <c r="C83">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="D83" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E83" t="str">
-        <v>charles.torres98@outlook.com</v>
+        <v>abigail.williams45@yahoo.com</v>
       </c>
       <c r="F83" t="str">
-        <v>0401 744 176</v>
+        <v>0403 497 445</v>
       </c>
       <c r="G83" t="str">
-        <v>Wollongong</v>
+        <v>Toowoomba</v>
       </c>
       <c r="H83" t="str">
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="I83" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>6591420b-4762-4d90-b738-8a5b70458c40</v>
+        <v>ee7f9d33-09d6-417b-a45f-3e6554489f5b</v>
       </c>
       <c r="B84" t="str">
-        <v>Aurora Hill</v>
+        <v>Dylan Miller</v>
       </c>
       <c r="C84">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D84" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E84" t="str">
-        <v>aurora.hill33@hotmail.com</v>
+        <v>dylan.miller23@hotmail.com</v>
       </c>
       <c r="F84" t="str">
-        <v>0410 373 844</v>
+        <v>0402 417 876</v>
       </c>
       <c r="G84" t="str">
-        <v>Gold Coast</v>
+        <v>Melbourne</v>
       </c>
       <c r="H84" t="str">
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="I84" t="str">
         <v>available</v>
@@ -3272,28 +3275,28 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>8774a9f4-b951-41cc-b6bd-809a709cb6ea</v>
+        <v>5a6b21ec-9fac-4adc-b5ab-bcad20d0eca4</v>
       </c>
       <c r="B85" t="str">
-        <v>Lily Walker</v>
+        <v>Hunter Harris</v>
       </c>
       <c r="C85">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="D85" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E85" t="str">
-        <v>lily.walker96@outlook.com</v>
+        <v>hunter.harris1@gmail.com</v>
       </c>
       <c r="F85" t="str">
-        <v>0410 155 426</v>
+        <v>0404 782 485</v>
       </c>
       <c r="G85" t="str">
-        <v>Hobart</v>
+        <v>Gold Coast</v>
       </c>
       <c r="H85" t="str">
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="I85" t="str">
         <v>available</v>
@@ -3301,10 +3304,10 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>d7b0dd51-8aea-4b32-bb8d-8b60271fc6c9</v>
+        <v>df6c0d97-fd38-4b65-8765-b11a4939bd3b</v>
       </c>
       <c r="B86" t="str">
-        <v>Jayden Nguyen</v>
+        <v>Julian Rivera</v>
       </c>
       <c r="C86">
         <v>53</v>
@@ -3313,16 +3316,16 @@
         <v>Male</v>
       </c>
       <c r="E86" t="str">
-        <v>jayden.nguyen88@hotmail.com</v>
+        <v>julian.rivera31@outlook.com</v>
       </c>
       <c r="F86" t="str">
-        <v>0401 108 628</v>
+        <v>0401 414 502</v>
       </c>
       <c r="G86" t="str">
-        <v>Hobart</v>
+        <v>Perth</v>
       </c>
       <c r="H86" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I86" t="str">
         <v>available</v>
@@ -3330,57 +3333,54 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>e15c67b6-0680-4284-a8aa-a525b34c592d</v>
+        <v>2811bf99-369b-4c0a-b5d6-4ff46cd7aa5e</v>
       </c>
       <c r="B87" t="str">
-        <v>Aurora Williams</v>
+        <v>Lucas Thomas</v>
       </c>
       <c r="C87">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D87" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E87" t="str">
-        <v>aurora.williams76@outlook.com</v>
+        <v>lucas.thomas30@yahoo.com</v>
       </c>
       <c r="F87" t="str">
-        <v>0401 416 170</v>
+        <v>0412 527 117</v>
       </c>
       <c r="G87" t="str">
-        <v>Darwin</v>
+        <v>Brisbane</v>
       </c>
       <c r="H87" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I87" t="str">
-        <v>assigned</v>
-      </c>
-      <c r="M87" t="str">
-        <v>Uses walking cane</v>
+        <v>available</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>3db7cdb3-9a92-467c-b554-d23b524f42f5</v>
+        <v>bf5a6984-f656-4e23-9646-85829e9daffe</v>
       </c>
       <c r="B88" t="str">
-        <v>Claire Campbell</v>
+        <v>Scarlett Lopez</v>
       </c>
       <c r="C88">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="D88" t="str">
         <v>Female</v>
       </c>
       <c r="E88" t="str">
-        <v>claire.campbell9@outlook.com</v>
+        <v>scarlett.lopez53@yahoo.com</v>
       </c>
       <c r="F88" t="str">
-        <v>0401 164 490</v>
+        <v>0400 509 641</v>
       </c>
       <c r="G88" t="str">
-        <v>Darwin</v>
+        <v>Sydney</v>
       </c>
       <c r="H88" t="str">
         <v>B+</v>
@@ -3391,28 +3391,28 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>ad836319-db56-4a08-bca6-a8e3f19c37a8</v>
+        <v>8774a9f4-b951-41cc-b6bd-809a709cb6ea</v>
       </c>
       <c r="B89" t="str">
-        <v>Emily Johnson</v>
+        <v>Lily Walker</v>
       </c>
       <c r="C89">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="D89" t="str">
         <v>Female</v>
       </c>
       <c r="E89" t="str">
-        <v>emily.johnson58@hotmail.com</v>
+        <v>lily.walker96@outlook.com</v>
       </c>
       <c r="F89" t="str">
-        <v>0412 663 939</v>
+        <v>0410 155 426</v>
       </c>
       <c r="G89" t="str">
-        <v>Perth</v>
+        <v>Hobart</v>
       </c>
       <c r="H89" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I89" t="str">
         <v>available</v>
@@ -3525,206 +3525,191 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>7664257a-dce4-407a-8f24-692043d568be</v>
+        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
       </c>
       <c r="B93" t="str">
-        <v>Nora Jackson</v>
+        <v>Kathleen Reynolds</v>
       </c>
       <c r="C93">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D93" t="str">
-        <v>Female</v>
+        <v>Not Specified</v>
       </c>
       <c r="E93" t="str">
-        <v>nora.jackson83@hotmail.com</v>
+        <v>kathleenmonicareynolds@gmail.com</v>
       </c>
       <c r="F93" t="str">
-        <v>0404 434 899</v>
+        <v>498086080</v>
       </c>
       <c r="G93" t="str">
-        <v>Wollongong</v>
+        <v>Footscray</v>
       </c>
       <c r="H93" t="str">
-        <v>B+</v>
+        <v/>
       </c>
       <c r="I93" t="str">
-        <v>assigned</v>
+        <v>available</v>
+      </c>
+      <c r="J93" t="str">
+        <v>Peter Adamidis, Felicity Parker-Hill</v>
+      </c>
+      <c r="K93" t="str">
+        <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
+      </c>
+      <c r="L93" t="str">
+        <v>N</v>
+      </c>
+      <c r="M93" t="str">
+        <v>N/A</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>5331c6bd-19f8-416a-9166-06280a3c547e</v>
+        <v>adb0c362-d095-4bfd-98dc-c93920fd22d6</v>
       </c>
       <c r="B94" t="str">
-        <v>Ethan Rodriguez</v>
+        <v>Victoria Torres</v>
       </c>
       <c r="C94">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D94" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E94" t="str">
-        <v>ethan.rodriguez60@hotmail.com</v>
+        <v>victoria.torres48@outlook.com</v>
       </c>
       <c r="F94" t="str">
-        <v>0411 690 563</v>
+        <v>0411 539 271</v>
       </c>
       <c r="G94" t="str">
-        <v>Townsville</v>
+        <v>Geelong</v>
       </c>
       <c r="H94" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I94" t="str">
-        <v>assigned</v>
-      </c>
-      <c r="M94" t="str">
-        <v>Hearing impaired - requires front row seating</v>
+        <v>available</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
+        <v>e2f70c5c-0a8d-4055-8281-2ad2ae2e0cd6</v>
       </c>
       <c r="B95" t="str">
-        <v>Kathleen Reynolds</v>
+        <v>Stella Green</v>
       </c>
       <c r="C95">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="D95" t="str">
-        <v>Not Specified</v>
+        <v>Female</v>
       </c>
       <c r="E95" t="str">
-        <v>kathleenmonicareynolds@gmail.com</v>
+        <v>stella.green92@gmail.com</v>
       </c>
       <c r="F95" t="str">
-        <v>498086080</v>
+        <v>0404 230 858</v>
       </c>
       <c r="G95" t="str">
-        <v>Footscray</v>
+        <v>Wollongong</v>
       </c>
       <c r="H95" t="str">
-        <v/>
+        <v>A</v>
       </c>
       <c r="I95" t="str">
         <v>available</v>
       </c>
       <c r="J95" t="str">
-        <v>Peter Adamidis, Felicity Parker-Hill</v>
-      </c>
-      <c r="K95" t="str">
-        <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
-      </c>
-      <c r="L95" t="str">
-        <v>N</v>
+        <v>Everly Torres</v>
       </c>
       <c r="M95" t="str">
-        <v>N/A</v>
+        <v>Vision impaired - needs assistance</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>e2f70c5c-0a8d-4055-8281-2ad2ae2e0cd6</v>
+        <v>45c0fc2b-415d-475a-998d-934235565d6b</v>
       </c>
       <c r="B96" t="str">
-        <v>Stella Green</v>
+        <v>Scarlett Wright</v>
       </c>
       <c r="C96">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="D96" t="str">
         <v>Female</v>
       </c>
       <c r="E96" t="str">
-        <v>stella.green92@gmail.com</v>
+        <v>scarlett.wright68@outlook.com</v>
       </c>
       <c r="F96" t="str">
-        <v>0404 230 858</v>
+        <v>0412 487 763</v>
       </c>
       <c r="G96" t="str">
-        <v>Wollongong</v>
+        <v>Newcastle</v>
       </c>
       <c r="H96" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="I96" t="str">
         <v>available</v>
-      </c>
-      <c r="J96" t="str">
-        <v>Everly Torres</v>
-      </c>
-      <c r="M96" t="str">
-        <v>Vision impaired - needs assistance</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
+        <v>ef94ff15-5215-4ecd-9ad1-9ac44fd0e56a</v>
       </c>
       <c r="B97" t="str">
-        <v>Peter Adamidis</v>
+        <v>Luke Flores</v>
       </c>
       <c r="C97">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="D97" t="str">
-        <v>Not Specified</v>
+        <v>Male</v>
       </c>
       <c r="E97" t="str">
-        <v>peter.adamidis@gmail.com</v>
+        <v>luke.flores39@hotmail.com</v>
       </c>
       <c r="F97" t="str">
-        <v>498086080</v>
+        <v>0403 225 544</v>
       </c>
       <c r="G97" t="str">
-        <v/>
+        <v>Melbourne</v>
       </c>
       <c r="H97" t="str">
-        <v/>
+        <v>B</v>
       </c>
       <c r="I97" t="str">
         <v>available</v>
-      </c>
-      <c r="J97" t="str">
-        <v>Kathleen Reynolds, Felicity Parker-Hill</v>
-      </c>
-      <c r="K97" t="str">
-        <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
-      </c>
-      <c r="L97" t="str">
-        <v>Y</v>
-      </c>
-      <c r="M97" t="str">
-        <v>Broken Leg</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>adb0c362-d095-4bfd-98dc-c93920fd22d6</v>
+        <v>e166fd4f-73eb-4bea-b8be-3acdee4f9fdc</v>
       </c>
       <c r="B98" t="str">
-        <v>Victoria Torres</v>
+        <v>Liam Lewis</v>
       </c>
       <c r="C98">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D98" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E98" t="str">
-        <v>victoria.torres48@outlook.com</v>
+        <v>liam.lewis79@yahoo.com</v>
       </c>
       <c r="F98" t="str">
-        <v>0411 539 271</v>
+        <v>0404 203 198</v>
       </c>
       <c r="G98" t="str">
-        <v>Geelong</v>
+        <v>Hobart</v>
       </c>
       <c r="H98" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I98" t="str">
         <v>available</v>
@@ -3790,28 +3775,28 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>45c0fc2b-415d-475a-998d-934235565d6b</v>
+        <v>7664257a-dce4-407a-8f24-692043d568be</v>
       </c>
       <c r="B101" t="str">
-        <v>Scarlett Wright</v>
+        <v>Nora Jackson</v>
       </c>
       <c r="C101">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D101" t="str">
         <v>Female</v>
       </c>
       <c r="E101" t="str">
-        <v>scarlett.wright68@outlook.com</v>
+        <v>nora.jackson83@hotmail.com</v>
       </c>
       <c r="F101" t="str">
-        <v>0412 487 763</v>
+        <v>0404 434 899</v>
       </c>
       <c r="G101" t="str">
-        <v>Newcastle</v>
+        <v>Wollongong</v>
       </c>
       <c r="H101" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I101" t="str">
         <v>available</v>
@@ -3819,25 +3804,25 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>e166fd4f-73eb-4bea-b8be-3acdee4f9fdc</v>
+        <v>8956e289-91e9-4c15-bf2b-a13dee2fa476</v>
       </c>
       <c r="B102" t="str">
-        <v>Liam Lewis</v>
+        <v>Landon Wright</v>
       </c>
       <c r="C102">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D102" t="str">
         <v>Male</v>
       </c>
       <c r="E102" t="str">
-        <v>liam.lewis79@yahoo.com</v>
+        <v>landon.wright36@outlook.com</v>
       </c>
       <c r="F102" t="str">
-        <v>0404 203 198</v>
+        <v>0402 415 597</v>
       </c>
       <c r="G102" t="str">
-        <v>Hobart</v>
+        <v>Cairns</v>
       </c>
       <c r="H102" t="str">
         <v>B+</v>
@@ -3848,60 +3833,75 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>ef94ff15-5215-4ecd-9ad1-9ac44fd0e56a</v>
+        <v>5331c6bd-19f8-416a-9166-06280a3c547e</v>
       </c>
       <c r="B103" t="str">
-        <v>Luke Flores</v>
+        <v>Ethan Rodriguez</v>
       </c>
       <c r="C103">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D103" t="str">
         <v>Male</v>
       </c>
       <c r="E103" t="str">
-        <v>luke.flores39@hotmail.com</v>
+        <v>ethan.rodriguez60@hotmail.com</v>
       </c>
       <c r="F103" t="str">
-        <v>0403 225 544</v>
+        <v>0411 690 563</v>
       </c>
       <c r="G103" t="str">
-        <v>Melbourne</v>
+        <v>Townsville</v>
       </c>
       <c r="H103" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I103" t="str">
         <v>available</v>
+      </c>
+      <c r="M103" t="str">
+        <v>Hearing impaired - requires front row seating</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>8956e289-91e9-4c15-bf2b-a13dee2fa476</v>
+        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
       </c>
       <c r="B104" t="str">
-        <v>Landon Wright</v>
+        <v>Peter Adamidis</v>
       </c>
       <c r="C104">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D104" t="str">
-        <v>Male</v>
+        <v>Not Specified</v>
       </c>
       <c r="E104" t="str">
-        <v>landon.wright36@outlook.com</v>
+        <v>peter.adamidis@gmail.com</v>
       </c>
       <c r="F104" t="str">
-        <v>0402 415 597</v>
+        <v>498086080</v>
       </c>
       <c r="G104" t="str">
-        <v>Cairns</v>
+        <v/>
       </c>
       <c r="H104" t="str">
-        <v>B+</v>
+        <v/>
       </c>
       <c r="I104" t="str">
         <v>available</v>
+      </c>
+      <c r="J104" t="str">
+        <v>Kathleen Reynolds, Felicity Parker-Hill</v>
+      </c>
+      <c r="K104" t="str">
+        <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
+      </c>
+      <c r="L104" t="str">
+        <v>Y</v>
+      </c>
+      <c r="M104" t="str">
+        <v>Broken Leg</v>
       </c>
     </row>
   </sheetData>
@@ -3913,7 +3913,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3946,483 +3946,41 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>a634c290-4c9c-414a-93fc-745bd097e76d</v>
+        <v>cf3cf946-cf37-4a6d-b4aa-533fb3b9633f</v>
       </c>
       <c r="B2" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
       </c>
       <c r="C2" t="str">
-        <v>ecc70875-f282-4849-9e60-071edc278977</v>
+        <v>0dd7de5c-0409-45e3-84a5-5f2ffbd591d8</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" t="str">
-        <v>A5</v>
+        <v>A2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>b8c8e258-37be-4899-875e-6d388063ccde</v>
+        <v>47ec0204-7cf6-4afb-9b9e-a91324cdf4a9</v>
       </c>
       <c r="B3" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
       </c>
       <c r="C3" t="str">
-        <v>7664257a-dce4-407a-8f24-692043d568be</v>
+        <v>5a16ef0a-cce8-4d1b-bfa5-3892331170c1</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="str">
-        <v>B1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>45375cb0-bd1b-4b9a-a6a6-27fee2fb4945</v>
-      </c>
-      <c r="B4" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C4" t="str">
-        <v>6ddd3228-f125-4d3e-88e2-157cd730b552</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="str">
         <v>A1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>a616aafc-3ff8-4449-a8f9-1a4dbc9350d0</v>
-      </c>
-      <c r="B5" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C5" t="str">
-        <v>2fa810c7-61d0-4519-a314-824cf0873e30</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5" t="str">
-        <v>A2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>d5b88b57-aa91-49ce-afab-69ab3e297842</v>
-      </c>
-      <c r="B6" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C6" t="str">
-        <v>59bae9a1-93b9-471d-a2b7-074918634f6b</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6" t="str">
-        <v>A3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>40d2ebf0-17a6-485d-9dc1-2b1c6f764b92</v>
-      </c>
-      <c r="B7" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C7" t="str">
-        <v>40727c14-a30e-4e3b-8b64-0359d25efc0c</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7" t="str">
-        <v>A4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>e860e9bf-0085-4cdd-a9d0-594335337f42</v>
-      </c>
-      <c r="B8" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C8" t="str">
-        <v>5331c6bd-19f8-416a-9166-06280a3c547e</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8" t="str">
-        <v>A5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>231cd33c-26f8-47eb-abdb-18be9cb04e40</v>
-      </c>
-      <c r="B9" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C9" t="str">
-        <v>7728eead-ab7c-467f-bb41-2abd7952591a</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9" t="str">
-        <v>A1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>373d1ffe-5ae4-49a1-938f-0247d30da633</v>
-      </c>
-      <c r="B10" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C10" t="str">
-        <v>f693d8fc-436b-426a-9bca-0b141221ab3f</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10" t="str">
-        <v>A2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>a18d0693-98ff-4e9e-848f-9d3411c9f601</v>
-      </c>
-      <c r="B11" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C11" t="str">
-        <v>bf283832-25b8-4d7f-9e0f-ef2f10903233</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11" t="str">
-        <v>A3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>c0a18a7e-4e83-408c-9071-eb8eacc5af4b</v>
-      </c>
-      <c r="B12" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C12" t="str">
-        <v>9efd8ec8-0e91-45d9-804b-518939fbac76</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12" t="str">
-        <v>A4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>05863c6a-b5c7-4f02-9310-ed16f475fa5b</v>
-      </c>
-      <c r="B13" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C13" t="str">
-        <v>0bb2a1aa-a74d-4711-a2ea-609663a77b4d</v>
-      </c>
-      <c r="D13">
-        <v>5</v>
-      </c>
-      <c r="E13" t="str">
-        <v>A5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>39179962-2dc4-430e-989a-8b933f871bc8</v>
-      </c>
-      <c r="B14" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C14" t="str">
-        <v>f68d2771-4820-4fef-b156-093280aeea67</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-      <c r="E14" t="str">
-        <v>B1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>8fea80c2-f010-418e-9912-3e1811738244</v>
-      </c>
-      <c r="B15" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C15" t="str">
-        <v>42504e80-d5df-4b97-a283-eb96728c425f</v>
-      </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
-      <c r="E15" t="str">
-        <v>B2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>ec5bdd9f-9a20-4c40-b36a-6b6c4bb850da</v>
-      </c>
-      <c r="B16" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C16" t="str">
-        <v>bb319a54-7dbf-4a05-bd7f-8f2f6aa6b414</v>
-      </c>
-      <c r="D16">
-        <v>5</v>
-      </c>
-      <c r="E16" t="str">
-        <v>B3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>47c2c439-7c97-4019-80fd-93fc83d7c8e6</v>
-      </c>
-      <c r="B17" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C17" t="str">
-        <v>cd648690-8cd1-44b6-be26-0521038f442f</v>
-      </c>
-      <c r="D17">
-        <v>5</v>
-      </c>
-      <c r="E17" t="str">
-        <v>B4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>55aae62f-a92f-49f5-a5a2-f0aba343014a</v>
-      </c>
-      <c r="B18" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C18" t="str">
-        <v>1df33560-ebf2-41ec-995c-52f3f1df78d5</v>
-      </c>
-      <c r="D18">
-        <v>5</v>
-      </c>
-      <c r="E18" t="str">
-        <v>B5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>eaacb9fd-9bff-4952-8551-663c60df9878</v>
-      </c>
-      <c r="B19" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C19" t="str">
-        <v>d6c29b29-46c2-458d-9ed6-9955afb17b95</v>
-      </c>
-      <c r="D19">
-        <v>5</v>
-      </c>
-      <c r="E19" t="str">
-        <v>C1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>190fda70-e765-41a5-9147-b1f36392b50d</v>
-      </c>
-      <c r="B20" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C20" t="str">
-        <v>5c31add6-7626-46c5-a3e1-0e452ead739d</v>
-      </c>
-      <c r="D20">
-        <v>5</v>
-      </c>
-      <c r="E20" t="str">
-        <v>C2</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>7b5bf219-72c4-4e76-a04a-d00f276902e9</v>
-      </c>
-      <c r="B21" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C21" t="str">
-        <v>39b7a0a4-be8b-49f1-a5af-c5a105e0ab58</v>
-      </c>
-      <c r="D21">
-        <v>5</v>
-      </c>
-      <c r="E21" t="str">
-        <v>C3</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>a18846fc-8b75-4224-90ca-0ac6b286ea5a</v>
-      </c>
-      <c r="B22" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C22" t="str">
-        <v>2811bf99-369b-4c0a-b5d6-4ff46cd7aa5e</v>
-      </c>
-      <c r="D22">
-        <v>5</v>
-      </c>
-      <c r="E22" t="str">
-        <v>C4</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>77f1ebcc-83e6-48b3-aeee-af901920079c</v>
-      </c>
-      <c r="B23" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C23" t="str">
-        <v>0e8f635e-8f06-4224-a2cc-4263ac307ba2</v>
-      </c>
-      <c r="D23">
-        <v>5</v>
-      </c>
-      <c r="E23" t="str">
-        <v>D1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>a86ddb54-5d1b-4d80-940e-b1f381a6333f</v>
-      </c>
-      <c r="B24" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C24" t="str">
-        <v>25370fa8-38bb-4172-9e02-23a59fcfd87a</v>
-      </c>
-      <c r="D24">
-        <v>5</v>
-      </c>
-      <c r="E24" t="str">
-        <v>D2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>abe65c79-379e-46ec-aded-2652f9e64961</v>
-      </c>
-      <c r="B25" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C25" t="str">
-        <v>8e115c7e-8033-4466-bcb9-07ea089eb4be</v>
-      </c>
-      <c r="D25">
-        <v>6</v>
-      </c>
-      <c r="E25" t="str">
-        <v>A1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>e46419c3-c90e-4432-a3bb-19dedad4bb04</v>
-      </c>
-      <c r="B26" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C26" t="str">
-        <v>47cc1288-cbc0-4159-a52d-924c8912434d</v>
-      </c>
-      <c r="D26">
-        <v>6</v>
-      </c>
-      <c r="E26" t="str">
-        <v>A2</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>e2f751de-9d53-4fe5-8f08-756bfc12bb83</v>
-      </c>
-      <c r="B27" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C27" t="str">
-        <v>a2ff3ad7-7964-4523-bf18-ce9994a910da</v>
-      </c>
-      <c r="D27">
-        <v>6</v>
-      </c>
-      <c r="E27" t="str">
-        <v>A3</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>dadf3bea-2f2a-48bf-9e6e-7947f8313921</v>
-      </c>
-      <c r="B28" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C28" t="str">
-        <v>a8fa9125-28f1-47e1-adba-784701975e68</v>
-      </c>
-      <c r="D28">
-        <v>6</v>
-      </c>
-      <c r="E28" t="str">
-        <v>A4</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>2707752c-605e-4a31-871c-ece5c863b517</v>
-      </c>
-      <c r="B29" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C29" t="str">
-        <v>e15c67b6-0680-4284-a8aa-a525b34c592d</v>
-      </c>
-      <c r="D29">
-        <v>6</v>
-      </c>
-      <c r="E29" t="str">
-        <v>A5</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H29"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H3"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/storage/backups/automatic-backup.xlsx
+++ b/storage/backups/automatic-backup.xlsx
@@ -718,147 +718,153 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>9b54470e-fe91-4ebb-b0aa-becf22a8cc3c</v>
+        <v>dbb200b8-766c-4984-9724-f68192d88939</v>
       </c>
       <c r="B2" t="str">
-        <v>Abigail Jackson</v>
+        <v>Hannah Torres</v>
       </c>
       <c r="C2">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D2" t="str">
         <v>Female</v>
       </c>
       <c r="E2" t="str">
-        <v>abigail.jackson65@outlook.com</v>
+        <v>hannah.torres86@yahoo.com</v>
       </c>
       <c r="F2" t="str">
-        <v>0411 824 257</v>
+        <v>0402 688 409</v>
       </c>
       <c r="G2" t="str">
-        <v>Newcastle</v>
+        <v>Wollongong</v>
       </c>
       <c r="H2" t="str">
         <v>B+</v>
       </c>
       <c r="I2" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="J2" t="str">
+        <v>Audrey Thomas</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>8e115c7e-8033-4466-bcb9-07ea089eb4be</v>
+        <v>0669e014-c952-45fd-9791-36cbe1d51444</v>
       </c>
       <c r="B3" t="str">
-        <v>Chloe Taylor</v>
+        <v>Sofia Williams</v>
       </c>
       <c r="C3">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="D3" t="str">
         <v>Female</v>
       </c>
       <c r="E3" t="str">
-        <v>chloe.taylor7@gmail.com</v>
+        <v>sofia.williams39@yahoo.com</v>
       </c>
       <c r="F3" t="str">
-        <v>0412 903 254</v>
+        <v>0403 299 421</v>
       </c>
       <c r="G3" t="str">
-        <v>Townsville</v>
+        <v>Geelong</v>
       </c>
       <c r="H3" t="str">
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="I3" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="J3" t="str">
+        <v>Maya Moore</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>0a153155-dcf5-4d56-9ed1-8960501157f8</v>
+        <v>42504e80-d5df-4b97-a283-eb96728c425f</v>
       </c>
       <c r="B4" t="str">
-        <v>Aurora Gonzalez</v>
+        <v>Ella Anderson</v>
       </c>
       <c r="C4">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D4" t="str">
         <v>Female</v>
       </c>
       <c r="E4" t="str">
-        <v>aurora.gonzalez29@outlook.com</v>
+        <v>ella.anderson1@yahoo.com</v>
       </c>
       <c r="F4" t="str">
-        <v>0404 610 172</v>
+        <v>0412 908 910</v>
       </c>
       <c r="G4" t="str">
-        <v>Toowoomba</v>
+        <v>Geelong</v>
       </c>
       <c r="H4" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="I4" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="J4" t="str">
+        <v>Isabella Brown</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>5a16ef0a-cce8-4d1b-bfa5-3892331170c1</v>
+        <v>aa6fa282-9894-4b21-a871-c9725586c397</v>
       </c>
       <c r="B5" t="str">
-        <v>Caroline Taylor</v>
+        <v>Audrey Thomas</v>
       </c>
       <c r="C5">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D5" t="str">
         <v>Female</v>
       </c>
       <c r="E5" t="str">
-        <v>caroline.taylor54@outlook.com</v>
+        <v>audrey.thomas38@gmail.com</v>
       </c>
       <c r="F5" t="str">
-        <v>0402 864 601</v>
+        <v>0400 437 270</v>
       </c>
       <c r="G5" t="str">
-        <v>Darwin</v>
+        <v>Perth</v>
       </c>
       <c r="H5" t="str">
-        <v>B+</v>
+        <v>C</v>
       </c>
       <c r="I5" t="str">
         <v>assigned</v>
       </c>
       <c r="J5" t="str">
-        <v>Hazel Mitchell</v>
-      </c>
-      <c r="M5" t="str">
-        <v>Arthritis - prefers aisle seating for easy exit</v>
+        <v>Hannah Torres</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>0dd7de5c-0409-45e3-84a5-5f2ffbd591d8</v>
+        <v>d37f9e40-d1a2-4238-9089-80517a709859</v>
       </c>
       <c r="B6" t="str">
-        <v>Harper Sanchez</v>
+        <v>Mia Roberts</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D6" t="str">
         <v>Female</v>
       </c>
       <c r="E6" t="str">
-        <v>harper.sanchez76@gmail.com</v>
+        <v>mia.roberts81@hotmail.com</v>
       </c>
       <c r="F6" t="str">
-        <v>0411 422 972</v>
+        <v>0412 368 553</v>
       </c>
       <c r="G6" t="str">
-        <v>Geelong</v>
+        <v>Toowoomba</v>
       </c>
       <c r="H6" t="str">
         <v>C</v>
@@ -867,304 +873,289 @@
         <v>assigned</v>
       </c>
       <c r="J6" t="str">
-        <v>Leah Scott</v>
+        <v>Paisley Scott</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
+        <v>8e115c7e-8033-4466-bcb9-07ea089eb4be</v>
       </c>
       <c r="B7" t="str">
-        <v>Felicity Parker-Hill</v>
+        <v>Chloe Taylor</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="D7" t="str">
-        <v>Not Specified</v>
+        <v>Female</v>
       </c>
       <c r="E7" t="str">
-        <v>felicity.parkerhill@endemolshine.com.au</v>
+        <v>chloe.taylor7@gmail.com</v>
       </c>
       <c r="F7" t="str">
-        <v>498086080</v>
+        <v>0412 903 254</v>
       </c>
       <c r="G7" t="str">
-        <v>Melbourne</v>
+        <v>Townsville</v>
       </c>
       <c r="H7" t="str">
-        <v/>
+        <v>C</v>
       </c>
       <c r="I7" t="str">
         <v>available</v>
       </c>
-      <c r="J7" t="str">
-        <v>Peter Adamidis, Kathleen Reynolds</v>
-      </c>
-      <c r="K7" t="str">
-        <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
-      </c>
-      <c r="L7" t="str">
-        <v>N</v>
-      </c>
-      <c r="M7" t="str">
-        <v>N/A</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>992418b2-3029-4752-9552-0aa886433657</v>
+        <v>292da493-0524-4ee4-b911-1bb34e328b8c</v>
       </c>
       <c r="B8" t="str">
-        <v>Zoe Brown</v>
+        <v>Jackson Young</v>
       </c>
       <c r="C8">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D8" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E8" t="str">
-        <v>zoe.brown45@outlook.com</v>
+        <v>jackson.young79@yahoo.com</v>
       </c>
       <c r="F8" t="str">
-        <v>0401 578 107</v>
+        <v>0412 940 993</v>
       </c>
       <c r="G8" t="str">
-        <v>Sydney</v>
+        <v>Ballarat</v>
       </c>
       <c r="H8" t="str">
         <v>B+</v>
       </c>
       <c r="I8" t="str">
-        <v>available</v>
-      </c>
-      <c r="J8" t="str">
-        <v>Chloe Jones</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>bcc86f75-9a60-406c-be7c-4f31ea5c30ef</v>
+        <v>ecc70875-f282-4849-9e60-071edc278977</v>
       </c>
       <c r="B9" t="str">
-        <v>Paisley Lee</v>
+        <v>Noah White</v>
       </c>
       <c r="C9">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="D9" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E9" t="str">
-        <v>paisley.lee78@hotmail.com</v>
+        <v>noah.white20@gmail.com</v>
       </c>
       <c r="F9" t="str">
-        <v>0400 179 607</v>
+        <v>0410 565 594</v>
       </c>
       <c r="G9" t="str">
-        <v>Ballarat</v>
+        <v>Adelaide</v>
       </c>
       <c r="H9" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="I9" t="str">
-        <v>available</v>
-      </c>
-      <c r="J9" t="str">
-        <v>Aria Lopez</v>
+        <v>assigned</v>
+      </c>
+      <c r="M9" t="str">
+        <v>Requires wheelchair access</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>42504e80-d5df-4b97-a283-eb96728c425f</v>
+        <v>992418b2-3029-4752-9552-0aa886433657</v>
       </c>
       <c r="B10" t="str">
-        <v>Ella Anderson</v>
+        <v>Zoe Brown</v>
       </c>
       <c r="C10">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D10" t="str">
         <v>Female</v>
       </c>
       <c r="E10" t="str">
-        <v>ella.anderson1@yahoo.com</v>
+        <v>zoe.brown45@outlook.com</v>
       </c>
       <c r="F10" t="str">
-        <v>0412 908 910</v>
+        <v>0401 578 107</v>
       </c>
       <c r="G10" t="str">
-        <v>Geelong</v>
+        <v>Sydney</v>
       </c>
       <c r="H10" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I10" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J10" t="str">
-        <v>Isabella Brown</v>
+        <v>Chloe Jones</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>210066e7-58e9-4ebb-a504-dfbf383961b5</v>
+        <v>dd2de8e6-e7c9-40e4-8308-27a14e5f00da</v>
       </c>
       <c r="B11" t="str">
-        <v>Grace Scott</v>
+        <v>Chloe Jones</v>
       </c>
       <c r="C11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" t="str">
         <v>Female</v>
       </c>
       <c r="E11" t="str">
-        <v>grace.scott94@hotmail.com</v>
+        <v>chloe.jones20@outlook.com</v>
       </c>
       <c r="F11" t="str">
-        <v>0410 377 869</v>
+        <v>0411 294 635</v>
       </c>
       <c r="G11" t="str">
         <v>Toowoomba</v>
       </c>
       <c r="H11" t="str">
-        <v>B+</v>
+        <v>C</v>
       </c>
       <c r="I11" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J11" t="str">
-        <v>Audrey Smith</v>
+        <v>Zoe Brown</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>ef837da0-c81f-4113-a389-db5e46ffaf4d</v>
+        <v>bcc86f75-9a60-406c-be7c-4f31ea5c30ef</v>
       </c>
       <c r="B12" t="str">
-        <v>Aria Scott</v>
+        <v>Paisley Lee</v>
       </c>
       <c r="C12">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D12" t="str">
         <v>Female</v>
       </c>
       <c r="E12" t="str">
-        <v>aria.scott42@outlook.com</v>
+        <v>paisley.lee78@hotmail.com</v>
       </c>
       <c r="F12" t="str">
-        <v>0401 330 548</v>
+        <v>0400 179 607</v>
       </c>
       <c r="G12" t="str">
-        <v>Hobart</v>
+        <v>Ballarat</v>
       </c>
       <c r="H12" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I12" t="str">
         <v>available</v>
       </c>
       <c r="J12" t="str">
-        <v>Maya Hernandez</v>
+        <v>Aria Lopez</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>aa6fa282-9894-4b21-a871-c9725586c397</v>
+        <v>210066e7-58e9-4ebb-a504-dfbf383961b5</v>
       </c>
       <c r="B13" t="str">
-        <v>Audrey Thomas</v>
+        <v>Grace Scott</v>
       </c>
       <c r="C13">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D13" t="str">
         <v>Female</v>
       </c>
       <c r="E13" t="str">
-        <v>audrey.thomas38@gmail.com</v>
+        <v>grace.scott94@hotmail.com</v>
       </c>
       <c r="F13" t="str">
-        <v>0400 437 270</v>
+        <v>0410 377 869</v>
       </c>
       <c r="G13" t="str">
-        <v>Perth</v>
+        <v>Toowoomba</v>
       </c>
       <c r="H13" t="str">
-        <v>C</v>
+        <v>B+</v>
       </c>
       <c r="I13" t="str">
         <v>available</v>
       </c>
       <c r="J13" t="str">
-        <v>Hannah Torres</v>
+        <v>Audrey Smith</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2c188398-79a8-4bf6-b740-1ad9d535662e</v>
+        <v>ef837da0-c81f-4113-a389-db5e46ffaf4d</v>
       </c>
       <c r="B14" t="str">
-        <v>Everly Torres</v>
+        <v>Aria Scott</v>
       </c>
       <c r="C14">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D14" t="str">
         <v>Female</v>
       </c>
       <c r="E14" t="str">
-        <v>everly.torres12@gmail.com</v>
+        <v>aria.scott42@outlook.com</v>
       </c>
       <c r="F14" t="str">
-        <v>0412 804 179</v>
+        <v>0401 330 548</v>
       </c>
       <c r="G14" t="str">
-        <v>Sydney</v>
+        <v>Hobart</v>
       </c>
       <c r="H14" t="str">
-        <v>A+</v>
+        <v>C</v>
       </c>
       <c r="I14" t="str">
         <v>available</v>
       </c>
       <c r="J14" t="str">
-        <v>Stella Green</v>
+        <v>Maya Hernandez</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>dbb200b8-766c-4984-9724-f68192d88939</v>
+        <v>2c188398-79a8-4bf6-b740-1ad9d535662e</v>
       </c>
       <c r="B15" t="str">
-        <v>Hannah Torres</v>
+        <v>Everly Torres</v>
       </c>
       <c r="C15">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" t="str">
         <v>Female</v>
       </c>
       <c r="E15" t="str">
-        <v>hannah.torres86@yahoo.com</v>
+        <v>everly.torres12@gmail.com</v>
       </c>
       <c r="F15" t="str">
-        <v>0402 688 409</v>
+        <v>0412 804 179</v>
       </c>
       <c r="G15" t="str">
-        <v>Wollongong</v>
+        <v>Sydney</v>
       </c>
       <c r="H15" t="str">
-        <v>B+</v>
+        <v>A+</v>
       </c>
       <c r="I15" t="str">
         <v>available</v>
       </c>
       <c r="J15" t="str">
-        <v>Audrey Thomas</v>
+        <v>Stella Green</v>
       </c>
     </row>
     <row r="16">
@@ -1268,752 +1259,746 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>d37f9e40-d1a2-4238-9089-80517a709859</v>
+        <v>2738f18e-1f2e-44d7-aa26-778ed59438ac</v>
       </c>
       <c r="B19" t="str">
-        <v>Mia Roberts</v>
+        <v>Emilia Miller</v>
       </c>
       <c r="C19">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D19" t="str">
         <v>Female</v>
       </c>
       <c r="E19" t="str">
-        <v>mia.roberts81@hotmail.com</v>
+        <v>emilia.miller56@outlook.com</v>
       </c>
       <c r="F19" t="str">
-        <v>0412 368 553</v>
+        <v>0403 506 698</v>
       </c>
       <c r="G19" t="str">
-        <v>Toowoomba</v>
+        <v>Melbourne</v>
       </c>
       <c r="H19" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I19" t="str">
         <v>available</v>
       </c>
       <c r="J19" t="str">
-        <v>Paisley Scott</v>
+        <v>Victoria Carter</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>dd2de8e6-e7c9-40e4-8308-27a14e5f00da</v>
+        <v>0fc0ae2d-4068-4972-a5b1-963c241e317a</v>
       </c>
       <c r="B20" t="str">
-        <v>Chloe Jones</v>
+        <v>Emilia Thompson</v>
       </c>
       <c r="C20">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D20" t="str">
         <v>Female</v>
       </c>
       <c r="E20" t="str">
-        <v>chloe.jones20@outlook.com</v>
+        <v>emilia.thompson0@gmail.com</v>
       </c>
       <c r="F20" t="str">
-        <v>0411 294 635</v>
+        <v>0404 992 451</v>
       </c>
       <c r="G20" t="str">
-        <v>Toowoomba</v>
+        <v>Perth</v>
       </c>
       <c r="H20" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I20" t="str">
         <v>available</v>
       </c>
       <c r="J20" t="str">
-        <v>Zoe Brown</v>
+        <v>Violet Hall</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2738f18e-1f2e-44d7-aa26-778ed59438ac</v>
+        <v>97646711-3e33-4ee9-8d83-bd6e0363ece0</v>
       </c>
       <c r="B21" t="str">
-        <v>Emilia Miller</v>
+        <v>Audrey Martin</v>
       </c>
       <c r="C21">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D21" t="str">
         <v>Female</v>
       </c>
       <c r="E21" t="str">
-        <v>emilia.miller56@outlook.com</v>
+        <v>audrey.martin33@yahoo.com</v>
       </c>
       <c r="F21" t="str">
-        <v>0403 506 698</v>
+        <v>0403 767 239</v>
       </c>
       <c r="G21" t="str">
-        <v>Melbourne</v>
+        <v>Adelaide</v>
       </c>
       <c r="H21" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="I21" t="str">
         <v>available</v>
       </c>
       <c r="J21" t="str">
-        <v>Victoria Carter</v>
+        <v>Charlotte Johnson</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>0fc0ae2d-4068-4972-a5b1-963c241e317a</v>
+        <v>94116225-6732-4c15-9e4b-66f7727602d5</v>
       </c>
       <c r="B22" t="str">
-        <v>Emilia Thompson</v>
+        <v>Audrey Ramirez</v>
       </c>
       <c r="C22">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D22" t="str">
         <v>Female</v>
       </c>
       <c r="E22" t="str">
-        <v>emilia.thompson0@gmail.com</v>
+        <v>audrey.ramirez12@gmail.com</v>
       </c>
       <c r="F22" t="str">
-        <v>0404 992 451</v>
+        <v>0411 212 619</v>
       </c>
       <c r="G22" t="str">
-        <v>Perth</v>
+        <v>Brisbane</v>
       </c>
       <c r="H22" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I22" t="str">
         <v>available</v>
       </c>
       <c r="J22" t="str">
-        <v>Violet Hall</v>
+        <v>Harper Lewis</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>47cc1288-cbc0-4159-a52d-924c8912434d</v>
+        <v>5c5fe7f9-35dd-4685-af6b-e44a56c1d47c</v>
       </c>
       <c r="B23" t="str">
-        <v>Stella Martinez</v>
+        <v>Charlotte Johnson</v>
       </c>
       <c r="C23">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D23" t="str">
         <v>Female</v>
       </c>
       <c r="E23" t="str">
-        <v>stella.martinez75@gmail.com</v>
+        <v>charlotte.johnson36@yahoo.com</v>
       </c>
       <c r="F23" t="str">
-        <v>0404 227 272</v>
+        <v>0410 304 177</v>
       </c>
       <c r="G23" t="str">
-        <v>Ballarat</v>
+        <v>Perth</v>
       </c>
       <c r="H23" t="str">
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="I23" t="str">
         <v>available</v>
       </c>
+      <c r="J23" t="str">
+        <v>Audrey Martin</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>97646711-3e33-4ee9-8d83-bd6e0363ece0</v>
+        <v>b09d810a-6eb0-4ea8-ac8b-df27315049f1</v>
       </c>
       <c r="B24" t="str">
-        <v>Audrey Martin</v>
+        <v>Emily Thomas</v>
       </c>
       <c r="C24">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="D24" t="str">
         <v>Female</v>
       </c>
       <c r="E24" t="str">
-        <v>audrey.martin33@yahoo.com</v>
+        <v>emily.thomas25@outlook.com</v>
       </c>
       <c r="F24" t="str">
-        <v>0403 767 239</v>
+        <v>0402 648 577</v>
       </c>
       <c r="G24" t="str">
-        <v>Adelaide</v>
+        <v>Geelong</v>
       </c>
       <c r="H24" t="str">
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="I24" t="str">
         <v>available</v>
       </c>
       <c r="J24" t="str">
-        <v>Charlotte Johnson</v>
+        <v>Stella Garcia</v>
+      </c>
+      <c r="M24" t="str">
+        <v>Knee replacement - cannot climb stairs</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>94116225-6732-4c15-9e4b-66f7727602d5</v>
+        <v>6849995e-3474-4988-87b0-1db2638461ca</v>
       </c>
       <c r="B25" t="str">
-        <v>Audrey Ramirez</v>
+        <v>Audrey Smith</v>
       </c>
       <c r="C25">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="D25" t="str">
         <v>Female</v>
       </c>
       <c r="E25" t="str">
-        <v>audrey.ramirez12@gmail.com</v>
+        <v>audrey.smith66@gmail.com</v>
       </c>
       <c r="F25" t="str">
-        <v>0411 212 619</v>
+        <v>0410 904 568</v>
       </c>
       <c r="G25" t="str">
-        <v>Brisbane</v>
+        <v>Ballarat</v>
       </c>
       <c r="H25" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I25" t="str">
         <v>available</v>
       </c>
       <c r="J25" t="str">
-        <v>Harper Lewis</v>
+        <v>Grace Scott</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>5c5fe7f9-35dd-4685-af6b-e44a56c1d47c</v>
+        <v>5a16ef0a-cce8-4d1b-bfa5-3892331170c1</v>
       </c>
       <c r="B26" t="str">
-        <v>Charlotte Johnson</v>
+        <v>Caroline Taylor</v>
       </c>
       <c r="C26">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="D26" t="str">
         <v>Female</v>
       </c>
       <c r="E26" t="str">
-        <v>charlotte.johnson36@yahoo.com</v>
+        <v>caroline.taylor54@outlook.com</v>
       </c>
       <c r="F26" t="str">
-        <v>0410 304 177</v>
+        <v>0402 864 601</v>
       </c>
       <c r="G26" t="str">
-        <v>Perth</v>
+        <v>Darwin</v>
       </c>
       <c r="H26" t="str">
-        <v>A</v>
+        <v>B+</v>
       </c>
       <c r="I26" t="str">
         <v>available</v>
       </c>
       <c r="J26" t="str">
-        <v>Audrey Martin</v>
+        <v>Hazel Mitchell</v>
+      </c>
+      <c r="M26" t="str">
+        <v>Arthritis - prefers aisle seating for easy exit</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>b09d810a-6eb0-4ea8-ac8b-df27315049f1</v>
+        <v>eff76f3c-c868-4954-99ea-92a4ae6c8067</v>
       </c>
       <c r="B27" t="str">
-        <v>Emily Thomas</v>
+        <v>Abigail Lee</v>
       </c>
       <c r="C27">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="D27" t="str">
         <v>Female</v>
       </c>
       <c r="E27" t="str">
-        <v>emily.thomas25@outlook.com</v>
+        <v>abigail.lee94@hotmail.com</v>
       </c>
       <c r="F27" t="str">
-        <v>0402 648 577</v>
+        <v>0402 888 384</v>
       </c>
       <c r="G27" t="str">
-        <v>Geelong</v>
+        <v>Wollongong</v>
       </c>
       <c r="H27" t="str">
-        <v>C</v>
+        <v>B+</v>
       </c>
       <c r="I27" t="str">
         <v>available</v>
       </c>
       <c r="J27" t="str">
-        <v>Stella Garcia</v>
-      </c>
-      <c r="M27" t="str">
-        <v>Knee replacement - cannot climb stairs</v>
+        <v>Hannah Martin</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>6849995e-3474-4988-87b0-1db2638461ca</v>
+        <v>da957311-60b3-4bfc-b980-ac0506dccd20</v>
       </c>
       <c r="B28" t="str">
-        <v>Audrey Smith</v>
+        <v>Stella Garcia</v>
       </c>
       <c r="C28">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="D28" t="str">
         <v>Female</v>
       </c>
       <c r="E28" t="str">
-        <v>audrey.smith66@gmail.com</v>
+        <v>stella.garcia89@hotmail.com</v>
       </c>
       <c r="F28" t="str">
-        <v>0410 904 568</v>
+        <v>0403 655 540</v>
       </c>
       <c r="G28" t="str">
-        <v>Ballarat</v>
+        <v>Toowoomba</v>
       </c>
       <c r="H28" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I28" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J28" t="str">
-        <v>Grace Scott</v>
+        <v>Emily Thomas</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>eff76f3c-c868-4954-99ea-92a4ae6c8067</v>
+        <v>0bb2a1aa-a74d-4711-a2ea-609663a77b4d</v>
       </c>
       <c r="B29" t="str">
-        <v>Abigail Lee</v>
+        <v>Carter Harris</v>
       </c>
       <c r="C29">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="D29" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E29" t="str">
-        <v>abigail.lee94@hotmail.com</v>
+        <v>carter.harris82@yahoo.com</v>
       </c>
       <c r="F29" t="str">
-        <v>0402 888 384</v>
+        <v>0412 175 744</v>
       </c>
       <c r="G29" t="str">
-        <v>Wollongong</v>
+        <v>Geelong</v>
       </c>
       <c r="H29" t="str">
-        <v>B+</v>
+        <v>C</v>
       </c>
       <c r="I29" t="str">
-        <v>available</v>
-      </c>
-      <c r="J29" t="str">
-        <v>Hannah Martin</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>0669e014-c952-45fd-9791-36cbe1d51444</v>
+        <v>9efd8ec8-0e91-45d9-804b-518939fbac76</v>
       </c>
       <c r="B30" t="str">
-        <v>Sofia Williams</v>
+        <v>Noah Hernandez</v>
       </c>
       <c r="C30">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D30" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E30" t="str">
-        <v>sofia.williams39@yahoo.com</v>
+        <v>noah.hernandez9@hotmail.com</v>
       </c>
       <c r="F30" t="str">
-        <v>0403 299 421</v>
+        <v>0404 855 230</v>
       </c>
       <c r="G30" t="str">
-        <v>Geelong</v>
+        <v>Cairns</v>
       </c>
       <c r="H30" t="str">
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="I30" t="str">
-        <v>available</v>
-      </c>
-      <c r="J30" t="str">
-        <v>Maya Moore</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>347bdea3-79f6-4991-9601-b2d86513429e</v>
+        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
       </c>
       <c r="B31" t="str">
-        <v>Violet Hall</v>
+        <v>Felicity Parker-Hill</v>
       </c>
       <c r="C31">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="D31" t="str">
-        <v>Female</v>
+        <v>Not Specified</v>
       </c>
       <c r="E31" t="str">
-        <v>violet.hall8@yahoo.com</v>
+        <v>felicity.parkerhill@endemolshine.com.au</v>
       </c>
       <c r="F31" t="str">
-        <v>0404 640 755</v>
+        <v>498086080</v>
       </c>
       <c r="G31" t="str">
-        <v>Adelaide</v>
+        <v>Melbourne</v>
       </c>
       <c r="H31" t="str">
-        <v>C</v>
+        <v/>
       </c>
       <c r="I31" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J31" t="str">
-        <v>Emilia Thompson</v>
+        <v>Peter Adamidis, Kathleen Reynolds</v>
+      </c>
+      <c r="K31" t="str">
+        <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
+      </c>
+      <c r="L31" t="str">
+        <v>N</v>
+      </c>
+      <c r="M31" t="str">
+        <v>N/A</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>55099144-967b-4cf2-b4ed-3cfe46413c92</v>
+        <v>efe20d3d-2162-4ff8-a8ff-4102e5d3f3ab</v>
       </c>
       <c r="B32" t="str">
-        <v>Maya Hernandez</v>
+        <v>Cameron Lee</v>
       </c>
       <c r="C32">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D32" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E32" t="str">
-        <v>maya.hernandez32@outlook.com</v>
+        <v>cameron.lee78@yahoo.com</v>
       </c>
       <c r="F32" t="str">
-        <v>0400 358 904</v>
+        <v>0404 821 708</v>
       </c>
       <c r="G32" t="str">
-        <v>Brisbane</v>
+        <v>Cairns</v>
       </c>
       <c r="H32" t="str">
-        <v>C</v>
+        <v>B+</v>
       </c>
       <c r="I32" t="str">
-        <v>available</v>
-      </c>
-      <c r="J32" t="str">
-        <v>Aria Scott</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>c4e002c2-94ef-471f-b43d-e6b2a8d35a1c</v>
+        <v>d609a3ee-08af-4d16-aa51-c67e35cfa5c9</v>
       </c>
       <c r="B33" t="str">
-        <v>Paisley Scott</v>
+        <v>Ryan Williams</v>
       </c>
       <c r="C33">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D33" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E33" t="str">
-        <v>paisley.scott78@yahoo.com</v>
+        <v>ryan.williams82@hotmail.com</v>
       </c>
       <c r="F33" t="str">
-        <v>0410 215 419</v>
+        <v>0401 450 673</v>
       </c>
       <c r="G33" t="str">
-        <v>Ballarat</v>
+        <v>Perth</v>
       </c>
       <c r="H33" t="str">
         <v>B+</v>
       </c>
       <c r="I33" t="str">
-        <v>available</v>
-      </c>
-      <c r="J33" t="str">
-        <v>Mia Roberts</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>292da493-0524-4ee4-b911-1bb34e328b8c</v>
+        <v>f1466859-7323-4893-a189-a0ce994068ba</v>
       </c>
       <c r="B34" t="str">
-        <v>Jackson Young</v>
+        <v>Anthony Thompson</v>
       </c>
       <c r="C34">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D34" t="str">
         <v>Male</v>
       </c>
       <c r="E34" t="str">
-        <v>jackson.young79@yahoo.com</v>
+        <v>anthony.thompson29@yahoo.com</v>
       </c>
       <c r="F34" t="str">
-        <v>0412 940 993</v>
+        <v>0412 442 587</v>
       </c>
       <c r="G34" t="str">
-        <v>Ballarat</v>
+        <v>Townsville</v>
       </c>
       <c r="H34" t="str">
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="I34" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="M34" t="str">
+        <v>Vision impaired - needs assistance</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>c5fdfaeb-862e-43ab-bf0e-ff3e14e5dbb3</v>
+        <v>0faec83d-7c29-4269-bf33-391ef02d60e4</v>
       </c>
       <c r="B35" t="str">
-        <v>Hannah Martin</v>
+        <v>Anna White</v>
       </c>
       <c r="C35">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="D35" t="str">
         <v>Female</v>
       </c>
       <c r="E35" t="str">
-        <v>hannah.martin78@yahoo.com</v>
+        <v>anna.white24@yahoo.com</v>
       </c>
       <c r="F35" t="str">
-        <v>0410 940 985</v>
+        <v>0400 132 564</v>
       </c>
       <c r="G35" t="str">
-        <v>Hobart</v>
+        <v>Adelaide</v>
       </c>
       <c r="H35" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I35" t="str">
-        <v>available</v>
-      </c>
-      <c r="J35" t="str">
-        <v>Abigail Lee</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>c1783cdf-a656-46b4-9331-4d9d18d40b51</v>
+        <v>3d2128a1-336f-41e1-973b-b5dd54d90b19</v>
       </c>
       <c r="B36" t="str">
-        <v>Aurora Walker</v>
+        <v>Nova Brown</v>
       </c>
       <c r="C36">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D36" t="str">
         <v>Female</v>
       </c>
       <c r="E36" t="str">
-        <v>aurora.walker1@outlook.com</v>
+        <v>nova.brown80@outlook.com</v>
       </c>
       <c r="F36" t="str">
-        <v>0403 522 404</v>
+        <v>0411 154 614</v>
       </c>
       <c r="G36" t="str">
-        <v>Darwin</v>
+        <v>Ballarat</v>
       </c>
       <c r="H36" t="str">
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="I36" t="str">
-        <v>available</v>
-      </c>
-      <c r="M36" t="str">
-        <v>Vision impaired - needs assistance</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>adfcb6e3-82cb-46b9-8fb8-069fb91e2d4f</v>
+        <v>0a153155-dcf5-4d56-9ed1-8960501157f8</v>
       </c>
       <c r="B37" t="str">
-        <v>Mason Hill</v>
+        <v>Aurora Gonzalez</v>
       </c>
       <c r="C37">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D37" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E37" t="str">
-        <v>mason.hill27@outlook.com</v>
+        <v>aurora.gonzalez29@outlook.com</v>
       </c>
       <c r="F37" t="str">
-        <v>0410 682 884</v>
+        <v>0404 610 172</v>
       </c>
       <c r="G37" t="str">
-        <v>Canberra</v>
+        <v>Toowoomba</v>
       </c>
       <c r="H37" t="str">
         <v>A</v>
       </c>
       <c r="I37" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>f5233693-d357-4cac-a660-70ef0398a969</v>
+        <v>9b54470e-fe91-4ebb-b0aa-becf22a8cc3c</v>
       </c>
       <c r="B38" t="str">
-        <v>Nathan Allen</v>
+        <v>Abigail Jackson</v>
       </c>
       <c r="C38">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="D38" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E38" t="str">
-        <v>nathan.allen87@outlook.com</v>
+        <v>abigail.jackson65@outlook.com</v>
       </c>
       <c r="F38" t="str">
-        <v>0403 587 263</v>
+        <v>0411 824 257</v>
       </c>
       <c r="G38" t="str">
-        <v>Adelaide</v>
+        <v>Newcastle</v>
       </c>
       <c r="H38" t="str">
         <v>B+</v>
       </c>
       <c r="I38" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>567e589d-b232-43c2-9d30-3ff1e359f372</v>
+        <v>adfcb6e3-82cb-46b9-8fb8-069fb91e2d4f</v>
       </c>
       <c r="B39" t="str">
-        <v>Hazel Mitchell</v>
+        <v>Mason Hill</v>
       </c>
       <c r="C39">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D39" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E39" t="str">
-        <v>hazel.mitchell91@gmail.com</v>
+        <v>mason.hill27@outlook.com</v>
       </c>
       <c r="F39" t="str">
-        <v>0400 683 761</v>
+        <v>0410 682 884</v>
       </c>
       <c r="G39" t="str">
-        <v>Perth</v>
+        <v>Canberra</v>
       </c>
       <c r="H39" t="str">
         <v>A</v>
       </c>
       <c r="I39" t="str">
-        <v>available</v>
-      </c>
-      <c r="J39" t="str">
-        <v>Caroline Taylor</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>f960de1f-a40f-4281-9d39-2a7822335b9b</v>
+        <v>f5233693-d357-4cac-a660-70ef0398a969</v>
       </c>
       <c r="B40" t="str">
-        <v>Victoria Carter</v>
+        <v>Nathan Allen</v>
       </c>
       <c r="C40">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D40" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E40" t="str">
-        <v>victoria.carter74@gmail.com</v>
+        <v>nathan.allen87@outlook.com</v>
       </c>
       <c r="F40" t="str">
-        <v>0411 641 632</v>
+        <v>0403 587 263</v>
       </c>
       <c r="G40" t="str">
-        <v>Gold Coast</v>
+        <v>Adelaide</v>
       </c>
       <c r="H40" t="str">
         <v>B+</v>
       </c>
       <c r="I40" t="str">
-        <v>available</v>
-      </c>
-      <c r="J40" t="str">
-        <v>Emilia Miller</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>7728eead-ab7c-467f-bb41-2abd7952591a</v>
+        <v>c4e002c2-94ef-471f-b43d-e6b2a8d35a1c</v>
       </c>
       <c r="B41" t="str">
-        <v>Oliver Rivera</v>
+        <v>Paisley Scott</v>
       </c>
       <c r="C41">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D41" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E41" t="str">
-        <v>oliver.rivera58@outlook.com</v>
+        <v>paisley.scott78@yahoo.com</v>
       </c>
       <c r="F41" t="str">
-        <v>0412 991 121</v>
+        <v>0410 215 419</v>
       </c>
       <c r="G41" t="str">
-        <v>Canberra</v>
+        <v>Ballarat</v>
       </c>
       <c r="H41" t="str">
-        <v>C</v>
+        <v>B+</v>
       </c>
       <c r="I41" t="str">
-        <v>available</v>
-      </c>
-      <c r="M41" t="str">
-        <v>Requires wheelchair access</v>
+        <v>assigned</v>
+      </c>
+      <c r="J41" t="str">
+        <v>Mia Roberts</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>f693d8fc-436b-426a-9bca-0b141221ab3f</v>
+        <v>347bdea3-79f6-4991-9601-b2d86513429e</v>
       </c>
       <c r="B42" t="str">
-        <v>Evelyn Clark</v>
+        <v>Violet Hall</v>
       </c>
       <c r="C42">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="D42" t="str">
         <v>Female</v>
       </c>
       <c r="E42" t="str">
-        <v>evelyn.clark47@outlook.com</v>
+        <v>violet.hall8@yahoo.com</v>
       </c>
       <c r="F42" t="str">
-        <v>0410 941 656</v>
+        <v>0404 640 755</v>
       </c>
       <c r="G42" t="str">
-        <v>Hobart</v>
+        <v>Adelaide</v>
       </c>
       <c r="H42" t="str">
         <v>C</v>
@@ -2021,95 +2006,104 @@
       <c r="I42" t="str">
         <v>available</v>
       </c>
+      <c r="J42" t="str">
+        <v>Emilia Thompson</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>da957311-60b3-4bfc-b980-ac0506dccd20</v>
+        <v>55099144-967b-4cf2-b4ed-3cfe46413c92</v>
       </c>
       <c r="B43" t="str">
-        <v>Stella Garcia</v>
+        <v>Maya Hernandez</v>
       </c>
       <c r="C43">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D43" t="str">
         <v>Female</v>
       </c>
       <c r="E43" t="str">
-        <v>stella.garcia89@hotmail.com</v>
+        <v>maya.hernandez32@outlook.com</v>
       </c>
       <c r="F43" t="str">
-        <v>0403 655 540</v>
+        <v>0400 358 904</v>
       </c>
       <c r="G43" t="str">
-        <v>Toowoomba</v>
+        <v>Brisbane</v>
       </c>
       <c r="H43" t="str">
-        <v>B+</v>
+        <v>C</v>
       </c>
       <c r="I43" t="str">
         <v>available</v>
       </c>
       <c r="J43" t="str">
-        <v>Emily Thomas</v>
+        <v>Aria Scott</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>bf283832-25b8-4d7f-9e0f-ef2f10903233</v>
+        <v>c5fdfaeb-862e-43ab-bf0e-ff3e14e5dbb3</v>
       </c>
       <c r="B44" t="str">
-        <v>Hunter Jackson</v>
+        <v>Hannah Martin</v>
       </c>
       <c r="C44">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="D44" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E44" t="str">
-        <v>hunter.jackson50@outlook.com</v>
+        <v>hannah.martin78@yahoo.com</v>
       </c>
       <c r="F44" t="str">
-        <v>0404 841 788</v>
+        <v>0410 940 985</v>
       </c>
       <c r="G44" t="str">
-        <v>Townsville</v>
+        <v>Hobart</v>
       </c>
       <c r="H44" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I44" t="str">
         <v>available</v>
       </c>
+      <c r="J44" t="str">
+        <v>Abigail Lee</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>0bb2a1aa-a74d-4711-a2ea-609663a77b4d</v>
+        <v>f960de1f-a40f-4281-9d39-2a7822335b9b</v>
       </c>
       <c r="B45" t="str">
-        <v>Carter Harris</v>
+        <v>Victoria Carter</v>
       </c>
       <c r="C45">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="D45" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E45" t="str">
-        <v>carter.harris82@yahoo.com</v>
+        <v>victoria.carter74@gmail.com</v>
       </c>
       <c r="F45" t="str">
-        <v>0412 175 744</v>
+        <v>0411 641 632</v>
       </c>
       <c r="G45" t="str">
-        <v>Geelong</v>
+        <v>Gold Coast</v>
       </c>
       <c r="H45" t="str">
-        <v>C</v>
+        <v>B+</v>
       </c>
       <c r="I45" t="str">
         <v>available</v>
+      </c>
+      <c r="J45" t="str">
+        <v>Emilia Miller</v>
       </c>
     </row>
     <row r="46">
@@ -2146,771 +2140,789 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>9efd8ec8-0e91-45d9-804b-518939fbac76</v>
+        <v>29fc5656-fb78-4c9b-9800-b68957bc0a07</v>
       </c>
       <c r="B47" t="str">
-        <v>Noah Hernandez</v>
+        <v>Aria Lopez</v>
       </c>
       <c r="C47">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D47" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E47" t="str">
-        <v>noah.hernandez9@hotmail.com</v>
+        <v>aria.lopez55@hotmail.com</v>
       </c>
       <c r="F47" t="str">
-        <v>0404 855 230</v>
+        <v>0404 812 491</v>
       </c>
       <c r="G47" t="str">
-        <v>Cairns</v>
+        <v>Sydney</v>
       </c>
       <c r="H47" t="str">
-        <v>C</v>
+        <v>B+</v>
       </c>
       <c r="I47" t="str">
         <v>available</v>
       </c>
+      <c r="J47" t="str">
+        <v>Paisley Lee</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>bb319a54-7dbf-4a05-bd7f-8f2f6aa6b414</v>
+        <v>3db7cdb3-9a92-467c-b554-d23b524f42f5</v>
       </c>
       <c r="B48" t="str">
-        <v>Isabella Brown</v>
+        <v>Claire Campbell</v>
       </c>
       <c r="C48">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="D48" t="str">
         <v>Female</v>
       </c>
       <c r="E48" t="str">
-        <v>isabella.brown43@outlook.com</v>
+        <v>claire.campbell9@outlook.com</v>
       </c>
       <c r="F48" t="str">
-        <v>0403 771 690</v>
+        <v>0401 164 490</v>
       </c>
       <c r="G48" t="str">
         <v>Darwin</v>
       </c>
       <c r="H48" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I48" t="str">
-        <v>available</v>
-      </c>
-      <c r="J48" t="str">
-        <v>Ella Anderson</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>0faec83d-7c29-4269-bf33-391ef02d60e4</v>
+        <v>32ffeaf9-5f22-4db7-a70b-cbaab834db0d</v>
       </c>
       <c r="B49" t="str">
-        <v>Anna White</v>
+        <v>Isabella Hill</v>
       </c>
       <c r="C49">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D49" t="str">
         <v>Female</v>
       </c>
       <c r="E49" t="str">
-        <v>anna.white24@yahoo.com</v>
+        <v>isabella.hill77@hotmail.com</v>
       </c>
       <c r="F49" t="str">
-        <v>0400 132 564</v>
+        <v>0412 663 356</v>
       </c>
       <c r="G49" t="str">
-        <v>Adelaide</v>
+        <v>Darwin</v>
       </c>
       <c r="H49" t="str">
         <v>B+</v>
       </c>
       <c r="I49" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>3d2128a1-336f-41e1-973b-b5dd54d90b19</v>
+        <v>ee7f9d33-09d6-417b-a45f-3e6554489f5b</v>
       </c>
       <c r="B50" t="str">
-        <v>Nova Brown</v>
+        <v>Dylan Miller</v>
       </c>
       <c r="C50">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="D50" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E50" t="str">
-        <v>nova.brown80@outlook.com</v>
+        <v>dylan.miller23@hotmail.com</v>
       </c>
       <c r="F50" t="str">
-        <v>0411 154 614</v>
+        <v>0402 417 876</v>
       </c>
       <c r="G50" t="str">
-        <v>Ballarat</v>
+        <v>Melbourne</v>
       </c>
       <c r="H50" t="str">
         <v>A</v>
       </c>
       <c r="I50" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>cd648690-8cd1-44b6-be26-0521038f442f</v>
+        <v>5a6b21ec-9fac-4adc-b5ab-bcad20d0eca4</v>
       </c>
       <c r="B51" t="str">
-        <v>Stella Hall</v>
+        <v>Hunter Harris</v>
       </c>
       <c r="C51">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D51" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E51" t="str">
-        <v>stella.hall72@gmail.com</v>
+        <v>hunter.harris1@gmail.com</v>
       </c>
       <c r="F51" t="str">
-        <v>0410 133 818</v>
+        <v>0404 782 485</v>
       </c>
       <c r="G51" t="str">
-        <v>Wollongong</v>
+        <v>Gold Coast</v>
       </c>
       <c r="H51" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="I51" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>efe20d3d-2162-4ff8-a8ff-4102e5d3f3ab</v>
+        <v>f68d2771-4820-4fef-b156-093280aeea67</v>
       </c>
       <c r="B52" t="str">
-        <v>Cameron Lee</v>
+        <v>Aria Nguyen</v>
       </c>
       <c r="C52">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D52" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E52" t="str">
-        <v>cameron.lee78@yahoo.com</v>
+        <v>aria.nguyen36@gmail.com</v>
       </c>
       <c r="F52" t="str">
-        <v>0404 821 708</v>
+        <v>0401 618 716</v>
       </c>
       <c r="G52" t="str">
-        <v>Cairns</v>
+        <v>Sydney</v>
       </c>
       <c r="H52" t="str">
-        <v>B+</v>
+        <v>C</v>
       </c>
       <c r="I52" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>d609a3ee-08af-4d16-aa51-c67e35cfa5c9</v>
+        <v>a2ff3ad7-7964-4523-bf18-ce9994a910da</v>
       </c>
       <c r="B53" t="str">
-        <v>Ryan Williams</v>
+        <v>Nora Mitchell</v>
       </c>
       <c r="C53">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D53" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E53" t="str">
-        <v>ryan.williams82@hotmail.com</v>
+        <v>nora.mitchell66@outlook.com</v>
       </c>
       <c r="F53" t="str">
-        <v>0401 450 673</v>
+        <v>0412 196 419</v>
       </c>
       <c r="G53" t="str">
-        <v>Perth</v>
+        <v>Adelaide</v>
       </c>
       <c r="H53" t="str">
-        <v>B+</v>
+        <v>C</v>
       </c>
       <c r="I53" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>29fc5656-fb78-4c9b-9800-b68957bc0a07</v>
+        <v>47cc1288-cbc0-4159-a52d-924c8912434d</v>
       </c>
       <c r="B54" t="str">
-        <v>Aria Lopez</v>
+        <v>Stella Martinez</v>
       </c>
       <c r="C54">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D54" t="str">
         <v>Female</v>
       </c>
       <c r="E54" t="str">
-        <v>aria.lopez55@hotmail.com</v>
+        <v>stella.martinez75@gmail.com</v>
       </c>
       <c r="F54" t="str">
-        <v>0404 812 491</v>
+        <v>0404 227 272</v>
       </c>
       <c r="G54" t="str">
-        <v>Sydney</v>
+        <v>Ballarat</v>
       </c>
       <c r="H54" t="str">
-        <v>B+</v>
+        <v>C</v>
       </c>
       <c r="I54" t="str">
-        <v>available</v>
-      </c>
-      <c r="J54" t="str">
-        <v>Paisley Lee</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>f1466859-7323-4893-a189-a0ce994068ba</v>
+        <v>34685ff7-6e85-4bbd-b546-77cfe11d7f7d</v>
       </c>
       <c r="B55" t="str">
-        <v>Anthony Thompson</v>
+        <v>Grace Walker</v>
       </c>
       <c r="C55">
         <v>56</v>
       </c>
       <c r="D55" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E55" t="str">
-        <v>anthony.thompson29@yahoo.com</v>
+        <v>grace.walker52@hotmail.com</v>
       </c>
       <c r="F55" t="str">
-        <v>0412 442 587</v>
+        <v>0412 754 780</v>
       </c>
       <c r="G55" t="str">
-        <v>Townsville</v>
+        <v>Canberra</v>
       </c>
       <c r="H55" t="str">
-        <v>A</v>
+        <v>A+</v>
       </c>
       <c r="I55" t="str">
         <v>available</v>
       </c>
-      <c r="M55" t="str">
-        <v>Vision impaired - needs assistance</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>939eed5c-b520-4a34-8d08-2243d6aa41c1</v>
+        <v>6591420b-4762-4d90-b738-8a5b70458c40</v>
       </c>
       <c r="B56" t="str">
-        <v>Andrew Garcia</v>
+        <v>Aurora Hill</v>
       </c>
       <c r="C56">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D56" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E56" t="str">
-        <v>andrew.garcia26@hotmail.com</v>
+        <v>aurora.hill33@hotmail.com</v>
       </c>
       <c r="F56" t="str">
-        <v>0400 450 222</v>
+        <v>0410 373 844</v>
       </c>
       <c r="G56" t="str">
-        <v>Darwin</v>
+        <v>Gold Coast</v>
       </c>
       <c r="H56" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I56" t="str">
-        <v>available</v>
-      </c>
-      <c r="M56" t="str">
-        <v>Limited mobility - prefers ground floor seating</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>32ffeaf9-5f22-4db7-a70b-cbaab834db0d</v>
+        <v>bb319a54-7dbf-4a05-bd7f-8f2f6aa6b414</v>
       </c>
       <c r="B57" t="str">
-        <v>Isabella Hill</v>
+        <v>Isabella Brown</v>
       </c>
       <c r="C57">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D57" t="str">
         <v>Female</v>
       </c>
       <c r="E57" t="str">
-        <v>isabella.hill77@hotmail.com</v>
+        <v>isabella.brown43@outlook.com</v>
       </c>
       <c r="F57" t="str">
-        <v>0412 663 356</v>
+        <v>0403 771 690</v>
       </c>
       <c r="G57" t="str">
         <v>Darwin</v>
       </c>
       <c r="H57" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I57" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="J57" t="str">
+        <v>Ella Anderson</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>182bd5d2-7f68-4c83-b156-e80856f3b6b7</v>
+        <v>25370fa8-38bb-4172-9e02-23a59fcfd87a</v>
       </c>
       <c r="B58" t="str">
-        <v>Mason Nelson</v>
+        <v>Carter Hill</v>
       </c>
       <c r="C58">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="D58" t="str">
         <v>Male</v>
       </c>
       <c r="E58" t="str">
-        <v>mason.nelson14@hotmail.com</v>
+        <v>carter.hill93@gmail.com</v>
       </c>
       <c r="F58" t="str">
-        <v>0403 485 650</v>
+        <v>0404 349 309</v>
       </c>
       <c r="G58" t="str">
-        <v>Canberra</v>
+        <v>Newcastle</v>
       </c>
       <c r="H58" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I58" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>1df33560-ebf2-41ec-995c-52f3f1df78d5</v>
+        <v>5c31add6-7626-46c5-a3e1-0e452ead739d</v>
       </c>
       <c r="B59" t="str">
-        <v>Genesis Jones</v>
+        <v>Charles Torres</v>
       </c>
       <c r="C59">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D59" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E59" t="str">
-        <v>genesis.jones50@yahoo.com</v>
+        <v>charles.torres98@outlook.com</v>
       </c>
       <c r="F59" t="str">
-        <v>0404 967 604</v>
+        <v>0401 744 176</v>
       </c>
       <c r="G59" t="str">
-        <v>Sydney</v>
+        <v>Wollongong</v>
       </c>
       <c r="H59" t="str">
         <v>B</v>
       </c>
       <c r="I59" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>34685ff7-6e85-4bbd-b546-77cfe11d7f7d</v>
+        <v>cd648690-8cd1-44b6-be26-0521038f442f</v>
       </c>
       <c r="B60" t="str">
-        <v>Grace Walker</v>
+        <v>Stella Hall</v>
       </c>
       <c r="C60">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D60" t="str">
         <v>Female</v>
       </c>
       <c r="E60" t="str">
-        <v>grace.walker52@hotmail.com</v>
+        <v>stella.hall72@gmail.com</v>
       </c>
       <c r="F60" t="str">
-        <v>0412 754 780</v>
+        <v>0410 133 818</v>
       </c>
       <c r="G60" t="str">
-        <v>Canberra</v>
+        <v>Wollongong</v>
       </c>
       <c r="H60" t="str">
-        <v>A+</v>
+        <v>B</v>
       </c>
       <c r="I60" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>e15c67b6-0680-4284-a8aa-a525b34c592d</v>
+        <v>939eed5c-b520-4a34-8d08-2243d6aa41c1</v>
       </c>
       <c r="B61" t="str">
-        <v>Aurora Williams</v>
+        <v>Andrew Garcia</v>
       </c>
       <c r="C61">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D61" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E61" t="str">
-        <v>aurora.williams76@outlook.com</v>
+        <v>andrew.garcia26@hotmail.com</v>
       </c>
       <c r="F61" t="str">
-        <v>0401 416 170</v>
+        <v>0400 450 222</v>
       </c>
       <c r="G61" t="str">
         <v>Darwin</v>
       </c>
       <c r="H61" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I61" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="M61" t="str">
-        <v>Uses walking cane</v>
+        <v>Limited mobility - prefers ground floor seating</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>f9d68052-4310-45c2-a5a9-64c272347899</v>
+        <v>1df33560-ebf2-41ec-995c-52f3f1df78d5</v>
       </c>
       <c r="B62" t="str">
-        <v>Christian Rivera</v>
+        <v>Genesis Jones</v>
       </c>
       <c r="C62">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="D62" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E62" t="str">
-        <v>christian.rivera86@hotmail.com</v>
+        <v>genesis.jones50@yahoo.com</v>
       </c>
       <c r="F62" t="str">
-        <v>0400 135 743</v>
+        <v>0404 967 604</v>
       </c>
       <c r="G62" t="str">
-        <v>Adelaide</v>
+        <v>Sydney</v>
       </c>
       <c r="H62" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I62" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>59bae9a1-93b9-471d-a2b7-074918634f6b</v>
+        <v>da40ad70-95be-413c-b0f1-d089ef285cc8</v>
       </c>
       <c r="B63" t="str">
-        <v>Joshua Clark</v>
+        <v>Emily Smith</v>
       </c>
       <c r="C63">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D63" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E63" t="str">
-        <v>joshua.clark16@outlook.com</v>
+        <v>emily.smith56@hotmail.com</v>
       </c>
       <c r="F63" t="str">
-        <v>0403 901 485</v>
+        <v>0410 101 780</v>
       </c>
       <c r="G63" t="str">
-        <v>Sydney</v>
+        <v>Toowoomba</v>
       </c>
       <c r="H63" t="str">
-        <v>B</v>
+        <v>A+</v>
       </c>
       <c r="I63" t="str">
         <v>available</v>
       </c>
+      <c r="M63" t="str">
+        <v>Limited mobility - prefers ground floor seating</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>ca152dfe-8ddb-45c8-b084-8a5c9e6dacfa</v>
+        <v>b8c1889f-fd66-4304-90d7-bd50422cbc52</v>
       </c>
       <c r="B64" t="str">
-        <v>Ryan Lewis</v>
+        <v>Maya Moore</v>
       </c>
       <c r="C64">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D64" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E64" t="str">
-        <v>ryan.lewis85@yahoo.com</v>
+        <v>maya.moore54@outlook.com</v>
       </c>
       <c r="F64" t="str">
-        <v>0400 187 811</v>
+        <v>0400 718 585</v>
       </c>
       <c r="G64" t="str">
-        <v>Canberra</v>
+        <v>Toowoomba</v>
       </c>
       <c r="H64" t="str">
-        <v>B+</v>
+        <v>C</v>
       </c>
       <c r="I64" t="str">
         <v>available</v>
       </c>
+      <c r="J64" t="str">
+        <v>Sofia Williams</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>40727c14-a30e-4e3b-8b64-0359d25efc0c</v>
+        <v>222469f4-a8d9-4550-b6ee-db9d00e24edd</v>
       </c>
       <c r="B65" t="str">
-        <v>Joshua Scott</v>
+        <v>Chloe Flores</v>
       </c>
       <c r="C65">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D65" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E65" t="str">
-        <v>joshua.scott95@outlook.com</v>
+        <v>chloe.flores93@yahoo.com</v>
       </c>
       <c r="F65" t="str">
-        <v>0410 137 561</v>
+        <v>0400 918 463</v>
       </c>
       <c r="G65" t="str">
-        <v>Canberra</v>
+        <v>Townsville</v>
       </c>
       <c r="H65" t="str">
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="I65" t="str">
         <v>available</v>
       </c>
+      <c r="J65" t="str">
+        <v>Evelyn Sanchez</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>2fa810c7-61d0-4519-a314-824cf0873e30</v>
+        <v>852226e3-fccb-4228-8627-5dc42cfe4387</v>
       </c>
       <c r="B66" t="str">
-        <v>Theodore Allen</v>
+        <v>Aurora Rodriguez</v>
       </c>
       <c r="C66">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="D66" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E66" t="str">
-        <v>theodore.allen25@outlook.com</v>
+        <v>aurora.rodriguez20@yahoo.com</v>
       </c>
       <c r="F66" t="str">
-        <v>0400 438 819</v>
+        <v>0404 720 692</v>
       </c>
       <c r="G66" t="str">
-        <v>Newcastle</v>
+        <v>Hobart</v>
       </c>
       <c r="H66" t="str">
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="I66" t="str">
         <v>available</v>
       </c>
+      <c r="J66" t="str">
+        <v>Emilia Lopez</v>
+      </c>
+      <c r="M66" t="str">
+        <v>Arthritis - prefers aisle seating for easy exit</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>ecc70875-f282-4849-9e60-071edc278977</v>
+        <v>1adac400-525f-40f4-8b6d-20df8ce78e9d</v>
       </c>
       <c r="B67" t="str">
-        <v>Noah White</v>
+        <v>Grace Scott</v>
       </c>
       <c r="C67">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D67" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E67" t="str">
-        <v>noah.white20@gmail.com</v>
+        <v>grace.scott40@outlook.com</v>
       </c>
       <c r="F67" t="str">
-        <v>0410 565 594</v>
+        <v>0401 870 853</v>
       </c>
       <c r="G67" t="str">
-        <v>Adelaide</v>
+        <v>Ballarat</v>
       </c>
       <c r="H67" t="str">
-        <v>A</v>
+        <v>B+</v>
       </c>
       <c r="I67" t="str">
         <v>available</v>
       </c>
+      <c r="J67" t="str">
+        <v>Emily Moore</v>
+      </c>
       <c r="M67" t="str">
-        <v>Requires wheelchair access</v>
+        <v>Hearing impaired - requires front row seating</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>d7b0dd51-8aea-4b32-bb8d-8b60271fc6c9</v>
+        <v>0dd7de5c-0409-45e3-84a5-5f2ffbd591d8</v>
       </c>
       <c r="B68" t="str">
-        <v>Jayden Nguyen</v>
+        <v>Harper Sanchez</v>
       </c>
       <c r="C68">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="D68" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E68" t="str">
-        <v>jayden.nguyen88@hotmail.com</v>
+        <v>harper.sanchez76@gmail.com</v>
       </c>
       <c r="F68" t="str">
-        <v>0401 108 628</v>
+        <v>0411 422 972</v>
       </c>
       <c r="G68" t="str">
-        <v>Hobart</v>
+        <v>Geelong</v>
       </c>
       <c r="H68" t="str">
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="I68" t="str">
         <v>available</v>
       </c>
+      <c r="J68" t="str">
+        <v>Leah Scott</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>25370fa8-38bb-4172-9e02-23a59fcfd87a</v>
+        <v>182bd5d2-7f68-4c83-b156-e80856f3b6b7</v>
       </c>
       <c r="B69" t="str">
-        <v>Carter Hill</v>
+        <v>Mason Nelson</v>
       </c>
       <c r="C69">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="D69" t="str">
         <v>Male</v>
       </c>
       <c r="E69" t="str">
-        <v>carter.hill93@gmail.com</v>
+        <v>mason.nelson14@hotmail.com</v>
       </c>
       <c r="F69" t="str">
-        <v>0404 349 309</v>
+        <v>0403 485 650</v>
       </c>
       <c r="G69" t="str">
-        <v>Newcastle</v>
+        <v>Canberra</v>
       </c>
       <c r="H69" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I69" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>f68d2771-4820-4fef-b156-093280aeea67</v>
+        <v>7728eead-ab7c-467f-bb41-2abd7952591a</v>
       </c>
       <c r="B70" t="str">
-        <v>Aria Nguyen</v>
+        <v>Oliver Rivera</v>
       </c>
       <c r="C70">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D70" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E70" t="str">
-        <v>aria.nguyen36@gmail.com</v>
+        <v>oliver.rivera58@outlook.com</v>
       </c>
       <c r="F70" t="str">
-        <v>0401 618 716</v>
+        <v>0412 991 121</v>
       </c>
       <c r="G70" t="str">
-        <v>Sydney</v>
+        <v>Canberra</v>
       </c>
       <c r="H70" t="str">
         <v>C</v>
       </c>
       <c r="I70" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="M70" t="str">
+        <v>Requires wheelchair access</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>0e8f635e-8f06-4224-a2cc-4263ac307ba2</v>
+        <v>bf283832-25b8-4d7f-9e0f-ef2f10903233</v>
       </c>
       <c r="B71" t="str">
-        <v>Joshua Jones</v>
+        <v>Hunter Jackson</v>
       </c>
       <c r="C71">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D71" t="str">
         <v>Male</v>
       </c>
       <c r="E71" t="str">
-        <v>joshua.jones82@yahoo.com</v>
+        <v>hunter.jackson50@outlook.com</v>
       </c>
       <c r="F71" t="str">
-        <v>0400 652 840</v>
+        <v>0404 841 788</v>
       </c>
       <c r="G71" t="str">
-        <v>Toowoomba</v>
+        <v>Townsville</v>
       </c>
       <c r="H71" t="str">
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="I71" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>d6c29b29-46c2-458d-9ed6-9955afb17b95</v>
+        <v>f693d8fc-436b-426a-9bca-0b141221ab3f</v>
       </c>
       <c r="B72" t="str">
-        <v>Ethan Taylor</v>
+        <v>Evelyn Clark</v>
       </c>
       <c r="C72">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D72" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E72" t="str">
-        <v>ethan.taylor22@yahoo.com</v>
+        <v>evelyn.clark47@outlook.com</v>
       </c>
       <c r="F72" t="str">
-        <v>0410 363 173</v>
+        <v>0410 941 656</v>
       </c>
       <c r="G72" t="str">
-        <v>Adelaide</v>
+        <v>Hobart</v>
       </c>
       <c r="H72" t="str">
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="I72" t="str">
         <v>available</v>
@@ -2918,86 +2930,86 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>da40ad70-95be-413c-b0f1-d089ef285cc8</v>
+        <v>ca152dfe-8ddb-45c8-b084-8a5c9e6dacfa</v>
       </c>
       <c r="B73" t="str">
-        <v>Emily Smith</v>
+        <v>Ryan Lewis</v>
       </c>
       <c r="C73">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D73" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E73" t="str">
-        <v>emily.smith56@hotmail.com</v>
+        <v>ryan.lewis85@yahoo.com</v>
       </c>
       <c r="F73" t="str">
-        <v>0410 101 780</v>
+        <v>0400 187 811</v>
       </c>
       <c r="G73" t="str">
-        <v>Toowoomba</v>
+        <v>Canberra</v>
       </c>
       <c r="H73" t="str">
-        <v>A+</v>
+        <v>B+</v>
       </c>
       <c r="I73" t="str">
-        <v>available</v>
-      </c>
-      <c r="M73" t="str">
-        <v>Limited mobility - prefers ground floor seating</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>ad836319-db56-4a08-bca6-a8e3f19c37a8</v>
+        <v>567e589d-b232-43c2-9d30-3ff1e359f372</v>
       </c>
       <c r="B74" t="str">
-        <v>Emily Johnson</v>
+        <v>Hazel Mitchell</v>
       </c>
       <c r="C74">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D74" t="str">
         <v>Female</v>
       </c>
       <c r="E74" t="str">
-        <v>emily.johnson58@hotmail.com</v>
+        <v>hazel.mitchell91@gmail.com</v>
       </c>
       <c r="F74" t="str">
-        <v>0412 663 939</v>
+        <v>0400 683 761</v>
       </c>
       <c r="G74" t="str">
         <v>Perth</v>
       </c>
       <c r="H74" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="I74" t="str">
         <v>available</v>
       </c>
+      <c r="J74" t="str">
+        <v>Caroline Taylor</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>39b7a0a4-be8b-49f1-a5af-c5a105e0ab58</v>
+        <v>f6a281bb-caec-44cf-a596-a6e92d6e2610</v>
       </c>
       <c r="B75" t="str">
-        <v>Joshua Carter</v>
+        <v>Leah Scott</v>
       </c>
       <c r="C75">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="D75" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E75" t="str">
-        <v>joshua.carter41@hotmail.com</v>
+        <v>leah.scott74@gmail.com</v>
       </c>
       <c r="F75" t="str">
-        <v>0404 538 442</v>
+        <v>0402 414 358</v>
       </c>
       <c r="G75" t="str">
-        <v>Wollongong</v>
+        <v>Perth</v>
       </c>
       <c r="H75" t="str">
         <v>B</v>
@@ -3005,743 +3017,746 @@
       <c r="I75" t="str">
         <v>available</v>
       </c>
+      <c r="J75" t="str">
+        <v>Harper Sanchez</v>
+      </c>
+      <c r="M75" t="str">
+        <v>Limited mobility - prefers ground floor seating</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>5c31add6-7626-46c5-a3e1-0e452ead739d</v>
+        <v>8774a9f4-b951-41cc-b6bd-809a709cb6ea</v>
       </c>
       <c r="B76" t="str">
-        <v>Charles Torres</v>
+        <v>Lily Walker</v>
       </c>
       <c r="C76">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D76" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E76" t="str">
-        <v>charles.torres98@outlook.com</v>
+        <v>lily.walker96@outlook.com</v>
       </c>
       <c r="F76" t="str">
-        <v>0401 744 176</v>
+        <v>0410 155 426</v>
       </c>
       <c r="G76" t="str">
-        <v>Wollongong</v>
+        <v>Hobart</v>
       </c>
       <c r="H76" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I76" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>6591420b-4762-4d90-b738-8a5b70458c40</v>
+        <v>d6c29b29-46c2-458d-9ed6-9955afb17b95</v>
       </c>
       <c r="B77" t="str">
-        <v>Aurora Hill</v>
+        <v>Ethan Taylor</v>
       </c>
       <c r="C77">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D77" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E77" t="str">
-        <v>aurora.hill33@hotmail.com</v>
+        <v>ethan.taylor22@yahoo.com</v>
       </c>
       <c r="F77" t="str">
-        <v>0410 373 844</v>
+        <v>0410 363 173</v>
       </c>
       <c r="G77" t="str">
-        <v>Gold Coast</v>
+        <v>Adelaide</v>
       </c>
       <c r="H77" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I77" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>a2ff3ad7-7964-4523-bf18-ce9994a910da</v>
+        <v>2811bf99-369b-4c0a-b5d6-4ff46cd7aa5e</v>
       </c>
       <c r="B78" t="str">
-        <v>Nora Mitchell</v>
+        <v>Lucas Thomas</v>
       </c>
       <c r="C78">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D78" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E78" t="str">
-        <v>nora.mitchell66@outlook.com</v>
+        <v>lucas.thomas30@yahoo.com</v>
       </c>
       <c r="F78" t="str">
-        <v>0412 196 419</v>
+        <v>0412 527 117</v>
       </c>
       <c r="G78" t="str">
-        <v>Adelaide</v>
+        <v>Brisbane</v>
       </c>
       <c r="H78" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I78" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>b8c1889f-fd66-4304-90d7-bd50422cbc52</v>
+        <v>e2f70c5c-0a8d-4055-8281-2ad2ae2e0cd6</v>
       </c>
       <c r="B79" t="str">
-        <v>Maya Moore</v>
+        <v>Stella Green</v>
       </c>
       <c r="C79">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D79" t="str">
         <v>Female</v>
       </c>
       <c r="E79" t="str">
-        <v>maya.moore54@outlook.com</v>
+        <v>stella.green92@gmail.com</v>
       </c>
       <c r="F79" t="str">
-        <v>0400 718 585</v>
+        <v>0404 230 858</v>
       </c>
       <c r="G79" t="str">
-        <v>Toowoomba</v>
+        <v>Wollongong</v>
       </c>
       <c r="H79" t="str">
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="I79" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J79" t="str">
-        <v>Sofia Williams</v>
+        <v>Everly Torres</v>
+      </c>
+      <c r="M79" t="str">
+        <v>Vision impaired - needs assistance</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>222469f4-a8d9-4550-b6ee-db9d00e24edd</v>
+        <v>ef94ff15-5215-4ecd-9ad1-9ac44fd0e56a</v>
       </c>
       <c r="B80" t="str">
-        <v>Chloe Flores</v>
+        <v>Luke Flores</v>
       </c>
       <c r="C80">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D80" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E80" t="str">
-        <v>chloe.flores93@yahoo.com</v>
+        <v>luke.flores39@hotmail.com</v>
       </c>
       <c r="F80" t="str">
-        <v>0400 918 463</v>
+        <v>0403 225 544</v>
       </c>
       <c r="G80" t="str">
-        <v>Townsville</v>
+        <v>Melbourne</v>
       </c>
       <c r="H80" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I80" t="str">
-        <v>available</v>
-      </c>
-      <c r="J80" t="str">
-        <v>Evelyn Sanchez</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>6ddd3228-f125-4d3e-88e2-157cd730b552</v>
+        <v>e166fd4f-73eb-4bea-b8be-3acdee4f9fdc</v>
       </c>
       <c r="B81" t="str">
-        <v>Theodore Nelson</v>
+        <v>Liam Lewis</v>
       </c>
       <c r="C81">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D81" t="str">
         <v>Male</v>
       </c>
       <c r="E81" t="str">
-        <v>theodore.nelson79@gmail.com</v>
+        <v>liam.lewis79@yahoo.com</v>
       </c>
       <c r="F81" t="str">
-        <v>0403 813 793</v>
+        <v>0404 203 198</v>
       </c>
       <c r="G81" t="str">
-        <v>Canberra</v>
+        <v>Hobart</v>
       </c>
       <c r="H81" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I81" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>3db7cdb3-9a92-467c-b554-d23b524f42f5</v>
+        <v>df712cc5-31d8-4341-b177-6603bf089235</v>
       </c>
       <c r="B82" t="str">
-        <v>Claire Campbell</v>
+        <v>Samuel King</v>
       </c>
       <c r="C82">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="D82" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E82" t="str">
-        <v>claire.campbell9@outlook.com</v>
+        <v>samuel.king24@yahoo.com</v>
       </c>
       <c r="F82" t="str">
-        <v>0401 164 490</v>
+        <v>0400 774 736</v>
       </c>
       <c r="G82" t="str">
-        <v>Darwin</v>
+        <v>Newcastle</v>
       </c>
       <c r="H82" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I82" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>a8fa9125-28f1-47e1-adba-784701975e68</v>
+        <v>7664257a-dce4-407a-8f24-692043d568be</v>
       </c>
       <c r="B83" t="str">
-        <v>Abigail Williams</v>
+        <v>Nora Jackson</v>
       </c>
       <c r="C83">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D83" t="str">
         <v>Female</v>
       </c>
       <c r="E83" t="str">
-        <v>abigail.williams45@yahoo.com</v>
+        <v>nora.jackson83@hotmail.com</v>
       </c>
       <c r="F83" t="str">
-        <v>0403 497 445</v>
+        <v>0404 434 899</v>
       </c>
       <c r="G83" t="str">
-        <v>Toowoomba</v>
+        <v>Wollongong</v>
       </c>
       <c r="H83" t="str">
-        <v>C</v>
+        <v>B+</v>
       </c>
       <c r="I83" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>ee7f9d33-09d6-417b-a45f-3e6554489f5b</v>
+        <v>8956e289-91e9-4c15-bf2b-a13dee2fa476</v>
       </c>
       <c r="B84" t="str">
-        <v>Dylan Miller</v>
+        <v>Landon Wright</v>
       </c>
       <c r="C84">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D84" t="str">
         <v>Male</v>
       </c>
       <c r="E84" t="str">
-        <v>dylan.miller23@hotmail.com</v>
+        <v>landon.wright36@outlook.com</v>
       </c>
       <c r="F84" t="str">
-        <v>0402 417 876</v>
+        <v>0402 415 597</v>
       </c>
       <c r="G84" t="str">
-        <v>Melbourne</v>
+        <v>Cairns</v>
       </c>
       <c r="H84" t="str">
-        <v>A</v>
+        <v>B+</v>
       </c>
       <c r="I84" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>5a6b21ec-9fac-4adc-b5ab-bcad20d0eca4</v>
+        <v>59bae9a1-93b9-471d-a2b7-074918634f6b</v>
       </c>
       <c r="B85" t="str">
-        <v>Hunter Harris</v>
+        <v>Joshua Clark</v>
       </c>
       <c r="C85">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D85" t="str">
         <v>Male</v>
       </c>
       <c r="E85" t="str">
-        <v>hunter.harris1@gmail.com</v>
+        <v>joshua.clark16@outlook.com</v>
       </c>
       <c r="F85" t="str">
-        <v>0404 782 485</v>
+        <v>0403 901 485</v>
       </c>
       <c r="G85" t="str">
-        <v>Gold Coast</v>
+        <v>Sydney</v>
       </c>
       <c r="H85" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="I85" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>df6c0d97-fd38-4b65-8765-b11a4939bd3b</v>
+        <v>2fa810c7-61d0-4519-a314-824cf0873e30</v>
       </c>
       <c r="B86" t="str">
-        <v>Julian Rivera</v>
+        <v>Theodore Allen</v>
       </c>
       <c r="C86">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D86" t="str">
         <v>Male</v>
       </c>
       <c r="E86" t="str">
-        <v>julian.rivera31@outlook.com</v>
+        <v>theodore.allen25@outlook.com</v>
       </c>
       <c r="F86" t="str">
-        <v>0401 414 502</v>
+        <v>0400 438 819</v>
       </c>
       <c r="G86" t="str">
-        <v>Perth</v>
+        <v>Newcastle</v>
       </c>
       <c r="H86" t="str">
         <v>B+</v>
       </c>
       <c r="I86" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>2811bf99-369b-4c0a-b5d6-4ff46cd7aa5e</v>
+        <v>f9d68052-4310-45c2-a5a9-64c272347899</v>
       </c>
       <c r="B87" t="str">
-        <v>Lucas Thomas</v>
+        <v>Christian Rivera</v>
       </c>
       <c r="C87">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="D87" t="str">
         <v>Male</v>
       </c>
       <c r="E87" t="str">
-        <v>lucas.thomas30@yahoo.com</v>
+        <v>christian.rivera86@hotmail.com</v>
       </c>
       <c r="F87" t="str">
-        <v>0412 527 117</v>
+        <v>0400 135 743</v>
       </c>
       <c r="G87" t="str">
-        <v>Brisbane</v>
+        <v>Adelaide</v>
       </c>
       <c r="H87" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I87" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>bf5a6984-f656-4e23-9646-85829e9daffe</v>
+        <v>ad836319-db56-4a08-bca6-a8e3f19c37a8</v>
       </c>
       <c r="B88" t="str">
-        <v>Scarlett Lopez</v>
+        <v>Emily Johnson</v>
       </c>
       <c r="C88">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D88" t="str">
         <v>Female</v>
       </c>
       <c r="E88" t="str">
-        <v>scarlett.lopez53@yahoo.com</v>
+        <v>emily.johnson58@hotmail.com</v>
       </c>
       <c r="F88" t="str">
-        <v>0400 509 641</v>
+        <v>0412 663 939</v>
       </c>
       <c r="G88" t="str">
-        <v>Sydney</v>
+        <v>Perth</v>
       </c>
       <c r="H88" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I88" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>8774a9f4-b951-41cc-b6bd-809a709cb6ea</v>
+        <v>6ddd3228-f125-4d3e-88e2-157cd730b552</v>
       </c>
       <c r="B89" t="str">
-        <v>Lily Walker</v>
+        <v>Theodore Nelson</v>
       </c>
       <c r="C89">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="D89" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E89" t="str">
-        <v>lily.walker96@outlook.com</v>
+        <v>theodore.nelson79@gmail.com</v>
       </c>
       <c r="F89" t="str">
-        <v>0410 155 426</v>
+        <v>0403 813 793</v>
       </c>
       <c r="G89" t="str">
-        <v>Hobart</v>
+        <v>Canberra</v>
       </c>
       <c r="H89" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I89" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>852226e3-fccb-4228-8627-5dc42cfe4387</v>
+        <v>45c0fc2b-415d-475a-998d-934235565d6b</v>
       </c>
       <c r="B90" t="str">
-        <v>Aurora Rodriguez</v>
+        <v>Scarlett Wright</v>
       </c>
       <c r="C90">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D90" t="str">
         <v>Female</v>
       </c>
       <c r="E90" t="str">
-        <v>aurora.rodriguez20@yahoo.com</v>
+        <v>scarlett.wright68@outlook.com</v>
       </c>
       <c r="F90" t="str">
-        <v>0404 720 692</v>
+        <v>0412 487 763</v>
       </c>
       <c r="G90" t="str">
-        <v>Hobart</v>
+        <v>Newcastle</v>
       </c>
       <c r="H90" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="I90" t="str">
-        <v>available</v>
-      </c>
-      <c r="J90" t="str">
-        <v>Emilia Lopez</v>
-      </c>
-      <c r="M90" t="str">
-        <v>Arthritis - prefers aisle seating for easy exit</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>1adac400-525f-40f4-8b6d-20df8ce78e9d</v>
+        <v>c1783cdf-a656-46b4-9331-4d9d18d40b51</v>
       </c>
       <c r="B91" t="str">
-        <v>Grace Scott</v>
+        <v>Aurora Walker</v>
       </c>
       <c r="C91">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="D91" t="str">
         <v>Female</v>
       </c>
       <c r="E91" t="str">
-        <v>grace.scott40@outlook.com</v>
+        <v>aurora.walker1@outlook.com</v>
       </c>
       <c r="F91" t="str">
-        <v>0401 870 853</v>
+        <v>0403 522 404</v>
       </c>
       <c r="G91" t="str">
-        <v>Ballarat</v>
+        <v>Darwin</v>
       </c>
       <c r="H91" t="str">
         <v>B+</v>
       </c>
       <c r="I91" t="str">
-        <v>available</v>
-      </c>
-      <c r="J91" t="str">
-        <v>Emily Moore</v>
+        <v>assigned</v>
       </c>
       <c r="M91" t="str">
-        <v>Hearing impaired - requires front row seating</v>
+        <v>Vision impaired - needs assistance</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>f6a281bb-caec-44cf-a596-a6e92d6e2610</v>
+        <v>5331c6bd-19f8-416a-9166-06280a3c547e</v>
       </c>
       <c r="B92" t="str">
-        <v>Leah Scott</v>
+        <v>Ethan Rodriguez</v>
       </c>
       <c r="C92">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="D92" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E92" t="str">
-        <v>leah.scott74@gmail.com</v>
+        <v>ethan.rodriguez60@hotmail.com</v>
       </c>
       <c r="F92" t="str">
-        <v>0402 414 358</v>
+        <v>0411 690 563</v>
       </c>
       <c r="G92" t="str">
-        <v>Perth</v>
+        <v>Townsville</v>
       </c>
       <c r="H92" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I92" t="str">
-        <v>available</v>
-      </c>
-      <c r="J92" t="str">
-        <v>Harper Sanchez</v>
+        <v>assigned</v>
       </c>
       <c r="M92" t="str">
-        <v>Limited mobility - prefers ground floor seating</v>
+        <v>Hearing impaired - requires front row seating</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
+        <v>40727c14-a30e-4e3b-8b64-0359d25efc0c</v>
       </c>
       <c r="B93" t="str">
-        <v>Kathleen Reynolds</v>
+        <v>Joshua Scott</v>
       </c>
       <c r="C93">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D93" t="str">
-        <v>Not Specified</v>
+        <v>Male</v>
       </c>
       <c r="E93" t="str">
-        <v>kathleenmonicareynolds@gmail.com</v>
+        <v>joshua.scott95@outlook.com</v>
       </c>
       <c r="F93" t="str">
-        <v>498086080</v>
+        <v>0410 137 561</v>
       </c>
       <c r="G93" t="str">
-        <v>Footscray</v>
+        <v>Canberra</v>
       </c>
       <c r="H93" t="str">
-        <v/>
+        <v>B</v>
       </c>
       <c r="I93" t="str">
-        <v>available</v>
-      </c>
-      <c r="J93" t="str">
-        <v>Peter Adamidis, Felicity Parker-Hill</v>
-      </c>
-      <c r="K93" t="str">
-        <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
-      </c>
-      <c r="L93" t="str">
-        <v>N</v>
-      </c>
-      <c r="M93" t="str">
-        <v>N/A</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>adb0c362-d095-4bfd-98dc-c93920fd22d6</v>
+        <v>d7b0dd51-8aea-4b32-bb8d-8b60271fc6c9</v>
       </c>
       <c r="B94" t="str">
-        <v>Victoria Torres</v>
+        <v>Jayden Nguyen</v>
       </c>
       <c r="C94">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D94" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E94" t="str">
-        <v>victoria.torres48@outlook.com</v>
+        <v>jayden.nguyen88@hotmail.com</v>
       </c>
       <c r="F94" t="str">
-        <v>0411 539 271</v>
+        <v>0401 108 628</v>
       </c>
       <c r="G94" t="str">
-        <v>Geelong</v>
+        <v>Hobart</v>
       </c>
       <c r="H94" t="str">
         <v>B</v>
       </c>
       <c r="I94" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>e2f70c5c-0a8d-4055-8281-2ad2ae2e0cd6</v>
+        <v>0e8f635e-8f06-4224-a2cc-4263ac307ba2</v>
       </c>
       <c r="B95" t="str">
-        <v>Stella Green</v>
+        <v>Joshua Jones</v>
       </c>
       <c r="C95">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="D95" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E95" t="str">
-        <v>stella.green92@gmail.com</v>
+        <v>joshua.jones82@yahoo.com</v>
       </c>
       <c r="F95" t="str">
-        <v>0404 230 858</v>
+        <v>0400 652 840</v>
       </c>
       <c r="G95" t="str">
-        <v>Wollongong</v>
+        <v>Toowoomba</v>
       </c>
       <c r="H95" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="I95" t="str">
-        <v>available</v>
-      </c>
-      <c r="J95" t="str">
-        <v>Everly Torres</v>
-      </c>
-      <c r="M95" t="str">
-        <v>Vision impaired - needs assistance</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>45c0fc2b-415d-475a-998d-934235565d6b</v>
+        <v>a8fa9125-28f1-47e1-adba-784701975e68</v>
       </c>
       <c r="B96" t="str">
-        <v>Scarlett Wright</v>
+        <v>Abigail Williams</v>
       </c>
       <c r="C96">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="D96" t="str">
         <v>Female</v>
       </c>
       <c r="E96" t="str">
-        <v>scarlett.wright68@outlook.com</v>
+        <v>abigail.williams45@yahoo.com</v>
       </c>
       <c r="F96" t="str">
-        <v>0412 487 763</v>
+        <v>0403 497 445</v>
       </c>
       <c r="G96" t="str">
-        <v>Newcastle</v>
+        <v>Toowoomba</v>
       </c>
       <c r="H96" t="str">
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="I96" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>ef94ff15-5215-4ecd-9ad1-9ac44fd0e56a</v>
+        <v>e15c67b6-0680-4284-a8aa-a525b34c592d</v>
       </c>
       <c r="B97" t="str">
-        <v>Luke Flores</v>
+        <v>Aurora Williams</v>
       </c>
       <c r="C97">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="D97" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E97" t="str">
-        <v>luke.flores39@hotmail.com</v>
+        <v>aurora.williams76@outlook.com</v>
       </c>
       <c r="F97" t="str">
-        <v>0403 225 544</v>
+        <v>0401 416 170</v>
       </c>
       <c r="G97" t="str">
-        <v>Melbourne</v>
+        <v>Darwin</v>
       </c>
       <c r="H97" t="str">
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="I97" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="M97" t="str">
+        <v>Uses walking cane</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>e166fd4f-73eb-4bea-b8be-3acdee4f9fdc</v>
+        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
       </c>
       <c r="B98" t="str">
-        <v>Liam Lewis</v>
+        <v>Peter Adamidis</v>
       </c>
       <c r="C98">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D98" t="str">
-        <v>Male</v>
+        <v>Not Specified</v>
       </c>
       <c r="E98" t="str">
-        <v>liam.lewis79@yahoo.com</v>
+        <v>peter.adamidis@gmail.com</v>
       </c>
       <c r="F98" t="str">
-        <v>0404 203 198</v>
+        <v>498086080</v>
       </c>
       <c r="G98" t="str">
-        <v>Hobart</v>
+        <v/>
       </c>
       <c r="H98" t="str">
-        <v>B+</v>
+        <v/>
       </c>
       <c r="I98" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="J98" t="str">
+        <v>Kathleen Reynolds, Felicity Parker-Hill</v>
+      </c>
+      <c r="K98" t="str">
+        <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
+      </c>
+      <c r="L98" t="str">
+        <v>Y</v>
+      </c>
+      <c r="M98" t="str">
+        <v>Broken Leg</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>df712cc5-31d8-4341-b177-6603bf089235</v>
+        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
       </c>
       <c r="B99" t="str">
-        <v>Samuel King</v>
+        <v>Kathleen Reynolds</v>
       </c>
       <c r="C99">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="D99" t="str">
-        <v>Male</v>
+        <v>Not Specified</v>
       </c>
       <c r="E99" t="str">
-        <v>samuel.king24@yahoo.com</v>
+        <v>kathleenmonicareynolds@gmail.com</v>
       </c>
       <c r="F99" t="str">
-        <v>0400 774 736</v>
+        <v>498086080</v>
       </c>
       <c r="G99" t="str">
-        <v>Newcastle</v>
+        <v>Footscray</v>
       </c>
       <c r="H99" t="str">
-        <v>B</v>
+        <v/>
       </c>
       <c r="I99" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="J99" t="str">
+        <v>Peter Adamidis, Felicity Parker-Hill</v>
+      </c>
+      <c r="K99" t="str">
+        <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
+      </c>
+      <c r="L99" t="str">
+        <v>N</v>
+      </c>
+      <c r="M99" t="str">
+        <v>N/A</v>
       </c>
     </row>
     <row r="100">
@@ -3770,138 +3785,123 @@
         <v>B</v>
       </c>
       <c r="I100" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>7664257a-dce4-407a-8f24-692043d568be</v>
+        <v>39b7a0a4-be8b-49f1-a5af-c5a105e0ab58</v>
       </c>
       <c r="B101" t="str">
-        <v>Nora Jackson</v>
+        <v>Joshua Carter</v>
       </c>
       <c r="C101">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D101" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E101" t="str">
-        <v>nora.jackson83@hotmail.com</v>
+        <v>joshua.carter41@hotmail.com</v>
       </c>
       <c r="F101" t="str">
-        <v>0404 434 899</v>
+        <v>0404 538 442</v>
       </c>
       <c r="G101" t="str">
         <v>Wollongong</v>
       </c>
       <c r="H101" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I101" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>8956e289-91e9-4c15-bf2b-a13dee2fa476</v>
+        <v>df6c0d97-fd38-4b65-8765-b11a4939bd3b</v>
       </c>
       <c r="B102" t="str">
-        <v>Landon Wright</v>
+        <v>Julian Rivera</v>
       </c>
       <c r="C102">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D102" t="str">
         <v>Male</v>
       </c>
       <c r="E102" t="str">
-        <v>landon.wright36@outlook.com</v>
+        <v>julian.rivera31@outlook.com</v>
       </c>
       <c r="F102" t="str">
-        <v>0402 415 597</v>
+        <v>0401 414 502</v>
       </c>
       <c r="G102" t="str">
-        <v>Cairns</v>
+        <v>Perth</v>
       </c>
       <c r="H102" t="str">
         <v>B+</v>
       </c>
       <c r="I102" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>5331c6bd-19f8-416a-9166-06280a3c547e</v>
+        <v>bf5a6984-f656-4e23-9646-85829e9daffe</v>
       </c>
       <c r="B103" t="str">
-        <v>Ethan Rodriguez</v>
+        <v>Scarlett Lopez</v>
       </c>
       <c r="C103">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D103" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E103" t="str">
-        <v>ethan.rodriguez60@hotmail.com</v>
+        <v>scarlett.lopez53@yahoo.com</v>
       </c>
       <c r="F103" t="str">
-        <v>0411 690 563</v>
+        <v>0400 509 641</v>
       </c>
       <c r="G103" t="str">
-        <v>Townsville</v>
+        <v>Sydney</v>
       </c>
       <c r="H103" t="str">
         <v>B+</v>
       </c>
       <c r="I103" t="str">
-        <v>available</v>
-      </c>
-      <c r="M103" t="str">
-        <v>Hearing impaired - requires front row seating</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
+        <v>adb0c362-d095-4bfd-98dc-c93920fd22d6</v>
       </c>
       <c r="B104" t="str">
-        <v>Peter Adamidis</v>
+        <v>Victoria Torres</v>
       </c>
       <c r="C104">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D104" t="str">
-        <v>Not Specified</v>
+        <v>Female</v>
       </c>
       <c r="E104" t="str">
-        <v>peter.adamidis@gmail.com</v>
+        <v>victoria.torres48@outlook.com</v>
       </c>
       <c r="F104" t="str">
-        <v>498086080</v>
+        <v>0411 539 271</v>
       </c>
       <c r="G104" t="str">
-        <v/>
+        <v>Geelong</v>
       </c>
       <c r="H104" t="str">
-        <v/>
+        <v>B</v>
       </c>
       <c r="I104" t="str">
-        <v>available</v>
-      </c>
-      <c r="J104" t="str">
-        <v>Kathleen Reynolds, Felicity Parker-Hill</v>
-      </c>
-      <c r="K104" t="str">
-        <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
-      </c>
-      <c r="L104" t="str">
-        <v>Y</v>
-      </c>
-      <c r="M104" t="str">
-        <v>Broken Leg</v>
+        <v>assigned</v>
       </c>
     </row>
   </sheetData>
@@ -3913,7 +3913,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3963,13 +3963,13 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>47ec0204-7cf6-4afb-9b9e-a91324cdf4a9</v>
+        <v>99b057b3-eddf-4852-8e0d-21d01edfe3b4</v>
       </c>
       <c r="B3" t="str">
-        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C3" t="str">
-        <v>5a16ef0a-cce8-4d1b-bfa5-3892331170c1</v>
+        <v>292da493-0524-4ee4-b911-1bb34e328b8c</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -3978,9 +3978,1199 @@
         <v>A1</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>053272a8-570e-4e76-892c-4c32134876fb</v>
+      </c>
+      <c r="B4" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C4" t="str">
+        <v>ecc70875-f282-4849-9e60-071edc278977</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="str">
+        <v>A2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>a8114d10-6ad0-4e56-ac39-fb3d1036c2de</v>
+      </c>
+      <c r="B5" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C5" t="str">
+        <v>efe20d3d-2162-4ff8-a8ff-4102e5d3f3ab</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="str">
+        <v>A3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>1e986329-8b5f-42cc-be38-d6d572729ced</v>
+      </c>
+      <c r="B6" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C6" t="str">
+        <v>d609a3ee-08af-4d16-aa51-c67e35cfa5c9</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="str">
+        <v>A4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>c0bcd9a1-5c79-4a52-879d-04903dc872fc</v>
+      </c>
+      <c r="B7" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C7" t="str">
+        <v>f1466859-7323-4893-a189-a0ce994068ba</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="str">
+        <v>A5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>3ef071e8-19e2-417a-ba98-c8b5b3917bcc</v>
+      </c>
+      <c r="B8" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C8" t="str">
+        <v>0faec83d-7c29-4269-bf33-391ef02d60e4</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="str">
+        <v>B1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>973b6d22-6fa1-4498-b5a8-d795f14a13b6</v>
+      </c>
+      <c r="B9" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C9" t="str">
+        <v>3d2128a1-336f-41e1-973b-b5dd54d90b19</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="str">
+        <v>B2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>e05d4aec-27dc-469e-bdce-7e03f13664c8</v>
+      </c>
+      <c r="B10" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C10" t="str">
+        <v>0a153155-dcf5-4d56-9ed1-8960501157f8</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="str">
+        <v>B3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>bb7c5d30-2345-4daa-8a0b-a98cc70d6b6e</v>
+      </c>
+      <c r="B11" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C11" t="str">
+        <v>9b54470e-fe91-4ebb-b0aa-becf22a8cc3c</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="str">
+        <v>B4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>05460b0e-c422-4c82-868e-9227326bfb00</v>
+      </c>
+      <c r="B12" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C12" t="str">
+        <v>adfcb6e3-82cb-46b9-8fb8-069fb91e2d4f</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="str">
+        <v>B5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>83ffd2a4-e753-4e1d-87e5-171c824c7505</v>
+      </c>
+      <c r="B13" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C13" t="str">
+        <v>f5233693-d357-4cac-a660-70ef0398a969</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="str">
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>e72c4830-c6d3-4a5b-bca6-527c87011208</v>
+      </c>
+      <c r="B14" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C14" t="str">
+        <v>6591420b-4762-4d90-b738-8a5b70458c40</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="str">
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>50b67f89-be28-41f1-955b-89d367a246d5</v>
+      </c>
+      <c r="B15" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C15" t="str">
+        <v>3db7cdb3-9a92-467c-b554-d23b524f42f5</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="str">
+        <v>C3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>342836da-b1d0-4040-b6f2-132a74438494</v>
+      </c>
+      <c r="B16" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C16" t="str">
+        <v>32ffeaf9-5f22-4db7-a70b-cbaab834db0d</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="str">
+        <v>C4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>04810307-6eb7-4ac7-ab50-c296c0003c47</v>
+      </c>
+      <c r="B17" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C17" t="str">
+        <v>ee7f9d33-09d6-417b-a45f-3e6554489f5b</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="str">
+        <v>D1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>6fd4b73b-9e80-4f03-b5fc-f3da5eab3eef</v>
+      </c>
+      <c r="B18" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C18" t="str">
+        <v>5a6b21ec-9fac-4adc-b5ab-bcad20d0eca4</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="str">
+        <v>D2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>022f3f33-9964-4af0-b4c4-af369cbdbf80</v>
+      </c>
+      <c r="B19" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C19" t="str">
+        <v>182bd5d2-7f68-4c83-b156-e80856f3b6b7</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="str">
+        <v>D3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>00501628-3935-4267-b89e-9ff083f224d1</v>
+      </c>
+      <c r="B20" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C20" t="str">
+        <v>992418b2-3029-4752-9552-0aa886433657</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="str">
+        <v>D4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>71c3b301-eedd-462b-8252-ce3f3e27aea7</v>
+      </c>
+      <c r="B21" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C21" t="str">
+        <v>dbb200b8-766c-4984-9724-f68192d88939</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="str">
+        <v>E1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>5727ce03-30ec-4582-a545-58a398c54091</v>
+      </c>
+      <c r="B22" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C22" t="str">
+        <v>c4e002c2-94ef-471f-b43d-e6b2a8d35a1c</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="str">
+        <v>E2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>f1188484-9f57-4b5d-9296-70b12a38b39d</v>
+      </c>
+      <c r="B23" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C23" t="str">
+        <v>ca152dfe-8ddb-45c8-b084-8a5c9e6dacfa</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" t="str">
+        <v>A1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>bd3eef2d-0da4-457e-bfca-a9f1218c5a1f</v>
+      </c>
+      <c r="B24" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C24" t="str">
+        <v>df6c0d97-fd38-4b65-8765-b11a4939bd3b</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" t="str">
+        <v>A2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>7be6d980-0f11-49d4-93e4-64a0cc8260c5</v>
+      </c>
+      <c r="B25" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C25" t="str">
+        <v>bf5a6984-f656-4e23-9646-85829e9daffe</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" t="str">
+        <v>A3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>71866ff0-5b91-44aa-80e7-4d895a57a615</v>
+      </c>
+      <c r="B26" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C26" t="str">
+        <v>8774a9f4-b951-41cc-b6bd-809a709cb6ea</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26" t="str">
+        <v>A4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>b8a81cdd-7c2d-4415-b456-aadce1a7e1ab</v>
+      </c>
+      <c r="B27" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C27" t="str">
+        <v>d6c29b29-46c2-458d-9ed6-9955afb17b95</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="str">
+        <v>A5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>aefcb3e6-3661-40f7-86a9-abaeea8d099a</v>
+      </c>
+      <c r="B28" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C28" t="str">
+        <v>adb0c362-d095-4bfd-98dc-c93920fd22d6</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28" t="str">
+        <v>B1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>a34e983b-3cbf-4d87-8434-07ea2203bf9a</v>
+      </c>
+      <c r="B29" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C29" t="str">
+        <v>e2f70c5c-0a8d-4055-8281-2ad2ae2e0cd6</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29" t="str">
+        <v>B2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>8b0c2867-7d6f-433a-8113-38fefd176279</v>
+      </c>
+      <c r="B30" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C30" t="str">
+        <v>ef94ff15-5215-4ecd-9ad1-9ac44fd0e56a</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" t="str">
+        <v>B3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>adc7d6ea-f5cf-4e6e-ad63-868d1f73ada0</v>
+      </c>
+      <c r="B31" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C31" t="str">
+        <v>e166fd4f-73eb-4bea-b8be-3acdee4f9fdc</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31" t="str">
+        <v>B4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>45fdb4ef-6088-41aa-b602-d7d91bd74375</v>
+      </c>
+      <c r="B32" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C32" t="str">
+        <v>df712cc5-31d8-4341-b177-6603bf089235</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32" t="str">
+        <v>B5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>6c1cdb8b-a383-459c-b003-857987ee349e</v>
+      </c>
+      <c r="B33" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C33" t="str">
+        <v>7664257a-dce4-407a-8f24-692043d568be</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" t="str">
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>8519b613-6b4d-4518-85ce-27c5cab9e775</v>
+      </c>
+      <c r="B34" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C34" t="str">
+        <v>8956e289-91e9-4c15-bf2b-a13dee2fa476</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34" t="str">
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>39bee522-ec67-480d-8258-c0e0a9300c4e</v>
+      </c>
+      <c r="B35" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C35" t="str">
+        <v>59bae9a1-93b9-471d-a2b7-074918634f6b</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35" t="str">
+        <v>C3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>27700be8-0ae7-40e2-b5d2-5d6ccb43585d</v>
+      </c>
+      <c r="B36" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C36" t="str">
+        <v>da957311-60b3-4bfc-b980-ac0506dccd20</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36" t="str">
+        <v>C4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>c0d85efa-5685-4a48-a319-24486cd4f5a2</v>
+      </c>
+      <c r="B37" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C37" t="str">
+        <v>0669e014-c952-45fd-9791-36cbe1d51444</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37" t="str">
+        <v>D1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>31d411ea-a913-4d54-b070-6ea9dbd04198</v>
+      </c>
+      <c r="B38" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C38" t="str">
+        <v>2fa810c7-61d0-4519-a314-824cf0873e30</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38" t="str">
+        <v>A1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>c9b54c6a-61f1-496a-8338-8f027ce2d60c</v>
+      </c>
+      <c r="B39" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C39" t="str">
+        <v>f9d68052-4310-45c2-a5a9-64c272347899</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39" t="str">
+        <v>A2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>d9c131b6-f229-470e-a020-e78152f5639e</v>
+      </c>
+      <c r="B40" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C40" t="str">
+        <v>ad836319-db56-4a08-bca6-a8e3f19c37a8</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40" t="str">
+        <v>A3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>91abf6a9-b737-4e14-aae9-95f5f139eff8</v>
+      </c>
+      <c r="B41" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C41" t="str">
+        <v>6ddd3228-f125-4d3e-88e2-157cd730b552</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41" t="str">
+        <v>A4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>8f199123-1219-4eb4-a90e-28f41fc2870d</v>
+      </c>
+      <c r="B42" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C42" t="str">
+        <v>45c0fc2b-415d-475a-998d-934235565d6b</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42" t="str">
+        <v>A5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>7cbbbfad-1676-406d-9b5f-cd4e43a839b0</v>
+      </c>
+      <c r="B43" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C43" t="str">
+        <v>c1783cdf-a656-46b4-9331-4d9d18d40b51</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43" t="str">
+        <v>B1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>2be70946-7403-484d-bee1-3e74d4fafdc7</v>
+      </c>
+      <c r="B44" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C44" t="str">
+        <v>5331c6bd-19f8-416a-9166-06280a3c547e</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44" t="str">
+        <v>B2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>5f08164d-d805-4f1d-9194-baccc9154f6b</v>
+      </c>
+      <c r="B45" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C45" t="str">
+        <v>0bb2a1aa-a74d-4711-a2ea-609663a77b4d</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="E45" t="str">
+        <v>A1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>c35f0488-062f-4b0e-a444-a6cc9c820dc9</v>
+      </c>
+      <c r="B46" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C46" t="str">
+        <v>9efd8ec8-0e91-45d9-804b-518939fbac76</v>
+      </c>
+      <c r="D46">
+        <v>5</v>
+      </c>
+      <c r="E46" t="str">
+        <v>A2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>7bddb4b5-e6e8-4a7f-83e3-989a4fb2cc2a</v>
+      </c>
+      <c r="B47" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C47" t="str">
+        <v>f68d2771-4820-4fef-b156-093280aeea67</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+      <c r="E47" t="str">
+        <v>A3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>cf4c7cd6-c31a-4372-92e5-1425819a7870</v>
+      </c>
+      <c r="B48" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C48" t="str">
+        <v>a2ff3ad7-7964-4523-bf18-ce9994a910da</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="E48" t="str">
+        <v>A4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>c35e322f-c0ab-438a-9186-105435207b25</v>
+      </c>
+      <c r="B49" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C49" t="str">
+        <v>47cc1288-cbc0-4159-a52d-924c8912434d</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="E49" t="str">
+        <v>A5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>78d48c28-ef73-4e6c-a4a6-e042645edd4f</v>
+      </c>
+      <c r="B50" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C50" t="str">
+        <v>7728eead-ab7c-467f-bb41-2abd7952591a</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="E50" t="str">
+        <v>B1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>4b463d58-6bb8-4a5f-8267-d7b5c1b0586e</v>
+      </c>
+      <c r="B51" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C51" t="str">
+        <v>42504e80-d5df-4b97-a283-eb96728c425f</v>
+      </c>
+      <c r="D51">
+        <v>5</v>
+      </c>
+      <c r="E51" t="str">
+        <v>B2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>76e6b805-dada-4c52-a3be-924d28f1f528</v>
+      </c>
+      <c r="B52" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C52" t="str">
+        <v>bb319a54-7dbf-4a05-bd7f-8f2f6aa6b414</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+      <c r="E52" t="str">
+        <v>B3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>f0cf8a8d-5e79-4de3-84db-220ea6fac658</v>
+      </c>
+      <c r="B53" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C53" t="str">
+        <v>40727c14-a30e-4e3b-8b64-0359d25efc0c</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53" t="str">
+        <v>B4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>85450345-605c-4428-8bb5-fdc8ee85f89c</v>
+      </c>
+      <c r="B54" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C54" t="str">
+        <v>d7b0dd51-8aea-4b32-bb8d-8b60271fc6c9</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54" t="str">
+        <v>B5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>1600a027-aff8-40c5-880c-41cf600d6e69</v>
+      </c>
+      <c r="B55" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C55" t="str">
+        <v>0e8f635e-8f06-4224-a2cc-4263ac307ba2</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55" t="str">
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>b13b50a6-62d5-4786-8c97-5e3efff3ec5f</v>
+      </c>
+      <c r="B56" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C56" t="str">
+        <v>2811bf99-369b-4c0a-b5d6-4ff46cd7aa5e</v>
+      </c>
+      <c r="D56">
+        <v>5</v>
+      </c>
+      <c r="E56" t="str">
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>eefad3d2-6081-4723-9c14-16bf89d83500</v>
+      </c>
+      <c r="B57" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C57" t="str">
+        <v>bf283832-25b8-4d7f-9e0f-ef2f10903233</v>
+      </c>
+      <c r="D57">
+        <v>6</v>
+      </c>
+      <c r="E57" t="str">
+        <v>A1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>9a6b85e3-c1c0-4f80-ae01-fc67e81ecde4</v>
+      </c>
+      <c r="B58" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C58" t="str">
+        <v>a8fa9125-28f1-47e1-adba-784701975e68</v>
+      </c>
+      <c r="D58">
+        <v>6</v>
+      </c>
+      <c r="E58" t="str">
+        <v>A2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>d2756409-3d86-4a9c-8d5d-e810a6d87111</v>
+      </c>
+      <c r="B59" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C59" t="str">
+        <v>e15c67b6-0680-4284-a8aa-a525b34c592d</v>
+      </c>
+      <c r="D59">
+        <v>6</v>
+      </c>
+      <c r="E59" t="str">
+        <v>A3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>59e5f633-48c3-4df7-b042-385dbb36ac5b</v>
+      </c>
+      <c r="B60" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C60" t="str">
+        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
+      </c>
+      <c r="D60">
+        <v>6</v>
+      </c>
+      <c r="E60" t="str">
+        <v>B1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>dea0fcfc-5111-464c-8d5d-5064e947d2e7</v>
+      </c>
+      <c r="B61" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C61" t="str">
+        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
+      </c>
+      <c r="D61">
+        <v>6</v>
+      </c>
+      <c r="E61" t="str">
+        <v>B2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>e9b44e3d-b117-4177-9184-2a6c05aafc0d</v>
+      </c>
+      <c r="B62" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C62" t="str">
+        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
+      </c>
+      <c r="D62">
+        <v>6</v>
+      </c>
+      <c r="E62" t="str">
+        <v>B3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>2e7790c2-e046-4f69-8383-7e86a9f989e8</v>
+      </c>
+      <c r="B63" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C63" t="str">
+        <v>25370fa8-38bb-4172-9e02-23a59fcfd87a</v>
+      </c>
+      <c r="D63">
+        <v>6</v>
+      </c>
+      <c r="E63" t="str">
+        <v>B4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>dc8114a5-568e-442c-ac93-a9218a23195a</v>
+      </c>
+      <c r="B64" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C64" t="str">
+        <v>5c31add6-7626-46c5-a3e1-0e452ead739d</v>
+      </c>
+      <c r="D64">
+        <v>6</v>
+      </c>
+      <c r="E64" t="str">
+        <v>B5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>1dea9516-4a98-46b6-939e-59b2046af34f</v>
+      </c>
+      <c r="B65" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C65" t="str">
+        <v>cd648690-8cd1-44b6-be26-0521038f442f</v>
+      </c>
+      <c r="D65">
+        <v>6</v>
+      </c>
+      <c r="E65" t="str">
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>c3f44a12-7ccf-4585-b42c-377b2a1b2dec</v>
+      </c>
+      <c r="B66" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C66" t="str">
+        <v>939eed5c-b520-4a34-8d08-2243d6aa41c1</v>
+      </c>
+      <c r="D66">
+        <v>6</v>
+      </c>
+      <c r="E66" t="str">
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>aa138c32-1e88-43e8-b248-74dc8b04e2c0</v>
+      </c>
+      <c r="B67" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C67" t="str">
+        <v>1df33560-ebf2-41ec-995c-52f3f1df78d5</v>
+      </c>
+      <c r="D67">
+        <v>6</v>
+      </c>
+      <c r="E67" t="str">
+        <v>C3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>ad9823e0-3a8a-4261-bb8c-bbcd64ab94a4</v>
+      </c>
+      <c r="B68" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C68" t="str">
+        <v>7bfb9432-4b59-4ceb-895d-e03ae4837f91</v>
+      </c>
+      <c r="D68">
+        <v>6</v>
+      </c>
+      <c r="E68" t="str">
+        <v>C4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>cc88f8de-1d09-4e0c-bcf9-e59826b292cf</v>
+      </c>
+      <c r="B69" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C69" t="str">
+        <v>39b7a0a4-be8b-49f1-a5af-c5a105e0ab58</v>
+      </c>
+      <c r="D69">
+        <v>6</v>
+      </c>
+      <c r="E69" t="str">
+        <v>D1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>4cc77096-bab3-4e8d-8982-aff5388b572e</v>
+      </c>
+      <c r="B70" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C70" t="str">
+        <v>dd2de8e6-e7c9-40e4-8308-27a14e5f00da</v>
+      </c>
+      <c r="D70">
+        <v>6</v>
+      </c>
+      <c r="E70" t="str">
+        <v>D2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>ffa08b2a-e6b0-45d7-ae9f-c7c00c9b581e</v>
+      </c>
+      <c r="B71" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C71" t="str">
+        <v>aa6fa282-9894-4b21-a871-c9725586c397</v>
+      </c>
+      <c r="D71">
+        <v>6</v>
+      </c>
+      <c r="E71" t="str">
+        <v>D3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>6a9810cc-3d17-40fe-81ce-945400dd038f</v>
+      </c>
+      <c r="B72" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C72" t="str">
+        <v>d37f9e40-d1a2-4238-9089-80517a709859</v>
+      </c>
+      <c r="D72">
+        <v>6</v>
+      </c>
+      <c r="E72" t="str">
+        <v>D4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>47ec0204-7cf6-4afb-9b9e-a91324cdf4a9</v>
+      </c>
+      <c r="B73" t="str">
+        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
+      </c>
+      <c r="C73" t="str">
+        <v>5a16ef0a-cce8-4d1b-bfa5-3892331170c1</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73" t="str">
+        <v>A1</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H73"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/storage/backups/automatic-backup.xlsx
+++ b/storage/backups/automatic-backup.xlsx
@@ -718,499 +718,496 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>dbb200b8-766c-4984-9724-f68192d88939</v>
+        <v>aa6fa282-9894-4b21-a871-c9725586c397</v>
       </c>
       <c r="B2" t="str">
+        <v>Audrey Thomas</v>
+      </c>
+      <c r="C2">
+        <v>21</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E2" t="str">
+        <v>audrey.thomas38@gmail.com</v>
+      </c>
+      <c r="F2" t="str">
+        <v>0400 437 270</v>
+      </c>
+      <c r="G2" t="str">
+        <v>Perth</v>
+      </c>
+      <c r="H2" t="str">
+        <v>C</v>
+      </c>
+      <c r="I2" t="str">
+        <v>available</v>
+      </c>
+      <c r="J2" t="str">
         <v>Hannah Torres</v>
-      </c>
-      <c r="C2">
-        <v>41</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Female</v>
-      </c>
-      <c r="E2" t="str">
-        <v>hannah.torres86@yahoo.com</v>
-      </c>
-      <c r="F2" t="str">
-        <v>0402 688 409</v>
-      </c>
-      <c r="G2" t="str">
-        <v>Wollongong</v>
-      </c>
-      <c r="H2" t="str">
-        <v>B+</v>
-      </c>
-      <c r="I2" t="str">
-        <v>assigned</v>
-      </c>
-      <c r="J2" t="str">
-        <v>Audrey Thomas</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>0669e014-c952-45fd-9791-36cbe1d51444</v>
+        <v>d37f9e40-d1a2-4238-9089-80517a709859</v>
       </c>
       <c r="B3" t="str">
-        <v>Sofia Williams</v>
+        <v>Mia Roberts</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D3" t="str">
         <v>Female</v>
       </c>
       <c r="E3" t="str">
-        <v>sofia.williams39@yahoo.com</v>
+        <v>mia.roberts81@hotmail.com</v>
       </c>
       <c r="F3" t="str">
-        <v>0403 299 421</v>
+        <v>0412 368 553</v>
       </c>
       <c r="G3" t="str">
-        <v>Geelong</v>
+        <v>Toowoomba</v>
       </c>
       <c r="H3" t="str">
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="I3" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
       <c r="J3" t="str">
-        <v>Maya Moore</v>
+        <v>Paisley Scott</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>42504e80-d5df-4b97-a283-eb96728c425f</v>
+        <v>dd2de8e6-e7c9-40e4-8308-27a14e5f00da</v>
       </c>
       <c r="B4" t="str">
-        <v>Ella Anderson</v>
+        <v>Chloe Jones</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D4" t="str">
         <v>Female</v>
       </c>
       <c r="E4" t="str">
-        <v>ella.anderson1@yahoo.com</v>
+        <v>chloe.jones20@outlook.com</v>
       </c>
       <c r="F4" t="str">
-        <v>0412 908 910</v>
+        <v>0411 294 635</v>
       </c>
       <c r="G4" t="str">
-        <v>Geelong</v>
+        <v>Toowoomba</v>
       </c>
       <c r="H4" t="str">
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="I4" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
       <c r="J4" t="str">
-        <v>Isabella Brown</v>
+        <v>Zoe Brown</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>aa6fa282-9894-4b21-a871-c9725586c397</v>
+        <v>292da493-0524-4ee4-b911-1bb34e328b8c</v>
       </c>
       <c r="B5" t="str">
-        <v>Audrey Thomas</v>
+        <v>Jackson Young</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="D5" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E5" t="str">
-        <v>audrey.thomas38@gmail.com</v>
+        <v>jackson.young79@yahoo.com</v>
       </c>
       <c r="F5" t="str">
-        <v>0400 437 270</v>
+        <v>0412 940 993</v>
       </c>
       <c r="G5" t="str">
-        <v>Perth</v>
+        <v>Ballarat</v>
       </c>
       <c r="H5" t="str">
-        <v>C</v>
+        <v>B+</v>
       </c>
       <c r="I5" t="str">
         <v>assigned</v>
       </c>
-      <c r="J5" t="str">
-        <v>Hannah Torres</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>d37f9e40-d1a2-4238-9089-80517a709859</v>
+        <v>992418b2-3029-4752-9552-0aa886433657</v>
       </c>
       <c r="B6" t="str">
-        <v>Mia Roberts</v>
+        <v>Zoe Brown</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D6" t="str">
         <v>Female</v>
       </c>
       <c r="E6" t="str">
-        <v>mia.roberts81@hotmail.com</v>
+        <v>zoe.brown45@outlook.com</v>
       </c>
       <c r="F6" t="str">
-        <v>0412 368 553</v>
+        <v>0401 578 107</v>
       </c>
       <c r="G6" t="str">
-        <v>Toowoomba</v>
+        <v>Sydney</v>
       </c>
       <c r="H6" t="str">
-        <v>C</v>
+        <v>B+</v>
       </c>
       <c r="I6" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
       <c r="J6" t="str">
-        <v>Paisley Scott</v>
+        <v>Chloe Jones</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>8e115c7e-8033-4466-bcb9-07ea089eb4be</v>
+        <v>ecc70875-f282-4849-9e60-071edc278977</v>
       </c>
       <c r="B7" t="str">
-        <v>Chloe Taylor</v>
+        <v>Noah White</v>
       </c>
       <c r="C7">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="D7" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E7" t="str">
-        <v>chloe.taylor7@gmail.com</v>
+        <v>noah.white20@gmail.com</v>
       </c>
       <c r="F7" t="str">
-        <v>0412 903 254</v>
+        <v>0410 565 594</v>
       </c>
       <c r="G7" t="str">
-        <v>Townsville</v>
+        <v>Adelaide</v>
       </c>
       <c r="H7" t="str">
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="I7" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="M7" t="str">
+        <v>Requires wheelchair access</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>292da493-0524-4ee4-b911-1bb34e328b8c</v>
+        <v>dbb200b8-766c-4984-9724-f68192d88939</v>
       </c>
       <c r="B8" t="str">
-        <v>Jackson Young</v>
+        <v>Hannah Torres</v>
       </c>
       <c r="C8">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D8" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E8" t="str">
-        <v>jackson.young79@yahoo.com</v>
+        <v>hannah.torres86@yahoo.com</v>
       </c>
       <c r="F8" t="str">
-        <v>0412 940 993</v>
+        <v>0402 688 409</v>
       </c>
       <c r="G8" t="str">
-        <v>Ballarat</v>
+        <v>Wollongong</v>
       </c>
       <c r="H8" t="str">
         <v>B+</v>
       </c>
       <c r="I8" t="str">
-        <v>assigned</v>
+        <v>available</v>
+      </c>
+      <c r="J8" t="str">
+        <v>Audrey Thomas</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>ecc70875-f282-4849-9e60-071edc278977</v>
+        <v>8e115c7e-8033-4466-bcb9-07ea089eb4be</v>
       </c>
       <c r="B9" t="str">
-        <v>Noah White</v>
+        <v>Chloe Taylor</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="D9" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E9" t="str">
-        <v>noah.white20@gmail.com</v>
+        <v>chloe.taylor7@gmail.com</v>
       </c>
       <c r="F9" t="str">
-        <v>0410 565 594</v>
+        <v>0412 903 254</v>
       </c>
       <c r="G9" t="str">
-        <v>Adelaide</v>
+        <v>Townsville</v>
       </c>
       <c r="H9" t="str">
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="I9" t="str">
-        <v>assigned</v>
-      </c>
-      <c r="M9" t="str">
-        <v>Requires wheelchair access</v>
+        <v>available</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>992418b2-3029-4752-9552-0aa886433657</v>
+        <v>0669e014-c952-45fd-9791-36cbe1d51444</v>
       </c>
       <c r="B10" t="str">
-        <v>Zoe Brown</v>
+        <v>Sofia Williams</v>
       </c>
       <c r="C10">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D10" t="str">
         <v>Female</v>
       </c>
       <c r="E10" t="str">
-        <v>zoe.brown45@outlook.com</v>
+        <v>sofia.williams39@yahoo.com</v>
       </c>
       <c r="F10" t="str">
-        <v>0401 578 107</v>
+        <v>0403 299 421</v>
       </c>
       <c r="G10" t="str">
-        <v>Sydney</v>
+        <v>Geelong</v>
       </c>
       <c r="H10" t="str">
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="I10" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
       <c r="J10" t="str">
-        <v>Chloe Jones</v>
+        <v>Maya Moore</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>dd2de8e6-e7c9-40e4-8308-27a14e5f00da</v>
+        <v>42504e80-d5df-4b97-a283-eb96728c425f</v>
       </c>
       <c r="B11" t="str">
-        <v>Chloe Jones</v>
+        <v>Ella Anderson</v>
       </c>
       <c r="C11">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D11" t="str">
         <v>Female</v>
       </c>
       <c r="E11" t="str">
-        <v>chloe.jones20@outlook.com</v>
+        <v>ella.anderson1@yahoo.com</v>
       </c>
       <c r="F11" t="str">
-        <v>0411 294 635</v>
+        <v>0412 908 910</v>
       </c>
       <c r="G11" t="str">
-        <v>Toowoomba</v>
+        <v>Geelong</v>
       </c>
       <c r="H11" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I11" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
       <c r="J11" t="str">
-        <v>Zoe Brown</v>
+        <v>Isabella Brown</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>bcc86f75-9a60-406c-be7c-4f31ea5c30ef</v>
+        <v>df712cc5-31d8-4341-b177-6603bf089235</v>
       </c>
       <c r="B12" t="str">
-        <v>Paisley Lee</v>
+        <v>Samuel King</v>
       </c>
       <c r="C12">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D12" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E12" t="str">
-        <v>paisley.lee78@hotmail.com</v>
+        <v>samuel.king24@yahoo.com</v>
       </c>
       <c r="F12" t="str">
-        <v>0400 179 607</v>
+        <v>0400 774 736</v>
       </c>
       <c r="G12" t="str">
-        <v>Ballarat</v>
+        <v>Newcastle</v>
       </c>
       <c r="H12" t="str">
         <v>B</v>
       </c>
       <c r="I12" t="str">
-        <v>available</v>
-      </c>
-      <c r="J12" t="str">
-        <v>Aria Lopez</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>210066e7-58e9-4ebb-a504-dfbf383961b5</v>
+        <v>bcc86f75-9a60-406c-be7c-4f31ea5c30ef</v>
       </c>
       <c r="B13" t="str">
-        <v>Grace Scott</v>
+        <v>Paisley Lee</v>
       </c>
       <c r="C13">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="D13" t="str">
         <v>Female</v>
       </c>
       <c r="E13" t="str">
-        <v>grace.scott94@hotmail.com</v>
+        <v>paisley.lee78@hotmail.com</v>
       </c>
       <c r="F13" t="str">
-        <v>0410 377 869</v>
+        <v>0400 179 607</v>
       </c>
       <c r="G13" t="str">
-        <v>Toowoomba</v>
+        <v>Ballarat</v>
       </c>
       <c r="H13" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I13" t="str">
         <v>available</v>
       </c>
       <c r="J13" t="str">
-        <v>Audrey Smith</v>
+        <v>Aria Lopez</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>ef837da0-c81f-4113-a389-db5e46ffaf4d</v>
+        <v>210066e7-58e9-4ebb-a504-dfbf383961b5</v>
       </c>
       <c r="B14" t="str">
-        <v>Aria Scott</v>
+        <v>Grace Scott</v>
       </c>
       <c r="C14">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D14" t="str">
         <v>Female</v>
       </c>
       <c r="E14" t="str">
-        <v>aria.scott42@outlook.com</v>
+        <v>grace.scott94@hotmail.com</v>
       </c>
       <c r="F14" t="str">
-        <v>0401 330 548</v>
+        <v>0410 377 869</v>
       </c>
       <c r="G14" t="str">
-        <v>Hobart</v>
+        <v>Toowoomba</v>
       </c>
       <c r="H14" t="str">
-        <v>C</v>
+        <v>B+</v>
       </c>
       <c r="I14" t="str">
         <v>available</v>
       </c>
       <c r="J14" t="str">
-        <v>Maya Hernandez</v>
+        <v>Audrey Smith</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2c188398-79a8-4bf6-b740-1ad9d535662e</v>
+        <v>ef837da0-c81f-4113-a389-db5e46ffaf4d</v>
       </c>
       <c r="B15" t="str">
-        <v>Everly Torres</v>
+        <v>Aria Scott</v>
       </c>
       <c r="C15">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D15" t="str">
         <v>Female</v>
       </c>
       <c r="E15" t="str">
-        <v>everly.torres12@gmail.com</v>
+        <v>aria.scott42@outlook.com</v>
       </c>
       <c r="F15" t="str">
-        <v>0412 804 179</v>
+        <v>0401 330 548</v>
       </c>
       <c r="G15" t="str">
-        <v>Sydney</v>
+        <v>Hobart</v>
       </c>
       <c r="H15" t="str">
-        <v>A+</v>
+        <v>C</v>
       </c>
       <c r="I15" t="str">
         <v>available</v>
       </c>
       <c r="J15" t="str">
-        <v>Stella Green</v>
+        <v>Maya Hernandez</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2d659242-2255-4502-b333-781c9b2645fd</v>
+        <v>2c188398-79a8-4bf6-b740-1ad9d535662e</v>
       </c>
       <c r="B16" t="str">
-        <v>Evelyn Sanchez</v>
+        <v>Everly Torres</v>
       </c>
       <c r="C16">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D16" t="str">
         <v>Female</v>
       </c>
       <c r="E16" t="str">
-        <v>evelyn.sanchez9@gmail.com</v>
+        <v>everly.torres12@gmail.com</v>
       </c>
       <c r="F16" t="str">
-        <v>0404 119 469</v>
+        <v>0412 804 179</v>
       </c>
       <c r="G16" t="str">
-        <v>Gold Coast</v>
+        <v>Sydney</v>
       </c>
       <c r="H16" t="str">
-        <v>B</v>
+        <v>A+</v>
       </c>
       <c r="I16" t="str">
         <v>available</v>
       </c>
       <c r="J16" t="str">
-        <v>Chloe Flores</v>
+        <v>Stella Green</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>22cf4684-eeba-4ed3-8f61-746028381f4d</v>
+        <v>2d659242-2255-4502-b333-781c9b2645fd</v>
       </c>
       <c r="B17" t="str">
-        <v>Harper Lewis</v>
+        <v>Evelyn Sanchez</v>
       </c>
       <c r="C17">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D17" t="str">
         <v>Female</v>
       </c>
       <c r="E17" t="str">
-        <v>harper.lewis57@hotmail.com</v>
+        <v>evelyn.sanchez9@gmail.com</v>
       </c>
       <c r="F17" t="str">
-        <v>0411 652 121</v>
+        <v>0404 119 469</v>
       </c>
       <c r="G17" t="str">
-        <v>Geelong</v>
+        <v>Gold Coast</v>
       </c>
       <c r="H17" t="str">
         <v>B</v>
@@ -1219,97 +1216,97 @@
         <v>available</v>
       </c>
       <c r="J17" t="str">
-        <v>Audrey Ramirez</v>
-      </c>
-      <c r="M17" t="str">
-        <v>Back issues - needs lumbar support chair</v>
+        <v>Chloe Flores</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>b9e02c2d-410d-4307-811c-7e52cf93b14b</v>
+        <v>22cf4684-eeba-4ed3-8f61-746028381f4d</v>
       </c>
       <c r="B18" t="str">
-        <v>Emily Moore</v>
+        <v>Harper Lewis</v>
       </c>
       <c r="C18">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D18" t="str">
         <v>Female</v>
       </c>
       <c r="E18" t="str">
-        <v>emily.moore11@hotmail.com</v>
+        <v>harper.lewis57@hotmail.com</v>
       </c>
       <c r="F18" t="str">
-        <v>0410 362 279</v>
+        <v>0411 652 121</v>
       </c>
       <c r="G18" t="str">
-        <v>Perth</v>
+        <v>Geelong</v>
       </c>
       <c r="H18" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I18" t="str">
         <v>available</v>
       </c>
       <c r="J18" t="str">
-        <v>Grace Scott</v>
+        <v>Audrey Ramirez</v>
+      </c>
+      <c r="M18" t="str">
+        <v>Back issues - needs lumbar support chair</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2738f18e-1f2e-44d7-aa26-778ed59438ac</v>
+        <v>b9e02c2d-410d-4307-811c-7e52cf93b14b</v>
       </c>
       <c r="B19" t="str">
-        <v>Emilia Miller</v>
+        <v>Emily Moore</v>
       </c>
       <c r="C19">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D19" t="str">
         <v>Female</v>
       </c>
       <c r="E19" t="str">
-        <v>emilia.miller56@outlook.com</v>
+        <v>emily.moore11@hotmail.com</v>
       </c>
       <c r="F19" t="str">
-        <v>0403 506 698</v>
+        <v>0410 362 279</v>
       </c>
       <c r="G19" t="str">
-        <v>Melbourne</v>
+        <v>Perth</v>
       </c>
       <c r="H19" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I19" t="str">
         <v>available</v>
       </c>
       <c r="J19" t="str">
-        <v>Victoria Carter</v>
+        <v>Grace Scott</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>0fc0ae2d-4068-4972-a5b1-963c241e317a</v>
+        <v>2738f18e-1f2e-44d7-aa26-778ed59438ac</v>
       </c>
       <c r="B20" t="str">
-        <v>Emilia Thompson</v>
+        <v>Emilia Miller</v>
       </c>
       <c r="C20">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D20" t="str">
         <v>Female</v>
       </c>
       <c r="E20" t="str">
-        <v>emilia.thompson0@gmail.com</v>
+        <v>emilia.miller56@outlook.com</v>
       </c>
       <c r="F20" t="str">
-        <v>0404 992 451</v>
+        <v>0403 506 698</v>
       </c>
       <c r="G20" t="str">
-        <v>Perth</v>
+        <v>Melbourne</v>
       </c>
       <c r="H20" t="str">
         <v>B</v>
@@ -1318,228 +1315,225 @@
         <v>available</v>
       </c>
       <c r="J20" t="str">
-        <v>Violet Hall</v>
+        <v>Victoria Carter</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>97646711-3e33-4ee9-8d83-bd6e0363ece0</v>
+        <v>0fc0ae2d-4068-4972-a5b1-963c241e317a</v>
       </c>
       <c r="B21" t="str">
-        <v>Audrey Martin</v>
+        <v>Emilia Thompson</v>
       </c>
       <c r="C21">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D21" t="str">
         <v>Female</v>
       </c>
       <c r="E21" t="str">
-        <v>audrey.martin33@yahoo.com</v>
+        <v>emilia.thompson0@gmail.com</v>
       </c>
       <c r="F21" t="str">
-        <v>0403 767 239</v>
+        <v>0404 992 451</v>
       </c>
       <c r="G21" t="str">
-        <v>Adelaide</v>
+        <v>Perth</v>
       </c>
       <c r="H21" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="I21" t="str">
         <v>available</v>
       </c>
       <c r="J21" t="str">
-        <v>Charlotte Johnson</v>
+        <v>Violet Hall</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>94116225-6732-4c15-9e4b-66f7727602d5</v>
+        <v>97646711-3e33-4ee9-8d83-bd6e0363ece0</v>
       </c>
       <c r="B22" t="str">
-        <v>Audrey Ramirez</v>
+        <v>Audrey Martin</v>
       </c>
       <c r="C22">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D22" t="str">
         <v>Female</v>
       </c>
       <c r="E22" t="str">
-        <v>audrey.ramirez12@gmail.com</v>
+        <v>audrey.martin33@yahoo.com</v>
       </c>
       <c r="F22" t="str">
-        <v>0411 212 619</v>
+        <v>0403 767 239</v>
       </c>
       <c r="G22" t="str">
-        <v>Brisbane</v>
+        <v>Adelaide</v>
       </c>
       <c r="H22" t="str">
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="I22" t="str">
         <v>available</v>
       </c>
       <c r="J22" t="str">
-        <v>Harper Lewis</v>
+        <v>Charlotte Johnson</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>5c5fe7f9-35dd-4685-af6b-e44a56c1d47c</v>
+        <v>94116225-6732-4c15-9e4b-66f7727602d5</v>
       </c>
       <c r="B23" t="str">
-        <v>Charlotte Johnson</v>
+        <v>Audrey Ramirez</v>
       </c>
       <c r="C23">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D23" t="str">
         <v>Female</v>
       </c>
       <c r="E23" t="str">
-        <v>charlotte.johnson36@yahoo.com</v>
+        <v>audrey.ramirez12@gmail.com</v>
       </c>
       <c r="F23" t="str">
-        <v>0410 304 177</v>
+        <v>0411 212 619</v>
       </c>
       <c r="G23" t="str">
-        <v>Perth</v>
+        <v>Brisbane</v>
       </c>
       <c r="H23" t="str">
-        <v>A</v>
+        <v>B+</v>
       </c>
       <c r="I23" t="str">
         <v>available</v>
       </c>
       <c r="J23" t="str">
-        <v>Audrey Martin</v>
+        <v>Harper Lewis</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>b09d810a-6eb0-4ea8-ac8b-df27315049f1</v>
+        <v>5c5fe7f9-35dd-4685-af6b-e44a56c1d47c</v>
       </c>
       <c r="B24" t="str">
-        <v>Emily Thomas</v>
+        <v>Charlotte Johnson</v>
       </c>
       <c r="C24">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D24" t="str">
         <v>Female</v>
       </c>
       <c r="E24" t="str">
-        <v>emily.thomas25@outlook.com</v>
+        <v>charlotte.johnson36@yahoo.com</v>
       </c>
       <c r="F24" t="str">
-        <v>0402 648 577</v>
+        <v>0410 304 177</v>
       </c>
       <c r="G24" t="str">
-        <v>Geelong</v>
+        <v>Perth</v>
       </c>
       <c r="H24" t="str">
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="I24" t="str">
         <v>available</v>
       </c>
       <c r="J24" t="str">
-        <v>Stella Garcia</v>
-      </c>
-      <c r="M24" t="str">
-        <v>Knee replacement - cannot climb stairs</v>
+        <v>Audrey Martin</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>6849995e-3474-4988-87b0-1db2638461ca</v>
+        <v>b09d810a-6eb0-4ea8-ac8b-df27315049f1</v>
       </c>
       <c r="B25" t="str">
-        <v>Audrey Smith</v>
+        <v>Emily Thomas</v>
       </c>
       <c r="C25">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="D25" t="str">
         <v>Female</v>
       </c>
       <c r="E25" t="str">
-        <v>audrey.smith66@gmail.com</v>
+        <v>emily.thomas25@outlook.com</v>
       </c>
       <c r="F25" t="str">
-        <v>0410 904 568</v>
+        <v>0402 648 577</v>
       </c>
       <c r="G25" t="str">
-        <v>Ballarat</v>
+        <v>Geelong</v>
       </c>
       <c r="H25" t="str">
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="I25" t="str">
         <v>available</v>
       </c>
       <c r="J25" t="str">
-        <v>Grace Scott</v>
+        <v>Stella Garcia</v>
+      </c>
+      <c r="M25" t="str">
+        <v>Knee replacement - cannot climb stairs</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>5a16ef0a-cce8-4d1b-bfa5-3892331170c1</v>
+        <v>6849995e-3474-4988-87b0-1db2638461ca</v>
       </c>
       <c r="B26" t="str">
-        <v>Caroline Taylor</v>
+        <v>Audrey Smith</v>
       </c>
       <c r="C26">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D26" t="str">
         <v>Female</v>
       </c>
       <c r="E26" t="str">
-        <v>caroline.taylor54@outlook.com</v>
+        <v>audrey.smith66@gmail.com</v>
       </c>
       <c r="F26" t="str">
-        <v>0402 864 601</v>
+        <v>0410 904 568</v>
       </c>
       <c r="G26" t="str">
-        <v>Darwin</v>
+        <v>Ballarat</v>
       </c>
       <c r="H26" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I26" t="str">
         <v>available</v>
       </c>
       <c r="J26" t="str">
-        <v>Hazel Mitchell</v>
-      </c>
-      <c r="M26" t="str">
-        <v>Arthritis - prefers aisle seating for easy exit</v>
+        <v>Grace Scott</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>eff76f3c-c868-4954-99ea-92a4ae6c8067</v>
+        <v>5a16ef0a-cce8-4d1b-bfa5-3892331170c1</v>
       </c>
       <c r="B27" t="str">
-        <v>Abigail Lee</v>
+        <v>Caroline Taylor</v>
       </c>
       <c r="C27">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D27" t="str">
         <v>Female</v>
       </c>
       <c r="E27" t="str">
-        <v>abigail.lee94@hotmail.com</v>
+        <v>caroline.taylor54@outlook.com</v>
       </c>
       <c r="F27" t="str">
-        <v>0402 888 384</v>
+        <v>0402 864 601</v>
       </c>
       <c r="G27" t="str">
-        <v>Wollongong</v>
+        <v>Darwin</v>
       </c>
       <c r="H27" t="str">
         <v>B+</v>
@@ -1548,65 +1542,68 @@
         <v>available</v>
       </c>
       <c r="J27" t="str">
-        <v>Hannah Martin</v>
+        <v>Hazel Mitchell</v>
+      </c>
+      <c r="M27" t="str">
+        <v>Arthritis - prefers aisle seating for easy exit</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>da957311-60b3-4bfc-b980-ac0506dccd20</v>
+        <v>eff76f3c-c868-4954-99ea-92a4ae6c8067</v>
       </c>
       <c r="B28" t="str">
-        <v>Stella Garcia</v>
+        <v>Abigail Lee</v>
       </c>
       <c r="C28">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="D28" t="str">
         <v>Female</v>
       </c>
       <c r="E28" t="str">
-        <v>stella.garcia89@hotmail.com</v>
+        <v>abigail.lee94@hotmail.com</v>
       </c>
       <c r="F28" t="str">
-        <v>0403 655 540</v>
+        <v>0402 888 384</v>
       </c>
       <c r="G28" t="str">
-        <v>Toowoomba</v>
+        <v>Wollongong</v>
       </c>
       <c r="H28" t="str">
         <v>B+</v>
       </c>
       <c r="I28" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
       <c r="J28" t="str">
-        <v>Emily Thomas</v>
+        <v>Hannah Martin</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>0bb2a1aa-a74d-4711-a2ea-609663a77b4d</v>
+        <v>0faec83d-7c29-4269-bf33-391ef02d60e4</v>
       </c>
       <c r="B29" t="str">
-        <v>Carter Harris</v>
+        <v>Anna White</v>
       </c>
       <c r="C29">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D29" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E29" t="str">
-        <v>carter.harris82@yahoo.com</v>
+        <v>anna.white24@yahoo.com</v>
       </c>
       <c r="F29" t="str">
-        <v>0412 175 744</v>
+        <v>0400 132 564</v>
       </c>
       <c r="G29" t="str">
-        <v>Geelong</v>
+        <v>Adelaide</v>
       </c>
       <c r="H29" t="str">
-        <v>C</v>
+        <v>B+</v>
       </c>
       <c r="I29" t="str">
         <v>assigned</v>
@@ -1614,98 +1611,89 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>9efd8ec8-0e91-45d9-804b-518939fbac76</v>
+        <v>f1466859-7323-4893-a189-a0ce994068ba</v>
       </c>
       <c r="B30" t="str">
-        <v>Noah Hernandez</v>
+        <v>Anthony Thompson</v>
       </c>
       <c r="C30">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="D30" t="str">
         <v>Male</v>
       </c>
       <c r="E30" t="str">
-        <v>noah.hernandez9@hotmail.com</v>
+        <v>anthony.thompson29@yahoo.com</v>
       </c>
       <c r="F30" t="str">
-        <v>0404 855 230</v>
+        <v>0412 442 587</v>
       </c>
       <c r="G30" t="str">
-        <v>Cairns</v>
+        <v>Townsville</v>
       </c>
       <c r="H30" t="str">
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="I30" t="str">
         <v>assigned</v>
       </c>
+      <c r="M30" t="str">
+        <v>Vision impaired - needs assistance</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
+        <v>0a153155-dcf5-4d56-9ed1-8960501157f8</v>
       </c>
       <c r="B31" t="str">
-        <v>Felicity Parker-Hill</v>
+        <v>Aurora Gonzalez</v>
       </c>
       <c r="C31">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D31" t="str">
-        <v>Not Specified</v>
+        <v>Female</v>
       </c>
       <c r="E31" t="str">
-        <v>felicity.parkerhill@endemolshine.com.au</v>
+        <v>aurora.gonzalez29@outlook.com</v>
       </c>
       <c r="F31" t="str">
-        <v>498086080</v>
+        <v>0404 610 172</v>
       </c>
       <c r="G31" t="str">
-        <v>Melbourne</v>
+        <v>Toowoomba</v>
       </c>
       <c r="H31" t="str">
-        <v/>
+        <v>A</v>
       </c>
       <c r="I31" t="str">
         <v>assigned</v>
       </c>
-      <c r="J31" t="str">
-        <v>Peter Adamidis, Kathleen Reynolds</v>
-      </c>
-      <c r="K31" t="str">
-        <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
-      </c>
-      <c r="L31" t="str">
-        <v>N</v>
-      </c>
-      <c r="M31" t="str">
-        <v>N/A</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>efe20d3d-2162-4ff8-a8ff-4102e5d3f3ab</v>
+        <v>adfcb6e3-82cb-46b9-8fb8-069fb91e2d4f</v>
       </c>
       <c r="B32" t="str">
-        <v>Cameron Lee</v>
+        <v>Mason Hill</v>
       </c>
       <c r="C32">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D32" t="str">
         <v>Male</v>
       </c>
       <c r="E32" t="str">
-        <v>cameron.lee78@yahoo.com</v>
+        <v>mason.hill27@outlook.com</v>
       </c>
       <c r="F32" t="str">
-        <v>0404 821 708</v>
+        <v>0410 682 884</v>
       </c>
       <c r="G32" t="str">
-        <v>Cairns</v>
+        <v>Canberra</v>
       </c>
       <c r="H32" t="str">
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="I32" t="str">
         <v>assigned</v>
@@ -1713,25 +1701,25 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>d609a3ee-08af-4d16-aa51-c67e35cfa5c9</v>
+        <v>f5233693-d357-4cac-a660-70ef0398a969</v>
       </c>
       <c r="B33" t="str">
-        <v>Ryan Williams</v>
+        <v>Nathan Allen</v>
       </c>
       <c r="C33">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="D33" t="str">
         <v>Male</v>
       </c>
       <c r="E33" t="str">
-        <v>ryan.williams82@hotmail.com</v>
+        <v>nathan.allen87@outlook.com</v>
       </c>
       <c r="F33" t="str">
-        <v>0401 450 673</v>
+        <v>0403 587 263</v>
       </c>
       <c r="G33" t="str">
-        <v>Perth</v>
+        <v>Adelaide</v>
       </c>
       <c r="H33" t="str">
         <v>B+</v>
@@ -1742,60 +1730,57 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>f1466859-7323-4893-a189-a0ce994068ba</v>
+        <v>9b54470e-fe91-4ebb-b0aa-becf22a8cc3c</v>
       </c>
       <c r="B34" t="str">
-        <v>Anthony Thompson</v>
+        <v>Abigail Jackson</v>
       </c>
       <c r="C34">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="D34" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E34" t="str">
-        <v>anthony.thompson29@yahoo.com</v>
+        <v>abigail.jackson65@outlook.com</v>
       </c>
       <c r="F34" t="str">
-        <v>0412 442 587</v>
+        <v>0411 824 257</v>
       </c>
       <c r="G34" t="str">
-        <v>Townsville</v>
+        <v>Newcastle</v>
       </c>
       <c r="H34" t="str">
-        <v>A</v>
+        <v>B+</v>
       </c>
       <c r="I34" t="str">
         <v>assigned</v>
       </c>
-      <c r="M34" t="str">
-        <v>Vision impaired - needs assistance</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>0faec83d-7c29-4269-bf33-391ef02d60e4</v>
+        <v>3d2128a1-336f-41e1-973b-b5dd54d90b19</v>
       </c>
       <c r="B35" t="str">
-        <v>Anna White</v>
+        <v>Nova Brown</v>
       </c>
       <c r="C35">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="D35" t="str">
         <v>Female</v>
       </c>
       <c r="E35" t="str">
-        <v>anna.white24@yahoo.com</v>
+        <v>nova.brown80@outlook.com</v>
       </c>
       <c r="F35" t="str">
-        <v>0400 132 564</v>
+        <v>0411 154 614</v>
       </c>
       <c r="G35" t="str">
-        <v>Adelaide</v>
+        <v>Ballarat</v>
       </c>
       <c r="H35" t="str">
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="I35" t="str">
         <v>assigned</v>
@@ -1803,170 +1788,188 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>3d2128a1-336f-41e1-973b-b5dd54d90b19</v>
+        <v>c4e002c2-94ef-471f-b43d-e6b2a8d35a1c</v>
       </c>
       <c r="B36" t="str">
-        <v>Nova Brown</v>
+        <v>Paisley Scott</v>
       </c>
       <c r="C36">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="D36" t="str">
         <v>Female</v>
       </c>
       <c r="E36" t="str">
-        <v>nova.brown80@outlook.com</v>
+        <v>paisley.scott78@yahoo.com</v>
       </c>
       <c r="F36" t="str">
-        <v>0411 154 614</v>
+        <v>0410 215 419</v>
       </c>
       <c r="G36" t="str">
         <v>Ballarat</v>
       </c>
       <c r="H36" t="str">
-        <v>A</v>
+        <v>B+</v>
       </c>
       <c r="I36" t="str">
-        <v>assigned</v>
+        <v>available</v>
+      </c>
+      <c r="J36" t="str">
+        <v>Mia Roberts</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>0a153155-dcf5-4d56-9ed1-8960501157f8</v>
+        <v>da957311-60b3-4bfc-b980-ac0506dccd20</v>
       </c>
       <c r="B37" t="str">
-        <v>Aurora Gonzalez</v>
+        <v>Stella Garcia</v>
       </c>
       <c r="C37">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D37" t="str">
         <v>Female</v>
       </c>
       <c r="E37" t="str">
-        <v>aurora.gonzalez29@outlook.com</v>
+        <v>stella.garcia89@hotmail.com</v>
       </c>
       <c r="F37" t="str">
-        <v>0404 610 172</v>
+        <v>0403 655 540</v>
       </c>
       <c r="G37" t="str">
         <v>Toowoomba</v>
       </c>
       <c r="H37" t="str">
-        <v>A</v>
+        <v>B+</v>
       </c>
       <c r="I37" t="str">
-        <v>assigned</v>
+        <v>available</v>
+      </c>
+      <c r="J37" t="str">
+        <v>Emily Thomas</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>9b54470e-fe91-4ebb-b0aa-becf22a8cc3c</v>
+        <v>9efd8ec8-0e91-45d9-804b-518939fbac76</v>
       </c>
       <c r="B38" t="str">
-        <v>Abigail Jackson</v>
+        <v>Noah Hernandez</v>
       </c>
       <c r="C38">
         <v>36</v>
       </c>
       <c r="D38" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E38" t="str">
-        <v>abigail.jackson65@outlook.com</v>
+        <v>noah.hernandez9@hotmail.com</v>
       </c>
       <c r="F38" t="str">
-        <v>0411 824 257</v>
+        <v>0404 855 230</v>
       </c>
       <c r="G38" t="str">
-        <v>Newcastle</v>
+        <v>Cairns</v>
       </c>
       <c r="H38" t="str">
-        <v>B+</v>
+        <v>C</v>
       </c>
       <c r="I38" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>adfcb6e3-82cb-46b9-8fb8-069fb91e2d4f</v>
+        <v>0bb2a1aa-a74d-4711-a2ea-609663a77b4d</v>
       </c>
       <c r="B39" t="str">
-        <v>Mason Hill</v>
+        <v>Carter Harris</v>
       </c>
       <c r="C39">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="D39" t="str">
         <v>Male</v>
       </c>
       <c r="E39" t="str">
-        <v>mason.hill27@outlook.com</v>
+        <v>carter.harris82@yahoo.com</v>
       </c>
       <c r="F39" t="str">
-        <v>0410 682 884</v>
+        <v>0412 175 744</v>
       </c>
       <c r="G39" t="str">
-        <v>Canberra</v>
+        <v>Geelong</v>
       </c>
       <c r="H39" t="str">
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="I39" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>f5233693-d357-4cac-a660-70ef0398a969</v>
+        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
       </c>
       <c r="B40" t="str">
-        <v>Nathan Allen</v>
+        <v>Felicity Parker-Hill</v>
       </c>
       <c r="C40">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="D40" t="str">
-        <v>Male</v>
+        <v>Not Specified</v>
       </c>
       <c r="E40" t="str">
-        <v>nathan.allen87@outlook.com</v>
+        <v>felicity.parkerhill@endemolshine.com.au</v>
       </c>
       <c r="F40" t="str">
-        <v>0403 587 263</v>
+        <v>498086080</v>
       </c>
       <c r="G40" t="str">
-        <v>Adelaide</v>
+        <v>Melbourne</v>
       </c>
       <c r="H40" t="str">
-        <v>B+</v>
+        <v/>
       </c>
       <c r="I40" t="str">
         <v>assigned</v>
       </c>
+      <c r="J40" t="str">
+        <v>Peter Adamidis, Kathleen Reynolds</v>
+      </c>
+      <c r="K40" t="str">
+        <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
+      </c>
+      <c r="L40" t="str">
+        <v>N</v>
+      </c>
+      <c r="M40" t="str">
+        <v>N/A</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>c4e002c2-94ef-471f-b43d-e6b2a8d35a1c</v>
+        <v>d609a3ee-08af-4d16-aa51-c67e35cfa5c9</v>
       </c>
       <c r="B41" t="str">
-        <v>Paisley Scott</v>
+        <v>Ryan Williams</v>
       </c>
       <c r="C41">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D41" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E41" t="str">
-        <v>paisley.scott78@yahoo.com</v>
+        <v>ryan.williams82@hotmail.com</v>
       </c>
       <c r="F41" t="str">
-        <v>0410 215 419</v>
+        <v>0401 450 673</v>
       </c>
       <c r="G41" t="str">
-        <v>Ballarat</v>
+        <v>Perth</v>
       </c>
       <c r="H41" t="str">
         <v>B+</v>
@@ -1974,63 +1977,57 @@
       <c r="I41" t="str">
         <v>assigned</v>
       </c>
-      <c r="J41" t="str">
-        <v>Mia Roberts</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>347bdea3-79f6-4991-9601-b2d86513429e</v>
+        <v>efe20d3d-2162-4ff8-a8ff-4102e5d3f3ab</v>
       </c>
       <c r="B42" t="str">
-        <v>Violet Hall</v>
+        <v>Cameron Lee</v>
       </c>
       <c r="C42">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D42" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E42" t="str">
-        <v>violet.hall8@yahoo.com</v>
+        <v>cameron.lee78@yahoo.com</v>
       </c>
       <c r="F42" t="str">
-        <v>0404 640 755</v>
+        <v>0404 821 708</v>
       </c>
       <c r="G42" t="str">
-        <v>Adelaide</v>
+        <v>Cairns</v>
       </c>
       <c r="H42" t="str">
-        <v>C</v>
+        <v>B+</v>
       </c>
       <c r="I42" t="str">
-        <v>available</v>
-      </c>
-      <c r="J42" t="str">
-        <v>Emilia Thompson</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>55099144-967b-4cf2-b4ed-3cfe46413c92</v>
+        <v>347bdea3-79f6-4991-9601-b2d86513429e</v>
       </c>
       <c r="B43" t="str">
-        <v>Maya Hernandez</v>
+        <v>Violet Hall</v>
       </c>
       <c r="C43">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="D43" t="str">
         <v>Female</v>
       </c>
       <c r="E43" t="str">
-        <v>maya.hernandez32@outlook.com</v>
+        <v>violet.hall8@yahoo.com</v>
       </c>
       <c r="F43" t="str">
-        <v>0400 358 904</v>
+        <v>0404 640 755</v>
       </c>
       <c r="G43" t="str">
-        <v>Brisbane</v>
+        <v>Adelaide</v>
       </c>
       <c r="H43" t="str">
         <v>C</v>
@@ -2039,390 +2036,399 @@
         <v>available</v>
       </c>
       <c r="J43" t="str">
-        <v>Aria Scott</v>
+        <v>Emilia Thompson</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>c5fdfaeb-862e-43ab-bf0e-ff3e14e5dbb3</v>
+        <v>55099144-967b-4cf2-b4ed-3cfe46413c92</v>
       </c>
       <c r="B44" t="str">
-        <v>Hannah Martin</v>
+        <v>Maya Hernandez</v>
       </c>
       <c r="C44">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D44" t="str">
         <v>Female</v>
       </c>
       <c r="E44" t="str">
-        <v>hannah.martin78@yahoo.com</v>
+        <v>maya.hernandez32@outlook.com</v>
       </c>
       <c r="F44" t="str">
-        <v>0410 940 985</v>
+        <v>0400 358 904</v>
       </c>
       <c r="G44" t="str">
-        <v>Hobart</v>
+        <v>Brisbane</v>
       </c>
       <c r="H44" t="str">
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="I44" t="str">
         <v>available</v>
       </c>
       <c r="J44" t="str">
-        <v>Abigail Lee</v>
+        <v>Aria Scott</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>f960de1f-a40f-4281-9d39-2a7822335b9b</v>
+        <v>c5fdfaeb-862e-43ab-bf0e-ff3e14e5dbb3</v>
       </c>
       <c r="B45" t="str">
-        <v>Victoria Carter</v>
+        <v>Hannah Martin</v>
       </c>
       <c r="C45">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D45" t="str">
         <v>Female</v>
       </c>
       <c r="E45" t="str">
-        <v>victoria.carter74@gmail.com</v>
+        <v>hannah.martin78@yahoo.com</v>
       </c>
       <c r="F45" t="str">
-        <v>0411 641 632</v>
+        <v>0410 940 985</v>
       </c>
       <c r="G45" t="str">
-        <v>Gold Coast</v>
+        <v>Hobart</v>
       </c>
       <c r="H45" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I45" t="str">
         <v>available</v>
       </c>
       <c r="J45" t="str">
-        <v>Emilia Miller</v>
+        <v>Abigail Lee</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>699a6b21-dcdf-4a6c-a093-53af77ccdedb</v>
+        <v>f960de1f-a40f-4281-9d39-2a7822335b9b</v>
       </c>
       <c r="B46" t="str">
-        <v>Emilia Lopez</v>
+        <v>Victoria Carter</v>
       </c>
       <c r="C46">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D46" t="str">
         <v>Female</v>
       </c>
       <c r="E46" t="str">
-        <v>emilia.lopez21@gmail.com</v>
+        <v>victoria.carter74@gmail.com</v>
       </c>
       <c r="F46" t="str">
-        <v>0403 491 553</v>
+        <v>0411 641 632</v>
       </c>
       <c r="G46" t="str">
-        <v>Cairns</v>
+        <v>Gold Coast</v>
       </c>
       <c r="H46" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I46" t="str">
         <v>available</v>
       </c>
       <c r="J46" t="str">
-        <v>Aurora Rodriguez</v>
+        <v>Emilia Miller</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>29fc5656-fb78-4c9b-9800-b68957bc0a07</v>
+        <v>699a6b21-dcdf-4a6c-a093-53af77ccdedb</v>
       </c>
       <c r="B47" t="str">
-        <v>Aria Lopez</v>
+        <v>Emilia Lopez</v>
       </c>
       <c r="C47">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D47" t="str">
         <v>Female</v>
       </c>
       <c r="E47" t="str">
-        <v>aria.lopez55@hotmail.com</v>
+        <v>emilia.lopez21@gmail.com</v>
       </c>
       <c r="F47" t="str">
-        <v>0404 812 491</v>
+        <v>0403 491 553</v>
       </c>
       <c r="G47" t="str">
-        <v>Sydney</v>
+        <v>Cairns</v>
       </c>
       <c r="H47" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I47" t="str">
         <v>available</v>
       </c>
       <c r="J47" t="str">
-        <v>Paisley Lee</v>
+        <v>Aurora Rodriguez</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>3db7cdb3-9a92-467c-b554-d23b524f42f5</v>
+        <v>29fc5656-fb78-4c9b-9800-b68957bc0a07</v>
       </c>
       <c r="B48" t="str">
-        <v>Claire Campbell</v>
+        <v>Aria Lopez</v>
       </c>
       <c r="C48">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D48" t="str">
         <v>Female</v>
       </c>
       <c r="E48" t="str">
-        <v>claire.campbell9@outlook.com</v>
+        <v>aria.lopez55@hotmail.com</v>
       </c>
       <c r="F48" t="str">
-        <v>0401 164 490</v>
+        <v>0404 812 491</v>
       </c>
       <c r="G48" t="str">
-        <v>Darwin</v>
+        <v>Sydney</v>
       </c>
       <c r="H48" t="str">
         <v>B+</v>
       </c>
       <c r="I48" t="str">
-        <v>assigned</v>
+        <v>available</v>
+      </c>
+      <c r="J48" t="str">
+        <v>Paisley Lee</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>32ffeaf9-5f22-4db7-a70b-cbaab834db0d</v>
+        <v>a2ff3ad7-7964-4523-bf18-ce9994a910da</v>
       </c>
       <c r="B49" t="str">
-        <v>Isabella Hill</v>
+        <v>Nora Mitchell</v>
       </c>
       <c r="C49">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D49" t="str">
         <v>Female</v>
       </c>
       <c r="E49" t="str">
-        <v>isabella.hill77@hotmail.com</v>
+        <v>nora.mitchell66@outlook.com</v>
       </c>
       <c r="F49" t="str">
-        <v>0412 663 356</v>
+        <v>0412 196 419</v>
       </c>
       <c r="G49" t="str">
-        <v>Darwin</v>
+        <v>Adelaide</v>
       </c>
       <c r="H49" t="str">
-        <v>B+</v>
+        <v>C</v>
       </c>
       <c r="I49" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>ee7f9d33-09d6-417b-a45f-3e6554489f5b</v>
+        <v>47cc1288-cbc0-4159-a52d-924c8912434d</v>
       </c>
       <c r="B50" t="str">
-        <v>Dylan Miller</v>
+        <v>Stella Martinez</v>
       </c>
       <c r="C50">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D50" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E50" t="str">
-        <v>dylan.miller23@hotmail.com</v>
+        <v>stella.martinez75@gmail.com</v>
       </c>
       <c r="F50" t="str">
-        <v>0402 417 876</v>
+        <v>0404 227 272</v>
       </c>
       <c r="G50" t="str">
-        <v>Melbourne</v>
+        <v>Ballarat</v>
       </c>
       <c r="H50" t="str">
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="I50" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>5a6b21ec-9fac-4adc-b5ab-bcad20d0eca4</v>
+        <v>f68d2771-4820-4fef-b156-093280aeea67</v>
       </c>
       <c r="B51" t="str">
-        <v>Hunter Harris</v>
+        <v>Aria Nguyen</v>
       </c>
       <c r="C51">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D51" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E51" t="str">
-        <v>hunter.harris1@gmail.com</v>
+        <v>aria.nguyen36@gmail.com</v>
       </c>
       <c r="F51" t="str">
-        <v>0404 782 485</v>
+        <v>0401 618 716</v>
       </c>
       <c r="G51" t="str">
-        <v>Gold Coast</v>
+        <v>Sydney</v>
       </c>
       <c r="H51" t="str">
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="I51" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>f68d2771-4820-4fef-b156-093280aeea67</v>
+        <v>bb319a54-7dbf-4a05-bd7f-8f2f6aa6b414</v>
       </c>
       <c r="B52" t="str">
-        <v>Aria Nguyen</v>
+        <v>Isabella Brown</v>
       </c>
       <c r="C52">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="D52" t="str">
         <v>Female</v>
       </c>
       <c r="E52" t="str">
-        <v>aria.nguyen36@gmail.com</v>
+        <v>isabella.brown43@outlook.com</v>
       </c>
       <c r="F52" t="str">
-        <v>0401 618 716</v>
+        <v>0403 771 690</v>
       </c>
       <c r="G52" t="str">
-        <v>Sydney</v>
+        <v>Darwin</v>
       </c>
       <c r="H52" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I52" t="str">
-        <v>assigned</v>
+        <v>available</v>
+      </c>
+      <c r="J52" t="str">
+        <v>Ella Anderson</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>a2ff3ad7-7964-4523-bf18-ce9994a910da</v>
+        <v>cd648690-8cd1-44b6-be26-0521038f442f</v>
       </c>
       <c r="B53" t="str">
-        <v>Nora Mitchell</v>
+        <v>Stella Hall</v>
       </c>
       <c r="C53">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="D53" t="str">
         <v>Female</v>
       </c>
       <c r="E53" t="str">
-        <v>nora.mitchell66@outlook.com</v>
+        <v>stella.hall72@gmail.com</v>
       </c>
       <c r="F53" t="str">
-        <v>0412 196 419</v>
+        <v>0410 133 818</v>
       </c>
       <c r="G53" t="str">
-        <v>Adelaide</v>
+        <v>Wollongong</v>
       </c>
       <c r="H53" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I53" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>47cc1288-cbc0-4159-a52d-924c8912434d</v>
+        <v>939eed5c-b520-4a34-8d08-2243d6aa41c1</v>
       </c>
       <c r="B54" t="str">
-        <v>Stella Martinez</v>
+        <v>Andrew Garcia</v>
       </c>
       <c r="C54">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D54" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E54" t="str">
-        <v>stella.martinez75@gmail.com</v>
+        <v>andrew.garcia26@hotmail.com</v>
       </c>
       <c r="F54" t="str">
-        <v>0404 227 272</v>
+        <v>0400 450 222</v>
       </c>
       <c r="G54" t="str">
-        <v>Ballarat</v>
+        <v>Darwin</v>
       </c>
       <c r="H54" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I54" t="str">
-        <v>assigned</v>
+        <v>available</v>
+      </c>
+      <c r="M54" t="str">
+        <v>Limited mobility - prefers ground floor seating</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>34685ff7-6e85-4bbd-b546-77cfe11d7f7d</v>
+        <v>ee7f9d33-09d6-417b-a45f-3e6554489f5b</v>
       </c>
       <c r="B55" t="str">
-        <v>Grace Walker</v>
+        <v>Dylan Miller</v>
       </c>
       <c r="C55">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D55" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E55" t="str">
-        <v>grace.walker52@hotmail.com</v>
+        <v>dylan.miller23@hotmail.com</v>
       </c>
       <c r="F55" t="str">
-        <v>0412 754 780</v>
+        <v>0402 417 876</v>
       </c>
       <c r="G55" t="str">
-        <v>Canberra</v>
+        <v>Melbourne</v>
       </c>
       <c r="H55" t="str">
-        <v>A+</v>
+        <v>A</v>
       </c>
       <c r="I55" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>6591420b-4762-4d90-b738-8a5b70458c40</v>
+        <v>3db7cdb3-9a92-467c-b554-d23b524f42f5</v>
       </c>
       <c r="B56" t="str">
-        <v>Aurora Hill</v>
+        <v>Claire Campbell</v>
       </c>
       <c r="C56">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D56" t="str">
         <v>Female</v>
       </c>
       <c r="E56" t="str">
-        <v>aurora.hill33@hotmail.com</v>
+        <v>claire.campbell9@outlook.com</v>
       </c>
       <c r="F56" t="str">
-        <v>0410 373 844</v>
+        <v>0401 164 490</v>
       </c>
       <c r="G56" t="str">
-        <v>Gold Coast</v>
+        <v>Darwin</v>
       </c>
       <c r="H56" t="str">
         <v>B+</v>
@@ -2433,34 +2439,31 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>bb319a54-7dbf-4a05-bd7f-8f2f6aa6b414</v>
+        <v>5a6b21ec-9fac-4adc-b5ab-bcad20d0eca4</v>
       </c>
       <c r="B57" t="str">
-        <v>Isabella Brown</v>
+        <v>Hunter Harris</v>
       </c>
       <c r="C57">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="D57" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E57" t="str">
-        <v>isabella.brown43@outlook.com</v>
+        <v>hunter.harris1@gmail.com</v>
       </c>
       <c r="F57" t="str">
-        <v>0403 771 690</v>
+        <v>0404 782 485</v>
       </c>
       <c r="G57" t="str">
-        <v>Darwin</v>
+        <v>Gold Coast</v>
       </c>
       <c r="H57" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="I57" t="str">
         <v>assigned</v>
-      </c>
-      <c r="J57" t="str">
-        <v>Ella Anderson</v>
       </c>
     </row>
     <row r="58">
@@ -2523,179 +2526,173 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>cd648690-8cd1-44b6-be26-0521038f442f</v>
+        <v>34685ff7-6e85-4bbd-b546-77cfe11d7f7d</v>
       </c>
       <c r="B60" t="str">
-        <v>Stella Hall</v>
+        <v>Grace Walker</v>
       </c>
       <c r="C60">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D60" t="str">
         <v>Female</v>
       </c>
       <c r="E60" t="str">
-        <v>stella.hall72@gmail.com</v>
+        <v>grace.walker52@hotmail.com</v>
       </c>
       <c r="F60" t="str">
-        <v>0410 133 818</v>
+        <v>0412 754 780</v>
       </c>
       <c r="G60" t="str">
-        <v>Wollongong</v>
+        <v>Canberra</v>
       </c>
       <c r="H60" t="str">
-        <v>B</v>
+        <v>A+</v>
       </c>
       <c r="I60" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>939eed5c-b520-4a34-8d08-2243d6aa41c1</v>
+        <v>1df33560-ebf2-41ec-995c-52f3f1df78d5</v>
       </c>
       <c r="B61" t="str">
-        <v>Andrew Garcia</v>
+        <v>Genesis Jones</v>
       </c>
       <c r="C61">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D61" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E61" t="str">
-        <v>andrew.garcia26@hotmail.com</v>
+        <v>genesis.jones50@yahoo.com</v>
       </c>
       <c r="F61" t="str">
-        <v>0400 450 222</v>
+        <v>0404 967 604</v>
       </c>
       <c r="G61" t="str">
-        <v>Darwin</v>
+        <v>Sydney</v>
       </c>
       <c r="H61" t="str">
         <v>B</v>
       </c>
       <c r="I61" t="str">
-        <v>assigned</v>
-      </c>
-      <c r="M61" t="str">
-        <v>Limited mobility - prefers ground floor seating</v>
+        <v>available</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>1df33560-ebf2-41ec-995c-52f3f1df78d5</v>
+        <v>6591420b-4762-4d90-b738-8a5b70458c40</v>
       </c>
       <c r="B62" t="str">
-        <v>Genesis Jones</v>
+        <v>Aurora Hill</v>
       </c>
       <c r="C62">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D62" t="str">
         <v>Female</v>
       </c>
       <c r="E62" t="str">
-        <v>genesis.jones50@yahoo.com</v>
+        <v>aurora.hill33@hotmail.com</v>
       </c>
       <c r="F62" t="str">
-        <v>0404 967 604</v>
+        <v>0410 373 844</v>
       </c>
       <c r="G62" t="str">
-        <v>Sydney</v>
+        <v>Gold Coast</v>
       </c>
       <c r="H62" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I62" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>da40ad70-95be-413c-b0f1-d089ef285cc8</v>
+        <v>32ffeaf9-5f22-4db7-a70b-cbaab834db0d</v>
       </c>
       <c r="B63" t="str">
-        <v>Emily Smith</v>
+        <v>Isabella Hill</v>
       </c>
       <c r="C63">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D63" t="str">
         <v>Female</v>
       </c>
       <c r="E63" t="str">
-        <v>emily.smith56@hotmail.com</v>
+        <v>isabella.hill77@hotmail.com</v>
       </c>
       <c r="F63" t="str">
-        <v>0410 101 780</v>
+        <v>0412 663 356</v>
       </c>
       <c r="G63" t="str">
-        <v>Toowoomba</v>
+        <v>Darwin</v>
       </c>
       <c r="H63" t="str">
-        <v>A+</v>
+        <v>B+</v>
       </c>
       <c r="I63" t="str">
         <v>available</v>
-      </c>
-      <c r="M63" t="str">
-        <v>Limited mobility - prefers ground floor seating</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>b8c1889f-fd66-4304-90d7-bd50422cbc52</v>
+        <v>da40ad70-95be-413c-b0f1-d089ef285cc8</v>
       </c>
       <c r="B64" t="str">
-        <v>Maya Moore</v>
+        <v>Emily Smith</v>
       </c>
       <c r="C64">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D64" t="str">
         <v>Female</v>
       </c>
       <c r="E64" t="str">
-        <v>maya.moore54@outlook.com</v>
+        <v>emily.smith56@hotmail.com</v>
       </c>
       <c r="F64" t="str">
-        <v>0400 718 585</v>
+        <v>0410 101 780</v>
       </c>
       <c r="G64" t="str">
         <v>Toowoomba</v>
       </c>
       <c r="H64" t="str">
-        <v>C</v>
+        <v>A+</v>
       </c>
       <c r="I64" t="str">
         <v>available</v>
       </c>
-      <c r="J64" t="str">
-        <v>Sofia Williams</v>
+      <c r="M64" t="str">
+        <v>Limited mobility - prefers ground floor seating</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>222469f4-a8d9-4550-b6ee-db9d00e24edd</v>
+        <v>b8c1889f-fd66-4304-90d7-bd50422cbc52</v>
       </c>
       <c r="B65" t="str">
-        <v>Chloe Flores</v>
+        <v>Maya Moore</v>
       </c>
       <c r="C65">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="D65" t="str">
         <v>Female</v>
       </c>
       <c r="E65" t="str">
-        <v>chloe.flores93@yahoo.com</v>
+        <v>maya.moore54@outlook.com</v>
       </c>
       <c r="F65" t="str">
-        <v>0400 918 463</v>
+        <v>0400 718 585</v>
       </c>
       <c r="G65" t="str">
-        <v>Townsville</v>
+        <v>Toowoomba</v>
       </c>
       <c r="H65" t="str">
         <v>C</v>
@@ -2704,222 +2701,225 @@
         <v>available</v>
       </c>
       <c r="J65" t="str">
-        <v>Evelyn Sanchez</v>
+        <v>Sofia Williams</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>852226e3-fccb-4228-8627-5dc42cfe4387</v>
+        <v>222469f4-a8d9-4550-b6ee-db9d00e24edd</v>
       </c>
       <c r="B66" t="str">
-        <v>Aurora Rodriguez</v>
+        <v>Chloe Flores</v>
       </c>
       <c r="C66">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="D66" t="str">
         <v>Female</v>
       </c>
       <c r="E66" t="str">
-        <v>aurora.rodriguez20@yahoo.com</v>
+        <v>chloe.flores93@yahoo.com</v>
       </c>
       <c r="F66" t="str">
-        <v>0404 720 692</v>
+        <v>0400 918 463</v>
       </c>
       <c r="G66" t="str">
-        <v>Hobart</v>
+        <v>Townsville</v>
       </c>
       <c r="H66" t="str">
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="I66" t="str">
         <v>available</v>
       </c>
       <c r="J66" t="str">
-        <v>Emilia Lopez</v>
-      </c>
-      <c r="M66" t="str">
-        <v>Arthritis - prefers aisle seating for easy exit</v>
+        <v>Evelyn Sanchez</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>1adac400-525f-40f4-8b6d-20df8ce78e9d</v>
+        <v>852226e3-fccb-4228-8627-5dc42cfe4387</v>
       </c>
       <c r="B67" t="str">
-        <v>Grace Scott</v>
+        <v>Aurora Rodriguez</v>
       </c>
       <c r="C67">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D67" t="str">
         <v>Female</v>
       </c>
       <c r="E67" t="str">
-        <v>grace.scott40@outlook.com</v>
+        <v>aurora.rodriguez20@yahoo.com</v>
       </c>
       <c r="F67" t="str">
-        <v>0401 870 853</v>
+        <v>0404 720 692</v>
       </c>
       <c r="G67" t="str">
-        <v>Ballarat</v>
+        <v>Hobart</v>
       </c>
       <c r="H67" t="str">
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="I67" t="str">
         <v>available</v>
       </c>
       <c r="J67" t="str">
-        <v>Emily Moore</v>
+        <v>Emilia Lopez</v>
       </c>
       <c r="M67" t="str">
-        <v>Hearing impaired - requires front row seating</v>
+        <v>Arthritis - prefers aisle seating for easy exit</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>0dd7de5c-0409-45e3-84a5-5f2ffbd591d8</v>
+        <v>1adac400-525f-40f4-8b6d-20df8ce78e9d</v>
       </c>
       <c r="B68" t="str">
-        <v>Harper Sanchez</v>
+        <v>Grace Scott</v>
       </c>
       <c r="C68">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D68" t="str">
         <v>Female</v>
       </c>
       <c r="E68" t="str">
-        <v>harper.sanchez76@gmail.com</v>
+        <v>grace.scott40@outlook.com</v>
       </c>
       <c r="F68" t="str">
-        <v>0411 422 972</v>
+        <v>0401 870 853</v>
       </c>
       <c r="G68" t="str">
-        <v>Geelong</v>
+        <v>Ballarat</v>
       </c>
       <c r="H68" t="str">
-        <v>C</v>
+        <v>B+</v>
       </c>
       <c r="I68" t="str">
         <v>available</v>
       </c>
       <c r="J68" t="str">
-        <v>Leah Scott</v>
+        <v>Emily Moore</v>
+      </c>
+      <c r="M68" t="str">
+        <v>Hearing impaired - requires front row seating</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>182bd5d2-7f68-4c83-b156-e80856f3b6b7</v>
+        <v>0dd7de5c-0409-45e3-84a5-5f2ffbd591d8</v>
       </c>
       <c r="B69" t="str">
-        <v>Mason Nelson</v>
+        <v>Harper Sanchez</v>
       </c>
       <c r="C69">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="D69" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E69" t="str">
-        <v>mason.nelson14@hotmail.com</v>
+        <v>harper.sanchez76@gmail.com</v>
       </c>
       <c r="F69" t="str">
-        <v>0403 485 650</v>
+        <v>0411 422 972</v>
       </c>
       <c r="G69" t="str">
-        <v>Canberra</v>
+        <v>Geelong</v>
       </c>
       <c r="H69" t="str">
-        <v>B+</v>
+        <v>C</v>
       </c>
       <c r="I69" t="str">
-        <v>assigned</v>
+        <v>available</v>
+      </c>
+      <c r="J69" t="str">
+        <v>Leah Scott</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>7728eead-ab7c-467f-bb41-2abd7952591a</v>
+        <v>182bd5d2-7f68-4c83-b156-e80856f3b6b7</v>
       </c>
       <c r="B70" t="str">
-        <v>Oliver Rivera</v>
+        <v>Mason Nelson</v>
       </c>
       <c r="C70">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="D70" t="str">
         <v>Male</v>
       </c>
       <c r="E70" t="str">
-        <v>oliver.rivera58@outlook.com</v>
+        <v>mason.nelson14@hotmail.com</v>
       </c>
       <c r="F70" t="str">
-        <v>0412 991 121</v>
+        <v>0403 485 650</v>
       </c>
       <c r="G70" t="str">
         <v>Canberra</v>
       </c>
       <c r="H70" t="str">
-        <v>C</v>
+        <v>B+</v>
       </c>
       <c r="I70" t="str">
-        <v>assigned</v>
-      </c>
-      <c r="M70" t="str">
-        <v>Requires wheelchair access</v>
+        <v>available</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>bf283832-25b8-4d7f-9e0f-ef2f10903233</v>
+        <v>7728eead-ab7c-467f-bb41-2abd7952591a</v>
       </c>
       <c r="B71" t="str">
-        <v>Hunter Jackson</v>
+        <v>Oliver Rivera</v>
       </c>
       <c r="C71">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="D71" t="str">
         <v>Male</v>
       </c>
       <c r="E71" t="str">
-        <v>hunter.jackson50@outlook.com</v>
+        <v>oliver.rivera58@outlook.com</v>
       </c>
       <c r="F71" t="str">
-        <v>0404 841 788</v>
+        <v>0412 991 121</v>
       </c>
       <c r="G71" t="str">
-        <v>Townsville</v>
+        <v>Canberra</v>
       </c>
       <c r="H71" t="str">
         <v>C</v>
       </c>
       <c r="I71" t="str">
-        <v>assigned</v>
+        <v>available</v>
+      </c>
+      <c r="M71" t="str">
+        <v>Requires wheelchair access</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>f693d8fc-436b-426a-9bca-0b141221ab3f</v>
+        <v>bf283832-25b8-4d7f-9e0f-ef2f10903233</v>
       </c>
       <c r="B72" t="str">
-        <v>Evelyn Clark</v>
+        <v>Hunter Jackson</v>
       </c>
       <c r="C72">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="D72" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E72" t="str">
-        <v>evelyn.clark47@outlook.com</v>
+        <v>hunter.jackson50@outlook.com</v>
       </c>
       <c r="F72" t="str">
-        <v>0410 941 656</v>
+        <v>0404 841 788</v>
       </c>
       <c r="G72" t="str">
-        <v>Hobart</v>
+        <v>Townsville</v>
       </c>
       <c r="H72" t="str">
         <v>C</v>
@@ -2930,31 +2930,31 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>ca152dfe-8ddb-45c8-b084-8a5c9e6dacfa</v>
+        <v>f693d8fc-436b-426a-9bca-0b141221ab3f</v>
       </c>
       <c r="B73" t="str">
-        <v>Ryan Lewis</v>
+        <v>Evelyn Clark</v>
       </c>
       <c r="C73">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D73" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E73" t="str">
-        <v>ryan.lewis85@yahoo.com</v>
+        <v>evelyn.clark47@outlook.com</v>
       </c>
       <c r="F73" t="str">
-        <v>0400 187 811</v>
+        <v>0410 941 656</v>
       </c>
       <c r="G73" t="str">
-        <v>Canberra</v>
+        <v>Hobart</v>
       </c>
       <c r="H73" t="str">
-        <v>B+</v>
+        <v>C</v>
       </c>
       <c r="I73" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
     <row r="74">
@@ -2991,440 +2991,437 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>f6a281bb-caec-44cf-a596-a6e92d6e2610</v>
+        <v>ca152dfe-8ddb-45c8-b084-8a5c9e6dacfa</v>
       </c>
       <c r="B75" t="str">
-        <v>Leah Scott</v>
+        <v>Ryan Lewis</v>
       </c>
       <c r="C75">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D75" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E75" t="str">
-        <v>leah.scott74@gmail.com</v>
+        <v>ryan.lewis85@yahoo.com</v>
       </c>
       <c r="F75" t="str">
-        <v>0402 414 358</v>
+        <v>0400 187 811</v>
       </c>
       <c r="G75" t="str">
-        <v>Perth</v>
+        <v>Canberra</v>
       </c>
       <c r="H75" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I75" t="str">
         <v>available</v>
-      </c>
-      <c r="J75" t="str">
-        <v>Harper Sanchez</v>
-      </c>
-      <c r="M75" t="str">
-        <v>Limited mobility - prefers ground floor seating</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>8774a9f4-b951-41cc-b6bd-809a709cb6ea</v>
+        <v>f6a281bb-caec-44cf-a596-a6e92d6e2610</v>
       </c>
       <c r="B76" t="str">
-        <v>Lily Walker</v>
+        <v>Leah Scott</v>
       </c>
       <c r="C76">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="D76" t="str">
         <v>Female</v>
       </c>
       <c r="E76" t="str">
-        <v>lily.walker96@outlook.com</v>
+        <v>leah.scott74@gmail.com</v>
       </c>
       <c r="F76" t="str">
-        <v>0410 155 426</v>
+        <v>0402 414 358</v>
       </c>
       <c r="G76" t="str">
-        <v>Hobart</v>
+        <v>Perth</v>
       </c>
       <c r="H76" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I76" t="str">
-        <v>assigned</v>
+        <v>available</v>
+      </c>
+      <c r="J76" t="str">
+        <v>Harper Sanchez</v>
+      </c>
+      <c r="M76" t="str">
+        <v>Limited mobility - prefers ground floor seating</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>d6c29b29-46c2-458d-9ed6-9955afb17b95</v>
+        <v>adb0c362-d095-4bfd-98dc-c93920fd22d6</v>
       </c>
       <c r="B77" t="str">
-        <v>Ethan Taylor</v>
+        <v>Victoria Torres</v>
       </c>
       <c r="C77">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D77" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E77" t="str">
-        <v>ethan.taylor22@yahoo.com</v>
+        <v>victoria.torres48@outlook.com</v>
       </c>
       <c r="F77" t="str">
-        <v>0410 363 173</v>
+        <v>0411 539 271</v>
       </c>
       <c r="G77" t="str">
-        <v>Adelaide</v>
+        <v>Geelong</v>
       </c>
       <c r="H77" t="str">
         <v>B</v>
       </c>
       <c r="I77" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>2811bf99-369b-4c0a-b5d6-4ff46cd7aa5e</v>
+        <v>7664257a-dce4-407a-8f24-692043d568be</v>
       </c>
       <c r="B78" t="str">
-        <v>Lucas Thomas</v>
+        <v>Nora Jackson</v>
       </c>
       <c r="C78">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D78" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E78" t="str">
-        <v>lucas.thomas30@yahoo.com</v>
+        <v>nora.jackson83@hotmail.com</v>
       </c>
       <c r="F78" t="str">
-        <v>0412 527 117</v>
+        <v>0404 434 899</v>
       </c>
       <c r="G78" t="str">
-        <v>Brisbane</v>
+        <v>Wollongong</v>
       </c>
       <c r="H78" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I78" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>e2f70c5c-0a8d-4055-8281-2ad2ae2e0cd6</v>
+        <v>a8fa9125-28f1-47e1-adba-784701975e68</v>
       </c>
       <c r="B79" t="str">
-        <v>Stella Green</v>
+        <v>Abigail Williams</v>
       </c>
       <c r="C79">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D79" t="str">
         <v>Female</v>
       </c>
       <c r="E79" t="str">
-        <v>stella.green92@gmail.com</v>
+        <v>abigail.williams45@yahoo.com</v>
       </c>
       <c r="F79" t="str">
-        <v>0404 230 858</v>
+        <v>0403 497 445</v>
       </c>
       <c r="G79" t="str">
-        <v>Wollongong</v>
+        <v>Toowoomba</v>
       </c>
       <c r="H79" t="str">
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="I79" t="str">
-        <v>assigned</v>
-      </c>
-      <c r="J79" t="str">
-        <v>Everly Torres</v>
-      </c>
-      <c r="M79" t="str">
-        <v>Vision impaired - needs assistance</v>
+        <v>available</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>ef94ff15-5215-4ecd-9ad1-9ac44fd0e56a</v>
+        <v>59bae9a1-93b9-471d-a2b7-074918634f6b</v>
       </c>
       <c r="B80" t="str">
-        <v>Luke Flores</v>
+        <v>Joshua Clark</v>
       </c>
       <c r="C80">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="D80" t="str">
         <v>Male</v>
       </c>
       <c r="E80" t="str">
-        <v>luke.flores39@hotmail.com</v>
+        <v>joshua.clark16@outlook.com</v>
       </c>
       <c r="F80" t="str">
-        <v>0403 225 544</v>
+        <v>0403 901 485</v>
       </c>
       <c r="G80" t="str">
-        <v>Melbourne</v>
+        <v>Sydney</v>
       </c>
       <c r="H80" t="str">
         <v>B</v>
       </c>
       <c r="I80" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>e166fd4f-73eb-4bea-b8be-3acdee4f9fdc</v>
+        <v>8956e289-91e9-4c15-bf2b-a13dee2fa476</v>
       </c>
       <c r="B81" t="str">
-        <v>Liam Lewis</v>
+        <v>Landon Wright</v>
       </c>
       <c r="C81">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D81" t="str">
         <v>Male</v>
       </c>
       <c r="E81" t="str">
-        <v>liam.lewis79@yahoo.com</v>
+        <v>landon.wright36@outlook.com</v>
       </c>
       <c r="F81" t="str">
-        <v>0404 203 198</v>
+        <v>0402 415 597</v>
       </c>
       <c r="G81" t="str">
-        <v>Hobart</v>
+        <v>Cairns</v>
       </c>
       <c r="H81" t="str">
         <v>B+</v>
       </c>
       <c r="I81" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>df712cc5-31d8-4341-b177-6603bf089235</v>
+        <v>2fa810c7-61d0-4519-a314-824cf0873e30</v>
       </c>
       <c r="B82" t="str">
-        <v>Samuel King</v>
+        <v>Theodore Allen</v>
       </c>
       <c r="C82">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D82" t="str">
         <v>Male</v>
       </c>
       <c r="E82" t="str">
-        <v>samuel.king24@yahoo.com</v>
+        <v>theodore.allen25@outlook.com</v>
       </c>
       <c r="F82" t="str">
-        <v>0400 774 736</v>
+        <v>0400 438 819</v>
       </c>
       <c r="G82" t="str">
         <v>Newcastle</v>
       </c>
       <c r="H82" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I82" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>7664257a-dce4-407a-8f24-692043d568be</v>
+        <v>f9d68052-4310-45c2-a5a9-64c272347899</v>
       </c>
       <c r="B83" t="str">
-        <v>Nora Jackson</v>
+        <v>Christian Rivera</v>
       </c>
       <c r="C83">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D83" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E83" t="str">
-        <v>nora.jackson83@hotmail.com</v>
+        <v>christian.rivera86@hotmail.com</v>
       </c>
       <c r="F83" t="str">
-        <v>0404 434 899</v>
+        <v>0400 135 743</v>
       </c>
       <c r="G83" t="str">
-        <v>Wollongong</v>
+        <v>Adelaide</v>
       </c>
       <c r="H83" t="str">
         <v>B+</v>
       </c>
       <c r="I83" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>8956e289-91e9-4c15-bf2b-a13dee2fa476</v>
+        <v>c1783cdf-a656-46b4-9331-4d9d18d40b51</v>
       </c>
       <c r="B84" t="str">
-        <v>Landon Wright</v>
+        <v>Aurora Walker</v>
       </c>
       <c r="C84">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D84" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E84" t="str">
-        <v>landon.wright36@outlook.com</v>
+        <v>aurora.walker1@outlook.com</v>
       </c>
       <c r="F84" t="str">
-        <v>0402 415 597</v>
+        <v>0403 522 404</v>
       </c>
       <c r="G84" t="str">
-        <v>Cairns</v>
+        <v>Darwin</v>
       </c>
       <c r="H84" t="str">
         <v>B+</v>
       </c>
       <c r="I84" t="str">
-        <v>assigned</v>
+        <v>available</v>
+      </c>
+      <c r="M84" t="str">
+        <v>Vision impaired - needs assistance</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>59bae9a1-93b9-471d-a2b7-074918634f6b</v>
+        <v>45c0fc2b-415d-475a-998d-934235565d6b</v>
       </c>
       <c r="B85" t="str">
-        <v>Joshua Clark</v>
+        <v>Scarlett Wright</v>
       </c>
       <c r="C85">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D85" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E85" t="str">
-        <v>joshua.clark16@outlook.com</v>
+        <v>scarlett.wright68@outlook.com</v>
       </c>
       <c r="F85" t="str">
-        <v>0403 901 485</v>
+        <v>0412 487 763</v>
       </c>
       <c r="G85" t="str">
-        <v>Sydney</v>
+        <v>Newcastle</v>
       </c>
       <c r="H85" t="str">
         <v>B</v>
       </c>
       <c r="I85" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>2fa810c7-61d0-4519-a314-824cf0873e30</v>
+        <v>6ddd3228-f125-4d3e-88e2-157cd730b552</v>
       </c>
       <c r="B86" t="str">
-        <v>Theodore Allen</v>
+        <v>Theodore Nelson</v>
       </c>
       <c r="C86">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D86" t="str">
         <v>Male</v>
       </c>
       <c r="E86" t="str">
-        <v>theodore.allen25@outlook.com</v>
+        <v>theodore.nelson79@gmail.com</v>
       </c>
       <c r="F86" t="str">
-        <v>0400 438 819</v>
+        <v>0403 813 793</v>
       </c>
       <c r="G86" t="str">
-        <v>Newcastle</v>
+        <v>Canberra</v>
       </c>
       <c r="H86" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I86" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>f9d68052-4310-45c2-a5a9-64c272347899</v>
+        <v>ad836319-db56-4a08-bca6-a8e3f19c37a8</v>
       </c>
       <c r="B87" t="str">
-        <v>Christian Rivera</v>
+        <v>Emily Johnson</v>
       </c>
       <c r="C87">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="D87" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E87" t="str">
-        <v>christian.rivera86@hotmail.com</v>
+        <v>emily.johnson58@hotmail.com</v>
       </c>
       <c r="F87" t="str">
-        <v>0400 135 743</v>
+        <v>0412 663 939</v>
       </c>
       <c r="G87" t="str">
-        <v>Adelaide</v>
+        <v>Perth</v>
       </c>
       <c r="H87" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I87" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>ad836319-db56-4a08-bca6-a8e3f19c37a8</v>
+        <v>d7b0dd51-8aea-4b32-bb8d-8b60271fc6c9</v>
       </c>
       <c r="B88" t="str">
-        <v>Emily Johnson</v>
+        <v>Jayden Nguyen</v>
       </c>
       <c r="C88">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D88" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E88" t="str">
-        <v>emily.johnson58@hotmail.com</v>
+        <v>jayden.nguyen88@hotmail.com</v>
       </c>
       <c r="F88" t="str">
-        <v>0412 663 939</v>
+        <v>0401 108 628</v>
       </c>
       <c r="G88" t="str">
-        <v>Perth</v>
+        <v>Hobart</v>
       </c>
       <c r="H88" t="str">
         <v>B</v>
       </c>
       <c r="I88" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>6ddd3228-f125-4d3e-88e2-157cd730b552</v>
+        <v>40727c14-a30e-4e3b-8b64-0359d25efc0c</v>
       </c>
       <c r="B89" t="str">
-        <v>Theodore Nelson</v>
+        <v>Joshua Scott</v>
       </c>
       <c r="C89">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="D89" t="str">
         <v>Male</v>
       </c>
       <c r="E89" t="str">
-        <v>theodore.nelson79@gmail.com</v>
+        <v>joshua.scott95@outlook.com</v>
       </c>
       <c r="F89" t="str">
-        <v>0403 813 793</v>
+        <v>0410 137 561</v>
       </c>
       <c r="G89" t="str">
         <v>Canberra</v>
@@ -3433,475 +3430,478 @@
         <v>B</v>
       </c>
       <c r="I89" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>45c0fc2b-415d-475a-998d-934235565d6b</v>
+        <v>2811bf99-369b-4c0a-b5d6-4ff46cd7aa5e</v>
       </c>
       <c r="B90" t="str">
-        <v>Scarlett Wright</v>
+        <v>Lucas Thomas</v>
       </c>
       <c r="C90">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D90" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E90" t="str">
-        <v>scarlett.wright68@outlook.com</v>
+        <v>lucas.thomas30@yahoo.com</v>
       </c>
       <c r="F90" t="str">
-        <v>0412 487 763</v>
+        <v>0412 527 117</v>
       </c>
       <c r="G90" t="str">
-        <v>Newcastle</v>
+        <v>Brisbane</v>
       </c>
       <c r="H90" t="str">
         <v>B</v>
       </c>
       <c r="I90" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>c1783cdf-a656-46b4-9331-4d9d18d40b51</v>
+        <v>0e8f635e-8f06-4224-a2cc-4263ac307ba2</v>
       </c>
       <c r="B91" t="str">
-        <v>Aurora Walker</v>
+        <v>Joshua Jones</v>
       </c>
       <c r="C91">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="D91" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E91" t="str">
-        <v>aurora.walker1@outlook.com</v>
+        <v>joshua.jones82@yahoo.com</v>
       </c>
       <c r="F91" t="str">
-        <v>0403 522 404</v>
+        <v>0400 652 840</v>
       </c>
       <c r="G91" t="str">
-        <v>Darwin</v>
+        <v>Toowoomba</v>
       </c>
       <c r="H91" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I91" t="str">
-        <v>assigned</v>
-      </c>
-      <c r="M91" t="str">
-        <v>Vision impaired - needs assistance</v>
+        <v>available</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>5331c6bd-19f8-416a-9166-06280a3c547e</v>
+        <v>e15c67b6-0680-4284-a8aa-a525b34c592d</v>
       </c>
       <c r="B92" t="str">
-        <v>Ethan Rodriguez</v>
+        <v>Aurora Williams</v>
       </c>
       <c r="C92">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="D92" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E92" t="str">
-        <v>ethan.rodriguez60@hotmail.com</v>
+        <v>aurora.williams76@outlook.com</v>
       </c>
       <c r="F92" t="str">
-        <v>0411 690 563</v>
+        <v>0401 416 170</v>
       </c>
       <c r="G92" t="str">
-        <v>Townsville</v>
+        <v>Darwin</v>
       </c>
       <c r="H92" t="str">
-        <v>B+</v>
+        <v>C</v>
       </c>
       <c r="I92" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
       <c r="M92" t="str">
-        <v>Hearing impaired - requires front row seating</v>
+        <v>Uses walking cane</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>40727c14-a30e-4e3b-8b64-0359d25efc0c</v>
+        <v>7bfb9432-4b59-4ceb-895d-e03ae4837f91</v>
       </c>
       <c r="B93" t="str">
-        <v>Joshua Scott</v>
+        <v>Joshua Walker</v>
       </c>
       <c r="C93">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D93" t="str">
         <v>Male</v>
       </c>
       <c r="E93" t="str">
-        <v>joshua.scott95@outlook.com</v>
+        <v>joshua.walker97@gmail.com</v>
       </c>
       <c r="F93" t="str">
-        <v>0410 137 561</v>
+        <v>0402 640 379</v>
       </c>
       <c r="G93" t="str">
-        <v>Canberra</v>
+        <v>Darwin</v>
       </c>
       <c r="H93" t="str">
         <v>B</v>
       </c>
       <c r="I93" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>d7b0dd51-8aea-4b32-bb8d-8b60271fc6c9</v>
+        <v>39b7a0a4-be8b-49f1-a5af-c5a105e0ab58</v>
       </c>
       <c r="B94" t="str">
-        <v>Jayden Nguyen</v>
+        <v>Joshua Carter</v>
       </c>
       <c r="C94">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D94" t="str">
         <v>Male</v>
       </c>
       <c r="E94" t="str">
-        <v>jayden.nguyen88@hotmail.com</v>
+        <v>joshua.carter41@hotmail.com</v>
       </c>
       <c r="F94" t="str">
-        <v>0401 108 628</v>
+        <v>0404 538 442</v>
       </c>
       <c r="G94" t="str">
-        <v>Hobart</v>
+        <v>Wollongong</v>
       </c>
       <c r="H94" t="str">
         <v>B</v>
       </c>
       <c r="I94" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>0e8f635e-8f06-4224-a2cc-4263ac307ba2</v>
+        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
       </c>
       <c r="B95" t="str">
-        <v>Joshua Jones</v>
+        <v>Peter Adamidis</v>
       </c>
       <c r="C95">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D95" t="str">
-        <v>Male</v>
+        <v>Not Specified</v>
       </c>
       <c r="E95" t="str">
-        <v>joshua.jones82@yahoo.com</v>
+        <v>peter.adamidis@gmail.com</v>
       </c>
       <c r="F95" t="str">
-        <v>0400 652 840</v>
+        <v>498086080</v>
       </c>
       <c r="G95" t="str">
-        <v>Toowoomba</v>
+        <v/>
       </c>
       <c r="H95" t="str">
-        <v>B</v>
+        <v/>
       </c>
       <c r="I95" t="str">
         <v>assigned</v>
       </c>
+      <c r="J95" t="str">
+        <v>Kathleen Reynolds, Felicity Parker-Hill</v>
+      </c>
+      <c r="K95" t="str">
+        <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
+      </c>
+      <c r="L95" t="str">
+        <v>Y</v>
+      </c>
+      <c r="M95" t="str">
+        <v>Broken Leg</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>a8fa9125-28f1-47e1-adba-784701975e68</v>
+        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
       </c>
       <c r="B96" t="str">
-        <v>Abigail Williams</v>
+        <v>Kathleen Reynolds</v>
       </c>
       <c r="C96">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="D96" t="str">
-        <v>Female</v>
+        <v>Not Specified</v>
       </c>
       <c r="E96" t="str">
-        <v>abigail.williams45@yahoo.com</v>
+        <v>kathleenmonicareynolds@gmail.com</v>
       </c>
       <c r="F96" t="str">
-        <v>0403 497 445</v>
+        <v>498086080</v>
       </c>
       <c r="G96" t="str">
-        <v>Toowoomba</v>
+        <v>Footscray</v>
       </c>
       <c r="H96" t="str">
-        <v>C</v>
+        <v/>
       </c>
       <c r="I96" t="str">
         <v>assigned</v>
       </c>
+      <c r="J96" t="str">
+        <v>Peter Adamidis, Felicity Parker-Hill</v>
+      </c>
+      <c r="K96" t="str">
+        <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
+      </c>
+      <c r="L96" t="str">
+        <v>N</v>
+      </c>
+      <c r="M96" t="str">
+        <v>N/A</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>e15c67b6-0680-4284-a8aa-a525b34c592d</v>
+        <v>8774a9f4-b951-41cc-b6bd-809a709cb6ea</v>
       </c>
       <c r="B97" t="str">
-        <v>Aurora Williams</v>
+        <v>Lily Walker</v>
       </c>
       <c r="C97">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="D97" t="str">
         <v>Female</v>
       </c>
       <c r="E97" t="str">
-        <v>aurora.williams76@outlook.com</v>
+        <v>lily.walker96@outlook.com</v>
       </c>
       <c r="F97" t="str">
-        <v>0401 416 170</v>
+        <v>0410 155 426</v>
       </c>
       <c r="G97" t="str">
-        <v>Darwin</v>
+        <v>Hobart</v>
       </c>
       <c r="H97" t="str">
-        <v>C</v>
+        <v>B+</v>
       </c>
       <c r="I97" t="str">
-        <v>assigned</v>
-      </c>
-      <c r="M97" t="str">
-        <v>Uses walking cane</v>
+        <v>available</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
+        <v>df6c0d97-fd38-4b65-8765-b11a4939bd3b</v>
       </c>
       <c r="B98" t="str">
-        <v>Peter Adamidis</v>
+        <v>Julian Rivera</v>
       </c>
       <c r="C98">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="D98" t="str">
-        <v>Not Specified</v>
+        <v>Male</v>
       </c>
       <c r="E98" t="str">
-        <v>peter.adamidis@gmail.com</v>
+        <v>julian.rivera31@outlook.com</v>
       </c>
       <c r="F98" t="str">
-        <v>498086080</v>
+        <v>0401 414 502</v>
       </c>
       <c r="G98" t="str">
-        <v/>
+        <v>Perth</v>
       </c>
       <c r="H98" t="str">
-        <v/>
+        <v>B+</v>
       </c>
       <c r="I98" t="str">
-        <v>assigned</v>
-      </c>
-      <c r="J98" t="str">
-        <v>Kathleen Reynolds, Felicity Parker-Hill</v>
-      </c>
-      <c r="K98" t="str">
-        <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
-      </c>
-      <c r="L98" t="str">
-        <v>Y</v>
-      </c>
-      <c r="M98" t="str">
-        <v>Broken Leg</v>
+        <v>available</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
+        <v>bf5a6984-f656-4e23-9646-85829e9daffe</v>
       </c>
       <c r="B99" t="str">
-        <v>Kathleen Reynolds</v>
+        <v>Scarlett Lopez</v>
       </c>
       <c r="C99">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="D99" t="str">
-        <v>Not Specified</v>
+        <v>Female</v>
       </c>
       <c r="E99" t="str">
-        <v>kathleenmonicareynolds@gmail.com</v>
+        <v>scarlett.lopez53@yahoo.com</v>
       </c>
       <c r="F99" t="str">
-        <v>498086080</v>
+        <v>0400 509 641</v>
       </c>
       <c r="G99" t="str">
-        <v>Footscray</v>
+        <v>Sydney</v>
       </c>
       <c r="H99" t="str">
-        <v/>
+        <v>B+</v>
       </c>
       <c r="I99" t="str">
-        <v>assigned</v>
-      </c>
-      <c r="J99" t="str">
-        <v>Peter Adamidis, Felicity Parker-Hill</v>
-      </c>
-      <c r="K99" t="str">
-        <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
-      </c>
-      <c r="L99" t="str">
-        <v>N</v>
-      </c>
-      <c r="M99" t="str">
-        <v>N/A</v>
+        <v>available</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>7bfb9432-4b59-4ceb-895d-e03ae4837f91</v>
+        <v>d6c29b29-46c2-458d-9ed6-9955afb17b95</v>
       </c>
       <c r="B100" t="str">
-        <v>Joshua Walker</v>
+        <v>Ethan Taylor</v>
       </c>
       <c r="C100">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D100" t="str">
         <v>Male</v>
       </c>
       <c r="E100" t="str">
-        <v>joshua.walker97@gmail.com</v>
+        <v>ethan.taylor22@yahoo.com</v>
       </c>
       <c r="F100" t="str">
-        <v>0402 640 379</v>
+        <v>0410 363 173</v>
       </c>
       <c r="G100" t="str">
-        <v>Darwin</v>
+        <v>Adelaide</v>
       </c>
       <c r="H100" t="str">
         <v>B</v>
       </c>
       <c r="I100" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>39b7a0a4-be8b-49f1-a5af-c5a105e0ab58</v>
+        <v>e166fd4f-73eb-4bea-b8be-3acdee4f9fdc</v>
       </c>
       <c r="B101" t="str">
-        <v>Joshua Carter</v>
+        <v>Liam Lewis</v>
       </c>
       <c r="C101">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="D101" t="str">
         <v>Male</v>
       </c>
       <c r="E101" t="str">
-        <v>joshua.carter41@hotmail.com</v>
+        <v>liam.lewis79@yahoo.com</v>
       </c>
       <c r="F101" t="str">
-        <v>0404 538 442</v>
+        <v>0404 203 198</v>
       </c>
       <c r="G101" t="str">
-        <v>Wollongong</v>
+        <v>Hobart</v>
       </c>
       <c r="H101" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I101" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>df6c0d97-fd38-4b65-8765-b11a4939bd3b</v>
+        <v>5331c6bd-19f8-416a-9166-06280a3c547e</v>
       </c>
       <c r="B102" t="str">
-        <v>Julian Rivera</v>
+        <v>Ethan Rodriguez</v>
       </c>
       <c r="C102">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D102" t="str">
         <v>Male</v>
       </c>
       <c r="E102" t="str">
-        <v>julian.rivera31@outlook.com</v>
+        <v>ethan.rodriguez60@hotmail.com</v>
       </c>
       <c r="F102" t="str">
-        <v>0401 414 502</v>
+        <v>0411 690 563</v>
       </c>
       <c r="G102" t="str">
-        <v>Perth</v>
+        <v>Townsville</v>
       </c>
       <c r="H102" t="str">
         <v>B+</v>
       </c>
       <c r="I102" t="str">
-        <v>assigned</v>
+        <v>available</v>
+      </c>
+      <c r="M102" t="str">
+        <v>Hearing impaired - requires front row seating</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>bf5a6984-f656-4e23-9646-85829e9daffe</v>
+        <v>e2f70c5c-0a8d-4055-8281-2ad2ae2e0cd6</v>
       </c>
       <c r="B103" t="str">
-        <v>Scarlett Lopez</v>
+        <v>Stella Green</v>
       </c>
       <c r="C103">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D103" t="str">
         <v>Female</v>
       </c>
       <c r="E103" t="str">
-        <v>scarlett.lopez53@yahoo.com</v>
+        <v>stella.green92@gmail.com</v>
       </c>
       <c r="F103" t="str">
-        <v>0400 509 641</v>
+        <v>0404 230 858</v>
       </c>
       <c r="G103" t="str">
-        <v>Sydney</v>
+        <v>Wollongong</v>
       </c>
       <c r="H103" t="str">
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="I103" t="str">
-        <v>assigned</v>
+        <v>available</v>
+      </c>
+      <c r="J103" t="str">
+        <v>Everly Torres</v>
+      </c>
+      <c r="M103" t="str">
+        <v>Vision impaired - needs assistance</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>adb0c362-d095-4bfd-98dc-c93920fd22d6</v>
+        <v>ef94ff15-5215-4ecd-9ad1-9ac44fd0e56a</v>
       </c>
       <c r="B104" t="str">
-        <v>Victoria Torres</v>
+        <v>Luke Flores</v>
       </c>
       <c r="C104">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="D104" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E104" t="str">
-        <v>victoria.torres48@outlook.com</v>
+        <v>luke.flores39@hotmail.com</v>
       </c>
       <c r="F104" t="str">
-        <v>0411 539 271</v>
+        <v>0403 225 544</v>
       </c>
       <c r="G104" t="str">
-        <v>Geelong</v>
+        <v>Melbourne</v>
       </c>
       <c r="H104" t="str">
         <v>B</v>
       </c>
       <c r="I104" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
   </sheetData>
@@ -3913,7 +3913,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3963,13 +3963,13 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>99b057b3-eddf-4852-8e0d-21d01edfe3b4</v>
+        <v>0c1d63bc-2b42-4758-a941-3ba5964fcc9e</v>
       </c>
       <c r="B3" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C3" t="str">
-        <v>292da493-0524-4ee4-b911-1bb34e328b8c</v>
+        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -3980,13 +3980,13 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>053272a8-570e-4e76-892c-4c32134876fb</v>
+        <v>161d232c-772a-4491-9880-eaa0833f9a90</v>
       </c>
       <c r="B4" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C4" t="str">
-        <v>ecc70875-f282-4849-9e60-071edc278977</v>
+        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -3997,13 +3997,13 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>a8114d10-6ad0-4e56-ac39-fb3d1036c2de</v>
+        <v>568ebe58-3a67-40c1-9a16-4077815f71f5</v>
       </c>
       <c r="B5" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C5" t="str">
-        <v>efe20d3d-2162-4ff8-a8ff-4102e5d3f3ab</v>
+        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -4014,13 +4014,13 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>1e986329-8b5f-42cc-be38-d6d572729ced</v>
+        <v>1ffd9b4c-0a7a-46db-92f5-c91e9ee9ecab</v>
       </c>
       <c r="B6" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C6" t="str">
-        <v>d609a3ee-08af-4d16-aa51-c67e35cfa5c9</v>
+        <v>292da493-0524-4ee4-b911-1bb34e328b8c</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -4031,13 +4031,13 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>c0bcd9a1-5c79-4a52-879d-04903dc872fc</v>
+        <v>a856a91a-3d2f-4429-99d8-7a8bcec2fe7b</v>
       </c>
       <c r="B7" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C7" t="str">
-        <v>f1466859-7323-4893-a189-a0ce994068ba</v>
+        <v>ecc70875-f282-4849-9e60-071edc278977</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -4048,13 +4048,13 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>3ef071e8-19e2-417a-ba98-c8b5b3917bcc</v>
+        <v>05ec7362-1b3b-4094-bdb5-e0509469b84a</v>
       </c>
       <c r="B8" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C8" t="str">
-        <v>0faec83d-7c29-4269-bf33-391ef02d60e4</v>
+        <v>df712cc5-31d8-4341-b177-6603bf089235</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -4065,13 +4065,13 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>973b6d22-6fa1-4498-b5a8-d795f14a13b6</v>
+        <v>c08ac1b2-35fa-45f1-a7c8-1197041f81b3</v>
       </c>
       <c r="B9" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C9" t="str">
-        <v>3d2128a1-336f-41e1-973b-b5dd54d90b19</v>
+        <v>d609a3ee-08af-4d16-aa51-c67e35cfa5c9</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -4082,13 +4082,13 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>e05d4aec-27dc-469e-bdce-7e03f13664c8</v>
+        <v>d9ee879a-2960-45cf-bcee-14b74e2ad252</v>
       </c>
       <c r="B10" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C10" t="str">
-        <v>0a153155-dcf5-4d56-9ed1-8960501157f8</v>
+        <v>efe20d3d-2162-4ff8-a8ff-4102e5d3f3ab</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -4099,13 +4099,13 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>bb7c5d30-2345-4daa-8a0b-a98cc70d6b6e</v>
+        <v>1af51669-f178-4348-9a6f-36b274fe433c</v>
       </c>
       <c r="B11" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C11" t="str">
-        <v>9b54470e-fe91-4ebb-b0aa-becf22a8cc3c</v>
+        <v>0faec83d-7c29-4269-bf33-391ef02d60e4</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -4116,13 +4116,13 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>05460b0e-c422-4c82-868e-9227326bfb00</v>
+        <v>462846da-cb50-4db7-bc1b-f22932b9875a</v>
       </c>
       <c r="B12" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C12" t="str">
-        <v>adfcb6e3-82cb-46b9-8fb8-069fb91e2d4f</v>
+        <v>f1466859-7323-4893-a189-a0ce994068ba</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -4133,13 +4133,13 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>83ffd2a4-e753-4e1d-87e5-171c824c7505</v>
+        <v>1517922e-1ccc-4763-84d0-8f02b715f633</v>
       </c>
       <c r="B13" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C13" t="str">
-        <v>f5233693-d357-4cac-a660-70ef0398a969</v>
+        <v>0a153155-dcf5-4d56-9ed1-8960501157f8</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -4150,13 +4150,13 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>e72c4830-c6d3-4a5b-bca6-527c87011208</v>
+        <v>0304d254-0d8d-44f9-be76-dcb1068e6cab</v>
       </c>
       <c r="B14" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C14" t="str">
-        <v>6591420b-4762-4d90-b738-8a5b70458c40</v>
+        <v>adfcb6e3-82cb-46b9-8fb8-069fb91e2d4f</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -4167,13 +4167,13 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>50b67f89-be28-41f1-955b-89d367a246d5</v>
+        <v>aa18562e-f53f-4857-8a6d-650cb0ac93d2</v>
       </c>
       <c r="B15" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C15" t="str">
-        <v>3db7cdb3-9a92-467c-b554-d23b524f42f5</v>
+        <v>f5233693-d357-4cac-a660-70ef0398a969</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -4184,13 +4184,13 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>342836da-b1d0-4040-b6f2-132a74438494</v>
+        <v>3080ba87-0148-44e0-a924-e778c72cf085</v>
       </c>
       <c r="B16" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C16" t="str">
-        <v>32ffeaf9-5f22-4db7-a70b-cbaab834db0d</v>
+        <v>9b54470e-fe91-4ebb-b0aa-becf22a8cc3c</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -4201,13 +4201,13 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>04810307-6eb7-4ac7-ab50-c296c0003c47</v>
+        <v>a02fc8d6-7161-46e7-aec0-94b7bd8ef3c0</v>
       </c>
       <c r="B17" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C17" t="str">
-        <v>ee7f9d33-09d6-417b-a45f-3e6554489f5b</v>
+        <v>3d2128a1-336f-41e1-973b-b5dd54d90b19</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -4218,13 +4218,13 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>6fd4b73b-9e80-4f03-b5fc-f3da5eab3eef</v>
+        <v>9ee2af99-090d-47b6-8ecb-b2f29e3c90b2</v>
       </c>
       <c r="B18" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C18" t="str">
-        <v>5a6b21ec-9fac-4adc-b5ab-bcad20d0eca4</v>
+        <v>ee7f9d33-09d6-417b-a45f-3e6554489f5b</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -4235,13 +4235,13 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>022f3f33-9964-4af0-b4c4-af369cbdbf80</v>
+        <v>5a2c4cd5-9636-49cf-98b3-7524294bd8c5</v>
       </c>
       <c r="B19" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C19" t="str">
-        <v>182bd5d2-7f68-4c83-b156-e80856f3b6b7</v>
+        <v>3db7cdb3-9a92-467c-b554-d23b524f42f5</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -4252,13 +4252,13 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>00501628-3935-4267-b89e-9ff083f224d1</v>
+        <v>a74c7ad6-8afa-49df-977f-d53b45f8ce07</v>
       </c>
       <c r="B20" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C20" t="str">
-        <v>992418b2-3029-4752-9552-0aa886433657</v>
+        <v>5a6b21ec-9fac-4adc-b5ab-bcad20d0eca4</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -4269,13 +4269,13 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>71c3b301-eedd-462b-8252-ce3f3e27aea7</v>
+        <v>c91eeb22-8beb-47e4-bf26-bb31d5be823b</v>
       </c>
       <c r="B21" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C21" t="str">
-        <v>dbb200b8-766c-4984-9724-f68192d88939</v>
+        <v>25370fa8-38bb-4172-9e02-23a59fcfd87a</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -4286,13 +4286,13 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>5727ce03-30ec-4582-a545-58a398c54091</v>
+        <v>79002346-f4d1-46c4-a8da-218d84a7038f</v>
       </c>
       <c r="B22" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C22" t="str">
-        <v>c4e002c2-94ef-471f-b43d-e6b2a8d35a1c</v>
+        <v>5c31add6-7626-46c5-a3e1-0e452ead739d</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -4303,874 +4303,24 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>f1188484-9f57-4b5d-9296-70b12a38b39d</v>
+        <v>47ec0204-7cf6-4afb-9b9e-a91324cdf4a9</v>
       </c>
       <c r="B23" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
       </c>
       <c r="C23" t="str">
-        <v>ca152dfe-8ddb-45c8-b084-8a5c9e6dacfa</v>
+        <v>5a16ef0a-cce8-4d1b-bfa5-3892331170c1</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" t="str">
         <v>A1</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>bd3eef2d-0da4-457e-bfca-a9f1218c5a1f</v>
-      </c>
-      <c r="B24" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C24" t="str">
-        <v>df6c0d97-fd38-4b65-8765-b11a4939bd3b</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24" t="str">
-        <v>A2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>7be6d980-0f11-49d4-93e4-64a0cc8260c5</v>
-      </c>
-      <c r="B25" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C25" t="str">
-        <v>bf5a6984-f656-4e23-9646-85829e9daffe</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25" t="str">
-        <v>A3</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>71866ff0-5b91-44aa-80e7-4d895a57a615</v>
-      </c>
-      <c r="B26" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C26" t="str">
-        <v>8774a9f4-b951-41cc-b6bd-809a709cb6ea</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26" t="str">
-        <v>A4</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>b8a81cdd-7c2d-4415-b456-aadce1a7e1ab</v>
-      </c>
-      <c r="B27" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C27" t="str">
-        <v>d6c29b29-46c2-458d-9ed6-9955afb17b95</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27" t="str">
-        <v>A5</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>aefcb3e6-3661-40f7-86a9-abaeea8d099a</v>
-      </c>
-      <c r="B28" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C28" t="str">
-        <v>adb0c362-d095-4bfd-98dc-c93920fd22d6</v>
-      </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-      <c r="E28" t="str">
-        <v>B1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>a34e983b-3cbf-4d87-8434-07ea2203bf9a</v>
-      </c>
-      <c r="B29" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C29" t="str">
-        <v>e2f70c5c-0a8d-4055-8281-2ad2ae2e0cd6</v>
-      </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-      <c r="E29" t="str">
-        <v>B2</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>8b0c2867-7d6f-433a-8113-38fefd176279</v>
-      </c>
-      <c r="B30" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C30" t="str">
-        <v>ef94ff15-5215-4ecd-9ad1-9ac44fd0e56a</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-      <c r="E30" t="str">
-        <v>B3</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>adc7d6ea-f5cf-4e6e-ad63-868d1f73ada0</v>
-      </c>
-      <c r="B31" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C31" t="str">
-        <v>e166fd4f-73eb-4bea-b8be-3acdee4f9fdc</v>
-      </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
-      <c r="E31" t="str">
-        <v>B4</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v>45fdb4ef-6088-41aa-b602-d7d91bd74375</v>
-      </c>
-      <c r="B32" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C32" t="str">
-        <v>df712cc5-31d8-4341-b177-6603bf089235</v>
-      </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-      <c r="E32" t="str">
-        <v>B5</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v>6c1cdb8b-a383-459c-b003-857987ee349e</v>
-      </c>
-      <c r="B33" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C33" t="str">
-        <v>7664257a-dce4-407a-8f24-692043d568be</v>
-      </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-      <c r="E33" t="str">
-        <v>C1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>8519b613-6b4d-4518-85ce-27c5cab9e775</v>
-      </c>
-      <c r="B34" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C34" t="str">
-        <v>8956e289-91e9-4c15-bf2b-a13dee2fa476</v>
-      </c>
-      <c r="D34">
-        <v>2</v>
-      </c>
-      <c r="E34" t="str">
-        <v>C2</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>39bee522-ec67-480d-8258-c0e0a9300c4e</v>
-      </c>
-      <c r="B35" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C35" t="str">
-        <v>59bae9a1-93b9-471d-a2b7-074918634f6b</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-      <c r="E35" t="str">
-        <v>C3</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>27700be8-0ae7-40e2-b5d2-5d6ccb43585d</v>
-      </c>
-      <c r="B36" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C36" t="str">
-        <v>da957311-60b3-4bfc-b980-ac0506dccd20</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-      <c r="E36" t="str">
-        <v>C4</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>c0d85efa-5685-4a48-a319-24486cd4f5a2</v>
-      </c>
-      <c r="B37" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C37" t="str">
-        <v>0669e014-c952-45fd-9791-36cbe1d51444</v>
-      </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-      <c r="E37" t="str">
-        <v>D1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>31d411ea-a913-4d54-b070-6ea9dbd04198</v>
-      </c>
-      <c r="B38" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C38" t="str">
-        <v>2fa810c7-61d0-4519-a314-824cf0873e30</v>
-      </c>
-      <c r="D38">
-        <v>3</v>
-      </c>
-      <c r="E38" t="str">
-        <v>A1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v>c9b54c6a-61f1-496a-8338-8f027ce2d60c</v>
-      </c>
-      <c r="B39" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C39" t="str">
-        <v>f9d68052-4310-45c2-a5a9-64c272347899</v>
-      </c>
-      <c r="D39">
-        <v>3</v>
-      </c>
-      <c r="E39" t="str">
-        <v>A2</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="str">
-        <v>d9c131b6-f229-470e-a020-e78152f5639e</v>
-      </c>
-      <c r="B40" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C40" t="str">
-        <v>ad836319-db56-4a08-bca6-a8e3f19c37a8</v>
-      </c>
-      <c r="D40">
-        <v>3</v>
-      </c>
-      <c r="E40" t="str">
-        <v>A3</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="str">
-        <v>91abf6a9-b737-4e14-aae9-95f5f139eff8</v>
-      </c>
-      <c r="B41" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C41" t="str">
-        <v>6ddd3228-f125-4d3e-88e2-157cd730b552</v>
-      </c>
-      <c r="D41">
-        <v>3</v>
-      </c>
-      <c r="E41" t="str">
-        <v>A4</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="str">
-        <v>8f199123-1219-4eb4-a90e-28f41fc2870d</v>
-      </c>
-      <c r="B42" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C42" t="str">
-        <v>45c0fc2b-415d-475a-998d-934235565d6b</v>
-      </c>
-      <c r="D42">
-        <v>3</v>
-      </c>
-      <c r="E42" t="str">
-        <v>A5</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="str">
-        <v>7cbbbfad-1676-406d-9b5f-cd4e43a839b0</v>
-      </c>
-      <c r="B43" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C43" t="str">
-        <v>c1783cdf-a656-46b4-9331-4d9d18d40b51</v>
-      </c>
-      <c r="D43">
-        <v>3</v>
-      </c>
-      <c r="E43" t="str">
-        <v>B1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="str">
-        <v>2be70946-7403-484d-bee1-3e74d4fafdc7</v>
-      </c>
-      <c r="B44" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C44" t="str">
-        <v>5331c6bd-19f8-416a-9166-06280a3c547e</v>
-      </c>
-      <c r="D44">
-        <v>3</v>
-      </c>
-      <c r="E44" t="str">
-        <v>B2</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="str">
-        <v>5f08164d-d805-4f1d-9194-baccc9154f6b</v>
-      </c>
-      <c r="B45" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C45" t="str">
-        <v>0bb2a1aa-a74d-4711-a2ea-609663a77b4d</v>
-      </c>
-      <c r="D45">
-        <v>5</v>
-      </c>
-      <c r="E45" t="str">
-        <v>A1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="str">
-        <v>c35f0488-062f-4b0e-a444-a6cc9c820dc9</v>
-      </c>
-      <c r="B46" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C46" t="str">
-        <v>9efd8ec8-0e91-45d9-804b-518939fbac76</v>
-      </c>
-      <c r="D46">
-        <v>5</v>
-      </c>
-      <c r="E46" t="str">
-        <v>A2</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="str">
-        <v>7bddb4b5-e6e8-4a7f-83e3-989a4fb2cc2a</v>
-      </c>
-      <c r="B47" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C47" t="str">
-        <v>f68d2771-4820-4fef-b156-093280aeea67</v>
-      </c>
-      <c r="D47">
-        <v>5</v>
-      </c>
-      <c r="E47" t="str">
-        <v>A3</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="str">
-        <v>cf4c7cd6-c31a-4372-92e5-1425819a7870</v>
-      </c>
-      <c r="B48" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C48" t="str">
-        <v>a2ff3ad7-7964-4523-bf18-ce9994a910da</v>
-      </c>
-      <c r="D48">
-        <v>5</v>
-      </c>
-      <c r="E48" t="str">
-        <v>A4</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="str">
-        <v>c35e322f-c0ab-438a-9186-105435207b25</v>
-      </c>
-      <c r="B49" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C49" t="str">
-        <v>47cc1288-cbc0-4159-a52d-924c8912434d</v>
-      </c>
-      <c r="D49">
-        <v>5</v>
-      </c>
-      <c r="E49" t="str">
-        <v>A5</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="str">
-        <v>78d48c28-ef73-4e6c-a4a6-e042645edd4f</v>
-      </c>
-      <c r="B50" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C50" t="str">
-        <v>7728eead-ab7c-467f-bb41-2abd7952591a</v>
-      </c>
-      <c r="D50">
-        <v>5</v>
-      </c>
-      <c r="E50" t="str">
-        <v>B1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="str">
-        <v>4b463d58-6bb8-4a5f-8267-d7b5c1b0586e</v>
-      </c>
-      <c r="B51" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C51" t="str">
-        <v>42504e80-d5df-4b97-a283-eb96728c425f</v>
-      </c>
-      <c r="D51">
-        <v>5</v>
-      </c>
-      <c r="E51" t="str">
-        <v>B2</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="str">
-        <v>76e6b805-dada-4c52-a3be-924d28f1f528</v>
-      </c>
-      <c r="B52" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C52" t="str">
-        <v>bb319a54-7dbf-4a05-bd7f-8f2f6aa6b414</v>
-      </c>
-      <c r="D52">
-        <v>5</v>
-      </c>
-      <c r="E52" t="str">
-        <v>B3</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="str">
-        <v>f0cf8a8d-5e79-4de3-84db-220ea6fac658</v>
-      </c>
-      <c r="B53" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C53" t="str">
-        <v>40727c14-a30e-4e3b-8b64-0359d25efc0c</v>
-      </c>
-      <c r="D53">
-        <v>5</v>
-      </c>
-      <c r="E53" t="str">
-        <v>B4</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="str">
-        <v>85450345-605c-4428-8bb5-fdc8ee85f89c</v>
-      </c>
-      <c r="B54" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C54" t="str">
-        <v>d7b0dd51-8aea-4b32-bb8d-8b60271fc6c9</v>
-      </c>
-      <c r="D54">
-        <v>5</v>
-      </c>
-      <c r="E54" t="str">
-        <v>B5</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="str">
-        <v>1600a027-aff8-40c5-880c-41cf600d6e69</v>
-      </c>
-      <c r="B55" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C55" t="str">
-        <v>0e8f635e-8f06-4224-a2cc-4263ac307ba2</v>
-      </c>
-      <c r="D55">
-        <v>5</v>
-      </c>
-      <c r="E55" t="str">
-        <v>C1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="str">
-        <v>b13b50a6-62d5-4786-8c97-5e3efff3ec5f</v>
-      </c>
-      <c r="B56" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C56" t="str">
-        <v>2811bf99-369b-4c0a-b5d6-4ff46cd7aa5e</v>
-      </c>
-      <c r="D56">
-        <v>5</v>
-      </c>
-      <c r="E56" t="str">
-        <v>C2</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="str">
-        <v>eefad3d2-6081-4723-9c14-16bf89d83500</v>
-      </c>
-      <c r="B57" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C57" t="str">
-        <v>bf283832-25b8-4d7f-9e0f-ef2f10903233</v>
-      </c>
-      <c r="D57">
-        <v>6</v>
-      </c>
-      <c r="E57" t="str">
-        <v>A1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="str">
-        <v>9a6b85e3-c1c0-4f80-ae01-fc67e81ecde4</v>
-      </c>
-      <c r="B58" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C58" t="str">
-        <v>a8fa9125-28f1-47e1-adba-784701975e68</v>
-      </c>
-      <c r="D58">
-        <v>6</v>
-      </c>
-      <c r="E58" t="str">
-        <v>A2</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="str">
-        <v>d2756409-3d86-4a9c-8d5d-e810a6d87111</v>
-      </c>
-      <c r="B59" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C59" t="str">
-        <v>e15c67b6-0680-4284-a8aa-a525b34c592d</v>
-      </c>
-      <c r="D59">
-        <v>6</v>
-      </c>
-      <c r="E59" t="str">
-        <v>A3</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="str">
-        <v>59e5f633-48c3-4df7-b042-385dbb36ac5b</v>
-      </c>
-      <c r="B60" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C60" t="str">
-        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
-      </c>
-      <c r="D60">
-        <v>6</v>
-      </c>
-      <c r="E60" t="str">
-        <v>B1</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="str">
-        <v>dea0fcfc-5111-464c-8d5d-5064e947d2e7</v>
-      </c>
-      <c r="B61" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C61" t="str">
-        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
-      </c>
-      <c r="D61">
-        <v>6</v>
-      </c>
-      <c r="E61" t="str">
-        <v>B2</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="str">
-        <v>e9b44e3d-b117-4177-9184-2a6c05aafc0d</v>
-      </c>
-      <c r="B62" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C62" t="str">
-        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
-      </c>
-      <c r="D62">
-        <v>6</v>
-      </c>
-      <c r="E62" t="str">
-        <v>B3</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="str">
-        <v>2e7790c2-e046-4f69-8383-7e86a9f989e8</v>
-      </c>
-      <c r="B63" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C63" t="str">
-        <v>25370fa8-38bb-4172-9e02-23a59fcfd87a</v>
-      </c>
-      <c r="D63">
-        <v>6</v>
-      </c>
-      <c r="E63" t="str">
-        <v>B4</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="str">
-        <v>dc8114a5-568e-442c-ac93-a9218a23195a</v>
-      </c>
-      <c r="B64" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C64" t="str">
-        <v>5c31add6-7626-46c5-a3e1-0e452ead739d</v>
-      </c>
-      <c r="D64">
-        <v>6</v>
-      </c>
-      <c r="E64" t="str">
-        <v>B5</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="str">
-        <v>1dea9516-4a98-46b6-939e-59b2046af34f</v>
-      </c>
-      <c r="B65" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C65" t="str">
-        <v>cd648690-8cd1-44b6-be26-0521038f442f</v>
-      </c>
-      <c r="D65">
-        <v>6</v>
-      </c>
-      <c r="E65" t="str">
-        <v>C1</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="str">
-        <v>c3f44a12-7ccf-4585-b42c-377b2a1b2dec</v>
-      </c>
-      <c r="B66" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C66" t="str">
-        <v>939eed5c-b520-4a34-8d08-2243d6aa41c1</v>
-      </c>
-      <c r="D66">
-        <v>6</v>
-      </c>
-      <c r="E66" t="str">
-        <v>C2</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="str">
-        <v>aa138c32-1e88-43e8-b248-74dc8b04e2c0</v>
-      </c>
-      <c r="B67" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C67" t="str">
-        <v>1df33560-ebf2-41ec-995c-52f3f1df78d5</v>
-      </c>
-      <c r="D67">
-        <v>6</v>
-      </c>
-      <c r="E67" t="str">
-        <v>C3</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="str">
-        <v>ad9823e0-3a8a-4261-bb8c-bbcd64ab94a4</v>
-      </c>
-      <c r="B68" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C68" t="str">
-        <v>7bfb9432-4b59-4ceb-895d-e03ae4837f91</v>
-      </c>
-      <c r="D68">
-        <v>6</v>
-      </c>
-      <c r="E68" t="str">
-        <v>C4</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="str">
-        <v>cc88f8de-1d09-4e0c-bcf9-e59826b292cf</v>
-      </c>
-      <c r="B69" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C69" t="str">
-        <v>39b7a0a4-be8b-49f1-a5af-c5a105e0ab58</v>
-      </c>
-      <c r="D69">
-        <v>6</v>
-      </c>
-      <c r="E69" t="str">
-        <v>D1</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="str">
-        <v>4cc77096-bab3-4e8d-8982-aff5388b572e</v>
-      </c>
-      <c r="B70" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C70" t="str">
-        <v>dd2de8e6-e7c9-40e4-8308-27a14e5f00da</v>
-      </c>
-      <c r="D70">
-        <v>6</v>
-      </c>
-      <c r="E70" t="str">
-        <v>D2</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="str">
-        <v>ffa08b2a-e6b0-45d7-ae9f-c7c00c9b581e</v>
-      </c>
-      <c r="B71" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C71" t="str">
-        <v>aa6fa282-9894-4b21-a871-c9725586c397</v>
-      </c>
-      <c r="D71">
-        <v>6</v>
-      </c>
-      <c r="E71" t="str">
-        <v>D3</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="str">
-        <v>6a9810cc-3d17-40fe-81ce-945400dd038f</v>
-      </c>
-      <c r="B72" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C72" t="str">
-        <v>d37f9e40-d1a2-4238-9089-80517a709859</v>
-      </c>
-      <c r="D72">
-        <v>6</v>
-      </c>
-      <c r="E72" t="str">
-        <v>D4</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="str">
-        <v>47ec0204-7cf6-4afb-9b9e-a91324cdf4a9</v>
-      </c>
-      <c r="B73" t="str">
-        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
-      </c>
-      <c r="C73" t="str">
-        <v>5a16ef0a-cce8-4d1b-bfa5-3892331170c1</v>
-      </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-      <c r="E73" t="str">
-        <v>A1</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H73"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H23"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/storage/backups/automatic-backup.xlsx
+++ b/storage/backups/automatic-backup.xlsx
@@ -718,25 +718,25 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>aa6fa282-9894-4b21-a871-c9725586c397</v>
+        <v>d37f9e40-d1a2-4238-9089-80517a709859</v>
       </c>
       <c r="B2" t="str">
-        <v>Audrey Thomas</v>
+        <v>Mia Roberts</v>
       </c>
       <c r="C2">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D2" t="str">
         <v>Female</v>
       </c>
       <c r="E2" t="str">
-        <v>audrey.thomas38@gmail.com</v>
+        <v>mia.roberts81@hotmail.com</v>
       </c>
       <c r="F2" t="str">
-        <v>0400 437 270</v>
+        <v>0412 368 553</v>
       </c>
       <c r="G2" t="str">
-        <v>Perth</v>
+        <v>Toowoomba</v>
       </c>
       <c r="H2" t="str">
         <v>C</v>
@@ -745,27 +745,27 @@
         <v>available</v>
       </c>
       <c r="J2" t="str">
-        <v>Hannah Torres</v>
+        <v>Paisley Scott</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>d37f9e40-d1a2-4238-9089-80517a709859</v>
+        <v>dd2de8e6-e7c9-40e4-8308-27a14e5f00da</v>
       </c>
       <c r="B3" t="str">
-        <v>Mia Roberts</v>
+        <v>Chloe Jones</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D3" t="str">
         <v>Female</v>
       </c>
       <c r="E3" t="str">
-        <v>mia.roberts81@hotmail.com</v>
+        <v>chloe.jones20@outlook.com</v>
       </c>
       <c r="F3" t="str">
-        <v>0412 368 553</v>
+        <v>0411 294 635</v>
       </c>
       <c r="G3" t="str">
         <v>Toowoomba</v>
@@ -777,100 +777,106 @@
         <v>available</v>
       </c>
       <c r="J3" t="str">
-        <v>Paisley Scott</v>
+        <v>Zoe Brown</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>dd2de8e6-e7c9-40e4-8308-27a14e5f00da</v>
+        <v>df712cc5-31d8-4341-b177-6603bf089235</v>
       </c>
       <c r="B4" t="str">
-        <v>Chloe Jones</v>
+        <v>Samuel King</v>
       </c>
       <c r="C4">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D4" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E4" t="str">
-        <v>chloe.jones20@outlook.com</v>
+        <v>samuel.king24@yahoo.com</v>
       </c>
       <c r="F4" t="str">
-        <v>0411 294 635</v>
+        <v>0400 774 736</v>
       </c>
       <c r="G4" t="str">
-        <v>Toowoomba</v>
+        <v>Newcastle</v>
       </c>
       <c r="H4" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I4" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J4" t="str">
-        <v>Zoe Brown</v>
+        <v/>
+      </c>
+      <c r="L4" t="str">
+        <v>afasdf</v>
+      </c>
+      <c r="M4" t="str">
+        <v>sdfasdfa</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>292da493-0524-4ee4-b911-1bb34e328b8c</v>
+        <v>0669e014-c952-45fd-9791-36cbe1d51444</v>
       </c>
       <c r="B5" t="str">
-        <v>Jackson Young</v>
+        <v>Sofia Williams</v>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D5" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E5" t="str">
-        <v>jackson.young79@yahoo.com</v>
+        <v>sofia.williams39@yahoo.com</v>
       </c>
       <c r="F5" t="str">
-        <v>0412 940 993</v>
+        <v>0403 299 421</v>
       </c>
       <c r="G5" t="str">
-        <v>Ballarat</v>
+        <v>Geelong</v>
       </c>
       <c r="H5" t="str">
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="I5" t="str">
         <v>assigned</v>
+      </c>
+      <c r="J5" t="str">
+        <v>Maya Moore</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>992418b2-3029-4752-9552-0aa886433657</v>
+        <v>292da493-0524-4ee4-b911-1bb34e328b8c</v>
       </c>
       <c r="B6" t="str">
-        <v>Zoe Brown</v>
+        <v>Jackson Young</v>
       </c>
       <c r="C6">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D6" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E6" t="str">
-        <v>zoe.brown45@outlook.com</v>
+        <v>jackson.young79@yahoo.com</v>
       </c>
       <c r="F6" t="str">
-        <v>0401 578 107</v>
+        <v>0412 940 993</v>
       </c>
       <c r="G6" t="str">
-        <v>Sydney</v>
+        <v>Ballarat</v>
       </c>
       <c r="H6" t="str">
         <v>B+</v>
       </c>
       <c r="I6" t="str">
-        <v>available</v>
-      </c>
-      <c r="J6" t="str">
-        <v>Chloe Jones</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="7">
@@ -931,7 +937,7 @@
         <v>B+</v>
       </c>
       <c r="I8" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J8" t="str">
         <v>Audrey Thomas</v>
@@ -968,95 +974,98 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>0669e014-c952-45fd-9791-36cbe1d51444</v>
+        <v>42504e80-d5df-4b97-a283-eb96728c425f</v>
       </c>
       <c r="B10" t="str">
-        <v>Sofia Williams</v>
+        <v>Ella Anderson</v>
       </c>
       <c r="C10">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D10" t="str">
         <v>Female</v>
       </c>
       <c r="E10" t="str">
-        <v>sofia.williams39@yahoo.com</v>
+        <v>ella.anderson1@yahoo.com</v>
       </c>
       <c r="F10" t="str">
-        <v>0403 299 421</v>
+        <v>0412 908 910</v>
       </c>
       <c r="G10" t="str">
         <v>Geelong</v>
       </c>
       <c r="H10" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="I10" t="str">
         <v>available</v>
       </c>
       <c r="J10" t="str">
-        <v>Maya Moore</v>
+        <v>Isabella Brown</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>42504e80-d5df-4b97-a283-eb96728c425f</v>
+        <v>aa6fa282-9894-4b21-a871-c9725586c397</v>
       </c>
       <c r="B11" t="str">
-        <v>Ella Anderson</v>
+        <v>Audrey Thomas</v>
       </c>
       <c r="C11">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D11" t="str">
         <v>Female</v>
       </c>
       <c r="E11" t="str">
-        <v>ella.anderson1@yahoo.com</v>
+        <v>audrey.thomas38@gmail.com</v>
       </c>
       <c r="F11" t="str">
-        <v>0412 908 910</v>
+        <v>0400 437 270</v>
       </c>
       <c r="G11" t="str">
-        <v>Geelong</v>
+        <v>Perth</v>
       </c>
       <c r="H11" t="str">
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="I11" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J11" t="str">
-        <v>Isabella Brown</v>
+        <v>Hannah Torres</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>df712cc5-31d8-4341-b177-6603bf089235</v>
+        <v>992418b2-3029-4752-9552-0aa886433657</v>
       </c>
       <c r="B12" t="str">
-        <v>Samuel King</v>
+        <v>Zoe Brown</v>
       </c>
       <c r="C12">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D12" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E12" t="str">
-        <v>samuel.king24@yahoo.com</v>
+        <v>zoe.brown45@outlook.com</v>
       </c>
       <c r="F12" t="str">
-        <v>0400 774 736</v>
+        <v>0401 578 107</v>
       </c>
       <c r="G12" t="str">
-        <v>Newcastle</v>
+        <v>Sydney</v>
       </c>
       <c r="H12" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I12" t="str">
         <v>assigned</v>
+      </c>
+      <c r="J12" t="str">
+        <v>Chloe Jones</v>
       </c>
     </row>
     <row r="13">
@@ -1643,28 +1652,28 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>0a153155-dcf5-4d56-9ed1-8960501157f8</v>
+        <v>9efd8ec8-0e91-45d9-804b-518939fbac76</v>
       </c>
       <c r="B31" t="str">
-        <v>Aurora Gonzalez</v>
+        <v>Noah Hernandez</v>
       </c>
       <c r="C31">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D31" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E31" t="str">
-        <v>aurora.gonzalez29@outlook.com</v>
+        <v>noah.hernandez9@hotmail.com</v>
       </c>
       <c r="F31" t="str">
-        <v>0404 610 172</v>
+        <v>0404 855 230</v>
       </c>
       <c r="G31" t="str">
-        <v>Toowoomba</v>
+        <v>Cairns</v>
       </c>
       <c r="H31" t="str">
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="I31" t="str">
         <v>assigned</v>
@@ -1672,25 +1681,25 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>adfcb6e3-82cb-46b9-8fb8-069fb91e2d4f</v>
+        <v>0a153155-dcf5-4d56-9ed1-8960501157f8</v>
       </c>
       <c r="B32" t="str">
-        <v>Mason Hill</v>
+        <v>Aurora Gonzalez</v>
       </c>
       <c r="C32">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D32" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E32" t="str">
-        <v>mason.hill27@outlook.com</v>
+        <v>aurora.gonzalez29@outlook.com</v>
       </c>
       <c r="F32" t="str">
-        <v>0410 682 884</v>
+        <v>0404 610 172</v>
       </c>
       <c r="G32" t="str">
-        <v>Canberra</v>
+        <v>Toowoomba</v>
       </c>
       <c r="H32" t="str">
         <v>A</v>
@@ -1701,28 +1710,28 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>f5233693-d357-4cac-a660-70ef0398a969</v>
+        <v>adfcb6e3-82cb-46b9-8fb8-069fb91e2d4f</v>
       </c>
       <c r="B33" t="str">
-        <v>Nathan Allen</v>
+        <v>Mason Hill</v>
       </c>
       <c r="C33">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D33" t="str">
         <v>Male</v>
       </c>
       <c r="E33" t="str">
-        <v>nathan.allen87@outlook.com</v>
+        <v>mason.hill27@outlook.com</v>
       </c>
       <c r="F33" t="str">
-        <v>0403 587 263</v>
+        <v>0410 682 884</v>
       </c>
       <c r="G33" t="str">
-        <v>Adelaide</v>
+        <v>Canberra</v>
       </c>
       <c r="H33" t="str">
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="I33" t="str">
         <v>assigned</v>
@@ -1730,25 +1739,25 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>9b54470e-fe91-4ebb-b0aa-becf22a8cc3c</v>
+        <v>f5233693-d357-4cac-a660-70ef0398a969</v>
       </c>
       <c r="B34" t="str">
-        <v>Abigail Jackson</v>
+        <v>Nathan Allen</v>
       </c>
       <c r="C34">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="D34" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E34" t="str">
-        <v>abigail.jackson65@outlook.com</v>
+        <v>nathan.allen87@outlook.com</v>
       </c>
       <c r="F34" t="str">
-        <v>0411 824 257</v>
+        <v>0403 587 263</v>
       </c>
       <c r="G34" t="str">
-        <v>Newcastle</v>
+        <v>Adelaide</v>
       </c>
       <c r="H34" t="str">
         <v>B+</v>
@@ -1759,28 +1768,28 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>3d2128a1-336f-41e1-973b-b5dd54d90b19</v>
+        <v>9b54470e-fe91-4ebb-b0aa-becf22a8cc3c</v>
       </c>
       <c r="B35" t="str">
-        <v>Nova Brown</v>
+        <v>Abigail Jackson</v>
       </c>
       <c r="C35">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="D35" t="str">
         <v>Female</v>
       </c>
       <c r="E35" t="str">
-        <v>nova.brown80@outlook.com</v>
+        <v>abigail.jackson65@outlook.com</v>
       </c>
       <c r="F35" t="str">
-        <v>0411 154 614</v>
+        <v>0411 824 257</v>
       </c>
       <c r="G35" t="str">
-        <v>Ballarat</v>
+        <v>Newcastle</v>
       </c>
       <c r="H35" t="str">
-        <v>A</v>
+        <v>B+</v>
       </c>
       <c r="I35" t="str">
         <v>assigned</v>
@@ -1788,188 +1797,185 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>c4e002c2-94ef-471f-b43d-e6b2a8d35a1c</v>
+        <v>3d2128a1-336f-41e1-973b-b5dd54d90b19</v>
       </c>
       <c r="B36" t="str">
-        <v>Paisley Scott</v>
+        <v>Nova Brown</v>
       </c>
       <c r="C36">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="D36" t="str">
         <v>Female</v>
       </c>
       <c r="E36" t="str">
-        <v>paisley.scott78@yahoo.com</v>
+        <v>nova.brown80@outlook.com</v>
       </c>
       <c r="F36" t="str">
-        <v>0410 215 419</v>
+        <v>0411 154 614</v>
       </c>
       <c r="G36" t="str">
         <v>Ballarat</v>
       </c>
       <c r="H36" t="str">
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="I36" t="str">
-        <v>available</v>
-      </c>
-      <c r="J36" t="str">
-        <v>Mia Roberts</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>da957311-60b3-4bfc-b980-ac0506dccd20</v>
+        <v>0bb2a1aa-a74d-4711-a2ea-609663a77b4d</v>
       </c>
       <c r="B37" t="str">
-        <v>Stella Garcia</v>
+        <v>Carter Harris</v>
       </c>
       <c r="C37">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D37" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E37" t="str">
-        <v>stella.garcia89@hotmail.com</v>
+        <v>carter.harris82@yahoo.com</v>
       </c>
       <c r="F37" t="str">
-        <v>0403 655 540</v>
+        <v>0412 175 744</v>
       </c>
       <c r="G37" t="str">
-        <v>Toowoomba</v>
+        <v>Geelong</v>
       </c>
       <c r="H37" t="str">
-        <v>B+</v>
+        <v>C</v>
       </c>
       <c r="I37" t="str">
-        <v>available</v>
-      </c>
-      <c r="J37" t="str">
-        <v>Emily Thomas</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>9efd8ec8-0e91-45d9-804b-518939fbac76</v>
+        <v>c4e002c2-94ef-471f-b43d-e6b2a8d35a1c</v>
       </c>
       <c r="B38" t="str">
-        <v>Noah Hernandez</v>
+        <v>Paisley Scott</v>
       </c>
       <c r="C38">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D38" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E38" t="str">
-        <v>noah.hernandez9@hotmail.com</v>
+        <v>paisley.scott78@yahoo.com</v>
       </c>
       <c r="F38" t="str">
-        <v>0404 855 230</v>
+        <v>0410 215 419</v>
       </c>
       <c r="G38" t="str">
-        <v>Cairns</v>
+        <v>Ballarat</v>
       </c>
       <c r="H38" t="str">
-        <v>C</v>
+        <v>B+</v>
       </c>
       <c r="I38" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="J38" t="str">
+        <v>Mia Roberts</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>0bb2a1aa-a74d-4711-a2ea-609663a77b4d</v>
+        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
       </c>
       <c r="B39" t="str">
-        <v>Carter Harris</v>
+        <v>Felicity Parker-Hill</v>
       </c>
       <c r="C39">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="D39" t="str">
-        <v>Male</v>
+        <v>Not Specified</v>
       </c>
       <c r="E39" t="str">
-        <v>carter.harris82@yahoo.com</v>
+        <v>felicity.parkerhill@endemolshine.com.au</v>
       </c>
       <c r="F39" t="str">
-        <v>0412 175 744</v>
+        <v>498086080</v>
       </c>
       <c r="G39" t="str">
-        <v>Geelong</v>
+        <v>Melbourne</v>
       </c>
       <c r="H39" t="str">
-        <v>C</v>
+        <v/>
       </c>
       <c r="I39" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="J39" t="str">
+        <v>Peter Adamidis, Kathleen Reynolds</v>
+      </c>
+      <c r="K39" t="str">
+        <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
+      </c>
+      <c r="L39" t="str">
+        <v>N</v>
+      </c>
+      <c r="M39" t="str">
+        <v>N/A</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
+        <v>d609a3ee-08af-4d16-aa51-c67e35cfa5c9</v>
       </c>
       <c r="B40" t="str">
-        <v>Felicity Parker-Hill</v>
+        <v>Ryan Williams</v>
       </c>
       <c r="C40">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D40" t="str">
-        <v>Not Specified</v>
+        <v>Male</v>
       </c>
       <c r="E40" t="str">
-        <v>felicity.parkerhill@endemolshine.com.au</v>
+        <v>ryan.williams82@hotmail.com</v>
       </c>
       <c r="F40" t="str">
-        <v>498086080</v>
+        <v>0401 450 673</v>
       </c>
       <c r="G40" t="str">
-        <v>Melbourne</v>
+        <v>Perth</v>
       </c>
       <c r="H40" t="str">
-        <v/>
+        <v>B+</v>
       </c>
       <c r="I40" t="str">
         <v>assigned</v>
-      </c>
-      <c r="J40" t="str">
-        <v>Peter Adamidis, Kathleen Reynolds</v>
-      </c>
-      <c r="K40" t="str">
-        <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
-      </c>
-      <c r="L40" t="str">
-        <v>N</v>
-      </c>
-      <c r="M40" t="str">
-        <v>N/A</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>d609a3ee-08af-4d16-aa51-c67e35cfa5c9</v>
+        <v>efe20d3d-2162-4ff8-a8ff-4102e5d3f3ab</v>
       </c>
       <c r="B41" t="str">
-        <v>Ryan Williams</v>
+        <v>Cameron Lee</v>
       </c>
       <c r="C41">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D41" t="str">
         <v>Male</v>
       </c>
       <c r="E41" t="str">
-        <v>ryan.williams82@hotmail.com</v>
+        <v>cameron.lee78@yahoo.com</v>
       </c>
       <c r="F41" t="str">
-        <v>0401 450 673</v>
+        <v>0404 821 708</v>
       </c>
       <c r="G41" t="str">
-        <v>Perth</v>
+        <v>Cairns</v>
       </c>
       <c r="H41" t="str">
         <v>B+</v>
@@ -1980,31 +1986,34 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>efe20d3d-2162-4ff8-a8ff-4102e5d3f3ab</v>
+        <v>da957311-60b3-4bfc-b980-ac0506dccd20</v>
       </c>
       <c r="B42" t="str">
-        <v>Cameron Lee</v>
+        <v>Stella Garcia</v>
       </c>
       <c r="C42">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D42" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E42" t="str">
-        <v>cameron.lee78@yahoo.com</v>
+        <v>stella.garcia89@hotmail.com</v>
       </c>
       <c r="F42" t="str">
-        <v>0404 821 708</v>
+        <v>0403 655 540</v>
       </c>
       <c r="G42" t="str">
-        <v>Cairns</v>
+        <v>Toowoomba</v>
       </c>
       <c r="H42" t="str">
         <v>B+</v>
       </c>
       <c r="I42" t="str">
         <v>assigned</v>
+      </c>
+      <c r="J42" t="str">
+        <v>Emily Thomas</v>
       </c>
     </row>
     <row r="43">
@@ -2201,208 +2210,205 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>a2ff3ad7-7964-4523-bf18-ce9994a910da</v>
+        <v>6591420b-4762-4d90-b738-8a5b70458c40</v>
       </c>
       <c r="B49" t="str">
-        <v>Nora Mitchell</v>
+        <v>Aurora Hill</v>
       </c>
       <c r="C49">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D49" t="str">
         <v>Female</v>
       </c>
       <c r="E49" t="str">
-        <v>nora.mitchell66@outlook.com</v>
+        <v>aurora.hill33@hotmail.com</v>
       </c>
       <c r="F49" t="str">
-        <v>0412 196 419</v>
+        <v>0410 373 844</v>
       </c>
       <c r="G49" t="str">
-        <v>Adelaide</v>
+        <v>Gold Coast</v>
       </c>
       <c r="H49" t="str">
-        <v>C</v>
+        <v>B+</v>
       </c>
       <c r="I49" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>47cc1288-cbc0-4159-a52d-924c8912434d</v>
+        <v>cd648690-8cd1-44b6-be26-0521038f442f</v>
       </c>
       <c r="B50" t="str">
-        <v>Stella Martinez</v>
+        <v>Stella Hall</v>
       </c>
       <c r="C50">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D50" t="str">
         <v>Female</v>
       </c>
       <c r="E50" t="str">
-        <v>stella.martinez75@gmail.com</v>
+        <v>stella.hall72@gmail.com</v>
       </c>
       <c r="F50" t="str">
-        <v>0404 227 272</v>
+        <v>0410 133 818</v>
       </c>
       <c r="G50" t="str">
-        <v>Ballarat</v>
+        <v>Wollongong</v>
       </c>
       <c r="H50" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I50" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>f68d2771-4820-4fef-b156-093280aeea67</v>
+        <v>bb319a54-7dbf-4a05-bd7f-8f2f6aa6b414</v>
       </c>
       <c r="B51" t="str">
-        <v>Aria Nguyen</v>
+        <v>Isabella Brown</v>
       </c>
       <c r="C51">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="D51" t="str">
         <v>Female</v>
       </c>
       <c r="E51" t="str">
-        <v>aria.nguyen36@gmail.com</v>
+        <v>isabella.brown43@outlook.com</v>
       </c>
       <c r="F51" t="str">
-        <v>0401 618 716</v>
+        <v>0403 771 690</v>
       </c>
       <c r="G51" t="str">
-        <v>Sydney</v>
+        <v>Darwin</v>
       </c>
       <c r="H51" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I51" t="str">
         <v>available</v>
       </c>
+      <c r="J51" t="str">
+        <v>Ella Anderson</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>bb319a54-7dbf-4a05-bd7f-8f2f6aa6b414</v>
+        <v>32ffeaf9-5f22-4db7-a70b-cbaab834db0d</v>
       </c>
       <c r="B52" t="str">
-        <v>Isabella Brown</v>
+        <v>Isabella Hill</v>
       </c>
       <c r="C52">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D52" t="str">
         <v>Female</v>
       </c>
       <c r="E52" t="str">
-        <v>isabella.brown43@outlook.com</v>
+        <v>isabella.hill77@hotmail.com</v>
       </c>
       <c r="F52" t="str">
-        <v>0403 771 690</v>
+        <v>0412 663 356</v>
       </c>
       <c r="G52" t="str">
         <v>Darwin</v>
       </c>
       <c r="H52" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I52" t="str">
-        <v>available</v>
-      </c>
-      <c r="J52" t="str">
-        <v>Ella Anderson</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>cd648690-8cd1-44b6-be26-0521038f442f</v>
+        <v>ee7f9d33-09d6-417b-a45f-3e6554489f5b</v>
       </c>
       <c r="B53" t="str">
-        <v>Stella Hall</v>
+        <v>Dylan Miller</v>
       </c>
       <c r="C53">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="D53" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E53" t="str">
-        <v>stella.hall72@gmail.com</v>
+        <v>dylan.miller23@hotmail.com</v>
       </c>
       <c r="F53" t="str">
-        <v>0410 133 818</v>
+        <v>0402 417 876</v>
       </c>
       <c r="G53" t="str">
-        <v>Wollongong</v>
+        <v>Melbourne</v>
       </c>
       <c r="H53" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="I53" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>939eed5c-b520-4a34-8d08-2243d6aa41c1</v>
+        <v>3db7cdb3-9a92-467c-b554-d23b524f42f5</v>
       </c>
       <c r="B54" t="str">
-        <v>Andrew Garcia</v>
+        <v>Claire Campbell</v>
       </c>
       <c r="C54">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D54" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E54" t="str">
-        <v>andrew.garcia26@hotmail.com</v>
+        <v>claire.campbell9@outlook.com</v>
       </c>
       <c r="F54" t="str">
-        <v>0400 450 222</v>
+        <v>0401 164 490</v>
       </c>
       <c r="G54" t="str">
         <v>Darwin</v>
       </c>
       <c r="H54" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I54" t="str">
-        <v>available</v>
-      </c>
-      <c r="M54" t="str">
-        <v>Limited mobility - prefers ground floor seating</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>ee7f9d33-09d6-417b-a45f-3e6554489f5b</v>
+        <v>25370fa8-38bb-4172-9e02-23a59fcfd87a</v>
       </c>
       <c r="B55" t="str">
-        <v>Dylan Miller</v>
+        <v>Carter Hill</v>
       </c>
       <c r="C55">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D55" t="str">
         <v>Male</v>
       </c>
       <c r="E55" t="str">
-        <v>dylan.miller23@hotmail.com</v>
+        <v>carter.hill93@gmail.com</v>
       </c>
       <c r="F55" t="str">
-        <v>0402 417 876</v>
+        <v>0404 349 309</v>
       </c>
       <c r="G55" t="str">
-        <v>Melbourne</v>
+        <v>Newcastle</v>
       </c>
       <c r="H55" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="I55" t="str">
         <v>assigned</v>
@@ -2410,28 +2416,28 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>3db7cdb3-9a92-467c-b554-d23b524f42f5</v>
+        <v>5c31add6-7626-46c5-a3e1-0e452ead739d</v>
       </c>
       <c r="B56" t="str">
-        <v>Claire Campbell</v>
+        <v>Charles Torres</v>
       </c>
       <c r="C56">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="D56" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E56" t="str">
-        <v>claire.campbell9@outlook.com</v>
+        <v>charles.torres98@outlook.com</v>
       </c>
       <c r="F56" t="str">
-        <v>0401 164 490</v>
+        <v>0401 744 176</v>
       </c>
       <c r="G56" t="str">
-        <v>Darwin</v>
+        <v>Wollongong</v>
       </c>
       <c r="H56" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I56" t="str">
         <v>assigned</v>
@@ -2465,60 +2471,69 @@
       <c r="I57" t="str">
         <v>assigned</v>
       </c>
+      <c r="J57" t="str">
+        <v/>
+      </c>
+      <c r="L57" t="str">
+        <v>sdfasdf</v>
+      </c>
+      <c r="M57" t="str">
+        <v>sdfasdfa</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>25370fa8-38bb-4172-9e02-23a59fcfd87a</v>
+        <v>34685ff7-6e85-4bbd-b546-77cfe11d7f7d</v>
       </c>
       <c r="B58" t="str">
-        <v>Carter Hill</v>
+        <v>Grace Walker</v>
       </c>
       <c r="C58">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="D58" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E58" t="str">
-        <v>carter.hill93@gmail.com</v>
+        <v>grace.walker52@hotmail.com</v>
       </c>
       <c r="F58" t="str">
-        <v>0404 349 309</v>
+        <v>0412 754 780</v>
       </c>
       <c r="G58" t="str">
-        <v>Newcastle</v>
+        <v>Canberra</v>
       </c>
       <c r="H58" t="str">
-        <v>B</v>
+        <v>A+</v>
       </c>
       <c r="I58" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>5c31add6-7626-46c5-a3e1-0e452ead739d</v>
+        <v>a2ff3ad7-7964-4523-bf18-ce9994a910da</v>
       </c>
       <c r="B59" t="str">
-        <v>Charles Torres</v>
+        <v>Nora Mitchell</v>
       </c>
       <c r="C59">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D59" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E59" t="str">
-        <v>charles.torres98@outlook.com</v>
+        <v>nora.mitchell66@outlook.com</v>
       </c>
       <c r="F59" t="str">
-        <v>0401 744 176</v>
+        <v>0412 196 419</v>
       </c>
       <c r="G59" t="str">
-        <v>Wollongong</v>
+        <v>Adelaide</v>
       </c>
       <c r="H59" t="str">
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="I59" t="str">
         <v>assigned</v>
@@ -2526,182 +2541,185 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>34685ff7-6e85-4bbd-b546-77cfe11d7f7d</v>
+        <v>47cc1288-cbc0-4159-a52d-924c8912434d</v>
       </c>
       <c r="B60" t="str">
-        <v>Grace Walker</v>
+        <v>Stella Martinez</v>
       </c>
       <c r="C60">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D60" t="str">
         <v>Female</v>
       </c>
       <c r="E60" t="str">
-        <v>grace.walker52@hotmail.com</v>
+        <v>stella.martinez75@gmail.com</v>
       </c>
       <c r="F60" t="str">
-        <v>0412 754 780</v>
+        <v>0404 227 272</v>
       </c>
       <c r="G60" t="str">
-        <v>Canberra</v>
+        <v>Ballarat</v>
       </c>
       <c r="H60" t="str">
-        <v>A+</v>
+        <v>C</v>
       </c>
       <c r="I60" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>1df33560-ebf2-41ec-995c-52f3f1df78d5</v>
+        <v>f68d2771-4820-4fef-b156-093280aeea67</v>
       </c>
       <c r="B61" t="str">
-        <v>Genesis Jones</v>
+        <v>Aria Nguyen</v>
       </c>
       <c r="C61">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D61" t="str">
         <v>Female</v>
       </c>
       <c r="E61" t="str">
-        <v>genesis.jones50@yahoo.com</v>
+        <v>aria.nguyen36@gmail.com</v>
       </c>
       <c r="F61" t="str">
-        <v>0404 967 604</v>
+        <v>0401 618 716</v>
       </c>
       <c r="G61" t="str">
         <v>Sydney</v>
       </c>
       <c r="H61" t="str">
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="I61" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>6591420b-4762-4d90-b738-8a5b70458c40</v>
+        <v>b8c1889f-fd66-4304-90d7-bd50422cbc52</v>
       </c>
       <c r="B62" t="str">
-        <v>Aurora Hill</v>
+        <v>Maya Moore</v>
       </c>
       <c r="C62">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D62" t="str">
         <v>Female</v>
       </c>
       <c r="E62" t="str">
-        <v>aurora.hill33@hotmail.com</v>
+        <v>maya.moore54@outlook.com</v>
       </c>
       <c r="F62" t="str">
-        <v>0410 373 844</v>
+        <v>0400 718 585</v>
       </c>
       <c r="G62" t="str">
-        <v>Gold Coast</v>
+        <v>Toowoomba</v>
       </c>
       <c r="H62" t="str">
-        <v>B+</v>
+        <v>C</v>
       </c>
       <c r="I62" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="J62" t="str">
+        <v>Sofia Williams</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>32ffeaf9-5f22-4db7-a70b-cbaab834db0d</v>
+        <v>939eed5c-b520-4a34-8d08-2243d6aa41c1</v>
       </c>
       <c r="B63" t="str">
-        <v>Isabella Hill</v>
+        <v>Andrew Garcia</v>
       </c>
       <c r="C63">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D63" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E63" t="str">
-        <v>isabella.hill77@hotmail.com</v>
+        <v>andrew.garcia26@hotmail.com</v>
       </c>
       <c r="F63" t="str">
-        <v>0412 663 356</v>
+        <v>0400 450 222</v>
       </c>
       <c r="G63" t="str">
         <v>Darwin</v>
       </c>
       <c r="H63" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I63" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="M63" t="str">
+        <v>Limited mobility - prefers ground floor seating</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>da40ad70-95be-413c-b0f1-d089ef285cc8</v>
+        <v>1df33560-ebf2-41ec-995c-52f3f1df78d5</v>
       </c>
       <c r="B64" t="str">
-        <v>Emily Smith</v>
+        <v>Genesis Jones</v>
       </c>
       <c r="C64">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D64" t="str">
         <v>Female</v>
       </c>
       <c r="E64" t="str">
-        <v>emily.smith56@hotmail.com</v>
+        <v>genesis.jones50@yahoo.com</v>
       </c>
       <c r="F64" t="str">
-        <v>0410 101 780</v>
+        <v>0404 967 604</v>
       </c>
       <c r="G64" t="str">
-        <v>Toowoomba</v>
+        <v>Sydney</v>
       </c>
       <c r="H64" t="str">
-        <v>A+</v>
+        <v>B</v>
       </c>
       <c r="I64" t="str">
-        <v>available</v>
-      </c>
-      <c r="M64" t="str">
-        <v>Limited mobility - prefers ground floor seating</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>b8c1889f-fd66-4304-90d7-bd50422cbc52</v>
+        <v>da40ad70-95be-413c-b0f1-d089ef285cc8</v>
       </c>
       <c r="B65" t="str">
-        <v>Maya Moore</v>
+        <v>Emily Smith</v>
       </c>
       <c r="C65">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D65" t="str">
         <v>Female</v>
       </c>
       <c r="E65" t="str">
-        <v>maya.moore54@outlook.com</v>
+        <v>emily.smith56@hotmail.com</v>
       </c>
       <c r="F65" t="str">
-        <v>0400 718 585</v>
+        <v>0410 101 780</v>
       </c>
       <c r="G65" t="str">
         <v>Toowoomba</v>
       </c>
       <c r="H65" t="str">
-        <v>C</v>
+        <v>A+</v>
       </c>
       <c r="I65" t="str">
         <v>available</v>
       </c>
-      <c r="J65" t="str">
-        <v>Sofia Williams</v>
+      <c r="M65" t="str">
+        <v>Limited mobility - prefers ground floor seating</v>
       </c>
     </row>
     <row r="66">
@@ -2864,7 +2882,7 @@
         <v>B+</v>
       </c>
       <c r="I70" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="71">
@@ -2893,7 +2911,7 @@
         <v>C</v>
       </c>
       <c r="I71" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="M71" t="str">
         <v>Requires wheelchair access</v>
@@ -2925,7 +2943,7 @@
         <v>C</v>
       </c>
       <c r="I72" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="73">
@@ -2954,7 +2972,7 @@
         <v>C</v>
       </c>
       <c r="I73" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="74">
@@ -3015,7 +3033,7 @@
         <v>B+</v>
       </c>
       <c r="I75" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="76">
@@ -3055,853 +3073,853 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>adb0c362-d095-4bfd-98dc-c93920fd22d6</v>
+        <v>45c0fc2b-415d-475a-998d-934235565d6b</v>
       </c>
       <c r="B77" t="str">
-        <v>Victoria Torres</v>
+        <v>Scarlett Wright</v>
       </c>
       <c r="C77">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D77" t="str">
         <v>Female</v>
       </c>
       <c r="E77" t="str">
-        <v>victoria.torres48@outlook.com</v>
+        <v>scarlett.wright68@outlook.com</v>
       </c>
       <c r="F77" t="str">
-        <v>0411 539 271</v>
+        <v>0412 487 763</v>
       </c>
       <c r="G77" t="str">
-        <v>Geelong</v>
+        <v>Newcastle</v>
       </c>
       <c r="H77" t="str">
         <v>B</v>
       </c>
       <c r="I77" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>7664257a-dce4-407a-8f24-692043d568be</v>
+        <v>6ddd3228-f125-4d3e-88e2-157cd730b552</v>
       </c>
       <c r="B78" t="str">
-        <v>Nora Jackson</v>
+        <v>Theodore Nelson</v>
       </c>
       <c r="C78">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D78" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E78" t="str">
-        <v>nora.jackson83@hotmail.com</v>
+        <v>theodore.nelson79@gmail.com</v>
       </c>
       <c r="F78" t="str">
-        <v>0404 434 899</v>
+        <v>0403 813 793</v>
       </c>
       <c r="G78" t="str">
-        <v>Wollongong</v>
+        <v>Canberra</v>
       </c>
       <c r="H78" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I78" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>a8fa9125-28f1-47e1-adba-784701975e68</v>
+        <v>e15c67b6-0680-4284-a8aa-a525b34c592d</v>
       </c>
       <c r="B79" t="str">
-        <v>Abigail Williams</v>
+        <v>Aurora Williams</v>
       </c>
       <c r="C79">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="D79" t="str">
         <v>Female</v>
       </c>
       <c r="E79" t="str">
-        <v>abigail.williams45@yahoo.com</v>
+        <v>aurora.williams76@outlook.com</v>
       </c>
       <c r="F79" t="str">
-        <v>0403 497 445</v>
+        <v>0401 416 170</v>
       </c>
       <c r="G79" t="str">
-        <v>Toowoomba</v>
+        <v>Darwin</v>
       </c>
       <c r="H79" t="str">
         <v>C</v>
       </c>
       <c r="I79" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="M79" t="str">
+        <v>Uses walking cane</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>59bae9a1-93b9-471d-a2b7-074918634f6b</v>
+        <v>ad836319-db56-4a08-bca6-a8e3f19c37a8</v>
       </c>
       <c r="B80" t="str">
-        <v>Joshua Clark</v>
+        <v>Emily Johnson</v>
       </c>
       <c r="C80">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D80" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E80" t="str">
-        <v>joshua.clark16@outlook.com</v>
+        <v>emily.johnson58@hotmail.com</v>
       </c>
       <c r="F80" t="str">
-        <v>0403 901 485</v>
+        <v>0412 663 939</v>
       </c>
       <c r="G80" t="str">
-        <v>Sydney</v>
+        <v>Perth</v>
       </c>
       <c r="H80" t="str">
         <v>B</v>
       </c>
       <c r="I80" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>8956e289-91e9-4c15-bf2b-a13dee2fa476</v>
+        <v>40727c14-a30e-4e3b-8b64-0359d25efc0c</v>
       </c>
       <c r="B81" t="str">
-        <v>Landon Wright</v>
+        <v>Joshua Scott</v>
       </c>
       <c r="C81">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="D81" t="str">
         <v>Male</v>
       </c>
       <c r="E81" t="str">
-        <v>landon.wright36@outlook.com</v>
+        <v>joshua.scott95@outlook.com</v>
       </c>
       <c r="F81" t="str">
-        <v>0402 415 597</v>
+        <v>0410 137 561</v>
       </c>
       <c r="G81" t="str">
-        <v>Cairns</v>
+        <v>Canberra</v>
       </c>
       <c r="H81" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I81" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>2fa810c7-61d0-4519-a314-824cf0873e30</v>
+        <v>2811bf99-369b-4c0a-b5d6-4ff46cd7aa5e</v>
       </c>
       <c r="B82" t="str">
-        <v>Theodore Allen</v>
+        <v>Lucas Thomas</v>
       </c>
       <c r="C82">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D82" t="str">
         <v>Male</v>
       </c>
       <c r="E82" t="str">
-        <v>theodore.allen25@outlook.com</v>
+        <v>lucas.thomas30@yahoo.com</v>
       </c>
       <c r="F82" t="str">
-        <v>0400 438 819</v>
+        <v>0412 527 117</v>
       </c>
       <c r="G82" t="str">
-        <v>Newcastle</v>
+        <v>Brisbane</v>
       </c>
       <c r="H82" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I82" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>f9d68052-4310-45c2-a5a9-64c272347899</v>
+        <v>0e8f635e-8f06-4224-a2cc-4263ac307ba2</v>
       </c>
       <c r="B83" t="str">
-        <v>Christian Rivera</v>
+        <v>Joshua Jones</v>
       </c>
       <c r="C83">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="D83" t="str">
         <v>Male</v>
       </c>
       <c r="E83" t="str">
-        <v>christian.rivera86@hotmail.com</v>
+        <v>joshua.jones82@yahoo.com</v>
       </c>
       <c r="F83" t="str">
-        <v>0400 135 743</v>
+        <v>0400 652 840</v>
       </c>
       <c r="G83" t="str">
-        <v>Adelaide</v>
+        <v>Toowoomba</v>
       </c>
       <c r="H83" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I83" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>c1783cdf-a656-46b4-9331-4d9d18d40b51</v>
+        <v>7bfb9432-4b59-4ceb-895d-e03ae4837f91</v>
       </c>
       <c r="B84" t="str">
-        <v>Aurora Walker</v>
+        <v>Joshua Walker</v>
       </c>
       <c r="C84">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D84" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E84" t="str">
-        <v>aurora.walker1@outlook.com</v>
+        <v>joshua.walker97@gmail.com</v>
       </c>
       <c r="F84" t="str">
-        <v>0403 522 404</v>
+        <v>0402 640 379</v>
       </c>
       <c r="G84" t="str">
         <v>Darwin</v>
       </c>
       <c r="H84" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I84" t="str">
-        <v>available</v>
-      </c>
-      <c r="M84" t="str">
-        <v>Vision impaired - needs assistance</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>45c0fc2b-415d-475a-998d-934235565d6b</v>
+        <v>8774a9f4-b951-41cc-b6bd-809a709cb6ea</v>
       </c>
       <c r="B85" t="str">
-        <v>Scarlett Wright</v>
+        <v>Lily Walker</v>
       </c>
       <c r="C85">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="D85" t="str">
         <v>Female</v>
       </c>
       <c r="E85" t="str">
-        <v>scarlett.wright68@outlook.com</v>
+        <v>lily.walker96@outlook.com</v>
       </c>
       <c r="F85" t="str">
-        <v>0412 487 763</v>
+        <v>0410 155 426</v>
       </c>
       <c r="G85" t="str">
-        <v>Newcastle</v>
+        <v>Hobart</v>
       </c>
       <c r="H85" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I85" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>6ddd3228-f125-4d3e-88e2-157cd730b552</v>
+        <v>e166fd4f-73eb-4bea-b8be-3acdee4f9fdc</v>
       </c>
       <c r="B86" t="str">
-        <v>Theodore Nelson</v>
+        <v>Liam Lewis</v>
       </c>
       <c r="C86">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D86" t="str">
         <v>Male</v>
       </c>
       <c r="E86" t="str">
-        <v>theodore.nelson79@gmail.com</v>
+        <v>liam.lewis79@yahoo.com</v>
       </c>
       <c r="F86" t="str">
-        <v>0403 813 793</v>
+        <v>0404 203 198</v>
       </c>
       <c r="G86" t="str">
-        <v>Canberra</v>
+        <v>Hobart</v>
       </c>
       <c r="H86" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I86" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>ad836319-db56-4a08-bca6-a8e3f19c37a8</v>
+        <v>5331c6bd-19f8-416a-9166-06280a3c547e</v>
       </c>
       <c r="B87" t="str">
-        <v>Emily Johnson</v>
+        <v>Ethan Rodriguez</v>
       </c>
       <c r="C87">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="D87" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E87" t="str">
-        <v>emily.johnson58@hotmail.com</v>
+        <v>ethan.rodriguez60@hotmail.com</v>
       </c>
       <c r="F87" t="str">
-        <v>0412 663 939</v>
+        <v>0411 690 563</v>
       </c>
       <c r="G87" t="str">
-        <v>Perth</v>
+        <v>Townsville</v>
       </c>
       <c r="H87" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I87" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="M87" t="str">
+        <v>Hearing impaired - requires front row seating</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>d7b0dd51-8aea-4b32-bb8d-8b60271fc6c9</v>
+        <v>e2f70c5c-0a8d-4055-8281-2ad2ae2e0cd6</v>
       </c>
       <c r="B88" t="str">
-        <v>Jayden Nguyen</v>
+        <v>Stella Green</v>
       </c>
       <c r="C88">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D88" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E88" t="str">
-        <v>jayden.nguyen88@hotmail.com</v>
+        <v>stella.green92@gmail.com</v>
       </c>
       <c r="F88" t="str">
-        <v>0401 108 628</v>
+        <v>0404 230 858</v>
       </c>
       <c r="G88" t="str">
-        <v>Hobart</v>
+        <v>Wollongong</v>
       </c>
       <c r="H88" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="I88" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="J88" t="str">
+        <v>Everly Torres</v>
+      </c>
+      <c r="M88" t="str">
+        <v>Vision impaired - needs assistance</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>40727c14-a30e-4e3b-8b64-0359d25efc0c</v>
+        <v>adb0c362-d095-4bfd-98dc-c93920fd22d6</v>
       </c>
       <c r="B89" t="str">
-        <v>Joshua Scott</v>
+        <v>Victoria Torres</v>
       </c>
       <c r="C89">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D89" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E89" t="str">
-        <v>joshua.scott95@outlook.com</v>
+        <v>victoria.torres48@outlook.com</v>
       </c>
       <c r="F89" t="str">
-        <v>0410 137 561</v>
+        <v>0411 539 271</v>
       </c>
       <c r="G89" t="str">
-        <v>Canberra</v>
+        <v>Geelong</v>
       </c>
       <c r="H89" t="str">
         <v>B</v>
       </c>
       <c r="I89" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>2811bf99-369b-4c0a-b5d6-4ff46cd7aa5e</v>
+        <v>7664257a-dce4-407a-8f24-692043d568be</v>
       </c>
       <c r="B90" t="str">
-        <v>Lucas Thomas</v>
+        <v>Nora Jackson</v>
       </c>
       <c r="C90">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D90" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E90" t="str">
-        <v>lucas.thomas30@yahoo.com</v>
+        <v>nora.jackson83@hotmail.com</v>
       </c>
       <c r="F90" t="str">
-        <v>0412 527 117</v>
+        <v>0404 434 899</v>
       </c>
       <c r="G90" t="str">
-        <v>Brisbane</v>
+        <v>Wollongong</v>
       </c>
       <c r="H90" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I90" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>0e8f635e-8f06-4224-a2cc-4263ac307ba2</v>
+        <v>59bae9a1-93b9-471d-a2b7-074918634f6b</v>
       </c>
       <c r="B91" t="str">
-        <v>Joshua Jones</v>
+        <v>Joshua Clark</v>
       </c>
       <c r="C91">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D91" t="str">
         <v>Male</v>
       </c>
       <c r="E91" t="str">
-        <v>joshua.jones82@yahoo.com</v>
+        <v>joshua.clark16@outlook.com</v>
       </c>
       <c r="F91" t="str">
-        <v>0400 652 840</v>
+        <v>0403 901 485</v>
       </c>
       <c r="G91" t="str">
-        <v>Toowoomba</v>
+        <v>Sydney</v>
       </c>
       <c r="H91" t="str">
         <v>B</v>
       </c>
       <c r="I91" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>e15c67b6-0680-4284-a8aa-a525b34c592d</v>
+        <v>8956e289-91e9-4c15-bf2b-a13dee2fa476</v>
       </c>
       <c r="B92" t="str">
-        <v>Aurora Williams</v>
+        <v>Landon Wright</v>
       </c>
       <c r="C92">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D92" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E92" t="str">
-        <v>aurora.williams76@outlook.com</v>
+        <v>landon.wright36@outlook.com</v>
       </c>
       <c r="F92" t="str">
-        <v>0401 416 170</v>
+        <v>0402 415 597</v>
       </c>
       <c r="G92" t="str">
-        <v>Darwin</v>
+        <v>Cairns</v>
       </c>
       <c r="H92" t="str">
-        <v>C</v>
+        <v>B+</v>
       </c>
       <c r="I92" t="str">
-        <v>available</v>
-      </c>
-      <c r="M92" t="str">
-        <v>Uses walking cane</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>7bfb9432-4b59-4ceb-895d-e03ae4837f91</v>
+        <v>2fa810c7-61d0-4519-a314-824cf0873e30</v>
       </c>
       <c r="B93" t="str">
-        <v>Joshua Walker</v>
+        <v>Theodore Allen</v>
       </c>
       <c r="C93">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D93" t="str">
         <v>Male</v>
       </c>
       <c r="E93" t="str">
-        <v>joshua.walker97@gmail.com</v>
+        <v>theodore.allen25@outlook.com</v>
       </c>
       <c r="F93" t="str">
-        <v>0402 640 379</v>
+        <v>0400 438 819</v>
       </c>
       <c r="G93" t="str">
-        <v>Darwin</v>
+        <v>Newcastle</v>
       </c>
       <c r="H93" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I93" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>39b7a0a4-be8b-49f1-a5af-c5a105e0ab58</v>
+        <v>f9d68052-4310-45c2-a5a9-64c272347899</v>
       </c>
       <c r="B94" t="str">
-        <v>Joshua Carter</v>
+        <v>Christian Rivera</v>
       </c>
       <c r="C94">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D94" t="str">
         <v>Male</v>
       </c>
       <c r="E94" t="str">
-        <v>joshua.carter41@hotmail.com</v>
+        <v>christian.rivera86@hotmail.com</v>
       </c>
       <c r="F94" t="str">
-        <v>0404 538 442</v>
+        <v>0400 135 743</v>
       </c>
       <c r="G94" t="str">
-        <v>Wollongong</v>
+        <v>Adelaide</v>
       </c>
       <c r="H94" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I94" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
+        <v>ef94ff15-5215-4ecd-9ad1-9ac44fd0e56a</v>
       </c>
       <c r="B95" t="str">
-        <v>Peter Adamidis</v>
+        <v>Luke Flores</v>
       </c>
       <c r="C95">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="D95" t="str">
-        <v>Not Specified</v>
+        <v>Male</v>
       </c>
       <c r="E95" t="str">
-        <v>peter.adamidis@gmail.com</v>
+        <v>luke.flores39@hotmail.com</v>
       </c>
       <c r="F95" t="str">
-        <v>498086080</v>
+        <v>0403 225 544</v>
       </c>
       <c r="G95" t="str">
-        <v/>
+        <v>Melbourne</v>
       </c>
       <c r="H95" t="str">
-        <v/>
+        <v>B</v>
       </c>
       <c r="I95" t="str">
         <v>assigned</v>
-      </c>
-      <c r="J95" t="str">
-        <v>Kathleen Reynolds, Felicity Parker-Hill</v>
-      </c>
-      <c r="K95" t="str">
-        <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
-      </c>
-      <c r="L95" t="str">
-        <v>Y</v>
-      </c>
-      <c r="M95" t="str">
-        <v>Broken Leg</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
+        <v>c1783cdf-a656-46b4-9331-4d9d18d40b51</v>
       </c>
       <c r="B96" t="str">
-        <v>Kathleen Reynolds</v>
+        <v>Aurora Walker</v>
       </c>
       <c r="C96">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="D96" t="str">
-        <v>Not Specified</v>
+        <v>Female</v>
       </c>
       <c r="E96" t="str">
-        <v>kathleenmonicareynolds@gmail.com</v>
+        <v>aurora.walker1@outlook.com</v>
       </c>
       <c r="F96" t="str">
-        <v>498086080</v>
+        <v>0403 522 404</v>
       </c>
       <c r="G96" t="str">
-        <v>Footscray</v>
+        <v>Darwin</v>
       </c>
       <c r="H96" t="str">
-        <v/>
+        <v>B+</v>
       </c>
       <c r="I96" t="str">
         <v>assigned</v>
       </c>
-      <c r="J96" t="str">
-        <v>Peter Adamidis, Felicity Parker-Hill</v>
-      </c>
-      <c r="K96" t="str">
-        <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
-      </c>
-      <c r="L96" t="str">
-        <v>N</v>
-      </c>
       <c r="M96" t="str">
-        <v>N/A</v>
+        <v>Vision impaired - needs assistance</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>8774a9f4-b951-41cc-b6bd-809a709cb6ea</v>
+        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
       </c>
       <c r="B97" t="str">
-        <v>Lily Walker</v>
+        <v>Peter Adamidis</v>
       </c>
       <c r="C97">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="D97" t="str">
-        <v>Female</v>
+        <v>Not Specified</v>
       </c>
       <c r="E97" t="str">
-        <v>lily.walker96@outlook.com</v>
+        <v>peter.adamidis@gmail.com</v>
       </c>
       <c r="F97" t="str">
-        <v>0410 155 426</v>
+        <v>498086080</v>
       </c>
       <c r="G97" t="str">
-        <v>Hobart</v>
+        <v/>
       </c>
       <c r="H97" t="str">
-        <v>B+</v>
+        <v/>
       </c>
       <c r="I97" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="J97" t="str">
+        <v>Kathleen Reynolds, Felicity Parker-Hill</v>
+      </c>
+      <c r="K97" t="str">
+        <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
+      </c>
+      <c r="L97" t="str">
+        <v>Y</v>
+      </c>
+      <c r="M97" t="str">
+        <v>Broken Leg</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>df6c0d97-fd38-4b65-8765-b11a4939bd3b</v>
+        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
       </c>
       <c r="B98" t="str">
-        <v>Julian Rivera</v>
+        <v>Kathleen Reynolds</v>
       </c>
       <c r="C98">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D98" t="str">
-        <v>Male</v>
+        <v>Not Specified</v>
       </c>
       <c r="E98" t="str">
-        <v>julian.rivera31@outlook.com</v>
+        <v>kathleenmonicareynolds@gmail.com</v>
       </c>
       <c r="F98" t="str">
-        <v>0401 414 502</v>
+        <v>498086080</v>
       </c>
       <c r="G98" t="str">
-        <v>Perth</v>
+        <v>Footscray</v>
       </c>
       <c r="H98" t="str">
-        <v>B+</v>
+        <v/>
       </c>
       <c r="I98" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="J98" t="str">
+        <v>Peter Adamidis, Felicity Parker-Hill</v>
+      </c>
+      <c r="K98" t="str">
+        <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
+      </c>
+      <c r="L98" t="str">
+        <v>N</v>
+      </c>
+      <c r="M98" t="str">
+        <v>N/A</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>bf5a6984-f656-4e23-9646-85829e9daffe</v>
+        <v>d7b0dd51-8aea-4b32-bb8d-8b60271fc6c9</v>
       </c>
       <c r="B99" t="str">
-        <v>Scarlett Lopez</v>
+        <v>Jayden Nguyen</v>
       </c>
       <c r="C99">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D99" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E99" t="str">
-        <v>scarlett.lopez53@yahoo.com</v>
+        <v>jayden.nguyen88@hotmail.com</v>
       </c>
       <c r="F99" t="str">
-        <v>0400 509 641</v>
+        <v>0401 108 628</v>
       </c>
       <c r="G99" t="str">
-        <v>Sydney</v>
+        <v>Hobart</v>
       </c>
       <c r="H99" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I99" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>d6c29b29-46c2-458d-9ed6-9955afb17b95</v>
+        <v>a8fa9125-28f1-47e1-adba-784701975e68</v>
       </c>
       <c r="B100" t="str">
-        <v>Ethan Taylor</v>
+        <v>Abigail Williams</v>
       </c>
       <c r="C100">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="D100" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E100" t="str">
-        <v>ethan.taylor22@yahoo.com</v>
+        <v>abigail.williams45@yahoo.com</v>
       </c>
       <c r="F100" t="str">
-        <v>0410 363 173</v>
+        <v>0403 497 445</v>
       </c>
       <c r="G100" t="str">
-        <v>Adelaide</v>
+        <v>Toowoomba</v>
       </c>
       <c r="H100" t="str">
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="I100" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>e166fd4f-73eb-4bea-b8be-3acdee4f9fdc</v>
+        <v>39b7a0a4-be8b-49f1-a5af-c5a105e0ab58</v>
       </c>
       <c r="B101" t="str">
-        <v>Liam Lewis</v>
+        <v>Joshua Carter</v>
       </c>
       <c r="C101">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="D101" t="str">
         <v>Male</v>
       </c>
       <c r="E101" t="str">
-        <v>liam.lewis79@yahoo.com</v>
+        <v>joshua.carter41@hotmail.com</v>
       </c>
       <c r="F101" t="str">
-        <v>0404 203 198</v>
+        <v>0404 538 442</v>
       </c>
       <c r="G101" t="str">
-        <v>Hobart</v>
+        <v>Wollongong</v>
       </c>
       <c r="H101" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I101" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>5331c6bd-19f8-416a-9166-06280a3c547e</v>
+        <v>df6c0d97-fd38-4b65-8765-b11a4939bd3b</v>
       </c>
       <c r="B102" t="str">
-        <v>Ethan Rodriguez</v>
+        <v>Julian Rivera</v>
       </c>
       <c r="C102">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D102" t="str">
         <v>Male</v>
       </c>
       <c r="E102" t="str">
-        <v>ethan.rodriguez60@hotmail.com</v>
+        <v>julian.rivera31@outlook.com</v>
       </c>
       <c r="F102" t="str">
-        <v>0411 690 563</v>
+        <v>0401 414 502</v>
       </c>
       <c r="G102" t="str">
-        <v>Townsville</v>
+        <v>Perth</v>
       </c>
       <c r="H102" t="str">
         <v>B+</v>
       </c>
       <c r="I102" t="str">
-        <v>available</v>
-      </c>
-      <c r="M102" t="str">
-        <v>Hearing impaired - requires front row seating</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>e2f70c5c-0a8d-4055-8281-2ad2ae2e0cd6</v>
+        <v>bf5a6984-f656-4e23-9646-85829e9daffe</v>
       </c>
       <c r="B103" t="str">
-        <v>Stella Green</v>
+        <v>Scarlett Lopez</v>
       </c>
       <c r="C103">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D103" t="str">
         <v>Female</v>
       </c>
       <c r="E103" t="str">
-        <v>stella.green92@gmail.com</v>
+        <v>scarlett.lopez53@yahoo.com</v>
       </c>
       <c r="F103" t="str">
-        <v>0404 230 858</v>
+        <v>0400 509 641</v>
       </c>
       <c r="G103" t="str">
-        <v>Wollongong</v>
+        <v>Sydney</v>
       </c>
       <c r="H103" t="str">
-        <v>A</v>
+        <v>B+</v>
       </c>
       <c r="I103" t="str">
-        <v>available</v>
-      </c>
-      <c r="J103" t="str">
-        <v>Everly Torres</v>
-      </c>
-      <c r="M103" t="str">
-        <v>Vision impaired - needs assistance</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>ef94ff15-5215-4ecd-9ad1-9ac44fd0e56a</v>
+        <v>d6c29b29-46c2-458d-9ed6-9955afb17b95</v>
       </c>
       <c r="B104" t="str">
-        <v>Luke Flores</v>
+        <v>Ethan Taylor</v>
       </c>
       <c r="C104">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="D104" t="str">
         <v>Male</v>
       </c>
       <c r="E104" t="str">
-        <v>luke.flores39@hotmail.com</v>
+        <v>ethan.taylor22@yahoo.com</v>
       </c>
       <c r="F104" t="str">
-        <v>0403 225 544</v>
+        <v>0410 363 173</v>
       </c>
       <c r="G104" t="str">
-        <v>Melbourne</v>
+        <v>Adelaide</v>
       </c>
       <c r="H104" t="str">
         <v>B</v>
       </c>
       <c r="I104" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
   </sheetData>
@@ -3913,7 +3931,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4303,24 +4321,840 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>47ec0204-7cf6-4afb-9b9e-a91324cdf4a9</v>
+        <v>315d4c8e-42aa-496a-8267-35eedf823cb1</v>
       </c>
       <c r="B23" t="str">
-        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C23" t="str">
-        <v>5a16ef0a-cce8-4d1b-bfa5-3892331170c1</v>
+        <v>939eed5c-b520-4a34-8d08-2243d6aa41c1</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" t="str">
         <v>A1</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>aa35cd2f-32f1-4cd5-879a-11e79202bf56</v>
+      </c>
+      <c r="B24" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C24" t="str">
+        <v>1df33560-ebf2-41ec-995c-52f3f1df78d5</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" t="str">
+        <v>A2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>1a1c989a-199f-4151-99dd-6e70ee5e964c</v>
+      </c>
+      <c r="B25" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C25" t="str">
+        <v>6591420b-4762-4d90-b738-8a5b70458c40</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" t="str">
+        <v>A3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>63f2b141-aa64-4b0d-8dba-6817f2ed187a</v>
+      </c>
+      <c r="B26" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C26" t="str">
+        <v>182bd5d2-7f68-4c83-b156-e80856f3b6b7</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26" t="str">
+        <v>A4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>0b5aba6b-e20e-494f-bd3a-53ceda317bb9</v>
+      </c>
+      <c r="B27" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C27" t="str">
+        <v>ca152dfe-8ddb-45c8-b084-8a5c9e6dacfa</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="str">
+        <v>A5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>6aaf8d74-b0b2-43db-babc-0bd6a3714b0b</v>
+      </c>
+      <c r="B28" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C28" t="str">
+        <v>adb0c362-d095-4bfd-98dc-c93920fd22d6</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28" t="str">
+        <v>B1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>d320153e-4282-4906-b685-0dd2690a81ea</v>
+      </c>
+      <c r="B29" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C29" t="str">
+        <v>7664257a-dce4-407a-8f24-692043d568be</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29" t="str">
+        <v>B2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>db010e25-acf8-45ad-bf4a-07177997ba81</v>
+      </c>
+      <c r="B30" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C30" t="str">
+        <v>59bae9a1-93b9-471d-a2b7-074918634f6b</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" t="str">
+        <v>B3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>4310488c-a718-40f9-a725-71d2a29db2cd</v>
+      </c>
+      <c r="B31" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C31" t="str">
+        <v>8956e289-91e9-4c15-bf2b-a13dee2fa476</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31" t="str">
+        <v>B4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>977fe2a0-ee04-4a91-aef6-589e98451eac</v>
+      </c>
+      <c r="B32" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C32" t="str">
+        <v>2fa810c7-61d0-4519-a314-824cf0873e30</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32" t="str">
+        <v>B5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>f9c1c44a-4ff5-4be5-8c5d-3ce5e7d3dc72</v>
+      </c>
+      <c r="B33" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C33" t="str">
+        <v>f9d68052-4310-45c2-a5a9-64c272347899</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" t="str">
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>34784079-fc4e-42a0-a64b-2618a78ed14e</v>
+      </c>
+      <c r="B34" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C34" t="str">
+        <v>c1783cdf-a656-46b4-9331-4d9d18d40b51</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34" t="str">
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>b7d2981c-343a-4314-a84c-9c580ab5f103</v>
+      </c>
+      <c r="B35" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C35" t="str">
+        <v>45c0fc2b-415d-475a-998d-934235565d6b</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35" t="str">
+        <v>C3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>7c8837a4-4a08-4eb6-a3c3-9566e2025f8a</v>
+      </c>
+      <c r="B36" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C36" t="str">
+        <v>6ddd3228-f125-4d3e-88e2-157cd730b552</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36" t="str">
+        <v>C4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>99dd2005-0db9-42d2-96f7-76180002a8f8</v>
+      </c>
+      <c r="B37" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C37" t="str">
+        <v>ad836319-db56-4a08-bca6-a8e3f19c37a8</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37" t="str">
+        <v>D1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>312f5f58-60ef-4019-9aff-e675f31a3b69</v>
+      </c>
+      <c r="B38" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C38" t="str">
+        <v>d7b0dd51-8aea-4b32-bb8d-8b60271fc6c9</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38" t="str">
+        <v>D2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>aefe43f9-b9f1-4442-ba0d-6f5b81cc116e</v>
+      </c>
+      <c r="B39" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C39" t="str">
+        <v>40727c14-a30e-4e3b-8b64-0359d25efc0c</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39" t="str">
+        <v>D3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>784583e4-16c5-415d-9898-8dda09f0e5af</v>
+      </c>
+      <c r="B40" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C40" t="str">
+        <v>2811bf99-369b-4c0a-b5d6-4ff46cd7aa5e</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40" t="str">
+        <v>D4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>c112544f-6ac0-464e-a06d-67df85f82f33</v>
+      </c>
+      <c r="B41" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C41" t="str">
+        <v>0e8f635e-8f06-4224-a2cc-4263ac307ba2</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41" t="str">
+        <v>E1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>ed7dbbc2-1327-48a2-be28-a812aed96e81</v>
+      </c>
+      <c r="B42" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C42" t="str">
+        <v>7bfb9432-4b59-4ceb-895d-e03ae4837f91</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42" t="str">
+        <v>E2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>5ff58ffb-30be-40f0-9ca1-94165940b657</v>
+      </c>
+      <c r="B43" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C43" t="str">
+        <v>39b7a0a4-be8b-49f1-a5af-c5a105e0ab58</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43" t="str">
+        <v>A1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>a64425a0-0325-4b62-8079-386836efdff0</v>
+      </c>
+      <c r="B44" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C44" t="str">
+        <v>8774a9f4-b951-41cc-b6bd-809a709cb6ea</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44" t="str">
+        <v>A2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>129e8507-9a27-48d9-af9e-3689a8598957</v>
+      </c>
+      <c r="B45" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C45" t="str">
+        <v>df6c0d97-fd38-4b65-8765-b11a4939bd3b</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45" t="str">
+        <v>A3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>4962de2d-65ed-43c4-b794-87fcdd42ed1b</v>
+      </c>
+      <c r="B46" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C46" t="str">
+        <v>bf5a6984-f656-4e23-9646-85829e9daffe</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46" t="str">
+        <v>A4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>5710f758-b224-467f-93ee-8490916c10e9</v>
+      </c>
+      <c r="B47" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C47" t="str">
+        <v>d6c29b29-46c2-458d-9ed6-9955afb17b95</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47" t="str">
+        <v>A5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>854f2397-5935-4854-bd17-c06a487bb142</v>
+      </c>
+      <c r="B48" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C48" t="str">
+        <v>e166fd4f-73eb-4bea-b8be-3acdee4f9fdc</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48" t="str">
+        <v>B1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>e04bd714-ef7d-4548-adc1-f990450dedd4</v>
+      </c>
+      <c r="B49" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C49" t="str">
+        <v>5331c6bd-19f8-416a-9166-06280a3c547e</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49" t="str">
+        <v>B2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>e5c1c785-47b5-40a3-b771-bbeb376b6581</v>
+      </c>
+      <c r="B50" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C50" t="str">
+        <v>e2f70c5c-0a8d-4055-8281-2ad2ae2e0cd6</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50" t="str">
+        <v>B3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>dc96f223-ab88-4d41-bdb1-5054fbf412bf</v>
+      </c>
+      <c r="B51" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C51" t="str">
+        <v>ef94ff15-5215-4ecd-9ad1-9ac44fd0e56a</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51" t="str">
+        <v>B4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>4dbe5764-b6bc-4ae5-8ae4-2719af54b9f4</v>
+      </c>
+      <c r="B52" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C52" t="str">
+        <v>dbb200b8-766c-4984-9724-f68192d88939</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52" t="str">
+        <v>B5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>b0296a5a-9827-406e-9697-454a472f99ec</v>
+      </c>
+      <c r="B53" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C53" t="str">
+        <v>c4e002c2-94ef-471f-b43d-e6b2a8d35a1c</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53" t="str">
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>9b63fe68-2861-429b-a493-7f156d82b025</v>
+      </c>
+      <c r="B54" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C54" t="str">
+        <v>992418b2-3029-4752-9552-0aa886433657</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54" t="str">
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>4a06773b-d5aa-4d39-b70a-7c909c889ea6</v>
+      </c>
+      <c r="B55" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C55" t="str">
+        <v>0669e014-c952-45fd-9791-36cbe1d51444</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55" t="str">
+        <v>C3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>a3067e36-1e4a-4cc1-83ae-335398a1e3be</v>
+      </c>
+      <c r="B56" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C56" t="str">
+        <v>da957311-60b3-4bfc-b980-ac0506dccd20</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56" t="str">
+        <v>C4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>910ad705-cbac-4ef7-8a22-9e03c252f756</v>
+      </c>
+      <c r="B57" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C57" t="str">
+        <v>cd648690-8cd1-44b6-be26-0521038f442f</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57" t="str">
+        <v>D1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>ec890304-ce9c-4f6a-ba3c-1e3f6af22605</v>
+      </c>
+      <c r="B58" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C58" t="str">
+        <v>32ffeaf9-5f22-4db7-a70b-cbaab834db0d</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58" t="str">
+        <v>D2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>f8d9a4a0-cf1c-4a4a-8892-d616fb702116</v>
+      </c>
+      <c r="B59" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C59" t="str">
+        <v>9efd8ec8-0e91-45d9-804b-518939fbac76</v>
+      </c>
+      <c r="D59">
+        <v>5</v>
+      </c>
+      <c r="E59" t="str">
+        <v>A1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>d99e1cec-f16c-4e69-be58-c21b819a4358</v>
+      </c>
+      <c r="B60" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C60" t="str">
+        <v>0bb2a1aa-a74d-4711-a2ea-609663a77b4d</v>
+      </c>
+      <c r="D60">
+        <v>5</v>
+      </c>
+      <c r="E60" t="str">
+        <v>A2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>9551f680-6993-4ec3-a834-f1a32ec44ea0</v>
+      </c>
+      <c r="B61" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C61" t="str">
+        <v>a2ff3ad7-7964-4523-bf18-ce9994a910da</v>
+      </c>
+      <c r="D61">
+        <v>5</v>
+      </c>
+      <c r="E61" t="str">
+        <v>A3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>8926a7fb-86cb-49f8-8740-1ed0caa8d18a</v>
+      </c>
+      <c r="B62" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C62" t="str">
+        <v>47cc1288-cbc0-4159-a52d-924c8912434d</v>
+      </c>
+      <c r="D62">
+        <v>5</v>
+      </c>
+      <c r="E62" t="str">
+        <v>A4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>bae2ac85-4d87-4569-a8f6-daa6c8f63088</v>
+      </c>
+      <c r="B63" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C63" t="str">
+        <v>f68d2771-4820-4fef-b156-093280aeea67</v>
+      </c>
+      <c r="D63">
+        <v>5</v>
+      </c>
+      <c r="E63" t="str">
+        <v>A5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>da4c4aec-70d9-4418-abbc-7a9e4a209c06</v>
+      </c>
+      <c r="B64" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C64" t="str">
+        <v>b8c1889f-fd66-4304-90d7-bd50422cbc52</v>
+      </c>
+      <c r="D64">
+        <v>5</v>
+      </c>
+      <c r="E64" t="str">
+        <v>B1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>47ec0204-7cf6-4afb-9b9e-a91324cdf4a9</v>
+      </c>
+      <c r="B65" t="str">
+        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
+      </c>
+      <c r="C65" t="str">
+        <v>5a16ef0a-cce8-4d1b-bfa5-3892331170c1</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" t="str">
+        <v>A1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>105881ec-344b-423d-9ca0-5dbfc2c2ba8f</v>
+      </c>
+      <c r="B66" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C66" t="str">
+        <v>7728eead-ab7c-467f-bb41-2abd7952591a</v>
+      </c>
+      <c r="D66">
+        <v>6</v>
+      </c>
+      <c r="E66" t="str">
+        <v>A1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>b90ab53e-7513-471e-9487-e490e1672e7d</v>
+      </c>
+      <c r="B67" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C67" t="str">
+        <v>bf283832-25b8-4d7f-9e0f-ef2f10903233</v>
+      </c>
+      <c r="D67">
+        <v>6</v>
+      </c>
+      <c r="E67" t="str">
+        <v>A2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>4c838d83-e6ab-4f5e-8d16-c31da12045fd</v>
+      </c>
+      <c r="B68" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C68" t="str">
+        <v>f693d8fc-436b-426a-9bca-0b141221ab3f</v>
+      </c>
+      <c r="D68">
+        <v>6</v>
+      </c>
+      <c r="E68" t="str">
+        <v>A3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>7c5babfc-96ed-4aa6-8470-b7a20672ad6d</v>
+      </c>
+      <c r="B69" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C69" t="str">
+        <v>a8fa9125-28f1-47e1-adba-784701975e68</v>
+      </c>
+      <c r="D69">
+        <v>6</v>
+      </c>
+      <c r="E69" t="str">
+        <v>A4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>10b75cbb-714d-4a77-8f14-1efbed7f5860</v>
+      </c>
+      <c r="B70" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C70" t="str">
+        <v>e15c67b6-0680-4284-a8aa-a525b34c592d</v>
+      </c>
+      <c r="D70">
+        <v>6</v>
+      </c>
+      <c r="E70" t="str">
+        <v>A5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>875a2c3b-7136-4491-9777-f2ce4e647a4c</v>
+      </c>
+      <c r="B71" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C71" t="str">
+        <v>aa6fa282-9894-4b21-a871-c9725586c397</v>
+      </c>
+      <c r="D71">
+        <v>6</v>
+      </c>
+      <c r="E71" t="str">
+        <v>B1</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H23"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H71"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/storage/backups/automatic-backup.xlsx
+++ b/storage/backups/automatic-backup.xlsx
@@ -670,7 +670,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M104"/>
+  <dimension ref="A1:M234"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -718,54 +718,54 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>d37f9e40-d1a2-4238-9089-80517a709859</v>
+        <v>992418b2-3029-4752-9552-0aa886433657</v>
       </c>
       <c r="B2" t="str">
-        <v>Mia Roberts</v>
+        <v>Zoe Brown</v>
       </c>
       <c r="C2">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D2" t="str">
         <v>Female</v>
       </c>
       <c r="E2" t="str">
-        <v>mia.roberts81@hotmail.com</v>
+        <v>zoe.brown45@outlook.com</v>
       </c>
       <c r="F2" t="str">
-        <v>0412 368 553</v>
+        <v>0401 578 107</v>
       </c>
       <c r="G2" t="str">
-        <v>Toowoomba</v>
+        <v>Sydney</v>
       </c>
       <c r="H2" t="str">
-        <v>C</v>
+        <v>B+</v>
       </c>
       <c r="I2" t="str">
         <v>available</v>
       </c>
       <c r="J2" t="str">
-        <v>Paisley Scott</v>
+        <v>Chloe Jones</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>dd2de8e6-e7c9-40e4-8308-27a14e5f00da</v>
+        <v>d37f9e40-d1a2-4238-9089-80517a709859</v>
       </c>
       <c r="B3" t="str">
-        <v>Chloe Jones</v>
+        <v>Mia Roberts</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D3" t="str">
         <v>Female</v>
       </c>
       <c r="E3" t="str">
-        <v>chloe.jones20@outlook.com</v>
+        <v>mia.roberts81@hotmail.com</v>
       </c>
       <c r="F3" t="str">
-        <v>0411 294 635</v>
+        <v>0412 368 553</v>
       </c>
       <c r="G3" t="str">
         <v>Toowoomba</v>
@@ -777,138 +777,141 @@
         <v>available</v>
       </c>
       <c r="J3" t="str">
-        <v>Zoe Brown</v>
+        <v>Paisley Scott</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>df712cc5-31d8-4341-b177-6603bf089235</v>
+        <v>dd2de8e6-e7c9-40e4-8308-27a14e5f00da</v>
       </c>
       <c r="B4" t="str">
-        <v>Samuel King</v>
+        <v>Chloe Jones</v>
       </c>
       <c r="C4">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D4" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E4" t="str">
-        <v>samuel.king24@yahoo.com</v>
+        <v>chloe.jones20@outlook.com</v>
       </c>
       <c r="F4" t="str">
-        <v>0400 774 736</v>
+        <v>0411 294 635</v>
       </c>
       <c r="G4" t="str">
-        <v>Newcastle</v>
+        <v>Toowoomba</v>
       </c>
       <c r="H4" t="str">
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="I4" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
       <c r="J4" t="str">
-        <v/>
-      </c>
-      <c r="L4" t="str">
-        <v>afasdf</v>
-      </c>
-      <c r="M4" t="str">
-        <v>sdfasdfa</v>
+        <v>Zoe Brown</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>0669e014-c952-45fd-9791-36cbe1d51444</v>
+        <v>42504e80-d5df-4b97-a283-eb96728c425f</v>
       </c>
       <c r="B5" t="str">
-        <v>Sofia Williams</v>
+        <v>Ella Anderson</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D5" t="str">
         <v>Female</v>
       </c>
       <c r="E5" t="str">
-        <v>sofia.williams39@yahoo.com</v>
+        <v>ella.anderson1@yahoo.com</v>
       </c>
       <c r="F5" t="str">
-        <v>0403 299 421</v>
+        <v>0412 908 910</v>
       </c>
       <c r="G5" t="str">
         <v>Geelong</v>
       </c>
       <c r="H5" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="I5" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
       <c r="J5" t="str">
-        <v>Maya Moore</v>
+        <v>Isabella Brown</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>292da493-0524-4ee4-b911-1bb34e328b8c</v>
+        <v>bcc86f75-9a60-406c-be7c-4f31ea5c30ef</v>
       </c>
       <c r="B6" t="str">
-        <v>Jackson Young</v>
+        <v>Paisley Lee</v>
       </c>
       <c r="C6">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D6" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E6" t="str">
-        <v>jackson.young79@yahoo.com</v>
+        <v>paisley.lee78@hotmail.com</v>
       </c>
       <c r="F6" t="str">
-        <v>0412 940 993</v>
+        <v>0400 179 607</v>
       </c>
       <c r="G6" t="str">
         <v>Ballarat</v>
       </c>
       <c r="H6" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I6" t="str">
-        <v>assigned</v>
+        <v>available</v>
+      </c>
+      <c r="J6" t="str">
+        <v>Aria Lopez</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>ecc70875-f282-4849-9e60-071edc278977</v>
+        <v>df712cc5-31d8-4341-b177-6603bf089235</v>
       </c>
       <c r="B7" t="str">
-        <v>Noah White</v>
+        <v>Samuel King</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="D7" t="str">
         <v>Male</v>
       </c>
       <c r="E7" t="str">
-        <v>noah.white20@gmail.com</v>
+        <v>samuel.king24@yahoo.com</v>
       </c>
       <c r="F7" t="str">
-        <v>0410 565 594</v>
+        <v>0400 774 736</v>
       </c>
       <c r="G7" t="str">
-        <v>Adelaide</v>
+        <v>Newcastle</v>
       </c>
       <c r="H7" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="I7" t="str">
-        <v>assigned</v>
+        <v>available</v>
+      </c>
+      <c r="J7" t="str">
+        <v/>
+      </c>
+      <c r="L7" t="str">
+        <v>afasdf</v>
       </c>
       <c r="M7" t="str">
-        <v>Requires wheelchair access</v>
+        <v>sdfasdfa</v>
       </c>
     </row>
     <row r="8">
@@ -937,7 +940,7 @@
         <v>B+</v>
       </c>
       <c r="I8" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
       <c r="J8" t="str">
         <v>Audrey Thomas</v>
@@ -945,25 +948,25 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>8e115c7e-8033-4466-bcb9-07ea089eb4be</v>
+        <v>aa6fa282-9894-4b21-a871-c9725586c397</v>
       </c>
       <c r="B9" t="str">
-        <v>Chloe Taylor</v>
+        <v>Audrey Thomas</v>
       </c>
       <c r="C9">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="D9" t="str">
         <v>Female</v>
       </c>
       <c r="E9" t="str">
-        <v>chloe.taylor7@gmail.com</v>
+        <v>audrey.thomas38@gmail.com</v>
       </c>
       <c r="F9" t="str">
-        <v>0412 903 254</v>
+        <v>0400 437 270</v>
       </c>
       <c r="G9" t="str">
-        <v>Townsville</v>
+        <v>Perth</v>
       </c>
       <c r="H9" t="str">
         <v>C</v>
@@ -971,383 +974,377 @@
       <c r="I9" t="str">
         <v>available</v>
       </c>
+      <c r="J9" t="str">
+        <v>Hannah Torres</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>42504e80-d5df-4b97-a283-eb96728c425f</v>
+        <v>8e115c7e-8033-4466-bcb9-07ea089eb4be</v>
       </c>
       <c r="B10" t="str">
-        <v>Ella Anderson</v>
+        <v>Chloe Taylor</v>
       </c>
       <c r="C10">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="D10" t="str">
         <v>Female</v>
       </c>
       <c r="E10" t="str">
-        <v>ella.anderson1@yahoo.com</v>
+        <v>chloe.taylor7@gmail.com</v>
       </c>
       <c r="F10" t="str">
-        <v>0412 908 910</v>
+        <v>0412 903 254</v>
       </c>
       <c r="G10" t="str">
-        <v>Geelong</v>
+        <v>Townsville</v>
       </c>
       <c r="H10" t="str">
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="I10" t="str">
         <v>available</v>
-      </c>
-      <c r="J10" t="str">
-        <v>Isabella Brown</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>aa6fa282-9894-4b21-a871-c9725586c397</v>
+        <v>0669e014-c952-45fd-9791-36cbe1d51444</v>
       </c>
       <c r="B11" t="str">
-        <v>Audrey Thomas</v>
+        <v>Sofia Williams</v>
       </c>
       <c r="C11">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D11" t="str">
         <v>Female</v>
       </c>
       <c r="E11" t="str">
-        <v>audrey.thomas38@gmail.com</v>
+        <v>sofia.williams39@yahoo.com</v>
       </c>
       <c r="F11" t="str">
-        <v>0400 437 270</v>
+        <v>0403 299 421</v>
       </c>
       <c r="G11" t="str">
-        <v>Perth</v>
+        <v>Geelong</v>
       </c>
       <c r="H11" t="str">
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="I11" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
       <c r="J11" t="str">
-        <v>Hannah Torres</v>
+        <v>Maya Moore</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>992418b2-3029-4752-9552-0aa886433657</v>
+        <v>292da493-0524-4ee4-b911-1bb34e328b8c</v>
       </c>
       <c r="B12" t="str">
-        <v>Zoe Brown</v>
+        <v>Jackson Young</v>
       </c>
       <c r="C12">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D12" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E12" t="str">
-        <v>zoe.brown45@outlook.com</v>
+        <v>jackson.young79@yahoo.com</v>
       </c>
       <c r="F12" t="str">
-        <v>0401 578 107</v>
+        <v>0412 940 993</v>
       </c>
       <c r="G12" t="str">
-        <v>Sydney</v>
+        <v>Ballarat</v>
       </c>
       <c r="H12" t="str">
         <v>B+</v>
       </c>
       <c r="I12" t="str">
-        <v>assigned</v>
-      </c>
-      <c r="J12" t="str">
-        <v>Chloe Jones</v>
+        <v>available</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>bcc86f75-9a60-406c-be7c-4f31ea5c30ef</v>
+        <v>40a64316-1fb5-4a09-8c9d-14bbc19036d1</v>
       </c>
       <c r="B13" t="str">
-        <v>Paisley Lee</v>
+        <v>Olivia Gonzalez</v>
       </c>
       <c r="C13">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D13" t="str">
         <v>Female</v>
       </c>
       <c r="E13" t="str">
-        <v>paisley.lee78@hotmail.com</v>
+        <v>olivia.gonzalez77@hotmail.com</v>
       </c>
       <c r="F13" t="str">
-        <v>0400 179 607</v>
+        <v>(982) 690-7408</v>
       </c>
       <c r="G13" t="str">
-        <v>Ballarat</v>
+        <v>Long Beach</v>
       </c>
       <c r="H13" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I13" t="str">
         <v>available</v>
       </c>
       <c r="J13" t="str">
-        <v>Aria Lopez</v>
+        <v>Eliana Green</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>210066e7-58e9-4ebb-a504-dfbf383961b5</v>
+        <v>ecc70875-f282-4849-9e60-071edc278977</v>
       </c>
       <c r="B14" t="str">
-        <v>Grace Scott</v>
+        <v>Noah White</v>
       </c>
       <c r="C14">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="D14" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E14" t="str">
-        <v>grace.scott94@hotmail.com</v>
+        <v>noah.white20@gmail.com</v>
       </c>
       <c r="F14" t="str">
-        <v>0410 377 869</v>
+        <v>0410 565 594</v>
       </c>
       <c r="G14" t="str">
-        <v>Toowoomba</v>
+        <v>Adelaide</v>
       </c>
       <c r="H14" t="str">
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="I14" t="str">
         <v>available</v>
       </c>
-      <c r="J14" t="str">
-        <v>Audrey Smith</v>
+      <c r="M14" t="str">
+        <v>Requires wheelchair access</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>ef837da0-c81f-4113-a389-db5e46ffaf4d</v>
+        <v>d2e4b795-48d9-43e4-8ebe-6916a61a544e</v>
       </c>
       <c r="B15" t="str">
-        <v>Aria Scott</v>
+        <v>Ella Gutierrez</v>
       </c>
       <c r="C15">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="D15" t="str">
         <v>Female</v>
       </c>
       <c r="E15" t="str">
-        <v>aria.scott42@outlook.com</v>
+        <v>ella.gutierrez43@gmail.com</v>
       </c>
       <c r="F15" t="str">
-        <v>0401 330 548</v>
+        <v>(220) 105-1876</v>
       </c>
       <c r="G15" t="str">
-        <v>Hobart</v>
+        <v>Irvine</v>
       </c>
       <c r="H15" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I15" t="str">
         <v>available</v>
       </c>
       <c r="J15" t="str">
-        <v>Maya Hernandez</v>
+        <v>Nora Lee</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2c188398-79a8-4bf6-b740-1ad9d535662e</v>
+        <v>b28a73f8-5094-4b00-be67-223342b0e1d5</v>
       </c>
       <c r="B16" t="str">
-        <v>Everly Torres</v>
+        <v>Cora Lee</v>
       </c>
       <c r="C16">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D16" t="str">
         <v>Female</v>
       </c>
       <c r="E16" t="str">
-        <v>everly.torres12@gmail.com</v>
+        <v>cora.lee40@hotmail.com</v>
       </c>
       <c r="F16" t="str">
-        <v>0412 804 179</v>
+        <v>(406) 886-5180</v>
       </c>
       <c r="G16" t="str">
-        <v>Sydney</v>
+        <v>Fresno</v>
       </c>
       <c r="H16" t="str">
-        <v>A+</v>
+        <v>C</v>
       </c>
       <c r="I16" t="str">
         <v>available</v>
       </c>
       <c r="J16" t="str">
-        <v>Stella Green</v>
+        <v>Layla Lopez</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2d659242-2255-4502-b333-781c9b2645fd</v>
+        <v>c49dde07-b870-477a-82b6-a0354611093f</v>
       </c>
       <c r="B17" t="str">
-        <v>Evelyn Sanchez</v>
+        <v>Mia Carter</v>
       </c>
       <c r="C17">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D17" t="str">
         <v>Female</v>
       </c>
       <c r="E17" t="str">
-        <v>evelyn.sanchez9@gmail.com</v>
+        <v>mia.carter78@hotmail.com</v>
       </c>
       <c r="F17" t="str">
-        <v>0404 119 469</v>
+        <v>(419) 735-1016</v>
       </c>
       <c r="G17" t="str">
-        <v>Gold Coast</v>
+        <v>Newport Beach</v>
       </c>
       <c r="H17" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="I17" t="str">
         <v>available</v>
       </c>
       <c r="J17" t="str">
-        <v>Chloe Flores</v>
+        <v>Evelyn Ortiz</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>22cf4684-eeba-4ed3-8f61-746028381f4d</v>
+        <v>210066e7-58e9-4ebb-a504-dfbf383961b5</v>
       </c>
       <c r="B18" t="str">
-        <v>Harper Lewis</v>
+        <v>Grace Scott</v>
       </c>
       <c r="C18">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D18" t="str">
         <v>Female</v>
       </c>
       <c r="E18" t="str">
-        <v>harper.lewis57@hotmail.com</v>
+        <v>grace.scott94@hotmail.com</v>
       </c>
       <c r="F18" t="str">
-        <v>0411 652 121</v>
+        <v>0410 377 869</v>
       </c>
       <c r="G18" t="str">
-        <v>Geelong</v>
+        <v>Toowoomba</v>
       </c>
       <c r="H18" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I18" t="str">
         <v>available</v>
       </c>
       <c r="J18" t="str">
-        <v>Audrey Ramirez</v>
-      </c>
-      <c r="M18" t="str">
-        <v>Back issues - needs lumbar support chair</v>
+        <v>Audrey Smith</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>b9e02c2d-410d-4307-811c-7e52cf93b14b</v>
+        <v>ef837da0-c81f-4113-a389-db5e46ffaf4d</v>
       </c>
       <c r="B19" t="str">
-        <v>Emily Moore</v>
+        <v>Aria Scott</v>
       </c>
       <c r="C19">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D19" t="str">
         <v>Female</v>
       </c>
       <c r="E19" t="str">
-        <v>emily.moore11@hotmail.com</v>
+        <v>aria.scott42@outlook.com</v>
       </c>
       <c r="F19" t="str">
-        <v>0410 362 279</v>
+        <v>0401 330 548</v>
       </c>
       <c r="G19" t="str">
-        <v>Perth</v>
+        <v>Hobart</v>
       </c>
       <c r="H19" t="str">
-        <v>B+</v>
+        <v>C</v>
       </c>
       <c r="I19" t="str">
         <v>available</v>
       </c>
       <c r="J19" t="str">
-        <v>Grace Scott</v>
+        <v>Maya Hernandez</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2738f18e-1f2e-44d7-aa26-778ed59438ac</v>
+        <v>2c188398-79a8-4bf6-b740-1ad9d535662e</v>
       </c>
       <c r="B20" t="str">
-        <v>Emilia Miller</v>
+        <v>Everly Torres</v>
       </c>
       <c r="C20">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D20" t="str">
         <v>Female</v>
       </c>
       <c r="E20" t="str">
-        <v>emilia.miller56@outlook.com</v>
+        <v>everly.torres12@gmail.com</v>
       </c>
       <c r="F20" t="str">
-        <v>0403 506 698</v>
+        <v>0412 804 179</v>
       </c>
       <c r="G20" t="str">
-        <v>Melbourne</v>
+        <v>Sydney</v>
       </c>
       <c r="H20" t="str">
-        <v>B</v>
+        <v>A+</v>
       </c>
       <c r="I20" t="str">
         <v>available</v>
       </c>
       <c r="J20" t="str">
-        <v>Victoria Carter</v>
+        <v>Stella Green</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>0fc0ae2d-4068-4972-a5b1-963c241e317a</v>
+        <v>2d659242-2255-4502-b333-781c9b2645fd</v>
       </c>
       <c r="B21" t="str">
-        <v>Emilia Thompson</v>
+        <v>Evelyn Sanchez</v>
       </c>
       <c r="C21">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D21" t="str">
         <v>Female</v>
       </c>
       <c r="E21" t="str">
-        <v>emilia.thompson0@gmail.com</v>
+        <v>evelyn.sanchez9@gmail.com</v>
       </c>
       <c r="F21" t="str">
-        <v>0404 992 451</v>
+        <v>0404 119 469</v>
       </c>
       <c r="G21" t="str">
-        <v>Perth</v>
+        <v>Gold Coast</v>
       </c>
       <c r="H21" t="str">
         <v>B</v>
@@ -1356,62 +1353,65 @@
         <v>available</v>
       </c>
       <c r="J21" t="str">
-        <v>Violet Hall</v>
+        <v>Chloe Flores</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>97646711-3e33-4ee9-8d83-bd6e0363ece0</v>
+        <v>22cf4684-eeba-4ed3-8f61-746028381f4d</v>
       </c>
       <c r="B22" t="str">
-        <v>Audrey Martin</v>
+        <v>Harper Lewis</v>
       </c>
       <c r="C22">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D22" t="str">
         <v>Female</v>
       </c>
       <c r="E22" t="str">
-        <v>audrey.martin33@yahoo.com</v>
+        <v>harper.lewis57@hotmail.com</v>
       </c>
       <c r="F22" t="str">
-        <v>0403 767 239</v>
+        <v>0411 652 121</v>
       </c>
       <c r="G22" t="str">
-        <v>Adelaide</v>
+        <v>Geelong</v>
       </c>
       <c r="H22" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="I22" t="str">
         <v>available</v>
       </c>
       <c r="J22" t="str">
-        <v>Charlotte Johnson</v>
+        <v>Audrey Ramirez</v>
+      </c>
+      <c r="M22" t="str">
+        <v>Back issues - needs lumbar support chair</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>94116225-6732-4c15-9e4b-66f7727602d5</v>
+        <v>b9e02c2d-410d-4307-811c-7e52cf93b14b</v>
       </c>
       <c r="B23" t="str">
-        <v>Audrey Ramirez</v>
+        <v>Emily Moore</v>
       </c>
       <c r="C23">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D23" t="str">
         <v>Female</v>
       </c>
       <c r="E23" t="str">
-        <v>audrey.ramirez12@gmail.com</v>
+        <v>emily.moore11@hotmail.com</v>
       </c>
       <c r="F23" t="str">
-        <v>0411 212 619</v>
+        <v>0410 362 279</v>
       </c>
       <c r="G23" t="str">
-        <v>Brisbane</v>
+        <v>Perth</v>
       </c>
       <c r="H23" t="str">
         <v>B+</v>
@@ -1420,129 +1420,126 @@
         <v>available</v>
       </c>
       <c r="J23" t="str">
-        <v>Harper Lewis</v>
+        <v>Grace Scott</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>5c5fe7f9-35dd-4685-af6b-e44a56c1d47c</v>
+        <v>2738f18e-1f2e-44d7-aa26-778ed59438ac</v>
       </c>
       <c r="B24" t="str">
-        <v>Charlotte Johnson</v>
+        <v>Emilia Miller</v>
       </c>
       <c r="C24">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="D24" t="str">
         <v>Female</v>
       </c>
       <c r="E24" t="str">
-        <v>charlotte.johnson36@yahoo.com</v>
+        <v>emilia.miller56@outlook.com</v>
       </c>
       <c r="F24" t="str">
-        <v>0410 304 177</v>
+        <v>0403 506 698</v>
       </c>
       <c r="G24" t="str">
-        <v>Perth</v>
+        <v>Melbourne</v>
       </c>
       <c r="H24" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="I24" t="str">
         <v>available</v>
       </c>
       <c r="J24" t="str">
-        <v>Audrey Martin</v>
+        <v>Victoria Carter</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>b09d810a-6eb0-4ea8-ac8b-df27315049f1</v>
+        <v>0fc0ae2d-4068-4972-a5b1-963c241e317a</v>
       </c>
       <c r="B25" t="str">
-        <v>Emily Thomas</v>
+        <v>Emilia Thompson</v>
       </c>
       <c r="C25">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D25" t="str">
         <v>Female</v>
       </c>
       <c r="E25" t="str">
-        <v>emily.thomas25@outlook.com</v>
+        <v>emilia.thompson0@gmail.com</v>
       </c>
       <c r="F25" t="str">
-        <v>0402 648 577</v>
+        <v>0404 992 451</v>
       </c>
       <c r="G25" t="str">
-        <v>Geelong</v>
+        <v>Perth</v>
       </c>
       <c r="H25" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I25" t="str">
         <v>available</v>
       </c>
       <c r="J25" t="str">
-        <v>Stella Garcia</v>
-      </c>
-      <c r="M25" t="str">
-        <v>Knee replacement - cannot climb stairs</v>
+        <v>Violet Hall</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>6849995e-3474-4988-87b0-1db2638461ca</v>
+        <v>97646711-3e33-4ee9-8d83-bd6e0363ece0</v>
       </c>
       <c r="B26" t="str">
-        <v>Audrey Smith</v>
+        <v>Audrey Martin</v>
       </c>
       <c r="C26">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D26" t="str">
         <v>Female</v>
       </c>
       <c r="E26" t="str">
-        <v>audrey.smith66@gmail.com</v>
+        <v>audrey.martin33@yahoo.com</v>
       </c>
       <c r="F26" t="str">
-        <v>0410 904 568</v>
+        <v>0403 767 239</v>
       </c>
       <c r="G26" t="str">
-        <v>Ballarat</v>
+        <v>Adelaide</v>
       </c>
       <c r="H26" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="I26" t="str">
         <v>available</v>
       </c>
       <c r="J26" t="str">
-        <v>Grace Scott</v>
+        <v>Charlotte Johnson</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>5a16ef0a-cce8-4d1b-bfa5-3892331170c1</v>
+        <v>94116225-6732-4c15-9e4b-66f7727602d5</v>
       </c>
       <c r="B27" t="str">
-        <v>Caroline Taylor</v>
+        <v>Audrey Ramirez</v>
       </c>
       <c r="C27">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D27" t="str">
         <v>Female</v>
       </c>
       <c r="E27" t="str">
-        <v>caroline.taylor54@outlook.com</v>
+        <v>audrey.ramirez12@gmail.com</v>
       </c>
       <c r="F27" t="str">
-        <v>0402 864 601</v>
+        <v>0411 212 619</v>
       </c>
       <c r="G27" t="str">
-        <v>Darwin</v>
+        <v>Brisbane</v>
       </c>
       <c r="H27" t="str">
         <v>B+</v>
@@ -1551,588 +1548,612 @@
         <v>available</v>
       </c>
       <c r="J27" t="str">
-        <v>Hazel Mitchell</v>
-      </c>
-      <c r="M27" t="str">
-        <v>Arthritis - prefers aisle seating for easy exit</v>
+        <v>Harper Lewis</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>eff76f3c-c868-4954-99ea-92a4ae6c8067</v>
+        <v>5c5fe7f9-35dd-4685-af6b-e44a56c1d47c</v>
       </c>
       <c r="B28" t="str">
-        <v>Abigail Lee</v>
+        <v>Charlotte Johnson</v>
       </c>
       <c r="C28">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="D28" t="str">
         <v>Female</v>
       </c>
       <c r="E28" t="str">
-        <v>abigail.lee94@hotmail.com</v>
+        <v>charlotte.johnson36@yahoo.com</v>
       </c>
       <c r="F28" t="str">
-        <v>0402 888 384</v>
+        <v>0410 304 177</v>
       </c>
       <c r="G28" t="str">
-        <v>Wollongong</v>
+        <v>Perth</v>
       </c>
       <c r="H28" t="str">
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="I28" t="str">
         <v>available</v>
       </c>
       <c r="J28" t="str">
-        <v>Hannah Martin</v>
+        <v>Audrey Martin</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>0faec83d-7c29-4269-bf33-391ef02d60e4</v>
+        <v>b09d810a-6eb0-4ea8-ac8b-df27315049f1</v>
       </c>
       <c r="B29" t="str">
-        <v>Anna White</v>
+        <v>Emily Thomas</v>
       </c>
       <c r="C29">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D29" t="str">
         <v>Female</v>
       </c>
       <c r="E29" t="str">
-        <v>anna.white24@yahoo.com</v>
+        <v>emily.thomas25@outlook.com</v>
       </c>
       <c r="F29" t="str">
-        <v>0400 132 564</v>
+        <v>0402 648 577</v>
       </c>
       <c r="G29" t="str">
-        <v>Adelaide</v>
+        <v>Geelong</v>
       </c>
       <c r="H29" t="str">
-        <v>B+</v>
+        <v>C</v>
       </c>
       <c r="I29" t="str">
-        <v>assigned</v>
+        <v>available</v>
+      </c>
+      <c r="J29" t="str">
+        <v>Stella Garcia</v>
+      </c>
+      <c r="M29" t="str">
+        <v>Knee replacement - cannot climb stairs</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>f1466859-7323-4893-a189-a0ce994068ba</v>
+        <v>6849995e-3474-4988-87b0-1db2638461ca</v>
       </c>
       <c r="B30" t="str">
-        <v>Anthony Thompson</v>
+        <v>Audrey Smith</v>
       </c>
       <c r="C30">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="D30" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E30" t="str">
-        <v>anthony.thompson29@yahoo.com</v>
+        <v>audrey.smith66@gmail.com</v>
       </c>
       <c r="F30" t="str">
-        <v>0412 442 587</v>
+        <v>0410 904 568</v>
       </c>
       <c r="G30" t="str">
-        <v>Townsville</v>
+        <v>Ballarat</v>
       </c>
       <c r="H30" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="I30" t="str">
-        <v>assigned</v>
-      </c>
-      <c r="M30" t="str">
-        <v>Vision impaired - needs assistance</v>
+        <v>available</v>
+      </c>
+      <c r="J30" t="str">
+        <v>Grace Scott</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>9efd8ec8-0e91-45d9-804b-518939fbac76</v>
+        <v>5a16ef0a-cce8-4d1b-bfa5-3892331170c1</v>
       </c>
       <c r="B31" t="str">
-        <v>Noah Hernandez</v>
+        <v>Caroline Taylor</v>
       </c>
       <c r="C31">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D31" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E31" t="str">
-        <v>noah.hernandez9@hotmail.com</v>
+        <v>caroline.taylor54@outlook.com</v>
       </c>
       <c r="F31" t="str">
-        <v>0404 855 230</v>
+        <v>0402 864 601</v>
       </c>
       <c r="G31" t="str">
-        <v>Cairns</v>
+        <v>Darwin</v>
       </c>
       <c r="H31" t="str">
-        <v>C</v>
+        <v>B+</v>
       </c>
       <c r="I31" t="str">
-        <v>assigned</v>
+        <v>available</v>
+      </c>
+      <c r="J31" t="str">
+        <v>Hazel Mitchell</v>
+      </c>
+      <c r="M31" t="str">
+        <v>Arthritis - prefers aisle seating for easy exit</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>0a153155-dcf5-4d56-9ed1-8960501157f8</v>
+        <v>eff76f3c-c868-4954-99ea-92a4ae6c8067</v>
       </c>
       <c r="B32" t="str">
-        <v>Aurora Gonzalez</v>
+        <v>Abigail Lee</v>
       </c>
       <c r="C32">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D32" t="str">
         <v>Female</v>
       </c>
       <c r="E32" t="str">
-        <v>aurora.gonzalez29@outlook.com</v>
+        <v>abigail.lee94@hotmail.com</v>
       </c>
       <c r="F32" t="str">
-        <v>0404 610 172</v>
+        <v>0402 888 384</v>
       </c>
       <c r="G32" t="str">
-        <v>Toowoomba</v>
+        <v>Wollongong</v>
       </c>
       <c r="H32" t="str">
-        <v>A</v>
+        <v>B+</v>
       </c>
       <c r="I32" t="str">
-        <v>assigned</v>
+        <v>available</v>
+      </c>
+      <c r="J32" t="str">
+        <v>Hannah Martin</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>adfcb6e3-82cb-46b9-8fb8-069fb91e2d4f</v>
+        <v>d3525475-4eef-4712-ba77-a79cea16ef55</v>
       </c>
       <c r="B33" t="str">
-        <v>Mason Hill</v>
+        <v>Zoey Cook</v>
       </c>
       <c r="C33">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D33" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E33" t="str">
-        <v>mason.hill27@outlook.com</v>
+        <v>zoey.cook63@yahoo.com</v>
       </c>
       <c r="F33" t="str">
-        <v>0410 682 884</v>
+        <v>(559) 803-4092</v>
       </c>
       <c r="G33" t="str">
-        <v>Canberra</v>
+        <v>Fremont</v>
       </c>
       <c r="H33" t="str">
         <v>A</v>
       </c>
       <c r="I33" t="str">
-        <v>assigned</v>
+        <v>available</v>
+      </c>
+      <c r="J33" t="str">
+        <v>Hunter Scott</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>f5233693-d357-4cac-a660-70ef0398a969</v>
+        <v>924c70dd-25ce-4725-8a88-173a3af33a7f</v>
       </c>
       <c r="B34" t="str">
-        <v>Nathan Allen</v>
+        <v>Mia Anderson</v>
       </c>
       <c r="C34">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="D34" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E34" t="str">
-        <v>nathan.allen87@outlook.com</v>
+        <v>mia.anderson0@yahoo.com</v>
       </c>
       <c r="F34" t="str">
-        <v>0403 587 263</v>
+        <v>(574) 806-3609</v>
       </c>
       <c r="G34" t="str">
-        <v>Adelaide</v>
+        <v>Stockton</v>
       </c>
       <c r="H34" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I34" t="str">
-        <v>assigned</v>
+        <v>available</v>
+      </c>
+      <c r="J34" t="str">
+        <v>Avery Cruz, Lydia Torres</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>9b54470e-fe91-4ebb-b0aa-becf22a8cc3c</v>
+        <v>adfcb6e3-82cb-46b9-8fb8-069fb91e2d4f</v>
       </c>
       <c r="B35" t="str">
-        <v>Abigail Jackson</v>
+        <v>Mason Hill</v>
       </c>
       <c r="C35">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D35" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E35" t="str">
-        <v>abigail.jackson65@outlook.com</v>
+        <v>mason.hill27@outlook.com</v>
       </c>
       <c r="F35" t="str">
-        <v>0411 824 257</v>
+        <v>0410 682 884</v>
       </c>
       <c r="G35" t="str">
-        <v>Newcastle</v>
+        <v>Canberra</v>
       </c>
       <c r="H35" t="str">
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="I35" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>3d2128a1-336f-41e1-973b-b5dd54d90b19</v>
+        <v>efeba788-8d57-40b3-a3f9-e134a40931ac</v>
       </c>
       <c r="B36" t="str">
-        <v>Nova Brown</v>
+        <v>Leah Diaz</v>
       </c>
       <c r="C36">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="D36" t="str">
         <v>Female</v>
       </c>
       <c r="E36" t="str">
-        <v>nova.brown80@outlook.com</v>
+        <v>leah.diaz22@outlook.com</v>
       </c>
       <c r="F36" t="str">
-        <v>0411 154 614</v>
+        <v>(159) 664-9326</v>
       </c>
       <c r="G36" t="str">
-        <v>Ballarat</v>
+        <v>Glendale</v>
       </c>
       <c r="H36" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="I36" t="str">
-        <v>assigned</v>
+        <v>available</v>
+      </c>
+      <c r="J36" t="str">
+        <v>Julian Nguyen, Lydia Allen</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>0bb2a1aa-a74d-4711-a2ea-609663a77b4d</v>
+        <v>151541b8-8cbb-452a-b532-1a0df3d1d4b6</v>
       </c>
       <c r="B37" t="str">
-        <v>Carter Harris</v>
+        <v>Ella Martinez</v>
       </c>
       <c r="C37">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D37" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E37" t="str">
-        <v>carter.harris82@yahoo.com</v>
+        <v>ella.martinez67@hotmail.com</v>
       </c>
       <c r="F37" t="str">
-        <v>0412 175 744</v>
+        <v>(703) 898-3990</v>
       </c>
       <c r="G37" t="str">
-        <v>Geelong</v>
+        <v>Burbank</v>
       </c>
       <c r="H37" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I37" t="str">
-        <v>assigned</v>
+        <v>available</v>
+      </c>
+      <c r="J37" t="str">
+        <v>Josiah Lopez, Victoria Carter</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>c4e002c2-94ef-471f-b43d-e6b2a8d35a1c</v>
+        <v>4f5224b0-063d-43fd-9435-f5c2723f61ed</v>
       </c>
       <c r="B38" t="str">
-        <v>Paisley Scott</v>
+        <v>Sophia Flores</v>
       </c>
       <c r="C38">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D38" t="str">
         <v>Female</v>
       </c>
       <c r="E38" t="str">
-        <v>paisley.scott78@yahoo.com</v>
+        <v>sophia.flores86@icloud.com</v>
       </c>
       <c r="F38" t="str">
-        <v>0410 215 419</v>
+        <v>(588) 448-1103</v>
       </c>
       <c r="G38" t="str">
-        <v>Ballarat</v>
+        <v>Fremont</v>
       </c>
       <c r="H38" t="str">
-        <v>B+</v>
+        <v>C</v>
       </c>
       <c r="I38" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
       <c r="J38" t="str">
-        <v>Mia Roberts</v>
+        <v>Elijah Miller</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
+        <v>fc97dba8-a877-4547-b6c9-0c6b058b1c94</v>
       </c>
       <c r="B39" t="str">
-        <v>Felicity Parker-Hill</v>
+        <v>Victoria Carter</v>
       </c>
       <c r="C39">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D39" t="str">
-        <v>Not Specified</v>
+        <v>Female</v>
       </c>
       <c r="E39" t="str">
-        <v>felicity.parkerhill@endemolshine.com.au</v>
+        <v>victoria.carter86@hotmail.com</v>
       </c>
       <c r="F39" t="str">
-        <v>498086080</v>
+        <v>(576) 929-4509</v>
       </c>
       <c r="G39" t="str">
-        <v>Melbourne</v>
+        <v>Long Beach</v>
       </c>
       <c r="H39" t="str">
-        <v/>
+        <v>B</v>
       </c>
       <c r="I39" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
       <c r="J39" t="str">
-        <v>Peter Adamidis, Kathleen Reynolds</v>
-      </c>
-      <c r="K39" t="str">
-        <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
-      </c>
-      <c r="L39" t="str">
-        <v>N</v>
-      </c>
-      <c r="M39" t="str">
-        <v>N/A</v>
+        <v>Josiah Lopez, Ella Martinez</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>d609a3ee-08af-4d16-aa51-c67e35cfa5c9</v>
+        <v>6366884b-6583-493e-80bc-a1dff1926c59</v>
       </c>
       <c r="B40" t="str">
-        <v>Ryan Williams</v>
+        <v>Eleanor Allen</v>
       </c>
       <c r="C40">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="D40" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E40" t="str">
-        <v>ryan.williams82@hotmail.com</v>
+        <v>eleanor.allen67@outlook.com</v>
       </c>
       <c r="F40" t="str">
-        <v>0401 450 673</v>
+        <v>(510) 261-1846</v>
       </c>
       <c r="G40" t="str">
-        <v>Perth</v>
+        <v>Los Angeles</v>
       </c>
       <c r="H40" t="str">
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="I40" t="str">
-        <v>assigned</v>
+        <v>available</v>
+      </c>
+      <c r="J40" t="str">
+        <v>Christopher Allen</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>efe20d3d-2162-4ff8-a8ff-4102e5d3f3ab</v>
+        <v>e897bbe7-50a2-441c-9ba2-0d1c40619f32</v>
       </c>
       <c r="B41" t="str">
-        <v>Cameron Lee</v>
+        <v>Chloe Williams</v>
       </c>
       <c r="C41">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D41" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E41" t="str">
-        <v>cameron.lee78@yahoo.com</v>
+        <v>chloe.williams70@hotmail.com</v>
       </c>
       <c r="F41" t="str">
-        <v>0404 821 708</v>
+        <v>(398) 161-2308</v>
       </c>
       <c r="G41" t="str">
-        <v>Cairns</v>
+        <v>Los Angeles</v>
       </c>
       <c r="H41" t="str">
         <v>B+</v>
       </c>
       <c r="I41" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>da957311-60b3-4bfc-b980-ac0506dccd20</v>
+        <v>dc8716d3-5841-439f-a3e4-3e7bd8306e66</v>
       </c>
       <c r="B42" t="str">
-        <v>Stella Garcia</v>
+        <v>Gianna Hill</v>
       </c>
       <c r="C42">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="D42" t="str">
         <v>Female</v>
       </c>
       <c r="E42" t="str">
-        <v>stella.garcia89@hotmail.com</v>
+        <v>gianna.hill14@icloud.com</v>
       </c>
       <c r="F42" t="str">
-        <v>0403 655 540</v>
+        <v>(338) 214-4997</v>
       </c>
       <c r="G42" t="str">
-        <v>Toowoomba</v>
+        <v>Santa Ana</v>
       </c>
       <c r="H42" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I42" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
       <c r="J42" t="str">
-        <v>Emily Thomas</v>
+        <v>Grace King</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>347bdea3-79f6-4991-9601-b2d86513429e</v>
+        <v>f5233693-d357-4cac-a660-70ef0398a969</v>
       </c>
       <c r="B43" t="str">
-        <v>Violet Hall</v>
+        <v>Nathan Allen</v>
       </c>
       <c r="C43">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D43" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E43" t="str">
-        <v>violet.hall8@yahoo.com</v>
+        <v>nathan.allen87@outlook.com</v>
       </c>
       <c r="F43" t="str">
-        <v>0404 640 755</v>
+        <v>0403 587 263</v>
       </c>
       <c r="G43" t="str">
         <v>Adelaide</v>
       </c>
       <c r="H43" t="str">
-        <v>C</v>
+        <v>B+</v>
       </c>
       <c r="I43" t="str">
         <v>available</v>
-      </c>
-      <c r="J43" t="str">
-        <v>Emilia Thompson</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>55099144-967b-4cf2-b4ed-3cfe46413c92</v>
+        <v>1b5fc1ce-1ed8-4255-a8a4-b02892b2b03a</v>
       </c>
       <c r="B44" t="str">
-        <v>Maya Hernandez</v>
+        <v>Ava Mitchell</v>
       </c>
       <c r="C44">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D44" t="str">
         <v>Female</v>
       </c>
       <c r="E44" t="str">
-        <v>maya.hernandez32@outlook.com</v>
+        <v>ava.mitchell87@icloud.com</v>
       </c>
       <c r="F44" t="str">
-        <v>0400 358 904</v>
+        <v>(211) 525-6721</v>
       </c>
       <c r="G44" t="str">
-        <v>Brisbane</v>
+        <v>Santa Monica</v>
       </c>
       <c r="H44" t="str">
-        <v>C</v>
+        <v>B+</v>
       </c>
       <c r="I44" t="str">
         <v>available</v>
       </c>
       <c r="J44" t="str">
-        <v>Aria Scott</v>
+        <v>Logan Lopez</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>c5fdfaeb-862e-43ab-bf0e-ff3e14e5dbb3</v>
+        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
       </c>
       <c r="B45" t="str">
-        <v>Hannah Martin</v>
+        <v>Felicity Parker-Hill</v>
       </c>
       <c r="C45">
         <v>27</v>
       </c>
       <c r="D45" t="str">
-        <v>Female</v>
+        <v>Not Specified</v>
       </c>
       <c r="E45" t="str">
-        <v>hannah.martin78@yahoo.com</v>
+        <v>felicity.parkerhill@endemolshine.com.au</v>
       </c>
       <c r="F45" t="str">
-        <v>0410 940 985</v>
+        <v>498086080</v>
       </c>
       <c r="G45" t="str">
-        <v>Hobart</v>
+        <v>Melbourne</v>
       </c>
       <c r="H45" t="str">
-        <v>B</v>
+        <v/>
       </c>
       <c r="I45" t="str">
         <v>available</v>
       </c>
       <c r="J45" t="str">
-        <v>Abigail Lee</v>
+        <v>Peter Adamidis, Kathleen Reynolds</v>
+      </c>
+      <c r="K45" t="str">
+        <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
+      </c>
+      <c r="L45" t="str">
+        <v>N</v>
+      </c>
+      <c r="M45" t="str">
+        <v>N/A</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>f960de1f-a40f-4281-9d39-2a7822335b9b</v>
+        <v>efe20d3d-2162-4ff8-a8ff-4102e5d3f3ab</v>
       </c>
       <c r="B46" t="str">
-        <v>Victoria Carter</v>
+        <v>Cameron Lee</v>
       </c>
       <c r="C46">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D46" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E46" t="str">
-        <v>victoria.carter74@gmail.com</v>
+        <v>cameron.lee78@yahoo.com</v>
       </c>
       <c r="F46" t="str">
-        <v>0411 641 632</v>
+        <v>0404 821 708</v>
       </c>
       <c r="G46" t="str">
-        <v>Gold Coast</v>
+        <v>Cairns</v>
       </c>
       <c r="H46" t="str">
         <v>B+</v>
@@ -2140,63 +2161,57 @@
       <c r="I46" t="str">
         <v>available</v>
       </c>
-      <c r="J46" t="str">
-        <v>Emilia Miller</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>699a6b21-dcdf-4a6c-a093-53af77ccdedb</v>
+        <v>9b54470e-fe91-4ebb-b0aa-becf22a8cc3c</v>
       </c>
       <c r="B47" t="str">
-        <v>Emilia Lopez</v>
+        <v>Abigail Jackson</v>
       </c>
       <c r="C47">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D47" t="str">
         <v>Female</v>
       </c>
       <c r="E47" t="str">
-        <v>emilia.lopez21@gmail.com</v>
+        <v>abigail.jackson65@outlook.com</v>
       </c>
       <c r="F47" t="str">
-        <v>0403 491 553</v>
+        <v>0411 824 257</v>
       </c>
       <c r="G47" t="str">
-        <v>Cairns</v>
+        <v>Newcastle</v>
       </c>
       <c r="H47" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I47" t="str">
         <v>available</v>
-      </c>
-      <c r="J47" t="str">
-        <v>Aurora Rodriguez</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>29fc5656-fb78-4c9b-9800-b68957bc0a07</v>
+        <v>d609a3ee-08af-4d16-aa51-c67e35cfa5c9</v>
       </c>
       <c r="B48" t="str">
-        <v>Aria Lopez</v>
+        <v>Ryan Williams</v>
       </c>
       <c r="C48">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D48" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E48" t="str">
-        <v>aria.lopez55@hotmail.com</v>
+        <v>ryan.williams82@hotmail.com</v>
       </c>
       <c r="F48" t="str">
-        <v>0404 812 491</v>
+        <v>0401 450 673</v>
       </c>
       <c r="G48" t="str">
-        <v>Sydney</v>
+        <v>Perth</v>
       </c>
       <c r="H48" t="str">
         <v>B+</v>
@@ -2204,307 +2219,310 @@
       <c r="I48" t="str">
         <v>available</v>
       </c>
-      <c r="J48" t="str">
-        <v>Paisley Lee</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>6591420b-4762-4d90-b738-8a5b70458c40</v>
+        <v>c25335af-b2c3-42d1-a950-360c28d1922c</v>
       </c>
       <c r="B49" t="str">
-        <v>Aurora Hill</v>
+        <v>Avery Clark</v>
       </c>
       <c r="C49">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D49" t="str">
         <v>Female</v>
       </c>
       <c r="E49" t="str">
-        <v>aurora.hill33@hotmail.com</v>
+        <v>avery.clark42@hotmail.com</v>
       </c>
       <c r="F49" t="str">
-        <v>0410 373 844</v>
+        <v>(612) 764-2446</v>
       </c>
       <c r="G49" t="str">
-        <v>Gold Coast</v>
+        <v>San Jose</v>
       </c>
       <c r="H49" t="str">
-        <v>B+</v>
+        <v>A+</v>
       </c>
       <c r="I49" t="str">
-        <v>assigned</v>
+        <v>available</v>
+      </c>
+      <c r="J49" t="str">
+        <v>Joshua Martinez</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>cd648690-8cd1-44b6-be26-0521038f442f</v>
+        <v>0faec83d-7c29-4269-bf33-391ef02d60e4</v>
       </c>
       <c r="B50" t="str">
-        <v>Stella Hall</v>
+        <v>Anna White</v>
       </c>
       <c r="C50">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D50" t="str">
         <v>Female</v>
       </c>
       <c r="E50" t="str">
-        <v>stella.hall72@gmail.com</v>
+        <v>anna.white24@yahoo.com</v>
       </c>
       <c r="F50" t="str">
-        <v>0410 133 818</v>
+        <v>0400 132 564</v>
       </c>
       <c r="G50" t="str">
-        <v>Wollongong</v>
+        <v>Adelaide</v>
       </c>
       <c r="H50" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I50" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>bb319a54-7dbf-4a05-bd7f-8f2f6aa6b414</v>
+        <v>f1466859-7323-4893-a189-a0ce994068ba</v>
       </c>
       <c r="B51" t="str">
-        <v>Isabella Brown</v>
+        <v>Anthony Thompson</v>
       </c>
       <c r="C51">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D51" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E51" t="str">
-        <v>isabella.brown43@outlook.com</v>
+        <v>anthony.thompson29@yahoo.com</v>
       </c>
       <c r="F51" t="str">
-        <v>0403 771 690</v>
+        <v>0412 442 587</v>
       </c>
       <c r="G51" t="str">
-        <v>Darwin</v>
+        <v>Townsville</v>
       </c>
       <c r="H51" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="I51" t="str">
         <v>available</v>
       </c>
-      <c r="J51" t="str">
-        <v>Ella Anderson</v>
+      <c r="M51" t="str">
+        <v>Vision impaired - needs assistance</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>32ffeaf9-5f22-4db7-a70b-cbaab834db0d</v>
+        <v>0a153155-dcf5-4d56-9ed1-8960501157f8</v>
       </c>
       <c r="B52" t="str">
-        <v>Isabella Hill</v>
+        <v>Aurora Gonzalez</v>
       </c>
       <c r="C52">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D52" t="str">
         <v>Female</v>
       </c>
       <c r="E52" t="str">
-        <v>isabella.hill77@hotmail.com</v>
+        <v>aurora.gonzalez29@outlook.com</v>
       </c>
       <c r="F52" t="str">
-        <v>0412 663 356</v>
+        <v>0404 610 172</v>
       </c>
       <c r="G52" t="str">
-        <v>Darwin</v>
+        <v>Toowoomba</v>
       </c>
       <c r="H52" t="str">
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="I52" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>ee7f9d33-09d6-417b-a45f-3e6554489f5b</v>
+        <v>3d2128a1-336f-41e1-973b-b5dd54d90b19</v>
       </c>
       <c r="B53" t="str">
-        <v>Dylan Miller</v>
+        <v>Nova Brown</v>
       </c>
       <c r="C53">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="D53" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E53" t="str">
-        <v>dylan.miller23@hotmail.com</v>
+        <v>nova.brown80@outlook.com</v>
       </c>
       <c r="F53" t="str">
-        <v>0402 417 876</v>
+        <v>0411 154 614</v>
       </c>
       <c r="G53" t="str">
-        <v>Melbourne</v>
+        <v>Ballarat</v>
       </c>
       <c r="H53" t="str">
         <v>A</v>
       </c>
       <c r="I53" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>3db7cdb3-9a92-467c-b554-d23b524f42f5</v>
+        <v>29fc5656-fb78-4c9b-9800-b68957bc0a07</v>
       </c>
       <c r="B54" t="str">
-        <v>Claire Campbell</v>
+        <v>Aria Lopez</v>
       </c>
       <c r="C54">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D54" t="str">
         <v>Female</v>
       </c>
       <c r="E54" t="str">
-        <v>claire.campbell9@outlook.com</v>
+        <v>aria.lopez55@hotmail.com</v>
       </c>
       <c r="F54" t="str">
-        <v>0401 164 490</v>
+        <v>0404 812 491</v>
       </c>
       <c r="G54" t="str">
-        <v>Darwin</v>
+        <v>Sydney</v>
       </c>
       <c r="H54" t="str">
         <v>B+</v>
       </c>
       <c r="I54" t="str">
-        <v>assigned</v>
+        <v>available</v>
+      </c>
+      <c r="J54" t="str">
+        <v>Paisley Lee</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>25370fa8-38bb-4172-9e02-23a59fcfd87a</v>
+        <v>c4e002c2-94ef-471f-b43d-e6b2a8d35a1c</v>
       </c>
       <c r="B55" t="str">
-        <v>Carter Hill</v>
+        <v>Paisley Scott</v>
       </c>
       <c r="C55">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D55" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E55" t="str">
-        <v>carter.hill93@gmail.com</v>
+        <v>paisley.scott78@yahoo.com</v>
       </c>
       <c r="F55" t="str">
-        <v>0404 349 309</v>
+        <v>0410 215 419</v>
       </c>
       <c r="G55" t="str">
-        <v>Newcastle</v>
+        <v>Ballarat</v>
       </c>
       <c r="H55" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I55" t="str">
-        <v>assigned</v>
+        <v>available</v>
+      </c>
+      <c r="J55" t="str">
+        <v>Mia Roberts</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>5c31add6-7626-46c5-a3e1-0e452ead739d</v>
+        <v>da957311-60b3-4bfc-b980-ac0506dccd20</v>
       </c>
       <c r="B56" t="str">
-        <v>Charles Torres</v>
+        <v>Stella Garcia</v>
       </c>
       <c r="C56">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D56" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E56" t="str">
-        <v>charles.torres98@outlook.com</v>
+        <v>stella.garcia89@hotmail.com</v>
       </c>
       <c r="F56" t="str">
-        <v>0401 744 176</v>
+        <v>0403 655 540</v>
       </c>
       <c r="G56" t="str">
-        <v>Wollongong</v>
+        <v>Toowoomba</v>
       </c>
       <c r="H56" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I56" t="str">
-        <v>assigned</v>
+        <v>available</v>
+      </c>
+      <c r="J56" t="str">
+        <v>Emily Thomas</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>5a6b21ec-9fac-4adc-b5ab-bcad20d0eca4</v>
+        <v>50b3a8f6-823f-477c-b52d-5b4fba4edbd2</v>
       </c>
       <c r="B57" t="str">
-        <v>Hunter Harris</v>
+        <v>Naomi Moore</v>
       </c>
       <c r="C57">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D57" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E57" t="str">
-        <v>hunter.harris1@gmail.com</v>
+        <v>naomi.moore30@gmail.com</v>
       </c>
       <c r="F57" t="str">
-        <v>0404 782 485</v>
+        <v>(391) 998-1729</v>
       </c>
       <c r="G57" t="str">
-        <v>Gold Coast</v>
+        <v>Irvine</v>
       </c>
       <c r="H57" t="str">
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="I57" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
       <c r="J57" t="str">
-        <v/>
-      </c>
-      <c r="L57" t="str">
-        <v>sdfasdf</v>
-      </c>
-      <c r="M57" t="str">
-        <v>sdfasdfa</v>
+        <v>Isla Wright, Cora Roberts</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>34685ff7-6e85-4bbd-b546-77cfe11d7f7d</v>
+        <v>0bb2a1aa-a74d-4711-a2ea-609663a77b4d</v>
       </c>
       <c r="B58" t="str">
-        <v>Grace Walker</v>
+        <v>Carter Harris</v>
       </c>
       <c r="C58">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D58" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E58" t="str">
-        <v>grace.walker52@hotmail.com</v>
+        <v>carter.harris82@yahoo.com</v>
       </c>
       <c r="F58" t="str">
-        <v>0412 754 780</v>
+        <v>0412 175 744</v>
       </c>
       <c r="G58" t="str">
-        <v>Canberra</v>
+        <v>Geelong</v>
       </c>
       <c r="H58" t="str">
-        <v>A+</v>
+        <v>C</v>
       </c>
       <c r="I58" t="str">
         <v>available</v>
@@ -2512,97 +2530,103 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>a2ff3ad7-7964-4523-bf18-ce9994a910da</v>
+        <v>9efd8ec8-0e91-45d9-804b-518939fbac76</v>
       </c>
       <c r="B59" t="str">
-        <v>Nora Mitchell</v>
+        <v>Noah Hernandez</v>
       </c>
       <c r="C59">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D59" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E59" t="str">
-        <v>nora.mitchell66@outlook.com</v>
+        <v>noah.hernandez9@hotmail.com</v>
       </c>
       <c r="F59" t="str">
-        <v>0412 196 419</v>
+        <v>0404 855 230</v>
       </c>
       <c r="G59" t="str">
-        <v>Adelaide</v>
+        <v>Cairns</v>
       </c>
       <c r="H59" t="str">
         <v>C</v>
       </c>
       <c r="I59" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>47cc1288-cbc0-4159-a52d-924c8912434d</v>
+        <v>49e2abec-5fbc-4b4e-9147-fc29f4df9e48</v>
       </c>
       <c r="B60" t="str">
-        <v>Stella Martinez</v>
+        <v>Ellie Allen</v>
       </c>
       <c r="C60">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D60" t="str">
         <v>Female</v>
       </c>
       <c r="E60" t="str">
-        <v>stella.martinez75@gmail.com</v>
+        <v>ellie.allen18@hotmail.com</v>
       </c>
       <c r="F60" t="str">
-        <v>0404 227 272</v>
+        <v>(303) 763-9138</v>
       </c>
       <c r="G60" t="str">
-        <v>Ballarat</v>
+        <v>Stockton</v>
       </c>
       <c r="H60" t="str">
-        <v>C</v>
+        <v>A+</v>
       </c>
       <c r="I60" t="str">
-        <v>assigned</v>
+        <v>available</v>
+      </c>
+      <c r="J60" t="str">
+        <v>Emma Torres, Charlotte Hernandez</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>f68d2771-4820-4fef-b156-093280aeea67</v>
+        <v>347bdea3-79f6-4991-9601-b2d86513429e</v>
       </c>
       <c r="B61" t="str">
-        <v>Aria Nguyen</v>
+        <v>Violet Hall</v>
       </c>
       <c r="C61">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="D61" t="str">
         <v>Female</v>
       </c>
       <c r="E61" t="str">
-        <v>aria.nguyen36@gmail.com</v>
+        <v>violet.hall8@yahoo.com</v>
       </c>
       <c r="F61" t="str">
-        <v>0401 618 716</v>
+        <v>0404 640 755</v>
       </c>
       <c r="G61" t="str">
-        <v>Sydney</v>
+        <v>Adelaide</v>
       </c>
       <c r="H61" t="str">
         <v>C</v>
       </c>
       <c r="I61" t="str">
-        <v>assigned</v>
+        <v>available</v>
+      </c>
+      <c r="J61" t="str">
+        <v>Emilia Thompson</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>b8c1889f-fd66-4304-90d7-bd50422cbc52</v>
+        <v>55099144-967b-4cf2-b4ed-3cfe46413c92</v>
       </c>
       <c r="B62" t="str">
-        <v>Maya Moore</v>
+        <v>Maya Hernandez</v>
       </c>
       <c r="C62">
         <v>43</v>
@@ -2611,452 +2635,452 @@
         <v>Female</v>
       </c>
       <c r="E62" t="str">
-        <v>maya.moore54@outlook.com</v>
+        <v>maya.hernandez32@outlook.com</v>
       </c>
       <c r="F62" t="str">
-        <v>0400 718 585</v>
+        <v>0400 358 904</v>
       </c>
       <c r="G62" t="str">
-        <v>Toowoomba</v>
+        <v>Brisbane</v>
       </c>
       <c r="H62" t="str">
         <v>C</v>
       </c>
       <c r="I62" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
       <c r="J62" t="str">
-        <v>Sofia Williams</v>
+        <v>Aria Scott</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>939eed5c-b520-4a34-8d08-2243d6aa41c1</v>
+        <v>93e72347-d9bf-4fb1-b06c-7cb5a2edcc2a</v>
       </c>
       <c r="B63" t="str">
-        <v>Andrew Garcia</v>
+        <v>Grace King</v>
       </c>
       <c r="C63">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D63" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E63" t="str">
-        <v>andrew.garcia26@hotmail.com</v>
+        <v>grace.king1@yahoo.com</v>
       </c>
       <c r="F63" t="str">
-        <v>0400 450 222</v>
+        <v>(217) 721-5651</v>
       </c>
       <c r="G63" t="str">
-        <v>Darwin</v>
+        <v>Oakland</v>
       </c>
       <c r="H63" t="str">
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="I63" t="str">
-        <v>assigned</v>
-      </c>
-      <c r="M63" t="str">
-        <v>Limited mobility - prefers ground floor seating</v>
+        <v>available</v>
+      </c>
+      <c r="J63" t="str">
+        <v>Gianna Hill</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>1df33560-ebf2-41ec-995c-52f3f1df78d5</v>
+        <v>c5fdfaeb-862e-43ab-bf0e-ff3e14e5dbb3</v>
       </c>
       <c r="B64" t="str">
-        <v>Genesis Jones</v>
+        <v>Hannah Martin</v>
       </c>
       <c r="C64">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D64" t="str">
         <v>Female</v>
       </c>
       <c r="E64" t="str">
-        <v>genesis.jones50@yahoo.com</v>
+        <v>hannah.martin78@yahoo.com</v>
       </c>
       <c r="F64" t="str">
-        <v>0404 967 604</v>
+        <v>0410 940 985</v>
       </c>
       <c r="G64" t="str">
-        <v>Sydney</v>
+        <v>Hobart</v>
       </c>
       <c r="H64" t="str">
         <v>B</v>
       </c>
       <c r="I64" t="str">
-        <v>assigned</v>
+        <v>available</v>
+      </c>
+      <c r="J64" t="str">
+        <v>Abigail Lee</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>da40ad70-95be-413c-b0f1-d089ef285cc8</v>
+        <v>f960de1f-a40f-4281-9d39-2a7822335b9b</v>
       </c>
       <c r="B65" t="str">
-        <v>Emily Smith</v>
+        <v>Victoria Carter</v>
       </c>
       <c r="C65">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D65" t="str">
         <v>Female</v>
       </c>
       <c r="E65" t="str">
-        <v>emily.smith56@hotmail.com</v>
+        <v>victoria.carter74@gmail.com</v>
       </c>
       <c r="F65" t="str">
-        <v>0410 101 780</v>
+        <v>0411 641 632</v>
       </c>
       <c r="G65" t="str">
-        <v>Toowoomba</v>
+        <v>Gold Coast</v>
       </c>
       <c r="H65" t="str">
-        <v>A+</v>
+        <v>B+</v>
       </c>
       <c r="I65" t="str">
         <v>available</v>
       </c>
-      <c r="M65" t="str">
-        <v>Limited mobility - prefers ground floor seating</v>
+      <c r="J65" t="str">
+        <v>Emilia Miller</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>222469f4-a8d9-4550-b6ee-db9d00e24edd</v>
+        <v>699a6b21-dcdf-4a6c-a093-53af77ccdedb</v>
       </c>
       <c r="B66" t="str">
-        <v>Chloe Flores</v>
+        <v>Emilia Lopez</v>
       </c>
       <c r="C66">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D66" t="str">
         <v>Female</v>
       </c>
       <c r="E66" t="str">
-        <v>chloe.flores93@yahoo.com</v>
+        <v>emilia.lopez21@gmail.com</v>
       </c>
       <c r="F66" t="str">
-        <v>0400 918 463</v>
+        <v>0403 491 553</v>
       </c>
       <c r="G66" t="str">
-        <v>Townsville</v>
+        <v>Cairns</v>
       </c>
       <c r="H66" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I66" t="str">
         <v>available</v>
       </c>
       <c r="J66" t="str">
-        <v>Evelyn Sanchez</v>
+        <v>Aurora Rodriguez</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>852226e3-fccb-4228-8627-5dc42cfe4387</v>
+        <v>a2ff3ad7-7964-4523-bf18-ce9994a910da</v>
       </c>
       <c r="B67" t="str">
-        <v>Aurora Rodriguez</v>
+        <v>Nora Mitchell</v>
       </c>
       <c r="C67">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D67" t="str">
         <v>Female</v>
       </c>
       <c r="E67" t="str">
-        <v>aurora.rodriguez20@yahoo.com</v>
+        <v>nora.mitchell66@outlook.com</v>
       </c>
       <c r="F67" t="str">
-        <v>0404 720 692</v>
+        <v>0412 196 419</v>
       </c>
       <c r="G67" t="str">
-        <v>Hobart</v>
+        <v>Adelaide</v>
       </c>
       <c r="H67" t="str">
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="I67" t="str">
         <v>available</v>
-      </c>
-      <c r="J67" t="str">
-        <v>Emilia Lopez</v>
-      </c>
-      <c r="M67" t="str">
-        <v>Arthritis - prefers aisle seating for easy exit</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>1adac400-525f-40f4-8b6d-20df8ce78e9d</v>
+        <v>ee7f9d33-09d6-417b-a45f-3e6554489f5b</v>
       </c>
       <c r="B68" t="str">
-        <v>Grace Scott</v>
+        <v>Dylan Miller</v>
       </c>
       <c r="C68">
         <v>35</v>
       </c>
       <c r="D68" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E68" t="str">
-        <v>grace.scott40@outlook.com</v>
+        <v>dylan.miller23@hotmail.com</v>
       </c>
       <c r="F68" t="str">
-        <v>0401 870 853</v>
+        <v>0402 417 876</v>
       </c>
       <c r="G68" t="str">
-        <v>Ballarat</v>
+        <v>Melbourne</v>
       </c>
       <c r="H68" t="str">
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="I68" t="str">
         <v>available</v>
-      </c>
-      <c r="J68" t="str">
-        <v>Emily Moore</v>
-      </c>
-      <c r="M68" t="str">
-        <v>Hearing impaired - requires front row seating</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>0dd7de5c-0409-45e3-84a5-5f2ffbd591d8</v>
+        <v>3db7cdb3-9a92-467c-b554-d23b524f42f5</v>
       </c>
       <c r="B69" t="str">
-        <v>Harper Sanchez</v>
+        <v>Claire Campbell</v>
       </c>
       <c r="C69">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D69" t="str">
         <v>Female</v>
       </c>
       <c r="E69" t="str">
-        <v>harper.sanchez76@gmail.com</v>
+        <v>claire.campbell9@outlook.com</v>
       </c>
       <c r="F69" t="str">
-        <v>0411 422 972</v>
+        <v>0401 164 490</v>
       </c>
       <c r="G69" t="str">
-        <v>Geelong</v>
+        <v>Darwin</v>
       </c>
       <c r="H69" t="str">
-        <v>C</v>
+        <v>B+</v>
       </c>
       <c r="I69" t="str">
         <v>available</v>
-      </c>
-      <c r="J69" t="str">
-        <v>Leah Scott</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>182bd5d2-7f68-4c83-b156-e80856f3b6b7</v>
+        <v>799c4a95-9c60-477c-ab86-09dfb2ad8324</v>
       </c>
       <c r="B70" t="str">
-        <v>Mason Nelson</v>
+        <v>Naomi Brown</v>
       </c>
       <c r="C70">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="D70" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E70" t="str">
-        <v>mason.nelson14@hotmail.com</v>
+        <v>naomi.brown56@yahoo.com</v>
       </c>
       <c r="F70" t="str">
-        <v>0403 485 650</v>
+        <v>(932) 818-9639</v>
       </c>
       <c r="G70" t="str">
-        <v>Canberra</v>
+        <v>Sacramento</v>
       </c>
       <c r="H70" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I70" t="str">
-        <v>assigned</v>
+        <v>available</v>
+      </c>
+      <c r="J70" t="str">
+        <v>Brooklyn Nguyen</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>7728eead-ab7c-467f-bb41-2abd7952591a</v>
+        <v>5a6b21ec-9fac-4adc-b5ab-bcad20d0eca4</v>
       </c>
       <c r="B71" t="str">
-        <v>Oliver Rivera</v>
+        <v>Hunter Harris</v>
       </c>
       <c r="C71">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D71" t="str">
         <v>Male</v>
       </c>
       <c r="E71" t="str">
-        <v>oliver.rivera58@outlook.com</v>
+        <v>hunter.harris1@gmail.com</v>
       </c>
       <c r="F71" t="str">
-        <v>0412 991 121</v>
+        <v>0404 782 485</v>
       </c>
       <c r="G71" t="str">
-        <v>Canberra</v>
+        <v>Gold Coast</v>
       </c>
       <c r="H71" t="str">
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="I71" t="str">
-        <v>assigned</v>
+        <v>available</v>
+      </c>
+      <c r="J71" t="str">
+        <v/>
+      </c>
+      <c r="L71" t="str">
+        <v>sdfasdf</v>
       </c>
       <c r="M71" t="str">
-        <v>Requires wheelchair access</v>
+        <v>sdfasdfa</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>bf283832-25b8-4d7f-9e0f-ef2f10903233</v>
+        <v>25370fa8-38bb-4172-9e02-23a59fcfd87a</v>
       </c>
       <c r="B72" t="str">
-        <v>Hunter Jackson</v>
+        <v>Carter Hill</v>
       </c>
       <c r="C72">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="D72" t="str">
         <v>Male</v>
       </c>
       <c r="E72" t="str">
-        <v>hunter.jackson50@outlook.com</v>
+        <v>carter.hill93@gmail.com</v>
       </c>
       <c r="F72" t="str">
-        <v>0404 841 788</v>
+        <v>0404 349 309</v>
       </c>
       <c r="G72" t="str">
-        <v>Townsville</v>
+        <v>Newcastle</v>
       </c>
       <c r="H72" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I72" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>f693d8fc-436b-426a-9bca-0b141221ab3f</v>
+        <v>5c31add6-7626-46c5-a3e1-0e452ead739d</v>
       </c>
       <c r="B73" t="str">
-        <v>Evelyn Clark</v>
+        <v>Charles Torres</v>
       </c>
       <c r="C73">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D73" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E73" t="str">
-        <v>evelyn.clark47@outlook.com</v>
+        <v>charles.torres98@outlook.com</v>
       </c>
       <c r="F73" t="str">
-        <v>0410 941 656</v>
+        <v>0401 744 176</v>
       </c>
       <c r="G73" t="str">
-        <v>Hobart</v>
+        <v>Wollongong</v>
       </c>
       <c r="H73" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I73" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>567e589d-b232-43c2-9d30-3ff1e359f372</v>
+        <v>bb319a54-7dbf-4a05-bd7f-8f2f6aa6b414</v>
       </c>
       <c r="B74" t="str">
-        <v>Hazel Mitchell</v>
+        <v>Isabella Brown</v>
       </c>
       <c r="C74">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="D74" t="str">
         <v>Female</v>
       </c>
       <c r="E74" t="str">
-        <v>hazel.mitchell91@gmail.com</v>
+        <v>isabella.brown43@outlook.com</v>
       </c>
       <c r="F74" t="str">
-        <v>0400 683 761</v>
+        <v>0403 771 690</v>
       </c>
       <c r="G74" t="str">
-        <v>Perth</v>
+        <v>Darwin</v>
       </c>
       <c r="H74" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="I74" t="str">
         <v>available</v>
       </c>
       <c r="J74" t="str">
-        <v>Caroline Taylor</v>
+        <v>Ella Anderson</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>ca152dfe-8ddb-45c8-b084-8a5c9e6dacfa</v>
+        <v>6b672a17-fbf7-4b44-841d-dc10fbe8cbce</v>
       </c>
       <c r="B75" t="str">
-        <v>Ryan Lewis</v>
+        <v>Sadie Williams</v>
       </c>
       <c r="C75">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="D75" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E75" t="str">
-        <v>ryan.lewis85@yahoo.com</v>
+        <v>sadie.williams7@icloud.com</v>
       </c>
       <c r="F75" t="str">
-        <v>0400 187 811</v>
+        <v>(175) 960-1387</v>
       </c>
       <c r="G75" t="str">
-        <v>Canberra</v>
+        <v>Anaheim</v>
       </c>
       <c r="H75" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I75" t="str">
-        <v>assigned</v>
+        <v>available</v>
+      </c>
+      <c r="J75" t="str">
+        <v>Michael Campbell, Eleanor Hall</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>f6a281bb-caec-44cf-a596-a6e92d6e2610</v>
+        <v>939eed5c-b520-4a34-8d08-2243d6aa41c1</v>
       </c>
       <c r="B76" t="str">
-        <v>Leah Scott</v>
+        <v>Andrew Garcia</v>
       </c>
       <c r="C76">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D76" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E76" t="str">
-        <v>leah.scott74@gmail.com</v>
+        <v>andrew.garcia26@hotmail.com</v>
       </c>
       <c r="F76" t="str">
-        <v>0402 414 358</v>
+        <v>0400 450 222</v>
       </c>
       <c r="G76" t="str">
-        <v>Perth</v>
+        <v>Darwin</v>
       </c>
       <c r="H76" t="str">
         <v>B</v>
@@ -3064,77 +3088,74 @@
       <c r="I76" t="str">
         <v>available</v>
       </c>
-      <c r="J76" t="str">
-        <v>Harper Sanchez</v>
-      </c>
       <c r="M76" t="str">
         <v>Limited mobility - prefers ground floor seating</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>45c0fc2b-415d-475a-998d-934235565d6b</v>
+        <v>1df33560-ebf2-41ec-995c-52f3f1df78d5</v>
       </c>
       <c r="B77" t="str">
-        <v>Scarlett Wright</v>
+        <v>Genesis Jones</v>
       </c>
       <c r="C77">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D77" t="str">
         <v>Female</v>
       </c>
       <c r="E77" t="str">
-        <v>scarlett.wright68@outlook.com</v>
+        <v>genesis.jones50@yahoo.com</v>
       </c>
       <c r="F77" t="str">
-        <v>0412 487 763</v>
+        <v>0404 967 604</v>
       </c>
       <c r="G77" t="str">
-        <v>Newcastle</v>
+        <v>Sydney</v>
       </c>
       <c r="H77" t="str">
         <v>B</v>
       </c>
       <c r="I77" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>6ddd3228-f125-4d3e-88e2-157cd730b552</v>
+        <v>6591420b-4762-4d90-b738-8a5b70458c40</v>
       </c>
       <c r="B78" t="str">
-        <v>Theodore Nelson</v>
+        <v>Aurora Hill</v>
       </c>
       <c r="C78">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D78" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E78" t="str">
-        <v>theodore.nelson79@gmail.com</v>
+        <v>aurora.hill33@hotmail.com</v>
       </c>
       <c r="F78" t="str">
-        <v>0403 813 793</v>
+        <v>0410 373 844</v>
       </c>
       <c r="G78" t="str">
-        <v>Canberra</v>
+        <v>Gold Coast</v>
       </c>
       <c r="H78" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I78" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>e15c67b6-0680-4284-a8aa-a525b34c592d</v>
+        <v>5b54b59b-b78d-4a12-906b-7f9069a82fb5</v>
       </c>
       <c r="B79" t="str">
-        <v>Aurora Williams</v>
+        <v>Amelia Lopez</v>
       </c>
       <c r="C79">
         <v>27</v>
@@ -3143,795 +3164,4856 @@
         <v>Female</v>
       </c>
       <c r="E79" t="str">
-        <v>aurora.williams76@outlook.com</v>
+        <v>amelia.lopez92@yahoo.com</v>
       </c>
       <c r="F79" t="str">
-        <v>0401 416 170</v>
+        <v>(297) 700-2964</v>
       </c>
       <c r="G79" t="str">
-        <v>Darwin</v>
+        <v>Pomona</v>
       </c>
       <c r="H79" t="str">
         <v>C</v>
       </c>
       <c r="I79" t="str">
-        <v>assigned</v>
-      </c>
-      <c r="M79" t="str">
-        <v>Uses walking cane</v>
+        <v>available</v>
+      </c>
+      <c r="J79" t="str">
+        <v>Lillian Campbell</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>ad836319-db56-4a08-bca6-a8e3f19c37a8</v>
+        <v>b57be3ad-f74f-4f2b-aa79-6e410d2c199b</v>
       </c>
       <c r="B80" t="str">
-        <v>Emily Johnson</v>
+        <v>Sofia Williams</v>
       </c>
       <c r="C80">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D80" t="str">
         <v>Female</v>
       </c>
       <c r="E80" t="str">
-        <v>emily.johnson58@hotmail.com</v>
+        <v>sofia.williams60@outlook.com</v>
       </c>
       <c r="F80" t="str">
-        <v>0412 663 939</v>
+        <v>(745) 392-3827</v>
       </c>
       <c r="G80" t="str">
-        <v>Perth</v>
+        <v>Newport Beach</v>
       </c>
       <c r="H80" t="str">
         <v>B</v>
       </c>
       <c r="I80" t="str">
-        <v>assigned</v>
+        <v>available</v>
+      </c>
+      <c r="J80" t="str">
+        <v>Colton Harris, Sebastian Edwards</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>40727c14-a30e-4e3b-8b64-0359d25efc0c</v>
+        <v>32ffeaf9-5f22-4db7-a70b-cbaab834db0d</v>
       </c>
       <c r="B81" t="str">
-        <v>Joshua Scott</v>
+        <v>Isabella Hill</v>
       </c>
       <c r="C81">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="D81" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E81" t="str">
-        <v>joshua.scott95@outlook.com</v>
+        <v>isabella.hill77@hotmail.com</v>
       </c>
       <c r="F81" t="str">
-        <v>0410 137 561</v>
+        <v>0412 663 356</v>
       </c>
       <c r="G81" t="str">
-        <v>Canberra</v>
+        <v>Darwin</v>
       </c>
       <c r="H81" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I81" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>2811bf99-369b-4c0a-b5d6-4ff46cd7aa5e</v>
+        <v>703385ff-46f6-4b8f-9998-1e18951304e0</v>
       </c>
       <c r="B82" t="str">
-        <v>Lucas Thomas</v>
+        <v>Avery Cruz</v>
       </c>
       <c r="C82">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="D82" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E82" t="str">
-        <v>lucas.thomas30@yahoo.com</v>
+        <v>avery.cruz48@yahoo.com</v>
       </c>
       <c r="F82" t="str">
-        <v>0412 527 117</v>
+        <v>(405) 750-6185</v>
       </c>
       <c r="G82" t="str">
-        <v>Brisbane</v>
+        <v>Fremont</v>
       </c>
       <c r="H82" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I82" t="str">
-        <v>assigned</v>
+        <v>available</v>
+      </c>
+      <c r="J82" t="str">
+        <v>Lydia Torres, Mia Anderson</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>0e8f635e-8f06-4224-a2cc-4263ac307ba2</v>
+        <v>4f1d5a65-9d8d-4c5a-836a-f0ea71c91e56</v>
       </c>
       <c r="B83" t="str">
-        <v>Joshua Jones</v>
+        <v>Savannah Rivera</v>
       </c>
       <c r="C83">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D83" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E83" t="str">
-        <v>joshua.jones82@yahoo.com</v>
+        <v>savannah.rivera74@hotmail.com</v>
       </c>
       <c r="F83" t="str">
-        <v>0400 652 840</v>
+        <v>(132) 232-5005</v>
       </c>
       <c r="G83" t="str">
-        <v>Toowoomba</v>
+        <v>Stockton</v>
       </c>
       <c r="H83" t="str">
-        <v>B</v>
+        <v>A+</v>
       </c>
       <c r="I83" t="str">
-        <v>assigned</v>
+        <v>available</v>
+      </c>
+      <c r="J83" t="str">
+        <v>Penelope Williams</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>7bfb9432-4b59-4ceb-895d-e03ae4837f91</v>
+        <v>523bddcf-6298-42a0-b9cb-4deffb688143</v>
       </c>
       <c r="B84" t="str">
-        <v>Joshua Walker</v>
+        <v>Brooklyn Rivera</v>
       </c>
       <c r="C84">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="D84" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E84" t="str">
-        <v>joshua.walker97@gmail.com</v>
+        <v>brooklyn.rivera69@outlook.com</v>
       </c>
       <c r="F84" t="str">
-        <v>0402 640 379</v>
+        <v>(847) 715-1204</v>
       </c>
       <c r="G84" t="str">
-        <v>Darwin</v>
+        <v>Glendale</v>
       </c>
       <c r="H84" t="str">
-        <v>B</v>
+        <v>A+</v>
       </c>
       <c r="I84" t="str">
-        <v>assigned</v>
+        <v>available</v>
+      </c>
+      <c r="J84" t="str">
+        <v>John Carter</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>8774a9f4-b951-41cc-b6bd-809a709cb6ea</v>
+        <v>34685ff7-6e85-4bbd-b546-77cfe11d7f7d</v>
       </c>
       <c r="B85" t="str">
-        <v>Lily Walker</v>
+        <v>Grace Walker</v>
       </c>
       <c r="C85">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D85" t="str">
         <v>Female</v>
       </c>
       <c r="E85" t="str">
-        <v>lily.walker96@outlook.com</v>
+        <v>grace.walker52@hotmail.com</v>
       </c>
       <c r="F85" t="str">
-        <v>0410 155 426</v>
+        <v>0412 754 780</v>
       </c>
       <c r="G85" t="str">
-        <v>Hobart</v>
+        <v>Canberra</v>
       </c>
       <c r="H85" t="str">
-        <v>B+</v>
+        <v>A+</v>
       </c>
       <c r="I85" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>e166fd4f-73eb-4bea-b8be-3acdee4f9fdc</v>
+        <v>cd648690-8cd1-44b6-be26-0521038f442f</v>
       </c>
       <c r="B86" t="str">
-        <v>Liam Lewis</v>
+        <v>Stella Hall</v>
       </c>
       <c r="C86">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="D86" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E86" t="str">
-        <v>liam.lewis79@yahoo.com</v>
+        <v>stella.hall72@gmail.com</v>
       </c>
       <c r="F86" t="str">
-        <v>0404 203 198</v>
+        <v>0410 133 818</v>
       </c>
       <c r="G86" t="str">
-        <v>Hobart</v>
+        <v>Wollongong</v>
       </c>
       <c r="H86" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I86" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>5331c6bd-19f8-416a-9166-06280a3c547e</v>
+        <v>47cc1288-cbc0-4159-a52d-924c8912434d</v>
       </c>
       <c r="B87" t="str">
-        <v>Ethan Rodriguez</v>
+        <v>Stella Martinez</v>
       </c>
       <c r="C87">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D87" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E87" t="str">
-        <v>ethan.rodriguez60@hotmail.com</v>
+        <v>stella.martinez75@gmail.com</v>
       </c>
       <c r="F87" t="str">
-        <v>0411 690 563</v>
+        <v>0404 227 272</v>
       </c>
       <c r="G87" t="str">
-        <v>Townsville</v>
+        <v>Ballarat</v>
       </c>
       <c r="H87" t="str">
-        <v>B+</v>
+        <v>C</v>
       </c>
       <c r="I87" t="str">
-        <v>assigned</v>
-      </c>
-      <c r="M87" t="str">
-        <v>Hearing impaired - requires front row seating</v>
+        <v>available</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>e2f70c5c-0a8d-4055-8281-2ad2ae2e0cd6</v>
+        <v>cd2f354f-9f45-4422-af14-1c94758ec1c1</v>
       </c>
       <c r="B88" t="str">
-        <v>Stella Green</v>
+        <v>Hannah Murphy</v>
       </c>
       <c r="C88">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="D88" t="str">
         <v>Female</v>
       </c>
       <c r="E88" t="str">
-        <v>stella.green92@gmail.com</v>
+        <v>hannah.murphy4@outlook.com</v>
       </c>
       <c r="F88" t="str">
-        <v>0404 230 858</v>
+        <v>(544) 415-8741</v>
       </c>
       <c r="G88" t="str">
-        <v>Wollongong</v>
+        <v>Pomona</v>
       </c>
       <c r="H88" t="str">
         <v>A</v>
       </c>
       <c r="I88" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
       <c r="J88" t="str">
-        <v>Everly Torres</v>
-      </c>
-      <c r="M88" t="str">
-        <v>Vision impaired - needs assistance</v>
+        <v>Thomas Rivera</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>adb0c362-d095-4bfd-98dc-c93920fd22d6</v>
+        <v>349c5100-5395-45db-a63a-4f1c0e44ab44</v>
       </c>
       <c r="B89" t="str">
-        <v>Victoria Torres</v>
+        <v>Alexa Hall</v>
       </c>
       <c r="C89">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D89" t="str">
         <v>Female</v>
       </c>
       <c r="E89" t="str">
-        <v>victoria.torres48@outlook.com</v>
+        <v>alexa.hall12@hotmail.com</v>
       </c>
       <c r="F89" t="str">
-        <v>0411 539 271</v>
+        <v>(220) 308-9173</v>
       </c>
       <c r="G89" t="str">
-        <v>Geelong</v>
+        <v>Santa Ana</v>
       </c>
       <c r="H89" t="str">
-        <v>B</v>
+        <v>A+</v>
       </c>
       <c r="I89" t="str">
-        <v>assigned</v>
+        <v>available</v>
+      </c>
+      <c r="J89" t="str">
+        <v>William Allen, Sadie Cook</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>7664257a-dce4-407a-8f24-692043d568be</v>
+        <v>f68d2771-4820-4fef-b156-093280aeea67</v>
       </c>
       <c r="B90" t="str">
-        <v>Nora Jackson</v>
+        <v>Aria Nguyen</v>
       </c>
       <c r="C90">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D90" t="str">
         <v>Female</v>
       </c>
       <c r="E90" t="str">
-        <v>nora.jackson83@hotmail.com</v>
+        <v>aria.nguyen36@gmail.com</v>
       </c>
       <c r="F90" t="str">
-        <v>0404 434 899</v>
+        <v>0401 618 716</v>
       </c>
       <c r="G90" t="str">
-        <v>Wollongong</v>
+        <v>Sydney</v>
       </c>
       <c r="H90" t="str">
-        <v>B+</v>
+        <v>C</v>
       </c>
       <c r="I90" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>59bae9a1-93b9-471d-a2b7-074918634f6b</v>
+        <v>9d6b206c-c62d-4b71-b83d-fb61ac2fd06b</v>
       </c>
       <c r="B91" t="str">
-        <v>Joshua Clark</v>
+        <v>Paisley Brown</v>
       </c>
       <c r="C91">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D91" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E91" t="str">
-        <v>joshua.clark16@outlook.com</v>
+        <v>paisley.brown87@outlook.com</v>
       </c>
       <c r="F91" t="str">
-        <v>0403 901 485</v>
+        <v>(164) 124-5926</v>
       </c>
       <c r="G91" t="str">
-        <v>Sydney</v>
+        <v>Anaheim</v>
       </c>
       <c r="H91" t="str">
         <v>B</v>
       </c>
       <c r="I91" t="str">
-        <v>assigned</v>
+        <v>available</v>
+      </c>
+      <c r="J91" t="str">
+        <v>Amelia Nguyen</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>8956e289-91e9-4c15-bf2b-a13dee2fa476</v>
+        <v>b8c1889f-fd66-4304-90d7-bd50422cbc52</v>
       </c>
       <c r="B92" t="str">
-        <v>Landon Wright</v>
+        <v>Maya Moore</v>
       </c>
       <c r="C92">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D92" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E92" t="str">
-        <v>landon.wright36@outlook.com</v>
+        <v>maya.moore54@outlook.com</v>
       </c>
       <c r="F92" t="str">
-        <v>0402 415 597</v>
+        <v>0400 718 585</v>
       </c>
       <c r="G92" t="str">
-        <v>Cairns</v>
+        <v>Toowoomba</v>
       </c>
       <c r="H92" t="str">
-        <v>B+</v>
+        <v>C</v>
       </c>
       <c r="I92" t="str">
-        <v>assigned</v>
+        <v>available</v>
+      </c>
+      <c r="J92" t="str">
+        <v>Sofia Williams</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>2fa810c7-61d0-4519-a314-824cf0873e30</v>
+        <v>da40ad70-95be-413c-b0f1-d089ef285cc8</v>
       </c>
       <c r="B93" t="str">
-        <v>Theodore Allen</v>
+        <v>Emily Smith</v>
       </c>
       <c r="C93">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D93" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E93" t="str">
-        <v>theodore.allen25@outlook.com</v>
+        <v>emily.smith56@hotmail.com</v>
       </c>
       <c r="F93" t="str">
-        <v>0400 438 819</v>
+        <v>0410 101 780</v>
       </c>
       <c r="G93" t="str">
-        <v>Newcastle</v>
+        <v>Toowoomba</v>
       </c>
       <c r="H93" t="str">
-        <v>B+</v>
+        <v>A+</v>
       </c>
       <c r="I93" t="str">
-        <v>assigned</v>
+        <v>available</v>
+      </c>
+      <c r="M93" t="str">
+        <v>Limited mobility - prefers ground floor seating</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>f9d68052-4310-45c2-a5a9-64c272347899</v>
+        <v>bf0a6231-41b8-4ee9-a915-1043ca5ba524</v>
       </c>
       <c r="B94" t="str">
-        <v>Christian Rivera</v>
+        <v>Elizabeth Nelson</v>
       </c>
       <c r="C94">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="D94" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E94" t="str">
-        <v>christian.rivera86@hotmail.com</v>
+        <v>elizabeth.nelson1@hotmail.com</v>
       </c>
       <c r="F94" t="str">
-        <v>0400 135 743</v>
+        <v>(821) 379-6476</v>
       </c>
       <c r="G94" t="str">
-        <v>Adelaide</v>
+        <v>Oakland</v>
       </c>
       <c r="H94" t="str">
-        <v>B+</v>
+        <v>A+</v>
       </c>
       <c r="I94" t="str">
-        <v>assigned</v>
+        <v>available</v>
+      </c>
+      <c r="J94" t="str">
+        <v>Grayson Edwards, Joseph Anderson</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>ef94ff15-5215-4ecd-9ad1-9ac44fd0e56a</v>
+        <v>14ca564a-7d73-46a9-9bdd-e4924eac5eda</v>
       </c>
       <c r="B95" t="str">
-        <v>Luke Flores</v>
+        <v>Hailey Thompson</v>
       </c>
       <c r="C95">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="D95" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E95" t="str">
-        <v>luke.flores39@hotmail.com</v>
+        <v>hailey.thompson30@yahoo.com</v>
       </c>
       <c r="F95" t="str">
-        <v>0403 225 544</v>
+        <v>(356) 680-9661</v>
       </c>
       <c r="G95" t="str">
-        <v>Melbourne</v>
+        <v>Fremont</v>
       </c>
       <c r="H95" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I95" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>c1783cdf-a656-46b4-9331-4d9d18d40b51</v>
+        <v>222469f4-a8d9-4550-b6ee-db9d00e24edd</v>
       </c>
       <c r="B96" t="str">
-        <v>Aurora Walker</v>
+        <v>Chloe Flores</v>
       </c>
       <c r="C96">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D96" t="str">
         <v>Female</v>
       </c>
       <c r="E96" t="str">
-        <v>aurora.walker1@outlook.com</v>
+        <v>chloe.flores93@yahoo.com</v>
       </c>
       <c r="F96" t="str">
-        <v>0403 522 404</v>
+        <v>0400 918 463</v>
       </c>
       <c r="G96" t="str">
-        <v>Darwin</v>
+        <v>Townsville</v>
       </c>
       <c r="H96" t="str">
-        <v>B+</v>
+        <v>C</v>
       </c>
       <c r="I96" t="str">
-        <v>assigned</v>
-      </c>
-      <c r="M96" t="str">
-        <v>Vision impaired - needs assistance</v>
+        <v>available</v>
+      </c>
+      <c r="J96" t="str">
+        <v>Evelyn Sanchez</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
+        <v>852226e3-fccb-4228-8627-5dc42cfe4387</v>
       </c>
       <c r="B97" t="str">
-        <v>Peter Adamidis</v>
+        <v>Aurora Rodriguez</v>
       </c>
       <c r="C97">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D97" t="str">
-        <v>Not Specified</v>
+        <v>Female</v>
       </c>
       <c r="E97" t="str">
-        <v>peter.adamidis@gmail.com</v>
+        <v>aurora.rodriguez20@yahoo.com</v>
       </c>
       <c r="F97" t="str">
-        <v>498086080</v>
+        <v>0404 720 692</v>
       </c>
       <c r="G97" t="str">
-        <v/>
+        <v>Hobart</v>
       </c>
       <c r="H97" t="str">
-        <v/>
+        <v>A</v>
       </c>
       <c r="I97" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
       <c r="J97" t="str">
-        <v>Kathleen Reynolds, Felicity Parker-Hill</v>
-      </c>
-      <c r="K97" t="str">
-        <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
-      </c>
-      <c r="L97" t="str">
-        <v>Y</v>
+        <v>Emilia Lopez</v>
       </c>
       <c r="M97" t="str">
-        <v>Broken Leg</v>
+        <v>Arthritis - prefers aisle seating for easy exit</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
+        <v>1adac400-525f-40f4-8b6d-20df8ce78e9d</v>
       </c>
       <c r="B98" t="str">
-        <v>Kathleen Reynolds</v>
+        <v>Grace Scott</v>
       </c>
       <c r="C98">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D98" t="str">
-        <v>Not Specified</v>
+        <v>Female</v>
       </c>
       <c r="E98" t="str">
-        <v>kathleenmonicareynolds@gmail.com</v>
+        <v>grace.scott40@outlook.com</v>
       </c>
       <c r="F98" t="str">
-        <v>498086080</v>
+        <v>0401 870 853</v>
       </c>
       <c r="G98" t="str">
-        <v>Footscray</v>
+        <v>Ballarat</v>
       </c>
       <c r="H98" t="str">
-        <v/>
+        <v>B+</v>
       </c>
       <c r="I98" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
       <c r="J98" t="str">
-        <v>Peter Adamidis, Felicity Parker-Hill</v>
-      </c>
-      <c r="K98" t="str">
-        <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
-      </c>
-      <c r="L98" t="str">
-        <v>N</v>
+        <v>Emily Moore</v>
       </c>
       <c r="M98" t="str">
-        <v>N/A</v>
+        <v>Hearing impaired - requires front row seating</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>d7b0dd51-8aea-4b32-bb8d-8b60271fc6c9</v>
+        <v>0dd7de5c-0409-45e3-84a5-5f2ffbd591d8</v>
       </c>
       <c r="B99" t="str">
-        <v>Jayden Nguyen</v>
+        <v>Harper Sanchez</v>
       </c>
       <c r="C99">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="D99" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E99" t="str">
-        <v>jayden.nguyen88@hotmail.com</v>
+        <v>harper.sanchez76@gmail.com</v>
       </c>
       <c r="F99" t="str">
-        <v>0401 108 628</v>
+        <v>0411 422 972</v>
       </c>
       <c r="G99" t="str">
-        <v>Hobart</v>
+        <v>Geelong</v>
       </c>
       <c r="H99" t="str">
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="I99" t="str">
-        <v>assigned</v>
+        <v>available</v>
+      </c>
+      <c r="J99" t="str">
+        <v>Leah Scott</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>a8fa9125-28f1-47e1-adba-784701975e68</v>
+        <v>182bd5d2-7f68-4c83-b156-e80856f3b6b7</v>
       </c>
       <c r="B100" t="str">
-        <v>Abigail Williams</v>
+        <v>Mason Nelson</v>
       </c>
       <c r="C100">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D100" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E100" t="str">
-        <v>abigail.williams45@yahoo.com</v>
+        <v>mason.nelson14@hotmail.com</v>
       </c>
       <c r="F100" t="str">
-        <v>0403 497 445</v>
+        <v>0403 485 650</v>
       </c>
       <c r="G100" t="str">
-        <v>Toowoomba</v>
+        <v>Canberra</v>
       </c>
       <c r="H100" t="str">
-        <v>C</v>
+        <v>B+</v>
       </c>
       <c r="I100" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>39b7a0a4-be8b-49f1-a5af-c5a105e0ab58</v>
+        <v>bf283832-25b8-4d7f-9e0f-ef2f10903233</v>
       </c>
       <c r="B101" t="str">
-        <v>Joshua Carter</v>
+        <v>Hunter Jackson</v>
       </c>
       <c r="C101">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D101" t="str">
         <v>Male</v>
       </c>
       <c r="E101" t="str">
-        <v>joshua.carter41@hotmail.com</v>
+        <v>hunter.jackson50@outlook.com</v>
       </c>
       <c r="F101" t="str">
-        <v>0404 538 442</v>
+        <v>0404 841 788</v>
       </c>
       <c r="G101" t="str">
-        <v>Wollongong</v>
+        <v>Townsville</v>
       </c>
       <c r="H101" t="str">
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="I101" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>df6c0d97-fd38-4b65-8765-b11a4939bd3b</v>
+        <v>7728eead-ab7c-467f-bb41-2abd7952591a</v>
       </c>
       <c r="B102" t="str">
-        <v>Julian Rivera</v>
+        <v>Oliver Rivera</v>
       </c>
       <c r="C102">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D102" t="str">
         <v>Male</v>
       </c>
       <c r="E102" t="str">
-        <v>julian.rivera31@outlook.com</v>
+        <v>oliver.rivera58@outlook.com</v>
       </c>
       <c r="F102" t="str">
-        <v>0401 414 502</v>
+        <v>0412 991 121</v>
       </c>
       <c r="G102" t="str">
-        <v>Perth</v>
+        <v>Canberra</v>
       </c>
       <c r="H102" t="str">
-        <v>B+</v>
+        <v>C</v>
       </c>
       <c r="I102" t="str">
-        <v>assigned</v>
+        <v>available</v>
+      </c>
+      <c r="M102" t="str">
+        <v>Requires wheelchair access</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>bf5a6984-f656-4e23-9646-85829e9daffe</v>
+        <v>f693d8fc-436b-426a-9bca-0b141221ab3f</v>
       </c>
       <c r="B103" t="str">
-        <v>Scarlett Lopez</v>
+        <v>Evelyn Clark</v>
       </c>
       <c r="C103">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="D103" t="str">
         <v>Female</v>
       </c>
       <c r="E103" t="str">
-        <v>scarlett.lopez53@yahoo.com</v>
+        <v>evelyn.clark47@outlook.com</v>
       </c>
       <c r="F103" t="str">
-        <v>0400 509 641</v>
+        <v>0410 941 656</v>
       </c>
       <c r="G103" t="str">
-        <v>Sydney</v>
+        <v>Hobart</v>
       </c>
       <c r="H103" t="str">
-        <v>B+</v>
+        <v>C</v>
       </c>
       <c r="I103" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
+        <v>40c53847-674f-43b5-8678-2decb3d42133</v>
+      </c>
+      <c r="B104" t="str">
+        <v>Eliana Green</v>
+      </c>
+      <c r="C104">
+        <v>31</v>
+      </c>
+      <c r="D104" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E104" t="str">
+        <v>eliana.green54@gmail.com</v>
+      </c>
+      <c r="F104" t="str">
+        <v>(894) 795-3178</v>
+      </c>
+      <c r="G104" t="str">
+        <v>Los Angeles</v>
+      </c>
+      <c r="H104" t="str">
+        <v>A</v>
+      </c>
+      <c r="I104" t="str">
+        <v>available</v>
+      </c>
+      <c r="J104" t="str">
+        <v>Olivia Gonzalez</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>97108062-7918-4f7f-a3f7-92bcbc478acd</v>
+      </c>
+      <c r="B105" t="str">
+        <v>Olivia Nelson</v>
+      </c>
+      <c r="C105">
+        <v>60</v>
+      </c>
+      <c r="D105" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E105" t="str">
+        <v>olivia.nelson14@gmail.com</v>
+      </c>
+      <c r="F105" t="str">
+        <v>(582) 644-7834</v>
+      </c>
+      <c r="G105" t="str">
+        <v>Bakersfield</v>
+      </c>
+      <c r="H105" t="str">
+        <v>C</v>
+      </c>
+      <c r="I105" t="str">
+        <v>available</v>
+      </c>
+      <c r="J105" t="str">
+        <v>Joseph Stewart, Madelyn Martinez</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>8d8070dd-3ee6-476f-aaf2-631e80f67ef7</v>
+      </c>
+      <c r="B106" t="str">
+        <v>Lydia Allen</v>
+      </c>
+      <c r="C106">
+        <v>33</v>
+      </c>
+      <c r="D106" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E106" t="str">
+        <v>lydia.allen73@icloud.com</v>
+      </c>
+      <c r="F106" t="str">
+        <v>(363) 934-8723</v>
+      </c>
+      <c r="G106" t="str">
+        <v>Oakland</v>
+      </c>
+      <c r="H106" t="str">
+        <v>A</v>
+      </c>
+      <c r="I106" t="str">
+        <v>available</v>
+      </c>
+      <c r="J106" t="str">
+        <v>Julian Nguyen, Leah Diaz</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>36fd980a-62d1-491b-97d6-079c33195e3d</v>
+      </c>
+      <c r="B107" t="str">
+        <v>Elena Green</v>
+      </c>
+      <c r="C107">
+        <v>51</v>
+      </c>
+      <c r="D107" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E107" t="str">
+        <v>elena.green83@gmail.com</v>
+      </c>
+      <c r="F107" t="str">
+        <v>(274) 515-8123</v>
+      </c>
+      <c r="G107" t="str">
+        <v>San Diego</v>
+      </c>
+      <c r="H107" t="str">
+        <v>A</v>
+      </c>
+      <c r="I107" t="str">
+        <v>available</v>
+      </c>
+      <c r="J107" t="str">
+        <v>Allison Torres, Christian Rivera</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>a3199cca-1aa6-4060-b6cd-0320712376ba</v>
+      </c>
+      <c r="B108" t="str">
+        <v>Isla Wright</v>
+      </c>
+      <c r="C108">
+        <v>50</v>
+      </c>
+      <c r="D108" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E108" t="str">
+        <v>isla.wright1@yahoo.com</v>
+      </c>
+      <c r="F108" t="str">
+        <v>(231) 918-9825</v>
+      </c>
+      <c r="G108" t="str">
+        <v>Pasadena</v>
+      </c>
+      <c r="H108" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I108" t="str">
+        <v>available</v>
+      </c>
+      <c r="J108" t="str">
+        <v>Naomi Moore, Cora Roberts</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>c9e05b47-6028-4cd1-b568-57342a489141</v>
+      </c>
+      <c r="B109" t="str">
+        <v>Victoria Scott</v>
+      </c>
+      <c r="C109">
+        <v>49</v>
+      </c>
+      <c r="D109" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E109" t="str">
+        <v>victoria.scott67@icloud.com</v>
+      </c>
+      <c r="F109" t="str">
+        <v>(507) 166-2977</v>
+      </c>
+      <c r="G109" t="str">
+        <v>Torrance</v>
+      </c>
+      <c r="H109" t="str">
+        <v>B</v>
+      </c>
+      <c r="I109" t="str">
+        <v>available</v>
+      </c>
+      <c r="J109" t="str">
+        <v>William Taylor</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>567e589d-b232-43c2-9d30-3ff1e359f372</v>
+      </c>
+      <c r="B110" t="str">
+        <v>Hazel Mitchell</v>
+      </c>
+      <c r="C110">
+        <v>28</v>
+      </c>
+      <c r="D110" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E110" t="str">
+        <v>hazel.mitchell91@gmail.com</v>
+      </c>
+      <c r="F110" t="str">
+        <v>0400 683 761</v>
+      </c>
+      <c r="G110" t="str">
+        <v>Perth</v>
+      </c>
+      <c r="H110" t="str">
+        <v>A</v>
+      </c>
+      <c r="I110" t="str">
+        <v>available</v>
+      </c>
+      <c r="J110" t="str">
+        <v>Caroline Taylor</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>ca152dfe-8ddb-45c8-b084-8a5c9e6dacfa</v>
+      </c>
+      <c r="B111" t="str">
+        <v>Ryan Lewis</v>
+      </c>
+      <c r="C111">
+        <v>31</v>
+      </c>
+      <c r="D111" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E111" t="str">
+        <v>ryan.lewis85@yahoo.com</v>
+      </c>
+      <c r="F111" t="str">
+        <v>0400 187 811</v>
+      </c>
+      <c r="G111" t="str">
+        <v>Canberra</v>
+      </c>
+      <c r="H111" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I111" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>700fc657-988b-4d49-9814-25b1df35cefc</v>
+      </c>
+      <c r="B112" t="str">
+        <v>Victoria Thompson</v>
+      </c>
+      <c r="C112">
+        <v>30</v>
+      </c>
+      <c r="D112" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E112" t="str">
+        <v>victoria.thompson68@yahoo.com</v>
+      </c>
+      <c r="F112" t="str">
+        <v>(793) 601-6884</v>
+      </c>
+      <c r="G112" t="str">
+        <v>San Jose</v>
+      </c>
+      <c r="H112" t="str">
+        <v>C</v>
+      </c>
+      <c r="I112" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>af09efbe-e83d-4046-8dc8-e6a06dfc0c40</v>
+      </c>
+      <c r="B113" t="str">
+        <v>Paisley Evans</v>
+      </c>
+      <c r="C113">
+        <v>48</v>
+      </c>
+      <c r="D113" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E113" t="str">
+        <v>paisley.evans52@yahoo.com</v>
+      </c>
+      <c r="F113" t="str">
+        <v>(894) 250-9501</v>
+      </c>
+      <c r="G113" t="str">
+        <v>Torrance</v>
+      </c>
+      <c r="H113" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I113" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>443fcd0e-727d-4035-ab6a-c3df01515271</v>
+      </c>
+      <c r="B114" t="str">
+        <v>Lydia Torres</v>
+      </c>
+      <c r="C114">
+        <v>46</v>
+      </c>
+      <c r="D114" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E114" t="str">
+        <v>lydia.torres72@yahoo.com</v>
+      </c>
+      <c r="F114" t="str">
+        <v>(828) 773-4386</v>
+      </c>
+      <c r="G114" t="str">
+        <v>Anaheim</v>
+      </c>
+      <c r="H114" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I114" t="str">
+        <v>available</v>
+      </c>
+      <c r="J114" t="str">
+        <v>Avery Cruz, Mia Anderson</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>bb7daa74-0f25-4289-9b11-4b838ebf5986</v>
+      </c>
+      <c r="B115" t="str">
+        <v>Emma Torres</v>
+      </c>
+      <c r="C115">
+        <v>36</v>
+      </c>
+      <c r="D115" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E115" t="str">
+        <v>emma.torres53@outlook.com</v>
+      </c>
+      <c r="F115" t="str">
+        <v>(809) 313-7642</v>
+      </c>
+      <c r="G115" t="str">
+        <v>Bakersfield</v>
+      </c>
+      <c r="H115" t="str">
+        <v>B</v>
+      </c>
+      <c r="I115" t="str">
+        <v>available</v>
+      </c>
+      <c r="J115" t="str">
+        <v>Ellie Allen, Charlotte Hernandez</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>e7129d06-9fe4-44dd-afce-e4faeebfe1a9</v>
+      </c>
+      <c r="B116" t="str">
+        <v>Piper Green</v>
+      </c>
+      <c r="C116">
+        <v>41</v>
+      </c>
+      <c r="D116" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E116" t="str">
+        <v>piper.green82@hotmail.com</v>
+      </c>
+      <c r="F116" t="str">
+        <v>(678) 816-2263</v>
+      </c>
+      <c r="G116" t="str">
+        <v>Burbank</v>
+      </c>
+      <c r="H116" t="str">
+        <v>B</v>
+      </c>
+      <c r="I116" t="str">
+        <v>available</v>
+      </c>
+      <c r="J116" t="str">
+        <v>Josiah Brown</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>d4340206-46f8-4128-a64d-b1a7ca7bbdb5</v>
+      </c>
+      <c r="B117" t="str">
+        <v>Serenity Campbell</v>
+      </c>
+      <c r="C117">
+        <v>50</v>
+      </c>
+      <c r="D117" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E117" t="str">
+        <v>serenity.campbell1@yahoo.com</v>
+      </c>
+      <c r="F117" t="str">
+        <v>(479) 565-5966</v>
+      </c>
+      <c r="G117" t="str">
+        <v>Irvine</v>
+      </c>
+      <c r="H117" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I117" t="str">
+        <v>available</v>
+      </c>
+      <c r="J117" t="str">
+        <v>Jackson Jackson, Isaiah Green</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>b498fd02-c816-4b07-976f-1100495bf38b</v>
+      </c>
+      <c r="B118" t="str">
+        <v>Valentina Morales</v>
+      </c>
+      <c r="C118">
+        <v>37</v>
+      </c>
+      <c r="D118" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E118" t="str">
+        <v>valentina.morales27@icloud.com</v>
+      </c>
+      <c r="F118" t="str">
+        <v>(896) 204-3978</v>
+      </c>
+      <c r="G118" t="str">
+        <v>San Jose</v>
+      </c>
+      <c r="H118" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I118" t="str">
+        <v>available</v>
+      </c>
+      <c r="J118" t="str">
+        <v>Adam Hall, Grayson Morgan</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>0d8894f6-9a60-421c-a7c0-144fe2f8c85f</v>
+      </c>
+      <c r="B119" t="str">
+        <v>Lydia Morris</v>
+      </c>
+      <c r="C119">
+        <v>32</v>
+      </c>
+      <c r="D119" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E119" t="str">
+        <v>lydia.morris1@gmail.com</v>
+      </c>
+      <c r="F119" t="str">
+        <v>(565) 806-3217</v>
+      </c>
+      <c r="G119" t="str">
+        <v>Burbank</v>
+      </c>
+      <c r="H119" t="str">
+        <v>A</v>
+      </c>
+      <c r="I119" t="str">
+        <v>available</v>
+      </c>
+      <c r="J119" t="str">
+        <v>Logan Gomez</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>fec80989-ab0f-471a-a4de-6c207e334f80</v>
+      </c>
+      <c r="B120" t="str">
+        <v>Eliza Rivera</v>
+      </c>
+      <c r="C120">
+        <v>41</v>
+      </c>
+      <c r="D120" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E120" t="str">
+        <v>eliza.rivera29@yahoo.com</v>
+      </c>
+      <c r="F120" t="str">
+        <v>(836) 154-6362</v>
+      </c>
+      <c r="G120" t="str">
+        <v>Newport Beach</v>
+      </c>
+      <c r="H120" t="str">
+        <v>A</v>
+      </c>
+      <c r="I120" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>17e4dd39-8810-472c-b1a9-52382fbe0c79</v>
+      </c>
+      <c r="B121" t="str">
+        <v>Allison Torres</v>
+      </c>
+      <c r="C121">
+        <v>32</v>
+      </c>
+      <c r="D121" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E121" t="str">
+        <v>allison.torres94@gmail.com</v>
+      </c>
+      <c r="F121" t="str">
+        <v>(858) 153-7242</v>
+      </c>
+      <c r="G121" t="str">
+        <v>Fremont</v>
+      </c>
+      <c r="H121" t="str">
+        <v>B</v>
+      </c>
+      <c r="I121" t="str">
+        <v>available</v>
+      </c>
+      <c r="J121" t="str">
+        <v>Christian Rivera, Elena Green</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>410dbe34-810b-4a5d-8731-985738541b4b</v>
+      </c>
+      <c r="B122" t="str">
+        <v>Penelope Williams</v>
+      </c>
+      <c r="C122">
+        <v>52</v>
+      </c>
+      <c r="D122" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E122" t="str">
+        <v>penelope.williams29@hotmail.com</v>
+      </c>
+      <c r="F122" t="str">
+        <v>(735) 691-4267</v>
+      </c>
+      <c r="G122" t="str">
+        <v>Sacramento</v>
+      </c>
+      <c r="H122" t="str">
+        <v>B</v>
+      </c>
+      <c r="I122" t="str">
+        <v>available</v>
+      </c>
+      <c r="J122" t="str">
+        <v>Savannah Rivera</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>5addacf0-a31c-4412-982a-3f0d8f1c6d07</v>
+      </c>
+      <c r="B123" t="str">
+        <v>Layla Lopez</v>
+      </c>
+      <c r="C123">
+        <v>52</v>
+      </c>
+      <c r="D123" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E123" t="str">
+        <v>layla.lopez23@yahoo.com</v>
+      </c>
+      <c r="F123" t="str">
+        <v>(607) 496-6102</v>
+      </c>
+      <c r="G123" t="str">
+        <v>Los Angeles</v>
+      </c>
+      <c r="H123" t="str">
+        <v>C</v>
+      </c>
+      <c r="I123" t="str">
+        <v>available</v>
+      </c>
+      <c r="J123" t="str">
+        <v>Cora Lee</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>a8f50ac0-29e0-4209-a524-83ca7878b0ca</v>
+      </c>
+      <c r="B124" t="str">
+        <v>Avery Taylor</v>
+      </c>
+      <c r="C124">
+        <v>26</v>
+      </c>
+      <c r="D124" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E124" t="str">
+        <v>avery.taylor87@outlook.com</v>
+      </c>
+      <c r="F124" t="str">
+        <v>(299) 491-7680</v>
+      </c>
+      <c r="G124" t="str">
+        <v>Los Angeles</v>
+      </c>
+      <c r="H124" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I124" t="str">
+        <v>available</v>
+      </c>
+      <c r="J124" t="str">
+        <v>Audrey Hill</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>076ad666-a34b-4ae1-b91f-de785dbdf5ec</v>
+      </c>
+      <c r="B125" t="str">
+        <v>Nora Rogers</v>
+      </c>
+      <c r="C125">
+        <v>55</v>
+      </c>
+      <c r="D125" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E125" t="str">
+        <v>nora.rogers98@yahoo.com</v>
+      </c>
+      <c r="F125" t="str">
+        <v>(704) 607-6893</v>
+      </c>
+      <c r="G125" t="str">
+        <v>Riverside</v>
+      </c>
+      <c r="H125" t="str">
+        <v>B</v>
+      </c>
+      <c r="I125" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>1c24b746-78a8-49cd-9c4d-3d22726dbc1b</v>
+      </c>
+      <c r="B126" t="str">
+        <v>Eleanor Hall</v>
+      </c>
+      <c r="C126">
+        <v>59</v>
+      </c>
+      <c r="D126" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E126" t="str">
+        <v>eleanor.hall7@yahoo.com</v>
+      </c>
+      <c r="F126" t="str">
+        <v>(627) 443-5972</v>
+      </c>
+      <c r="G126" t="str">
+        <v>Stockton</v>
+      </c>
+      <c r="H126" t="str">
+        <v>B</v>
+      </c>
+      <c r="I126" t="str">
+        <v>available</v>
+      </c>
+      <c r="J126" t="str">
+        <v>Michael Campbell, Sadie Williams</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>f6a281bb-caec-44cf-a596-a6e92d6e2610</v>
+      </c>
+      <c r="B127" t="str">
+        <v>Leah Scott</v>
+      </c>
+      <c r="C127">
+        <v>21</v>
+      </c>
+      <c r="D127" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E127" t="str">
+        <v>leah.scott74@gmail.com</v>
+      </c>
+      <c r="F127" t="str">
+        <v>0402 414 358</v>
+      </c>
+      <c r="G127" t="str">
+        <v>Perth</v>
+      </c>
+      <c r="H127" t="str">
+        <v>B</v>
+      </c>
+      <c r="I127" t="str">
+        <v>available</v>
+      </c>
+      <c r="J127" t="str">
+        <v>Harper Sanchez</v>
+      </c>
+      <c r="M127" t="str">
+        <v>Limited mobility - prefers ground floor seating</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>04993d9a-3a65-4d61-a0c8-591aabb2e72c</v>
+      </c>
+      <c r="B128" t="str">
+        <v>Eliza Martinez</v>
+      </c>
+      <c r="C128">
+        <v>49</v>
+      </c>
+      <c r="D128" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E128" t="str">
+        <v>eliza.martinez8@hotmail.com</v>
+      </c>
+      <c r="F128" t="str">
+        <v>(881) 895-2168</v>
+      </c>
+      <c r="G128" t="str">
+        <v>Torrance</v>
+      </c>
+      <c r="H128" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I128" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>bf1fc0b1-7d88-41a5-ab6f-ee4c085fd344</v>
+      </c>
+      <c r="B129" t="str">
+        <v>Brooklyn Nguyen</v>
+      </c>
+      <c r="C129">
+        <v>59</v>
+      </c>
+      <c r="D129" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E129" t="str">
+        <v>brooklyn.nguyen77@yahoo.com</v>
+      </c>
+      <c r="F129" t="str">
+        <v>(142) 872-1855</v>
+      </c>
+      <c r="G129" t="str">
+        <v>Los Angeles</v>
+      </c>
+      <c r="H129" t="str">
+        <v>A</v>
+      </c>
+      <c r="I129" t="str">
+        <v>available</v>
+      </c>
+      <c r="J129" t="str">
+        <v>Naomi Brown</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>4e28a208-5278-410d-b375-d9c77ba144d7</v>
+      </c>
+      <c r="B130" t="str">
+        <v>Riley Scott</v>
+      </c>
+      <c r="C130">
+        <v>49</v>
+      </c>
+      <c r="D130" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E130" t="str">
+        <v>riley.scott58@hotmail.com</v>
+      </c>
+      <c r="F130" t="str">
+        <v>(848) 718-3465</v>
+      </c>
+      <c r="G130" t="str">
+        <v>San Francisco</v>
+      </c>
+      <c r="H130" t="str">
+        <v>B</v>
+      </c>
+      <c r="I130" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>0fa47948-ca05-48a1-917a-bce2c13237ed</v>
+      </c>
+      <c r="B131" t="str">
+        <v>Isabella Taylor</v>
+      </c>
+      <c r="C131">
+        <v>41</v>
+      </c>
+      <c r="D131" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E131" t="str">
+        <v>isabella.taylor65@yahoo.com</v>
+      </c>
+      <c r="F131" t="str">
+        <v>(997) 957-4171</v>
+      </c>
+      <c r="G131" t="str">
+        <v>Chula Vista</v>
+      </c>
+      <c r="H131" t="str">
+        <v>A</v>
+      </c>
+      <c r="I131" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>24928131-51b3-46f8-b43f-2cf989696f62</v>
+      </c>
+      <c r="B132" t="str">
+        <v>Amelia Garcia</v>
+      </c>
+      <c r="C132">
+        <v>37</v>
+      </c>
+      <c r="D132" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E132" t="str">
+        <v>amelia.garcia16@gmail.com</v>
+      </c>
+      <c r="F132" t="str">
+        <v>(331) 367-3904</v>
+      </c>
+      <c r="G132" t="str">
+        <v>Anaheim</v>
+      </c>
+      <c r="H132" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I132" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>50b098db-86f4-4a21-8425-ab03df8f7a40</v>
+      </c>
+      <c r="B133" t="str">
+        <v>Lillian Campbell</v>
+      </c>
+      <c r="C133">
+        <v>52</v>
+      </c>
+      <c r="D133" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E133" t="str">
+        <v>lillian.campbell41@yahoo.com</v>
+      </c>
+      <c r="F133" t="str">
+        <v>(945) 213-8284</v>
+      </c>
+      <c r="G133" t="str">
+        <v>Pasadena</v>
+      </c>
+      <c r="H133" t="str">
+        <v>A+</v>
+      </c>
+      <c r="I133" t="str">
+        <v>available</v>
+      </c>
+      <c r="J133" t="str">
+        <v>Amelia Lopez</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>94d903d4-dbc0-4052-87a8-ca32773ca839</v>
+      </c>
+      <c r="B134" t="str">
+        <v>Hannah Jones</v>
+      </c>
+      <c r="C134">
+        <v>30</v>
+      </c>
+      <c r="D134" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E134" t="str">
+        <v>hannah.jones85@yahoo.com</v>
+      </c>
+      <c r="F134" t="str">
+        <v>(644) 877-6251</v>
+      </c>
+      <c r="G134" t="str">
+        <v>Sacramento</v>
+      </c>
+      <c r="H134" t="str">
+        <v>B</v>
+      </c>
+      <c r="I134" t="str">
+        <v>available</v>
+      </c>
+      <c r="J134" t="str">
+        <v>Thomas Nguyen, Henry Roberts</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>e9a3f4c7-c9ed-4fd1-a5a9-d3763ae52a55</v>
+      </c>
+      <c r="B135" t="str">
+        <v>Victoria Anderson</v>
+      </c>
+      <c r="C135">
+        <v>28</v>
+      </c>
+      <c r="D135" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E135" t="str">
+        <v>victoria.anderson1@outlook.com</v>
+      </c>
+      <c r="F135" t="str">
+        <v>(622) 987-4829</v>
+      </c>
+      <c r="G135" t="str">
+        <v>Sacramento</v>
+      </c>
+      <c r="H135" t="str">
+        <v>A+</v>
+      </c>
+      <c r="I135" t="str">
+        <v>available</v>
+      </c>
+      <c r="J135" t="str">
+        <v>Sophia Reyes</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>9f873871-29cc-45f0-894c-c54745230689</v>
+      </c>
+      <c r="B136" t="str">
+        <v>Sadie Wright</v>
+      </c>
+      <c r="C136">
+        <v>38</v>
+      </c>
+      <c r="D136" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E136" t="str">
+        <v>sadie.wright75@hotmail.com</v>
+      </c>
+      <c r="F136" t="str">
+        <v>(617) 145-9784</v>
+      </c>
+      <c r="G136" t="str">
+        <v>Anaheim</v>
+      </c>
+      <c r="H136" t="str">
+        <v>C</v>
+      </c>
+      <c r="I136" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>3dcd887e-9357-49a1-be20-96ba912e33bf</v>
+      </c>
+      <c r="B137" t="str">
+        <v>Cora Mitchell</v>
+      </c>
+      <c r="C137">
+        <v>45</v>
+      </c>
+      <c r="D137" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E137" t="str">
+        <v>cora.mitchell80@icloud.com</v>
+      </c>
+      <c r="F137" t="str">
+        <v>(929) 139-3875</v>
+      </c>
+      <c r="G137" t="str">
+        <v>Newport Beach</v>
+      </c>
+      <c r="H137" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I137" t="str">
+        <v>available</v>
+      </c>
+      <c r="J137" t="str">
+        <v>Christopher Carter</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>2811bf99-369b-4c0a-b5d6-4ff46cd7aa5e</v>
+      </c>
+      <c r="B138" t="str">
+        <v>Lucas Thomas</v>
+      </c>
+      <c r="C138">
+        <v>33</v>
+      </c>
+      <c r="D138" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E138" t="str">
+        <v>lucas.thomas30@yahoo.com</v>
+      </c>
+      <c r="F138" t="str">
+        <v>0412 527 117</v>
+      </c>
+      <c r="G138" t="str">
+        <v>Brisbane</v>
+      </c>
+      <c r="H138" t="str">
+        <v>B</v>
+      </c>
+      <c r="I138" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>d7b0dd51-8aea-4b32-bb8d-8b60271fc6c9</v>
+      </c>
+      <c r="B139" t="str">
+        <v>Jayden Nguyen</v>
+      </c>
+      <c r="C139">
+        <v>53</v>
+      </c>
+      <c r="D139" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E139" t="str">
+        <v>jayden.nguyen88@hotmail.com</v>
+      </c>
+      <c r="F139" t="str">
+        <v>0401 108 628</v>
+      </c>
+      <c r="G139" t="str">
+        <v>Hobart</v>
+      </c>
+      <c r="H139" t="str">
+        <v>B</v>
+      </c>
+      <c r="I139" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>7bfb9432-4b59-4ceb-895d-e03ae4837f91</v>
+      </c>
+      <c r="B140" t="str">
+        <v>Joshua Walker</v>
+      </c>
+      <c r="C140">
+        <v>55</v>
+      </c>
+      <c r="D140" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E140" t="str">
+        <v>joshua.walker97@gmail.com</v>
+      </c>
+      <c r="F140" t="str">
+        <v>0402 640 379</v>
+      </c>
+      <c r="G140" t="str">
+        <v>Darwin</v>
+      </c>
+      <c r="H140" t="str">
+        <v>B</v>
+      </c>
+      <c r="I140" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>0e8f635e-8f06-4224-a2cc-4263ac307ba2</v>
+      </c>
+      <c r="B141" t="str">
+        <v>Joshua Jones</v>
+      </c>
+      <c r="C141">
+        <v>32</v>
+      </c>
+      <c r="D141" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E141" t="str">
+        <v>joshua.jones82@yahoo.com</v>
+      </c>
+      <c r="F141" t="str">
+        <v>0400 652 840</v>
+      </c>
+      <c r="G141" t="str">
+        <v>Toowoomba</v>
+      </c>
+      <c r="H141" t="str">
+        <v>B</v>
+      </c>
+      <c r="I141" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>df6c0d97-fd38-4b65-8765-b11a4939bd3b</v>
+      </c>
+      <c r="B142" t="str">
+        <v>Julian Rivera</v>
+      </c>
+      <c r="C142">
+        <v>53</v>
+      </c>
+      <c r="D142" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E142" t="str">
+        <v>julian.rivera31@outlook.com</v>
+      </c>
+      <c r="F142" t="str">
+        <v>0401 414 502</v>
+      </c>
+      <c r="G142" t="str">
+        <v>Perth</v>
+      </c>
+      <c r="H142" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I142" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>39b7a0a4-be8b-49f1-a5af-c5a105e0ab58</v>
+      </c>
+      <c r="B143" t="str">
+        <v>Joshua Carter</v>
+      </c>
+      <c r="C143">
+        <v>62</v>
+      </c>
+      <c r="D143" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E143" t="str">
+        <v>joshua.carter41@hotmail.com</v>
+      </c>
+      <c r="F143" t="str">
+        <v>0404 538 442</v>
+      </c>
+      <c r="G143" t="str">
+        <v>Wollongong</v>
+      </c>
+      <c r="H143" t="str">
+        <v>B</v>
+      </c>
+      <c r="I143" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>8774a9f4-b951-41cc-b6bd-809a709cb6ea</v>
+      </c>
+      <c r="B144" t="str">
+        <v>Lily Walker</v>
+      </c>
+      <c r="C144">
+        <v>62</v>
+      </c>
+      <c r="D144" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E144" t="str">
+        <v>lily.walker96@outlook.com</v>
+      </c>
+      <c r="F144" t="str">
+        <v>0410 155 426</v>
+      </c>
+      <c r="G144" t="str">
+        <v>Hobart</v>
+      </c>
+      <c r="H144" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I144" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>e166fd4f-73eb-4bea-b8be-3acdee4f9fdc</v>
+      </c>
+      <c r="B145" t="str">
+        <v>Liam Lewis</v>
+      </c>
+      <c r="C145">
+        <v>23</v>
+      </c>
+      <c r="D145" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E145" t="str">
+        <v>liam.lewis79@yahoo.com</v>
+      </c>
+      <c r="F145" t="str">
+        <v>0404 203 198</v>
+      </c>
+      <c r="G145" t="str">
+        <v>Hobart</v>
+      </c>
+      <c r="H145" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I145" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>ef94ff15-5215-4ecd-9ad1-9ac44fd0e56a</v>
+      </c>
+      <c r="B146" t="str">
+        <v>Luke Flores</v>
+      </c>
+      <c r="C146">
+        <v>65</v>
+      </c>
+      <c r="D146" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E146" t="str">
+        <v>luke.flores39@hotmail.com</v>
+      </c>
+      <c r="F146" t="str">
+        <v>0403 225 544</v>
+      </c>
+      <c r="G146" t="str">
+        <v>Melbourne</v>
+      </c>
+      <c r="H146" t="str">
+        <v>B</v>
+      </c>
+      <c r="I146" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>a8fa9125-28f1-47e1-adba-784701975e68</v>
+      </c>
+      <c r="B147" t="str">
+        <v>Abigail Williams</v>
+      </c>
+      <c r="C147">
+        <v>64</v>
+      </c>
+      <c r="D147" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E147" t="str">
+        <v>abigail.williams45@yahoo.com</v>
+      </c>
+      <c r="F147" t="str">
+        <v>0403 497 445</v>
+      </c>
+      <c r="G147" t="str">
+        <v>Toowoomba</v>
+      </c>
+      <c r="H147" t="str">
+        <v>C</v>
+      </c>
+      <c r="I147" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>e15c67b6-0680-4284-a8aa-a525b34c592d</v>
+      </c>
+      <c r="B148" t="str">
+        <v>Aurora Williams</v>
+      </c>
+      <c r="C148">
+        <v>27</v>
+      </c>
+      <c r="D148" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E148" t="str">
+        <v>aurora.williams76@outlook.com</v>
+      </c>
+      <c r="F148" t="str">
+        <v>0401 416 170</v>
+      </c>
+      <c r="G148" t="str">
+        <v>Darwin</v>
+      </c>
+      <c r="H148" t="str">
+        <v>C</v>
+      </c>
+      <c r="I148" t="str">
+        <v>available</v>
+      </c>
+      <c r="M148" t="str">
+        <v>Uses walking cane</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>7664257a-dce4-407a-8f24-692043d568be</v>
+      </c>
+      <c r="B149" t="str">
+        <v>Nora Jackson</v>
+      </c>
+      <c r="C149">
+        <v>49</v>
+      </c>
+      <c r="D149" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E149" t="str">
+        <v>nora.jackson83@hotmail.com</v>
+      </c>
+      <c r="F149" t="str">
+        <v>0404 434 899</v>
+      </c>
+      <c r="G149" t="str">
+        <v>Wollongong</v>
+      </c>
+      <c r="H149" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I149" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>f9d68052-4310-45c2-a5a9-64c272347899</v>
+      </c>
+      <c r="B150" t="str">
+        <v>Christian Rivera</v>
+      </c>
+      <c r="C150">
+        <v>65</v>
+      </c>
+      <c r="D150" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E150" t="str">
+        <v>christian.rivera86@hotmail.com</v>
+      </c>
+      <c r="F150" t="str">
+        <v>0400 135 743</v>
+      </c>
+      <c r="G150" t="str">
+        <v>Adelaide</v>
+      </c>
+      <c r="H150" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I150" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>8956e289-91e9-4c15-bf2b-a13dee2fa476</v>
+      </c>
+      <c r="B151" t="str">
+        <v>Landon Wright</v>
+      </c>
+      <c r="C151">
+        <v>41</v>
+      </c>
+      <c r="D151" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E151" t="str">
+        <v>landon.wright36@outlook.com</v>
+      </c>
+      <c r="F151" t="str">
+        <v>0402 415 597</v>
+      </c>
+      <c r="G151" t="str">
+        <v>Cairns</v>
+      </c>
+      <c r="H151" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I151" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
+      </c>
+      <c r="B152" t="str">
+        <v>Peter Adamidis</v>
+      </c>
+      <c r="C152">
+        <v>34</v>
+      </c>
+      <c r="D152" t="str">
+        <v>Not Specified</v>
+      </c>
+      <c r="E152" t="str">
+        <v>peter.adamidis@gmail.com</v>
+      </c>
+      <c r="F152" t="str">
+        <v>498086080</v>
+      </c>
+      <c r="G152" t="str">
+        <v/>
+      </c>
+      <c r="H152" t="str">
+        <v/>
+      </c>
+      <c r="I152" t="str">
+        <v>available</v>
+      </c>
+      <c r="J152" t="str">
+        <v>Kathleen Reynolds, Felicity Parker-Hill</v>
+      </c>
+      <c r="K152" t="str">
+        <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
+      </c>
+      <c r="L152" t="str">
+        <v>Y</v>
+      </c>
+      <c r="M152" t="str">
+        <v>Broken Leg</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>45c0fc2b-415d-475a-998d-934235565d6b</v>
+      </c>
+      <c r="B153" t="str">
+        <v>Scarlett Wright</v>
+      </c>
+      <c r="C153">
+        <v>34</v>
+      </c>
+      <c r="D153" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E153" t="str">
+        <v>scarlett.wright68@outlook.com</v>
+      </c>
+      <c r="F153" t="str">
+        <v>0412 487 763</v>
+      </c>
+      <c r="G153" t="str">
+        <v>Newcastle</v>
+      </c>
+      <c r="H153" t="str">
+        <v>B</v>
+      </c>
+      <c r="I153" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>6ddd3228-f125-4d3e-88e2-157cd730b552</v>
+      </c>
+      <c r="B154" t="str">
+        <v>Theodore Nelson</v>
+      </c>
+      <c r="C154">
+        <v>41</v>
+      </c>
+      <c r="D154" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E154" t="str">
+        <v>theodore.nelson79@gmail.com</v>
+      </c>
+      <c r="F154" t="str">
+        <v>0403 813 793</v>
+      </c>
+      <c r="G154" t="str">
+        <v>Canberra</v>
+      </c>
+      <c r="H154" t="str">
+        <v>B</v>
+      </c>
+      <c r="I154" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>40727c14-a30e-4e3b-8b64-0359d25efc0c</v>
+      </c>
+      <c r="B155" t="str">
+        <v>Joshua Scott</v>
+      </c>
+      <c r="C155">
+        <v>56</v>
+      </c>
+      <c r="D155" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E155" t="str">
+        <v>joshua.scott95@outlook.com</v>
+      </c>
+      <c r="F155" t="str">
+        <v>0410 137 561</v>
+      </c>
+      <c r="G155" t="str">
+        <v>Canberra</v>
+      </c>
+      <c r="H155" t="str">
+        <v>B</v>
+      </c>
+      <c r="I155" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>5e93a4d1-9d7c-4b53-9898-a1ae2a0319c1</v>
+      </c>
+      <c r="B156" t="str">
+        <v>Amelia Nguyen</v>
+      </c>
+      <c r="C156">
+        <v>53</v>
+      </c>
+      <c r="D156" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E156" t="str">
+        <v>amelia.nguyen43@outlook.com</v>
+      </c>
+      <c r="F156" t="str">
+        <v>(164) 220-7002</v>
+      </c>
+      <c r="G156" t="str">
+        <v>Sacramento</v>
+      </c>
+      <c r="H156" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I156" t="str">
+        <v>available</v>
+      </c>
+      <c r="J156" t="str">
+        <v>Paisley Brown</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>ad836319-db56-4a08-bca6-a8e3f19c37a8</v>
+      </c>
+      <c r="B157" t="str">
+        <v>Emily Johnson</v>
+      </c>
+      <c r="C157">
+        <v>37</v>
+      </c>
+      <c r="D157" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E157" t="str">
+        <v>emily.johnson58@hotmail.com</v>
+      </c>
+      <c r="F157" t="str">
+        <v>0412 663 939</v>
+      </c>
+      <c r="G157" t="str">
+        <v>Perth</v>
+      </c>
+      <c r="H157" t="str">
+        <v>B</v>
+      </c>
+      <c r="I157" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>adb0c362-d095-4bfd-98dc-c93920fd22d6</v>
+      </c>
+      <c r="B158" t="str">
+        <v>Victoria Torres</v>
+      </c>
+      <c r="C158">
+        <v>46</v>
+      </c>
+      <c r="D158" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E158" t="str">
+        <v>victoria.torres48@outlook.com</v>
+      </c>
+      <c r="F158" t="str">
+        <v>0411 539 271</v>
+      </c>
+      <c r="G158" t="str">
+        <v>Geelong</v>
+      </c>
+      <c r="H158" t="str">
+        <v>B</v>
+      </c>
+      <c r="I158" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>c1783cdf-a656-46b4-9331-4d9d18d40b51</v>
+      </c>
+      <c r="B159" t="str">
+        <v>Aurora Walker</v>
+      </c>
+      <c r="C159">
+        <v>61</v>
+      </c>
+      <c r="D159" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E159" t="str">
+        <v>aurora.walker1@outlook.com</v>
+      </c>
+      <c r="F159" t="str">
+        <v>0403 522 404</v>
+      </c>
+      <c r="G159" t="str">
+        <v>Darwin</v>
+      </c>
+      <c r="H159" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I159" t="str">
+        <v>available</v>
+      </c>
+      <c r="M159" t="str">
+        <v>Vision impaired - needs assistance</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>bf5a6984-f656-4e23-9646-85829e9daffe</v>
+      </c>
+      <c r="B160" t="str">
+        <v>Scarlett Lopez</v>
+      </c>
+      <c r="C160">
+        <v>64</v>
+      </c>
+      <c r="D160" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E160" t="str">
+        <v>scarlett.lopez53@yahoo.com</v>
+      </c>
+      <c r="F160" t="str">
+        <v>0400 509 641</v>
+      </c>
+      <c r="G160" t="str">
+        <v>Sydney</v>
+      </c>
+      <c r="H160" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I160" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
+      </c>
+      <c r="B161" t="str">
+        <v>Kathleen Reynolds</v>
+      </c>
+      <c r="C161">
+        <v>33</v>
+      </c>
+      <c r="D161" t="str">
+        <v>Not Specified</v>
+      </c>
+      <c r="E161" t="str">
+        <v>kathleenmonicareynolds@gmail.com</v>
+      </c>
+      <c r="F161" t="str">
+        <v>498086080</v>
+      </c>
+      <c r="G161" t="str">
+        <v>Footscray</v>
+      </c>
+      <c r="H161" t="str">
+        <v/>
+      </c>
+      <c r="I161" t="str">
+        <v>available</v>
+      </c>
+      <c r="J161" t="str">
+        <v>Peter Adamidis, Felicity Parker-Hill</v>
+      </c>
+      <c r="K161" t="str">
+        <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
+      </c>
+      <c r="L161" t="str">
+        <v>N</v>
+      </c>
+      <c r="M161" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>59bae9a1-93b9-471d-a2b7-074918634f6b</v>
+      </c>
+      <c r="B162" t="str">
+        <v>Joshua Clark</v>
+      </c>
+      <c r="C162">
+        <v>25</v>
+      </c>
+      <c r="D162" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E162" t="str">
+        <v>joshua.clark16@outlook.com</v>
+      </c>
+      <c r="F162" t="str">
+        <v>0403 901 485</v>
+      </c>
+      <c r="G162" t="str">
+        <v>Sydney</v>
+      </c>
+      <c r="H162" t="str">
+        <v>B</v>
+      </c>
+      <c r="I162" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>2fa810c7-61d0-4519-a314-824cf0873e30</v>
+      </c>
+      <c r="B163" t="str">
+        <v>Theodore Allen</v>
+      </c>
+      <c r="C163">
+        <v>49</v>
+      </c>
+      <c r="D163" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E163" t="str">
+        <v>theodore.allen25@outlook.com</v>
+      </c>
+      <c r="F163" t="str">
+        <v>0400 438 819</v>
+      </c>
+      <c r="G163" t="str">
+        <v>Newcastle</v>
+      </c>
+      <c r="H163" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I163" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
         <v>d6c29b29-46c2-458d-9ed6-9955afb17b95</v>
       </c>
-      <c r="B104" t="str">
+      <c r="B164" t="str">
         <v>Ethan Taylor</v>
       </c>
-      <c r="C104">
+      <c r="C164">
         <v>30</v>
       </c>
-      <c r="D104" t="str">
-        <v>Male</v>
-      </c>
-      <c r="E104" t="str">
+      <c r="D164" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E164" t="str">
         <v>ethan.taylor22@yahoo.com</v>
       </c>
-      <c r="F104" t="str">
+      <c r="F164" t="str">
         <v>0410 363 173</v>
       </c>
-      <c r="G104" t="str">
+      <c r="G164" t="str">
         <v>Adelaide</v>
       </c>
-      <c r="H104" t="str">
+      <c r="H164" t="str">
         <v>B</v>
       </c>
-      <c r="I104" t="str">
-        <v>assigned</v>
+      <c r="I164" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>e2f70c5c-0a8d-4055-8281-2ad2ae2e0cd6</v>
+      </c>
+      <c r="B165" t="str">
+        <v>Stella Green</v>
+      </c>
+      <c r="C165">
+        <v>65</v>
+      </c>
+      <c r="D165" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E165" t="str">
+        <v>stella.green92@gmail.com</v>
+      </c>
+      <c r="F165" t="str">
+        <v>0404 230 858</v>
+      </c>
+      <c r="G165" t="str">
+        <v>Wollongong</v>
+      </c>
+      <c r="H165" t="str">
+        <v>A</v>
+      </c>
+      <c r="I165" t="str">
+        <v>available</v>
+      </c>
+      <c r="J165" t="str">
+        <v>Everly Torres</v>
+      </c>
+      <c r="M165" t="str">
+        <v>Vision impaired - needs assistance</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>5331c6bd-19f8-416a-9166-06280a3c547e</v>
+      </c>
+      <c r="B166" t="str">
+        <v>Ethan Rodriguez</v>
+      </c>
+      <c r="C166">
+        <v>57</v>
+      </c>
+      <c r="D166" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E166" t="str">
+        <v>ethan.rodriguez60@hotmail.com</v>
+      </c>
+      <c r="F166" t="str">
+        <v>0411 690 563</v>
+      </c>
+      <c r="G166" t="str">
+        <v>Townsville</v>
+      </c>
+      <c r="H166" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I166" t="str">
+        <v>available</v>
+      </c>
+      <c r="M166" t="str">
+        <v>Hearing impaired - requires front row seating</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>d3db689e-5aed-4049-9588-adf3d1a49ae0</v>
+      </c>
+      <c r="B167" t="str">
+        <v>Madelyn Martinez</v>
+      </c>
+      <c r="C167">
+        <v>41</v>
+      </c>
+      <c r="D167" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E167" t="str">
+        <v>madelyn.martinez94@gmail.com</v>
+      </c>
+      <c r="F167" t="str">
+        <v>(576) 468-3300</v>
+      </c>
+      <c r="G167" t="str">
+        <v>Pasadena</v>
+      </c>
+      <c r="H167" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I167" t="str">
+        <v>available</v>
+      </c>
+      <c r="J167" t="str">
+        <v>Olivia Nelson, Joseph Stewart</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>a614b69c-4f6c-49fa-a490-24d7e4a60da9</v>
+      </c>
+      <c r="B168" t="str">
+        <v>Nora Lee</v>
+      </c>
+      <c r="C168">
+        <v>59</v>
+      </c>
+      <c r="D168" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E168" t="str">
+        <v>nora.lee56@hotmail.com</v>
+      </c>
+      <c r="F168" t="str">
+        <v>(171) 825-3697</v>
+      </c>
+      <c r="G168" t="str">
+        <v>Pasadena</v>
+      </c>
+      <c r="H168" t="str">
+        <v>A</v>
+      </c>
+      <c r="I168" t="str">
+        <v>available</v>
+      </c>
+      <c r="J168" t="str">
+        <v>Ella Gutierrez</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>81759c6b-da11-4c0e-9e96-92aa20964b06</v>
+      </c>
+      <c r="B169" t="str">
+        <v>Cora Roberts</v>
+      </c>
+      <c r="C169">
+        <v>29</v>
+      </c>
+      <c r="D169" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E169" t="str">
+        <v>cora.roberts57@hotmail.com</v>
+      </c>
+      <c r="F169" t="str">
+        <v>(141) 743-6838</v>
+      </c>
+      <c r="G169" t="str">
+        <v>Bakersfield</v>
+      </c>
+      <c r="H169" t="str">
+        <v>B</v>
+      </c>
+      <c r="I169" t="str">
+        <v>available</v>
+      </c>
+      <c r="J169" t="str">
+        <v>Isla Wright, Naomi Moore</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>55c196e0-f9b8-42fe-8113-ce9d2ac76116</v>
+      </c>
+      <c r="B170" t="str">
+        <v>Natalie Ortiz</v>
+      </c>
+      <c r="C170">
+        <v>34</v>
+      </c>
+      <c r="D170" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E170" t="str">
+        <v>natalie.ortiz89@yahoo.com</v>
+      </c>
+      <c r="F170" t="str">
+        <v>(986) 277-9331</v>
+      </c>
+      <c r="G170" t="str">
+        <v>San Francisco</v>
+      </c>
+      <c r="H170" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I170" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>d1a4099f-cc65-41a4-8aa3-72e7788e4944</v>
+      </c>
+      <c r="B171" t="str">
+        <v>Sophia Reyes</v>
+      </c>
+      <c r="C171">
+        <v>59</v>
+      </c>
+      <c r="D171" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E171" t="str">
+        <v>sophia.reyes82@outlook.com</v>
+      </c>
+      <c r="F171" t="str">
+        <v>(759) 966-2783</v>
+      </c>
+      <c r="G171" t="str">
+        <v>Long Beach</v>
+      </c>
+      <c r="H171" t="str">
+        <v>B</v>
+      </c>
+      <c r="I171" t="str">
+        <v>available</v>
+      </c>
+      <c r="J171" t="str">
+        <v>Victoria Anderson</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>4fba0674-c979-4177-b29d-9a882e08ad0d</v>
+      </c>
+      <c r="B172" t="str">
+        <v>Autumn Lewis</v>
+      </c>
+      <c r="C172">
+        <v>56</v>
+      </c>
+      <c r="D172" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E172" t="str">
+        <v>autumn.lewis97@outlook.com</v>
+      </c>
+      <c r="F172" t="str">
+        <v>(841) 837-8640</v>
+      </c>
+      <c r="G172" t="str">
+        <v>San Francisco</v>
+      </c>
+      <c r="H172" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I172" t="str">
+        <v>available</v>
+      </c>
+      <c r="J172" t="str">
+        <v>Noah Martinez</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>c284df19-568f-44d7-9ddf-b63e5af17f4a</v>
+      </c>
+      <c r="B173" t="str">
+        <v>Hannah Moore</v>
+      </c>
+      <c r="C173">
+        <v>32</v>
+      </c>
+      <c r="D173" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E173" t="str">
+        <v>hannah.moore60@outlook.com</v>
+      </c>
+      <c r="F173" t="str">
+        <v>(173) 685-3587</v>
+      </c>
+      <c r="G173" t="str">
+        <v>Torrance</v>
+      </c>
+      <c r="H173" t="str">
+        <v>B</v>
+      </c>
+      <c r="I173" t="str">
+        <v>available</v>
+      </c>
+      <c r="J173" t="str">
+        <v>Alexander Campbell, Logan Nguyen</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>5b3becf0-21ae-46a2-b70b-722762d230ff</v>
+      </c>
+      <c r="B174" t="str">
+        <v>Evelyn Ortiz</v>
+      </c>
+      <c r="C174">
+        <v>30</v>
+      </c>
+      <c r="D174" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E174" t="str">
+        <v>evelyn.ortiz49@hotmail.com</v>
+      </c>
+      <c r="F174" t="str">
+        <v>(142) 759-4931</v>
+      </c>
+      <c r="G174" t="str">
+        <v>Long Beach</v>
+      </c>
+      <c r="H174" t="str">
+        <v>A+</v>
+      </c>
+      <c r="I174" t="str">
+        <v>available</v>
+      </c>
+      <c r="J174" t="str">
+        <v>Mia Carter</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>2450bd3d-4940-477d-8a08-abc3363fdc3a</v>
+      </c>
+      <c r="B175" t="str">
+        <v>Ella Lopez</v>
+      </c>
+      <c r="C175">
+        <v>31</v>
+      </c>
+      <c r="D175" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E175" t="str">
+        <v>ella.lopez65@outlook.com</v>
+      </c>
+      <c r="F175" t="str">
+        <v>(192) 887-5779</v>
+      </c>
+      <c r="G175" t="str">
+        <v>Riverside</v>
+      </c>
+      <c r="H175" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I175" t="str">
+        <v>available</v>
+      </c>
+      <c r="J175" t="str">
+        <v>Adam Edwards</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>ea1b059a-dde4-49c1-92b8-b9fd09c84bb7</v>
+      </c>
+      <c r="B176" t="str">
+        <v>Sadie Cook</v>
+      </c>
+      <c r="C176">
+        <v>50</v>
+      </c>
+      <c r="D176" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E176" t="str">
+        <v>sadie.cook9@yahoo.com</v>
+      </c>
+      <c r="F176" t="str">
+        <v>(382) 126-7672</v>
+      </c>
+      <c r="G176" t="str">
+        <v>Santa Monica</v>
+      </c>
+      <c r="H176" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I176" t="str">
+        <v>available</v>
+      </c>
+      <c r="J176" t="str">
+        <v>William Allen, Alexa Hall</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>97620f89-d506-4934-89b6-c60208f0bb45</v>
+      </c>
+      <c r="B177" t="str">
+        <v>Charlotte Hernandez</v>
+      </c>
+      <c r="C177">
+        <v>37</v>
+      </c>
+      <c r="D177" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E177" t="str">
+        <v>charlotte.hernandez88@gmail.com</v>
+      </c>
+      <c r="F177" t="str">
+        <v>(131) 448-5858</v>
+      </c>
+      <c r="G177" t="str">
+        <v>San Jose</v>
+      </c>
+      <c r="H177" t="str">
+        <v>B</v>
+      </c>
+      <c r="I177" t="str">
+        <v>available</v>
+      </c>
+      <c r="J177" t="str">
+        <v>Ellie Allen, Emma Torres</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>c03a116f-7b88-4c23-a9cc-04d14d2df186</v>
+      </c>
+      <c r="B178" t="str">
+        <v>Sofia Martin</v>
+      </c>
+      <c r="C178">
+        <v>40</v>
+      </c>
+      <c r="D178" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E178" t="str">
+        <v>sofia.martin17@yahoo.com</v>
+      </c>
+      <c r="F178" t="str">
+        <v>(319) 272-7772</v>
+      </c>
+      <c r="G178" t="str">
+        <v>Fresno</v>
+      </c>
+      <c r="H178" t="str">
+        <v>C</v>
+      </c>
+      <c r="I178" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>a1895f97-a947-4cf3-9bc3-6aa43cdc1339</v>
+      </c>
+      <c r="B179" t="str">
+        <v>Gabriella Smith</v>
+      </c>
+      <c r="C179">
+        <v>23</v>
+      </c>
+      <c r="D179" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E179" t="str">
+        <v>gabriella.smith91@hotmail.com</v>
+      </c>
+      <c r="F179" t="str">
+        <v>(550) 121-2897</v>
+      </c>
+      <c r="G179" t="str">
+        <v>Sacramento</v>
+      </c>
+      <c r="H179" t="str">
+        <v>A</v>
+      </c>
+      <c r="I179" t="str">
+        <v>available</v>
+      </c>
+      <c r="J179" t="str">
+        <v>Julian Rivera</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>10ec31e6-c6da-4957-9768-c5fcefe79c6b</v>
+      </c>
+      <c r="B180" t="str">
+        <v>Emma Turner</v>
+      </c>
+      <c r="C180">
+        <v>33</v>
+      </c>
+      <c r="D180" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E180" t="str">
+        <v>emma.turner16@outlook.com</v>
+      </c>
+      <c r="F180" t="str">
+        <v>(656) 213-9003</v>
+      </c>
+      <c r="G180" t="str">
+        <v>Pomona</v>
+      </c>
+      <c r="H180" t="str">
+        <v>C</v>
+      </c>
+      <c r="I180" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>4501044d-6fd4-4a45-83a0-416599928b1f</v>
+      </c>
+      <c r="B181" t="str">
+        <v>Audrey Hill</v>
+      </c>
+      <c r="C181">
+        <v>25</v>
+      </c>
+      <c r="D181" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E181" t="str">
+        <v>audrey.hill20@outlook.com</v>
+      </c>
+      <c r="F181" t="str">
+        <v>(688) 524-4712</v>
+      </c>
+      <c r="G181" t="str">
+        <v>San Jose</v>
+      </c>
+      <c r="H181" t="str">
+        <v>B</v>
+      </c>
+      <c r="I181" t="str">
+        <v>available</v>
+      </c>
+      <c r="J181" t="str">
+        <v>Avery Taylor</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>c2103c22-c825-4633-a461-495c55747ed3</v>
+      </c>
+      <c r="B182" t="str">
+        <v>Alice Robinson</v>
+      </c>
+      <c r="C182">
+        <v>43</v>
+      </c>
+      <c r="D182" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E182" t="str">
+        <v>alice.robinson56@hotmail.com</v>
+      </c>
+      <c r="F182" t="str">
+        <v>(251) 325-5554</v>
+      </c>
+      <c r="G182" t="str">
+        <v>Anaheim</v>
+      </c>
+      <c r="H182" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I182" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>921da7b6-596c-4a0e-a647-022bbd8cef26</v>
+      </c>
+      <c r="B183" t="str">
+        <v>John Diaz</v>
+      </c>
+      <c r="C183">
+        <v>29</v>
+      </c>
+      <c r="D183" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E183" t="str">
+        <v>john.diaz17@icloud.com</v>
+      </c>
+      <c r="F183" t="str">
+        <v>(251) 432-3565</v>
+      </c>
+      <c r="G183" t="str">
+        <v>Pomona</v>
+      </c>
+      <c r="H183" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I183" t="str">
+        <v>available</v>
+      </c>
+      <c r="J183" t="str">
+        <v>Cameron Anderson</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>25fd249f-3802-4717-8a4d-4da36897b280</v>
+      </c>
+      <c r="B184" t="str">
+        <v>Nathan Taylor</v>
+      </c>
+      <c r="C184">
+        <v>56</v>
+      </c>
+      <c r="D184" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E184" t="str">
+        <v>nathan.taylor65@outlook.com</v>
+      </c>
+      <c r="F184" t="str">
+        <v>(250) 584-7117</v>
+      </c>
+      <c r="G184" t="str">
+        <v>Stockton</v>
+      </c>
+      <c r="H184" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I184" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>cacb8de7-16c5-4332-9d25-a6794d8a23b3</v>
+      </c>
+      <c r="B185" t="str">
+        <v>Anthony Garcia</v>
+      </c>
+      <c r="C185">
+        <v>52</v>
+      </c>
+      <c r="D185" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E185" t="str">
+        <v>anthony.garcia31@yahoo.com</v>
+      </c>
+      <c r="F185" t="str">
+        <v>(249) 774-7265</v>
+      </c>
+      <c r="G185" t="str">
+        <v>Santa Monica</v>
+      </c>
+      <c r="H185" t="str">
+        <v>A</v>
+      </c>
+      <c r="I185" t="str">
+        <v>available</v>
+      </c>
+      <c r="J185" t="str">
+        <v>Michael Johnson, Cameron Evans</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>1e334800-6e70-4273-b1ff-ee3ce5738b57</v>
+      </c>
+      <c r="B186" t="str">
+        <v>Adam Edwards</v>
+      </c>
+      <c r="C186">
+        <v>49</v>
+      </c>
+      <c r="D186" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E186" t="str">
+        <v>adam.edwards41@hotmail.com</v>
+      </c>
+      <c r="F186" t="str">
+        <v>(439) 906-3390</v>
+      </c>
+      <c r="G186" t="str">
+        <v>Burbank</v>
+      </c>
+      <c r="H186" t="str">
+        <v>C</v>
+      </c>
+      <c r="I186" t="str">
+        <v>available</v>
+      </c>
+      <c r="J186" t="str">
+        <v>Ella Lopez</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>6116506f-31f1-444e-bd83-2991a5335470</v>
+      </c>
+      <c r="B187" t="str">
+        <v>Sebastian Edwards</v>
+      </c>
+      <c r="C187">
+        <v>52</v>
+      </c>
+      <c r="D187" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E187" t="str">
+        <v>sebastian.edwards97@icloud.com</v>
+      </c>
+      <c r="F187" t="str">
+        <v>(348) 408-1134</v>
+      </c>
+      <c r="G187" t="str">
+        <v>Los Angeles</v>
+      </c>
+      <c r="H187" t="str">
+        <v>B</v>
+      </c>
+      <c r="I187" t="str">
+        <v>available</v>
+      </c>
+      <c r="J187" t="str">
+        <v>Colton Harris, Sofia Williams</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>783b418b-9b0d-482c-a01b-75072978141f</v>
+      </c>
+      <c r="B188" t="str">
+        <v>Joshua Martinez</v>
+      </c>
+      <c r="C188">
+        <v>38</v>
+      </c>
+      <c r="D188" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E188" t="str">
+        <v>joshua.martinez94@icloud.com</v>
+      </c>
+      <c r="F188" t="str">
+        <v>(539) 856-7158</v>
+      </c>
+      <c r="G188" t="str">
+        <v>San Diego</v>
+      </c>
+      <c r="H188" t="str">
+        <v>B</v>
+      </c>
+      <c r="I188" t="str">
+        <v>available</v>
+      </c>
+      <c r="J188" t="str">
+        <v>Avery Clark</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>4f5756e4-c006-4d04-a9bc-7a2de0fdf149</v>
+      </c>
+      <c r="B189" t="str">
+        <v>Michael Johnson</v>
+      </c>
+      <c r="C189">
+        <v>38</v>
+      </c>
+      <c r="D189" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E189" t="str">
+        <v>michael.johnson96@gmail.com</v>
+      </c>
+      <c r="F189" t="str">
+        <v>(878) 132-4532</v>
+      </c>
+      <c r="G189" t="str">
+        <v>Long Beach</v>
+      </c>
+      <c r="H189" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I189" t="str">
+        <v>available</v>
+      </c>
+      <c r="J189" t="str">
+        <v>Anthony Garcia, Cameron Evans</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>cc9dcc8f-9593-4b7e-b4dd-723de93b6b04</v>
+      </c>
+      <c r="B190" t="str">
+        <v>Aiden Cook</v>
+      </c>
+      <c r="C190">
+        <v>39</v>
+      </c>
+      <c r="D190" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E190" t="str">
+        <v>aiden.cook93@yahoo.com</v>
+      </c>
+      <c r="F190" t="str">
+        <v>(959) 986-7207</v>
+      </c>
+      <c r="G190" t="str">
+        <v>Pomona</v>
+      </c>
+      <c r="H190" t="str">
+        <v>A+</v>
+      </c>
+      <c r="I190" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>3f9d95b9-bedc-4620-9aa3-9bc8669de2af</v>
+      </c>
+      <c r="B191" t="str">
+        <v>Christopher Allen</v>
+      </c>
+      <c r="C191">
+        <v>49</v>
+      </c>
+      <c r="D191" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E191" t="str">
+        <v>christopher.allen60@yahoo.com</v>
+      </c>
+      <c r="F191" t="str">
+        <v>(529) 787-8147</v>
+      </c>
+      <c r="G191" t="str">
+        <v>Torrance</v>
+      </c>
+      <c r="H191" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I191" t="str">
+        <v>available</v>
+      </c>
+      <c r="J191" t="str">
+        <v>Eleanor Allen</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>f878ab7f-ae59-4af0-b19a-e9bf4573c116</v>
+      </c>
+      <c r="B192" t="str">
+        <v>William Allen</v>
+      </c>
+      <c r="C192">
+        <v>36</v>
+      </c>
+      <c r="D192" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E192" t="str">
+        <v>william.allen62@hotmail.com</v>
+      </c>
+      <c r="F192" t="str">
+        <v>(267) 463-7481</v>
+      </c>
+      <c r="G192" t="str">
+        <v>San Jose</v>
+      </c>
+      <c r="H192" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I192" t="str">
+        <v>available</v>
+      </c>
+      <c r="J192" t="str">
+        <v>Sadie Cook, Alexa Hall</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>f85f167d-7dd5-420d-86b5-ec8861b2bc1a</v>
+      </c>
+      <c r="B193" t="str">
+        <v>Michael Carter</v>
+      </c>
+      <c r="C193">
+        <v>43</v>
+      </c>
+      <c r="D193" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E193" t="str">
+        <v>michael.carter90@outlook.com</v>
+      </c>
+      <c r="F193" t="str">
+        <v>(377) 714-4320</v>
+      </c>
+      <c r="G193" t="str">
+        <v>Burbank</v>
+      </c>
+      <c r="H193" t="str">
+        <v>A</v>
+      </c>
+      <c r="I193" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>d279968e-2739-4860-92b0-61f1c31b6a72</v>
+      </c>
+      <c r="B194" t="str">
+        <v>Nolan Ortiz</v>
+      </c>
+      <c r="C194">
+        <v>42</v>
+      </c>
+      <c r="D194" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E194" t="str">
+        <v>nolan.ortiz57@gmail.com</v>
+      </c>
+      <c r="F194" t="str">
+        <v>(473) 870-4585</v>
+      </c>
+      <c r="G194" t="str">
+        <v>Santa Monica</v>
+      </c>
+      <c r="H194" t="str">
+        <v>C</v>
+      </c>
+      <c r="I194" t="str">
+        <v>available</v>
+      </c>
+      <c r="J194" t="str">
+        <v>Cameron Clark</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>9e0ff879-df04-4a3f-b572-8633acb77cee</v>
+      </c>
+      <c r="B195" t="str">
+        <v>Jackson Jackson</v>
+      </c>
+      <c r="C195">
+        <v>50</v>
+      </c>
+      <c r="D195" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E195" t="str">
+        <v>jackson.jackson86@icloud.com</v>
+      </c>
+      <c r="F195" t="str">
+        <v>(858) 306-7989</v>
+      </c>
+      <c r="G195" t="str">
+        <v>Oakland</v>
+      </c>
+      <c r="H195" t="str">
+        <v>B</v>
+      </c>
+      <c r="I195" t="str">
+        <v>available</v>
+      </c>
+      <c r="J195" t="str">
+        <v>Serenity Campbell, Isaiah Green</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>258eb0f3-5b73-4b6f-abb9-86c6ccb99d1f</v>
+      </c>
+      <c r="B196" t="str">
+        <v>Mateo Phillips</v>
+      </c>
+      <c r="C196">
+        <v>44</v>
+      </c>
+      <c r="D196" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E196" t="str">
+        <v>mateo.phillips59@outlook.com</v>
+      </c>
+      <c r="F196" t="str">
+        <v>(155) 680-1162</v>
+      </c>
+      <c r="G196" t="str">
+        <v>Sacramento</v>
+      </c>
+      <c r="H196" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I196" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>224212bc-76fd-40f4-903d-8a0a1d6163e3</v>
+      </c>
+      <c r="B197" t="str">
+        <v>Grayson Edwards</v>
+      </c>
+      <c r="C197">
+        <v>21</v>
+      </c>
+      <c r="D197" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E197" t="str">
+        <v>grayson.edwards22@gmail.com</v>
+      </c>
+      <c r="F197" t="str">
+        <v>(215) 129-3913</v>
+      </c>
+      <c r="G197" t="str">
+        <v>Torrance</v>
+      </c>
+      <c r="H197" t="str">
+        <v>B</v>
+      </c>
+      <c r="I197" t="str">
+        <v>available</v>
+      </c>
+      <c r="J197" t="str">
+        <v>Elizabeth Nelson, Joseph Anderson</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>9d8995c7-d5a1-4644-848d-dca4e81371af</v>
+      </c>
+      <c r="B198" t="str">
+        <v>Michael Campbell</v>
+      </c>
+      <c r="C198">
+        <v>57</v>
+      </c>
+      <c r="D198" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E198" t="str">
+        <v>michael.campbell9@outlook.com</v>
+      </c>
+      <c r="F198" t="str">
+        <v>(176) 164-6950</v>
+      </c>
+      <c r="G198" t="str">
+        <v>Glendale</v>
+      </c>
+      <c r="H198" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I198" t="str">
+        <v>available</v>
+      </c>
+      <c r="J198" t="str">
+        <v>Sadie Williams, Eleanor Hall</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>49fbe592-0995-4321-b8af-fbe859ca414c</v>
+      </c>
+      <c r="B199" t="str">
+        <v>Grayson Morgan</v>
+      </c>
+      <c r="C199">
+        <v>50</v>
+      </c>
+      <c r="D199" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E199" t="str">
+        <v>grayson.morgan95@outlook.com</v>
+      </c>
+      <c r="F199" t="str">
+        <v>(524) 127-2584</v>
+      </c>
+      <c r="G199" t="str">
+        <v>Irvine</v>
+      </c>
+      <c r="H199" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I199" t="str">
+        <v>available</v>
+      </c>
+      <c r="J199" t="str">
+        <v>Adam Hall, Valentina Morales</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>7a0a1a0e-a2dd-4f19-94ff-54601fcfb0e1</v>
+      </c>
+      <c r="B200" t="str">
+        <v>Alexander Reyes</v>
+      </c>
+      <c r="C200">
+        <v>28</v>
+      </c>
+      <c r="D200" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E200" t="str">
+        <v>alexander.reyes92@icloud.com</v>
+      </c>
+      <c r="F200" t="str">
+        <v>(434) 933-1740</v>
+      </c>
+      <c r="G200" t="str">
+        <v>Newport Beach</v>
+      </c>
+      <c r="H200" t="str">
+        <v>A+</v>
+      </c>
+      <c r="I200" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>b22d1d02-9344-4922-9be8-d8d05a79b0b0</v>
+      </c>
+      <c r="B201" t="str">
+        <v>Julian Nguyen</v>
+      </c>
+      <c r="C201">
+        <v>59</v>
+      </c>
+      <c r="D201" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E201" t="str">
+        <v>julian.nguyen22@outlook.com</v>
+      </c>
+      <c r="F201" t="str">
+        <v>(382) 722-8118</v>
+      </c>
+      <c r="G201" t="str">
+        <v>Long Beach</v>
+      </c>
+      <c r="H201" t="str">
+        <v>C</v>
+      </c>
+      <c r="I201" t="str">
+        <v>available</v>
+      </c>
+      <c r="J201" t="str">
+        <v>Leah Diaz, Lydia Allen</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>8e30e99d-0594-4a73-840e-1f5ef32387ae</v>
+      </c>
+      <c r="B202" t="str">
+        <v>Cameron Anderson</v>
+      </c>
+      <c r="C202">
+        <v>26</v>
+      </c>
+      <c r="D202" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E202" t="str">
+        <v>cameron.anderson85@hotmail.com</v>
+      </c>
+      <c r="F202" t="str">
+        <v>(960) 363-1976</v>
+      </c>
+      <c r="G202" t="str">
+        <v>Glendale</v>
+      </c>
+      <c r="H202" t="str">
+        <v>B</v>
+      </c>
+      <c r="I202" t="str">
+        <v>available</v>
+      </c>
+      <c r="J202" t="str">
+        <v>John Diaz</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>bede75d6-a4ec-4fe3-907f-35108a2b4b10</v>
+      </c>
+      <c r="B203" t="str">
+        <v>Cameron Evans</v>
+      </c>
+      <c r="C203">
+        <v>33</v>
+      </c>
+      <c r="D203" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E203" t="str">
+        <v>cameron.evans55@outlook.com</v>
+      </c>
+      <c r="F203" t="str">
+        <v>(535) 743-7467</v>
+      </c>
+      <c r="G203" t="str">
+        <v>Fremont</v>
+      </c>
+      <c r="H203" t="str">
+        <v>B</v>
+      </c>
+      <c r="I203" t="str">
+        <v>available</v>
+      </c>
+      <c r="J203" t="str">
+        <v>Michael Johnson, Anthony Garcia</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>340ad2e5-95a9-4eb5-a113-e7f9f0e5d704</v>
+      </c>
+      <c r="B204" t="str">
+        <v>Jaxon Cook</v>
+      </c>
+      <c r="C204">
+        <v>52</v>
+      </c>
+      <c r="D204" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E204" t="str">
+        <v>jaxon.cook73@yahoo.com</v>
+      </c>
+      <c r="F204" t="str">
+        <v>(190) 120-3429</v>
+      </c>
+      <c r="G204" t="str">
+        <v>Fresno</v>
+      </c>
+      <c r="H204" t="str">
+        <v>A</v>
+      </c>
+      <c r="I204" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>8819a806-f5b1-4b58-95f5-91489df570ac</v>
+      </c>
+      <c r="B205" t="str">
+        <v>Colton Harris</v>
+      </c>
+      <c r="C205">
+        <v>27</v>
+      </c>
+      <c r="D205" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E205" t="str">
+        <v>colton.harris98@icloud.com</v>
+      </c>
+      <c r="F205" t="str">
+        <v>(583) 900-3294</v>
+      </c>
+      <c r="G205" t="str">
+        <v>Newport Beach</v>
+      </c>
+      <c r="H205" t="str">
+        <v>B</v>
+      </c>
+      <c r="I205" t="str">
+        <v>available</v>
+      </c>
+      <c r="J205" t="str">
+        <v>Sebastian Edwards, Sofia Williams</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>35c73937-3dd5-4fb3-a5df-d900cabdacba</v>
+      </c>
+      <c r="B206" t="str">
+        <v>Jackson Murphy</v>
+      </c>
+      <c r="C206">
+        <v>55</v>
+      </c>
+      <c r="D206" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E206" t="str">
+        <v>jackson.murphy91@yahoo.com</v>
+      </c>
+      <c r="F206" t="str">
+        <v>(572) 305-7237</v>
+      </c>
+      <c r="G206" t="str">
+        <v>Riverside</v>
+      </c>
+      <c r="H206" t="str">
+        <v>B</v>
+      </c>
+      <c r="I206" t="str">
+        <v>available</v>
+      </c>
+      <c r="J206" t="str">
+        <v>Caleb Brown</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>06d38f0c-6780-4d6a-97b8-f28ec52ced34</v>
+      </c>
+      <c r="B207" t="str">
+        <v>William Taylor</v>
+      </c>
+      <c r="C207">
+        <v>37</v>
+      </c>
+      <c r="D207" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E207" t="str">
+        <v>william.taylor84@hotmail.com</v>
+      </c>
+      <c r="F207" t="str">
+        <v>(276) 538-1731</v>
+      </c>
+      <c r="G207" t="str">
+        <v>Newport Beach</v>
+      </c>
+      <c r="H207" t="str">
+        <v>B</v>
+      </c>
+      <c r="I207" t="str">
+        <v>available</v>
+      </c>
+      <c r="J207" t="str">
+        <v>Victoria Scott</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>ce7b894b-705d-49f7-a6a3-e0a7fe953a10</v>
+      </c>
+      <c r="B208" t="str">
+        <v>Christian Rivera</v>
+      </c>
+      <c r="C208">
+        <v>51</v>
+      </c>
+      <c r="D208" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E208" t="str">
+        <v>christian.rivera21@outlook.com</v>
+      </c>
+      <c r="F208" t="str">
+        <v>(913) 900-2520</v>
+      </c>
+      <c r="G208" t="str">
+        <v>Burbank</v>
+      </c>
+      <c r="H208" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I208" t="str">
+        <v>available</v>
+      </c>
+      <c r="J208" t="str">
+        <v>Allison Torres, Elena Green</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>feb78ceb-dd95-455d-8b7d-fc0019ae54c8</v>
+      </c>
+      <c r="B209" t="str">
+        <v>Isaiah Green</v>
+      </c>
+      <c r="C209">
+        <v>52</v>
+      </c>
+      <c r="D209" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E209" t="str">
+        <v>isaiah.green52@icloud.com</v>
+      </c>
+      <c r="F209" t="str">
+        <v>(236) 625-9751</v>
+      </c>
+      <c r="G209" t="str">
+        <v>Glendale</v>
+      </c>
+      <c r="H209" t="str">
+        <v>B</v>
+      </c>
+      <c r="I209" t="str">
+        <v>available</v>
+      </c>
+      <c r="J209" t="str">
+        <v>Serenity Campbell, Jackson Jackson</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>5965e7f9-ebf0-4e66-a197-03be16110662</v>
+      </c>
+      <c r="B210" t="str">
+        <v>Cameron Clark</v>
+      </c>
+      <c r="C210">
+        <v>55</v>
+      </c>
+      <c r="D210" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E210" t="str">
+        <v>cameron.clark37@gmail.com</v>
+      </c>
+      <c r="F210" t="str">
+        <v>(267) 288-3549</v>
+      </c>
+      <c r="G210" t="str">
+        <v>Santa Ana</v>
+      </c>
+      <c r="H210" t="str">
+        <v>C</v>
+      </c>
+      <c r="I210" t="str">
+        <v>available</v>
+      </c>
+      <c r="J210" t="str">
+        <v>Nolan Ortiz</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>9ad191d8-a3b3-478d-9318-781d3156afaa</v>
+      </c>
+      <c r="B211" t="str">
+        <v>Alexander Campbell</v>
+      </c>
+      <c r="C211">
+        <v>34</v>
+      </c>
+      <c r="D211" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E211" t="str">
+        <v>alexander.campbell71@gmail.com</v>
+      </c>
+      <c r="F211" t="str">
+        <v>(131) 840-1169</v>
+      </c>
+      <c r="G211" t="str">
+        <v>Fresno</v>
+      </c>
+      <c r="H211" t="str">
+        <v>A</v>
+      </c>
+      <c r="I211" t="str">
+        <v>available</v>
+      </c>
+      <c r="J211" t="str">
+        <v>Logan Nguyen, Hannah Moore</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>a3363acf-3338-40ec-a745-9aef8dca39fc</v>
+      </c>
+      <c r="B212" t="str">
+        <v>Adam Hall</v>
+      </c>
+      <c r="C212">
+        <v>23</v>
+      </c>
+      <c r="D212" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E212" t="str">
+        <v>adam.hall35@outlook.com</v>
+      </c>
+      <c r="F212" t="str">
+        <v>(742) 142-5313</v>
+      </c>
+      <c r="G212" t="str">
+        <v>Santa Ana</v>
+      </c>
+      <c r="H212" t="str">
+        <v>C</v>
+      </c>
+      <c r="I212" t="str">
+        <v>available</v>
+      </c>
+      <c r="J212" t="str">
+        <v>Grayson Morgan, Valentina Morales</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>29b3a5cd-ea7d-4673-9db4-7886660a791f</v>
+      </c>
+      <c r="B213" t="str">
+        <v>Joseph Stewart</v>
+      </c>
+      <c r="C213">
+        <v>59</v>
+      </c>
+      <c r="D213" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E213" t="str">
+        <v>joseph.stewart94@outlook.com</v>
+      </c>
+      <c r="F213" t="str">
+        <v>(101) 920-4176</v>
+      </c>
+      <c r="G213" t="str">
+        <v>Stockton</v>
+      </c>
+      <c r="H213" t="str">
+        <v>B</v>
+      </c>
+      <c r="I213" t="str">
+        <v>available</v>
+      </c>
+      <c r="J213" t="str">
+        <v>Olivia Nelson, Madelyn Martinez</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>d1a89d8f-bd2f-40db-a5d5-ef8dc3e3aa54</v>
+      </c>
+      <c r="B214" t="str">
+        <v>Mason Hernandez</v>
+      </c>
+      <c r="C214">
+        <v>33</v>
+      </c>
+      <c r="D214" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E214" t="str">
+        <v>mason.hernandez15@gmail.com</v>
+      </c>
+      <c r="F214" t="str">
+        <v>(880) 425-4186</v>
+      </c>
+      <c r="G214" t="str">
+        <v>San Jose</v>
+      </c>
+      <c r="H214" t="str">
+        <v>A</v>
+      </c>
+      <c r="I214" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>2ed0295d-db8c-455a-a1cb-6d3b3fbd6156</v>
+      </c>
+      <c r="B215" t="str">
+        <v>Julian Rivera</v>
+      </c>
+      <c r="C215">
+        <v>51</v>
+      </c>
+      <c r="D215" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E215" t="str">
+        <v>julian.rivera17@icloud.com</v>
+      </c>
+      <c r="F215" t="str">
+        <v>(811) 375-6029</v>
+      </c>
+      <c r="G215" t="str">
+        <v>Santa Ana</v>
+      </c>
+      <c r="H215" t="str">
+        <v>C</v>
+      </c>
+      <c r="I215" t="str">
+        <v>available</v>
+      </c>
+      <c r="J215" t="str">
+        <v>Gabriella Smith</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>f26a0638-511f-4440-ae1a-2ae052df470f</v>
+      </c>
+      <c r="B216" t="str">
+        <v>Caleb Brown</v>
+      </c>
+      <c r="C216">
+        <v>30</v>
+      </c>
+      <c r="D216" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E216" t="str">
+        <v>caleb.brown13@yahoo.com</v>
+      </c>
+      <c r="F216" t="str">
+        <v>(130) 920-6765</v>
+      </c>
+      <c r="G216" t="str">
+        <v>Irvine</v>
+      </c>
+      <c r="H216" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I216" t="str">
+        <v>available</v>
+      </c>
+      <c r="J216" t="str">
+        <v>Jackson Murphy</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>8dfd710f-c1f0-43ee-b26d-13d05de4598b</v>
+      </c>
+      <c r="B217" t="str">
+        <v>Josiah Lopez</v>
+      </c>
+      <c r="C217">
+        <v>56</v>
+      </c>
+      <c r="D217" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E217" t="str">
+        <v>josiah.lopez65@gmail.com</v>
+      </c>
+      <c r="F217" t="str">
+        <v>(305) 140-9212</v>
+      </c>
+      <c r="G217" t="str">
+        <v>Chula Vista</v>
+      </c>
+      <c r="H217" t="str">
+        <v>B</v>
+      </c>
+      <c r="I217" t="str">
+        <v>available</v>
+      </c>
+      <c r="J217" t="str">
+        <v>Victoria Carter, Ella Martinez</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>e8c7986a-699a-4e43-9b2d-52ca42510a36</v>
+      </c>
+      <c r="B218" t="str">
+        <v>Matthew Torres</v>
+      </c>
+      <c r="C218">
+        <v>34</v>
+      </c>
+      <c r="D218" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E218" t="str">
+        <v>matthew.torres76@yahoo.com</v>
+      </c>
+      <c r="F218" t="str">
+        <v>(432) 516-9920</v>
+      </c>
+      <c r="G218" t="str">
+        <v>Sacramento</v>
+      </c>
+      <c r="H218" t="str">
+        <v>A</v>
+      </c>
+      <c r="I218" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>1a539e8e-7b02-422a-991f-99fdb84688f5</v>
+      </c>
+      <c r="B219" t="str">
+        <v>Logan Lopez</v>
+      </c>
+      <c r="C219">
+        <v>50</v>
+      </c>
+      <c r="D219" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E219" t="str">
+        <v>logan.lopez66@icloud.com</v>
+      </c>
+      <c r="F219" t="str">
+        <v>(283) 498-3157</v>
+      </c>
+      <c r="G219" t="str">
+        <v>Burbank</v>
+      </c>
+      <c r="H219" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I219" t="str">
+        <v>available</v>
+      </c>
+      <c r="J219" t="str">
+        <v>Ava Mitchell</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>5cb68000-430e-4dc3-9afa-c9c5cca864c0</v>
+      </c>
+      <c r="B220" t="str">
+        <v>Logan Nguyen</v>
+      </c>
+      <c r="C220">
+        <v>35</v>
+      </c>
+      <c r="D220" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E220" t="str">
+        <v>logan.nguyen23@hotmail.com</v>
+      </c>
+      <c r="F220" t="str">
+        <v>(278) 620-7089</v>
+      </c>
+      <c r="G220" t="str">
+        <v>Torrance</v>
+      </c>
+      <c r="H220" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I220" t="str">
+        <v>available</v>
+      </c>
+      <c r="J220" t="str">
+        <v>Alexander Campbell, Hannah Moore</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>6aa67d72-8123-41b4-9298-7f5d1e89aef7</v>
+      </c>
+      <c r="B221" t="str">
+        <v>Thomas Nguyen</v>
+      </c>
+      <c r="C221">
+        <v>56</v>
+      </c>
+      <c r="D221" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E221" t="str">
+        <v>thomas.nguyen88@yahoo.com</v>
+      </c>
+      <c r="F221" t="str">
+        <v>(163) 406-8750</v>
+      </c>
+      <c r="G221" t="str">
+        <v>Pomona</v>
+      </c>
+      <c r="H221" t="str">
+        <v>B</v>
+      </c>
+      <c r="I221" t="str">
+        <v>available</v>
+      </c>
+      <c r="J221" t="str">
+        <v>Henry Roberts, Hannah Jones</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>c6c464e0-123d-4cc9-8b28-0ecbd0a6ce5f</v>
+      </c>
+      <c r="B222" t="str">
+        <v>Matthew Anderson</v>
+      </c>
+      <c r="C222">
+        <v>38</v>
+      </c>
+      <c r="D222" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E222" t="str">
+        <v>matthew.anderson56@icloud.com</v>
+      </c>
+      <c r="F222" t="str">
+        <v>(853) 972-9742</v>
+      </c>
+      <c r="G222" t="str">
+        <v>Irvine</v>
+      </c>
+      <c r="H222" t="str">
+        <v>A+</v>
+      </c>
+      <c r="I222" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>e2c7fa0a-1d97-4430-b83c-5099c5831757</v>
+      </c>
+      <c r="B223" t="str">
+        <v>John Carter</v>
+      </c>
+      <c r="C223">
+        <v>51</v>
+      </c>
+      <c r="D223" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E223" t="str">
+        <v>john.carter42@outlook.com</v>
+      </c>
+      <c r="F223" t="str">
+        <v>(160) 507-8767</v>
+      </c>
+      <c r="G223" t="str">
+        <v>Pasadena</v>
+      </c>
+      <c r="H223" t="str">
+        <v>B</v>
+      </c>
+      <c r="I223" t="str">
+        <v>available</v>
+      </c>
+      <c r="J223" t="str">
+        <v>Brooklyn Rivera</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>ba63a5c0-c76e-4c1b-b6e4-afed15dfdcd4</v>
+      </c>
+      <c r="B224" t="str">
+        <v>Joseph Anderson</v>
+      </c>
+      <c r="C224">
+        <v>52</v>
+      </c>
+      <c r="D224" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E224" t="str">
+        <v>joseph.anderson2@outlook.com</v>
+      </c>
+      <c r="F224" t="str">
+        <v>(433) 142-2338</v>
+      </c>
+      <c r="G224" t="str">
+        <v>Chula Vista</v>
+      </c>
+      <c r="H224" t="str">
+        <v>B+</v>
+      </c>
+      <c r="I224" t="str">
+        <v>available</v>
+      </c>
+      <c r="J224" t="str">
+        <v>Elizabeth Nelson, Grayson Edwards</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>b2c7422d-5caa-41a4-8352-77a36b30b055</v>
+      </c>
+      <c r="B225" t="str">
+        <v>Christopher Carter</v>
+      </c>
+      <c r="C225">
+        <v>42</v>
+      </c>
+      <c r="D225" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E225" t="str">
+        <v>christopher.carter22@outlook.com</v>
+      </c>
+      <c r="F225" t="str">
+        <v>(176) 989-4341</v>
+      </c>
+      <c r="G225" t="str">
+        <v>Los Angeles</v>
+      </c>
+      <c r="H225" t="str">
+        <v>C</v>
+      </c>
+      <c r="I225" t="str">
+        <v>available</v>
+      </c>
+      <c r="J225" t="str">
+        <v>Cora Mitchell</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>0497247b-bf9a-4f46-a562-05f1892687ce</v>
+      </c>
+      <c r="B226" t="str">
+        <v>Henry Roberts</v>
+      </c>
+      <c r="C226">
+        <v>34</v>
+      </c>
+      <c r="D226" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E226" t="str">
+        <v>henry.roberts93@outlook.com</v>
+      </c>
+      <c r="F226" t="str">
+        <v>(654) 727-7734</v>
+      </c>
+      <c r="G226" t="str">
+        <v>Burbank</v>
+      </c>
+      <c r="H226" t="str">
+        <v>A+</v>
+      </c>
+      <c r="I226" t="str">
+        <v>available</v>
+      </c>
+      <c r="J226" t="str">
+        <v>Thomas Nguyen, Hannah Jones</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>7772949f-f87d-480b-87ab-71f7500e8bd3</v>
+      </c>
+      <c r="B227" t="str">
+        <v>Elijah Miller</v>
+      </c>
+      <c r="C227">
+        <v>30</v>
+      </c>
+      <c r="D227" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E227" t="str">
+        <v>elijah.miller73@outlook.com</v>
+      </c>
+      <c r="F227" t="str">
+        <v>(967) 645-5202</v>
+      </c>
+      <c r="G227" t="str">
+        <v>Pasadena</v>
+      </c>
+      <c r="H227" t="str">
+        <v>A</v>
+      </c>
+      <c r="I227" t="str">
+        <v>available</v>
+      </c>
+      <c r="J227" t="str">
+        <v>Sophia Flores</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>5260c12e-e864-4bff-bd02-32d2c84a9a95</v>
+      </c>
+      <c r="B228" t="str">
+        <v>Alexander Baker</v>
+      </c>
+      <c r="C228">
+        <v>55</v>
+      </c>
+      <c r="D228" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E228" t="str">
+        <v>alexander.baker64@hotmail.com</v>
+      </c>
+      <c r="F228" t="str">
+        <v>(434) 373-1503</v>
+      </c>
+      <c r="G228" t="str">
+        <v>Stockton</v>
+      </c>
+      <c r="H228" t="str">
+        <v>A+</v>
+      </c>
+      <c r="I228" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>e4b4c1c5-d581-43e6-89d9-d3cee5153165</v>
+      </c>
+      <c r="B229" t="str">
+        <v>Josiah Brown</v>
+      </c>
+      <c r="C229">
+        <v>21</v>
+      </c>
+      <c r="D229" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E229" t="str">
+        <v>josiah.brown19@hotmail.com</v>
+      </c>
+      <c r="F229" t="str">
+        <v>(678) 449-3168</v>
+      </c>
+      <c r="G229" t="str">
+        <v>Fresno</v>
+      </c>
+      <c r="H229" t="str">
+        <v>A</v>
+      </c>
+      <c r="I229" t="str">
+        <v>available</v>
+      </c>
+      <c r="J229" t="str">
+        <v>Piper Green</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>c347dd65-5ee0-40a6-9fce-2500b3aed70c</v>
+      </c>
+      <c r="B230" t="str">
+        <v>Logan Gomez</v>
+      </c>
+      <c r="C230">
+        <v>32</v>
+      </c>
+      <c r="D230" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E230" t="str">
+        <v>logan.gomez89@outlook.com</v>
+      </c>
+      <c r="F230" t="str">
+        <v>(628) 585-4251</v>
+      </c>
+      <c r="G230" t="str">
+        <v>San Diego</v>
+      </c>
+      <c r="H230" t="str">
+        <v>C</v>
+      </c>
+      <c r="I230" t="str">
+        <v>available</v>
+      </c>
+      <c r="J230" t="str">
+        <v>Lydia Morris</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>8f86f871-065f-4df6-ba6b-cf659dbcfdb2</v>
+      </c>
+      <c r="B231" t="str">
+        <v>Noah Martinez</v>
+      </c>
+      <c r="C231">
+        <v>57</v>
+      </c>
+      <c r="D231" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E231" t="str">
+        <v>noah.martinez26@outlook.com</v>
+      </c>
+      <c r="F231" t="str">
+        <v>(311) 254-2323</v>
+      </c>
+      <c r="G231" t="str">
+        <v>Oakland</v>
+      </c>
+      <c r="H231" t="str">
+        <v>C</v>
+      </c>
+      <c r="I231" t="str">
+        <v>available</v>
+      </c>
+      <c r="J231" t="str">
+        <v>Autumn Lewis</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v>befe2d5d-0583-45ac-939e-ab57370e2d4f</v>
+      </c>
+      <c r="B232" t="str">
+        <v>Daniel Taylor</v>
+      </c>
+      <c r="C232">
+        <v>34</v>
+      </c>
+      <c r="D232" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E232" t="str">
+        <v>daniel.taylor53@gmail.com</v>
+      </c>
+      <c r="F232" t="str">
+        <v>(543) 329-4768</v>
+      </c>
+      <c r="G232" t="str">
+        <v>Pomona</v>
+      </c>
+      <c r="H232" t="str">
+        <v>B</v>
+      </c>
+      <c r="I232" t="str">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>644e41d7-b99e-4381-99a9-65d5ee89ad50</v>
+      </c>
+      <c r="B233" t="str">
+        <v>Hunter Scott</v>
+      </c>
+      <c r="C233">
+        <v>56</v>
+      </c>
+      <c r="D233" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E233" t="str">
+        <v>hunter.scott37@outlook.com</v>
+      </c>
+      <c r="F233" t="str">
+        <v>(477) 130-2066</v>
+      </c>
+      <c r="G233" t="str">
+        <v>Torrance</v>
+      </c>
+      <c r="H233" t="str">
+        <v>C</v>
+      </c>
+      <c r="I233" t="str">
+        <v>available</v>
+      </c>
+      <c r="J233" t="str">
+        <v>Zoey Cook</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>d035c0a6-d30e-4ca3-b8c2-9becb2842da7</v>
+      </c>
+      <c r="B234" t="str">
+        <v>Thomas Rivera</v>
+      </c>
+      <c r="C234">
+        <v>28</v>
+      </c>
+      <c r="D234" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E234" t="str">
+        <v>thomas.rivera13@yahoo.com</v>
+      </c>
+      <c r="F234" t="str">
+        <v>(539) 243-6118</v>
+      </c>
+      <c r="G234" t="str">
+        <v>Long Beach</v>
+      </c>
+      <c r="H234" t="str">
+        <v>B</v>
+      </c>
+      <c r="I234" t="str">
+        <v>available</v>
+      </c>
+      <c r="J234" t="str">
+        <v>Hannah Murphy</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M104"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M234"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3981,13 +8063,13 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>0c1d63bc-2b42-4758-a941-3ba5964fcc9e</v>
+        <v>47ec0204-7cf6-4afb-9b9e-a91324cdf4a9</v>
       </c>
       <c r="B3" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
       </c>
       <c r="C3" t="str">
-        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
+        <v>5a16ef0a-cce8-4d1b-bfa5-3892331170c1</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -3996,1165 +8078,9 @@
         <v>A1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>161d232c-772a-4491-9880-eaa0833f9a90</v>
-      </c>
-      <c r="B4" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C4" t="str">
-        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="str">
-        <v>A2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>568ebe58-3a67-40c1-9a16-4077815f71f5</v>
-      </c>
-      <c r="B5" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C5" t="str">
-        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="str">
-        <v>A3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>1ffd9b4c-0a7a-46db-92f5-c91e9ee9ecab</v>
-      </c>
-      <c r="B6" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C6" t="str">
-        <v>292da493-0524-4ee4-b911-1bb34e328b8c</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="str">
-        <v>A4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>a856a91a-3d2f-4429-99d8-7a8bcec2fe7b</v>
-      </c>
-      <c r="B7" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C7" t="str">
-        <v>ecc70875-f282-4849-9e60-071edc278977</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="str">
-        <v>A5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>05ec7362-1b3b-4094-bdb5-e0509469b84a</v>
-      </c>
-      <c r="B8" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C8" t="str">
-        <v>df712cc5-31d8-4341-b177-6603bf089235</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="str">
-        <v>B1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>c08ac1b2-35fa-45f1-a7c8-1197041f81b3</v>
-      </c>
-      <c r="B9" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C9" t="str">
-        <v>d609a3ee-08af-4d16-aa51-c67e35cfa5c9</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="str">
-        <v>B2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>d9ee879a-2960-45cf-bcee-14b74e2ad252</v>
-      </c>
-      <c r="B10" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C10" t="str">
-        <v>efe20d3d-2162-4ff8-a8ff-4102e5d3f3ab</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="str">
-        <v>B3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>1af51669-f178-4348-9a6f-36b274fe433c</v>
-      </c>
-      <c r="B11" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C11" t="str">
-        <v>0faec83d-7c29-4269-bf33-391ef02d60e4</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="str">
-        <v>B4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>462846da-cb50-4db7-bc1b-f22932b9875a</v>
-      </c>
-      <c r="B12" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C12" t="str">
-        <v>f1466859-7323-4893-a189-a0ce994068ba</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="str">
-        <v>B5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>1517922e-1ccc-4763-84d0-8f02b715f633</v>
-      </c>
-      <c r="B13" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C13" t="str">
-        <v>0a153155-dcf5-4d56-9ed1-8960501157f8</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="str">
-        <v>C1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>0304d254-0d8d-44f9-be76-dcb1068e6cab</v>
-      </c>
-      <c r="B14" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C14" t="str">
-        <v>adfcb6e3-82cb-46b9-8fb8-069fb91e2d4f</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="str">
-        <v>C2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>aa18562e-f53f-4857-8a6d-650cb0ac93d2</v>
-      </c>
-      <c r="B15" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C15" t="str">
-        <v>f5233693-d357-4cac-a660-70ef0398a969</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" t="str">
-        <v>C3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>3080ba87-0148-44e0-a924-e778c72cf085</v>
-      </c>
-      <c r="B16" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C16" t="str">
-        <v>9b54470e-fe91-4ebb-b0aa-becf22a8cc3c</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" t="str">
-        <v>C4</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>a02fc8d6-7161-46e7-aec0-94b7bd8ef3c0</v>
-      </c>
-      <c r="B17" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C17" t="str">
-        <v>3d2128a1-336f-41e1-973b-b5dd54d90b19</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="str">
-        <v>D1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>9ee2af99-090d-47b6-8ecb-b2f29e3c90b2</v>
-      </c>
-      <c r="B18" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C18" t="str">
-        <v>ee7f9d33-09d6-417b-a45f-3e6554489f5b</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" t="str">
-        <v>D2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>5a2c4cd5-9636-49cf-98b3-7524294bd8c5</v>
-      </c>
-      <c r="B19" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C19" t="str">
-        <v>3db7cdb3-9a92-467c-b554-d23b524f42f5</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" t="str">
-        <v>D3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>a74c7ad6-8afa-49df-977f-d53b45f8ce07</v>
-      </c>
-      <c r="B20" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C20" t="str">
-        <v>5a6b21ec-9fac-4adc-b5ab-bcad20d0eca4</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" t="str">
-        <v>D4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>c91eeb22-8beb-47e4-bf26-bb31d5be823b</v>
-      </c>
-      <c r="B21" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C21" t="str">
-        <v>25370fa8-38bb-4172-9e02-23a59fcfd87a</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" t="str">
-        <v>E1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>79002346-f4d1-46c4-a8da-218d84a7038f</v>
-      </c>
-      <c r="B22" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C22" t="str">
-        <v>5c31add6-7626-46c5-a3e1-0e452ead739d</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" t="str">
-        <v>E2</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>315d4c8e-42aa-496a-8267-35eedf823cb1</v>
-      </c>
-      <c r="B23" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C23" t="str">
-        <v>939eed5c-b520-4a34-8d08-2243d6aa41c1</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23" t="str">
-        <v>A1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>aa35cd2f-32f1-4cd5-879a-11e79202bf56</v>
-      </c>
-      <c r="B24" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C24" t="str">
-        <v>1df33560-ebf2-41ec-995c-52f3f1df78d5</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24" t="str">
-        <v>A2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>1a1c989a-199f-4151-99dd-6e70ee5e964c</v>
-      </c>
-      <c r="B25" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C25" t="str">
-        <v>6591420b-4762-4d90-b738-8a5b70458c40</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25" t="str">
-        <v>A3</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>63f2b141-aa64-4b0d-8dba-6817f2ed187a</v>
-      </c>
-      <c r="B26" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C26" t="str">
-        <v>182bd5d2-7f68-4c83-b156-e80856f3b6b7</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26" t="str">
-        <v>A4</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>0b5aba6b-e20e-494f-bd3a-53ceda317bb9</v>
-      </c>
-      <c r="B27" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C27" t="str">
-        <v>ca152dfe-8ddb-45c8-b084-8a5c9e6dacfa</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27" t="str">
-        <v>A5</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>6aaf8d74-b0b2-43db-babc-0bd6a3714b0b</v>
-      </c>
-      <c r="B28" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C28" t="str">
-        <v>adb0c362-d095-4bfd-98dc-c93920fd22d6</v>
-      </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-      <c r="E28" t="str">
-        <v>B1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>d320153e-4282-4906-b685-0dd2690a81ea</v>
-      </c>
-      <c r="B29" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C29" t="str">
-        <v>7664257a-dce4-407a-8f24-692043d568be</v>
-      </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-      <c r="E29" t="str">
-        <v>B2</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>db010e25-acf8-45ad-bf4a-07177997ba81</v>
-      </c>
-      <c r="B30" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C30" t="str">
-        <v>59bae9a1-93b9-471d-a2b7-074918634f6b</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-      <c r="E30" t="str">
-        <v>B3</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>4310488c-a718-40f9-a725-71d2a29db2cd</v>
-      </c>
-      <c r="B31" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C31" t="str">
-        <v>8956e289-91e9-4c15-bf2b-a13dee2fa476</v>
-      </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
-      <c r="E31" t="str">
-        <v>B4</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v>977fe2a0-ee04-4a91-aef6-589e98451eac</v>
-      </c>
-      <c r="B32" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C32" t="str">
-        <v>2fa810c7-61d0-4519-a314-824cf0873e30</v>
-      </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-      <c r="E32" t="str">
-        <v>B5</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v>f9c1c44a-4ff5-4be5-8c5d-3ce5e7d3dc72</v>
-      </c>
-      <c r="B33" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C33" t="str">
-        <v>f9d68052-4310-45c2-a5a9-64c272347899</v>
-      </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-      <c r="E33" t="str">
-        <v>C1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>34784079-fc4e-42a0-a64b-2618a78ed14e</v>
-      </c>
-      <c r="B34" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C34" t="str">
-        <v>c1783cdf-a656-46b4-9331-4d9d18d40b51</v>
-      </c>
-      <c r="D34">
-        <v>2</v>
-      </c>
-      <c r="E34" t="str">
-        <v>C2</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>b7d2981c-343a-4314-a84c-9c580ab5f103</v>
-      </c>
-      <c r="B35" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C35" t="str">
-        <v>45c0fc2b-415d-475a-998d-934235565d6b</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-      <c r="E35" t="str">
-        <v>C3</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>7c8837a4-4a08-4eb6-a3c3-9566e2025f8a</v>
-      </c>
-      <c r="B36" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C36" t="str">
-        <v>6ddd3228-f125-4d3e-88e2-157cd730b552</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-      <c r="E36" t="str">
-        <v>C4</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>99dd2005-0db9-42d2-96f7-76180002a8f8</v>
-      </c>
-      <c r="B37" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C37" t="str">
-        <v>ad836319-db56-4a08-bca6-a8e3f19c37a8</v>
-      </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-      <c r="E37" t="str">
-        <v>D1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>312f5f58-60ef-4019-9aff-e675f31a3b69</v>
-      </c>
-      <c r="B38" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C38" t="str">
-        <v>d7b0dd51-8aea-4b32-bb8d-8b60271fc6c9</v>
-      </c>
-      <c r="D38">
-        <v>2</v>
-      </c>
-      <c r="E38" t="str">
-        <v>D2</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v>aefe43f9-b9f1-4442-ba0d-6f5b81cc116e</v>
-      </c>
-      <c r="B39" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C39" t="str">
-        <v>40727c14-a30e-4e3b-8b64-0359d25efc0c</v>
-      </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-      <c r="E39" t="str">
-        <v>D3</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="str">
-        <v>784583e4-16c5-415d-9898-8dda09f0e5af</v>
-      </c>
-      <c r="B40" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C40" t="str">
-        <v>2811bf99-369b-4c0a-b5d6-4ff46cd7aa5e</v>
-      </c>
-      <c r="D40">
-        <v>2</v>
-      </c>
-      <c r="E40" t="str">
-        <v>D4</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="str">
-        <v>c112544f-6ac0-464e-a06d-67df85f82f33</v>
-      </c>
-      <c r="B41" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C41" t="str">
-        <v>0e8f635e-8f06-4224-a2cc-4263ac307ba2</v>
-      </c>
-      <c r="D41">
-        <v>2</v>
-      </c>
-      <c r="E41" t="str">
-        <v>E1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="str">
-        <v>ed7dbbc2-1327-48a2-be28-a812aed96e81</v>
-      </c>
-      <c r="B42" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C42" t="str">
-        <v>7bfb9432-4b59-4ceb-895d-e03ae4837f91</v>
-      </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-      <c r="E42" t="str">
-        <v>E2</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="str">
-        <v>5ff58ffb-30be-40f0-9ca1-94165940b657</v>
-      </c>
-      <c r="B43" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C43" t="str">
-        <v>39b7a0a4-be8b-49f1-a5af-c5a105e0ab58</v>
-      </c>
-      <c r="D43">
-        <v>3</v>
-      </c>
-      <c r="E43" t="str">
-        <v>A1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="str">
-        <v>a64425a0-0325-4b62-8079-386836efdff0</v>
-      </c>
-      <c r="B44" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C44" t="str">
-        <v>8774a9f4-b951-41cc-b6bd-809a709cb6ea</v>
-      </c>
-      <c r="D44">
-        <v>3</v>
-      </c>
-      <c r="E44" t="str">
-        <v>A2</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="str">
-        <v>129e8507-9a27-48d9-af9e-3689a8598957</v>
-      </c>
-      <c r="B45" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C45" t="str">
-        <v>df6c0d97-fd38-4b65-8765-b11a4939bd3b</v>
-      </c>
-      <c r="D45">
-        <v>3</v>
-      </c>
-      <c r="E45" t="str">
-        <v>A3</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="str">
-        <v>4962de2d-65ed-43c4-b794-87fcdd42ed1b</v>
-      </c>
-      <c r="B46" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C46" t="str">
-        <v>bf5a6984-f656-4e23-9646-85829e9daffe</v>
-      </c>
-      <c r="D46">
-        <v>3</v>
-      </c>
-      <c r="E46" t="str">
-        <v>A4</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="str">
-        <v>5710f758-b224-467f-93ee-8490916c10e9</v>
-      </c>
-      <c r="B47" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C47" t="str">
-        <v>d6c29b29-46c2-458d-9ed6-9955afb17b95</v>
-      </c>
-      <c r="D47">
-        <v>3</v>
-      </c>
-      <c r="E47" t="str">
-        <v>A5</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="str">
-        <v>854f2397-5935-4854-bd17-c06a487bb142</v>
-      </c>
-      <c r="B48" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C48" t="str">
-        <v>e166fd4f-73eb-4bea-b8be-3acdee4f9fdc</v>
-      </c>
-      <c r="D48">
-        <v>3</v>
-      </c>
-      <c r="E48" t="str">
-        <v>B1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="str">
-        <v>e04bd714-ef7d-4548-adc1-f990450dedd4</v>
-      </c>
-      <c r="B49" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C49" t="str">
-        <v>5331c6bd-19f8-416a-9166-06280a3c547e</v>
-      </c>
-      <c r="D49">
-        <v>3</v>
-      </c>
-      <c r="E49" t="str">
-        <v>B2</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="str">
-        <v>e5c1c785-47b5-40a3-b771-bbeb376b6581</v>
-      </c>
-      <c r="B50" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C50" t="str">
-        <v>e2f70c5c-0a8d-4055-8281-2ad2ae2e0cd6</v>
-      </c>
-      <c r="D50">
-        <v>3</v>
-      </c>
-      <c r="E50" t="str">
-        <v>B3</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="str">
-        <v>dc96f223-ab88-4d41-bdb1-5054fbf412bf</v>
-      </c>
-      <c r="B51" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C51" t="str">
-        <v>ef94ff15-5215-4ecd-9ad1-9ac44fd0e56a</v>
-      </c>
-      <c r="D51">
-        <v>3</v>
-      </c>
-      <c r="E51" t="str">
-        <v>B4</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="str">
-        <v>4dbe5764-b6bc-4ae5-8ae4-2719af54b9f4</v>
-      </c>
-      <c r="B52" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C52" t="str">
-        <v>dbb200b8-766c-4984-9724-f68192d88939</v>
-      </c>
-      <c r="D52">
-        <v>3</v>
-      </c>
-      <c r="E52" t="str">
-        <v>B5</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="str">
-        <v>b0296a5a-9827-406e-9697-454a472f99ec</v>
-      </c>
-      <c r="B53" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C53" t="str">
-        <v>c4e002c2-94ef-471f-b43d-e6b2a8d35a1c</v>
-      </c>
-      <c r="D53">
-        <v>3</v>
-      </c>
-      <c r="E53" t="str">
-        <v>C1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="str">
-        <v>9b63fe68-2861-429b-a493-7f156d82b025</v>
-      </c>
-      <c r="B54" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C54" t="str">
-        <v>992418b2-3029-4752-9552-0aa886433657</v>
-      </c>
-      <c r="D54">
-        <v>3</v>
-      </c>
-      <c r="E54" t="str">
-        <v>C2</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="str">
-        <v>4a06773b-d5aa-4d39-b70a-7c909c889ea6</v>
-      </c>
-      <c r="B55" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C55" t="str">
-        <v>0669e014-c952-45fd-9791-36cbe1d51444</v>
-      </c>
-      <c r="D55">
-        <v>3</v>
-      </c>
-      <c r="E55" t="str">
-        <v>C3</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="str">
-        <v>a3067e36-1e4a-4cc1-83ae-335398a1e3be</v>
-      </c>
-      <c r="B56" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C56" t="str">
-        <v>da957311-60b3-4bfc-b980-ac0506dccd20</v>
-      </c>
-      <c r="D56">
-        <v>3</v>
-      </c>
-      <c r="E56" t="str">
-        <v>C4</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="str">
-        <v>910ad705-cbac-4ef7-8a22-9e03c252f756</v>
-      </c>
-      <c r="B57" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C57" t="str">
-        <v>cd648690-8cd1-44b6-be26-0521038f442f</v>
-      </c>
-      <c r="D57">
-        <v>3</v>
-      </c>
-      <c r="E57" t="str">
-        <v>D1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="str">
-        <v>ec890304-ce9c-4f6a-ba3c-1e3f6af22605</v>
-      </c>
-      <c r="B58" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C58" t="str">
-        <v>32ffeaf9-5f22-4db7-a70b-cbaab834db0d</v>
-      </c>
-      <c r="D58">
-        <v>3</v>
-      </c>
-      <c r="E58" t="str">
-        <v>D2</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="str">
-        <v>f8d9a4a0-cf1c-4a4a-8892-d616fb702116</v>
-      </c>
-      <c r="B59" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C59" t="str">
-        <v>9efd8ec8-0e91-45d9-804b-518939fbac76</v>
-      </c>
-      <c r="D59">
-        <v>5</v>
-      </c>
-      <c r="E59" t="str">
-        <v>A1</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="str">
-        <v>d99e1cec-f16c-4e69-be58-c21b819a4358</v>
-      </c>
-      <c r="B60" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C60" t="str">
-        <v>0bb2a1aa-a74d-4711-a2ea-609663a77b4d</v>
-      </c>
-      <c r="D60">
-        <v>5</v>
-      </c>
-      <c r="E60" t="str">
-        <v>A2</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="str">
-        <v>9551f680-6993-4ec3-a834-f1a32ec44ea0</v>
-      </c>
-      <c r="B61" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C61" t="str">
-        <v>a2ff3ad7-7964-4523-bf18-ce9994a910da</v>
-      </c>
-      <c r="D61">
-        <v>5</v>
-      </c>
-      <c r="E61" t="str">
-        <v>A3</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="str">
-        <v>8926a7fb-86cb-49f8-8740-1ed0caa8d18a</v>
-      </c>
-      <c r="B62" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C62" t="str">
-        <v>47cc1288-cbc0-4159-a52d-924c8912434d</v>
-      </c>
-      <c r="D62">
-        <v>5</v>
-      </c>
-      <c r="E62" t="str">
-        <v>A4</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="str">
-        <v>bae2ac85-4d87-4569-a8f6-daa6c8f63088</v>
-      </c>
-      <c r="B63" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C63" t="str">
-        <v>f68d2771-4820-4fef-b156-093280aeea67</v>
-      </c>
-      <c r="D63">
-        <v>5</v>
-      </c>
-      <c r="E63" t="str">
-        <v>A5</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="str">
-        <v>da4c4aec-70d9-4418-abbc-7a9e4a209c06</v>
-      </c>
-      <c r="B64" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C64" t="str">
-        <v>b8c1889f-fd66-4304-90d7-bd50422cbc52</v>
-      </c>
-      <c r="D64">
-        <v>5</v>
-      </c>
-      <c r="E64" t="str">
-        <v>B1</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="str">
-        <v>47ec0204-7cf6-4afb-9b9e-a91324cdf4a9</v>
-      </c>
-      <c r="B65" t="str">
-        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
-      </c>
-      <c r="C65" t="str">
-        <v>5a16ef0a-cce8-4d1b-bfa5-3892331170c1</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65" t="str">
-        <v>A1</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="str">
-        <v>105881ec-344b-423d-9ca0-5dbfc2c2ba8f</v>
-      </c>
-      <c r="B66" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C66" t="str">
-        <v>7728eead-ab7c-467f-bb41-2abd7952591a</v>
-      </c>
-      <c r="D66">
-        <v>6</v>
-      </c>
-      <c r="E66" t="str">
-        <v>A1</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="str">
-        <v>b90ab53e-7513-471e-9487-e490e1672e7d</v>
-      </c>
-      <c r="B67" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C67" t="str">
-        <v>bf283832-25b8-4d7f-9e0f-ef2f10903233</v>
-      </c>
-      <c r="D67">
-        <v>6</v>
-      </c>
-      <c r="E67" t="str">
-        <v>A2</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="str">
-        <v>4c838d83-e6ab-4f5e-8d16-c31da12045fd</v>
-      </c>
-      <c r="B68" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C68" t="str">
-        <v>f693d8fc-436b-426a-9bca-0b141221ab3f</v>
-      </c>
-      <c r="D68">
-        <v>6</v>
-      </c>
-      <c r="E68" t="str">
-        <v>A3</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="str">
-        <v>7c5babfc-96ed-4aa6-8470-b7a20672ad6d</v>
-      </c>
-      <c r="B69" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C69" t="str">
-        <v>a8fa9125-28f1-47e1-adba-784701975e68</v>
-      </c>
-      <c r="D69">
-        <v>6</v>
-      </c>
-      <c r="E69" t="str">
-        <v>A4</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="str">
-        <v>10b75cbb-714d-4a77-8f14-1efbed7f5860</v>
-      </c>
-      <c r="B70" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C70" t="str">
-        <v>e15c67b6-0680-4284-a8aa-a525b34c592d</v>
-      </c>
-      <c r="D70">
-        <v>6</v>
-      </c>
-      <c r="E70" t="str">
-        <v>A5</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="str">
-        <v>875a2c3b-7136-4491-9777-f2ce4e647a4c</v>
-      </c>
-      <c r="B71" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C71" t="str">
-        <v>aa6fa282-9894-4b21-a871-c9725586c397</v>
-      </c>
-      <c r="D71">
-        <v>6</v>
-      </c>
-      <c r="E71" t="str">
-        <v>B1</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H71"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H3"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/storage/backups/automatic-backup.xlsx
+++ b/storage/backups/automatic-backup.xlsx
@@ -8199,625 +8199,625 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>8ae073c9-2fdb-45a9-bae8-a2430dd540d1</v>
+        <v>6a4f32c6-4084-4fcd-bbd8-0a6aaa03e309</v>
       </c>
       <c r="B11" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C11" t="str">
-        <v>bede75d6-a4ec-4fe3-907f-35108a2b4b10</v>
+        <v>210066e7-58e9-4ebb-a504-dfbf383961b5</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="str">
-        <v>C3</v>
+        <v>D1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>6a4f32c6-4084-4fcd-bbd8-0a6aaa03e309</v>
+        <v>fba90ec2-6961-46aa-873c-068db20d280c</v>
       </c>
       <c r="B12" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C12" t="str">
-        <v>210066e7-58e9-4ebb-a504-dfbf383961b5</v>
+        <v>6849995e-3474-4988-87b0-1db2638461ca</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="str">
-        <v>D1</v>
+        <v>D2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>fba90ec2-6961-46aa-873c-068db20d280c</v>
+        <v>8aef956b-0e32-4fe1-b497-e4add14986b2</v>
       </c>
       <c r="B13" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C13" t="str">
-        <v>6849995e-3474-4988-87b0-1db2638461ca</v>
+        <v>97646711-3e33-4ee9-8d83-bd6e0363ece0</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="str">
-        <v>D2</v>
+        <v>E1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>8aef956b-0e32-4fe1-b497-e4add14986b2</v>
+        <v>fc728d42-ef5d-4d22-9365-874bb28c193c</v>
       </c>
       <c r="B14" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C14" t="str">
-        <v>97646711-3e33-4ee9-8d83-bd6e0363ece0</v>
+        <v>5c5fe7f9-35dd-4685-af6b-e44a56c1d47c</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="str">
-        <v>E1</v>
+        <v>E2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>fc728d42-ef5d-4d22-9365-874bb28c193c</v>
+        <v>ca069f0c-64db-4114-854a-90af0ec9319c</v>
       </c>
       <c r="B15" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C15" t="str">
-        <v>5c5fe7f9-35dd-4685-af6b-e44a56c1d47c</v>
+        <v>6b672a17-fbf7-4b44-841d-dc10fbe8cbce</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" t="str">
-        <v>E2</v>
+        <v>A1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>ca069f0c-64db-4114-854a-90af0ec9319c</v>
+        <v>3450dbe3-0816-4fd4-98c9-f191cfe69170</v>
       </c>
       <c r="B16" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C16" t="str">
-        <v>6b672a17-fbf7-4b44-841d-dc10fbe8cbce</v>
+        <v>9d8995c7-d5a1-4644-848d-dca4e81371af</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16" t="str">
-        <v>A1</v>
+        <v>A2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>3450dbe3-0816-4fd4-98c9-f191cfe69170</v>
+        <v>f55e9ee8-4105-4e45-b7d9-436b07c69d14</v>
       </c>
       <c r="B17" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C17" t="str">
-        <v>9d8995c7-d5a1-4644-848d-dca4e81371af</v>
+        <v>1c24b746-78a8-49cd-9c4d-3d22726dbc1b</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
       <c r="E17" t="str">
-        <v>A2</v>
+        <v>A3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>f55e9ee8-4105-4e45-b7d9-436b07c69d14</v>
+        <v>91050ab0-27a3-4b00-af21-683958d5322e</v>
       </c>
       <c r="B18" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C18" t="str">
-        <v>1c24b746-78a8-49cd-9c4d-3d22726dbc1b</v>
+        <v>5cb68000-430e-4dc3-9afa-c9c5cca864c0</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
       <c r="E18" t="str">
-        <v>A3</v>
+        <v>B3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>91050ab0-27a3-4b00-af21-683958d5322e</v>
+        <v>7d5ab531-f767-41a0-86dc-a8e27c91b8ba</v>
       </c>
       <c r="B19" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C19" t="str">
-        <v>5cb68000-430e-4dc3-9afa-c9c5cca864c0</v>
+        <v>42504e80-d5df-4b97-a283-eb96728c425f</v>
       </c>
       <c r="D19">
         <v>2</v>
       </c>
       <c r="E19" t="str">
-        <v>B3</v>
+        <v>B4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>7d5ab531-f767-41a0-86dc-a8e27c91b8ba</v>
+        <v>6c545985-ac3b-47b7-ae24-ef455c260584</v>
       </c>
       <c r="B20" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C20" t="str">
-        <v>42504e80-d5df-4b97-a283-eb96728c425f</v>
+        <v>bb319a54-7dbf-4a05-bd7f-8f2f6aa6b414</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="E20" t="str">
-        <v>B4</v>
+        <v>B5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>6c545985-ac3b-47b7-ae24-ef455c260584</v>
+        <v>54351c21-bb3a-43ee-b957-d923082db8ba</v>
       </c>
       <c r="B21" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C21" t="str">
-        <v>bb319a54-7dbf-4a05-bd7f-8f2f6aa6b414</v>
+        <v>d2e4b795-48d9-43e4-8ebe-6916a61a544e</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21" t="str">
-        <v>B5</v>
+        <v>C1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>54351c21-bb3a-43ee-b957-d923082db8ba</v>
+        <v>89feec40-99df-4fe0-bb9f-86fe536c8212</v>
       </c>
       <c r="B22" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C22" t="str">
-        <v>d2e4b795-48d9-43e4-8ebe-6916a61a544e</v>
+        <v>a614b69c-4f6c-49fa-a490-24d7e4a60da9</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
       <c r="E22" t="str">
-        <v>C1</v>
+        <v>C2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>89feec40-99df-4fe0-bb9f-86fe536c8212</v>
+        <v>c6a9cc3d-3f73-4083-9108-5d1e95dd075a</v>
       </c>
       <c r="B23" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C23" t="str">
-        <v>a614b69c-4f6c-49fa-a490-24d7e4a60da9</v>
+        <v>6366884b-6583-493e-80bc-a1dff1926c59</v>
       </c>
       <c r="D23">
         <v>2</v>
       </c>
       <c r="E23" t="str">
-        <v>C2</v>
+        <v>C3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>c6a9cc3d-3f73-4083-9108-5d1e95dd075a</v>
+        <v>ffa70008-a9f8-4422-b990-f3dead129aaf</v>
       </c>
       <c r="B24" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C24" t="str">
-        <v>6366884b-6583-493e-80bc-a1dff1926c59</v>
+        <v>3f9d95b9-bedc-4620-9aa3-9bc8669de2af</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
       <c r="E24" t="str">
-        <v>C3</v>
+        <v>C4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>ffa70008-a9f8-4422-b990-f3dead129aaf</v>
+        <v>cb296f50-db5e-40ac-93d1-ad7af9c95e25</v>
       </c>
       <c r="B25" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C25" t="str">
-        <v>3f9d95b9-bedc-4620-9aa3-9bc8669de2af</v>
+        <v>1b5fc1ce-1ed8-4255-a8a4-b02892b2b03a</v>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
       <c r="E25" t="str">
-        <v>C4</v>
+        <v>D1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>cb296f50-db5e-40ac-93d1-ad7af9c95e25</v>
+        <v>e185398c-fc7d-4620-abc0-17d7bc7006d0</v>
       </c>
       <c r="B26" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C26" t="str">
-        <v>1b5fc1ce-1ed8-4255-a8a4-b02892b2b03a</v>
+        <v>1a539e8e-7b02-422a-991f-99fdb84688f5</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
       <c r="E26" t="str">
-        <v>D1</v>
+        <v>D2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>e185398c-fc7d-4620-abc0-17d7bc7006d0</v>
+        <v>3a343830-4df1-4493-838b-3822b7eee672</v>
       </c>
       <c r="B27" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C27" t="str">
-        <v>1a539e8e-7b02-422a-991f-99fdb84688f5</v>
+        <v>699a6b21-dcdf-4a6c-a093-53af77ccdedb</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
       <c r="E27" t="str">
-        <v>D2</v>
+        <v>D3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>3a343830-4df1-4493-838b-3822b7eee672</v>
+        <v>b9b3c857-4587-4ad3-9724-9e8bb934561f</v>
       </c>
       <c r="B28" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C28" t="str">
-        <v>699a6b21-dcdf-4a6c-a093-53af77ccdedb</v>
+        <v>852226e3-fccb-4228-8627-5dc42cfe4387</v>
       </c>
       <c r="D28">
         <v>2</v>
       </c>
       <c r="E28" t="str">
-        <v>D3</v>
+        <v>D4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>b9b3c857-4587-4ad3-9724-9e8bb934561f</v>
+        <v>68c19ac9-89f8-4709-b432-ffe847157616</v>
       </c>
       <c r="B29" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C29" t="str">
-        <v>852226e3-fccb-4228-8627-5dc42cfe4387</v>
+        <v>ea1b059a-dde4-49c1-92b8-b9fd09c84bb7</v>
       </c>
       <c r="D29">
         <v>2</v>
       </c>
       <c r="E29" t="str">
-        <v>D4</v>
+        <v>E1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>68c19ac9-89f8-4709-b432-ffe847157616</v>
+        <v>f2e9a5fc-e340-4671-91f2-d74d0527295b</v>
       </c>
       <c r="B30" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C30" t="str">
-        <v>ea1b059a-dde4-49c1-92b8-b9fd09c84bb7</v>
+        <v>f878ab7f-ae59-4af0-b19a-e9bf4573c116</v>
       </c>
       <c r="D30">
         <v>2</v>
       </c>
       <c r="E30" t="str">
-        <v>E1</v>
+        <v>E2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>f2e9a5fc-e340-4671-91f2-d74d0527295b</v>
+        <v>0d7ee93c-dd0c-4825-a501-b8567f7ded2d</v>
       </c>
       <c r="B31" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C31" t="str">
-        <v>f878ab7f-ae59-4af0-b19a-e9bf4573c116</v>
+        <v>36fd980a-62d1-491b-97d6-079c33195e3d</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E31" t="str">
-        <v>E2</v>
+        <v>A1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>0d7ee93c-dd0c-4825-a501-b8567f7ded2d</v>
+        <v>6d3cff7d-f4eb-45ff-a548-5a7837cb4b17</v>
       </c>
       <c r="B32" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C32" t="str">
-        <v>36fd980a-62d1-491b-97d6-079c33195e3d</v>
+        <v>17e4dd39-8810-472c-b1a9-52382fbe0c79</v>
       </c>
       <c r="D32">
         <v>3</v>
       </c>
       <c r="E32" t="str">
-        <v>A1</v>
+        <v>A2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>6d3cff7d-f4eb-45ff-a548-5a7837cb4b17</v>
+        <v>fad608df-b93b-4c14-963e-59082c8f0ced</v>
       </c>
       <c r="B33" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C33" t="str">
-        <v>17e4dd39-8810-472c-b1a9-52382fbe0c79</v>
+        <v>ce7b894b-705d-49f7-a6a3-e0a7fe953a10</v>
       </c>
       <c r="D33">
         <v>3</v>
       </c>
       <c r="E33" t="str">
-        <v>A2</v>
+        <v>A3</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>fad608df-b93b-4c14-963e-59082c8f0ced</v>
+        <v>897a5cf6-21ab-49b3-992e-5f5a99ded612</v>
       </c>
       <c r="B34" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C34" t="str">
-        <v>ce7b894b-705d-49f7-a6a3-e0a7fe953a10</v>
+        <v>d4340206-46f8-4128-a64d-b1a7ca7bbdb5</v>
       </c>
       <c r="D34">
         <v>3</v>
       </c>
       <c r="E34" t="str">
-        <v>A3</v>
+        <v>B1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>897a5cf6-21ab-49b3-992e-5f5a99ded612</v>
+        <v>c0db21be-8cb7-462b-b734-93e936f7668c</v>
       </c>
       <c r="B35" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C35" t="str">
-        <v>d4340206-46f8-4128-a64d-b1a7ca7bbdb5</v>
+        <v>9e0ff879-df04-4a3f-b572-8633acb77cee</v>
       </c>
       <c r="D35">
         <v>3</v>
       </c>
       <c r="E35" t="str">
-        <v>B1</v>
+        <v>B2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>c0db21be-8cb7-462b-b734-93e936f7668c</v>
+        <v>c840b9a5-0493-4cb6-a015-2960e788476c</v>
       </c>
       <c r="B36" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C36" t="str">
-        <v>9e0ff879-df04-4a3f-b572-8633acb77cee</v>
+        <v>feb78ceb-dd95-455d-8b7d-fc0019ae54c8</v>
       </c>
       <c r="D36">
         <v>3</v>
       </c>
       <c r="E36" t="str">
-        <v>B2</v>
+        <v>B3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>c840b9a5-0493-4cb6-a015-2960e788476c</v>
+        <v>55df5967-7cae-45c6-aa58-55a45221da03</v>
       </c>
       <c r="B37" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C37" t="str">
-        <v>feb78ceb-dd95-455d-8b7d-fc0019ae54c8</v>
+        <v>bcc86f75-9a60-406c-be7c-4f31ea5c30ef</v>
       </c>
       <c r="D37">
         <v>3</v>
       </c>
       <c r="E37" t="str">
-        <v>B3</v>
+        <v>B4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>55df5967-7cae-45c6-aa58-55a45221da03</v>
+        <v>0eca0d6e-83f3-4de8-94d0-e1cd5b0a3c30</v>
       </c>
       <c r="B38" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C38" t="str">
-        <v>bcc86f75-9a60-406c-be7c-4f31ea5c30ef</v>
+        <v>29fc5656-fb78-4c9b-9800-b68957bc0a07</v>
       </c>
       <c r="D38">
         <v>3</v>
       </c>
       <c r="E38" t="str">
-        <v>B4</v>
+        <v>B5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>0eca0d6e-83f3-4de8-94d0-e1cd5b0a3c30</v>
+        <v>fbfb1778-e8d9-45d6-9c93-4a4772ade022</v>
       </c>
       <c r="B39" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C39" t="str">
-        <v>29fc5656-fb78-4c9b-9800-b68957bc0a07</v>
+        <v>40a64316-1fb5-4a09-8c9d-14bbc19036d1</v>
       </c>
       <c r="D39">
         <v>3</v>
       </c>
       <c r="E39" t="str">
-        <v>B5</v>
+        <v>C1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>fbfb1778-e8d9-45d6-9c93-4a4772ade022</v>
+        <v>f28c4369-e7b6-4426-b541-662187618875</v>
       </c>
       <c r="B40" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C40" t="str">
-        <v>40a64316-1fb5-4a09-8c9d-14bbc19036d1</v>
+        <v>40c53847-674f-43b5-8678-2decb3d42133</v>
       </c>
       <c r="D40">
         <v>3</v>
       </c>
       <c r="E40" t="str">
-        <v>C1</v>
+        <v>C2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>f28c4369-e7b6-4426-b541-662187618875</v>
+        <v>7497a387-6e5e-43fe-ac3b-30933a32ddc9</v>
       </c>
       <c r="B41" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C41" t="str">
-        <v>40c53847-674f-43b5-8678-2decb3d42133</v>
+        <v>151541b8-8cbb-452a-b532-1a0df3d1d4b6</v>
       </c>
       <c r="D41">
         <v>3</v>
       </c>
       <c r="E41" t="str">
-        <v>C2</v>
+        <v>C3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>7497a387-6e5e-43fe-ac3b-30933a32ddc9</v>
+        <v>0faf817a-5e9b-4e5b-b185-2e2e520092de</v>
       </c>
       <c r="B42" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C42" t="str">
-        <v>151541b8-8cbb-452a-b532-1a0df3d1d4b6</v>
+        <v>8dfd710f-c1f0-43ee-b26d-13d05de4598b</v>
       </c>
       <c r="D42">
         <v>3</v>
       </c>
       <c r="E42" t="str">
-        <v>C3</v>
+        <v>C4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>0faf817a-5e9b-4e5b-b185-2e2e520092de</v>
+        <v>f5055392-579d-4d29-b935-bd323849b850</v>
       </c>
       <c r="B43" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C43" t="str">
-        <v>8dfd710f-c1f0-43ee-b26d-13d05de4598b</v>
+        <v>cd2f354f-9f45-4422-af14-1c94758ec1c1</v>
       </c>
       <c r="D43">
         <v>3</v>
       </c>
       <c r="E43" t="str">
-        <v>C4</v>
+        <v>D1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>f5055392-579d-4d29-b935-bd323849b850</v>
+        <v>771814c8-fb5a-4414-9923-95f5cadd52a2</v>
       </c>
       <c r="B44" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C44" t="str">
-        <v>cd2f354f-9f45-4422-af14-1c94758ec1c1</v>
+        <v>d035c0a6-d30e-4ca3-b8c2-9becb2842da7</v>
       </c>
       <c r="D44">
         <v>3</v>
       </c>
       <c r="E44" t="str">
-        <v>D1</v>
+        <v>D2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>771814c8-fb5a-4414-9923-95f5cadd52a2</v>
+        <v>fa1ab0e8-4cfe-4bb5-bc34-bd6d32e3a450</v>
       </c>
       <c r="B45" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C45" t="str">
-        <v>d035c0a6-d30e-4ca3-b8c2-9becb2842da7</v>
+        <v>9d6b206c-c62d-4b71-b83d-fb61ac2fd06b</v>
       </c>
       <c r="D45">
         <v>3</v>
       </c>
       <c r="E45" t="str">
-        <v>D2</v>
+        <v>D3</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>fa1ab0e8-4cfe-4bb5-bc34-bd6d32e3a450</v>
+        <v>8ae073c9-2fdb-45a9-bae8-a2430dd540d1</v>
       </c>
       <c r="B46" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C46" t="str">
-        <v>9d6b206c-c62d-4b71-b83d-fb61ac2fd06b</v>
+        <v>bede75d6-a4ec-4fe3-907f-35108a2b4b10</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E46" t="str">
-        <v>D3</v>
+        <v>C3</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>28aa8da1-d094-49c5-93a7-3ed287f33069</v>
+        <v>13b5c13d-11b8-464c-9889-1a1bef825355</v>
       </c>
       <c r="B47" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C47" t="str">
-        <v>1adac400-525f-40f4-8b6d-20df8ce78e9d</v>
+        <v>b9e02c2d-410d-4307-811c-7e52cf93b14b</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -8828,16 +8828,16 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>13b5c13d-11b8-464c-9889-1a1bef825355</v>
+        <v>6d481455-14e0-426a-8e3b-e3d0342f932b</v>
       </c>
       <c r="B48" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C48" t="str">
-        <v>b9e02c2d-410d-4307-811c-7e52cf93b14b</v>
+        <v>5e93a4d1-9d7c-4b53-9898-a1ae2a0319c1</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E48" t="str">
         <v>D4</v>
@@ -8845,713 +8845,713 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>6d481455-14e0-426a-8e3b-e3d0342f932b</v>
+        <v>46ab772a-b14b-4bc2-a4ff-72a1d62cd491</v>
       </c>
       <c r="B49" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C49" t="str">
-        <v>5e93a4d1-9d7c-4b53-9898-a1ae2a0319c1</v>
+        <v>7772949f-f87d-480b-87ab-71f7500e8bd3</v>
       </c>
       <c r="D49">
         <v>3</v>
       </c>
       <c r="E49" t="str">
-        <v>D4</v>
+        <v>E1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>46ab772a-b14b-4bc2-a4ff-72a1d62cd491</v>
+        <v>e0fe5545-7d94-4e58-b765-424b595ef4b5</v>
       </c>
       <c r="B50" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C50" t="str">
-        <v>7772949f-f87d-480b-87ab-71f7500e8bd3</v>
+        <v>a3199cca-1aa6-4060-b6cd-0320712376ba</v>
       </c>
       <c r="D50">
         <v>3</v>
       </c>
       <c r="E50" t="str">
-        <v>E1</v>
+        <v>E2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>e0fe5545-7d94-4e58-b765-424b595ef4b5</v>
+        <v>1c444d0e-f8bc-400e-a191-6c4901d83e2e</v>
       </c>
       <c r="B51" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C51" t="str">
-        <v>a3199cca-1aa6-4060-b6cd-0320712376ba</v>
+        <v>22cf4684-eeba-4ed3-8f61-746028381f4d</v>
       </c>
       <c r="D51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E51" t="str">
-        <v>E2</v>
+        <v>A1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>1c444d0e-f8bc-400e-a191-6c4901d83e2e</v>
+        <v>3238b338-7d16-49a6-b3cb-1f58dbfc253d</v>
       </c>
       <c r="B52" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C52" t="str">
-        <v>22cf4684-eeba-4ed3-8f61-746028381f4d</v>
+        <v>94116225-6732-4c15-9e4b-66f7727602d5</v>
       </c>
       <c r="D52">
         <v>4</v>
       </c>
       <c r="E52" t="str">
-        <v>A1</v>
+        <v>A2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>3238b338-7d16-49a6-b3cb-1f58dbfc253d</v>
+        <v>afe051b9-6c88-4e3c-bbcf-ed522b90a2e7</v>
       </c>
       <c r="B53" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C53" t="str">
-        <v>94116225-6732-4c15-9e4b-66f7727602d5</v>
+        <v>2738f18e-1f2e-44d7-aa26-778ed59438ac</v>
       </c>
       <c r="D53">
         <v>4</v>
       </c>
       <c r="E53" t="str">
-        <v>A2</v>
+        <v>A3</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>afe051b9-6c88-4e3c-bbcf-ed522b90a2e7</v>
+        <v>a5806ba9-5bae-46a4-abfc-7d715f3dd948</v>
       </c>
       <c r="B54" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C54" t="str">
-        <v>2738f18e-1f2e-44d7-aa26-778ed59438ac</v>
+        <v>f960de1f-a40f-4281-9d39-2a7822335b9b</v>
       </c>
       <c r="D54">
         <v>4</v>
       </c>
       <c r="E54" t="str">
-        <v>A3</v>
+        <v>A4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>a5806ba9-5bae-46a4-abfc-7d715f3dd948</v>
+        <v>7968c7eb-38a2-4db1-8c62-356f188b33de</v>
       </c>
       <c r="B55" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C55" t="str">
-        <v>f960de1f-a40f-4281-9d39-2a7822335b9b</v>
+        <v>921da7b6-596c-4a0e-a647-022bbd8cef26</v>
       </c>
       <c r="D55">
         <v>4</v>
       </c>
       <c r="E55" t="str">
-        <v>A4</v>
+        <v>B1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>7968c7eb-38a2-4db1-8c62-356f188b33de</v>
+        <v>5b896f9b-2042-4460-a8eb-d79e0f5489e7</v>
       </c>
       <c r="B56" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C56" t="str">
-        <v>921da7b6-596c-4a0e-a647-022bbd8cef26</v>
+        <v>8e30e99d-0594-4a73-840e-1f5ef32387ae</v>
       </c>
       <c r="D56">
         <v>4</v>
       </c>
       <c r="E56" t="str">
-        <v>B1</v>
+        <v>B2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>5b896f9b-2042-4460-a8eb-d79e0f5489e7</v>
+        <v>6372ee13-9085-44c7-ab02-4e59826042c2</v>
       </c>
       <c r="B57" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C57" t="str">
-        <v>8e30e99d-0594-4a73-840e-1f5ef32387ae</v>
+        <v>224212bc-76fd-40f4-903d-8a0a1d6163e3</v>
       </c>
       <c r="D57">
         <v>4</v>
       </c>
       <c r="E57" t="str">
-        <v>B2</v>
+        <v>B3</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>6372ee13-9085-44c7-ab02-4e59826042c2</v>
+        <v>094f4b46-1ba6-48b2-b9ea-fde27a3e7089</v>
       </c>
       <c r="B58" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C58" t="str">
-        <v>224212bc-76fd-40f4-903d-8a0a1d6163e3</v>
+        <v>ba63a5c0-c76e-4c1b-b6e4-afed15dfdcd4</v>
       </c>
       <c r="D58">
         <v>4</v>
       </c>
       <c r="E58" t="str">
-        <v>B3</v>
+        <v>B4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>094f4b46-1ba6-48b2-b9ea-fde27a3e7089</v>
+        <v>2789a07f-04c7-4ddf-a9e5-6b62d4b6e31b</v>
       </c>
       <c r="B59" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C59" t="str">
-        <v>ba63a5c0-c76e-4c1b-b6e4-afed15dfdcd4</v>
+        <v>992418b2-3029-4752-9552-0aa886433657</v>
       </c>
       <c r="D59">
         <v>4</v>
       </c>
       <c r="E59" t="str">
-        <v>B4</v>
+        <v>B5</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>2789a07f-04c7-4ddf-a9e5-6b62d4b6e31b</v>
+        <v>633df747-9daf-4c78-bb0d-3fa04cf57526</v>
       </c>
       <c r="B60" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C60" t="str">
-        <v>992418b2-3029-4752-9552-0aa886433657</v>
+        <v>c4e002c2-94ef-471f-b43d-e6b2a8d35a1c</v>
       </c>
       <c r="D60">
         <v>4</v>
       </c>
       <c r="E60" t="str">
-        <v>B5</v>
+        <v>C1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>633df747-9daf-4c78-bb0d-3fa04cf57526</v>
+        <v>5150a4e7-80fd-4363-ba03-0fea4d7cfc30</v>
       </c>
       <c r="B61" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C61" t="str">
-        <v>c4e002c2-94ef-471f-b43d-e6b2a8d35a1c</v>
+        <v>dbb200b8-766c-4984-9724-f68192d88939</v>
       </c>
       <c r="D61">
         <v>4</v>
       </c>
       <c r="E61" t="str">
-        <v>C1</v>
+        <v>C2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>5150a4e7-80fd-4363-ba03-0fea4d7cfc30</v>
+        <v>7c9db114-68d8-443a-b661-f971bde50222</v>
       </c>
       <c r="B62" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C62" t="str">
-        <v>dbb200b8-766c-4984-9724-f68192d88939</v>
+        <v>0669e014-c952-45fd-9791-36cbe1d51444</v>
       </c>
       <c r="D62">
         <v>4</v>
       </c>
       <c r="E62" t="str">
-        <v>C2</v>
+        <v>C3</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>7c9db114-68d8-443a-b661-f971bde50222</v>
+        <v>746062c8-3193-4143-82b3-304bcc6035f4</v>
       </c>
       <c r="B63" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C63" t="str">
-        <v>0669e014-c952-45fd-9791-36cbe1d51444</v>
+        <v>da957311-60b3-4bfc-b980-ac0506dccd20</v>
       </c>
       <c r="D63">
         <v>4</v>
       </c>
       <c r="E63" t="str">
-        <v>C3</v>
+        <v>C4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>746062c8-3193-4143-82b3-304bcc6035f4</v>
+        <v>85b2420e-b2f1-461b-b307-6f4e3368e1b4</v>
       </c>
       <c r="B64" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C64" t="str">
-        <v>da957311-60b3-4bfc-b980-ac0506dccd20</v>
+        <v>29b3a5cd-ea7d-4673-9db4-7886660a791f</v>
       </c>
       <c r="D64">
         <v>4</v>
       </c>
       <c r="E64" t="str">
-        <v>C4</v>
+        <v>D1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>85b2420e-b2f1-461b-b307-6f4e3368e1b4</v>
+        <v>7bfcef17-f6b6-4167-9981-5d7716473aba</v>
       </c>
       <c r="B65" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C65" t="str">
-        <v>29b3a5cd-ea7d-4673-9db4-7886660a791f</v>
+        <v>b498fd02-c816-4b07-976f-1100495bf38b</v>
       </c>
       <c r="D65">
         <v>4</v>
       </c>
       <c r="E65" t="str">
-        <v>D1</v>
+        <v>D2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>7bfcef17-f6b6-4167-9981-5d7716473aba</v>
+        <v>8e2fc035-5bd7-40a8-9128-e035fc78e774</v>
       </c>
       <c r="B66" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C66" t="str">
-        <v>b498fd02-c816-4b07-976f-1100495bf38b</v>
+        <v>49fbe592-0995-4321-b8af-fbe859ca414c</v>
       </c>
       <c r="D66">
         <v>4</v>
       </c>
       <c r="E66" t="str">
-        <v>D2</v>
+        <v>D3</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>8e2fc035-5bd7-40a8-9128-e035fc78e774</v>
+        <v>4c87bd8e-1cb4-4326-9829-650c834a833c</v>
       </c>
       <c r="B67" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C67" t="str">
-        <v>49fbe592-0995-4321-b8af-fbe859ca414c</v>
+        <v>0d8894f6-9a60-421c-a7c0-144fe2f8c85f</v>
       </c>
       <c r="D67">
         <v>4</v>
       </c>
       <c r="E67" t="str">
-        <v>D3</v>
+        <v>D4</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>4c87bd8e-1cb4-4326-9829-650c834a833c</v>
+        <v>bb968d8e-9746-4741-bafd-155a753a5dee</v>
       </c>
       <c r="B68" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C68" t="str">
-        <v>0d8894f6-9a60-421c-a7c0-144fe2f8c85f</v>
+        <v>3dcd887e-9357-49a1-be20-96ba912e33bf</v>
       </c>
       <c r="D68">
         <v>4</v>
       </c>
       <c r="E68" t="str">
-        <v>D4</v>
+        <v>E1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>bb968d8e-9746-4741-bafd-155a753a5dee</v>
+        <v>c252cf65-93f9-4569-81de-ce8f76281f5f</v>
       </c>
       <c r="B69" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C69" t="str">
-        <v>3dcd887e-9357-49a1-be20-96ba912e33bf</v>
+        <v>4fba0674-c979-4177-b29d-9a882e08ad0d</v>
       </c>
       <c r="D69">
         <v>4</v>
       </c>
       <c r="E69" t="str">
-        <v>E1</v>
+        <v>E2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>c252cf65-93f9-4569-81de-ce8f76281f5f</v>
+        <v>2c776a04-80be-4ef1-b3a3-3f7032ffd211</v>
       </c>
       <c r="B70" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C70" t="str">
-        <v>4fba0674-c979-4177-b29d-9a882e08ad0d</v>
+        <v>b28a73f8-5094-4b00-be67-223342b0e1d5</v>
       </c>
       <c r="D70">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E70" t="str">
-        <v>E2</v>
+        <v>A1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>2c776a04-80be-4ef1-b3a3-3f7032ffd211</v>
+        <v>b12c13c7-0971-40ad-842c-7896062d28a9</v>
       </c>
       <c r="B71" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C71" t="str">
-        <v>b28a73f8-5094-4b00-be67-223342b0e1d5</v>
+        <v>5addacf0-a31c-4412-982a-3f0d8f1c6d07</v>
       </c>
       <c r="D71">
         <v>5</v>
       </c>
       <c r="E71" t="str">
-        <v>A1</v>
+        <v>A2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>b12c13c7-0971-40ad-842c-7896062d28a9</v>
+        <v>dd66fb84-b993-41ed-b13c-b0134ad5e7cd</v>
       </c>
       <c r="B72" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C72" t="str">
-        <v>5addacf0-a31c-4412-982a-3f0d8f1c6d07</v>
+        <v>ef837da0-c81f-4113-a389-db5e46ffaf4d</v>
       </c>
       <c r="D72">
         <v>5</v>
       </c>
       <c r="E72" t="str">
-        <v>A2</v>
+        <v>A3</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>dd66fb84-b993-41ed-b13c-b0134ad5e7cd</v>
+        <v>c46d1300-2dc7-4de3-b7d9-626b3dff9249</v>
       </c>
       <c r="B73" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C73" t="str">
-        <v>ef837da0-c81f-4113-a389-db5e46ffaf4d</v>
+        <v>55099144-967b-4cf2-b4ed-3cfe46413c92</v>
       </c>
       <c r="D73">
         <v>5</v>
       </c>
       <c r="E73" t="str">
-        <v>A3</v>
+        <v>A4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>c46d1300-2dc7-4de3-b7d9-626b3dff9249</v>
+        <v>9a3f50c1-674b-4206-95ec-354a542ddd9f</v>
       </c>
       <c r="B74" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C74" t="str">
-        <v>55099144-967b-4cf2-b4ed-3cfe46413c92</v>
+        <v>d279968e-2739-4860-92b0-61f1c31b6a72</v>
       </c>
       <c r="D74">
         <v>5</v>
       </c>
       <c r="E74" t="str">
-        <v>A4</v>
+        <v>B1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>9a3f50c1-674b-4206-95ec-354a542ddd9f</v>
+        <v>90453ac4-0aab-42c5-8454-c1e546bdbdfe</v>
       </c>
       <c r="B75" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C75" t="str">
-        <v>d279968e-2739-4860-92b0-61f1c31b6a72</v>
+        <v>5965e7f9-ebf0-4e66-a197-03be16110662</v>
       </c>
       <c r="D75">
         <v>5</v>
       </c>
       <c r="E75" t="str">
-        <v>B1</v>
+        <v>B2</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>90453ac4-0aab-42c5-8454-c1e546bdbdfe</v>
+        <v>c5ed3982-20b1-400b-b7e5-3f4e29f8475a</v>
       </c>
       <c r="B76" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C76" t="str">
-        <v>5965e7f9-ebf0-4e66-a197-03be16110662</v>
+        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
       </c>
       <c r="D76">
         <v>5</v>
       </c>
       <c r="E76" t="str">
-        <v>B2</v>
+        <v>B3</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>c5ed3982-20b1-400b-b7e5-3f4e29f8475a</v>
+        <v>e523b75c-4ce8-4fe6-9327-e9e61b371f45</v>
       </c>
       <c r="B77" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C77" t="str">
-        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
+        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
       </c>
       <c r="D77">
         <v>5</v>
       </c>
       <c r="E77" t="str">
-        <v>B3</v>
+        <v>B4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>e523b75c-4ce8-4fe6-9327-e9e61b371f45</v>
+        <v>0f6e877b-fbd1-4c63-bcbb-136d17d0fc29</v>
       </c>
       <c r="B78" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C78" t="str">
-        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
+        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
       </c>
       <c r="D78">
         <v>5</v>
       </c>
       <c r="E78" t="str">
-        <v>B4</v>
+        <v>B5</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>0f6e877b-fbd1-4c63-bcbb-136d17d0fc29</v>
+        <v>3af13ca6-b7e6-4c59-ab21-b8cc6432a36b</v>
       </c>
       <c r="B79" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C79" t="str">
-        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
+        <v>c9e05b47-6028-4cd1-b568-57342a489141</v>
       </c>
       <c r="D79">
         <v>5</v>
       </c>
       <c r="E79" t="str">
-        <v>B5</v>
+        <v>C1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>3af13ca6-b7e6-4c59-ab21-b8cc6432a36b</v>
+        <v>3efab473-e43e-49f0-997a-8263c8e6b90c</v>
       </c>
       <c r="B80" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C80" t="str">
-        <v>c9e05b47-6028-4cd1-b568-57342a489141</v>
+        <v>06d38f0c-6780-4d6a-97b8-f28ec52ced34</v>
       </c>
       <c r="D80">
         <v>5</v>
       </c>
       <c r="E80" t="str">
-        <v>C1</v>
+        <v>C2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>3efab473-e43e-49f0-997a-8263c8e6b90c</v>
+        <v>209f7473-3556-4101-9bce-f06ef19fcf16</v>
       </c>
       <c r="B81" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C81" t="str">
-        <v>06d38f0c-6780-4d6a-97b8-f28ec52ced34</v>
+        <v>bb7daa74-0f25-4289-9b11-4b838ebf5986</v>
       </c>
       <c r="D81">
         <v>5</v>
       </c>
       <c r="E81" t="str">
-        <v>C2</v>
+        <v>C3</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>209f7473-3556-4101-9bce-f06ef19fcf16</v>
+        <v>da09e6cb-e464-4adf-b13e-ce750e085870</v>
       </c>
       <c r="B82" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C82" t="str">
-        <v>bb7daa74-0f25-4289-9b11-4b838ebf5986</v>
+        <v>97620f89-d506-4934-89b6-c60208f0bb45</v>
       </c>
       <c r="D82">
         <v>5</v>
       </c>
       <c r="E82" t="str">
-        <v>C3</v>
+        <v>C4</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>da09e6cb-e464-4adf-b13e-ce750e085870</v>
+        <v>2d4d048f-8db8-452e-a204-cd9406f3ced9</v>
       </c>
       <c r="B83" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C83" t="str">
-        <v>97620f89-d506-4934-89b6-c60208f0bb45</v>
+        <v>94d903d4-dbc0-4052-87a8-ca32773ca839</v>
       </c>
       <c r="D83">
         <v>5</v>
       </c>
       <c r="E83" t="str">
-        <v>C4</v>
+        <v>D1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>2d4d048f-8db8-452e-a204-cd9406f3ced9</v>
+        <v>9ad9cd96-4347-40c4-aed9-9b859c14742d</v>
       </c>
       <c r="B84" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C84" t="str">
-        <v>94d903d4-dbc0-4052-87a8-ca32773ca839</v>
+        <v>6aa67d72-8123-41b4-9298-7f5d1e89aef7</v>
       </c>
       <c r="D84">
         <v>5</v>
       </c>
       <c r="E84" t="str">
-        <v>D1</v>
+        <v>D2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>9ad9cd96-4347-40c4-aed9-9b859c14742d</v>
+        <v>5e33e563-078a-4ecf-85f8-68ed56a48fa7</v>
       </c>
       <c r="B85" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C85" t="str">
-        <v>6aa67d72-8123-41b4-9298-7f5d1e89aef7</v>
+        <v>efeba788-8d57-40b3-a3f9-e134a40931ac</v>
       </c>
       <c r="D85">
         <v>5</v>
       </c>
       <c r="E85" t="str">
-        <v>D2</v>
+        <v>D3</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>5e33e563-078a-4ecf-85f8-68ed56a48fa7</v>
+        <v>e67a7c17-267b-47e6-a3fc-f513b720b044</v>
       </c>
       <c r="B86" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C86" t="str">
-        <v>efeba788-8d57-40b3-a3f9-e134a40931ac</v>
+        <v>df712cc5-31d8-4341-b177-6603bf089235</v>
       </c>
       <c r="D86">
         <v>5</v>
       </c>
       <c r="E86" t="str">
-        <v>D3</v>
+        <v>D4</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>e67a7c17-267b-47e6-a3fc-f513b720b044</v>
+        <v>28785eaf-bc54-45a0-8e4a-19262f46fad6</v>
       </c>
       <c r="B87" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C87" t="str">
-        <v>df712cc5-31d8-4341-b177-6603bf089235</v>
+        <v>fc97dba8-a877-4547-b6c9-0c6b058b1c94</v>
       </c>
       <c r="D87">
         <v>5</v>
       </c>
       <c r="E87" t="str">
-        <v>D4</v>
+        <v>E1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>28785eaf-bc54-45a0-8e4a-19262f46fad6</v>
+        <v>c438df5b-a3c6-40b4-b893-6f2362a461fe</v>
       </c>
       <c r="B88" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C88" t="str">
-        <v>fc97dba8-a877-4547-b6c9-0c6b058b1c94</v>
+        <v>25370fa8-38bb-4172-9e02-23a59fcfd87a</v>
       </c>
       <c r="D88">
         <v>5</v>
       </c>
       <c r="E88" t="str">
-        <v>E1</v>
+        <v>E2</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>c438df5b-a3c6-40b4-b893-6f2362a461fe</v>
+        <v>f3240566-6e6d-4921-9488-a150f3a7700a</v>
       </c>
       <c r="B89" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C89" t="str">
-        <v>25370fa8-38bb-4172-9e02-23a59fcfd87a</v>
+        <v>d3525475-4eef-4712-ba77-a79cea16ef55</v>
       </c>
       <c r="D89">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E89" t="str">
-        <v>E2</v>
+        <v>A4</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>f3240566-6e6d-4921-9488-a150f3a7700a</v>
+        <v>a719af9c-4c9e-466f-aa17-8de632fb55e7</v>
       </c>
       <c r="B90" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C90" t="str">
-        <v>d3525475-4eef-4712-ba77-a79cea16ef55</v>
+        <v>81759c6b-da11-4c0e-9e96-92aa20964b06</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E90" t="str">
         <v>A4</v>
@@ -9559,33 +9559,33 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>a719af9c-4c9e-466f-aa17-8de632fb55e7</v>
+        <v>fa7496b0-20a7-4064-84ad-355814b26567</v>
       </c>
       <c r="B91" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C91" t="str">
-        <v>81759c6b-da11-4c0e-9e96-92aa20964b06</v>
+        <v>d3db689e-5aed-4049-9588-adf3d1a49ae0</v>
       </c>
       <c r="D91">
         <v>3</v>
       </c>
       <c r="E91" t="str">
-        <v>A4</v>
+        <v>A5</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>fa7496b0-20a7-4064-84ad-355814b26567</v>
+        <v>06de1b62-8f26-446b-ad3c-dde81c5a0d6f</v>
       </c>
       <c r="B92" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C92" t="str">
-        <v>d3db689e-5aed-4049-9588-adf3d1a49ae0</v>
+        <v>2450bd3d-4940-477d-8a08-abc3363fdc3a</v>
       </c>
       <c r="D92">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E92" t="str">
         <v>A5</v>
@@ -9593,16 +9593,16 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>06de1b62-8f26-446b-ad3c-dde81c5a0d6f</v>
+        <v>923170ca-7845-4dd1-ad9d-440b882bcc50</v>
       </c>
       <c r="B93" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C93" t="str">
-        <v>2450bd3d-4940-477d-8a08-abc3363fdc3a</v>
+        <v>1df33560-ebf2-41ec-995c-52f3f1df78d5</v>
       </c>
       <c r="D93">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E93" t="str">
         <v>A5</v>
@@ -9610,87 +9610,87 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>923170ca-7845-4dd1-ad9d-440b882bcc50</v>
+        <v>965c12c4-0712-4ad9-98e8-04851b96be99</v>
       </c>
       <c r="B94" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C94" t="str">
-        <v>1df33560-ebf2-41ec-995c-52f3f1df78d5</v>
+        <v>939eed5c-b520-4a34-8d08-2243d6aa41c1</v>
       </c>
       <c r="D94">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E94" t="str">
-        <v>A5</v>
+        <v>E4</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>965c12c4-0712-4ad9-98e8-04851b96be99</v>
+        <v>017004d5-e876-4457-8310-f4684c3fee1d</v>
       </c>
       <c r="B95" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C95" t="str">
-        <v>939eed5c-b520-4a34-8d08-2243d6aa41c1</v>
+        <v>5c31add6-7626-46c5-a3e1-0e452ead739d</v>
       </c>
       <c r="D95">
         <v>4</v>
       </c>
       <c r="E95" t="str">
-        <v>E4</v>
+        <v>E3</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>017004d5-e876-4457-8310-f4684c3fee1d</v>
+        <v>a07aa251-f910-48a9-8d80-c09d726d361c</v>
       </c>
       <c r="B96" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C96" t="str">
-        <v>5c31add6-7626-46c5-a3e1-0e452ead739d</v>
+        <v>c284df19-568f-44d7-9ddf-b63e5af17f4a</v>
       </c>
       <c r="D96">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E96" t="str">
-        <v>E3</v>
+        <v>B2</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>a07aa251-f910-48a9-8d80-c09d726d361c</v>
+        <v>534fa406-134f-483b-ba52-51a7fdecd1a2</v>
       </c>
       <c r="B97" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C97" t="str">
-        <v>c284df19-568f-44d7-9ddf-b63e5af17f4a</v>
+        <v>9ad191d8-a3b3-478d-9318-781d3156afaa</v>
       </c>
       <c r="D97">
         <v>2</v>
       </c>
       <c r="E97" t="str">
-        <v>B2</v>
+        <v>B1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>534fa406-134f-483b-ba52-51a7fdecd1a2</v>
+        <v>28aa8da1-d094-49c5-93a7-3ed287f33069</v>
       </c>
       <c r="B98" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C98" t="str">
-        <v>9ad191d8-a3b3-478d-9318-781d3156afaa</v>
+        <v>1adac400-525f-40f4-8b6d-20df8ce78e9d</v>
       </c>
       <c r="D98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E98" t="str">
-        <v>B1</v>
+        <v>D4</v>
       </c>
     </row>
     <row r="99">

--- a/storage/backups/automatic-backup.xlsx
+++ b/storage/backups/automatic-backup.xlsx
@@ -742,7 +742,7 @@
         <v>B</v>
       </c>
       <c r="I2" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J2" t="str">
         <v>Violet Hall</v>
@@ -1870,34 +1870,43 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>fc97dba8-a877-4547-b6c9-0c6b058b1c94</v>
+        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
       </c>
       <c r="B38" t="str">
-        <v>Victoria Carter</v>
+        <v>Felicity Parker-Hill</v>
       </c>
       <c r="C38">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D38" t="str">
-        <v>Female</v>
+        <v>Not Specified</v>
       </c>
       <c r="E38" t="str">
-        <v>victoria.carter86@hotmail.com</v>
+        <v>felicity.parkerhill@endemolshine.com.au</v>
       </c>
       <c r="F38" t="str">
-        <v>(576) 929-4509</v>
+        <v>498086080</v>
       </c>
       <c r="G38" t="str">
-        <v>Long Beach</v>
+        <v>Melbourne</v>
       </c>
       <c r="H38" t="str">
-        <v>B</v>
+        <v/>
       </c>
       <c r="I38" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J38" t="str">
-        <v>Josiah Lopez, Ella Martinez</v>
+        <v>Peter Adamidis, Kathleen Reynolds</v>
+      </c>
+      <c r="K38" t="str">
+        <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
+      </c>
+      <c r="L38" t="str">
+        <v>N</v>
+      </c>
+      <c r="M38" t="str">
+        <v>N/A</v>
       </c>
     </row>
     <row r="39">
@@ -2019,7 +2028,7 @@
         <v>C</v>
       </c>
       <c r="I42" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J42" t="str">
         <v>Emilia Thompson</v>
@@ -2027,159 +2036,150 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>e897bbe7-50a2-441c-9ba2-0d1c40619f32</v>
+        <v>151541b8-8cbb-452a-b532-1a0df3d1d4b6</v>
       </c>
       <c r="B43" t="str">
-        <v>Chloe Williams</v>
+        <v>Ella Martinez</v>
       </c>
       <c r="C43">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D43" t="str">
         <v>Female</v>
       </c>
       <c r="E43" t="str">
-        <v>chloe.williams70@hotmail.com</v>
+        <v>ella.martinez67@hotmail.com</v>
       </c>
       <c r="F43" t="str">
-        <v>(398) 161-2308</v>
+        <v>(703) 898-3990</v>
       </c>
       <c r="G43" t="str">
-        <v>Los Angeles</v>
+        <v>Burbank</v>
       </c>
       <c r="H43" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I43" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="J43" t="str">
+        <v>Josiah Lopez, Victoria Carter</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
+        <v>6366884b-6583-493e-80bc-a1dff1926c59</v>
       </c>
       <c r="B44" t="str">
-        <v>Felicity Parker-Hill</v>
+        <v>Eleanor Allen</v>
       </c>
       <c r="C44">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="D44" t="str">
-        <v>Not Specified</v>
+        <v>Female</v>
       </c>
       <c r="E44" t="str">
-        <v>felicity.parkerhill@endemolshine.com.au</v>
+        <v>eleanor.allen67@outlook.com</v>
       </c>
       <c r="F44" t="str">
-        <v>498086080</v>
+        <v>(510) 261-1846</v>
       </c>
       <c r="G44" t="str">
-        <v>Melbourne</v>
+        <v>Los Angeles</v>
       </c>
       <c r="H44" t="str">
-        <v/>
+        <v>A</v>
       </c>
       <c r="I44" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J44" t="str">
-        <v>Peter Adamidis, Kathleen Reynolds</v>
-      </c>
-      <c r="K44" t="str">
-        <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
-      </c>
-      <c r="L44" t="str">
-        <v>N</v>
-      </c>
-      <c r="M44" t="str">
-        <v>N/A</v>
+        <v>Christopher Allen</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>6366884b-6583-493e-80bc-a1dff1926c59</v>
+        <v>e897bbe7-50a2-441c-9ba2-0d1c40619f32</v>
       </c>
       <c r="B45" t="str">
-        <v>Eleanor Allen</v>
+        <v>Chloe Williams</v>
       </c>
       <c r="C45">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D45" t="str">
         <v>Female</v>
       </c>
       <c r="E45" t="str">
-        <v>eleanor.allen67@outlook.com</v>
+        <v>chloe.williams70@hotmail.com</v>
       </c>
       <c r="F45" t="str">
-        <v>(510) 261-1846</v>
+        <v>(398) 161-2308</v>
       </c>
       <c r="G45" t="str">
         <v>Los Angeles</v>
       </c>
       <c r="H45" t="str">
-        <v>A</v>
+        <v>B+</v>
       </c>
       <c r="I45" t="str">
         <v>available</v>
-      </c>
-      <c r="J45" t="str">
-        <v>Christopher Allen</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>50b3a8f6-823f-477c-b52d-5b4fba4edbd2</v>
+        <v>fc97dba8-a877-4547-b6c9-0c6b058b1c94</v>
       </c>
       <c r="B46" t="str">
-        <v>Naomi Moore</v>
+        <v>Victoria Carter</v>
       </c>
       <c r="C46">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D46" t="str">
         <v>Female</v>
       </c>
       <c r="E46" t="str">
-        <v>naomi.moore30@gmail.com</v>
+        <v>victoria.carter86@hotmail.com</v>
       </c>
       <c r="F46" t="str">
-        <v>(391) 998-1729</v>
+        <v>(576) 929-4509</v>
       </c>
       <c r="G46" t="str">
-        <v>Irvine</v>
+        <v>Long Beach</v>
       </c>
       <c r="H46" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I46" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J46" t="str">
-        <v>Isla Wright, Cora Roberts</v>
+        <v>Josiah Lopez, Ella Martinez</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>0bb2a1aa-a74d-4711-a2ea-609663a77b4d</v>
+        <v>50b3a8f6-823f-477c-b52d-5b4fba4edbd2</v>
       </c>
       <c r="B47" t="str">
-        <v>Carter Harris</v>
+        <v>Naomi Moore</v>
       </c>
       <c r="C47">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="D47" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E47" t="str">
-        <v>carter.harris82@yahoo.com</v>
+        <v>naomi.moore30@gmail.com</v>
       </c>
       <c r="F47" t="str">
-        <v>0412 175 744</v>
+        <v>(391) 998-1729</v>
       </c>
       <c r="G47" t="str">
-        <v>Geelong</v>
+        <v>Irvine</v>
       </c>
       <c r="H47" t="str">
         <v>C</v>
@@ -2187,28 +2187,31 @@
       <c r="I47" t="str">
         <v>available</v>
       </c>
+      <c r="J47" t="str">
+        <v>Isla Wright, Cora Roberts</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>9efd8ec8-0e91-45d9-804b-518939fbac76</v>
+        <v>0bb2a1aa-a74d-4711-a2ea-609663a77b4d</v>
       </c>
       <c r="B48" t="str">
-        <v>Noah Hernandez</v>
+        <v>Carter Harris</v>
       </c>
       <c r="C48">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D48" t="str">
         <v>Male</v>
       </c>
       <c r="E48" t="str">
-        <v>noah.hernandez9@hotmail.com</v>
+        <v>carter.harris82@yahoo.com</v>
       </c>
       <c r="F48" t="str">
-        <v>0404 855 230</v>
+        <v>0412 175 744</v>
       </c>
       <c r="G48" t="str">
-        <v>Cairns</v>
+        <v>Geelong</v>
       </c>
       <c r="H48" t="str">
         <v>C</v>
@@ -2219,86 +2222,86 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>49e2abec-5fbc-4b4e-9147-fc29f4df9e48</v>
+        <v>9efd8ec8-0e91-45d9-804b-518939fbac76</v>
       </c>
       <c r="B49" t="str">
-        <v>Ellie Allen</v>
+        <v>Noah Hernandez</v>
       </c>
       <c r="C49">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D49" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E49" t="str">
-        <v>ellie.allen18@hotmail.com</v>
+        <v>noah.hernandez9@hotmail.com</v>
       </c>
       <c r="F49" t="str">
-        <v>(303) 763-9138</v>
+        <v>0404 855 230</v>
       </c>
       <c r="G49" t="str">
-        <v>Stockton</v>
+        <v>Cairns</v>
       </c>
       <c r="H49" t="str">
-        <v>A+</v>
+        <v>C</v>
       </c>
       <c r="I49" t="str">
         <v>available</v>
-      </c>
-      <c r="J49" t="str">
-        <v>Emma Torres, Charlotte Hernandez</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>f5233693-d357-4cac-a660-70ef0398a969</v>
+        <v>49e2abec-5fbc-4b4e-9147-fc29f4df9e48</v>
       </c>
       <c r="B50" t="str">
-        <v>Nathan Allen</v>
+        <v>Ellie Allen</v>
       </c>
       <c r="C50">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D50" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E50" t="str">
-        <v>nathan.allen87@outlook.com</v>
+        <v>ellie.allen18@hotmail.com</v>
       </c>
       <c r="F50" t="str">
-        <v>0403 587 263</v>
+        <v>(303) 763-9138</v>
       </c>
       <c r="G50" t="str">
-        <v>Adelaide</v>
+        <v>Stockton</v>
       </c>
       <c r="H50" t="str">
-        <v>B+</v>
+        <v>A+</v>
       </c>
       <c r="I50" t="str">
         <v>available</v>
+      </c>
+      <c r="J50" t="str">
+        <v>Emma Torres, Charlotte Hernandez</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>29fc5656-fb78-4c9b-9800-b68957bc0a07</v>
+        <v>f5233693-d357-4cac-a660-70ef0398a969</v>
       </c>
       <c r="B51" t="str">
-        <v>Aria Lopez</v>
+        <v>Nathan Allen</v>
       </c>
       <c r="C51">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D51" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E51" t="str">
-        <v>aria.lopez55@hotmail.com</v>
+        <v>nathan.allen87@outlook.com</v>
       </c>
       <c r="F51" t="str">
-        <v>0404 812 491</v>
+        <v>0403 587 263</v>
       </c>
       <c r="G51" t="str">
-        <v>Sydney</v>
+        <v>Adelaide</v>
       </c>
       <c r="H51" t="str">
         <v>B+</v>
@@ -2306,95 +2309,92 @@
       <c r="I51" t="str">
         <v>available</v>
       </c>
-      <c r="J51" t="str">
-        <v>Paisley Lee</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>93e72347-d9bf-4fb1-b06c-7cb5a2edcc2a</v>
+        <v>29fc5656-fb78-4c9b-9800-b68957bc0a07</v>
       </c>
       <c r="B52" t="str">
-        <v>Grace King</v>
+        <v>Aria Lopez</v>
       </c>
       <c r="C52">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D52" t="str">
         <v>Female</v>
       </c>
       <c r="E52" t="str">
-        <v>grace.king1@yahoo.com</v>
+        <v>aria.lopez55@hotmail.com</v>
       </c>
       <c r="F52" t="str">
-        <v>(217) 721-5651</v>
+        <v>0404 812 491</v>
       </c>
       <c r="G52" t="str">
-        <v>Oakland</v>
+        <v>Sydney</v>
       </c>
       <c r="H52" t="str">
-        <v>C</v>
+        <v>B+</v>
       </c>
       <c r="I52" t="str">
         <v>available</v>
       </c>
       <c r="J52" t="str">
-        <v>Gianna Hill</v>
+        <v>Paisley Lee</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>699a6b21-dcdf-4a6c-a093-53af77ccdedb</v>
+        <v>93e72347-d9bf-4fb1-b06c-7cb5a2edcc2a</v>
       </c>
       <c r="B53" t="str">
-        <v>Emilia Lopez</v>
+        <v>Grace King</v>
       </c>
       <c r="C53">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D53" t="str">
         <v>Female</v>
       </c>
       <c r="E53" t="str">
-        <v>emilia.lopez21@gmail.com</v>
+        <v>grace.king1@yahoo.com</v>
       </c>
       <c r="F53" t="str">
-        <v>0403 491 553</v>
+        <v>(217) 721-5651</v>
       </c>
       <c r="G53" t="str">
-        <v>Cairns</v>
+        <v>Oakland</v>
       </c>
       <c r="H53" t="str">
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="I53" t="str">
         <v>available</v>
       </c>
       <c r="J53" t="str">
-        <v>Aurora Rodriguez</v>
+        <v>Gianna Hill</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>c5fdfaeb-862e-43ab-bf0e-ff3e14e5dbb3</v>
+        <v>699a6b21-dcdf-4a6c-a093-53af77ccdedb</v>
       </c>
       <c r="B54" t="str">
-        <v>Hannah Martin</v>
+        <v>Emilia Lopez</v>
       </c>
       <c r="C54">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="D54" t="str">
         <v>Female</v>
       </c>
       <c r="E54" t="str">
-        <v>hannah.martin78@yahoo.com</v>
+        <v>emilia.lopez21@gmail.com</v>
       </c>
       <c r="F54" t="str">
-        <v>0410 940 985</v>
+        <v>0403 491 553</v>
       </c>
       <c r="G54" t="str">
-        <v>Hobart</v>
+        <v>Cairns</v>
       </c>
       <c r="H54" t="str">
         <v>B</v>
@@ -2403,62 +2403,62 @@
         <v>available</v>
       </c>
       <c r="J54" t="str">
-        <v>Abigail Lee</v>
+        <v>Aurora Rodriguez</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>da957311-60b3-4bfc-b980-ac0506dccd20</v>
+        <v>c5fdfaeb-862e-43ab-bf0e-ff3e14e5dbb3</v>
       </c>
       <c r="B55" t="str">
-        <v>Stella Garcia</v>
+        <v>Hannah Martin</v>
       </c>
       <c r="C55">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="D55" t="str">
         <v>Female</v>
       </c>
       <c r="E55" t="str">
-        <v>stella.garcia89@hotmail.com</v>
+        <v>hannah.martin78@yahoo.com</v>
       </c>
       <c r="F55" t="str">
-        <v>0403 655 540</v>
+        <v>0410 940 985</v>
       </c>
       <c r="G55" t="str">
-        <v>Toowoomba</v>
+        <v>Hobart</v>
       </c>
       <c r="H55" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I55" t="str">
         <v>available</v>
       </c>
       <c r="J55" t="str">
-        <v>Emily Thomas</v>
+        <v>Abigail Lee</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>f960de1f-a40f-4281-9d39-2a7822335b9b</v>
+        <v>da957311-60b3-4bfc-b980-ac0506dccd20</v>
       </c>
       <c r="B56" t="str">
-        <v>Victoria Carter</v>
+        <v>Stella Garcia</v>
       </c>
       <c r="C56">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D56" t="str">
         <v>Female</v>
       </c>
       <c r="E56" t="str">
-        <v>victoria.carter74@gmail.com</v>
+        <v>stella.garcia89@hotmail.com</v>
       </c>
       <c r="F56" t="str">
-        <v>0411 641 632</v>
+        <v>0403 655 540</v>
       </c>
       <c r="G56" t="str">
-        <v>Gold Coast</v>
+        <v>Toowoomba</v>
       </c>
       <c r="H56" t="str">
         <v>B+</v>
@@ -2467,94 +2467,94 @@
         <v>available</v>
       </c>
       <c r="J56" t="str">
-        <v>Emilia Miller</v>
+        <v>Emily Thomas</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>d3525475-4eef-4712-ba77-a79cea16ef55</v>
+        <v>f960de1f-a40f-4281-9d39-2a7822335b9b</v>
       </c>
       <c r="B57" t="str">
-        <v>Zoey Cook</v>
+        <v>Victoria Carter</v>
       </c>
       <c r="C57">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="D57" t="str">
         <v>Female</v>
       </c>
       <c r="E57" t="str">
-        <v>zoey.cook63@yahoo.com</v>
+        <v>victoria.carter74@gmail.com</v>
       </c>
       <c r="F57" t="str">
-        <v>(559) 803-4092</v>
+        <v>0411 641 632</v>
       </c>
       <c r="G57" t="str">
-        <v>Fremont</v>
+        <v>Gold Coast</v>
       </c>
       <c r="H57" t="str">
-        <v>A</v>
+        <v>B+</v>
       </c>
       <c r="I57" t="str">
         <v>available</v>
       </c>
       <c r="J57" t="str">
-        <v>Hunter Scott</v>
+        <v>Emilia Miller</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>c4e002c2-94ef-471f-b43d-e6b2a8d35a1c</v>
+        <v>d3525475-4eef-4712-ba77-a79cea16ef55</v>
       </c>
       <c r="B58" t="str">
-        <v>Paisley Scott</v>
+        <v>Zoey Cook</v>
       </c>
       <c r="C58">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="D58" t="str">
         <v>Female</v>
       </c>
       <c r="E58" t="str">
-        <v>paisley.scott78@yahoo.com</v>
+        <v>zoey.cook63@yahoo.com</v>
       </c>
       <c r="F58" t="str">
-        <v>0410 215 419</v>
+        <v>(559) 803-4092</v>
       </c>
       <c r="G58" t="str">
-        <v>Ballarat</v>
+        <v>Fremont</v>
       </c>
       <c r="H58" t="str">
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="I58" t="str">
         <v>available</v>
       </c>
       <c r="J58" t="str">
-        <v>Mia Roberts</v>
+        <v>Hunter Scott</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>9b54470e-fe91-4ebb-b0aa-becf22a8cc3c</v>
+        <v>c4e002c2-94ef-471f-b43d-e6b2a8d35a1c</v>
       </c>
       <c r="B59" t="str">
-        <v>Abigail Jackson</v>
+        <v>Paisley Scott</v>
       </c>
       <c r="C59">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D59" t="str">
         <v>Female</v>
       </c>
       <c r="E59" t="str">
-        <v>abigail.jackson65@outlook.com</v>
+        <v>paisley.scott78@yahoo.com</v>
       </c>
       <c r="F59" t="str">
-        <v>0411 824 257</v>
+        <v>0410 215 419</v>
       </c>
       <c r="G59" t="str">
-        <v>Newcastle</v>
+        <v>Ballarat</v>
       </c>
       <c r="H59" t="str">
         <v>B+</v>
@@ -2562,98 +2562,98 @@
       <c r="I59" t="str">
         <v>available</v>
       </c>
+      <c r="J59" t="str">
+        <v>Mia Roberts</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>efeba788-8d57-40b3-a3f9-e134a40931ac</v>
+        <v>9b54470e-fe91-4ebb-b0aa-becf22a8cc3c</v>
       </c>
       <c r="B60" t="str">
-        <v>Leah Diaz</v>
+        <v>Abigail Jackson</v>
       </c>
       <c r="C60">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D60" t="str">
         <v>Female</v>
       </c>
       <c r="E60" t="str">
-        <v>leah.diaz22@outlook.com</v>
+        <v>abigail.jackson65@outlook.com</v>
       </c>
       <c r="F60" t="str">
-        <v>(159) 664-9326</v>
+        <v>0411 824 257</v>
       </c>
       <c r="G60" t="str">
-        <v>Glendale</v>
+        <v>Newcastle</v>
       </c>
       <c r="H60" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I60" t="str">
         <v>available</v>
-      </c>
-      <c r="J60" t="str">
-        <v>Julian Nguyen, Lydia Allen</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>adfcb6e3-82cb-46b9-8fb8-069fb91e2d4f</v>
+        <v>efeba788-8d57-40b3-a3f9-e134a40931ac</v>
       </c>
       <c r="B61" t="str">
-        <v>Mason Hill</v>
+        <v>Leah Diaz</v>
       </c>
       <c r="C61">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D61" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E61" t="str">
-        <v>mason.hill27@outlook.com</v>
+        <v>leah.diaz22@outlook.com</v>
       </c>
       <c r="F61" t="str">
-        <v>0410 682 884</v>
+        <v>(159) 664-9326</v>
       </c>
       <c r="G61" t="str">
-        <v>Canberra</v>
+        <v>Glendale</v>
       </c>
       <c r="H61" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="I61" t="str">
         <v>available</v>
+      </c>
+      <c r="J61" t="str">
+        <v>Julian Nguyen, Lydia Allen</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>151541b8-8cbb-452a-b532-1a0df3d1d4b6</v>
+        <v>adfcb6e3-82cb-46b9-8fb8-069fb91e2d4f</v>
       </c>
       <c r="B62" t="str">
-        <v>Ella Martinez</v>
+        <v>Mason Hill</v>
       </c>
       <c r="C62">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D62" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E62" t="str">
-        <v>ella.martinez67@hotmail.com</v>
+        <v>mason.hill27@outlook.com</v>
       </c>
       <c r="F62" t="str">
-        <v>(703) 898-3990</v>
+        <v>0410 682 884</v>
       </c>
       <c r="G62" t="str">
-        <v>Burbank</v>
+        <v>Canberra</v>
       </c>
       <c r="H62" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="I62" t="str">
         <v>available</v>
-      </c>
-      <c r="J62" t="str">
-        <v>Josiah Lopez, Victoria Carter</v>
       </c>
     </row>
     <row r="63">
@@ -2806,10 +2806,10 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>bb319a54-7dbf-4a05-bd7f-8f2f6aa6b414</v>
+        <v>6b672a17-fbf7-4b44-841d-dc10fbe8cbce</v>
       </c>
       <c r="B68" t="str">
-        <v>Isabella Brown</v>
+        <v>Sadie Williams</v>
       </c>
       <c r="C68">
         <v>55</v>
@@ -2818,77 +2818,80 @@
         <v>Female</v>
       </c>
       <c r="E68" t="str">
-        <v>isabella.brown43@outlook.com</v>
+        <v>sadie.williams7@icloud.com</v>
       </c>
       <c r="F68" t="str">
-        <v>0403 771 690</v>
+        <v>(175) 960-1387</v>
       </c>
       <c r="G68" t="str">
-        <v>Darwin</v>
+        <v>Anaheim</v>
       </c>
       <c r="H68" t="str">
         <v>B</v>
       </c>
       <c r="I68" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J68" t="str">
-        <v>Ella Anderson</v>
+        <v>Michael Campbell, Eleanor Hall</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>34685ff7-6e85-4bbd-b546-77cfe11d7f7d</v>
+        <v>bb319a54-7dbf-4a05-bd7f-8f2f6aa6b414</v>
       </c>
       <c r="B69" t="str">
-        <v>Grace Walker</v>
+        <v>Isabella Brown</v>
       </c>
       <c r="C69">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D69" t="str">
         <v>Female</v>
       </c>
       <c r="E69" t="str">
-        <v>grace.walker52@hotmail.com</v>
+        <v>isabella.brown43@outlook.com</v>
       </c>
       <c r="F69" t="str">
-        <v>0412 754 780</v>
+        <v>0403 771 690</v>
       </c>
       <c r="G69" t="str">
-        <v>Canberra</v>
+        <v>Darwin</v>
       </c>
       <c r="H69" t="str">
-        <v>A+</v>
+        <v>B</v>
       </c>
       <c r="I69" t="str">
         <v>available</v>
+      </c>
+      <c r="J69" t="str">
+        <v>Ella Anderson</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>14ca564a-7d73-46a9-9bdd-e4924eac5eda</v>
+        <v>34685ff7-6e85-4bbd-b546-77cfe11d7f7d</v>
       </c>
       <c r="B70" t="str">
-        <v>Hailey Thompson</v>
+        <v>Grace Walker</v>
       </c>
       <c r="C70">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D70" t="str">
         <v>Female</v>
       </c>
       <c r="E70" t="str">
-        <v>hailey.thompson30@yahoo.com</v>
+        <v>grace.walker52@hotmail.com</v>
       </c>
       <c r="F70" t="str">
-        <v>(356) 680-9661</v>
+        <v>0412 754 780</v>
       </c>
       <c r="G70" t="str">
-        <v>Fremont</v>
+        <v>Canberra</v>
       </c>
       <c r="H70" t="str">
-        <v>B+</v>
+        <v>A+</v>
       </c>
       <c r="I70" t="str">
         <v>available</v>
@@ -2896,28 +2899,28 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>25370fa8-38bb-4172-9e02-23a59fcfd87a</v>
+        <v>14ca564a-7d73-46a9-9bdd-e4924eac5eda</v>
       </c>
       <c r="B71" t="str">
-        <v>Carter Hill</v>
+        <v>Hailey Thompson</v>
       </c>
       <c r="C71">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D71" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E71" t="str">
-        <v>carter.hill93@gmail.com</v>
+        <v>hailey.thompson30@yahoo.com</v>
       </c>
       <c r="F71" t="str">
-        <v>0404 349 309</v>
+        <v>(356) 680-9661</v>
       </c>
       <c r="G71" t="str">
-        <v>Newcastle</v>
+        <v>Fremont</v>
       </c>
       <c r="H71" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I71" t="str">
         <v>available</v>
@@ -2925,118 +2928,115 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>5b54b59b-b78d-4a12-906b-7f9069a82fb5</v>
+        <v>25370fa8-38bb-4172-9e02-23a59fcfd87a</v>
       </c>
       <c r="B72" t="str">
-        <v>Amelia Lopez</v>
+        <v>Carter Hill</v>
       </c>
       <c r="C72">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D72" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E72" t="str">
-        <v>amelia.lopez92@yahoo.com</v>
+        <v>carter.hill93@gmail.com</v>
       </c>
       <c r="F72" t="str">
-        <v>(297) 700-2964</v>
+        <v>0404 349 309</v>
       </c>
       <c r="G72" t="str">
-        <v>Pomona</v>
+        <v>Newcastle</v>
       </c>
       <c r="H72" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I72" t="str">
         <v>available</v>
-      </c>
-      <c r="J72" t="str">
-        <v>Lillian Campbell</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>cd648690-8cd1-44b6-be26-0521038f442f</v>
+        <v>5b54b59b-b78d-4a12-906b-7f9069a82fb5</v>
       </c>
       <c r="B73" t="str">
-        <v>Stella Hall</v>
+        <v>Amelia Lopez</v>
       </c>
       <c r="C73">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="D73" t="str">
         <v>Female</v>
       </c>
       <c r="E73" t="str">
-        <v>stella.hall72@gmail.com</v>
+        <v>amelia.lopez92@yahoo.com</v>
       </c>
       <c r="F73" t="str">
-        <v>0410 133 818</v>
+        <v>(297) 700-2964</v>
       </c>
       <c r="G73" t="str">
-        <v>Wollongong</v>
+        <v>Pomona</v>
       </c>
       <c r="H73" t="str">
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="I73" t="str">
         <v>available</v>
+      </c>
+      <c r="J73" t="str">
+        <v>Lillian Campbell</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>4f1d5a65-9d8d-4c5a-836a-f0ea71c91e56</v>
+        <v>cd648690-8cd1-44b6-be26-0521038f442f</v>
       </c>
       <c r="B74" t="str">
-        <v>Savannah Rivera</v>
+        <v>Stella Hall</v>
       </c>
       <c r="C74">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="D74" t="str">
         <v>Female</v>
       </c>
       <c r="E74" t="str">
-        <v>savannah.rivera74@hotmail.com</v>
+        <v>stella.hall72@gmail.com</v>
       </c>
       <c r="F74" t="str">
-        <v>(132) 232-5005</v>
+        <v>0410 133 818</v>
       </c>
       <c r="G74" t="str">
-        <v>Stockton</v>
+        <v>Wollongong</v>
       </c>
       <c r="H74" t="str">
-        <v>A+</v>
+        <v>B</v>
       </c>
       <c r="I74" t="str">
         <v>available</v>
-      </c>
-      <c r="J74" t="str">
-        <v>Penelope Williams</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>523bddcf-6298-42a0-b9cb-4deffb688143</v>
+        <v>4f1d5a65-9d8d-4c5a-836a-f0ea71c91e56</v>
       </c>
       <c r="B75" t="str">
-        <v>Brooklyn Rivera</v>
+        <v>Savannah Rivera</v>
       </c>
       <c r="C75">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D75" t="str">
         <v>Female</v>
       </c>
       <c r="E75" t="str">
-        <v>brooklyn.rivera69@outlook.com</v>
+        <v>savannah.rivera74@hotmail.com</v>
       </c>
       <c r="F75" t="str">
-        <v>(847) 715-1204</v>
+        <v>(132) 232-5005</v>
       </c>
       <c r="G75" t="str">
-        <v>Glendale</v>
+        <v>Stockton</v>
       </c>
       <c r="H75" t="str">
         <v>A+</v>
@@ -3045,103 +3045,103 @@
         <v>available</v>
       </c>
       <c r="J75" t="str">
-        <v>John Carter</v>
+        <v>Penelope Williams</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>cd2f354f-9f45-4422-af14-1c94758ec1c1</v>
+        <v>523bddcf-6298-42a0-b9cb-4deffb688143</v>
       </c>
       <c r="B76" t="str">
-        <v>Hannah Murphy</v>
+        <v>Brooklyn Rivera</v>
       </c>
       <c r="C76">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D76" t="str">
         <v>Female</v>
       </c>
       <c r="E76" t="str">
-        <v>hannah.murphy4@outlook.com</v>
+        <v>brooklyn.rivera69@outlook.com</v>
       </c>
       <c r="F76" t="str">
-        <v>(544) 415-8741</v>
+        <v>(847) 715-1204</v>
       </c>
       <c r="G76" t="str">
-        <v>Pomona</v>
+        <v>Glendale</v>
       </c>
       <c r="H76" t="str">
-        <v>A</v>
+        <v>A+</v>
       </c>
       <c r="I76" t="str">
         <v>available</v>
       </c>
       <c r="J76" t="str">
-        <v>Thomas Rivera</v>
+        <v>John Carter</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>b57be3ad-f74f-4f2b-aa79-6e410d2c199b</v>
+        <v>cd2f354f-9f45-4422-af14-1c94758ec1c1</v>
       </c>
       <c r="B77" t="str">
-        <v>Sofia Williams</v>
+        <v>Hannah Murphy</v>
       </c>
       <c r="C77">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="D77" t="str">
         <v>Female</v>
       </c>
       <c r="E77" t="str">
-        <v>sofia.williams60@outlook.com</v>
+        <v>hannah.murphy4@outlook.com</v>
       </c>
       <c r="F77" t="str">
-        <v>(745) 392-3827</v>
+        <v>(544) 415-8741</v>
       </c>
       <c r="G77" t="str">
-        <v>Newport Beach</v>
+        <v>Pomona</v>
       </c>
       <c r="H77" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="I77" t="str">
         <v>available</v>
       </c>
       <c r="J77" t="str">
-        <v>Colton Harris, Sebastian Edwards</v>
+        <v>Thomas Rivera</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>6b672a17-fbf7-4b44-841d-dc10fbe8cbce</v>
+        <v>b57be3ad-f74f-4f2b-aa79-6e410d2c199b</v>
       </c>
       <c r="B78" t="str">
-        <v>Sadie Williams</v>
+        <v>Sofia Williams</v>
       </c>
       <c r="C78">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D78" t="str">
         <v>Female</v>
       </c>
       <c r="E78" t="str">
-        <v>sadie.williams7@icloud.com</v>
+        <v>sofia.williams60@outlook.com</v>
       </c>
       <c r="F78" t="str">
-        <v>(175) 960-1387</v>
+        <v>(745) 392-3827</v>
       </c>
       <c r="G78" t="str">
-        <v>Anaheim</v>
+        <v>Newport Beach</v>
       </c>
       <c r="H78" t="str">
         <v>B</v>
       </c>
       <c r="I78" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J78" t="str">
-        <v>Michael Campbell, Eleanor Hall</v>
+        <v>Colton Harris, Sebastian Edwards</v>
       </c>
     </row>
     <row r="79">
@@ -3998,118 +3998,121 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>94d903d4-dbc0-4052-87a8-ca32773ca839</v>
+        <v>1c24b746-78a8-49cd-9c4d-3d22726dbc1b</v>
       </c>
       <c r="B106" t="str">
-        <v>Hannah Jones</v>
+        <v>Eleanor Hall</v>
       </c>
       <c r="C106">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="D106" t="str">
         <v>Female</v>
       </c>
       <c r="E106" t="str">
-        <v>hannah.jones85@yahoo.com</v>
+        <v>eleanor.hall7@yahoo.com</v>
       </c>
       <c r="F106" t="str">
-        <v>(644) 877-6251</v>
+        <v>(627) 443-5972</v>
       </c>
       <c r="G106" t="str">
-        <v>Sacramento</v>
+        <v>Stockton</v>
       </c>
       <c r="H106" t="str">
         <v>B</v>
       </c>
       <c r="I106" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J106" t="str">
-        <v>Thomas Nguyen, Henry Roberts</v>
+        <v>Michael Campbell, Sadie Williams</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>567e589d-b232-43c2-9d30-3ff1e359f372</v>
+        <v>94d903d4-dbc0-4052-87a8-ca32773ca839</v>
       </c>
       <c r="B107" t="str">
-        <v>Hazel Mitchell</v>
+        <v>Hannah Jones</v>
       </c>
       <c r="C107">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D107" t="str">
         <v>Female</v>
       </c>
       <c r="E107" t="str">
-        <v>hazel.mitchell91@gmail.com</v>
+        <v>hannah.jones85@yahoo.com</v>
       </c>
       <c r="F107" t="str">
-        <v>0400 683 761</v>
+        <v>(644) 877-6251</v>
       </c>
       <c r="G107" t="str">
-        <v>Perth</v>
+        <v>Sacramento</v>
       </c>
       <c r="H107" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="I107" t="str">
         <v>available</v>
       </c>
       <c r="J107" t="str">
-        <v>Caroline Taylor</v>
+        <v>Thomas Nguyen, Henry Roberts</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>076ad666-a34b-4ae1-b91f-de785dbdf5ec</v>
+        <v>567e589d-b232-43c2-9d30-3ff1e359f372</v>
       </c>
       <c r="B108" t="str">
-        <v>Nora Rogers</v>
+        <v>Hazel Mitchell</v>
       </c>
       <c r="C108">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="D108" t="str">
         <v>Female</v>
       </c>
       <c r="E108" t="str">
-        <v>nora.rogers98@yahoo.com</v>
+        <v>hazel.mitchell91@gmail.com</v>
       </c>
       <c r="F108" t="str">
-        <v>(704) 607-6893</v>
+        <v>0400 683 761</v>
       </c>
       <c r="G108" t="str">
-        <v>Riverside</v>
+        <v>Perth</v>
       </c>
       <c r="H108" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="I108" t="str">
         <v>available</v>
+      </c>
+      <c r="J108" t="str">
+        <v>Caroline Taylor</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>17e4dd39-8810-472c-b1a9-52382fbe0c79</v>
+        <v>076ad666-a34b-4ae1-b91f-de785dbdf5ec</v>
       </c>
       <c r="B109" t="str">
-        <v>Allison Torres</v>
+        <v>Nora Rogers</v>
       </c>
       <c r="C109">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="D109" t="str">
         <v>Female</v>
       </c>
       <c r="E109" t="str">
-        <v>allison.torres94@gmail.com</v>
+        <v>nora.rogers98@yahoo.com</v>
       </c>
       <c r="F109" t="str">
-        <v>(858) 153-7242</v>
+        <v>(704) 607-6893</v>
       </c>
       <c r="G109" t="str">
-        <v>Fremont</v>
+        <v>Riverside</v>
       </c>
       <c r="H109" t="str">
         <v>B</v>
@@ -4117,127 +4120,127 @@
       <c r="I109" t="str">
         <v>available</v>
       </c>
-      <c r="J109" t="str">
-        <v>Christian Rivera, Elena Green</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>d4340206-46f8-4128-a64d-b1a7ca7bbdb5</v>
+        <v>17e4dd39-8810-472c-b1a9-52382fbe0c79</v>
       </c>
       <c r="B110" t="str">
-        <v>Serenity Campbell</v>
+        <v>Allison Torres</v>
       </c>
       <c r="C110">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D110" t="str">
         <v>Female</v>
       </c>
       <c r="E110" t="str">
-        <v>serenity.campbell1@yahoo.com</v>
+        <v>allison.torres94@gmail.com</v>
       </c>
       <c r="F110" t="str">
-        <v>(479) 565-5966</v>
+        <v>(858) 153-7242</v>
       </c>
       <c r="G110" t="str">
-        <v>Irvine</v>
+        <v>Fremont</v>
       </c>
       <c r="H110" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I110" t="str">
         <v>available</v>
       </c>
       <c r="J110" t="str">
-        <v>Jackson Jackson, Isaiah Green</v>
+        <v>Christian Rivera, Elena Green</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>bb7daa74-0f25-4289-9b11-4b838ebf5986</v>
+        <v>d4340206-46f8-4128-a64d-b1a7ca7bbdb5</v>
       </c>
       <c r="B111" t="str">
-        <v>Emma Torres</v>
+        <v>Serenity Campbell</v>
       </c>
       <c r="C111">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D111" t="str">
         <v>Female</v>
       </c>
       <c r="E111" t="str">
-        <v>emma.torres53@outlook.com</v>
+        <v>serenity.campbell1@yahoo.com</v>
       </c>
       <c r="F111" t="str">
-        <v>(809) 313-7642</v>
+        <v>(479) 565-5966</v>
       </c>
       <c r="G111" t="str">
-        <v>Bakersfield</v>
+        <v>Irvine</v>
       </c>
       <c r="H111" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I111" t="str">
         <v>available</v>
       </c>
       <c r="J111" t="str">
-        <v>Ellie Allen, Charlotte Hernandez</v>
+        <v>Jackson Jackson, Isaiah Green</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>700fc657-988b-4d49-9814-25b1df35cefc</v>
+        <v>bb7daa74-0f25-4289-9b11-4b838ebf5986</v>
       </c>
       <c r="B112" t="str">
-        <v>Victoria Thompson</v>
+        <v>Emma Torres</v>
       </c>
       <c r="C112">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D112" t="str">
         <v>Female</v>
       </c>
       <c r="E112" t="str">
-        <v>victoria.thompson68@yahoo.com</v>
+        <v>emma.torres53@outlook.com</v>
       </c>
       <c r="F112" t="str">
-        <v>(793) 601-6884</v>
+        <v>(809) 313-7642</v>
       </c>
       <c r="G112" t="str">
-        <v>San Jose</v>
+        <v>Bakersfield</v>
       </c>
       <c r="H112" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I112" t="str">
         <v>available</v>
+      </c>
+      <c r="J112" t="str">
+        <v>Ellie Allen, Charlotte Hernandez</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>af09efbe-e83d-4046-8dc8-e6a06dfc0c40</v>
+        <v>700fc657-988b-4d49-9814-25b1df35cefc</v>
       </c>
       <c r="B113" t="str">
-        <v>Paisley Evans</v>
+        <v>Victoria Thompson</v>
       </c>
       <c r="C113">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D113" t="str">
         <v>Female</v>
       </c>
       <c r="E113" t="str">
-        <v>paisley.evans52@yahoo.com</v>
+        <v>victoria.thompson68@yahoo.com</v>
       </c>
       <c r="F113" t="str">
-        <v>(894) 250-9501</v>
+        <v>(793) 601-6884</v>
       </c>
       <c r="G113" t="str">
-        <v>Torrance</v>
+        <v>San Jose</v>
       </c>
       <c r="H113" t="str">
-        <v>B+</v>
+        <v>C</v>
       </c>
       <c r="I113" t="str">
         <v>available</v>
@@ -4245,28 +4248,28 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>fec80989-ab0f-471a-a4de-6c207e334f80</v>
+        <v>af09efbe-e83d-4046-8dc8-e6a06dfc0c40</v>
       </c>
       <c r="B114" t="str">
-        <v>Eliza Rivera</v>
+        <v>Paisley Evans</v>
       </c>
       <c r="C114">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D114" t="str">
         <v>Female</v>
       </c>
       <c r="E114" t="str">
-        <v>eliza.rivera29@yahoo.com</v>
+        <v>paisley.evans52@yahoo.com</v>
       </c>
       <c r="F114" t="str">
-        <v>(836) 154-6362</v>
+        <v>(894) 250-9501</v>
       </c>
       <c r="G114" t="str">
-        <v>Newport Beach</v>
+        <v>Torrance</v>
       </c>
       <c r="H114" t="str">
-        <v>A</v>
+        <v>B+</v>
       </c>
       <c r="I114" t="str">
         <v>available</v>
@@ -4274,121 +4277,118 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>f6a281bb-caec-44cf-a596-a6e92d6e2610</v>
+        <v>fec80989-ab0f-471a-a4de-6c207e334f80</v>
       </c>
       <c r="B115" t="str">
-        <v>Leah Scott</v>
+        <v>Eliza Rivera</v>
       </c>
       <c r="C115">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D115" t="str">
         <v>Female</v>
       </c>
       <c r="E115" t="str">
-        <v>leah.scott74@gmail.com</v>
+        <v>eliza.rivera29@yahoo.com</v>
       </c>
       <c r="F115" t="str">
-        <v>0402 414 358</v>
+        <v>(836) 154-6362</v>
       </c>
       <c r="G115" t="str">
-        <v>Perth</v>
+        <v>Newport Beach</v>
       </c>
       <c r="H115" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="I115" t="str">
         <v>available</v>
-      </c>
-      <c r="J115" t="str">
-        <v>Harper Sanchez</v>
-      </c>
-      <c r="M115" t="str">
-        <v>Limited mobility - prefers ground floor seating</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>04993d9a-3a65-4d61-a0c8-591aabb2e72c</v>
+        <v>f6a281bb-caec-44cf-a596-a6e92d6e2610</v>
       </c>
       <c r="B116" t="str">
-        <v>Eliza Martinez</v>
+        <v>Leah Scott</v>
       </c>
       <c r="C116">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D116" t="str">
         <v>Female</v>
       </c>
       <c r="E116" t="str">
-        <v>eliza.martinez8@hotmail.com</v>
+        <v>leah.scott74@gmail.com</v>
       </c>
       <c r="F116" t="str">
-        <v>(881) 895-2168</v>
+        <v>0402 414 358</v>
       </c>
       <c r="G116" t="str">
-        <v>Torrance</v>
+        <v>Perth</v>
       </c>
       <c r="H116" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I116" t="str">
         <v>available</v>
+      </c>
+      <c r="J116" t="str">
+        <v>Harper Sanchez</v>
+      </c>
+      <c r="M116" t="str">
+        <v>Limited mobility - prefers ground floor seating</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>bf1fc0b1-7d88-41a5-ab6f-ee4c085fd344</v>
+        <v>04993d9a-3a65-4d61-a0c8-591aabb2e72c</v>
       </c>
       <c r="B117" t="str">
-        <v>Brooklyn Nguyen</v>
+        <v>Eliza Martinez</v>
       </c>
       <c r="C117">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D117" t="str">
         <v>Female</v>
       </c>
       <c r="E117" t="str">
-        <v>brooklyn.nguyen77@yahoo.com</v>
+        <v>eliza.martinez8@hotmail.com</v>
       </c>
       <c r="F117" t="str">
-        <v>(142) 872-1855</v>
+        <v>(881) 895-2168</v>
       </c>
       <c r="G117" t="str">
-        <v>Los Angeles</v>
+        <v>Torrance</v>
       </c>
       <c r="H117" t="str">
-        <v>A</v>
+        <v>B+</v>
       </c>
       <c r="I117" t="str">
         <v>available</v>
-      </c>
-      <c r="J117" t="str">
-        <v>Naomi Brown</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>0fa47948-ca05-48a1-917a-bce2c13237ed</v>
+        <v>bf1fc0b1-7d88-41a5-ab6f-ee4c085fd344</v>
       </c>
       <c r="B118" t="str">
-        <v>Isabella Taylor</v>
+        <v>Brooklyn Nguyen</v>
       </c>
       <c r="C118">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="D118" t="str">
         <v>Female</v>
       </c>
       <c r="E118" t="str">
-        <v>isabella.taylor65@yahoo.com</v>
+        <v>brooklyn.nguyen77@yahoo.com</v>
       </c>
       <c r="F118" t="str">
-        <v>(997) 957-4171</v>
+        <v>(142) 872-1855</v>
       </c>
       <c r="G118" t="str">
-        <v>Chula Vista</v>
+        <v>Los Angeles</v>
       </c>
       <c r="H118" t="str">
         <v>A</v>
@@ -4396,31 +4396,34 @@
       <c r="I118" t="str">
         <v>available</v>
       </c>
+      <c r="J118" t="str">
+        <v>Naomi Brown</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>24928131-51b3-46f8-b43f-2cf989696f62</v>
+        <v>0fa47948-ca05-48a1-917a-bce2c13237ed</v>
       </c>
       <c r="B119" t="str">
-        <v>Amelia Garcia</v>
+        <v>Isabella Taylor</v>
       </c>
       <c r="C119">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D119" t="str">
         <v>Female</v>
       </c>
       <c r="E119" t="str">
-        <v>amelia.garcia16@gmail.com</v>
+        <v>isabella.taylor65@yahoo.com</v>
       </c>
       <c r="F119" t="str">
-        <v>(331) 367-3904</v>
+        <v>(997) 957-4171</v>
       </c>
       <c r="G119" t="str">
-        <v>Anaheim</v>
+        <v>Chula Vista</v>
       </c>
       <c r="H119" t="str">
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="I119" t="str">
         <v>available</v>
@@ -4428,57 +4431,54 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>50b098db-86f4-4a21-8425-ab03df8f7a40</v>
+        <v>24928131-51b3-46f8-b43f-2cf989696f62</v>
       </c>
       <c r="B120" t="str">
-        <v>Lillian Campbell</v>
+        <v>Amelia Garcia</v>
       </c>
       <c r="C120">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D120" t="str">
         <v>Female</v>
       </c>
       <c r="E120" t="str">
-        <v>lillian.campbell41@yahoo.com</v>
+        <v>amelia.garcia16@gmail.com</v>
       </c>
       <c r="F120" t="str">
-        <v>(945) 213-8284</v>
+        <v>(331) 367-3904</v>
       </c>
       <c r="G120" t="str">
-        <v>Pasadena</v>
+        <v>Anaheim</v>
       </c>
       <c r="H120" t="str">
-        <v>A+</v>
+        <v>B+</v>
       </c>
       <c r="I120" t="str">
         <v>available</v>
-      </c>
-      <c r="J120" t="str">
-        <v>Amelia Lopez</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>e9a3f4c7-c9ed-4fd1-a5a9-d3763ae52a55</v>
+        <v>50b098db-86f4-4a21-8425-ab03df8f7a40</v>
       </c>
       <c r="B121" t="str">
-        <v>Victoria Anderson</v>
+        <v>Lillian Campbell</v>
       </c>
       <c r="C121">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D121" t="str">
         <v>Female</v>
       </c>
       <c r="E121" t="str">
-        <v>victoria.anderson1@outlook.com</v>
+        <v>lillian.campbell41@yahoo.com</v>
       </c>
       <c r="F121" t="str">
-        <v>(622) 987-4829</v>
+        <v>(945) 213-8284</v>
       </c>
       <c r="G121" t="str">
-        <v>Sacramento</v>
+        <v>Pasadena</v>
       </c>
       <c r="H121" t="str">
         <v>A+</v>
@@ -4487,164 +4487,164 @@
         <v>available</v>
       </c>
       <c r="J121" t="str">
-        <v>Sophia Reyes</v>
+        <v>Amelia Lopez</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>9f873871-29cc-45f0-894c-c54745230689</v>
+        <v>e9a3f4c7-c9ed-4fd1-a5a9-d3763ae52a55</v>
       </c>
       <c r="B122" t="str">
-        <v>Sadie Wright</v>
+        <v>Victoria Anderson</v>
       </c>
       <c r="C122">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D122" t="str">
         <v>Female</v>
       </c>
       <c r="E122" t="str">
-        <v>sadie.wright75@hotmail.com</v>
+        <v>victoria.anderson1@outlook.com</v>
       </c>
       <c r="F122" t="str">
-        <v>(617) 145-9784</v>
+        <v>(622) 987-4829</v>
       </c>
       <c r="G122" t="str">
-        <v>Anaheim</v>
+        <v>Sacramento</v>
       </c>
       <c r="H122" t="str">
-        <v>C</v>
+        <v>A+</v>
       </c>
       <c r="I122" t="str">
         <v>available</v>
+      </c>
+      <c r="J122" t="str">
+        <v>Sophia Reyes</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>0d8894f6-9a60-421c-a7c0-144fe2f8c85f</v>
+        <v>9f873871-29cc-45f0-894c-c54745230689</v>
       </c>
       <c r="B123" t="str">
-        <v>Lydia Morris</v>
+        <v>Sadie Wright</v>
       </c>
       <c r="C123">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D123" t="str">
         <v>Female</v>
       </c>
       <c r="E123" t="str">
-        <v>lydia.morris1@gmail.com</v>
+        <v>sadie.wright75@hotmail.com</v>
       </c>
       <c r="F123" t="str">
-        <v>(565) 806-3217</v>
+        <v>(617) 145-9784</v>
       </c>
       <c r="G123" t="str">
-        <v>Burbank</v>
+        <v>Anaheim</v>
       </c>
       <c r="H123" t="str">
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="I123" t="str">
         <v>available</v>
-      </c>
-      <c r="J123" t="str">
-        <v>Logan Gomez</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>3dcd887e-9357-49a1-be20-96ba912e33bf</v>
+        <v>0d8894f6-9a60-421c-a7c0-144fe2f8c85f</v>
       </c>
       <c r="B124" t="str">
-        <v>Cora Mitchell</v>
+        <v>Lydia Morris</v>
       </c>
       <c r="C124">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D124" t="str">
         <v>Female</v>
       </c>
       <c r="E124" t="str">
-        <v>cora.mitchell80@icloud.com</v>
+        <v>lydia.morris1@gmail.com</v>
       </c>
       <c r="F124" t="str">
-        <v>(929) 139-3875</v>
+        <v>(565) 806-3217</v>
       </c>
       <c r="G124" t="str">
-        <v>Newport Beach</v>
+        <v>Burbank</v>
       </c>
       <c r="H124" t="str">
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="I124" t="str">
         <v>available</v>
       </c>
       <c r="J124" t="str">
-        <v>Christopher Carter</v>
+        <v>Logan Gomez</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>5addacf0-a31c-4412-982a-3f0d8f1c6d07</v>
+        <v>3dcd887e-9357-49a1-be20-96ba912e33bf</v>
       </c>
       <c r="B125" t="str">
-        <v>Layla Lopez</v>
+        <v>Cora Mitchell</v>
       </c>
       <c r="C125">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D125" t="str">
         <v>Female</v>
       </c>
       <c r="E125" t="str">
-        <v>layla.lopez23@yahoo.com</v>
+        <v>cora.mitchell80@icloud.com</v>
       </c>
       <c r="F125" t="str">
-        <v>(607) 496-6102</v>
+        <v>(929) 139-3875</v>
       </c>
       <c r="G125" t="str">
-        <v>Los Angeles</v>
+        <v>Newport Beach</v>
       </c>
       <c r="H125" t="str">
-        <v>C</v>
+        <v>B+</v>
       </c>
       <c r="I125" t="str">
         <v>available</v>
       </c>
       <c r="J125" t="str">
-        <v>Cora Lee</v>
+        <v>Christopher Carter</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>1c24b746-78a8-49cd-9c4d-3d22726dbc1b</v>
+        <v>5addacf0-a31c-4412-982a-3f0d8f1c6d07</v>
       </c>
       <c r="B126" t="str">
-        <v>Eleanor Hall</v>
+        <v>Layla Lopez</v>
       </c>
       <c r="C126">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D126" t="str">
         <v>Female</v>
       </c>
       <c r="E126" t="str">
-        <v>eleanor.hall7@yahoo.com</v>
+        <v>layla.lopez23@yahoo.com</v>
       </c>
       <c r="F126" t="str">
-        <v>(627) 443-5972</v>
+        <v>(607) 496-6102</v>
       </c>
       <c r="G126" t="str">
-        <v>Stockton</v>
+        <v>Los Angeles</v>
       </c>
       <c r="H126" t="str">
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="I126" t="str">
         <v>available</v>
       </c>
       <c r="J126" t="str">
-        <v>Michael Campbell, Sadie Williams</v>
+        <v>Cora Lee</v>
       </c>
     </row>
     <row r="127">
@@ -4957,57 +4957,69 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>df6c0d97-fd38-4b65-8765-b11a4939bd3b</v>
+        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
       </c>
       <c r="B137" t="str">
-        <v>Julian Rivera</v>
+        <v>Kathleen Reynolds</v>
       </c>
       <c r="C137">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D137" t="str">
-        <v>Male</v>
+        <v>Not Specified</v>
       </c>
       <c r="E137" t="str">
-        <v>julian.rivera31@outlook.com</v>
+        <v>kathleenmonicareynolds@gmail.com</v>
       </c>
       <c r="F137" t="str">
-        <v>0401 414 502</v>
+        <v>498086080</v>
       </c>
       <c r="G137" t="str">
-        <v>Perth</v>
+        <v>Footscray</v>
       </c>
       <c r="H137" t="str">
-        <v>B+</v>
+        <v/>
       </c>
       <c r="I137" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="J137" t="str">
+        <v>Peter Adamidis, Felicity Parker-Hill</v>
+      </c>
+      <c r="K137" t="str">
+        <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
+      </c>
+      <c r="L137" t="str">
+        <v>N</v>
+      </c>
+      <c r="M137" t="str">
+        <v>N/A</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>2811bf99-369b-4c0a-b5d6-4ff46cd7aa5e</v>
+        <v>df6c0d97-fd38-4b65-8765-b11a4939bd3b</v>
       </c>
       <c r="B138" t="str">
-        <v>Lucas Thomas</v>
+        <v>Julian Rivera</v>
       </c>
       <c r="C138">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D138" t="str">
         <v>Male</v>
       </c>
       <c r="E138" t="str">
-        <v>lucas.thomas30@yahoo.com</v>
+        <v>julian.rivera31@outlook.com</v>
       </c>
       <c r="F138" t="str">
-        <v>0412 527 117</v>
+        <v>0401 414 502</v>
       </c>
       <c r="G138" t="str">
-        <v>Brisbane</v>
+        <v>Perth</v>
       </c>
       <c r="H138" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I138" t="str">
         <v>available</v>
@@ -5015,28 +5027,28 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>8774a9f4-b951-41cc-b6bd-809a709cb6ea</v>
+        <v>2811bf99-369b-4c0a-b5d6-4ff46cd7aa5e</v>
       </c>
       <c r="B139" t="str">
-        <v>Lily Walker</v>
+        <v>Lucas Thomas</v>
       </c>
       <c r="C139">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="D139" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E139" t="str">
-        <v>lily.walker96@outlook.com</v>
+        <v>lucas.thomas30@yahoo.com</v>
       </c>
       <c r="F139" t="str">
-        <v>0410 155 426</v>
+        <v>0412 527 117</v>
       </c>
       <c r="G139" t="str">
-        <v>Hobart</v>
+        <v>Brisbane</v>
       </c>
       <c r="H139" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I139" t="str">
         <v>available</v>
@@ -5044,22 +5056,22 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>e166fd4f-73eb-4bea-b8be-3acdee4f9fdc</v>
+        <v>8774a9f4-b951-41cc-b6bd-809a709cb6ea</v>
       </c>
       <c r="B140" t="str">
-        <v>Liam Lewis</v>
+        <v>Lily Walker</v>
       </c>
       <c r="C140">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="D140" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E140" t="str">
-        <v>liam.lewis79@yahoo.com</v>
+        <v>lily.walker96@outlook.com</v>
       </c>
       <c r="F140" t="str">
-        <v>0404 203 198</v>
+        <v>0410 155 426</v>
       </c>
       <c r="G140" t="str">
         <v>Hobart</v>
@@ -5073,43 +5085,31 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
+        <v>e166fd4f-73eb-4bea-b8be-3acdee4f9fdc</v>
       </c>
       <c r="B141" t="str">
-        <v>Kathleen Reynolds</v>
+        <v>Liam Lewis</v>
       </c>
       <c r="C141">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D141" t="str">
-        <v>Not Specified</v>
+        <v>Male</v>
       </c>
       <c r="E141" t="str">
-        <v>kathleenmonicareynolds@gmail.com</v>
+        <v>liam.lewis79@yahoo.com</v>
       </c>
       <c r="F141" t="str">
-        <v>498086080</v>
+        <v>0404 203 198</v>
       </c>
       <c r="G141" t="str">
-        <v>Footscray</v>
+        <v>Hobart</v>
       </c>
       <c r="H141" t="str">
-        <v/>
+        <v>B+</v>
       </c>
       <c r="I141" t="str">
         <v>available</v>
-      </c>
-      <c r="J141" t="str">
-        <v>Peter Adamidis, Felicity Parker-Hill</v>
-      </c>
-      <c r="K141" t="str">
-        <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
-      </c>
-      <c r="L141" t="str">
-        <v>N</v>
-      </c>
-      <c r="M141" t="str">
-        <v>N/A</v>
       </c>
     </row>
     <row r="142">
@@ -6229,249 +6229,249 @@
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>9d8995c7-d5a1-4644-848d-dca4e81371af</v>
+        <v>c284df19-568f-44d7-9ddf-b63e5af17f4a</v>
       </c>
       <c r="B179" t="str">
-        <v>Michael Campbell</v>
+        <v>Hannah Moore</v>
       </c>
       <c r="C179">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D179" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E179" t="str">
-        <v>michael.campbell9@outlook.com</v>
+        <v>hannah.moore60@outlook.com</v>
       </c>
       <c r="F179" t="str">
-        <v>(176) 164-6950</v>
+        <v>(173) 685-3587</v>
       </c>
       <c r="G179" t="str">
-        <v>Glendale</v>
+        <v>Torrance</v>
       </c>
       <c r="H179" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I179" t="str">
         <v>available</v>
       </c>
       <c r="J179" t="str">
-        <v>Sadie Williams, Eleanor Hall</v>
+        <v>Alexander Campbell, Logan Nguyen</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>c284df19-568f-44d7-9ddf-b63e5af17f4a</v>
+        <v>cacb8de7-16c5-4332-9d25-a6794d8a23b3</v>
       </c>
       <c r="B180" t="str">
-        <v>Hannah Moore</v>
+        <v>Anthony Garcia</v>
       </c>
       <c r="C180">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D180" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E180" t="str">
-        <v>hannah.moore60@outlook.com</v>
+        <v>anthony.garcia31@yahoo.com</v>
       </c>
       <c r="F180" t="str">
-        <v>(173) 685-3587</v>
+        <v>(249) 774-7265</v>
       </c>
       <c r="G180" t="str">
-        <v>Torrance</v>
+        <v>Santa Monica</v>
       </c>
       <c r="H180" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="I180" t="str">
         <v>available</v>
       </c>
       <c r="J180" t="str">
-        <v>Alexander Campbell, Logan Nguyen</v>
+        <v>Michael Johnson, Cameron Evans</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>cacb8de7-16c5-4332-9d25-a6794d8a23b3</v>
+        <v>97620f89-d506-4934-89b6-c60208f0bb45</v>
       </c>
       <c r="B181" t="str">
-        <v>Anthony Garcia</v>
+        <v>Charlotte Hernandez</v>
       </c>
       <c r="C181">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D181" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E181" t="str">
-        <v>anthony.garcia31@yahoo.com</v>
+        <v>charlotte.hernandez88@gmail.com</v>
       </c>
       <c r="F181" t="str">
-        <v>(249) 774-7265</v>
+        <v>(131) 448-5858</v>
       </c>
       <c r="G181" t="str">
-        <v>Santa Monica</v>
+        <v>San Jose</v>
       </c>
       <c r="H181" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="I181" t="str">
         <v>available</v>
       </c>
       <c r="J181" t="str">
-        <v>Michael Johnson, Cameron Evans</v>
+        <v>Ellie Allen, Emma Torres</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>97620f89-d506-4934-89b6-c60208f0bb45</v>
+        <v>49fbe592-0995-4321-b8af-fbe859ca414c</v>
       </c>
       <c r="B182" t="str">
-        <v>Charlotte Hernandez</v>
+        <v>Grayson Morgan</v>
       </c>
       <c r="C182">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D182" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E182" t="str">
-        <v>charlotte.hernandez88@gmail.com</v>
+        <v>grayson.morgan95@outlook.com</v>
       </c>
       <c r="F182" t="str">
-        <v>(131) 448-5858</v>
+        <v>(524) 127-2584</v>
       </c>
       <c r="G182" t="str">
-        <v>San Jose</v>
+        <v>Irvine</v>
       </c>
       <c r="H182" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I182" t="str">
         <v>available</v>
       </c>
       <c r="J182" t="str">
-        <v>Ellie Allen, Emma Torres</v>
+        <v>Adam Hall, Valentina Morales</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>49fbe592-0995-4321-b8af-fbe859ca414c</v>
+        <v>4501044d-6fd4-4a45-83a0-416599928b1f</v>
       </c>
       <c r="B183" t="str">
-        <v>Grayson Morgan</v>
+        <v>Audrey Hill</v>
       </c>
       <c r="C183">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D183" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E183" t="str">
-        <v>grayson.morgan95@outlook.com</v>
+        <v>audrey.hill20@outlook.com</v>
       </c>
       <c r="F183" t="str">
-        <v>(524) 127-2584</v>
+        <v>(688) 524-4712</v>
       </c>
       <c r="G183" t="str">
-        <v>Irvine</v>
+        <v>San Jose</v>
       </c>
       <c r="H183" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I183" t="str">
         <v>available</v>
       </c>
       <c r="J183" t="str">
-        <v>Adam Hall, Valentina Morales</v>
+        <v>Avery Taylor</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>4501044d-6fd4-4a45-83a0-416599928b1f</v>
+        <v>a1895f97-a947-4cf3-9bc3-6aa43cdc1339</v>
       </c>
       <c r="B184" t="str">
-        <v>Audrey Hill</v>
+        <v>Gabriella Smith</v>
       </c>
       <c r="C184">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D184" t="str">
         <v>Female</v>
       </c>
       <c r="E184" t="str">
-        <v>audrey.hill20@outlook.com</v>
+        <v>gabriella.smith91@hotmail.com</v>
       </c>
       <c r="F184" t="str">
-        <v>(688) 524-4712</v>
+        <v>(550) 121-2897</v>
       </c>
       <c r="G184" t="str">
-        <v>San Jose</v>
+        <v>Sacramento</v>
       </c>
       <c r="H184" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="I184" t="str">
         <v>available</v>
       </c>
       <c r="J184" t="str">
-        <v>Avery Taylor</v>
+        <v>Julian Rivera</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>a1895f97-a947-4cf3-9bc3-6aa43cdc1339</v>
+        <v>9d8995c7-d5a1-4644-848d-dca4e81371af</v>
       </c>
       <c r="B185" t="str">
-        <v>Gabriella Smith</v>
+        <v>Michael Campbell</v>
       </c>
       <c r="C185">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="D185" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E185" t="str">
-        <v>gabriella.smith91@hotmail.com</v>
+        <v>michael.campbell9@outlook.com</v>
       </c>
       <c r="F185" t="str">
-        <v>(550) 121-2897</v>
+        <v>(176) 164-6950</v>
       </c>
       <c r="G185" t="str">
-        <v>Sacramento</v>
+        <v>Glendale</v>
       </c>
       <c r="H185" t="str">
-        <v>A</v>
+        <v>B+</v>
       </c>
       <c r="I185" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J185" t="str">
-        <v>Julian Rivera</v>
+        <v>Sadie Williams, Eleanor Hall</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>3f9d95b9-bedc-4620-9aa3-9bc8669de2af</v>
+        <v>4fba0674-c979-4177-b29d-9a882e08ad0d</v>
       </c>
       <c r="B186" t="str">
-        <v>Christopher Allen</v>
+        <v>Autumn Lewis</v>
       </c>
       <c r="C186">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D186" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E186" t="str">
-        <v>christopher.allen60@yahoo.com</v>
+        <v>autumn.lewis97@outlook.com</v>
       </c>
       <c r="F186" t="str">
-        <v>(529) 787-8147</v>
+        <v>(841) 837-8640</v>
       </c>
       <c r="G186" t="str">
-        <v>Torrance</v>
+        <v>San Francisco</v>
       </c>
       <c r="H186" t="str">
         <v>B+</v>
@@ -6480,30 +6480,30 @@
         <v>available</v>
       </c>
       <c r="J186" t="str">
-        <v>Eleanor Allen</v>
+        <v>Noah Martinez</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>4fba0674-c979-4177-b29d-9a882e08ad0d</v>
+        <v>2450bd3d-4940-477d-8a08-abc3363fdc3a</v>
       </c>
       <c r="B187" t="str">
-        <v>Autumn Lewis</v>
+        <v>Ella Lopez</v>
       </c>
       <c r="C187">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D187" t="str">
         <v>Female</v>
       </c>
       <c r="E187" t="str">
-        <v>autumn.lewis97@outlook.com</v>
+        <v>ella.lopez65@outlook.com</v>
       </c>
       <c r="F187" t="str">
-        <v>(841) 837-8640</v>
+        <v>(192) 887-5779</v>
       </c>
       <c r="G187" t="str">
-        <v>San Francisco</v>
+        <v>Riverside</v>
       </c>
       <c r="H187" t="str">
         <v>B+</v>
@@ -6512,71 +6512,71 @@
         <v>available</v>
       </c>
       <c r="J187" t="str">
-        <v>Noah Martinez</v>
+        <v>Adam Edwards</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>2450bd3d-4940-477d-8a08-abc3363fdc3a</v>
+        <v>224212bc-76fd-40f4-903d-8a0a1d6163e3</v>
       </c>
       <c r="B188" t="str">
-        <v>Ella Lopez</v>
+        <v>Grayson Edwards</v>
       </c>
       <c r="C188">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D188" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E188" t="str">
-        <v>ella.lopez65@outlook.com</v>
+        <v>grayson.edwards22@gmail.com</v>
       </c>
       <c r="F188" t="str">
-        <v>(192) 887-5779</v>
+        <v>(215) 129-3913</v>
       </c>
       <c r="G188" t="str">
-        <v>Riverside</v>
+        <v>Torrance</v>
       </c>
       <c r="H188" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I188" t="str">
         <v>available</v>
       </c>
       <c r="J188" t="str">
-        <v>Adam Edwards</v>
+        <v>Elizabeth Nelson, Joseph Anderson</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>224212bc-76fd-40f4-903d-8a0a1d6163e3</v>
+        <v>3f9d95b9-bedc-4620-9aa3-9bc8669de2af</v>
       </c>
       <c r="B189" t="str">
-        <v>Grayson Edwards</v>
+        <v>Christopher Allen</v>
       </c>
       <c r="C189">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D189" t="str">
         <v>Male</v>
       </c>
       <c r="E189" t="str">
-        <v>grayson.edwards22@gmail.com</v>
+        <v>christopher.allen60@yahoo.com</v>
       </c>
       <c r="F189" t="str">
-        <v>(215) 129-3913</v>
+        <v>(529) 787-8147</v>
       </c>
       <c r="G189" t="str">
         <v>Torrance</v>
       </c>
       <c r="H189" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I189" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J189" t="str">
-        <v>Elizabeth Nelson, Joseph Anderson</v>
+        <v>Eleanor Allen</v>
       </c>
     </row>
     <row r="190">
@@ -7139,57 +7139,57 @@
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>8819a806-f5b1-4b58-95f5-91489df570ac</v>
+        <v>8dfd710f-c1f0-43ee-b26d-13d05de4598b</v>
       </c>
       <c r="B208" t="str">
-        <v>Colton Harris</v>
+        <v>Josiah Lopez</v>
       </c>
       <c r="C208">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="D208" t="str">
         <v>Male</v>
       </c>
       <c r="E208" t="str">
-        <v>colton.harris98@icloud.com</v>
+        <v>josiah.lopez65@gmail.com</v>
       </c>
       <c r="F208" t="str">
-        <v>(583) 900-3294</v>
+        <v>(305) 140-9212</v>
       </c>
       <c r="G208" t="str">
-        <v>Newport Beach</v>
+        <v>Chula Vista</v>
       </c>
       <c r="H208" t="str">
         <v>B</v>
       </c>
       <c r="I208" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J208" t="str">
-        <v>Sebastian Edwards, Sofia Williams</v>
+        <v>Victoria Carter, Ella Martinez</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>6116506f-31f1-444e-bd83-2991a5335470</v>
+        <v>06d38f0c-6780-4d6a-97b8-f28ec52ced34</v>
       </c>
       <c r="B209" t="str">
-        <v>Sebastian Edwards</v>
+        <v>William Taylor</v>
       </c>
       <c r="C209">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D209" t="str">
         <v>Male</v>
       </c>
       <c r="E209" t="str">
-        <v>sebastian.edwards97@icloud.com</v>
+        <v>william.taylor84@hotmail.com</v>
       </c>
       <c r="F209" t="str">
-        <v>(348) 408-1134</v>
+        <v>(276) 538-1731</v>
       </c>
       <c r="G209" t="str">
-        <v>Los Angeles</v>
+        <v>Newport Beach</v>
       </c>
       <c r="H209" t="str">
         <v>B</v>
@@ -7198,30 +7198,30 @@
         <v>available</v>
       </c>
       <c r="J209" t="str">
-        <v>Colton Harris, Sofia Williams</v>
+        <v>Victoria Scott</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>06d38f0c-6780-4d6a-97b8-f28ec52ced34</v>
+        <v>d035c0a6-d30e-4ca3-b8c2-9becb2842da7</v>
       </c>
       <c r="B210" t="str">
-        <v>William Taylor</v>
+        <v>Thomas Rivera</v>
       </c>
       <c r="C210">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D210" t="str">
         <v>Male</v>
       </c>
       <c r="E210" t="str">
-        <v>william.taylor84@hotmail.com</v>
+        <v>thomas.rivera13@yahoo.com</v>
       </c>
       <c r="F210" t="str">
-        <v>(276) 538-1731</v>
+        <v>(539) 243-6118</v>
       </c>
       <c r="G210" t="str">
-        <v>Newport Beach</v>
+        <v>Long Beach</v>
       </c>
       <c r="H210" t="str">
         <v>B</v>
@@ -7230,39 +7230,39 @@
         <v>available</v>
       </c>
       <c r="J210" t="str">
-        <v>Victoria Scott</v>
+        <v>Hannah Murphy</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>d035c0a6-d30e-4ca3-b8c2-9becb2842da7</v>
+        <v>8819a806-f5b1-4b58-95f5-91489df570ac</v>
       </c>
       <c r="B211" t="str">
-        <v>Thomas Rivera</v>
+        <v>Colton Harris</v>
       </c>
       <c r="C211">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D211" t="str">
         <v>Male</v>
       </c>
       <c r="E211" t="str">
-        <v>thomas.rivera13@yahoo.com</v>
+        <v>colton.harris98@icloud.com</v>
       </c>
       <c r="F211" t="str">
-        <v>(539) 243-6118</v>
+        <v>(583) 900-3294</v>
       </c>
       <c r="G211" t="str">
-        <v>Long Beach</v>
+        <v>Newport Beach</v>
       </c>
       <c r="H211" t="str">
         <v>B</v>
       </c>
       <c r="I211" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J211" t="str">
-        <v>Hannah Murphy</v>
+        <v>Sebastian Edwards, Sofia Williams</v>
       </c>
     </row>
     <row r="212">
@@ -7587,66 +7587,66 @@
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>b2c7422d-5caa-41a4-8352-77a36b30b055</v>
+        <v>6116506f-31f1-444e-bd83-2991a5335470</v>
       </c>
       <c r="B222" t="str">
-        <v>Christopher Carter</v>
+        <v>Sebastian Edwards</v>
       </c>
       <c r="C222">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D222" t="str">
         <v>Male</v>
       </c>
       <c r="E222" t="str">
-        <v>christopher.carter22@outlook.com</v>
+        <v>sebastian.edwards97@icloud.com</v>
       </c>
       <c r="F222" t="str">
-        <v>(176) 989-4341</v>
+        <v>(348) 408-1134</v>
       </c>
       <c r="G222" t="str">
         <v>Los Angeles</v>
       </c>
       <c r="H222" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I222" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J222" t="str">
-        <v>Cora Mitchell</v>
+        <v>Colton Harris, Sofia Williams</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>8dfd710f-c1f0-43ee-b26d-13d05de4598b</v>
+        <v>b2c7422d-5caa-41a4-8352-77a36b30b055</v>
       </c>
       <c r="B223" t="str">
-        <v>Josiah Lopez</v>
+        <v>Christopher Carter</v>
       </c>
       <c r="C223">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D223" t="str">
         <v>Male</v>
       </c>
       <c r="E223" t="str">
-        <v>josiah.lopez65@gmail.com</v>
+        <v>christopher.carter22@outlook.com</v>
       </c>
       <c r="F223" t="str">
-        <v>(305) 140-9212</v>
+        <v>(176) 989-4341</v>
       </c>
       <c r="G223" t="str">
-        <v>Chula Vista</v>
+        <v>Los Angeles</v>
       </c>
       <c r="H223" t="str">
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="I223" t="str">
         <v>available</v>
       </c>
       <c r="J223" t="str">
-        <v>Victoria Carter, Ella Martinez</v>
+        <v>Cora Mitchell</v>
       </c>
     </row>
     <row r="224">
@@ -7683,66 +7683,57 @@
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
+        <v>1a539e8e-7b02-422a-991f-99fdb84688f5</v>
       </c>
       <c r="B225" t="str">
-        <v>Peter Adamidis</v>
+        <v>Logan Lopez</v>
       </c>
       <c r="C225">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D225" t="str">
-        <v>Not Specified</v>
+        <v>Male</v>
       </c>
       <c r="E225" t="str">
-        <v>peter.adamidis@gmail.com</v>
+        <v>logan.lopez66@icloud.com</v>
       </c>
       <c r="F225" t="str">
-        <v>498086080</v>
+        <v>(283) 498-3157</v>
       </c>
       <c r="G225" t="str">
-        <v/>
+        <v>Burbank</v>
       </c>
       <c r="H225" t="str">
-        <v/>
+        <v>B+</v>
       </c>
       <c r="I225" t="str">
         <v>available</v>
       </c>
       <c r="J225" t="str">
-        <v>Kathleen Reynolds, Felicity Parker-Hill</v>
-      </c>
-      <c r="K225" t="str">
-        <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
-      </c>
-      <c r="L225" t="str">
-        <v>Y</v>
-      </c>
-      <c r="M225" t="str">
-        <v>Broken Leg</v>
+        <v>Ava Mitchell</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>1a539e8e-7b02-422a-991f-99fdb84688f5</v>
+        <v>1b5fc1ce-1ed8-4255-a8a4-b02892b2b03a</v>
       </c>
       <c r="B226" t="str">
-        <v>Logan Lopez</v>
+        <v>Ava Mitchell</v>
       </c>
       <c r="C226">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D226" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E226" t="str">
-        <v>logan.lopez66@icloud.com</v>
+        <v>ava.mitchell87@icloud.com</v>
       </c>
       <c r="F226" t="str">
-        <v>(283) 498-3157</v>
+        <v>(211) 525-6721</v>
       </c>
       <c r="G226" t="str">
-        <v>Burbank</v>
+        <v>Santa Monica</v>
       </c>
       <c r="H226" t="str">
         <v>B+</v>
@@ -7751,30 +7742,30 @@
         <v>available</v>
       </c>
       <c r="J226" t="str">
-        <v>Ava Mitchell</v>
+        <v>Logan Lopez</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>1b5fc1ce-1ed8-4255-a8a4-b02892b2b03a</v>
+        <v>4f5756e4-c006-4d04-a9bc-7a2de0fdf149</v>
       </c>
       <c r="B227" t="str">
-        <v>Ava Mitchell</v>
+        <v>Michael Johnson</v>
       </c>
       <c r="C227">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D227" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E227" t="str">
-        <v>ava.mitchell87@icloud.com</v>
+        <v>michael.johnson96@gmail.com</v>
       </c>
       <c r="F227" t="str">
-        <v>(211) 525-6721</v>
+        <v>(878) 132-4532</v>
       </c>
       <c r="G227" t="str">
-        <v>Santa Monica</v>
+        <v>Long Beach</v>
       </c>
       <c r="H227" t="str">
         <v>B+</v>
@@ -7783,30 +7774,30 @@
         <v>available</v>
       </c>
       <c r="J227" t="str">
-        <v>Logan Lopez</v>
+        <v>Anthony Garcia, Cameron Evans</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>4f5756e4-c006-4d04-a9bc-7a2de0fdf149</v>
+        <v>ba63a5c0-c76e-4c1b-b6e4-afed15dfdcd4</v>
       </c>
       <c r="B228" t="str">
-        <v>Michael Johnson</v>
+        <v>Joseph Anderson</v>
       </c>
       <c r="C228">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D228" t="str">
         <v>Male</v>
       </c>
       <c r="E228" t="str">
-        <v>michael.johnson96@gmail.com</v>
+        <v>joseph.anderson2@outlook.com</v>
       </c>
       <c r="F228" t="str">
-        <v>(878) 132-4532</v>
+        <v>(433) 142-2338</v>
       </c>
       <c r="G228" t="str">
-        <v>Long Beach</v>
+        <v>Chula Vista</v>
       </c>
       <c r="H228" t="str">
         <v>B+</v>
@@ -7815,30 +7806,30 @@
         <v>available</v>
       </c>
       <c r="J228" t="str">
-        <v>Anthony Garcia, Cameron Evans</v>
+        <v>Elizabeth Nelson, Grayson Edwards</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>ba63a5c0-c76e-4c1b-b6e4-afed15dfdcd4</v>
+        <v>f878ab7f-ae59-4af0-b19a-e9bf4573c116</v>
       </c>
       <c r="B229" t="str">
-        <v>Joseph Anderson</v>
+        <v>William Allen</v>
       </c>
       <c r="C229">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D229" t="str">
         <v>Male</v>
       </c>
       <c r="E229" t="str">
-        <v>joseph.anderson2@outlook.com</v>
+        <v>william.allen62@hotmail.com</v>
       </c>
       <c r="F229" t="str">
-        <v>(433) 142-2338</v>
+        <v>(267) 463-7481</v>
       </c>
       <c r="G229" t="str">
-        <v>Chula Vista</v>
+        <v>San Jose</v>
       </c>
       <c r="H229" t="str">
         <v>B+</v>
@@ -7847,97 +7838,94 @@
         <v>available</v>
       </c>
       <c r="J229" t="str">
-        <v>Elizabeth Nelson, Grayson Edwards</v>
+        <v>Sadie Cook, Alexa Hall</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>f878ab7f-ae59-4af0-b19a-e9bf4573c116</v>
+        <v>8e30e99d-0594-4a73-840e-1f5ef32387ae</v>
       </c>
       <c r="B230" t="str">
-        <v>William Allen</v>
+        <v>Cameron Anderson</v>
       </c>
       <c r="C230">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D230" t="str">
         <v>Male</v>
       </c>
       <c r="E230" t="str">
-        <v>william.allen62@hotmail.com</v>
+        <v>cameron.anderson85@hotmail.com</v>
       </c>
       <c r="F230" t="str">
-        <v>(267) 463-7481</v>
+        <v>(960) 363-1976</v>
       </c>
       <c r="G230" t="str">
-        <v>San Jose</v>
+        <v>Glendale</v>
       </c>
       <c r="H230" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I230" t="str">
         <v>available</v>
       </c>
       <c r="J230" t="str">
-        <v>Sadie Cook, Alexa Hall</v>
+        <v>John Diaz</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>8e30e99d-0594-4a73-840e-1f5ef32387ae</v>
+        <v>efe20d3d-2162-4ff8-a8ff-4102e5d3f3ab</v>
       </c>
       <c r="B231" t="str">
-        <v>Cameron Anderson</v>
+        <v>Cameron Lee</v>
       </c>
       <c r="C231">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D231" t="str">
         <v>Male</v>
       </c>
       <c r="E231" t="str">
-        <v>cameron.anderson85@hotmail.com</v>
+        <v>cameron.lee78@yahoo.com</v>
       </c>
       <c r="F231" t="str">
-        <v>(960) 363-1976</v>
+        <v>0404 821 708</v>
       </c>
       <c r="G231" t="str">
-        <v>Glendale</v>
+        <v>Cairns</v>
       </c>
       <c r="H231" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I231" t="str">
         <v>available</v>
-      </c>
-      <c r="J231" t="str">
-        <v>John Diaz</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>efe20d3d-2162-4ff8-a8ff-4102e5d3f3ab</v>
+        <v>7bfb9432-4b59-4ceb-895d-e03ae4837f91</v>
       </c>
       <c r="B232" t="str">
-        <v>Cameron Lee</v>
+        <v>Joshua Walker</v>
       </c>
       <c r="C232">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D232" t="str">
         <v>Male</v>
       </c>
       <c r="E232" t="str">
-        <v>cameron.lee78@yahoo.com</v>
+        <v>joshua.walker97@gmail.com</v>
       </c>
       <c r="F232" t="str">
-        <v>0404 821 708</v>
+        <v>0402 640 379</v>
       </c>
       <c r="G232" t="str">
-        <v>Cairns</v>
+        <v>Darwin</v>
       </c>
       <c r="H232" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I232" t="str">
         <v>available</v>
@@ -7945,63 +7933,75 @@
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>7bfb9432-4b59-4ceb-895d-e03ae4837f91</v>
+        <v>5c5fe7f9-35dd-4685-af6b-e44a56c1d47c</v>
       </c>
       <c r="B233" t="str">
-        <v>Joshua Walker</v>
+        <v>Charlotte Johnson</v>
       </c>
       <c r="C233">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D233" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E233" t="str">
-        <v>joshua.walker97@gmail.com</v>
+        <v>charlotte.johnson36@yahoo.com</v>
       </c>
       <c r="F233" t="str">
-        <v>0402 640 379</v>
+        <v>0410 304 177</v>
       </c>
       <c r="G233" t="str">
-        <v>Darwin</v>
+        <v>Perth</v>
       </c>
       <c r="H233" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="I233" t="str">
         <v>available</v>
+      </c>
+      <c r="J233" t="str">
+        <v>Audrey Martin</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>5c5fe7f9-35dd-4685-af6b-e44a56c1d47c</v>
+        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
       </c>
       <c r="B234" t="str">
-        <v>Charlotte Johnson</v>
+        <v>Peter Adamidis</v>
       </c>
       <c r="C234">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D234" t="str">
-        <v>Female</v>
+        <v>Not Specified</v>
       </c>
       <c r="E234" t="str">
-        <v>charlotte.johnson36@yahoo.com</v>
+        <v>peter.adamidis@gmail.com</v>
       </c>
       <c r="F234" t="str">
-        <v>0410 304 177</v>
+        <v>498086080</v>
       </c>
       <c r="G234" t="str">
-        <v>Perth</v>
+        <v/>
       </c>
       <c r="H234" t="str">
-        <v>A</v>
+        <v/>
       </c>
       <c r="I234" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J234" t="str">
-        <v>Audrey Martin</v>
+        <v>Kathleen Reynolds, Felicity Parker-Hill</v>
+      </c>
+      <c r="K234" t="str">
+        <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
+      </c>
+      <c r="L234" t="str">
+        <v>Y</v>
+      </c>
+      <c r="M234" t="str">
+        <v>Broken Leg</v>
       </c>
     </row>
   </sheetData>
@@ -8013,7 +8013,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8063,13 +8063,13 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>47ec0204-7cf6-4afb-9b9e-a91324cdf4a9</v>
+        <v>0c9cdf6f-2744-4fa8-ac2c-7903630cc964</v>
       </c>
       <c r="B3" t="str">
-        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C3" t="str">
-        <v>5a16ef0a-cce8-4d1b-bfa5-3892331170c1</v>
+        <v>fc97dba8-a877-4547-b6c9-0c6b058b1c94</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -8078,9 +8078,281 @@
         <v>A1</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>cdfbff11-dffb-48ca-9730-c003eafad551</v>
+      </c>
+      <c r="B4" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C4" t="str">
+        <v>8dfd710f-c1f0-43ee-b26d-13d05de4598b</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="str">
+        <v>A2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>ec307a05-0c9f-4d9c-b3ac-bd2a4f90b2ca</v>
+      </c>
+      <c r="B5" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C5" t="str">
+        <v>151541b8-8cbb-452a-b532-1a0df3d1d4b6</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="str">
+        <v>A3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>c6a2853e-bdf0-4b56-9115-b4cd6fae668f</v>
+      </c>
+      <c r="B6" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C6" t="str">
+        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="str">
+        <v>B1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>f6b07e56-eb3f-4a5e-b214-95c88bbaa0c7</v>
+      </c>
+      <c r="B7" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C7" t="str">
+        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="str">
+        <v>B2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>39564329-2bdc-40a0-a1f0-0f6a02ea6cc6</v>
+      </c>
+      <c r="B8" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C8" t="str">
+        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="str">
+        <v>B3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>84eea01a-5f44-44ff-b1b4-fb1bc6d7f92c</v>
+      </c>
+      <c r="B9" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C9" t="str">
+        <v>b57be3ad-f74f-4f2b-aa79-6e410d2c199b</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="str">
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>3c81026f-c7ed-4029-987b-f93d6863fc56</v>
+      </c>
+      <c r="B10" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C10" t="str">
+        <v>8819a806-f5b1-4b58-95f5-91489df570ac</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="str">
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>5ec7d4db-410a-43c4-bf88-be663609b7e8</v>
+      </c>
+      <c r="B11" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C11" t="str">
+        <v>6116506f-31f1-444e-bd83-2991a5335470</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="str">
+        <v>C3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>8bcf9e67-e8d9-49ab-a577-0989cbd209dc</v>
+      </c>
+      <c r="B12" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C12" t="str">
+        <v>6b672a17-fbf7-4b44-841d-dc10fbe8cbce</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="str">
+        <v>D1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>420d8ccc-a37c-4ebb-ba1d-a8e24622effa</v>
+      </c>
+      <c r="B13" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C13" t="str">
+        <v>9d8995c7-d5a1-4644-848d-dca4e81371af</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="str">
+        <v>D2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>7182f61e-a274-4941-8bba-9f9575dade8f</v>
+      </c>
+      <c r="B14" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C14" t="str">
+        <v>1c24b746-78a8-49cd-9c4d-3d22726dbc1b</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="str">
+        <v>D3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>bd86acd8-4a8e-4f43-a64f-3b91853917af</v>
+      </c>
+      <c r="B15" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C15" t="str">
+        <v>3f9d95b9-bedc-4620-9aa3-9bc8669de2af</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="str">
+        <v>E4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>47d96c97-e042-409f-adae-7dbdb75f0a1c</v>
+      </c>
+      <c r="B16" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C16" t="str">
+        <v>6366884b-6583-493e-80bc-a1dff1926c59</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="str">
+        <v>E3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>4c802f2b-1ed5-41a3-981a-8f4a01509d1e</v>
+      </c>
+      <c r="B17" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C17" t="str">
+        <v>0fc0ae2d-4068-4972-a5b1-963c241e317a</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="str">
+        <v>A4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>4bf072af-6998-44eb-96a8-c76eeb5c8947</v>
+      </c>
+      <c r="B18" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C18" t="str">
+        <v>347bdea3-79f6-4991-9601-b2d86513429e</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="str">
+        <v>A5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>47ec0204-7cf6-4afb-9b9e-a91324cdf4a9</v>
+      </c>
+      <c r="B19" t="str">
+        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
+      </c>
+      <c r="C19" t="str">
+        <v>5a16ef0a-cce8-4d1b-bfa5-3892331170c1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="str">
+        <v>A1</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H19"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/storage/backups/automatic-backup.xlsx
+++ b/storage/backups/automatic-backup.xlsx
@@ -718,89 +718,89 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>0fc0ae2d-4068-4972-a5b1-963c241e317a</v>
+        <v>d37f9e40-d1a2-4238-9089-80517a709859</v>
       </c>
       <c r="B2" t="str">
-        <v>Emilia Thompson</v>
+        <v>Mia Roberts</v>
       </c>
       <c r="C2">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D2" t="str">
         <v>Female</v>
       </c>
       <c r="E2" t="str">
-        <v>emilia.thompson0@gmail.com</v>
+        <v>mia.roberts81@hotmail.com</v>
       </c>
       <c r="F2" t="str">
-        <v>0404 992 451</v>
+        <v>0412 368 553</v>
       </c>
       <c r="G2" t="str">
-        <v>Perth</v>
+        <v>Toowoomba</v>
       </c>
       <c r="H2" t="str">
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="I2" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
       <c r="J2" t="str">
-        <v>Violet Hall</v>
+        <v>Paisley Scott</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>d37f9e40-d1a2-4238-9089-80517a709859</v>
+        <v>2d659242-2255-4502-b333-781c9b2645fd</v>
       </c>
       <c r="B3" t="str">
-        <v>Mia Roberts</v>
+        <v>Evelyn Sanchez</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="D3" t="str">
         <v>Female</v>
       </c>
       <c r="E3" t="str">
-        <v>mia.roberts81@hotmail.com</v>
+        <v>evelyn.sanchez9@gmail.com</v>
       </c>
       <c r="F3" t="str">
-        <v>0412 368 553</v>
+        <v>0404 119 469</v>
       </c>
       <c r="G3" t="str">
-        <v>Toowoomba</v>
+        <v>Gold Coast</v>
       </c>
       <c r="H3" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I3" t="str">
         <v>available</v>
       </c>
       <c r="J3" t="str">
-        <v>Paisley Scott</v>
+        <v>Chloe Flores</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2d659242-2255-4502-b333-781c9b2645fd</v>
+        <v>2738f18e-1f2e-44d7-aa26-778ed59438ac</v>
       </c>
       <c r="B4" t="str">
-        <v>Evelyn Sanchez</v>
+        <v>Emilia Miller</v>
       </c>
       <c r="C4">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D4" t="str">
         <v>Female</v>
       </c>
       <c r="E4" t="str">
-        <v>evelyn.sanchez9@gmail.com</v>
+        <v>emilia.miller56@outlook.com</v>
       </c>
       <c r="F4" t="str">
-        <v>0404 119 469</v>
+        <v>0403 506 698</v>
       </c>
       <c r="G4" t="str">
-        <v>Gold Coast</v>
+        <v>Melbourne</v>
       </c>
       <c r="H4" t="str">
         <v>B</v>
@@ -809,30 +809,30 @@
         <v>available</v>
       </c>
       <c r="J4" t="str">
-        <v>Chloe Flores</v>
+        <v>Victoria Carter</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2738f18e-1f2e-44d7-aa26-778ed59438ac</v>
+        <v>42504e80-d5df-4b97-a283-eb96728c425f</v>
       </c>
       <c r="B5" t="str">
-        <v>Emilia Miller</v>
+        <v>Ella Anderson</v>
       </c>
       <c r="C5">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D5" t="str">
         <v>Female</v>
       </c>
       <c r="E5" t="str">
-        <v>emilia.miller56@outlook.com</v>
+        <v>ella.anderson1@yahoo.com</v>
       </c>
       <c r="F5" t="str">
-        <v>0403 506 698</v>
+        <v>0412 908 910</v>
       </c>
       <c r="G5" t="str">
-        <v>Melbourne</v>
+        <v>Geelong</v>
       </c>
       <c r="H5" t="str">
         <v>B</v>
@@ -841,30 +841,30 @@
         <v>available</v>
       </c>
       <c r="J5" t="str">
-        <v>Victoria Carter</v>
+        <v>Isabella Brown</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>42504e80-d5df-4b97-a283-eb96728c425f</v>
+        <v>df712cc5-31d8-4341-b177-6603bf089235</v>
       </c>
       <c r="B6" t="str">
-        <v>Ella Anderson</v>
+        <v>Samuel King</v>
       </c>
       <c r="C6">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D6" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E6" t="str">
-        <v>ella.anderson1@yahoo.com</v>
+        <v>samuel.king24@yahoo.com</v>
       </c>
       <c r="F6" t="str">
-        <v>0412 908 910</v>
+        <v>0400 774 736</v>
       </c>
       <c r="G6" t="str">
-        <v>Geelong</v>
+        <v>Newcastle</v>
       </c>
       <c r="H6" t="str">
         <v>B</v>
@@ -873,74 +873,74 @@
         <v>available</v>
       </c>
       <c r="J6" t="str">
-        <v>Isabella Brown</v>
+        <v/>
+      </c>
+      <c r="L6" t="str">
+        <v>afasdf</v>
+      </c>
+      <c r="M6" t="str">
+        <v>sdfasdfa</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>df712cc5-31d8-4341-b177-6603bf089235</v>
+        <v>292da493-0524-4ee4-b911-1bb34e328b8c</v>
       </c>
       <c r="B7" t="str">
-        <v>Samuel King</v>
+        <v>Jackson Young</v>
       </c>
       <c r="C7">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D7" t="str">
         <v>Male</v>
       </c>
       <c r="E7" t="str">
-        <v>samuel.king24@yahoo.com</v>
+        <v>jackson.young79@yahoo.com</v>
       </c>
       <c r="F7" t="str">
-        <v>0400 774 736</v>
+        <v>0412 940 993</v>
       </c>
       <c r="G7" t="str">
-        <v>Newcastle</v>
+        <v>Ballarat</v>
       </c>
       <c r="H7" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I7" t="str">
         <v>available</v>
-      </c>
-      <c r="J7" t="str">
-        <v/>
-      </c>
-      <c r="L7" t="str">
-        <v>afasdf</v>
-      </c>
-      <c r="M7" t="str">
-        <v>sdfasdfa</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>292da493-0524-4ee4-b911-1bb34e328b8c</v>
+        <v>0fc0ae2d-4068-4972-a5b1-963c241e317a</v>
       </c>
       <c r="B8" t="str">
-        <v>Jackson Young</v>
+        <v>Emilia Thompson</v>
       </c>
       <c r="C8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D8" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E8" t="str">
-        <v>jackson.young79@yahoo.com</v>
+        <v>emilia.thompson0@gmail.com</v>
       </c>
       <c r="F8" t="str">
-        <v>0412 940 993</v>
+        <v>0404 992 451</v>
       </c>
       <c r="G8" t="str">
-        <v>Ballarat</v>
+        <v>Perth</v>
       </c>
       <c r="H8" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I8" t="str">
         <v>available</v>
+      </c>
+      <c r="J8" t="str">
+        <v>Violet Hall</v>
       </c>
     </row>
     <row r="9">
@@ -1870,43 +1870,34 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
+        <v>347bdea3-79f6-4991-9601-b2d86513429e</v>
       </c>
       <c r="B38" t="str">
-        <v>Felicity Parker-Hill</v>
+        <v>Violet Hall</v>
       </c>
       <c r="C38">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="D38" t="str">
-        <v>Not Specified</v>
+        <v>Female</v>
       </c>
       <c r="E38" t="str">
-        <v>felicity.parkerhill@endemolshine.com.au</v>
+        <v>violet.hall8@yahoo.com</v>
       </c>
       <c r="F38" t="str">
-        <v>498086080</v>
+        <v>0404 640 755</v>
       </c>
       <c r="G38" t="str">
-        <v>Melbourne</v>
+        <v>Adelaide</v>
       </c>
       <c r="H38" t="str">
-        <v/>
+        <v>C</v>
       </c>
       <c r="I38" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
       <c r="J38" t="str">
-        <v>Peter Adamidis, Kathleen Reynolds</v>
-      </c>
-      <c r="K38" t="str">
-        <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
-      </c>
-      <c r="L38" t="str">
-        <v>N</v>
-      </c>
-      <c r="M38" t="str">
-        <v>N/A</v>
+        <v>Emilia Thompson</v>
       </c>
     </row>
     <row r="39">
@@ -2004,182 +1995,179 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>347bdea3-79f6-4991-9601-b2d86513429e</v>
+        <v>6366884b-6583-493e-80bc-a1dff1926c59</v>
       </c>
       <c r="B42" t="str">
-        <v>Violet Hall</v>
+        <v>Eleanor Allen</v>
       </c>
       <c r="C42">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D42" t="str">
         <v>Female</v>
       </c>
       <c r="E42" t="str">
-        <v>violet.hall8@yahoo.com</v>
+        <v>eleanor.allen67@outlook.com</v>
       </c>
       <c r="F42" t="str">
-        <v>0404 640 755</v>
+        <v>(510) 261-1846</v>
       </c>
       <c r="G42" t="str">
-        <v>Adelaide</v>
+        <v>Los Angeles</v>
       </c>
       <c r="H42" t="str">
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="I42" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
       <c r="J42" t="str">
-        <v>Emilia Thompson</v>
+        <v>Christopher Allen</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>151541b8-8cbb-452a-b532-1a0df3d1d4b6</v>
+        <v>e897bbe7-50a2-441c-9ba2-0d1c40619f32</v>
       </c>
       <c r="B43" t="str">
-        <v>Ella Martinez</v>
+        <v>Chloe Williams</v>
       </c>
       <c r="C43">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D43" t="str">
         <v>Female</v>
       </c>
       <c r="E43" t="str">
-        <v>ella.martinez67@hotmail.com</v>
+        <v>chloe.williams70@hotmail.com</v>
       </c>
       <c r="F43" t="str">
-        <v>(703) 898-3990</v>
+        <v>(398) 161-2308</v>
       </c>
       <c r="G43" t="str">
-        <v>Burbank</v>
+        <v>Los Angeles</v>
       </c>
       <c r="H43" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I43" t="str">
-        <v>assigned</v>
-      </c>
-      <c r="J43" t="str">
-        <v>Josiah Lopez, Victoria Carter</v>
+        <v>available</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>6366884b-6583-493e-80bc-a1dff1926c59</v>
+        <v>fc97dba8-a877-4547-b6c9-0c6b058b1c94</v>
       </c>
       <c r="B44" t="str">
-        <v>Eleanor Allen</v>
+        <v>Victoria Carter</v>
       </c>
       <c r="C44">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D44" t="str">
         <v>Female</v>
       </c>
       <c r="E44" t="str">
-        <v>eleanor.allen67@outlook.com</v>
+        <v>victoria.carter86@hotmail.com</v>
       </c>
       <c r="F44" t="str">
-        <v>(510) 261-1846</v>
+        <v>(576) 929-4509</v>
       </c>
       <c r="G44" t="str">
-        <v>Los Angeles</v>
+        <v>Long Beach</v>
       </c>
       <c r="H44" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="I44" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
       <c r="J44" t="str">
-        <v>Christopher Allen</v>
+        <v>Josiah Lopez, Ella Martinez</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>e897bbe7-50a2-441c-9ba2-0d1c40619f32</v>
+        <v>50b3a8f6-823f-477c-b52d-5b4fba4edbd2</v>
       </c>
       <c r="B45" t="str">
-        <v>Chloe Williams</v>
+        <v>Naomi Moore</v>
       </c>
       <c r="C45">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D45" t="str">
         <v>Female</v>
       </c>
       <c r="E45" t="str">
-        <v>chloe.williams70@hotmail.com</v>
+        <v>naomi.moore30@gmail.com</v>
       </c>
       <c r="F45" t="str">
-        <v>(398) 161-2308</v>
+        <v>(391) 998-1729</v>
       </c>
       <c r="G45" t="str">
-        <v>Los Angeles</v>
+        <v>Irvine</v>
       </c>
       <c r="H45" t="str">
-        <v>B+</v>
+        <v>C</v>
       </c>
       <c r="I45" t="str">
         <v>available</v>
+      </c>
+      <c r="J45" t="str">
+        <v>Isla Wright, Cora Roberts</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>fc97dba8-a877-4547-b6c9-0c6b058b1c94</v>
+        <v>0bb2a1aa-a74d-4711-a2ea-609663a77b4d</v>
       </c>
       <c r="B46" t="str">
-        <v>Victoria Carter</v>
+        <v>Carter Harris</v>
       </c>
       <c r="C46">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D46" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E46" t="str">
-        <v>victoria.carter86@hotmail.com</v>
+        <v>carter.harris82@yahoo.com</v>
       </c>
       <c r="F46" t="str">
-        <v>(576) 929-4509</v>
+        <v>0412 175 744</v>
       </c>
       <c r="G46" t="str">
-        <v>Long Beach</v>
+        <v>Geelong</v>
       </c>
       <c r="H46" t="str">
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="I46" t="str">
-        <v>assigned</v>
-      </c>
-      <c r="J46" t="str">
-        <v>Josiah Lopez, Ella Martinez</v>
+        <v>available</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>50b3a8f6-823f-477c-b52d-5b4fba4edbd2</v>
+        <v>9efd8ec8-0e91-45d9-804b-518939fbac76</v>
       </c>
       <c r="B47" t="str">
-        <v>Naomi Moore</v>
+        <v>Noah Hernandez</v>
       </c>
       <c r="C47">
         <v>36</v>
       </c>
       <c r="D47" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E47" t="str">
-        <v>naomi.moore30@gmail.com</v>
+        <v>noah.hernandez9@hotmail.com</v>
       </c>
       <c r="F47" t="str">
-        <v>(391) 998-1729</v>
+        <v>0404 855 230</v>
       </c>
       <c r="G47" t="str">
-        <v>Irvine</v>
+        <v>Cairns</v>
       </c>
       <c r="H47" t="str">
         <v>C</v>
@@ -2187,63 +2175,63 @@
       <c r="I47" t="str">
         <v>available</v>
       </c>
-      <c r="J47" t="str">
-        <v>Isla Wright, Cora Roberts</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>0bb2a1aa-a74d-4711-a2ea-609663a77b4d</v>
+        <v>49e2abec-5fbc-4b4e-9147-fc29f4df9e48</v>
       </c>
       <c r="B48" t="str">
-        <v>Carter Harris</v>
+        <v>Ellie Allen</v>
       </c>
       <c r="C48">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D48" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E48" t="str">
-        <v>carter.harris82@yahoo.com</v>
+        <v>ellie.allen18@hotmail.com</v>
       </c>
       <c r="F48" t="str">
-        <v>0412 175 744</v>
+        <v>(303) 763-9138</v>
       </c>
       <c r="G48" t="str">
-        <v>Geelong</v>
+        <v>Stockton</v>
       </c>
       <c r="H48" t="str">
-        <v>C</v>
+        <v>A+</v>
       </c>
       <c r="I48" t="str">
         <v>available</v>
+      </c>
+      <c r="J48" t="str">
+        <v>Emma Torres, Charlotte Hernandez</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>9efd8ec8-0e91-45d9-804b-518939fbac76</v>
+        <v>f5233693-d357-4cac-a660-70ef0398a969</v>
       </c>
       <c r="B49" t="str">
-        <v>Noah Hernandez</v>
+        <v>Nathan Allen</v>
       </c>
       <c r="C49">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="D49" t="str">
         <v>Male</v>
       </c>
       <c r="E49" t="str">
-        <v>noah.hernandez9@hotmail.com</v>
+        <v>nathan.allen87@outlook.com</v>
       </c>
       <c r="F49" t="str">
-        <v>0404 855 230</v>
+        <v>0403 587 263</v>
       </c>
       <c r="G49" t="str">
-        <v>Cairns</v>
+        <v>Adelaide</v>
       </c>
       <c r="H49" t="str">
-        <v>C</v>
+        <v>B+</v>
       </c>
       <c r="I49" t="str">
         <v>available</v>
@@ -2251,246 +2239,249 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>49e2abec-5fbc-4b4e-9147-fc29f4df9e48</v>
+        <v>29fc5656-fb78-4c9b-9800-b68957bc0a07</v>
       </c>
       <c r="B50" t="str">
-        <v>Ellie Allen</v>
+        <v>Aria Lopez</v>
       </c>
       <c r="C50">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D50" t="str">
         <v>Female</v>
       </c>
       <c r="E50" t="str">
-        <v>ellie.allen18@hotmail.com</v>
+        <v>aria.lopez55@hotmail.com</v>
       </c>
       <c r="F50" t="str">
-        <v>(303) 763-9138</v>
+        <v>0404 812 491</v>
       </c>
       <c r="G50" t="str">
-        <v>Stockton</v>
+        <v>Sydney</v>
       </c>
       <c r="H50" t="str">
-        <v>A+</v>
+        <v>B+</v>
       </c>
       <c r="I50" t="str">
         <v>available</v>
       </c>
       <c r="J50" t="str">
-        <v>Emma Torres, Charlotte Hernandez</v>
+        <v>Paisley Lee</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>f5233693-d357-4cac-a660-70ef0398a969</v>
+        <v>93e72347-d9bf-4fb1-b06c-7cb5a2edcc2a</v>
       </c>
       <c r="B51" t="str">
-        <v>Nathan Allen</v>
+        <v>Grace King</v>
       </c>
       <c r="C51">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D51" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E51" t="str">
-        <v>nathan.allen87@outlook.com</v>
+        <v>grace.king1@yahoo.com</v>
       </c>
       <c r="F51" t="str">
-        <v>0403 587 263</v>
+        <v>(217) 721-5651</v>
       </c>
       <c r="G51" t="str">
-        <v>Adelaide</v>
+        <v>Oakland</v>
       </c>
       <c r="H51" t="str">
-        <v>B+</v>
+        <v>C</v>
       </c>
       <c r="I51" t="str">
         <v>available</v>
+      </c>
+      <c r="J51" t="str">
+        <v>Gianna Hill</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>29fc5656-fb78-4c9b-9800-b68957bc0a07</v>
+        <v>699a6b21-dcdf-4a6c-a093-53af77ccdedb</v>
       </c>
       <c r="B52" t="str">
-        <v>Aria Lopez</v>
+        <v>Emilia Lopez</v>
       </c>
       <c r="C52">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D52" t="str">
         <v>Female</v>
       </c>
       <c r="E52" t="str">
-        <v>aria.lopez55@hotmail.com</v>
+        <v>emilia.lopez21@gmail.com</v>
       </c>
       <c r="F52" t="str">
-        <v>0404 812 491</v>
+        <v>0403 491 553</v>
       </c>
       <c r="G52" t="str">
-        <v>Sydney</v>
+        <v>Cairns</v>
       </c>
       <c r="H52" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I52" t="str">
         <v>available</v>
       </c>
       <c r="J52" t="str">
-        <v>Paisley Lee</v>
+        <v>Aurora Rodriguez</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>93e72347-d9bf-4fb1-b06c-7cb5a2edcc2a</v>
+        <v>c5fdfaeb-862e-43ab-bf0e-ff3e14e5dbb3</v>
       </c>
       <c r="B53" t="str">
-        <v>Grace King</v>
+        <v>Hannah Martin</v>
       </c>
       <c r="C53">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="D53" t="str">
         <v>Female</v>
       </c>
       <c r="E53" t="str">
-        <v>grace.king1@yahoo.com</v>
+        <v>hannah.martin78@yahoo.com</v>
       </c>
       <c r="F53" t="str">
-        <v>(217) 721-5651</v>
+        <v>0410 940 985</v>
       </c>
       <c r="G53" t="str">
-        <v>Oakland</v>
+        <v>Hobart</v>
       </c>
       <c r="H53" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I53" t="str">
         <v>available</v>
       </c>
       <c r="J53" t="str">
-        <v>Gianna Hill</v>
+        <v>Abigail Lee</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>699a6b21-dcdf-4a6c-a093-53af77ccdedb</v>
+        <v>da957311-60b3-4bfc-b980-ac0506dccd20</v>
       </c>
       <c r="B54" t="str">
-        <v>Emilia Lopez</v>
+        <v>Stella Garcia</v>
       </c>
       <c r="C54">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D54" t="str">
         <v>Female</v>
       </c>
       <c r="E54" t="str">
-        <v>emilia.lopez21@gmail.com</v>
+        <v>stella.garcia89@hotmail.com</v>
       </c>
       <c r="F54" t="str">
-        <v>0403 491 553</v>
+        <v>0403 655 540</v>
       </c>
       <c r="G54" t="str">
-        <v>Cairns</v>
+        <v>Toowoomba</v>
       </c>
       <c r="H54" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I54" t="str">
         <v>available</v>
       </c>
       <c r="J54" t="str">
-        <v>Aurora Rodriguez</v>
+        <v>Emily Thomas</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>c5fdfaeb-862e-43ab-bf0e-ff3e14e5dbb3</v>
+        <v>f960de1f-a40f-4281-9d39-2a7822335b9b</v>
       </c>
       <c r="B55" t="str">
-        <v>Hannah Martin</v>
+        <v>Victoria Carter</v>
       </c>
       <c r="C55">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D55" t="str">
         <v>Female</v>
       </c>
       <c r="E55" t="str">
-        <v>hannah.martin78@yahoo.com</v>
+        <v>victoria.carter74@gmail.com</v>
       </c>
       <c r="F55" t="str">
-        <v>0410 940 985</v>
+        <v>0411 641 632</v>
       </c>
       <c r="G55" t="str">
-        <v>Hobart</v>
+        <v>Gold Coast</v>
       </c>
       <c r="H55" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I55" t="str">
         <v>available</v>
       </c>
       <c r="J55" t="str">
-        <v>Abigail Lee</v>
+        <v>Emilia Miller</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>da957311-60b3-4bfc-b980-ac0506dccd20</v>
+        <v>d3525475-4eef-4712-ba77-a79cea16ef55</v>
       </c>
       <c r="B56" t="str">
-        <v>Stella Garcia</v>
+        <v>Zoey Cook</v>
       </c>
       <c r="C56">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D56" t="str">
         <v>Female</v>
       </c>
       <c r="E56" t="str">
-        <v>stella.garcia89@hotmail.com</v>
+        <v>zoey.cook63@yahoo.com</v>
       </c>
       <c r="F56" t="str">
-        <v>0403 655 540</v>
+        <v>(559) 803-4092</v>
       </c>
       <c r="G56" t="str">
-        <v>Toowoomba</v>
+        <v>Fremont</v>
       </c>
       <c r="H56" t="str">
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="I56" t="str">
         <v>available</v>
       </c>
       <c r="J56" t="str">
-        <v>Emily Thomas</v>
+        <v>Hunter Scott</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>f960de1f-a40f-4281-9d39-2a7822335b9b</v>
+        <v>c4e002c2-94ef-471f-b43d-e6b2a8d35a1c</v>
       </c>
       <c r="B57" t="str">
-        <v>Victoria Carter</v>
+        <v>Paisley Scott</v>
       </c>
       <c r="C57">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D57" t="str">
         <v>Female</v>
       </c>
       <c r="E57" t="str">
-        <v>victoria.carter74@gmail.com</v>
+        <v>paisley.scott78@yahoo.com</v>
       </c>
       <c r="F57" t="str">
-        <v>0411 641 632</v>
+        <v>0410 215 419</v>
       </c>
       <c r="G57" t="str">
-        <v>Gold Coast</v>
+        <v>Ballarat</v>
       </c>
       <c r="H57" t="str">
         <v>B+</v>
@@ -2499,97 +2490,94 @@
         <v>available</v>
       </c>
       <c r="J57" t="str">
-        <v>Emilia Miller</v>
+        <v>Mia Roberts</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>d3525475-4eef-4712-ba77-a79cea16ef55</v>
+        <v>9b54470e-fe91-4ebb-b0aa-becf22a8cc3c</v>
       </c>
       <c r="B58" t="str">
-        <v>Zoey Cook</v>
+        <v>Abigail Jackson</v>
       </c>
       <c r="C58">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="D58" t="str">
         <v>Female</v>
       </c>
       <c r="E58" t="str">
-        <v>zoey.cook63@yahoo.com</v>
+        <v>abigail.jackson65@outlook.com</v>
       </c>
       <c r="F58" t="str">
-        <v>(559) 803-4092</v>
+        <v>0411 824 257</v>
       </c>
       <c r="G58" t="str">
-        <v>Fremont</v>
+        <v>Newcastle</v>
       </c>
       <c r="H58" t="str">
-        <v>A</v>
+        <v>B+</v>
       </c>
       <c r="I58" t="str">
         <v>available</v>
-      </c>
-      <c r="J58" t="str">
-        <v>Hunter Scott</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>c4e002c2-94ef-471f-b43d-e6b2a8d35a1c</v>
+        <v>efeba788-8d57-40b3-a3f9-e134a40931ac</v>
       </c>
       <c r="B59" t="str">
-        <v>Paisley Scott</v>
+        <v>Leah Diaz</v>
       </c>
       <c r="C59">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D59" t="str">
         <v>Female</v>
       </c>
       <c r="E59" t="str">
-        <v>paisley.scott78@yahoo.com</v>
+        <v>leah.diaz22@outlook.com</v>
       </c>
       <c r="F59" t="str">
-        <v>0410 215 419</v>
+        <v>(159) 664-9326</v>
       </c>
       <c r="G59" t="str">
-        <v>Ballarat</v>
+        <v>Glendale</v>
       </c>
       <c r="H59" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I59" t="str">
         <v>available</v>
       </c>
       <c r="J59" t="str">
-        <v>Mia Roberts</v>
+        <v>Julian Nguyen, Lydia Allen</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>9b54470e-fe91-4ebb-b0aa-becf22a8cc3c</v>
+        <v>adfcb6e3-82cb-46b9-8fb8-069fb91e2d4f</v>
       </c>
       <c r="B60" t="str">
-        <v>Abigail Jackson</v>
+        <v>Mason Hill</v>
       </c>
       <c r="C60">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D60" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E60" t="str">
-        <v>abigail.jackson65@outlook.com</v>
+        <v>mason.hill27@outlook.com</v>
       </c>
       <c r="F60" t="str">
-        <v>0411 824 257</v>
+        <v>0410 682 884</v>
       </c>
       <c r="G60" t="str">
-        <v>Newcastle</v>
+        <v>Canberra</v>
       </c>
       <c r="H60" t="str">
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="I60" t="str">
         <v>available</v>
@@ -2597,25 +2585,25 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>efeba788-8d57-40b3-a3f9-e134a40931ac</v>
+        <v>151541b8-8cbb-452a-b532-1a0df3d1d4b6</v>
       </c>
       <c r="B61" t="str">
-        <v>Leah Diaz</v>
+        <v>Ella Martinez</v>
       </c>
       <c r="C61">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D61" t="str">
         <v>Female</v>
       </c>
       <c r="E61" t="str">
-        <v>leah.diaz22@outlook.com</v>
+        <v>ella.martinez67@hotmail.com</v>
       </c>
       <c r="F61" t="str">
-        <v>(159) 664-9326</v>
+        <v>(703) 898-3990</v>
       </c>
       <c r="G61" t="str">
-        <v>Glendale</v>
+        <v>Burbank</v>
       </c>
       <c r="H61" t="str">
         <v>B</v>
@@ -2624,33 +2612,33 @@
         <v>available</v>
       </c>
       <c r="J61" t="str">
-        <v>Julian Nguyen, Lydia Allen</v>
+        <v>Josiah Lopez, Victoria Carter</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>adfcb6e3-82cb-46b9-8fb8-069fb91e2d4f</v>
+        <v>a2ff3ad7-7964-4523-bf18-ce9994a910da</v>
       </c>
       <c r="B62" t="str">
-        <v>Mason Hill</v>
+        <v>Nora Mitchell</v>
       </c>
       <c r="C62">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D62" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E62" t="str">
-        <v>mason.hill27@outlook.com</v>
+        <v>nora.mitchell66@outlook.com</v>
       </c>
       <c r="F62" t="str">
-        <v>0410 682 884</v>
+        <v>0412 196 419</v>
       </c>
       <c r="G62" t="str">
-        <v>Canberra</v>
+        <v>Adelaide</v>
       </c>
       <c r="H62" t="str">
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="I62" t="str">
         <v>available</v>
@@ -2658,28 +2646,28 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>a2ff3ad7-7964-4523-bf18-ce9994a910da</v>
+        <v>6591420b-4762-4d90-b738-8a5b70458c40</v>
       </c>
       <c r="B63" t="str">
-        <v>Nora Mitchell</v>
+        <v>Aurora Hill</v>
       </c>
       <c r="C63">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D63" t="str">
         <v>Female</v>
       </c>
       <c r="E63" t="str">
-        <v>nora.mitchell66@outlook.com</v>
+        <v>aurora.hill33@hotmail.com</v>
       </c>
       <c r="F63" t="str">
-        <v>0412 196 419</v>
+        <v>0410 373 844</v>
       </c>
       <c r="G63" t="str">
-        <v>Adelaide</v>
+        <v>Gold Coast</v>
       </c>
       <c r="H63" t="str">
-        <v>C</v>
+        <v>B+</v>
       </c>
       <c r="I63" t="str">
         <v>available</v>
@@ -2687,25 +2675,25 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>6591420b-4762-4d90-b738-8a5b70458c40</v>
+        <v>32ffeaf9-5f22-4db7-a70b-cbaab834db0d</v>
       </c>
       <c r="B64" t="str">
-        <v>Aurora Hill</v>
+        <v>Isabella Hill</v>
       </c>
       <c r="C64">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D64" t="str">
         <v>Female</v>
       </c>
       <c r="E64" t="str">
-        <v>aurora.hill33@hotmail.com</v>
+        <v>isabella.hill77@hotmail.com</v>
       </c>
       <c r="F64" t="str">
-        <v>0410 373 844</v>
+        <v>0412 663 356</v>
       </c>
       <c r="G64" t="str">
-        <v>Gold Coast</v>
+        <v>Darwin</v>
       </c>
       <c r="H64" t="str">
         <v>B+</v>
@@ -2716,54 +2704,57 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>32ffeaf9-5f22-4db7-a70b-cbaab834db0d</v>
+        <v>799c4a95-9c60-477c-ab86-09dfb2ad8324</v>
       </c>
       <c r="B65" t="str">
-        <v>Isabella Hill</v>
+        <v>Naomi Brown</v>
       </c>
       <c r="C65">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D65" t="str">
         <v>Female</v>
       </c>
       <c r="E65" t="str">
-        <v>isabella.hill77@hotmail.com</v>
+        <v>naomi.brown56@yahoo.com</v>
       </c>
       <c r="F65" t="str">
-        <v>0412 663 356</v>
+        <v>(932) 818-9639</v>
       </c>
       <c r="G65" t="str">
-        <v>Darwin</v>
+        <v>Sacramento</v>
       </c>
       <c r="H65" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I65" t="str">
         <v>available</v>
+      </c>
+      <c r="J65" t="str">
+        <v>Brooklyn Nguyen</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>799c4a95-9c60-477c-ab86-09dfb2ad8324</v>
+        <v>5c31add6-7626-46c5-a3e1-0e452ead739d</v>
       </c>
       <c r="B66" t="str">
-        <v>Naomi Brown</v>
+        <v>Charles Torres</v>
       </c>
       <c r="C66">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D66" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E66" t="str">
-        <v>naomi.brown56@yahoo.com</v>
+        <v>charles.torres98@outlook.com</v>
       </c>
       <c r="F66" t="str">
-        <v>(932) 818-9639</v>
+        <v>0401 744 176</v>
       </c>
       <c r="G66" t="str">
-        <v>Sacramento</v>
+        <v>Wollongong</v>
       </c>
       <c r="H66" t="str">
         <v>B</v>
@@ -2771,31 +2762,28 @@
       <c r="I66" t="str">
         <v>available</v>
       </c>
-      <c r="J66" t="str">
-        <v>Brooklyn Nguyen</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>5c31add6-7626-46c5-a3e1-0e452ead739d</v>
+        <v>bb319a54-7dbf-4a05-bd7f-8f2f6aa6b414</v>
       </c>
       <c r="B67" t="str">
-        <v>Charles Torres</v>
+        <v>Isabella Brown</v>
       </c>
       <c r="C67">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D67" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E67" t="str">
-        <v>charles.torres98@outlook.com</v>
+        <v>isabella.brown43@outlook.com</v>
       </c>
       <c r="F67" t="str">
-        <v>0401 744 176</v>
+        <v>0403 771 690</v>
       </c>
       <c r="G67" t="str">
-        <v>Wollongong</v>
+        <v>Darwin</v>
       </c>
       <c r="H67" t="str">
         <v>B</v>
@@ -2803,45 +2791,45 @@
       <c r="I67" t="str">
         <v>available</v>
       </c>
+      <c r="J67" t="str">
+        <v>Ella Anderson</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>6b672a17-fbf7-4b44-841d-dc10fbe8cbce</v>
+        <v>34685ff7-6e85-4bbd-b546-77cfe11d7f7d</v>
       </c>
       <c r="B68" t="str">
-        <v>Sadie Williams</v>
+        <v>Grace Walker</v>
       </c>
       <c r="C68">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D68" t="str">
         <v>Female</v>
       </c>
       <c r="E68" t="str">
-        <v>sadie.williams7@icloud.com</v>
+        <v>grace.walker52@hotmail.com</v>
       </c>
       <c r="F68" t="str">
-        <v>(175) 960-1387</v>
+        <v>0412 754 780</v>
       </c>
       <c r="G68" t="str">
-        <v>Anaheim</v>
+        <v>Canberra</v>
       </c>
       <c r="H68" t="str">
-        <v>B</v>
+        <v>A+</v>
       </c>
       <c r="I68" t="str">
-        <v>assigned</v>
-      </c>
-      <c r="J68" t="str">
-        <v>Michael Campbell, Eleanor Hall</v>
+        <v>available</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>bb319a54-7dbf-4a05-bd7f-8f2f6aa6b414</v>
+        <v>6b672a17-fbf7-4b44-841d-dc10fbe8cbce</v>
       </c>
       <c r="B69" t="str">
-        <v>Isabella Brown</v>
+        <v>Sadie Williams</v>
       </c>
       <c r="C69">
         <v>55</v>
@@ -2850,13 +2838,13 @@
         <v>Female</v>
       </c>
       <c r="E69" t="str">
-        <v>isabella.brown43@outlook.com</v>
+        <v>sadie.williams7@icloud.com</v>
       </c>
       <c r="F69" t="str">
-        <v>0403 771 690</v>
+        <v>(175) 960-1387</v>
       </c>
       <c r="G69" t="str">
-        <v>Darwin</v>
+        <v>Anaheim</v>
       </c>
       <c r="H69" t="str">
         <v>B</v>
@@ -2865,33 +2853,33 @@
         <v>available</v>
       </c>
       <c r="J69" t="str">
-        <v>Ella Anderson</v>
+        <v>Michael Campbell, Eleanor Hall</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>34685ff7-6e85-4bbd-b546-77cfe11d7f7d</v>
+        <v>14ca564a-7d73-46a9-9bdd-e4924eac5eda</v>
       </c>
       <c r="B70" t="str">
-        <v>Grace Walker</v>
+        <v>Hailey Thompson</v>
       </c>
       <c r="C70">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D70" t="str">
         <v>Female</v>
       </c>
       <c r="E70" t="str">
-        <v>grace.walker52@hotmail.com</v>
+        <v>hailey.thompson30@yahoo.com</v>
       </c>
       <c r="F70" t="str">
-        <v>0412 754 780</v>
+        <v>(356) 680-9661</v>
       </c>
       <c r="G70" t="str">
-        <v>Canberra</v>
+        <v>Fremont</v>
       </c>
       <c r="H70" t="str">
-        <v>A+</v>
+        <v>B+</v>
       </c>
       <c r="I70" t="str">
         <v>available</v>
@@ -2899,28 +2887,28 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>14ca564a-7d73-46a9-9bdd-e4924eac5eda</v>
+        <v>25370fa8-38bb-4172-9e02-23a59fcfd87a</v>
       </c>
       <c r="B71" t="str">
-        <v>Hailey Thompson</v>
+        <v>Carter Hill</v>
       </c>
       <c r="C71">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D71" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E71" t="str">
-        <v>hailey.thompson30@yahoo.com</v>
+        <v>carter.hill93@gmail.com</v>
       </c>
       <c r="F71" t="str">
-        <v>(356) 680-9661</v>
+        <v>0404 349 309</v>
       </c>
       <c r="G71" t="str">
-        <v>Fremont</v>
+        <v>Newcastle</v>
       </c>
       <c r="H71" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I71" t="str">
         <v>available</v>
@@ -2928,115 +2916,118 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>25370fa8-38bb-4172-9e02-23a59fcfd87a</v>
+        <v>5b54b59b-b78d-4a12-906b-7f9069a82fb5</v>
       </c>
       <c r="B72" t="str">
-        <v>Carter Hill</v>
+        <v>Amelia Lopez</v>
       </c>
       <c r="C72">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D72" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E72" t="str">
-        <v>carter.hill93@gmail.com</v>
+        <v>amelia.lopez92@yahoo.com</v>
       </c>
       <c r="F72" t="str">
-        <v>0404 349 309</v>
+        <v>(297) 700-2964</v>
       </c>
       <c r="G72" t="str">
-        <v>Newcastle</v>
+        <v>Pomona</v>
       </c>
       <c r="H72" t="str">
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="I72" t="str">
         <v>available</v>
+      </c>
+      <c r="J72" t="str">
+        <v>Lillian Campbell</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>5b54b59b-b78d-4a12-906b-7f9069a82fb5</v>
+        <v>cd648690-8cd1-44b6-be26-0521038f442f</v>
       </c>
       <c r="B73" t="str">
-        <v>Amelia Lopez</v>
+        <v>Stella Hall</v>
       </c>
       <c r="C73">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="D73" t="str">
         <v>Female</v>
       </c>
       <c r="E73" t="str">
-        <v>amelia.lopez92@yahoo.com</v>
+        <v>stella.hall72@gmail.com</v>
       </c>
       <c r="F73" t="str">
-        <v>(297) 700-2964</v>
+        <v>0410 133 818</v>
       </c>
       <c r="G73" t="str">
-        <v>Pomona</v>
+        <v>Wollongong</v>
       </c>
       <c r="H73" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I73" t="str">
         <v>available</v>
-      </c>
-      <c r="J73" t="str">
-        <v>Lillian Campbell</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>cd648690-8cd1-44b6-be26-0521038f442f</v>
+        <v>4f1d5a65-9d8d-4c5a-836a-f0ea71c91e56</v>
       </c>
       <c r="B74" t="str">
-        <v>Stella Hall</v>
+        <v>Savannah Rivera</v>
       </c>
       <c r="C74">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="D74" t="str">
         <v>Female</v>
       </c>
       <c r="E74" t="str">
-        <v>stella.hall72@gmail.com</v>
+        <v>savannah.rivera74@hotmail.com</v>
       </c>
       <c r="F74" t="str">
-        <v>0410 133 818</v>
+        <v>(132) 232-5005</v>
       </c>
       <c r="G74" t="str">
-        <v>Wollongong</v>
+        <v>Stockton</v>
       </c>
       <c r="H74" t="str">
-        <v>B</v>
+        <v>A+</v>
       </c>
       <c r="I74" t="str">
         <v>available</v>
+      </c>
+      <c r="J74" t="str">
+        <v>Penelope Williams</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>4f1d5a65-9d8d-4c5a-836a-f0ea71c91e56</v>
+        <v>523bddcf-6298-42a0-b9cb-4deffb688143</v>
       </c>
       <c r="B75" t="str">
-        <v>Savannah Rivera</v>
+        <v>Brooklyn Rivera</v>
       </c>
       <c r="C75">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D75" t="str">
         <v>Female</v>
       </c>
       <c r="E75" t="str">
-        <v>savannah.rivera74@hotmail.com</v>
+        <v>brooklyn.rivera69@outlook.com</v>
       </c>
       <c r="F75" t="str">
-        <v>(132) 232-5005</v>
+        <v>(847) 715-1204</v>
       </c>
       <c r="G75" t="str">
-        <v>Stockton</v>
+        <v>Glendale</v>
       </c>
       <c r="H75" t="str">
         <v>A+</v>
@@ -3045,161 +3036,158 @@
         <v>available</v>
       </c>
       <c r="J75" t="str">
-        <v>Penelope Williams</v>
+        <v>John Carter</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>523bddcf-6298-42a0-b9cb-4deffb688143</v>
+        <v>cd2f354f-9f45-4422-af14-1c94758ec1c1</v>
       </c>
       <c r="B76" t="str">
-        <v>Brooklyn Rivera</v>
+        <v>Hannah Murphy</v>
       </c>
       <c r="C76">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D76" t="str">
         <v>Female</v>
       </c>
       <c r="E76" t="str">
-        <v>brooklyn.rivera69@outlook.com</v>
+        <v>hannah.murphy4@outlook.com</v>
       </c>
       <c r="F76" t="str">
-        <v>(847) 715-1204</v>
+        <v>(544) 415-8741</v>
       </c>
       <c r="G76" t="str">
-        <v>Glendale</v>
+        <v>Pomona</v>
       </c>
       <c r="H76" t="str">
-        <v>A+</v>
+        <v>A</v>
       </c>
       <c r="I76" t="str">
         <v>available</v>
       </c>
       <c r="J76" t="str">
-        <v>John Carter</v>
+        <v>Thomas Rivera</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>cd2f354f-9f45-4422-af14-1c94758ec1c1</v>
+        <v>b57be3ad-f74f-4f2b-aa79-6e410d2c199b</v>
       </c>
       <c r="B77" t="str">
-        <v>Hannah Murphy</v>
+        <v>Sofia Williams</v>
       </c>
       <c r="C77">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="D77" t="str">
         <v>Female</v>
       </c>
       <c r="E77" t="str">
-        <v>hannah.murphy4@outlook.com</v>
+        <v>sofia.williams60@outlook.com</v>
       </c>
       <c r="F77" t="str">
-        <v>(544) 415-8741</v>
+        <v>(745) 392-3827</v>
       </c>
       <c r="G77" t="str">
-        <v>Pomona</v>
+        <v>Newport Beach</v>
       </c>
       <c r="H77" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="I77" t="str">
         <v>available</v>
       </c>
       <c r="J77" t="str">
-        <v>Thomas Rivera</v>
+        <v>Colton Harris, Sebastian Edwards</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>b57be3ad-f74f-4f2b-aa79-6e410d2c199b</v>
+        <v>222469f4-a8d9-4550-b6ee-db9d00e24edd</v>
       </c>
       <c r="B78" t="str">
-        <v>Sofia Williams</v>
+        <v>Chloe Flores</v>
       </c>
       <c r="C78">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D78" t="str">
         <v>Female</v>
       </c>
       <c r="E78" t="str">
-        <v>sofia.williams60@outlook.com</v>
+        <v>chloe.flores93@yahoo.com</v>
       </c>
       <c r="F78" t="str">
-        <v>(745) 392-3827</v>
+        <v>0400 918 463</v>
       </c>
       <c r="G78" t="str">
-        <v>Newport Beach</v>
+        <v>Townsville</v>
       </c>
       <c r="H78" t="str">
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="I78" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
       <c r="J78" t="str">
-        <v>Colton Harris, Sebastian Edwards</v>
+        <v>Evelyn Sanchez</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>222469f4-a8d9-4550-b6ee-db9d00e24edd</v>
+        <v>ee7f9d33-09d6-417b-a45f-3e6554489f5b</v>
       </c>
       <c r="B79" t="str">
-        <v>Chloe Flores</v>
+        <v>Dylan Miller</v>
       </c>
       <c r="C79">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="D79" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E79" t="str">
-        <v>chloe.flores93@yahoo.com</v>
+        <v>dylan.miller23@hotmail.com</v>
       </c>
       <c r="F79" t="str">
-        <v>0400 918 463</v>
+        <v>0402 417 876</v>
       </c>
       <c r="G79" t="str">
-        <v>Townsville</v>
+        <v>Melbourne</v>
       </c>
       <c r="H79" t="str">
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="I79" t="str">
         <v>available</v>
-      </c>
-      <c r="J79" t="str">
-        <v>Evelyn Sanchez</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>ee7f9d33-09d6-417b-a45f-3e6554489f5b</v>
+        <v>47cc1288-cbc0-4159-a52d-924c8912434d</v>
       </c>
       <c r="B80" t="str">
-        <v>Dylan Miller</v>
+        <v>Stella Martinez</v>
       </c>
       <c r="C80">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D80" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E80" t="str">
-        <v>dylan.miller23@hotmail.com</v>
+        <v>stella.martinez75@gmail.com</v>
       </c>
       <c r="F80" t="str">
-        <v>0402 417 876</v>
+        <v>0404 227 272</v>
       </c>
       <c r="G80" t="str">
-        <v>Melbourne</v>
+        <v>Ballarat</v>
       </c>
       <c r="H80" t="str">
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="I80" t="str">
         <v>available</v>
@@ -3207,86 +3195,86 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>47cc1288-cbc0-4159-a52d-924c8912434d</v>
+        <v>349c5100-5395-45db-a63a-4f1c0e44ab44</v>
       </c>
       <c r="B81" t="str">
-        <v>Stella Martinez</v>
+        <v>Alexa Hall</v>
       </c>
       <c r="C81">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D81" t="str">
         <v>Female</v>
       </c>
       <c r="E81" t="str">
-        <v>stella.martinez75@gmail.com</v>
+        <v>alexa.hall12@hotmail.com</v>
       </c>
       <c r="F81" t="str">
-        <v>0404 227 272</v>
+        <v>(220) 308-9173</v>
       </c>
       <c r="G81" t="str">
-        <v>Ballarat</v>
+        <v>Santa Ana</v>
       </c>
       <c r="H81" t="str">
-        <v>C</v>
+        <v>A+</v>
       </c>
       <c r="I81" t="str">
         <v>available</v>
+      </c>
+      <c r="J81" t="str">
+        <v>William Allen, Sadie Cook</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>349c5100-5395-45db-a63a-4f1c0e44ab44</v>
+        <v>f68d2771-4820-4fef-b156-093280aeea67</v>
       </c>
       <c r="B82" t="str">
-        <v>Alexa Hall</v>
+        <v>Aria Nguyen</v>
       </c>
       <c r="C82">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="D82" t="str">
         <v>Female</v>
       </c>
       <c r="E82" t="str">
-        <v>alexa.hall12@hotmail.com</v>
+        <v>aria.nguyen36@gmail.com</v>
       </c>
       <c r="F82" t="str">
-        <v>(220) 308-9173</v>
+        <v>0401 618 716</v>
       </c>
       <c r="G82" t="str">
-        <v>Santa Ana</v>
+        <v>Sydney</v>
       </c>
       <c r="H82" t="str">
-        <v>A+</v>
+        <v>C</v>
       </c>
       <c r="I82" t="str">
         <v>available</v>
-      </c>
-      <c r="J82" t="str">
-        <v>William Allen, Sadie Cook</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>f68d2771-4820-4fef-b156-093280aeea67</v>
+        <v>b8c1889f-fd66-4304-90d7-bd50422cbc52</v>
       </c>
       <c r="B83" t="str">
-        <v>Aria Nguyen</v>
+        <v>Maya Moore</v>
       </c>
       <c r="C83">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D83" t="str">
         <v>Female</v>
       </c>
       <c r="E83" t="str">
-        <v>aria.nguyen36@gmail.com</v>
+        <v>maya.moore54@outlook.com</v>
       </c>
       <c r="F83" t="str">
-        <v>0401 618 716</v>
+        <v>0400 718 585</v>
       </c>
       <c r="G83" t="str">
-        <v>Sydney</v>
+        <v>Toowoomba</v>
       </c>
       <c r="H83" t="str">
         <v>C</v>
@@ -3294,60 +3282,63 @@
       <c r="I83" t="str">
         <v>available</v>
       </c>
+      <c r="J83" t="str">
+        <v>Sofia Williams</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>b8c1889f-fd66-4304-90d7-bd50422cbc52</v>
+        <v>da40ad70-95be-413c-b0f1-d089ef285cc8</v>
       </c>
       <c r="B84" t="str">
-        <v>Maya Moore</v>
+        <v>Emily Smith</v>
       </c>
       <c r="C84">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D84" t="str">
         <v>Female</v>
       </c>
       <c r="E84" t="str">
-        <v>maya.moore54@outlook.com</v>
+        <v>emily.smith56@hotmail.com</v>
       </c>
       <c r="F84" t="str">
-        <v>0400 718 585</v>
+        <v>0410 101 780</v>
       </c>
       <c r="G84" t="str">
         <v>Toowoomba</v>
       </c>
       <c r="H84" t="str">
-        <v>C</v>
+        <v>A+</v>
       </c>
       <c r="I84" t="str">
         <v>available</v>
       </c>
-      <c r="J84" t="str">
-        <v>Sofia Williams</v>
+      <c r="M84" t="str">
+        <v>Limited mobility - prefers ground floor seating</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>da40ad70-95be-413c-b0f1-d089ef285cc8</v>
+        <v>bf0a6231-41b8-4ee9-a915-1043ca5ba524</v>
       </c>
       <c r="B85" t="str">
-        <v>Emily Smith</v>
+        <v>Elizabeth Nelson</v>
       </c>
       <c r="C85">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D85" t="str">
         <v>Female</v>
       </c>
       <c r="E85" t="str">
-        <v>emily.smith56@hotmail.com</v>
+        <v>elizabeth.nelson1@hotmail.com</v>
       </c>
       <c r="F85" t="str">
-        <v>0410 101 780</v>
+        <v>(821) 379-6476</v>
       </c>
       <c r="G85" t="str">
-        <v>Toowoomba</v>
+        <v>Oakland</v>
       </c>
       <c r="H85" t="str">
         <v>A+</v>
@@ -3355,98 +3346,95 @@
       <c r="I85" t="str">
         <v>available</v>
       </c>
-      <c r="M85" t="str">
-        <v>Limited mobility - prefers ground floor seating</v>
+      <c r="J85" t="str">
+        <v>Grayson Edwards, Joseph Anderson</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>bf0a6231-41b8-4ee9-a915-1043ca5ba524</v>
+        <v>703385ff-46f6-4b8f-9998-1e18951304e0</v>
       </c>
       <c r="B86" t="str">
-        <v>Elizabeth Nelson</v>
+        <v>Avery Cruz</v>
       </c>
       <c r="C86">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="D86" t="str">
         <v>Female</v>
       </c>
       <c r="E86" t="str">
-        <v>elizabeth.nelson1@hotmail.com</v>
+        <v>avery.cruz48@yahoo.com</v>
       </c>
       <c r="F86" t="str">
-        <v>(821) 379-6476</v>
+        <v>(405) 750-6185</v>
       </c>
       <c r="G86" t="str">
-        <v>Oakland</v>
+        <v>Fremont</v>
       </c>
       <c r="H86" t="str">
-        <v>A+</v>
+        <v>B+</v>
       </c>
       <c r="I86" t="str">
         <v>available</v>
       </c>
       <c r="J86" t="str">
-        <v>Grayson Edwards, Joseph Anderson</v>
+        <v>Lydia Torres, Mia Anderson</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>703385ff-46f6-4b8f-9998-1e18951304e0</v>
+        <v>1df33560-ebf2-41ec-995c-52f3f1df78d5</v>
       </c>
       <c r="B87" t="str">
-        <v>Avery Cruz</v>
+        <v>Genesis Jones</v>
       </c>
       <c r="C87">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D87" t="str">
         <v>Female</v>
       </c>
       <c r="E87" t="str">
-        <v>avery.cruz48@yahoo.com</v>
+        <v>genesis.jones50@yahoo.com</v>
       </c>
       <c r="F87" t="str">
-        <v>(405) 750-6185</v>
+        <v>0404 967 604</v>
       </c>
       <c r="G87" t="str">
-        <v>Fremont</v>
+        <v>Sydney</v>
       </c>
       <c r="H87" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I87" t="str">
         <v>available</v>
-      </c>
-      <c r="J87" t="str">
-        <v>Lydia Torres, Mia Anderson</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>1df33560-ebf2-41ec-995c-52f3f1df78d5</v>
+        <v>3db7cdb3-9a92-467c-b554-d23b524f42f5</v>
       </c>
       <c r="B88" t="str">
-        <v>Genesis Jones</v>
+        <v>Claire Campbell</v>
       </c>
       <c r="C88">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D88" t="str">
         <v>Female</v>
       </c>
       <c r="E88" t="str">
-        <v>genesis.jones50@yahoo.com</v>
+        <v>claire.campbell9@outlook.com</v>
       </c>
       <c r="F88" t="str">
-        <v>0404 967 604</v>
+        <v>0401 164 490</v>
       </c>
       <c r="G88" t="str">
-        <v>Sydney</v>
+        <v>Darwin</v>
       </c>
       <c r="H88" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I88" t="str">
         <v>available</v>
@@ -3454,124 +3442,127 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>3db7cdb3-9a92-467c-b554-d23b524f42f5</v>
+        <v>9d6b206c-c62d-4b71-b83d-fb61ac2fd06b</v>
       </c>
       <c r="B89" t="str">
-        <v>Claire Campbell</v>
+        <v>Paisley Brown</v>
       </c>
       <c r="C89">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="D89" t="str">
         <v>Female</v>
       </c>
       <c r="E89" t="str">
-        <v>claire.campbell9@outlook.com</v>
+        <v>paisley.brown87@outlook.com</v>
       </c>
       <c r="F89" t="str">
-        <v>0401 164 490</v>
+        <v>(164) 124-5926</v>
       </c>
       <c r="G89" t="str">
-        <v>Darwin</v>
+        <v>Anaheim</v>
       </c>
       <c r="H89" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I89" t="str">
         <v>available</v>
+      </c>
+      <c r="J89" t="str">
+        <v>Amelia Nguyen</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>9d6b206c-c62d-4b71-b83d-fb61ac2fd06b</v>
+        <v>5a6b21ec-9fac-4adc-b5ab-bcad20d0eca4</v>
       </c>
       <c r="B90" t="str">
-        <v>Paisley Brown</v>
+        <v>Hunter Harris</v>
       </c>
       <c r="C90">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="D90" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E90" t="str">
-        <v>paisley.brown87@outlook.com</v>
+        <v>hunter.harris1@gmail.com</v>
       </c>
       <c r="F90" t="str">
-        <v>(164) 124-5926</v>
+        <v>0404 782 485</v>
       </c>
       <c r="G90" t="str">
-        <v>Anaheim</v>
+        <v>Gold Coast</v>
       </c>
       <c r="H90" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="I90" t="str">
         <v>available</v>
       </c>
       <c r="J90" t="str">
-        <v>Amelia Nguyen</v>
+        <v/>
+      </c>
+      <c r="L90" t="str">
+        <v>sdfasdf</v>
+      </c>
+      <c r="M90" t="str">
+        <v>sdfasdfa</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>5a6b21ec-9fac-4adc-b5ab-bcad20d0eca4</v>
+        <v>939eed5c-b520-4a34-8d08-2243d6aa41c1</v>
       </c>
       <c r="B91" t="str">
-        <v>Hunter Harris</v>
+        <v>Andrew Garcia</v>
       </c>
       <c r="C91">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D91" t="str">
         <v>Male</v>
       </c>
       <c r="E91" t="str">
-        <v>hunter.harris1@gmail.com</v>
+        <v>andrew.garcia26@hotmail.com</v>
       </c>
       <c r="F91" t="str">
-        <v>0404 782 485</v>
+        <v>0400 450 222</v>
       </c>
       <c r="G91" t="str">
-        <v>Gold Coast</v>
+        <v>Darwin</v>
       </c>
       <c r="H91" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="I91" t="str">
         <v>available</v>
       </c>
-      <c r="J91" t="str">
-        <v/>
-      </c>
-      <c r="L91" t="str">
-        <v>sdfasdf</v>
-      </c>
       <c r="M91" t="str">
-        <v>sdfasdfa</v>
+        <v>Limited mobility - prefers ground floor seating</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>939eed5c-b520-4a34-8d08-2243d6aa41c1</v>
+        <v>c9e05b47-6028-4cd1-b568-57342a489141</v>
       </c>
       <c r="B92" t="str">
-        <v>Andrew Garcia</v>
+        <v>Victoria Scott</v>
       </c>
       <c r="C92">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D92" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E92" t="str">
-        <v>andrew.garcia26@hotmail.com</v>
+        <v>victoria.scott67@icloud.com</v>
       </c>
       <c r="F92" t="str">
-        <v>0400 450 222</v>
+        <v>(507) 166-2977</v>
       </c>
       <c r="G92" t="str">
-        <v>Darwin</v>
+        <v>Torrance</v>
       </c>
       <c r="H92" t="str">
         <v>B</v>
@@ -3579,255 +3570,252 @@
       <c r="I92" t="str">
         <v>available</v>
       </c>
-      <c r="M92" t="str">
-        <v>Limited mobility - prefers ground floor seating</v>
+      <c r="J92" t="str">
+        <v>William Taylor</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>c9e05b47-6028-4cd1-b568-57342a489141</v>
+        <v>36fd980a-62d1-491b-97d6-079c33195e3d</v>
       </c>
       <c r="B93" t="str">
-        <v>Victoria Scott</v>
+        <v>Elena Green</v>
       </c>
       <c r="C93">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D93" t="str">
         <v>Female</v>
       </c>
       <c r="E93" t="str">
-        <v>victoria.scott67@icloud.com</v>
+        <v>elena.green83@gmail.com</v>
       </c>
       <c r="F93" t="str">
-        <v>(507) 166-2977</v>
+        <v>(274) 515-8123</v>
       </c>
       <c r="G93" t="str">
-        <v>Torrance</v>
+        <v>San Diego</v>
       </c>
       <c r="H93" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="I93" t="str">
         <v>available</v>
       </c>
       <c r="J93" t="str">
-        <v>William Taylor</v>
+        <v>Allison Torres, Christian Rivera</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>36fd980a-62d1-491b-97d6-079c33195e3d</v>
+        <v>0dd7de5c-0409-45e3-84a5-5f2ffbd591d8</v>
       </c>
       <c r="B94" t="str">
-        <v>Elena Green</v>
+        <v>Harper Sanchez</v>
       </c>
       <c r="C94">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="D94" t="str">
         <v>Female</v>
       </c>
       <c r="E94" t="str">
-        <v>elena.green83@gmail.com</v>
+        <v>harper.sanchez76@gmail.com</v>
       </c>
       <c r="F94" t="str">
-        <v>(274) 515-8123</v>
+        <v>0411 422 972</v>
       </c>
       <c r="G94" t="str">
-        <v>San Diego</v>
+        <v>Geelong</v>
       </c>
       <c r="H94" t="str">
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="I94" t="str">
         <v>available</v>
       </c>
       <c r="J94" t="str">
-        <v>Allison Torres, Christian Rivera</v>
+        <v>Leah Scott</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>0dd7de5c-0409-45e3-84a5-5f2ffbd591d8</v>
+        <v>a3199cca-1aa6-4060-b6cd-0320712376ba</v>
       </c>
       <c r="B95" t="str">
-        <v>Harper Sanchez</v>
+        <v>Isla Wright</v>
       </c>
       <c r="C95">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="D95" t="str">
         <v>Female</v>
       </c>
       <c r="E95" t="str">
-        <v>harper.sanchez76@gmail.com</v>
+        <v>isla.wright1@yahoo.com</v>
       </c>
       <c r="F95" t="str">
-        <v>0411 422 972</v>
+        <v>(231) 918-9825</v>
       </c>
       <c r="G95" t="str">
-        <v>Geelong</v>
+        <v>Pasadena</v>
       </c>
       <c r="H95" t="str">
-        <v>C</v>
+        <v>B+</v>
       </c>
       <c r="I95" t="str">
         <v>available</v>
       </c>
       <c r="J95" t="str">
-        <v>Leah Scott</v>
+        <v>Naomi Moore, Cora Roberts</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>a3199cca-1aa6-4060-b6cd-0320712376ba</v>
+        <v>8d8070dd-3ee6-476f-aaf2-631e80f67ef7</v>
       </c>
       <c r="B96" t="str">
-        <v>Isla Wright</v>
+        <v>Lydia Allen</v>
       </c>
       <c r="C96">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D96" t="str">
         <v>Female</v>
       </c>
       <c r="E96" t="str">
-        <v>isla.wright1@yahoo.com</v>
+        <v>lydia.allen73@icloud.com</v>
       </c>
       <c r="F96" t="str">
-        <v>(231) 918-9825</v>
+        <v>(363) 934-8723</v>
       </c>
       <c r="G96" t="str">
-        <v>Pasadena</v>
+        <v>Oakland</v>
       </c>
       <c r="H96" t="str">
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="I96" t="str">
         <v>available</v>
       </c>
       <c r="J96" t="str">
-        <v>Naomi Moore, Cora Roberts</v>
+        <v>Julian Nguyen, Leah Diaz</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>8d8070dd-3ee6-476f-aaf2-631e80f67ef7</v>
+        <v>182bd5d2-7f68-4c83-b156-e80856f3b6b7</v>
       </c>
       <c r="B97" t="str">
-        <v>Lydia Allen</v>
+        <v>Mason Nelson</v>
       </c>
       <c r="C97">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="D97" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E97" t="str">
-        <v>lydia.allen73@icloud.com</v>
+        <v>mason.nelson14@hotmail.com</v>
       </c>
       <c r="F97" t="str">
-        <v>(363) 934-8723</v>
+        <v>0403 485 650</v>
       </c>
       <c r="G97" t="str">
-        <v>Oakland</v>
+        <v>Canberra</v>
       </c>
       <c r="H97" t="str">
-        <v>A</v>
+        <v>B+</v>
       </c>
       <c r="I97" t="str">
         <v>available</v>
-      </c>
-      <c r="J97" t="str">
-        <v>Julian Nguyen, Leah Diaz</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>182bd5d2-7f68-4c83-b156-e80856f3b6b7</v>
+        <v>852226e3-fccb-4228-8627-5dc42cfe4387</v>
       </c>
       <c r="B98" t="str">
-        <v>Mason Nelson</v>
+        <v>Aurora Rodriguez</v>
       </c>
       <c r="C98">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="D98" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E98" t="str">
-        <v>mason.nelson14@hotmail.com</v>
+        <v>aurora.rodriguez20@yahoo.com</v>
       </c>
       <c r="F98" t="str">
-        <v>0403 485 650</v>
+        <v>0404 720 692</v>
       </c>
       <c r="G98" t="str">
-        <v>Canberra</v>
+        <v>Hobart</v>
       </c>
       <c r="H98" t="str">
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="I98" t="str">
         <v>available</v>
+      </c>
+      <c r="J98" t="str">
+        <v>Emilia Lopez</v>
+      </c>
+      <c r="M98" t="str">
+        <v>Arthritis - prefers aisle seating for easy exit</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>852226e3-fccb-4228-8627-5dc42cfe4387</v>
+        <v>bf283832-25b8-4d7f-9e0f-ef2f10903233</v>
       </c>
       <c r="B99" t="str">
-        <v>Aurora Rodriguez</v>
+        <v>Hunter Jackson</v>
       </c>
       <c r="C99">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="D99" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E99" t="str">
-        <v>aurora.rodriguez20@yahoo.com</v>
+        <v>hunter.jackson50@outlook.com</v>
       </c>
       <c r="F99" t="str">
-        <v>0404 720 692</v>
+        <v>0404 841 788</v>
       </c>
       <c r="G99" t="str">
-        <v>Hobart</v>
+        <v>Townsville</v>
       </c>
       <c r="H99" t="str">
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="I99" t="str">
         <v>available</v>
-      </c>
-      <c r="J99" t="str">
-        <v>Emilia Lopez</v>
-      </c>
-      <c r="M99" t="str">
-        <v>Arthritis - prefers aisle seating for easy exit</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>bf283832-25b8-4d7f-9e0f-ef2f10903233</v>
+        <v>7728eead-ab7c-467f-bb41-2abd7952591a</v>
       </c>
       <c r="B100" t="str">
-        <v>Hunter Jackson</v>
+        <v>Oliver Rivera</v>
       </c>
       <c r="C100">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="D100" t="str">
         <v>Male</v>
       </c>
       <c r="E100" t="str">
-        <v>hunter.jackson50@outlook.com</v>
+        <v>oliver.rivera58@outlook.com</v>
       </c>
       <c r="F100" t="str">
-        <v>0404 841 788</v>
+        <v>0412 991 121</v>
       </c>
       <c r="G100" t="str">
-        <v>Townsville</v>
+        <v>Canberra</v>
       </c>
       <c r="H100" t="str">
         <v>C</v>
@@ -3835,28 +3823,31 @@
       <c r="I100" t="str">
         <v>available</v>
       </c>
+      <c r="M100" t="str">
+        <v>Requires wheelchair access</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>7728eead-ab7c-467f-bb41-2abd7952591a</v>
+        <v>f693d8fc-436b-426a-9bca-0b141221ab3f</v>
       </c>
       <c r="B101" t="str">
-        <v>Oliver Rivera</v>
+        <v>Evelyn Clark</v>
       </c>
       <c r="C101">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D101" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E101" t="str">
-        <v>oliver.rivera58@outlook.com</v>
+        <v>evelyn.clark47@outlook.com</v>
       </c>
       <c r="F101" t="str">
-        <v>0412 991 121</v>
+        <v>0410 941 656</v>
       </c>
       <c r="G101" t="str">
-        <v>Canberra</v>
+        <v>Hobart</v>
       </c>
       <c r="H101" t="str">
         <v>C</v>
@@ -3864,31 +3855,28 @@
       <c r="I101" t="str">
         <v>available</v>
       </c>
-      <c r="M101" t="str">
-        <v>Requires wheelchair access</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>f693d8fc-436b-426a-9bca-0b141221ab3f</v>
+        <v>97108062-7918-4f7f-a3f7-92bcbc478acd</v>
       </c>
       <c r="B102" t="str">
-        <v>Evelyn Clark</v>
+        <v>Olivia Nelson</v>
       </c>
       <c r="C102">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="D102" t="str">
         <v>Female</v>
       </c>
       <c r="E102" t="str">
-        <v>evelyn.clark47@outlook.com</v>
+        <v>olivia.nelson14@gmail.com</v>
       </c>
       <c r="F102" t="str">
-        <v>0410 941 656</v>
+        <v>(582) 644-7834</v>
       </c>
       <c r="G102" t="str">
-        <v>Hobart</v>
+        <v>Bakersfield</v>
       </c>
       <c r="H102" t="str">
         <v>C</v>
@@ -3896,159 +3884,162 @@
       <c r="I102" t="str">
         <v>available</v>
       </c>
+      <c r="J102" t="str">
+        <v>Joseph Stewart, Madelyn Martinez</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>97108062-7918-4f7f-a3f7-92bcbc478acd</v>
+        <v>1adac400-525f-40f4-8b6d-20df8ce78e9d</v>
       </c>
       <c r="B103" t="str">
-        <v>Olivia Nelson</v>
+        <v>Grace Scott</v>
       </c>
       <c r="C103">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="D103" t="str">
         <v>Female</v>
       </c>
       <c r="E103" t="str">
-        <v>olivia.nelson14@gmail.com</v>
+        <v>grace.scott40@outlook.com</v>
       </c>
       <c r="F103" t="str">
-        <v>(582) 644-7834</v>
+        <v>0401 870 853</v>
       </c>
       <c r="G103" t="str">
-        <v>Bakersfield</v>
+        <v>Ballarat</v>
       </c>
       <c r="H103" t="str">
-        <v>C</v>
+        <v>B+</v>
       </c>
       <c r="I103" t="str">
         <v>available</v>
       </c>
       <c r="J103" t="str">
-        <v>Joseph Stewart, Madelyn Martinez</v>
+        <v>Emily Moore</v>
+      </c>
+      <c r="M103" t="str">
+        <v>Hearing impaired - requires front row seating</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>1adac400-525f-40f4-8b6d-20df8ce78e9d</v>
+        <v>40c53847-674f-43b5-8678-2decb3d42133</v>
       </c>
       <c r="B104" t="str">
-        <v>Grace Scott</v>
+        <v>Eliana Green</v>
       </c>
       <c r="C104">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D104" t="str">
         <v>Female</v>
       </c>
       <c r="E104" t="str">
-        <v>grace.scott40@outlook.com</v>
+        <v>eliana.green54@gmail.com</v>
       </c>
       <c r="F104" t="str">
-        <v>0401 870 853</v>
+        <v>(894) 795-3178</v>
       </c>
       <c r="G104" t="str">
-        <v>Ballarat</v>
+        <v>Los Angeles</v>
       </c>
       <c r="H104" t="str">
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="I104" t="str">
         <v>available</v>
       </c>
       <c r="J104" t="str">
-        <v>Emily Moore</v>
-      </c>
-      <c r="M104" t="str">
-        <v>Hearing impaired - requires front row seating</v>
+        <v>Olivia Gonzalez</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>40c53847-674f-43b5-8678-2decb3d42133</v>
+        <v>94d903d4-dbc0-4052-87a8-ca32773ca839</v>
       </c>
       <c r="B105" t="str">
-        <v>Eliana Green</v>
+        <v>Hannah Jones</v>
       </c>
       <c r="C105">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D105" t="str">
         <v>Female</v>
       </c>
       <c r="E105" t="str">
-        <v>eliana.green54@gmail.com</v>
+        <v>hannah.jones85@yahoo.com</v>
       </c>
       <c r="F105" t="str">
-        <v>(894) 795-3178</v>
+        <v>(644) 877-6251</v>
       </c>
       <c r="G105" t="str">
-        <v>Los Angeles</v>
+        <v>Sacramento</v>
       </c>
       <c r="H105" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="I105" t="str">
         <v>available</v>
       </c>
       <c r="J105" t="str">
-        <v>Olivia Gonzalez</v>
+        <v>Thomas Nguyen, Henry Roberts</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>1c24b746-78a8-49cd-9c4d-3d22726dbc1b</v>
+        <v>567e589d-b232-43c2-9d30-3ff1e359f372</v>
       </c>
       <c r="B106" t="str">
-        <v>Eleanor Hall</v>
+        <v>Hazel Mitchell</v>
       </c>
       <c r="C106">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="D106" t="str">
         <v>Female</v>
       </c>
       <c r="E106" t="str">
-        <v>eleanor.hall7@yahoo.com</v>
+        <v>hazel.mitchell91@gmail.com</v>
       </c>
       <c r="F106" t="str">
-        <v>(627) 443-5972</v>
+        <v>0400 683 761</v>
       </c>
       <c r="G106" t="str">
-        <v>Stockton</v>
+        <v>Perth</v>
       </c>
       <c r="H106" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="I106" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
       <c r="J106" t="str">
-        <v>Michael Campbell, Sadie Williams</v>
+        <v>Caroline Taylor</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>94d903d4-dbc0-4052-87a8-ca32773ca839</v>
+        <v>076ad666-a34b-4ae1-b91f-de785dbdf5ec</v>
       </c>
       <c r="B107" t="str">
-        <v>Hannah Jones</v>
+        <v>Nora Rogers</v>
       </c>
       <c r="C107">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D107" t="str">
         <v>Female</v>
       </c>
       <c r="E107" t="str">
-        <v>hannah.jones85@yahoo.com</v>
+        <v>nora.rogers98@yahoo.com</v>
       </c>
       <c r="F107" t="str">
-        <v>(644) 877-6251</v>
+        <v>(704) 607-6893</v>
       </c>
       <c r="G107" t="str">
-        <v>Sacramento</v>
+        <v>Riverside</v>
       </c>
       <c r="H107" t="str">
         <v>B</v>
@@ -4056,92 +4047,92 @@
       <c r="I107" t="str">
         <v>available</v>
       </c>
-      <c r="J107" t="str">
-        <v>Thomas Nguyen, Henry Roberts</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>567e589d-b232-43c2-9d30-3ff1e359f372</v>
+        <v>17e4dd39-8810-472c-b1a9-52382fbe0c79</v>
       </c>
       <c r="B108" t="str">
-        <v>Hazel Mitchell</v>
+        <v>Allison Torres</v>
       </c>
       <c r="C108">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D108" t="str">
         <v>Female</v>
       </c>
       <c r="E108" t="str">
-        <v>hazel.mitchell91@gmail.com</v>
+        <v>allison.torres94@gmail.com</v>
       </c>
       <c r="F108" t="str">
-        <v>0400 683 761</v>
+        <v>(858) 153-7242</v>
       </c>
       <c r="G108" t="str">
-        <v>Perth</v>
+        <v>Fremont</v>
       </c>
       <c r="H108" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="I108" t="str">
         <v>available</v>
       </c>
       <c r="J108" t="str">
-        <v>Caroline Taylor</v>
+        <v>Christian Rivera, Elena Green</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>076ad666-a34b-4ae1-b91f-de785dbdf5ec</v>
+        <v>d4340206-46f8-4128-a64d-b1a7ca7bbdb5</v>
       </c>
       <c r="B109" t="str">
-        <v>Nora Rogers</v>
+        <v>Serenity Campbell</v>
       </c>
       <c r="C109">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D109" t="str">
         <v>Female</v>
       </c>
       <c r="E109" t="str">
-        <v>nora.rogers98@yahoo.com</v>
+        <v>serenity.campbell1@yahoo.com</v>
       </c>
       <c r="F109" t="str">
-        <v>(704) 607-6893</v>
+        <v>(479) 565-5966</v>
       </c>
       <c r="G109" t="str">
-        <v>Riverside</v>
+        <v>Irvine</v>
       </c>
       <c r="H109" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I109" t="str">
         <v>available</v>
+      </c>
+      <c r="J109" t="str">
+        <v>Jackson Jackson, Isaiah Green</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>17e4dd39-8810-472c-b1a9-52382fbe0c79</v>
+        <v>bb7daa74-0f25-4289-9b11-4b838ebf5986</v>
       </c>
       <c r="B110" t="str">
-        <v>Allison Torres</v>
+        <v>Emma Torres</v>
       </c>
       <c r="C110">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D110" t="str">
         <v>Female</v>
       </c>
       <c r="E110" t="str">
-        <v>allison.torres94@gmail.com</v>
+        <v>emma.torres53@outlook.com</v>
       </c>
       <c r="F110" t="str">
-        <v>(858) 153-7242</v>
+        <v>(809) 313-7642</v>
       </c>
       <c r="G110" t="str">
-        <v>Fremont</v>
+        <v>Bakersfield</v>
       </c>
       <c r="H110" t="str">
         <v>B</v>
@@ -4150,97 +4141,91 @@
         <v>available</v>
       </c>
       <c r="J110" t="str">
-        <v>Christian Rivera, Elena Green</v>
+        <v>Ellie Allen, Charlotte Hernandez</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>d4340206-46f8-4128-a64d-b1a7ca7bbdb5</v>
+        <v>700fc657-988b-4d49-9814-25b1df35cefc</v>
       </c>
       <c r="B111" t="str">
-        <v>Serenity Campbell</v>
+        <v>Victoria Thompson</v>
       </c>
       <c r="C111">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D111" t="str">
         <v>Female</v>
       </c>
       <c r="E111" t="str">
-        <v>serenity.campbell1@yahoo.com</v>
+        <v>victoria.thompson68@yahoo.com</v>
       </c>
       <c r="F111" t="str">
-        <v>(479) 565-5966</v>
+        <v>(793) 601-6884</v>
       </c>
       <c r="G111" t="str">
-        <v>Irvine</v>
+        <v>San Jose</v>
       </c>
       <c r="H111" t="str">
-        <v>B+</v>
+        <v>C</v>
       </c>
       <c r="I111" t="str">
         <v>available</v>
-      </c>
-      <c r="J111" t="str">
-        <v>Jackson Jackson, Isaiah Green</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>bb7daa74-0f25-4289-9b11-4b838ebf5986</v>
+        <v>af09efbe-e83d-4046-8dc8-e6a06dfc0c40</v>
       </c>
       <c r="B112" t="str">
-        <v>Emma Torres</v>
+        <v>Paisley Evans</v>
       </c>
       <c r="C112">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D112" t="str">
         <v>Female</v>
       </c>
       <c r="E112" t="str">
-        <v>emma.torres53@outlook.com</v>
+        <v>paisley.evans52@yahoo.com</v>
       </c>
       <c r="F112" t="str">
-        <v>(809) 313-7642</v>
+        <v>(894) 250-9501</v>
       </c>
       <c r="G112" t="str">
-        <v>Bakersfield</v>
+        <v>Torrance</v>
       </c>
       <c r="H112" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I112" t="str">
         <v>available</v>
-      </c>
-      <c r="J112" t="str">
-        <v>Ellie Allen, Charlotte Hernandez</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>700fc657-988b-4d49-9814-25b1df35cefc</v>
+        <v>fec80989-ab0f-471a-a4de-6c207e334f80</v>
       </c>
       <c r="B113" t="str">
-        <v>Victoria Thompson</v>
+        <v>Eliza Rivera</v>
       </c>
       <c r="C113">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D113" t="str">
         <v>Female</v>
       </c>
       <c r="E113" t="str">
-        <v>victoria.thompson68@yahoo.com</v>
+        <v>eliza.rivera29@yahoo.com</v>
       </c>
       <c r="F113" t="str">
-        <v>(793) 601-6884</v>
+        <v>(836) 154-6362</v>
       </c>
       <c r="G113" t="str">
-        <v>San Jose</v>
+        <v>Newport Beach</v>
       </c>
       <c r="H113" t="str">
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="I113" t="str">
         <v>available</v>
@@ -4248,57 +4233,63 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>af09efbe-e83d-4046-8dc8-e6a06dfc0c40</v>
+        <v>f6a281bb-caec-44cf-a596-a6e92d6e2610</v>
       </c>
       <c r="B114" t="str">
-        <v>Paisley Evans</v>
+        <v>Leah Scott</v>
       </c>
       <c r="C114">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="D114" t="str">
         <v>Female</v>
       </c>
       <c r="E114" t="str">
-        <v>paisley.evans52@yahoo.com</v>
+        <v>leah.scott74@gmail.com</v>
       </c>
       <c r="F114" t="str">
-        <v>(894) 250-9501</v>
+        <v>0402 414 358</v>
       </c>
       <c r="G114" t="str">
-        <v>Torrance</v>
+        <v>Perth</v>
       </c>
       <c r="H114" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I114" t="str">
         <v>available</v>
+      </c>
+      <c r="J114" t="str">
+        <v>Harper Sanchez</v>
+      </c>
+      <c r="M114" t="str">
+        <v>Limited mobility - prefers ground floor seating</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>fec80989-ab0f-471a-a4de-6c207e334f80</v>
+        <v>04993d9a-3a65-4d61-a0c8-591aabb2e72c</v>
       </c>
       <c r="B115" t="str">
-        <v>Eliza Rivera</v>
+        <v>Eliza Martinez</v>
       </c>
       <c r="C115">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D115" t="str">
         <v>Female</v>
       </c>
       <c r="E115" t="str">
-        <v>eliza.rivera29@yahoo.com</v>
+        <v>eliza.martinez8@hotmail.com</v>
       </c>
       <c r="F115" t="str">
-        <v>(836) 154-6362</v>
+        <v>(881) 895-2168</v>
       </c>
       <c r="G115" t="str">
-        <v>Newport Beach</v>
+        <v>Torrance</v>
       </c>
       <c r="H115" t="str">
-        <v>A</v>
+        <v>B+</v>
       </c>
       <c r="I115" t="str">
         <v>available</v>
@@ -4306,63 +4297,60 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>f6a281bb-caec-44cf-a596-a6e92d6e2610</v>
+        <v>bf1fc0b1-7d88-41a5-ab6f-ee4c085fd344</v>
       </c>
       <c r="B116" t="str">
-        <v>Leah Scott</v>
+        <v>Brooklyn Nguyen</v>
       </c>
       <c r="C116">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="D116" t="str">
         <v>Female</v>
       </c>
       <c r="E116" t="str">
-        <v>leah.scott74@gmail.com</v>
+        <v>brooklyn.nguyen77@yahoo.com</v>
       </c>
       <c r="F116" t="str">
-        <v>0402 414 358</v>
+        <v>(142) 872-1855</v>
       </c>
       <c r="G116" t="str">
-        <v>Perth</v>
+        <v>Los Angeles</v>
       </c>
       <c r="H116" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="I116" t="str">
         <v>available</v>
       </c>
       <c r="J116" t="str">
-        <v>Harper Sanchez</v>
-      </c>
-      <c r="M116" t="str">
-        <v>Limited mobility - prefers ground floor seating</v>
+        <v>Naomi Brown</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>04993d9a-3a65-4d61-a0c8-591aabb2e72c</v>
+        <v>0fa47948-ca05-48a1-917a-bce2c13237ed</v>
       </c>
       <c r="B117" t="str">
-        <v>Eliza Martinez</v>
+        <v>Isabella Taylor</v>
       </c>
       <c r="C117">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D117" t="str">
         <v>Female</v>
       </c>
       <c r="E117" t="str">
-        <v>eliza.martinez8@hotmail.com</v>
+        <v>isabella.taylor65@yahoo.com</v>
       </c>
       <c r="F117" t="str">
-        <v>(881) 895-2168</v>
+        <v>(997) 957-4171</v>
       </c>
       <c r="G117" t="str">
-        <v>Torrance</v>
+        <v>Chula Vista</v>
       </c>
       <c r="H117" t="str">
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="I117" t="str">
         <v>available</v>
@@ -4370,304 +4358,307 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>bf1fc0b1-7d88-41a5-ab6f-ee4c085fd344</v>
+        <v>24928131-51b3-46f8-b43f-2cf989696f62</v>
       </c>
       <c r="B118" t="str">
-        <v>Brooklyn Nguyen</v>
+        <v>Amelia Garcia</v>
       </c>
       <c r="C118">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D118" t="str">
         <v>Female</v>
       </c>
       <c r="E118" t="str">
-        <v>brooklyn.nguyen77@yahoo.com</v>
+        <v>amelia.garcia16@gmail.com</v>
       </c>
       <c r="F118" t="str">
-        <v>(142) 872-1855</v>
+        <v>(331) 367-3904</v>
       </c>
       <c r="G118" t="str">
-        <v>Los Angeles</v>
+        <v>Anaheim</v>
       </c>
       <c r="H118" t="str">
-        <v>A</v>
+        <v>B+</v>
       </c>
       <c r="I118" t="str">
         <v>available</v>
-      </c>
-      <c r="J118" t="str">
-        <v>Naomi Brown</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>0fa47948-ca05-48a1-917a-bce2c13237ed</v>
+        <v>50b098db-86f4-4a21-8425-ab03df8f7a40</v>
       </c>
       <c r="B119" t="str">
-        <v>Isabella Taylor</v>
+        <v>Lillian Campbell</v>
       </c>
       <c r="C119">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D119" t="str">
         <v>Female</v>
       </c>
       <c r="E119" t="str">
-        <v>isabella.taylor65@yahoo.com</v>
+        <v>lillian.campbell41@yahoo.com</v>
       </c>
       <c r="F119" t="str">
-        <v>(997) 957-4171</v>
+        <v>(945) 213-8284</v>
       </c>
       <c r="G119" t="str">
-        <v>Chula Vista</v>
+        <v>Pasadena</v>
       </c>
       <c r="H119" t="str">
-        <v>A</v>
+        <v>A+</v>
       </c>
       <c r="I119" t="str">
         <v>available</v>
+      </c>
+      <c r="J119" t="str">
+        <v>Amelia Lopez</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>24928131-51b3-46f8-b43f-2cf989696f62</v>
+        <v>e9a3f4c7-c9ed-4fd1-a5a9-d3763ae52a55</v>
       </c>
       <c r="B120" t="str">
-        <v>Amelia Garcia</v>
+        <v>Victoria Anderson</v>
       </c>
       <c r="C120">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D120" t="str">
         <v>Female</v>
       </c>
       <c r="E120" t="str">
-        <v>amelia.garcia16@gmail.com</v>
+        <v>victoria.anderson1@outlook.com</v>
       </c>
       <c r="F120" t="str">
-        <v>(331) 367-3904</v>
+        <v>(622) 987-4829</v>
       </c>
       <c r="G120" t="str">
-        <v>Anaheim</v>
+        <v>Sacramento</v>
       </c>
       <c r="H120" t="str">
-        <v>B+</v>
+        <v>A+</v>
       </c>
       <c r="I120" t="str">
         <v>available</v>
+      </c>
+      <c r="J120" t="str">
+        <v>Sophia Reyes</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>50b098db-86f4-4a21-8425-ab03df8f7a40</v>
+        <v>9f873871-29cc-45f0-894c-c54745230689</v>
       </c>
       <c r="B121" t="str">
-        <v>Lillian Campbell</v>
+        <v>Sadie Wright</v>
       </c>
       <c r="C121">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D121" t="str">
         <v>Female</v>
       </c>
       <c r="E121" t="str">
-        <v>lillian.campbell41@yahoo.com</v>
+        <v>sadie.wright75@hotmail.com</v>
       </c>
       <c r="F121" t="str">
-        <v>(945) 213-8284</v>
+        <v>(617) 145-9784</v>
       </c>
       <c r="G121" t="str">
-        <v>Pasadena</v>
+        <v>Anaheim</v>
       </c>
       <c r="H121" t="str">
-        <v>A+</v>
+        <v>C</v>
       </c>
       <c r="I121" t="str">
         <v>available</v>
-      </c>
-      <c r="J121" t="str">
-        <v>Amelia Lopez</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>e9a3f4c7-c9ed-4fd1-a5a9-d3763ae52a55</v>
+        <v>0d8894f6-9a60-421c-a7c0-144fe2f8c85f</v>
       </c>
       <c r="B122" t="str">
-        <v>Victoria Anderson</v>
+        <v>Lydia Morris</v>
       </c>
       <c r="C122">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D122" t="str">
         <v>Female</v>
       </c>
       <c r="E122" t="str">
-        <v>victoria.anderson1@outlook.com</v>
+        <v>lydia.morris1@gmail.com</v>
       </c>
       <c r="F122" t="str">
-        <v>(622) 987-4829</v>
+        <v>(565) 806-3217</v>
       </c>
       <c r="G122" t="str">
-        <v>Sacramento</v>
+        <v>Burbank</v>
       </c>
       <c r="H122" t="str">
-        <v>A+</v>
+        <v>A</v>
       </c>
       <c r="I122" t="str">
         <v>available</v>
       </c>
       <c r="J122" t="str">
-        <v>Sophia Reyes</v>
+        <v>Logan Gomez</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>9f873871-29cc-45f0-894c-c54745230689</v>
+        <v>3dcd887e-9357-49a1-be20-96ba912e33bf</v>
       </c>
       <c r="B123" t="str">
-        <v>Sadie Wright</v>
+        <v>Cora Mitchell</v>
       </c>
       <c r="C123">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D123" t="str">
         <v>Female</v>
       </c>
       <c r="E123" t="str">
-        <v>sadie.wright75@hotmail.com</v>
+        <v>cora.mitchell80@icloud.com</v>
       </c>
       <c r="F123" t="str">
-        <v>(617) 145-9784</v>
+        <v>(929) 139-3875</v>
       </c>
       <c r="G123" t="str">
-        <v>Anaheim</v>
+        <v>Newport Beach</v>
       </c>
       <c r="H123" t="str">
-        <v>C</v>
+        <v>B+</v>
       </c>
       <c r="I123" t="str">
         <v>available</v>
+      </c>
+      <c r="J123" t="str">
+        <v>Christopher Carter</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>0d8894f6-9a60-421c-a7c0-144fe2f8c85f</v>
+        <v>5addacf0-a31c-4412-982a-3f0d8f1c6d07</v>
       </c>
       <c r="B124" t="str">
-        <v>Lydia Morris</v>
+        <v>Layla Lopez</v>
       </c>
       <c r="C124">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D124" t="str">
         <v>Female</v>
       </c>
       <c r="E124" t="str">
-        <v>lydia.morris1@gmail.com</v>
+        <v>layla.lopez23@yahoo.com</v>
       </c>
       <c r="F124" t="str">
-        <v>(565) 806-3217</v>
+        <v>(607) 496-6102</v>
       </c>
       <c r="G124" t="str">
-        <v>Burbank</v>
+        <v>Los Angeles</v>
       </c>
       <c r="H124" t="str">
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="I124" t="str">
         <v>available</v>
       </c>
       <c r="J124" t="str">
-        <v>Logan Gomez</v>
+        <v>Cora Lee</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>3dcd887e-9357-49a1-be20-96ba912e33bf</v>
+        <v>1c24b746-78a8-49cd-9c4d-3d22726dbc1b</v>
       </c>
       <c r="B125" t="str">
-        <v>Cora Mitchell</v>
+        <v>Eleanor Hall</v>
       </c>
       <c r="C125">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D125" t="str">
         <v>Female</v>
       </c>
       <c r="E125" t="str">
-        <v>cora.mitchell80@icloud.com</v>
+        <v>eleanor.hall7@yahoo.com</v>
       </c>
       <c r="F125" t="str">
-        <v>(929) 139-3875</v>
+        <v>(627) 443-5972</v>
       </c>
       <c r="G125" t="str">
-        <v>Newport Beach</v>
+        <v>Stockton</v>
       </c>
       <c r="H125" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I125" t="str">
         <v>available</v>
       </c>
       <c r="J125" t="str">
-        <v>Christopher Carter</v>
+        <v>Michael Campbell, Sadie Williams</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>5addacf0-a31c-4412-982a-3f0d8f1c6d07</v>
+        <v>e7129d06-9fe4-44dd-afce-e4faeebfe1a9</v>
       </c>
       <c r="B126" t="str">
-        <v>Layla Lopez</v>
+        <v>Piper Green</v>
       </c>
       <c r="C126">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D126" t="str">
         <v>Female</v>
       </c>
       <c r="E126" t="str">
-        <v>layla.lopez23@yahoo.com</v>
+        <v>piper.green82@hotmail.com</v>
       </c>
       <c r="F126" t="str">
-        <v>(607) 496-6102</v>
+        <v>(678) 816-2263</v>
       </c>
       <c r="G126" t="str">
-        <v>Los Angeles</v>
+        <v>Burbank</v>
       </c>
       <c r="H126" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I126" t="str">
         <v>available</v>
       </c>
       <c r="J126" t="str">
-        <v>Cora Lee</v>
+        <v>Josiah Brown</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>e7129d06-9fe4-44dd-afce-e4faeebfe1a9</v>
+        <v>4e28a208-5278-410d-b375-d9c77ba144d7</v>
       </c>
       <c r="B127" t="str">
-        <v>Piper Green</v>
+        <v>Riley Scott</v>
       </c>
       <c r="C127">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D127" t="str">
         <v>Female</v>
       </c>
       <c r="E127" t="str">
-        <v>piper.green82@hotmail.com</v>
+        <v>riley.scott58@hotmail.com</v>
       </c>
       <c r="F127" t="str">
-        <v>(678) 816-2263</v>
+        <v>(848) 718-3465</v>
       </c>
       <c r="G127" t="str">
-        <v>Burbank</v>
+        <v>San Francisco</v>
       </c>
       <c r="H127" t="str">
         <v>B</v>
@@ -4675,60 +4666,60 @@
       <c r="I127" t="str">
         <v>available</v>
       </c>
-      <c r="J127" t="str">
-        <v>Josiah Brown</v>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>4e28a208-5278-410d-b375-d9c77ba144d7</v>
+        <v>b498fd02-c816-4b07-976f-1100495bf38b</v>
       </c>
       <c r="B128" t="str">
-        <v>Riley Scott</v>
+        <v>Valentina Morales</v>
       </c>
       <c r="C128">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D128" t="str">
         <v>Female</v>
       </c>
       <c r="E128" t="str">
-        <v>riley.scott58@hotmail.com</v>
+        <v>valentina.morales27@icloud.com</v>
       </c>
       <c r="F128" t="str">
-        <v>(848) 718-3465</v>
+        <v>(896) 204-3978</v>
       </c>
       <c r="G128" t="str">
-        <v>San Francisco</v>
+        <v>San Jose</v>
       </c>
       <c r="H128" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I128" t="str">
         <v>available</v>
+      </c>
+      <c r="J128" t="str">
+        <v>Adam Hall, Grayson Morgan</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>b498fd02-c816-4b07-976f-1100495bf38b</v>
+        <v>ca152dfe-8ddb-45c8-b084-8a5c9e6dacfa</v>
       </c>
       <c r="B129" t="str">
-        <v>Valentina Morales</v>
+        <v>Ryan Lewis</v>
       </c>
       <c r="C129">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D129" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E129" t="str">
-        <v>valentina.morales27@icloud.com</v>
+        <v>ryan.lewis85@yahoo.com</v>
       </c>
       <c r="F129" t="str">
-        <v>(896) 204-3978</v>
+        <v>0400 187 811</v>
       </c>
       <c r="G129" t="str">
-        <v>San Jose</v>
+        <v>Canberra</v>
       </c>
       <c r="H129" t="str">
         <v>B+</v>
@@ -4736,31 +4727,28 @@
       <c r="I129" t="str">
         <v>available</v>
       </c>
-      <c r="J129" t="str">
-        <v>Adam Hall, Grayson Morgan</v>
-      </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>ca152dfe-8ddb-45c8-b084-8a5c9e6dacfa</v>
+        <v>a8f50ac0-29e0-4209-a524-83ca7878b0ca</v>
       </c>
       <c r="B130" t="str">
-        <v>Ryan Lewis</v>
+        <v>Avery Taylor</v>
       </c>
       <c r="C130">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D130" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E130" t="str">
-        <v>ryan.lewis85@yahoo.com</v>
+        <v>avery.taylor87@outlook.com</v>
       </c>
       <c r="F130" t="str">
-        <v>0400 187 811</v>
+        <v>(299) 491-7680</v>
       </c>
       <c r="G130" t="str">
-        <v>Canberra</v>
+        <v>Los Angeles</v>
       </c>
       <c r="H130" t="str">
         <v>B+</v>
@@ -4768,28 +4756,31 @@
       <c r="I130" t="str">
         <v>available</v>
       </c>
+      <c r="J130" t="str">
+        <v>Audrey Hill</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>a8f50ac0-29e0-4209-a524-83ca7878b0ca</v>
+        <v>443fcd0e-727d-4035-ab6a-c3df01515271</v>
       </c>
       <c r="B131" t="str">
-        <v>Avery Taylor</v>
+        <v>Lydia Torres</v>
       </c>
       <c r="C131">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D131" t="str">
         <v>Female</v>
       </c>
       <c r="E131" t="str">
-        <v>avery.taylor87@outlook.com</v>
+        <v>lydia.torres72@yahoo.com</v>
       </c>
       <c r="F131" t="str">
-        <v>(299) 491-7680</v>
+        <v>(828) 773-4386</v>
       </c>
       <c r="G131" t="str">
-        <v>Los Angeles</v>
+        <v>Anaheim</v>
       </c>
       <c r="H131" t="str">
         <v>B+</v>
@@ -4798,62 +4789,62 @@
         <v>available</v>
       </c>
       <c r="J131" t="str">
-        <v>Audrey Hill</v>
+        <v>Avery Cruz, Mia Anderson</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>443fcd0e-727d-4035-ab6a-c3df01515271</v>
+        <v>410dbe34-810b-4a5d-8731-985738541b4b</v>
       </c>
       <c r="B132" t="str">
-        <v>Lydia Torres</v>
+        <v>Penelope Williams</v>
       </c>
       <c r="C132">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D132" t="str">
         <v>Female</v>
       </c>
       <c r="E132" t="str">
-        <v>lydia.torres72@yahoo.com</v>
+        <v>penelope.williams29@hotmail.com</v>
       </c>
       <c r="F132" t="str">
-        <v>(828) 773-4386</v>
+        <v>(735) 691-4267</v>
       </c>
       <c r="G132" t="str">
-        <v>Anaheim</v>
+        <v>Sacramento</v>
       </c>
       <c r="H132" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I132" t="str">
         <v>available</v>
       </c>
       <c r="J132" t="str">
-        <v>Avery Cruz, Mia Anderson</v>
+        <v>Savannah Rivera</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>410dbe34-810b-4a5d-8731-985738541b4b</v>
+        <v>39b7a0a4-be8b-49f1-a5af-c5a105e0ab58</v>
       </c>
       <c r="B133" t="str">
-        <v>Penelope Williams</v>
+        <v>Joshua Carter</v>
       </c>
       <c r="C133">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D133" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E133" t="str">
-        <v>penelope.williams29@hotmail.com</v>
+        <v>joshua.carter41@hotmail.com</v>
       </c>
       <c r="F133" t="str">
-        <v>(735) 691-4267</v>
+        <v>0404 538 442</v>
       </c>
       <c r="G133" t="str">
-        <v>Sacramento</v>
+        <v>Wollongong</v>
       </c>
       <c r="H133" t="str">
         <v>B</v>
@@ -4861,31 +4852,28 @@
       <c r="I133" t="str">
         <v>available</v>
       </c>
-      <c r="J133" t="str">
-        <v>Savannah Rivera</v>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>39b7a0a4-be8b-49f1-a5af-c5a105e0ab58</v>
+        <v>ef94ff15-5215-4ecd-9ad1-9ac44fd0e56a</v>
       </c>
       <c r="B134" t="str">
-        <v>Joshua Carter</v>
+        <v>Luke Flores</v>
       </c>
       <c r="C134">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D134" t="str">
         <v>Male</v>
       </c>
       <c r="E134" t="str">
-        <v>joshua.carter41@hotmail.com</v>
+        <v>luke.flores39@hotmail.com</v>
       </c>
       <c r="F134" t="str">
-        <v>0404 538 442</v>
+        <v>0403 225 544</v>
       </c>
       <c r="G134" t="str">
-        <v>Wollongong</v>
+        <v>Melbourne</v>
       </c>
       <c r="H134" t="str">
         <v>B</v>
@@ -4896,130 +4884,130 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>ef94ff15-5215-4ecd-9ad1-9ac44fd0e56a</v>
+        <v>a614b69c-4f6c-49fa-a490-24d7e4a60da9</v>
       </c>
       <c r="B135" t="str">
-        <v>Luke Flores</v>
+        <v>Nora Lee</v>
       </c>
       <c r="C135">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D135" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E135" t="str">
-        <v>luke.flores39@hotmail.com</v>
+        <v>nora.lee56@hotmail.com</v>
       </c>
       <c r="F135" t="str">
-        <v>0403 225 544</v>
+        <v>(171) 825-3697</v>
       </c>
       <c r="G135" t="str">
-        <v>Melbourne</v>
+        <v>Pasadena</v>
       </c>
       <c r="H135" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="I135" t="str">
         <v>available</v>
+      </c>
+      <c r="J135" t="str">
+        <v>Ella Gutierrez</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>a614b69c-4f6c-49fa-a490-24d7e4a60da9</v>
+        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
       </c>
       <c r="B136" t="str">
-        <v>Nora Lee</v>
+        <v>Kathleen Reynolds</v>
       </c>
       <c r="C136">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="D136" t="str">
-        <v>Female</v>
+        <v>Not Specified</v>
       </c>
       <c r="E136" t="str">
-        <v>nora.lee56@hotmail.com</v>
+        <v>kathleenmonicareynolds@gmail.com</v>
       </c>
       <c r="F136" t="str">
-        <v>(171) 825-3697</v>
+        <v>498086080</v>
       </c>
       <c r="G136" t="str">
-        <v>Pasadena</v>
+        <v>Footscray</v>
       </c>
       <c r="H136" t="str">
-        <v>A</v>
+        <v/>
       </c>
       <c r="I136" t="str">
         <v>available</v>
       </c>
       <c r="J136" t="str">
-        <v>Ella Gutierrez</v>
+        <v>Peter Adamidis, Felicity Parker-Hill</v>
+      </c>
+      <c r="K136" t="str">
+        <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
+      </c>
+      <c r="L136" t="str">
+        <v>N</v>
+      </c>
+      <c r="M136" t="str">
+        <v>N/A</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
+        <v>df6c0d97-fd38-4b65-8765-b11a4939bd3b</v>
       </c>
       <c r="B137" t="str">
-        <v>Kathleen Reynolds</v>
+        <v>Julian Rivera</v>
       </c>
       <c r="C137">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D137" t="str">
-        <v>Not Specified</v>
+        <v>Male</v>
       </c>
       <c r="E137" t="str">
-        <v>kathleenmonicareynolds@gmail.com</v>
+        <v>julian.rivera31@outlook.com</v>
       </c>
       <c r="F137" t="str">
-        <v>498086080</v>
+        <v>0401 414 502</v>
       </c>
       <c r="G137" t="str">
-        <v>Footscray</v>
+        <v>Perth</v>
       </c>
       <c r="H137" t="str">
-        <v/>
+        <v>B+</v>
       </c>
       <c r="I137" t="str">
-        <v>assigned</v>
-      </c>
-      <c r="J137" t="str">
-        <v>Peter Adamidis, Felicity Parker-Hill</v>
-      </c>
-      <c r="K137" t="str">
-        <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
-      </c>
-      <c r="L137" t="str">
-        <v>N</v>
-      </c>
-      <c r="M137" t="str">
-        <v>N/A</v>
+        <v>available</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>df6c0d97-fd38-4b65-8765-b11a4939bd3b</v>
+        <v>2811bf99-369b-4c0a-b5d6-4ff46cd7aa5e</v>
       </c>
       <c r="B138" t="str">
-        <v>Julian Rivera</v>
+        <v>Lucas Thomas</v>
       </c>
       <c r="C138">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D138" t="str">
         <v>Male</v>
       </c>
       <c r="E138" t="str">
-        <v>julian.rivera31@outlook.com</v>
+        <v>lucas.thomas30@yahoo.com</v>
       </c>
       <c r="F138" t="str">
-        <v>0401 414 502</v>
+        <v>0412 527 117</v>
       </c>
       <c r="G138" t="str">
-        <v>Perth</v>
+        <v>Brisbane</v>
       </c>
       <c r="H138" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I138" t="str">
         <v>available</v>
@@ -5027,28 +5015,28 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>2811bf99-369b-4c0a-b5d6-4ff46cd7aa5e</v>
+        <v>8774a9f4-b951-41cc-b6bd-809a709cb6ea</v>
       </c>
       <c r="B139" t="str">
-        <v>Lucas Thomas</v>
+        <v>Lily Walker</v>
       </c>
       <c r="C139">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="D139" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E139" t="str">
-        <v>lucas.thomas30@yahoo.com</v>
+        <v>lily.walker96@outlook.com</v>
       </c>
       <c r="F139" t="str">
-        <v>0412 527 117</v>
+        <v>0410 155 426</v>
       </c>
       <c r="G139" t="str">
-        <v>Brisbane</v>
+        <v>Hobart</v>
       </c>
       <c r="H139" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I139" t="str">
         <v>available</v>
@@ -5056,22 +5044,22 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>8774a9f4-b951-41cc-b6bd-809a709cb6ea</v>
+        <v>e166fd4f-73eb-4bea-b8be-3acdee4f9fdc</v>
       </c>
       <c r="B140" t="str">
-        <v>Lily Walker</v>
+        <v>Liam Lewis</v>
       </c>
       <c r="C140">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="D140" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E140" t="str">
-        <v>lily.walker96@outlook.com</v>
+        <v>liam.lewis79@yahoo.com</v>
       </c>
       <c r="F140" t="str">
-        <v>0410 155 426</v>
+        <v>0404 203 198</v>
       </c>
       <c r="G140" t="str">
         <v>Hobart</v>
@@ -5085,28 +5073,28 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>e166fd4f-73eb-4bea-b8be-3acdee4f9fdc</v>
+        <v>a8fa9125-28f1-47e1-adba-784701975e68</v>
       </c>
       <c r="B141" t="str">
-        <v>Liam Lewis</v>
+        <v>Abigail Williams</v>
       </c>
       <c r="C141">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="D141" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E141" t="str">
-        <v>liam.lewis79@yahoo.com</v>
+        <v>abigail.williams45@yahoo.com</v>
       </c>
       <c r="F141" t="str">
-        <v>0404 203 198</v>
+        <v>0403 497 445</v>
       </c>
       <c r="G141" t="str">
-        <v>Hobart</v>
+        <v>Toowoomba</v>
       </c>
       <c r="H141" t="str">
-        <v>B+</v>
+        <v>C</v>
       </c>
       <c r="I141" t="str">
         <v>available</v>
@@ -5114,25 +5102,25 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>a8fa9125-28f1-47e1-adba-784701975e68</v>
+        <v>e15c67b6-0680-4284-a8aa-a525b34c592d</v>
       </c>
       <c r="B142" t="str">
-        <v>Abigail Williams</v>
+        <v>Aurora Williams</v>
       </c>
       <c r="C142">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="D142" t="str">
         <v>Female</v>
       </c>
       <c r="E142" t="str">
-        <v>abigail.williams45@yahoo.com</v>
+        <v>aurora.williams76@outlook.com</v>
       </c>
       <c r="F142" t="str">
-        <v>0403 497 445</v>
+        <v>0401 416 170</v>
       </c>
       <c r="G142" t="str">
-        <v>Toowoomba</v>
+        <v>Darwin</v>
       </c>
       <c r="H142" t="str">
         <v>C</v>
@@ -5140,60 +5128,60 @@
       <c r="I142" t="str">
         <v>available</v>
       </c>
+      <c r="M142" t="str">
+        <v>Uses walking cane</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>e15c67b6-0680-4284-a8aa-a525b34c592d</v>
+        <v>7664257a-dce4-407a-8f24-692043d568be</v>
       </c>
       <c r="B143" t="str">
-        <v>Aurora Williams</v>
+        <v>Nora Jackson</v>
       </c>
       <c r="C143">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="D143" t="str">
         <v>Female</v>
       </c>
       <c r="E143" t="str">
-        <v>aurora.williams76@outlook.com</v>
+        <v>nora.jackson83@hotmail.com</v>
       </c>
       <c r="F143" t="str">
-        <v>0401 416 170</v>
+        <v>0404 434 899</v>
       </c>
       <c r="G143" t="str">
-        <v>Darwin</v>
+        <v>Wollongong</v>
       </c>
       <c r="H143" t="str">
-        <v>C</v>
+        <v>B+</v>
       </c>
       <c r="I143" t="str">
         <v>available</v>
-      </c>
-      <c r="M143" t="str">
-        <v>Uses walking cane</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>7664257a-dce4-407a-8f24-692043d568be</v>
+        <v>f9d68052-4310-45c2-a5a9-64c272347899</v>
       </c>
       <c r="B144" t="str">
-        <v>Nora Jackson</v>
+        <v>Christian Rivera</v>
       </c>
       <c r="C144">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D144" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E144" t="str">
-        <v>nora.jackson83@hotmail.com</v>
+        <v>christian.rivera86@hotmail.com</v>
       </c>
       <c r="F144" t="str">
-        <v>0404 434 899</v>
+        <v>0400 135 743</v>
       </c>
       <c r="G144" t="str">
-        <v>Wollongong</v>
+        <v>Adelaide</v>
       </c>
       <c r="H144" t="str">
         <v>B+</v>
@@ -5204,25 +5192,25 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>f9d68052-4310-45c2-a5a9-64c272347899</v>
+        <v>8956e289-91e9-4c15-bf2b-a13dee2fa476</v>
       </c>
       <c r="B145" t="str">
-        <v>Christian Rivera</v>
+        <v>Landon Wright</v>
       </c>
       <c r="C145">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="D145" t="str">
         <v>Male</v>
       </c>
       <c r="E145" t="str">
-        <v>christian.rivera86@hotmail.com</v>
+        <v>landon.wright36@outlook.com</v>
       </c>
       <c r="F145" t="str">
-        <v>0400 135 743</v>
+        <v>0402 415 597</v>
       </c>
       <c r="G145" t="str">
-        <v>Adelaide</v>
+        <v>Cairns</v>
       </c>
       <c r="H145" t="str">
         <v>B+</v>
@@ -5233,54 +5221,57 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>8956e289-91e9-4c15-bf2b-a13dee2fa476</v>
+        <v>81759c6b-da11-4c0e-9e96-92aa20964b06</v>
       </c>
       <c r="B146" t="str">
-        <v>Landon Wright</v>
+        <v>Cora Roberts</v>
       </c>
       <c r="C146">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D146" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E146" t="str">
-        <v>landon.wright36@outlook.com</v>
+        <v>cora.roberts57@hotmail.com</v>
       </c>
       <c r="F146" t="str">
-        <v>0402 415 597</v>
+        <v>(141) 743-6838</v>
       </c>
       <c r="G146" t="str">
-        <v>Cairns</v>
+        <v>Bakersfield</v>
       </c>
       <c r="H146" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I146" t="str">
         <v>available</v>
+      </c>
+      <c r="J146" t="str">
+        <v>Isla Wright, Naomi Moore</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>81759c6b-da11-4c0e-9e96-92aa20964b06</v>
+        <v>6ddd3228-f125-4d3e-88e2-157cd730b552</v>
       </c>
       <c r="B147" t="str">
-        <v>Cora Roberts</v>
+        <v>Theodore Nelson</v>
       </c>
       <c r="C147">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D147" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E147" t="str">
-        <v>cora.roberts57@hotmail.com</v>
+        <v>theodore.nelson79@gmail.com</v>
       </c>
       <c r="F147" t="str">
-        <v>(141) 743-6838</v>
+        <v>0403 813 793</v>
       </c>
       <c r="G147" t="str">
-        <v>Bakersfield</v>
+        <v>Canberra</v>
       </c>
       <c r="H147" t="str">
         <v>B</v>
@@ -5288,28 +5279,25 @@
       <c r="I147" t="str">
         <v>available</v>
       </c>
-      <c r="J147" t="str">
-        <v>Isla Wright, Naomi Moore</v>
-      </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>6ddd3228-f125-4d3e-88e2-157cd730b552</v>
+        <v>40727c14-a30e-4e3b-8b64-0359d25efc0c</v>
       </c>
       <c r="B148" t="str">
-        <v>Theodore Nelson</v>
+        <v>Joshua Scott</v>
       </c>
       <c r="C148">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="D148" t="str">
         <v>Male</v>
       </c>
       <c r="E148" t="str">
-        <v>theodore.nelson79@gmail.com</v>
+        <v>joshua.scott95@outlook.com</v>
       </c>
       <c r="F148" t="str">
-        <v>0403 813 793</v>
+        <v>0410 137 561</v>
       </c>
       <c r="G148" t="str">
         <v>Canberra</v>
@@ -5323,25 +5311,25 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>40727c14-a30e-4e3b-8b64-0359d25efc0c</v>
+        <v>ad836319-db56-4a08-bca6-a8e3f19c37a8</v>
       </c>
       <c r="B149" t="str">
-        <v>Joshua Scott</v>
+        <v>Emily Johnson</v>
       </c>
       <c r="C149">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D149" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E149" t="str">
-        <v>joshua.scott95@outlook.com</v>
+        <v>emily.johnson58@hotmail.com</v>
       </c>
       <c r="F149" t="str">
-        <v>0410 137 561</v>
+        <v>0412 663 939</v>
       </c>
       <c r="G149" t="str">
-        <v>Canberra</v>
+        <v>Perth</v>
       </c>
       <c r="H149" t="str">
         <v>B</v>
@@ -5352,25 +5340,25 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>ad836319-db56-4a08-bca6-a8e3f19c37a8</v>
+        <v>adb0c362-d095-4bfd-98dc-c93920fd22d6</v>
       </c>
       <c r="B150" t="str">
-        <v>Emily Johnson</v>
+        <v>Victoria Torres</v>
       </c>
       <c r="C150">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D150" t="str">
         <v>Female</v>
       </c>
       <c r="E150" t="str">
-        <v>emily.johnson58@hotmail.com</v>
+        <v>victoria.torres48@outlook.com</v>
       </c>
       <c r="F150" t="str">
-        <v>0412 663 939</v>
+        <v>0411 539 271</v>
       </c>
       <c r="G150" t="str">
-        <v>Perth</v>
+        <v>Geelong</v>
       </c>
       <c r="H150" t="str">
         <v>B</v>
@@ -5381,54 +5369,57 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>adb0c362-d095-4bfd-98dc-c93920fd22d6</v>
+        <v>c1783cdf-a656-46b4-9331-4d9d18d40b51</v>
       </c>
       <c r="B151" t="str">
-        <v>Victoria Torres</v>
+        <v>Aurora Walker</v>
       </c>
       <c r="C151">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D151" t="str">
         <v>Female</v>
       </c>
       <c r="E151" t="str">
-        <v>victoria.torres48@outlook.com</v>
+        <v>aurora.walker1@outlook.com</v>
       </c>
       <c r="F151" t="str">
-        <v>0411 539 271</v>
+        <v>0403 522 404</v>
       </c>
       <c r="G151" t="str">
-        <v>Geelong</v>
+        <v>Darwin</v>
       </c>
       <c r="H151" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I151" t="str">
         <v>available</v>
+      </c>
+      <c r="M151" t="str">
+        <v>Vision impaired - needs assistance</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>c1783cdf-a656-46b4-9331-4d9d18d40b51</v>
+        <v>bf5a6984-f656-4e23-9646-85829e9daffe</v>
       </c>
       <c r="B152" t="str">
-        <v>Aurora Walker</v>
+        <v>Scarlett Lopez</v>
       </c>
       <c r="C152">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D152" t="str">
         <v>Female</v>
       </c>
       <c r="E152" t="str">
-        <v>aurora.walker1@outlook.com</v>
+        <v>scarlett.lopez53@yahoo.com</v>
       </c>
       <c r="F152" t="str">
-        <v>0403 522 404</v>
+        <v>0400 509 641</v>
       </c>
       <c r="G152" t="str">
-        <v>Darwin</v>
+        <v>Sydney</v>
       </c>
       <c r="H152" t="str">
         <v>B+</v>
@@ -5436,31 +5427,28 @@
       <c r="I152" t="str">
         <v>available</v>
       </c>
-      <c r="M152" t="str">
-        <v>Vision impaired - needs assistance</v>
-      </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>bf5a6984-f656-4e23-9646-85829e9daffe</v>
+        <v>5e93a4d1-9d7c-4b53-9898-a1ae2a0319c1</v>
       </c>
       <c r="B153" t="str">
-        <v>Scarlett Lopez</v>
+        <v>Amelia Nguyen</v>
       </c>
       <c r="C153">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D153" t="str">
         <v>Female</v>
       </c>
       <c r="E153" t="str">
-        <v>scarlett.lopez53@yahoo.com</v>
+        <v>amelia.nguyen43@outlook.com</v>
       </c>
       <c r="F153" t="str">
-        <v>0400 509 641</v>
+        <v>(164) 220-7002</v>
       </c>
       <c r="G153" t="str">
-        <v>Sydney</v>
+        <v>Sacramento</v>
       </c>
       <c r="H153" t="str">
         <v>B+</v>
@@ -5468,63 +5456,63 @@
       <c r="I153" t="str">
         <v>available</v>
       </c>
+      <c r="J153" t="str">
+        <v>Paisley Brown</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>5e93a4d1-9d7c-4b53-9898-a1ae2a0319c1</v>
+        <v>59bae9a1-93b9-471d-a2b7-074918634f6b</v>
       </c>
       <c r="B154" t="str">
-        <v>Amelia Nguyen</v>
+        <v>Joshua Clark</v>
       </c>
       <c r="C154">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D154" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E154" t="str">
-        <v>amelia.nguyen43@outlook.com</v>
+        <v>joshua.clark16@outlook.com</v>
       </c>
       <c r="F154" t="str">
-        <v>(164) 220-7002</v>
+        <v>0403 901 485</v>
       </c>
       <c r="G154" t="str">
-        <v>Sacramento</v>
+        <v>Sydney</v>
       </c>
       <c r="H154" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I154" t="str">
         <v>available</v>
-      </c>
-      <c r="J154" t="str">
-        <v>Paisley Brown</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>59bae9a1-93b9-471d-a2b7-074918634f6b</v>
+        <v>2fa810c7-61d0-4519-a314-824cf0873e30</v>
       </c>
       <c r="B155" t="str">
-        <v>Joshua Clark</v>
+        <v>Theodore Allen</v>
       </c>
       <c r="C155">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D155" t="str">
         <v>Male</v>
       </c>
       <c r="E155" t="str">
-        <v>joshua.clark16@outlook.com</v>
+        <v>theodore.allen25@outlook.com</v>
       </c>
       <c r="F155" t="str">
-        <v>0403 901 485</v>
+        <v>0400 438 819</v>
       </c>
       <c r="G155" t="str">
-        <v>Sydney</v>
+        <v>Newcastle</v>
       </c>
       <c r="H155" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I155" t="str">
         <v>available</v>
@@ -5532,28 +5520,28 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>2fa810c7-61d0-4519-a314-824cf0873e30</v>
+        <v>d6c29b29-46c2-458d-9ed6-9955afb17b95</v>
       </c>
       <c r="B156" t="str">
-        <v>Theodore Allen</v>
+        <v>Ethan Taylor</v>
       </c>
       <c r="C156">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="D156" t="str">
         <v>Male</v>
       </c>
       <c r="E156" t="str">
-        <v>theodore.allen25@outlook.com</v>
+        <v>ethan.taylor22@yahoo.com</v>
       </c>
       <c r="F156" t="str">
-        <v>0400 438 819</v>
+        <v>0410 363 173</v>
       </c>
       <c r="G156" t="str">
-        <v>Newcastle</v>
+        <v>Adelaide</v>
       </c>
       <c r="H156" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I156" t="str">
         <v>available</v>
@@ -5561,89 +5549,92 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>d6c29b29-46c2-458d-9ed6-9955afb17b95</v>
+        <v>e2f70c5c-0a8d-4055-8281-2ad2ae2e0cd6</v>
       </c>
       <c r="B157" t="str">
-        <v>Ethan Taylor</v>
+        <v>Stella Green</v>
       </c>
       <c r="C157">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="D157" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E157" t="str">
-        <v>ethan.taylor22@yahoo.com</v>
+        <v>stella.green92@gmail.com</v>
       </c>
       <c r="F157" t="str">
-        <v>0410 363 173</v>
+        <v>0404 230 858</v>
       </c>
       <c r="G157" t="str">
-        <v>Adelaide</v>
+        <v>Wollongong</v>
       </c>
       <c r="H157" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="I157" t="str">
         <v>available</v>
+      </c>
+      <c r="J157" t="str">
+        <v>Everly Torres</v>
+      </c>
+      <c r="M157" t="str">
+        <v>Vision impaired - needs assistance</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>e2f70c5c-0a8d-4055-8281-2ad2ae2e0cd6</v>
+        <v>5331c6bd-19f8-416a-9166-06280a3c547e</v>
       </c>
       <c r="B158" t="str">
-        <v>Stella Green</v>
+        <v>Ethan Rodriguez</v>
       </c>
       <c r="C158">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D158" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E158" t="str">
-        <v>stella.green92@gmail.com</v>
+        <v>ethan.rodriguez60@hotmail.com</v>
       </c>
       <c r="F158" t="str">
-        <v>0404 230 858</v>
+        <v>0411 690 563</v>
       </c>
       <c r="G158" t="str">
-        <v>Wollongong</v>
+        <v>Townsville</v>
       </c>
       <c r="H158" t="str">
-        <v>A</v>
+        <v>B+</v>
       </c>
       <c r="I158" t="str">
         <v>available</v>
       </c>
-      <c r="J158" t="str">
-        <v>Everly Torres</v>
-      </c>
       <c r="M158" t="str">
-        <v>Vision impaired - needs assistance</v>
+        <v>Hearing impaired - requires front row seating</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>5331c6bd-19f8-416a-9166-06280a3c547e</v>
+        <v>d3db689e-5aed-4049-9588-adf3d1a49ae0</v>
       </c>
       <c r="B159" t="str">
-        <v>Ethan Rodriguez</v>
+        <v>Madelyn Martinez</v>
       </c>
       <c r="C159">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="D159" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E159" t="str">
-        <v>ethan.rodriguez60@hotmail.com</v>
+        <v>madelyn.martinez94@gmail.com</v>
       </c>
       <c r="F159" t="str">
-        <v>0411 690 563</v>
+        <v>(576) 468-3300</v>
       </c>
       <c r="G159" t="str">
-        <v>Townsville</v>
+        <v>Pasadena</v>
       </c>
       <c r="H159" t="str">
         <v>B+</v>
@@ -5651,63 +5642,60 @@
       <c r="I159" t="str">
         <v>available</v>
       </c>
-      <c r="M159" t="str">
-        <v>Hearing impaired - requires front row seating</v>
+      <c r="J159" t="str">
+        <v>Olivia Nelson, Joseph Stewart</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>d3db689e-5aed-4049-9588-adf3d1a49ae0</v>
+        <v>45c0fc2b-415d-475a-998d-934235565d6b</v>
       </c>
       <c r="B160" t="str">
-        <v>Madelyn Martinez</v>
+        <v>Scarlett Wright</v>
       </c>
       <c r="C160">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D160" t="str">
         <v>Female</v>
       </c>
       <c r="E160" t="str">
-        <v>madelyn.martinez94@gmail.com</v>
+        <v>scarlett.wright68@outlook.com</v>
       </c>
       <c r="F160" t="str">
-        <v>(576) 468-3300</v>
+        <v>0412 487 763</v>
       </c>
       <c r="G160" t="str">
-        <v>Pasadena</v>
+        <v>Newcastle</v>
       </c>
       <c r="H160" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I160" t="str">
         <v>available</v>
-      </c>
-      <c r="J160" t="str">
-        <v>Olivia Nelson, Joseph Stewart</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>45c0fc2b-415d-475a-998d-934235565d6b</v>
+        <v>d7b0dd51-8aea-4b32-bb8d-8b60271fc6c9</v>
       </c>
       <c r="B161" t="str">
-        <v>Scarlett Wright</v>
+        <v>Jayden Nguyen</v>
       </c>
       <c r="C161">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="D161" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E161" t="str">
-        <v>scarlett.wright68@outlook.com</v>
+        <v>jayden.nguyen88@hotmail.com</v>
       </c>
       <c r="F161" t="str">
-        <v>0412 487 763</v>
+        <v>0401 108 628</v>
       </c>
       <c r="G161" t="str">
-        <v>Newcastle</v>
+        <v>Hobart</v>
       </c>
       <c r="H161" t="str">
         <v>B</v>
@@ -5718,25 +5706,25 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>d7b0dd51-8aea-4b32-bb8d-8b60271fc6c9</v>
+        <v>0e8f635e-8f06-4224-a2cc-4263ac307ba2</v>
       </c>
       <c r="B162" t="str">
-        <v>Jayden Nguyen</v>
+        <v>Joshua Jones</v>
       </c>
       <c r="C162">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="D162" t="str">
         <v>Male</v>
       </c>
       <c r="E162" t="str">
-        <v>jayden.nguyen88@hotmail.com</v>
+        <v>joshua.jones82@yahoo.com</v>
       </c>
       <c r="F162" t="str">
-        <v>0401 108 628</v>
+        <v>0400 652 840</v>
       </c>
       <c r="G162" t="str">
-        <v>Hobart</v>
+        <v>Toowoomba</v>
       </c>
       <c r="H162" t="str">
         <v>B</v>
@@ -5747,28 +5735,28 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>0e8f635e-8f06-4224-a2cc-4263ac307ba2</v>
+        <v>55c196e0-f9b8-42fe-8113-ce9d2ac76116</v>
       </c>
       <c r="B163" t="str">
-        <v>Joshua Jones</v>
+        <v>Natalie Ortiz</v>
       </c>
       <c r="C163">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D163" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E163" t="str">
-        <v>joshua.jones82@yahoo.com</v>
+        <v>natalie.ortiz89@yahoo.com</v>
       </c>
       <c r="F163" t="str">
-        <v>0400 652 840</v>
+        <v>(986) 277-9331</v>
       </c>
       <c r="G163" t="str">
-        <v>Toowoomba</v>
+        <v>San Francisco</v>
       </c>
       <c r="H163" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I163" t="str">
         <v>available</v>
@@ -5776,118 +5764,118 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>55c196e0-f9b8-42fe-8113-ce9d2ac76116</v>
+        <v>d1a4099f-cc65-41a4-8aa3-72e7788e4944</v>
       </c>
       <c r="B164" t="str">
-        <v>Natalie Ortiz</v>
+        <v>Sophia Reyes</v>
       </c>
       <c r="C164">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="D164" t="str">
         <v>Female</v>
       </c>
       <c r="E164" t="str">
-        <v>natalie.ortiz89@yahoo.com</v>
+        <v>sophia.reyes82@outlook.com</v>
       </c>
       <c r="F164" t="str">
-        <v>(986) 277-9331</v>
+        <v>(759) 966-2783</v>
       </c>
       <c r="G164" t="str">
-        <v>San Francisco</v>
+        <v>Long Beach</v>
       </c>
       <c r="H164" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I164" t="str">
         <v>available</v>
+      </c>
+      <c r="J164" t="str">
+        <v>Victoria Anderson</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>d1a4099f-cc65-41a4-8aa3-72e7788e4944</v>
+        <v>5b3becf0-21ae-46a2-b70b-722762d230ff</v>
       </c>
       <c r="B165" t="str">
-        <v>Sophia Reyes</v>
+        <v>Evelyn Ortiz</v>
       </c>
       <c r="C165">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="D165" t="str">
         <v>Female</v>
       </c>
       <c r="E165" t="str">
-        <v>sophia.reyes82@outlook.com</v>
+        <v>evelyn.ortiz49@hotmail.com</v>
       </c>
       <c r="F165" t="str">
-        <v>(759) 966-2783</v>
+        <v>(142) 759-4931</v>
       </c>
       <c r="G165" t="str">
         <v>Long Beach</v>
       </c>
       <c r="H165" t="str">
-        <v>B</v>
+        <v>A+</v>
       </c>
       <c r="I165" t="str">
         <v>available</v>
       </c>
       <c r="J165" t="str">
-        <v>Victoria Anderson</v>
+        <v>Mia Carter</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>5b3becf0-21ae-46a2-b70b-722762d230ff</v>
+        <v>c03a116f-7b88-4c23-a9cc-04d14d2df186</v>
       </c>
       <c r="B166" t="str">
-        <v>Evelyn Ortiz</v>
+        <v>Sofia Martin</v>
       </c>
       <c r="C166">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D166" t="str">
         <v>Female</v>
       </c>
       <c r="E166" t="str">
-        <v>evelyn.ortiz49@hotmail.com</v>
+        <v>sofia.martin17@yahoo.com</v>
       </c>
       <c r="F166" t="str">
-        <v>(142) 759-4931</v>
+        <v>(319) 272-7772</v>
       </c>
       <c r="G166" t="str">
-        <v>Long Beach</v>
+        <v>Fresno</v>
       </c>
       <c r="H166" t="str">
-        <v>A+</v>
+        <v>C</v>
       </c>
       <c r="I166" t="str">
         <v>available</v>
-      </c>
-      <c r="J166" t="str">
-        <v>Mia Carter</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>c03a116f-7b88-4c23-a9cc-04d14d2df186</v>
+        <v>10ec31e6-c6da-4957-9768-c5fcefe79c6b</v>
       </c>
       <c r="B167" t="str">
-        <v>Sofia Martin</v>
+        <v>Emma Turner</v>
       </c>
       <c r="C167">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D167" t="str">
         <v>Female</v>
       </c>
       <c r="E167" t="str">
-        <v>sofia.martin17@yahoo.com</v>
+        <v>emma.turner16@outlook.com</v>
       </c>
       <c r="F167" t="str">
-        <v>(319) 272-7772</v>
+        <v>(656) 213-9003</v>
       </c>
       <c r="G167" t="str">
-        <v>Fresno</v>
+        <v>Pomona</v>
       </c>
       <c r="H167" t="str">
         <v>C</v>
@@ -5898,28 +5886,28 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>10ec31e6-c6da-4957-9768-c5fcefe79c6b</v>
+        <v>c2103c22-c825-4633-a461-495c55747ed3</v>
       </c>
       <c r="B168" t="str">
-        <v>Emma Turner</v>
+        <v>Alice Robinson</v>
       </c>
       <c r="C168">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D168" t="str">
         <v>Female</v>
       </c>
       <c r="E168" t="str">
-        <v>emma.turner16@outlook.com</v>
+        <v>alice.robinson56@hotmail.com</v>
       </c>
       <c r="F168" t="str">
-        <v>(656) 213-9003</v>
+        <v>(251) 325-5554</v>
       </c>
       <c r="G168" t="str">
-        <v>Pomona</v>
+        <v>Anaheim</v>
       </c>
       <c r="H168" t="str">
-        <v>C</v>
+        <v>B+</v>
       </c>
       <c r="I168" t="str">
         <v>available</v>
@@ -5927,25 +5915,25 @@
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>c2103c22-c825-4633-a461-495c55747ed3</v>
+        <v>25fd249f-3802-4717-8a4d-4da36897b280</v>
       </c>
       <c r="B169" t="str">
-        <v>Alice Robinson</v>
+        <v>Nathan Taylor</v>
       </c>
       <c r="C169">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D169" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E169" t="str">
-        <v>alice.robinson56@hotmail.com</v>
+        <v>nathan.taylor65@outlook.com</v>
       </c>
       <c r="F169" t="str">
-        <v>(251) 325-5554</v>
+        <v>(250) 584-7117</v>
       </c>
       <c r="G169" t="str">
-        <v>Anaheim</v>
+        <v>Stockton</v>
       </c>
       <c r="H169" t="str">
         <v>B+</v>
@@ -5956,121 +5944,121 @@
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>25fd249f-3802-4717-8a4d-4da36897b280</v>
+        <v>1e334800-6e70-4273-b1ff-ee3ce5738b57</v>
       </c>
       <c r="B170" t="str">
-        <v>Nathan Taylor</v>
+        <v>Adam Edwards</v>
       </c>
       <c r="C170">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D170" t="str">
         <v>Male</v>
       </c>
       <c r="E170" t="str">
-        <v>nathan.taylor65@outlook.com</v>
+        <v>adam.edwards41@hotmail.com</v>
       </c>
       <c r="F170" t="str">
-        <v>(250) 584-7117</v>
+        <v>(439) 906-3390</v>
       </c>
       <c r="G170" t="str">
-        <v>Stockton</v>
+        <v>Burbank</v>
       </c>
       <c r="H170" t="str">
-        <v>B+</v>
+        <v>C</v>
       </c>
       <c r="I170" t="str">
         <v>available</v>
+      </c>
+      <c r="J170" t="str">
+        <v>Ella Lopez</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>1e334800-6e70-4273-b1ff-ee3ce5738b57</v>
+        <v>783b418b-9b0d-482c-a01b-75072978141f</v>
       </c>
       <c r="B171" t="str">
-        <v>Adam Edwards</v>
+        <v>Joshua Martinez</v>
       </c>
       <c r="C171">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D171" t="str">
         <v>Male</v>
       </c>
       <c r="E171" t="str">
-        <v>adam.edwards41@hotmail.com</v>
+        <v>joshua.martinez94@icloud.com</v>
       </c>
       <c r="F171" t="str">
-        <v>(439) 906-3390</v>
+        <v>(539) 856-7158</v>
       </c>
       <c r="G171" t="str">
-        <v>Burbank</v>
+        <v>San Diego</v>
       </c>
       <c r="H171" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I171" t="str">
         <v>available</v>
       </c>
       <c r="J171" t="str">
-        <v>Ella Lopez</v>
+        <v>Avery Clark</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>783b418b-9b0d-482c-a01b-75072978141f</v>
+        <v>cc9dcc8f-9593-4b7e-b4dd-723de93b6b04</v>
       </c>
       <c r="B172" t="str">
-        <v>Joshua Martinez</v>
+        <v>Aiden Cook</v>
       </c>
       <c r="C172">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D172" t="str">
         <v>Male</v>
       </c>
       <c r="E172" t="str">
-        <v>joshua.martinez94@icloud.com</v>
+        <v>aiden.cook93@yahoo.com</v>
       </c>
       <c r="F172" t="str">
-        <v>(539) 856-7158</v>
+        <v>(959) 986-7207</v>
       </c>
       <c r="G172" t="str">
-        <v>San Diego</v>
+        <v>Pomona</v>
       </c>
       <c r="H172" t="str">
-        <v>B</v>
+        <v>A+</v>
       </c>
       <c r="I172" t="str">
         <v>available</v>
-      </c>
-      <c r="J172" t="str">
-        <v>Avery Clark</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>cc9dcc8f-9593-4b7e-b4dd-723de93b6b04</v>
+        <v>f85f167d-7dd5-420d-86b5-ec8861b2bc1a</v>
       </c>
       <c r="B173" t="str">
-        <v>Aiden Cook</v>
+        <v>Michael Carter</v>
       </c>
       <c r="C173">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D173" t="str">
         <v>Male</v>
       </c>
       <c r="E173" t="str">
-        <v>aiden.cook93@yahoo.com</v>
+        <v>michael.carter90@outlook.com</v>
       </c>
       <c r="F173" t="str">
-        <v>(959) 986-7207</v>
+        <v>(377) 714-4320</v>
       </c>
       <c r="G173" t="str">
-        <v>Pomona</v>
+        <v>Burbank</v>
       </c>
       <c r="H173" t="str">
-        <v>A+</v>
+        <v>A</v>
       </c>
       <c r="I173" t="str">
         <v>available</v>
@@ -6078,28 +6066,28 @@
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>f85f167d-7dd5-420d-86b5-ec8861b2bc1a</v>
+        <v>258eb0f3-5b73-4b6f-abb9-86c6ccb99d1f</v>
       </c>
       <c r="B174" t="str">
-        <v>Michael Carter</v>
+        <v>Mateo Phillips</v>
       </c>
       <c r="C174">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D174" t="str">
         <v>Male</v>
       </c>
       <c r="E174" t="str">
-        <v>michael.carter90@outlook.com</v>
+        <v>mateo.phillips59@outlook.com</v>
       </c>
       <c r="F174" t="str">
-        <v>(377) 714-4320</v>
+        <v>(155) 680-1162</v>
       </c>
       <c r="G174" t="str">
-        <v>Burbank</v>
+        <v>Sacramento</v>
       </c>
       <c r="H174" t="str">
-        <v>A</v>
+        <v>B+</v>
       </c>
       <c r="I174" t="str">
         <v>available</v>
@@ -6107,28 +6095,28 @@
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>258eb0f3-5b73-4b6f-abb9-86c6ccb99d1f</v>
+        <v>7a0a1a0e-a2dd-4f19-94ff-54601fcfb0e1</v>
       </c>
       <c r="B175" t="str">
-        <v>Mateo Phillips</v>
+        <v>Alexander Reyes</v>
       </c>
       <c r="C175">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D175" t="str">
         <v>Male</v>
       </c>
       <c r="E175" t="str">
-        <v>mateo.phillips59@outlook.com</v>
+        <v>alexander.reyes92@icloud.com</v>
       </c>
       <c r="F175" t="str">
-        <v>(155) 680-1162</v>
+        <v>(434) 933-1740</v>
       </c>
       <c r="G175" t="str">
-        <v>Sacramento</v>
+        <v>Newport Beach</v>
       </c>
       <c r="H175" t="str">
-        <v>B+</v>
+        <v>A+</v>
       </c>
       <c r="I175" t="str">
         <v>available</v>
@@ -6136,54 +6124,57 @@
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>7a0a1a0e-a2dd-4f19-94ff-54601fcfb0e1</v>
+        <v>b22d1d02-9344-4922-9be8-d8d05a79b0b0</v>
       </c>
       <c r="B176" t="str">
-        <v>Alexander Reyes</v>
+        <v>Julian Nguyen</v>
       </c>
       <c r="C176">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="D176" t="str">
         <v>Male</v>
       </c>
       <c r="E176" t="str">
-        <v>alexander.reyes92@icloud.com</v>
+        <v>julian.nguyen22@outlook.com</v>
       </c>
       <c r="F176" t="str">
-        <v>(434) 933-1740</v>
+        <v>(382) 722-8118</v>
       </c>
       <c r="G176" t="str">
-        <v>Newport Beach</v>
+        <v>Long Beach</v>
       </c>
       <c r="H176" t="str">
-        <v>A+</v>
+        <v>C</v>
       </c>
       <c r="I176" t="str">
         <v>available</v>
+      </c>
+      <c r="J176" t="str">
+        <v>Leah Diaz, Lydia Allen</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>b22d1d02-9344-4922-9be8-d8d05a79b0b0</v>
+        <v>d279968e-2739-4860-92b0-61f1c31b6a72</v>
       </c>
       <c r="B177" t="str">
-        <v>Julian Nguyen</v>
+        <v>Nolan Ortiz</v>
       </c>
       <c r="C177">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D177" t="str">
         <v>Male</v>
       </c>
       <c r="E177" t="str">
-        <v>julian.nguyen22@outlook.com</v>
+        <v>nolan.ortiz57@gmail.com</v>
       </c>
       <c r="F177" t="str">
-        <v>(382) 722-8118</v>
+        <v>(473) 870-4585</v>
       </c>
       <c r="G177" t="str">
-        <v>Long Beach</v>
+        <v>Santa Monica</v>
       </c>
       <c r="H177" t="str">
         <v>C</v>
@@ -6192,39 +6183,39 @@
         <v>available</v>
       </c>
       <c r="J177" t="str">
-        <v>Leah Diaz, Lydia Allen</v>
+        <v>Cameron Clark</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>d279968e-2739-4860-92b0-61f1c31b6a72</v>
+        <v>9d8995c7-d5a1-4644-848d-dca4e81371af</v>
       </c>
       <c r="B178" t="str">
-        <v>Nolan Ortiz</v>
+        <v>Michael Campbell</v>
       </c>
       <c r="C178">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D178" t="str">
         <v>Male</v>
       </c>
       <c r="E178" t="str">
-        <v>nolan.ortiz57@gmail.com</v>
+        <v>michael.campbell9@outlook.com</v>
       </c>
       <c r="F178" t="str">
-        <v>(473) 870-4585</v>
+        <v>(176) 164-6950</v>
       </c>
       <c r="G178" t="str">
-        <v>Santa Monica</v>
+        <v>Glendale</v>
       </c>
       <c r="H178" t="str">
-        <v>C</v>
+        <v>B+</v>
       </c>
       <c r="I178" t="str">
         <v>available</v>
       </c>
       <c r="J178" t="str">
-        <v>Cameron Clark</v>
+        <v>Sadie Williams, Eleanor Hall</v>
       </c>
     </row>
     <row r="179">
@@ -6421,34 +6412,34 @@
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>9d8995c7-d5a1-4644-848d-dca4e81371af</v>
+        <v>3f9d95b9-bedc-4620-9aa3-9bc8669de2af</v>
       </c>
       <c r="B185" t="str">
-        <v>Michael Campbell</v>
+        <v>Christopher Allen</v>
       </c>
       <c r="C185">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D185" t="str">
         <v>Male</v>
       </c>
       <c r="E185" t="str">
-        <v>michael.campbell9@outlook.com</v>
+        <v>christopher.allen60@yahoo.com</v>
       </c>
       <c r="F185" t="str">
-        <v>(176) 164-6950</v>
+        <v>(529) 787-8147</v>
       </c>
       <c r="G185" t="str">
-        <v>Glendale</v>
+        <v>Torrance</v>
       </c>
       <c r="H185" t="str">
         <v>B+</v>
       </c>
       <c r="I185" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
       <c r="J185" t="str">
-        <v>Sadie Williams, Eleanor Hall</v>
+        <v>Eleanor Allen</v>
       </c>
     </row>
     <row r="186">
@@ -6549,89 +6540,89 @@
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>3f9d95b9-bedc-4620-9aa3-9bc8669de2af</v>
+        <v>9e0ff879-df04-4a3f-b572-8633acb77cee</v>
       </c>
       <c r="B189" t="str">
-        <v>Christopher Allen</v>
+        <v>Jackson Jackson</v>
       </c>
       <c r="C189">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D189" t="str">
         <v>Male</v>
       </c>
       <c r="E189" t="str">
-        <v>christopher.allen60@yahoo.com</v>
+        <v>jackson.jackson86@icloud.com</v>
       </c>
       <c r="F189" t="str">
-        <v>(529) 787-8147</v>
+        <v>(858) 306-7989</v>
       </c>
       <c r="G189" t="str">
-        <v>Torrance</v>
+        <v>Oakland</v>
       </c>
       <c r="H189" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I189" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
       <c r="J189" t="str">
-        <v>Eleanor Allen</v>
+        <v>Serenity Campbell, Isaiah Green</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>9e0ff879-df04-4a3f-b572-8633acb77cee</v>
+        <v>ea1b059a-dde4-49c1-92b8-b9fd09c84bb7</v>
       </c>
       <c r="B190" t="str">
-        <v>Jackson Jackson</v>
+        <v>Sadie Cook</v>
       </c>
       <c r="C190">
         <v>50</v>
       </c>
       <c r="D190" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E190" t="str">
-        <v>jackson.jackson86@icloud.com</v>
+        <v>sadie.cook9@yahoo.com</v>
       </c>
       <c r="F190" t="str">
-        <v>(858) 306-7989</v>
+        <v>(382) 126-7672</v>
       </c>
       <c r="G190" t="str">
-        <v>Oakland</v>
+        <v>Santa Monica</v>
       </c>
       <c r="H190" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I190" t="str">
         <v>available</v>
       </c>
       <c r="J190" t="str">
-        <v>Serenity Campbell, Isaiah Green</v>
+        <v>William Allen, Alexa Hall</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>ea1b059a-dde4-49c1-92b8-b9fd09c84bb7</v>
+        <v>921da7b6-596c-4a0e-a647-022bbd8cef26</v>
       </c>
       <c r="B191" t="str">
-        <v>Sadie Cook</v>
+        <v>John Diaz</v>
       </c>
       <c r="C191">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D191" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E191" t="str">
-        <v>sadie.cook9@yahoo.com</v>
+        <v>john.diaz17@icloud.com</v>
       </c>
       <c r="F191" t="str">
-        <v>(382) 126-7672</v>
+        <v>(251) 432-3565</v>
       </c>
       <c r="G191" t="str">
-        <v>Santa Monica</v>
+        <v>Pomona</v>
       </c>
       <c r="H191" t="str">
         <v>B+</v>
@@ -6640,94 +6631,91 @@
         <v>available</v>
       </c>
       <c r="J191" t="str">
-        <v>William Allen, Alexa Hall</v>
+        <v>Cameron Anderson</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>921da7b6-596c-4a0e-a647-022bbd8cef26</v>
+        <v>bede75d6-a4ec-4fe3-907f-35108a2b4b10</v>
       </c>
       <c r="B192" t="str">
-        <v>John Diaz</v>
+        <v>Cameron Evans</v>
       </c>
       <c r="C192">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D192" t="str">
         <v>Male</v>
       </c>
       <c r="E192" t="str">
-        <v>john.diaz17@icloud.com</v>
+        <v>cameron.evans55@outlook.com</v>
       </c>
       <c r="F192" t="str">
-        <v>(251) 432-3565</v>
+        <v>(535) 743-7467</v>
       </c>
       <c r="G192" t="str">
-        <v>Pomona</v>
+        <v>Fremont</v>
       </c>
       <c r="H192" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I192" t="str">
         <v>available</v>
       </c>
       <c r="J192" t="str">
-        <v>Cameron Anderson</v>
+        <v>Michael Johnson, Anthony Garcia</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>bede75d6-a4ec-4fe3-907f-35108a2b4b10</v>
+        <v>340ad2e5-95a9-4eb5-a113-e7f9f0e5d704</v>
       </c>
       <c r="B193" t="str">
-        <v>Cameron Evans</v>
+        <v>Jaxon Cook</v>
       </c>
       <c r="C193">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="D193" t="str">
         <v>Male</v>
       </c>
       <c r="E193" t="str">
-        <v>cameron.evans55@outlook.com</v>
+        <v>jaxon.cook73@yahoo.com</v>
       </c>
       <c r="F193" t="str">
-        <v>(535) 743-7467</v>
+        <v>(190) 120-3429</v>
       </c>
       <c r="G193" t="str">
-        <v>Fremont</v>
+        <v>Fresno</v>
       </c>
       <c r="H193" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="I193" t="str">
         <v>available</v>
-      </c>
-      <c r="J193" t="str">
-        <v>Michael Johnson, Anthony Garcia</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>340ad2e5-95a9-4eb5-a113-e7f9f0e5d704</v>
+        <v>d1a89d8f-bd2f-40db-a5d5-ef8dc3e3aa54</v>
       </c>
       <c r="B194" t="str">
-        <v>Jaxon Cook</v>
+        <v>Mason Hernandez</v>
       </c>
       <c r="C194">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D194" t="str">
         <v>Male</v>
       </c>
       <c r="E194" t="str">
-        <v>jaxon.cook73@yahoo.com</v>
+        <v>mason.hernandez15@gmail.com</v>
       </c>
       <c r="F194" t="str">
-        <v>(190) 120-3429</v>
+        <v>(880) 425-4186</v>
       </c>
       <c r="G194" t="str">
-        <v>Fresno</v>
+        <v>San Jose</v>
       </c>
       <c r="H194" t="str">
         <v>A</v>
@@ -6738,25 +6726,25 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>d1a89d8f-bd2f-40db-a5d5-ef8dc3e3aa54</v>
+        <v>e8c7986a-699a-4e43-9b2d-52ca42510a36</v>
       </c>
       <c r="B195" t="str">
-        <v>Mason Hernandez</v>
+        <v>Matthew Torres</v>
       </c>
       <c r="C195">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D195" t="str">
         <v>Male</v>
       </c>
       <c r="E195" t="str">
-        <v>mason.hernandez15@gmail.com</v>
+        <v>matthew.torres76@yahoo.com</v>
       </c>
       <c r="F195" t="str">
-        <v>(880) 425-4186</v>
+        <v>(432) 516-9920</v>
       </c>
       <c r="G195" t="str">
-        <v>San Jose</v>
+        <v>Sacramento</v>
       </c>
       <c r="H195" t="str">
         <v>A</v>
@@ -6767,28 +6755,28 @@
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>e8c7986a-699a-4e43-9b2d-52ca42510a36</v>
+        <v>c6c464e0-123d-4cc9-8b28-0ecbd0a6ce5f</v>
       </c>
       <c r="B196" t="str">
-        <v>Matthew Torres</v>
+        <v>Matthew Anderson</v>
       </c>
       <c r="C196">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D196" t="str">
         <v>Male</v>
       </c>
       <c r="E196" t="str">
-        <v>matthew.torres76@yahoo.com</v>
+        <v>matthew.anderson56@icloud.com</v>
       </c>
       <c r="F196" t="str">
-        <v>(432) 516-9920</v>
+        <v>(853) 972-9742</v>
       </c>
       <c r="G196" t="str">
-        <v>Sacramento</v>
+        <v>Irvine</v>
       </c>
       <c r="H196" t="str">
-        <v>A</v>
+        <v>A+</v>
       </c>
       <c r="I196" t="str">
         <v>available</v>
@@ -6796,86 +6784,89 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>c6c464e0-123d-4cc9-8b28-0ecbd0a6ce5f</v>
+        <v>e2c7fa0a-1d97-4430-b83c-5099c5831757</v>
       </c>
       <c r="B197" t="str">
-        <v>Matthew Anderson</v>
+        <v>John Carter</v>
       </c>
       <c r="C197">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D197" t="str">
         <v>Male</v>
       </c>
       <c r="E197" t="str">
-        <v>matthew.anderson56@icloud.com</v>
+        <v>john.carter42@outlook.com</v>
       </c>
       <c r="F197" t="str">
-        <v>(853) 972-9742</v>
+        <v>(160) 507-8767</v>
       </c>
       <c r="G197" t="str">
-        <v>Irvine</v>
+        <v>Pasadena</v>
       </c>
       <c r="H197" t="str">
-        <v>A+</v>
+        <v>B</v>
       </c>
       <c r="I197" t="str">
         <v>available</v>
+      </c>
+      <c r="J197" t="str">
+        <v>Brooklyn Rivera</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>e2c7fa0a-1d97-4430-b83c-5099c5831757</v>
+        <v>0497247b-bf9a-4f46-a562-05f1892687ce</v>
       </c>
       <c r="B198" t="str">
-        <v>John Carter</v>
+        <v>Henry Roberts</v>
       </c>
       <c r="C198">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D198" t="str">
         <v>Male</v>
       </c>
       <c r="E198" t="str">
-        <v>john.carter42@outlook.com</v>
+        <v>henry.roberts93@outlook.com</v>
       </c>
       <c r="F198" t="str">
-        <v>(160) 507-8767</v>
+        <v>(654) 727-7734</v>
       </c>
       <c r="G198" t="str">
-        <v>Pasadena</v>
+        <v>Burbank</v>
       </c>
       <c r="H198" t="str">
-        <v>B</v>
+        <v>A+</v>
       </c>
       <c r="I198" t="str">
         <v>available</v>
       </c>
       <c r="J198" t="str">
-        <v>Brooklyn Rivera</v>
+        <v>Thomas Nguyen, Hannah Jones</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>0497247b-bf9a-4f46-a562-05f1892687ce</v>
+        <v>5260c12e-e864-4bff-bd02-32d2c84a9a95</v>
       </c>
       <c r="B199" t="str">
-        <v>Henry Roberts</v>
+        <v>Alexander Baker</v>
       </c>
       <c r="C199">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D199" t="str">
         <v>Male</v>
       </c>
       <c r="E199" t="str">
-        <v>henry.roberts93@outlook.com</v>
+        <v>alexander.baker64@hotmail.com</v>
       </c>
       <c r="F199" t="str">
-        <v>(654) 727-7734</v>
+        <v>(434) 373-1503</v>
       </c>
       <c r="G199" t="str">
-        <v>Burbank</v>
+        <v>Stockton</v>
       </c>
       <c r="H199" t="str">
         <v>A+</v>
@@ -6883,182 +6874,182 @@
       <c r="I199" t="str">
         <v>available</v>
       </c>
-      <c r="J199" t="str">
-        <v>Thomas Nguyen, Hannah Jones</v>
-      </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>5260c12e-e864-4bff-bd02-32d2c84a9a95</v>
+        <v>8f86f871-065f-4df6-ba6b-cf659dbcfdb2</v>
       </c>
       <c r="B200" t="str">
-        <v>Alexander Baker</v>
+        <v>Noah Martinez</v>
       </c>
       <c r="C200">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D200" t="str">
         <v>Male</v>
       </c>
       <c r="E200" t="str">
-        <v>alexander.baker64@hotmail.com</v>
+        <v>noah.martinez26@outlook.com</v>
       </c>
       <c r="F200" t="str">
-        <v>(434) 373-1503</v>
+        <v>(311) 254-2323</v>
       </c>
       <c r="G200" t="str">
-        <v>Stockton</v>
+        <v>Oakland</v>
       </c>
       <c r="H200" t="str">
-        <v>A+</v>
+        <v>C</v>
       </c>
       <c r="I200" t="str">
         <v>available</v>
+      </c>
+      <c r="J200" t="str">
+        <v>Autumn Lewis</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>8f86f871-065f-4df6-ba6b-cf659dbcfdb2</v>
+        <v>befe2d5d-0583-45ac-939e-ab57370e2d4f</v>
       </c>
       <c r="B201" t="str">
-        <v>Noah Martinez</v>
+        <v>Daniel Taylor</v>
       </c>
       <c r="C201">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D201" t="str">
         <v>Male</v>
       </c>
       <c r="E201" t="str">
-        <v>noah.martinez26@outlook.com</v>
+        <v>daniel.taylor53@gmail.com</v>
       </c>
       <c r="F201" t="str">
-        <v>(311) 254-2323</v>
+        <v>(543) 329-4768</v>
       </c>
       <c r="G201" t="str">
-        <v>Oakland</v>
+        <v>Pomona</v>
       </c>
       <c r="H201" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I201" t="str">
         <v>available</v>
-      </c>
-      <c r="J201" t="str">
-        <v>Autumn Lewis</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>befe2d5d-0583-45ac-939e-ab57370e2d4f</v>
+        <v>644e41d7-b99e-4381-99a9-65d5ee89ad50</v>
       </c>
       <c r="B202" t="str">
-        <v>Daniel Taylor</v>
+        <v>Hunter Scott</v>
       </c>
       <c r="C202">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="D202" t="str">
         <v>Male</v>
       </c>
       <c r="E202" t="str">
-        <v>daniel.taylor53@gmail.com</v>
+        <v>hunter.scott37@outlook.com</v>
       </c>
       <c r="F202" t="str">
-        <v>(543) 329-4768</v>
+        <v>(477) 130-2066</v>
       </c>
       <c r="G202" t="str">
-        <v>Pomona</v>
+        <v>Torrance</v>
       </c>
       <c r="H202" t="str">
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="I202" t="str">
         <v>available</v>
+      </c>
+      <c r="J202" t="str">
+        <v>Zoey Cook</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>644e41d7-b99e-4381-99a9-65d5ee89ad50</v>
+        <v>9ad191d8-a3b3-478d-9318-781d3156afaa</v>
       </c>
       <c r="B203" t="str">
-        <v>Hunter Scott</v>
+        <v>Alexander Campbell</v>
       </c>
       <c r="C203">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D203" t="str">
         <v>Male</v>
       </c>
       <c r="E203" t="str">
-        <v>hunter.scott37@outlook.com</v>
+        <v>alexander.campbell71@gmail.com</v>
       </c>
       <c r="F203" t="str">
-        <v>(477) 130-2066</v>
+        <v>(131) 840-1169</v>
       </c>
       <c r="G203" t="str">
-        <v>Torrance</v>
+        <v>Fresno</v>
       </c>
       <c r="H203" t="str">
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="I203" t="str">
         <v>available</v>
       </c>
       <c r="J203" t="str">
-        <v>Zoey Cook</v>
+        <v>Logan Nguyen, Hannah Moore</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>9ad191d8-a3b3-478d-9318-781d3156afaa</v>
+        <v>924c70dd-25ce-4725-8a88-173a3af33a7f</v>
       </c>
       <c r="B204" t="str">
-        <v>Alexander Campbell</v>
+        <v>Mia Anderson</v>
       </c>
       <c r="C204">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D204" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E204" t="str">
-        <v>alexander.campbell71@gmail.com</v>
+        <v>mia.anderson0@yahoo.com</v>
       </c>
       <c r="F204" t="str">
-        <v>(131) 840-1169</v>
+        <v>(574) 806-3609</v>
       </c>
       <c r="G204" t="str">
-        <v>Fresno</v>
+        <v>Stockton</v>
       </c>
       <c r="H204" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="I204" t="str">
         <v>available</v>
       </c>
       <c r="J204" t="str">
-        <v>Logan Nguyen, Hannah Moore</v>
+        <v>Avery Cruz, Lydia Torres</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>924c70dd-25ce-4725-8a88-173a3af33a7f</v>
+        <v>29b3a5cd-ea7d-4673-9db4-7886660a791f</v>
       </c>
       <c r="B205" t="str">
-        <v>Mia Anderson</v>
+        <v>Joseph Stewart</v>
       </c>
       <c r="C205">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="D205" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E205" t="str">
-        <v>mia.anderson0@yahoo.com</v>
+        <v>joseph.stewart94@outlook.com</v>
       </c>
       <c r="F205" t="str">
-        <v>(574) 806-3609</v>
+        <v>(101) 920-4176</v>
       </c>
       <c r="G205" t="str">
         <v>Stockton</v>
@@ -7070,103 +7061,103 @@
         <v>available</v>
       </c>
       <c r="J205" t="str">
-        <v>Avery Cruz, Lydia Torres</v>
+        <v>Olivia Nelson, Madelyn Martinez</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>29b3a5cd-ea7d-4673-9db4-7886660a791f</v>
+        <v>f26a0638-511f-4440-ae1a-2ae052df470f</v>
       </c>
       <c r="B206" t="str">
-        <v>Joseph Stewart</v>
+        <v>Caleb Brown</v>
       </c>
       <c r="C206">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="D206" t="str">
         <v>Male</v>
       </c>
       <c r="E206" t="str">
-        <v>joseph.stewart94@outlook.com</v>
+        <v>caleb.brown13@yahoo.com</v>
       </c>
       <c r="F206" t="str">
-        <v>(101) 920-4176</v>
+        <v>(130) 920-6765</v>
       </c>
       <c r="G206" t="str">
-        <v>Stockton</v>
+        <v>Irvine</v>
       </c>
       <c r="H206" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I206" t="str">
         <v>available</v>
       </c>
       <c r="J206" t="str">
-        <v>Olivia Nelson, Madelyn Martinez</v>
+        <v>Jackson Murphy</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>f26a0638-511f-4440-ae1a-2ae052df470f</v>
+        <v>8dfd710f-c1f0-43ee-b26d-13d05de4598b</v>
       </c>
       <c r="B207" t="str">
-        <v>Caleb Brown</v>
+        <v>Josiah Lopez</v>
       </c>
       <c r="C207">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="D207" t="str">
         <v>Male</v>
       </c>
       <c r="E207" t="str">
-        <v>caleb.brown13@yahoo.com</v>
+        <v>josiah.lopez65@gmail.com</v>
       </c>
       <c r="F207" t="str">
-        <v>(130) 920-6765</v>
+        <v>(305) 140-9212</v>
       </c>
       <c r="G207" t="str">
-        <v>Irvine</v>
+        <v>Chula Vista</v>
       </c>
       <c r="H207" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I207" t="str">
         <v>available</v>
       </c>
       <c r="J207" t="str">
-        <v>Jackson Murphy</v>
+        <v>Victoria Carter, Ella Martinez</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>8dfd710f-c1f0-43ee-b26d-13d05de4598b</v>
+        <v>8819a806-f5b1-4b58-95f5-91489df570ac</v>
       </c>
       <c r="B208" t="str">
-        <v>Josiah Lopez</v>
+        <v>Colton Harris</v>
       </c>
       <c r="C208">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="D208" t="str">
         <v>Male</v>
       </c>
       <c r="E208" t="str">
-        <v>josiah.lopez65@gmail.com</v>
+        <v>colton.harris98@icloud.com</v>
       </c>
       <c r="F208" t="str">
-        <v>(305) 140-9212</v>
+        <v>(583) 900-3294</v>
       </c>
       <c r="G208" t="str">
-        <v>Chula Vista</v>
+        <v>Newport Beach</v>
       </c>
       <c r="H208" t="str">
         <v>B</v>
       </c>
       <c r="I208" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
       <c r="J208" t="str">
-        <v>Victoria Carter, Ella Martinez</v>
+        <v>Sebastian Edwards, Sofia Williams</v>
       </c>
     </row>
     <row r="209">
@@ -7235,57 +7226,57 @@
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>8819a806-f5b1-4b58-95f5-91489df570ac</v>
+        <v>5cb68000-430e-4dc3-9afa-c9c5cca864c0</v>
       </c>
       <c r="B211" t="str">
-        <v>Colton Harris</v>
+        <v>Logan Nguyen</v>
       </c>
       <c r="C211">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D211" t="str">
         <v>Male</v>
       </c>
       <c r="E211" t="str">
-        <v>colton.harris98@icloud.com</v>
+        <v>logan.nguyen23@hotmail.com</v>
       </c>
       <c r="F211" t="str">
-        <v>(583) 900-3294</v>
+        <v>(278) 620-7089</v>
       </c>
       <c r="G211" t="str">
-        <v>Newport Beach</v>
+        <v>Torrance</v>
       </c>
       <c r="H211" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I211" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
       <c r="J211" t="str">
-        <v>Sebastian Edwards, Sofia Williams</v>
+        <v>Alexander Campbell, Hannah Moore</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>5cb68000-430e-4dc3-9afa-c9c5cca864c0</v>
+        <v>ce7b894b-705d-49f7-a6a3-e0a7fe953a10</v>
       </c>
       <c r="B212" t="str">
-        <v>Logan Nguyen</v>
+        <v>Christian Rivera</v>
       </c>
       <c r="C212">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="D212" t="str">
         <v>Male</v>
       </c>
       <c r="E212" t="str">
-        <v>logan.nguyen23@hotmail.com</v>
+        <v>christian.rivera21@outlook.com</v>
       </c>
       <c r="F212" t="str">
-        <v>(278) 620-7089</v>
+        <v>(913) 900-2520</v>
       </c>
       <c r="G212" t="str">
-        <v>Torrance</v>
+        <v>Burbank</v>
       </c>
       <c r="H212" t="str">
         <v>B+</v>
@@ -7294,62 +7285,62 @@
         <v>available</v>
       </c>
       <c r="J212" t="str">
-        <v>Alexander Campbell, Hannah Moore</v>
+        <v>Allison Torres, Elena Green</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>ce7b894b-705d-49f7-a6a3-e0a7fe953a10</v>
+        <v>7772949f-f87d-480b-87ab-71f7500e8bd3</v>
       </c>
       <c r="B213" t="str">
-        <v>Christian Rivera</v>
+        <v>Elijah Miller</v>
       </c>
       <c r="C213">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="D213" t="str">
         <v>Male</v>
       </c>
       <c r="E213" t="str">
-        <v>christian.rivera21@outlook.com</v>
+        <v>elijah.miller73@outlook.com</v>
       </c>
       <c r="F213" t="str">
-        <v>(913) 900-2520</v>
+        <v>(967) 645-5202</v>
       </c>
       <c r="G213" t="str">
-        <v>Burbank</v>
+        <v>Pasadena</v>
       </c>
       <c r="H213" t="str">
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="I213" t="str">
         <v>available</v>
       </c>
       <c r="J213" t="str">
-        <v>Allison Torres, Elena Green</v>
+        <v>Sophia Flores</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>7772949f-f87d-480b-87ab-71f7500e8bd3</v>
+        <v>e4b4c1c5-d581-43e6-89d9-d3cee5153165</v>
       </c>
       <c r="B214" t="str">
-        <v>Elijah Miller</v>
+        <v>Josiah Brown</v>
       </c>
       <c r="C214">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D214" t="str">
         <v>Male</v>
       </c>
       <c r="E214" t="str">
-        <v>elijah.miller73@outlook.com</v>
+        <v>josiah.brown19@hotmail.com</v>
       </c>
       <c r="F214" t="str">
-        <v>(967) 645-5202</v>
+        <v>(678) 449-3168</v>
       </c>
       <c r="G214" t="str">
-        <v>Pasadena</v>
+        <v>Fresno</v>
       </c>
       <c r="H214" t="str">
         <v>A</v>
@@ -7358,94 +7349,94 @@
         <v>available</v>
       </c>
       <c r="J214" t="str">
-        <v>Sophia Flores</v>
+        <v>Piper Green</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>e4b4c1c5-d581-43e6-89d9-d3cee5153165</v>
+        <v>2ed0295d-db8c-455a-a1cb-6d3b3fbd6156</v>
       </c>
       <c r="B215" t="str">
-        <v>Josiah Brown</v>
+        <v>Julian Rivera</v>
       </c>
       <c r="C215">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="D215" t="str">
         <v>Male</v>
       </c>
       <c r="E215" t="str">
-        <v>josiah.brown19@hotmail.com</v>
+        <v>julian.rivera17@icloud.com</v>
       </c>
       <c r="F215" t="str">
-        <v>(678) 449-3168</v>
+        <v>(811) 375-6029</v>
       </c>
       <c r="G215" t="str">
-        <v>Fresno</v>
+        <v>Santa Ana</v>
       </c>
       <c r="H215" t="str">
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="I215" t="str">
         <v>available</v>
       </c>
       <c r="J215" t="str">
-        <v>Piper Green</v>
+        <v>Gabriella Smith</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>2ed0295d-db8c-455a-a1cb-6d3b3fbd6156</v>
+        <v>feb78ceb-dd95-455d-8b7d-fc0019ae54c8</v>
       </c>
       <c r="B216" t="str">
-        <v>Julian Rivera</v>
+        <v>Isaiah Green</v>
       </c>
       <c r="C216">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D216" t="str">
         <v>Male</v>
       </c>
       <c r="E216" t="str">
-        <v>julian.rivera17@icloud.com</v>
+        <v>isaiah.green52@icloud.com</v>
       </c>
       <c r="F216" t="str">
-        <v>(811) 375-6029</v>
+        <v>(236) 625-9751</v>
       </c>
       <c r="G216" t="str">
-        <v>Santa Ana</v>
+        <v>Glendale</v>
       </c>
       <c r="H216" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I216" t="str">
         <v>available</v>
       </c>
       <c r="J216" t="str">
-        <v>Gabriella Smith</v>
+        <v>Serenity Campbell, Jackson Jackson</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>feb78ceb-dd95-455d-8b7d-fc0019ae54c8</v>
+        <v>6aa67d72-8123-41b4-9298-7f5d1e89aef7</v>
       </c>
       <c r="B217" t="str">
-        <v>Isaiah Green</v>
+        <v>Thomas Nguyen</v>
       </c>
       <c r="C217">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D217" t="str">
         <v>Male</v>
       </c>
       <c r="E217" t="str">
-        <v>isaiah.green52@icloud.com</v>
+        <v>thomas.nguyen88@yahoo.com</v>
       </c>
       <c r="F217" t="str">
-        <v>(236) 625-9751</v>
+        <v>(163) 406-8750</v>
       </c>
       <c r="G217" t="str">
-        <v>Glendale</v>
+        <v>Pomona</v>
       </c>
       <c r="H217" t="str">
         <v>B</v>
@@ -7454,62 +7445,62 @@
         <v>available</v>
       </c>
       <c r="J217" t="str">
-        <v>Serenity Campbell, Jackson Jackson</v>
+        <v>Henry Roberts, Hannah Jones</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>6aa67d72-8123-41b4-9298-7f5d1e89aef7</v>
+        <v>c347dd65-5ee0-40a6-9fce-2500b3aed70c</v>
       </c>
       <c r="B218" t="str">
-        <v>Thomas Nguyen</v>
+        <v>Logan Gomez</v>
       </c>
       <c r="C218">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="D218" t="str">
         <v>Male</v>
       </c>
       <c r="E218" t="str">
-        <v>thomas.nguyen88@yahoo.com</v>
+        <v>logan.gomez89@outlook.com</v>
       </c>
       <c r="F218" t="str">
-        <v>(163) 406-8750</v>
+        <v>(628) 585-4251</v>
       </c>
       <c r="G218" t="str">
-        <v>Pomona</v>
+        <v>San Diego</v>
       </c>
       <c r="H218" t="str">
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="I218" t="str">
         <v>available</v>
       </c>
       <c r="J218" t="str">
-        <v>Henry Roberts, Hannah Jones</v>
+        <v>Lydia Morris</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>c347dd65-5ee0-40a6-9fce-2500b3aed70c</v>
+        <v>a3363acf-3338-40ec-a745-9aef8dca39fc</v>
       </c>
       <c r="B219" t="str">
-        <v>Logan Gomez</v>
+        <v>Adam Hall</v>
       </c>
       <c r="C219">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D219" t="str">
         <v>Male</v>
       </c>
       <c r="E219" t="str">
-        <v>logan.gomez89@outlook.com</v>
+        <v>adam.hall35@outlook.com</v>
       </c>
       <c r="F219" t="str">
-        <v>(628) 585-4251</v>
+        <v>(742) 142-5313</v>
       </c>
       <c r="G219" t="str">
-        <v>San Diego</v>
+        <v>Santa Ana</v>
       </c>
       <c r="H219" t="str">
         <v>C</v>
@@ -7518,71 +7509,71 @@
         <v>available</v>
       </c>
       <c r="J219" t="str">
-        <v>Lydia Morris</v>
+        <v>Grayson Morgan, Valentina Morales</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>a3363acf-3338-40ec-a745-9aef8dca39fc</v>
+        <v>35c73937-3dd5-4fb3-a5df-d900cabdacba</v>
       </c>
       <c r="B220" t="str">
-        <v>Adam Hall</v>
+        <v>Jackson Murphy</v>
       </c>
       <c r="C220">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="D220" t="str">
         <v>Male</v>
       </c>
       <c r="E220" t="str">
-        <v>adam.hall35@outlook.com</v>
+        <v>jackson.murphy91@yahoo.com</v>
       </c>
       <c r="F220" t="str">
-        <v>(742) 142-5313</v>
+        <v>(572) 305-7237</v>
       </c>
       <c r="G220" t="str">
-        <v>Santa Ana</v>
+        <v>Riverside</v>
       </c>
       <c r="H220" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I220" t="str">
         <v>available</v>
       </c>
       <c r="J220" t="str">
-        <v>Grayson Morgan, Valentina Morales</v>
+        <v>Caleb Brown</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>35c73937-3dd5-4fb3-a5df-d900cabdacba</v>
+        <v>b2c7422d-5caa-41a4-8352-77a36b30b055</v>
       </c>
       <c r="B221" t="str">
-        <v>Jackson Murphy</v>
+        <v>Christopher Carter</v>
       </c>
       <c r="C221">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D221" t="str">
         <v>Male</v>
       </c>
       <c r="E221" t="str">
-        <v>jackson.murphy91@yahoo.com</v>
+        <v>christopher.carter22@outlook.com</v>
       </c>
       <c r="F221" t="str">
-        <v>(572) 305-7237</v>
+        <v>(176) 989-4341</v>
       </c>
       <c r="G221" t="str">
-        <v>Riverside</v>
+        <v>Los Angeles</v>
       </c>
       <c r="H221" t="str">
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="I221" t="str">
         <v>available</v>
       </c>
       <c r="J221" t="str">
-        <v>Caleb Brown</v>
+        <v>Cora Mitchell</v>
       </c>
     </row>
     <row r="222">
@@ -7611,7 +7602,7 @@
         <v>B</v>
       </c>
       <c r="I222" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
       <c r="J222" t="str">
         <v>Colton Harris, Sofia Williams</v>
@@ -7619,25 +7610,25 @@
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>b2c7422d-5caa-41a4-8352-77a36b30b055</v>
+        <v>5965e7f9-ebf0-4e66-a197-03be16110662</v>
       </c>
       <c r="B223" t="str">
-        <v>Christopher Carter</v>
+        <v>Cameron Clark</v>
       </c>
       <c r="C223">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D223" t="str">
         <v>Male</v>
       </c>
       <c r="E223" t="str">
-        <v>christopher.carter22@outlook.com</v>
+        <v>cameron.clark37@gmail.com</v>
       </c>
       <c r="F223" t="str">
-        <v>(176) 989-4341</v>
+        <v>(267) 288-3549</v>
       </c>
       <c r="G223" t="str">
-        <v>Los Angeles</v>
+        <v>Santa Ana</v>
       </c>
       <c r="H223" t="str">
         <v>C</v>
@@ -7646,62 +7637,62 @@
         <v>available</v>
       </c>
       <c r="J223" t="str">
-        <v>Cora Mitchell</v>
+        <v>Nolan Ortiz</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>5965e7f9-ebf0-4e66-a197-03be16110662</v>
+        <v>1a539e8e-7b02-422a-991f-99fdb84688f5</v>
       </c>
       <c r="B224" t="str">
-        <v>Cameron Clark</v>
+        <v>Logan Lopez</v>
       </c>
       <c r="C224">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D224" t="str">
         <v>Male</v>
       </c>
       <c r="E224" t="str">
-        <v>cameron.clark37@gmail.com</v>
+        <v>logan.lopez66@icloud.com</v>
       </c>
       <c r="F224" t="str">
-        <v>(267) 288-3549</v>
+        <v>(283) 498-3157</v>
       </c>
       <c r="G224" t="str">
-        <v>Santa Ana</v>
+        <v>Burbank</v>
       </c>
       <c r="H224" t="str">
-        <v>C</v>
+        <v>B+</v>
       </c>
       <c r="I224" t="str">
         <v>available</v>
       </c>
       <c r="J224" t="str">
-        <v>Nolan Ortiz</v>
+        <v>Ava Mitchell</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>1a539e8e-7b02-422a-991f-99fdb84688f5</v>
+        <v>1b5fc1ce-1ed8-4255-a8a4-b02892b2b03a</v>
       </c>
       <c r="B225" t="str">
-        <v>Logan Lopez</v>
+        <v>Ava Mitchell</v>
       </c>
       <c r="C225">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D225" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E225" t="str">
-        <v>logan.lopez66@icloud.com</v>
+        <v>ava.mitchell87@icloud.com</v>
       </c>
       <c r="F225" t="str">
-        <v>(283) 498-3157</v>
+        <v>(211) 525-6721</v>
       </c>
       <c r="G225" t="str">
-        <v>Burbank</v>
+        <v>Santa Monica</v>
       </c>
       <c r="H225" t="str">
         <v>B+</v>
@@ -7710,30 +7701,30 @@
         <v>available</v>
       </c>
       <c r="J225" t="str">
-        <v>Ava Mitchell</v>
+        <v>Logan Lopez</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>1b5fc1ce-1ed8-4255-a8a4-b02892b2b03a</v>
+        <v>4f5756e4-c006-4d04-a9bc-7a2de0fdf149</v>
       </c>
       <c r="B226" t="str">
-        <v>Ava Mitchell</v>
+        <v>Michael Johnson</v>
       </c>
       <c r="C226">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D226" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E226" t="str">
-        <v>ava.mitchell87@icloud.com</v>
+        <v>michael.johnson96@gmail.com</v>
       </c>
       <c r="F226" t="str">
-        <v>(211) 525-6721</v>
+        <v>(878) 132-4532</v>
       </c>
       <c r="G226" t="str">
-        <v>Santa Monica</v>
+        <v>Long Beach</v>
       </c>
       <c r="H226" t="str">
         <v>B+</v>
@@ -7742,30 +7733,30 @@
         <v>available</v>
       </c>
       <c r="J226" t="str">
-        <v>Logan Lopez</v>
+        <v>Anthony Garcia, Cameron Evans</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>4f5756e4-c006-4d04-a9bc-7a2de0fdf149</v>
+        <v>ba63a5c0-c76e-4c1b-b6e4-afed15dfdcd4</v>
       </c>
       <c r="B227" t="str">
-        <v>Michael Johnson</v>
+        <v>Joseph Anderson</v>
       </c>
       <c r="C227">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D227" t="str">
         <v>Male</v>
       </c>
       <c r="E227" t="str">
-        <v>michael.johnson96@gmail.com</v>
+        <v>joseph.anderson2@outlook.com</v>
       </c>
       <c r="F227" t="str">
-        <v>(878) 132-4532</v>
+        <v>(433) 142-2338</v>
       </c>
       <c r="G227" t="str">
-        <v>Long Beach</v>
+        <v>Chula Vista</v>
       </c>
       <c r="H227" t="str">
         <v>B+</v>
@@ -7774,30 +7765,30 @@
         <v>available</v>
       </c>
       <c r="J227" t="str">
-        <v>Anthony Garcia, Cameron Evans</v>
+        <v>Elizabeth Nelson, Grayson Edwards</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>ba63a5c0-c76e-4c1b-b6e4-afed15dfdcd4</v>
+        <v>f878ab7f-ae59-4af0-b19a-e9bf4573c116</v>
       </c>
       <c r="B228" t="str">
-        <v>Joseph Anderson</v>
+        <v>William Allen</v>
       </c>
       <c r="C228">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D228" t="str">
         <v>Male</v>
       </c>
       <c r="E228" t="str">
-        <v>joseph.anderson2@outlook.com</v>
+        <v>william.allen62@hotmail.com</v>
       </c>
       <c r="F228" t="str">
-        <v>(433) 142-2338</v>
+        <v>(267) 463-7481</v>
       </c>
       <c r="G228" t="str">
-        <v>Chula Vista</v>
+        <v>San Jose</v>
       </c>
       <c r="H228" t="str">
         <v>B+</v>
@@ -7806,97 +7797,94 @@
         <v>available</v>
       </c>
       <c r="J228" t="str">
-        <v>Elizabeth Nelson, Grayson Edwards</v>
+        <v>Sadie Cook, Alexa Hall</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>f878ab7f-ae59-4af0-b19a-e9bf4573c116</v>
+        <v>8e30e99d-0594-4a73-840e-1f5ef32387ae</v>
       </c>
       <c r="B229" t="str">
-        <v>William Allen</v>
+        <v>Cameron Anderson</v>
       </c>
       <c r="C229">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D229" t="str">
         <v>Male</v>
       </c>
       <c r="E229" t="str">
-        <v>william.allen62@hotmail.com</v>
+        <v>cameron.anderson85@hotmail.com</v>
       </c>
       <c r="F229" t="str">
-        <v>(267) 463-7481</v>
+        <v>(960) 363-1976</v>
       </c>
       <c r="G229" t="str">
-        <v>San Jose</v>
+        <v>Glendale</v>
       </c>
       <c r="H229" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I229" t="str">
         <v>available</v>
       </c>
       <c r="J229" t="str">
-        <v>Sadie Cook, Alexa Hall</v>
+        <v>John Diaz</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>8e30e99d-0594-4a73-840e-1f5ef32387ae</v>
+        <v>efe20d3d-2162-4ff8-a8ff-4102e5d3f3ab</v>
       </c>
       <c r="B230" t="str">
-        <v>Cameron Anderson</v>
+        <v>Cameron Lee</v>
       </c>
       <c r="C230">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D230" t="str">
         <v>Male</v>
       </c>
       <c r="E230" t="str">
-        <v>cameron.anderson85@hotmail.com</v>
+        <v>cameron.lee78@yahoo.com</v>
       </c>
       <c r="F230" t="str">
-        <v>(960) 363-1976</v>
+        <v>0404 821 708</v>
       </c>
       <c r="G230" t="str">
-        <v>Glendale</v>
+        <v>Cairns</v>
       </c>
       <c r="H230" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I230" t="str">
         <v>available</v>
-      </c>
-      <c r="J230" t="str">
-        <v>John Diaz</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>efe20d3d-2162-4ff8-a8ff-4102e5d3f3ab</v>
+        <v>7bfb9432-4b59-4ceb-895d-e03ae4837f91</v>
       </c>
       <c r="B231" t="str">
-        <v>Cameron Lee</v>
+        <v>Joshua Walker</v>
       </c>
       <c r="C231">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D231" t="str">
         <v>Male</v>
       </c>
       <c r="E231" t="str">
-        <v>cameron.lee78@yahoo.com</v>
+        <v>joshua.walker97@gmail.com</v>
       </c>
       <c r="F231" t="str">
-        <v>0404 821 708</v>
+        <v>0402 640 379</v>
       </c>
       <c r="G231" t="str">
-        <v>Cairns</v>
+        <v>Darwin</v>
       </c>
       <c r="H231" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I231" t="str">
         <v>available</v>
@@ -7904,104 +7892,116 @@
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>7bfb9432-4b59-4ceb-895d-e03ae4837f91</v>
+        <v>5c5fe7f9-35dd-4685-af6b-e44a56c1d47c</v>
       </c>
       <c r="B232" t="str">
-        <v>Joshua Walker</v>
+        <v>Charlotte Johnson</v>
       </c>
       <c r="C232">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D232" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E232" t="str">
-        <v>joshua.walker97@gmail.com</v>
+        <v>charlotte.johnson36@yahoo.com</v>
       </c>
       <c r="F232" t="str">
-        <v>0402 640 379</v>
+        <v>0410 304 177</v>
       </c>
       <c r="G232" t="str">
-        <v>Darwin</v>
+        <v>Perth</v>
       </c>
       <c r="H232" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="I232" t="str">
         <v>available</v>
+      </c>
+      <c r="J232" t="str">
+        <v>Audrey Martin</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>5c5fe7f9-35dd-4685-af6b-e44a56c1d47c</v>
+        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
       </c>
       <c r="B233" t="str">
-        <v>Charlotte Johnson</v>
+        <v>Peter Adamidis</v>
       </c>
       <c r="C233">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D233" t="str">
-        <v>Female</v>
+        <v>Not Specified</v>
       </c>
       <c r="E233" t="str">
-        <v>charlotte.johnson36@yahoo.com</v>
+        <v>peter.adamidis@gmail.com</v>
       </c>
       <c r="F233" t="str">
-        <v>0410 304 177</v>
+        <v>498086080</v>
       </c>
       <c r="G233" t="str">
-        <v>Perth</v>
+        <v/>
       </c>
       <c r="H233" t="str">
-        <v>A</v>
+        <v/>
       </c>
       <c r="I233" t="str">
         <v>available</v>
       </c>
       <c r="J233" t="str">
-        <v>Audrey Martin</v>
+        <v>Kathleen Reynolds, Felicity Parker-Hill</v>
+      </c>
+      <c r="K233" t="str">
+        <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
+      </c>
+      <c r="L233" t="str">
+        <v>Y</v>
+      </c>
+      <c r="M233" t="str">
+        <v>Broken Leg</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
+        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
       </c>
       <c r="B234" t="str">
-        <v>Peter Adamidis</v>
+        <v>Felicity Parker-Hill</v>
       </c>
       <c r="C234">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D234" t="str">
         <v>Not Specified</v>
       </c>
       <c r="E234" t="str">
-        <v>peter.adamidis@gmail.com</v>
+        <v>felicity.parkerhill@endemolshine.com.au</v>
       </c>
       <c r="F234" t="str">
         <v>498086080</v>
       </c>
       <c r="G234" t="str">
-        <v/>
+        <v>Melbourne</v>
       </c>
       <c r="H234" t="str">
         <v/>
       </c>
       <c r="I234" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
       <c r="J234" t="str">
-        <v>Kathleen Reynolds, Felicity Parker-Hill</v>
+        <v>Peter Adamidis, Kathleen Reynolds</v>
       </c>
       <c r="K234" t="str">
         <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
       </c>
       <c r="L234" t="str">
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="M234" t="str">
-        <v>Broken Leg</v>
+        <v>N/A</v>
       </c>
     </row>
   </sheetData>
@@ -8013,7 +8013,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8063,13 +8063,13 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>0c9cdf6f-2744-4fa8-ac2c-7903630cc964</v>
+        <v>47ec0204-7cf6-4afb-9b9e-a91324cdf4a9</v>
       </c>
       <c r="B3" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
       </c>
       <c r="C3" t="str">
-        <v>fc97dba8-a877-4547-b6c9-0c6b058b1c94</v>
+        <v>5a16ef0a-cce8-4d1b-bfa5-3892331170c1</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -8078,281 +8078,9 @@
         <v>A1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>cdfbff11-dffb-48ca-9730-c003eafad551</v>
-      </c>
-      <c r="B4" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C4" t="str">
-        <v>8dfd710f-c1f0-43ee-b26d-13d05de4598b</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="str">
-        <v>A2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>ec307a05-0c9f-4d9c-b3ac-bd2a4f90b2ca</v>
-      </c>
-      <c r="B5" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C5" t="str">
-        <v>151541b8-8cbb-452a-b532-1a0df3d1d4b6</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="str">
-        <v>A3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>c6a2853e-bdf0-4b56-9115-b4cd6fae668f</v>
-      </c>
-      <c r="B6" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C6" t="str">
-        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="str">
-        <v>B1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>f6b07e56-eb3f-4a5e-b214-95c88bbaa0c7</v>
-      </c>
-      <c r="B7" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C7" t="str">
-        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="str">
-        <v>B2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>39564329-2bdc-40a0-a1f0-0f6a02ea6cc6</v>
-      </c>
-      <c r="B8" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C8" t="str">
-        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="str">
-        <v>B3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>84eea01a-5f44-44ff-b1b4-fb1bc6d7f92c</v>
-      </c>
-      <c r="B9" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C9" t="str">
-        <v>b57be3ad-f74f-4f2b-aa79-6e410d2c199b</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="str">
-        <v>C1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>3c81026f-c7ed-4029-987b-f93d6863fc56</v>
-      </c>
-      <c r="B10" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C10" t="str">
-        <v>8819a806-f5b1-4b58-95f5-91489df570ac</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="str">
-        <v>C2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>5ec7d4db-410a-43c4-bf88-be663609b7e8</v>
-      </c>
-      <c r="B11" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C11" t="str">
-        <v>6116506f-31f1-444e-bd83-2991a5335470</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="str">
-        <v>C3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>8bcf9e67-e8d9-49ab-a577-0989cbd209dc</v>
-      </c>
-      <c r="B12" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C12" t="str">
-        <v>6b672a17-fbf7-4b44-841d-dc10fbe8cbce</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="str">
-        <v>D1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>420d8ccc-a37c-4ebb-ba1d-a8e24622effa</v>
-      </c>
-      <c r="B13" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C13" t="str">
-        <v>9d8995c7-d5a1-4644-848d-dca4e81371af</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="str">
-        <v>D2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>7182f61e-a274-4941-8bba-9f9575dade8f</v>
-      </c>
-      <c r="B14" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C14" t="str">
-        <v>1c24b746-78a8-49cd-9c4d-3d22726dbc1b</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="str">
-        <v>D3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>bd86acd8-4a8e-4f43-a64f-3b91853917af</v>
-      </c>
-      <c r="B15" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C15" t="str">
-        <v>3f9d95b9-bedc-4620-9aa3-9bc8669de2af</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" t="str">
-        <v>E4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>47d96c97-e042-409f-adae-7dbdb75f0a1c</v>
-      </c>
-      <c r="B16" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C16" t="str">
-        <v>6366884b-6583-493e-80bc-a1dff1926c59</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" t="str">
-        <v>E3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>4c802f2b-1ed5-41a3-981a-8f4a01509d1e</v>
-      </c>
-      <c r="B17" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C17" t="str">
-        <v>0fc0ae2d-4068-4972-a5b1-963c241e317a</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="str">
-        <v>A4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>4bf072af-6998-44eb-96a8-c76eeb5c8947</v>
-      </c>
-      <c r="B18" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
-      </c>
-      <c r="C18" t="str">
-        <v>347bdea3-79f6-4991-9601-b2d86513429e</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" t="str">
-        <v>A5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>47ec0204-7cf6-4afb-9b9e-a91324cdf4a9</v>
-      </c>
-      <c r="B19" t="str">
-        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
-      </c>
-      <c r="C19" t="str">
-        <v>5a16ef0a-cce8-4d1b-bfa5-3892331170c1</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" t="str">
-        <v>A1</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H19"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H3"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/storage/backups/automatic-backup.xlsx
+++ b/storage/backups/automatic-backup.xlsx
@@ -718,89 +718,95 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>d37f9e40-d1a2-4238-9089-80517a709859</v>
+        <v>df712cc5-31d8-4341-b177-6603bf089235</v>
       </c>
       <c r="B2" t="str">
-        <v>Mia Roberts</v>
+        <v>Samuel King</v>
       </c>
       <c r="C2">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="D2" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E2" t="str">
-        <v>mia.roberts81@hotmail.com</v>
+        <v>samuel.king24@yahoo.com</v>
       </c>
       <c r="F2" t="str">
-        <v>0412 368 553</v>
+        <v>0400 774 736</v>
       </c>
       <c r="G2" t="str">
-        <v>Toowoomba</v>
+        <v>Newcastle</v>
       </c>
       <c r="H2" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I2" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J2" t="str">
-        <v>Paisley Scott</v>
+        <v/>
+      </c>
+      <c r="L2" t="str">
+        <v>afasdf</v>
+      </c>
+      <c r="M2" t="str">
+        <v>sdfasdfa</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2d659242-2255-4502-b333-781c9b2645fd</v>
+        <v>42504e80-d5df-4b97-a283-eb96728c425f</v>
       </c>
       <c r="B3" t="str">
-        <v>Evelyn Sanchez</v>
+        <v>Ella Anderson</v>
       </c>
       <c r="C3">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D3" t="str">
         <v>Female</v>
       </c>
       <c r="E3" t="str">
-        <v>evelyn.sanchez9@gmail.com</v>
+        <v>ella.anderson1@yahoo.com</v>
       </c>
       <c r="F3" t="str">
-        <v>0404 119 469</v>
+        <v>0412 908 910</v>
       </c>
       <c r="G3" t="str">
-        <v>Gold Coast</v>
+        <v>Geelong</v>
       </c>
       <c r="H3" t="str">
         <v>B</v>
       </c>
       <c r="I3" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J3" t="str">
-        <v>Chloe Flores</v>
+        <v>Isabella Brown</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2738f18e-1f2e-44d7-aa26-778ed59438ac</v>
+        <v>2d659242-2255-4502-b333-781c9b2645fd</v>
       </c>
       <c r="B4" t="str">
-        <v>Emilia Miller</v>
+        <v>Evelyn Sanchez</v>
       </c>
       <c r="C4">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D4" t="str">
         <v>Female</v>
       </c>
       <c r="E4" t="str">
-        <v>emilia.miller56@outlook.com</v>
+        <v>evelyn.sanchez9@gmail.com</v>
       </c>
       <c r="F4" t="str">
-        <v>0403 506 698</v>
+        <v>0404 119 469</v>
       </c>
       <c r="G4" t="str">
-        <v>Melbourne</v>
+        <v>Gold Coast</v>
       </c>
       <c r="H4" t="str">
         <v>B</v>
@@ -809,239 +815,236 @@
         <v>available</v>
       </c>
       <c r="J4" t="str">
-        <v>Victoria Carter</v>
+        <v>Chloe Flores</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>42504e80-d5df-4b97-a283-eb96728c425f</v>
+        <v>bcc86f75-9a60-406c-be7c-4f31ea5c30ef</v>
       </c>
       <c r="B5" t="str">
-        <v>Ella Anderson</v>
+        <v>Paisley Lee</v>
       </c>
       <c r="C5">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D5" t="str">
         <v>Female</v>
       </c>
       <c r="E5" t="str">
-        <v>ella.anderson1@yahoo.com</v>
+        <v>paisley.lee78@hotmail.com</v>
       </c>
       <c r="F5" t="str">
-        <v>0412 908 910</v>
+        <v>0400 179 607</v>
       </c>
       <c r="G5" t="str">
-        <v>Geelong</v>
+        <v>Ballarat</v>
       </c>
       <c r="H5" t="str">
         <v>B</v>
       </c>
       <c r="I5" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J5" t="str">
-        <v>Isabella Brown</v>
+        <v>Aria Lopez</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>df712cc5-31d8-4341-b177-6603bf089235</v>
+        <v>992418b2-3029-4752-9552-0aa886433657</v>
       </c>
       <c r="B6" t="str">
-        <v>Samuel King</v>
+        <v>Zoe Brown</v>
       </c>
       <c r="C6">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D6" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E6" t="str">
-        <v>samuel.king24@yahoo.com</v>
+        <v>zoe.brown45@outlook.com</v>
       </c>
       <c r="F6" t="str">
-        <v>0400 774 736</v>
+        <v>0401 578 107</v>
       </c>
       <c r="G6" t="str">
-        <v>Newcastle</v>
+        <v>Sydney</v>
       </c>
       <c r="H6" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I6" t="str">
         <v>available</v>
       </c>
       <c r="J6" t="str">
-        <v/>
-      </c>
-      <c r="L6" t="str">
-        <v>afasdf</v>
-      </c>
-      <c r="M6" t="str">
-        <v>sdfasdfa</v>
+        <v>Chloe Jones</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>292da493-0524-4ee4-b911-1bb34e328b8c</v>
+        <v>dbb200b8-766c-4984-9724-f68192d88939</v>
       </c>
       <c r="B7" t="str">
-        <v>Jackson Young</v>
+        <v>Hannah Torres</v>
       </c>
       <c r="C7">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D7" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E7" t="str">
-        <v>jackson.young79@yahoo.com</v>
+        <v>hannah.torres86@yahoo.com</v>
       </c>
       <c r="F7" t="str">
-        <v>0412 940 993</v>
+        <v>0402 688 409</v>
       </c>
       <c r="G7" t="str">
-        <v>Ballarat</v>
+        <v>Wollongong</v>
       </c>
       <c r="H7" t="str">
         <v>B+</v>
       </c>
       <c r="I7" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="J7" t="str">
+        <v>Audrey Thomas</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>0fc0ae2d-4068-4972-a5b1-963c241e317a</v>
+        <v>292da493-0524-4ee4-b911-1bb34e328b8c</v>
       </c>
       <c r="B8" t="str">
-        <v>Emilia Thompson</v>
+        <v>Jackson Young</v>
       </c>
       <c r="C8">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D8" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E8" t="str">
-        <v>emilia.thompson0@gmail.com</v>
+        <v>jackson.young79@yahoo.com</v>
       </c>
       <c r="F8" t="str">
-        <v>0404 992 451</v>
+        <v>0412 940 993</v>
       </c>
       <c r="G8" t="str">
-        <v>Perth</v>
+        <v>Ballarat</v>
       </c>
       <c r="H8" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I8" t="str">
         <v>available</v>
-      </c>
-      <c r="J8" t="str">
-        <v>Violet Hall</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>aa6fa282-9894-4b21-a871-c9725586c397</v>
+        <v>0fc0ae2d-4068-4972-a5b1-963c241e317a</v>
       </c>
       <c r="B9" t="str">
-        <v>Audrey Thomas</v>
+        <v>Emilia Thompson</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="D9" t="str">
         <v>Female</v>
       </c>
       <c r="E9" t="str">
-        <v>audrey.thomas38@gmail.com</v>
+        <v>emilia.thompson0@gmail.com</v>
       </c>
       <c r="F9" t="str">
-        <v>0400 437 270</v>
+        <v>0404 992 451</v>
       </c>
       <c r="G9" t="str">
         <v>Perth</v>
       </c>
       <c r="H9" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I9" t="str">
         <v>available</v>
       </c>
       <c r="J9" t="str">
-        <v>Hannah Torres</v>
+        <v>Violet Hall</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>8e115c7e-8033-4466-bcb9-07ea089eb4be</v>
+        <v>d2e4b795-48d9-43e4-8ebe-6916a61a544e</v>
       </c>
       <c r="B10" t="str">
-        <v>Chloe Taylor</v>
+        <v>Ella Gutierrez</v>
       </c>
       <c r="C10">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="D10" t="str">
         <v>Female</v>
       </c>
       <c r="E10" t="str">
-        <v>chloe.taylor7@gmail.com</v>
+        <v>ella.gutierrez43@gmail.com</v>
       </c>
       <c r="F10" t="str">
-        <v>0412 903 254</v>
+        <v>(220) 105-1876</v>
       </c>
       <c r="G10" t="str">
-        <v>Townsville</v>
+        <v>Irvine</v>
       </c>
       <c r="H10" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I10" t="str">
         <v>available</v>
+      </c>
+      <c r="J10" t="str">
+        <v>Nora Lee</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>dd2de8e6-e7c9-40e4-8308-27a14e5f00da</v>
+        <v>40a64316-1fb5-4a09-8c9d-14bbc19036d1</v>
       </c>
       <c r="B11" t="str">
-        <v>Chloe Jones</v>
+        <v>Olivia Gonzalez</v>
       </c>
       <c r="C11">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D11" t="str">
         <v>Female</v>
       </c>
       <c r="E11" t="str">
-        <v>chloe.jones20@outlook.com</v>
+        <v>olivia.gonzalez77@hotmail.com</v>
       </c>
       <c r="F11" t="str">
-        <v>0411 294 635</v>
+        <v>(982) 690-7408</v>
       </c>
       <c r="G11" t="str">
-        <v>Toowoomba</v>
+        <v>Long Beach</v>
       </c>
       <c r="H11" t="str">
-        <v>C</v>
+        <v>B+</v>
       </c>
       <c r="I11" t="str">
         <v>available</v>
       </c>
       <c r="J11" t="str">
-        <v>Zoe Brown</v>
+        <v>Eliana Green</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>b28a73f8-5094-4b00-be67-223342b0e1d5</v>
+        <v>2738f18e-1f2e-44d7-aa26-778ed59438ac</v>
       </c>
       <c r="B12" t="str">
-        <v>Cora Lee</v>
+        <v>Emilia Miller</v>
       </c>
       <c r="C12">
         <v>40</v>
@@ -1050,45 +1053,45 @@
         <v>Female</v>
       </c>
       <c r="E12" t="str">
-        <v>cora.lee40@hotmail.com</v>
+        <v>emilia.miller56@outlook.com</v>
       </c>
       <c r="F12" t="str">
-        <v>(406) 886-5180</v>
+        <v>0403 506 698</v>
       </c>
       <c r="G12" t="str">
-        <v>Fresno</v>
+        <v>Melbourne</v>
       </c>
       <c r="H12" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I12" t="str">
         <v>available</v>
       </c>
       <c r="J12" t="str">
-        <v>Layla Lopez</v>
+        <v>Victoria Carter</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>bcc86f75-9a60-406c-be7c-4f31ea5c30ef</v>
+        <v>22cf4684-eeba-4ed3-8f61-746028381f4d</v>
       </c>
       <c r="B13" t="str">
-        <v>Paisley Lee</v>
+        <v>Harper Lewis</v>
       </c>
       <c r="C13">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D13" t="str">
         <v>Female</v>
       </c>
       <c r="E13" t="str">
-        <v>paisley.lee78@hotmail.com</v>
+        <v>harper.lewis57@hotmail.com</v>
       </c>
       <c r="F13" t="str">
-        <v>0400 179 607</v>
+        <v>0411 652 121</v>
       </c>
       <c r="G13" t="str">
-        <v>Ballarat</v>
+        <v>Geelong</v>
       </c>
       <c r="H13" t="str">
         <v>B</v>
@@ -1097,417 +1100,414 @@
         <v>available</v>
       </c>
       <c r="J13" t="str">
-        <v>Aria Lopez</v>
+        <v>Audrey Ramirez</v>
+      </c>
+      <c r="M13" t="str">
+        <v>Back issues - needs lumbar support chair</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>d2e4b795-48d9-43e4-8ebe-6916a61a544e</v>
+        <v>94116225-6732-4c15-9e4b-66f7727602d5</v>
       </c>
       <c r="B14" t="str">
-        <v>Ella Gutierrez</v>
+        <v>Audrey Ramirez</v>
       </c>
       <c r="C14">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D14" t="str">
         <v>Female</v>
       </c>
       <c r="E14" t="str">
-        <v>ella.gutierrez43@gmail.com</v>
+        <v>audrey.ramirez12@gmail.com</v>
       </c>
       <c r="F14" t="str">
-        <v>(220) 105-1876</v>
+        <v>0411 212 619</v>
       </c>
       <c r="G14" t="str">
-        <v>Irvine</v>
+        <v>Brisbane</v>
       </c>
       <c r="H14" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I14" t="str">
         <v>available</v>
       </c>
       <c r="J14" t="str">
-        <v>Nora Lee</v>
+        <v>Harper Lewis</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>40a64316-1fb5-4a09-8c9d-14bbc19036d1</v>
+        <v>6849995e-3474-4988-87b0-1db2638461ca</v>
       </c>
       <c r="B15" t="str">
-        <v>Olivia Gonzalez</v>
+        <v>Audrey Smith</v>
       </c>
       <c r="C15">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="D15" t="str">
         <v>Female</v>
       </c>
       <c r="E15" t="str">
-        <v>olivia.gonzalez77@hotmail.com</v>
+        <v>audrey.smith66@gmail.com</v>
       </c>
       <c r="F15" t="str">
-        <v>(982) 690-7408</v>
+        <v>0410 904 568</v>
       </c>
       <c r="G15" t="str">
-        <v>Long Beach</v>
+        <v>Ballarat</v>
       </c>
       <c r="H15" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I15" t="str">
         <v>available</v>
       </c>
       <c r="J15" t="str">
-        <v>Eliana Green</v>
+        <v>Grace Scott</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>22cf4684-eeba-4ed3-8f61-746028381f4d</v>
+        <v>0669e014-c952-45fd-9791-36cbe1d51444</v>
       </c>
       <c r="B16" t="str">
-        <v>Harper Lewis</v>
+        <v>Sofia Williams</v>
       </c>
       <c r="C16">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D16" t="str">
         <v>Female</v>
       </c>
       <c r="E16" t="str">
-        <v>harper.lewis57@hotmail.com</v>
+        <v>sofia.williams39@yahoo.com</v>
       </c>
       <c r="F16" t="str">
-        <v>0411 652 121</v>
+        <v>0403 299 421</v>
       </c>
       <c r="G16" t="str">
         <v>Geelong</v>
       </c>
       <c r="H16" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="I16" t="str">
         <v>available</v>
       </c>
       <c r="J16" t="str">
-        <v>Audrey Ramirez</v>
-      </c>
-      <c r="M16" t="str">
-        <v>Back issues - needs lumbar support chair</v>
+        <v>Maya Moore</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>94116225-6732-4c15-9e4b-66f7727602d5</v>
+        <v>c49dde07-b870-477a-82b6-a0354611093f</v>
       </c>
       <c r="B17" t="str">
-        <v>Audrey Ramirez</v>
+        <v>Mia Carter</v>
       </c>
       <c r="C17">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D17" t="str">
         <v>Female</v>
       </c>
       <c r="E17" t="str">
-        <v>audrey.ramirez12@gmail.com</v>
+        <v>mia.carter78@hotmail.com</v>
       </c>
       <c r="F17" t="str">
-        <v>0411 212 619</v>
+        <v>(419) 735-1016</v>
       </c>
       <c r="G17" t="str">
-        <v>Brisbane</v>
+        <v>Newport Beach</v>
       </c>
       <c r="H17" t="str">
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="I17" t="str">
         <v>available</v>
       </c>
       <c r="J17" t="str">
-        <v>Harper Lewis</v>
+        <v>Evelyn Ortiz</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>0669e014-c952-45fd-9791-36cbe1d51444</v>
+        <v>aa6fa282-9894-4b21-a871-c9725586c397</v>
       </c>
       <c r="B18" t="str">
-        <v>Sofia Williams</v>
+        <v>Audrey Thomas</v>
       </c>
       <c r="C18">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D18" t="str">
         <v>Female</v>
       </c>
       <c r="E18" t="str">
-        <v>sofia.williams39@yahoo.com</v>
+        <v>audrey.thomas38@gmail.com</v>
       </c>
       <c r="F18" t="str">
-        <v>0403 299 421</v>
+        <v>0400 437 270</v>
       </c>
       <c r="G18" t="str">
-        <v>Geelong</v>
+        <v>Perth</v>
       </c>
       <c r="H18" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="I18" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J18" t="str">
-        <v>Maya Moore</v>
+        <v>Hannah Torres</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>ef837da0-c81f-4113-a389-db5e46ffaf4d</v>
+        <v>b9e02c2d-410d-4307-811c-7e52cf93b14b</v>
       </c>
       <c r="B19" t="str">
-        <v>Aria Scott</v>
+        <v>Emily Moore</v>
       </c>
       <c r="C19">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D19" t="str">
         <v>Female</v>
       </c>
       <c r="E19" t="str">
-        <v>aria.scott42@outlook.com</v>
+        <v>emily.moore11@hotmail.com</v>
       </c>
       <c r="F19" t="str">
-        <v>0401 330 548</v>
+        <v>0410 362 279</v>
       </c>
       <c r="G19" t="str">
-        <v>Hobart</v>
+        <v>Perth</v>
       </c>
       <c r="H19" t="str">
-        <v>C</v>
+        <v>B+</v>
       </c>
       <c r="I19" t="str">
         <v>available</v>
       </c>
       <c r="J19" t="str">
-        <v>Maya Hernandez</v>
+        <v>Grace Scott</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>c49dde07-b870-477a-82b6-a0354611093f</v>
+        <v>d37f9e40-d1a2-4238-9089-80517a709859</v>
       </c>
       <c r="B20" t="str">
-        <v>Mia Carter</v>
+        <v>Mia Roberts</v>
       </c>
       <c r="C20">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="D20" t="str">
         <v>Female</v>
       </c>
       <c r="E20" t="str">
-        <v>mia.carter78@hotmail.com</v>
+        <v>mia.roberts81@hotmail.com</v>
       </c>
       <c r="F20" t="str">
-        <v>(419) 735-1016</v>
+        <v>0412 368 553</v>
       </c>
       <c r="G20" t="str">
-        <v>Newport Beach</v>
+        <v>Toowoomba</v>
       </c>
       <c r="H20" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="I20" t="str">
         <v>available</v>
       </c>
       <c r="J20" t="str">
-        <v>Evelyn Ortiz</v>
+        <v>Paisley Scott</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>6849995e-3474-4988-87b0-1db2638461ca</v>
+        <v>ecc70875-f282-4849-9e60-071edc278977</v>
       </c>
       <c r="B21" t="str">
-        <v>Audrey Smith</v>
+        <v>Noah White</v>
       </c>
       <c r="C21">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E21" t="str">
-        <v>audrey.smith66@gmail.com</v>
+        <v>noah.white20@gmail.com</v>
       </c>
       <c r="F21" t="str">
-        <v>0410 904 568</v>
+        <v>0410 565 594</v>
       </c>
       <c r="G21" t="str">
-        <v>Ballarat</v>
+        <v>Adelaide</v>
       </c>
       <c r="H21" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="I21" t="str">
         <v>available</v>
       </c>
-      <c r="J21" t="str">
-        <v>Grace Scott</v>
+      <c r="M21" t="str">
+        <v>Requires wheelchair access</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>b9e02c2d-410d-4307-811c-7e52cf93b14b</v>
+        <v>97646711-3e33-4ee9-8d83-bd6e0363ece0</v>
       </c>
       <c r="B22" t="str">
-        <v>Emily Moore</v>
+        <v>Audrey Martin</v>
       </c>
       <c r="C22">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D22" t="str">
         <v>Female</v>
       </c>
       <c r="E22" t="str">
-        <v>emily.moore11@hotmail.com</v>
+        <v>audrey.martin33@yahoo.com</v>
       </c>
       <c r="F22" t="str">
-        <v>0410 362 279</v>
+        <v>0403 767 239</v>
       </c>
       <c r="G22" t="str">
-        <v>Perth</v>
+        <v>Adelaide</v>
       </c>
       <c r="H22" t="str">
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="I22" t="str">
         <v>available</v>
       </c>
       <c r="J22" t="str">
-        <v>Grace Scott</v>
+        <v>Charlotte Johnson</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>ecc70875-f282-4849-9e60-071edc278977</v>
+        <v>210066e7-58e9-4ebb-a504-dfbf383961b5</v>
       </c>
       <c r="B23" t="str">
-        <v>Noah White</v>
+        <v>Grace Scott</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="D23" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E23" t="str">
-        <v>noah.white20@gmail.com</v>
+        <v>grace.scott94@hotmail.com</v>
       </c>
       <c r="F23" t="str">
-        <v>0410 565 594</v>
+        <v>0410 377 869</v>
       </c>
       <c r="G23" t="str">
-        <v>Adelaide</v>
+        <v>Toowoomba</v>
       </c>
       <c r="H23" t="str">
-        <v>A</v>
+        <v>B+</v>
       </c>
       <c r="I23" t="str">
         <v>available</v>
       </c>
-      <c r="M23" t="str">
-        <v>Requires wheelchair access</v>
+      <c r="J23" t="str">
+        <v>Audrey Smith</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>97646711-3e33-4ee9-8d83-bd6e0363ece0</v>
+        <v>8e115c7e-8033-4466-bcb9-07ea089eb4be</v>
       </c>
       <c r="B24" t="str">
-        <v>Audrey Martin</v>
+        <v>Chloe Taylor</v>
       </c>
       <c r="C24">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D24" t="str">
         <v>Female</v>
       </c>
       <c r="E24" t="str">
-        <v>audrey.martin33@yahoo.com</v>
+        <v>chloe.taylor7@gmail.com</v>
       </c>
       <c r="F24" t="str">
-        <v>0403 767 239</v>
+        <v>0412 903 254</v>
       </c>
       <c r="G24" t="str">
-        <v>Adelaide</v>
+        <v>Townsville</v>
       </c>
       <c r="H24" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="I24" t="str">
         <v>available</v>
-      </c>
-      <c r="J24" t="str">
-        <v>Charlotte Johnson</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>210066e7-58e9-4ebb-a504-dfbf383961b5</v>
+        <v>2c188398-79a8-4bf6-b740-1ad9d535662e</v>
       </c>
       <c r="B25" t="str">
-        <v>Grace Scott</v>
+        <v>Everly Torres</v>
       </c>
       <c r="C25">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D25" t="str">
         <v>Female</v>
       </c>
       <c r="E25" t="str">
-        <v>grace.scott94@hotmail.com</v>
+        <v>everly.torres12@gmail.com</v>
       </c>
       <c r="F25" t="str">
-        <v>0410 377 869</v>
+        <v>0412 804 179</v>
       </c>
       <c r="G25" t="str">
-        <v>Toowoomba</v>
+        <v>Sydney</v>
       </c>
       <c r="H25" t="str">
-        <v>B+</v>
+        <v>A+</v>
       </c>
       <c r="I25" t="str">
         <v>available</v>
       </c>
       <c r="J25" t="str">
-        <v>Audrey Smith</v>
+        <v>Stella Green</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>992418b2-3029-4752-9552-0aa886433657</v>
+        <v>5a16ef0a-cce8-4d1b-bfa5-3892331170c1</v>
       </c>
       <c r="B26" t="str">
-        <v>Zoe Brown</v>
+        <v>Caroline Taylor</v>
       </c>
       <c r="C26">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D26" t="str">
         <v>Female</v>
       </c>
       <c r="E26" t="str">
-        <v>zoe.brown45@outlook.com</v>
+        <v>caroline.taylor54@outlook.com</v>
       </c>
       <c r="F26" t="str">
-        <v>0401 578 107</v>
+        <v>0402 864 601</v>
       </c>
       <c r="G26" t="str">
-        <v>Sydney</v>
+        <v>Darwin</v>
       </c>
       <c r="H26" t="str">
         <v>B+</v>
@@ -1516,27 +1516,30 @@
         <v>available</v>
       </c>
       <c r="J26" t="str">
-        <v>Chloe Jones</v>
+        <v>Hazel Mitchell</v>
+      </c>
+      <c r="M26" t="str">
+        <v>Arthritis - prefers aisle seating for easy exit</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>dbb200b8-766c-4984-9724-f68192d88939</v>
+        <v>eff76f3c-c868-4954-99ea-92a4ae6c8067</v>
       </c>
       <c r="B27" t="str">
-        <v>Hannah Torres</v>
+        <v>Abigail Lee</v>
       </c>
       <c r="C27">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D27" t="str">
         <v>Female</v>
       </c>
       <c r="E27" t="str">
-        <v>hannah.torres86@yahoo.com</v>
+        <v>abigail.lee94@hotmail.com</v>
       </c>
       <c r="F27" t="str">
-        <v>0402 688 409</v>
+        <v>0402 888 384</v>
       </c>
       <c r="G27" t="str">
         <v>Wollongong</v>
@@ -1548,97 +1551,91 @@
         <v>available</v>
       </c>
       <c r="J27" t="str">
-        <v>Audrey Thomas</v>
+        <v>Hannah Martin</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2c188398-79a8-4bf6-b740-1ad9d535662e</v>
+        <v>d609a3ee-08af-4d16-aa51-c67e35cfa5c9</v>
       </c>
       <c r="B28" t="str">
-        <v>Everly Torres</v>
+        <v>Ryan Williams</v>
       </c>
       <c r="C28">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D28" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E28" t="str">
-        <v>everly.torres12@gmail.com</v>
+        <v>ryan.williams82@hotmail.com</v>
       </c>
       <c r="F28" t="str">
-        <v>0412 804 179</v>
+        <v>0401 450 673</v>
       </c>
       <c r="G28" t="str">
-        <v>Sydney</v>
+        <v>Perth</v>
       </c>
       <c r="H28" t="str">
-        <v>A+</v>
+        <v>B+</v>
       </c>
       <c r="I28" t="str">
         <v>available</v>
-      </c>
-      <c r="J28" t="str">
-        <v>Stella Green</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>b09d810a-6eb0-4ea8-ac8b-df27315049f1</v>
+        <v>dc8716d3-5841-439f-a3e4-3e7bd8306e66</v>
       </c>
       <c r="B29" t="str">
-        <v>Emily Thomas</v>
+        <v>Gianna Hill</v>
       </c>
       <c r="C29">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="D29" t="str">
         <v>Female</v>
       </c>
       <c r="E29" t="str">
-        <v>emily.thomas25@outlook.com</v>
+        <v>gianna.hill14@icloud.com</v>
       </c>
       <c r="F29" t="str">
-        <v>0402 648 577</v>
+        <v>(338) 214-4997</v>
       </c>
       <c r="G29" t="str">
-        <v>Geelong</v>
+        <v>Santa Ana</v>
       </c>
       <c r="H29" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I29" t="str">
         <v>available</v>
       </c>
       <c r="J29" t="str">
-        <v>Stella Garcia</v>
-      </c>
-      <c r="M29" t="str">
-        <v>Knee replacement - cannot climb stairs</v>
+        <v>Grace King</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>5a16ef0a-cce8-4d1b-bfa5-3892331170c1</v>
+        <v>0faec83d-7c29-4269-bf33-391ef02d60e4</v>
       </c>
       <c r="B30" t="str">
-        <v>Caroline Taylor</v>
+        <v>Anna White</v>
       </c>
       <c r="C30">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D30" t="str">
         <v>Female</v>
       </c>
       <c r="E30" t="str">
-        <v>caroline.taylor54@outlook.com</v>
+        <v>anna.white24@yahoo.com</v>
       </c>
       <c r="F30" t="str">
-        <v>0402 864 601</v>
+        <v>0400 132 564</v>
       </c>
       <c r="G30" t="str">
-        <v>Darwin</v>
+        <v>Adelaide</v>
       </c>
       <c r="H30" t="str">
         <v>B+</v>
@@ -1646,173 +1643,167 @@
       <c r="I30" t="str">
         <v>available</v>
       </c>
-      <c r="J30" t="str">
-        <v>Hazel Mitchell</v>
-      </c>
-      <c r="M30" t="str">
-        <v>Arthritis - prefers aisle seating for easy exit</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>eff76f3c-c868-4954-99ea-92a4ae6c8067</v>
+        <v>0a153155-dcf5-4d56-9ed1-8960501157f8</v>
       </c>
       <c r="B31" t="str">
-        <v>Abigail Lee</v>
+        <v>Aurora Gonzalez</v>
       </c>
       <c r="C31">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D31" t="str">
         <v>Female</v>
       </c>
       <c r="E31" t="str">
-        <v>abigail.lee94@hotmail.com</v>
+        <v>aurora.gonzalez29@outlook.com</v>
       </c>
       <c r="F31" t="str">
-        <v>0402 888 384</v>
+        <v>0404 610 172</v>
       </c>
       <c r="G31" t="str">
-        <v>Wollongong</v>
+        <v>Toowoomba</v>
       </c>
       <c r="H31" t="str">
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="I31" t="str">
         <v>available</v>
-      </c>
-      <c r="J31" t="str">
-        <v>Hannah Martin</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>d609a3ee-08af-4d16-aa51-c67e35cfa5c9</v>
+        <v>f1466859-7323-4893-a189-a0ce994068ba</v>
       </c>
       <c r="B32" t="str">
-        <v>Ryan Williams</v>
+        <v>Anthony Thompson</v>
       </c>
       <c r="C32">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="D32" t="str">
         <v>Male</v>
       </c>
       <c r="E32" t="str">
-        <v>ryan.williams82@hotmail.com</v>
+        <v>anthony.thompson29@yahoo.com</v>
       </c>
       <c r="F32" t="str">
-        <v>0401 450 673</v>
+        <v>0412 442 587</v>
       </c>
       <c r="G32" t="str">
-        <v>Perth</v>
+        <v>Townsville</v>
       </c>
       <c r="H32" t="str">
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="I32" t="str">
         <v>available</v>
+      </c>
+      <c r="M32" t="str">
+        <v>Vision impaired - needs assistance</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>4f5224b0-063d-43fd-9435-f5c2723f61ed</v>
+        <v>29fc5656-fb78-4c9b-9800-b68957bc0a07</v>
       </c>
       <c r="B33" t="str">
-        <v>Sophia Flores</v>
+        <v>Aria Lopez</v>
       </c>
       <c r="C33">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D33" t="str">
         <v>Female</v>
       </c>
       <c r="E33" t="str">
-        <v>sophia.flores86@icloud.com</v>
+        <v>aria.lopez55@hotmail.com</v>
       </c>
       <c r="F33" t="str">
-        <v>(588) 448-1103</v>
+        <v>0404 812 491</v>
       </c>
       <c r="G33" t="str">
-        <v>Fremont</v>
+        <v>Sydney</v>
       </c>
       <c r="H33" t="str">
-        <v>C</v>
+        <v>B+</v>
       </c>
       <c r="I33" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J33" t="str">
-        <v>Elijah Miller</v>
+        <v>Paisley Lee</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>dc8716d3-5841-439f-a3e4-3e7bd8306e66</v>
+        <v>3d2128a1-336f-41e1-973b-b5dd54d90b19</v>
       </c>
       <c r="B34" t="str">
-        <v>Gianna Hill</v>
+        <v>Nova Brown</v>
       </c>
       <c r="C34">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="D34" t="str">
         <v>Female</v>
       </c>
       <c r="E34" t="str">
-        <v>gianna.hill14@icloud.com</v>
+        <v>nova.brown80@outlook.com</v>
       </c>
       <c r="F34" t="str">
-        <v>(338) 214-4997</v>
+        <v>0411 154 614</v>
       </c>
       <c r="G34" t="str">
-        <v>Santa Ana</v>
+        <v>Ballarat</v>
       </c>
       <c r="H34" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="I34" t="str">
         <v>available</v>
-      </c>
-      <c r="J34" t="str">
-        <v>Grace King</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>0faec83d-7c29-4269-bf33-391ef02d60e4</v>
+        <v>c25335af-b2c3-42d1-a950-360c28d1922c</v>
       </c>
       <c r="B35" t="str">
-        <v>Anna White</v>
+        <v>Avery Clark</v>
       </c>
       <c r="C35">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D35" t="str">
         <v>Female</v>
       </c>
       <c r="E35" t="str">
-        <v>anna.white24@yahoo.com</v>
+        <v>avery.clark42@hotmail.com</v>
       </c>
       <c r="F35" t="str">
-        <v>0400 132 564</v>
+        <v>(612) 764-2446</v>
       </c>
       <c r="G35" t="str">
-        <v>Adelaide</v>
+        <v>San Jose</v>
       </c>
       <c r="H35" t="str">
-        <v>B+</v>
+        <v>A+</v>
       </c>
       <c r="I35" t="str">
         <v>available</v>
+      </c>
+      <c r="J35" t="str">
+        <v>Joshua Martinez</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>0a153155-dcf5-4d56-9ed1-8960501157f8</v>
+        <v>fc97dba8-a877-4547-b6c9-0c6b058b1c94</v>
       </c>
       <c r="B36" t="str">
-        <v>Aurora Gonzalez</v>
+        <v>Victoria Carter</v>
       </c>
       <c r="C36">
         <v>42</v>
@@ -1821,42 +1812,45 @@
         <v>Female</v>
       </c>
       <c r="E36" t="str">
-        <v>aurora.gonzalez29@outlook.com</v>
+        <v>victoria.carter86@hotmail.com</v>
       </c>
       <c r="F36" t="str">
-        <v>0404 610 172</v>
+        <v>(576) 929-4509</v>
       </c>
       <c r="G36" t="str">
-        <v>Toowoomba</v>
+        <v>Long Beach</v>
       </c>
       <c r="H36" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="I36" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="J36" t="str">
+        <v>Josiah Lopez, Ella Martinez</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>f1466859-7323-4893-a189-a0ce994068ba</v>
+        <v>6366884b-6583-493e-80bc-a1dff1926c59</v>
       </c>
       <c r="B37" t="str">
-        <v>Anthony Thompson</v>
+        <v>Eleanor Allen</v>
       </c>
       <c r="C37">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D37" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E37" t="str">
-        <v>anthony.thompson29@yahoo.com</v>
+        <v>eleanor.allen67@outlook.com</v>
       </c>
       <c r="F37" t="str">
-        <v>0412 442 587</v>
+        <v>(510) 261-1846</v>
       </c>
       <c r="G37" t="str">
-        <v>Townsville</v>
+        <v>Los Angeles</v>
       </c>
       <c r="H37" t="str">
         <v>A</v>
@@ -1864,400 +1858,409 @@
       <c r="I37" t="str">
         <v>available</v>
       </c>
-      <c r="M37" t="str">
-        <v>Vision impaired - needs assistance</v>
+      <c r="J37" t="str">
+        <v>Christopher Allen</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>347bdea3-79f6-4991-9601-b2d86513429e</v>
+        <v>4f5224b0-063d-43fd-9435-f5c2723f61ed</v>
       </c>
       <c r="B38" t="str">
-        <v>Violet Hall</v>
+        <v>Sophia Flores</v>
       </c>
       <c r="C38">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="D38" t="str">
         <v>Female</v>
       </c>
       <c r="E38" t="str">
-        <v>violet.hall8@yahoo.com</v>
+        <v>sophia.flores86@icloud.com</v>
       </c>
       <c r="F38" t="str">
-        <v>0404 640 755</v>
+        <v>(588) 448-1103</v>
       </c>
       <c r="G38" t="str">
-        <v>Adelaide</v>
+        <v>Fremont</v>
       </c>
       <c r="H38" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I38" t="str">
         <v>available</v>
       </c>
       <c r="J38" t="str">
-        <v>Emilia Thompson</v>
+        <v>Elijah Miller</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>3d2128a1-336f-41e1-973b-b5dd54d90b19</v>
+        <v>c4e002c2-94ef-471f-b43d-e6b2a8d35a1c</v>
       </c>
       <c r="B39" t="str">
-        <v>Nova Brown</v>
+        <v>Paisley Scott</v>
       </c>
       <c r="C39">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="D39" t="str">
         <v>Female</v>
       </c>
       <c r="E39" t="str">
-        <v>nova.brown80@outlook.com</v>
+        <v>paisley.scott78@yahoo.com</v>
       </c>
       <c r="F39" t="str">
-        <v>0411 154 614</v>
+        <v>0410 215 419</v>
       </c>
       <c r="G39" t="str">
         <v>Ballarat</v>
       </c>
       <c r="H39" t="str">
-        <v>A</v>
+        <v>B+</v>
       </c>
       <c r="I39" t="str">
         <v>available</v>
+      </c>
+      <c r="J39" t="str">
+        <v>Mia Roberts</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>c25335af-b2c3-42d1-a950-360c28d1922c</v>
+        <v>e897bbe7-50a2-441c-9ba2-0d1c40619f32</v>
       </c>
       <c r="B40" t="str">
-        <v>Avery Clark</v>
+        <v>Chloe Williams</v>
       </c>
       <c r="C40">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="D40" t="str">
         <v>Female</v>
       </c>
       <c r="E40" t="str">
-        <v>avery.clark42@hotmail.com</v>
+        <v>chloe.williams70@hotmail.com</v>
       </c>
       <c r="F40" t="str">
-        <v>(612) 764-2446</v>
+        <v>(398) 161-2308</v>
       </c>
       <c r="G40" t="str">
-        <v>San Jose</v>
+        <v>Los Angeles</v>
       </c>
       <c r="H40" t="str">
-        <v>A+</v>
+        <v>B+</v>
       </c>
       <c r="I40" t="str">
         <v>available</v>
-      </c>
-      <c r="J40" t="str">
-        <v>Joshua Martinez</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>55099144-967b-4cf2-b4ed-3cfe46413c92</v>
+        <v>151541b8-8cbb-452a-b532-1a0df3d1d4b6</v>
       </c>
       <c r="B41" t="str">
-        <v>Maya Hernandez</v>
+        <v>Ella Martinez</v>
       </c>
       <c r="C41">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D41" t="str">
         <v>Female</v>
       </c>
       <c r="E41" t="str">
-        <v>maya.hernandez32@outlook.com</v>
+        <v>ella.martinez67@hotmail.com</v>
       </c>
       <c r="F41" t="str">
-        <v>0400 358 904</v>
+        <v>(703) 898-3990</v>
       </c>
       <c r="G41" t="str">
-        <v>Brisbane</v>
+        <v>Burbank</v>
       </c>
       <c r="H41" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I41" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J41" t="str">
-        <v>Aria Scott</v>
+        <v>Josiah Lopez, Victoria Carter</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>6366884b-6583-493e-80bc-a1dff1926c59</v>
+        <v>f960de1f-a40f-4281-9d39-2a7822335b9b</v>
       </c>
       <c r="B42" t="str">
-        <v>Eleanor Allen</v>
+        <v>Victoria Carter</v>
       </c>
       <c r="C42">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D42" t="str">
         <v>Female</v>
       </c>
       <c r="E42" t="str">
-        <v>eleanor.allen67@outlook.com</v>
+        <v>victoria.carter74@gmail.com</v>
       </c>
       <c r="F42" t="str">
-        <v>(510) 261-1846</v>
+        <v>0411 641 632</v>
       </c>
       <c r="G42" t="str">
-        <v>Los Angeles</v>
+        <v>Gold Coast</v>
       </c>
       <c r="H42" t="str">
-        <v>A</v>
+        <v>B+</v>
       </c>
       <c r="I42" t="str">
         <v>available</v>
       </c>
       <c r="J42" t="str">
-        <v>Christopher Allen</v>
+        <v>Emilia Miller</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>e897bbe7-50a2-441c-9ba2-0d1c40619f32</v>
+        <v>49e2abec-5fbc-4b4e-9147-fc29f4df9e48</v>
       </c>
       <c r="B43" t="str">
-        <v>Chloe Williams</v>
+        <v>Ellie Allen</v>
       </c>
       <c r="C43">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D43" t="str">
         <v>Female</v>
       </c>
       <c r="E43" t="str">
-        <v>chloe.williams70@hotmail.com</v>
+        <v>ellie.allen18@hotmail.com</v>
       </c>
       <c r="F43" t="str">
-        <v>(398) 161-2308</v>
+        <v>(303) 763-9138</v>
       </c>
       <c r="G43" t="str">
-        <v>Los Angeles</v>
+        <v>Stockton</v>
       </c>
       <c r="H43" t="str">
-        <v>B+</v>
+        <v>A+</v>
       </c>
       <c r="I43" t="str">
         <v>available</v>
+      </c>
+      <c r="J43" t="str">
+        <v>Emma Torres, Charlotte Hernandez</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>fc97dba8-a877-4547-b6c9-0c6b058b1c94</v>
+        <v>f5233693-d357-4cac-a660-70ef0398a969</v>
       </c>
       <c r="B44" t="str">
-        <v>Victoria Carter</v>
+        <v>Nathan Allen</v>
       </c>
       <c r="C44">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D44" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E44" t="str">
-        <v>victoria.carter86@hotmail.com</v>
+        <v>nathan.allen87@outlook.com</v>
       </c>
       <c r="F44" t="str">
-        <v>(576) 929-4509</v>
+        <v>0403 587 263</v>
       </c>
       <c r="G44" t="str">
-        <v>Long Beach</v>
+        <v>Adelaide</v>
       </c>
       <c r="H44" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I44" t="str">
         <v>available</v>
-      </c>
-      <c r="J44" t="str">
-        <v>Josiah Lopez, Ella Martinez</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>50b3a8f6-823f-477c-b52d-5b4fba4edbd2</v>
+        <v>699a6b21-dcdf-4a6c-a093-53af77ccdedb</v>
       </c>
       <c r="B45" t="str">
-        <v>Naomi Moore</v>
+        <v>Emilia Lopez</v>
       </c>
       <c r="C45">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D45" t="str">
         <v>Female</v>
       </c>
       <c r="E45" t="str">
-        <v>naomi.moore30@gmail.com</v>
+        <v>emilia.lopez21@gmail.com</v>
       </c>
       <c r="F45" t="str">
-        <v>(391) 998-1729</v>
+        <v>0403 491 553</v>
       </c>
       <c r="G45" t="str">
-        <v>Irvine</v>
+        <v>Cairns</v>
       </c>
       <c r="H45" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I45" t="str">
         <v>available</v>
       </c>
       <c r="J45" t="str">
-        <v>Isla Wright, Cora Roberts</v>
+        <v>Aurora Rodriguez</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>0bb2a1aa-a74d-4711-a2ea-609663a77b4d</v>
+        <v>c5fdfaeb-862e-43ab-bf0e-ff3e14e5dbb3</v>
       </c>
       <c r="B46" t="str">
-        <v>Carter Harris</v>
+        <v>Hannah Martin</v>
       </c>
       <c r="C46">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="D46" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E46" t="str">
-        <v>carter.harris82@yahoo.com</v>
+        <v>hannah.martin78@yahoo.com</v>
       </c>
       <c r="F46" t="str">
-        <v>0412 175 744</v>
+        <v>0410 940 985</v>
       </c>
       <c r="G46" t="str">
-        <v>Geelong</v>
+        <v>Hobart</v>
       </c>
       <c r="H46" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I46" t="str">
         <v>available</v>
+      </c>
+      <c r="J46" t="str">
+        <v>Abigail Lee</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>9efd8ec8-0e91-45d9-804b-518939fbac76</v>
+        <v>da957311-60b3-4bfc-b980-ac0506dccd20</v>
       </c>
       <c r="B47" t="str">
-        <v>Noah Hernandez</v>
+        <v>Stella Garcia</v>
       </c>
       <c r="C47">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D47" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E47" t="str">
-        <v>noah.hernandez9@hotmail.com</v>
+        <v>stella.garcia89@hotmail.com</v>
       </c>
       <c r="F47" t="str">
-        <v>0404 855 230</v>
+        <v>0403 655 540</v>
       </c>
       <c r="G47" t="str">
-        <v>Cairns</v>
+        <v>Toowoomba</v>
       </c>
       <c r="H47" t="str">
-        <v>C</v>
+        <v>B+</v>
       </c>
       <c r="I47" t="str">
         <v>available</v>
+      </c>
+      <c r="J47" t="str">
+        <v>Emily Thomas</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>49e2abec-5fbc-4b4e-9147-fc29f4df9e48</v>
+        <v>347bdea3-79f6-4991-9601-b2d86513429e</v>
       </c>
       <c r="B48" t="str">
-        <v>Ellie Allen</v>
+        <v>Violet Hall</v>
       </c>
       <c r="C48">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="D48" t="str">
         <v>Female</v>
       </c>
       <c r="E48" t="str">
-        <v>ellie.allen18@hotmail.com</v>
+        <v>violet.hall8@yahoo.com</v>
       </c>
       <c r="F48" t="str">
-        <v>(303) 763-9138</v>
+        <v>0404 640 755</v>
       </c>
       <c r="G48" t="str">
-        <v>Stockton</v>
+        <v>Adelaide</v>
       </c>
       <c r="H48" t="str">
-        <v>A+</v>
+        <v>B</v>
       </c>
       <c r="I48" t="str">
         <v>available</v>
       </c>
       <c r="J48" t="str">
-        <v>Emma Torres, Charlotte Hernandez</v>
+        <v>Emilia Thompson</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>f5233693-d357-4cac-a660-70ef0398a969</v>
+        <v>d3525475-4eef-4712-ba77-a79cea16ef55</v>
       </c>
       <c r="B49" t="str">
-        <v>Nathan Allen</v>
+        <v>Zoey Cook</v>
       </c>
       <c r="C49">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D49" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E49" t="str">
-        <v>nathan.allen87@outlook.com</v>
+        <v>zoey.cook63@yahoo.com</v>
       </c>
       <c r="F49" t="str">
-        <v>0403 587 263</v>
+        <v>(559) 803-4092</v>
       </c>
       <c r="G49" t="str">
-        <v>Adelaide</v>
+        <v>Fremont</v>
       </c>
       <c r="H49" t="str">
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="I49" t="str">
         <v>available</v>
+      </c>
+      <c r="J49" t="str">
+        <v>Hunter Scott</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>29fc5656-fb78-4c9b-9800-b68957bc0a07</v>
+        <v>9b54470e-fe91-4ebb-b0aa-becf22a8cc3c</v>
       </c>
       <c r="B50" t="str">
-        <v>Aria Lopez</v>
+        <v>Abigail Jackson</v>
       </c>
       <c r="C50">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D50" t="str">
         <v>Female</v>
       </c>
       <c r="E50" t="str">
-        <v>aria.lopez55@hotmail.com</v>
+        <v>abigail.jackson65@outlook.com</v>
       </c>
       <c r="F50" t="str">
-        <v>0404 812 491</v>
+        <v>0411 824 257</v>
       </c>
       <c r="G50" t="str">
-        <v>Sydney</v>
+        <v>Newcastle</v>
       </c>
       <c r="H50" t="str">
         <v>B+</v>
@@ -2265,95 +2268,89 @@
       <c r="I50" t="str">
         <v>available</v>
       </c>
-      <c r="J50" t="str">
-        <v>Paisley Lee</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>93e72347-d9bf-4fb1-b06c-7cb5a2edcc2a</v>
+        <v>efeba788-8d57-40b3-a3f9-e134a40931ac</v>
       </c>
       <c r="B51" t="str">
-        <v>Grace King</v>
+        <v>Leah Diaz</v>
       </c>
       <c r="C51">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D51" t="str">
         <v>Female</v>
       </c>
       <c r="E51" t="str">
-        <v>grace.king1@yahoo.com</v>
+        <v>leah.diaz22@outlook.com</v>
       </c>
       <c r="F51" t="str">
-        <v>(217) 721-5651</v>
+        <v>(159) 664-9326</v>
       </c>
       <c r="G51" t="str">
-        <v>Oakland</v>
+        <v>Glendale</v>
       </c>
       <c r="H51" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I51" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J51" t="str">
-        <v>Gianna Hill</v>
+        <v>Julian Nguyen, Lydia Allen</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>699a6b21-dcdf-4a6c-a093-53af77ccdedb</v>
+        <v>adfcb6e3-82cb-46b9-8fb8-069fb91e2d4f</v>
       </c>
       <c r="B52" t="str">
-        <v>Emilia Lopez</v>
+        <v>Mason Hill</v>
       </c>
       <c r="C52">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D52" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E52" t="str">
-        <v>emilia.lopez21@gmail.com</v>
+        <v>mason.hill27@outlook.com</v>
       </c>
       <c r="F52" t="str">
-        <v>0403 491 553</v>
+        <v>0410 682 884</v>
       </c>
       <c r="G52" t="str">
-        <v>Cairns</v>
+        <v>Canberra</v>
       </c>
       <c r="H52" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="I52" t="str">
         <v>available</v>
-      </c>
-      <c r="J52" t="str">
-        <v>Aurora Rodriguez</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>c5fdfaeb-862e-43ab-bf0e-ff3e14e5dbb3</v>
+        <v>55099144-967b-4cf2-b4ed-3cfe46413c92</v>
       </c>
       <c r="B53" t="str">
-        <v>Hannah Martin</v>
+        <v>Maya Hernandez</v>
       </c>
       <c r="C53">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D53" t="str">
         <v>Female</v>
       </c>
       <c r="E53" t="str">
-        <v>hannah.martin78@yahoo.com</v>
+        <v>maya.hernandez32@outlook.com</v>
       </c>
       <c r="F53" t="str">
-        <v>0410 940 985</v>
+        <v>0400 358 904</v>
       </c>
       <c r="G53" t="str">
-        <v>Hobart</v>
+        <v>Brisbane</v>
       </c>
       <c r="H53" t="str">
         <v>B</v>
@@ -2362,59 +2359,59 @@
         <v>available</v>
       </c>
       <c r="J53" t="str">
-        <v>Abigail Lee</v>
+        <v>Aria Scott</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>da957311-60b3-4bfc-b980-ac0506dccd20</v>
+        <v>50b3a8f6-823f-477c-b52d-5b4fba4edbd2</v>
       </c>
       <c r="B54" t="str">
-        <v>Stella Garcia</v>
+        <v>Naomi Moore</v>
       </c>
       <c r="C54">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="D54" t="str">
         <v>Female</v>
       </c>
       <c r="E54" t="str">
-        <v>stella.garcia89@hotmail.com</v>
+        <v>naomi.moore30@gmail.com</v>
       </c>
       <c r="F54" t="str">
-        <v>0403 655 540</v>
+        <v>(391) 998-1729</v>
       </c>
       <c r="G54" t="str">
-        <v>Toowoomba</v>
+        <v>Irvine</v>
       </c>
       <c r="H54" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I54" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J54" t="str">
-        <v>Emily Thomas</v>
+        <v>Isla Wright, Cora Roberts</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>f960de1f-a40f-4281-9d39-2a7822335b9b</v>
+        <v>6591420b-4762-4d90-b738-8a5b70458c40</v>
       </c>
       <c r="B55" t="str">
-        <v>Victoria Carter</v>
+        <v>Aurora Hill</v>
       </c>
       <c r="C55">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D55" t="str">
         <v>Female</v>
       </c>
       <c r="E55" t="str">
-        <v>victoria.carter74@gmail.com</v>
+        <v>aurora.hill33@hotmail.com</v>
       </c>
       <c r="F55" t="str">
-        <v>0411 641 632</v>
+        <v>0410 373 844</v>
       </c>
       <c r="G55" t="str">
         <v>Gold Coast</v>
@@ -2425,98 +2422,92 @@
       <c r="I55" t="str">
         <v>available</v>
       </c>
-      <c r="J55" t="str">
-        <v>Emilia Miller</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>d3525475-4eef-4712-ba77-a79cea16ef55</v>
+        <v>32ffeaf9-5f22-4db7-a70b-cbaab834db0d</v>
       </c>
       <c r="B56" t="str">
-        <v>Zoey Cook</v>
+        <v>Isabella Hill</v>
       </c>
       <c r="C56">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="D56" t="str">
         <v>Female</v>
       </c>
       <c r="E56" t="str">
-        <v>zoey.cook63@yahoo.com</v>
+        <v>isabella.hill77@hotmail.com</v>
       </c>
       <c r="F56" t="str">
-        <v>(559) 803-4092</v>
+        <v>0412 663 356</v>
       </c>
       <c r="G56" t="str">
-        <v>Fremont</v>
+        <v>Darwin</v>
       </c>
       <c r="H56" t="str">
-        <v>A</v>
+        <v>B+</v>
       </c>
       <c r="I56" t="str">
         <v>available</v>
-      </c>
-      <c r="J56" t="str">
-        <v>Hunter Scott</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>c4e002c2-94ef-471f-b43d-e6b2a8d35a1c</v>
+        <v>799c4a95-9c60-477c-ab86-09dfb2ad8324</v>
       </c>
       <c r="B57" t="str">
-        <v>Paisley Scott</v>
+        <v>Naomi Brown</v>
       </c>
       <c r="C57">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D57" t="str">
         <v>Female</v>
       </c>
       <c r="E57" t="str">
-        <v>paisley.scott78@yahoo.com</v>
+        <v>naomi.brown56@yahoo.com</v>
       </c>
       <c r="F57" t="str">
-        <v>0410 215 419</v>
+        <v>(932) 818-9639</v>
       </c>
       <c r="G57" t="str">
-        <v>Ballarat</v>
+        <v>Sacramento</v>
       </c>
       <c r="H57" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I57" t="str">
         <v>available</v>
       </c>
       <c r="J57" t="str">
-        <v>Mia Roberts</v>
+        <v>Brooklyn Nguyen</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>9b54470e-fe91-4ebb-b0aa-becf22a8cc3c</v>
+        <v>5c31add6-7626-46c5-a3e1-0e452ead739d</v>
       </c>
       <c r="B58" t="str">
-        <v>Abigail Jackson</v>
+        <v>Charles Torres</v>
       </c>
       <c r="C58">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D58" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E58" t="str">
-        <v>abigail.jackson65@outlook.com</v>
+        <v>charles.torres98@outlook.com</v>
       </c>
       <c r="F58" t="str">
-        <v>0411 824 257</v>
+        <v>0401 744 176</v>
       </c>
       <c r="G58" t="str">
-        <v>Newcastle</v>
+        <v>Wollongong</v>
       </c>
       <c r="H58" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I58" t="str">
         <v>available</v>
@@ -2524,60 +2515,60 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>efeba788-8d57-40b3-a3f9-e134a40931ac</v>
+        <v>bb319a54-7dbf-4a05-bd7f-8f2f6aa6b414</v>
       </c>
       <c r="B59" t="str">
-        <v>Leah Diaz</v>
+        <v>Isabella Brown</v>
       </c>
       <c r="C59">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D59" t="str">
         <v>Female</v>
       </c>
       <c r="E59" t="str">
-        <v>leah.diaz22@outlook.com</v>
+        <v>isabella.brown43@outlook.com</v>
       </c>
       <c r="F59" t="str">
-        <v>(159) 664-9326</v>
+        <v>0403 771 690</v>
       </c>
       <c r="G59" t="str">
-        <v>Glendale</v>
+        <v>Darwin</v>
       </c>
       <c r="H59" t="str">
         <v>B</v>
       </c>
       <c r="I59" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J59" t="str">
-        <v>Julian Nguyen, Lydia Allen</v>
+        <v>Ella Anderson</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>adfcb6e3-82cb-46b9-8fb8-069fb91e2d4f</v>
+        <v>34685ff7-6e85-4bbd-b546-77cfe11d7f7d</v>
       </c>
       <c r="B60" t="str">
-        <v>Mason Hill</v>
+        <v>Grace Walker</v>
       </c>
       <c r="C60">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D60" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E60" t="str">
-        <v>mason.hill27@outlook.com</v>
+        <v>grace.walker52@hotmail.com</v>
       </c>
       <c r="F60" t="str">
-        <v>0410 682 884</v>
+        <v>0412 754 780</v>
       </c>
       <c r="G60" t="str">
         <v>Canberra</v>
       </c>
       <c r="H60" t="str">
-        <v>A</v>
+        <v>A+</v>
       </c>
       <c r="I60" t="str">
         <v>available</v>
@@ -2585,60 +2576,60 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>151541b8-8cbb-452a-b532-1a0df3d1d4b6</v>
+        <v>703385ff-46f6-4b8f-9998-1e18951304e0</v>
       </c>
       <c r="B61" t="str">
-        <v>Ella Martinez</v>
+        <v>Avery Cruz</v>
       </c>
       <c r="C61">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D61" t="str">
         <v>Female</v>
       </c>
       <c r="E61" t="str">
-        <v>ella.martinez67@hotmail.com</v>
+        <v>avery.cruz48@yahoo.com</v>
       </c>
       <c r="F61" t="str">
-        <v>(703) 898-3990</v>
+        <v>(405) 750-6185</v>
       </c>
       <c r="G61" t="str">
-        <v>Burbank</v>
+        <v>Fremont</v>
       </c>
       <c r="H61" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I61" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J61" t="str">
-        <v>Josiah Lopez, Victoria Carter</v>
+        <v>Lydia Torres, Mia Anderson</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>a2ff3ad7-7964-4523-bf18-ce9994a910da</v>
+        <v>14ca564a-7d73-46a9-9bdd-e4924eac5eda</v>
       </c>
       <c r="B62" t="str">
-        <v>Nora Mitchell</v>
+        <v>Hailey Thompson</v>
       </c>
       <c r="C62">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D62" t="str">
         <v>Female</v>
       </c>
       <c r="E62" t="str">
-        <v>nora.mitchell66@outlook.com</v>
+        <v>hailey.thompson30@yahoo.com</v>
       </c>
       <c r="F62" t="str">
-        <v>0412 196 419</v>
+        <v>(356) 680-9661</v>
       </c>
       <c r="G62" t="str">
-        <v>Adelaide</v>
+        <v>Fremont</v>
       </c>
       <c r="H62" t="str">
-        <v>C</v>
+        <v>B+</v>
       </c>
       <c r="I62" t="str">
         <v>available</v>
@@ -2646,28 +2637,28 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>6591420b-4762-4d90-b738-8a5b70458c40</v>
+        <v>25370fa8-38bb-4172-9e02-23a59fcfd87a</v>
       </c>
       <c r="B63" t="str">
-        <v>Aurora Hill</v>
+        <v>Carter Hill</v>
       </c>
       <c r="C63">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D63" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E63" t="str">
-        <v>aurora.hill33@hotmail.com</v>
+        <v>carter.hill93@gmail.com</v>
       </c>
       <c r="F63" t="str">
-        <v>0410 373 844</v>
+        <v>0404 349 309</v>
       </c>
       <c r="G63" t="str">
-        <v>Gold Coast</v>
+        <v>Newcastle</v>
       </c>
       <c r="H63" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I63" t="str">
         <v>available</v>
@@ -2675,28 +2666,28 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>32ffeaf9-5f22-4db7-a70b-cbaab834db0d</v>
+        <v>cd648690-8cd1-44b6-be26-0521038f442f</v>
       </c>
       <c r="B64" t="str">
-        <v>Isabella Hill</v>
+        <v>Stella Hall</v>
       </c>
       <c r="C64">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D64" t="str">
         <v>Female</v>
       </c>
       <c r="E64" t="str">
-        <v>isabella.hill77@hotmail.com</v>
+        <v>stella.hall72@gmail.com</v>
       </c>
       <c r="F64" t="str">
-        <v>0412 663 356</v>
+        <v>0410 133 818</v>
       </c>
       <c r="G64" t="str">
-        <v>Darwin</v>
+        <v>Wollongong</v>
       </c>
       <c r="H64" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I64" t="str">
         <v>available</v>
@@ -2704,121 +2695,124 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>799c4a95-9c60-477c-ab86-09dfb2ad8324</v>
+        <v>4f1d5a65-9d8d-4c5a-836a-f0ea71c91e56</v>
       </c>
       <c r="B65" t="str">
-        <v>Naomi Brown</v>
+        <v>Savannah Rivera</v>
       </c>
       <c r="C65">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D65" t="str">
         <v>Female</v>
       </c>
       <c r="E65" t="str">
-        <v>naomi.brown56@yahoo.com</v>
+        <v>savannah.rivera74@hotmail.com</v>
       </c>
       <c r="F65" t="str">
-        <v>(932) 818-9639</v>
+        <v>(132) 232-5005</v>
       </c>
       <c r="G65" t="str">
-        <v>Sacramento</v>
+        <v>Stockton</v>
       </c>
       <c r="H65" t="str">
-        <v>B</v>
+        <v>A+</v>
       </c>
       <c r="I65" t="str">
         <v>available</v>
       </c>
       <c r="J65" t="str">
-        <v>Brooklyn Nguyen</v>
+        <v>Penelope Williams</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>5c31add6-7626-46c5-a3e1-0e452ead739d</v>
+        <v>523bddcf-6298-42a0-b9cb-4deffb688143</v>
       </c>
       <c r="B66" t="str">
-        <v>Charles Torres</v>
+        <v>Brooklyn Rivera</v>
       </c>
       <c r="C66">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D66" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E66" t="str">
-        <v>charles.torres98@outlook.com</v>
+        <v>brooklyn.rivera69@outlook.com</v>
       </c>
       <c r="F66" t="str">
-        <v>0401 744 176</v>
+        <v>(847) 715-1204</v>
       </c>
       <c r="G66" t="str">
-        <v>Wollongong</v>
+        <v>Glendale</v>
       </c>
       <c r="H66" t="str">
-        <v>B</v>
+        <v>A+</v>
       </c>
       <c r="I66" t="str">
         <v>available</v>
+      </c>
+      <c r="J66" t="str">
+        <v>John Carter</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>bb319a54-7dbf-4a05-bd7f-8f2f6aa6b414</v>
+        <v>cd2f354f-9f45-4422-af14-1c94758ec1c1</v>
       </c>
       <c r="B67" t="str">
-        <v>Isabella Brown</v>
+        <v>Hannah Murphy</v>
       </c>
       <c r="C67">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D67" t="str">
         <v>Female</v>
       </c>
       <c r="E67" t="str">
-        <v>isabella.brown43@outlook.com</v>
+        <v>hannah.murphy4@outlook.com</v>
       </c>
       <c r="F67" t="str">
-        <v>0403 771 690</v>
+        <v>(544) 415-8741</v>
       </c>
       <c r="G67" t="str">
-        <v>Darwin</v>
+        <v>Pomona</v>
       </c>
       <c r="H67" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="I67" t="str">
         <v>available</v>
       </c>
       <c r="J67" t="str">
-        <v>Ella Anderson</v>
+        <v>Thomas Rivera</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>34685ff7-6e85-4bbd-b546-77cfe11d7f7d</v>
+        <v>a2ff3ad7-7964-4523-bf18-ce9994a910da</v>
       </c>
       <c r="B68" t="str">
-        <v>Grace Walker</v>
+        <v>Nora Mitchell</v>
       </c>
       <c r="C68">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="D68" t="str">
         <v>Female</v>
       </c>
       <c r="E68" t="str">
-        <v>grace.walker52@hotmail.com</v>
+        <v>nora.mitchell66@outlook.com</v>
       </c>
       <c r="F68" t="str">
-        <v>0412 754 780</v>
+        <v>0412 196 419</v>
       </c>
       <c r="G68" t="str">
-        <v>Canberra</v>
+        <v>Adelaide</v>
       </c>
       <c r="H68" t="str">
-        <v>A+</v>
+        <v>B</v>
       </c>
       <c r="I68" t="str">
         <v>available</v>
@@ -2850,7 +2844,7 @@
         <v>B</v>
       </c>
       <c r="I69" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J69" t="str">
         <v>Michael Campbell, Eleanor Hall</v>
@@ -2858,28 +2852,28 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>14ca564a-7d73-46a9-9bdd-e4924eac5eda</v>
+        <v>ee7f9d33-09d6-417b-a45f-3e6554489f5b</v>
       </c>
       <c r="B70" t="str">
-        <v>Hailey Thompson</v>
+        <v>Dylan Miller</v>
       </c>
       <c r="C70">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D70" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E70" t="str">
-        <v>hailey.thompson30@yahoo.com</v>
+        <v>dylan.miller23@hotmail.com</v>
       </c>
       <c r="F70" t="str">
-        <v>(356) 680-9661</v>
+        <v>0402 417 876</v>
       </c>
       <c r="G70" t="str">
-        <v>Fremont</v>
+        <v>Melbourne</v>
       </c>
       <c r="H70" t="str">
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="I70" t="str">
         <v>available</v>
@@ -2887,115 +2881,121 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>25370fa8-38bb-4172-9e02-23a59fcfd87a</v>
+        <v>b57be3ad-f74f-4f2b-aa79-6e410d2c199b</v>
       </c>
       <c r="B71" t="str">
-        <v>Carter Hill</v>
+        <v>Sofia Williams</v>
       </c>
       <c r="C71">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="D71" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E71" t="str">
-        <v>carter.hill93@gmail.com</v>
+        <v>sofia.williams60@outlook.com</v>
       </c>
       <c r="F71" t="str">
-        <v>0404 349 309</v>
+        <v>(745) 392-3827</v>
       </c>
       <c r="G71" t="str">
-        <v>Newcastle</v>
+        <v>Newport Beach</v>
       </c>
       <c r="H71" t="str">
         <v>B</v>
       </c>
       <c r="I71" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="J71" t="str">
+        <v>Colton Harris, Sebastian Edwards</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>5b54b59b-b78d-4a12-906b-7f9069a82fb5</v>
+        <v>349c5100-5395-45db-a63a-4f1c0e44ab44</v>
       </c>
       <c r="B72" t="str">
-        <v>Amelia Lopez</v>
+        <v>Alexa Hall</v>
       </c>
       <c r="C72">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="D72" t="str">
         <v>Female</v>
       </c>
       <c r="E72" t="str">
-        <v>amelia.lopez92@yahoo.com</v>
+        <v>alexa.hall12@hotmail.com</v>
       </c>
       <c r="F72" t="str">
-        <v>(297) 700-2964</v>
+        <v>(220) 308-9173</v>
       </c>
       <c r="G72" t="str">
-        <v>Pomona</v>
+        <v>Santa Ana</v>
       </c>
       <c r="H72" t="str">
-        <v>C</v>
+        <v>A+</v>
       </c>
       <c r="I72" t="str">
         <v>available</v>
       </c>
       <c r="J72" t="str">
-        <v>Lillian Campbell</v>
+        <v>William Allen, Sadie Cook</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>cd648690-8cd1-44b6-be26-0521038f442f</v>
+        <v>da40ad70-95be-413c-b0f1-d089ef285cc8</v>
       </c>
       <c r="B73" t="str">
-        <v>Stella Hall</v>
+        <v>Emily Smith</v>
       </c>
       <c r="C73">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="D73" t="str">
         <v>Female</v>
       </c>
       <c r="E73" t="str">
-        <v>stella.hall72@gmail.com</v>
+        <v>emily.smith56@hotmail.com</v>
       </c>
       <c r="F73" t="str">
-        <v>0410 133 818</v>
+        <v>0410 101 780</v>
       </c>
       <c r="G73" t="str">
-        <v>Wollongong</v>
+        <v>Toowoomba</v>
       </c>
       <c r="H73" t="str">
-        <v>B</v>
+        <v>A+</v>
       </c>
       <c r="I73" t="str">
         <v>available</v>
+      </c>
+      <c r="M73" t="str">
+        <v>Limited mobility - prefers ground floor seating</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>4f1d5a65-9d8d-4c5a-836a-f0ea71c91e56</v>
+        <v>bf0a6231-41b8-4ee9-a915-1043ca5ba524</v>
       </c>
       <c r="B74" t="str">
-        <v>Savannah Rivera</v>
+        <v>Elizabeth Nelson</v>
       </c>
       <c r="C74">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D74" t="str">
         <v>Female</v>
       </c>
       <c r="E74" t="str">
-        <v>savannah.rivera74@hotmail.com</v>
+        <v>elizabeth.nelson1@hotmail.com</v>
       </c>
       <c r="F74" t="str">
-        <v>(132) 232-5005</v>
+        <v>(821) 379-6476</v>
       </c>
       <c r="G74" t="str">
-        <v>Stockton</v>
+        <v>Oakland</v>
       </c>
       <c r="H74" t="str">
         <v>A+</v>
@@ -3004,94 +3004,91 @@
         <v>available</v>
       </c>
       <c r="J74" t="str">
-        <v>Penelope Williams</v>
+        <v>Grayson Edwards, Joseph Anderson</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>523bddcf-6298-42a0-b9cb-4deffb688143</v>
+        <v>5b54b59b-b78d-4a12-906b-7f9069a82fb5</v>
       </c>
       <c r="B75" t="str">
-        <v>Brooklyn Rivera</v>
+        <v>Amelia Lopez</v>
       </c>
       <c r="C75">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D75" t="str">
         <v>Female</v>
       </c>
       <c r="E75" t="str">
-        <v>brooklyn.rivera69@outlook.com</v>
+        <v>amelia.lopez92@yahoo.com</v>
       </c>
       <c r="F75" t="str">
-        <v>(847) 715-1204</v>
+        <v>(297) 700-2964</v>
       </c>
       <c r="G75" t="str">
-        <v>Glendale</v>
+        <v>Pomona</v>
       </c>
       <c r="H75" t="str">
-        <v>A+</v>
+        <v>B</v>
       </c>
       <c r="I75" t="str">
         <v>available</v>
       </c>
       <c r="J75" t="str">
-        <v>John Carter</v>
+        <v>Lillian Campbell</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>cd2f354f-9f45-4422-af14-1c94758ec1c1</v>
+        <v>1df33560-ebf2-41ec-995c-52f3f1df78d5</v>
       </c>
       <c r="B76" t="str">
-        <v>Hannah Murphy</v>
+        <v>Genesis Jones</v>
       </c>
       <c r="C76">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D76" t="str">
         <v>Female</v>
       </c>
       <c r="E76" t="str">
-        <v>hannah.murphy4@outlook.com</v>
+        <v>genesis.jones50@yahoo.com</v>
       </c>
       <c r="F76" t="str">
-        <v>(544) 415-8741</v>
+        <v>0404 967 604</v>
       </c>
       <c r="G76" t="str">
-        <v>Pomona</v>
+        <v>Sydney</v>
       </c>
       <c r="H76" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="I76" t="str">
         <v>available</v>
-      </c>
-      <c r="J76" t="str">
-        <v>Thomas Rivera</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>b57be3ad-f74f-4f2b-aa79-6e410d2c199b</v>
+        <v>222469f4-a8d9-4550-b6ee-db9d00e24edd</v>
       </c>
       <c r="B77" t="str">
-        <v>Sofia Williams</v>
+        <v>Chloe Flores</v>
       </c>
       <c r="C77">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D77" t="str">
         <v>Female</v>
       </c>
       <c r="E77" t="str">
-        <v>sofia.williams60@outlook.com</v>
+        <v>chloe.flores93@yahoo.com</v>
       </c>
       <c r="F77" t="str">
-        <v>(745) 392-3827</v>
+        <v>0400 918 463</v>
       </c>
       <c r="G77" t="str">
-        <v>Newport Beach</v>
+        <v>Townsville</v>
       </c>
       <c r="H77" t="str">
         <v>B</v>
@@ -3100,65 +3097,62 @@
         <v>available</v>
       </c>
       <c r="J77" t="str">
-        <v>Colton Harris, Sebastian Edwards</v>
+        <v>Evelyn Sanchez</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>222469f4-a8d9-4550-b6ee-db9d00e24edd</v>
+        <v>47cc1288-cbc0-4159-a52d-924c8912434d</v>
       </c>
       <c r="B78" t="str">
-        <v>Chloe Flores</v>
+        <v>Stella Martinez</v>
       </c>
       <c r="C78">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D78" t="str">
         <v>Female</v>
       </c>
       <c r="E78" t="str">
-        <v>chloe.flores93@yahoo.com</v>
+        <v>stella.martinez75@gmail.com</v>
       </c>
       <c r="F78" t="str">
-        <v>0400 918 463</v>
+        <v>0404 227 272</v>
       </c>
       <c r="G78" t="str">
-        <v>Townsville</v>
+        <v>Ballarat</v>
       </c>
       <c r="H78" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I78" t="str">
         <v>available</v>
-      </c>
-      <c r="J78" t="str">
-        <v>Evelyn Sanchez</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>ee7f9d33-09d6-417b-a45f-3e6554489f5b</v>
+        <v>3db7cdb3-9a92-467c-b554-d23b524f42f5</v>
       </c>
       <c r="B79" t="str">
-        <v>Dylan Miller</v>
+        <v>Claire Campbell</v>
       </c>
       <c r="C79">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D79" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E79" t="str">
-        <v>dylan.miller23@hotmail.com</v>
+        <v>claire.campbell9@outlook.com</v>
       </c>
       <c r="F79" t="str">
-        <v>0402 417 876</v>
+        <v>0401 164 490</v>
       </c>
       <c r="G79" t="str">
-        <v>Melbourne</v>
+        <v>Darwin</v>
       </c>
       <c r="H79" t="str">
-        <v>A</v>
+        <v>B+</v>
       </c>
       <c r="I79" t="str">
         <v>available</v>
@@ -3166,211 +3160,220 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>47cc1288-cbc0-4159-a52d-924c8912434d</v>
+        <v>9d6b206c-c62d-4b71-b83d-fb61ac2fd06b</v>
       </c>
       <c r="B80" t="str">
-        <v>Stella Martinez</v>
+        <v>Paisley Brown</v>
       </c>
       <c r="C80">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D80" t="str">
         <v>Female</v>
       </c>
       <c r="E80" t="str">
-        <v>stella.martinez75@gmail.com</v>
+        <v>paisley.brown87@outlook.com</v>
       </c>
       <c r="F80" t="str">
-        <v>0404 227 272</v>
+        <v>(164) 124-5926</v>
       </c>
       <c r="G80" t="str">
-        <v>Ballarat</v>
+        <v>Anaheim</v>
       </c>
       <c r="H80" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I80" t="str">
         <v>available</v>
+      </c>
+      <c r="J80" t="str">
+        <v>Amelia Nguyen</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>349c5100-5395-45db-a63a-4f1c0e44ab44</v>
+        <v>5a6b21ec-9fac-4adc-b5ab-bcad20d0eca4</v>
       </c>
       <c r="B81" t="str">
-        <v>Alexa Hall</v>
+        <v>Hunter Harris</v>
       </c>
       <c r="C81">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D81" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E81" t="str">
-        <v>alexa.hall12@hotmail.com</v>
+        <v>hunter.harris1@gmail.com</v>
       </c>
       <c r="F81" t="str">
-        <v>(220) 308-9173</v>
+        <v>0404 782 485</v>
       </c>
       <c r="G81" t="str">
-        <v>Santa Ana</v>
+        <v>Gold Coast</v>
       </c>
       <c r="H81" t="str">
-        <v>A+</v>
+        <v>A</v>
       </c>
       <c r="I81" t="str">
         <v>available</v>
       </c>
       <c r="J81" t="str">
-        <v>William Allen, Sadie Cook</v>
+        <v/>
+      </c>
+      <c r="L81" t="str">
+        <v>sdfasdf</v>
+      </c>
+      <c r="M81" t="str">
+        <v>sdfasdfa</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>f68d2771-4820-4fef-b156-093280aeea67</v>
+        <v>939eed5c-b520-4a34-8d08-2243d6aa41c1</v>
       </c>
       <c r="B82" t="str">
-        <v>Aria Nguyen</v>
+        <v>Andrew Garcia</v>
       </c>
       <c r="C82">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D82" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E82" t="str">
-        <v>aria.nguyen36@gmail.com</v>
+        <v>andrew.garcia26@hotmail.com</v>
       </c>
       <c r="F82" t="str">
-        <v>0401 618 716</v>
+        <v>0400 450 222</v>
       </c>
       <c r="G82" t="str">
-        <v>Sydney</v>
+        <v>Darwin</v>
       </c>
       <c r="H82" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I82" t="str">
         <v>available</v>
+      </c>
+      <c r="M82" t="str">
+        <v>Limited mobility - prefers ground floor seating</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>b8c1889f-fd66-4304-90d7-bd50422cbc52</v>
+        <v>40c53847-674f-43b5-8678-2decb3d42133</v>
       </c>
       <c r="B83" t="str">
-        <v>Maya Moore</v>
+        <v>Eliana Green</v>
       </c>
       <c r="C83">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D83" t="str">
         <v>Female</v>
       </c>
       <c r="E83" t="str">
-        <v>maya.moore54@outlook.com</v>
+        <v>eliana.green54@gmail.com</v>
       </c>
       <c r="F83" t="str">
-        <v>0400 718 585</v>
+        <v>(894) 795-3178</v>
       </c>
       <c r="G83" t="str">
-        <v>Toowoomba</v>
+        <v>Los Angeles</v>
       </c>
       <c r="H83" t="str">
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="I83" t="str">
         <v>available</v>
       </c>
       <c r="J83" t="str">
-        <v>Sofia Williams</v>
+        <v>Olivia Gonzalez</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>da40ad70-95be-413c-b0f1-d089ef285cc8</v>
+        <v>c9e05b47-6028-4cd1-b568-57342a489141</v>
       </c>
       <c r="B84" t="str">
-        <v>Emily Smith</v>
+        <v>Victoria Scott</v>
       </c>
       <c r="C84">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D84" t="str">
         <v>Female</v>
       </c>
       <c r="E84" t="str">
-        <v>emily.smith56@hotmail.com</v>
+        <v>victoria.scott67@icloud.com</v>
       </c>
       <c r="F84" t="str">
-        <v>0410 101 780</v>
+        <v>(507) 166-2977</v>
       </c>
       <c r="G84" t="str">
-        <v>Toowoomba</v>
+        <v>Torrance</v>
       </c>
       <c r="H84" t="str">
-        <v>A+</v>
+        <v>B</v>
       </c>
       <c r="I84" t="str">
         <v>available</v>
       </c>
-      <c r="M84" t="str">
-        <v>Limited mobility - prefers ground floor seating</v>
+      <c r="J84" t="str">
+        <v>William Taylor</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>bf0a6231-41b8-4ee9-a915-1043ca5ba524</v>
+        <v>182bd5d2-7f68-4c83-b156-e80856f3b6b7</v>
       </c>
       <c r="B85" t="str">
-        <v>Elizabeth Nelson</v>
+        <v>Mason Nelson</v>
       </c>
       <c r="C85">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="D85" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E85" t="str">
-        <v>elizabeth.nelson1@hotmail.com</v>
+        <v>mason.nelson14@hotmail.com</v>
       </c>
       <c r="F85" t="str">
-        <v>(821) 379-6476</v>
+        <v>0403 485 650</v>
       </c>
       <c r="G85" t="str">
-        <v>Oakland</v>
+        <v>Canberra</v>
       </c>
       <c r="H85" t="str">
-        <v>A+</v>
+        <v>B+</v>
       </c>
       <c r="I85" t="str">
         <v>available</v>
-      </c>
-      <c r="J85" t="str">
-        <v>Grayson Edwards, Joseph Anderson</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>703385ff-46f6-4b8f-9998-1e18951304e0</v>
+        <v>1adac400-525f-40f4-8b6d-20df8ce78e9d</v>
       </c>
       <c r="B86" t="str">
-        <v>Avery Cruz</v>
+        <v>Grace Scott</v>
       </c>
       <c r="C86">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D86" t="str">
         <v>Female</v>
       </c>
       <c r="E86" t="str">
-        <v>avery.cruz48@yahoo.com</v>
+        <v>grace.scott40@outlook.com</v>
       </c>
       <c r="F86" t="str">
-        <v>(405) 750-6185</v>
+        <v>0401 870 853</v>
       </c>
       <c r="G86" t="str">
-        <v>Fremont</v>
+        <v>Ballarat</v>
       </c>
       <c r="H86" t="str">
         <v>B+</v>
@@ -3379,190 +3382,196 @@
         <v>available</v>
       </c>
       <c r="J86" t="str">
-        <v>Lydia Torres, Mia Anderson</v>
+        <v>Emily Moore</v>
+      </c>
+      <c r="M86" t="str">
+        <v>Hearing impaired - requires front row seating</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>1df33560-ebf2-41ec-995c-52f3f1df78d5</v>
+        <v>8d8070dd-3ee6-476f-aaf2-631e80f67ef7</v>
       </c>
       <c r="B87" t="str">
-        <v>Genesis Jones</v>
+        <v>Lydia Allen</v>
       </c>
       <c r="C87">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D87" t="str">
         <v>Female</v>
       </c>
       <c r="E87" t="str">
-        <v>genesis.jones50@yahoo.com</v>
+        <v>lydia.allen73@icloud.com</v>
       </c>
       <c r="F87" t="str">
-        <v>0404 967 604</v>
+        <v>(363) 934-8723</v>
       </c>
       <c r="G87" t="str">
-        <v>Sydney</v>
+        <v>Oakland</v>
       </c>
       <c r="H87" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="I87" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="J87" t="str">
+        <v>Julian Nguyen, Leah Diaz</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>3db7cdb3-9a92-467c-b554-d23b524f42f5</v>
+        <v>852226e3-fccb-4228-8627-5dc42cfe4387</v>
       </c>
       <c r="B88" t="str">
-        <v>Claire Campbell</v>
+        <v>Aurora Rodriguez</v>
       </c>
       <c r="C88">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D88" t="str">
         <v>Female</v>
       </c>
       <c r="E88" t="str">
-        <v>claire.campbell9@outlook.com</v>
+        <v>aurora.rodriguez20@yahoo.com</v>
       </c>
       <c r="F88" t="str">
-        <v>0401 164 490</v>
+        <v>0404 720 692</v>
       </c>
       <c r="G88" t="str">
-        <v>Darwin</v>
+        <v>Hobart</v>
       </c>
       <c r="H88" t="str">
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="I88" t="str">
         <v>available</v>
+      </c>
+      <c r="J88" t="str">
+        <v>Emilia Lopez</v>
+      </c>
+      <c r="M88" t="str">
+        <v>Arthritis - prefers aisle seating for easy exit</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>9d6b206c-c62d-4b71-b83d-fb61ac2fd06b</v>
+        <v>a3199cca-1aa6-4060-b6cd-0320712376ba</v>
       </c>
       <c r="B89" t="str">
-        <v>Paisley Brown</v>
+        <v>Isla Wright</v>
       </c>
       <c r="C89">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D89" t="str">
         <v>Female</v>
       </c>
       <c r="E89" t="str">
-        <v>paisley.brown87@outlook.com</v>
+        <v>isla.wright1@yahoo.com</v>
       </c>
       <c r="F89" t="str">
-        <v>(164) 124-5926</v>
+        <v>(231) 918-9825</v>
       </c>
       <c r="G89" t="str">
-        <v>Anaheim</v>
+        <v>Pasadena</v>
       </c>
       <c r="H89" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I89" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J89" t="str">
-        <v>Amelia Nguyen</v>
+        <v>Naomi Moore, Cora Roberts</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>5a6b21ec-9fac-4adc-b5ab-bcad20d0eca4</v>
+        <v>36fd980a-62d1-491b-97d6-079c33195e3d</v>
       </c>
       <c r="B90" t="str">
-        <v>Hunter Harris</v>
+        <v>Elena Green</v>
       </c>
       <c r="C90">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D90" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E90" t="str">
-        <v>hunter.harris1@gmail.com</v>
+        <v>elena.green83@gmail.com</v>
       </c>
       <c r="F90" t="str">
-        <v>0404 782 485</v>
+        <v>(274) 515-8123</v>
       </c>
       <c r="G90" t="str">
-        <v>Gold Coast</v>
+        <v>San Diego</v>
       </c>
       <c r="H90" t="str">
         <v>A</v>
       </c>
       <c r="I90" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J90" t="str">
-        <v/>
-      </c>
-      <c r="L90" t="str">
-        <v>sdfasdf</v>
-      </c>
-      <c r="M90" t="str">
-        <v>sdfasdfa</v>
+        <v>Allison Torres, Christian Rivera</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>939eed5c-b520-4a34-8d08-2243d6aa41c1</v>
+        <v>97108062-7918-4f7f-a3f7-92bcbc478acd</v>
       </c>
       <c r="B91" t="str">
-        <v>Andrew Garcia</v>
+        <v>Olivia Nelson</v>
       </c>
       <c r="C91">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="D91" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E91" t="str">
-        <v>andrew.garcia26@hotmail.com</v>
+        <v>olivia.nelson14@gmail.com</v>
       </c>
       <c r="F91" t="str">
-        <v>0400 450 222</v>
+        <v>(582) 644-7834</v>
       </c>
       <c r="G91" t="str">
-        <v>Darwin</v>
+        <v>Bakersfield</v>
       </c>
       <c r="H91" t="str">
         <v>B</v>
       </c>
       <c r="I91" t="str">
-        <v>available</v>
-      </c>
-      <c r="M91" t="str">
-        <v>Limited mobility - prefers ground floor seating</v>
+        <v>assigned</v>
+      </c>
+      <c r="J91" t="str">
+        <v>Joseph Stewart, Madelyn Martinez</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>c9e05b47-6028-4cd1-b568-57342a489141</v>
+        <v>0dd7de5c-0409-45e3-84a5-5f2ffbd591d8</v>
       </c>
       <c r="B92" t="str">
-        <v>Victoria Scott</v>
+        <v>Harper Sanchez</v>
       </c>
       <c r="C92">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D92" t="str">
         <v>Female</v>
       </c>
       <c r="E92" t="str">
-        <v>victoria.scott67@icloud.com</v>
+        <v>harper.sanchez76@gmail.com</v>
       </c>
       <c r="F92" t="str">
-        <v>(507) 166-2977</v>
+        <v>0411 422 972</v>
       </c>
       <c r="G92" t="str">
-        <v>Torrance</v>
+        <v>Geelong</v>
       </c>
       <c r="H92" t="str">
         <v>B</v>
@@ -3571,187 +3580,184 @@
         <v>available</v>
       </c>
       <c r="J92" t="str">
-        <v>William Taylor</v>
+        <v>Leah Scott</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>36fd980a-62d1-491b-97d6-079c33195e3d</v>
+        <v>bf283832-25b8-4d7f-9e0f-ef2f10903233</v>
       </c>
       <c r="B93" t="str">
-        <v>Elena Green</v>
+        <v>Hunter Jackson</v>
       </c>
       <c r="C93">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D93" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E93" t="str">
-        <v>elena.green83@gmail.com</v>
+        <v>hunter.jackson50@outlook.com</v>
       </c>
       <c r="F93" t="str">
-        <v>(274) 515-8123</v>
+        <v>0404 841 788</v>
       </c>
       <c r="G93" t="str">
-        <v>San Diego</v>
+        <v>Townsville</v>
       </c>
       <c r="H93" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="I93" t="str">
         <v>available</v>
-      </c>
-      <c r="J93" t="str">
-        <v>Allison Torres, Christian Rivera</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>0dd7de5c-0409-45e3-84a5-5f2ffbd591d8</v>
+        <v>7728eead-ab7c-467f-bb41-2abd7952591a</v>
       </c>
       <c r="B94" t="str">
-        <v>Harper Sanchez</v>
+        <v>Oliver Rivera</v>
       </c>
       <c r="C94">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D94" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E94" t="str">
-        <v>harper.sanchez76@gmail.com</v>
+        <v>oliver.rivera58@outlook.com</v>
       </c>
       <c r="F94" t="str">
-        <v>0411 422 972</v>
+        <v>0412 991 121</v>
       </c>
       <c r="G94" t="str">
-        <v>Geelong</v>
+        <v>Canberra</v>
       </c>
       <c r="H94" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I94" t="str">
         <v>available</v>
       </c>
-      <c r="J94" t="str">
-        <v>Leah Scott</v>
+      <c r="M94" t="str">
+        <v>Requires wheelchair access</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>a3199cca-1aa6-4060-b6cd-0320712376ba</v>
+        <v>f693d8fc-436b-426a-9bca-0b141221ab3f</v>
       </c>
       <c r="B95" t="str">
-        <v>Isla Wright</v>
+        <v>Evelyn Clark</v>
       </c>
       <c r="C95">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D95" t="str">
         <v>Female</v>
       </c>
       <c r="E95" t="str">
-        <v>isla.wright1@yahoo.com</v>
+        <v>evelyn.clark47@outlook.com</v>
       </c>
       <c r="F95" t="str">
-        <v>(231) 918-9825</v>
+        <v>0410 941 656</v>
       </c>
       <c r="G95" t="str">
-        <v>Pasadena</v>
+        <v>Hobart</v>
       </c>
       <c r="H95" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I95" t="str">
         <v>available</v>
-      </c>
-      <c r="J95" t="str">
-        <v>Naomi Moore, Cora Roberts</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>8d8070dd-3ee6-476f-aaf2-631e80f67ef7</v>
+        <v>d4340206-46f8-4128-a64d-b1a7ca7bbdb5</v>
       </c>
       <c r="B96" t="str">
-        <v>Lydia Allen</v>
+        <v>Serenity Campbell</v>
       </c>
       <c r="C96">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D96" t="str">
         <v>Female</v>
       </c>
       <c r="E96" t="str">
-        <v>lydia.allen73@icloud.com</v>
+        <v>serenity.campbell1@yahoo.com</v>
       </c>
       <c r="F96" t="str">
-        <v>(363) 934-8723</v>
+        <v>(479) 565-5966</v>
       </c>
       <c r="G96" t="str">
-        <v>Oakland</v>
+        <v>Irvine</v>
       </c>
       <c r="H96" t="str">
-        <v>A</v>
+        <v>B+</v>
       </c>
       <c r="I96" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J96" t="str">
-        <v>Julian Nguyen, Leah Diaz</v>
+        <v>Jackson Jackson, Isaiah Green</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>182bd5d2-7f68-4c83-b156-e80856f3b6b7</v>
+        <v>1c24b746-78a8-49cd-9c4d-3d22726dbc1b</v>
       </c>
       <c r="B97" t="str">
-        <v>Mason Nelson</v>
+        <v>Eleanor Hall</v>
       </c>
       <c r="C97">
         <v>59</v>
       </c>
       <c r="D97" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E97" t="str">
-        <v>mason.nelson14@hotmail.com</v>
+        <v>eleanor.hall7@yahoo.com</v>
       </c>
       <c r="F97" t="str">
-        <v>0403 485 650</v>
+        <v>(627) 443-5972</v>
       </c>
       <c r="G97" t="str">
-        <v>Canberra</v>
+        <v>Stockton</v>
       </c>
       <c r="H97" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I97" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="J97" t="str">
+        <v>Michael Campbell, Sadie Williams</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>852226e3-fccb-4228-8627-5dc42cfe4387</v>
+        <v>567e589d-b232-43c2-9d30-3ff1e359f372</v>
       </c>
       <c r="B98" t="str">
-        <v>Aurora Rodriguez</v>
+        <v>Hazel Mitchell</v>
       </c>
       <c r="C98">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D98" t="str">
         <v>Female</v>
       </c>
       <c r="E98" t="str">
-        <v>aurora.rodriguez20@yahoo.com</v>
+        <v>hazel.mitchell91@gmail.com</v>
       </c>
       <c r="F98" t="str">
-        <v>0404 720 692</v>
+        <v>0400 683 761</v>
       </c>
       <c r="G98" t="str">
-        <v>Hobart</v>
+        <v>Perth</v>
       </c>
       <c r="H98" t="str">
         <v>A</v>
@@ -3760,36 +3766,33 @@
         <v>available</v>
       </c>
       <c r="J98" t="str">
-        <v>Emilia Lopez</v>
-      </c>
-      <c r="M98" t="str">
-        <v>Arthritis - prefers aisle seating for easy exit</v>
+        <v>Caroline Taylor</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>bf283832-25b8-4d7f-9e0f-ef2f10903233</v>
+        <v>076ad666-a34b-4ae1-b91f-de785dbdf5ec</v>
       </c>
       <c r="B99" t="str">
-        <v>Hunter Jackson</v>
+        <v>Nora Rogers</v>
       </c>
       <c r="C99">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D99" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E99" t="str">
-        <v>hunter.jackson50@outlook.com</v>
+        <v>nora.rogers98@yahoo.com</v>
       </c>
       <c r="F99" t="str">
-        <v>0404 841 788</v>
+        <v>(704) 607-6893</v>
       </c>
       <c r="G99" t="str">
-        <v>Townsville</v>
+        <v>Riverside</v>
       </c>
       <c r="H99" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I99" t="str">
         <v>available</v>
@@ -3797,118 +3800,118 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>7728eead-ab7c-467f-bb41-2abd7952591a</v>
+        <v>bb7daa74-0f25-4289-9b11-4b838ebf5986</v>
       </c>
       <c r="B100" t="str">
-        <v>Oliver Rivera</v>
+        <v>Emma Torres</v>
       </c>
       <c r="C100">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D100" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E100" t="str">
-        <v>oliver.rivera58@outlook.com</v>
+        <v>emma.torres53@outlook.com</v>
       </c>
       <c r="F100" t="str">
-        <v>0412 991 121</v>
+        <v>(809) 313-7642</v>
       </c>
       <c r="G100" t="str">
-        <v>Canberra</v>
+        <v>Bakersfield</v>
       </c>
       <c r="H100" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I100" t="str">
         <v>available</v>
       </c>
-      <c r="M100" t="str">
-        <v>Requires wheelchair access</v>
+      <c r="J100" t="str">
+        <v>Ellie Allen, Charlotte Hernandez</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>f693d8fc-436b-426a-9bca-0b141221ab3f</v>
+        <v>e7129d06-9fe4-44dd-afce-e4faeebfe1a9</v>
       </c>
       <c r="B101" t="str">
-        <v>Evelyn Clark</v>
+        <v>Piper Green</v>
       </c>
       <c r="C101">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D101" t="str">
         <v>Female</v>
       </c>
       <c r="E101" t="str">
-        <v>evelyn.clark47@outlook.com</v>
+        <v>piper.green82@hotmail.com</v>
       </c>
       <c r="F101" t="str">
-        <v>0410 941 656</v>
+        <v>(678) 816-2263</v>
       </c>
       <c r="G101" t="str">
-        <v>Hobart</v>
+        <v>Burbank</v>
       </c>
       <c r="H101" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I101" t="str">
         <v>available</v>
+      </c>
+      <c r="J101" t="str">
+        <v>Josiah Brown</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>97108062-7918-4f7f-a3f7-92bcbc478acd</v>
+        <v>700fc657-988b-4d49-9814-25b1df35cefc</v>
       </c>
       <c r="B102" t="str">
-        <v>Olivia Nelson</v>
+        <v>Victoria Thompson</v>
       </c>
       <c r="C102">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D102" t="str">
         <v>Female</v>
       </c>
       <c r="E102" t="str">
-        <v>olivia.nelson14@gmail.com</v>
+        <v>victoria.thompson68@yahoo.com</v>
       </c>
       <c r="F102" t="str">
-        <v>(582) 644-7834</v>
+        <v>(793) 601-6884</v>
       </c>
       <c r="G102" t="str">
-        <v>Bakersfield</v>
+        <v>San Jose</v>
       </c>
       <c r="H102" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I102" t="str">
         <v>available</v>
-      </c>
-      <c r="J102" t="str">
-        <v>Joseph Stewart, Madelyn Martinez</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>1adac400-525f-40f4-8b6d-20df8ce78e9d</v>
+        <v>af09efbe-e83d-4046-8dc8-e6a06dfc0c40</v>
       </c>
       <c r="B103" t="str">
-        <v>Grace Scott</v>
+        <v>Paisley Evans</v>
       </c>
       <c r="C103">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D103" t="str">
         <v>Female</v>
       </c>
       <c r="E103" t="str">
-        <v>grace.scott40@outlook.com</v>
+        <v>paisley.evans52@yahoo.com</v>
       </c>
       <c r="F103" t="str">
-        <v>0401 870 853</v>
+        <v>(894) 250-9501</v>
       </c>
       <c r="G103" t="str">
-        <v>Ballarat</v>
+        <v>Torrance</v>
       </c>
       <c r="H103" t="str">
         <v>B+</v>
@@ -3916,34 +3919,28 @@
       <c r="I103" t="str">
         <v>available</v>
       </c>
-      <c r="J103" t="str">
-        <v>Emily Moore</v>
-      </c>
-      <c r="M103" t="str">
-        <v>Hearing impaired - requires front row seating</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>40c53847-674f-43b5-8678-2decb3d42133</v>
+        <v>fec80989-ab0f-471a-a4de-6c207e334f80</v>
       </c>
       <c r="B104" t="str">
-        <v>Eliana Green</v>
+        <v>Eliza Rivera</v>
       </c>
       <c r="C104">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D104" t="str">
         <v>Female</v>
       </c>
       <c r="E104" t="str">
-        <v>eliana.green54@gmail.com</v>
+        <v>eliza.rivera29@yahoo.com</v>
       </c>
       <c r="F104" t="str">
-        <v>(894) 795-3178</v>
+        <v>(836) 154-6362</v>
       </c>
       <c r="G104" t="str">
-        <v>Los Angeles</v>
+        <v>Newport Beach</v>
       </c>
       <c r="H104" t="str">
         <v>A</v>
@@ -3951,31 +3948,28 @@
       <c r="I104" t="str">
         <v>available</v>
       </c>
-      <c r="J104" t="str">
-        <v>Olivia Gonzalez</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>94d903d4-dbc0-4052-87a8-ca32773ca839</v>
+        <v>f6a281bb-caec-44cf-a596-a6e92d6e2610</v>
       </c>
       <c r="B105" t="str">
-        <v>Hannah Jones</v>
+        <v>Leah Scott</v>
       </c>
       <c r="C105">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D105" t="str">
         <v>Female</v>
       </c>
       <c r="E105" t="str">
-        <v>hannah.jones85@yahoo.com</v>
+        <v>leah.scott74@gmail.com</v>
       </c>
       <c r="F105" t="str">
-        <v>(644) 877-6251</v>
+        <v>0402 414 358</v>
       </c>
       <c r="G105" t="str">
-        <v>Sacramento</v>
+        <v>Perth</v>
       </c>
       <c r="H105" t="str">
         <v>B</v>
@@ -3984,123 +3978,123 @@
         <v>available</v>
       </c>
       <c r="J105" t="str">
-        <v>Thomas Nguyen, Henry Roberts</v>
+        <v>Harper Sanchez</v>
+      </c>
+      <c r="M105" t="str">
+        <v>Limited mobility - prefers ground floor seating</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>567e589d-b232-43c2-9d30-3ff1e359f372</v>
+        <v>04993d9a-3a65-4d61-a0c8-591aabb2e72c</v>
       </c>
       <c r="B106" t="str">
-        <v>Hazel Mitchell</v>
+        <v>Eliza Martinez</v>
       </c>
       <c r="C106">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D106" t="str">
         <v>Female</v>
       </c>
       <c r="E106" t="str">
-        <v>hazel.mitchell91@gmail.com</v>
+        <v>eliza.martinez8@hotmail.com</v>
       </c>
       <c r="F106" t="str">
-        <v>0400 683 761</v>
+        <v>(881) 895-2168</v>
       </c>
       <c r="G106" t="str">
-        <v>Perth</v>
+        <v>Torrance</v>
       </c>
       <c r="H106" t="str">
-        <v>A</v>
+        <v>B+</v>
       </c>
       <c r="I106" t="str">
         <v>available</v>
-      </c>
-      <c r="J106" t="str">
-        <v>Caroline Taylor</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>076ad666-a34b-4ae1-b91f-de785dbdf5ec</v>
+        <v>bf1fc0b1-7d88-41a5-ab6f-ee4c085fd344</v>
       </c>
       <c r="B107" t="str">
-        <v>Nora Rogers</v>
+        <v>Brooklyn Nguyen</v>
       </c>
       <c r="C107">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D107" t="str">
         <v>Female</v>
       </c>
       <c r="E107" t="str">
-        <v>nora.rogers98@yahoo.com</v>
+        <v>brooklyn.nguyen77@yahoo.com</v>
       </c>
       <c r="F107" t="str">
-        <v>(704) 607-6893</v>
+        <v>(142) 872-1855</v>
       </c>
       <c r="G107" t="str">
-        <v>Riverside</v>
+        <v>Los Angeles</v>
       </c>
       <c r="H107" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="I107" t="str">
         <v>available</v>
+      </c>
+      <c r="J107" t="str">
+        <v>Naomi Brown</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>17e4dd39-8810-472c-b1a9-52382fbe0c79</v>
+        <v>0fa47948-ca05-48a1-917a-bce2c13237ed</v>
       </c>
       <c r="B108" t="str">
-        <v>Allison Torres</v>
+        <v>Isabella Taylor</v>
       </c>
       <c r="C108">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D108" t="str">
         <v>Female</v>
       </c>
       <c r="E108" t="str">
-        <v>allison.torres94@gmail.com</v>
+        <v>isabella.taylor65@yahoo.com</v>
       </c>
       <c r="F108" t="str">
-        <v>(858) 153-7242</v>
+        <v>(997) 957-4171</v>
       </c>
       <c r="G108" t="str">
-        <v>Fremont</v>
+        <v>Chula Vista</v>
       </c>
       <c r="H108" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="I108" t="str">
         <v>available</v>
-      </c>
-      <c r="J108" t="str">
-        <v>Christian Rivera, Elena Green</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>d4340206-46f8-4128-a64d-b1a7ca7bbdb5</v>
+        <v>24928131-51b3-46f8-b43f-2cf989696f62</v>
       </c>
       <c r="B109" t="str">
-        <v>Serenity Campbell</v>
+        <v>Amelia Garcia</v>
       </c>
       <c r="C109">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D109" t="str">
         <v>Female</v>
       </c>
       <c r="E109" t="str">
-        <v>serenity.campbell1@yahoo.com</v>
+        <v>amelia.garcia16@gmail.com</v>
       </c>
       <c r="F109" t="str">
-        <v>(479) 565-5966</v>
+        <v>(331) 367-3904</v>
       </c>
       <c r="G109" t="str">
-        <v>Irvine</v>
+        <v>Anaheim</v>
       </c>
       <c r="H109" t="str">
         <v>B+</v>
@@ -4108,170 +4102,173 @@
       <c r="I109" t="str">
         <v>available</v>
       </c>
-      <c r="J109" t="str">
-        <v>Jackson Jackson, Isaiah Green</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>bb7daa74-0f25-4289-9b11-4b838ebf5986</v>
+        <v>50b098db-86f4-4a21-8425-ab03df8f7a40</v>
       </c>
       <c r="B110" t="str">
-        <v>Emma Torres</v>
+        <v>Lillian Campbell</v>
       </c>
       <c r="C110">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D110" t="str">
         <v>Female</v>
       </c>
       <c r="E110" t="str">
-        <v>emma.torres53@outlook.com</v>
+        <v>lillian.campbell41@yahoo.com</v>
       </c>
       <c r="F110" t="str">
-        <v>(809) 313-7642</v>
+        <v>(945) 213-8284</v>
       </c>
       <c r="G110" t="str">
-        <v>Bakersfield</v>
+        <v>Pasadena</v>
       </c>
       <c r="H110" t="str">
-        <v>B</v>
+        <v>A+</v>
       </c>
       <c r="I110" t="str">
         <v>available</v>
       </c>
       <c r="J110" t="str">
-        <v>Ellie Allen, Charlotte Hernandez</v>
+        <v>Amelia Lopez</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>700fc657-988b-4d49-9814-25b1df35cefc</v>
+        <v>e9a3f4c7-c9ed-4fd1-a5a9-d3763ae52a55</v>
       </c>
       <c r="B111" t="str">
-        <v>Victoria Thompson</v>
+        <v>Victoria Anderson</v>
       </c>
       <c r="C111">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D111" t="str">
         <v>Female</v>
       </c>
       <c r="E111" t="str">
-        <v>victoria.thompson68@yahoo.com</v>
+        <v>victoria.anderson1@outlook.com</v>
       </c>
       <c r="F111" t="str">
-        <v>(793) 601-6884</v>
+        <v>(622) 987-4829</v>
       </c>
       <c r="G111" t="str">
-        <v>San Jose</v>
+        <v>Sacramento</v>
       </c>
       <c r="H111" t="str">
-        <v>C</v>
+        <v>A+</v>
       </c>
       <c r="I111" t="str">
         <v>available</v>
+      </c>
+      <c r="J111" t="str">
+        <v>Sophia Reyes</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>af09efbe-e83d-4046-8dc8-e6a06dfc0c40</v>
+        <v>0d8894f6-9a60-421c-a7c0-144fe2f8c85f</v>
       </c>
       <c r="B112" t="str">
-        <v>Paisley Evans</v>
+        <v>Lydia Morris</v>
       </c>
       <c r="C112">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D112" t="str">
         <v>Female</v>
       </c>
       <c r="E112" t="str">
-        <v>paisley.evans52@yahoo.com</v>
+        <v>lydia.morris1@gmail.com</v>
       </c>
       <c r="F112" t="str">
-        <v>(894) 250-9501</v>
+        <v>(565) 806-3217</v>
       </c>
       <c r="G112" t="str">
-        <v>Torrance</v>
+        <v>Burbank</v>
       </c>
       <c r="H112" t="str">
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="I112" t="str">
         <v>available</v>
+      </c>
+      <c r="J112" t="str">
+        <v>Logan Gomez</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>fec80989-ab0f-471a-a4de-6c207e334f80</v>
+        <v>3dcd887e-9357-49a1-be20-96ba912e33bf</v>
       </c>
       <c r="B113" t="str">
-        <v>Eliza Rivera</v>
+        <v>Cora Mitchell</v>
       </c>
       <c r="C113">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D113" t="str">
         <v>Female</v>
       </c>
       <c r="E113" t="str">
-        <v>eliza.rivera29@yahoo.com</v>
+        <v>cora.mitchell80@icloud.com</v>
       </c>
       <c r="F113" t="str">
-        <v>(836) 154-6362</v>
+        <v>(929) 139-3875</v>
       </c>
       <c r="G113" t="str">
         <v>Newport Beach</v>
       </c>
       <c r="H113" t="str">
-        <v>A</v>
+        <v>B+</v>
       </c>
       <c r="I113" t="str">
         <v>available</v>
+      </c>
+      <c r="J113" t="str">
+        <v>Christopher Carter</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>f6a281bb-caec-44cf-a596-a6e92d6e2610</v>
+        <v>443fcd0e-727d-4035-ab6a-c3df01515271</v>
       </c>
       <c r="B114" t="str">
-        <v>Leah Scott</v>
+        <v>Lydia Torres</v>
       </c>
       <c r="C114">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="D114" t="str">
         <v>Female</v>
       </c>
       <c r="E114" t="str">
-        <v>leah.scott74@gmail.com</v>
+        <v>lydia.torres72@yahoo.com</v>
       </c>
       <c r="F114" t="str">
-        <v>0402 414 358</v>
+        <v>(828) 773-4386</v>
       </c>
       <c r="G114" t="str">
-        <v>Perth</v>
+        <v>Anaheim</v>
       </c>
       <c r="H114" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I114" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J114" t="str">
-        <v>Harper Sanchez</v>
-      </c>
-      <c r="M114" t="str">
-        <v>Limited mobility - prefers ground floor seating</v>
+        <v>Avery Cruz, Mia Anderson</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>04993d9a-3a65-4d61-a0c8-591aabb2e72c</v>
+        <v>4e28a208-5278-410d-b375-d9c77ba144d7</v>
       </c>
       <c r="B115" t="str">
-        <v>Eliza Martinez</v>
+        <v>Riley Scott</v>
       </c>
       <c r="C115">
         <v>49</v>
@@ -4280,16 +4277,16 @@
         <v>Female</v>
       </c>
       <c r="E115" t="str">
-        <v>eliza.martinez8@hotmail.com</v>
+        <v>riley.scott58@hotmail.com</v>
       </c>
       <c r="F115" t="str">
-        <v>(881) 895-2168</v>
+        <v>(848) 718-3465</v>
       </c>
       <c r="G115" t="str">
-        <v>Torrance</v>
+        <v>San Francisco</v>
       </c>
       <c r="H115" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I115" t="str">
         <v>available</v>
@@ -4297,86 +4294,89 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>bf1fc0b1-7d88-41a5-ab6f-ee4c085fd344</v>
+        <v>b498fd02-c816-4b07-976f-1100495bf38b</v>
       </c>
       <c r="B116" t="str">
-        <v>Brooklyn Nguyen</v>
+        <v>Valentina Morales</v>
       </c>
       <c r="C116">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D116" t="str">
         <v>Female</v>
       </c>
       <c r="E116" t="str">
-        <v>brooklyn.nguyen77@yahoo.com</v>
+        <v>valentina.morales27@icloud.com</v>
       </c>
       <c r="F116" t="str">
-        <v>(142) 872-1855</v>
+        <v>(896) 204-3978</v>
       </c>
       <c r="G116" t="str">
-        <v>Los Angeles</v>
+        <v>San Jose</v>
       </c>
       <c r="H116" t="str">
-        <v>A</v>
+        <v>B+</v>
       </c>
       <c r="I116" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J116" t="str">
-        <v>Naomi Brown</v>
+        <v>Adam Hall, Grayson Morgan</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>0fa47948-ca05-48a1-917a-bce2c13237ed</v>
+        <v>17e4dd39-8810-472c-b1a9-52382fbe0c79</v>
       </c>
       <c r="B117" t="str">
-        <v>Isabella Taylor</v>
+        <v>Allison Torres</v>
       </c>
       <c r="C117">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D117" t="str">
         <v>Female</v>
       </c>
       <c r="E117" t="str">
-        <v>isabella.taylor65@yahoo.com</v>
+        <v>allison.torres94@gmail.com</v>
       </c>
       <c r="F117" t="str">
-        <v>(997) 957-4171</v>
+        <v>(858) 153-7242</v>
       </c>
       <c r="G117" t="str">
-        <v>Chula Vista</v>
+        <v>Fremont</v>
       </c>
       <c r="H117" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="I117" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="J117" t="str">
+        <v>Christian Rivera, Elena Green</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>24928131-51b3-46f8-b43f-2cf989696f62</v>
+        <v>ca152dfe-8ddb-45c8-b084-8a5c9e6dacfa</v>
       </c>
       <c r="B118" t="str">
-        <v>Amelia Garcia</v>
+        <v>Ryan Lewis</v>
       </c>
       <c r="C118">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D118" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E118" t="str">
-        <v>amelia.garcia16@gmail.com</v>
+        <v>ryan.lewis85@yahoo.com</v>
       </c>
       <c r="F118" t="str">
-        <v>(331) 367-3904</v>
+        <v>0400 187 811</v>
       </c>
       <c r="G118" t="str">
-        <v>Anaheim</v>
+        <v>Canberra</v>
       </c>
       <c r="H118" t="str">
         <v>B+</v>
@@ -4387,66 +4387,66 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>50b098db-86f4-4a21-8425-ab03df8f7a40</v>
+        <v>a8f50ac0-29e0-4209-a524-83ca7878b0ca</v>
       </c>
       <c r="B119" t="str">
-        <v>Lillian Campbell</v>
+        <v>Avery Taylor</v>
       </c>
       <c r="C119">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="D119" t="str">
         <v>Female</v>
       </c>
       <c r="E119" t="str">
-        <v>lillian.campbell41@yahoo.com</v>
+        <v>avery.taylor87@outlook.com</v>
       </c>
       <c r="F119" t="str">
-        <v>(945) 213-8284</v>
+        <v>(299) 491-7680</v>
       </c>
       <c r="G119" t="str">
-        <v>Pasadena</v>
+        <v>Los Angeles</v>
       </c>
       <c r="H119" t="str">
-        <v>A+</v>
+        <v>B+</v>
       </c>
       <c r="I119" t="str">
         <v>available</v>
       </c>
       <c r="J119" t="str">
-        <v>Amelia Lopez</v>
+        <v>Audrey Hill</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>e9a3f4c7-c9ed-4fd1-a5a9-d3763ae52a55</v>
+        <v>410dbe34-810b-4a5d-8731-985738541b4b</v>
       </c>
       <c r="B120" t="str">
-        <v>Victoria Anderson</v>
+        <v>Penelope Williams</v>
       </c>
       <c r="C120">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D120" t="str">
         <v>Female</v>
       </c>
       <c r="E120" t="str">
-        <v>victoria.anderson1@outlook.com</v>
+        <v>penelope.williams29@hotmail.com</v>
       </c>
       <c r="F120" t="str">
-        <v>(622) 987-4829</v>
+        <v>(735) 691-4267</v>
       </c>
       <c r="G120" t="str">
         <v>Sacramento</v>
       </c>
       <c r="H120" t="str">
-        <v>A+</v>
+        <v>B</v>
       </c>
       <c r="I120" t="str">
         <v>available</v>
       </c>
       <c r="J120" t="str">
-        <v>Sophia Reyes</v>
+        <v>Savannah Rivera</v>
       </c>
     </row>
     <row r="121">
@@ -4472,7 +4472,7 @@
         <v>Anaheim</v>
       </c>
       <c r="H121" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I121" t="str">
         <v>available</v>
@@ -4480,214 +4480,217 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>0d8894f6-9a60-421c-a7c0-144fe2f8c85f</v>
+        <v>5addacf0-a31c-4412-982a-3f0d8f1c6d07</v>
       </c>
       <c r="B122" t="str">
-        <v>Lydia Morris</v>
+        <v>Layla Lopez</v>
       </c>
       <c r="C122">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D122" t="str">
         <v>Female</v>
       </c>
       <c r="E122" t="str">
-        <v>lydia.morris1@gmail.com</v>
+        <v>layla.lopez23@yahoo.com</v>
       </c>
       <c r="F122" t="str">
-        <v>(565) 806-3217</v>
+        <v>(607) 496-6102</v>
       </c>
       <c r="G122" t="str">
-        <v>Burbank</v>
+        <v>Los Angeles</v>
       </c>
       <c r="H122" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="I122" t="str">
         <v>available</v>
       </c>
       <c r="J122" t="str">
-        <v>Logan Gomez</v>
+        <v>Cora Lee</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>3dcd887e-9357-49a1-be20-96ba912e33bf</v>
+        <v>94d903d4-dbc0-4052-87a8-ca32773ca839</v>
       </c>
       <c r="B123" t="str">
-        <v>Cora Mitchell</v>
+        <v>Hannah Jones</v>
       </c>
       <c r="C123">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D123" t="str">
         <v>Female</v>
       </c>
       <c r="E123" t="str">
-        <v>cora.mitchell80@icloud.com</v>
+        <v>hannah.jones85@yahoo.com</v>
       </c>
       <c r="F123" t="str">
-        <v>(929) 139-3875</v>
+        <v>(644) 877-6251</v>
       </c>
       <c r="G123" t="str">
-        <v>Newport Beach</v>
+        <v>Sacramento</v>
       </c>
       <c r="H123" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I123" t="str">
         <v>available</v>
       </c>
       <c r="J123" t="str">
-        <v>Christopher Carter</v>
+        <v>Thomas Nguyen, Henry Roberts</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>5addacf0-a31c-4412-982a-3f0d8f1c6d07</v>
+        <v>39b7a0a4-be8b-49f1-a5af-c5a105e0ab58</v>
       </c>
       <c r="B124" t="str">
-        <v>Layla Lopez</v>
+        <v>Joshua Carter</v>
       </c>
       <c r="C124">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D124" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E124" t="str">
-        <v>layla.lopez23@yahoo.com</v>
+        <v>joshua.carter41@hotmail.com</v>
       </c>
       <c r="F124" t="str">
-        <v>(607) 496-6102</v>
+        <v>0404 538 442</v>
       </c>
       <c r="G124" t="str">
-        <v>Los Angeles</v>
+        <v>Wollongong</v>
       </c>
       <c r="H124" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I124" t="str">
         <v>available</v>
-      </c>
-      <c r="J124" t="str">
-        <v>Cora Lee</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>1c24b746-78a8-49cd-9c4d-3d22726dbc1b</v>
+        <v>ef94ff15-5215-4ecd-9ad1-9ac44fd0e56a</v>
       </c>
       <c r="B125" t="str">
-        <v>Eleanor Hall</v>
+        <v>Luke Flores</v>
       </c>
       <c r="C125">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D125" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E125" t="str">
-        <v>eleanor.hall7@yahoo.com</v>
+        <v>luke.flores39@hotmail.com</v>
       </c>
       <c r="F125" t="str">
-        <v>(627) 443-5972</v>
+        <v>0403 225 544</v>
       </c>
       <c r="G125" t="str">
-        <v>Stockton</v>
+        <v>Melbourne</v>
       </c>
       <c r="H125" t="str">
         <v>B</v>
       </c>
       <c r="I125" t="str">
         <v>available</v>
-      </c>
-      <c r="J125" t="str">
-        <v>Michael Campbell, Sadie Williams</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>e7129d06-9fe4-44dd-afce-e4faeebfe1a9</v>
+        <v>a8fa9125-28f1-47e1-adba-784701975e68</v>
       </c>
       <c r="B126" t="str">
-        <v>Piper Green</v>
+        <v>Abigail Williams</v>
       </c>
       <c r="C126">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="D126" t="str">
         <v>Female</v>
       </c>
       <c r="E126" t="str">
-        <v>piper.green82@hotmail.com</v>
+        <v>abigail.williams45@yahoo.com</v>
       </c>
       <c r="F126" t="str">
-        <v>(678) 816-2263</v>
+        <v>0403 497 445</v>
       </c>
       <c r="G126" t="str">
-        <v>Burbank</v>
+        <v>Toowoomba</v>
       </c>
       <c r="H126" t="str">
         <v>B</v>
       </c>
       <c r="I126" t="str">
         <v>available</v>
-      </c>
-      <c r="J126" t="str">
-        <v>Josiah Brown</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>4e28a208-5278-410d-b375-d9c77ba144d7</v>
+        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
       </c>
       <c r="B127" t="str">
-        <v>Riley Scott</v>
+        <v>Kathleen Reynolds</v>
       </c>
       <c r="C127">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D127" t="str">
-        <v>Female</v>
+        <v>Not Specified</v>
       </c>
       <c r="E127" t="str">
-        <v>riley.scott58@hotmail.com</v>
+        <v>kathleenmonicareynolds@gmail.com</v>
       </c>
       <c r="F127" t="str">
-        <v>(848) 718-3465</v>
+        <v>498086080</v>
       </c>
       <c r="G127" t="str">
-        <v>San Francisco</v>
+        <v>Footscray</v>
       </c>
       <c r="H127" t="str">
-        <v>B</v>
+        <v/>
       </c>
       <c r="I127" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="J127" t="str">
+        <v>Peter Adamidis, Felicity Parker-Hill</v>
+      </c>
+      <c r="K127" t="str">
+        <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
+      </c>
+      <c r="L127" t="str">
+        <v>N</v>
+      </c>
+      <c r="M127" t="str">
+        <v>N/A</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>b498fd02-c816-4b07-976f-1100495bf38b</v>
+        <v>df6c0d97-fd38-4b65-8765-b11a4939bd3b</v>
       </c>
       <c r="B128" t="str">
-        <v>Valentina Morales</v>
+        <v>Julian Rivera</v>
       </c>
       <c r="C128">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D128" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E128" t="str">
-        <v>valentina.morales27@icloud.com</v>
+        <v>julian.rivera31@outlook.com</v>
       </c>
       <c r="F128" t="str">
-        <v>(896) 204-3978</v>
+        <v>0401 414 502</v>
       </c>
       <c r="G128" t="str">
-        <v>San Jose</v>
+        <v>Perth</v>
       </c>
       <c r="H128" t="str">
         <v>B+</v>
@@ -4695,34 +4698,31 @@
       <c r="I128" t="str">
         <v>available</v>
       </c>
-      <c r="J128" t="str">
-        <v>Adam Hall, Grayson Morgan</v>
-      </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>ca152dfe-8ddb-45c8-b084-8a5c9e6dacfa</v>
+        <v>2811bf99-369b-4c0a-b5d6-4ff46cd7aa5e</v>
       </c>
       <c r="B129" t="str">
-        <v>Ryan Lewis</v>
+        <v>Lucas Thomas</v>
       </c>
       <c r="C129">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D129" t="str">
         <v>Male</v>
       </c>
       <c r="E129" t="str">
-        <v>ryan.lewis85@yahoo.com</v>
+        <v>lucas.thomas30@yahoo.com</v>
       </c>
       <c r="F129" t="str">
-        <v>0400 187 811</v>
+        <v>0412 527 117</v>
       </c>
       <c r="G129" t="str">
-        <v>Canberra</v>
+        <v>Brisbane</v>
       </c>
       <c r="H129" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I129" t="str">
         <v>available</v>
@@ -4730,25 +4730,25 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>a8f50ac0-29e0-4209-a524-83ca7878b0ca</v>
+        <v>8774a9f4-b951-41cc-b6bd-809a709cb6ea</v>
       </c>
       <c r="B130" t="str">
-        <v>Avery Taylor</v>
+        <v>Lily Walker</v>
       </c>
       <c r="C130">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="D130" t="str">
         <v>Female</v>
       </c>
       <c r="E130" t="str">
-        <v>avery.taylor87@outlook.com</v>
+        <v>lily.walker96@outlook.com</v>
       </c>
       <c r="F130" t="str">
-        <v>(299) 491-7680</v>
+        <v>0410 155 426</v>
       </c>
       <c r="G130" t="str">
-        <v>Los Angeles</v>
+        <v>Hobart</v>
       </c>
       <c r="H130" t="str">
         <v>B+</v>
@@ -4756,31 +4756,28 @@
       <c r="I130" t="str">
         <v>available</v>
       </c>
-      <c r="J130" t="str">
-        <v>Audrey Hill</v>
-      </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>443fcd0e-727d-4035-ab6a-c3df01515271</v>
+        <v>e166fd4f-73eb-4bea-b8be-3acdee4f9fdc</v>
       </c>
       <c r="B131" t="str">
-        <v>Lydia Torres</v>
+        <v>Liam Lewis</v>
       </c>
       <c r="C131">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D131" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E131" t="str">
-        <v>lydia.torres72@yahoo.com</v>
+        <v>liam.lewis79@yahoo.com</v>
       </c>
       <c r="F131" t="str">
-        <v>(828) 773-4386</v>
+        <v>0404 203 198</v>
       </c>
       <c r="G131" t="str">
-        <v>Anaheim</v>
+        <v>Hobart</v>
       </c>
       <c r="H131" t="str">
         <v>B+</v>
@@ -4788,31 +4785,28 @@
       <c r="I131" t="str">
         <v>available</v>
       </c>
-      <c r="J131" t="str">
-        <v>Avery Cruz, Mia Anderson</v>
-      </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>410dbe34-810b-4a5d-8731-985738541b4b</v>
+        <v>e15c67b6-0680-4284-a8aa-a525b34c592d</v>
       </c>
       <c r="B132" t="str">
-        <v>Penelope Williams</v>
+        <v>Aurora Williams</v>
       </c>
       <c r="C132">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="D132" t="str">
         <v>Female</v>
       </c>
       <c r="E132" t="str">
-        <v>penelope.williams29@hotmail.com</v>
+        <v>aurora.williams76@outlook.com</v>
       </c>
       <c r="F132" t="str">
-        <v>(735) 691-4267</v>
+        <v>0401 416 170</v>
       </c>
       <c r="G132" t="str">
-        <v>Sacramento</v>
+        <v>Darwin</v>
       </c>
       <c r="H132" t="str">
         <v>B</v>
@@ -4820,162 +4814,153 @@
       <c r="I132" t="str">
         <v>available</v>
       </c>
-      <c r="J132" t="str">
-        <v>Savannah Rivera</v>
+      <c r="M132" t="str">
+        <v>Uses walking cane</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>39b7a0a4-be8b-49f1-a5af-c5a105e0ab58</v>
+        <v>a614b69c-4f6c-49fa-a490-24d7e4a60da9</v>
       </c>
       <c r="B133" t="str">
-        <v>Joshua Carter</v>
+        <v>Nora Lee</v>
       </c>
       <c r="C133">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D133" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E133" t="str">
-        <v>joshua.carter41@hotmail.com</v>
+        <v>nora.lee56@hotmail.com</v>
       </c>
       <c r="F133" t="str">
-        <v>0404 538 442</v>
+        <v>(171) 825-3697</v>
       </c>
       <c r="G133" t="str">
-        <v>Wollongong</v>
+        <v>Pasadena</v>
       </c>
       <c r="H133" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="I133" t="str">
         <v>available</v>
+      </c>
+      <c r="J133" t="str">
+        <v>Ella Gutierrez</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>ef94ff15-5215-4ecd-9ad1-9ac44fd0e56a</v>
+        <v>d3db689e-5aed-4049-9588-adf3d1a49ae0</v>
       </c>
       <c r="B134" t="str">
-        <v>Luke Flores</v>
+        <v>Madelyn Martinez</v>
       </c>
       <c r="C134">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="D134" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E134" t="str">
-        <v>luke.flores39@hotmail.com</v>
+        <v>madelyn.martinez94@gmail.com</v>
       </c>
       <c r="F134" t="str">
-        <v>0403 225 544</v>
+        <v>(576) 468-3300</v>
       </c>
       <c r="G134" t="str">
-        <v>Melbourne</v>
+        <v>Pasadena</v>
       </c>
       <c r="H134" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I134" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="J134" t="str">
+        <v>Olivia Nelson, Joseph Stewart</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>a614b69c-4f6c-49fa-a490-24d7e4a60da9</v>
+        <v>7664257a-dce4-407a-8f24-692043d568be</v>
       </c>
       <c r="B135" t="str">
-        <v>Nora Lee</v>
+        <v>Nora Jackson</v>
       </c>
       <c r="C135">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D135" t="str">
         <v>Female</v>
       </c>
       <c r="E135" t="str">
-        <v>nora.lee56@hotmail.com</v>
+        <v>nora.jackson83@hotmail.com</v>
       </c>
       <c r="F135" t="str">
-        <v>(171) 825-3697</v>
+        <v>0404 434 899</v>
       </c>
       <c r="G135" t="str">
-        <v>Pasadena</v>
+        <v>Wollongong</v>
       </c>
       <c r="H135" t="str">
-        <v>A</v>
+        <v>B+</v>
       </c>
       <c r="I135" t="str">
         <v>available</v>
-      </c>
-      <c r="J135" t="str">
-        <v>Ella Gutierrez</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
+        <v>f9d68052-4310-45c2-a5a9-64c272347899</v>
       </c>
       <c r="B136" t="str">
-        <v>Kathleen Reynolds</v>
+        <v>Christian Rivera</v>
       </c>
       <c r="C136">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="D136" t="str">
-        <v>Not Specified</v>
+        <v>Male</v>
       </c>
       <c r="E136" t="str">
-        <v>kathleenmonicareynolds@gmail.com</v>
+        <v>christian.rivera86@hotmail.com</v>
       </c>
       <c r="F136" t="str">
-        <v>498086080</v>
+        <v>0400 135 743</v>
       </c>
       <c r="G136" t="str">
-        <v>Footscray</v>
+        <v>Adelaide</v>
       </c>
       <c r="H136" t="str">
-        <v/>
+        <v>B+</v>
       </c>
       <c r="I136" t="str">
         <v>available</v>
-      </c>
-      <c r="J136" t="str">
-        <v>Peter Adamidis, Felicity Parker-Hill</v>
-      </c>
-      <c r="K136" t="str">
-        <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
-      </c>
-      <c r="L136" t="str">
-        <v>N</v>
-      </c>
-      <c r="M136" t="str">
-        <v>N/A</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>df6c0d97-fd38-4b65-8765-b11a4939bd3b</v>
+        <v>8956e289-91e9-4c15-bf2b-a13dee2fa476</v>
       </c>
       <c r="B137" t="str">
-        <v>Julian Rivera</v>
+        <v>Landon Wright</v>
       </c>
       <c r="C137">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D137" t="str">
         <v>Male</v>
       </c>
       <c r="E137" t="str">
-        <v>julian.rivera31@outlook.com</v>
+        <v>landon.wright36@outlook.com</v>
       </c>
       <c r="F137" t="str">
-        <v>0401 414 502</v>
+        <v>0402 415 597</v>
       </c>
       <c r="G137" t="str">
-        <v>Perth</v>
+        <v>Cairns</v>
       </c>
       <c r="H137" t="str">
         <v>B+</v>
@@ -4986,57 +4971,60 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>2811bf99-369b-4c0a-b5d6-4ff46cd7aa5e</v>
+        <v>81759c6b-da11-4c0e-9e96-92aa20964b06</v>
       </c>
       <c r="B138" t="str">
-        <v>Lucas Thomas</v>
+        <v>Cora Roberts</v>
       </c>
       <c r="C138">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D138" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E138" t="str">
-        <v>lucas.thomas30@yahoo.com</v>
+        <v>cora.roberts57@hotmail.com</v>
       </c>
       <c r="F138" t="str">
-        <v>0412 527 117</v>
+        <v>(141) 743-6838</v>
       </c>
       <c r="G138" t="str">
-        <v>Brisbane</v>
+        <v>Bakersfield</v>
       </c>
       <c r="H138" t="str">
         <v>B</v>
       </c>
       <c r="I138" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="J138" t="str">
+        <v>Isla Wright, Naomi Moore</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>8774a9f4-b951-41cc-b6bd-809a709cb6ea</v>
+        <v>6ddd3228-f125-4d3e-88e2-157cd730b552</v>
       </c>
       <c r="B139" t="str">
-        <v>Lily Walker</v>
+        <v>Theodore Nelson</v>
       </c>
       <c r="C139">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="D139" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E139" t="str">
-        <v>lily.walker96@outlook.com</v>
+        <v>theodore.nelson79@gmail.com</v>
       </c>
       <c r="F139" t="str">
-        <v>0410 155 426</v>
+        <v>0403 813 793</v>
       </c>
       <c r="G139" t="str">
-        <v>Hobart</v>
+        <v>Canberra</v>
       </c>
       <c r="H139" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I139" t="str">
         <v>available</v>
@@ -5044,28 +5032,28 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>e166fd4f-73eb-4bea-b8be-3acdee4f9fdc</v>
+        <v>40727c14-a30e-4e3b-8b64-0359d25efc0c</v>
       </c>
       <c r="B140" t="str">
-        <v>Liam Lewis</v>
+        <v>Joshua Scott</v>
       </c>
       <c r="C140">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="D140" t="str">
         <v>Male</v>
       </c>
       <c r="E140" t="str">
-        <v>liam.lewis79@yahoo.com</v>
+        <v>joshua.scott95@outlook.com</v>
       </c>
       <c r="F140" t="str">
-        <v>0404 203 198</v>
+        <v>0410 137 561</v>
       </c>
       <c r="G140" t="str">
-        <v>Hobart</v>
+        <v>Canberra</v>
       </c>
       <c r="H140" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I140" t="str">
         <v>available</v>
@@ -5073,28 +5061,28 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>a8fa9125-28f1-47e1-adba-784701975e68</v>
+        <v>ad836319-db56-4a08-bca6-a8e3f19c37a8</v>
       </c>
       <c r="B141" t="str">
-        <v>Abigail Williams</v>
+        <v>Emily Johnson</v>
       </c>
       <c r="C141">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D141" t="str">
         <v>Female</v>
       </c>
       <c r="E141" t="str">
-        <v>abigail.williams45@yahoo.com</v>
+        <v>emily.johnson58@hotmail.com</v>
       </c>
       <c r="F141" t="str">
-        <v>0403 497 445</v>
+        <v>0412 663 939</v>
       </c>
       <c r="G141" t="str">
-        <v>Toowoomba</v>
+        <v>Perth</v>
       </c>
       <c r="H141" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I141" t="str">
         <v>available</v>
@@ -5102,57 +5090,54 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>e15c67b6-0680-4284-a8aa-a525b34c592d</v>
+        <v>adb0c362-d095-4bfd-98dc-c93920fd22d6</v>
       </c>
       <c r="B142" t="str">
-        <v>Aurora Williams</v>
+        <v>Victoria Torres</v>
       </c>
       <c r="C142">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D142" t="str">
         <v>Female</v>
       </c>
       <c r="E142" t="str">
-        <v>aurora.williams76@outlook.com</v>
+        <v>victoria.torres48@outlook.com</v>
       </c>
       <c r="F142" t="str">
-        <v>0401 416 170</v>
+        <v>0411 539 271</v>
       </c>
       <c r="G142" t="str">
-        <v>Darwin</v>
+        <v>Geelong</v>
       </c>
       <c r="H142" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I142" t="str">
         <v>available</v>
-      </c>
-      <c r="M142" t="str">
-        <v>Uses walking cane</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>7664257a-dce4-407a-8f24-692043d568be</v>
+        <v>c1783cdf-a656-46b4-9331-4d9d18d40b51</v>
       </c>
       <c r="B143" t="str">
-        <v>Nora Jackson</v>
+        <v>Aurora Walker</v>
       </c>
       <c r="C143">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="D143" t="str">
         <v>Female</v>
       </c>
       <c r="E143" t="str">
-        <v>nora.jackson83@hotmail.com</v>
+        <v>aurora.walker1@outlook.com</v>
       </c>
       <c r="F143" t="str">
-        <v>0404 434 899</v>
+        <v>0403 522 404</v>
       </c>
       <c r="G143" t="str">
-        <v>Wollongong</v>
+        <v>Darwin</v>
       </c>
       <c r="H143" t="str">
         <v>B+</v>
@@ -5160,28 +5145,31 @@
       <c r="I143" t="str">
         <v>available</v>
       </c>
+      <c r="M143" t="str">
+        <v>Vision impaired - needs assistance</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>f9d68052-4310-45c2-a5a9-64c272347899</v>
+        <v>bf5a6984-f656-4e23-9646-85829e9daffe</v>
       </c>
       <c r="B144" t="str">
-        <v>Christian Rivera</v>
+        <v>Scarlett Lopez</v>
       </c>
       <c r="C144">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D144" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E144" t="str">
-        <v>christian.rivera86@hotmail.com</v>
+        <v>scarlett.lopez53@yahoo.com</v>
       </c>
       <c r="F144" t="str">
-        <v>0400 135 743</v>
+        <v>0400 509 641</v>
       </c>
       <c r="G144" t="str">
-        <v>Adelaide</v>
+        <v>Sydney</v>
       </c>
       <c r="H144" t="str">
         <v>B+</v>
@@ -5192,25 +5180,25 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>8956e289-91e9-4c15-bf2b-a13dee2fa476</v>
+        <v>5e93a4d1-9d7c-4b53-9898-a1ae2a0319c1</v>
       </c>
       <c r="B145" t="str">
-        <v>Landon Wright</v>
+        <v>Amelia Nguyen</v>
       </c>
       <c r="C145">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D145" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E145" t="str">
-        <v>landon.wright36@outlook.com</v>
+        <v>amelia.nguyen43@outlook.com</v>
       </c>
       <c r="F145" t="str">
-        <v>0402 415 597</v>
+        <v>(164) 220-7002</v>
       </c>
       <c r="G145" t="str">
-        <v>Cairns</v>
+        <v>Sacramento</v>
       </c>
       <c r="H145" t="str">
         <v>B+</v>
@@ -5218,63 +5206,63 @@
       <c r="I145" t="str">
         <v>available</v>
       </c>
+      <c r="J145" t="str">
+        <v>Paisley Brown</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>81759c6b-da11-4c0e-9e96-92aa20964b06</v>
+        <v>59bae9a1-93b9-471d-a2b7-074918634f6b</v>
       </c>
       <c r="B146" t="str">
-        <v>Cora Roberts</v>
+        <v>Joshua Clark</v>
       </c>
       <c r="C146">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D146" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E146" t="str">
-        <v>cora.roberts57@hotmail.com</v>
+        <v>joshua.clark16@outlook.com</v>
       </c>
       <c r="F146" t="str">
-        <v>(141) 743-6838</v>
+        <v>0403 901 485</v>
       </c>
       <c r="G146" t="str">
-        <v>Bakersfield</v>
+        <v>Sydney</v>
       </c>
       <c r="H146" t="str">
         <v>B</v>
       </c>
       <c r="I146" t="str">
         <v>available</v>
-      </c>
-      <c r="J146" t="str">
-        <v>Isla Wright, Naomi Moore</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>6ddd3228-f125-4d3e-88e2-157cd730b552</v>
+        <v>2fa810c7-61d0-4519-a314-824cf0873e30</v>
       </c>
       <c r="B147" t="str">
-        <v>Theodore Nelson</v>
+        <v>Theodore Allen</v>
       </c>
       <c r="C147">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D147" t="str">
         <v>Male</v>
       </c>
       <c r="E147" t="str">
-        <v>theodore.nelson79@gmail.com</v>
+        <v>theodore.allen25@outlook.com</v>
       </c>
       <c r="F147" t="str">
-        <v>0403 813 793</v>
+        <v>0400 438 819</v>
       </c>
       <c r="G147" t="str">
-        <v>Canberra</v>
+        <v>Newcastle</v>
       </c>
       <c r="H147" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I147" t="str">
         <v>available</v>
@@ -5282,25 +5270,25 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>40727c14-a30e-4e3b-8b64-0359d25efc0c</v>
+        <v>d6c29b29-46c2-458d-9ed6-9955afb17b95</v>
       </c>
       <c r="B148" t="str">
-        <v>Joshua Scott</v>
+        <v>Ethan Taylor</v>
       </c>
       <c r="C148">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="D148" t="str">
         <v>Male</v>
       </c>
       <c r="E148" t="str">
-        <v>joshua.scott95@outlook.com</v>
+        <v>ethan.taylor22@yahoo.com</v>
       </c>
       <c r="F148" t="str">
-        <v>0410 137 561</v>
+        <v>0410 363 173</v>
       </c>
       <c r="G148" t="str">
-        <v>Canberra</v>
+        <v>Adelaide</v>
       </c>
       <c r="H148" t="str">
         <v>B</v>
@@ -5311,118 +5299,124 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>ad836319-db56-4a08-bca6-a8e3f19c37a8</v>
+        <v>e2f70c5c-0a8d-4055-8281-2ad2ae2e0cd6</v>
       </c>
       <c r="B149" t="str">
-        <v>Emily Johnson</v>
+        <v>Stella Green</v>
       </c>
       <c r="C149">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="D149" t="str">
         <v>Female</v>
       </c>
       <c r="E149" t="str">
-        <v>emily.johnson58@hotmail.com</v>
+        <v>stella.green92@gmail.com</v>
       </c>
       <c r="F149" t="str">
-        <v>0412 663 939</v>
+        <v>0404 230 858</v>
       </c>
       <c r="G149" t="str">
-        <v>Perth</v>
+        <v>Wollongong</v>
       </c>
       <c r="H149" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="I149" t="str">
         <v>available</v>
+      </c>
+      <c r="J149" t="str">
+        <v>Everly Torres</v>
+      </c>
+      <c r="M149" t="str">
+        <v>Vision impaired - needs assistance</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>adb0c362-d095-4bfd-98dc-c93920fd22d6</v>
+        <v>5331c6bd-19f8-416a-9166-06280a3c547e</v>
       </c>
       <c r="B150" t="str">
-        <v>Victoria Torres</v>
+        <v>Ethan Rodriguez</v>
       </c>
       <c r="C150">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D150" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E150" t="str">
-        <v>victoria.torres48@outlook.com</v>
+        <v>ethan.rodriguez60@hotmail.com</v>
       </c>
       <c r="F150" t="str">
-        <v>0411 539 271</v>
+        <v>0411 690 563</v>
       </c>
       <c r="G150" t="str">
-        <v>Geelong</v>
+        <v>Townsville</v>
       </c>
       <c r="H150" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I150" t="str">
         <v>available</v>
+      </c>
+      <c r="M150" t="str">
+        <v>Hearing impaired - requires front row seating</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>c1783cdf-a656-46b4-9331-4d9d18d40b51</v>
+        <v>45c0fc2b-415d-475a-998d-934235565d6b</v>
       </c>
       <c r="B151" t="str">
-        <v>Aurora Walker</v>
+        <v>Scarlett Wright</v>
       </c>
       <c r="C151">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="D151" t="str">
         <v>Female</v>
       </c>
       <c r="E151" t="str">
-        <v>aurora.walker1@outlook.com</v>
+        <v>scarlett.wright68@outlook.com</v>
       </c>
       <c r="F151" t="str">
-        <v>0403 522 404</v>
+        <v>0412 487 763</v>
       </c>
       <c r="G151" t="str">
-        <v>Darwin</v>
+        <v>Newcastle</v>
       </c>
       <c r="H151" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I151" t="str">
         <v>available</v>
-      </c>
-      <c r="M151" t="str">
-        <v>Vision impaired - needs assistance</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>bf5a6984-f656-4e23-9646-85829e9daffe</v>
+        <v>d7b0dd51-8aea-4b32-bb8d-8b60271fc6c9</v>
       </c>
       <c r="B152" t="str">
-        <v>Scarlett Lopez</v>
+        <v>Jayden Nguyen</v>
       </c>
       <c r="C152">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D152" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E152" t="str">
-        <v>scarlett.lopez53@yahoo.com</v>
+        <v>jayden.nguyen88@hotmail.com</v>
       </c>
       <c r="F152" t="str">
-        <v>0400 509 641</v>
+        <v>0401 108 628</v>
       </c>
       <c r="G152" t="str">
-        <v>Sydney</v>
+        <v>Hobart</v>
       </c>
       <c r="H152" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I152" t="str">
         <v>available</v>
@@ -5430,60 +5424,57 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>5e93a4d1-9d7c-4b53-9898-a1ae2a0319c1</v>
+        <v>0e8f635e-8f06-4224-a2cc-4263ac307ba2</v>
       </c>
       <c r="B153" t="str">
-        <v>Amelia Nguyen</v>
+        <v>Joshua Jones</v>
       </c>
       <c r="C153">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="D153" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E153" t="str">
-        <v>amelia.nguyen43@outlook.com</v>
+        <v>joshua.jones82@yahoo.com</v>
       </c>
       <c r="F153" t="str">
-        <v>(164) 220-7002</v>
+        <v>0400 652 840</v>
       </c>
       <c r="G153" t="str">
-        <v>Sacramento</v>
+        <v>Toowoomba</v>
       </c>
       <c r="H153" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I153" t="str">
         <v>available</v>
-      </c>
-      <c r="J153" t="str">
-        <v>Paisley Brown</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>59bae9a1-93b9-471d-a2b7-074918634f6b</v>
+        <v>55c196e0-f9b8-42fe-8113-ce9d2ac76116</v>
       </c>
       <c r="B154" t="str">
-        <v>Joshua Clark</v>
+        <v>Natalie Ortiz</v>
       </c>
       <c r="C154">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D154" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E154" t="str">
-        <v>joshua.clark16@outlook.com</v>
+        <v>natalie.ortiz89@yahoo.com</v>
       </c>
       <c r="F154" t="str">
-        <v>0403 901 485</v>
+        <v>(986) 277-9331</v>
       </c>
       <c r="G154" t="str">
-        <v>Sydney</v>
+        <v>San Francisco</v>
       </c>
       <c r="H154" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I154" t="str">
         <v>available</v>
@@ -5491,118 +5482,118 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>2fa810c7-61d0-4519-a314-824cf0873e30</v>
+        <v>d1a4099f-cc65-41a4-8aa3-72e7788e4944</v>
       </c>
       <c r="B155" t="str">
-        <v>Theodore Allen</v>
+        <v>Sophia Reyes</v>
       </c>
       <c r="C155">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="D155" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E155" t="str">
-        <v>theodore.allen25@outlook.com</v>
+        <v>sophia.reyes82@outlook.com</v>
       </c>
       <c r="F155" t="str">
-        <v>0400 438 819</v>
+        <v>(759) 966-2783</v>
       </c>
       <c r="G155" t="str">
-        <v>Newcastle</v>
+        <v>Long Beach</v>
       </c>
       <c r="H155" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I155" t="str">
         <v>available</v>
+      </c>
+      <c r="J155" t="str">
+        <v>Victoria Anderson</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>d6c29b29-46c2-458d-9ed6-9955afb17b95</v>
+        <v>5b3becf0-21ae-46a2-b70b-722762d230ff</v>
       </c>
       <c r="B156" t="str">
-        <v>Ethan Taylor</v>
+        <v>Evelyn Ortiz</v>
       </c>
       <c r="C156">
         <v>30</v>
       </c>
       <c r="D156" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E156" t="str">
-        <v>ethan.taylor22@yahoo.com</v>
+        <v>evelyn.ortiz49@hotmail.com</v>
       </c>
       <c r="F156" t="str">
-        <v>0410 363 173</v>
+        <v>(142) 759-4931</v>
       </c>
       <c r="G156" t="str">
-        <v>Adelaide</v>
+        <v>Long Beach</v>
       </c>
       <c r="H156" t="str">
-        <v>B</v>
+        <v>A+</v>
       </c>
       <c r="I156" t="str">
         <v>available</v>
+      </c>
+      <c r="J156" t="str">
+        <v>Mia Carter</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>e2f70c5c-0a8d-4055-8281-2ad2ae2e0cd6</v>
+        <v>c2103c22-c825-4633-a461-495c55747ed3</v>
       </c>
       <c r="B157" t="str">
-        <v>Stella Green</v>
+        <v>Alice Robinson</v>
       </c>
       <c r="C157">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="D157" t="str">
         <v>Female</v>
       </c>
       <c r="E157" t="str">
-        <v>stella.green92@gmail.com</v>
+        <v>alice.robinson56@hotmail.com</v>
       </c>
       <c r="F157" t="str">
-        <v>0404 230 858</v>
+        <v>(251) 325-5554</v>
       </c>
       <c r="G157" t="str">
-        <v>Wollongong</v>
+        <v>Anaheim</v>
       </c>
       <c r="H157" t="str">
-        <v>A</v>
+        <v>B+</v>
       </c>
       <c r="I157" t="str">
         <v>available</v>
-      </c>
-      <c r="J157" t="str">
-        <v>Everly Torres</v>
-      </c>
-      <c r="M157" t="str">
-        <v>Vision impaired - needs assistance</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>5331c6bd-19f8-416a-9166-06280a3c547e</v>
+        <v>25fd249f-3802-4717-8a4d-4da36897b280</v>
       </c>
       <c r="B158" t="str">
-        <v>Ethan Rodriguez</v>
+        <v>Nathan Taylor</v>
       </c>
       <c r="C158">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D158" t="str">
         <v>Male</v>
       </c>
       <c r="E158" t="str">
-        <v>ethan.rodriguez60@hotmail.com</v>
+        <v>nathan.taylor65@outlook.com</v>
       </c>
       <c r="F158" t="str">
-        <v>0411 690 563</v>
+        <v>(250) 584-7117</v>
       </c>
       <c r="G158" t="str">
-        <v>Townsville</v>
+        <v>Stockton</v>
       </c>
       <c r="H158" t="str">
         <v>B+</v>
@@ -5610,66 +5601,63 @@
       <c r="I158" t="str">
         <v>available</v>
       </c>
-      <c r="M158" t="str">
-        <v>Hearing impaired - requires front row seating</v>
-      </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>d3db689e-5aed-4049-9588-adf3d1a49ae0</v>
+        <v>783b418b-9b0d-482c-a01b-75072978141f</v>
       </c>
       <c r="B159" t="str">
-        <v>Madelyn Martinez</v>
+        <v>Joshua Martinez</v>
       </c>
       <c r="C159">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D159" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E159" t="str">
-        <v>madelyn.martinez94@gmail.com</v>
+        <v>joshua.martinez94@icloud.com</v>
       </c>
       <c r="F159" t="str">
-        <v>(576) 468-3300</v>
+        <v>(539) 856-7158</v>
       </c>
       <c r="G159" t="str">
-        <v>Pasadena</v>
+        <v>San Diego</v>
       </c>
       <c r="H159" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I159" t="str">
         <v>available</v>
       </c>
       <c r="J159" t="str">
-        <v>Olivia Nelson, Joseph Stewart</v>
+        <v>Avery Clark</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>45c0fc2b-415d-475a-998d-934235565d6b</v>
+        <v>cc9dcc8f-9593-4b7e-b4dd-723de93b6b04</v>
       </c>
       <c r="B160" t="str">
-        <v>Scarlett Wright</v>
+        <v>Aiden Cook</v>
       </c>
       <c r="C160">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D160" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E160" t="str">
-        <v>scarlett.wright68@outlook.com</v>
+        <v>aiden.cook93@yahoo.com</v>
       </c>
       <c r="F160" t="str">
-        <v>0412 487 763</v>
+        <v>(959) 986-7207</v>
       </c>
       <c r="G160" t="str">
-        <v>Newcastle</v>
+        <v>Pomona</v>
       </c>
       <c r="H160" t="str">
-        <v>B</v>
+        <v>A+</v>
       </c>
       <c r="I160" t="str">
         <v>available</v>
@@ -5677,28 +5665,28 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>d7b0dd51-8aea-4b32-bb8d-8b60271fc6c9</v>
+        <v>f85f167d-7dd5-420d-86b5-ec8861b2bc1a</v>
       </c>
       <c r="B161" t="str">
-        <v>Jayden Nguyen</v>
+        <v>Michael Carter</v>
       </c>
       <c r="C161">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D161" t="str">
         <v>Male</v>
       </c>
       <c r="E161" t="str">
-        <v>jayden.nguyen88@hotmail.com</v>
+        <v>michael.carter90@outlook.com</v>
       </c>
       <c r="F161" t="str">
-        <v>0401 108 628</v>
+        <v>(377) 714-4320</v>
       </c>
       <c r="G161" t="str">
-        <v>Hobart</v>
+        <v>Burbank</v>
       </c>
       <c r="H161" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="I161" t="str">
         <v>available</v>
@@ -5706,28 +5694,28 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>0e8f635e-8f06-4224-a2cc-4263ac307ba2</v>
+        <v>258eb0f3-5b73-4b6f-abb9-86c6ccb99d1f</v>
       </c>
       <c r="B162" t="str">
-        <v>Joshua Jones</v>
+        <v>Mateo Phillips</v>
       </c>
       <c r="C162">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D162" t="str">
         <v>Male</v>
       </c>
       <c r="E162" t="str">
-        <v>joshua.jones82@yahoo.com</v>
+        <v>mateo.phillips59@outlook.com</v>
       </c>
       <c r="F162" t="str">
-        <v>0400 652 840</v>
+        <v>(155) 680-1162</v>
       </c>
       <c r="G162" t="str">
-        <v>Toowoomba</v>
+        <v>Sacramento</v>
       </c>
       <c r="H162" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I162" t="str">
         <v>available</v>
@@ -5735,28 +5723,28 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>55c196e0-f9b8-42fe-8113-ce9d2ac76116</v>
+        <v>7a0a1a0e-a2dd-4f19-94ff-54601fcfb0e1</v>
       </c>
       <c r="B163" t="str">
-        <v>Natalie Ortiz</v>
+        <v>Alexander Reyes</v>
       </c>
       <c r="C163">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D163" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E163" t="str">
-        <v>natalie.ortiz89@yahoo.com</v>
+        <v>alexander.reyes92@icloud.com</v>
       </c>
       <c r="F163" t="str">
-        <v>(986) 277-9331</v>
+        <v>(434) 933-1740</v>
       </c>
       <c r="G163" t="str">
-        <v>San Francisco</v>
+        <v>Newport Beach</v>
       </c>
       <c r="H163" t="str">
-        <v>B+</v>
+        <v>A+</v>
       </c>
       <c r="I163" t="str">
         <v>available</v>
@@ -5764,25 +5752,25 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>d1a4099f-cc65-41a4-8aa3-72e7788e4944</v>
+        <v>c284df19-568f-44d7-9ddf-b63e5af17f4a</v>
       </c>
       <c r="B164" t="str">
-        <v>Sophia Reyes</v>
+        <v>Hannah Moore</v>
       </c>
       <c r="C164">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="D164" t="str">
         <v>Female</v>
       </c>
       <c r="E164" t="str">
-        <v>sophia.reyes82@outlook.com</v>
+        <v>hannah.moore60@outlook.com</v>
       </c>
       <c r="F164" t="str">
-        <v>(759) 966-2783</v>
+        <v>(173) 685-3587</v>
       </c>
       <c r="G164" t="str">
-        <v>Long Beach</v>
+        <v>Torrance</v>
       </c>
       <c r="H164" t="str">
         <v>B</v>
@@ -5791,399 +5779,420 @@
         <v>available</v>
       </c>
       <c r="J164" t="str">
-        <v>Victoria Anderson</v>
+        <v>Alexander Campbell, Logan Nguyen</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>5b3becf0-21ae-46a2-b70b-722762d230ff</v>
+        <v>224212bc-76fd-40f4-903d-8a0a1d6163e3</v>
       </c>
       <c r="B165" t="str">
-        <v>Evelyn Ortiz</v>
+        <v>Grayson Edwards</v>
       </c>
       <c r="C165">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D165" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E165" t="str">
-        <v>evelyn.ortiz49@hotmail.com</v>
+        <v>grayson.edwards22@gmail.com</v>
       </c>
       <c r="F165" t="str">
-        <v>(142) 759-4931</v>
+        <v>(215) 129-3913</v>
       </c>
       <c r="G165" t="str">
-        <v>Long Beach</v>
+        <v>Torrance</v>
       </c>
       <c r="H165" t="str">
-        <v>A+</v>
+        <v>B</v>
       </c>
       <c r="I165" t="str">
         <v>available</v>
       </c>
       <c r="J165" t="str">
-        <v>Mia Carter</v>
+        <v>Elizabeth Nelson, Joseph Anderson</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>c03a116f-7b88-4c23-a9cc-04d14d2df186</v>
+        <v>bede75d6-a4ec-4fe3-907f-35108a2b4b10</v>
       </c>
       <c r="B166" t="str">
-        <v>Sofia Martin</v>
+        <v>Cameron Evans</v>
       </c>
       <c r="C166">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D166" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E166" t="str">
-        <v>sofia.martin17@yahoo.com</v>
+        <v>cameron.evans55@outlook.com</v>
       </c>
       <c r="F166" t="str">
-        <v>(319) 272-7772</v>
+        <v>(535) 743-7467</v>
       </c>
       <c r="G166" t="str">
-        <v>Fresno</v>
+        <v>Fremont</v>
       </c>
       <c r="H166" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I166" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="J166" t="str">
+        <v>Michael Johnson, Anthony Garcia</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>10ec31e6-c6da-4957-9768-c5fcefe79c6b</v>
+        <v>ea1b059a-dde4-49c1-92b8-b9fd09c84bb7</v>
       </c>
       <c r="B167" t="str">
-        <v>Emma Turner</v>
+        <v>Sadie Cook</v>
       </c>
       <c r="C167">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D167" t="str">
         <v>Female</v>
       </c>
       <c r="E167" t="str">
-        <v>emma.turner16@outlook.com</v>
+        <v>sadie.cook9@yahoo.com</v>
       </c>
       <c r="F167" t="str">
-        <v>(656) 213-9003</v>
+        <v>(382) 126-7672</v>
       </c>
       <c r="G167" t="str">
-        <v>Pomona</v>
+        <v>Santa Monica</v>
       </c>
       <c r="H167" t="str">
-        <v>C</v>
+        <v>B+</v>
       </c>
       <c r="I167" t="str">
         <v>available</v>
+      </c>
+      <c r="J167" t="str">
+        <v>William Allen, Alexa Hall</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>c2103c22-c825-4633-a461-495c55747ed3</v>
+        <v>b22d1d02-9344-4922-9be8-d8d05a79b0b0</v>
       </c>
       <c r="B168" t="str">
-        <v>Alice Robinson</v>
+        <v>Julian Nguyen</v>
       </c>
       <c r="C168">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D168" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E168" t="str">
-        <v>alice.robinson56@hotmail.com</v>
+        <v>julian.nguyen22@outlook.com</v>
       </c>
       <c r="F168" t="str">
-        <v>(251) 325-5554</v>
+        <v>(382) 722-8118</v>
       </c>
       <c r="G168" t="str">
-        <v>Anaheim</v>
+        <v>Long Beach</v>
       </c>
       <c r="H168" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I168" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="J168" t="str">
+        <v>Leah Diaz, Lydia Allen</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>25fd249f-3802-4717-8a4d-4da36897b280</v>
+        <v>4501044d-6fd4-4a45-83a0-416599928b1f</v>
       </c>
       <c r="B169" t="str">
-        <v>Nathan Taylor</v>
+        <v>Audrey Hill</v>
       </c>
       <c r="C169">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="D169" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E169" t="str">
-        <v>nathan.taylor65@outlook.com</v>
+        <v>audrey.hill20@outlook.com</v>
       </c>
       <c r="F169" t="str">
-        <v>(250) 584-7117</v>
+        <v>(688) 524-4712</v>
       </c>
       <c r="G169" t="str">
-        <v>Stockton</v>
+        <v>San Jose</v>
       </c>
       <c r="H169" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I169" t="str">
         <v>available</v>
+      </c>
+      <c r="J169" t="str">
+        <v>Avery Taylor</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>1e334800-6e70-4273-b1ff-ee3ce5738b57</v>
+        <v>a1895f97-a947-4cf3-9bc3-6aa43cdc1339</v>
       </c>
       <c r="B170" t="str">
-        <v>Adam Edwards</v>
+        <v>Gabriella Smith</v>
       </c>
       <c r="C170">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="D170" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E170" t="str">
-        <v>adam.edwards41@hotmail.com</v>
+        <v>gabriella.smith91@hotmail.com</v>
       </c>
       <c r="F170" t="str">
-        <v>(439) 906-3390</v>
+        <v>(550) 121-2897</v>
       </c>
       <c r="G170" t="str">
-        <v>Burbank</v>
+        <v>Sacramento</v>
       </c>
       <c r="H170" t="str">
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="I170" t="str">
         <v>available</v>
       </c>
       <c r="J170" t="str">
-        <v>Ella Lopez</v>
+        <v>Julian Rivera</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>783b418b-9b0d-482c-a01b-75072978141f</v>
+        <v>921da7b6-596c-4a0e-a647-022bbd8cef26</v>
       </c>
       <c r="B171" t="str">
-        <v>Joshua Martinez</v>
+        <v>John Diaz</v>
       </c>
       <c r="C171">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D171" t="str">
         <v>Male</v>
       </c>
       <c r="E171" t="str">
-        <v>joshua.martinez94@icloud.com</v>
+        <v>john.diaz17@icloud.com</v>
       </c>
       <c r="F171" t="str">
-        <v>(539) 856-7158</v>
+        <v>(251) 432-3565</v>
       </c>
       <c r="G171" t="str">
-        <v>San Diego</v>
+        <v>Pomona</v>
       </c>
       <c r="H171" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I171" t="str">
         <v>available</v>
       </c>
       <c r="J171" t="str">
-        <v>Avery Clark</v>
+        <v>Cameron Anderson</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>cc9dcc8f-9593-4b7e-b4dd-723de93b6b04</v>
+        <v>4fba0674-c979-4177-b29d-9a882e08ad0d</v>
       </c>
       <c r="B172" t="str">
-        <v>Aiden Cook</v>
+        <v>Autumn Lewis</v>
       </c>
       <c r="C172">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D172" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E172" t="str">
-        <v>aiden.cook93@yahoo.com</v>
+        <v>autumn.lewis97@outlook.com</v>
       </c>
       <c r="F172" t="str">
-        <v>(959) 986-7207</v>
+        <v>(841) 837-8640</v>
       </c>
       <c r="G172" t="str">
-        <v>Pomona</v>
+        <v>San Francisco</v>
       </c>
       <c r="H172" t="str">
-        <v>A+</v>
+        <v>B+</v>
       </c>
       <c r="I172" t="str">
         <v>available</v>
+      </c>
+      <c r="J172" t="str">
+        <v>Noah Martinez</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>f85f167d-7dd5-420d-86b5-ec8861b2bc1a</v>
+        <v>2450bd3d-4940-477d-8a08-abc3363fdc3a</v>
       </c>
       <c r="B173" t="str">
-        <v>Michael Carter</v>
+        <v>Ella Lopez</v>
       </c>
       <c r="C173">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D173" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E173" t="str">
-        <v>michael.carter90@outlook.com</v>
+        <v>ella.lopez65@outlook.com</v>
       </c>
       <c r="F173" t="str">
-        <v>(377) 714-4320</v>
+        <v>(192) 887-5779</v>
       </c>
       <c r="G173" t="str">
-        <v>Burbank</v>
+        <v>Riverside</v>
       </c>
       <c r="H173" t="str">
-        <v>A</v>
+        <v>B+</v>
       </c>
       <c r="I173" t="str">
         <v>available</v>
+      </c>
+      <c r="J173" t="str">
+        <v>Adam Edwards</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>258eb0f3-5b73-4b6f-abb9-86c6ccb99d1f</v>
+        <v>9e0ff879-df04-4a3f-b572-8633acb77cee</v>
       </c>
       <c r="B174" t="str">
-        <v>Mateo Phillips</v>
+        <v>Jackson Jackson</v>
       </c>
       <c r="C174">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D174" t="str">
         <v>Male</v>
       </c>
       <c r="E174" t="str">
-        <v>mateo.phillips59@outlook.com</v>
+        <v>jackson.jackson86@icloud.com</v>
       </c>
       <c r="F174" t="str">
-        <v>(155) 680-1162</v>
+        <v>(858) 306-7989</v>
       </c>
       <c r="G174" t="str">
-        <v>Sacramento</v>
+        <v>Oakland</v>
       </c>
       <c r="H174" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I174" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="J174" t="str">
+        <v>Serenity Campbell, Isaiah Green</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>7a0a1a0e-a2dd-4f19-94ff-54601fcfb0e1</v>
+        <v>97620f89-d506-4934-89b6-c60208f0bb45</v>
       </c>
       <c r="B175" t="str">
-        <v>Alexander Reyes</v>
+        <v>Charlotte Hernandez</v>
       </c>
       <c r="C175">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D175" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E175" t="str">
-        <v>alexander.reyes92@icloud.com</v>
+        <v>charlotte.hernandez88@gmail.com</v>
       </c>
       <c r="F175" t="str">
-        <v>(434) 933-1740</v>
+        <v>(131) 448-5858</v>
       </c>
       <c r="G175" t="str">
-        <v>Newport Beach</v>
+        <v>San Jose</v>
       </c>
       <c r="H175" t="str">
-        <v>A+</v>
+        <v>B</v>
       </c>
       <c r="I175" t="str">
         <v>available</v>
+      </c>
+      <c r="J175" t="str">
+        <v>Ellie Allen, Emma Torres</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>b22d1d02-9344-4922-9be8-d8d05a79b0b0</v>
+        <v>cacb8de7-16c5-4332-9d25-a6794d8a23b3</v>
       </c>
       <c r="B176" t="str">
-        <v>Julian Nguyen</v>
+        <v>Anthony Garcia</v>
       </c>
       <c r="C176">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D176" t="str">
         <v>Male</v>
       </c>
       <c r="E176" t="str">
-        <v>julian.nguyen22@outlook.com</v>
+        <v>anthony.garcia31@yahoo.com</v>
       </c>
       <c r="F176" t="str">
-        <v>(382) 722-8118</v>
+        <v>(249) 774-7265</v>
       </c>
       <c r="G176" t="str">
-        <v>Long Beach</v>
+        <v>Santa Monica</v>
       </c>
       <c r="H176" t="str">
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="I176" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J176" t="str">
-        <v>Leah Diaz, Lydia Allen</v>
+        <v>Michael Johnson, Cameron Evans</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>d279968e-2739-4860-92b0-61f1c31b6a72</v>
+        <v>c03a116f-7b88-4c23-a9cc-04d14d2df186</v>
       </c>
       <c r="B177" t="str">
-        <v>Nolan Ortiz</v>
+        <v>Sofia Martin</v>
       </c>
       <c r="C177">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D177" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E177" t="str">
-        <v>nolan.ortiz57@gmail.com</v>
+        <v>sofia.martin17@yahoo.com</v>
       </c>
       <c r="F177" t="str">
-        <v>(473) 870-4585</v>
+        <v>(319) 272-7772</v>
       </c>
       <c r="G177" t="str">
-        <v>Santa Monica</v>
+        <v>Fresno</v>
       </c>
       <c r="H177" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I177" t="str">
         <v>available</v>
-      </c>
-      <c r="J177" t="str">
-        <v>Cameron Clark</v>
       </c>
     </row>
     <row r="178">
@@ -6212,7 +6221,7 @@
         <v>B+</v>
       </c>
       <c r="I178" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J178" t="str">
         <v>Sadie Williams, Eleanor Hall</v>
@@ -6220,89 +6229,86 @@
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>c284df19-568f-44d7-9ddf-b63e5af17f4a</v>
+        <v>3f9d95b9-bedc-4620-9aa3-9bc8669de2af</v>
       </c>
       <c r="B179" t="str">
-        <v>Hannah Moore</v>
+        <v>Christopher Allen</v>
       </c>
       <c r="C179">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D179" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E179" t="str">
-        <v>hannah.moore60@outlook.com</v>
+        <v>christopher.allen60@yahoo.com</v>
       </c>
       <c r="F179" t="str">
-        <v>(173) 685-3587</v>
+        <v>(529) 787-8147</v>
       </c>
       <c r="G179" t="str">
         <v>Torrance</v>
       </c>
       <c r="H179" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I179" t="str">
         <v>available</v>
       </c>
       <c r="J179" t="str">
-        <v>Alexander Campbell, Logan Nguyen</v>
+        <v>Eleanor Allen</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>cacb8de7-16c5-4332-9d25-a6794d8a23b3</v>
+        <v>10ec31e6-c6da-4957-9768-c5fcefe79c6b</v>
       </c>
       <c r="B180" t="str">
-        <v>Anthony Garcia</v>
+        <v>Emma Turner</v>
       </c>
       <c r="C180">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D180" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E180" t="str">
-        <v>anthony.garcia31@yahoo.com</v>
+        <v>emma.turner16@outlook.com</v>
       </c>
       <c r="F180" t="str">
-        <v>(249) 774-7265</v>
+        <v>(656) 213-9003</v>
       </c>
       <c r="G180" t="str">
-        <v>Santa Monica</v>
+        <v>Pomona</v>
       </c>
       <c r="H180" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="I180" t="str">
         <v>available</v>
-      </c>
-      <c r="J180" t="str">
-        <v>Michael Johnson, Cameron Evans</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>97620f89-d506-4934-89b6-c60208f0bb45</v>
+        <v>1e334800-6e70-4273-b1ff-ee3ce5738b57</v>
       </c>
       <c r="B181" t="str">
-        <v>Charlotte Hernandez</v>
+        <v>Adam Edwards</v>
       </c>
       <c r="C181">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D181" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E181" t="str">
-        <v>charlotte.hernandez88@gmail.com</v>
+        <v>adam.edwards41@hotmail.com</v>
       </c>
       <c r="F181" t="str">
-        <v>(131) 448-5858</v>
+        <v>(439) 906-3390</v>
       </c>
       <c r="G181" t="str">
-        <v>San Jose</v>
+        <v>Burbank</v>
       </c>
       <c r="H181" t="str">
         <v>B</v>
@@ -6311,7 +6317,7 @@
         <v>available</v>
       </c>
       <c r="J181" t="str">
-        <v>Ellie Allen, Emma Torres</v>
+        <v>Ella Lopez</v>
       </c>
     </row>
     <row r="182">
@@ -6340,7 +6346,7 @@
         <v>B+</v>
       </c>
       <c r="I182" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J182" t="str">
         <v>Adam Hall, Valentina Morales</v>
@@ -6348,57 +6354,54 @@
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>4501044d-6fd4-4a45-83a0-416599928b1f</v>
+        <v>340ad2e5-95a9-4eb5-a113-e7f9f0e5d704</v>
       </c>
       <c r="B183" t="str">
-        <v>Audrey Hill</v>
+        <v>Jaxon Cook</v>
       </c>
       <c r="C183">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="D183" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E183" t="str">
-        <v>audrey.hill20@outlook.com</v>
+        <v>jaxon.cook73@yahoo.com</v>
       </c>
       <c r="F183" t="str">
-        <v>(688) 524-4712</v>
+        <v>(190) 120-3429</v>
       </c>
       <c r="G183" t="str">
-        <v>San Jose</v>
+        <v>Fresno</v>
       </c>
       <c r="H183" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="I183" t="str">
         <v>available</v>
-      </c>
-      <c r="J183" t="str">
-        <v>Avery Taylor</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>a1895f97-a947-4cf3-9bc3-6aa43cdc1339</v>
+        <v>d1a89d8f-bd2f-40db-a5d5-ef8dc3e3aa54</v>
       </c>
       <c r="B184" t="str">
-        <v>Gabriella Smith</v>
+        <v>Mason Hernandez</v>
       </c>
       <c r="C184">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D184" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E184" t="str">
-        <v>gabriella.smith91@hotmail.com</v>
+        <v>mason.hernandez15@gmail.com</v>
       </c>
       <c r="F184" t="str">
-        <v>(550) 121-2897</v>
+        <v>(880) 425-4186</v>
       </c>
       <c r="G184" t="str">
-        <v>Sacramento</v>
+        <v>San Jose</v>
       </c>
       <c r="H184" t="str">
         <v>A</v>
@@ -6406,272 +6409,257 @@
       <c r="I184" t="str">
         <v>available</v>
       </c>
-      <c r="J184" t="str">
-        <v>Julian Rivera</v>
-      </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>3f9d95b9-bedc-4620-9aa3-9bc8669de2af</v>
+        <v>e8c7986a-699a-4e43-9b2d-52ca42510a36</v>
       </c>
       <c r="B185" t="str">
-        <v>Christopher Allen</v>
+        <v>Matthew Torres</v>
       </c>
       <c r="C185">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D185" t="str">
         <v>Male</v>
       </c>
       <c r="E185" t="str">
-        <v>christopher.allen60@yahoo.com</v>
+        <v>matthew.torres76@yahoo.com</v>
       </c>
       <c r="F185" t="str">
-        <v>(529) 787-8147</v>
+        <v>(432) 516-9920</v>
       </c>
       <c r="G185" t="str">
-        <v>Torrance</v>
+        <v>Sacramento</v>
       </c>
       <c r="H185" t="str">
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="I185" t="str">
         <v>available</v>
-      </c>
-      <c r="J185" t="str">
-        <v>Eleanor Allen</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>4fba0674-c979-4177-b29d-9a882e08ad0d</v>
+        <v>c6c464e0-123d-4cc9-8b28-0ecbd0a6ce5f</v>
       </c>
       <c r="B186" t="str">
-        <v>Autumn Lewis</v>
+        <v>Matthew Anderson</v>
       </c>
       <c r="C186">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D186" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E186" t="str">
-        <v>autumn.lewis97@outlook.com</v>
+        <v>matthew.anderson56@icloud.com</v>
       </c>
       <c r="F186" t="str">
-        <v>(841) 837-8640</v>
+        <v>(853) 972-9742</v>
       </c>
       <c r="G186" t="str">
-        <v>San Francisco</v>
+        <v>Irvine</v>
       </c>
       <c r="H186" t="str">
-        <v>B+</v>
+        <v>A+</v>
       </c>
       <c r="I186" t="str">
         <v>available</v>
-      </c>
-      <c r="J186" t="str">
-        <v>Noah Martinez</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>2450bd3d-4940-477d-8a08-abc3363fdc3a</v>
+        <v>e2c7fa0a-1d97-4430-b83c-5099c5831757</v>
       </c>
       <c r="B187" t="str">
-        <v>Ella Lopez</v>
+        <v>John Carter</v>
       </c>
       <c r="C187">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D187" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E187" t="str">
-        <v>ella.lopez65@outlook.com</v>
+        <v>john.carter42@outlook.com</v>
       </c>
       <c r="F187" t="str">
-        <v>(192) 887-5779</v>
+        <v>(160) 507-8767</v>
       </c>
       <c r="G187" t="str">
-        <v>Riverside</v>
+        <v>Pasadena</v>
       </c>
       <c r="H187" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I187" t="str">
         <v>available</v>
       </c>
       <c r="J187" t="str">
-        <v>Adam Edwards</v>
+        <v>Brooklyn Rivera</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>224212bc-76fd-40f4-903d-8a0a1d6163e3</v>
+        <v>0497247b-bf9a-4f46-a562-05f1892687ce</v>
       </c>
       <c r="B188" t="str">
-        <v>Grayson Edwards</v>
+        <v>Henry Roberts</v>
       </c>
       <c r="C188">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D188" t="str">
         <v>Male</v>
       </c>
       <c r="E188" t="str">
-        <v>grayson.edwards22@gmail.com</v>
+        <v>henry.roberts93@outlook.com</v>
       </c>
       <c r="F188" t="str">
-        <v>(215) 129-3913</v>
+        <v>(654) 727-7734</v>
       </c>
       <c r="G188" t="str">
-        <v>Torrance</v>
+        <v>Burbank</v>
       </c>
       <c r="H188" t="str">
-        <v>B</v>
+        <v>A+</v>
       </c>
       <c r="I188" t="str">
         <v>available</v>
       </c>
       <c r="J188" t="str">
-        <v>Elizabeth Nelson, Joseph Anderson</v>
+        <v>Thomas Nguyen, Hannah Jones</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>9e0ff879-df04-4a3f-b572-8633acb77cee</v>
+        <v>5260c12e-e864-4bff-bd02-32d2c84a9a95</v>
       </c>
       <c r="B189" t="str">
-        <v>Jackson Jackson</v>
+        <v>Alexander Baker</v>
       </c>
       <c r="C189">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D189" t="str">
         <v>Male</v>
       </c>
       <c r="E189" t="str">
-        <v>jackson.jackson86@icloud.com</v>
+        <v>alexander.baker64@hotmail.com</v>
       </c>
       <c r="F189" t="str">
-        <v>(858) 306-7989</v>
+        <v>(434) 373-1503</v>
       </c>
       <c r="G189" t="str">
-        <v>Oakland</v>
+        <v>Stockton</v>
       </c>
       <c r="H189" t="str">
-        <v>B</v>
+        <v>A+</v>
       </c>
       <c r="I189" t="str">
         <v>available</v>
-      </c>
-      <c r="J189" t="str">
-        <v>Serenity Campbell, Isaiah Green</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>ea1b059a-dde4-49c1-92b8-b9fd09c84bb7</v>
+        <v>befe2d5d-0583-45ac-939e-ab57370e2d4f</v>
       </c>
       <c r="B190" t="str">
-        <v>Sadie Cook</v>
+        <v>Daniel Taylor</v>
       </c>
       <c r="C190">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D190" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E190" t="str">
-        <v>sadie.cook9@yahoo.com</v>
+        <v>daniel.taylor53@gmail.com</v>
       </c>
       <c r="F190" t="str">
-        <v>(382) 126-7672</v>
+        <v>(543) 329-4768</v>
       </c>
       <c r="G190" t="str">
-        <v>Santa Monica</v>
+        <v>Pomona</v>
       </c>
       <c r="H190" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I190" t="str">
         <v>available</v>
-      </c>
-      <c r="J190" t="str">
-        <v>William Allen, Alexa Hall</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>921da7b6-596c-4a0e-a647-022bbd8cef26</v>
+        <v>e4b4c1c5-d581-43e6-89d9-d3cee5153165</v>
       </c>
       <c r="B191" t="str">
-        <v>John Diaz</v>
+        <v>Josiah Brown</v>
       </c>
       <c r="C191">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D191" t="str">
         <v>Male</v>
       </c>
       <c r="E191" t="str">
-        <v>john.diaz17@icloud.com</v>
+        <v>josiah.brown19@hotmail.com</v>
       </c>
       <c r="F191" t="str">
-        <v>(251) 432-3565</v>
+        <v>(678) 449-3168</v>
       </c>
       <c r="G191" t="str">
-        <v>Pomona</v>
+        <v>Fresno</v>
       </c>
       <c r="H191" t="str">
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="I191" t="str">
         <v>available</v>
       </c>
       <c r="J191" t="str">
-        <v>Cameron Anderson</v>
+        <v>Piper Green</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>bede75d6-a4ec-4fe3-907f-35108a2b4b10</v>
+        <v>29b3a5cd-ea7d-4673-9db4-7886660a791f</v>
       </c>
       <c r="B192" t="str">
-        <v>Cameron Evans</v>
+        <v>Joseph Stewart</v>
       </c>
       <c r="C192">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="D192" t="str">
         <v>Male</v>
       </c>
       <c r="E192" t="str">
-        <v>cameron.evans55@outlook.com</v>
+        <v>joseph.stewart94@outlook.com</v>
       </c>
       <c r="F192" t="str">
-        <v>(535) 743-7467</v>
+        <v>(101) 920-4176</v>
       </c>
       <c r="G192" t="str">
-        <v>Fremont</v>
+        <v>Stockton</v>
       </c>
       <c r="H192" t="str">
         <v>B</v>
       </c>
       <c r="I192" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J192" t="str">
-        <v>Michael Johnson, Anthony Garcia</v>
+        <v>Olivia Nelson, Madelyn Martinez</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>340ad2e5-95a9-4eb5-a113-e7f9f0e5d704</v>
+        <v>feb78ceb-dd95-455d-8b7d-fc0019ae54c8</v>
       </c>
       <c r="B193" t="str">
-        <v>Jaxon Cook</v>
+        <v>Isaiah Green</v>
       </c>
       <c r="C193">
         <v>52</v>
@@ -6680,129 +6668,141 @@
         <v>Male</v>
       </c>
       <c r="E193" t="str">
-        <v>jaxon.cook73@yahoo.com</v>
+        <v>isaiah.green52@icloud.com</v>
       </c>
       <c r="F193" t="str">
-        <v>(190) 120-3429</v>
+        <v>(236) 625-9751</v>
       </c>
       <c r="G193" t="str">
-        <v>Fresno</v>
+        <v>Glendale</v>
       </c>
       <c r="H193" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="I193" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="J193" t="str">
+        <v>Serenity Campbell, Jackson Jackson</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>d1a89d8f-bd2f-40db-a5d5-ef8dc3e3aa54</v>
+        <v>8819a806-f5b1-4b58-95f5-91489df570ac</v>
       </c>
       <c r="B194" t="str">
-        <v>Mason Hernandez</v>
+        <v>Colton Harris</v>
       </c>
       <c r="C194">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D194" t="str">
         <v>Male</v>
       </c>
       <c r="E194" t="str">
-        <v>mason.hernandez15@gmail.com</v>
+        <v>colton.harris98@icloud.com</v>
       </c>
       <c r="F194" t="str">
-        <v>(880) 425-4186</v>
+        <v>(583) 900-3294</v>
       </c>
       <c r="G194" t="str">
-        <v>San Jose</v>
+        <v>Newport Beach</v>
       </c>
       <c r="H194" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="I194" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="J194" t="str">
+        <v>Sebastian Edwards, Sofia Williams</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>e8c7986a-699a-4e43-9b2d-52ca42510a36</v>
+        <v>6116506f-31f1-444e-bd83-2991a5335470</v>
       </c>
       <c r="B195" t="str">
-        <v>Matthew Torres</v>
+        <v>Sebastian Edwards</v>
       </c>
       <c r="C195">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D195" t="str">
         <v>Male</v>
       </c>
       <c r="E195" t="str">
-        <v>matthew.torres76@yahoo.com</v>
+        <v>sebastian.edwards97@icloud.com</v>
       </c>
       <c r="F195" t="str">
-        <v>(432) 516-9920</v>
+        <v>(348) 408-1134</v>
       </c>
       <c r="G195" t="str">
-        <v>Sacramento</v>
+        <v>Los Angeles</v>
       </c>
       <c r="H195" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="I195" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="J195" t="str">
+        <v>Colton Harris, Sofia Williams</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>c6c464e0-123d-4cc9-8b28-0ecbd0a6ce5f</v>
+        <v>35c73937-3dd5-4fb3-a5df-d900cabdacba</v>
       </c>
       <c r="B196" t="str">
-        <v>Matthew Anderson</v>
+        <v>Jackson Murphy</v>
       </c>
       <c r="C196">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D196" t="str">
         <v>Male</v>
       </c>
       <c r="E196" t="str">
-        <v>matthew.anderson56@icloud.com</v>
+        <v>jackson.murphy91@yahoo.com</v>
       </c>
       <c r="F196" t="str">
-        <v>(853) 972-9742</v>
+        <v>(572) 305-7237</v>
       </c>
       <c r="G196" t="str">
-        <v>Irvine</v>
+        <v>Riverside</v>
       </c>
       <c r="H196" t="str">
-        <v>A+</v>
+        <v>B</v>
       </c>
       <c r="I196" t="str">
         <v>available</v>
+      </c>
+      <c r="J196" t="str">
+        <v>Caleb Brown</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>e2c7fa0a-1d97-4430-b83c-5099c5831757</v>
+        <v>d035c0a6-d30e-4ca3-b8c2-9becb2842da7</v>
       </c>
       <c r="B197" t="str">
-        <v>John Carter</v>
+        <v>Thomas Rivera</v>
       </c>
       <c r="C197">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="D197" t="str">
         <v>Male</v>
       </c>
       <c r="E197" t="str">
-        <v>john.carter42@outlook.com</v>
+        <v>thomas.rivera13@yahoo.com</v>
       </c>
       <c r="F197" t="str">
-        <v>(160) 507-8767</v>
+        <v>(539) 243-6118</v>
       </c>
       <c r="G197" t="str">
-        <v>Pasadena</v>
+        <v>Long Beach</v>
       </c>
       <c r="H197" t="str">
         <v>B</v>
@@ -6811,233 +6811,239 @@
         <v>available</v>
       </c>
       <c r="J197" t="str">
-        <v>Brooklyn Rivera</v>
+        <v>Hannah Murphy</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>0497247b-bf9a-4f46-a562-05f1892687ce</v>
+        <v>06d38f0c-6780-4d6a-97b8-f28ec52ced34</v>
       </c>
       <c r="B198" t="str">
-        <v>Henry Roberts</v>
+        <v>William Taylor</v>
       </c>
       <c r="C198">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D198" t="str">
         <v>Male</v>
       </c>
       <c r="E198" t="str">
-        <v>henry.roberts93@outlook.com</v>
+        <v>william.taylor84@hotmail.com</v>
       </c>
       <c r="F198" t="str">
-        <v>(654) 727-7734</v>
+        <v>(276) 538-1731</v>
       </c>
       <c r="G198" t="str">
-        <v>Burbank</v>
+        <v>Newport Beach</v>
       </c>
       <c r="H198" t="str">
-        <v>A+</v>
+        <v>B</v>
       </c>
       <c r="I198" t="str">
         <v>available</v>
       </c>
       <c r="J198" t="str">
-        <v>Thomas Nguyen, Hannah Jones</v>
+        <v>Victoria Scott</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>5260c12e-e864-4bff-bd02-32d2c84a9a95</v>
+        <v>8dfd710f-c1f0-43ee-b26d-13d05de4598b</v>
       </c>
       <c r="B199" t="str">
-        <v>Alexander Baker</v>
+        <v>Josiah Lopez</v>
       </c>
       <c r="C199">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D199" t="str">
         <v>Male</v>
       </c>
       <c r="E199" t="str">
-        <v>alexander.baker64@hotmail.com</v>
+        <v>josiah.lopez65@gmail.com</v>
       </c>
       <c r="F199" t="str">
-        <v>(434) 373-1503</v>
+        <v>(305) 140-9212</v>
       </c>
       <c r="G199" t="str">
-        <v>Stockton</v>
+        <v>Chula Vista</v>
       </c>
       <c r="H199" t="str">
-        <v>A+</v>
+        <v>B</v>
       </c>
       <c r="I199" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="J199" t="str">
+        <v>Victoria Carter, Ella Martinez</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>8f86f871-065f-4df6-ba6b-cf659dbcfdb2</v>
+        <v>6aa67d72-8123-41b4-9298-7f5d1e89aef7</v>
       </c>
       <c r="B200" t="str">
-        <v>Noah Martinez</v>
+        <v>Thomas Nguyen</v>
       </c>
       <c r="C200">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D200" t="str">
         <v>Male</v>
       </c>
       <c r="E200" t="str">
-        <v>noah.martinez26@outlook.com</v>
+        <v>thomas.nguyen88@yahoo.com</v>
       </c>
       <c r="F200" t="str">
-        <v>(311) 254-2323</v>
+        <v>(163) 406-8750</v>
       </c>
       <c r="G200" t="str">
-        <v>Oakland</v>
+        <v>Pomona</v>
       </c>
       <c r="H200" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I200" t="str">
         <v>available</v>
       </c>
       <c r="J200" t="str">
-        <v>Autumn Lewis</v>
+        <v>Henry Roberts, Hannah Jones</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>befe2d5d-0583-45ac-939e-ab57370e2d4f</v>
+        <v>7772949f-f87d-480b-87ab-71f7500e8bd3</v>
       </c>
       <c r="B201" t="str">
-        <v>Daniel Taylor</v>
+        <v>Elijah Miller</v>
       </c>
       <c r="C201">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D201" t="str">
         <v>Male</v>
       </c>
       <c r="E201" t="str">
-        <v>daniel.taylor53@gmail.com</v>
+        <v>elijah.miller73@outlook.com</v>
       </c>
       <c r="F201" t="str">
-        <v>(543) 329-4768</v>
+        <v>(967) 645-5202</v>
       </c>
       <c r="G201" t="str">
-        <v>Pomona</v>
+        <v>Pasadena</v>
       </c>
       <c r="H201" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="I201" t="str">
         <v>available</v>
+      </c>
+      <c r="J201" t="str">
+        <v>Sophia Flores</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>644e41d7-b99e-4381-99a9-65d5ee89ad50</v>
+        <v>ce7b894b-705d-49f7-a6a3-e0a7fe953a10</v>
       </c>
       <c r="B202" t="str">
-        <v>Hunter Scott</v>
+        <v>Christian Rivera</v>
       </c>
       <c r="C202">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D202" t="str">
         <v>Male</v>
       </c>
       <c r="E202" t="str">
-        <v>hunter.scott37@outlook.com</v>
+        <v>christian.rivera21@outlook.com</v>
       </c>
       <c r="F202" t="str">
-        <v>(477) 130-2066</v>
+        <v>(913) 900-2520</v>
       </c>
       <c r="G202" t="str">
-        <v>Torrance</v>
+        <v>Burbank</v>
       </c>
       <c r="H202" t="str">
-        <v>C</v>
+        <v>B+</v>
       </c>
       <c r="I202" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J202" t="str">
-        <v>Zoey Cook</v>
+        <v>Allison Torres, Elena Green</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>9ad191d8-a3b3-478d-9318-781d3156afaa</v>
+        <v>924c70dd-25ce-4725-8a88-173a3af33a7f</v>
       </c>
       <c r="B203" t="str">
-        <v>Alexander Campbell</v>
+        <v>Mia Anderson</v>
       </c>
       <c r="C203">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D203" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E203" t="str">
-        <v>alexander.campbell71@gmail.com</v>
+        <v>mia.anderson0@yahoo.com</v>
       </c>
       <c r="F203" t="str">
-        <v>(131) 840-1169</v>
+        <v>(574) 806-3609</v>
       </c>
       <c r="G203" t="str">
-        <v>Fresno</v>
+        <v>Stockton</v>
       </c>
       <c r="H203" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="I203" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J203" t="str">
-        <v>Logan Nguyen, Hannah Moore</v>
+        <v>Avery Cruz, Lydia Torres</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>924c70dd-25ce-4725-8a88-173a3af33a7f</v>
+        <v>9ad191d8-a3b3-478d-9318-781d3156afaa</v>
       </c>
       <c r="B204" t="str">
-        <v>Mia Anderson</v>
+        <v>Alexander Campbell</v>
       </c>
       <c r="C204">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D204" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E204" t="str">
-        <v>mia.anderson0@yahoo.com</v>
+        <v>alexander.campbell71@gmail.com</v>
       </c>
       <c r="F204" t="str">
-        <v>(574) 806-3609</v>
+        <v>(131) 840-1169</v>
       </c>
       <c r="G204" t="str">
-        <v>Stockton</v>
+        <v>Fresno</v>
       </c>
       <c r="H204" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="I204" t="str">
         <v>available</v>
       </c>
       <c r="J204" t="str">
-        <v>Avery Cruz, Lydia Torres</v>
+        <v>Logan Nguyen, Hannah Moore</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>29b3a5cd-ea7d-4673-9db4-7886660a791f</v>
+        <v>0bb2a1aa-a74d-4711-a2ea-609663a77b4d</v>
       </c>
       <c r="B205" t="str">
-        <v>Joseph Stewart</v>
+        <v>Carter Harris</v>
       </c>
       <c r="C205">
         <v>59</v>
@@ -7046,22 +7052,19 @@
         <v>Male</v>
       </c>
       <c r="E205" t="str">
-        <v>joseph.stewart94@outlook.com</v>
+        <v>carter.harris82@yahoo.com</v>
       </c>
       <c r="F205" t="str">
-        <v>(101) 920-4176</v>
+        <v>0412 175 744</v>
       </c>
       <c r="G205" t="str">
-        <v>Stockton</v>
+        <v>Geelong</v>
       </c>
       <c r="H205" t="str">
         <v>B</v>
       </c>
       <c r="I205" t="str">
         <v>available</v>
-      </c>
-      <c r="J205" t="str">
-        <v>Olivia Nelson, Madelyn Martinez</v>
       </c>
     </row>
     <row r="206">
@@ -7098,89 +7101,86 @@
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>8dfd710f-c1f0-43ee-b26d-13d05de4598b</v>
+        <v>5cb68000-430e-4dc3-9afa-c9c5cca864c0</v>
       </c>
       <c r="B207" t="str">
-        <v>Josiah Lopez</v>
+        <v>Logan Nguyen</v>
       </c>
       <c r="C207">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D207" t="str">
         <v>Male</v>
       </c>
       <c r="E207" t="str">
-        <v>josiah.lopez65@gmail.com</v>
+        <v>logan.nguyen23@hotmail.com</v>
       </c>
       <c r="F207" t="str">
-        <v>(305) 140-9212</v>
+        <v>(278) 620-7089</v>
       </c>
       <c r="G207" t="str">
-        <v>Chula Vista</v>
+        <v>Torrance</v>
       </c>
       <c r="H207" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I207" t="str">
         <v>available</v>
       </c>
       <c r="J207" t="str">
-        <v>Victoria Carter, Ella Martinez</v>
+        <v>Alexander Campbell, Hannah Moore</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>8819a806-f5b1-4b58-95f5-91489df570ac</v>
+        <v>9efd8ec8-0e91-45d9-804b-518939fbac76</v>
       </c>
       <c r="B208" t="str">
-        <v>Colton Harris</v>
+        <v>Noah Hernandez</v>
       </c>
       <c r="C208">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D208" t="str">
         <v>Male</v>
       </c>
       <c r="E208" t="str">
-        <v>colton.harris98@icloud.com</v>
+        <v>noah.hernandez9@hotmail.com</v>
       </c>
       <c r="F208" t="str">
-        <v>(583) 900-3294</v>
+        <v>0404 855 230</v>
       </c>
       <c r="G208" t="str">
-        <v>Newport Beach</v>
+        <v>Cairns</v>
       </c>
       <c r="H208" t="str">
         <v>B</v>
       </c>
       <c r="I208" t="str">
         <v>available</v>
-      </c>
-      <c r="J208" t="str">
-        <v>Sebastian Edwards, Sofia Williams</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>06d38f0c-6780-4d6a-97b8-f28ec52ced34</v>
+        <v>93e72347-d9bf-4fb1-b06c-7cb5a2edcc2a</v>
       </c>
       <c r="B209" t="str">
-        <v>William Taylor</v>
+        <v>Grace King</v>
       </c>
       <c r="C209">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="D209" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E209" t="str">
-        <v>william.taylor84@hotmail.com</v>
+        <v>grace.king1@yahoo.com</v>
       </c>
       <c r="F209" t="str">
-        <v>(276) 538-1731</v>
+        <v>(217) 721-5651</v>
       </c>
       <c r="G209" t="str">
-        <v>Newport Beach</v>
+        <v>Oakland</v>
       </c>
       <c r="H209" t="str">
         <v>B</v>
@@ -7189,62 +7189,62 @@
         <v>available</v>
       </c>
       <c r="J209" t="str">
-        <v>Victoria Scott</v>
+        <v>Gianna Hill</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>d035c0a6-d30e-4ca3-b8c2-9becb2842da7</v>
+        <v>ba63a5c0-c76e-4c1b-b6e4-afed15dfdcd4</v>
       </c>
       <c r="B210" t="str">
-        <v>Thomas Rivera</v>
+        <v>Joseph Anderson</v>
       </c>
       <c r="C210">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D210" t="str">
         <v>Male</v>
       </c>
       <c r="E210" t="str">
-        <v>thomas.rivera13@yahoo.com</v>
+        <v>joseph.anderson2@outlook.com</v>
       </c>
       <c r="F210" t="str">
-        <v>(539) 243-6118</v>
+        <v>(433) 142-2338</v>
       </c>
       <c r="G210" t="str">
-        <v>Long Beach</v>
+        <v>Chula Vista</v>
       </c>
       <c r="H210" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I210" t="str">
         <v>available</v>
       </c>
       <c r="J210" t="str">
-        <v>Hannah Murphy</v>
+        <v>Elizabeth Nelson, Grayson Edwards</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>5cb68000-430e-4dc3-9afa-c9c5cca864c0</v>
+        <v>f878ab7f-ae59-4af0-b19a-e9bf4573c116</v>
       </c>
       <c r="B211" t="str">
-        <v>Logan Nguyen</v>
+        <v>William Allen</v>
       </c>
       <c r="C211">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D211" t="str">
         <v>Male</v>
       </c>
       <c r="E211" t="str">
-        <v>logan.nguyen23@hotmail.com</v>
+        <v>william.allen62@hotmail.com</v>
       </c>
       <c r="F211" t="str">
-        <v>(278) 620-7089</v>
+        <v>(267) 463-7481</v>
       </c>
       <c r="G211" t="str">
-        <v>Torrance</v>
+        <v>San Jose</v>
       </c>
       <c r="H211" t="str">
         <v>B+</v>
@@ -7253,286 +7253,289 @@
         <v>available</v>
       </c>
       <c r="J211" t="str">
-        <v>Alexander Campbell, Hannah Moore</v>
+        <v>Sadie Cook, Alexa Hall</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>ce7b894b-705d-49f7-a6a3-e0a7fe953a10</v>
+        <v>8e30e99d-0594-4a73-840e-1f5ef32387ae</v>
       </c>
       <c r="B212" t="str">
-        <v>Christian Rivera</v>
+        <v>Cameron Anderson</v>
       </c>
       <c r="C212">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D212" t="str">
         <v>Male</v>
       </c>
       <c r="E212" t="str">
-        <v>christian.rivera21@outlook.com</v>
+        <v>cameron.anderson85@hotmail.com</v>
       </c>
       <c r="F212" t="str">
-        <v>(913) 900-2520</v>
+        <v>(960) 363-1976</v>
       </c>
       <c r="G212" t="str">
-        <v>Burbank</v>
+        <v>Glendale</v>
       </c>
       <c r="H212" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I212" t="str">
         <v>available</v>
       </c>
       <c r="J212" t="str">
-        <v>Allison Torres, Elena Green</v>
+        <v>John Diaz</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>7772949f-f87d-480b-87ab-71f7500e8bd3</v>
+        <v>1a539e8e-7b02-422a-991f-99fdb84688f5</v>
       </c>
       <c r="B213" t="str">
-        <v>Elijah Miller</v>
+        <v>Logan Lopez</v>
       </c>
       <c r="C213">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D213" t="str">
         <v>Male</v>
       </c>
       <c r="E213" t="str">
-        <v>elijah.miller73@outlook.com</v>
+        <v>logan.lopez66@icloud.com</v>
       </c>
       <c r="F213" t="str">
-        <v>(967) 645-5202</v>
+        <v>(283) 498-3157</v>
       </c>
       <c r="G213" t="str">
-        <v>Pasadena</v>
+        <v>Burbank</v>
       </c>
       <c r="H213" t="str">
-        <v>A</v>
+        <v>B+</v>
       </c>
       <c r="I213" t="str">
         <v>available</v>
       </c>
       <c r="J213" t="str">
-        <v>Sophia Flores</v>
+        <v>Ava Mitchell</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>e4b4c1c5-d581-43e6-89d9-d3cee5153165</v>
+        <v>1b5fc1ce-1ed8-4255-a8a4-b02892b2b03a</v>
       </c>
       <c r="B214" t="str">
-        <v>Josiah Brown</v>
+        <v>Ava Mitchell</v>
       </c>
       <c r="C214">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="D214" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E214" t="str">
-        <v>josiah.brown19@hotmail.com</v>
+        <v>ava.mitchell87@icloud.com</v>
       </c>
       <c r="F214" t="str">
-        <v>(678) 449-3168</v>
+        <v>(211) 525-6721</v>
       </c>
       <c r="G214" t="str">
-        <v>Fresno</v>
+        <v>Santa Monica</v>
       </c>
       <c r="H214" t="str">
-        <v>A</v>
+        <v>B+</v>
       </c>
       <c r="I214" t="str">
         <v>available</v>
       </c>
       <c r="J214" t="str">
-        <v>Piper Green</v>
+        <v>Logan Lopez</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>2ed0295d-db8c-455a-a1cb-6d3b3fbd6156</v>
+        <v>4f5756e4-c006-4d04-a9bc-7a2de0fdf149</v>
       </c>
       <c r="B215" t="str">
-        <v>Julian Rivera</v>
+        <v>Michael Johnson</v>
       </c>
       <c r="C215">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D215" t="str">
         <v>Male</v>
       </c>
       <c r="E215" t="str">
-        <v>julian.rivera17@icloud.com</v>
+        <v>michael.johnson96@gmail.com</v>
       </c>
       <c r="F215" t="str">
-        <v>(811) 375-6029</v>
+        <v>(878) 132-4532</v>
       </c>
       <c r="G215" t="str">
-        <v>Santa Ana</v>
+        <v>Long Beach</v>
       </c>
       <c r="H215" t="str">
-        <v>C</v>
+        <v>B+</v>
       </c>
       <c r="I215" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J215" t="str">
-        <v>Gabriella Smith</v>
+        <v>Anthony Garcia, Cameron Evans</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>feb78ceb-dd95-455d-8b7d-fc0019ae54c8</v>
+        <v>efe20d3d-2162-4ff8-a8ff-4102e5d3f3ab</v>
       </c>
       <c r="B216" t="str">
-        <v>Isaiah Green</v>
+        <v>Cameron Lee</v>
       </c>
       <c r="C216">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D216" t="str">
         <v>Male</v>
       </c>
       <c r="E216" t="str">
-        <v>isaiah.green52@icloud.com</v>
+        <v>cameron.lee78@yahoo.com</v>
       </c>
       <c r="F216" t="str">
-        <v>(236) 625-9751</v>
+        <v>0404 821 708</v>
       </c>
       <c r="G216" t="str">
-        <v>Glendale</v>
+        <v>Cairns</v>
       </c>
       <c r="H216" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I216" t="str">
         <v>available</v>
-      </c>
-      <c r="J216" t="str">
-        <v>Serenity Campbell, Jackson Jackson</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>6aa67d72-8123-41b4-9298-7f5d1e89aef7</v>
+        <v>7bfb9432-4b59-4ceb-895d-e03ae4837f91</v>
       </c>
       <c r="B217" t="str">
-        <v>Thomas Nguyen</v>
+        <v>Joshua Walker</v>
       </c>
       <c r="C217">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D217" t="str">
         <v>Male</v>
       </c>
       <c r="E217" t="str">
-        <v>thomas.nguyen88@yahoo.com</v>
+        <v>joshua.walker97@gmail.com</v>
       </c>
       <c r="F217" t="str">
-        <v>(163) 406-8750</v>
+        <v>0402 640 379</v>
       </c>
       <c r="G217" t="str">
-        <v>Pomona</v>
+        <v>Darwin</v>
       </c>
       <c r="H217" t="str">
         <v>B</v>
       </c>
       <c r="I217" t="str">
         <v>available</v>
-      </c>
-      <c r="J217" t="str">
-        <v>Henry Roberts, Hannah Jones</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>c347dd65-5ee0-40a6-9fce-2500b3aed70c</v>
+        <v>5c5fe7f9-35dd-4685-af6b-e44a56c1d47c</v>
       </c>
       <c r="B218" t="str">
-        <v>Logan Gomez</v>
+        <v>Charlotte Johnson</v>
       </c>
       <c r="C218">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="D218" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E218" t="str">
-        <v>logan.gomez89@outlook.com</v>
+        <v>charlotte.johnson36@yahoo.com</v>
       </c>
       <c r="F218" t="str">
-        <v>(628) 585-4251</v>
+        <v>0410 304 177</v>
       </c>
       <c r="G218" t="str">
-        <v>San Diego</v>
+        <v>Perth</v>
       </c>
       <c r="H218" t="str">
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="I218" t="str">
         <v>available</v>
       </c>
       <c r="J218" t="str">
-        <v>Lydia Morris</v>
+        <v>Audrey Martin</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>a3363acf-3338-40ec-a745-9aef8dca39fc</v>
+        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
       </c>
       <c r="B219" t="str">
-        <v>Adam Hall</v>
+        <v>Peter Adamidis</v>
       </c>
       <c r="C219">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D219" t="str">
-        <v>Male</v>
+        <v>Not Specified</v>
       </c>
       <c r="E219" t="str">
-        <v>adam.hall35@outlook.com</v>
+        <v>peter.adamidis@gmail.com</v>
       </c>
       <c r="F219" t="str">
-        <v>(742) 142-5313</v>
+        <v>498086080</v>
       </c>
       <c r="G219" t="str">
-        <v>Santa Ana</v>
+        <v/>
       </c>
       <c r="H219" t="str">
-        <v>C</v>
+        <v/>
       </c>
       <c r="I219" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J219" t="str">
-        <v>Grayson Morgan, Valentina Morales</v>
+        <v>Kathleen Reynolds, Felicity Parker-Hill</v>
+      </c>
+      <c r="K219" t="str">
+        <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
+      </c>
+      <c r="L219" t="str">
+        <v>Y</v>
+      </c>
+      <c r="M219" t="str">
+        <v>Broken Leg</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>35c73937-3dd5-4fb3-a5df-d900cabdacba</v>
+        <v>dd2de8e6-e7c9-40e4-8308-27a14e5f00da</v>
       </c>
       <c r="B220" t="str">
-        <v>Jackson Murphy</v>
+        <v>Chloe Jones</v>
       </c>
       <c r="C220">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D220" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E220" t="str">
-        <v>jackson.murphy91@yahoo.com</v>
+        <v>chloe.jones20@outlook.com</v>
       </c>
       <c r="F220" t="str">
-        <v>(572) 305-7237</v>
+        <v>0411 294 635</v>
       </c>
       <c r="G220" t="str">
-        <v>Riverside</v>
+        <v>Toowoomba</v>
       </c>
       <c r="H220" t="str">
         <v>B</v>
@@ -7541,62 +7544,62 @@
         <v>available</v>
       </c>
       <c r="J220" t="str">
-        <v>Caleb Brown</v>
+        <v>Zoe Brown</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>b2c7422d-5caa-41a4-8352-77a36b30b055</v>
+        <v>b28a73f8-5094-4b00-be67-223342b0e1d5</v>
       </c>
       <c r="B221" t="str">
-        <v>Christopher Carter</v>
+        <v>Cora Lee</v>
       </c>
       <c r="C221">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D221" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E221" t="str">
-        <v>christopher.carter22@outlook.com</v>
+        <v>cora.lee40@hotmail.com</v>
       </c>
       <c r="F221" t="str">
-        <v>(176) 989-4341</v>
+        <v>(406) 886-5180</v>
       </c>
       <c r="G221" t="str">
-        <v>Los Angeles</v>
+        <v>Fresno</v>
       </c>
       <c r="H221" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I221" t="str">
         <v>available</v>
       </c>
       <c r="J221" t="str">
-        <v>Cora Mitchell</v>
+        <v>Layla Lopez</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>6116506f-31f1-444e-bd83-2991a5335470</v>
+        <v>ef837da0-c81f-4113-a389-db5e46ffaf4d</v>
       </c>
       <c r="B222" t="str">
-        <v>Sebastian Edwards</v>
+        <v>Aria Scott</v>
       </c>
       <c r="C222">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D222" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E222" t="str">
-        <v>sebastian.edwards97@icloud.com</v>
+        <v>aria.scott42@outlook.com</v>
       </c>
       <c r="F222" t="str">
-        <v>(348) 408-1134</v>
+        <v>0401 330 548</v>
       </c>
       <c r="G222" t="str">
-        <v>Los Angeles</v>
+        <v>Hobart</v>
       </c>
       <c r="H222" t="str">
         <v>B</v>
@@ -7605,222 +7608,231 @@
         <v>available</v>
       </c>
       <c r="J222" t="str">
-        <v>Colton Harris, Sofia Williams</v>
+        <v>Maya Hernandez</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>5965e7f9-ebf0-4e66-a197-03be16110662</v>
+        <v>b09d810a-6eb0-4ea8-ac8b-df27315049f1</v>
       </c>
       <c r="B223" t="str">
-        <v>Cameron Clark</v>
+        <v>Emily Thomas</v>
       </c>
       <c r="C223">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D223" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E223" t="str">
-        <v>cameron.clark37@gmail.com</v>
+        <v>emily.thomas25@outlook.com</v>
       </c>
       <c r="F223" t="str">
-        <v>(267) 288-3549</v>
+        <v>0402 648 577</v>
       </c>
       <c r="G223" t="str">
-        <v>Santa Ana</v>
+        <v>Geelong</v>
       </c>
       <c r="H223" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I223" t="str">
         <v>available</v>
       </c>
       <c r="J223" t="str">
-        <v>Nolan Ortiz</v>
+        <v>Stella Garcia</v>
+      </c>
+      <c r="M223" t="str">
+        <v>Knee replacement - cannot climb stairs</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>1a539e8e-7b02-422a-991f-99fdb84688f5</v>
+        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
       </c>
       <c r="B224" t="str">
-        <v>Logan Lopez</v>
+        <v>Felicity Parker-Hill</v>
       </c>
       <c r="C224">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D224" t="str">
-        <v>Male</v>
+        <v>Not Specified</v>
       </c>
       <c r="E224" t="str">
-        <v>logan.lopez66@icloud.com</v>
+        <v>felicity.parkerhill@endemolshine.com.au</v>
       </c>
       <c r="F224" t="str">
-        <v>(283) 498-3157</v>
+        <v>498086080</v>
       </c>
       <c r="G224" t="str">
-        <v>Burbank</v>
+        <v>Melbourne</v>
       </c>
       <c r="H224" t="str">
-        <v>B+</v>
+        <v/>
       </c>
       <c r="I224" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J224" t="str">
-        <v>Ava Mitchell</v>
+        <v>Peter Adamidis, Kathleen Reynolds</v>
+      </c>
+      <c r="K224" t="str">
+        <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
+      </c>
+      <c r="L224" t="str">
+        <v>N</v>
+      </c>
+      <c r="M224" t="str">
+        <v>N/A</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>1b5fc1ce-1ed8-4255-a8a4-b02892b2b03a</v>
+        <v>f68d2771-4820-4fef-b156-093280aeea67</v>
       </c>
       <c r="B225" t="str">
-        <v>Ava Mitchell</v>
+        <v>Aria Nguyen</v>
       </c>
       <c r="C225">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="D225" t="str">
         <v>Female</v>
       </c>
       <c r="E225" t="str">
-        <v>ava.mitchell87@icloud.com</v>
+        <v>aria.nguyen36@gmail.com</v>
       </c>
       <c r="F225" t="str">
-        <v>(211) 525-6721</v>
+        <v>0401 618 716</v>
       </c>
       <c r="G225" t="str">
-        <v>Santa Monica</v>
+        <v>Sydney</v>
       </c>
       <c r="H225" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I225" t="str">
         <v>available</v>
-      </c>
-      <c r="J225" t="str">
-        <v>Logan Lopez</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>4f5756e4-c006-4d04-a9bc-7a2de0fdf149</v>
+        <v>b8c1889f-fd66-4304-90d7-bd50422cbc52</v>
       </c>
       <c r="B226" t="str">
-        <v>Michael Johnson</v>
+        <v>Maya Moore</v>
       </c>
       <c r="C226">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D226" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E226" t="str">
-        <v>michael.johnson96@gmail.com</v>
+        <v>maya.moore54@outlook.com</v>
       </c>
       <c r="F226" t="str">
-        <v>(878) 132-4532</v>
+        <v>0400 718 585</v>
       </c>
       <c r="G226" t="str">
-        <v>Long Beach</v>
+        <v>Toowoomba</v>
       </c>
       <c r="H226" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I226" t="str">
         <v>available</v>
       </c>
       <c r="J226" t="str">
-        <v>Anthony Garcia, Cameron Evans</v>
+        <v>Sofia Williams</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>ba63a5c0-c76e-4c1b-b6e4-afed15dfdcd4</v>
+        <v>d279968e-2739-4860-92b0-61f1c31b6a72</v>
       </c>
       <c r="B227" t="str">
-        <v>Joseph Anderson</v>
+        <v>Nolan Ortiz</v>
       </c>
       <c r="C227">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D227" t="str">
         <v>Male</v>
       </c>
       <c r="E227" t="str">
-        <v>joseph.anderson2@outlook.com</v>
+        <v>nolan.ortiz57@gmail.com</v>
       </c>
       <c r="F227" t="str">
-        <v>(433) 142-2338</v>
+        <v>(473) 870-4585</v>
       </c>
       <c r="G227" t="str">
-        <v>Chula Vista</v>
+        <v>Santa Monica</v>
       </c>
       <c r="H227" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I227" t="str">
         <v>available</v>
       </c>
       <c r="J227" t="str">
-        <v>Elizabeth Nelson, Grayson Edwards</v>
+        <v>Cameron Clark</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>f878ab7f-ae59-4af0-b19a-e9bf4573c116</v>
+        <v>8f86f871-065f-4df6-ba6b-cf659dbcfdb2</v>
       </c>
       <c r="B228" t="str">
-        <v>William Allen</v>
+        <v>Noah Martinez</v>
       </c>
       <c r="C228">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="D228" t="str">
         <v>Male</v>
       </c>
       <c r="E228" t="str">
-        <v>william.allen62@hotmail.com</v>
+        <v>noah.martinez26@outlook.com</v>
       </c>
       <c r="F228" t="str">
-        <v>(267) 463-7481</v>
+        <v>(311) 254-2323</v>
       </c>
       <c r="G228" t="str">
-        <v>San Jose</v>
+        <v>Oakland</v>
       </c>
       <c r="H228" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I228" t="str">
         <v>available</v>
       </c>
       <c r="J228" t="str">
-        <v>Sadie Cook, Alexa Hall</v>
+        <v>Autumn Lewis</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>8e30e99d-0594-4a73-840e-1f5ef32387ae</v>
+        <v>644e41d7-b99e-4381-99a9-65d5ee89ad50</v>
       </c>
       <c r="B229" t="str">
-        <v>Cameron Anderson</v>
+        <v>Hunter Scott</v>
       </c>
       <c r="C229">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="D229" t="str">
         <v>Male</v>
       </c>
       <c r="E229" t="str">
-        <v>cameron.anderson85@hotmail.com</v>
+        <v>hunter.scott37@outlook.com</v>
       </c>
       <c r="F229" t="str">
-        <v>(960) 363-1976</v>
+        <v>(477) 130-2066</v>
       </c>
       <c r="G229" t="str">
-        <v>Glendale</v>
+        <v>Torrance</v>
       </c>
       <c r="H229" t="str">
         <v>B</v>
@@ -7829,179 +7841,167 @@
         <v>available</v>
       </c>
       <c r="J229" t="str">
-        <v>John Diaz</v>
+        <v>Zoey Cook</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>efe20d3d-2162-4ff8-a8ff-4102e5d3f3ab</v>
+        <v>2ed0295d-db8c-455a-a1cb-6d3b3fbd6156</v>
       </c>
       <c r="B230" t="str">
-        <v>Cameron Lee</v>
+        <v>Julian Rivera</v>
       </c>
       <c r="C230">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D230" t="str">
         <v>Male</v>
       </c>
       <c r="E230" t="str">
-        <v>cameron.lee78@yahoo.com</v>
+        <v>julian.rivera17@icloud.com</v>
       </c>
       <c r="F230" t="str">
-        <v>0404 821 708</v>
+        <v>(811) 375-6029</v>
       </c>
       <c r="G230" t="str">
-        <v>Cairns</v>
+        <v>Santa Ana</v>
       </c>
       <c r="H230" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I230" t="str">
         <v>available</v>
+      </c>
+      <c r="J230" t="str">
+        <v>Gabriella Smith</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>7bfb9432-4b59-4ceb-895d-e03ae4837f91</v>
+        <v>c347dd65-5ee0-40a6-9fce-2500b3aed70c</v>
       </c>
       <c r="B231" t="str">
-        <v>Joshua Walker</v>
+        <v>Logan Gomez</v>
       </c>
       <c r="C231">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="D231" t="str">
         <v>Male</v>
       </c>
       <c r="E231" t="str">
-        <v>joshua.walker97@gmail.com</v>
+        <v>logan.gomez89@outlook.com</v>
       </c>
       <c r="F231" t="str">
-        <v>0402 640 379</v>
+        <v>(628) 585-4251</v>
       </c>
       <c r="G231" t="str">
-        <v>Darwin</v>
+        <v>San Diego</v>
       </c>
       <c r="H231" t="str">
         <v>B</v>
       </c>
       <c r="I231" t="str">
         <v>available</v>
+      </c>
+      <c r="J231" t="str">
+        <v>Lydia Morris</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>5c5fe7f9-35dd-4685-af6b-e44a56c1d47c</v>
+        <v>b2c7422d-5caa-41a4-8352-77a36b30b055</v>
       </c>
       <c r="B232" t="str">
-        <v>Charlotte Johnson</v>
+        <v>Christopher Carter</v>
       </c>
       <c r="C232">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D232" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E232" t="str">
-        <v>charlotte.johnson36@yahoo.com</v>
+        <v>christopher.carter22@outlook.com</v>
       </c>
       <c r="F232" t="str">
-        <v>0410 304 177</v>
+        <v>(176) 989-4341</v>
       </c>
       <c r="G232" t="str">
-        <v>Perth</v>
+        <v>Los Angeles</v>
       </c>
       <c r="H232" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="I232" t="str">
         <v>available</v>
       </c>
       <c r="J232" t="str">
-        <v>Audrey Martin</v>
+        <v>Cora Mitchell</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
+        <v>5965e7f9-ebf0-4e66-a197-03be16110662</v>
       </c>
       <c r="B233" t="str">
-        <v>Peter Adamidis</v>
+        <v>Cameron Clark</v>
       </c>
       <c r="C233">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D233" t="str">
-        <v>Not Specified</v>
+        <v>Male</v>
       </c>
       <c r="E233" t="str">
-        <v>peter.adamidis@gmail.com</v>
+        <v>cameron.clark37@gmail.com</v>
       </c>
       <c r="F233" t="str">
-        <v>498086080</v>
+        <v>(267) 288-3549</v>
       </c>
       <c r="G233" t="str">
-        <v/>
+        <v>Santa Ana</v>
       </c>
       <c r="H233" t="str">
-        <v/>
+        <v>B</v>
       </c>
       <c r="I233" t="str">
         <v>available</v>
       </c>
       <c r="J233" t="str">
-        <v>Kathleen Reynolds, Felicity Parker-Hill</v>
-      </c>
-      <c r="K233" t="str">
-        <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
-      </c>
-      <c r="L233" t="str">
-        <v>Y</v>
-      </c>
-      <c r="M233" t="str">
-        <v>Broken Leg</v>
+        <v>Nolan Ortiz</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
+        <v>a3363acf-3338-40ec-a745-9aef8dca39fc</v>
       </c>
       <c r="B234" t="str">
-        <v>Felicity Parker-Hill</v>
+        <v>Adam Hall</v>
       </c>
       <c r="C234">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D234" t="str">
-        <v>Not Specified</v>
+        <v>Male</v>
       </c>
       <c r="E234" t="str">
-        <v>felicity.parkerhill@endemolshine.com.au</v>
+        <v>adam.hall35@outlook.com</v>
       </c>
       <c r="F234" t="str">
-        <v>498086080</v>
+        <v>(742) 142-5313</v>
       </c>
       <c r="G234" t="str">
-        <v>Melbourne</v>
+        <v>Santa Ana</v>
       </c>
       <c r="H234" t="str">
-        <v/>
+        <v>B</v>
       </c>
       <c r="I234" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J234" t="str">
-        <v>Peter Adamidis, Kathleen Reynolds</v>
-      </c>
-      <c r="K234" t="str">
-        <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
-      </c>
-      <c r="L234" t="str">
-        <v>N</v>
-      </c>
-      <c r="M234" t="str">
-        <v>N/A</v>
+        <v>Grayson Morgan, Valentina Morales</v>
       </c>
     </row>
   </sheetData>
@@ -8013,7 +8013,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8063,13 +8063,13 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>47ec0204-7cf6-4afb-9b9e-a91324cdf4a9</v>
+        <v>6b58308c-f80d-416c-9b6b-02f4314a33f4</v>
       </c>
       <c r="B3" t="str">
-        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C3" t="str">
-        <v>5a16ef0a-cce8-4d1b-bfa5-3892331170c1</v>
+        <v>fc97dba8-a877-4547-b6c9-0c6b058b1c94</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -8078,9 +8078,740 @@
         <v>A1</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>ae186e42-c31d-4d22-b594-22ad500e037b</v>
+      </c>
+      <c r="B4" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C4" t="str">
+        <v>8dfd710f-c1f0-43ee-b26d-13d05de4598b</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="str">
+        <v>A2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>de24e1b7-54f7-4944-86a8-442ceab4b214</v>
+      </c>
+      <c r="B5" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C5" t="str">
+        <v>151541b8-8cbb-452a-b532-1a0df3d1d4b6</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="str">
+        <v>A3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>5ecac9a7-a6b9-48f1-a93b-557a39838f17</v>
+      </c>
+      <c r="B6" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C6" t="str">
+        <v>703385ff-46f6-4b8f-9998-1e18951304e0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="str">
+        <v>B1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>b6f1d429-67e4-45b4-a204-d05480319da0</v>
+      </c>
+      <c r="B7" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C7" t="str">
+        <v>443fcd0e-727d-4035-ab6a-c3df01515271</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="str">
+        <v>B2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>f04ab471-1a9d-4e0c-8e4b-3d79e4d4882b</v>
+      </c>
+      <c r="B8" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C8" t="str">
+        <v>924c70dd-25ce-4725-8a88-173a3af33a7f</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="str">
+        <v>B3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>47ec0204-7cf6-4afb-9b9e-a91324cdf4a9</v>
+      </c>
+      <c r="B9" t="str">
+        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
+      </c>
+      <c r="C9" t="str">
+        <v>5a16ef0a-cce8-4d1b-bfa5-3892331170c1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="str">
+        <v>A1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>1c3f244b-b164-4904-a5f1-1524195b494a</v>
+      </c>
+      <c r="B10" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C10" t="str">
+        <v>b498fd02-c816-4b07-976f-1100495bf38b</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="str">
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>eef4b984-c474-4f43-aeed-197faa279405</v>
+      </c>
+      <c r="B11" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C11" t="str">
+        <v>a3363acf-3338-40ec-a745-9aef8dca39fc</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="str">
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>f979bc94-69a6-4473-be4f-3533f76cae2b</v>
+      </c>
+      <c r="B12" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C12" t="str">
+        <v>49fbe592-0995-4321-b8af-fbe859ca414c</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="str">
+        <v>C3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>0d5bf843-81f3-4a36-925e-2ac5a65f3543</v>
+      </c>
+      <c r="B13" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C13" t="str">
+        <v>bede75d6-a4ec-4fe3-907f-35108a2b4b10</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="str">
+        <v>D1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>4714b65d-0643-42ca-a7a2-8459962131a8</v>
+      </c>
+      <c r="B14" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C14" t="str">
+        <v>4f5756e4-c006-4d04-a9bc-7a2de0fdf149</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="str">
+        <v>D2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>385ae883-11fc-4366-bdc9-aa7d308cbed7</v>
+      </c>
+      <c r="B15" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C15" t="str">
+        <v>cacb8de7-16c5-4332-9d25-a6794d8a23b3</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="str">
+        <v>D3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>4186c00e-c265-4dd5-a5d0-4df7882a204b</v>
+      </c>
+      <c r="B16" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C16" t="str">
+        <v>42504e80-d5df-4b97-a283-eb96728c425f</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="str">
+        <v>E1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>6bde6343-e29a-442a-9189-6dccf7f25850</v>
+      </c>
+      <c r="B17" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C17" t="str">
+        <v>bb319a54-7dbf-4a05-bd7f-8f2f6aa6b414</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="str">
+        <v>E2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>b396cb42-cc76-4350-89e8-98b94de4815d</v>
+      </c>
+      <c r="B18" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C18" t="str">
+        <v>efeba788-8d57-40b3-a3f9-e134a40931ac</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="str">
+        <v>A1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>24e9391d-f1db-42e8-bf49-d8a50c6924a4</v>
+      </c>
+      <c r="B19" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C19" t="str">
+        <v>b22d1d02-9344-4922-9be8-d8d05a79b0b0</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" t="str">
+        <v>A2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>5f3f2f6f-9c39-49d2-8992-ccaec88be285</v>
+      </c>
+      <c r="B20" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C20" t="str">
+        <v>8d8070dd-3ee6-476f-aaf2-631e80f67ef7</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="str">
+        <v>A3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>0690114d-d0d8-4037-9a28-d510723b7e61</v>
+      </c>
+      <c r="B21" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C21" t="str">
+        <v>50b3a8f6-823f-477c-b52d-5b4fba4edbd2</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="str">
+        <v>B1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>9044d7ab-e884-4032-b97c-d8a8c1fe1e8d</v>
+      </c>
+      <c r="B22" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C22" t="str">
+        <v>a3199cca-1aa6-4060-b6cd-0320712376ba</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" t="str">
+        <v>B2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>d8ab2aa6-f759-423e-ba36-95e19395f7e1</v>
+      </c>
+      <c r="B23" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C23" t="str">
+        <v>81759c6b-da11-4c0e-9e96-92aa20964b06</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" t="str">
+        <v>B3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>06479481-5b19-439e-b90b-b66c53b4b1b9</v>
+      </c>
+      <c r="B24" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C24" t="str">
+        <v>d4340206-46f8-4128-a64d-b1a7ca7bbdb5</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" t="str">
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>14eafb47-bc4e-4314-8c84-c9ccd79c48e8</v>
+      </c>
+      <c r="B25" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C25" t="str">
+        <v>9e0ff879-df04-4a3f-b572-8633acb77cee</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" t="str">
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>4a33a5a3-b9e2-4572-bfae-7a07cc18cab4</v>
+      </c>
+      <c r="B26" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C26" t="str">
+        <v>feb78ceb-dd95-455d-8b7d-fc0019ae54c8</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26" t="str">
+        <v>C3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>632a22c8-adb5-48e4-ae03-86b5b416926f</v>
+      </c>
+      <c r="B27" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C27" t="str">
+        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="str">
+        <v>D1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>313caa2c-fc70-4c67-992c-01c66df3af1f</v>
+      </c>
+      <c r="B28" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C28" t="str">
+        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28" t="str">
+        <v>D2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>e0bbac1a-ae2c-423f-8e95-33f1adad8dc2</v>
+      </c>
+      <c r="B29" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C29" t="str">
+        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29" t="str">
+        <v>D3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>24e758b6-4ef6-4995-96d5-483fda8a9d64</v>
+      </c>
+      <c r="B30" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C30" t="str">
+        <v>bcc86f75-9a60-406c-be7c-4f31ea5c30ef</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" t="str">
+        <v>E1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>c7d873c9-6f65-40c6-ad2e-d5e386b74027</v>
+      </c>
+      <c r="B31" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C31" t="str">
+        <v>29fc5656-fb78-4c9b-9800-b68957bc0a07</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31" t="str">
+        <v>E2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>5a54412a-9678-4001-8abf-6a6eb155c1e4</v>
+      </c>
+      <c r="B32" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C32" t="str">
+        <v>6b672a17-fbf7-4b44-841d-dc10fbe8cbce</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32" t="str">
+        <v>A1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>a95ab828-c44f-4fea-88a8-faa563ef3e25</v>
+      </c>
+      <c r="B33" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C33" t="str">
+        <v>9d8995c7-d5a1-4644-848d-dca4e81371af</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33" t="str">
+        <v>A2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>887cbea0-1e69-44fb-b419-5c42ea7c1a87</v>
+      </c>
+      <c r="B34" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C34" t="str">
+        <v>1c24b746-78a8-49cd-9c4d-3d22726dbc1b</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34" t="str">
+        <v>A3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>f6bd49a9-db23-44f1-9b32-84531f956b4f</v>
+      </c>
+      <c r="B35" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C35" t="str">
+        <v>b57be3ad-f74f-4f2b-aa79-6e410d2c199b</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35" t="str">
+        <v>B1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>a33050c8-c302-43e8-b68f-edc8511e8a25</v>
+      </c>
+      <c r="B36" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C36" t="str">
+        <v>8819a806-f5b1-4b58-95f5-91489df570ac</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36" t="str">
+        <v>B2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>489d808e-b5d9-4d37-a0bf-6d38b6e944d6</v>
+      </c>
+      <c r="B37" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C37" t="str">
+        <v>6116506f-31f1-444e-bd83-2991a5335470</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37" t="str">
+        <v>B3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>9239f2c8-8dff-49ae-a8f0-15cd14b10b4b</v>
+      </c>
+      <c r="B38" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C38" t="str">
+        <v>36fd980a-62d1-491b-97d6-079c33195e3d</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38" t="str">
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>87018188-dea2-488d-bbc5-93511f010e3c</v>
+      </c>
+      <c r="B39" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C39" t="str">
+        <v>17e4dd39-8810-472c-b1a9-52382fbe0c79</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39" t="str">
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>de4be42d-21dc-4643-bb31-1a6bafe8b8cc</v>
+      </c>
+      <c r="B40" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C40" t="str">
+        <v>ce7b894b-705d-49f7-a6a3-e0a7fe953a10</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40" t="str">
+        <v>C3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>bea17053-72b9-4ca5-9625-5555aca8ca24</v>
+      </c>
+      <c r="B41" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C41" t="str">
+        <v>97108062-7918-4f7f-a3f7-92bcbc478acd</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41" t="str">
+        <v>D1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>3e276ae2-bdb0-484a-9cfa-955e6b4ba8e2</v>
+      </c>
+      <c r="B42" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C42" t="str">
+        <v>29b3a5cd-ea7d-4673-9db4-7886660a791f</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42" t="str">
+        <v>D2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>5a1ae218-ce7d-4c8c-a2da-d630963af6f4</v>
+      </c>
+      <c r="B43" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C43" t="str">
+        <v>d3db689e-5aed-4049-9588-adf3d1a49ae0</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43" t="str">
+        <v>D3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>9dfb721b-6ee8-410c-8d7a-874ee0c4f5e1</v>
+      </c>
+      <c r="B44" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C44" t="str">
+        <v>dbb200b8-766c-4984-9724-f68192d88939</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44" t="str">
+        <v>E1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>c0c1eeb3-ed06-4cb6-99bf-5b992835c4b3</v>
+      </c>
+      <c r="B45" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C45" t="str">
+        <v>aa6fa282-9894-4b21-a871-c9725586c397</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45" t="str">
+        <v>E2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>d966ee91-cd0e-4a0d-a751-798b92b03e60</v>
+      </c>
+      <c r="B46" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C46" t="str">
+        <v>df712cc5-31d8-4341-b177-6603bf089235</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46" t="str">
+        <v>A4</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H46"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/storage/backups/automatic-backup.xlsx
+++ b/storage/backups/automatic-backup.xlsx
@@ -68,8 +68,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8063,750 +8064,759 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>6b58308c-f80d-416c-9b6b-02f4314a33f4</v>
+        <v>de24e1b7-54f7-4944-86a8-442ceab4b214</v>
       </c>
       <c r="B3" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C3" t="str">
-        <v>fc97dba8-a877-4547-b6c9-0c6b058b1c94</v>
+        <v>151541b8-8cbb-452a-b532-1a0df3d1d4b6</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="str">
-        <v>A1</v>
+        <v>A3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>ae186e42-c31d-4d22-b594-22ad500e037b</v>
+        <v>5ecac9a7-a6b9-48f1-a93b-557a39838f17</v>
       </c>
       <c r="B4" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C4" t="str">
-        <v>8dfd710f-c1f0-43ee-b26d-13d05de4598b</v>
+        <v>703385ff-46f6-4b8f-9998-1e18951304e0</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="str">
-        <v>A2</v>
+        <v>B1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>de24e1b7-54f7-4944-86a8-442ceab4b214</v>
+        <v>b6f1d429-67e4-45b4-a204-d05480319da0</v>
       </c>
       <c r="B5" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C5" t="str">
-        <v>151541b8-8cbb-452a-b532-1a0df3d1d4b6</v>
+        <v>443fcd0e-727d-4035-ab6a-c3df01515271</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="str">
-        <v>A3</v>
+        <v>B2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>5ecac9a7-a6b9-48f1-a93b-557a39838f17</v>
+        <v>f04ab471-1a9d-4e0c-8e4b-3d79e4d4882b</v>
       </c>
       <c r="B6" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C6" t="str">
-        <v>703385ff-46f6-4b8f-9998-1e18951304e0</v>
+        <v>924c70dd-25ce-4725-8a88-173a3af33a7f</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="str">
-        <v>B1</v>
+        <v>B3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>b6f1d429-67e4-45b4-a204-d05480319da0</v>
+        <v>47ec0204-7cf6-4afb-9b9e-a91324cdf4a9</v>
       </c>
       <c r="B7" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
       </c>
       <c r="C7" t="str">
-        <v>443fcd0e-727d-4035-ab6a-c3df01515271</v>
+        <v>5a16ef0a-cce8-4d1b-bfa5-3892331170c1</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="str">
-        <v>B2</v>
+        <v>A1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>f04ab471-1a9d-4e0c-8e4b-3d79e4d4882b</v>
+        <v>1c3f244b-b164-4904-a5f1-1524195b494a</v>
       </c>
       <c r="B8" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C8" t="str">
-        <v>924c70dd-25ce-4725-8a88-173a3af33a7f</v>
+        <v>b498fd02-c816-4b07-976f-1100495bf38b</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="str">
-        <v>B3</v>
+        <v>C1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>47ec0204-7cf6-4afb-9b9e-a91324cdf4a9</v>
+        <v>eef4b984-c474-4f43-aeed-197faa279405</v>
       </c>
       <c r="B9" t="str">
-        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C9" t="str">
-        <v>5a16ef0a-cce8-4d1b-bfa5-3892331170c1</v>
+        <v>a3363acf-3338-40ec-a745-9aef8dca39fc</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="str">
-        <v>A1</v>
+        <v>C2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>1c3f244b-b164-4904-a5f1-1524195b494a</v>
+        <v>f979bc94-69a6-4473-be4f-3533f76cae2b</v>
       </c>
       <c r="B10" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C10" t="str">
-        <v>b498fd02-c816-4b07-976f-1100495bf38b</v>
+        <v>49fbe592-0995-4321-b8af-fbe859ca414c</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="str">
-        <v>C1</v>
+        <v>C3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>eef4b984-c474-4f43-aeed-197faa279405</v>
+        <v>0d5bf843-81f3-4a36-925e-2ac5a65f3543</v>
       </c>
       <c r="B11" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C11" t="str">
-        <v>a3363acf-3338-40ec-a745-9aef8dca39fc</v>
+        <v>bede75d6-a4ec-4fe3-907f-35108a2b4b10</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="str">
-        <v>C2</v>
+        <v>D1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>f979bc94-69a6-4473-be4f-3533f76cae2b</v>
+        <v>4714b65d-0643-42ca-a7a2-8459962131a8</v>
       </c>
       <c r="B12" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C12" t="str">
-        <v>49fbe592-0995-4321-b8af-fbe859ca414c</v>
+        <v>4f5756e4-c006-4d04-a9bc-7a2de0fdf149</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="str">
-        <v>C3</v>
+        <v>D2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>0d5bf843-81f3-4a36-925e-2ac5a65f3543</v>
+        <v>385ae883-11fc-4366-bdc9-aa7d308cbed7</v>
       </c>
       <c r="B13" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C13" t="str">
-        <v>bede75d6-a4ec-4fe3-907f-35108a2b4b10</v>
+        <v>cacb8de7-16c5-4332-9d25-a6794d8a23b3</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="str">
-        <v>D1</v>
+        <v>D3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>4714b65d-0643-42ca-a7a2-8459962131a8</v>
+        <v>4186c00e-c265-4dd5-a5d0-4df7882a204b</v>
       </c>
       <c r="B14" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C14" t="str">
-        <v>4f5756e4-c006-4d04-a9bc-7a2de0fdf149</v>
+        <v>42504e80-d5df-4b97-a283-eb96728c425f</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="str">
-        <v>D2</v>
+        <v>E1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>385ae883-11fc-4366-bdc9-aa7d308cbed7</v>
+        <v>6bde6343-e29a-442a-9189-6dccf7f25850</v>
       </c>
       <c r="B15" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C15" t="str">
-        <v>cacb8de7-16c5-4332-9d25-a6794d8a23b3</v>
+        <v>bb319a54-7dbf-4a05-bd7f-8f2f6aa6b414</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="str">
-        <v>D3</v>
+        <v>E2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>4186c00e-c265-4dd5-a5d0-4df7882a204b</v>
+        <v>b396cb42-cc76-4350-89e8-98b94de4815d</v>
       </c>
       <c r="B16" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C16" t="str">
-        <v>42504e80-d5df-4b97-a283-eb96728c425f</v>
+        <v>efeba788-8d57-40b3-a3f9-e134a40931ac</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" t="str">
-        <v>E1</v>
+        <v>A1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>6bde6343-e29a-442a-9189-6dccf7f25850</v>
+        <v>24e9391d-f1db-42e8-bf49-d8a50c6924a4</v>
       </c>
       <c r="B17" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C17" t="str">
-        <v>bb319a54-7dbf-4a05-bd7f-8f2f6aa6b414</v>
+        <v>b22d1d02-9344-4922-9be8-d8d05a79b0b0</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" t="str">
-        <v>E2</v>
+        <v>A2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>b396cb42-cc76-4350-89e8-98b94de4815d</v>
+        <v>5f3f2f6f-9c39-49d2-8992-ccaec88be285</v>
       </c>
       <c r="B18" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C18" t="str">
-        <v>efeba788-8d57-40b3-a3f9-e134a40931ac</v>
+        <v>8d8070dd-3ee6-476f-aaf2-631e80f67ef7</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
       <c r="E18" t="str">
-        <v>A1</v>
+        <v>A3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>24e9391d-f1db-42e8-bf49-d8a50c6924a4</v>
+        <v>0690114d-d0d8-4037-9a28-d510723b7e61</v>
       </c>
       <c r="B19" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C19" t="str">
-        <v>b22d1d02-9344-4922-9be8-d8d05a79b0b0</v>
+        <v>50b3a8f6-823f-477c-b52d-5b4fba4edbd2</v>
       </c>
       <c r="D19">
         <v>2</v>
       </c>
       <c r="E19" t="str">
-        <v>A2</v>
+        <v>B1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>5f3f2f6f-9c39-49d2-8992-ccaec88be285</v>
+        <v>9044d7ab-e884-4032-b97c-d8a8c1fe1e8d</v>
       </c>
       <c r="B20" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C20" t="str">
-        <v>8d8070dd-3ee6-476f-aaf2-631e80f67ef7</v>
+        <v>a3199cca-1aa6-4060-b6cd-0320712376ba</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="E20" t="str">
-        <v>A3</v>
+        <v>B2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>0690114d-d0d8-4037-9a28-d510723b7e61</v>
+        <v>d8ab2aa6-f759-423e-ba36-95e19395f7e1</v>
       </c>
       <c r="B21" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C21" t="str">
-        <v>50b3a8f6-823f-477c-b52d-5b4fba4edbd2</v>
+        <v>81759c6b-da11-4c0e-9e96-92aa20964b06</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21" t="str">
-        <v>B1</v>
+        <v>B3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>9044d7ab-e884-4032-b97c-d8a8c1fe1e8d</v>
+        <v>06479481-5b19-439e-b90b-b66c53b4b1b9</v>
       </c>
       <c r="B22" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C22" t="str">
-        <v>a3199cca-1aa6-4060-b6cd-0320712376ba</v>
+        <v>d4340206-46f8-4128-a64d-b1a7ca7bbdb5</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
       <c r="E22" t="str">
-        <v>B2</v>
+        <v>C1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>d8ab2aa6-f759-423e-ba36-95e19395f7e1</v>
+        <v>14eafb47-bc4e-4314-8c84-c9ccd79c48e8</v>
       </c>
       <c r="B23" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C23" t="str">
-        <v>81759c6b-da11-4c0e-9e96-92aa20964b06</v>
+        <v>9e0ff879-df04-4a3f-b572-8633acb77cee</v>
       </c>
       <c r="D23">
         <v>2</v>
       </c>
       <c r="E23" t="str">
-        <v>B3</v>
+        <v>C2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>06479481-5b19-439e-b90b-b66c53b4b1b9</v>
+        <v>4a33a5a3-b9e2-4572-bfae-7a07cc18cab4</v>
       </c>
       <c r="B24" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C24" t="str">
-        <v>d4340206-46f8-4128-a64d-b1a7ca7bbdb5</v>
+        <v>feb78ceb-dd95-455d-8b7d-fc0019ae54c8</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
       <c r="E24" t="str">
-        <v>C1</v>
+        <v>C3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>14eafb47-bc4e-4314-8c84-c9ccd79c48e8</v>
+        <v>632a22c8-adb5-48e4-ae03-86b5b416926f</v>
       </c>
       <c r="B25" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C25" t="str">
-        <v>9e0ff879-df04-4a3f-b572-8633acb77cee</v>
+        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
       <c r="E25" t="str">
-        <v>C2</v>
+        <v>D1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>4a33a5a3-b9e2-4572-bfae-7a07cc18cab4</v>
+        <v>313caa2c-fc70-4c67-992c-01c66df3af1f</v>
       </c>
       <c r="B26" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C26" t="str">
-        <v>feb78ceb-dd95-455d-8b7d-fc0019ae54c8</v>
+        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
       <c r="E26" t="str">
-        <v>C3</v>
+        <v>D2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>632a22c8-adb5-48e4-ae03-86b5b416926f</v>
+        <v>e0bbac1a-ae2c-423f-8e95-33f1adad8dc2</v>
       </c>
       <c r="B27" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C27" t="str">
-        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
+        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
       <c r="E27" t="str">
-        <v>D1</v>
+        <v>D3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>313caa2c-fc70-4c67-992c-01c66df3af1f</v>
+        <v>24e758b6-4ef6-4995-96d5-483fda8a9d64</v>
       </c>
       <c r="B28" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C28" t="str">
-        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
+        <v>bcc86f75-9a60-406c-be7c-4f31ea5c30ef</v>
       </c>
       <c r="D28">
         <v>2</v>
       </c>
       <c r="E28" t="str">
-        <v>D2</v>
+        <v>E1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>e0bbac1a-ae2c-423f-8e95-33f1adad8dc2</v>
+        <v>c7d873c9-6f65-40c6-ad2e-d5e386b74027</v>
       </c>
       <c r="B29" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C29" t="str">
-        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
+        <v>29fc5656-fb78-4c9b-9800-b68957bc0a07</v>
       </c>
       <c r="D29">
         <v>2</v>
       </c>
       <c r="E29" t="str">
-        <v>D3</v>
+        <v>E2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>24e758b6-4ef6-4995-96d5-483fda8a9d64</v>
+        <v>5a54412a-9678-4001-8abf-6a6eb155c1e4</v>
       </c>
       <c r="B30" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C30" t="str">
-        <v>bcc86f75-9a60-406c-be7c-4f31ea5c30ef</v>
+        <v>6b672a17-fbf7-4b44-841d-dc10fbe8cbce</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E30" t="str">
-        <v>E1</v>
+        <v>A1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>c7d873c9-6f65-40c6-ad2e-d5e386b74027</v>
+        <v>a95ab828-c44f-4fea-88a8-faa563ef3e25</v>
       </c>
       <c r="B31" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C31" t="str">
-        <v>29fc5656-fb78-4c9b-9800-b68957bc0a07</v>
+        <v>9d8995c7-d5a1-4644-848d-dca4e81371af</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E31" t="str">
-        <v>E2</v>
+        <v>A2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>5a54412a-9678-4001-8abf-6a6eb155c1e4</v>
+        <v>887cbea0-1e69-44fb-b419-5c42ea7c1a87</v>
       </c>
       <c r="B32" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C32" t="str">
-        <v>6b672a17-fbf7-4b44-841d-dc10fbe8cbce</v>
+        <v>1c24b746-78a8-49cd-9c4d-3d22726dbc1b</v>
       </c>
       <c r="D32">
         <v>3</v>
       </c>
       <c r="E32" t="str">
-        <v>A1</v>
+        <v>A3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>a95ab828-c44f-4fea-88a8-faa563ef3e25</v>
+        <v>f6bd49a9-db23-44f1-9b32-84531f956b4f</v>
       </c>
       <c r="B33" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C33" t="str">
-        <v>9d8995c7-d5a1-4644-848d-dca4e81371af</v>
+        <v>b57be3ad-f74f-4f2b-aa79-6e410d2c199b</v>
       </c>
       <c r="D33">
         <v>3</v>
       </c>
       <c r="E33" t="str">
-        <v>A2</v>
+        <v>B1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>887cbea0-1e69-44fb-b419-5c42ea7c1a87</v>
+        <v>a33050c8-c302-43e8-b68f-edc8511e8a25</v>
       </c>
       <c r="B34" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C34" t="str">
-        <v>1c24b746-78a8-49cd-9c4d-3d22726dbc1b</v>
+        <v>8819a806-f5b1-4b58-95f5-91489df570ac</v>
       </c>
       <c r="D34">
         <v>3</v>
       </c>
       <c r="E34" t="str">
-        <v>A3</v>
+        <v>B2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>f6bd49a9-db23-44f1-9b32-84531f956b4f</v>
+        <v>489d808e-b5d9-4d37-a0bf-6d38b6e944d6</v>
       </c>
       <c r="B35" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C35" t="str">
-        <v>b57be3ad-f74f-4f2b-aa79-6e410d2c199b</v>
+        <v>6116506f-31f1-444e-bd83-2991a5335470</v>
       </c>
       <c r="D35">
         <v>3</v>
       </c>
       <c r="E35" t="str">
-        <v>B1</v>
+        <v>B3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>a33050c8-c302-43e8-b68f-edc8511e8a25</v>
+        <v>9239f2c8-8dff-49ae-a8f0-15cd14b10b4b</v>
       </c>
       <c r="B36" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C36" t="str">
-        <v>8819a806-f5b1-4b58-95f5-91489df570ac</v>
+        <v>36fd980a-62d1-491b-97d6-079c33195e3d</v>
       </c>
       <c r="D36">
         <v>3</v>
       </c>
       <c r="E36" t="str">
-        <v>B2</v>
+        <v>C1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>489d808e-b5d9-4d37-a0bf-6d38b6e944d6</v>
+        <v>87018188-dea2-488d-bbc5-93511f010e3c</v>
       </c>
       <c r="B37" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C37" t="str">
-        <v>6116506f-31f1-444e-bd83-2991a5335470</v>
+        <v>17e4dd39-8810-472c-b1a9-52382fbe0c79</v>
       </c>
       <c r="D37">
         <v>3</v>
       </c>
       <c r="E37" t="str">
-        <v>B3</v>
+        <v>C2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>9239f2c8-8dff-49ae-a8f0-15cd14b10b4b</v>
+        <v>de4be42d-21dc-4643-bb31-1a6bafe8b8cc</v>
       </c>
       <c r="B38" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C38" t="str">
-        <v>36fd980a-62d1-491b-97d6-079c33195e3d</v>
+        <v>ce7b894b-705d-49f7-a6a3-e0a7fe953a10</v>
       </c>
       <c r="D38">
         <v>3</v>
       </c>
       <c r="E38" t="str">
-        <v>C1</v>
+        <v>C3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>87018188-dea2-488d-bbc5-93511f010e3c</v>
+        <v>bea17053-72b9-4ca5-9625-5555aca8ca24</v>
       </c>
       <c r="B39" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C39" t="str">
-        <v>17e4dd39-8810-472c-b1a9-52382fbe0c79</v>
+        <v>97108062-7918-4f7f-a3f7-92bcbc478acd</v>
       </c>
       <c r="D39">
         <v>3</v>
       </c>
       <c r="E39" t="str">
-        <v>C2</v>
+        <v>D1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>de4be42d-21dc-4643-bb31-1a6bafe8b8cc</v>
+        <v>3e276ae2-bdb0-484a-9cfa-955e6b4ba8e2</v>
       </c>
       <c r="B40" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C40" t="str">
-        <v>ce7b894b-705d-49f7-a6a3-e0a7fe953a10</v>
+        <v>29b3a5cd-ea7d-4673-9db4-7886660a791f</v>
       </c>
       <c r="D40">
         <v>3</v>
       </c>
       <c r="E40" t="str">
-        <v>C3</v>
+        <v>D2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>bea17053-72b9-4ca5-9625-5555aca8ca24</v>
+        <v>5a1ae218-ce7d-4c8c-a2da-d630963af6f4</v>
       </c>
       <c r="B41" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C41" t="str">
-        <v>97108062-7918-4f7f-a3f7-92bcbc478acd</v>
+        <v>d3db689e-5aed-4049-9588-adf3d1a49ae0</v>
       </c>
       <c r="D41">
         <v>3</v>
       </c>
       <c r="E41" t="str">
-        <v>D1</v>
+        <v>D3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>3e276ae2-bdb0-484a-9cfa-955e6b4ba8e2</v>
+        <v>9dfb721b-6ee8-410c-8d7a-874ee0c4f5e1</v>
       </c>
       <c r="B42" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C42" t="str">
-        <v>29b3a5cd-ea7d-4673-9db4-7886660a791f</v>
+        <v>dbb200b8-766c-4984-9724-f68192d88939</v>
       </c>
       <c r="D42">
         <v>3</v>
       </c>
       <c r="E42" t="str">
-        <v>D2</v>
+        <v>E1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>5a1ae218-ce7d-4c8c-a2da-d630963af6f4</v>
+        <v>c0c1eeb3-ed06-4cb6-99bf-5b992835c4b3</v>
       </c>
       <c r="B43" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C43" t="str">
-        <v>d3db689e-5aed-4049-9588-adf3d1a49ae0</v>
+        <v>aa6fa282-9894-4b21-a871-c9725586c397</v>
       </c>
       <c r="D43">
         <v>3</v>
       </c>
       <c r="E43" t="str">
-        <v>D3</v>
+        <v>E2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>9dfb721b-6ee8-410c-8d7a-874ee0c4f5e1</v>
+        <v>d966ee91-cd0e-4a0d-a751-798b92b03e60</v>
       </c>
       <c r="B44" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C44" t="str">
-        <v>dbb200b8-766c-4984-9724-f68192d88939</v>
+        <v>df712cc5-31d8-4341-b177-6603bf089235</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E44" t="str">
-        <v>E1</v>
+        <v>A4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>c0c1eeb3-ed06-4cb6-99bf-5b992835c4b3</v>
+        <v>ae186e42-c31d-4d22-b594-22ad500e037b</v>
       </c>
       <c r="B45" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C45" t="str">
-        <v>aa6fa282-9894-4b21-a871-c9725586c397</v>
+        <v>8dfd710f-c1f0-43ee-b26d-13d05de4598b</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E45" t="str">
-        <v>E2</v>
+        <v>A2</v>
+      </c>
+      <c r="F45" s="1">
+        <v>46000.530885277774</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>d966ee91-cd0e-4a0d-a751-798b92b03e60</v>
+        <v>6b58308c-f80d-416c-9b6b-02f4314a33f4</v>
       </c>
       <c r="B46" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C46" t="str">
-        <v>df712cc5-31d8-4341-b177-6603bf089235</v>
+        <v>fc97dba8-a877-4547-b6c9-0c6b058b1c94</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46" t="str">
-        <v>A4</v>
+        <v>A1</v>
+      </c>
+      <c r="F46" s="1">
+        <v>46000.52605988426</v>
+      </c>
+      <c r="G46" s="1">
+        <v>46000.52717275463</v>
       </c>
     </row>
   </sheetData>

--- a/storage/backups/automatic-backup.xlsx
+++ b/storage/backups/automatic-backup.xlsx
@@ -8064,759 +8064,762 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>de24e1b7-54f7-4944-86a8-442ceab4b214</v>
+        <v>5ecac9a7-a6b9-48f1-a93b-557a39838f17</v>
       </c>
       <c r="B3" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C3" t="str">
-        <v>151541b8-8cbb-452a-b532-1a0df3d1d4b6</v>
+        <v>703385ff-46f6-4b8f-9998-1e18951304e0</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="str">
-        <v>A3</v>
+        <v>B1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>5ecac9a7-a6b9-48f1-a93b-557a39838f17</v>
+        <v>b6f1d429-67e4-45b4-a204-d05480319da0</v>
       </c>
       <c r="B4" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C4" t="str">
-        <v>703385ff-46f6-4b8f-9998-1e18951304e0</v>
+        <v>443fcd0e-727d-4035-ab6a-c3df01515271</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="str">
-        <v>B1</v>
+        <v>B2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>b6f1d429-67e4-45b4-a204-d05480319da0</v>
+        <v>f04ab471-1a9d-4e0c-8e4b-3d79e4d4882b</v>
       </c>
       <c r="B5" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C5" t="str">
-        <v>443fcd0e-727d-4035-ab6a-c3df01515271</v>
+        <v>924c70dd-25ce-4725-8a88-173a3af33a7f</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="str">
-        <v>B2</v>
+        <v>B3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>f04ab471-1a9d-4e0c-8e4b-3d79e4d4882b</v>
+        <v>47ec0204-7cf6-4afb-9b9e-a91324cdf4a9</v>
       </c>
       <c r="B6" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
       </c>
       <c r="C6" t="str">
-        <v>924c70dd-25ce-4725-8a88-173a3af33a7f</v>
+        <v>5a16ef0a-cce8-4d1b-bfa5-3892331170c1</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="str">
-        <v>B3</v>
+        <v>A1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>47ec0204-7cf6-4afb-9b9e-a91324cdf4a9</v>
+        <v>1c3f244b-b164-4904-a5f1-1524195b494a</v>
       </c>
       <c r="B7" t="str">
-        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C7" t="str">
-        <v>5a16ef0a-cce8-4d1b-bfa5-3892331170c1</v>
+        <v>b498fd02-c816-4b07-976f-1100495bf38b</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="str">
-        <v>A1</v>
+        <v>C1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>1c3f244b-b164-4904-a5f1-1524195b494a</v>
+        <v>eef4b984-c474-4f43-aeed-197faa279405</v>
       </c>
       <c r="B8" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C8" t="str">
-        <v>b498fd02-c816-4b07-976f-1100495bf38b</v>
+        <v>a3363acf-3338-40ec-a745-9aef8dca39fc</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="str">
-        <v>C1</v>
+        <v>C2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>eef4b984-c474-4f43-aeed-197faa279405</v>
+        <v>f979bc94-69a6-4473-be4f-3533f76cae2b</v>
       </c>
       <c r="B9" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C9" t="str">
-        <v>a3363acf-3338-40ec-a745-9aef8dca39fc</v>
+        <v>49fbe592-0995-4321-b8af-fbe859ca414c</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="str">
-        <v>C2</v>
+        <v>C3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>f979bc94-69a6-4473-be4f-3533f76cae2b</v>
+        <v>0d5bf843-81f3-4a36-925e-2ac5a65f3543</v>
       </c>
       <c r="B10" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C10" t="str">
-        <v>49fbe592-0995-4321-b8af-fbe859ca414c</v>
+        <v>bede75d6-a4ec-4fe3-907f-35108a2b4b10</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="str">
-        <v>C3</v>
+        <v>D1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>0d5bf843-81f3-4a36-925e-2ac5a65f3543</v>
+        <v>4714b65d-0643-42ca-a7a2-8459962131a8</v>
       </c>
       <c r="B11" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C11" t="str">
-        <v>bede75d6-a4ec-4fe3-907f-35108a2b4b10</v>
+        <v>4f5756e4-c006-4d04-a9bc-7a2de0fdf149</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="str">
-        <v>D1</v>
+        <v>D2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>4714b65d-0643-42ca-a7a2-8459962131a8</v>
+        <v>385ae883-11fc-4366-bdc9-aa7d308cbed7</v>
       </c>
       <c r="B12" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C12" t="str">
-        <v>4f5756e4-c006-4d04-a9bc-7a2de0fdf149</v>
+        <v>cacb8de7-16c5-4332-9d25-a6794d8a23b3</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="str">
-        <v>D2</v>
+        <v>D3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>385ae883-11fc-4366-bdc9-aa7d308cbed7</v>
+        <v>4186c00e-c265-4dd5-a5d0-4df7882a204b</v>
       </c>
       <c r="B13" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C13" t="str">
-        <v>cacb8de7-16c5-4332-9d25-a6794d8a23b3</v>
+        <v>42504e80-d5df-4b97-a283-eb96728c425f</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="str">
-        <v>D3</v>
+        <v>E1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>4186c00e-c265-4dd5-a5d0-4df7882a204b</v>
+        <v>6bde6343-e29a-442a-9189-6dccf7f25850</v>
       </c>
       <c r="B14" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C14" t="str">
-        <v>42504e80-d5df-4b97-a283-eb96728c425f</v>
+        <v>bb319a54-7dbf-4a05-bd7f-8f2f6aa6b414</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="str">
-        <v>E1</v>
+        <v>E2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>6bde6343-e29a-442a-9189-6dccf7f25850</v>
+        <v>b396cb42-cc76-4350-89e8-98b94de4815d</v>
       </c>
       <c r="B15" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C15" t="str">
-        <v>bb319a54-7dbf-4a05-bd7f-8f2f6aa6b414</v>
+        <v>efeba788-8d57-40b3-a3f9-e134a40931ac</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" t="str">
-        <v>E2</v>
+        <v>A1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>b396cb42-cc76-4350-89e8-98b94de4815d</v>
+        <v>24e9391d-f1db-42e8-bf49-d8a50c6924a4</v>
       </c>
       <c r="B16" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C16" t="str">
-        <v>efeba788-8d57-40b3-a3f9-e134a40931ac</v>
+        <v>b22d1d02-9344-4922-9be8-d8d05a79b0b0</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16" t="str">
-        <v>A1</v>
+        <v>A2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>24e9391d-f1db-42e8-bf49-d8a50c6924a4</v>
+        <v>5f3f2f6f-9c39-49d2-8992-ccaec88be285</v>
       </c>
       <c r="B17" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C17" t="str">
-        <v>b22d1d02-9344-4922-9be8-d8d05a79b0b0</v>
+        <v>8d8070dd-3ee6-476f-aaf2-631e80f67ef7</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
       <c r="E17" t="str">
-        <v>A2</v>
+        <v>A3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>5f3f2f6f-9c39-49d2-8992-ccaec88be285</v>
+        <v>0690114d-d0d8-4037-9a28-d510723b7e61</v>
       </c>
       <c r="B18" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C18" t="str">
-        <v>8d8070dd-3ee6-476f-aaf2-631e80f67ef7</v>
+        <v>50b3a8f6-823f-477c-b52d-5b4fba4edbd2</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
       <c r="E18" t="str">
-        <v>A3</v>
+        <v>B1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>0690114d-d0d8-4037-9a28-d510723b7e61</v>
+        <v>9044d7ab-e884-4032-b97c-d8a8c1fe1e8d</v>
       </c>
       <c r="B19" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C19" t="str">
-        <v>50b3a8f6-823f-477c-b52d-5b4fba4edbd2</v>
+        <v>a3199cca-1aa6-4060-b6cd-0320712376ba</v>
       </c>
       <c r="D19">
         <v>2</v>
       </c>
       <c r="E19" t="str">
-        <v>B1</v>
+        <v>B2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>9044d7ab-e884-4032-b97c-d8a8c1fe1e8d</v>
+        <v>d8ab2aa6-f759-423e-ba36-95e19395f7e1</v>
       </c>
       <c r="B20" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C20" t="str">
-        <v>a3199cca-1aa6-4060-b6cd-0320712376ba</v>
+        <v>81759c6b-da11-4c0e-9e96-92aa20964b06</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="E20" t="str">
-        <v>B2</v>
+        <v>B3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>d8ab2aa6-f759-423e-ba36-95e19395f7e1</v>
+        <v>06479481-5b19-439e-b90b-b66c53b4b1b9</v>
       </c>
       <c r="B21" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C21" t="str">
-        <v>81759c6b-da11-4c0e-9e96-92aa20964b06</v>
+        <v>d4340206-46f8-4128-a64d-b1a7ca7bbdb5</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21" t="str">
-        <v>B3</v>
+        <v>C1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>06479481-5b19-439e-b90b-b66c53b4b1b9</v>
+        <v>14eafb47-bc4e-4314-8c84-c9ccd79c48e8</v>
       </c>
       <c r="B22" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C22" t="str">
-        <v>d4340206-46f8-4128-a64d-b1a7ca7bbdb5</v>
+        <v>9e0ff879-df04-4a3f-b572-8633acb77cee</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
       <c r="E22" t="str">
-        <v>C1</v>
+        <v>C2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>14eafb47-bc4e-4314-8c84-c9ccd79c48e8</v>
+        <v>4a33a5a3-b9e2-4572-bfae-7a07cc18cab4</v>
       </c>
       <c r="B23" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C23" t="str">
-        <v>9e0ff879-df04-4a3f-b572-8633acb77cee</v>
+        <v>feb78ceb-dd95-455d-8b7d-fc0019ae54c8</v>
       </c>
       <c r="D23">
         <v>2</v>
       </c>
       <c r="E23" t="str">
-        <v>C2</v>
+        <v>C3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>4a33a5a3-b9e2-4572-bfae-7a07cc18cab4</v>
+        <v>632a22c8-adb5-48e4-ae03-86b5b416926f</v>
       </c>
       <c r="B24" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C24" t="str">
-        <v>feb78ceb-dd95-455d-8b7d-fc0019ae54c8</v>
+        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
       <c r="E24" t="str">
-        <v>C3</v>
+        <v>D1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>632a22c8-adb5-48e4-ae03-86b5b416926f</v>
+        <v>313caa2c-fc70-4c67-992c-01c66df3af1f</v>
       </c>
       <c r="B25" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C25" t="str">
-        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
+        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
       <c r="E25" t="str">
-        <v>D1</v>
+        <v>D2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>313caa2c-fc70-4c67-992c-01c66df3af1f</v>
+        <v>e0bbac1a-ae2c-423f-8e95-33f1adad8dc2</v>
       </c>
       <c r="B26" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C26" t="str">
-        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
+        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
       <c r="E26" t="str">
-        <v>D2</v>
+        <v>D3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>e0bbac1a-ae2c-423f-8e95-33f1adad8dc2</v>
+        <v>24e758b6-4ef6-4995-96d5-483fda8a9d64</v>
       </c>
       <c r="B27" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C27" t="str">
-        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
+        <v>bcc86f75-9a60-406c-be7c-4f31ea5c30ef</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
       <c r="E27" t="str">
-        <v>D3</v>
+        <v>E1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>24e758b6-4ef6-4995-96d5-483fda8a9d64</v>
+        <v>c7d873c9-6f65-40c6-ad2e-d5e386b74027</v>
       </c>
       <c r="B28" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C28" t="str">
-        <v>bcc86f75-9a60-406c-be7c-4f31ea5c30ef</v>
+        <v>29fc5656-fb78-4c9b-9800-b68957bc0a07</v>
       </c>
       <c r="D28">
         <v>2</v>
       </c>
       <c r="E28" t="str">
-        <v>E1</v>
+        <v>E2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>c7d873c9-6f65-40c6-ad2e-d5e386b74027</v>
+        <v>5a54412a-9678-4001-8abf-6a6eb155c1e4</v>
       </c>
       <c r="B29" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C29" t="str">
-        <v>29fc5656-fb78-4c9b-9800-b68957bc0a07</v>
+        <v>6b672a17-fbf7-4b44-841d-dc10fbe8cbce</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29" t="str">
-        <v>E2</v>
+        <v>A1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>5a54412a-9678-4001-8abf-6a6eb155c1e4</v>
+        <v>a95ab828-c44f-4fea-88a8-faa563ef3e25</v>
       </c>
       <c r="B30" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C30" t="str">
-        <v>6b672a17-fbf7-4b44-841d-dc10fbe8cbce</v>
+        <v>9d8995c7-d5a1-4644-848d-dca4e81371af</v>
       </c>
       <c r="D30">
         <v>3</v>
       </c>
       <c r="E30" t="str">
-        <v>A1</v>
+        <v>A2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>a95ab828-c44f-4fea-88a8-faa563ef3e25</v>
+        <v>887cbea0-1e69-44fb-b419-5c42ea7c1a87</v>
       </c>
       <c r="B31" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C31" t="str">
-        <v>9d8995c7-d5a1-4644-848d-dca4e81371af</v>
+        <v>1c24b746-78a8-49cd-9c4d-3d22726dbc1b</v>
       </c>
       <c r="D31">
         <v>3</v>
       </c>
       <c r="E31" t="str">
-        <v>A2</v>
+        <v>A3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>887cbea0-1e69-44fb-b419-5c42ea7c1a87</v>
+        <v>f6bd49a9-db23-44f1-9b32-84531f956b4f</v>
       </c>
       <c r="B32" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C32" t="str">
-        <v>1c24b746-78a8-49cd-9c4d-3d22726dbc1b</v>
+        <v>b57be3ad-f74f-4f2b-aa79-6e410d2c199b</v>
       </c>
       <c r="D32">
         <v>3</v>
       </c>
       <c r="E32" t="str">
-        <v>A3</v>
+        <v>B1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>f6bd49a9-db23-44f1-9b32-84531f956b4f</v>
+        <v>a33050c8-c302-43e8-b68f-edc8511e8a25</v>
       </c>
       <c r="B33" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C33" t="str">
-        <v>b57be3ad-f74f-4f2b-aa79-6e410d2c199b</v>
+        <v>8819a806-f5b1-4b58-95f5-91489df570ac</v>
       </c>
       <c r="D33">
         <v>3</v>
       </c>
       <c r="E33" t="str">
-        <v>B1</v>
+        <v>B2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>a33050c8-c302-43e8-b68f-edc8511e8a25</v>
+        <v>489d808e-b5d9-4d37-a0bf-6d38b6e944d6</v>
       </c>
       <c r="B34" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C34" t="str">
-        <v>8819a806-f5b1-4b58-95f5-91489df570ac</v>
+        <v>6116506f-31f1-444e-bd83-2991a5335470</v>
       </c>
       <c r="D34">
         <v>3</v>
       </c>
       <c r="E34" t="str">
-        <v>B2</v>
+        <v>B3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>489d808e-b5d9-4d37-a0bf-6d38b6e944d6</v>
+        <v>9239f2c8-8dff-49ae-a8f0-15cd14b10b4b</v>
       </c>
       <c r="B35" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C35" t="str">
-        <v>6116506f-31f1-444e-bd83-2991a5335470</v>
+        <v>36fd980a-62d1-491b-97d6-079c33195e3d</v>
       </c>
       <c r="D35">
         <v>3</v>
       </c>
       <c r="E35" t="str">
-        <v>B3</v>
+        <v>C1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>9239f2c8-8dff-49ae-a8f0-15cd14b10b4b</v>
+        <v>87018188-dea2-488d-bbc5-93511f010e3c</v>
       </c>
       <c r="B36" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C36" t="str">
-        <v>36fd980a-62d1-491b-97d6-079c33195e3d</v>
+        <v>17e4dd39-8810-472c-b1a9-52382fbe0c79</v>
       </c>
       <c r="D36">
         <v>3</v>
       </c>
       <c r="E36" t="str">
-        <v>C1</v>
+        <v>C2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>87018188-dea2-488d-bbc5-93511f010e3c</v>
+        <v>de4be42d-21dc-4643-bb31-1a6bafe8b8cc</v>
       </c>
       <c r="B37" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C37" t="str">
-        <v>17e4dd39-8810-472c-b1a9-52382fbe0c79</v>
+        <v>ce7b894b-705d-49f7-a6a3-e0a7fe953a10</v>
       </c>
       <c r="D37">
         <v>3</v>
       </c>
       <c r="E37" t="str">
-        <v>C2</v>
+        <v>C3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>de4be42d-21dc-4643-bb31-1a6bafe8b8cc</v>
+        <v>bea17053-72b9-4ca5-9625-5555aca8ca24</v>
       </c>
       <c r="B38" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C38" t="str">
-        <v>ce7b894b-705d-49f7-a6a3-e0a7fe953a10</v>
+        <v>97108062-7918-4f7f-a3f7-92bcbc478acd</v>
       </c>
       <c r="D38">
         <v>3</v>
       </c>
       <c r="E38" t="str">
-        <v>C3</v>
+        <v>D1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>bea17053-72b9-4ca5-9625-5555aca8ca24</v>
+        <v>3e276ae2-bdb0-484a-9cfa-955e6b4ba8e2</v>
       </c>
       <c r="B39" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C39" t="str">
-        <v>97108062-7918-4f7f-a3f7-92bcbc478acd</v>
+        <v>29b3a5cd-ea7d-4673-9db4-7886660a791f</v>
       </c>
       <c r="D39">
         <v>3</v>
       </c>
       <c r="E39" t="str">
-        <v>D1</v>
+        <v>D2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>3e276ae2-bdb0-484a-9cfa-955e6b4ba8e2</v>
+        <v>5a1ae218-ce7d-4c8c-a2da-d630963af6f4</v>
       </c>
       <c r="B40" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C40" t="str">
-        <v>29b3a5cd-ea7d-4673-9db4-7886660a791f</v>
+        <v>d3db689e-5aed-4049-9588-adf3d1a49ae0</v>
       </c>
       <c r="D40">
         <v>3</v>
       </c>
       <c r="E40" t="str">
-        <v>D2</v>
+        <v>D3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>5a1ae218-ce7d-4c8c-a2da-d630963af6f4</v>
+        <v>9dfb721b-6ee8-410c-8d7a-874ee0c4f5e1</v>
       </c>
       <c r="B41" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C41" t="str">
-        <v>d3db689e-5aed-4049-9588-adf3d1a49ae0</v>
+        <v>dbb200b8-766c-4984-9724-f68192d88939</v>
       </c>
       <c r="D41">
         <v>3</v>
       </c>
       <c r="E41" t="str">
-        <v>D3</v>
+        <v>E1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>9dfb721b-6ee8-410c-8d7a-874ee0c4f5e1</v>
+        <v>c0c1eeb3-ed06-4cb6-99bf-5b992835c4b3</v>
       </c>
       <c r="B42" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C42" t="str">
-        <v>dbb200b8-766c-4984-9724-f68192d88939</v>
+        <v>aa6fa282-9894-4b21-a871-c9725586c397</v>
       </c>
       <c r="D42">
         <v>3</v>
       </c>
       <c r="E42" t="str">
-        <v>E1</v>
+        <v>E2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>c0c1eeb3-ed06-4cb6-99bf-5b992835c4b3</v>
+        <v>d966ee91-cd0e-4a0d-a751-798b92b03e60</v>
       </c>
       <c r="B43" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C43" t="str">
-        <v>aa6fa282-9894-4b21-a871-c9725586c397</v>
+        <v>df712cc5-31d8-4341-b177-6603bf089235</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E43" t="str">
-        <v>E2</v>
+        <v>A4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>d966ee91-cd0e-4a0d-a751-798b92b03e60</v>
+        <v>6b58308c-f80d-416c-9b6b-02f4314a33f4</v>
       </c>
       <c r="B44" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C44" t="str">
-        <v>df712cc5-31d8-4341-b177-6603bf089235</v>
+        <v>fc97dba8-a877-4547-b6c9-0c6b058b1c94</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44" t="str">
-        <v>A4</v>
+        <v>A1</v>
+      </c>
+      <c r="F44" s="1">
+        <v>46000.52605988426</v>
+      </c>
+      <c r="G44" s="1">
+        <v>46000.52717275463</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>ae186e42-c31d-4d22-b594-22ad500e037b</v>
+        <v>de24e1b7-54f7-4944-86a8-442ceab4b214</v>
       </c>
       <c r="B45" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C45" t="str">
-        <v>8dfd710f-c1f0-43ee-b26d-13d05de4598b</v>
+        <v>151541b8-8cbb-452a-b532-1a0df3d1d4b6</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45" t="str">
-        <v>A2</v>
+        <v>A3</v>
       </c>
       <c r="F45" s="1">
-        <v>46000.530885277774</v>
+        <v>46000.53318922454</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>6b58308c-f80d-416c-9b6b-02f4314a33f4</v>
+        <v>ae186e42-c31d-4d22-b594-22ad500e037b</v>
       </c>
       <c r="B46" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C46" t="str">
-        <v>fc97dba8-a877-4547-b6c9-0c6b058b1c94</v>
+        <v>8dfd710f-c1f0-43ee-b26d-13d05de4598b</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" t="str">
-        <v>A1</v>
+        <v>A2</v>
       </c>
       <c r="F46" s="1">
-        <v>46000.52605988426</v>
-      </c>
-      <c r="G46" s="1">
-        <v>46000.52717275463</v>
+        <v>46000.530885277774</v>
       </c>
     </row>
   </sheetData>

--- a/storage/backups/automatic-backup.xlsx
+++ b/storage/backups/automatic-backup.xlsx
@@ -8061,6 +8061,9 @@
       <c r="E2" t="str">
         <v>A2</v>
       </c>
+      <c r="F2" s="1">
+        <v>46000.53846564815</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -8115,648 +8118,651 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>47ec0204-7cf6-4afb-9b9e-a91324cdf4a9</v>
+        <v>1c3f244b-b164-4904-a5f1-1524195b494a</v>
       </c>
       <c r="B6" t="str">
-        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C6" t="str">
-        <v>5a16ef0a-cce8-4d1b-bfa5-3892331170c1</v>
+        <v>b498fd02-c816-4b07-976f-1100495bf38b</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="str">
-        <v>A1</v>
+        <v>C1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>1c3f244b-b164-4904-a5f1-1524195b494a</v>
+        <v>eef4b984-c474-4f43-aeed-197faa279405</v>
       </c>
       <c r="B7" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C7" t="str">
-        <v>b498fd02-c816-4b07-976f-1100495bf38b</v>
+        <v>a3363acf-3338-40ec-a745-9aef8dca39fc</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="str">
-        <v>C1</v>
+        <v>C2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>eef4b984-c474-4f43-aeed-197faa279405</v>
+        <v>f979bc94-69a6-4473-be4f-3533f76cae2b</v>
       </c>
       <c r="B8" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C8" t="str">
-        <v>a3363acf-3338-40ec-a745-9aef8dca39fc</v>
+        <v>49fbe592-0995-4321-b8af-fbe859ca414c</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="str">
-        <v>C2</v>
+        <v>C3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>f979bc94-69a6-4473-be4f-3533f76cae2b</v>
+        <v>0d5bf843-81f3-4a36-925e-2ac5a65f3543</v>
       </c>
       <c r="B9" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C9" t="str">
-        <v>49fbe592-0995-4321-b8af-fbe859ca414c</v>
+        <v>bede75d6-a4ec-4fe3-907f-35108a2b4b10</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="str">
-        <v>C3</v>
+        <v>D1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>0d5bf843-81f3-4a36-925e-2ac5a65f3543</v>
+        <v>4714b65d-0643-42ca-a7a2-8459962131a8</v>
       </c>
       <c r="B10" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C10" t="str">
-        <v>bede75d6-a4ec-4fe3-907f-35108a2b4b10</v>
+        <v>4f5756e4-c006-4d04-a9bc-7a2de0fdf149</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="str">
-        <v>D1</v>
+        <v>D2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>4714b65d-0643-42ca-a7a2-8459962131a8</v>
+        <v>385ae883-11fc-4366-bdc9-aa7d308cbed7</v>
       </c>
       <c r="B11" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C11" t="str">
-        <v>4f5756e4-c006-4d04-a9bc-7a2de0fdf149</v>
+        <v>cacb8de7-16c5-4332-9d25-a6794d8a23b3</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="str">
-        <v>D2</v>
+        <v>D3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>385ae883-11fc-4366-bdc9-aa7d308cbed7</v>
+        <v>4186c00e-c265-4dd5-a5d0-4df7882a204b</v>
       </c>
       <c r="B12" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C12" t="str">
-        <v>cacb8de7-16c5-4332-9d25-a6794d8a23b3</v>
+        <v>42504e80-d5df-4b97-a283-eb96728c425f</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="str">
-        <v>D3</v>
+        <v>E1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>4186c00e-c265-4dd5-a5d0-4df7882a204b</v>
+        <v>6bde6343-e29a-442a-9189-6dccf7f25850</v>
       </c>
       <c r="B13" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C13" t="str">
-        <v>42504e80-d5df-4b97-a283-eb96728c425f</v>
+        <v>bb319a54-7dbf-4a05-bd7f-8f2f6aa6b414</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="str">
-        <v>E1</v>
+        <v>E2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>6bde6343-e29a-442a-9189-6dccf7f25850</v>
+        <v>b396cb42-cc76-4350-89e8-98b94de4815d</v>
       </c>
       <c r="B14" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C14" t="str">
-        <v>bb319a54-7dbf-4a05-bd7f-8f2f6aa6b414</v>
+        <v>efeba788-8d57-40b3-a3f9-e134a40931ac</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" t="str">
-        <v>E2</v>
+        <v>A1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>b396cb42-cc76-4350-89e8-98b94de4815d</v>
+        <v>24e9391d-f1db-42e8-bf49-d8a50c6924a4</v>
       </c>
       <c r="B15" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C15" t="str">
-        <v>efeba788-8d57-40b3-a3f9-e134a40931ac</v>
+        <v>b22d1d02-9344-4922-9be8-d8d05a79b0b0</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="E15" t="str">
-        <v>A1</v>
+        <v>A2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>24e9391d-f1db-42e8-bf49-d8a50c6924a4</v>
+        <v>5f3f2f6f-9c39-49d2-8992-ccaec88be285</v>
       </c>
       <c r="B16" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C16" t="str">
-        <v>b22d1d02-9344-4922-9be8-d8d05a79b0b0</v>
+        <v>8d8070dd-3ee6-476f-aaf2-631e80f67ef7</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16" t="str">
-        <v>A2</v>
+        <v>A3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>5f3f2f6f-9c39-49d2-8992-ccaec88be285</v>
+        <v>0690114d-d0d8-4037-9a28-d510723b7e61</v>
       </c>
       <c r="B17" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C17" t="str">
-        <v>8d8070dd-3ee6-476f-aaf2-631e80f67ef7</v>
+        <v>50b3a8f6-823f-477c-b52d-5b4fba4edbd2</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
       <c r="E17" t="str">
-        <v>A3</v>
+        <v>B1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>0690114d-d0d8-4037-9a28-d510723b7e61</v>
+        <v>9044d7ab-e884-4032-b97c-d8a8c1fe1e8d</v>
       </c>
       <c r="B18" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C18" t="str">
-        <v>50b3a8f6-823f-477c-b52d-5b4fba4edbd2</v>
+        <v>a3199cca-1aa6-4060-b6cd-0320712376ba</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
       <c r="E18" t="str">
-        <v>B1</v>
+        <v>B2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>9044d7ab-e884-4032-b97c-d8a8c1fe1e8d</v>
+        <v>d8ab2aa6-f759-423e-ba36-95e19395f7e1</v>
       </c>
       <c r="B19" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C19" t="str">
-        <v>a3199cca-1aa6-4060-b6cd-0320712376ba</v>
+        <v>81759c6b-da11-4c0e-9e96-92aa20964b06</v>
       </c>
       <c r="D19">
         <v>2</v>
       </c>
       <c r="E19" t="str">
-        <v>B2</v>
+        <v>B3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>d8ab2aa6-f759-423e-ba36-95e19395f7e1</v>
+        <v>06479481-5b19-439e-b90b-b66c53b4b1b9</v>
       </c>
       <c r="B20" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C20" t="str">
-        <v>81759c6b-da11-4c0e-9e96-92aa20964b06</v>
+        <v>d4340206-46f8-4128-a64d-b1a7ca7bbdb5</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="E20" t="str">
-        <v>B3</v>
+        <v>C1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>06479481-5b19-439e-b90b-b66c53b4b1b9</v>
+        <v>14eafb47-bc4e-4314-8c84-c9ccd79c48e8</v>
       </c>
       <c r="B21" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C21" t="str">
-        <v>d4340206-46f8-4128-a64d-b1a7ca7bbdb5</v>
+        <v>9e0ff879-df04-4a3f-b572-8633acb77cee</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21" t="str">
-        <v>C1</v>
+        <v>C2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>14eafb47-bc4e-4314-8c84-c9ccd79c48e8</v>
+        <v>4a33a5a3-b9e2-4572-bfae-7a07cc18cab4</v>
       </c>
       <c r="B22" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C22" t="str">
-        <v>9e0ff879-df04-4a3f-b572-8633acb77cee</v>
+        <v>feb78ceb-dd95-455d-8b7d-fc0019ae54c8</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
       <c r="E22" t="str">
-        <v>C2</v>
+        <v>C3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>4a33a5a3-b9e2-4572-bfae-7a07cc18cab4</v>
+        <v>632a22c8-adb5-48e4-ae03-86b5b416926f</v>
       </c>
       <c r="B23" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C23" t="str">
-        <v>feb78ceb-dd95-455d-8b7d-fc0019ae54c8</v>
+        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
       </c>
       <c r="D23">
         <v>2</v>
       </c>
       <c r="E23" t="str">
-        <v>C3</v>
+        <v>D1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>632a22c8-adb5-48e4-ae03-86b5b416926f</v>
+        <v>313caa2c-fc70-4c67-992c-01c66df3af1f</v>
       </c>
       <c r="B24" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C24" t="str">
-        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
+        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
       <c r="E24" t="str">
-        <v>D1</v>
+        <v>D2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>313caa2c-fc70-4c67-992c-01c66df3af1f</v>
+        <v>e0bbac1a-ae2c-423f-8e95-33f1adad8dc2</v>
       </c>
       <c r="B25" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C25" t="str">
-        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
+        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
       <c r="E25" t="str">
-        <v>D2</v>
+        <v>D3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>e0bbac1a-ae2c-423f-8e95-33f1adad8dc2</v>
+        <v>24e758b6-4ef6-4995-96d5-483fda8a9d64</v>
       </c>
       <c r="B26" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C26" t="str">
-        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
+        <v>bcc86f75-9a60-406c-be7c-4f31ea5c30ef</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
       <c r="E26" t="str">
-        <v>D3</v>
+        <v>E1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>24e758b6-4ef6-4995-96d5-483fda8a9d64</v>
+        <v>c7d873c9-6f65-40c6-ad2e-d5e386b74027</v>
       </c>
       <c r="B27" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C27" t="str">
-        <v>bcc86f75-9a60-406c-be7c-4f31ea5c30ef</v>
+        <v>29fc5656-fb78-4c9b-9800-b68957bc0a07</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
       <c r="E27" t="str">
-        <v>E1</v>
+        <v>E2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>c7d873c9-6f65-40c6-ad2e-d5e386b74027</v>
+        <v>5a54412a-9678-4001-8abf-6a6eb155c1e4</v>
       </c>
       <c r="B28" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C28" t="str">
-        <v>29fc5656-fb78-4c9b-9800-b68957bc0a07</v>
+        <v>6b672a17-fbf7-4b44-841d-dc10fbe8cbce</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28" t="str">
-        <v>E2</v>
+        <v>A1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>5a54412a-9678-4001-8abf-6a6eb155c1e4</v>
+        <v>a95ab828-c44f-4fea-88a8-faa563ef3e25</v>
       </c>
       <c r="B29" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C29" t="str">
-        <v>6b672a17-fbf7-4b44-841d-dc10fbe8cbce</v>
+        <v>9d8995c7-d5a1-4644-848d-dca4e81371af</v>
       </c>
       <c r="D29">
         <v>3</v>
       </c>
       <c r="E29" t="str">
-        <v>A1</v>
+        <v>A2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>a95ab828-c44f-4fea-88a8-faa563ef3e25</v>
+        <v>887cbea0-1e69-44fb-b419-5c42ea7c1a87</v>
       </c>
       <c r="B30" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C30" t="str">
-        <v>9d8995c7-d5a1-4644-848d-dca4e81371af</v>
+        <v>1c24b746-78a8-49cd-9c4d-3d22726dbc1b</v>
       </c>
       <c r="D30">
         <v>3</v>
       </c>
       <c r="E30" t="str">
-        <v>A2</v>
+        <v>A3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>887cbea0-1e69-44fb-b419-5c42ea7c1a87</v>
+        <v>f6bd49a9-db23-44f1-9b32-84531f956b4f</v>
       </c>
       <c r="B31" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C31" t="str">
-        <v>1c24b746-78a8-49cd-9c4d-3d22726dbc1b</v>
+        <v>b57be3ad-f74f-4f2b-aa79-6e410d2c199b</v>
       </c>
       <c r="D31">
         <v>3</v>
       </c>
       <c r="E31" t="str">
-        <v>A3</v>
+        <v>B1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>f6bd49a9-db23-44f1-9b32-84531f956b4f</v>
+        <v>a33050c8-c302-43e8-b68f-edc8511e8a25</v>
       </c>
       <c r="B32" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C32" t="str">
-        <v>b57be3ad-f74f-4f2b-aa79-6e410d2c199b</v>
+        <v>8819a806-f5b1-4b58-95f5-91489df570ac</v>
       </c>
       <c r="D32">
         <v>3</v>
       </c>
       <c r="E32" t="str">
-        <v>B1</v>
+        <v>B2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>a33050c8-c302-43e8-b68f-edc8511e8a25</v>
+        <v>489d808e-b5d9-4d37-a0bf-6d38b6e944d6</v>
       </c>
       <c r="B33" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C33" t="str">
-        <v>8819a806-f5b1-4b58-95f5-91489df570ac</v>
+        <v>6116506f-31f1-444e-bd83-2991a5335470</v>
       </c>
       <c r="D33">
         <v>3</v>
       </c>
       <c r="E33" t="str">
-        <v>B2</v>
+        <v>B3</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>489d808e-b5d9-4d37-a0bf-6d38b6e944d6</v>
+        <v>9239f2c8-8dff-49ae-a8f0-15cd14b10b4b</v>
       </c>
       <c r="B34" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C34" t="str">
-        <v>6116506f-31f1-444e-bd83-2991a5335470</v>
+        <v>36fd980a-62d1-491b-97d6-079c33195e3d</v>
       </c>
       <c r="D34">
         <v>3</v>
       </c>
       <c r="E34" t="str">
-        <v>B3</v>
+        <v>C1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>9239f2c8-8dff-49ae-a8f0-15cd14b10b4b</v>
+        <v>87018188-dea2-488d-bbc5-93511f010e3c</v>
       </c>
       <c r="B35" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C35" t="str">
-        <v>36fd980a-62d1-491b-97d6-079c33195e3d</v>
+        <v>17e4dd39-8810-472c-b1a9-52382fbe0c79</v>
       </c>
       <c r="D35">
         <v>3</v>
       </c>
       <c r="E35" t="str">
-        <v>C1</v>
+        <v>C2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>87018188-dea2-488d-bbc5-93511f010e3c</v>
+        <v>de4be42d-21dc-4643-bb31-1a6bafe8b8cc</v>
       </c>
       <c r="B36" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C36" t="str">
-        <v>17e4dd39-8810-472c-b1a9-52382fbe0c79</v>
+        <v>ce7b894b-705d-49f7-a6a3-e0a7fe953a10</v>
       </c>
       <c r="D36">
         <v>3</v>
       </c>
       <c r="E36" t="str">
-        <v>C2</v>
+        <v>C3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>de4be42d-21dc-4643-bb31-1a6bafe8b8cc</v>
+        <v>bea17053-72b9-4ca5-9625-5555aca8ca24</v>
       </c>
       <c r="B37" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C37" t="str">
-        <v>ce7b894b-705d-49f7-a6a3-e0a7fe953a10</v>
+        <v>97108062-7918-4f7f-a3f7-92bcbc478acd</v>
       </c>
       <c r="D37">
         <v>3</v>
       </c>
       <c r="E37" t="str">
-        <v>C3</v>
+        <v>D1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>bea17053-72b9-4ca5-9625-5555aca8ca24</v>
+        <v>3e276ae2-bdb0-484a-9cfa-955e6b4ba8e2</v>
       </c>
       <c r="B38" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C38" t="str">
-        <v>97108062-7918-4f7f-a3f7-92bcbc478acd</v>
+        <v>29b3a5cd-ea7d-4673-9db4-7886660a791f</v>
       </c>
       <c r="D38">
         <v>3</v>
       </c>
       <c r="E38" t="str">
-        <v>D1</v>
+        <v>D2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>3e276ae2-bdb0-484a-9cfa-955e6b4ba8e2</v>
+        <v>5a1ae218-ce7d-4c8c-a2da-d630963af6f4</v>
       </c>
       <c r="B39" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C39" t="str">
-        <v>29b3a5cd-ea7d-4673-9db4-7886660a791f</v>
+        <v>d3db689e-5aed-4049-9588-adf3d1a49ae0</v>
       </c>
       <c r="D39">
         <v>3</v>
       </c>
       <c r="E39" t="str">
-        <v>D2</v>
+        <v>D3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>5a1ae218-ce7d-4c8c-a2da-d630963af6f4</v>
+        <v>9dfb721b-6ee8-410c-8d7a-874ee0c4f5e1</v>
       </c>
       <c r="B40" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C40" t="str">
-        <v>d3db689e-5aed-4049-9588-adf3d1a49ae0</v>
+        <v>dbb200b8-766c-4984-9724-f68192d88939</v>
       </c>
       <c r="D40">
         <v>3</v>
       </c>
       <c r="E40" t="str">
-        <v>D3</v>
+        <v>E1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>9dfb721b-6ee8-410c-8d7a-874ee0c4f5e1</v>
+        <v>c0c1eeb3-ed06-4cb6-99bf-5b992835c4b3</v>
       </c>
       <c r="B41" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C41" t="str">
-        <v>dbb200b8-766c-4984-9724-f68192d88939</v>
+        <v>aa6fa282-9894-4b21-a871-c9725586c397</v>
       </c>
       <c r="D41">
         <v>3</v>
       </c>
       <c r="E41" t="str">
-        <v>E1</v>
+        <v>E2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>c0c1eeb3-ed06-4cb6-99bf-5b992835c4b3</v>
+        <v>d966ee91-cd0e-4a0d-a751-798b92b03e60</v>
       </c>
       <c r="B42" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C42" t="str">
-        <v>aa6fa282-9894-4b21-a871-c9725586c397</v>
+        <v>df712cc5-31d8-4341-b177-6603bf089235</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E42" t="str">
-        <v>E2</v>
+        <v>A4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>d966ee91-cd0e-4a0d-a751-798b92b03e60</v>
+        <v>47ec0204-7cf6-4afb-9b9e-a91324cdf4a9</v>
       </c>
       <c r="B43" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
       </c>
       <c r="C43" t="str">
-        <v>df712cc5-31d8-4341-b177-6603bf089235</v>
+        <v>5a16ef0a-cce8-4d1b-bfa5-3892331170c1</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E43" t="str">
-        <v>A4</v>
+        <v>A1</v>
+      </c>
+      <c r="F43" s="1">
+        <v>46000.538291944446</v>
       </c>
     </row>
     <row r="44">

--- a/storage/backups/automatic-backup.xlsx
+++ b/storage/backups/automatic-backup.xlsx
@@ -6,8 +6,10 @@
     <sheet name="Record Days" sheetId="1" r:id="rId1"/>
     <sheet name="Contestants" sheetId="2" r:id="rId2"/>
     <sheet name="Seat Assignments" sheetId="3" r:id="rId3"/>
-    <sheet name="Groups" sheetId="4" r:id="rId4"/>
-    <sheet name="Block Types" sheetId="5" r:id="rId5"/>
+    <sheet name="Standbys" sheetId="4" r:id="rId4"/>
+    <sheet name="Groups" sheetId="5" r:id="rId5"/>
+    <sheet name="Block Types" sheetId="6" r:id="rId6"/>
+    <sheet name="Canceled Assignments" sheetId="7" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
@@ -757,246 +759,252 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>42504e80-d5df-4b97-a283-eb96728c425f</v>
+        <v>992418b2-3029-4752-9552-0aa886433657</v>
       </c>
       <c r="B3" t="str">
-        <v>Ella Anderson</v>
+        <v>Zoe Brown</v>
       </c>
       <c r="C3">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D3" t="str">
         <v>Female</v>
       </c>
       <c r="E3" t="str">
-        <v>ella.anderson1@yahoo.com</v>
+        <v>zoe.brown45@outlook.com</v>
       </c>
       <c r="F3" t="str">
-        <v>0412 908 910</v>
+        <v>0401 578 107</v>
       </c>
       <c r="G3" t="str">
-        <v>Geelong</v>
+        <v>Sydney</v>
       </c>
       <c r="H3" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I3" t="str">
         <v>assigned</v>
       </c>
       <c r="J3" t="str">
-        <v>Isabella Brown</v>
+        <v>Chloe Jones</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2d659242-2255-4502-b333-781c9b2645fd</v>
+        <v>bcc86f75-9a60-406c-be7c-4f31ea5c30ef</v>
       </c>
       <c r="B4" t="str">
-        <v>Evelyn Sanchez</v>
+        <v>Paisley Lee</v>
       </c>
       <c r="C4">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D4" t="str">
         <v>Female</v>
       </c>
       <c r="E4" t="str">
-        <v>evelyn.sanchez9@gmail.com</v>
+        <v>paisley.lee78@hotmail.com</v>
       </c>
       <c r="F4" t="str">
-        <v>0404 119 469</v>
+        <v>0400 179 607</v>
       </c>
       <c r="G4" t="str">
-        <v>Gold Coast</v>
+        <v>Ballarat</v>
       </c>
       <c r="H4" t="str">
         <v>B</v>
       </c>
       <c r="I4" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J4" t="str">
-        <v>Chloe Flores</v>
+        <v>Aria Lopez</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>bcc86f75-9a60-406c-be7c-4f31ea5c30ef</v>
+        <v>40a64316-1fb5-4a09-8c9d-14bbc19036d1</v>
       </c>
       <c r="B5" t="str">
-        <v>Paisley Lee</v>
+        <v>Olivia Gonzalez</v>
       </c>
       <c r="C5">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D5" t="str">
         <v>Female</v>
       </c>
       <c r="E5" t="str">
-        <v>paisley.lee78@hotmail.com</v>
+        <v>olivia.gonzalez77@hotmail.com</v>
       </c>
       <c r="F5" t="str">
-        <v>0400 179 607</v>
+        <v>(982) 690-7408</v>
       </c>
       <c r="G5" t="str">
-        <v>Ballarat</v>
+        <v>Long Beach</v>
       </c>
       <c r="H5" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I5" t="str">
         <v>assigned</v>
       </c>
       <c r="J5" t="str">
-        <v>Aria Lopez</v>
+        <v>Eliana Green</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>992418b2-3029-4752-9552-0aa886433657</v>
+        <v>dbb200b8-766c-4984-9724-f68192d88939</v>
       </c>
       <c r="B6" t="str">
-        <v>Zoe Brown</v>
+        <v>Hannah Torres</v>
       </c>
       <c r="C6">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D6" t="str">
         <v>Female</v>
       </c>
       <c r="E6" t="str">
-        <v>zoe.brown45@outlook.com</v>
+        <v>hannah.torres86@yahoo.com</v>
       </c>
       <c r="F6" t="str">
-        <v>0401 578 107</v>
+        <v>0402 688 409</v>
       </c>
       <c r="G6" t="str">
-        <v>Sydney</v>
+        <v>Wollongong</v>
       </c>
       <c r="H6" t="str">
         <v>B+</v>
       </c>
       <c r="I6" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J6" t="str">
-        <v>Chloe Jones</v>
+        <v>Audrey Thomas</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>dbb200b8-766c-4984-9724-f68192d88939</v>
+        <v>42504e80-d5df-4b97-a283-eb96728c425f</v>
       </c>
       <c r="B7" t="str">
-        <v>Hannah Torres</v>
+        <v>Ella Anderson</v>
       </c>
       <c r="C7">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D7" t="str">
         <v>Female</v>
       </c>
       <c r="E7" t="str">
-        <v>hannah.torres86@yahoo.com</v>
+        <v>ella.anderson1@yahoo.com</v>
       </c>
       <c r="F7" t="str">
-        <v>0402 688 409</v>
+        <v>0412 908 910</v>
       </c>
       <c r="G7" t="str">
-        <v>Wollongong</v>
+        <v>Geelong</v>
       </c>
       <c r="H7" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I7" t="str">
         <v>assigned</v>
       </c>
       <c r="J7" t="str">
-        <v>Audrey Thomas</v>
+        <v>Isabella Brown</v>
+      </c>
+      <c r="L7" t="str">
+        <v/>
+      </c>
+      <c r="M7" t="str">
+        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>292da493-0524-4ee4-b911-1bb34e328b8c</v>
+        <v>d2e4b795-48d9-43e4-8ebe-6916a61a544e</v>
       </c>
       <c r="B8" t="str">
-        <v>Jackson Young</v>
+        <v>Ella Gutierrez</v>
       </c>
       <c r="C8">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D8" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E8" t="str">
-        <v>jackson.young79@yahoo.com</v>
+        <v>ella.gutierrez43@gmail.com</v>
       </c>
       <c r="F8" t="str">
-        <v>0412 940 993</v>
+        <v>(220) 105-1876</v>
       </c>
       <c r="G8" t="str">
-        <v>Ballarat</v>
+        <v>Irvine</v>
       </c>
       <c r="H8" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I8" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="J8" t="str">
+        <v>Nora Lee</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>0fc0ae2d-4068-4972-a5b1-963c241e317a</v>
+        <v>292da493-0524-4ee4-b911-1bb34e328b8c</v>
       </c>
       <c r="B9" t="str">
-        <v>Emilia Thompson</v>
+        <v>Jackson Young</v>
       </c>
       <c r="C9">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D9" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E9" t="str">
-        <v>emilia.thompson0@gmail.com</v>
+        <v>jackson.young79@yahoo.com</v>
       </c>
       <c r="F9" t="str">
-        <v>0404 992 451</v>
+        <v>0412 940 993</v>
       </c>
       <c r="G9" t="str">
-        <v>Perth</v>
+        <v>Ballarat</v>
       </c>
       <c r="H9" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I9" t="str">
-        <v>available</v>
-      </c>
-      <c r="J9" t="str">
-        <v>Violet Hall</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>d2e4b795-48d9-43e4-8ebe-6916a61a544e</v>
+        <v>2738f18e-1f2e-44d7-aa26-778ed59438ac</v>
       </c>
       <c r="B10" t="str">
-        <v>Ella Gutierrez</v>
+        <v>Emilia Miller</v>
       </c>
       <c r="C10">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D10" t="str">
         <v>Female</v>
       </c>
       <c r="E10" t="str">
-        <v>ella.gutierrez43@gmail.com</v>
+        <v>emilia.miller56@outlook.com</v>
       </c>
       <c r="F10" t="str">
-        <v>(220) 105-1876</v>
+        <v>0403 506 698</v>
       </c>
       <c r="G10" t="str">
-        <v>Irvine</v>
+        <v>Melbourne</v>
       </c>
       <c r="H10" t="str">
         <v>B</v>
@@ -1005,94 +1013,97 @@
         <v>available</v>
       </c>
       <c r="J10" t="str">
-        <v>Nora Lee</v>
+        <v>Victoria Carter</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>40a64316-1fb5-4a09-8c9d-14bbc19036d1</v>
+        <v>22cf4684-eeba-4ed3-8f61-746028381f4d</v>
       </c>
       <c r="B11" t="str">
-        <v>Olivia Gonzalez</v>
+        <v>Harper Lewis</v>
       </c>
       <c r="C11">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D11" t="str">
         <v>Female</v>
       </c>
       <c r="E11" t="str">
-        <v>olivia.gonzalez77@hotmail.com</v>
+        <v>harper.lewis57@hotmail.com</v>
       </c>
       <c r="F11" t="str">
-        <v>(982) 690-7408</v>
+        <v>0411 652 121</v>
       </c>
       <c r="G11" t="str">
-        <v>Long Beach</v>
+        <v>Geelong</v>
       </c>
       <c r="H11" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I11" t="str">
         <v>available</v>
       </c>
       <c r="J11" t="str">
-        <v>Eliana Green</v>
+        <v>Audrey Ramirez</v>
+      </c>
+      <c r="M11" t="str">
+        <v>Back issues - needs lumbar support chair</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2738f18e-1f2e-44d7-aa26-778ed59438ac</v>
+        <v>94116225-6732-4c15-9e4b-66f7727602d5</v>
       </c>
       <c r="B12" t="str">
-        <v>Emilia Miller</v>
+        <v>Audrey Ramirez</v>
       </c>
       <c r="C12">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D12" t="str">
         <v>Female</v>
       </c>
       <c r="E12" t="str">
-        <v>emilia.miller56@outlook.com</v>
+        <v>audrey.ramirez12@gmail.com</v>
       </c>
       <c r="F12" t="str">
-        <v>0403 506 698</v>
+        <v>0411 212 619</v>
       </c>
       <c r="G12" t="str">
-        <v>Melbourne</v>
+        <v>Brisbane</v>
       </c>
       <c r="H12" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I12" t="str">
         <v>available</v>
       </c>
       <c r="J12" t="str">
-        <v>Victoria Carter</v>
+        <v>Harper Lewis</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>22cf4684-eeba-4ed3-8f61-746028381f4d</v>
+        <v>6849995e-3474-4988-87b0-1db2638461ca</v>
       </c>
       <c r="B13" t="str">
-        <v>Harper Lewis</v>
+        <v>Audrey Smith</v>
       </c>
       <c r="C13">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="D13" t="str">
         <v>Female</v>
       </c>
       <c r="E13" t="str">
-        <v>harper.lewis57@hotmail.com</v>
+        <v>audrey.smith66@gmail.com</v>
       </c>
       <c r="F13" t="str">
-        <v>0411 652 121</v>
+        <v>0410 904 568</v>
       </c>
       <c r="G13" t="str">
-        <v>Geelong</v>
+        <v>Ballarat</v>
       </c>
       <c r="H13" t="str">
         <v>B</v>
@@ -1101,106 +1112,103 @@
         <v>available</v>
       </c>
       <c r="J13" t="str">
-        <v>Audrey Ramirez</v>
-      </c>
-      <c r="M13" t="str">
-        <v>Back issues - needs lumbar support chair</v>
+        <v>Grace Scott</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>94116225-6732-4c15-9e4b-66f7727602d5</v>
+        <v>0669e014-c952-45fd-9791-36cbe1d51444</v>
       </c>
       <c r="B14" t="str">
-        <v>Audrey Ramirez</v>
+        <v>Sofia Williams</v>
       </c>
       <c r="C14">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D14" t="str">
         <v>Female</v>
       </c>
       <c r="E14" t="str">
-        <v>audrey.ramirez12@gmail.com</v>
+        <v>sofia.williams39@yahoo.com</v>
       </c>
       <c r="F14" t="str">
-        <v>0411 212 619</v>
+        <v>0403 299 421</v>
       </c>
       <c r="G14" t="str">
-        <v>Brisbane</v>
+        <v>Geelong</v>
       </c>
       <c r="H14" t="str">
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="I14" t="str">
         <v>available</v>
       </c>
       <c r="J14" t="str">
-        <v>Harper Lewis</v>
+        <v>Maya Moore</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>6849995e-3474-4988-87b0-1db2638461ca</v>
+        <v>0fc0ae2d-4068-4972-a5b1-963c241e317a</v>
       </c>
       <c r="B15" t="str">
-        <v>Audrey Smith</v>
+        <v>Emilia Thompson</v>
       </c>
       <c r="C15">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="D15" t="str">
         <v>Female</v>
       </c>
       <c r="E15" t="str">
-        <v>audrey.smith66@gmail.com</v>
+        <v>emilia.thompson0@gmail.com</v>
       </c>
       <c r="F15" t="str">
-        <v>0410 904 568</v>
+        <v>0404 992 451</v>
       </c>
       <c r="G15" t="str">
-        <v>Ballarat</v>
+        <v>Perth</v>
       </c>
       <c r="H15" t="str">
         <v>B</v>
       </c>
       <c r="I15" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J15" t="str">
-        <v>Grace Scott</v>
+        <v>Violet Hall</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>0669e014-c952-45fd-9791-36cbe1d51444</v>
+        <v>2d659242-2255-4502-b333-781c9b2645fd</v>
       </c>
       <c r="B16" t="str">
-        <v>Sofia Williams</v>
+        <v>Evelyn Sanchez</v>
       </c>
       <c r="C16">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D16" t="str">
         <v>Female</v>
       </c>
       <c r="E16" t="str">
-        <v>sofia.williams39@yahoo.com</v>
+        <v>evelyn.sanchez9@gmail.com</v>
       </c>
       <c r="F16" t="str">
-        <v>0403 299 421</v>
+        <v>0404 119 469</v>
       </c>
       <c r="G16" t="str">
-        <v>Geelong</v>
+        <v>Gold Coast</v>
       </c>
       <c r="H16" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="I16" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J16" t="str">
-        <v>Maya Moore</v>
+        <v>Chloe Flores</v>
       </c>
     </row>
     <row r="17">
@@ -1586,60 +1594,57 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>dc8716d3-5841-439f-a3e4-3e7bd8306e66</v>
+        <v>0faec83d-7c29-4269-bf33-391ef02d60e4</v>
       </c>
       <c r="B29" t="str">
-        <v>Gianna Hill</v>
+        <v>Anna White</v>
       </c>
       <c r="C29">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D29" t="str">
         <v>Female</v>
       </c>
       <c r="E29" t="str">
-        <v>gianna.hill14@icloud.com</v>
+        <v>anna.white24@yahoo.com</v>
       </c>
       <c r="F29" t="str">
-        <v>(338) 214-4997</v>
+        <v>0400 132 564</v>
       </c>
       <c r="G29" t="str">
-        <v>Santa Ana</v>
+        <v>Adelaide</v>
       </c>
       <c r="H29" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I29" t="str">
         <v>available</v>
-      </c>
-      <c r="J29" t="str">
-        <v>Grace King</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>0faec83d-7c29-4269-bf33-391ef02d60e4</v>
+        <v>0a153155-dcf5-4d56-9ed1-8960501157f8</v>
       </c>
       <c r="B30" t="str">
-        <v>Anna White</v>
+        <v>Aurora Gonzalez</v>
       </c>
       <c r="C30">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D30" t="str">
         <v>Female</v>
       </c>
       <c r="E30" t="str">
-        <v>anna.white24@yahoo.com</v>
+        <v>aurora.gonzalez29@outlook.com</v>
       </c>
       <c r="F30" t="str">
-        <v>0400 132 564</v>
+        <v>0404 610 172</v>
       </c>
       <c r="G30" t="str">
-        <v>Adelaide</v>
+        <v>Toowoomba</v>
       </c>
       <c r="H30" t="str">
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="I30" t="str">
         <v>available</v>
@@ -1647,25 +1652,25 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>0a153155-dcf5-4d56-9ed1-8960501157f8</v>
+        <v>f1466859-7323-4893-a189-a0ce994068ba</v>
       </c>
       <c r="B31" t="str">
-        <v>Aurora Gonzalez</v>
+        <v>Anthony Thompson</v>
       </c>
       <c r="C31">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D31" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E31" t="str">
-        <v>aurora.gonzalez29@outlook.com</v>
+        <v>anthony.thompson29@yahoo.com</v>
       </c>
       <c r="F31" t="str">
-        <v>0404 610 172</v>
+        <v>0412 442 587</v>
       </c>
       <c r="G31" t="str">
-        <v>Toowoomba</v>
+        <v>Townsville</v>
       </c>
       <c r="H31" t="str">
         <v>A</v>
@@ -1673,435 +1678,438 @@
       <c r="I31" t="str">
         <v>available</v>
       </c>
+      <c r="M31" t="str">
+        <v>Vision impaired - needs assistance</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>f1466859-7323-4893-a189-a0ce994068ba</v>
+        <v>29fc5656-fb78-4c9b-9800-b68957bc0a07</v>
       </c>
       <c r="B32" t="str">
-        <v>Anthony Thompson</v>
+        <v>Aria Lopez</v>
       </c>
       <c r="C32">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D32" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E32" t="str">
-        <v>anthony.thompson29@yahoo.com</v>
+        <v>aria.lopez55@hotmail.com</v>
       </c>
       <c r="F32" t="str">
-        <v>0412 442 587</v>
+        <v>0404 812 491</v>
       </c>
       <c r="G32" t="str">
-        <v>Townsville</v>
+        <v>Sydney</v>
       </c>
       <c r="H32" t="str">
-        <v>A</v>
+        <v>B+</v>
       </c>
       <c r="I32" t="str">
-        <v>available</v>
-      </c>
-      <c r="M32" t="str">
-        <v>Vision impaired - needs assistance</v>
+        <v>assigned</v>
+      </c>
+      <c r="J32" t="str">
+        <v>Paisley Lee</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>29fc5656-fb78-4c9b-9800-b68957bc0a07</v>
+        <v>3d2128a1-336f-41e1-973b-b5dd54d90b19</v>
       </c>
       <c r="B33" t="str">
-        <v>Aria Lopez</v>
+        <v>Nova Brown</v>
       </c>
       <c r="C33">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D33" t="str">
         <v>Female</v>
       </c>
       <c r="E33" t="str">
-        <v>aria.lopez55@hotmail.com</v>
+        <v>nova.brown80@outlook.com</v>
       </c>
       <c r="F33" t="str">
-        <v>0404 812 491</v>
+        <v>0411 154 614</v>
       </c>
       <c r="G33" t="str">
-        <v>Sydney</v>
+        <v>Ballarat</v>
       </c>
       <c r="H33" t="str">
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="I33" t="str">
-        <v>assigned</v>
-      </c>
-      <c r="J33" t="str">
-        <v>Paisley Lee</v>
+        <v>available</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>3d2128a1-336f-41e1-973b-b5dd54d90b19</v>
+        <v>c25335af-b2c3-42d1-a950-360c28d1922c</v>
       </c>
       <c r="B34" t="str">
-        <v>Nova Brown</v>
+        <v>Avery Clark</v>
       </c>
       <c r="C34">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="D34" t="str">
         <v>Female</v>
       </c>
       <c r="E34" t="str">
-        <v>nova.brown80@outlook.com</v>
+        <v>avery.clark42@hotmail.com</v>
       </c>
       <c r="F34" t="str">
-        <v>0411 154 614</v>
+        <v>(612) 764-2446</v>
       </c>
       <c r="G34" t="str">
-        <v>Ballarat</v>
+        <v>San Jose</v>
       </c>
       <c r="H34" t="str">
-        <v>A</v>
+        <v>A+</v>
       </c>
       <c r="I34" t="str">
         <v>available</v>
+      </c>
+      <c r="J34" t="str">
+        <v>Joshua Martinez</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>c25335af-b2c3-42d1-a950-360c28d1922c</v>
+        <v>fc97dba8-a877-4547-b6c9-0c6b058b1c94</v>
       </c>
       <c r="B35" t="str">
-        <v>Avery Clark</v>
+        <v>Victoria Carter</v>
       </c>
       <c r="C35">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D35" t="str">
         <v>Female</v>
       </c>
       <c r="E35" t="str">
-        <v>avery.clark42@hotmail.com</v>
+        <v>victoria.carter86@hotmail.com</v>
       </c>
       <c r="F35" t="str">
-        <v>(612) 764-2446</v>
+        <v>(576) 929-4509</v>
       </c>
       <c r="G35" t="str">
-        <v>San Jose</v>
+        <v>Long Beach</v>
       </c>
       <c r="H35" t="str">
-        <v>A+</v>
+        <v>B</v>
       </c>
       <c r="I35" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J35" t="str">
-        <v>Joshua Martinez</v>
+        <v>Josiah Lopez, Ella Martinez</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>fc97dba8-a877-4547-b6c9-0c6b058b1c94</v>
+        <v>c4e002c2-94ef-471f-b43d-e6b2a8d35a1c</v>
       </c>
       <c r="B36" t="str">
-        <v>Victoria Carter</v>
+        <v>Paisley Scott</v>
       </c>
       <c r="C36">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D36" t="str">
         <v>Female</v>
       </c>
       <c r="E36" t="str">
-        <v>victoria.carter86@hotmail.com</v>
+        <v>paisley.scott78@yahoo.com</v>
       </c>
       <c r="F36" t="str">
-        <v>(576) 929-4509</v>
+        <v>0410 215 419</v>
       </c>
       <c r="G36" t="str">
-        <v>Long Beach</v>
+        <v>Ballarat</v>
       </c>
       <c r="H36" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I36" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
       <c r="J36" t="str">
-        <v>Josiah Lopez, Ella Martinez</v>
+        <v>Mia Roberts</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>6366884b-6583-493e-80bc-a1dff1926c59</v>
+        <v>e897bbe7-50a2-441c-9ba2-0d1c40619f32</v>
       </c>
       <c r="B37" t="str">
-        <v>Eleanor Allen</v>
+        <v>Chloe Williams</v>
       </c>
       <c r="C37">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D37" t="str">
         <v>Female</v>
       </c>
       <c r="E37" t="str">
-        <v>eleanor.allen67@outlook.com</v>
+        <v>chloe.williams70@hotmail.com</v>
       </c>
       <c r="F37" t="str">
-        <v>(510) 261-1846</v>
+        <v>(398) 161-2308</v>
       </c>
       <c r="G37" t="str">
         <v>Los Angeles</v>
       </c>
       <c r="H37" t="str">
-        <v>A</v>
+        <v>B+</v>
       </c>
       <c r="I37" t="str">
         <v>available</v>
-      </c>
-      <c r="J37" t="str">
-        <v>Christopher Allen</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>4f5224b0-063d-43fd-9435-f5c2723f61ed</v>
+        <v>d3525475-4eef-4712-ba77-a79cea16ef55</v>
       </c>
       <c r="B38" t="str">
-        <v>Sophia Flores</v>
+        <v>Zoey Cook</v>
       </c>
       <c r="C38">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D38" t="str">
         <v>Female</v>
       </c>
       <c r="E38" t="str">
-        <v>sophia.flores86@icloud.com</v>
+        <v>zoey.cook63@yahoo.com</v>
       </c>
       <c r="F38" t="str">
-        <v>(588) 448-1103</v>
+        <v>(559) 803-4092</v>
       </c>
       <c r="G38" t="str">
         <v>Fremont</v>
       </c>
       <c r="H38" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="I38" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J38" t="str">
-        <v>Elijah Miller</v>
+        <v>Hunter Scott</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>c4e002c2-94ef-471f-b43d-e6b2a8d35a1c</v>
+        <v>6366884b-6583-493e-80bc-a1dff1926c59</v>
       </c>
       <c r="B39" t="str">
-        <v>Paisley Scott</v>
+        <v>Eleanor Allen</v>
       </c>
       <c r="C39">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="D39" t="str">
         <v>Female</v>
       </c>
       <c r="E39" t="str">
-        <v>paisley.scott78@yahoo.com</v>
+        <v>eleanor.allen67@outlook.com</v>
       </c>
       <c r="F39" t="str">
-        <v>0410 215 419</v>
+        <v>(510) 261-1846</v>
       </c>
       <c r="G39" t="str">
-        <v>Ballarat</v>
+        <v>Los Angeles</v>
       </c>
       <c r="H39" t="str">
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="I39" t="str">
         <v>available</v>
       </c>
       <c r="J39" t="str">
-        <v>Mia Roberts</v>
+        <v>Christopher Allen</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>e897bbe7-50a2-441c-9ba2-0d1c40619f32</v>
+        <v>151541b8-8cbb-452a-b532-1a0df3d1d4b6</v>
       </c>
       <c r="B40" t="str">
-        <v>Chloe Williams</v>
+        <v>Ella Martinez</v>
       </c>
       <c r="C40">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D40" t="str">
         <v>Female</v>
       </c>
       <c r="E40" t="str">
-        <v>chloe.williams70@hotmail.com</v>
+        <v>ella.martinez67@hotmail.com</v>
       </c>
       <c r="F40" t="str">
-        <v>(398) 161-2308</v>
+        <v>(703) 898-3990</v>
       </c>
       <c r="G40" t="str">
-        <v>Los Angeles</v>
+        <v>Burbank</v>
       </c>
       <c r="H40" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I40" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="J40" t="str">
+        <v>Josiah Lopez, Victoria Carter</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>151541b8-8cbb-452a-b532-1a0df3d1d4b6</v>
+        <v>f960de1f-a40f-4281-9d39-2a7822335b9b</v>
       </c>
       <c r="B41" t="str">
-        <v>Ella Martinez</v>
+        <v>Victoria Carter</v>
       </c>
       <c r="C41">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D41" t="str">
         <v>Female</v>
       </c>
       <c r="E41" t="str">
-        <v>ella.martinez67@hotmail.com</v>
+        <v>victoria.carter74@gmail.com</v>
       </c>
       <c r="F41" t="str">
-        <v>(703) 898-3990</v>
+        <v>0411 641 632</v>
       </c>
       <c r="G41" t="str">
-        <v>Burbank</v>
+        <v>Gold Coast</v>
       </c>
       <c r="H41" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I41" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
       <c r="J41" t="str">
-        <v>Josiah Lopez, Victoria Carter</v>
+        <v>Emilia Miller</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>f960de1f-a40f-4281-9d39-2a7822335b9b</v>
+        <v>49e2abec-5fbc-4b4e-9147-fc29f4df9e48</v>
       </c>
       <c r="B42" t="str">
-        <v>Victoria Carter</v>
+        <v>Ellie Allen</v>
       </c>
       <c r="C42">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D42" t="str">
         <v>Female</v>
       </c>
       <c r="E42" t="str">
-        <v>victoria.carter74@gmail.com</v>
+        <v>ellie.allen18@hotmail.com</v>
       </c>
       <c r="F42" t="str">
-        <v>0411 641 632</v>
+        <v>(303) 763-9138</v>
       </c>
       <c r="G42" t="str">
-        <v>Gold Coast</v>
+        <v>Stockton</v>
       </c>
       <c r="H42" t="str">
-        <v>B+</v>
+        <v>A+</v>
       </c>
       <c r="I42" t="str">
         <v>available</v>
       </c>
       <c r="J42" t="str">
-        <v>Emilia Miller</v>
+        <v>Emma Torres, Charlotte Hernandez</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>49e2abec-5fbc-4b4e-9147-fc29f4df9e48</v>
+        <v>f5233693-d357-4cac-a660-70ef0398a969</v>
       </c>
       <c r="B43" t="str">
-        <v>Ellie Allen</v>
+        <v>Nathan Allen</v>
       </c>
       <c r="C43">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D43" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E43" t="str">
-        <v>ellie.allen18@hotmail.com</v>
+        <v>nathan.allen87@outlook.com</v>
       </c>
       <c r="F43" t="str">
-        <v>(303) 763-9138</v>
+        <v>0403 587 263</v>
       </c>
       <c r="G43" t="str">
-        <v>Stockton</v>
+        <v>Adelaide</v>
       </c>
       <c r="H43" t="str">
-        <v>A+</v>
+        <v>B+</v>
       </c>
       <c r="I43" t="str">
         <v>available</v>
-      </c>
-      <c r="J43" t="str">
-        <v>Emma Torres, Charlotte Hernandez</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>f5233693-d357-4cac-a660-70ef0398a969</v>
+        <v>4f5224b0-063d-43fd-9435-f5c2723f61ed</v>
       </c>
       <c r="B44" t="str">
-        <v>Nathan Allen</v>
+        <v>Sophia Flores</v>
       </c>
       <c r="C44">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="D44" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E44" t="str">
-        <v>nathan.allen87@outlook.com</v>
+        <v>sophia.flores86@icloud.com</v>
       </c>
       <c r="F44" t="str">
-        <v>0403 587 263</v>
+        <v>(588) 448-1103</v>
       </c>
       <c r="G44" t="str">
-        <v>Adelaide</v>
+        <v>Fremont</v>
       </c>
       <c r="H44" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I44" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="J44" t="str">
+        <v>Elijah Miller</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>699a6b21-dcdf-4a6c-a093-53af77ccdedb</v>
+        <v>c5fdfaeb-862e-43ab-bf0e-ff3e14e5dbb3</v>
       </c>
       <c r="B45" t="str">
-        <v>Emilia Lopez</v>
+        <v>Hannah Martin</v>
       </c>
       <c r="C45">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D45" t="str">
         <v>Female</v>
       </c>
       <c r="E45" t="str">
-        <v>emilia.lopez21@gmail.com</v>
+        <v>hannah.martin78@yahoo.com</v>
       </c>
       <c r="F45" t="str">
-        <v>0403 491 553</v>
+        <v>0410 940 985</v>
       </c>
       <c r="G45" t="str">
-        <v>Cairns</v>
+        <v>Hobart</v>
       </c>
       <c r="H45" t="str">
         <v>B</v>
@@ -2110,161 +2118,158 @@
         <v>available</v>
       </c>
       <c r="J45" t="str">
-        <v>Aurora Rodriguez</v>
+        <v>Abigail Lee</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>c5fdfaeb-862e-43ab-bf0e-ff3e14e5dbb3</v>
+        <v>699a6b21-dcdf-4a6c-a093-53af77ccdedb</v>
       </c>
       <c r="B46" t="str">
-        <v>Hannah Martin</v>
+        <v>Emilia Lopez</v>
       </c>
       <c r="C46">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="D46" t="str">
         <v>Female</v>
       </c>
       <c r="E46" t="str">
-        <v>hannah.martin78@yahoo.com</v>
+        <v>emilia.lopez21@gmail.com</v>
       </c>
       <c r="F46" t="str">
-        <v>0410 940 985</v>
+        <v>0403 491 553</v>
       </c>
       <c r="G46" t="str">
-        <v>Hobart</v>
+        <v>Cairns</v>
       </c>
       <c r="H46" t="str">
         <v>B</v>
       </c>
       <c r="I46" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J46" t="str">
-        <v>Abigail Lee</v>
+        <v>Aurora Rodriguez</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>da957311-60b3-4bfc-b980-ac0506dccd20</v>
+        <v>347bdea3-79f6-4991-9601-b2d86513429e</v>
       </c>
       <c r="B47" t="str">
-        <v>Stella Garcia</v>
+        <v>Violet Hall</v>
       </c>
       <c r="C47">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D47" t="str">
         <v>Female</v>
       </c>
       <c r="E47" t="str">
-        <v>stella.garcia89@hotmail.com</v>
+        <v>violet.hall8@yahoo.com</v>
       </c>
       <c r="F47" t="str">
-        <v>0403 655 540</v>
+        <v>0404 640 755</v>
       </c>
       <c r="G47" t="str">
-        <v>Toowoomba</v>
+        <v>Adelaide</v>
       </c>
       <c r="H47" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I47" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J47" t="str">
-        <v>Emily Thomas</v>
+        <v>Emilia Thompson</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>347bdea3-79f6-4991-9601-b2d86513429e</v>
+        <v>9b54470e-fe91-4ebb-b0aa-becf22a8cc3c</v>
       </c>
       <c r="B48" t="str">
-        <v>Violet Hall</v>
+        <v>Abigail Jackson</v>
       </c>
       <c r="C48">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="D48" t="str">
         <v>Female</v>
       </c>
       <c r="E48" t="str">
-        <v>violet.hall8@yahoo.com</v>
+        <v>abigail.jackson65@outlook.com</v>
       </c>
       <c r="F48" t="str">
-        <v>0404 640 755</v>
+        <v>0411 824 257</v>
       </c>
       <c r="G48" t="str">
-        <v>Adelaide</v>
+        <v>Newcastle</v>
       </c>
       <c r="H48" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I48" t="str">
         <v>available</v>
-      </c>
-      <c r="J48" t="str">
-        <v>Emilia Thompson</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>d3525475-4eef-4712-ba77-a79cea16ef55</v>
+        <v>efeba788-8d57-40b3-a3f9-e134a40931ac</v>
       </c>
       <c r="B49" t="str">
-        <v>Zoey Cook</v>
+        <v>Leah Diaz</v>
       </c>
       <c r="C49">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D49" t="str">
         <v>Female</v>
       </c>
       <c r="E49" t="str">
-        <v>zoey.cook63@yahoo.com</v>
+        <v>leah.diaz22@outlook.com</v>
       </c>
       <c r="F49" t="str">
-        <v>(559) 803-4092</v>
+        <v>(159) 664-9326</v>
       </c>
       <c r="G49" t="str">
-        <v>Fremont</v>
+        <v>Glendale</v>
       </c>
       <c r="H49" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="I49" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J49" t="str">
-        <v>Hunter Scott</v>
+        <v>Julian Nguyen, Lydia Allen</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>9b54470e-fe91-4ebb-b0aa-becf22a8cc3c</v>
+        <v>adfcb6e3-82cb-46b9-8fb8-069fb91e2d4f</v>
       </c>
       <c r="B50" t="str">
-        <v>Abigail Jackson</v>
+        <v>Mason Hill</v>
       </c>
       <c r="C50">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D50" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E50" t="str">
-        <v>abigail.jackson65@outlook.com</v>
+        <v>mason.hill27@outlook.com</v>
       </c>
       <c r="F50" t="str">
-        <v>0411 824 257</v>
+        <v>0410 682 884</v>
       </c>
       <c r="G50" t="str">
-        <v>Newcastle</v>
+        <v>Canberra</v>
       </c>
       <c r="H50" t="str">
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="I50" t="str">
         <v>available</v>
@@ -2272,179 +2277,182 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>efeba788-8d57-40b3-a3f9-e134a40931ac</v>
+        <v>55099144-967b-4cf2-b4ed-3cfe46413c92</v>
       </c>
       <c r="B51" t="str">
-        <v>Leah Diaz</v>
+        <v>Maya Hernandez</v>
       </c>
       <c r="C51">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D51" t="str">
         <v>Female</v>
       </c>
       <c r="E51" t="str">
-        <v>leah.diaz22@outlook.com</v>
+        <v>maya.hernandez32@outlook.com</v>
       </c>
       <c r="F51" t="str">
-        <v>(159) 664-9326</v>
+        <v>0400 358 904</v>
       </c>
       <c r="G51" t="str">
-        <v>Glendale</v>
+        <v>Brisbane</v>
       </c>
       <c r="H51" t="str">
         <v>B</v>
       </c>
       <c r="I51" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
       <c r="J51" t="str">
-        <v>Julian Nguyen, Lydia Allen</v>
+        <v>Aria Scott</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>adfcb6e3-82cb-46b9-8fb8-069fb91e2d4f</v>
+        <v>50b3a8f6-823f-477c-b52d-5b4fba4edbd2</v>
       </c>
       <c r="B52" t="str">
-        <v>Mason Hill</v>
+        <v>Naomi Moore</v>
       </c>
       <c r="C52">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D52" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E52" t="str">
-        <v>mason.hill27@outlook.com</v>
+        <v>naomi.moore30@gmail.com</v>
       </c>
       <c r="F52" t="str">
-        <v>0410 682 884</v>
+        <v>(391) 998-1729</v>
       </c>
       <c r="G52" t="str">
-        <v>Canberra</v>
+        <v>Irvine</v>
       </c>
       <c r="H52" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="I52" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="J52" t="str">
+        <v>Isla Wright, Cora Roberts</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>55099144-967b-4cf2-b4ed-3cfe46413c92</v>
+        <v>dc8716d3-5841-439f-a3e4-3e7bd8306e66</v>
       </c>
       <c r="B53" t="str">
-        <v>Maya Hernandez</v>
+        <v>Gianna Hill</v>
       </c>
       <c r="C53">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D53" t="str">
         <v>Female</v>
       </c>
       <c r="E53" t="str">
-        <v>maya.hernandez32@outlook.com</v>
+        <v>gianna.hill14@icloud.com</v>
       </c>
       <c r="F53" t="str">
-        <v>0400 358 904</v>
+        <v>(338) 214-4997</v>
       </c>
       <c r="G53" t="str">
-        <v>Brisbane</v>
+        <v>Santa Ana</v>
       </c>
       <c r="H53" t="str">
         <v>B</v>
       </c>
       <c r="I53" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J53" t="str">
-        <v>Aria Scott</v>
+        <v>Grace King</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>50b3a8f6-823f-477c-b52d-5b4fba4edbd2</v>
+        <v>da957311-60b3-4bfc-b980-ac0506dccd20</v>
       </c>
       <c r="B54" t="str">
-        <v>Naomi Moore</v>
+        <v>Stella Garcia</v>
       </c>
       <c r="C54">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D54" t="str">
         <v>Female</v>
       </c>
       <c r="E54" t="str">
-        <v>naomi.moore30@gmail.com</v>
+        <v>stella.garcia89@hotmail.com</v>
       </c>
       <c r="F54" t="str">
-        <v>(391) 998-1729</v>
+        <v>0403 655 540</v>
       </c>
       <c r="G54" t="str">
-        <v>Irvine</v>
+        <v>Toowoomba</v>
       </c>
       <c r="H54" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I54" t="str">
         <v>assigned</v>
       </c>
       <c r="J54" t="str">
-        <v>Isla Wright, Cora Roberts</v>
+        <v>Emily Thomas</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>6591420b-4762-4d90-b738-8a5b70458c40</v>
+        <v>cd648690-8cd1-44b6-be26-0521038f442f</v>
       </c>
       <c r="B55" t="str">
-        <v>Aurora Hill</v>
+        <v>Stella Hall</v>
       </c>
       <c r="C55">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="D55" t="str">
         <v>Female</v>
       </c>
       <c r="E55" t="str">
-        <v>aurora.hill33@hotmail.com</v>
+        <v>stella.hall72@gmail.com</v>
       </c>
       <c r="F55" t="str">
-        <v>0410 373 844</v>
+        <v>0410 133 818</v>
       </c>
       <c r="G55" t="str">
-        <v>Gold Coast</v>
+        <v>Wollongong</v>
       </c>
       <c r="H55" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I55" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>32ffeaf9-5f22-4db7-a70b-cbaab834db0d</v>
+        <v>6591420b-4762-4d90-b738-8a5b70458c40</v>
       </c>
       <c r="B56" t="str">
-        <v>Isabella Hill</v>
+        <v>Aurora Hill</v>
       </c>
       <c r="C56">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D56" t="str">
         <v>Female</v>
       </c>
       <c r="E56" t="str">
-        <v>isabella.hill77@hotmail.com</v>
+        <v>aurora.hill33@hotmail.com</v>
       </c>
       <c r="F56" t="str">
-        <v>0412 663 356</v>
+        <v>0410 373 844</v>
       </c>
       <c r="G56" t="str">
-        <v>Darwin</v>
+        <v>Gold Coast</v>
       </c>
       <c r="H56" t="str">
         <v>B+</v>
@@ -2455,86 +2463,86 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>799c4a95-9c60-477c-ab86-09dfb2ad8324</v>
+        <v>32ffeaf9-5f22-4db7-a70b-cbaab834db0d</v>
       </c>
       <c r="B57" t="str">
-        <v>Naomi Brown</v>
+        <v>Isabella Hill</v>
       </c>
       <c r="C57">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D57" t="str">
         <v>Female</v>
       </c>
       <c r="E57" t="str">
-        <v>naomi.brown56@yahoo.com</v>
+        <v>isabella.hill77@hotmail.com</v>
       </c>
       <c r="F57" t="str">
-        <v>(932) 818-9639</v>
+        <v>0412 663 356</v>
       </c>
       <c r="G57" t="str">
-        <v>Sacramento</v>
+        <v>Darwin</v>
       </c>
       <c r="H57" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I57" t="str">
         <v>available</v>
-      </c>
-      <c r="J57" t="str">
-        <v>Brooklyn Nguyen</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>5c31add6-7626-46c5-a3e1-0e452ead739d</v>
+        <v>799c4a95-9c60-477c-ab86-09dfb2ad8324</v>
       </c>
       <c r="B58" t="str">
-        <v>Charles Torres</v>
+        <v>Naomi Brown</v>
       </c>
       <c r="C58">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D58" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E58" t="str">
-        <v>charles.torres98@outlook.com</v>
+        <v>naomi.brown56@yahoo.com</v>
       </c>
       <c r="F58" t="str">
-        <v>0401 744 176</v>
+        <v>(932) 818-9639</v>
       </c>
       <c r="G58" t="str">
-        <v>Wollongong</v>
+        <v>Sacramento</v>
       </c>
       <c r="H58" t="str">
         <v>B</v>
       </c>
       <c r="I58" t="str">
         <v>available</v>
+      </c>
+      <c r="J58" t="str">
+        <v>Brooklyn Nguyen</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>bb319a54-7dbf-4a05-bd7f-8f2f6aa6b414</v>
+        <v>1df33560-ebf2-41ec-995c-52f3f1df78d5</v>
       </c>
       <c r="B59" t="str">
-        <v>Isabella Brown</v>
+        <v>Genesis Jones</v>
       </c>
       <c r="C59">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D59" t="str">
         <v>Female</v>
       </c>
       <c r="E59" t="str">
-        <v>isabella.brown43@outlook.com</v>
+        <v>genesis.jones50@yahoo.com</v>
       </c>
       <c r="F59" t="str">
-        <v>0403 771 690</v>
+        <v>0404 967 604</v>
       </c>
       <c r="G59" t="str">
-        <v>Darwin</v>
+        <v>Sydney</v>
       </c>
       <c r="H59" t="str">
         <v>B</v>
@@ -2542,95 +2550,95 @@
       <c r="I59" t="str">
         <v>assigned</v>
       </c>
-      <c r="J59" t="str">
-        <v>Ella Anderson</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>34685ff7-6e85-4bbd-b546-77cfe11d7f7d</v>
+        <v>222469f4-a8d9-4550-b6ee-db9d00e24edd</v>
       </c>
       <c r="B60" t="str">
-        <v>Grace Walker</v>
+        <v>Chloe Flores</v>
       </c>
       <c r="C60">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D60" t="str">
         <v>Female</v>
       </c>
       <c r="E60" t="str">
-        <v>grace.walker52@hotmail.com</v>
+        <v>chloe.flores93@yahoo.com</v>
       </c>
       <c r="F60" t="str">
-        <v>0412 754 780</v>
+        <v>0400 918 463</v>
       </c>
       <c r="G60" t="str">
-        <v>Canberra</v>
+        <v>Townsville</v>
       </c>
       <c r="H60" t="str">
-        <v>A+</v>
+        <v>B</v>
       </c>
       <c r="I60" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="J60" t="str">
+        <v>Evelyn Sanchez</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>703385ff-46f6-4b8f-9998-1e18951304e0</v>
+        <v>bb319a54-7dbf-4a05-bd7f-8f2f6aa6b414</v>
       </c>
       <c r="B61" t="str">
-        <v>Avery Cruz</v>
+        <v>Isabella Brown</v>
       </c>
       <c r="C61">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D61" t="str">
         <v>Female</v>
       </c>
       <c r="E61" t="str">
-        <v>avery.cruz48@yahoo.com</v>
+        <v>isabella.brown43@outlook.com</v>
       </c>
       <c r="F61" t="str">
-        <v>(405) 750-6185</v>
+        <v>0403 771 690</v>
       </c>
       <c r="G61" t="str">
-        <v>Fremont</v>
+        <v>Darwin</v>
       </c>
       <c r="H61" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I61" t="str">
         <v>assigned</v>
       </c>
       <c r="J61" t="str">
-        <v>Lydia Torres, Mia Anderson</v>
+        <v>Ella Anderson</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>14ca564a-7d73-46a9-9bdd-e4924eac5eda</v>
+        <v>34685ff7-6e85-4bbd-b546-77cfe11d7f7d</v>
       </c>
       <c r="B62" t="str">
-        <v>Hailey Thompson</v>
+        <v>Grace Walker</v>
       </c>
       <c r="C62">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D62" t="str">
         <v>Female</v>
       </c>
       <c r="E62" t="str">
-        <v>hailey.thompson30@yahoo.com</v>
+        <v>grace.walker52@hotmail.com</v>
       </c>
       <c r="F62" t="str">
-        <v>(356) 680-9661</v>
+        <v>0412 754 780</v>
       </c>
       <c r="G62" t="str">
-        <v>Fremont</v>
+        <v>Canberra</v>
       </c>
       <c r="H62" t="str">
-        <v>B+</v>
+        <v>A+</v>
       </c>
       <c r="I62" t="str">
         <v>available</v>
@@ -2638,57 +2646,60 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>25370fa8-38bb-4172-9e02-23a59fcfd87a</v>
+        <v>703385ff-46f6-4b8f-9998-1e18951304e0</v>
       </c>
       <c r="B63" t="str">
-        <v>Carter Hill</v>
+        <v>Avery Cruz</v>
       </c>
       <c r="C63">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="D63" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E63" t="str">
-        <v>carter.hill93@gmail.com</v>
+        <v>avery.cruz48@yahoo.com</v>
       </c>
       <c r="F63" t="str">
-        <v>0404 349 309</v>
+        <v>(405) 750-6185</v>
       </c>
       <c r="G63" t="str">
-        <v>Newcastle</v>
+        <v>Fremont</v>
       </c>
       <c r="H63" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I63" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="J63" t="str">
+        <v>Lydia Torres, Mia Anderson</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>cd648690-8cd1-44b6-be26-0521038f442f</v>
+        <v>14ca564a-7d73-46a9-9bdd-e4924eac5eda</v>
       </c>
       <c r="B64" t="str">
-        <v>Stella Hall</v>
+        <v>Hailey Thompson</v>
       </c>
       <c r="C64">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D64" t="str">
         <v>Female</v>
       </c>
       <c r="E64" t="str">
-        <v>stella.hall72@gmail.com</v>
+        <v>hailey.thompson30@yahoo.com</v>
       </c>
       <c r="F64" t="str">
-        <v>0410 133 818</v>
+        <v>(356) 680-9661</v>
       </c>
       <c r="G64" t="str">
-        <v>Wollongong</v>
+        <v>Fremont</v>
       </c>
       <c r="H64" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I64" t="str">
         <v>available</v>
@@ -2696,150 +2707,150 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>4f1d5a65-9d8d-4c5a-836a-f0ea71c91e56</v>
+        <v>47cc1288-cbc0-4159-a52d-924c8912434d</v>
       </c>
       <c r="B65" t="str">
-        <v>Savannah Rivera</v>
+        <v>Stella Martinez</v>
       </c>
       <c r="C65">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D65" t="str">
         <v>Female</v>
       </c>
       <c r="E65" t="str">
-        <v>savannah.rivera74@hotmail.com</v>
+        <v>stella.martinez75@gmail.com</v>
       </c>
       <c r="F65" t="str">
-        <v>(132) 232-5005</v>
+        <v>0404 227 272</v>
       </c>
       <c r="G65" t="str">
-        <v>Stockton</v>
+        <v>Ballarat</v>
       </c>
       <c r="H65" t="str">
-        <v>A+</v>
+        <v>B</v>
       </c>
       <c r="I65" t="str">
-        <v>available</v>
-      </c>
-      <c r="J65" t="str">
-        <v>Penelope Williams</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>523bddcf-6298-42a0-b9cb-4deffb688143</v>
+        <v>9d6b206c-c62d-4b71-b83d-fb61ac2fd06b</v>
       </c>
       <c r="B66" t="str">
-        <v>Brooklyn Rivera</v>
+        <v>Paisley Brown</v>
       </c>
       <c r="C66">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="D66" t="str">
         <v>Female</v>
       </c>
       <c r="E66" t="str">
-        <v>brooklyn.rivera69@outlook.com</v>
+        <v>paisley.brown87@outlook.com</v>
       </c>
       <c r="F66" t="str">
-        <v>(847) 715-1204</v>
+        <v>(164) 124-5926</v>
       </c>
       <c r="G66" t="str">
-        <v>Glendale</v>
+        <v>Anaheim</v>
       </c>
       <c r="H66" t="str">
-        <v>A+</v>
+        <v>B</v>
       </c>
       <c r="I66" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J66" t="str">
-        <v>John Carter</v>
+        <v>Amelia Nguyen</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>cd2f354f-9f45-4422-af14-1c94758ec1c1</v>
+        <v>4f1d5a65-9d8d-4c5a-836a-f0ea71c91e56</v>
       </c>
       <c r="B67" t="str">
-        <v>Hannah Murphy</v>
+        <v>Savannah Rivera</v>
       </c>
       <c r="C67">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D67" t="str">
         <v>Female</v>
       </c>
       <c r="E67" t="str">
-        <v>hannah.murphy4@outlook.com</v>
+        <v>savannah.rivera74@hotmail.com</v>
       </c>
       <c r="F67" t="str">
-        <v>(544) 415-8741</v>
+        <v>(132) 232-5005</v>
       </c>
       <c r="G67" t="str">
-        <v>Pomona</v>
+        <v>Stockton</v>
       </c>
       <c r="H67" t="str">
-        <v>A</v>
+        <v>A+</v>
       </c>
       <c r="I67" t="str">
         <v>available</v>
       </c>
       <c r="J67" t="str">
-        <v>Thomas Rivera</v>
+        <v>Penelope Williams</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>a2ff3ad7-7964-4523-bf18-ce9994a910da</v>
+        <v>523bddcf-6298-42a0-b9cb-4deffb688143</v>
       </c>
       <c r="B68" t="str">
-        <v>Nora Mitchell</v>
+        <v>Brooklyn Rivera</v>
       </c>
       <c r="C68">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D68" t="str">
         <v>Female</v>
       </c>
       <c r="E68" t="str">
-        <v>nora.mitchell66@outlook.com</v>
+        <v>brooklyn.rivera69@outlook.com</v>
       </c>
       <c r="F68" t="str">
-        <v>0412 196 419</v>
+        <v>(847) 715-1204</v>
       </c>
       <c r="G68" t="str">
-        <v>Adelaide</v>
+        <v>Glendale</v>
       </c>
       <c r="H68" t="str">
-        <v>B</v>
+        <v>A+</v>
       </c>
       <c r="I68" t="str">
         <v>available</v>
+      </c>
+      <c r="J68" t="str">
+        <v>John Carter</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>6b672a17-fbf7-4b44-841d-dc10fbe8cbce</v>
+        <v>a2ff3ad7-7964-4523-bf18-ce9994a910da</v>
       </c>
       <c r="B69" t="str">
-        <v>Sadie Williams</v>
+        <v>Nora Mitchell</v>
       </c>
       <c r="C69">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D69" t="str">
         <v>Female</v>
       </c>
       <c r="E69" t="str">
-        <v>sadie.williams7@icloud.com</v>
+        <v>nora.mitchell66@outlook.com</v>
       </c>
       <c r="F69" t="str">
-        <v>(175) 960-1387</v>
+        <v>0412 196 419</v>
       </c>
       <c r="G69" t="str">
-        <v>Anaheim</v>
+        <v>Adelaide</v>
       </c>
       <c r="H69" t="str">
         <v>B</v>
@@ -2847,124 +2858,121 @@
       <c r="I69" t="str">
         <v>assigned</v>
       </c>
-      <c r="J69" t="str">
-        <v>Michael Campbell, Eleanor Hall</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>ee7f9d33-09d6-417b-a45f-3e6554489f5b</v>
+        <v>6b672a17-fbf7-4b44-841d-dc10fbe8cbce</v>
       </c>
       <c r="B70" t="str">
-        <v>Dylan Miller</v>
+        <v>Sadie Williams</v>
       </c>
       <c r="C70">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D70" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E70" t="str">
-        <v>dylan.miller23@hotmail.com</v>
+        <v>sadie.williams7@icloud.com</v>
       </c>
       <c r="F70" t="str">
-        <v>0402 417 876</v>
+        <v>(175) 960-1387</v>
       </c>
       <c r="G70" t="str">
-        <v>Melbourne</v>
+        <v>Anaheim</v>
       </c>
       <c r="H70" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="I70" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="J70" t="str">
+        <v>Michael Campbell, Eleanor Hall</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>b57be3ad-f74f-4f2b-aa79-6e410d2c199b</v>
+        <v>ee7f9d33-09d6-417b-a45f-3e6554489f5b</v>
       </c>
       <c r="B71" t="str">
-        <v>Sofia Williams</v>
+        <v>Dylan Miller</v>
       </c>
       <c r="C71">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D71" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E71" t="str">
-        <v>sofia.williams60@outlook.com</v>
+        <v>dylan.miller23@hotmail.com</v>
       </c>
       <c r="F71" t="str">
-        <v>(745) 392-3827</v>
+        <v>0402 417 876</v>
       </c>
       <c r="G71" t="str">
-        <v>Newport Beach</v>
+        <v>Melbourne</v>
       </c>
       <c r="H71" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="I71" t="str">
-        <v>assigned</v>
-      </c>
-      <c r="J71" t="str">
-        <v>Colton Harris, Sebastian Edwards</v>
+        <v>available</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>349c5100-5395-45db-a63a-4f1c0e44ab44</v>
+        <v>b57be3ad-f74f-4f2b-aa79-6e410d2c199b</v>
       </c>
       <c r="B72" t="str">
-        <v>Alexa Hall</v>
+        <v>Sofia Williams</v>
       </c>
       <c r="C72">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D72" t="str">
         <v>Female</v>
       </c>
       <c r="E72" t="str">
-        <v>alexa.hall12@hotmail.com</v>
+        <v>sofia.williams60@outlook.com</v>
       </c>
       <c r="F72" t="str">
-        <v>(220) 308-9173</v>
+        <v>(745) 392-3827</v>
       </c>
       <c r="G72" t="str">
-        <v>Santa Ana</v>
+        <v>Newport Beach</v>
       </c>
       <c r="H72" t="str">
-        <v>A+</v>
+        <v>B</v>
       </c>
       <c r="I72" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J72" t="str">
-        <v>William Allen, Sadie Cook</v>
+        <v>Colton Harris, Sebastian Edwards</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>da40ad70-95be-413c-b0f1-d089ef285cc8</v>
+        <v>349c5100-5395-45db-a63a-4f1c0e44ab44</v>
       </c>
       <c r="B73" t="str">
-        <v>Emily Smith</v>
+        <v>Alexa Hall</v>
       </c>
       <c r="C73">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D73" t="str">
         <v>Female</v>
       </c>
       <c r="E73" t="str">
-        <v>emily.smith56@hotmail.com</v>
+        <v>alexa.hall12@hotmail.com</v>
       </c>
       <c r="F73" t="str">
-        <v>0410 101 780</v>
+        <v>(220) 308-9173</v>
       </c>
       <c r="G73" t="str">
-        <v>Toowoomba</v>
+        <v>Santa Ana</v>
       </c>
       <c r="H73" t="str">
         <v>A+</v>
@@ -2972,357 +2980,354 @@
       <c r="I73" t="str">
         <v>available</v>
       </c>
-      <c r="M73" t="str">
-        <v>Limited mobility - prefers ground floor seating</v>
+      <c r="J73" t="str">
+        <v>William Allen, Sadie Cook</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>bf0a6231-41b8-4ee9-a915-1043ca5ba524</v>
+        <v>939eed5c-b520-4a34-8d08-2243d6aa41c1</v>
       </c>
       <c r="B74" t="str">
-        <v>Elizabeth Nelson</v>
+        <v>Andrew Garcia</v>
       </c>
       <c r="C74">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D74" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E74" t="str">
-        <v>elizabeth.nelson1@hotmail.com</v>
+        <v>andrew.garcia26@hotmail.com</v>
       </c>
       <c r="F74" t="str">
-        <v>(821) 379-6476</v>
+        <v>0400 450 222</v>
       </c>
       <c r="G74" t="str">
-        <v>Oakland</v>
+        <v>Darwin</v>
       </c>
       <c r="H74" t="str">
-        <v>A+</v>
+        <v>B</v>
       </c>
       <c r="I74" t="str">
-        <v>available</v>
-      </c>
-      <c r="J74" t="str">
-        <v>Grayson Edwards, Joseph Anderson</v>
+        <v>assigned</v>
+      </c>
+      <c r="M74" t="str">
+        <v>Limited mobility - prefers ground floor seating</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>5b54b59b-b78d-4a12-906b-7f9069a82fb5</v>
+        <v>cd2f354f-9f45-4422-af14-1c94758ec1c1</v>
       </c>
       <c r="B75" t="str">
-        <v>Amelia Lopez</v>
+        <v>Hannah Murphy</v>
       </c>
       <c r="C75">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D75" t="str">
         <v>Female</v>
       </c>
       <c r="E75" t="str">
-        <v>amelia.lopez92@yahoo.com</v>
+        <v>hannah.murphy4@outlook.com</v>
       </c>
       <c r="F75" t="str">
-        <v>(297) 700-2964</v>
+        <v>(544) 415-8741</v>
       </c>
       <c r="G75" t="str">
         <v>Pomona</v>
       </c>
       <c r="H75" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="I75" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J75" t="str">
-        <v>Lillian Campbell</v>
+        <v>Thomas Rivera</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>1df33560-ebf2-41ec-995c-52f3f1df78d5</v>
+        <v>da40ad70-95be-413c-b0f1-d089ef285cc8</v>
       </c>
       <c r="B76" t="str">
-        <v>Genesis Jones</v>
+        <v>Emily Smith</v>
       </c>
       <c r="C76">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D76" t="str">
         <v>Female</v>
       </c>
       <c r="E76" t="str">
-        <v>genesis.jones50@yahoo.com</v>
+        <v>emily.smith56@hotmail.com</v>
       </c>
       <c r="F76" t="str">
-        <v>0404 967 604</v>
+        <v>0410 101 780</v>
       </c>
       <c r="G76" t="str">
-        <v>Sydney</v>
+        <v>Toowoomba</v>
       </c>
       <c r="H76" t="str">
-        <v>B</v>
+        <v>A+</v>
       </c>
       <c r="I76" t="str">
         <v>available</v>
+      </c>
+      <c r="M76" t="str">
+        <v>Limited mobility - prefers ground floor seating</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>222469f4-a8d9-4550-b6ee-db9d00e24edd</v>
+        <v>bf0a6231-41b8-4ee9-a915-1043ca5ba524</v>
       </c>
       <c r="B77" t="str">
-        <v>Chloe Flores</v>
+        <v>Elizabeth Nelson</v>
       </c>
       <c r="C77">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="D77" t="str">
         <v>Female</v>
       </c>
       <c r="E77" t="str">
-        <v>chloe.flores93@yahoo.com</v>
+        <v>elizabeth.nelson1@hotmail.com</v>
       </c>
       <c r="F77" t="str">
-        <v>0400 918 463</v>
+        <v>(821) 379-6476</v>
       </c>
       <c r="G77" t="str">
-        <v>Townsville</v>
+        <v>Oakland</v>
       </c>
       <c r="H77" t="str">
-        <v>B</v>
+        <v>A+</v>
       </c>
       <c r="I77" t="str">
         <v>available</v>
       </c>
       <c r="J77" t="str">
-        <v>Evelyn Sanchez</v>
+        <v>Grayson Edwards, Joseph Anderson</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>47cc1288-cbc0-4159-a52d-924c8912434d</v>
+        <v>5c31add6-7626-46c5-a3e1-0e452ead739d</v>
       </c>
       <c r="B78" t="str">
-        <v>Stella Martinez</v>
+        <v>Charles Torres</v>
       </c>
       <c r="C78">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D78" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E78" t="str">
-        <v>stella.martinez75@gmail.com</v>
+        <v>charles.torres98@outlook.com</v>
       </c>
       <c r="F78" t="str">
-        <v>0404 227 272</v>
+        <v>0401 744 176</v>
       </c>
       <c r="G78" t="str">
-        <v>Ballarat</v>
+        <v>Wollongong</v>
       </c>
       <c r="H78" t="str">
         <v>B</v>
       </c>
       <c r="I78" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>3db7cdb3-9a92-467c-b554-d23b524f42f5</v>
+        <v>25370fa8-38bb-4172-9e02-23a59fcfd87a</v>
       </c>
       <c r="B79" t="str">
-        <v>Claire Campbell</v>
+        <v>Carter Hill</v>
       </c>
       <c r="C79">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D79" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E79" t="str">
-        <v>claire.campbell9@outlook.com</v>
+        <v>carter.hill93@gmail.com</v>
       </c>
       <c r="F79" t="str">
-        <v>0401 164 490</v>
+        <v>0404 349 309</v>
       </c>
       <c r="G79" t="str">
-        <v>Darwin</v>
+        <v>Newcastle</v>
       </c>
       <c r="H79" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I79" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>9d6b206c-c62d-4b71-b83d-fb61ac2fd06b</v>
+        <v>5b54b59b-b78d-4a12-906b-7f9069a82fb5</v>
       </c>
       <c r="B80" t="str">
-        <v>Paisley Brown</v>
+        <v>Amelia Lopez</v>
       </c>
       <c r="C80">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="D80" t="str">
         <v>Female</v>
       </c>
       <c r="E80" t="str">
-        <v>paisley.brown87@outlook.com</v>
+        <v>amelia.lopez92@yahoo.com</v>
       </c>
       <c r="F80" t="str">
-        <v>(164) 124-5926</v>
+        <v>(297) 700-2964</v>
       </c>
       <c r="G80" t="str">
-        <v>Anaheim</v>
+        <v>Pomona</v>
       </c>
       <c r="H80" t="str">
         <v>B</v>
       </c>
       <c r="I80" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J80" t="str">
-        <v>Amelia Nguyen</v>
+        <v>Lillian Campbell</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>5a6b21ec-9fac-4adc-b5ab-bcad20d0eca4</v>
+        <v>3db7cdb3-9a92-467c-b554-d23b524f42f5</v>
       </c>
       <c r="B81" t="str">
-        <v>Hunter Harris</v>
+        <v>Claire Campbell</v>
       </c>
       <c r="C81">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D81" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E81" t="str">
-        <v>hunter.harris1@gmail.com</v>
+        <v>claire.campbell9@outlook.com</v>
       </c>
       <c r="F81" t="str">
-        <v>0404 782 485</v>
+        <v>0401 164 490</v>
       </c>
       <c r="G81" t="str">
-        <v>Gold Coast</v>
+        <v>Darwin</v>
       </c>
       <c r="H81" t="str">
-        <v>A</v>
+        <v>B+</v>
       </c>
       <c r="I81" t="str">
         <v>available</v>
-      </c>
-      <c r="J81" t="str">
-        <v/>
-      </c>
-      <c r="L81" t="str">
-        <v>sdfasdf</v>
-      </c>
-      <c r="M81" t="str">
-        <v>sdfasdfa</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>939eed5c-b520-4a34-8d08-2243d6aa41c1</v>
+        <v>5a6b21ec-9fac-4adc-b5ab-bcad20d0eca4</v>
       </c>
       <c r="B82" t="str">
-        <v>Andrew Garcia</v>
+        <v>Hunter Harris</v>
       </c>
       <c r="C82">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D82" t="str">
         <v>Male</v>
       </c>
       <c r="E82" t="str">
-        <v>andrew.garcia26@hotmail.com</v>
+        <v>hunter.harris1@gmail.com</v>
       </c>
       <c r="F82" t="str">
-        <v>0400 450 222</v>
+        <v>0404 782 485</v>
       </c>
       <c r="G82" t="str">
-        <v>Darwin</v>
+        <v>Gold Coast</v>
       </c>
       <c r="H82" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="I82" t="str">
         <v>available</v>
       </c>
+      <c r="J82" t="str">
+        <v/>
+      </c>
+      <c r="L82" t="str">
+        <v>sdfasdf</v>
+      </c>
       <c r="M82" t="str">
-        <v>Limited mobility - prefers ground floor seating</v>
+        <v>sdfasdfa</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>40c53847-674f-43b5-8678-2decb3d42133</v>
+        <v>c9e05b47-6028-4cd1-b568-57342a489141</v>
       </c>
       <c r="B83" t="str">
-        <v>Eliana Green</v>
+        <v>Victoria Scott</v>
       </c>
       <c r="C83">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D83" t="str">
         <v>Female</v>
       </c>
       <c r="E83" t="str">
-        <v>eliana.green54@gmail.com</v>
+        <v>victoria.scott67@icloud.com</v>
       </c>
       <c r="F83" t="str">
-        <v>(894) 795-3178</v>
+        <v>(507) 166-2977</v>
       </c>
       <c r="G83" t="str">
-        <v>Los Angeles</v>
+        <v>Torrance</v>
       </c>
       <c r="H83" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="I83" t="str">
         <v>available</v>
       </c>
       <c r="J83" t="str">
-        <v>Olivia Gonzalez</v>
+        <v>William Taylor</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>c9e05b47-6028-4cd1-b568-57342a489141</v>
+        <v>f693d8fc-436b-426a-9bca-0b141221ab3f</v>
       </c>
       <c r="B84" t="str">
-        <v>Victoria Scott</v>
+        <v>Evelyn Clark</v>
       </c>
       <c r="C84">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="D84" t="str">
         <v>Female</v>
       </c>
       <c r="E84" t="str">
-        <v>victoria.scott67@icloud.com</v>
+        <v>evelyn.clark47@outlook.com</v>
       </c>
       <c r="F84" t="str">
-        <v>(507) 166-2977</v>
+        <v>0410 941 656</v>
       </c>
       <c r="G84" t="str">
-        <v>Torrance</v>
+        <v>Hobart</v>
       </c>
       <c r="H84" t="str">
         <v>B</v>
       </c>
       <c r="I84" t="str">
-        <v>available</v>
-      </c>
-      <c r="J84" t="str">
-        <v>William Taylor</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="85">
@@ -3391,25 +3396,25 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>8d8070dd-3ee6-476f-aaf2-631e80f67ef7</v>
+        <v>852226e3-fccb-4228-8627-5dc42cfe4387</v>
       </c>
       <c r="B87" t="str">
-        <v>Lydia Allen</v>
+        <v>Aurora Rodriguez</v>
       </c>
       <c r="C87">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D87" t="str">
         <v>Female</v>
       </c>
       <c r="E87" t="str">
-        <v>lydia.allen73@icloud.com</v>
+        <v>aurora.rodriguez20@yahoo.com</v>
       </c>
       <c r="F87" t="str">
-        <v>(363) 934-8723</v>
+        <v>0404 720 692</v>
       </c>
       <c r="G87" t="str">
-        <v>Oakland</v>
+        <v>Hobart</v>
       </c>
       <c r="H87" t="str">
         <v>A</v>
@@ -3418,260 +3423,263 @@
         <v>assigned</v>
       </c>
       <c r="J87" t="str">
-        <v>Julian Nguyen, Leah Diaz</v>
+        <v>Emilia Lopez</v>
+      </c>
+      <c r="M87" t="str">
+        <v>Arthritis - prefers aisle seating for easy exit</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>852226e3-fccb-4228-8627-5dc42cfe4387</v>
+        <v>40c53847-674f-43b5-8678-2decb3d42133</v>
       </c>
       <c r="B88" t="str">
-        <v>Aurora Rodriguez</v>
+        <v>Eliana Green</v>
       </c>
       <c r="C88">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D88" t="str">
         <v>Female</v>
       </c>
       <c r="E88" t="str">
-        <v>aurora.rodriguez20@yahoo.com</v>
+        <v>eliana.green54@gmail.com</v>
       </c>
       <c r="F88" t="str">
-        <v>0404 720 692</v>
+        <v>(894) 795-3178</v>
       </c>
       <c r="G88" t="str">
-        <v>Hobart</v>
+        <v>Los Angeles</v>
       </c>
       <c r="H88" t="str">
         <v>A</v>
       </c>
       <c r="I88" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J88" t="str">
-        <v>Emilia Lopez</v>
-      </c>
-      <c r="M88" t="str">
-        <v>Arthritis - prefers aisle seating for easy exit</v>
+        <v>Olivia Gonzalez</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>a3199cca-1aa6-4060-b6cd-0320712376ba</v>
+        <v>8d8070dd-3ee6-476f-aaf2-631e80f67ef7</v>
       </c>
       <c r="B89" t="str">
-        <v>Isla Wright</v>
+        <v>Lydia Allen</v>
       </c>
       <c r="C89">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D89" t="str">
         <v>Female</v>
       </c>
       <c r="E89" t="str">
-        <v>isla.wright1@yahoo.com</v>
+        <v>lydia.allen73@icloud.com</v>
       </c>
       <c r="F89" t="str">
-        <v>(231) 918-9825</v>
+        <v>(363) 934-8723</v>
       </c>
       <c r="G89" t="str">
-        <v>Pasadena</v>
+        <v>Oakland</v>
       </c>
       <c r="H89" t="str">
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="I89" t="str">
         <v>assigned</v>
       </c>
       <c r="J89" t="str">
-        <v>Naomi Moore, Cora Roberts</v>
+        <v>Julian Nguyen, Leah Diaz</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>36fd980a-62d1-491b-97d6-079c33195e3d</v>
+        <v>a3199cca-1aa6-4060-b6cd-0320712376ba</v>
       </c>
       <c r="B90" t="str">
-        <v>Elena Green</v>
+        <v>Isla Wright</v>
       </c>
       <c r="C90">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D90" t="str">
         <v>Female</v>
       </c>
       <c r="E90" t="str">
-        <v>elena.green83@gmail.com</v>
+        <v>isla.wright1@yahoo.com</v>
       </c>
       <c r="F90" t="str">
-        <v>(274) 515-8123</v>
+        <v>(231) 918-9825</v>
       </c>
       <c r="G90" t="str">
-        <v>San Diego</v>
+        <v>Pasadena</v>
       </c>
       <c r="H90" t="str">
-        <v>A</v>
+        <v>B+</v>
       </c>
       <c r="I90" t="str">
         <v>assigned</v>
       </c>
       <c r="J90" t="str">
-        <v>Allison Torres, Christian Rivera</v>
+        <v>Naomi Moore, Cora Roberts</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>97108062-7918-4f7f-a3f7-92bcbc478acd</v>
+        <v>36fd980a-62d1-491b-97d6-079c33195e3d</v>
       </c>
       <c r="B91" t="str">
-        <v>Olivia Nelson</v>
+        <v>Elena Green</v>
       </c>
       <c r="C91">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D91" t="str">
         <v>Female</v>
       </c>
       <c r="E91" t="str">
-        <v>olivia.nelson14@gmail.com</v>
+        <v>elena.green83@gmail.com</v>
       </c>
       <c r="F91" t="str">
-        <v>(582) 644-7834</v>
+        <v>(274) 515-8123</v>
       </c>
       <c r="G91" t="str">
-        <v>Bakersfield</v>
+        <v>San Diego</v>
       </c>
       <c r="H91" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="I91" t="str">
         <v>assigned</v>
       </c>
       <c r="J91" t="str">
-        <v>Joseph Stewart, Madelyn Martinez</v>
+        <v>Allison Torres, Christian Rivera</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>0dd7de5c-0409-45e3-84a5-5f2ffbd591d8</v>
+        <v>97108062-7918-4f7f-a3f7-92bcbc478acd</v>
       </c>
       <c r="B92" t="str">
-        <v>Harper Sanchez</v>
+        <v>Olivia Nelson</v>
       </c>
       <c r="C92">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="D92" t="str">
         <v>Female</v>
       </c>
       <c r="E92" t="str">
-        <v>harper.sanchez76@gmail.com</v>
+        <v>olivia.nelson14@gmail.com</v>
       </c>
       <c r="F92" t="str">
-        <v>0411 422 972</v>
+        <v>(582) 644-7834</v>
       </c>
       <c r="G92" t="str">
-        <v>Geelong</v>
+        <v>Bakersfield</v>
       </c>
       <c r="H92" t="str">
         <v>B</v>
       </c>
       <c r="I92" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J92" t="str">
-        <v>Leah Scott</v>
+        <v>Joseph Stewart, Madelyn Martinez</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>bf283832-25b8-4d7f-9e0f-ef2f10903233</v>
+        <v>0dd7de5c-0409-45e3-84a5-5f2ffbd591d8</v>
       </c>
       <c r="B93" t="str">
-        <v>Hunter Jackson</v>
+        <v>Harper Sanchez</v>
       </c>
       <c r="C93">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="D93" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E93" t="str">
-        <v>hunter.jackson50@outlook.com</v>
+        <v>harper.sanchez76@gmail.com</v>
       </c>
       <c r="F93" t="str">
-        <v>0404 841 788</v>
+        <v>0411 422 972</v>
       </c>
       <c r="G93" t="str">
-        <v>Townsville</v>
+        <v>Geelong</v>
       </c>
       <c r="H93" t="str">
         <v>B</v>
       </c>
       <c r="I93" t="str">
         <v>available</v>
+      </c>
+      <c r="J93" t="str">
+        <v>Leah Scott</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>7728eead-ab7c-467f-bb41-2abd7952591a</v>
+        <v>bf283832-25b8-4d7f-9e0f-ef2f10903233</v>
       </c>
       <c r="B94" t="str">
-        <v>Oliver Rivera</v>
+        <v>Hunter Jackson</v>
       </c>
       <c r="C94">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="D94" t="str">
         <v>Male</v>
       </c>
       <c r="E94" t="str">
-        <v>oliver.rivera58@outlook.com</v>
+        <v>hunter.jackson50@outlook.com</v>
       </c>
       <c r="F94" t="str">
-        <v>0412 991 121</v>
+        <v>0404 841 788</v>
       </c>
       <c r="G94" t="str">
-        <v>Canberra</v>
+        <v>Townsville</v>
       </c>
       <c r="H94" t="str">
         <v>B</v>
       </c>
       <c r="I94" t="str">
-        <v>available</v>
-      </c>
-      <c r="M94" t="str">
-        <v>Requires wheelchair access</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>f693d8fc-436b-426a-9bca-0b141221ab3f</v>
+        <v>7728eead-ab7c-467f-bb41-2abd7952591a</v>
       </c>
       <c r="B95" t="str">
-        <v>Evelyn Clark</v>
+        <v>Oliver Rivera</v>
       </c>
       <c r="C95">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D95" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E95" t="str">
-        <v>evelyn.clark47@outlook.com</v>
+        <v>oliver.rivera58@outlook.com</v>
       </c>
       <c r="F95" t="str">
-        <v>0410 941 656</v>
+        <v>0412 991 121</v>
       </c>
       <c r="G95" t="str">
-        <v>Hobart</v>
+        <v>Canberra</v>
       </c>
       <c r="H95" t="str">
         <v>B</v>
       </c>
       <c r="I95" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="M95" t="str">
+        <v>Requires wheelchair access</v>
       </c>
     </row>
     <row r="96">
@@ -3772,31 +3780,31 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>076ad666-a34b-4ae1-b91f-de785dbdf5ec</v>
+        <v>9f873871-29cc-45f0-894c-c54745230689</v>
       </c>
       <c r="B99" t="str">
-        <v>Nora Rogers</v>
+        <v>Sadie Wright</v>
       </c>
       <c r="C99">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="D99" t="str">
         <v>Female</v>
       </c>
       <c r="E99" t="str">
-        <v>nora.rogers98@yahoo.com</v>
+        <v>sadie.wright75@hotmail.com</v>
       </c>
       <c r="F99" t="str">
-        <v>(704) 607-6893</v>
+        <v>(617) 145-9784</v>
       </c>
       <c r="G99" t="str">
-        <v>Riverside</v>
+        <v>Anaheim</v>
       </c>
       <c r="H99" t="str">
         <v>B</v>
       </c>
       <c r="I99" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="100">
@@ -3865,28 +3873,28 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>700fc657-988b-4d49-9814-25b1df35cefc</v>
+        <v>af09efbe-e83d-4046-8dc8-e6a06dfc0c40</v>
       </c>
       <c r="B102" t="str">
-        <v>Victoria Thompson</v>
+        <v>Paisley Evans</v>
       </c>
       <c r="C102">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D102" t="str">
         <v>Female</v>
       </c>
       <c r="E102" t="str">
-        <v>victoria.thompson68@yahoo.com</v>
+        <v>paisley.evans52@yahoo.com</v>
       </c>
       <c r="F102" t="str">
-        <v>(793) 601-6884</v>
+        <v>(894) 250-9501</v>
       </c>
       <c r="G102" t="str">
-        <v>San Jose</v>
+        <v>Torrance</v>
       </c>
       <c r="H102" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I102" t="str">
         <v>available</v>
@@ -3894,28 +3902,28 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>af09efbe-e83d-4046-8dc8-e6a06dfc0c40</v>
+        <v>fec80989-ab0f-471a-a4de-6c207e334f80</v>
       </c>
       <c r="B103" t="str">
-        <v>Paisley Evans</v>
+        <v>Eliza Rivera</v>
       </c>
       <c r="C103">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D103" t="str">
         <v>Female</v>
       </c>
       <c r="E103" t="str">
-        <v>paisley.evans52@yahoo.com</v>
+        <v>eliza.rivera29@yahoo.com</v>
       </c>
       <c r="F103" t="str">
-        <v>(894) 250-9501</v>
+        <v>(836) 154-6362</v>
       </c>
       <c r="G103" t="str">
-        <v>Torrance</v>
+        <v>Newport Beach</v>
       </c>
       <c r="H103" t="str">
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="I103" t="str">
         <v>available</v>
@@ -3923,118 +3931,121 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>fec80989-ab0f-471a-a4de-6c207e334f80</v>
+        <v>f6a281bb-caec-44cf-a596-a6e92d6e2610</v>
       </c>
       <c r="B104" t="str">
-        <v>Eliza Rivera</v>
+        <v>Leah Scott</v>
       </c>
       <c r="C104">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D104" t="str">
         <v>Female</v>
       </c>
       <c r="E104" t="str">
-        <v>eliza.rivera29@yahoo.com</v>
+        <v>leah.scott74@gmail.com</v>
       </c>
       <c r="F104" t="str">
-        <v>(836) 154-6362</v>
+        <v>0402 414 358</v>
       </c>
       <c r="G104" t="str">
-        <v>Newport Beach</v>
+        <v>Perth</v>
       </c>
       <c r="H104" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="I104" t="str">
         <v>available</v>
+      </c>
+      <c r="J104" t="str">
+        <v>Harper Sanchez</v>
+      </c>
+      <c r="M104" t="str">
+        <v>Limited mobility - prefers ground floor seating</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>f6a281bb-caec-44cf-a596-a6e92d6e2610</v>
+        <v>04993d9a-3a65-4d61-a0c8-591aabb2e72c</v>
       </c>
       <c r="B105" t="str">
-        <v>Leah Scott</v>
+        <v>Eliza Martinez</v>
       </c>
       <c r="C105">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D105" t="str">
         <v>Female</v>
       </c>
       <c r="E105" t="str">
-        <v>leah.scott74@gmail.com</v>
+        <v>eliza.martinez8@hotmail.com</v>
       </c>
       <c r="F105" t="str">
-        <v>0402 414 358</v>
+        <v>(881) 895-2168</v>
       </c>
       <c r="G105" t="str">
-        <v>Perth</v>
+        <v>Torrance</v>
       </c>
       <c r="H105" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I105" t="str">
         <v>available</v>
-      </c>
-      <c r="J105" t="str">
-        <v>Harper Sanchez</v>
-      </c>
-      <c r="M105" t="str">
-        <v>Limited mobility - prefers ground floor seating</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>04993d9a-3a65-4d61-a0c8-591aabb2e72c</v>
+        <v>bf1fc0b1-7d88-41a5-ab6f-ee4c085fd344</v>
       </c>
       <c r="B106" t="str">
-        <v>Eliza Martinez</v>
+        <v>Brooklyn Nguyen</v>
       </c>
       <c r="C106">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="D106" t="str">
         <v>Female</v>
       </c>
       <c r="E106" t="str">
-        <v>eliza.martinez8@hotmail.com</v>
+        <v>brooklyn.nguyen77@yahoo.com</v>
       </c>
       <c r="F106" t="str">
-        <v>(881) 895-2168</v>
+        <v>(142) 872-1855</v>
       </c>
       <c r="G106" t="str">
-        <v>Torrance</v>
+        <v>Los Angeles</v>
       </c>
       <c r="H106" t="str">
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="I106" t="str">
         <v>available</v>
+      </c>
+      <c r="J106" t="str">
+        <v>Naomi Brown</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>bf1fc0b1-7d88-41a5-ab6f-ee4c085fd344</v>
+        <v>0fa47948-ca05-48a1-917a-bce2c13237ed</v>
       </c>
       <c r="B107" t="str">
-        <v>Brooklyn Nguyen</v>
+        <v>Isabella Taylor</v>
       </c>
       <c r="C107">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="D107" t="str">
         <v>Female</v>
       </c>
       <c r="E107" t="str">
-        <v>brooklyn.nguyen77@yahoo.com</v>
+        <v>isabella.taylor65@yahoo.com</v>
       </c>
       <c r="F107" t="str">
-        <v>(142) 872-1855</v>
+        <v>(997) 957-4171</v>
       </c>
       <c r="G107" t="str">
-        <v>Los Angeles</v>
+        <v>Chula Vista</v>
       </c>
       <c r="H107" t="str">
         <v>A</v>
@@ -4042,34 +4053,31 @@
       <c r="I107" t="str">
         <v>available</v>
       </c>
-      <c r="J107" t="str">
-        <v>Naomi Brown</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>0fa47948-ca05-48a1-917a-bce2c13237ed</v>
+        <v>24928131-51b3-46f8-b43f-2cf989696f62</v>
       </c>
       <c r="B108" t="str">
-        <v>Isabella Taylor</v>
+        <v>Amelia Garcia</v>
       </c>
       <c r="C108">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D108" t="str">
         <v>Female</v>
       </c>
       <c r="E108" t="str">
-        <v>isabella.taylor65@yahoo.com</v>
+        <v>amelia.garcia16@gmail.com</v>
       </c>
       <c r="F108" t="str">
-        <v>(997) 957-4171</v>
+        <v>(331) 367-3904</v>
       </c>
       <c r="G108" t="str">
-        <v>Chula Vista</v>
+        <v>Anaheim</v>
       </c>
       <c r="H108" t="str">
-        <v>A</v>
+        <v>B+</v>
       </c>
       <c r="I108" t="str">
         <v>available</v>
@@ -4077,54 +4085,57 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>24928131-51b3-46f8-b43f-2cf989696f62</v>
+        <v>50b098db-86f4-4a21-8425-ab03df8f7a40</v>
       </c>
       <c r="B109" t="str">
-        <v>Amelia Garcia</v>
+        <v>Lillian Campbell</v>
       </c>
       <c r="C109">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="D109" t="str">
         <v>Female</v>
       </c>
       <c r="E109" t="str">
-        <v>amelia.garcia16@gmail.com</v>
+        <v>lillian.campbell41@yahoo.com</v>
       </c>
       <c r="F109" t="str">
-        <v>(331) 367-3904</v>
+        <v>(945) 213-8284</v>
       </c>
       <c r="G109" t="str">
-        <v>Anaheim</v>
+        <v>Pasadena</v>
       </c>
       <c r="H109" t="str">
-        <v>B+</v>
+        <v>A+</v>
       </c>
       <c r="I109" t="str">
         <v>available</v>
+      </c>
+      <c r="J109" t="str">
+        <v>Amelia Lopez</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>50b098db-86f4-4a21-8425-ab03df8f7a40</v>
+        <v>e9a3f4c7-c9ed-4fd1-a5a9-d3763ae52a55</v>
       </c>
       <c r="B110" t="str">
-        <v>Lillian Campbell</v>
+        <v>Victoria Anderson</v>
       </c>
       <c r="C110">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="D110" t="str">
         <v>Female</v>
       </c>
       <c r="E110" t="str">
-        <v>lillian.campbell41@yahoo.com</v>
+        <v>victoria.anderson1@outlook.com</v>
       </c>
       <c r="F110" t="str">
-        <v>(945) 213-8284</v>
+        <v>(622) 987-4829</v>
       </c>
       <c r="G110" t="str">
-        <v>Pasadena</v>
+        <v>Sacramento</v>
       </c>
       <c r="H110" t="str">
         <v>A+</v>
@@ -4133,103 +4144,100 @@
         <v>available</v>
       </c>
       <c r="J110" t="str">
-        <v>Amelia Lopez</v>
+        <v>Sophia Reyes</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>e9a3f4c7-c9ed-4fd1-a5a9-d3763ae52a55</v>
+        <v>0d8894f6-9a60-421c-a7c0-144fe2f8c85f</v>
       </c>
       <c r="B111" t="str">
-        <v>Victoria Anderson</v>
+        <v>Lydia Morris</v>
       </c>
       <c r="C111">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D111" t="str">
         <v>Female</v>
       </c>
       <c r="E111" t="str">
-        <v>victoria.anderson1@outlook.com</v>
+        <v>lydia.morris1@gmail.com</v>
       </c>
       <c r="F111" t="str">
-        <v>(622) 987-4829</v>
+        <v>(565) 806-3217</v>
       </c>
       <c r="G111" t="str">
-        <v>Sacramento</v>
+        <v>Burbank</v>
       </c>
       <c r="H111" t="str">
-        <v>A+</v>
+        <v>A</v>
       </c>
       <c r="I111" t="str">
         <v>available</v>
       </c>
       <c r="J111" t="str">
-        <v>Sophia Reyes</v>
+        <v>Logan Gomez</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>0d8894f6-9a60-421c-a7c0-144fe2f8c85f</v>
+        <v>3dcd887e-9357-49a1-be20-96ba912e33bf</v>
       </c>
       <c r="B112" t="str">
-        <v>Lydia Morris</v>
+        <v>Cora Mitchell</v>
       </c>
       <c r="C112">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D112" t="str">
         <v>Female</v>
       </c>
       <c r="E112" t="str">
-        <v>lydia.morris1@gmail.com</v>
+        <v>cora.mitchell80@icloud.com</v>
       </c>
       <c r="F112" t="str">
-        <v>(565) 806-3217</v>
+        <v>(929) 139-3875</v>
       </c>
       <c r="G112" t="str">
-        <v>Burbank</v>
+        <v>Newport Beach</v>
       </c>
       <c r="H112" t="str">
-        <v>A</v>
+        <v>B+</v>
       </c>
       <c r="I112" t="str">
         <v>available</v>
       </c>
       <c r="J112" t="str">
-        <v>Logan Gomez</v>
+        <v>Christopher Carter</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>3dcd887e-9357-49a1-be20-96ba912e33bf</v>
+        <v>700fc657-988b-4d49-9814-25b1df35cefc</v>
       </c>
       <c r="B113" t="str">
-        <v>Cora Mitchell</v>
+        <v>Victoria Thompson</v>
       </c>
       <c r="C113">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D113" t="str">
         <v>Female</v>
       </c>
       <c r="E113" t="str">
-        <v>cora.mitchell80@icloud.com</v>
+        <v>victoria.thompson68@yahoo.com</v>
       </c>
       <c r="F113" t="str">
-        <v>(929) 139-3875</v>
+        <v>(793) 601-6884</v>
       </c>
       <c r="G113" t="str">
-        <v>Newport Beach</v>
+        <v>San Jose</v>
       </c>
       <c r="H113" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I113" t="str">
-        <v>available</v>
-      </c>
-      <c r="J113" t="str">
-        <v>Christopher Carter</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="114">
@@ -4266,31 +4274,31 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>4e28a208-5278-410d-b375-d9c77ba144d7</v>
+        <v>076ad666-a34b-4ae1-b91f-de785dbdf5ec</v>
       </c>
       <c r="B115" t="str">
-        <v>Riley Scott</v>
+        <v>Nora Rogers</v>
       </c>
       <c r="C115">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D115" t="str">
         <v>Female</v>
       </c>
       <c r="E115" t="str">
-        <v>riley.scott58@hotmail.com</v>
+        <v>nora.rogers98@yahoo.com</v>
       </c>
       <c r="F115" t="str">
-        <v>(848) 718-3465</v>
+        <v>(704) 607-6893</v>
       </c>
       <c r="G115" t="str">
-        <v>San Francisco</v>
+        <v>Riverside</v>
       </c>
       <c r="H115" t="str">
         <v>B</v>
       </c>
       <c r="I115" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="116">
@@ -4420,63 +4428,63 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>410dbe34-810b-4a5d-8731-985738541b4b</v>
+        <v>4e28a208-5278-410d-b375-d9c77ba144d7</v>
       </c>
       <c r="B120" t="str">
-        <v>Penelope Williams</v>
+        <v>Riley Scott</v>
       </c>
       <c r="C120">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D120" t="str">
         <v>Female</v>
       </c>
       <c r="E120" t="str">
-        <v>penelope.williams29@hotmail.com</v>
+        <v>riley.scott58@hotmail.com</v>
       </c>
       <c r="F120" t="str">
-        <v>(735) 691-4267</v>
+        <v>(848) 718-3465</v>
       </c>
       <c r="G120" t="str">
-        <v>Sacramento</v>
+        <v>San Francisco</v>
       </c>
       <c r="H120" t="str">
         <v>B</v>
       </c>
       <c r="I120" t="str">
-        <v>available</v>
-      </c>
-      <c r="J120" t="str">
-        <v>Savannah Rivera</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>9f873871-29cc-45f0-894c-c54745230689</v>
+        <v>410dbe34-810b-4a5d-8731-985738541b4b</v>
       </c>
       <c r="B121" t="str">
-        <v>Sadie Wright</v>
+        <v>Penelope Williams</v>
       </c>
       <c r="C121">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D121" t="str">
         <v>Female</v>
       </c>
       <c r="E121" t="str">
-        <v>sadie.wright75@hotmail.com</v>
+        <v>penelope.williams29@hotmail.com</v>
       </c>
       <c r="F121" t="str">
-        <v>(617) 145-9784</v>
+        <v>(735) 691-4267</v>
       </c>
       <c r="G121" t="str">
-        <v>Anaheim</v>
+        <v>Sacramento</v>
       </c>
       <c r="H121" t="str">
         <v>B</v>
       </c>
       <c r="I121" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="J121" t="str">
+        <v>Savannah Rivera</v>
       </c>
     </row>
     <row r="122">
@@ -4632,98 +4640,101 @@
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
+        <v>5e93a4d1-9d7c-4b53-9898-a1ae2a0319c1</v>
       </c>
       <c r="B127" t="str">
-        <v>Kathleen Reynolds</v>
+        <v>Amelia Nguyen</v>
       </c>
       <c r="C127">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D127" t="str">
-        <v>Not Specified</v>
+        <v>Female</v>
       </c>
       <c r="E127" t="str">
-        <v>kathleenmonicareynolds@gmail.com</v>
+        <v>amelia.nguyen43@outlook.com</v>
       </c>
       <c r="F127" t="str">
-        <v>498086080</v>
+        <v>(164) 220-7002</v>
       </c>
       <c r="G127" t="str">
-        <v>Footscray</v>
+        <v>Sacramento</v>
       </c>
       <c r="H127" t="str">
-        <v/>
+        <v>B+</v>
       </c>
       <c r="I127" t="str">
         <v>assigned</v>
       </c>
       <c r="J127" t="str">
-        <v>Peter Adamidis, Felicity Parker-Hill</v>
-      </c>
-      <c r="K127" t="str">
-        <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
-      </c>
-      <c r="L127" t="str">
-        <v>N</v>
-      </c>
-      <c r="M127" t="str">
-        <v>N/A</v>
+        <v>Paisley Brown</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>df6c0d97-fd38-4b65-8765-b11a4939bd3b</v>
+        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
       </c>
       <c r="B128" t="str">
-        <v>Julian Rivera</v>
+        <v>Kathleen Reynolds</v>
       </c>
       <c r="C128">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D128" t="str">
-        <v>Male</v>
+        <v>Not Specified</v>
       </c>
       <c r="E128" t="str">
-        <v>julian.rivera31@outlook.com</v>
+        <v>kathleenmonicareynolds@gmail.com</v>
       </c>
       <c r="F128" t="str">
-        <v>0401 414 502</v>
+        <v>498086080</v>
       </c>
       <c r="G128" t="str">
-        <v>Perth</v>
+        <v>Footscray</v>
       </c>
       <c r="H128" t="str">
-        <v>B+</v>
+        <v/>
       </c>
       <c r="I128" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="J128" t="str">
+        <v>Peter Adamidis, Felicity Parker-Hill</v>
+      </c>
+      <c r="K128" t="str">
+        <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
+      </c>
+      <c r="L128" t="str">
+        <v>N</v>
+      </c>
+      <c r="M128" t="str">
+        <v>N/A</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>2811bf99-369b-4c0a-b5d6-4ff46cd7aa5e</v>
+        <v>df6c0d97-fd38-4b65-8765-b11a4939bd3b</v>
       </c>
       <c r="B129" t="str">
-        <v>Lucas Thomas</v>
+        <v>Julian Rivera</v>
       </c>
       <c r="C129">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D129" t="str">
         <v>Male</v>
       </c>
       <c r="E129" t="str">
-        <v>lucas.thomas30@yahoo.com</v>
+        <v>julian.rivera31@outlook.com</v>
       </c>
       <c r="F129" t="str">
-        <v>0412 527 117</v>
+        <v>0401 414 502</v>
       </c>
       <c r="G129" t="str">
-        <v>Brisbane</v>
+        <v>Perth</v>
       </c>
       <c r="H129" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I129" t="str">
         <v>available</v>
@@ -4731,28 +4742,28 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>8774a9f4-b951-41cc-b6bd-809a709cb6ea</v>
+        <v>2811bf99-369b-4c0a-b5d6-4ff46cd7aa5e</v>
       </c>
       <c r="B130" t="str">
-        <v>Lily Walker</v>
+        <v>Lucas Thomas</v>
       </c>
       <c r="C130">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="D130" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E130" t="str">
-        <v>lily.walker96@outlook.com</v>
+        <v>lucas.thomas30@yahoo.com</v>
       </c>
       <c r="F130" t="str">
-        <v>0410 155 426</v>
+        <v>0412 527 117</v>
       </c>
       <c r="G130" t="str">
-        <v>Hobart</v>
+        <v>Brisbane</v>
       </c>
       <c r="H130" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I130" t="str">
         <v>available</v>
@@ -4760,22 +4771,22 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>e166fd4f-73eb-4bea-b8be-3acdee4f9fdc</v>
+        <v>8774a9f4-b951-41cc-b6bd-809a709cb6ea</v>
       </c>
       <c r="B131" t="str">
-        <v>Liam Lewis</v>
+        <v>Lily Walker</v>
       </c>
       <c r="C131">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="D131" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E131" t="str">
-        <v>liam.lewis79@yahoo.com</v>
+        <v>lily.walker96@outlook.com</v>
       </c>
       <c r="F131" t="str">
-        <v>0404 203 198</v>
+        <v>0410 155 426</v>
       </c>
       <c r="G131" t="str">
         <v>Hobart</v>
@@ -4789,66 +4800,63 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>e15c67b6-0680-4284-a8aa-a525b34c592d</v>
+        <v>e166fd4f-73eb-4bea-b8be-3acdee4f9fdc</v>
       </c>
       <c r="B132" t="str">
-        <v>Aurora Williams</v>
+        <v>Liam Lewis</v>
       </c>
       <c r="C132">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D132" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E132" t="str">
-        <v>aurora.williams76@outlook.com</v>
+        <v>liam.lewis79@yahoo.com</v>
       </c>
       <c r="F132" t="str">
-        <v>0401 416 170</v>
+        <v>0404 203 198</v>
       </c>
       <c r="G132" t="str">
-        <v>Darwin</v>
+        <v>Hobart</v>
       </c>
       <c r="H132" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I132" t="str">
         <v>available</v>
-      </c>
-      <c r="M132" t="str">
-        <v>Uses walking cane</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>a614b69c-4f6c-49fa-a490-24d7e4a60da9</v>
+        <v>e15c67b6-0680-4284-a8aa-a525b34c592d</v>
       </c>
       <c r="B133" t="str">
-        <v>Nora Lee</v>
+        <v>Aurora Williams</v>
       </c>
       <c r="C133">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="D133" t="str">
         <v>Female</v>
       </c>
       <c r="E133" t="str">
-        <v>nora.lee56@hotmail.com</v>
+        <v>aurora.williams76@outlook.com</v>
       </c>
       <c r="F133" t="str">
-        <v>(171) 825-3697</v>
+        <v>0401 416 170</v>
       </c>
       <c r="G133" t="str">
-        <v>Pasadena</v>
+        <v>Darwin</v>
       </c>
       <c r="H133" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="I133" t="str">
         <v>available</v>
       </c>
-      <c r="J133" t="str">
-        <v>Ella Gutierrez</v>
+      <c r="M133" t="str">
+        <v>Uses walking cane</v>
       </c>
     </row>
     <row r="134">
@@ -5004,51 +5012,54 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>6ddd3228-f125-4d3e-88e2-157cd730b552</v>
+        <v>a614b69c-4f6c-49fa-a490-24d7e4a60da9</v>
       </c>
       <c r="B139" t="str">
-        <v>Theodore Nelson</v>
+        <v>Nora Lee</v>
       </c>
       <c r="C139">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="D139" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E139" t="str">
-        <v>theodore.nelson79@gmail.com</v>
+        <v>nora.lee56@hotmail.com</v>
       </c>
       <c r="F139" t="str">
-        <v>0403 813 793</v>
+        <v>(171) 825-3697</v>
       </c>
       <c r="G139" t="str">
-        <v>Canberra</v>
+        <v>Pasadena</v>
       </c>
       <c r="H139" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="I139" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="J139" t="str">
+        <v>Ella Gutierrez</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>40727c14-a30e-4e3b-8b64-0359d25efc0c</v>
+        <v>6ddd3228-f125-4d3e-88e2-157cd730b552</v>
       </c>
       <c r="B140" t="str">
-        <v>Joshua Scott</v>
+        <v>Theodore Nelson</v>
       </c>
       <c r="C140">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D140" t="str">
         <v>Male</v>
       </c>
       <c r="E140" t="str">
-        <v>joshua.scott95@outlook.com</v>
+        <v>theodore.nelson79@gmail.com</v>
       </c>
       <c r="F140" t="str">
-        <v>0410 137 561</v>
+        <v>0403 813 793</v>
       </c>
       <c r="G140" t="str">
         <v>Canberra</v>
@@ -5062,25 +5073,25 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>ad836319-db56-4a08-bca6-a8e3f19c37a8</v>
+        <v>40727c14-a30e-4e3b-8b64-0359d25efc0c</v>
       </c>
       <c r="B141" t="str">
-        <v>Emily Johnson</v>
+        <v>Joshua Scott</v>
       </c>
       <c r="C141">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D141" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E141" t="str">
-        <v>emily.johnson58@hotmail.com</v>
+        <v>joshua.scott95@outlook.com</v>
       </c>
       <c r="F141" t="str">
-        <v>0412 663 939</v>
+        <v>0410 137 561</v>
       </c>
       <c r="G141" t="str">
-        <v>Perth</v>
+        <v>Canberra</v>
       </c>
       <c r="H141" t="str">
         <v>B</v>
@@ -5091,25 +5102,25 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>adb0c362-d095-4bfd-98dc-c93920fd22d6</v>
+        <v>ad836319-db56-4a08-bca6-a8e3f19c37a8</v>
       </c>
       <c r="B142" t="str">
-        <v>Victoria Torres</v>
+        <v>Emily Johnson</v>
       </c>
       <c r="C142">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D142" t="str">
         <v>Female</v>
       </c>
       <c r="E142" t="str">
-        <v>victoria.torres48@outlook.com</v>
+        <v>emily.johnson58@hotmail.com</v>
       </c>
       <c r="F142" t="str">
-        <v>0411 539 271</v>
+        <v>0412 663 939</v>
       </c>
       <c r="G142" t="str">
-        <v>Geelong</v>
+        <v>Perth</v>
       </c>
       <c r="H142" t="str">
         <v>B</v>
@@ -5120,57 +5131,54 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>c1783cdf-a656-46b4-9331-4d9d18d40b51</v>
+        <v>adb0c362-d095-4bfd-98dc-c93920fd22d6</v>
       </c>
       <c r="B143" t="str">
-        <v>Aurora Walker</v>
+        <v>Victoria Torres</v>
       </c>
       <c r="C143">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D143" t="str">
         <v>Female</v>
       </c>
       <c r="E143" t="str">
-        <v>aurora.walker1@outlook.com</v>
+        <v>victoria.torres48@outlook.com</v>
       </c>
       <c r="F143" t="str">
-        <v>0403 522 404</v>
+        <v>0411 539 271</v>
       </c>
       <c r="G143" t="str">
-        <v>Darwin</v>
+        <v>Geelong</v>
       </c>
       <c r="H143" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I143" t="str">
         <v>available</v>
-      </c>
-      <c r="M143" t="str">
-        <v>Vision impaired - needs assistance</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>bf5a6984-f656-4e23-9646-85829e9daffe</v>
+        <v>c1783cdf-a656-46b4-9331-4d9d18d40b51</v>
       </c>
       <c r="B144" t="str">
-        <v>Scarlett Lopez</v>
+        <v>Aurora Walker</v>
       </c>
       <c r="C144">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D144" t="str">
         <v>Female</v>
       </c>
       <c r="E144" t="str">
-        <v>scarlett.lopez53@yahoo.com</v>
+        <v>aurora.walker1@outlook.com</v>
       </c>
       <c r="F144" t="str">
-        <v>0400 509 641</v>
+        <v>0403 522 404</v>
       </c>
       <c r="G144" t="str">
-        <v>Sydney</v>
+        <v>Darwin</v>
       </c>
       <c r="H144" t="str">
         <v>B+</v>
@@ -5178,37 +5186,37 @@
       <c r="I144" t="str">
         <v>available</v>
       </c>
+      <c r="M144" t="str">
+        <v>Vision impaired - needs assistance</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>5e93a4d1-9d7c-4b53-9898-a1ae2a0319c1</v>
+        <v>bf5a6984-f656-4e23-9646-85829e9daffe</v>
       </c>
       <c r="B145" t="str">
-        <v>Amelia Nguyen</v>
+        <v>Scarlett Lopez</v>
       </c>
       <c r="C145">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="D145" t="str">
         <v>Female</v>
       </c>
       <c r="E145" t="str">
-        <v>amelia.nguyen43@outlook.com</v>
+        <v>scarlett.lopez53@yahoo.com</v>
       </c>
       <c r="F145" t="str">
-        <v>(164) 220-7002</v>
+        <v>0400 509 641</v>
       </c>
       <c r="G145" t="str">
-        <v>Sacramento</v>
+        <v>Sydney</v>
       </c>
       <c r="H145" t="str">
         <v>B+</v>
       </c>
       <c r="I145" t="str">
         <v>available</v>
-      </c>
-      <c r="J145" t="str">
-        <v>Paisley Brown</v>
       </c>
     </row>
     <row r="146">
@@ -5753,22 +5761,22 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>c284df19-568f-44d7-9ddf-b63e5af17f4a</v>
+        <v>224212bc-76fd-40f4-903d-8a0a1d6163e3</v>
       </c>
       <c r="B164" t="str">
-        <v>Hannah Moore</v>
+        <v>Grayson Edwards</v>
       </c>
       <c r="C164">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D164" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E164" t="str">
-        <v>hannah.moore60@outlook.com</v>
+        <v>grayson.edwards22@gmail.com</v>
       </c>
       <c r="F164" t="str">
-        <v>(173) 685-3587</v>
+        <v>(215) 129-3913</v>
       </c>
       <c r="G164" t="str">
         <v>Torrance</v>
@@ -5780,222 +5788,222 @@
         <v>available</v>
       </c>
       <c r="J164" t="str">
-        <v>Alexander Campbell, Logan Nguyen</v>
+        <v>Elizabeth Nelson, Joseph Anderson</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>224212bc-76fd-40f4-903d-8a0a1d6163e3</v>
+        <v>bede75d6-a4ec-4fe3-907f-35108a2b4b10</v>
       </c>
       <c r="B165" t="str">
-        <v>Grayson Edwards</v>
+        <v>Cameron Evans</v>
       </c>
       <c r="C165">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D165" t="str">
         <v>Male</v>
       </c>
       <c r="E165" t="str">
-        <v>grayson.edwards22@gmail.com</v>
+        <v>cameron.evans55@outlook.com</v>
       </c>
       <c r="F165" t="str">
-        <v>(215) 129-3913</v>
+        <v>(535) 743-7467</v>
       </c>
       <c r="G165" t="str">
-        <v>Torrance</v>
+        <v>Fremont</v>
       </c>
       <c r="H165" t="str">
         <v>B</v>
       </c>
       <c r="I165" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J165" t="str">
-        <v>Elizabeth Nelson, Joseph Anderson</v>
+        <v>Michael Johnson, Anthony Garcia</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>bede75d6-a4ec-4fe3-907f-35108a2b4b10</v>
+        <v>ea1b059a-dde4-49c1-92b8-b9fd09c84bb7</v>
       </c>
       <c r="B166" t="str">
-        <v>Cameron Evans</v>
+        <v>Sadie Cook</v>
       </c>
       <c r="C166">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D166" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E166" t="str">
-        <v>cameron.evans55@outlook.com</v>
+        <v>sadie.cook9@yahoo.com</v>
       </c>
       <c r="F166" t="str">
-        <v>(535) 743-7467</v>
+        <v>(382) 126-7672</v>
       </c>
       <c r="G166" t="str">
-        <v>Fremont</v>
+        <v>Santa Monica</v>
       </c>
       <c r="H166" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I166" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
       <c r="J166" t="str">
-        <v>Michael Johnson, Anthony Garcia</v>
+        <v>William Allen, Alexa Hall</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>ea1b059a-dde4-49c1-92b8-b9fd09c84bb7</v>
+        <v>b22d1d02-9344-4922-9be8-d8d05a79b0b0</v>
       </c>
       <c r="B167" t="str">
-        <v>Sadie Cook</v>
+        <v>Julian Nguyen</v>
       </c>
       <c r="C167">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D167" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E167" t="str">
-        <v>sadie.cook9@yahoo.com</v>
+        <v>julian.nguyen22@outlook.com</v>
       </c>
       <c r="F167" t="str">
-        <v>(382) 126-7672</v>
+        <v>(382) 722-8118</v>
       </c>
       <c r="G167" t="str">
-        <v>Santa Monica</v>
+        <v>Long Beach</v>
       </c>
       <c r="H167" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I167" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J167" t="str">
-        <v>William Allen, Alexa Hall</v>
+        <v>Leah Diaz, Lydia Allen</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>b22d1d02-9344-4922-9be8-d8d05a79b0b0</v>
+        <v>4501044d-6fd4-4a45-83a0-416599928b1f</v>
       </c>
       <c r="B168" t="str">
-        <v>Julian Nguyen</v>
+        <v>Audrey Hill</v>
       </c>
       <c r="C168">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="D168" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E168" t="str">
-        <v>julian.nguyen22@outlook.com</v>
+        <v>audrey.hill20@outlook.com</v>
       </c>
       <c r="F168" t="str">
-        <v>(382) 722-8118</v>
+        <v>(688) 524-4712</v>
       </c>
       <c r="G168" t="str">
-        <v>Long Beach</v>
+        <v>San Jose</v>
       </c>
       <c r="H168" t="str">
         <v>B</v>
       </c>
       <c r="I168" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
       <c r="J168" t="str">
-        <v>Leah Diaz, Lydia Allen</v>
+        <v>Avery Taylor</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>4501044d-6fd4-4a45-83a0-416599928b1f</v>
+        <v>a1895f97-a947-4cf3-9bc3-6aa43cdc1339</v>
       </c>
       <c r="B169" t="str">
-        <v>Audrey Hill</v>
+        <v>Gabriella Smith</v>
       </c>
       <c r="C169">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D169" t="str">
         <v>Female</v>
       </c>
       <c r="E169" t="str">
-        <v>audrey.hill20@outlook.com</v>
+        <v>gabriella.smith91@hotmail.com</v>
       </c>
       <c r="F169" t="str">
-        <v>(688) 524-4712</v>
+        <v>(550) 121-2897</v>
       </c>
       <c r="G169" t="str">
-        <v>San Jose</v>
+        <v>Sacramento</v>
       </c>
       <c r="H169" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="I169" t="str">
         <v>available</v>
       </c>
       <c r="J169" t="str">
-        <v>Avery Taylor</v>
+        <v>Julian Rivera</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>a1895f97-a947-4cf3-9bc3-6aa43cdc1339</v>
+        <v>921da7b6-596c-4a0e-a647-022bbd8cef26</v>
       </c>
       <c r="B170" t="str">
-        <v>Gabriella Smith</v>
+        <v>John Diaz</v>
       </c>
       <c r="C170">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D170" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E170" t="str">
-        <v>gabriella.smith91@hotmail.com</v>
+        <v>john.diaz17@icloud.com</v>
       </c>
       <c r="F170" t="str">
-        <v>(550) 121-2897</v>
+        <v>(251) 432-3565</v>
       </c>
       <c r="G170" t="str">
-        <v>Sacramento</v>
+        <v>Pomona</v>
       </c>
       <c r="H170" t="str">
-        <v>A</v>
+        <v>B+</v>
       </c>
       <c r="I170" t="str">
         <v>available</v>
       </c>
       <c r="J170" t="str">
-        <v>Julian Rivera</v>
+        <v>Cameron Anderson</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>921da7b6-596c-4a0e-a647-022bbd8cef26</v>
+        <v>4fba0674-c979-4177-b29d-9a882e08ad0d</v>
       </c>
       <c r="B171" t="str">
-        <v>John Diaz</v>
+        <v>Autumn Lewis</v>
       </c>
       <c r="C171">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="D171" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E171" t="str">
-        <v>john.diaz17@icloud.com</v>
+        <v>autumn.lewis97@outlook.com</v>
       </c>
       <c r="F171" t="str">
-        <v>(251) 432-3565</v>
+        <v>(841) 837-8640</v>
       </c>
       <c r="G171" t="str">
-        <v>Pomona</v>
+        <v>San Francisco</v>
       </c>
       <c r="H171" t="str">
         <v>B+</v>
@@ -6004,30 +6012,30 @@
         <v>available</v>
       </c>
       <c r="J171" t="str">
-        <v>Cameron Anderson</v>
+        <v>Noah Martinez</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>4fba0674-c979-4177-b29d-9a882e08ad0d</v>
+        <v>2450bd3d-4940-477d-8a08-abc3363fdc3a</v>
       </c>
       <c r="B172" t="str">
-        <v>Autumn Lewis</v>
+        <v>Ella Lopez</v>
       </c>
       <c r="C172">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D172" t="str">
         <v>Female</v>
       </c>
       <c r="E172" t="str">
-        <v>autumn.lewis97@outlook.com</v>
+        <v>ella.lopez65@outlook.com</v>
       </c>
       <c r="F172" t="str">
-        <v>(841) 837-8640</v>
+        <v>(192) 887-5779</v>
       </c>
       <c r="G172" t="str">
-        <v>San Francisco</v>
+        <v>Riverside</v>
       </c>
       <c r="H172" t="str">
         <v>B+</v>
@@ -6036,187 +6044,187 @@
         <v>available</v>
       </c>
       <c r="J172" t="str">
-        <v>Noah Martinez</v>
+        <v>Adam Edwards</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>2450bd3d-4940-477d-8a08-abc3363fdc3a</v>
+        <v>9e0ff879-df04-4a3f-b572-8633acb77cee</v>
       </c>
       <c r="B173" t="str">
-        <v>Ella Lopez</v>
+        <v>Jackson Jackson</v>
       </c>
       <c r="C173">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D173" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E173" t="str">
-        <v>ella.lopez65@outlook.com</v>
+        <v>jackson.jackson86@icloud.com</v>
       </c>
       <c r="F173" t="str">
-        <v>(192) 887-5779</v>
+        <v>(858) 306-7989</v>
       </c>
       <c r="G173" t="str">
-        <v>Riverside</v>
+        <v>Oakland</v>
       </c>
       <c r="H173" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I173" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J173" t="str">
-        <v>Adam Edwards</v>
+        <v>Serenity Campbell, Isaiah Green</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>9e0ff879-df04-4a3f-b572-8633acb77cee</v>
+        <v>97620f89-d506-4934-89b6-c60208f0bb45</v>
       </c>
       <c r="B174" t="str">
-        <v>Jackson Jackson</v>
+        <v>Charlotte Hernandez</v>
       </c>
       <c r="C174">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D174" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E174" t="str">
-        <v>jackson.jackson86@icloud.com</v>
+        <v>charlotte.hernandez88@gmail.com</v>
       </c>
       <c r="F174" t="str">
-        <v>(858) 306-7989</v>
+        <v>(131) 448-5858</v>
       </c>
       <c r="G174" t="str">
-        <v>Oakland</v>
+        <v>San Jose</v>
       </c>
       <c r="H174" t="str">
         <v>B</v>
       </c>
       <c r="I174" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
       <c r="J174" t="str">
-        <v>Serenity Campbell, Isaiah Green</v>
+        <v>Ellie Allen, Emma Torres</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>97620f89-d506-4934-89b6-c60208f0bb45</v>
+        <v>cacb8de7-16c5-4332-9d25-a6794d8a23b3</v>
       </c>
       <c r="B175" t="str">
-        <v>Charlotte Hernandez</v>
+        <v>Anthony Garcia</v>
       </c>
       <c r="C175">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="D175" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E175" t="str">
-        <v>charlotte.hernandez88@gmail.com</v>
+        <v>anthony.garcia31@yahoo.com</v>
       </c>
       <c r="F175" t="str">
-        <v>(131) 448-5858</v>
+        <v>(249) 774-7265</v>
       </c>
       <c r="G175" t="str">
-        <v>San Jose</v>
+        <v>Santa Monica</v>
       </c>
       <c r="H175" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="I175" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J175" t="str">
-        <v>Ellie Allen, Emma Torres</v>
+        <v>Michael Johnson, Cameron Evans</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>cacb8de7-16c5-4332-9d25-a6794d8a23b3</v>
+        <v>c03a116f-7b88-4c23-a9cc-04d14d2df186</v>
       </c>
       <c r="B176" t="str">
-        <v>Anthony Garcia</v>
+        <v>Sofia Martin</v>
       </c>
       <c r="C176">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D176" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E176" t="str">
-        <v>anthony.garcia31@yahoo.com</v>
+        <v>sofia.martin17@yahoo.com</v>
       </c>
       <c r="F176" t="str">
-        <v>(249) 774-7265</v>
+        <v>(319) 272-7772</v>
       </c>
       <c r="G176" t="str">
-        <v>Santa Monica</v>
+        <v>Fresno</v>
       </c>
       <c r="H176" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="I176" t="str">
-        <v>assigned</v>
-      </c>
-      <c r="J176" t="str">
-        <v>Michael Johnson, Cameron Evans</v>
+        <v>available</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>c03a116f-7b88-4c23-a9cc-04d14d2df186</v>
+        <v>9d8995c7-d5a1-4644-848d-dca4e81371af</v>
       </c>
       <c r="B177" t="str">
-        <v>Sofia Martin</v>
+        <v>Michael Campbell</v>
       </c>
       <c r="C177">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D177" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E177" t="str">
-        <v>sofia.martin17@yahoo.com</v>
+        <v>michael.campbell9@outlook.com</v>
       </c>
       <c r="F177" t="str">
-        <v>(319) 272-7772</v>
+        <v>(176) 164-6950</v>
       </c>
       <c r="G177" t="str">
-        <v>Fresno</v>
+        <v>Glendale</v>
       </c>
       <c r="H177" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I177" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="J177" t="str">
+        <v>Sadie Williams, Eleanor Hall</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>9d8995c7-d5a1-4644-848d-dca4e81371af</v>
+        <v>3f9d95b9-bedc-4620-9aa3-9bc8669de2af</v>
       </c>
       <c r="B178" t="str">
-        <v>Michael Campbell</v>
+        <v>Christopher Allen</v>
       </c>
       <c r="C178">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D178" t="str">
         <v>Male</v>
       </c>
       <c r="E178" t="str">
-        <v>michael.campbell9@outlook.com</v>
+        <v>christopher.allen60@yahoo.com</v>
       </c>
       <c r="F178" t="str">
-        <v>(176) 164-6950</v>
+        <v>(529) 787-8147</v>
       </c>
       <c r="G178" t="str">
-        <v>Glendale</v>
+        <v>Torrance</v>
       </c>
       <c r="H178" t="str">
         <v>B+</v>
@@ -6225,132 +6233,132 @@
         <v>assigned</v>
       </c>
       <c r="J178" t="str">
-        <v>Sadie Williams, Eleanor Hall</v>
+        <v>Eleanor Allen</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>3f9d95b9-bedc-4620-9aa3-9bc8669de2af</v>
+        <v>10ec31e6-c6da-4957-9768-c5fcefe79c6b</v>
       </c>
       <c r="B179" t="str">
-        <v>Christopher Allen</v>
+        <v>Emma Turner</v>
       </c>
       <c r="C179">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D179" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E179" t="str">
-        <v>christopher.allen60@yahoo.com</v>
+        <v>emma.turner16@outlook.com</v>
       </c>
       <c r="F179" t="str">
-        <v>(529) 787-8147</v>
+        <v>(656) 213-9003</v>
       </c>
       <c r="G179" t="str">
-        <v>Torrance</v>
+        <v>Pomona</v>
       </c>
       <c r="H179" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I179" t="str">
         <v>available</v>
-      </c>
-      <c r="J179" t="str">
-        <v>Eleanor Allen</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>10ec31e6-c6da-4957-9768-c5fcefe79c6b</v>
+        <v>1e334800-6e70-4273-b1ff-ee3ce5738b57</v>
       </c>
       <c r="B180" t="str">
-        <v>Emma Turner</v>
+        <v>Adam Edwards</v>
       </c>
       <c r="C180">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D180" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E180" t="str">
-        <v>emma.turner16@outlook.com</v>
+        <v>adam.edwards41@hotmail.com</v>
       </c>
       <c r="F180" t="str">
-        <v>(656) 213-9003</v>
+        <v>(439) 906-3390</v>
       </c>
       <c r="G180" t="str">
-        <v>Pomona</v>
+        <v>Burbank</v>
       </c>
       <c r="H180" t="str">
         <v>B</v>
       </c>
       <c r="I180" t="str">
         <v>available</v>
+      </c>
+      <c r="J180" t="str">
+        <v>Ella Lopez</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>1e334800-6e70-4273-b1ff-ee3ce5738b57</v>
+        <v>49fbe592-0995-4321-b8af-fbe859ca414c</v>
       </c>
       <c r="B181" t="str">
-        <v>Adam Edwards</v>
+        <v>Grayson Morgan</v>
       </c>
       <c r="C181">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D181" t="str">
         <v>Male</v>
       </c>
       <c r="E181" t="str">
-        <v>adam.edwards41@hotmail.com</v>
+        <v>grayson.morgan95@outlook.com</v>
       </c>
       <c r="F181" t="str">
-        <v>(439) 906-3390</v>
+        <v>(524) 127-2584</v>
       </c>
       <c r="G181" t="str">
-        <v>Burbank</v>
+        <v>Irvine</v>
       </c>
       <c r="H181" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I181" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J181" t="str">
-        <v>Ella Lopez</v>
+        <v>Adam Hall, Valentina Morales</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>49fbe592-0995-4321-b8af-fbe859ca414c</v>
+        <v>c284df19-568f-44d7-9ddf-b63e5af17f4a</v>
       </c>
       <c r="B182" t="str">
-        <v>Grayson Morgan</v>
+        <v>Hannah Moore</v>
       </c>
       <c r="C182">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D182" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E182" t="str">
-        <v>grayson.morgan95@outlook.com</v>
+        <v>hannah.moore60@outlook.com</v>
       </c>
       <c r="F182" t="str">
-        <v>(524) 127-2584</v>
+        <v>(173) 685-3587</v>
       </c>
       <c r="G182" t="str">
-        <v>Irvine</v>
+        <v>Torrance</v>
       </c>
       <c r="H182" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I182" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
       <c r="J182" t="str">
-        <v>Adam Hall, Valentina Morales</v>
+        <v>Alexander Campbell, Logan Nguyen</v>
       </c>
     </row>
     <row r="183">
@@ -6721,89 +6729,89 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>6116506f-31f1-444e-bd83-2991a5335470</v>
+        <v>5cb68000-430e-4dc3-9afa-c9c5cca864c0</v>
       </c>
       <c r="B195" t="str">
-        <v>Sebastian Edwards</v>
+        <v>Logan Nguyen</v>
       </c>
       <c r="C195">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D195" t="str">
         <v>Male</v>
       </c>
       <c r="E195" t="str">
-        <v>sebastian.edwards97@icloud.com</v>
+        <v>logan.nguyen23@hotmail.com</v>
       </c>
       <c r="F195" t="str">
-        <v>(348) 408-1134</v>
+        <v>(278) 620-7089</v>
       </c>
       <c r="G195" t="str">
-        <v>Los Angeles</v>
+        <v>Torrance</v>
       </c>
       <c r="H195" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I195" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
       <c r="J195" t="str">
-        <v>Colton Harris, Sofia Williams</v>
+        <v>Alexander Campbell, Hannah Moore</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>35c73937-3dd5-4fb3-a5df-d900cabdacba</v>
+        <v>6116506f-31f1-444e-bd83-2991a5335470</v>
       </c>
       <c r="B196" t="str">
-        <v>Jackson Murphy</v>
+        <v>Sebastian Edwards</v>
       </c>
       <c r="C196">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D196" t="str">
         <v>Male</v>
       </c>
       <c r="E196" t="str">
-        <v>jackson.murphy91@yahoo.com</v>
+        <v>sebastian.edwards97@icloud.com</v>
       </c>
       <c r="F196" t="str">
-        <v>(572) 305-7237</v>
+        <v>(348) 408-1134</v>
       </c>
       <c r="G196" t="str">
-        <v>Riverside</v>
+        <v>Los Angeles</v>
       </c>
       <c r="H196" t="str">
         <v>B</v>
       </c>
       <c r="I196" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J196" t="str">
-        <v>Caleb Brown</v>
+        <v>Colton Harris, Sofia Williams</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>d035c0a6-d30e-4ca3-b8c2-9becb2842da7</v>
+        <v>35c73937-3dd5-4fb3-a5df-d900cabdacba</v>
       </c>
       <c r="B197" t="str">
-        <v>Thomas Rivera</v>
+        <v>Jackson Murphy</v>
       </c>
       <c r="C197">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="D197" t="str">
         <v>Male</v>
       </c>
       <c r="E197" t="str">
-        <v>thomas.rivera13@yahoo.com</v>
+        <v>jackson.murphy91@yahoo.com</v>
       </c>
       <c r="F197" t="str">
-        <v>(539) 243-6118</v>
+        <v>(572) 305-7237</v>
       </c>
       <c r="G197" t="str">
-        <v>Long Beach</v>
+        <v>Riverside</v>
       </c>
       <c r="H197" t="str">
         <v>B</v>
@@ -6812,7 +6820,7 @@
         <v>available</v>
       </c>
       <c r="J197" t="str">
-        <v>Hannah Murphy</v>
+        <v>Caleb Brown</v>
       </c>
     </row>
     <row r="198">
@@ -6937,7 +6945,7 @@
         <v>A</v>
       </c>
       <c r="I201" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J201" t="str">
         <v>Sophia Flores</v>
@@ -6945,57 +6953,57 @@
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>ce7b894b-705d-49f7-a6a3-e0a7fe953a10</v>
+        <v>93e72347-d9bf-4fb1-b06c-7cb5a2edcc2a</v>
       </c>
       <c r="B202" t="str">
-        <v>Christian Rivera</v>
+        <v>Grace King</v>
       </c>
       <c r="C202">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D202" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E202" t="str">
-        <v>christian.rivera21@outlook.com</v>
+        <v>grace.king1@yahoo.com</v>
       </c>
       <c r="F202" t="str">
-        <v>(913) 900-2520</v>
+        <v>(217) 721-5651</v>
       </c>
       <c r="G202" t="str">
-        <v>Burbank</v>
+        <v>Oakland</v>
       </c>
       <c r="H202" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I202" t="str">
         <v>assigned</v>
       </c>
       <c r="J202" t="str">
-        <v>Allison Torres, Elena Green</v>
+        <v>Gianna Hill</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>924c70dd-25ce-4725-8a88-173a3af33a7f</v>
+        <v>d035c0a6-d30e-4ca3-b8c2-9becb2842da7</v>
       </c>
       <c r="B203" t="str">
-        <v>Mia Anderson</v>
+        <v>Thomas Rivera</v>
       </c>
       <c r="C203">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D203" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E203" t="str">
-        <v>mia.anderson0@yahoo.com</v>
+        <v>thomas.rivera13@yahoo.com</v>
       </c>
       <c r="F203" t="str">
-        <v>(574) 806-3609</v>
+        <v>(539) 243-6118</v>
       </c>
       <c r="G203" t="str">
-        <v>Stockton</v>
+        <v>Long Beach</v>
       </c>
       <c r="H203" t="str">
         <v>B</v>
@@ -7004,123 +7012,123 @@
         <v>assigned</v>
       </c>
       <c r="J203" t="str">
-        <v>Avery Cruz, Lydia Torres</v>
+        <v>Hannah Murphy</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>9ad191d8-a3b3-478d-9318-781d3156afaa</v>
+        <v>ce7b894b-705d-49f7-a6a3-e0a7fe953a10</v>
       </c>
       <c r="B204" t="str">
-        <v>Alexander Campbell</v>
+        <v>Christian Rivera</v>
       </c>
       <c r="C204">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D204" t="str">
         <v>Male</v>
       </c>
       <c r="E204" t="str">
-        <v>alexander.campbell71@gmail.com</v>
+        <v>christian.rivera21@outlook.com</v>
       </c>
       <c r="F204" t="str">
-        <v>(131) 840-1169</v>
+        <v>(913) 900-2520</v>
       </c>
       <c r="G204" t="str">
-        <v>Fresno</v>
+        <v>Burbank</v>
       </c>
       <c r="H204" t="str">
-        <v>A</v>
+        <v>B+</v>
       </c>
       <c r="I204" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J204" t="str">
-        <v>Logan Nguyen, Hannah Moore</v>
+        <v>Allison Torres, Elena Green</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>0bb2a1aa-a74d-4711-a2ea-609663a77b4d</v>
+        <v>924c70dd-25ce-4725-8a88-173a3af33a7f</v>
       </c>
       <c r="B205" t="str">
-        <v>Carter Harris</v>
+        <v>Mia Anderson</v>
       </c>
       <c r="C205">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D205" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E205" t="str">
-        <v>carter.harris82@yahoo.com</v>
+        <v>mia.anderson0@yahoo.com</v>
       </c>
       <c r="F205" t="str">
-        <v>0412 175 744</v>
+        <v>(574) 806-3609</v>
       </c>
       <c r="G205" t="str">
-        <v>Geelong</v>
+        <v>Stockton</v>
       </c>
       <c r="H205" t="str">
         <v>B</v>
       </c>
       <c r="I205" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="J205" t="str">
+        <v>Avery Cruz, Lydia Torres</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>f26a0638-511f-4440-ae1a-2ae052df470f</v>
+        <v>0bb2a1aa-a74d-4711-a2ea-609663a77b4d</v>
       </c>
       <c r="B206" t="str">
-        <v>Caleb Brown</v>
+        <v>Carter Harris</v>
       </c>
       <c r="C206">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="D206" t="str">
         <v>Male</v>
       </c>
       <c r="E206" t="str">
-        <v>caleb.brown13@yahoo.com</v>
+        <v>carter.harris82@yahoo.com</v>
       </c>
       <c r="F206" t="str">
-        <v>(130) 920-6765</v>
+        <v>0412 175 744</v>
       </c>
       <c r="G206" t="str">
-        <v>Irvine</v>
+        <v>Geelong</v>
       </c>
       <c r="H206" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I206" t="str">
         <v>available</v>
-      </c>
-      <c r="J206" t="str">
-        <v>Jackson Murphy</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>5cb68000-430e-4dc3-9afa-c9c5cca864c0</v>
+        <v>f26a0638-511f-4440-ae1a-2ae052df470f</v>
       </c>
       <c r="B207" t="str">
-        <v>Logan Nguyen</v>
+        <v>Caleb Brown</v>
       </c>
       <c r="C207">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D207" t="str">
         <v>Male</v>
       </c>
       <c r="E207" t="str">
-        <v>logan.nguyen23@hotmail.com</v>
+        <v>caleb.brown13@yahoo.com</v>
       </c>
       <c r="F207" t="str">
-        <v>(278) 620-7089</v>
+        <v>(130) 920-6765</v>
       </c>
       <c r="G207" t="str">
-        <v>Torrance</v>
+        <v>Irvine</v>
       </c>
       <c r="H207" t="str">
         <v>B+</v>
@@ -7129,123 +7137,123 @@
         <v>available</v>
       </c>
       <c r="J207" t="str">
-        <v>Alexander Campbell, Hannah Moore</v>
+        <v>Jackson Murphy</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>9efd8ec8-0e91-45d9-804b-518939fbac76</v>
+        <v>9ad191d8-a3b3-478d-9318-781d3156afaa</v>
       </c>
       <c r="B208" t="str">
-        <v>Noah Hernandez</v>
+        <v>Alexander Campbell</v>
       </c>
       <c r="C208">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D208" t="str">
         <v>Male</v>
       </c>
       <c r="E208" t="str">
-        <v>noah.hernandez9@hotmail.com</v>
+        <v>alexander.campbell71@gmail.com</v>
       </c>
       <c r="F208" t="str">
-        <v>0404 855 230</v>
+        <v>(131) 840-1169</v>
       </c>
       <c r="G208" t="str">
-        <v>Cairns</v>
+        <v>Fresno</v>
       </c>
       <c r="H208" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="I208" t="str">
         <v>available</v>
+      </c>
+      <c r="J208" t="str">
+        <v>Logan Nguyen, Hannah Moore</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>93e72347-d9bf-4fb1-b06c-7cb5a2edcc2a</v>
+        <v>9efd8ec8-0e91-45d9-804b-518939fbac76</v>
       </c>
       <c r="B209" t="str">
-        <v>Grace King</v>
+        <v>Noah Hernandez</v>
       </c>
       <c r="C209">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D209" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E209" t="str">
-        <v>grace.king1@yahoo.com</v>
+        <v>noah.hernandez9@hotmail.com</v>
       </c>
       <c r="F209" t="str">
-        <v>(217) 721-5651</v>
+        <v>0404 855 230</v>
       </c>
       <c r="G209" t="str">
-        <v>Oakland</v>
+        <v>Cairns</v>
       </c>
       <c r="H209" t="str">
         <v>B</v>
       </c>
       <c r="I209" t="str">
         <v>available</v>
-      </c>
-      <c r="J209" t="str">
-        <v>Gianna Hill</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>ba63a5c0-c76e-4c1b-b6e4-afed15dfdcd4</v>
+        <v>dd2de8e6-e7c9-40e4-8308-27a14e5f00da</v>
       </c>
       <c r="B210" t="str">
-        <v>Joseph Anderson</v>
+        <v>Chloe Jones</v>
       </c>
       <c r="C210">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D210" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E210" t="str">
-        <v>joseph.anderson2@outlook.com</v>
+        <v>chloe.jones20@outlook.com</v>
       </c>
       <c r="F210" t="str">
-        <v>(433) 142-2338</v>
+        <v>0411 294 635</v>
       </c>
       <c r="G210" t="str">
-        <v>Chula Vista</v>
+        <v>Toowoomba</v>
       </c>
       <c r="H210" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I210" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J210" t="str">
-        <v>Elizabeth Nelson, Grayson Edwards</v>
+        <v>Zoe Brown</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>f878ab7f-ae59-4af0-b19a-e9bf4573c116</v>
+        <v>ba63a5c0-c76e-4c1b-b6e4-afed15dfdcd4</v>
       </c>
       <c r="B211" t="str">
-        <v>William Allen</v>
+        <v>Joseph Anderson</v>
       </c>
       <c r="C211">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D211" t="str">
         <v>Male</v>
       </c>
       <c r="E211" t="str">
-        <v>william.allen62@hotmail.com</v>
+        <v>joseph.anderson2@outlook.com</v>
       </c>
       <c r="F211" t="str">
-        <v>(267) 463-7481</v>
+        <v>(433) 142-2338</v>
       </c>
       <c r="G211" t="str">
-        <v>San Jose</v>
+        <v>Chula Vista</v>
       </c>
       <c r="H211" t="str">
         <v>B+</v>
@@ -7254,94 +7262,94 @@
         <v>available</v>
       </c>
       <c r="J211" t="str">
-        <v>Sadie Cook, Alexa Hall</v>
+        <v>Elizabeth Nelson, Grayson Edwards</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>8e30e99d-0594-4a73-840e-1f5ef32387ae</v>
+        <v>f878ab7f-ae59-4af0-b19a-e9bf4573c116</v>
       </c>
       <c r="B212" t="str">
-        <v>Cameron Anderson</v>
+        <v>William Allen</v>
       </c>
       <c r="C212">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D212" t="str">
         <v>Male</v>
       </c>
       <c r="E212" t="str">
-        <v>cameron.anderson85@hotmail.com</v>
+        <v>william.allen62@hotmail.com</v>
       </c>
       <c r="F212" t="str">
-        <v>(960) 363-1976</v>
+        <v>(267) 463-7481</v>
       </c>
       <c r="G212" t="str">
-        <v>Glendale</v>
+        <v>San Jose</v>
       </c>
       <c r="H212" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I212" t="str">
         <v>available</v>
       </c>
       <c r="J212" t="str">
-        <v>John Diaz</v>
+        <v>Sadie Cook, Alexa Hall</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>1a539e8e-7b02-422a-991f-99fdb84688f5</v>
+        <v>8e30e99d-0594-4a73-840e-1f5ef32387ae</v>
       </c>
       <c r="B213" t="str">
-        <v>Logan Lopez</v>
+        <v>Cameron Anderson</v>
       </c>
       <c r="C213">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D213" t="str">
         <v>Male</v>
       </c>
       <c r="E213" t="str">
-        <v>logan.lopez66@icloud.com</v>
+        <v>cameron.anderson85@hotmail.com</v>
       </c>
       <c r="F213" t="str">
-        <v>(283) 498-3157</v>
+        <v>(960) 363-1976</v>
       </c>
       <c r="G213" t="str">
-        <v>Burbank</v>
+        <v>Glendale</v>
       </c>
       <c r="H213" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I213" t="str">
         <v>available</v>
       </c>
       <c r="J213" t="str">
-        <v>Ava Mitchell</v>
+        <v>John Diaz</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>1b5fc1ce-1ed8-4255-a8a4-b02892b2b03a</v>
+        <v>1a539e8e-7b02-422a-991f-99fdb84688f5</v>
       </c>
       <c r="B214" t="str">
-        <v>Ava Mitchell</v>
+        <v>Logan Lopez</v>
       </c>
       <c r="C214">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D214" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E214" t="str">
-        <v>ava.mitchell87@icloud.com</v>
+        <v>logan.lopez66@icloud.com</v>
       </c>
       <c r="F214" t="str">
-        <v>(211) 525-6721</v>
+        <v>(283) 498-3157</v>
       </c>
       <c r="G214" t="str">
-        <v>Santa Monica</v>
+        <v>Burbank</v>
       </c>
       <c r="H214" t="str">
         <v>B+</v>
@@ -7350,257 +7358,260 @@
         <v>available</v>
       </c>
       <c r="J214" t="str">
-        <v>Logan Lopez</v>
+        <v>Ava Mitchell</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>4f5756e4-c006-4d04-a9bc-7a2de0fdf149</v>
+        <v>1b5fc1ce-1ed8-4255-a8a4-b02892b2b03a</v>
       </c>
       <c r="B215" t="str">
-        <v>Michael Johnson</v>
+        <v>Ava Mitchell</v>
       </c>
       <c r="C215">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D215" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E215" t="str">
-        <v>michael.johnson96@gmail.com</v>
+        <v>ava.mitchell87@icloud.com</v>
       </c>
       <c r="F215" t="str">
-        <v>(878) 132-4532</v>
+        <v>(211) 525-6721</v>
       </c>
       <c r="G215" t="str">
-        <v>Long Beach</v>
+        <v>Santa Monica</v>
       </c>
       <c r="H215" t="str">
         <v>B+</v>
       </c>
       <c r="I215" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
       <c r="J215" t="str">
-        <v>Anthony Garcia, Cameron Evans</v>
+        <v>Logan Lopez</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>efe20d3d-2162-4ff8-a8ff-4102e5d3f3ab</v>
+        <v>b09d810a-6eb0-4ea8-ac8b-df27315049f1</v>
       </c>
       <c r="B216" t="str">
-        <v>Cameron Lee</v>
+        <v>Emily Thomas</v>
       </c>
       <c r="C216">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D216" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E216" t="str">
-        <v>cameron.lee78@yahoo.com</v>
+        <v>emily.thomas25@outlook.com</v>
       </c>
       <c r="F216" t="str">
-        <v>0404 821 708</v>
+        <v>0402 648 577</v>
       </c>
       <c r="G216" t="str">
-        <v>Cairns</v>
+        <v>Geelong</v>
       </c>
       <c r="H216" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I216" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="J216" t="str">
+        <v>Stella Garcia</v>
+      </c>
+      <c r="M216" t="str">
+        <v>Knee replacement - cannot climb stairs</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>7bfb9432-4b59-4ceb-895d-e03ae4837f91</v>
+        <v>4f5756e4-c006-4d04-a9bc-7a2de0fdf149</v>
       </c>
       <c r="B217" t="str">
-        <v>Joshua Walker</v>
+        <v>Michael Johnson</v>
       </c>
       <c r="C217">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="D217" t="str">
         <v>Male</v>
       </c>
       <c r="E217" t="str">
-        <v>joshua.walker97@gmail.com</v>
+        <v>michael.johnson96@gmail.com</v>
       </c>
       <c r="F217" t="str">
-        <v>0402 640 379</v>
+        <v>(878) 132-4532</v>
       </c>
       <c r="G217" t="str">
-        <v>Darwin</v>
+        <v>Long Beach</v>
       </c>
       <c r="H217" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I217" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="J217" t="str">
+        <v>Anthony Garcia, Cameron Evans</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>5c5fe7f9-35dd-4685-af6b-e44a56c1d47c</v>
+        <v>efe20d3d-2162-4ff8-a8ff-4102e5d3f3ab</v>
       </c>
       <c r="B218" t="str">
-        <v>Charlotte Johnson</v>
+        <v>Cameron Lee</v>
       </c>
       <c r="C218">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D218" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E218" t="str">
-        <v>charlotte.johnson36@yahoo.com</v>
+        <v>cameron.lee78@yahoo.com</v>
       </c>
       <c r="F218" t="str">
-        <v>0410 304 177</v>
+        <v>0404 821 708</v>
       </c>
       <c r="G218" t="str">
-        <v>Perth</v>
+        <v>Cairns</v>
       </c>
       <c r="H218" t="str">
-        <v>A</v>
+        <v>B+</v>
       </c>
       <c r="I218" t="str">
         <v>available</v>
-      </c>
-      <c r="J218" t="str">
-        <v>Audrey Martin</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
+        <v>7bfb9432-4b59-4ceb-895d-e03ae4837f91</v>
       </c>
       <c r="B219" t="str">
-        <v>Peter Adamidis</v>
+        <v>Joshua Walker</v>
       </c>
       <c r="C219">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D219" t="str">
-        <v>Not Specified</v>
+        <v>Male</v>
       </c>
       <c r="E219" t="str">
-        <v>peter.adamidis@gmail.com</v>
+        <v>joshua.walker97@gmail.com</v>
       </c>
       <c r="F219" t="str">
-        <v>498086080</v>
+        <v>0402 640 379</v>
       </c>
       <c r="G219" t="str">
-        <v/>
+        <v>Darwin</v>
       </c>
       <c r="H219" t="str">
-        <v/>
+        <v>B</v>
       </c>
       <c r="I219" t="str">
-        <v>assigned</v>
-      </c>
-      <c r="J219" t="str">
-        <v>Kathleen Reynolds, Felicity Parker-Hill</v>
-      </c>
-      <c r="K219" t="str">
-        <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
-      </c>
-      <c r="L219" t="str">
-        <v>Y</v>
-      </c>
-      <c r="M219" t="str">
-        <v>Broken Leg</v>
+        <v>available</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>dd2de8e6-e7c9-40e4-8308-27a14e5f00da</v>
+        <v>5c5fe7f9-35dd-4685-af6b-e44a56c1d47c</v>
       </c>
       <c r="B220" t="str">
-        <v>Chloe Jones</v>
+        <v>Charlotte Johnson</v>
       </c>
       <c r="C220">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D220" t="str">
         <v>Female</v>
       </c>
       <c r="E220" t="str">
-        <v>chloe.jones20@outlook.com</v>
+        <v>charlotte.johnson36@yahoo.com</v>
       </c>
       <c r="F220" t="str">
-        <v>0411 294 635</v>
+        <v>0410 304 177</v>
       </c>
       <c r="G220" t="str">
-        <v>Toowoomba</v>
+        <v>Perth</v>
       </c>
       <c r="H220" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="I220" t="str">
         <v>available</v>
       </c>
       <c r="J220" t="str">
-        <v>Zoe Brown</v>
+        <v>Audrey Martin</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>b28a73f8-5094-4b00-be67-223342b0e1d5</v>
+        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
       </c>
       <c r="B221" t="str">
-        <v>Cora Lee</v>
+        <v>Peter Adamidis</v>
       </c>
       <c r="C221">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D221" t="str">
-        <v>Female</v>
+        <v>Not Specified</v>
       </c>
       <c r="E221" t="str">
-        <v>cora.lee40@hotmail.com</v>
+        <v>peter.adamidis@gmail.com</v>
       </c>
       <c r="F221" t="str">
-        <v>(406) 886-5180</v>
+        <v>498086080</v>
       </c>
       <c r="G221" t="str">
-        <v>Fresno</v>
+        <v/>
       </c>
       <c r="H221" t="str">
-        <v>B</v>
+        <v/>
       </c>
       <c r="I221" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J221" t="str">
-        <v>Layla Lopez</v>
+        <v>Kathleen Reynolds, Felicity Parker-Hill</v>
+      </c>
+      <c r="K221" t="str">
+        <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
+      </c>
+      <c r="L221" t="str">
+        <v>Y</v>
+      </c>
+      <c r="M221" t="str">
+        <v>Broken Leg</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>ef837da0-c81f-4113-a389-db5e46ffaf4d</v>
+        <v>b28a73f8-5094-4b00-be67-223342b0e1d5</v>
       </c>
       <c r="B222" t="str">
-        <v>Aria Scott</v>
+        <v>Cora Lee</v>
       </c>
       <c r="C222">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D222" t="str">
         <v>Female</v>
       </c>
       <c r="E222" t="str">
-        <v>aria.scott42@outlook.com</v>
+        <v>cora.lee40@hotmail.com</v>
       </c>
       <c r="F222" t="str">
-        <v>0401 330 548</v>
+        <v>(406) 886-5180</v>
       </c>
       <c r="G222" t="str">
-        <v>Hobart</v>
+        <v>Fresno</v>
       </c>
       <c r="H222" t="str">
         <v>B</v>
@@ -7609,30 +7620,30 @@
         <v>available</v>
       </c>
       <c r="J222" t="str">
-        <v>Maya Hernandez</v>
+        <v>Layla Lopez</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>b09d810a-6eb0-4ea8-ac8b-df27315049f1</v>
+        <v>ef837da0-c81f-4113-a389-db5e46ffaf4d</v>
       </c>
       <c r="B223" t="str">
-        <v>Emily Thomas</v>
+        <v>Aria Scott</v>
       </c>
       <c r="C223">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D223" t="str">
         <v>Female</v>
       </c>
       <c r="E223" t="str">
-        <v>emily.thomas25@outlook.com</v>
+        <v>aria.scott42@outlook.com</v>
       </c>
       <c r="F223" t="str">
-        <v>0402 648 577</v>
+        <v>0401 330 548</v>
       </c>
       <c r="G223" t="str">
-        <v>Geelong</v>
+        <v>Hobart</v>
       </c>
       <c r="H223" t="str">
         <v>B</v>
@@ -7641,10 +7652,7 @@
         <v>available</v>
       </c>
       <c r="J223" t="str">
-        <v>Stella Garcia</v>
-      </c>
-      <c r="M223" t="str">
-        <v>Knee replacement - cannot climb stairs</v>
+        <v>Maya Hernandez</v>
       </c>
     </row>
     <row r="224">
@@ -7751,25 +7759,25 @@
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>d279968e-2739-4860-92b0-61f1c31b6a72</v>
+        <v>8f86f871-065f-4df6-ba6b-cf659dbcfdb2</v>
       </c>
       <c r="B227" t="str">
-        <v>Nolan Ortiz</v>
+        <v>Noah Martinez</v>
       </c>
       <c r="C227">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D227" t="str">
         <v>Male</v>
       </c>
       <c r="E227" t="str">
-        <v>nolan.ortiz57@gmail.com</v>
+        <v>noah.martinez26@outlook.com</v>
       </c>
       <c r="F227" t="str">
-        <v>(473) 870-4585</v>
+        <v>(311) 254-2323</v>
       </c>
       <c r="G227" t="str">
-        <v>Santa Monica</v>
+        <v>Oakland</v>
       </c>
       <c r="H227" t="str">
         <v>B</v>
@@ -7778,30 +7786,30 @@
         <v>available</v>
       </c>
       <c r="J227" t="str">
-        <v>Cameron Clark</v>
+        <v>Autumn Lewis</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>8f86f871-065f-4df6-ba6b-cf659dbcfdb2</v>
+        <v>2ed0295d-db8c-455a-a1cb-6d3b3fbd6156</v>
       </c>
       <c r="B228" t="str">
-        <v>Noah Martinez</v>
+        <v>Julian Rivera</v>
       </c>
       <c r="C228">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D228" t="str">
         <v>Male</v>
       </c>
       <c r="E228" t="str">
-        <v>noah.martinez26@outlook.com</v>
+        <v>julian.rivera17@icloud.com</v>
       </c>
       <c r="F228" t="str">
-        <v>(311) 254-2323</v>
+        <v>(811) 375-6029</v>
       </c>
       <c r="G228" t="str">
-        <v>Oakland</v>
+        <v>Santa Ana</v>
       </c>
       <c r="H228" t="str">
         <v>B</v>
@@ -7810,30 +7818,30 @@
         <v>available</v>
       </c>
       <c r="J228" t="str">
-        <v>Autumn Lewis</v>
+        <v>Gabriella Smith</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>644e41d7-b99e-4381-99a9-65d5ee89ad50</v>
+        <v>c347dd65-5ee0-40a6-9fce-2500b3aed70c</v>
       </c>
       <c r="B229" t="str">
-        <v>Hunter Scott</v>
+        <v>Logan Gomez</v>
       </c>
       <c r="C229">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="D229" t="str">
         <v>Male</v>
       </c>
       <c r="E229" t="str">
-        <v>hunter.scott37@outlook.com</v>
+        <v>logan.gomez89@outlook.com</v>
       </c>
       <c r="F229" t="str">
-        <v>(477) 130-2066</v>
+        <v>(628) 585-4251</v>
       </c>
       <c r="G229" t="str">
-        <v>Torrance</v>
+        <v>San Diego</v>
       </c>
       <c r="H229" t="str">
         <v>B</v>
@@ -7842,30 +7850,30 @@
         <v>available</v>
       </c>
       <c r="J229" t="str">
-        <v>Zoey Cook</v>
+        <v>Lydia Morris</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>2ed0295d-db8c-455a-a1cb-6d3b3fbd6156</v>
+        <v>b2c7422d-5caa-41a4-8352-77a36b30b055</v>
       </c>
       <c r="B230" t="str">
-        <v>Julian Rivera</v>
+        <v>Christopher Carter</v>
       </c>
       <c r="C230">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D230" t="str">
         <v>Male</v>
       </c>
       <c r="E230" t="str">
-        <v>julian.rivera17@icloud.com</v>
+        <v>christopher.carter22@outlook.com</v>
       </c>
       <c r="F230" t="str">
-        <v>(811) 375-6029</v>
+        <v>(176) 989-4341</v>
       </c>
       <c r="G230" t="str">
-        <v>Santa Ana</v>
+        <v>Los Angeles</v>
       </c>
       <c r="H230" t="str">
         <v>B</v>
@@ -7874,47 +7882,47 @@
         <v>available</v>
       </c>
       <c r="J230" t="str">
-        <v>Gabriella Smith</v>
+        <v>Cora Mitchell</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>c347dd65-5ee0-40a6-9fce-2500b3aed70c</v>
+        <v>a3363acf-3338-40ec-a745-9aef8dca39fc</v>
       </c>
       <c r="B231" t="str">
-        <v>Logan Gomez</v>
+        <v>Adam Hall</v>
       </c>
       <c r="C231">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D231" t="str">
         <v>Male</v>
       </c>
       <c r="E231" t="str">
-        <v>logan.gomez89@outlook.com</v>
+        <v>adam.hall35@outlook.com</v>
       </c>
       <c r="F231" t="str">
-        <v>(628) 585-4251</v>
+        <v>(742) 142-5313</v>
       </c>
       <c r="G231" t="str">
-        <v>San Diego</v>
+        <v>Santa Ana</v>
       </c>
       <c r="H231" t="str">
         <v>B</v>
       </c>
       <c r="I231" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J231" t="str">
-        <v>Lydia Morris</v>
+        <v>Grayson Morgan, Valentina Morales</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>b2c7422d-5caa-41a4-8352-77a36b30b055</v>
+        <v>d279968e-2739-4860-92b0-61f1c31b6a72</v>
       </c>
       <c r="B232" t="str">
-        <v>Christopher Carter</v>
+        <v>Nolan Ortiz</v>
       </c>
       <c r="C232">
         <v>42</v>
@@ -7923,22 +7931,22 @@
         <v>Male</v>
       </c>
       <c r="E232" t="str">
-        <v>christopher.carter22@outlook.com</v>
+        <v>nolan.ortiz57@gmail.com</v>
       </c>
       <c r="F232" t="str">
-        <v>(176) 989-4341</v>
+        <v>(473) 870-4585</v>
       </c>
       <c r="G232" t="str">
-        <v>Los Angeles</v>
+        <v>Santa Monica</v>
       </c>
       <c r="H232" t="str">
         <v>B</v>
       </c>
       <c r="I232" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J232" t="str">
-        <v>Cora Mitchell</v>
+        <v>Cameron Clark</v>
       </c>
     </row>
     <row r="233">
@@ -7967,7 +7975,7 @@
         <v>B</v>
       </c>
       <c r="I233" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J233" t="str">
         <v>Nolan Ortiz</v>
@@ -7975,25 +7983,25 @@
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>a3363acf-3338-40ec-a745-9aef8dca39fc</v>
+        <v>644e41d7-b99e-4381-99a9-65d5ee89ad50</v>
       </c>
       <c r="B234" t="str">
-        <v>Adam Hall</v>
+        <v>Hunter Scott</v>
       </c>
       <c r="C234">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="D234" t="str">
         <v>Male</v>
       </c>
       <c r="E234" t="str">
-        <v>adam.hall35@outlook.com</v>
+        <v>hunter.scott37@outlook.com</v>
       </c>
       <c r="F234" t="str">
-        <v>(742) 142-5313</v>
+        <v>(477) 130-2066</v>
       </c>
       <c r="G234" t="str">
-        <v>Santa Ana</v>
+        <v>Torrance</v>
       </c>
       <c r="H234" t="str">
         <v>B</v>
@@ -8002,7 +8010,7 @@
         <v>assigned</v>
       </c>
       <c r="J234" t="str">
-        <v>Grayson Morgan, Valentina Morales</v>
+        <v>Zoey Cook</v>
       </c>
     </row>
   </sheetData>
@@ -8014,7 +8022,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8067,775 +8075,1536 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>5ecac9a7-a6b9-48f1-a93b-557a39838f17</v>
+        <v>abe959cd-34ee-45b9-9bfa-0bc6109fe03f</v>
       </c>
       <c r="B3" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C3" t="str">
-        <v>703385ff-46f6-4b8f-9998-1e18951304e0</v>
+        <v>2d659242-2255-4502-b333-781c9b2645fd</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="str">
-        <v>B1</v>
+        <v>C1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>b6f1d429-67e4-45b4-a204-d05480319da0</v>
+        <v>f8f8e456-e84c-4022-84fa-253c9ce87abe</v>
       </c>
       <c r="B4" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C4" t="str">
-        <v>443fcd0e-727d-4035-ab6a-c3df01515271</v>
+        <v>222469f4-a8d9-4550-b6ee-db9d00e24edd</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" t="str">
-        <v>B2</v>
+        <v>C2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>f04ab471-1a9d-4e0c-8e4b-3d79e4d4882b</v>
+        <v>f5559569-df06-4553-adca-c56016dea982</v>
       </c>
       <c r="B5" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C5" t="str">
-        <v>924c70dd-25ce-4725-8a88-173a3af33a7f</v>
+        <v>5965e7f9-ebf0-4e66-a197-03be16110662</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="str">
-        <v>B3</v>
+        <v>B2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>1c3f244b-b164-4904-a5f1-1524195b494a</v>
+        <v>a56b1680-6042-4ad7-9d72-233058261e11</v>
       </c>
       <c r="B6" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C6" t="str">
-        <v>b498fd02-c816-4b07-976f-1100495bf38b</v>
+        <v>5c31add6-7626-46c5-a3e1-0e452ead739d</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="str">
-        <v>C1</v>
+        <v>B3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>eef4b984-c474-4f43-aeed-197faa279405</v>
+        <v>8b10c949-c1a5-4a7f-b4a1-4ac2310b5e6a</v>
       </c>
       <c r="B7" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C7" t="str">
-        <v>a3363acf-3338-40ec-a745-9aef8dca39fc</v>
+        <v>25370fa8-38bb-4172-9e02-23a59fcfd87a</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="str">
-        <v>C2</v>
+        <v>B4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>f979bc94-69a6-4473-be4f-3533f76cae2b</v>
+        <v>fe8bd487-0bbf-46f2-afc1-77d980d9c244</v>
       </c>
       <c r="B8" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C8" t="str">
-        <v>49fbe592-0995-4321-b8af-fbe859ca414c</v>
+        <v>cd648690-8cd1-44b6-be26-0521038f442f</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="str">
-        <v>C3</v>
+        <v>B5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>0d5bf843-81f3-4a36-925e-2ac5a65f3543</v>
+        <v>c58470f2-7f67-4765-9677-03eb0af0e6bb</v>
       </c>
       <c r="B9" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C9" t="str">
-        <v>bede75d6-a4ec-4fe3-907f-35108a2b4b10</v>
+        <v>a2ff3ad7-7964-4523-bf18-ce9994a910da</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="str">
-        <v>D1</v>
+        <v>C1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>4714b65d-0643-42ca-a7a2-8459962131a8</v>
+        <v>89c30c15-5eeb-4a56-b450-a48e886b8fca</v>
       </c>
       <c r="B10" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C10" t="str">
-        <v>4f5756e4-c006-4d04-a9bc-7a2de0fdf149</v>
+        <v>5b54b59b-b78d-4a12-906b-7f9069a82fb5</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="str">
-        <v>D2</v>
+        <v>C2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>385ae883-11fc-4366-bdc9-aa7d308cbed7</v>
+        <v>3eb3ac13-b600-4aa2-8556-902545e3d1f9</v>
       </c>
       <c r="B11" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C11" t="str">
-        <v>cacb8de7-16c5-4332-9d25-a6794d8a23b3</v>
+        <v>1df33560-ebf2-41ec-995c-52f3f1df78d5</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="str">
-        <v>D3</v>
+        <v>C3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>4186c00e-c265-4dd5-a5d0-4df7882a204b</v>
+        <v>3f7e0e5c-3bdc-4d69-8a2c-25458e4f147d</v>
       </c>
       <c r="B12" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C12" t="str">
-        <v>42504e80-d5df-4b97-a283-eb96728c425f</v>
+        <v>47cc1288-cbc0-4159-a52d-924c8912434d</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="str">
-        <v>E1</v>
+        <v>C4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>6bde6343-e29a-442a-9189-6dccf7f25850</v>
+        <v>201591e9-78f9-42d9-8577-ee056727e1ba</v>
       </c>
       <c r="B13" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C13" t="str">
-        <v>bb319a54-7dbf-4a05-bd7f-8f2f6aa6b414</v>
+        <v>939eed5c-b520-4a34-8d08-2243d6aa41c1</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="str">
-        <v>E2</v>
+        <v>D1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>b396cb42-cc76-4350-89e8-98b94de4815d</v>
+        <v>50d7e7a6-8cc8-4d63-9b1d-5ba2aeb2d4da</v>
       </c>
       <c r="B14" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C14" t="str">
-        <v>efeba788-8d57-40b3-a3f9-e134a40931ac</v>
+        <v>bf283832-25b8-4d7f-9e0f-ef2f10903233</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" t="str">
-        <v>A1</v>
+        <v>D2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>24e9391d-f1db-42e8-bf49-d8a50c6924a4</v>
+        <v>df31ce50-eed6-40ec-be05-14908b23791d</v>
       </c>
       <c r="B15" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C15" t="str">
-        <v>b22d1d02-9344-4922-9be8-d8d05a79b0b0</v>
+        <v>7728eead-ab7c-467f-bb41-2abd7952591a</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" t="str">
-        <v>A2</v>
+        <v>D3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>5f3f2f6f-9c39-49d2-8992-ccaec88be285</v>
+        <v>d95af0ae-d1b0-4ca9-ab31-aa71a831f5da</v>
       </c>
       <c r="B16" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C16" t="str">
-        <v>8d8070dd-3ee6-476f-aaf2-631e80f67ef7</v>
+        <v>f693d8fc-436b-426a-9bca-0b141221ab3f</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" t="str">
-        <v>A3</v>
+        <v>D4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>0690114d-d0d8-4037-9a28-d510723b7e61</v>
+        <v>e72c18de-06d4-41ba-8507-105ea66501b1</v>
       </c>
       <c r="B17" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C17" t="str">
-        <v>50b3a8f6-823f-477c-b52d-5b4fba4edbd2</v>
+        <v>076ad666-a34b-4ae1-b91f-de785dbdf5ec</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" t="str">
-        <v>B1</v>
+        <v>E1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>9044d7ab-e884-4032-b97c-d8a8c1fe1e8d</v>
+        <v>972d24b9-4073-4618-a072-0d2c08d1db5e</v>
       </c>
       <c r="B18" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C18" t="str">
-        <v>a3199cca-1aa6-4060-b6cd-0320712376ba</v>
+        <v>700fc657-988b-4d49-9814-25b1df35cefc</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" t="str">
-        <v>B2</v>
+        <v>E2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>d8ab2aa6-f759-423e-ba36-95e19395f7e1</v>
+        <v>f8f3737f-e0e9-4bd6-9aac-7968bdce1441</v>
       </c>
       <c r="B19" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C19" t="str">
-        <v>81759c6b-da11-4c0e-9e96-92aa20964b06</v>
+        <v>4e28a208-5278-410d-b375-d9c77ba144d7</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" t="str">
-        <v>B3</v>
+        <v>E3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>06479481-5b19-439e-b90b-b66c53b4b1b9</v>
+        <v>db003dc3-cf13-46de-a9f7-5d61c7e3b79a</v>
       </c>
       <c r="B20" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C20" t="str">
-        <v>d4340206-46f8-4128-a64d-b1a7ca7bbdb5</v>
+        <v>410dbe34-810b-4a5d-8731-985738541b4b</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" t="str">
-        <v>C1</v>
+        <v>E4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>14eafb47-bc4e-4314-8c84-c9ccd79c48e8</v>
+        <v>01063462-36cb-4dab-bf69-f66882682d87</v>
       </c>
       <c r="B21" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C21" t="str">
-        <v>9e0ff879-df04-4a3f-b572-8633acb77cee</v>
+        <v>9f873871-29cc-45f0-894c-c54745230689</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" t="str">
-        <v>C2</v>
+        <v>A5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>4a33a5a3-b9e2-4572-bfae-7a07cc18cab4</v>
+        <v>6b58308c-f80d-416c-9b6b-02f4314a33f4</v>
       </c>
       <c r="B22" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C22" t="str">
-        <v>feb78ceb-dd95-455d-8b7d-fc0019ae54c8</v>
+        <v>fc97dba8-a877-4547-b6c9-0c6b058b1c94</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" t="str">
-        <v>C3</v>
+        <v>B1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>632a22c8-adb5-48e4-ae03-86b5b416926f</v>
+        <v>ae186e42-c31d-4d22-b594-22ad500e037b</v>
       </c>
       <c r="B23" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C23" t="str">
-        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
+        <v>8dfd710f-c1f0-43ee-b26d-13d05de4598b</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" t="str">
-        <v>D1</v>
+        <v>B2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>313caa2c-fc70-4c67-992c-01c66df3af1f</v>
+        <v>9d124ee2-b502-40e4-b28d-ebad65c39b47</v>
       </c>
       <c r="B24" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C24" t="str">
-        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
+        <v>992418b2-3029-4752-9552-0aa886433657</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
       <c r="E24" t="str">
-        <v>D2</v>
+        <v>B5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>e0bbac1a-ae2c-423f-8e95-33f1adad8dc2</v>
+        <v>f8801735-8ea8-4a63-896a-919be32a44a0</v>
       </c>
       <c r="B25" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C25" t="str">
-        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
+        <v>dd2de8e6-e7c9-40e4-8308-27a14e5f00da</v>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
       <c r="E25" t="str">
-        <v>D3</v>
+        <v>B4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>24e758b6-4ef6-4995-96d5-483fda8a9d64</v>
+        <v>51966534-1ea0-4c1f-9217-1334ae64e274</v>
       </c>
       <c r="B26" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C26" t="str">
-        <v>bcc86f75-9a60-406c-be7c-4f31ea5c30ef</v>
+        <v>d2e4b795-48d9-43e4-8ebe-6916a61a544e</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E26" t="str">
-        <v>E1</v>
+        <v>A4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>c7d873c9-6f65-40c6-ad2e-d5e386b74027</v>
+        <v>761f886f-529b-4094-9c04-a64fcf32a930</v>
       </c>
       <c r="B27" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C27" t="str">
-        <v>29fc5656-fb78-4c9b-9800-b68957bc0a07</v>
+        <v>a614b69c-4f6c-49fa-a490-24d7e4a60da9</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E27" t="str">
-        <v>E2</v>
+        <v>A5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>5a54412a-9678-4001-8abf-6a6eb155c1e4</v>
+        <v>119fe5b8-f8f9-445d-be8c-d5f3a8abb9cf</v>
       </c>
       <c r="B28" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C28" t="str">
-        <v>6b672a17-fbf7-4b44-841d-dc10fbe8cbce</v>
+        <v>3f9d95b9-bedc-4620-9aa3-9bc8669de2af</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E28" t="str">
-        <v>A1</v>
+        <v>B2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>a95ab828-c44f-4fea-88a8-faa563ef3e25</v>
+        <v>11e7e46f-069e-440f-abfe-f9fee913f706</v>
       </c>
       <c r="B29" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C29" t="str">
-        <v>9d8995c7-d5a1-4644-848d-dca4e81371af</v>
+        <v>4f5224b0-063d-43fd-9435-f5c2723f61ed</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E29" t="str">
-        <v>A2</v>
+        <v>B3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>887cbea0-1e69-44fb-b419-5c42ea7c1a87</v>
+        <v>e63e61bd-5df7-45fa-984d-fcbac9fd47a3</v>
       </c>
       <c r="B30" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C30" t="str">
-        <v>1c24b746-78a8-49cd-9c4d-3d22726dbc1b</v>
+        <v>7772949f-f87d-480b-87ab-71f7500e8bd3</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E30" t="str">
-        <v>A3</v>
+        <v>B4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>f6bd49a9-db23-44f1-9b32-84531f956b4f</v>
+        <v>e09faaf3-ec66-45a1-814a-689e80e97567</v>
       </c>
       <c r="B31" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C31" t="str">
-        <v>b57be3ad-f74f-4f2b-aa79-6e410d2c199b</v>
+        <v>699a6b21-dcdf-4a6c-a093-53af77ccdedb</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E31" t="str">
-        <v>B1</v>
+        <v>C1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>a33050c8-c302-43e8-b68f-edc8511e8a25</v>
+        <v>e88328a9-4229-4115-8080-d544ac0d52da</v>
       </c>
       <c r="B32" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C32" t="str">
-        <v>8819a806-f5b1-4b58-95f5-91489df570ac</v>
+        <v>852226e3-fccb-4228-8627-5dc42cfe4387</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E32" t="str">
-        <v>B2</v>
+        <v>C2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>489d808e-b5d9-4d37-a0bf-6d38b6e944d6</v>
+        <v>b87b1294-5c2b-461f-a5ae-4a9e47cd5022</v>
       </c>
       <c r="B33" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C33" t="str">
-        <v>6116506f-31f1-444e-bd83-2991a5335470</v>
+        <v>da957311-60b3-4bfc-b980-ac0506dccd20</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E33" t="str">
-        <v>B3</v>
+        <v>C3</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>9239f2c8-8dff-49ae-a8f0-15cd14b10b4b</v>
+        <v>0bf53c3e-bb5c-4b11-8eb5-d242a41ffdf3</v>
       </c>
       <c r="B34" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C34" t="str">
-        <v>36fd980a-62d1-491b-97d6-079c33195e3d</v>
+        <v>b09d810a-6eb0-4ea8-ac8b-df27315049f1</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E34" t="str">
-        <v>C1</v>
+        <v>C4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>87018188-dea2-488d-bbc5-93511f010e3c</v>
+        <v>d013561b-40a6-4b73-9205-f625e31e2b8b</v>
       </c>
       <c r="B35" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C35" t="str">
-        <v>17e4dd39-8810-472c-b1a9-52382fbe0c79</v>
+        <v>d3525475-4eef-4712-ba77-a79cea16ef55</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E35" t="str">
-        <v>C2</v>
+        <v>D1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>de4be42d-21dc-4643-bb31-1a6bafe8b8cc</v>
+        <v>0495fa93-25ec-42cf-baea-0795d1e11ef5</v>
       </c>
       <c r="B36" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C36" t="str">
-        <v>ce7b894b-705d-49f7-a6a3-e0a7fe953a10</v>
+        <v>644e41d7-b99e-4381-99a9-65d5ee89ad50</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E36" t="str">
-        <v>C3</v>
+        <v>D2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>bea17053-72b9-4ca5-9625-5555aca8ca24</v>
+        <v>ed31b312-db35-4c68-b7a9-a90a6e150e36</v>
       </c>
       <c r="B37" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C37" t="str">
-        <v>97108062-7918-4f7f-a3f7-92bcbc478acd</v>
+        <v>cd2f354f-9f45-4422-af14-1c94758ec1c1</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E37" t="str">
-        <v>D1</v>
+        <v>D3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>3e276ae2-bdb0-484a-9cfa-955e6b4ba8e2</v>
+        <v>ed95bf26-add0-459b-97df-6299a34137b1</v>
       </c>
       <c r="B38" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C38" t="str">
-        <v>29b3a5cd-ea7d-4673-9db4-7886660a791f</v>
+        <v>d035c0a6-d30e-4ca3-b8c2-9becb2842da7</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E38" t="str">
-        <v>D2</v>
+        <v>D4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>5a1ae218-ce7d-4c8c-a2da-d630963af6f4</v>
+        <v>1dde0982-8406-4022-9da3-e90925e3d2a2</v>
       </c>
       <c r="B39" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C39" t="str">
-        <v>d3db689e-5aed-4049-9588-adf3d1a49ae0</v>
+        <v>9d6b206c-c62d-4b71-b83d-fb61ac2fd06b</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E39" t="str">
-        <v>D3</v>
+        <v>E1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>9dfb721b-6ee8-410c-8d7a-874ee0c4f5e1</v>
+        <v>bf4931ff-0b09-49e2-bf7a-5c6c07f059ab</v>
       </c>
       <c r="B40" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C40" t="str">
-        <v>dbb200b8-766c-4984-9724-f68192d88939</v>
+        <v>5e93a4d1-9d7c-4b53-9898-a1ae2a0319c1</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E40" t="str">
-        <v>E1</v>
+        <v>E2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>c0c1eeb3-ed06-4cb6-99bf-5b992835c4b3</v>
+        <v>878bd12f-f08a-4560-bbca-b0d6f34eca7f</v>
       </c>
       <c r="B41" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C41" t="str">
-        <v>aa6fa282-9894-4b21-a871-c9725586c397</v>
+        <v>292da493-0524-4ee4-b911-1bb34e328b8c</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E41" t="str">
-        <v>E2</v>
+        <v>B5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>d966ee91-cd0e-4a0d-a751-798b92b03e60</v>
+        <v>f04ab471-1a9d-4e0c-8e4b-3d79e4d4882b</v>
       </c>
       <c r="B42" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C42" t="str">
-        <v>df712cc5-31d8-4341-b177-6603bf089235</v>
+        <v>924c70dd-25ce-4725-8a88-173a3af33a7f</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42" t="str">
-        <v>A4</v>
+        <v>A3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>47ec0204-7cf6-4afb-9b9e-a91324cdf4a9</v>
+        <v>de24e1b7-54f7-4944-86a8-442ceab4b214</v>
       </c>
       <c r="B43" t="str">
-        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C43" t="str">
-        <v>5a16ef0a-cce8-4d1b-bfa5-3892331170c1</v>
+        <v>151541b8-8cbb-452a-b532-1a0df3d1d4b6</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" t="str">
-        <v>A1</v>
-      </c>
-      <c r="F43" s="1">
-        <v>46000.538291944446</v>
+        <v>B3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>6b58308c-f80d-416c-9b6b-02f4314a33f4</v>
+        <v>1c3f244b-b164-4904-a5f1-1524195b494a</v>
       </c>
       <c r="B44" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C44" t="str">
-        <v>fc97dba8-a877-4547-b6c9-0c6b058b1c94</v>
+        <v>b498fd02-c816-4b07-976f-1100495bf38b</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44" t="str">
-        <v>A1</v>
-      </c>
-      <c r="F44" s="1">
-        <v>46000.52605988426</v>
-      </c>
-      <c r="G44" s="1">
-        <v>46000.52717275463</v>
+        <v>C1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>de24e1b7-54f7-4944-86a8-442ceab4b214</v>
+        <v>eef4b984-c474-4f43-aeed-197faa279405</v>
       </c>
       <c r="B45" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C45" t="str">
-        <v>151541b8-8cbb-452a-b532-1a0df3d1d4b6</v>
+        <v>a3363acf-3338-40ec-a745-9aef8dca39fc</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45" t="str">
-        <v>A3</v>
-      </c>
-      <c r="F45" s="1">
-        <v>46000.53318922454</v>
+        <v>C2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>ae186e42-c31d-4d22-b594-22ad500e037b</v>
+        <v>385ae883-11fc-4366-bdc9-aa7d308cbed7</v>
       </c>
       <c r="B46" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C46" t="str">
-        <v>8dfd710f-c1f0-43ee-b26d-13d05de4598b</v>
+        <v>cacb8de7-16c5-4332-9d25-a6794d8a23b3</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" t="str">
+        <v>D3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>6bde6343-e29a-442a-9189-6dccf7f25850</v>
+      </c>
+      <c r="B47" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C47" t="str">
+        <v>bb319a54-7dbf-4a05-bd7f-8f2f6aa6b414</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="str">
+        <v>E2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>b396cb42-cc76-4350-89e8-98b94de4815d</v>
+      </c>
+      <c r="B48" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C48" t="str">
+        <v>efeba788-8d57-40b3-a3f9-e134a40931ac</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48" t="str">
+        <v>A1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>24e9391d-f1db-42e8-bf49-d8a50c6924a4</v>
+      </c>
+      <c r="B49" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C49" t="str">
+        <v>b22d1d02-9344-4922-9be8-d8d05a79b0b0</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49" t="str">
         <v>A2</v>
       </c>
-      <c r="F46" s="1">
-        <v>46000.530885277774</v>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>5f3f2f6f-9c39-49d2-8992-ccaec88be285</v>
+      </c>
+      <c r="B50" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C50" t="str">
+        <v>8d8070dd-3ee6-476f-aaf2-631e80f67ef7</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50" t="str">
+        <v>A3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>0690114d-d0d8-4037-9a28-d510723b7e61</v>
+      </c>
+      <c r="B51" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C51" t="str">
+        <v>50b3a8f6-823f-477c-b52d-5b4fba4edbd2</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51" t="str">
+        <v>B1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>9044d7ab-e884-4032-b97c-d8a8c1fe1e8d</v>
+      </c>
+      <c r="B52" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C52" t="str">
+        <v>a3199cca-1aa6-4060-b6cd-0320712376ba</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52" t="str">
+        <v>B2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>d8ab2aa6-f759-423e-ba36-95e19395f7e1</v>
+      </c>
+      <c r="B53" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C53" t="str">
+        <v>81759c6b-da11-4c0e-9e96-92aa20964b06</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53" t="str">
+        <v>B3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>06479481-5b19-439e-b90b-b66c53b4b1b9</v>
+      </c>
+      <c r="B54" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C54" t="str">
+        <v>d4340206-46f8-4128-a64d-b1a7ca7bbdb5</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54" t="str">
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>14eafb47-bc4e-4314-8c84-c9ccd79c48e8</v>
+      </c>
+      <c r="B55" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C55" t="str">
+        <v>9e0ff879-df04-4a3f-b572-8633acb77cee</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55" t="str">
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>4a33a5a3-b9e2-4572-bfae-7a07cc18cab4</v>
+      </c>
+      <c r="B56" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C56" t="str">
+        <v>feb78ceb-dd95-455d-8b7d-fc0019ae54c8</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56" t="str">
+        <v>C3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>632a22c8-adb5-48e4-ae03-86b5b416926f</v>
+      </c>
+      <c r="B57" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C57" t="str">
+        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57" t="str">
+        <v>D1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>313caa2c-fc70-4c67-992c-01c66df3af1f</v>
+      </c>
+      <c r="B58" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C58" t="str">
+        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58" t="str">
+        <v>D2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>e0bbac1a-ae2c-423f-8e95-33f1adad8dc2</v>
+      </c>
+      <c r="B59" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C59" t="str">
+        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59" t="str">
+        <v>D3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>24e758b6-4ef6-4995-96d5-483fda8a9d64</v>
+      </c>
+      <c r="B60" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C60" t="str">
+        <v>bcc86f75-9a60-406c-be7c-4f31ea5c30ef</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60" t="str">
+        <v>E1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>c7d873c9-6f65-40c6-ad2e-d5e386b74027</v>
+      </c>
+      <c r="B61" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C61" t="str">
+        <v>29fc5656-fb78-4c9b-9800-b68957bc0a07</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61" t="str">
+        <v>E2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>5a54412a-9678-4001-8abf-6a6eb155c1e4</v>
+      </c>
+      <c r="B62" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C62" t="str">
+        <v>6b672a17-fbf7-4b44-841d-dc10fbe8cbce</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62" t="str">
+        <v>A1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>a95ab828-c44f-4fea-88a8-faa563ef3e25</v>
+      </c>
+      <c r="B63" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C63" t="str">
+        <v>9d8995c7-d5a1-4644-848d-dca4e81371af</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+      <c r="E63" t="str">
+        <v>A2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>887cbea0-1e69-44fb-b419-5c42ea7c1a87</v>
+      </c>
+      <c r="B64" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C64" t="str">
+        <v>1c24b746-78a8-49cd-9c4d-3d22726dbc1b</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+      <c r="E64" t="str">
+        <v>A3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>f6bd49a9-db23-44f1-9b32-84531f956b4f</v>
+      </c>
+      <c r="B65" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C65" t="str">
+        <v>b57be3ad-f74f-4f2b-aa79-6e410d2c199b</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+      <c r="E65" t="str">
+        <v>B1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>a33050c8-c302-43e8-b68f-edc8511e8a25</v>
+      </c>
+      <c r="B66" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C66" t="str">
+        <v>8819a806-f5b1-4b58-95f5-91489df570ac</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+      <c r="E66" t="str">
+        <v>B2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>489d808e-b5d9-4d37-a0bf-6d38b6e944d6</v>
+      </c>
+      <c r="B67" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C67" t="str">
+        <v>6116506f-31f1-444e-bd83-2991a5335470</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="E67" t="str">
+        <v>B3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>9239f2c8-8dff-49ae-a8f0-15cd14b10b4b</v>
+      </c>
+      <c r="B68" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C68" t="str">
+        <v>36fd980a-62d1-491b-97d6-079c33195e3d</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68" t="str">
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>87018188-dea2-488d-bbc5-93511f010e3c</v>
+      </c>
+      <c r="B69" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C69" t="str">
+        <v>17e4dd39-8810-472c-b1a9-52382fbe0c79</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+      <c r="E69" t="str">
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>de4be42d-21dc-4643-bb31-1a6bafe8b8cc</v>
+      </c>
+      <c r="B70" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C70" t="str">
+        <v>ce7b894b-705d-49f7-a6a3-e0a7fe953a10</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+      <c r="E70" t="str">
+        <v>C3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>bea17053-72b9-4ca5-9625-5555aca8ca24</v>
+      </c>
+      <c r="B71" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C71" t="str">
+        <v>97108062-7918-4f7f-a3f7-92bcbc478acd</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
+      <c r="E71" t="str">
+        <v>D1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>3e276ae2-bdb0-484a-9cfa-955e6b4ba8e2</v>
+      </c>
+      <c r="B72" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C72" t="str">
+        <v>29b3a5cd-ea7d-4673-9db4-7886660a791f</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+      <c r="E72" t="str">
+        <v>D2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>5a1ae218-ce7d-4c8c-a2da-d630963af6f4</v>
+      </c>
+      <c r="B73" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C73" t="str">
+        <v>d3db689e-5aed-4049-9588-adf3d1a49ae0</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73" t="str">
+        <v>D3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>9dfb721b-6ee8-410c-8d7a-874ee0c4f5e1</v>
+      </c>
+      <c r="B74" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C74" t="str">
+        <v>dbb200b8-766c-4984-9724-f68192d88939</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
+      <c r="E74" t="str">
+        <v>E1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>c0c1eeb3-ed06-4cb6-99bf-5b992835c4b3</v>
+      </c>
+      <c r="B75" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C75" t="str">
+        <v>aa6fa282-9894-4b21-a871-c9725586c397</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
+      </c>
+      <c r="E75" t="str">
+        <v>E2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>d966ee91-cd0e-4a0d-a751-798b92b03e60</v>
+      </c>
+      <c r="B76" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C76" t="str">
+        <v>df712cc5-31d8-4341-b177-6603bf089235</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76" t="str">
+        <v>A4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>47ec0204-7cf6-4afb-9b9e-a91324cdf4a9</v>
+      </c>
+      <c r="B77" t="str">
+        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
+      </c>
+      <c r="C77" t="str">
+        <v>5a16ef0a-cce8-4d1b-bfa5-3892331170c1</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77" t="str">
+        <v>A1</v>
+      </c>
+      <c r="F77" s="1">
+        <v>46000.538291944446</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>e914a306-fff3-4997-a092-87302be1bda0</v>
+      </c>
+      <c r="B78" t="str">
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
+      </c>
+      <c r="C78" t="str">
+        <v>0fc0ae2d-4068-4972-a5b1-963c241e317a</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78" t="str">
+        <v>A1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>64318131-3a36-4d14-a6ce-2699b7013fe5</v>
+      </c>
+      <c r="B79" t="str">
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
+      </c>
+      <c r="C79" t="str">
+        <v>347bdea3-79f6-4991-9601-b2d86513429e</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79" t="str">
+        <v>A2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>3b230921-6709-4bb4-b5dc-fd764580c535</v>
+      </c>
+      <c r="B80" t="str">
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
+      </c>
+      <c r="C80" t="str">
+        <v>dc8716d3-5841-439f-a3e4-3e7bd8306e66</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80" t="str">
+        <v>A3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>8fd02704-d4d6-498b-a9f9-66180b64176b</v>
+      </c>
+      <c r="B81" t="str">
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
+      </c>
+      <c r="C81" t="str">
+        <v>93e72347-d9bf-4fb1-b06c-7cb5a2edcc2a</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81" t="str">
+        <v>A4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>40079e20-52ad-4652-afcd-333795a7592d</v>
+      </c>
+      <c r="B82" t="str">
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
+      </c>
+      <c r="C82" t="str">
+        <v>d279968e-2739-4860-92b0-61f1c31b6a72</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82" t="str">
+        <v>B1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>b6f1d429-67e4-45b4-a204-d05480319da0</v>
+      </c>
+      <c r="B83" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C83" t="str">
+        <v>443fcd0e-727d-4035-ab6a-c3df01515271</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83" t="str">
+        <v>A2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>0d5bf843-81f3-4a36-925e-2ac5a65f3543</v>
+      </c>
+      <c r="B84" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C84" t="str">
+        <v>bede75d6-a4ec-4fe3-907f-35108a2b4b10</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84" t="str">
+        <v>D1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>4186c00e-c265-4dd5-a5d0-4df7882a204b</v>
+      </c>
+      <c r="B85" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C85" t="str">
+        <v>42504e80-d5df-4b97-a283-eb96728c425f</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85" t="str">
+        <v>E1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>4714b65d-0643-42ca-a7a2-8459962131a8</v>
+      </c>
+      <c r="B86" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C86" t="str">
+        <v>4f5756e4-c006-4d04-a9bc-7a2de0fdf149</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86" t="str">
+        <v>D2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>f979bc94-69a6-4473-be4f-3533f76cae2b</v>
+      </c>
+      <c r="B87" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C87" t="str">
+        <v>49fbe592-0995-4321-b8af-fbe859ca414c</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87" t="str">
+        <v>C3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>5ecac9a7-a6b9-48f1-a93b-557a39838f17</v>
+      </c>
+      <c r="B88" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C88" t="str">
+        <v>703385ff-46f6-4b8f-9998-1e18951304e0</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88" t="str">
+        <v>A1</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H46"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H88"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>ID</v>
+      </c>
+      <c r="B1" t="str">
+        <v>RecordDayID</v>
+      </c>
+      <c r="C1" t="str">
+        <v>ContestantID</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Status</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Notes</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>a11b3754-0163-43a3-8112-793c87694f2e</v>
+      </c>
+      <c r="B2" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C2" t="str">
+        <v>40a64316-1fb5-4a09-8c9d-14bbc19036d1</v>
+      </c>
+      <c r="D2" t="str">
+        <v>seated</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>31d2ce8a-617f-451e-a2a4-9a92fc3f17e2</v>
+      </c>
+      <c r="B3" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C3" t="str">
+        <v>40c53847-674f-43b5-8678-2decb3d42133</v>
+      </c>
+      <c r="D3" t="str">
+        <v>pending</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:E3"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -8897,7 +9666,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D27"/>
   <sheetViews>
@@ -9287,4 +10056,69 @@
     <ignoredError numberStoredAsText="1" sqref="A1:D27"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>ID</v>
+      </c>
+      <c r="B1" t="str">
+        <v>RecordDayID</v>
+      </c>
+      <c r="C1" t="str">
+        <v>ContestantID</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Reason</v>
+      </c>
+      <c r="E1" t="str">
+        <v>CanceledAt</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>03f5c6b5-b47c-40de-9554-c0d6fb75930b</v>
+      </c>
+      <c r="B2" t="str">
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
+      </c>
+      <c r="C2" t="str">
+        <v>6366884b-6583-493e-80bc-a1dff1926c59</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Cant do feb - book in march onwards</v>
+      </c>
+      <c r="E2" s="1">
+        <v>46001.254457083334</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>95999c56-5e18-4ae1-a665-5628a8b3082b</v>
+      </c>
+      <c r="B3" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C3" t="str">
+        <v>40a64316-1fb5-4a09-8c9d-14bbc19036d1</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Standby - eligible for reschedule</v>
+      </c>
+      <c r="E3" s="1">
+        <v>46001.26070648148</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:E3"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/storage/backups/automatic-backup.xlsx
+++ b/storage/backups/automatic-backup.xlsx
@@ -8398,36 +8398,36 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>6b58308c-f80d-416c-9b6b-02f4314a33f4</v>
+        <v>ae186e42-c31d-4d22-b594-22ad500e037b</v>
       </c>
       <c r="B22" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C22" t="str">
-        <v>fc97dba8-a877-4547-b6c9-0c6b058b1c94</v>
+        <v>8dfd710f-c1f0-43ee-b26d-13d05de4598b</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="str">
-        <v>B1</v>
+        <v>A2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>ae186e42-c31d-4d22-b594-22ad500e037b</v>
+        <v>6b58308c-f80d-416c-9b6b-02f4314a33f4</v>
       </c>
       <c r="B23" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C23" t="str">
-        <v>8dfd710f-c1f0-43ee-b26d-13d05de4598b</v>
+        <v>fc97dba8-a877-4547-b6c9-0c6b058b1c94</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="str">
-        <v>B2</v>
+        <v>A1</v>
       </c>
     </row>
     <row r="24">
@@ -8750,7 +8750,7 @@
         <v>1</v>
       </c>
       <c r="E42" t="str">
-        <v>A3</v>
+        <v>B3</v>
       </c>
     </row>
     <row r="43">
@@ -8767,7 +8767,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="str">
-        <v>B3</v>
+        <v>A3</v>
       </c>
     </row>
     <row r="44">
@@ -9438,87 +9438,87 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>b6f1d429-67e4-45b4-a204-d05480319da0</v>
+        <v>0d5bf843-81f3-4a36-925e-2ac5a65f3543</v>
       </c>
       <c r="B83" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C83" t="str">
-        <v>443fcd0e-727d-4035-ab6a-c3df01515271</v>
+        <v>bede75d6-a4ec-4fe3-907f-35108a2b4b10</v>
       </c>
       <c r="D83">
         <v>1</v>
       </c>
       <c r="E83" t="str">
-        <v>A2</v>
+        <v>D1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>0d5bf843-81f3-4a36-925e-2ac5a65f3543</v>
+        <v>4186c00e-c265-4dd5-a5d0-4df7882a204b</v>
       </c>
       <c r="B84" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C84" t="str">
-        <v>bede75d6-a4ec-4fe3-907f-35108a2b4b10</v>
+        <v>42504e80-d5df-4b97-a283-eb96728c425f</v>
       </c>
       <c r="D84">
         <v>1</v>
       </c>
       <c r="E84" t="str">
-        <v>D1</v>
+        <v>E1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>4186c00e-c265-4dd5-a5d0-4df7882a204b</v>
+        <v>4714b65d-0643-42ca-a7a2-8459962131a8</v>
       </c>
       <c r="B85" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C85" t="str">
-        <v>42504e80-d5df-4b97-a283-eb96728c425f</v>
+        <v>4f5756e4-c006-4d04-a9bc-7a2de0fdf149</v>
       </c>
       <c r="D85">
         <v>1</v>
       </c>
       <c r="E85" t="str">
-        <v>E1</v>
+        <v>D2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>4714b65d-0643-42ca-a7a2-8459962131a8</v>
+        <v>f979bc94-69a6-4473-be4f-3533f76cae2b</v>
       </c>
       <c r="B86" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C86" t="str">
-        <v>4f5756e4-c006-4d04-a9bc-7a2de0fdf149</v>
+        <v>49fbe592-0995-4321-b8af-fbe859ca414c</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
       <c r="E86" t="str">
-        <v>D2</v>
+        <v>C3</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>f979bc94-69a6-4473-be4f-3533f76cae2b</v>
+        <v>b6f1d429-67e4-45b4-a204-d05480319da0</v>
       </c>
       <c r="B87" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C87" t="str">
-        <v>49fbe592-0995-4321-b8af-fbe859ca414c</v>
+        <v>443fcd0e-727d-4035-ab6a-c3df01515271</v>
       </c>
       <c r="D87">
         <v>1</v>
       </c>
       <c r="E87" t="str">
-        <v>C3</v>
+        <v>B2</v>
       </c>
     </row>
     <row r="88">
@@ -9535,7 +9535,7 @@
         <v>1</v>
       </c>
       <c r="E88" t="str">
-        <v>A1</v>
+        <v>B1</v>
       </c>
     </row>
   </sheetData>

--- a/storage/backups/automatic-backup.xlsx
+++ b/storage/backups/automatic-backup.xlsx
@@ -8789,753 +8789,753 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>eef4b984-c474-4f43-aeed-197faa279405</v>
+        <v>b396cb42-cc76-4350-89e8-98b94de4815d</v>
       </c>
       <c r="B45" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C45" t="str">
-        <v>a3363acf-3338-40ec-a745-9aef8dca39fc</v>
+        <v>efeba788-8d57-40b3-a3f9-e134a40931ac</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45" t="str">
-        <v>C2</v>
+        <v>A1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>385ae883-11fc-4366-bdc9-aa7d308cbed7</v>
+        <v>24e9391d-f1db-42e8-bf49-d8a50c6924a4</v>
       </c>
       <c r="B46" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C46" t="str">
-        <v>cacb8de7-16c5-4332-9d25-a6794d8a23b3</v>
+        <v>b22d1d02-9344-4922-9be8-d8d05a79b0b0</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46" t="str">
-        <v>D3</v>
+        <v>A2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>6bde6343-e29a-442a-9189-6dccf7f25850</v>
+        <v>5f3f2f6f-9c39-49d2-8992-ccaec88be285</v>
       </c>
       <c r="B47" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C47" t="str">
-        <v>bb319a54-7dbf-4a05-bd7f-8f2f6aa6b414</v>
+        <v>8d8070dd-3ee6-476f-aaf2-631e80f67ef7</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47" t="str">
-        <v>E2</v>
+        <v>A3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>b396cb42-cc76-4350-89e8-98b94de4815d</v>
+        <v>0690114d-d0d8-4037-9a28-d510723b7e61</v>
       </c>
       <c r="B48" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C48" t="str">
-        <v>efeba788-8d57-40b3-a3f9-e134a40931ac</v>
+        <v>50b3a8f6-823f-477c-b52d-5b4fba4edbd2</v>
       </c>
       <c r="D48">
         <v>2</v>
       </c>
       <c r="E48" t="str">
-        <v>A1</v>
+        <v>B1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>24e9391d-f1db-42e8-bf49-d8a50c6924a4</v>
+        <v>9044d7ab-e884-4032-b97c-d8a8c1fe1e8d</v>
       </c>
       <c r="B49" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C49" t="str">
-        <v>b22d1d02-9344-4922-9be8-d8d05a79b0b0</v>
+        <v>a3199cca-1aa6-4060-b6cd-0320712376ba</v>
       </c>
       <c r="D49">
         <v>2</v>
       </c>
       <c r="E49" t="str">
-        <v>A2</v>
+        <v>B2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>5f3f2f6f-9c39-49d2-8992-ccaec88be285</v>
+        <v>d8ab2aa6-f759-423e-ba36-95e19395f7e1</v>
       </c>
       <c r="B50" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C50" t="str">
-        <v>8d8070dd-3ee6-476f-aaf2-631e80f67ef7</v>
+        <v>81759c6b-da11-4c0e-9e96-92aa20964b06</v>
       </c>
       <c r="D50">
         <v>2</v>
       </c>
       <c r="E50" t="str">
-        <v>A3</v>
+        <v>B3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>0690114d-d0d8-4037-9a28-d510723b7e61</v>
+        <v>06479481-5b19-439e-b90b-b66c53b4b1b9</v>
       </c>
       <c r="B51" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C51" t="str">
-        <v>50b3a8f6-823f-477c-b52d-5b4fba4edbd2</v>
+        <v>d4340206-46f8-4128-a64d-b1a7ca7bbdb5</v>
       </c>
       <c r="D51">
         <v>2</v>
       </c>
       <c r="E51" t="str">
-        <v>B1</v>
+        <v>C1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>9044d7ab-e884-4032-b97c-d8a8c1fe1e8d</v>
+        <v>14eafb47-bc4e-4314-8c84-c9ccd79c48e8</v>
       </c>
       <c r="B52" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C52" t="str">
-        <v>a3199cca-1aa6-4060-b6cd-0320712376ba</v>
+        <v>9e0ff879-df04-4a3f-b572-8633acb77cee</v>
       </c>
       <c r="D52">
         <v>2</v>
       </c>
       <c r="E52" t="str">
-        <v>B2</v>
+        <v>C2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>d8ab2aa6-f759-423e-ba36-95e19395f7e1</v>
+        <v>4a33a5a3-b9e2-4572-bfae-7a07cc18cab4</v>
       </c>
       <c r="B53" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C53" t="str">
-        <v>81759c6b-da11-4c0e-9e96-92aa20964b06</v>
+        <v>feb78ceb-dd95-455d-8b7d-fc0019ae54c8</v>
       </c>
       <c r="D53">
         <v>2</v>
       </c>
       <c r="E53" t="str">
-        <v>B3</v>
+        <v>C3</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>06479481-5b19-439e-b90b-b66c53b4b1b9</v>
+        <v>632a22c8-adb5-48e4-ae03-86b5b416926f</v>
       </c>
       <c r="B54" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C54" t="str">
-        <v>d4340206-46f8-4128-a64d-b1a7ca7bbdb5</v>
+        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
       </c>
       <c r="D54">
         <v>2</v>
       </c>
       <c r="E54" t="str">
-        <v>C1</v>
+        <v>D1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>14eafb47-bc4e-4314-8c84-c9ccd79c48e8</v>
+        <v>313caa2c-fc70-4c67-992c-01c66df3af1f</v>
       </c>
       <c r="B55" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C55" t="str">
-        <v>9e0ff879-df04-4a3f-b572-8633acb77cee</v>
+        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
       </c>
       <c r="D55">
         <v>2</v>
       </c>
       <c r="E55" t="str">
-        <v>C2</v>
+        <v>D2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>4a33a5a3-b9e2-4572-bfae-7a07cc18cab4</v>
+        <v>e0bbac1a-ae2c-423f-8e95-33f1adad8dc2</v>
       </c>
       <c r="B56" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C56" t="str">
-        <v>feb78ceb-dd95-455d-8b7d-fc0019ae54c8</v>
+        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
       </c>
       <c r="D56">
         <v>2</v>
       </c>
       <c r="E56" t="str">
-        <v>C3</v>
+        <v>D3</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>632a22c8-adb5-48e4-ae03-86b5b416926f</v>
+        <v>24e758b6-4ef6-4995-96d5-483fda8a9d64</v>
       </c>
       <c r="B57" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C57" t="str">
-        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
+        <v>bcc86f75-9a60-406c-be7c-4f31ea5c30ef</v>
       </c>
       <c r="D57">
         <v>2</v>
       </c>
       <c r="E57" t="str">
-        <v>D1</v>
+        <v>E1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>313caa2c-fc70-4c67-992c-01c66df3af1f</v>
+        <v>c7d873c9-6f65-40c6-ad2e-d5e386b74027</v>
       </c>
       <c r="B58" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C58" t="str">
-        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
+        <v>29fc5656-fb78-4c9b-9800-b68957bc0a07</v>
       </c>
       <c r="D58">
         <v>2</v>
       </c>
       <c r="E58" t="str">
-        <v>D2</v>
+        <v>E2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>e0bbac1a-ae2c-423f-8e95-33f1adad8dc2</v>
+        <v>5a54412a-9678-4001-8abf-6a6eb155c1e4</v>
       </c>
       <c r="B59" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C59" t="str">
-        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
+        <v>6b672a17-fbf7-4b44-841d-dc10fbe8cbce</v>
       </c>
       <c r="D59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E59" t="str">
-        <v>D3</v>
+        <v>A1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>24e758b6-4ef6-4995-96d5-483fda8a9d64</v>
+        <v>a95ab828-c44f-4fea-88a8-faa563ef3e25</v>
       </c>
       <c r="B60" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C60" t="str">
-        <v>bcc86f75-9a60-406c-be7c-4f31ea5c30ef</v>
+        <v>9d8995c7-d5a1-4644-848d-dca4e81371af</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E60" t="str">
-        <v>E1</v>
+        <v>A2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>c7d873c9-6f65-40c6-ad2e-d5e386b74027</v>
+        <v>887cbea0-1e69-44fb-b419-5c42ea7c1a87</v>
       </c>
       <c r="B61" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C61" t="str">
-        <v>29fc5656-fb78-4c9b-9800-b68957bc0a07</v>
+        <v>1c24b746-78a8-49cd-9c4d-3d22726dbc1b</v>
       </c>
       <c r="D61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E61" t="str">
-        <v>E2</v>
+        <v>A3</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>5a54412a-9678-4001-8abf-6a6eb155c1e4</v>
+        <v>f6bd49a9-db23-44f1-9b32-84531f956b4f</v>
       </c>
       <c r="B62" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C62" t="str">
-        <v>6b672a17-fbf7-4b44-841d-dc10fbe8cbce</v>
+        <v>b57be3ad-f74f-4f2b-aa79-6e410d2c199b</v>
       </c>
       <c r="D62">
         <v>3</v>
       </c>
       <c r="E62" t="str">
-        <v>A1</v>
+        <v>B1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>a95ab828-c44f-4fea-88a8-faa563ef3e25</v>
+        <v>a33050c8-c302-43e8-b68f-edc8511e8a25</v>
       </c>
       <c r="B63" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C63" t="str">
-        <v>9d8995c7-d5a1-4644-848d-dca4e81371af</v>
+        <v>8819a806-f5b1-4b58-95f5-91489df570ac</v>
       </c>
       <c r="D63">
         <v>3</v>
       </c>
       <c r="E63" t="str">
-        <v>A2</v>
+        <v>B2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>887cbea0-1e69-44fb-b419-5c42ea7c1a87</v>
+        <v>489d808e-b5d9-4d37-a0bf-6d38b6e944d6</v>
       </c>
       <c r="B64" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C64" t="str">
-        <v>1c24b746-78a8-49cd-9c4d-3d22726dbc1b</v>
+        <v>6116506f-31f1-444e-bd83-2991a5335470</v>
       </c>
       <c r="D64">
         <v>3</v>
       </c>
       <c r="E64" t="str">
-        <v>A3</v>
+        <v>B3</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>f6bd49a9-db23-44f1-9b32-84531f956b4f</v>
+        <v>9239f2c8-8dff-49ae-a8f0-15cd14b10b4b</v>
       </c>
       <c r="B65" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C65" t="str">
-        <v>b57be3ad-f74f-4f2b-aa79-6e410d2c199b</v>
+        <v>36fd980a-62d1-491b-97d6-079c33195e3d</v>
       </c>
       <c r="D65">
         <v>3</v>
       </c>
       <c r="E65" t="str">
-        <v>B1</v>
+        <v>C1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>a33050c8-c302-43e8-b68f-edc8511e8a25</v>
+        <v>87018188-dea2-488d-bbc5-93511f010e3c</v>
       </c>
       <c r="B66" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C66" t="str">
-        <v>8819a806-f5b1-4b58-95f5-91489df570ac</v>
+        <v>17e4dd39-8810-472c-b1a9-52382fbe0c79</v>
       </c>
       <c r="D66">
         <v>3</v>
       </c>
       <c r="E66" t="str">
-        <v>B2</v>
+        <v>C2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>489d808e-b5d9-4d37-a0bf-6d38b6e944d6</v>
+        <v>de4be42d-21dc-4643-bb31-1a6bafe8b8cc</v>
       </c>
       <c r="B67" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C67" t="str">
-        <v>6116506f-31f1-444e-bd83-2991a5335470</v>
+        <v>ce7b894b-705d-49f7-a6a3-e0a7fe953a10</v>
       </c>
       <c r="D67">
         <v>3</v>
       </c>
       <c r="E67" t="str">
-        <v>B3</v>
+        <v>C3</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>9239f2c8-8dff-49ae-a8f0-15cd14b10b4b</v>
+        <v>bea17053-72b9-4ca5-9625-5555aca8ca24</v>
       </c>
       <c r="B68" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C68" t="str">
-        <v>36fd980a-62d1-491b-97d6-079c33195e3d</v>
+        <v>97108062-7918-4f7f-a3f7-92bcbc478acd</v>
       </c>
       <c r="D68">
         <v>3</v>
       </c>
       <c r="E68" t="str">
-        <v>C1</v>
+        <v>D1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>87018188-dea2-488d-bbc5-93511f010e3c</v>
+        <v>3e276ae2-bdb0-484a-9cfa-955e6b4ba8e2</v>
       </c>
       <c r="B69" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C69" t="str">
-        <v>17e4dd39-8810-472c-b1a9-52382fbe0c79</v>
+        <v>29b3a5cd-ea7d-4673-9db4-7886660a791f</v>
       </c>
       <c r="D69">
         <v>3</v>
       </c>
       <c r="E69" t="str">
-        <v>C2</v>
+        <v>D2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>de4be42d-21dc-4643-bb31-1a6bafe8b8cc</v>
+        <v>5a1ae218-ce7d-4c8c-a2da-d630963af6f4</v>
       </c>
       <c r="B70" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C70" t="str">
-        <v>ce7b894b-705d-49f7-a6a3-e0a7fe953a10</v>
+        <v>d3db689e-5aed-4049-9588-adf3d1a49ae0</v>
       </c>
       <c r="D70">
         <v>3</v>
       </c>
       <c r="E70" t="str">
-        <v>C3</v>
+        <v>D3</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>bea17053-72b9-4ca5-9625-5555aca8ca24</v>
+        <v>9dfb721b-6ee8-410c-8d7a-874ee0c4f5e1</v>
       </c>
       <c r="B71" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C71" t="str">
-        <v>97108062-7918-4f7f-a3f7-92bcbc478acd</v>
+        <v>dbb200b8-766c-4984-9724-f68192d88939</v>
       </c>
       <c r="D71">
         <v>3</v>
       </c>
       <c r="E71" t="str">
-        <v>D1</v>
+        <v>E1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>3e276ae2-bdb0-484a-9cfa-955e6b4ba8e2</v>
+        <v>c0c1eeb3-ed06-4cb6-99bf-5b992835c4b3</v>
       </c>
       <c r="B72" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C72" t="str">
-        <v>29b3a5cd-ea7d-4673-9db4-7886660a791f</v>
+        <v>aa6fa282-9894-4b21-a871-c9725586c397</v>
       </c>
       <c r="D72">
         <v>3</v>
       </c>
       <c r="E72" t="str">
-        <v>D2</v>
+        <v>E2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>5a1ae218-ce7d-4c8c-a2da-d630963af6f4</v>
+        <v>d966ee91-cd0e-4a0d-a751-798b92b03e60</v>
       </c>
       <c r="B73" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C73" t="str">
-        <v>d3db689e-5aed-4049-9588-adf3d1a49ae0</v>
+        <v>df712cc5-31d8-4341-b177-6603bf089235</v>
       </c>
       <c r="D73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E73" t="str">
-        <v>D3</v>
+        <v>A4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>9dfb721b-6ee8-410c-8d7a-874ee0c4f5e1</v>
+        <v>47ec0204-7cf6-4afb-9b9e-a91324cdf4a9</v>
       </c>
       <c r="B74" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
       </c>
       <c r="C74" t="str">
-        <v>dbb200b8-766c-4984-9724-f68192d88939</v>
+        <v>5a16ef0a-cce8-4d1b-bfa5-3892331170c1</v>
       </c>
       <c r="D74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E74" t="str">
-        <v>E1</v>
+        <v>A1</v>
+      </c>
+      <c r="F74" s="1">
+        <v>46000.538291944446</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>c0c1eeb3-ed06-4cb6-99bf-5b992835c4b3</v>
+        <v>e914a306-fff3-4997-a092-87302be1bda0</v>
       </c>
       <c r="B75" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C75" t="str">
-        <v>aa6fa282-9894-4b21-a871-c9725586c397</v>
+        <v>0fc0ae2d-4068-4972-a5b1-963c241e317a</v>
       </c>
       <c r="D75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E75" t="str">
-        <v>E2</v>
+        <v>A1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>d966ee91-cd0e-4a0d-a751-798b92b03e60</v>
+        <v>64318131-3a36-4d14-a6ce-2699b7013fe5</v>
       </c>
       <c r="B76" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C76" t="str">
-        <v>df712cc5-31d8-4341-b177-6603bf089235</v>
+        <v>347bdea3-79f6-4991-9601-b2d86513429e</v>
       </c>
       <c r="D76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E76" t="str">
-        <v>A4</v>
+        <v>A2</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>47ec0204-7cf6-4afb-9b9e-a91324cdf4a9</v>
+        <v>3b230921-6709-4bb4-b5dc-fd764580c535</v>
       </c>
       <c r="B77" t="str">
-        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C77" t="str">
-        <v>5a16ef0a-cce8-4d1b-bfa5-3892331170c1</v>
+        <v>dc8716d3-5841-439f-a3e4-3e7bd8306e66</v>
       </c>
       <c r="D77">
         <v>1</v>
       </c>
       <c r="E77" t="str">
-        <v>A1</v>
-      </c>
-      <c r="F77" s="1">
-        <v>46000.538291944446</v>
+        <v>A3</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>e914a306-fff3-4997-a092-87302be1bda0</v>
+        <v>8fd02704-d4d6-498b-a9f9-66180b64176b</v>
       </c>
       <c r="B78" t="str">
         <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C78" t="str">
-        <v>0fc0ae2d-4068-4972-a5b1-963c241e317a</v>
+        <v>93e72347-d9bf-4fb1-b06c-7cb5a2edcc2a</v>
       </c>
       <c r="D78">
         <v>1</v>
       </c>
       <c r="E78" t="str">
-        <v>A1</v>
+        <v>A4</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>64318131-3a36-4d14-a6ce-2699b7013fe5</v>
+        <v>40079e20-52ad-4652-afcd-333795a7592d</v>
       </c>
       <c r="B79" t="str">
         <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C79" t="str">
-        <v>347bdea3-79f6-4991-9601-b2d86513429e</v>
+        <v>d279968e-2739-4860-92b0-61f1c31b6a72</v>
       </c>
       <c r="D79">
         <v>1</v>
       </c>
       <c r="E79" t="str">
-        <v>A2</v>
+        <v>B1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>3b230921-6709-4bb4-b5dc-fd764580c535</v>
+        <v>0d5bf843-81f3-4a36-925e-2ac5a65f3543</v>
       </c>
       <c r="B80" t="str">
-        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C80" t="str">
-        <v>dc8716d3-5841-439f-a3e4-3e7bd8306e66</v>
+        <v>bede75d6-a4ec-4fe3-907f-35108a2b4b10</v>
       </c>
       <c r="D80">
         <v>1</v>
       </c>
       <c r="E80" t="str">
-        <v>A3</v>
+        <v>D1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>8fd02704-d4d6-498b-a9f9-66180b64176b</v>
+        <v>4186c00e-c265-4dd5-a5d0-4df7882a204b</v>
       </c>
       <c r="B81" t="str">
-        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C81" t="str">
-        <v>93e72347-d9bf-4fb1-b06c-7cb5a2edcc2a</v>
+        <v>42504e80-d5df-4b97-a283-eb96728c425f</v>
       </c>
       <c r="D81">
         <v>1</v>
       </c>
       <c r="E81" t="str">
-        <v>A4</v>
+        <v>E1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>40079e20-52ad-4652-afcd-333795a7592d</v>
+        <v>4714b65d-0643-42ca-a7a2-8459962131a8</v>
       </c>
       <c r="B82" t="str">
-        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C82" t="str">
-        <v>d279968e-2739-4860-92b0-61f1c31b6a72</v>
+        <v>4f5756e4-c006-4d04-a9bc-7a2de0fdf149</v>
       </c>
       <c r="D82">
         <v>1</v>
       </c>
       <c r="E82" t="str">
-        <v>B1</v>
+        <v>D2</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>0d5bf843-81f3-4a36-925e-2ac5a65f3543</v>
+        <v>f979bc94-69a6-4473-be4f-3533f76cae2b</v>
       </c>
       <c r="B83" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C83" t="str">
-        <v>bede75d6-a4ec-4fe3-907f-35108a2b4b10</v>
+        <v>49fbe592-0995-4321-b8af-fbe859ca414c</v>
       </c>
       <c r="D83">
         <v>1</v>
       </c>
       <c r="E83" t="str">
-        <v>D1</v>
+        <v>C3</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>4186c00e-c265-4dd5-a5d0-4df7882a204b</v>
+        <v>b6f1d429-67e4-45b4-a204-d05480319da0</v>
       </c>
       <c r="B84" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C84" t="str">
-        <v>42504e80-d5df-4b97-a283-eb96728c425f</v>
+        <v>443fcd0e-727d-4035-ab6a-c3df01515271</v>
       </c>
       <c r="D84">
         <v>1</v>
       </c>
       <c r="E84" t="str">
-        <v>E1</v>
+        <v>B2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>4714b65d-0643-42ca-a7a2-8459962131a8</v>
+        <v>5ecac9a7-a6b9-48f1-a93b-557a39838f17</v>
       </c>
       <c r="B85" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C85" t="str">
-        <v>4f5756e4-c006-4d04-a9bc-7a2de0fdf149</v>
+        <v>703385ff-46f6-4b8f-9998-1e18951304e0</v>
       </c>
       <c r="D85">
         <v>1</v>
       </c>
       <c r="E85" t="str">
-        <v>D2</v>
+        <v>B1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>f979bc94-69a6-4473-be4f-3533f76cae2b</v>
+        <v>eef4b984-c474-4f43-aeed-197faa279405</v>
       </c>
       <c r="B86" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C86" t="str">
-        <v>49fbe592-0995-4321-b8af-fbe859ca414c</v>
+        <v>a3363acf-3338-40ec-a745-9aef8dca39fc</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
       <c r="E86" t="str">
-        <v>C3</v>
+        <v>C2</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>b6f1d429-67e4-45b4-a204-d05480319da0</v>
+        <v>385ae883-11fc-4366-bdc9-aa7d308cbed7</v>
       </c>
       <c r="B87" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C87" t="str">
-        <v>443fcd0e-727d-4035-ab6a-c3df01515271</v>
+        <v>cacb8de7-16c5-4332-9d25-a6794d8a23b3</v>
       </c>
       <c r="D87">
         <v>1</v>
       </c>
       <c r="E87" t="str">
-        <v>B2</v>
+        <v>D3</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>5ecac9a7-a6b9-48f1-a93b-557a39838f17</v>
+        <v>6bde6343-e29a-442a-9189-6dccf7f25850</v>
       </c>
       <c r="B88" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C88" t="str">
-        <v>703385ff-46f6-4b8f-9998-1e18951304e0</v>
+        <v>bb319a54-7dbf-4a05-bd7f-8f2f6aa6b414</v>
       </c>
       <c r="D88">
         <v>1</v>
       </c>
       <c r="E88" t="str">
-        <v>B1</v>
+        <v>E2</v>
       </c>
     </row>
   </sheetData>

--- a/storage/backups/automatic-backup.xlsx
+++ b/storage/backups/automatic-backup.xlsx
@@ -9506,36 +9506,36 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>385ae883-11fc-4366-bdc9-aa7d308cbed7</v>
+        <v>6bde6343-e29a-442a-9189-6dccf7f25850</v>
       </c>
       <c r="B87" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C87" t="str">
-        <v>cacb8de7-16c5-4332-9d25-a6794d8a23b3</v>
+        <v>bb319a54-7dbf-4a05-bd7f-8f2f6aa6b414</v>
       </c>
       <c r="D87">
         <v>1</v>
       </c>
       <c r="E87" t="str">
-        <v>D3</v>
+        <v>E2</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>6bde6343-e29a-442a-9189-6dccf7f25850</v>
+        <v>385ae883-11fc-4366-bdc9-aa7d308cbed7</v>
       </c>
       <c r="B88" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C88" t="str">
-        <v>bb319a54-7dbf-4a05-bd7f-8f2f6aa6b414</v>
+        <v>cacb8de7-16c5-4332-9d25-a6794d8a23b3</v>
       </c>
       <c r="D88">
         <v>1</v>
       </c>
       <c r="E88" t="str">
-        <v>E2</v>
+        <v>D3</v>
       </c>
     </row>
   </sheetData>

--- a/storage/backups/automatic-backup.xlsx
+++ b/storage/backups/automatic-backup.xlsx
@@ -9489,36 +9489,36 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>eef4b984-c474-4f43-aeed-197faa279405</v>
+        <v>6bde6343-e29a-442a-9189-6dccf7f25850</v>
       </c>
       <c r="B86" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C86" t="str">
-        <v>a3363acf-3338-40ec-a745-9aef8dca39fc</v>
+        <v>bb319a54-7dbf-4a05-bd7f-8f2f6aa6b414</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
       <c r="E86" t="str">
-        <v>C2</v>
+        <v>E2</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>6bde6343-e29a-442a-9189-6dccf7f25850</v>
+        <v>eef4b984-c474-4f43-aeed-197faa279405</v>
       </c>
       <c r="B87" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C87" t="str">
-        <v>bb319a54-7dbf-4a05-bd7f-8f2f6aa6b414</v>
+        <v>a3363acf-3338-40ec-a745-9aef8dca39fc</v>
       </c>
       <c r="D87">
         <v>1</v>
       </c>
       <c r="E87" t="str">
-        <v>E2</v>
+        <v>C2</v>
       </c>
     </row>
     <row r="88">

--- a/storage/backups/automatic-backup.xlsx
+++ b/storage/backups/automatic-backup.xlsx
@@ -9404,19 +9404,19 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>4186c00e-c265-4dd5-a5d0-4df7882a204b</v>
+        <v>6bde6343-e29a-442a-9189-6dccf7f25850</v>
       </c>
       <c r="B81" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C81" t="str">
-        <v>42504e80-d5df-4b97-a283-eb96728c425f</v>
+        <v>bb319a54-7dbf-4a05-bd7f-8f2f6aa6b414</v>
       </c>
       <c r="D81">
         <v>1</v>
       </c>
       <c r="E81" t="str">
-        <v>E1</v>
+        <v>E2</v>
       </c>
     </row>
     <row r="82">
@@ -9489,19 +9489,19 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>6bde6343-e29a-442a-9189-6dccf7f25850</v>
+        <v>4186c00e-c265-4dd5-a5d0-4df7882a204b</v>
       </c>
       <c r="B86" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C86" t="str">
-        <v>bb319a54-7dbf-4a05-bd7f-8f2f6aa6b414</v>
+        <v>42504e80-d5df-4b97-a283-eb96728c425f</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
       <c r="E86" t="str">
-        <v>E2</v>
+        <v>E1</v>
       </c>
     </row>
     <row r="87">

--- a/storage/backups/automatic-backup.xlsx
+++ b/storage/backups/automatic-backup.xlsx
@@ -9404,19 +9404,19 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>6bde6343-e29a-442a-9189-6dccf7f25850</v>
+        <v>385ae883-11fc-4366-bdc9-aa7d308cbed7</v>
       </c>
       <c r="B81" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C81" t="str">
-        <v>bb319a54-7dbf-4a05-bd7f-8f2f6aa6b414</v>
+        <v>cacb8de7-16c5-4332-9d25-a6794d8a23b3</v>
       </c>
       <c r="D81">
         <v>1</v>
       </c>
       <c r="E81" t="str">
-        <v>E2</v>
+        <v>D3</v>
       </c>
     </row>
     <row r="82">
@@ -9489,53 +9489,53 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>4186c00e-c265-4dd5-a5d0-4df7882a204b</v>
+        <v>6bde6343-e29a-442a-9189-6dccf7f25850</v>
       </c>
       <c r="B86" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C86" t="str">
-        <v>42504e80-d5df-4b97-a283-eb96728c425f</v>
+        <v>bb319a54-7dbf-4a05-bd7f-8f2f6aa6b414</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
       <c r="E86" t="str">
-        <v>E1</v>
+        <v>E2</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>eef4b984-c474-4f43-aeed-197faa279405</v>
+        <v>4186c00e-c265-4dd5-a5d0-4df7882a204b</v>
       </c>
       <c r="B87" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C87" t="str">
-        <v>a3363acf-3338-40ec-a745-9aef8dca39fc</v>
+        <v>42504e80-d5df-4b97-a283-eb96728c425f</v>
       </c>
       <c r="D87">
         <v>1</v>
       </c>
       <c r="E87" t="str">
-        <v>C2</v>
+        <v>E1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>385ae883-11fc-4366-bdc9-aa7d308cbed7</v>
+        <v>eef4b984-c474-4f43-aeed-197faa279405</v>
       </c>
       <c r="B88" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C88" t="str">
-        <v>cacb8de7-16c5-4332-9d25-a6794d8a23b3</v>
+        <v>a3363acf-3338-40ec-a745-9aef8dca39fc</v>
       </c>
       <c r="D88">
         <v>1</v>
       </c>
       <c r="E88" t="str">
-        <v>D3</v>
+        <v>C2</v>
       </c>
     </row>
   </sheetData>

--- a/storage/backups/automatic-backup.xlsx
+++ b/storage/backups/automatic-backup.xlsx
@@ -8959,336 +8959,339 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>313caa2c-fc70-4c67-992c-01c66df3af1f</v>
+        <v>e0bbac1a-ae2c-423f-8e95-33f1adad8dc2</v>
       </c>
       <c r="B55" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C55" t="str">
-        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
+        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
       </c>
       <c r="D55">
         <v>2</v>
       </c>
       <c r="E55" t="str">
-        <v>D2</v>
+        <v>D3</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>e0bbac1a-ae2c-423f-8e95-33f1adad8dc2</v>
+        <v>24e758b6-4ef6-4995-96d5-483fda8a9d64</v>
       </c>
       <c r="B56" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C56" t="str">
-        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
+        <v>bcc86f75-9a60-406c-be7c-4f31ea5c30ef</v>
       </c>
       <c r="D56">
         <v>2</v>
       </c>
       <c r="E56" t="str">
-        <v>D3</v>
+        <v>E1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>24e758b6-4ef6-4995-96d5-483fda8a9d64</v>
+        <v>c7d873c9-6f65-40c6-ad2e-d5e386b74027</v>
       </c>
       <c r="B57" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C57" t="str">
-        <v>bcc86f75-9a60-406c-be7c-4f31ea5c30ef</v>
+        <v>29fc5656-fb78-4c9b-9800-b68957bc0a07</v>
       </c>
       <c r="D57">
         <v>2</v>
       </c>
       <c r="E57" t="str">
-        <v>E1</v>
+        <v>E2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>c7d873c9-6f65-40c6-ad2e-d5e386b74027</v>
+        <v>5a54412a-9678-4001-8abf-6a6eb155c1e4</v>
       </c>
       <c r="B58" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C58" t="str">
-        <v>29fc5656-fb78-4c9b-9800-b68957bc0a07</v>
+        <v>6b672a17-fbf7-4b44-841d-dc10fbe8cbce</v>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E58" t="str">
-        <v>E2</v>
+        <v>A1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>5a54412a-9678-4001-8abf-6a6eb155c1e4</v>
+        <v>a95ab828-c44f-4fea-88a8-faa563ef3e25</v>
       </c>
       <c r="B59" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C59" t="str">
-        <v>6b672a17-fbf7-4b44-841d-dc10fbe8cbce</v>
+        <v>9d8995c7-d5a1-4644-848d-dca4e81371af</v>
       </c>
       <c r="D59">
         <v>3</v>
       </c>
       <c r="E59" t="str">
-        <v>A1</v>
+        <v>A2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>a95ab828-c44f-4fea-88a8-faa563ef3e25</v>
+        <v>887cbea0-1e69-44fb-b419-5c42ea7c1a87</v>
       </c>
       <c r="B60" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C60" t="str">
-        <v>9d8995c7-d5a1-4644-848d-dca4e81371af</v>
+        <v>1c24b746-78a8-49cd-9c4d-3d22726dbc1b</v>
       </c>
       <c r="D60">
         <v>3</v>
       </c>
       <c r="E60" t="str">
-        <v>A2</v>
+        <v>A3</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>887cbea0-1e69-44fb-b419-5c42ea7c1a87</v>
+        <v>f6bd49a9-db23-44f1-9b32-84531f956b4f</v>
       </c>
       <c r="B61" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C61" t="str">
-        <v>1c24b746-78a8-49cd-9c4d-3d22726dbc1b</v>
+        <v>b57be3ad-f74f-4f2b-aa79-6e410d2c199b</v>
       </c>
       <c r="D61">
         <v>3</v>
       </c>
       <c r="E61" t="str">
-        <v>A3</v>
+        <v>B1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>f6bd49a9-db23-44f1-9b32-84531f956b4f</v>
+        <v>a33050c8-c302-43e8-b68f-edc8511e8a25</v>
       </c>
       <c r="B62" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C62" t="str">
-        <v>b57be3ad-f74f-4f2b-aa79-6e410d2c199b</v>
+        <v>8819a806-f5b1-4b58-95f5-91489df570ac</v>
       </c>
       <c r="D62">
         <v>3</v>
       </c>
       <c r="E62" t="str">
-        <v>B1</v>
+        <v>B2</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>a33050c8-c302-43e8-b68f-edc8511e8a25</v>
+        <v>489d808e-b5d9-4d37-a0bf-6d38b6e944d6</v>
       </c>
       <c r="B63" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C63" t="str">
-        <v>8819a806-f5b1-4b58-95f5-91489df570ac</v>
+        <v>6116506f-31f1-444e-bd83-2991a5335470</v>
       </c>
       <c r="D63">
         <v>3</v>
       </c>
       <c r="E63" t="str">
-        <v>B2</v>
+        <v>B3</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>489d808e-b5d9-4d37-a0bf-6d38b6e944d6</v>
+        <v>9239f2c8-8dff-49ae-a8f0-15cd14b10b4b</v>
       </c>
       <c r="B64" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C64" t="str">
-        <v>6116506f-31f1-444e-bd83-2991a5335470</v>
+        <v>36fd980a-62d1-491b-97d6-079c33195e3d</v>
       </c>
       <c r="D64">
         <v>3</v>
       </c>
       <c r="E64" t="str">
-        <v>B3</v>
+        <v>C1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>9239f2c8-8dff-49ae-a8f0-15cd14b10b4b</v>
+        <v>87018188-dea2-488d-bbc5-93511f010e3c</v>
       </c>
       <c r="B65" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C65" t="str">
-        <v>36fd980a-62d1-491b-97d6-079c33195e3d</v>
+        <v>17e4dd39-8810-472c-b1a9-52382fbe0c79</v>
       </c>
       <c r="D65">
         <v>3</v>
       </c>
       <c r="E65" t="str">
-        <v>C1</v>
+        <v>C2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>87018188-dea2-488d-bbc5-93511f010e3c</v>
+        <v>de4be42d-21dc-4643-bb31-1a6bafe8b8cc</v>
       </c>
       <c r="B66" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C66" t="str">
-        <v>17e4dd39-8810-472c-b1a9-52382fbe0c79</v>
+        <v>ce7b894b-705d-49f7-a6a3-e0a7fe953a10</v>
       </c>
       <c r="D66">
         <v>3</v>
       </c>
       <c r="E66" t="str">
-        <v>C2</v>
+        <v>C3</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>de4be42d-21dc-4643-bb31-1a6bafe8b8cc</v>
+        <v>bea17053-72b9-4ca5-9625-5555aca8ca24</v>
       </c>
       <c r="B67" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C67" t="str">
-        <v>ce7b894b-705d-49f7-a6a3-e0a7fe953a10</v>
+        <v>97108062-7918-4f7f-a3f7-92bcbc478acd</v>
       </c>
       <c r="D67">
         <v>3</v>
       </c>
       <c r="E67" t="str">
-        <v>C3</v>
+        <v>D1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>bea17053-72b9-4ca5-9625-5555aca8ca24</v>
+        <v>3e276ae2-bdb0-484a-9cfa-955e6b4ba8e2</v>
       </c>
       <c r="B68" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C68" t="str">
-        <v>97108062-7918-4f7f-a3f7-92bcbc478acd</v>
+        <v>29b3a5cd-ea7d-4673-9db4-7886660a791f</v>
       </c>
       <c r="D68">
         <v>3</v>
       </c>
       <c r="E68" t="str">
-        <v>D1</v>
+        <v>D2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>3e276ae2-bdb0-484a-9cfa-955e6b4ba8e2</v>
+        <v>5a1ae218-ce7d-4c8c-a2da-d630963af6f4</v>
       </c>
       <c r="B69" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C69" t="str">
-        <v>29b3a5cd-ea7d-4673-9db4-7886660a791f</v>
+        <v>d3db689e-5aed-4049-9588-adf3d1a49ae0</v>
       </c>
       <c r="D69">
         <v>3</v>
       </c>
       <c r="E69" t="str">
-        <v>D2</v>
+        <v>D3</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>5a1ae218-ce7d-4c8c-a2da-d630963af6f4</v>
+        <v>9dfb721b-6ee8-410c-8d7a-874ee0c4f5e1</v>
       </c>
       <c r="B70" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C70" t="str">
-        <v>d3db689e-5aed-4049-9588-adf3d1a49ae0</v>
+        <v>dbb200b8-766c-4984-9724-f68192d88939</v>
       </c>
       <c r="D70">
         <v>3</v>
       </c>
       <c r="E70" t="str">
-        <v>D3</v>
+        <v>E1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>9dfb721b-6ee8-410c-8d7a-874ee0c4f5e1</v>
+        <v>c0c1eeb3-ed06-4cb6-99bf-5b992835c4b3</v>
       </c>
       <c r="B71" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C71" t="str">
-        <v>dbb200b8-766c-4984-9724-f68192d88939</v>
+        <v>aa6fa282-9894-4b21-a871-c9725586c397</v>
       </c>
       <c r="D71">
         <v>3</v>
       </c>
       <c r="E71" t="str">
-        <v>E1</v>
+        <v>E2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>c0c1eeb3-ed06-4cb6-99bf-5b992835c4b3</v>
+        <v>d966ee91-cd0e-4a0d-a751-798b92b03e60</v>
       </c>
       <c r="B72" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C72" t="str">
-        <v>aa6fa282-9894-4b21-a871-c9725586c397</v>
+        <v>df712cc5-31d8-4341-b177-6603bf089235</v>
       </c>
       <c r="D72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E72" t="str">
-        <v>E2</v>
+        <v>A4</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>d966ee91-cd0e-4a0d-a751-798b92b03e60</v>
+        <v>47ec0204-7cf6-4afb-9b9e-a91324cdf4a9</v>
       </c>
       <c r="B73" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
       </c>
       <c r="C73" t="str">
-        <v>df712cc5-31d8-4341-b177-6603bf089235</v>
+        <v>5a16ef0a-cce8-4d1b-bfa5-3892331170c1</v>
       </c>
       <c r="D73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E73" t="str">
-        <v>A4</v>
+        <v>A1</v>
+      </c>
+      <c r="F73" s="1">
+        <v>46000.538291944446</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>47ec0204-7cf6-4afb-9b9e-a91324cdf4a9</v>
+        <v>e914a306-fff3-4997-a092-87302be1bda0</v>
       </c>
       <c r="B74" t="str">
-        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C74" t="str">
-        <v>5a16ef0a-cce8-4d1b-bfa5-3892331170c1</v>
+        <v>0fc0ae2d-4068-4972-a5b1-963c241e317a</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -9296,212 +9299,209 @@
       <c r="E74" t="str">
         <v>A1</v>
       </c>
-      <c r="F74" s="1">
-        <v>46000.538291944446</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>e914a306-fff3-4997-a092-87302be1bda0</v>
+        <v>64318131-3a36-4d14-a6ce-2699b7013fe5</v>
       </c>
       <c r="B75" t="str">
         <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C75" t="str">
-        <v>0fc0ae2d-4068-4972-a5b1-963c241e317a</v>
+        <v>347bdea3-79f6-4991-9601-b2d86513429e</v>
       </c>
       <c r="D75">
         <v>1</v>
       </c>
       <c r="E75" t="str">
-        <v>A1</v>
+        <v>A2</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>64318131-3a36-4d14-a6ce-2699b7013fe5</v>
+        <v>3b230921-6709-4bb4-b5dc-fd764580c535</v>
       </c>
       <c r="B76" t="str">
         <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C76" t="str">
-        <v>347bdea3-79f6-4991-9601-b2d86513429e</v>
+        <v>dc8716d3-5841-439f-a3e4-3e7bd8306e66</v>
       </c>
       <c r="D76">
         <v>1</v>
       </c>
       <c r="E76" t="str">
-        <v>A2</v>
+        <v>A3</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>3b230921-6709-4bb4-b5dc-fd764580c535</v>
+        <v>8fd02704-d4d6-498b-a9f9-66180b64176b</v>
       </c>
       <c r="B77" t="str">
         <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C77" t="str">
-        <v>dc8716d3-5841-439f-a3e4-3e7bd8306e66</v>
+        <v>93e72347-d9bf-4fb1-b06c-7cb5a2edcc2a</v>
       </c>
       <c r="D77">
         <v>1</v>
       </c>
       <c r="E77" t="str">
-        <v>A3</v>
+        <v>A4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>8fd02704-d4d6-498b-a9f9-66180b64176b</v>
+        <v>40079e20-52ad-4652-afcd-333795a7592d</v>
       </c>
       <c r="B78" t="str">
         <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C78" t="str">
-        <v>93e72347-d9bf-4fb1-b06c-7cb5a2edcc2a</v>
+        <v>d279968e-2739-4860-92b0-61f1c31b6a72</v>
       </c>
       <c r="D78">
         <v>1</v>
       </c>
       <c r="E78" t="str">
-        <v>A4</v>
+        <v>B1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>40079e20-52ad-4652-afcd-333795a7592d</v>
+        <v>0d5bf843-81f3-4a36-925e-2ac5a65f3543</v>
       </c>
       <c r="B79" t="str">
-        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C79" t="str">
-        <v>d279968e-2739-4860-92b0-61f1c31b6a72</v>
+        <v>bede75d6-a4ec-4fe3-907f-35108a2b4b10</v>
       </c>
       <c r="D79">
         <v>1</v>
       </c>
       <c r="E79" t="str">
-        <v>B1</v>
+        <v>D1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>0d5bf843-81f3-4a36-925e-2ac5a65f3543</v>
+        <v>385ae883-11fc-4366-bdc9-aa7d308cbed7</v>
       </c>
       <c r="B80" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C80" t="str">
-        <v>bede75d6-a4ec-4fe3-907f-35108a2b4b10</v>
+        <v>cacb8de7-16c5-4332-9d25-a6794d8a23b3</v>
       </c>
       <c r="D80">
         <v>1</v>
       </c>
       <c r="E80" t="str">
-        <v>D1</v>
+        <v>D3</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>385ae883-11fc-4366-bdc9-aa7d308cbed7</v>
+        <v>4714b65d-0643-42ca-a7a2-8459962131a8</v>
       </c>
       <c r="B81" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C81" t="str">
-        <v>cacb8de7-16c5-4332-9d25-a6794d8a23b3</v>
+        <v>4f5756e4-c006-4d04-a9bc-7a2de0fdf149</v>
       </c>
       <c r="D81">
         <v>1</v>
       </c>
       <c r="E81" t="str">
-        <v>D3</v>
+        <v>D2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>4714b65d-0643-42ca-a7a2-8459962131a8</v>
+        <v>f979bc94-69a6-4473-be4f-3533f76cae2b</v>
       </c>
       <c r="B82" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C82" t="str">
-        <v>4f5756e4-c006-4d04-a9bc-7a2de0fdf149</v>
+        <v>49fbe592-0995-4321-b8af-fbe859ca414c</v>
       </c>
       <c r="D82">
         <v>1</v>
       </c>
       <c r="E82" t="str">
-        <v>D2</v>
+        <v>C3</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>f979bc94-69a6-4473-be4f-3533f76cae2b</v>
+        <v>b6f1d429-67e4-45b4-a204-d05480319da0</v>
       </c>
       <c r="B83" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C83" t="str">
-        <v>49fbe592-0995-4321-b8af-fbe859ca414c</v>
+        <v>443fcd0e-727d-4035-ab6a-c3df01515271</v>
       </c>
       <c r="D83">
         <v>1</v>
       </c>
       <c r="E83" t="str">
-        <v>C3</v>
+        <v>B2</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>b6f1d429-67e4-45b4-a204-d05480319da0</v>
+        <v>5ecac9a7-a6b9-48f1-a93b-557a39838f17</v>
       </c>
       <c r="B84" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C84" t="str">
-        <v>443fcd0e-727d-4035-ab6a-c3df01515271</v>
+        <v>703385ff-46f6-4b8f-9998-1e18951304e0</v>
       </c>
       <c r="D84">
         <v>1</v>
       </c>
       <c r="E84" t="str">
-        <v>B2</v>
+        <v>B1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>5ecac9a7-a6b9-48f1-a93b-557a39838f17</v>
+        <v>6bde6343-e29a-442a-9189-6dccf7f25850</v>
       </c>
       <c r="B85" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C85" t="str">
-        <v>703385ff-46f6-4b8f-9998-1e18951304e0</v>
+        <v>bb319a54-7dbf-4a05-bd7f-8f2f6aa6b414</v>
       </c>
       <c r="D85">
         <v>1</v>
       </c>
       <c r="E85" t="str">
-        <v>B1</v>
+        <v>E2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>6bde6343-e29a-442a-9189-6dccf7f25850</v>
+        <v>eef4b984-c474-4f43-aeed-197faa279405</v>
       </c>
       <c r="B86" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C86" t="str">
-        <v>bb319a54-7dbf-4a05-bd7f-8f2f6aa6b414</v>
+        <v>a3363acf-3338-40ec-a745-9aef8dca39fc</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
       <c r="E86" t="str">
-        <v>E2</v>
+        <v>C2</v>
       </c>
     </row>
     <row r="87">
@@ -9523,19 +9523,19 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>eef4b984-c474-4f43-aeed-197faa279405</v>
+        <v>313caa2c-fc70-4c67-992c-01c66df3af1f</v>
       </c>
       <c r="B88" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C88" t="str">
-        <v>a3363acf-3338-40ec-a745-9aef8dca39fc</v>
+        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E88" t="str">
-        <v>C2</v>
+        <v>D2</v>
       </c>
     </row>
   </sheetData>

--- a/storage/backups/automatic-backup.xlsx
+++ b/storage/backups/automatic-backup.xlsx
@@ -2155,25 +2155,25 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>347bdea3-79f6-4991-9601-b2d86513429e</v>
+        <v>55099144-967b-4cf2-b4ed-3cfe46413c92</v>
       </c>
       <c r="B47" t="str">
-        <v>Violet Hall</v>
+        <v>Maya Hernandez</v>
       </c>
       <c r="C47">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D47" t="str">
         <v>Female</v>
       </c>
       <c r="E47" t="str">
-        <v>violet.hall8@yahoo.com</v>
+        <v>maya.hernandez32@outlook.com</v>
       </c>
       <c r="F47" t="str">
-        <v>0404 640 755</v>
+        <v>0400 358 904</v>
       </c>
       <c r="G47" t="str">
-        <v>Adelaide</v>
+        <v>Brisbane</v>
       </c>
       <c r="H47" t="str">
         <v>B</v>
@@ -2182,129 +2182,129 @@
         <v>assigned</v>
       </c>
       <c r="J47" t="str">
-        <v>Emilia Thompson</v>
+        <v>Aria Scott</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>9b54470e-fe91-4ebb-b0aa-becf22a8cc3c</v>
+        <v>347bdea3-79f6-4991-9601-b2d86513429e</v>
       </c>
       <c r="B48" t="str">
-        <v>Abigail Jackson</v>
+        <v>Violet Hall</v>
       </c>
       <c r="C48">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="D48" t="str">
         <v>Female</v>
       </c>
       <c r="E48" t="str">
-        <v>abigail.jackson65@outlook.com</v>
+        <v>violet.hall8@yahoo.com</v>
       </c>
       <c r="F48" t="str">
-        <v>0411 824 257</v>
+        <v>0404 640 755</v>
       </c>
       <c r="G48" t="str">
-        <v>Newcastle</v>
+        <v>Adelaide</v>
       </c>
       <c r="H48" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I48" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="J48" t="str">
+        <v>Emilia Thompson</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>efeba788-8d57-40b3-a3f9-e134a40931ac</v>
+        <v>9b54470e-fe91-4ebb-b0aa-becf22a8cc3c</v>
       </c>
       <c r="B49" t="str">
-        <v>Leah Diaz</v>
+        <v>Abigail Jackson</v>
       </c>
       <c r="C49">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D49" t="str">
         <v>Female</v>
       </c>
       <c r="E49" t="str">
-        <v>leah.diaz22@outlook.com</v>
+        <v>abigail.jackson65@outlook.com</v>
       </c>
       <c r="F49" t="str">
-        <v>(159) 664-9326</v>
+        <v>0411 824 257</v>
       </c>
       <c r="G49" t="str">
-        <v>Glendale</v>
+        <v>Newcastle</v>
       </c>
       <c r="H49" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I49" t="str">
-        <v>assigned</v>
-      </c>
-      <c r="J49" t="str">
-        <v>Julian Nguyen, Lydia Allen</v>
+        <v>available</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>adfcb6e3-82cb-46b9-8fb8-069fb91e2d4f</v>
+        <v>efeba788-8d57-40b3-a3f9-e134a40931ac</v>
       </c>
       <c r="B50" t="str">
-        <v>Mason Hill</v>
+        <v>Leah Diaz</v>
       </c>
       <c r="C50">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D50" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E50" t="str">
-        <v>mason.hill27@outlook.com</v>
+        <v>leah.diaz22@outlook.com</v>
       </c>
       <c r="F50" t="str">
-        <v>0410 682 884</v>
+        <v>(159) 664-9326</v>
       </c>
       <c r="G50" t="str">
-        <v>Canberra</v>
+        <v>Glendale</v>
       </c>
       <c r="H50" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="I50" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="J50" t="str">
+        <v>Julian Nguyen, Lydia Allen</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>55099144-967b-4cf2-b4ed-3cfe46413c92</v>
+        <v>adfcb6e3-82cb-46b9-8fb8-069fb91e2d4f</v>
       </c>
       <c r="B51" t="str">
-        <v>Maya Hernandez</v>
+        <v>Mason Hill</v>
       </c>
       <c r="C51">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D51" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E51" t="str">
-        <v>maya.hernandez32@outlook.com</v>
+        <v>mason.hill27@outlook.com</v>
       </c>
       <c r="F51" t="str">
-        <v>0400 358 904</v>
+        <v>0410 682 884</v>
       </c>
       <c r="G51" t="str">
-        <v>Brisbane</v>
+        <v>Canberra</v>
       </c>
       <c r="H51" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="I51" t="str">
         <v>available</v>
-      </c>
-      <c r="J51" t="str">
-        <v>Aria Scott</v>
       </c>
     </row>
     <row r="52">
@@ -3271,86 +3271,83 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>c9e05b47-6028-4cd1-b568-57342a489141</v>
+        <v>f693d8fc-436b-426a-9bca-0b141221ab3f</v>
       </c>
       <c r="B83" t="str">
-        <v>Victoria Scott</v>
+        <v>Evelyn Clark</v>
       </c>
       <c r="C83">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="D83" t="str">
         <v>Female</v>
       </c>
       <c r="E83" t="str">
-        <v>victoria.scott67@icloud.com</v>
+        <v>evelyn.clark47@outlook.com</v>
       </c>
       <c r="F83" t="str">
-        <v>(507) 166-2977</v>
+        <v>0410 941 656</v>
       </c>
       <c r="G83" t="str">
-        <v>Torrance</v>
+        <v>Hobart</v>
       </c>
       <c r="H83" t="str">
         <v>B</v>
       </c>
       <c r="I83" t="str">
-        <v>available</v>
-      </c>
-      <c r="J83" t="str">
-        <v>William Taylor</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>f693d8fc-436b-426a-9bca-0b141221ab3f</v>
+        <v>182bd5d2-7f68-4c83-b156-e80856f3b6b7</v>
       </c>
       <c r="B84" t="str">
-        <v>Evelyn Clark</v>
+        <v>Mason Nelson</v>
       </c>
       <c r="C84">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="D84" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E84" t="str">
-        <v>evelyn.clark47@outlook.com</v>
+        <v>mason.nelson14@hotmail.com</v>
       </c>
       <c r="F84" t="str">
-        <v>0410 941 656</v>
+        <v>0403 485 650</v>
       </c>
       <c r="G84" t="str">
-        <v>Hobart</v>
+        <v>Canberra</v>
       </c>
       <c r="H84" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I84" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>182bd5d2-7f68-4c83-b156-e80856f3b6b7</v>
+        <v>1adac400-525f-40f4-8b6d-20df8ce78e9d</v>
       </c>
       <c r="B85" t="str">
-        <v>Mason Nelson</v>
+        <v>Grace Scott</v>
       </c>
       <c r="C85">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="D85" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E85" t="str">
-        <v>mason.nelson14@hotmail.com</v>
+        <v>grace.scott40@outlook.com</v>
       </c>
       <c r="F85" t="str">
-        <v>0403 485 650</v>
+        <v>0401 870 853</v>
       </c>
       <c r="G85" t="str">
-        <v>Canberra</v>
+        <v>Ballarat</v>
       </c>
       <c r="H85" t="str">
         <v>B+</v>
@@ -3358,63 +3355,69 @@
       <c r="I85" t="str">
         <v>available</v>
       </c>
+      <c r="J85" t="str">
+        <v>Emily Moore</v>
+      </c>
+      <c r="M85" t="str">
+        <v>Hearing impaired - requires front row seating</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>1adac400-525f-40f4-8b6d-20df8ce78e9d</v>
+        <v>852226e3-fccb-4228-8627-5dc42cfe4387</v>
       </c>
       <c r="B86" t="str">
-        <v>Grace Scott</v>
+        <v>Aurora Rodriguez</v>
       </c>
       <c r="C86">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D86" t="str">
         <v>Female</v>
       </c>
       <c r="E86" t="str">
-        <v>grace.scott40@outlook.com</v>
+        <v>aurora.rodriguez20@yahoo.com</v>
       </c>
       <c r="F86" t="str">
-        <v>0401 870 853</v>
+        <v>0404 720 692</v>
       </c>
       <c r="G86" t="str">
-        <v>Ballarat</v>
+        <v>Hobart</v>
       </c>
       <c r="H86" t="str">
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="I86" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J86" t="str">
-        <v>Emily Moore</v>
+        <v>Emilia Lopez</v>
       </c>
       <c r="M86" t="str">
-        <v>Hearing impaired - requires front row seating</v>
+        <v>Arthritis - prefers aisle seating for easy exit</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>852226e3-fccb-4228-8627-5dc42cfe4387</v>
+        <v>40c53847-674f-43b5-8678-2decb3d42133</v>
       </c>
       <c r="B87" t="str">
-        <v>Aurora Rodriguez</v>
+        <v>Eliana Green</v>
       </c>
       <c r="C87">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D87" t="str">
         <v>Female</v>
       </c>
       <c r="E87" t="str">
-        <v>aurora.rodriguez20@yahoo.com</v>
+        <v>eliana.green54@gmail.com</v>
       </c>
       <c r="F87" t="str">
-        <v>0404 720 692</v>
+        <v>(894) 795-3178</v>
       </c>
       <c r="G87" t="str">
-        <v>Hobart</v>
+        <v>Los Angeles</v>
       </c>
       <c r="H87" t="str">
         <v>A</v>
@@ -3423,33 +3426,30 @@
         <v>assigned</v>
       </c>
       <c r="J87" t="str">
-        <v>Emilia Lopez</v>
-      </c>
-      <c r="M87" t="str">
-        <v>Arthritis - prefers aisle seating for easy exit</v>
+        <v>Olivia Gonzalez</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>40c53847-674f-43b5-8678-2decb3d42133</v>
+        <v>8d8070dd-3ee6-476f-aaf2-631e80f67ef7</v>
       </c>
       <c r="B88" t="str">
-        <v>Eliana Green</v>
+        <v>Lydia Allen</v>
       </c>
       <c r="C88">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D88" t="str">
         <v>Female</v>
       </c>
       <c r="E88" t="str">
-        <v>eliana.green54@gmail.com</v>
+        <v>lydia.allen73@icloud.com</v>
       </c>
       <c r="F88" t="str">
-        <v>(894) 795-3178</v>
+        <v>(363) 934-8723</v>
       </c>
       <c r="G88" t="str">
-        <v>Los Angeles</v>
+        <v>Oakland</v>
       </c>
       <c r="H88" t="str">
         <v>A</v>
@@ -3458,39 +3458,39 @@
         <v>assigned</v>
       </c>
       <c r="J88" t="str">
-        <v>Olivia Gonzalez</v>
+        <v>Julian Nguyen, Leah Diaz</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>8d8070dd-3ee6-476f-aaf2-631e80f67ef7</v>
+        <v>c9e05b47-6028-4cd1-b568-57342a489141</v>
       </c>
       <c r="B89" t="str">
-        <v>Lydia Allen</v>
+        <v>Victoria Scott</v>
       </c>
       <c r="C89">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D89" t="str">
         <v>Female</v>
       </c>
       <c r="E89" t="str">
-        <v>lydia.allen73@icloud.com</v>
+        <v>victoria.scott67@icloud.com</v>
       </c>
       <c r="F89" t="str">
-        <v>(363) 934-8723</v>
+        <v>(507) 166-2977</v>
       </c>
       <c r="G89" t="str">
-        <v>Oakland</v>
+        <v>Torrance</v>
       </c>
       <c r="H89" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="I89" t="str">
         <v>assigned</v>
       </c>
       <c r="J89" t="str">
-        <v>Julian Nguyen, Leah Diaz</v>
+        <v>William Taylor</v>
       </c>
     </row>
     <row r="90">
@@ -4428,71 +4428,71 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>4e28a208-5278-410d-b375-d9c77ba144d7</v>
+        <v>94d903d4-dbc0-4052-87a8-ca32773ca839</v>
       </c>
       <c r="B120" t="str">
-        <v>Riley Scott</v>
+        <v>Hannah Jones</v>
       </c>
       <c r="C120">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="D120" t="str">
         <v>Female</v>
       </c>
       <c r="E120" t="str">
-        <v>riley.scott58@hotmail.com</v>
+        <v>hannah.jones85@yahoo.com</v>
       </c>
       <c r="F120" t="str">
-        <v>(848) 718-3465</v>
+        <v>(644) 877-6251</v>
       </c>
       <c r="G120" t="str">
-        <v>San Francisco</v>
+        <v>Sacramento</v>
       </c>
       <c r="H120" t="str">
         <v>B</v>
       </c>
       <c r="I120" t="str">
         <v>assigned</v>
+      </c>
+      <c r="J120" t="str">
+        <v>Thomas Nguyen, Henry Roberts</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>410dbe34-810b-4a5d-8731-985738541b4b</v>
+        <v>4e28a208-5278-410d-b375-d9c77ba144d7</v>
       </c>
       <c r="B121" t="str">
-        <v>Penelope Williams</v>
+        <v>Riley Scott</v>
       </c>
       <c r="C121">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D121" t="str">
         <v>Female</v>
       </c>
       <c r="E121" t="str">
-        <v>penelope.williams29@hotmail.com</v>
+        <v>riley.scott58@hotmail.com</v>
       </c>
       <c r="F121" t="str">
-        <v>(735) 691-4267</v>
+        <v>(848) 718-3465</v>
       </c>
       <c r="G121" t="str">
-        <v>Sacramento</v>
+        <v>San Francisco</v>
       </c>
       <c r="H121" t="str">
         <v>B</v>
       </c>
       <c r="I121" t="str">
         <v>assigned</v>
-      </c>
-      <c r="J121" t="str">
-        <v>Savannah Rivera</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>5addacf0-a31c-4412-982a-3f0d8f1c6d07</v>
+        <v>410dbe34-810b-4a5d-8731-985738541b4b</v>
       </c>
       <c r="B122" t="str">
-        <v>Layla Lopez</v>
+        <v>Penelope Williams</v>
       </c>
       <c r="C122">
         <v>52</v>
@@ -4501,45 +4501,45 @@
         <v>Female</v>
       </c>
       <c r="E122" t="str">
-        <v>layla.lopez23@yahoo.com</v>
+        <v>penelope.williams29@hotmail.com</v>
       </c>
       <c r="F122" t="str">
-        <v>(607) 496-6102</v>
+        <v>(735) 691-4267</v>
       </c>
       <c r="G122" t="str">
-        <v>Los Angeles</v>
+        <v>Sacramento</v>
       </c>
       <c r="H122" t="str">
         <v>B</v>
       </c>
       <c r="I122" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J122" t="str">
-        <v>Cora Lee</v>
+        <v>Savannah Rivera</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>94d903d4-dbc0-4052-87a8-ca32773ca839</v>
+        <v>5addacf0-a31c-4412-982a-3f0d8f1c6d07</v>
       </c>
       <c r="B123" t="str">
-        <v>Hannah Jones</v>
+        <v>Layla Lopez</v>
       </c>
       <c r="C123">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D123" t="str">
         <v>Female</v>
       </c>
       <c r="E123" t="str">
-        <v>hannah.jones85@yahoo.com</v>
+        <v>layla.lopez23@yahoo.com</v>
       </c>
       <c r="F123" t="str">
-        <v>(644) 877-6251</v>
+        <v>(607) 496-6102</v>
       </c>
       <c r="G123" t="str">
-        <v>Sacramento</v>
+        <v>Los Angeles</v>
       </c>
       <c r="H123" t="str">
         <v>B</v>
@@ -4548,94 +4548,94 @@
         <v>available</v>
       </c>
       <c r="J123" t="str">
-        <v>Thomas Nguyen, Henry Roberts</v>
+        <v>Cora Lee</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>39b7a0a4-be8b-49f1-a5af-c5a105e0ab58</v>
+        <v>a8fa9125-28f1-47e1-adba-784701975e68</v>
       </c>
       <c r="B124" t="str">
-        <v>Joshua Carter</v>
+        <v>Abigail Williams</v>
       </c>
       <c r="C124">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D124" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E124" t="str">
-        <v>joshua.carter41@hotmail.com</v>
+        <v>abigail.williams45@yahoo.com</v>
       </c>
       <c r="F124" t="str">
-        <v>0404 538 442</v>
+        <v>0403 497 445</v>
       </c>
       <c r="G124" t="str">
-        <v>Wollongong</v>
+        <v>Toowoomba</v>
       </c>
       <c r="H124" t="str">
         <v>B</v>
       </c>
       <c r="I124" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>ef94ff15-5215-4ecd-9ad1-9ac44fd0e56a</v>
+        <v>2811bf99-369b-4c0a-b5d6-4ff46cd7aa5e</v>
       </c>
       <c r="B125" t="str">
-        <v>Luke Flores</v>
+        <v>Lucas Thomas</v>
       </c>
       <c r="C125">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="D125" t="str">
         <v>Male</v>
       </c>
       <c r="E125" t="str">
-        <v>luke.flores39@hotmail.com</v>
+        <v>lucas.thomas30@yahoo.com</v>
       </c>
       <c r="F125" t="str">
-        <v>0403 225 544</v>
+        <v>0412 527 117</v>
       </c>
       <c r="G125" t="str">
-        <v>Melbourne</v>
+        <v>Brisbane</v>
       </c>
       <c r="H125" t="str">
         <v>B</v>
       </c>
       <c r="I125" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>a8fa9125-28f1-47e1-adba-784701975e68</v>
+        <v>6ddd3228-f125-4d3e-88e2-157cd730b552</v>
       </c>
       <c r="B126" t="str">
-        <v>Abigail Williams</v>
+        <v>Theodore Nelson</v>
       </c>
       <c r="C126">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D126" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E126" t="str">
-        <v>abigail.williams45@yahoo.com</v>
+        <v>theodore.nelson79@gmail.com</v>
       </c>
       <c r="F126" t="str">
-        <v>0403 497 445</v>
+        <v>0403 813 793</v>
       </c>
       <c r="G126" t="str">
-        <v>Toowoomba</v>
+        <v>Canberra</v>
       </c>
       <c r="H126" t="str">
         <v>B</v>
       </c>
       <c r="I126" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="127">
@@ -4742,31 +4742,31 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>2811bf99-369b-4c0a-b5d6-4ff46cd7aa5e</v>
+        <v>40727c14-a30e-4e3b-8b64-0359d25efc0c</v>
       </c>
       <c r="B130" t="str">
-        <v>Lucas Thomas</v>
+        <v>Joshua Scott</v>
       </c>
       <c r="C130">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D130" t="str">
         <v>Male</v>
       </c>
       <c r="E130" t="str">
-        <v>lucas.thomas30@yahoo.com</v>
+        <v>joshua.scott95@outlook.com</v>
       </c>
       <c r="F130" t="str">
-        <v>0412 527 117</v>
+        <v>0410 137 561</v>
       </c>
       <c r="G130" t="str">
-        <v>Brisbane</v>
+        <v>Canberra</v>
       </c>
       <c r="H130" t="str">
         <v>B</v>
       </c>
       <c r="I130" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="131">
@@ -4829,118 +4829,115 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>e15c67b6-0680-4284-a8aa-a525b34c592d</v>
+        <v>ad836319-db56-4a08-bca6-a8e3f19c37a8</v>
       </c>
       <c r="B133" t="str">
-        <v>Aurora Williams</v>
+        <v>Emily Johnson</v>
       </c>
       <c r="C133">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D133" t="str">
         <v>Female</v>
       </c>
       <c r="E133" t="str">
-        <v>aurora.williams76@outlook.com</v>
+        <v>emily.johnson58@hotmail.com</v>
       </c>
       <c r="F133" t="str">
-        <v>0401 416 170</v>
+        <v>0412 663 939</v>
       </c>
       <c r="G133" t="str">
-        <v>Darwin</v>
+        <v>Perth</v>
       </c>
       <c r="H133" t="str">
         <v>B</v>
       </c>
       <c r="I133" t="str">
-        <v>available</v>
-      </c>
-      <c r="M133" t="str">
-        <v>Uses walking cane</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>d3db689e-5aed-4049-9588-adf3d1a49ae0</v>
+        <v>ef94ff15-5215-4ecd-9ad1-9ac44fd0e56a</v>
       </c>
       <c r="B134" t="str">
-        <v>Madelyn Martinez</v>
+        <v>Luke Flores</v>
       </c>
       <c r="C134">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="D134" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E134" t="str">
-        <v>madelyn.martinez94@gmail.com</v>
+        <v>luke.flores39@hotmail.com</v>
       </c>
       <c r="F134" t="str">
-        <v>(576) 468-3300</v>
+        <v>0403 225 544</v>
       </c>
       <c r="G134" t="str">
-        <v>Pasadena</v>
+        <v>Melbourne</v>
       </c>
       <c r="H134" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I134" t="str">
         <v>assigned</v>
-      </c>
-      <c r="J134" t="str">
-        <v>Olivia Nelson, Joseph Stewart</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>7664257a-dce4-407a-8f24-692043d568be</v>
+        <v>d3db689e-5aed-4049-9588-adf3d1a49ae0</v>
       </c>
       <c r="B135" t="str">
-        <v>Nora Jackson</v>
+        <v>Madelyn Martinez</v>
       </c>
       <c r="C135">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D135" t="str">
         <v>Female</v>
       </c>
       <c r="E135" t="str">
-        <v>nora.jackson83@hotmail.com</v>
+        <v>madelyn.martinez94@gmail.com</v>
       </c>
       <c r="F135" t="str">
-        <v>0404 434 899</v>
+        <v>(576) 468-3300</v>
       </c>
       <c r="G135" t="str">
-        <v>Wollongong</v>
+        <v>Pasadena</v>
       </c>
       <c r="H135" t="str">
         <v>B+</v>
       </c>
       <c r="I135" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="J135" t="str">
+        <v>Olivia Nelson, Joseph Stewart</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>f9d68052-4310-45c2-a5a9-64c272347899</v>
+        <v>7664257a-dce4-407a-8f24-692043d568be</v>
       </c>
       <c r="B136" t="str">
-        <v>Christian Rivera</v>
+        <v>Nora Jackson</v>
       </c>
       <c r="C136">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="D136" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E136" t="str">
-        <v>christian.rivera86@hotmail.com</v>
+        <v>nora.jackson83@hotmail.com</v>
       </c>
       <c r="F136" t="str">
-        <v>0400 135 743</v>
+        <v>0404 434 899</v>
       </c>
       <c r="G136" t="str">
-        <v>Adelaide</v>
+        <v>Wollongong</v>
       </c>
       <c r="H136" t="str">
         <v>B+</v>
@@ -4951,25 +4948,25 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>8956e289-91e9-4c15-bf2b-a13dee2fa476</v>
+        <v>f9d68052-4310-45c2-a5a9-64c272347899</v>
       </c>
       <c r="B137" t="str">
-        <v>Landon Wright</v>
+        <v>Christian Rivera</v>
       </c>
       <c r="C137">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="D137" t="str">
         <v>Male</v>
       </c>
       <c r="E137" t="str">
-        <v>landon.wright36@outlook.com</v>
+        <v>christian.rivera86@hotmail.com</v>
       </c>
       <c r="F137" t="str">
-        <v>0402 415 597</v>
+        <v>0400 135 743</v>
       </c>
       <c r="G137" t="str">
-        <v>Cairns</v>
+        <v>Adelaide</v>
       </c>
       <c r="H137" t="str">
         <v>B+</v>
@@ -4980,237 +4977,234 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>81759c6b-da11-4c0e-9e96-92aa20964b06</v>
+        <v>8956e289-91e9-4c15-bf2b-a13dee2fa476</v>
       </c>
       <c r="B138" t="str">
-        <v>Cora Roberts</v>
+        <v>Landon Wright</v>
       </c>
       <c r="C138">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D138" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E138" t="str">
-        <v>cora.roberts57@hotmail.com</v>
+        <v>landon.wright36@outlook.com</v>
       </c>
       <c r="F138" t="str">
-        <v>(141) 743-6838</v>
+        <v>0402 415 597</v>
       </c>
       <c r="G138" t="str">
-        <v>Bakersfield</v>
+        <v>Cairns</v>
       </c>
       <c r="H138" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I138" t="str">
-        <v>assigned</v>
-      </c>
-      <c r="J138" t="str">
-        <v>Isla Wright, Naomi Moore</v>
+        <v>available</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>a614b69c-4f6c-49fa-a490-24d7e4a60da9</v>
+        <v>81759c6b-da11-4c0e-9e96-92aa20964b06</v>
       </c>
       <c r="B139" t="str">
-        <v>Nora Lee</v>
+        <v>Cora Roberts</v>
       </c>
       <c r="C139">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="D139" t="str">
         <v>Female</v>
       </c>
       <c r="E139" t="str">
-        <v>nora.lee56@hotmail.com</v>
+        <v>cora.roberts57@hotmail.com</v>
       </c>
       <c r="F139" t="str">
-        <v>(171) 825-3697</v>
+        <v>(141) 743-6838</v>
       </c>
       <c r="G139" t="str">
-        <v>Pasadena</v>
+        <v>Bakersfield</v>
       </c>
       <c r="H139" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="I139" t="str">
         <v>assigned</v>
       </c>
       <c r="J139" t="str">
-        <v>Ella Gutierrez</v>
+        <v>Isla Wright, Naomi Moore</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>6ddd3228-f125-4d3e-88e2-157cd730b552</v>
+        <v>a614b69c-4f6c-49fa-a490-24d7e4a60da9</v>
       </c>
       <c r="B140" t="str">
-        <v>Theodore Nelson</v>
+        <v>Nora Lee</v>
       </c>
       <c r="C140">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="D140" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E140" t="str">
-        <v>theodore.nelson79@gmail.com</v>
+        <v>nora.lee56@hotmail.com</v>
       </c>
       <c r="F140" t="str">
-        <v>0403 813 793</v>
+        <v>(171) 825-3697</v>
       </c>
       <c r="G140" t="str">
-        <v>Canberra</v>
+        <v>Pasadena</v>
       </c>
       <c r="H140" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="I140" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="J140" t="str">
+        <v>Ella Gutierrez</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>40727c14-a30e-4e3b-8b64-0359d25efc0c</v>
+        <v>adb0c362-d095-4bfd-98dc-c93920fd22d6</v>
       </c>
       <c r="B141" t="str">
-        <v>Joshua Scott</v>
+        <v>Victoria Torres</v>
       </c>
       <c r="C141">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D141" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E141" t="str">
-        <v>joshua.scott95@outlook.com</v>
+        <v>victoria.torres48@outlook.com</v>
       </c>
       <c r="F141" t="str">
-        <v>0410 137 561</v>
+        <v>0411 539 271</v>
       </c>
       <c r="G141" t="str">
-        <v>Canberra</v>
+        <v>Geelong</v>
       </c>
       <c r="H141" t="str">
         <v>B</v>
       </c>
       <c r="I141" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>ad836319-db56-4a08-bca6-a8e3f19c37a8</v>
+        <v>59bae9a1-93b9-471d-a2b7-074918634f6b</v>
       </c>
       <c r="B142" t="str">
-        <v>Emily Johnson</v>
+        <v>Joshua Clark</v>
       </c>
       <c r="C142">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D142" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E142" t="str">
-        <v>emily.johnson58@hotmail.com</v>
+        <v>joshua.clark16@outlook.com</v>
       </c>
       <c r="F142" t="str">
-        <v>0412 663 939</v>
+        <v>0403 901 485</v>
       </c>
       <c r="G142" t="str">
-        <v>Perth</v>
+        <v>Sydney</v>
       </c>
       <c r="H142" t="str">
         <v>B</v>
       </c>
       <c r="I142" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>adb0c362-d095-4bfd-98dc-c93920fd22d6</v>
+        <v>d6c29b29-46c2-458d-9ed6-9955afb17b95</v>
       </c>
       <c r="B143" t="str">
-        <v>Victoria Torres</v>
+        <v>Ethan Taylor</v>
       </c>
       <c r="C143">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D143" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E143" t="str">
-        <v>victoria.torres48@outlook.com</v>
+        <v>ethan.taylor22@yahoo.com</v>
       </c>
       <c r="F143" t="str">
-        <v>0411 539 271</v>
+        <v>0410 363 173</v>
       </c>
       <c r="G143" t="str">
-        <v>Geelong</v>
+        <v>Adelaide</v>
       </c>
       <c r="H143" t="str">
         <v>B</v>
       </c>
       <c r="I143" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>c1783cdf-a656-46b4-9331-4d9d18d40b51</v>
+        <v>45c0fc2b-415d-475a-998d-934235565d6b</v>
       </c>
       <c r="B144" t="str">
-        <v>Aurora Walker</v>
+        <v>Scarlett Wright</v>
       </c>
       <c r="C144">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="D144" t="str">
         <v>Female</v>
       </c>
       <c r="E144" t="str">
-        <v>aurora.walker1@outlook.com</v>
+        <v>scarlett.wright68@outlook.com</v>
       </c>
       <c r="F144" t="str">
-        <v>0403 522 404</v>
+        <v>0412 487 763</v>
       </c>
       <c r="G144" t="str">
-        <v>Darwin</v>
+        <v>Newcastle</v>
       </c>
       <c r="H144" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I144" t="str">
-        <v>available</v>
-      </c>
-      <c r="M144" t="str">
-        <v>Vision impaired - needs assistance</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>bf5a6984-f656-4e23-9646-85829e9daffe</v>
+        <v>c1783cdf-a656-46b4-9331-4d9d18d40b51</v>
       </c>
       <c r="B145" t="str">
-        <v>Scarlett Lopez</v>
+        <v>Aurora Walker</v>
       </c>
       <c r="C145">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D145" t="str">
         <v>Female</v>
       </c>
       <c r="E145" t="str">
-        <v>scarlett.lopez53@yahoo.com</v>
+        <v>aurora.walker1@outlook.com</v>
       </c>
       <c r="F145" t="str">
-        <v>0400 509 641</v>
+        <v>0403 522 404</v>
       </c>
       <c r="G145" t="str">
-        <v>Sydney</v>
+        <v>Darwin</v>
       </c>
       <c r="H145" t="str">
         <v>B+</v>
@@ -5218,31 +5212,34 @@
       <c r="I145" t="str">
         <v>available</v>
       </c>
+      <c r="M145" t="str">
+        <v>Vision impaired - needs assistance</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>59bae9a1-93b9-471d-a2b7-074918634f6b</v>
+        <v>bf5a6984-f656-4e23-9646-85829e9daffe</v>
       </c>
       <c r="B146" t="str">
-        <v>Joshua Clark</v>
+        <v>Scarlett Lopez</v>
       </c>
       <c r="C146">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="D146" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E146" t="str">
-        <v>joshua.clark16@outlook.com</v>
+        <v>scarlett.lopez53@yahoo.com</v>
       </c>
       <c r="F146" t="str">
-        <v>0403 901 485</v>
+        <v>0400 509 641</v>
       </c>
       <c r="G146" t="str">
         <v>Sydney</v>
       </c>
       <c r="H146" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I146" t="str">
         <v>available</v>
@@ -5250,214 +5247,217 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>2fa810c7-61d0-4519-a314-824cf0873e30</v>
+        <v>d7b0dd51-8aea-4b32-bb8d-8b60271fc6c9</v>
       </c>
       <c r="B147" t="str">
-        <v>Theodore Allen</v>
+        <v>Jayden Nguyen</v>
       </c>
       <c r="C147">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D147" t="str">
         <v>Male</v>
       </c>
       <c r="E147" t="str">
-        <v>theodore.allen25@outlook.com</v>
+        <v>jayden.nguyen88@hotmail.com</v>
       </c>
       <c r="F147" t="str">
-        <v>0400 438 819</v>
+        <v>0401 108 628</v>
       </c>
       <c r="G147" t="str">
-        <v>Newcastle</v>
+        <v>Hobart</v>
       </c>
       <c r="H147" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I147" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>d6c29b29-46c2-458d-9ed6-9955afb17b95</v>
+        <v>0e8f635e-8f06-4224-a2cc-4263ac307ba2</v>
       </c>
       <c r="B148" t="str">
-        <v>Ethan Taylor</v>
+        <v>Joshua Jones</v>
       </c>
       <c r="C148">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D148" t="str">
         <v>Male</v>
       </c>
       <c r="E148" t="str">
-        <v>ethan.taylor22@yahoo.com</v>
+        <v>joshua.jones82@yahoo.com</v>
       </c>
       <c r="F148" t="str">
-        <v>0410 363 173</v>
+        <v>0400 652 840</v>
       </c>
       <c r="G148" t="str">
-        <v>Adelaide</v>
+        <v>Toowoomba</v>
       </c>
       <c r="H148" t="str">
         <v>B</v>
       </c>
       <c r="I148" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>e2f70c5c-0a8d-4055-8281-2ad2ae2e0cd6</v>
+        <v>2fa810c7-61d0-4519-a314-824cf0873e30</v>
       </c>
       <c r="B149" t="str">
-        <v>Stella Green</v>
+        <v>Theodore Allen</v>
       </c>
       <c r="C149">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="D149" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E149" t="str">
-        <v>stella.green92@gmail.com</v>
+        <v>theodore.allen25@outlook.com</v>
       </c>
       <c r="F149" t="str">
-        <v>0404 230 858</v>
+        <v>0400 438 819</v>
       </c>
       <c r="G149" t="str">
-        <v>Wollongong</v>
+        <v>Newcastle</v>
       </c>
       <c r="H149" t="str">
-        <v>A</v>
+        <v>B+</v>
       </c>
       <c r="I149" t="str">
         <v>available</v>
-      </c>
-      <c r="J149" t="str">
-        <v>Everly Torres</v>
-      </c>
-      <c r="M149" t="str">
-        <v>Vision impaired - needs assistance</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>5331c6bd-19f8-416a-9166-06280a3c547e</v>
+        <v>e2f70c5c-0a8d-4055-8281-2ad2ae2e0cd6</v>
       </c>
       <c r="B150" t="str">
-        <v>Ethan Rodriguez</v>
+        <v>Stella Green</v>
       </c>
       <c r="C150">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D150" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E150" t="str">
-        <v>ethan.rodriguez60@hotmail.com</v>
+        <v>stella.green92@gmail.com</v>
       </c>
       <c r="F150" t="str">
-        <v>0411 690 563</v>
+        <v>0404 230 858</v>
       </c>
       <c r="G150" t="str">
-        <v>Townsville</v>
+        <v>Wollongong</v>
       </c>
       <c r="H150" t="str">
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="I150" t="str">
         <v>available</v>
       </c>
+      <c r="J150" t="str">
+        <v>Everly Torres</v>
+      </c>
       <c r="M150" t="str">
-        <v>Hearing impaired - requires front row seating</v>
+        <v>Vision impaired - needs assistance</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>45c0fc2b-415d-475a-998d-934235565d6b</v>
+        <v>5331c6bd-19f8-416a-9166-06280a3c547e</v>
       </c>
       <c r="B151" t="str">
-        <v>Scarlett Wright</v>
+        <v>Ethan Rodriguez</v>
       </c>
       <c r="C151">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="D151" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E151" t="str">
-        <v>scarlett.wright68@outlook.com</v>
+        <v>ethan.rodriguez60@hotmail.com</v>
       </c>
       <c r="F151" t="str">
-        <v>0412 487 763</v>
+        <v>0411 690 563</v>
       </c>
       <c r="G151" t="str">
-        <v>Newcastle</v>
+        <v>Townsville</v>
       </c>
       <c r="H151" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I151" t="str">
         <v>available</v>
+      </c>
+      <c r="M151" t="str">
+        <v>Hearing impaired - requires front row seating</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>d7b0dd51-8aea-4b32-bb8d-8b60271fc6c9</v>
+        <v>39b7a0a4-be8b-49f1-a5af-c5a105e0ab58</v>
       </c>
       <c r="B152" t="str">
-        <v>Jayden Nguyen</v>
+        <v>Joshua Carter</v>
       </c>
       <c r="C152">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D152" t="str">
         <v>Male</v>
       </c>
       <c r="E152" t="str">
-        <v>jayden.nguyen88@hotmail.com</v>
+        <v>joshua.carter41@hotmail.com</v>
       </c>
       <c r="F152" t="str">
-        <v>0401 108 628</v>
+        <v>0404 538 442</v>
       </c>
       <c r="G152" t="str">
-        <v>Hobart</v>
+        <v>Wollongong</v>
       </c>
       <c r="H152" t="str">
         <v>B</v>
       </c>
       <c r="I152" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>0e8f635e-8f06-4224-a2cc-4263ac307ba2</v>
+        <v>e15c67b6-0680-4284-a8aa-a525b34c592d</v>
       </c>
       <c r="B153" t="str">
-        <v>Joshua Jones</v>
+        <v>Aurora Williams</v>
       </c>
       <c r="C153">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D153" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E153" t="str">
-        <v>joshua.jones82@yahoo.com</v>
+        <v>aurora.williams76@outlook.com</v>
       </c>
       <c r="F153" t="str">
-        <v>0400 652 840</v>
+        <v>0401 416 170</v>
       </c>
       <c r="G153" t="str">
-        <v>Toowoomba</v>
+        <v>Darwin</v>
       </c>
       <c r="H153" t="str">
         <v>B</v>
       </c>
       <c r="I153" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="M153" t="str">
+        <v>Uses walking cane</v>
       </c>
     </row>
     <row r="154">
@@ -5491,89 +5491,86 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>d1a4099f-cc65-41a4-8aa3-72e7788e4944</v>
+        <v>5b3becf0-21ae-46a2-b70b-722762d230ff</v>
       </c>
       <c r="B155" t="str">
-        <v>Sophia Reyes</v>
+        <v>Evelyn Ortiz</v>
       </c>
       <c r="C155">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="D155" t="str">
         <v>Female</v>
       </c>
       <c r="E155" t="str">
-        <v>sophia.reyes82@outlook.com</v>
+        <v>evelyn.ortiz49@hotmail.com</v>
       </c>
       <c r="F155" t="str">
-        <v>(759) 966-2783</v>
+        <v>(142) 759-4931</v>
       </c>
       <c r="G155" t="str">
         <v>Long Beach</v>
       </c>
       <c r="H155" t="str">
-        <v>B</v>
+        <v>A+</v>
       </c>
       <c r="I155" t="str">
         <v>available</v>
       </c>
       <c r="J155" t="str">
-        <v>Victoria Anderson</v>
+        <v>Mia Carter</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>5b3becf0-21ae-46a2-b70b-722762d230ff</v>
+        <v>c2103c22-c825-4633-a461-495c55747ed3</v>
       </c>
       <c r="B156" t="str">
-        <v>Evelyn Ortiz</v>
+        <v>Alice Robinson</v>
       </c>
       <c r="C156">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D156" t="str">
         <v>Female</v>
       </c>
       <c r="E156" t="str">
-        <v>evelyn.ortiz49@hotmail.com</v>
+        <v>alice.robinson56@hotmail.com</v>
       </c>
       <c r="F156" t="str">
-        <v>(142) 759-4931</v>
+        <v>(251) 325-5554</v>
       </c>
       <c r="G156" t="str">
-        <v>Long Beach</v>
+        <v>Anaheim</v>
       </c>
       <c r="H156" t="str">
-        <v>A+</v>
+        <v>B+</v>
       </c>
       <c r="I156" t="str">
         <v>available</v>
-      </c>
-      <c r="J156" t="str">
-        <v>Mia Carter</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>c2103c22-c825-4633-a461-495c55747ed3</v>
+        <v>25fd249f-3802-4717-8a4d-4da36897b280</v>
       </c>
       <c r="B157" t="str">
-        <v>Alice Robinson</v>
+        <v>Nathan Taylor</v>
       </c>
       <c r="C157">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D157" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E157" t="str">
-        <v>alice.robinson56@hotmail.com</v>
+        <v>nathan.taylor65@outlook.com</v>
       </c>
       <c r="F157" t="str">
-        <v>(251) 325-5554</v>
+        <v>(250) 584-7117</v>
       </c>
       <c r="G157" t="str">
-        <v>Anaheim</v>
+        <v>Stockton</v>
       </c>
       <c r="H157" t="str">
         <v>B+</v>
@@ -5584,28 +5581,28 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>25fd249f-3802-4717-8a4d-4da36897b280</v>
+        <v>cc9dcc8f-9593-4b7e-b4dd-723de93b6b04</v>
       </c>
       <c r="B158" t="str">
-        <v>Nathan Taylor</v>
+        <v>Aiden Cook</v>
       </c>
       <c r="C158">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D158" t="str">
         <v>Male</v>
       </c>
       <c r="E158" t="str">
-        <v>nathan.taylor65@outlook.com</v>
+        <v>aiden.cook93@yahoo.com</v>
       </c>
       <c r="F158" t="str">
-        <v>(250) 584-7117</v>
+        <v>(959) 986-7207</v>
       </c>
       <c r="G158" t="str">
-        <v>Stockton</v>
+        <v>Pomona</v>
       </c>
       <c r="H158" t="str">
-        <v>B+</v>
+        <v>A+</v>
       </c>
       <c r="I158" t="str">
         <v>available</v>
@@ -5613,60 +5610,57 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>783b418b-9b0d-482c-a01b-75072978141f</v>
+        <v>f85f167d-7dd5-420d-86b5-ec8861b2bc1a</v>
       </c>
       <c r="B159" t="str">
-        <v>Joshua Martinez</v>
+        <v>Michael Carter</v>
       </c>
       <c r="C159">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D159" t="str">
         <v>Male</v>
       </c>
       <c r="E159" t="str">
-        <v>joshua.martinez94@icloud.com</v>
+        <v>michael.carter90@outlook.com</v>
       </c>
       <c r="F159" t="str">
-        <v>(539) 856-7158</v>
+        <v>(377) 714-4320</v>
       </c>
       <c r="G159" t="str">
-        <v>San Diego</v>
+        <v>Burbank</v>
       </c>
       <c r="H159" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="I159" t="str">
         <v>available</v>
-      </c>
-      <c r="J159" t="str">
-        <v>Avery Clark</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>cc9dcc8f-9593-4b7e-b4dd-723de93b6b04</v>
+        <v>258eb0f3-5b73-4b6f-abb9-86c6ccb99d1f</v>
       </c>
       <c r="B160" t="str">
-        <v>Aiden Cook</v>
+        <v>Mateo Phillips</v>
       </c>
       <c r="C160">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D160" t="str">
         <v>Male</v>
       </c>
       <c r="E160" t="str">
-        <v>aiden.cook93@yahoo.com</v>
+        <v>mateo.phillips59@outlook.com</v>
       </c>
       <c r="F160" t="str">
-        <v>(959) 986-7207</v>
+        <v>(155) 680-1162</v>
       </c>
       <c r="G160" t="str">
-        <v>Pomona</v>
+        <v>Sacramento</v>
       </c>
       <c r="H160" t="str">
-        <v>A+</v>
+        <v>B+</v>
       </c>
       <c r="I160" t="str">
         <v>available</v>
@@ -5674,28 +5668,28 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>f85f167d-7dd5-420d-86b5-ec8861b2bc1a</v>
+        <v>7a0a1a0e-a2dd-4f19-94ff-54601fcfb0e1</v>
       </c>
       <c r="B161" t="str">
-        <v>Michael Carter</v>
+        <v>Alexander Reyes</v>
       </c>
       <c r="C161">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D161" t="str">
         <v>Male</v>
       </c>
       <c r="E161" t="str">
-        <v>michael.carter90@outlook.com</v>
+        <v>alexander.reyes92@icloud.com</v>
       </c>
       <c r="F161" t="str">
-        <v>(377) 714-4320</v>
+        <v>(434) 933-1740</v>
       </c>
       <c r="G161" t="str">
-        <v>Burbank</v>
+        <v>Newport Beach</v>
       </c>
       <c r="H161" t="str">
-        <v>A</v>
+        <v>A+</v>
       </c>
       <c r="I161" t="str">
         <v>available</v>
@@ -5703,115 +5697,121 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>258eb0f3-5b73-4b6f-abb9-86c6ccb99d1f</v>
+        <v>224212bc-76fd-40f4-903d-8a0a1d6163e3</v>
       </c>
       <c r="B162" t="str">
-        <v>Mateo Phillips</v>
+        <v>Grayson Edwards</v>
       </c>
       <c r="C162">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D162" t="str">
         <v>Male</v>
       </c>
       <c r="E162" t="str">
-        <v>mateo.phillips59@outlook.com</v>
+        <v>grayson.edwards22@gmail.com</v>
       </c>
       <c r="F162" t="str">
-        <v>(155) 680-1162</v>
+        <v>(215) 129-3913</v>
       </c>
       <c r="G162" t="str">
-        <v>Sacramento</v>
+        <v>Torrance</v>
       </c>
       <c r="H162" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I162" t="str">
         <v>available</v>
+      </c>
+      <c r="J162" t="str">
+        <v>Elizabeth Nelson, Joseph Anderson</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>7a0a1a0e-a2dd-4f19-94ff-54601fcfb0e1</v>
+        <v>bede75d6-a4ec-4fe3-907f-35108a2b4b10</v>
       </c>
       <c r="B163" t="str">
-        <v>Alexander Reyes</v>
+        <v>Cameron Evans</v>
       </c>
       <c r="C163">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D163" t="str">
         <v>Male</v>
       </c>
       <c r="E163" t="str">
-        <v>alexander.reyes92@icloud.com</v>
+        <v>cameron.evans55@outlook.com</v>
       </c>
       <c r="F163" t="str">
-        <v>(434) 933-1740</v>
+        <v>(535) 743-7467</v>
       </c>
       <c r="G163" t="str">
-        <v>Newport Beach</v>
+        <v>Fremont</v>
       </c>
       <c r="H163" t="str">
-        <v>A+</v>
+        <v>B</v>
       </c>
       <c r="I163" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="J163" t="str">
+        <v>Michael Johnson, Anthony Garcia</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>224212bc-76fd-40f4-903d-8a0a1d6163e3</v>
+        <v>ea1b059a-dde4-49c1-92b8-b9fd09c84bb7</v>
       </c>
       <c r="B164" t="str">
-        <v>Grayson Edwards</v>
+        <v>Sadie Cook</v>
       </c>
       <c r="C164">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="D164" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E164" t="str">
-        <v>grayson.edwards22@gmail.com</v>
+        <v>sadie.cook9@yahoo.com</v>
       </c>
       <c r="F164" t="str">
-        <v>(215) 129-3913</v>
+        <v>(382) 126-7672</v>
       </c>
       <c r="G164" t="str">
-        <v>Torrance</v>
+        <v>Santa Monica</v>
       </c>
       <c r="H164" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I164" t="str">
         <v>available</v>
       </c>
       <c r="J164" t="str">
-        <v>Elizabeth Nelson, Joseph Anderson</v>
+        <v>William Allen, Alexa Hall</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>bede75d6-a4ec-4fe3-907f-35108a2b4b10</v>
+        <v>b22d1d02-9344-4922-9be8-d8d05a79b0b0</v>
       </c>
       <c r="B165" t="str">
-        <v>Cameron Evans</v>
+        <v>Julian Nguyen</v>
       </c>
       <c r="C165">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="D165" t="str">
         <v>Male</v>
       </c>
       <c r="E165" t="str">
-        <v>cameron.evans55@outlook.com</v>
+        <v>julian.nguyen22@outlook.com</v>
       </c>
       <c r="F165" t="str">
-        <v>(535) 743-7467</v>
+        <v>(382) 722-8118</v>
       </c>
       <c r="G165" t="str">
-        <v>Fremont</v>
+        <v>Long Beach</v>
       </c>
       <c r="H165" t="str">
         <v>B</v>
@@ -5820,158 +5820,158 @@
         <v>assigned</v>
       </c>
       <c r="J165" t="str">
-        <v>Michael Johnson, Anthony Garcia</v>
+        <v>Leah Diaz, Lydia Allen</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>ea1b059a-dde4-49c1-92b8-b9fd09c84bb7</v>
+        <v>4501044d-6fd4-4a45-83a0-416599928b1f</v>
       </c>
       <c r="B166" t="str">
-        <v>Sadie Cook</v>
+        <v>Audrey Hill</v>
       </c>
       <c r="C166">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D166" t="str">
         <v>Female</v>
       </c>
       <c r="E166" t="str">
-        <v>sadie.cook9@yahoo.com</v>
+        <v>audrey.hill20@outlook.com</v>
       </c>
       <c r="F166" t="str">
-        <v>(382) 126-7672</v>
+        <v>(688) 524-4712</v>
       </c>
       <c r="G166" t="str">
-        <v>Santa Monica</v>
+        <v>San Jose</v>
       </c>
       <c r="H166" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I166" t="str">
         <v>available</v>
       </c>
       <c r="J166" t="str">
-        <v>William Allen, Alexa Hall</v>
+        <v>Avery Taylor</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>b22d1d02-9344-4922-9be8-d8d05a79b0b0</v>
+        <v>a1895f97-a947-4cf3-9bc3-6aa43cdc1339</v>
       </c>
       <c r="B167" t="str">
-        <v>Julian Nguyen</v>
+        <v>Gabriella Smith</v>
       </c>
       <c r="C167">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="D167" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E167" t="str">
-        <v>julian.nguyen22@outlook.com</v>
+        <v>gabriella.smith91@hotmail.com</v>
       </c>
       <c r="F167" t="str">
-        <v>(382) 722-8118</v>
+        <v>(550) 121-2897</v>
       </c>
       <c r="G167" t="str">
-        <v>Long Beach</v>
+        <v>Sacramento</v>
       </c>
       <c r="H167" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="I167" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
       <c r="J167" t="str">
-        <v>Leah Diaz, Lydia Allen</v>
+        <v>Julian Rivera</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>4501044d-6fd4-4a45-83a0-416599928b1f</v>
+        <v>921da7b6-596c-4a0e-a647-022bbd8cef26</v>
       </c>
       <c r="B168" t="str">
-        <v>Audrey Hill</v>
+        <v>John Diaz</v>
       </c>
       <c r="C168">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D168" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E168" t="str">
-        <v>audrey.hill20@outlook.com</v>
+        <v>john.diaz17@icloud.com</v>
       </c>
       <c r="F168" t="str">
-        <v>(688) 524-4712</v>
+        <v>(251) 432-3565</v>
       </c>
       <c r="G168" t="str">
-        <v>San Jose</v>
+        <v>Pomona</v>
       </c>
       <c r="H168" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I168" t="str">
         <v>available</v>
       </c>
       <c r="J168" t="str">
-        <v>Avery Taylor</v>
+        <v>Cameron Anderson</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>a1895f97-a947-4cf3-9bc3-6aa43cdc1339</v>
+        <v>4fba0674-c979-4177-b29d-9a882e08ad0d</v>
       </c>
       <c r="B169" t="str">
-        <v>Gabriella Smith</v>
+        <v>Autumn Lewis</v>
       </c>
       <c r="C169">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="D169" t="str">
         <v>Female</v>
       </c>
       <c r="E169" t="str">
-        <v>gabriella.smith91@hotmail.com</v>
+        <v>autumn.lewis97@outlook.com</v>
       </c>
       <c r="F169" t="str">
-        <v>(550) 121-2897</v>
+        <v>(841) 837-8640</v>
       </c>
       <c r="G169" t="str">
-        <v>Sacramento</v>
+        <v>San Francisco</v>
       </c>
       <c r="H169" t="str">
-        <v>A</v>
+        <v>B+</v>
       </c>
       <c r="I169" t="str">
         <v>available</v>
       </c>
       <c r="J169" t="str">
-        <v>Julian Rivera</v>
+        <v>Noah Martinez</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>921da7b6-596c-4a0e-a647-022bbd8cef26</v>
+        <v>2450bd3d-4940-477d-8a08-abc3363fdc3a</v>
       </c>
       <c r="B170" t="str">
-        <v>John Diaz</v>
+        <v>Ella Lopez</v>
       </c>
       <c r="C170">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D170" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E170" t="str">
-        <v>john.diaz17@icloud.com</v>
+        <v>ella.lopez65@outlook.com</v>
       </c>
       <c r="F170" t="str">
-        <v>(251) 432-3565</v>
+        <v>(192) 887-5779</v>
       </c>
       <c r="G170" t="str">
-        <v>Pomona</v>
+        <v>Riverside</v>
       </c>
       <c r="H170" t="str">
         <v>B+</v>
@@ -5980,236 +5980,233 @@
         <v>available</v>
       </c>
       <c r="J170" t="str">
-        <v>Cameron Anderson</v>
+        <v>Adam Edwards</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>4fba0674-c979-4177-b29d-9a882e08ad0d</v>
+        <v>9e0ff879-df04-4a3f-b572-8633acb77cee</v>
       </c>
       <c r="B171" t="str">
-        <v>Autumn Lewis</v>
+        <v>Jackson Jackson</v>
       </c>
       <c r="C171">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D171" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E171" t="str">
-        <v>autumn.lewis97@outlook.com</v>
+        <v>jackson.jackson86@icloud.com</v>
       </c>
       <c r="F171" t="str">
-        <v>(841) 837-8640</v>
+        <v>(858) 306-7989</v>
       </c>
       <c r="G171" t="str">
-        <v>San Francisco</v>
+        <v>Oakland</v>
       </c>
       <c r="H171" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I171" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J171" t="str">
-        <v>Noah Martinez</v>
+        <v>Serenity Campbell, Isaiah Green</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>2450bd3d-4940-477d-8a08-abc3363fdc3a</v>
+        <v>97620f89-d506-4934-89b6-c60208f0bb45</v>
       </c>
       <c r="B172" t="str">
-        <v>Ella Lopez</v>
+        <v>Charlotte Hernandez</v>
       </c>
       <c r="C172">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D172" t="str">
         <v>Female</v>
       </c>
       <c r="E172" t="str">
-        <v>ella.lopez65@outlook.com</v>
+        <v>charlotte.hernandez88@gmail.com</v>
       </c>
       <c r="F172" t="str">
-        <v>(192) 887-5779</v>
+        <v>(131) 448-5858</v>
       </c>
       <c r="G172" t="str">
-        <v>Riverside</v>
+        <v>San Jose</v>
       </c>
       <c r="H172" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I172" t="str">
         <v>available</v>
       </c>
       <c r="J172" t="str">
-        <v>Adam Edwards</v>
+        <v>Ellie Allen, Emma Torres</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>9e0ff879-df04-4a3f-b572-8633acb77cee</v>
+        <v>cacb8de7-16c5-4332-9d25-a6794d8a23b3</v>
       </c>
       <c r="B173" t="str">
-        <v>Jackson Jackson</v>
+        <v>Anthony Garcia</v>
       </c>
       <c r="C173">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D173" t="str">
         <v>Male</v>
       </c>
       <c r="E173" t="str">
-        <v>jackson.jackson86@icloud.com</v>
+        <v>anthony.garcia31@yahoo.com</v>
       </c>
       <c r="F173" t="str">
-        <v>(858) 306-7989</v>
+        <v>(249) 774-7265</v>
       </c>
       <c r="G173" t="str">
-        <v>Oakland</v>
+        <v>Santa Monica</v>
       </c>
       <c r="H173" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="I173" t="str">
         <v>assigned</v>
       </c>
       <c r="J173" t="str">
-        <v>Serenity Campbell, Isaiah Green</v>
+        <v>Michael Johnson, Cameron Evans</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>97620f89-d506-4934-89b6-c60208f0bb45</v>
+        <v>c03a116f-7b88-4c23-a9cc-04d14d2df186</v>
       </c>
       <c r="B174" t="str">
-        <v>Charlotte Hernandez</v>
+        <v>Sofia Martin</v>
       </c>
       <c r="C174">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D174" t="str">
         <v>Female</v>
       </c>
       <c r="E174" t="str">
-        <v>charlotte.hernandez88@gmail.com</v>
+        <v>sofia.martin17@yahoo.com</v>
       </c>
       <c r="F174" t="str">
-        <v>(131) 448-5858</v>
+        <v>(319) 272-7772</v>
       </c>
       <c r="G174" t="str">
-        <v>San Jose</v>
+        <v>Fresno</v>
       </c>
       <c r="H174" t="str">
         <v>B</v>
       </c>
       <c r="I174" t="str">
         <v>available</v>
-      </c>
-      <c r="J174" t="str">
-        <v>Ellie Allen, Emma Torres</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>cacb8de7-16c5-4332-9d25-a6794d8a23b3</v>
+        <v>9d8995c7-d5a1-4644-848d-dca4e81371af</v>
       </c>
       <c r="B175" t="str">
-        <v>Anthony Garcia</v>
+        <v>Michael Campbell</v>
       </c>
       <c r="C175">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D175" t="str">
         <v>Male</v>
       </c>
       <c r="E175" t="str">
-        <v>anthony.garcia31@yahoo.com</v>
+        <v>michael.campbell9@outlook.com</v>
       </c>
       <c r="F175" t="str">
-        <v>(249) 774-7265</v>
+        <v>(176) 164-6950</v>
       </c>
       <c r="G175" t="str">
-        <v>Santa Monica</v>
+        <v>Glendale</v>
       </c>
       <c r="H175" t="str">
-        <v>A</v>
+        <v>B+</v>
       </c>
       <c r="I175" t="str">
         <v>assigned</v>
       </c>
       <c r="J175" t="str">
-        <v>Michael Johnson, Cameron Evans</v>
+        <v>Sadie Williams, Eleanor Hall</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>c03a116f-7b88-4c23-a9cc-04d14d2df186</v>
+        <v>3f9d95b9-bedc-4620-9aa3-9bc8669de2af</v>
       </c>
       <c r="B176" t="str">
-        <v>Sofia Martin</v>
+        <v>Christopher Allen</v>
       </c>
       <c r="C176">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D176" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E176" t="str">
-        <v>sofia.martin17@yahoo.com</v>
+        <v>christopher.allen60@yahoo.com</v>
       </c>
       <c r="F176" t="str">
-        <v>(319) 272-7772</v>
+        <v>(529) 787-8147</v>
       </c>
       <c r="G176" t="str">
-        <v>Fresno</v>
+        <v>Torrance</v>
       </c>
       <c r="H176" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I176" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="J176" t="str">
+        <v>Eleanor Allen</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>9d8995c7-d5a1-4644-848d-dca4e81371af</v>
+        <v>10ec31e6-c6da-4957-9768-c5fcefe79c6b</v>
       </c>
       <c r="B177" t="str">
-        <v>Michael Campbell</v>
+        <v>Emma Turner</v>
       </c>
       <c r="C177">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D177" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E177" t="str">
-        <v>michael.campbell9@outlook.com</v>
+        <v>emma.turner16@outlook.com</v>
       </c>
       <c r="F177" t="str">
-        <v>(176) 164-6950</v>
+        <v>(656) 213-9003</v>
       </c>
       <c r="G177" t="str">
-        <v>Glendale</v>
+        <v>Pomona</v>
       </c>
       <c r="H177" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I177" t="str">
-        <v>assigned</v>
-      </c>
-      <c r="J177" t="str">
-        <v>Sadie Williams, Eleanor Hall</v>
+        <v>available</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>3f9d95b9-bedc-4620-9aa3-9bc8669de2af</v>
+        <v>1e334800-6e70-4273-b1ff-ee3ce5738b57</v>
       </c>
       <c r="B178" t="str">
-        <v>Christopher Allen</v>
+        <v>Adam Edwards</v>
       </c>
       <c r="C178">
         <v>49</v>
@@ -6218,74 +6215,77 @@
         <v>Male</v>
       </c>
       <c r="E178" t="str">
-        <v>christopher.allen60@yahoo.com</v>
+        <v>adam.edwards41@hotmail.com</v>
       </c>
       <c r="F178" t="str">
-        <v>(529) 787-8147</v>
+        <v>(439) 906-3390</v>
       </c>
       <c r="G178" t="str">
-        <v>Torrance</v>
+        <v>Burbank</v>
       </c>
       <c r="H178" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I178" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
       <c r="J178" t="str">
-        <v>Eleanor Allen</v>
+        <v>Ella Lopez</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>10ec31e6-c6da-4957-9768-c5fcefe79c6b</v>
+        <v>49fbe592-0995-4321-b8af-fbe859ca414c</v>
       </c>
       <c r="B179" t="str">
-        <v>Emma Turner</v>
+        <v>Grayson Morgan</v>
       </c>
       <c r="C179">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D179" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E179" t="str">
-        <v>emma.turner16@outlook.com</v>
+        <v>grayson.morgan95@outlook.com</v>
       </c>
       <c r="F179" t="str">
-        <v>(656) 213-9003</v>
+        <v>(524) 127-2584</v>
       </c>
       <c r="G179" t="str">
-        <v>Pomona</v>
+        <v>Irvine</v>
       </c>
       <c r="H179" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I179" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="J179" t="str">
+        <v>Adam Hall, Valentina Morales</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>1e334800-6e70-4273-b1ff-ee3ce5738b57</v>
+        <v>c284df19-568f-44d7-9ddf-b63e5af17f4a</v>
       </c>
       <c r="B180" t="str">
-        <v>Adam Edwards</v>
+        <v>Hannah Moore</v>
       </c>
       <c r="C180">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D180" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E180" t="str">
-        <v>adam.edwards41@hotmail.com</v>
+        <v>hannah.moore60@outlook.com</v>
       </c>
       <c r="F180" t="str">
-        <v>(439) 906-3390</v>
+        <v>(173) 685-3587</v>
       </c>
       <c r="G180" t="str">
-        <v>Burbank</v>
+        <v>Torrance</v>
       </c>
       <c r="H180" t="str">
         <v>B</v>
@@ -6294,71 +6294,71 @@
         <v>available</v>
       </c>
       <c r="J180" t="str">
-        <v>Ella Lopez</v>
+        <v>Alexander Campbell, Logan Nguyen</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>49fbe592-0995-4321-b8af-fbe859ca414c</v>
+        <v>d1a4099f-cc65-41a4-8aa3-72e7788e4944</v>
       </c>
       <c r="B181" t="str">
-        <v>Grayson Morgan</v>
+        <v>Sophia Reyes</v>
       </c>
       <c r="C181">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D181" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E181" t="str">
-        <v>grayson.morgan95@outlook.com</v>
+        <v>sophia.reyes82@outlook.com</v>
       </c>
       <c r="F181" t="str">
-        <v>(524) 127-2584</v>
+        <v>(759) 966-2783</v>
       </c>
       <c r="G181" t="str">
-        <v>Irvine</v>
+        <v>Long Beach</v>
       </c>
       <c r="H181" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I181" t="str">
         <v>assigned</v>
       </c>
       <c r="J181" t="str">
-        <v>Adam Hall, Valentina Morales</v>
+        <v>Victoria Anderson</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>c284df19-568f-44d7-9ddf-b63e5af17f4a</v>
+        <v>783b418b-9b0d-482c-a01b-75072978141f</v>
       </c>
       <c r="B182" t="str">
-        <v>Hannah Moore</v>
+        <v>Joshua Martinez</v>
       </c>
       <c r="C182">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D182" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E182" t="str">
-        <v>hannah.moore60@outlook.com</v>
+        <v>joshua.martinez94@icloud.com</v>
       </c>
       <c r="F182" t="str">
-        <v>(173) 685-3587</v>
+        <v>(539) 856-7158</v>
       </c>
       <c r="G182" t="str">
-        <v>Torrance</v>
+        <v>San Diego</v>
       </c>
       <c r="H182" t="str">
         <v>B</v>
       </c>
       <c r="I182" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J182" t="str">
-        <v>Alexander Campbell, Logan Nguyen</v>
+        <v>Avery Clark</v>
       </c>
     </row>
     <row r="183">
@@ -6825,34 +6825,34 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>06d38f0c-6780-4d6a-97b8-f28ec52ced34</v>
+        <v>6aa67d72-8123-41b4-9298-7f5d1e89aef7</v>
       </c>
       <c r="B198" t="str">
-        <v>William Taylor</v>
+        <v>Thomas Nguyen</v>
       </c>
       <c r="C198">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D198" t="str">
         <v>Male</v>
       </c>
       <c r="E198" t="str">
-        <v>william.taylor84@hotmail.com</v>
+        <v>thomas.nguyen88@yahoo.com</v>
       </c>
       <c r="F198" t="str">
-        <v>(276) 538-1731</v>
+        <v>(163) 406-8750</v>
       </c>
       <c r="G198" t="str">
-        <v>Newport Beach</v>
+        <v>Pomona</v>
       </c>
       <c r="H198" t="str">
         <v>B</v>
       </c>
       <c r="I198" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J198" t="str">
-        <v>Victoria Scott</v>
+        <v>Henry Roberts, Hannah Jones</v>
       </c>
     </row>
     <row r="199">
@@ -6889,89 +6889,89 @@
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>6aa67d72-8123-41b4-9298-7f5d1e89aef7</v>
+        <v>7772949f-f87d-480b-87ab-71f7500e8bd3</v>
       </c>
       <c r="B200" t="str">
-        <v>Thomas Nguyen</v>
+        <v>Elijah Miller</v>
       </c>
       <c r="C200">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="D200" t="str">
         <v>Male</v>
       </c>
       <c r="E200" t="str">
-        <v>thomas.nguyen88@yahoo.com</v>
+        <v>elijah.miller73@outlook.com</v>
       </c>
       <c r="F200" t="str">
-        <v>(163) 406-8750</v>
+        <v>(967) 645-5202</v>
       </c>
       <c r="G200" t="str">
-        <v>Pomona</v>
+        <v>Pasadena</v>
       </c>
       <c r="H200" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="I200" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J200" t="str">
-        <v>Henry Roberts, Hannah Jones</v>
+        <v>Sophia Flores</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>7772949f-f87d-480b-87ab-71f7500e8bd3</v>
+        <v>93e72347-d9bf-4fb1-b06c-7cb5a2edcc2a</v>
       </c>
       <c r="B201" t="str">
-        <v>Elijah Miller</v>
+        <v>Grace King</v>
       </c>
       <c r="C201">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D201" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E201" t="str">
-        <v>elijah.miller73@outlook.com</v>
+        <v>grace.king1@yahoo.com</v>
       </c>
       <c r="F201" t="str">
-        <v>(967) 645-5202</v>
+        <v>(217) 721-5651</v>
       </c>
       <c r="G201" t="str">
-        <v>Pasadena</v>
+        <v>Oakland</v>
       </c>
       <c r="H201" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="I201" t="str">
         <v>assigned</v>
       </c>
       <c r="J201" t="str">
-        <v>Sophia Flores</v>
+        <v>Gianna Hill</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>93e72347-d9bf-4fb1-b06c-7cb5a2edcc2a</v>
+        <v>d035c0a6-d30e-4ca3-b8c2-9becb2842da7</v>
       </c>
       <c r="B202" t="str">
-        <v>Grace King</v>
+        <v>Thomas Rivera</v>
       </c>
       <c r="C202">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="D202" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E202" t="str">
-        <v>grace.king1@yahoo.com</v>
+        <v>thomas.rivera13@yahoo.com</v>
       </c>
       <c r="F202" t="str">
-        <v>(217) 721-5651</v>
+        <v>(539) 243-6118</v>
       </c>
       <c r="G202" t="str">
-        <v>Oakland</v>
+        <v>Long Beach</v>
       </c>
       <c r="H202" t="str">
         <v>B</v>
@@ -6980,225 +6980,225 @@
         <v>assigned</v>
       </c>
       <c r="J202" t="str">
-        <v>Gianna Hill</v>
+        <v>Hannah Murphy</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>d035c0a6-d30e-4ca3-b8c2-9becb2842da7</v>
+        <v>ce7b894b-705d-49f7-a6a3-e0a7fe953a10</v>
       </c>
       <c r="B203" t="str">
-        <v>Thomas Rivera</v>
+        <v>Christian Rivera</v>
       </c>
       <c r="C203">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="D203" t="str">
         <v>Male</v>
       </c>
       <c r="E203" t="str">
-        <v>thomas.rivera13@yahoo.com</v>
+        <v>christian.rivera21@outlook.com</v>
       </c>
       <c r="F203" t="str">
-        <v>(539) 243-6118</v>
+        <v>(913) 900-2520</v>
       </c>
       <c r="G203" t="str">
-        <v>Long Beach</v>
+        <v>Burbank</v>
       </c>
       <c r="H203" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I203" t="str">
         <v>assigned</v>
       </c>
       <c r="J203" t="str">
-        <v>Hannah Murphy</v>
+        <v>Allison Torres, Elena Green</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>ce7b894b-705d-49f7-a6a3-e0a7fe953a10</v>
+        <v>924c70dd-25ce-4725-8a88-173a3af33a7f</v>
       </c>
       <c r="B204" t="str">
-        <v>Christian Rivera</v>
+        <v>Mia Anderson</v>
       </c>
       <c r="C204">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D204" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E204" t="str">
-        <v>christian.rivera21@outlook.com</v>
+        <v>mia.anderson0@yahoo.com</v>
       </c>
       <c r="F204" t="str">
-        <v>(913) 900-2520</v>
+        <v>(574) 806-3609</v>
       </c>
       <c r="G204" t="str">
-        <v>Burbank</v>
+        <v>Stockton</v>
       </c>
       <c r="H204" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I204" t="str">
         <v>assigned</v>
       </c>
       <c r="J204" t="str">
-        <v>Allison Torres, Elena Green</v>
+        <v>Avery Cruz, Lydia Torres</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>924c70dd-25ce-4725-8a88-173a3af33a7f</v>
+        <v>0bb2a1aa-a74d-4711-a2ea-609663a77b4d</v>
       </c>
       <c r="B205" t="str">
-        <v>Mia Anderson</v>
+        <v>Carter Harris</v>
       </c>
       <c r="C205">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="D205" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E205" t="str">
-        <v>mia.anderson0@yahoo.com</v>
+        <v>carter.harris82@yahoo.com</v>
       </c>
       <c r="F205" t="str">
-        <v>(574) 806-3609</v>
+        <v>0412 175 744</v>
       </c>
       <c r="G205" t="str">
-        <v>Stockton</v>
+        <v>Geelong</v>
       </c>
       <c r="H205" t="str">
         <v>B</v>
       </c>
       <c r="I205" t="str">
-        <v>assigned</v>
-      </c>
-      <c r="J205" t="str">
-        <v>Avery Cruz, Lydia Torres</v>
+        <v>available</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>0bb2a1aa-a74d-4711-a2ea-609663a77b4d</v>
+        <v>f26a0638-511f-4440-ae1a-2ae052df470f</v>
       </c>
       <c r="B206" t="str">
-        <v>Carter Harris</v>
+        <v>Caleb Brown</v>
       </c>
       <c r="C206">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="D206" t="str">
         <v>Male</v>
       </c>
       <c r="E206" t="str">
-        <v>carter.harris82@yahoo.com</v>
+        <v>caleb.brown13@yahoo.com</v>
       </c>
       <c r="F206" t="str">
-        <v>0412 175 744</v>
+        <v>(130) 920-6765</v>
       </c>
       <c r="G206" t="str">
-        <v>Geelong</v>
+        <v>Irvine</v>
       </c>
       <c r="H206" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I206" t="str">
         <v>available</v>
+      </c>
+      <c r="J206" t="str">
+        <v>Jackson Murphy</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>f26a0638-511f-4440-ae1a-2ae052df470f</v>
+        <v>9ad191d8-a3b3-478d-9318-781d3156afaa</v>
       </c>
       <c r="B207" t="str">
-        <v>Caleb Brown</v>
+        <v>Alexander Campbell</v>
       </c>
       <c r="C207">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D207" t="str">
         <v>Male</v>
       </c>
       <c r="E207" t="str">
-        <v>caleb.brown13@yahoo.com</v>
+        <v>alexander.campbell71@gmail.com</v>
       </c>
       <c r="F207" t="str">
-        <v>(130) 920-6765</v>
+        <v>(131) 840-1169</v>
       </c>
       <c r="G207" t="str">
-        <v>Irvine</v>
+        <v>Fresno</v>
       </c>
       <c r="H207" t="str">
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="I207" t="str">
         <v>available</v>
       </c>
       <c r="J207" t="str">
-        <v>Jackson Murphy</v>
+        <v>Logan Nguyen, Hannah Moore</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>9ad191d8-a3b3-478d-9318-781d3156afaa</v>
+        <v>9efd8ec8-0e91-45d9-804b-518939fbac76</v>
       </c>
       <c r="B208" t="str">
-        <v>Alexander Campbell</v>
+        <v>Noah Hernandez</v>
       </c>
       <c r="C208">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D208" t="str">
         <v>Male</v>
       </c>
       <c r="E208" t="str">
-        <v>alexander.campbell71@gmail.com</v>
+        <v>noah.hernandez9@hotmail.com</v>
       </c>
       <c r="F208" t="str">
-        <v>(131) 840-1169</v>
+        <v>0404 855 230</v>
       </c>
       <c r="G208" t="str">
-        <v>Fresno</v>
+        <v>Cairns</v>
       </c>
       <c r="H208" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="I208" t="str">
         <v>available</v>
-      </c>
-      <c r="J208" t="str">
-        <v>Logan Nguyen, Hannah Moore</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>9efd8ec8-0e91-45d9-804b-518939fbac76</v>
+        <v>06d38f0c-6780-4d6a-97b8-f28ec52ced34</v>
       </c>
       <c r="B209" t="str">
-        <v>Noah Hernandez</v>
+        <v>William Taylor</v>
       </c>
       <c r="C209">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D209" t="str">
         <v>Male</v>
       </c>
       <c r="E209" t="str">
-        <v>noah.hernandez9@hotmail.com</v>
+        <v>william.taylor84@hotmail.com</v>
       </c>
       <c r="F209" t="str">
-        <v>0404 855 230</v>
+        <v>(276) 538-1731</v>
       </c>
       <c r="G209" t="str">
-        <v>Cairns</v>
+        <v>Newport Beach</v>
       </c>
       <c r="H209" t="str">
         <v>B</v>
       </c>
       <c r="I209" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="J209" t="str">
+        <v>Victoria Scott</v>
       </c>
     </row>
     <row r="210">
@@ -7430,89 +7430,92 @@
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>4f5756e4-c006-4d04-a9bc-7a2de0fdf149</v>
+        <v>ef837da0-c81f-4113-a389-db5e46ffaf4d</v>
       </c>
       <c r="B217" t="str">
-        <v>Michael Johnson</v>
+        <v>Aria Scott</v>
       </c>
       <c r="C217">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D217" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E217" t="str">
-        <v>michael.johnson96@gmail.com</v>
+        <v>aria.scott42@outlook.com</v>
       </c>
       <c r="F217" t="str">
-        <v>(878) 132-4532</v>
+        <v>0401 330 548</v>
       </c>
       <c r="G217" t="str">
-        <v>Long Beach</v>
+        <v>Hobart</v>
       </c>
       <c r="H217" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I217" t="str">
         <v>assigned</v>
       </c>
       <c r="J217" t="str">
-        <v>Anthony Garcia, Cameron Evans</v>
+        <v>Maya Hernandez</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>efe20d3d-2162-4ff8-a8ff-4102e5d3f3ab</v>
+        <v>4f5756e4-c006-4d04-a9bc-7a2de0fdf149</v>
       </c>
       <c r="B218" t="str">
-        <v>Cameron Lee</v>
+        <v>Michael Johnson</v>
       </c>
       <c r="C218">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D218" t="str">
         <v>Male</v>
       </c>
       <c r="E218" t="str">
-        <v>cameron.lee78@yahoo.com</v>
+        <v>michael.johnson96@gmail.com</v>
       </c>
       <c r="F218" t="str">
-        <v>0404 821 708</v>
+        <v>(878) 132-4532</v>
       </c>
       <c r="G218" t="str">
-        <v>Cairns</v>
+        <v>Long Beach</v>
       </c>
       <c r="H218" t="str">
         <v>B+</v>
       </c>
       <c r="I218" t="str">
-        <v>available</v>
+        <v>assigned</v>
+      </c>
+      <c r="J218" t="str">
+        <v>Anthony Garcia, Cameron Evans</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>7bfb9432-4b59-4ceb-895d-e03ae4837f91</v>
+        <v>efe20d3d-2162-4ff8-a8ff-4102e5d3f3ab</v>
       </c>
       <c r="B219" t="str">
-        <v>Joshua Walker</v>
+        <v>Cameron Lee</v>
       </c>
       <c r="C219">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D219" t="str">
         <v>Male</v>
       </c>
       <c r="E219" t="str">
-        <v>joshua.walker97@gmail.com</v>
+        <v>cameron.lee78@yahoo.com</v>
       </c>
       <c r="F219" t="str">
-        <v>0402 640 379</v>
+        <v>0404 821 708</v>
       </c>
       <c r="G219" t="str">
-        <v>Darwin</v>
+        <v>Cairns</v>
       </c>
       <c r="H219" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I219" t="str">
         <v>available</v>
@@ -7520,130 +7523,127 @@
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>5c5fe7f9-35dd-4685-af6b-e44a56c1d47c</v>
+        <v>7bfb9432-4b59-4ceb-895d-e03ae4837f91</v>
       </c>
       <c r="B220" t="str">
-        <v>Charlotte Johnson</v>
+        <v>Joshua Walker</v>
       </c>
       <c r="C220">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D220" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E220" t="str">
-        <v>charlotte.johnson36@yahoo.com</v>
+        <v>joshua.walker97@gmail.com</v>
       </c>
       <c r="F220" t="str">
-        <v>0410 304 177</v>
+        <v>0402 640 379</v>
       </c>
       <c r="G220" t="str">
-        <v>Perth</v>
+        <v>Darwin</v>
       </c>
       <c r="H220" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="I220" t="str">
         <v>available</v>
-      </c>
-      <c r="J220" t="str">
-        <v>Audrey Martin</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
+        <v>5c5fe7f9-35dd-4685-af6b-e44a56c1d47c</v>
       </c>
       <c r="B221" t="str">
-        <v>Peter Adamidis</v>
+        <v>Charlotte Johnson</v>
       </c>
       <c r="C221">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="D221" t="str">
-        <v>Not Specified</v>
+        <v>Female</v>
       </c>
       <c r="E221" t="str">
-        <v>peter.adamidis@gmail.com</v>
+        <v>charlotte.johnson36@yahoo.com</v>
       </c>
       <c r="F221" t="str">
-        <v>498086080</v>
+        <v>0410 304 177</v>
       </c>
       <c r="G221" t="str">
-        <v/>
+        <v>Perth</v>
       </c>
       <c r="H221" t="str">
-        <v/>
+        <v>A</v>
       </c>
       <c r="I221" t="str">
-        <v>assigned</v>
+        <v>available</v>
       </c>
       <c r="J221" t="str">
-        <v>Kathleen Reynolds, Felicity Parker-Hill</v>
-      </c>
-      <c r="K221" t="str">
-        <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
-      </c>
-      <c r="L221" t="str">
-        <v>Y</v>
-      </c>
-      <c r="M221" t="str">
-        <v>Broken Leg</v>
+        <v>Audrey Martin</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>b28a73f8-5094-4b00-be67-223342b0e1d5</v>
+        <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
       </c>
       <c r="B222" t="str">
-        <v>Cora Lee</v>
+        <v>Peter Adamidis</v>
       </c>
       <c r="C222">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D222" t="str">
-        <v>Female</v>
+        <v>Not Specified</v>
       </c>
       <c r="E222" t="str">
-        <v>cora.lee40@hotmail.com</v>
+        <v>peter.adamidis@gmail.com</v>
       </c>
       <c r="F222" t="str">
-        <v>(406) 886-5180</v>
+        <v>498086080</v>
       </c>
       <c r="G222" t="str">
-        <v>Fresno</v>
+        <v/>
       </c>
       <c r="H222" t="str">
-        <v>B</v>
+        <v/>
       </c>
       <c r="I222" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J222" t="str">
-        <v>Layla Lopez</v>
+        <v>Kathleen Reynolds, Felicity Parker-Hill</v>
+      </c>
+      <c r="K222" t="str">
+        <v>5fe641da-4067-49a7-bae7-e63413b3e404</v>
+      </c>
+      <c r="L222" t="str">
+        <v>Y</v>
+      </c>
+      <c r="M222" t="str">
+        <v>Broken Leg</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>ef837da0-c81f-4113-a389-db5e46ffaf4d</v>
+        <v>b28a73f8-5094-4b00-be67-223342b0e1d5</v>
       </c>
       <c r="B223" t="str">
-        <v>Aria Scott</v>
+        <v>Cora Lee</v>
       </c>
       <c r="C223">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D223" t="str">
         <v>Female</v>
       </c>
       <c r="E223" t="str">
-        <v>aria.scott42@outlook.com</v>
+        <v>cora.lee40@hotmail.com</v>
       </c>
       <c r="F223" t="str">
-        <v>0401 330 548</v>
+        <v>(406) 886-5180</v>
       </c>
       <c r="G223" t="str">
-        <v>Hobart</v>
+        <v>Fresno</v>
       </c>
       <c r="H223" t="str">
         <v>B</v>
@@ -7652,7 +7652,7 @@
         <v>available</v>
       </c>
       <c r="J223" t="str">
-        <v>Maya Hernandez</v>
+        <v>Layla Lopez</v>
       </c>
     </row>
     <row r="224">
@@ -8022,7 +8022,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H110"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8432,1022 +8432,1019 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>9d124ee2-b502-40e4-b28d-ebad65c39b47</v>
+        <v>a97926fa-e299-48be-85b1-e1343993016e</v>
       </c>
       <c r="B24" t="str">
-        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
+        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
       </c>
       <c r="C24" t="str">
-        <v>992418b2-3029-4752-9552-0aa886433657</v>
+        <v>55099144-967b-4cf2-b4ed-3cfe46413c92</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
       <c r="E24" t="str">
-        <v>B5</v>
+        <v>A1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>f8801735-8ea8-4a63-896a-919be32a44a0</v>
+        <v>a04b9cdf-0d05-470d-9579-53050bf1b69f</v>
       </c>
       <c r="B25" t="str">
-        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
+        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
       </c>
       <c r="C25" t="str">
-        <v>dd2de8e6-e7c9-40e4-8308-27a14e5f00da</v>
+        <v>59bae9a1-93b9-471d-a2b7-074918634f6b</v>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
       <c r="E25" t="str">
-        <v>B4</v>
+        <v>D3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>51966534-1ea0-4c1f-9217-1334ae64e274</v>
+        <v>2d6fdbfc-4ce4-4f0f-ba31-f5c3767b5bf5</v>
       </c>
       <c r="B26" t="str">
-        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
+        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
       </c>
       <c r="C26" t="str">
-        <v>d2e4b795-48d9-43e4-8ebe-6916a61a544e</v>
+        <v>ef837da0-c81f-4113-a389-db5e46ffaf4d</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E26" t="str">
-        <v>A4</v>
+        <v>A2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>761f886f-529b-4094-9c04-a64fcf32a930</v>
+        <v>d6ecfe08-434d-4976-953e-104a37395b18</v>
       </c>
       <c r="B27" t="str">
-        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
+        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
       </c>
       <c r="C27" t="str">
-        <v>a614b69c-4f6c-49fa-a490-24d7e4a60da9</v>
+        <v>c9e05b47-6028-4cd1-b568-57342a489141</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E27" t="str">
-        <v>A5</v>
+        <v>A3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>119fe5b8-f8f9-445d-be8c-d5f3a8abb9cf</v>
+        <v>c134ba6a-ddb7-4120-aed0-1ea7d0e15bfb</v>
       </c>
       <c r="B28" t="str">
-        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
+        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
       </c>
       <c r="C28" t="str">
-        <v>3f9d95b9-bedc-4620-9aa3-9bc8669de2af</v>
+        <v>06d38f0c-6780-4d6a-97b8-f28ec52ced34</v>
       </c>
       <c r="D28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E28" t="str">
-        <v>B2</v>
+        <v>A4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>11e7e46f-069e-440f-abfe-f9fee913f706</v>
+        <v>31c38900-45f8-41f9-9ab0-9f456a22cc19</v>
       </c>
       <c r="B29" t="str">
-        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
+        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
       </c>
       <c r="C29" t="str">
-        <v>4f5224b0-063d-43fd-9435-f5c2723f61ed</v>
+        <v>94d903d4-dbc0-4052-87a8-ca32773ca839</v>
       </c>
       <c r="D29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E29" t="str">
-        <v>B3</v>
+        <v>B1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>e63e61bd-5df7-45fa-984d-fcbac9fd47a3</v>
+        <v>adc97863-865a-446e-a358-dc9f417aa045</v>
       </c>
       <c r="B30" t="str">
-        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
+        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
       </c>
       <c r="C30" t="str">
-        <v>7772949f-f87d-480b-87ab-71f7500e8bd3</v>
+        <v>6aa67d72-8123-41b4-9298-7f5d1e89aef7</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E30" t="str">
-        <v>B4</v>
+        <v>B2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>e09faaf3-ec66-45a1-814a-689e80e97567</v>
+        <v>9c0bc3bf-f674-4ebb-8830-9f6ddb35f439</v>
       </c>
       <c r="B31" t="str">
-        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
+        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
       </c>
       <c r="C31" t="str">
-        <v>699a6b21-dcdf-4a6c-a093-53af77ccdedb</v>
+        <v>39b7a0a4-be8b-49f1-a5af-c5a105e0ab58</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E31" t="str">
-        <v>C1</v>
+        <v>B3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>e88328a9-4229-4115-8080-d544ac0d52da</v>
+        <v>fd79c7f9-c2e0-422e-88a0-b8e4788c5ac3</v>
       </c>
       <c r="B32" t="str">
-        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
+        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
       </c>
       <c r="C32" t="str">
-        <v>852226e3-fccb-4228-8627-5dc42cfe4387</v>
+        <v>ef94ff15-5215-4ecd-9ad1-9ac44fd0e56a</v>
       </c>
       <c r="D32">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E32" t="str">
-        <v>C2</v>
+        <v>B4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>b87b1294-5c2b-461f-a5ae-4a9e47cd5022</v>
+        <v>81983df4-6d98-4079-997a-b15e4992f0c2</v>
       </c>
       <c r="B33" t="str">
-        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
+        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
       </c>
       <c r="C33" t="str">
-        <v>da957311-60b3-4bfc-b980-ac0506dccd20</v>
+        <v>a8fa9125-28f1-47e1-adba-784701975e68</v>
       </c>
       <c r="D33">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E33" t="str">
-        <v>C3</v>
+        <v>B5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>0bf53c3e-bb5c-4b11-8eb5-d242a41ffdf3</v>
+        <v>877d9b81-b96c-49af-8522-ef897840f2c0</v>
       </c>
       <c r="B34" t="str">
-        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
+        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
       </c>
       <c r="C34" t="str">
-        <v>b09d810a-6eb0-4ea8-ac8b-df27315049f1</v>
+        <v>2811bf99-369b-4c0a-b5d6-4ff46cd7aa5e</v>
       </c>
       <c r="D34">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E34" t="str">
-        <v>C4</v>
+        <v>C1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>d013561b-40a6-4b73-9205-f625e31e2b8b</v>
+        <v>7c0b3acd-b99e-4207-b47e-2a531410627d</v>
       </c>
       <c r="B35" t="str">
-        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
+        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
       </c>
       <c r="C35" t="str">
-        <v>d3525475-4eef-4712-ba77-a79cea16ef55</v>
+        <v>e15c67b6-0680-4284-a8aa-a525b34c592d</v>
       </c>
       <c r="D35">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E35" t="str">
-        <v>D1</v>
+        <v>C2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>0495fa93-25ec-42cf-baea-0795d1e11ef5</v>
+        <v>f7e3b01b-afaf-4c03-9826-6e5040f8804b</v>
       </c>
       <c r="B36" t="str">
-        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
+        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
       </c>
       <c r="C36" t="str">
-        <v>644e41d7-b99e-4381-99a9-65d5ee89ad50</v>
+        <v>6ddd3228-f125-4d3e-88e2-157cd730b552</v>
       </c>
       <c r="D36">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E36" t="str">
-        <v>D2</v>
+        <v>C3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>ed31b312-db35-4c68-b7a9-a90a6e150e36</v>
+        <v>f77f8950-24a9-4561-9e88-09c9d8058861</v>
       </c>
       <c r="B37" t="str">
-        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
+        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
       </c>
       <c r="C37" t="str">
-        <v>cd2f354f-9f45-4422-af14-1c94758ec1c1</v>
+        <v>40727c14-a30e-4e3b-8b64-0359d25efc0c</v>
       </c>
       <c r="D37">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E37" t="str">
-        <v>D3</v>
+        <v>C4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>ed95bf26-add0-459b-97df-6299a34137b1</v>
+        <v>ba728530-2c43-4629-a4ba-702f3ad076f7</v>
       </c>
       <c r="B38" t="str">
-        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
+        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
       </c>
       <c r="C38" t="str">
-        <v>d035c0a6-d30e-4ca3-b8c2-9becb2842da7</v>
+        <v>ad836319-db56-4a08-bca6-a8e3f19c37a8</v>
       </c>
       <c r="D38">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E38" t="str">
-        <v>D4</v>
+        <v>D1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>1dde0982-8406-4022-9da3-e90925e3d2a2</v>
+        <v>307628e8-9f84-4bac-930b-c3975e190a5a</v>
       </c>
       <c r="B39" t="str">
-        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
+        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
       </c>
       <c r="C39" t="str">
-        <v>9d6b206c-c62d-4b71-b83d-fb61ac2fd06b</v>
+        <v>adb0c362-d095-4bfd-98dc-c93920fd22d6</v>
       </c>
       <c r="D39">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E39" t="str">
-        <v>E1</v>
+        <v>D2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>bf4931ff-0b09-49e2-bf7a-5c6c07f059ab</v>
+        <v>babf86d1-c049-47d3-85e9-dc4f0808f2aa</v>
       </c>
       <c r="B40" t="str">
-        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
+        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
       </c>
       <c r="C40" t="str">
-        <v>5e93a4d1-9d7c-4b53-9898-a1ae2a0319c1</v>
+        <v>d6c29b29-46c2-458d-9ed6-9955afb17b95</v>
       </c>
       <c r="D40">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E40" t="str">
-        <v>E2</v>
+        <v>D4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>878bd12f-f08a-4560-bbca-b0d6f34eca7f</v>
+        <v>5b34f428-822a-45f8-b317-88ee6aeff326</v>
       </c>
       <c r="B41" t="str">
-        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
+        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
       </c>
       <c r="C41" t="str">
-        <v>292da493-0524-4ee4-b911-1bb34e328b8c</v>
+        <v>45c0fc2b-415d-475a-998d-934235565d6b</v>
       </c>
       <c r="D41">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E41" t="str">
-        <v>B5</v>
+        <v>E1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>f04ab471-1a9d-4e0c-8e4b-3d79e4d4882b</v>
+        <v>e2691b74-54bf-4ddf-903d-dcb57ab9d1c7</v>
       </c>
       <c r="B42" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
       </c>
       <c r="C42" t="str">
-        <v>924c70dd-25ce-4725-8a88-173a3af33a7f</v>
+        <v>d7b0dd51-8aea-4b32-bb8d-8b60271fc6c9</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" t="str">
-        <v>B3</v>
+        <v>E2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>de24e1b7-54f7-4944-86a8-442ceab4b214</v>
+        <v>a7f75281-d9f7-4feb-b1a8-06e8e021789d</v>
       </c>
       <c r="B43" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
       </c>
       <c r="C43" t="str">
-        <v>151541b8-8cbb-452a-b532-1a0df3d1d4b6</v>
+        <v>0e8f635e-8f06-4224-a2cc-4263ac307ba2</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43" t="str">
-        <v>A3</v>
+        <v>E3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>1c3f244b-b164-4904-a5f1-1524195b494a</v>
+        <v>e41f9c69-762a-42e6-a22a-01d0f90c7a27</v>
       </c>
       <c r="B44" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
       </c>
       <c r="C44" t="str">
-        <v>b498fd02-c816-4b07-976f-1100495bf38b</v>
+        <v>d1a4099f-cc65-41a4-8aa3-72e7788e4944</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44" t="str">
-        <v>C1</v>
+        <v>E4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>b396cb42-cc76-4350-89e8-98b94de4815d</v>
+        <v>05e39e15-6494-4290-995c-10b090a68418</v>
       </c>
       <c r="B45" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
       </c>
       <c r="C45" t="str">
-        <v>efeba788-8d57-40b3-a3f9-e134a40931ac</v>
+        <v>783b418b-9b0d-482c-a01b-75072978141f</v>
       </c>
       <c r="D45">
         <v>2</v>
       </c>
       <c r="E45" t="str">
-        <v>A1</v>
+        <v>A5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>24e9391d-f1db-42e8-bf49-d8a50c6924a4</v>
+        <v>9d124ee2-b502-40e4-b28d-ebad65c39b47</v>
       </c>
       <c r="B46" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C46" t="str">
-        <v>b22d1d02-9344-4922-9be8-d8d05a79b0b0</v>
+        <v>992418b2-3029-4752-9552-0aa886433657</v>
       </c>
       <c r="D46">
         <v>2</v>
       </c>
       <c r="E46" t="str">
-        <v>A2</v>
+        <v>B5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>5f3f2f6f-9c39-49d2-8992-ccaec88be285</v>
+        <v>f8801735-8ea8-4a63-896a-919be32a44a0</v>
       </c>
       <c r="B47" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C47" t="str">
-        <v>8d8070dd-3ee6-476f-aaf2-631e80f67ef7</v>
+        <v>dd2de8e6-e7c9-40e4-8308-27a14e5f00da</v>
       </c>
       <c r="D47">
         <v>2</v>
       </c>
       <c r="E47" t="str">
-        <v>A3</v>
+        <v>B4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>0690114d-d0d8-4037-9a28-d510723b7e61</v>
+        <v>51966534-1ea0-4c1f-9217-1334ae64e274</v>
       </c>
       <c r="B48" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C48" t="str">
-        <v>50b3a8f6-823f-477c-b52d-5b4fba4edbd2</v>
+        <v>d2e4b795-48d9-43e4-8ebe-6916a61a544e</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E48" t="str">
-        <v>B1</v>
+        <v>A4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>9044d7ab-e884-4032-b97c-d8a8c1fe1e8d</v>
+        <v>761f886f-529b-4094-9c04-a64fcf32a930</v>
       </c>
       <c r="B49" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C49" t="str">
-        <v>a3199cca-1aa6-4060-b6cd-0320712376ba</v>
+        <v>a614b69c-4f6c-49fa-a490-24d7e4a60da9</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E49" t="str">
-        <v>B2</v>
+        <v>A5</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>d8ab2aa6-f759-423e-ba36-95e19395f7e1</v>
+        <v>119fe5b8-f8f9-445d-be8c-d5f3a8abb9cf</v>
       </c>
       <c r="B50" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C50" t="str">
-        <v>81759c6b-da11-4c0e-9e96-92aa20964b06</v>
+        <v>3f9d95b9-bedc-4620-9aa3-9bc8669de2af</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E50" t="str">
-        <v>B3</v>
+        <v>B2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>06479481-5b19-439e-b90b-b66c53b4b1b9</v>
+        <v>11e7e46f-069e-440f-abfe-f9fee913f706</v>
       </c>
       <c r="B51" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C51" t="str">
-        <v>d4340206-46f8-4128-a64d-b1a7ca7bbdb5</v>
+        <v>4f5224b0-063d-43fd-9435-f5c2723f61ed</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E51" t="str">
-        <v>C1</v>
+        <v>B3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>14eafb47-bc4e-4314-8c84-c9ccd79c48e8</v>
+        <v>e63e61bd-5df7-45fa-984d-fcbac9fd47a3</v>
       </c>
       <c r="B52" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C52" t="str">
-        <v>9e0ff879-df04-4a3f-b572-8633acb77cee</v>
+        <v>7772949f-f87d-480b-87ab-71f7500e8bd3</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E52" t="str">
-        <v>C2</v>
+        <v>B4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>4a33a5a3-b9e2-4572-bfae-7a07cc18cab4</v>
+        <v>e09faaf3-ec66-45a1-814a-689e80e97567</v>
       </c>
       <c r="B53" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C53" t="str">
-        <v>feb78ceb-dd95-455d-8b7d-fc0019ae54c8</v>
+        <v>699a6b21-dcdf-4a6c-a093-53af77ccdedb</v>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E53" t="str">
-        <v>C3</v>
+        <v>C1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>632a22c8-adb5-48e4-ae03-86b5b416926f</v>
+        <v>e88328a9-4229-4115-8080-d544ac0d52da</v>
       </c>
       <c r="B54" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C54" t="str">
-        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
+        <v>852226e3-fccb-4228-8627-5dc42cfe4387</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E54" t="str">
-        <v>D1</v>
+        <v>C2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>e0bbac1a-ae2c-423f-8e95-33f1adad8dc2</v>
+        <v>b87b1294-5c2b-461f-a5ae-4a9e47cd5022</v>
       </c>
       <c r="B55" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C55" t="str">
-        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
+        <v>da957311-60b3-4bfc-b980-ac0506dccd20</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E55" t="str">
-        <v>D3</v>
+        <v>C3</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>24e758b6-4ef6-4995-96d5-483fda8a9d64</v>
+        <v>0bf53c3e-bb5c-4b11-8eb5-d242a41ffdf3</v>
       </c>
       <c r="B56" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C56" t="str">
-        <v>bcc86f75-9a60-406c-be7c-4f31ea5c30ef</v>
+        <v>b09d810a-6eb0-4ea8-ac8b-df27315049f1</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E56" t="str">
-        <v>E1</v>
+        <v>C4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>c7d873c9-6f65-40c6-ad2e-d5e386b74027</v>
+        <v>d013561b-40a6-4b73-9205-f625e31e2b8b</v>
       </c>
       <c r="B57" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C57" t="str">
-        <v>29fc5656-fb78-4c9b-9800-b68957bc0a07</v>
+        <v>d3525475-4eef-4712-ba77-a79cea16ef55</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E57" t="str">
-        <v>E2</v>
+        <v>D1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>5a54412a-9678-4001-8abf-6a6eb155c1e4</v>
+        <v>0495fa93-25ec-42cf-baea-0795d1e11ef5</v>
       </c>
       <c r="B58" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C58" t="str">
-        <v>6b672a17-fbf7-4b44-841d-dc10fbe8cbce</v>
+        <v>644e41d7-b99e-4381-99a9-65d5ee89ad50</v>
       </c>
       <c r="D58">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E58" t="str">
-        <v>A1</v>
+        <v>D2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>a95ab828-c44f-4fea-88a8-faa563ef3e25</v>
+        <v>ed31b312-db35-4c68-b7a9-a90a6e150e36</v>
       </c>
       <c r="B59" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C59" t="str">
-        <v>9d8995c7-d5a1-4644-848d-dca4e81371af</v>
+        <v>cd2f354f-9f45-4422-af14-1c94758ec1c1</v>
       </c>
       <c r="D59">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E59" t="str">
-        <v>A2</v>
+        <v>D3</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>887cbea0-1e69-44fb-b419-5c42ea7c1a87</v>
+        <v>ed95bf26-add0-459b-97df-6299a34137b1</v>
       </c>
       <c r="B60" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C60" t="str">
-        <v>1c24b746-78a8-49cd-9c4d-3d22726dbc1b</v>
+        <v>d035c0a6-d30e-4ca3-b8c2-9becb2842da7</v>
       </c>
       <c r="D60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E60" t="str">
-        <v>A3</v>
+        <v>D4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>f6bd49a9-db23-44f1-9b32-84531f956b4f</v>
+        <v>1dde0982-8406-4022-9da3-e90925e3d2a2</v>
       </c>
       <c r="B61" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C61" t="str">
-        <v>b57be3ad-f74f-4f2b-aa79-6e410d2c199b</v>
+        <v>9d6b206c-c62d-4b71-b83d-fb61ac2fd06b</v>
       </c>
       <c r="D61">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E61" t="str">
-        <v>B1</v>
+        <v>E1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>a33050c8-c302-43e8-b68f-edc8511e8a25</v>
+        <v>bf4931ff-0b09-49e2-bf7a-5c6c07f059ab</v>
       </c>
       <c r="B62" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C62" t="str">
-        <v>8819a806-f5b1-4b58-95f5-91489df570ac</v>
+        <v>5e93a4d1-9d7c-4b53-9898-a1ae2a0319c1</v>
       </c>
       <c r="D62">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E62" t="str">
-        <v>B2</v>
+        <v>E2</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>489d808e-b5d9-4d37-a0bf-6d38b6e944d6</v>
+        <v>878bd12f-f08a-4560-bbca-b0d6f34eca7f</v>
       </c>
       <c r="B63" t="str">
-        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
       </c>
       <c r="C63" t="str">
-        <v>6116506f-31f1-444e-bd83-2991a5335470</v>
+        <v>292da493-0524-4ee4-b911-1bb34e328b8c</v>
       </c>
       <c r="D63">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E63" t="str">
-        <v>B3</v>
+        <v>B5</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>9239f2c8-8dff-49ae-a8f0-15cd14b10b4b</v>
+        <v>f04ab471-1a9d-4e0c-8e4b-3d79e4d4882b</v>
       </c>
       <c r="B64" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C64" t="str">
-        <v>36fd980a-62d1-491b-97d6-079c33195e3d</v>
+        <v>924c70dd-25ce-4725-8a88-173a3af33a7f</v>
       </c>
       <c r="D64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E64" t="str">
-        <v>C1</v>
+        <v>B3</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>87018188-dea2-488d-bbc5-93511f010e3c</v>
+        <v>de24e1b7-54f7-4944-86a8-442ceab4b214</v>
       </c>
       <c r="B65" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C65" t="str">
-        <v>17e4dd39-8810-472c-b1a9-52382fbe0c79</v>
+        <v>151541b8-8cbb-452a-b532-1a0df3d1d4b6</v>
       </c>
       <c r="D65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E65" t="str">
-        <v>C2</v>
+        <v>A3</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>de4be42d-21dc-4643-bb31-1a6bafe8b8cc</v>
+        <v>b396cb42-cc76-4350-89e8-98b94de4815d</v>
       </c>
       <c r="B66" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C66" t="str">
-        <v>ce7b894b-705d-49f7-a6a3-e0a7fe953a10</v>
+        <v>efeba788-8d57-40b3-a3f9-e134a40931ac</v>
       </c>
       <c r="D66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E66" t="str">
-        <v>C3</v>
+        <v>A1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>bea17053-72b9-4ca5-9625-5555aca8ca24</v>
+        <v>24e9391d-f1db-42e8-bf49-d8a50c6924a4</v>
       </c>
       <c r="B67" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C67" t="str">
-        <v>97108062-7918-4f7f-a3f7-92bcbc478acd</v>
+        <v>b22d1d02-9344-4922-9be8-d8d05a79b0b0</v>
       </c>
       <c r="D67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E67" t="str">
-        <v>D1</v>
+        <v>A2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>3e276ae2-bdb0-484a-9cfa-955e6b4ba8e2</v>
+        <v>5f3f2f6f-9c39-49d2-8992-ccaec88be285</v>
       </c>
       <c r="B68" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C68" t="str">
-        <v>29b3a5cd-ea7d-4673-9db4-7886660a791f</v>
+        <v>8d8070dd-3ee6-476f-aaf2-631e80f67ef7</v>
       </c>
       <c r="D68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E68" t="str">
-        <v>D2</v>
+        <v>A3</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>5a1ae218-ce7d-4c8c-a2da-d630963af6f4</v>
+        <v>0690114d-d0d8-4037-9a28-d510723b7e61</v>
       </c>
       <c r="B69" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C69" t="str">
-        <v>d3db689e-5aed-4049-9588-adf3d1a49ae0</v>
+        <v>50b3a8f6-823f-477c-b52d-5b4fba4edbd2</v>
       </c>
       <c r="D69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E69" t="str">
-        <v>D3</v>
+        <v>B1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>9dfb721b-6ee8-410c-8d7a-874ee0c4f5e1</v>
+        <v>9044d7ab-e884-4032-b97c-d8a8c1fe1e8d</v>
       </c>
       <c r="B70" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C70" t="str">
-        <v>dbb200b8-766c-4984-9724-f68192d88939</v>
+        <v>a3199cca-1aa6-4060-b6cd-0320712376ba</v>
       </c>
       <c r="D70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E70" t="str">
-        <v>E1</v>
+        <v>B2</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>c0c1eeb3-ed06-4cb6-99bf-5b992835c4b3</v>
+        <v>d8ab2aa6-f759-423e-ba36-95e19395f7e1</v>
       </c>
       <c r="B71" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C71" t="str">
-        <v>aa6fa282-9894-4b21-a871-c9725586c397</v>
+        <v>81759c6b-da11-4c0e-9e96-92aa20964b06</v>
       </c>
       <c r="D71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E71" t="str">
-        <v>E2</v>
+        <v>B3</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>d966ee91-cd0e-4a0d-a751-798b92b03e60</v>
+        <v>06479481-5b19-439e-b90b-b66c53b4b1b9</v>
       </c>
       <c r="B72" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C72" t="str">
-        <v>df712cc5-31d8-4341-b177-6603bf089235</v>
+        <v>d4340206-46f8-4128-a64d-b1a7ca7bbdb5</v>
       </c>
       <c r="D72">
         <v>2</v>
       </c>
       <c r="E72" t="str">
-        <v>A4</v>
+        <v>C1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>47ec0204-7cf6-4afb-9b9e-a91324cdf4a9</v>
+        <v>14eafb47-bc4e-4314-8c84-c9ccd79c48e8</v>
       </c>
       <c r="B73" t="str">
-        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C73" t="str">
-        <v>5a16ef0a-cce8-4d1b-bfa5-3892331170c1</v>
+        <v>9e0ff879-df04-4a3f-b572-8633acb77cee</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E73" t="str">
-        <v>A1</v>
-      </c>
-      <c r="F73" s="1">
-        <v>46000.538291944446</v>
+        <v>C2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>e914a306-fff3-4997-a092-87302be1bda0</v>
+        <v>4a33a5a3-b9e2-4572-bfae-7a07cc18cab4</v>
       </c>
       <c r="B74" t="str">
-        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C74" t="str">
-        <v>0fc0ae2d-4068-4972-a5b1-963c241e317a</v>
+        <v>feb78ceb-dd95-455d-8b7d-fc0019ae54c8</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E74" t="str">
-        <v>A1</v>
+        <v>C3</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>64318131-3a36-4d14-a6ce-2699b7013fe5</v>
+        <v>632a22c8-adb5-48e4-ae03-86b5b416926f</v>
       </c>
       <c r="B75" t="str">
-        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C75" t="str">
-        <v>347bdea3-79f6-4991-9601-b2d86513429e</v>
+        <v>d698b1de-6641-45c6-aa63-f577d2b634bb</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E75" t="str">
-        <v>A2</v>
+        <v>D1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>3b230921-6709-4bb4-b5dc-fd764580c535</v>
+        <v>e0bbac1a-ae2c-423f-8e95-33f1adad8dc2</v>
       </c>
       <c r="B76" t="str">
-        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C76" t="str">
-        <v>dc8716d3-5841-439f-a3e4-3e7bd8306e66</v>
+        <v>28603f95-d5f6-47ab-88c4-0d79742a6b02</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E76" t="str">
-        <v>A3</v>
+        <v>D3</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>8fd02704-d4d6-498b-a9f9-66180b64176b</v>
+        <v>24e758b6-4ef6-4995-96d5-483fda8a9d64</v>
       </c>
       <c r="B77" t="str">
-        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C77" t="str">
-        <v>93e72347-d9bf-4fb1-b06c-7cb5a2edcc2a</v>
+        <v>bcc86f75-9a60-406c-be7c-4f31ea5c30ef</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E77" t="str">
-        <v>A4</v>
+        <v>E1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>40079e20-52ad-4652-afcd-333795a7592d</v>
+        <v>c7d873c9-6f65-40c6-ad2e-d5e386b74027</v>
       </c>
       <c r="B78" t="str">
-        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C78" t="str">
-        <v>d279968e-2739-4860-92b0-61f1c31b6a72</v>
+        <v>29fc5656-fb78-4c9b-9800-b68957bc0a07</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E78" t="str">
-        <v>B1</v>
+        <v>E2</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>0d5bf843-81f3-4a36-925e-2ac5a65f3543</v>
+        <v>5a54412a-9678-4001-8abf-6a6eb155c1e4</v>
       </c>
       <c r="B79" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C79" t="str">
-        <v>bede75d6-a4ec-4fe3-907f-35108a2b4b10</v>
+        <v>6b672a17-fbf7-4b44-841d-dc10fbe8cbce</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E79" t="str">
-        <v>D1</v>
+        <v>A1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>385ae883-11fc-4366-bdc9-aa7d308cbed7</v>
+        <v>a95ab828-c44f-4fea-88a8-faa563ef3e25</v>
       </c>
       <c r="B80" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C80" t="str">
-        <v>cacb8de7-16c5-4332-9d25-a6794d8a23b3</v>
+        <v>9d8995c7-d5a1-4644-848d-dca4e81371af</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E80" t="str">
-        <v>D3</v>
+        <v>A2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>4714b65d-0643-42ca-a7a2-8459962131a8</v>
+        <v>887cbea0-1e69-44fb-b419-5c42ea7c1a87</v>
       </c>
       <c r="B81" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C81" t="str">
-        <v>4f5756e4-c006-4d04-a9bc-7a2de0fdf149</v>
+        <v>1c24b746-78a8-49cd-9c4d-3d22726dbc1b</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E81" t="str">
-        <v>D2</v>
+        <v>A3</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>f979bc94-69a6-4473-be4f-3533f76cae2b</v>
+        <v>f6bd49a9-db23-44f1-9b32-84531f956b4f</v>
       </c>
       <c r="B82" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C82" t="str">
-        <v>49fbe592-0995-4321-b8af-fbe859ca414c</v>
+        <v>b57be3ad-f74f-4f2b-aa79-6e410d2c199b</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E82" t="str">
-        <v>C3</v>
+        <v>B1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>b6f1d429-67e4-45b4-a204-d05480319da0</v>
+        <v>a33050c8-c302-43e8-b68f-edc8511e8a25</v>
       </c>
       <c r="B83" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C83" t="str">
-        <v>443fcd0e-727d-4035-ab6a-c3df01515271</v>
+        <v>8819a806-f5b1-4b58-95f5-91489df570ac</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E83" t="str">
         <v>B2</v>
@@ -9455,50 +9452,50 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>5ecac9a7-a6b9-48f1-a93b-557a39838f17</v>
+        <v>489d808e-b5d9-4d37-a0bf-6d38b6e944d6</v>
       </c>
       <c r="B84" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C84" t="str">
-        <v>703385ff-46f6-4b8f-9998-1e18951304e0</v>
+        <v>6116506f-31f1-444e-bd83-2991a5335470</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E84" t="str">
-        <v>B1</v>
+        <v>B3</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>6bde6343-e29a-442a-9189-6dccf7f25850</v>
+        <v>9239f2c8-8dff-49ae-a8f0-15cd14b10b4b</v>
       </c>
       <c r="B85" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C85" t="str">
-        <v>bb319a54-7dbf-4a05-bd7f-8f2f6aa6b414</v>
+        <v>36fd980a-62d1-491b-97d6-079c33195e3d</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E85" t="str">
-        <v>E2</v>
+        <v>C1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>eef4b984-c474-4f43-aeed-197faa279405</v>
+        <v>87018188-dea2-488d-bbc5-93511f010e3c</v>
       </c>
       <c r="B86" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C86" t="str">
-        <v>a3363acf-3338-40ec-a745-9aef8dca39fc</v>
+        <v>17e4dd39-8810-472c-b1a9-52382fbe0c79</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E86" t="str">
         <v>C2</v>
@@ -9506,41 +9503,418 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>4186c00e-c265-4dd5-a5d0-4df7882a204b</v>
+        <v>de4be42d-21dc-4643-bb31-1a6bafe8b8cc</v>
       </c>
       <c r="B87" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C87" t="str">
-        <v>42504e80-d5df-4b97-a283-eb96728c425f</v>
+        <v>ce7b894b-705d-49f7-a6a3-e0a7fe953a10</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E87" t="str">
-        <v>E1</v>
+        <v>C3</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>313caa2c-fc70-4c67-992c-01c66df3af1f</v>
+        <v>bea17053-72b9-4ca5-9625-5555aca8ca24</v>
       </c>
       <c r="B88" t="str">
         <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
       </c>
       <c r="C88" t="str">
+        <v>97108062-7918-4f7f-a3f7-92bcbc478acd</v>
+      </c>
+      <c r="D88">
+        <v>3</v>
+      </c>
+      <c r="E88" t="str">
+        <v>D1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>3e276ae2-bdb0-484a-9cfa-955e6b4ba8e2</v>
+      </c>
+      <c r="B89" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C89" t="str">
+        <v>29b3a5cd-ea7d-4673-9db4-7886660a791f</v>
+      </c>
+      <c r="D89">
+        <v>3</v>
+      </c>
+      <c r="E89" t="str">
+        <v>D2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>5a1ae218-ce7d-4c8c-a2da-d630963af6f4</v>
+      </c>
+      <c r="B90" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C90" t="str">
+        <v>d3db689e-5aed-4049-9588-adf3d1a49ae0</v>
+      </c>
+      <c r="D90">
+        <v>3</v>
+      </c>
+      <c r="E90" t="str">
+        <v>D3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>9dfb721b-6ee8-410c-8d7a-874ee0c4f5e1</v>
+      </c>
+      <c r="B91" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C91" t="str">
+        <v>dbb200b8-766c-4984-9724-f68192d88939</v>
+      </c>
+      <c r="D91">
+        <v>3</v>
+      </c>
+      <c r="E91" t="str">
+        <v>E1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>c0c1eeb3-ed06-4cb6-99bf-5b992835c4b3</v>
+      </c>
+      <c r="B92" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C92" t="str">
+        <v>aa6fa282-9894-4b21-a871-c9725586c397</v>
+      </c>
+      <c r="D92">
+        <v>3</v>
+      </c>
+      <c r="E92" t="str">
+        <v>E2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>d966ee91-cd0e-4a0d-a751-798b92b03e60</v>
+      </c>
+      <c r="B93" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C93" t="str">
+        <v>df712cc5-31d8-4341-b177-6603bf089235</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+      <c r="E93" t="str">
+        <v>A4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>47ec0204-7cf6-4afb-9b9e-a91324cdf4a9</v>
+      </c>
+      <c r="B94" t="str">
+        <v>8de562bb-e594-47dd-a50f-ee78c14c0dde</v>
+      </c>
+      <c r="C94" t="str">
+        <v>5a16ef0a-cce8-4d1b-bfa5-3892331170c1</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94" t="str">
+        <v>A1</v>
+      </c>
+      <c r="F94" s="1">
+        <v>46000.538291944446</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>e914a306-fff3-4997-a092-87302be1bda0</v>
+      </c>
+      <c r="B95" t="str">
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
+      </c>
+      <c r="C95" t="str">
+        <v>0fc0ae2d-4068-4972-a5b1-963c241e317a</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95" t="str">
+        <v>A1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>64318131-3a36-4d14-a6ce-2699b7013fe5</v>
+      </c>
+      <c r="B96" t="str">
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
+      </c>
+      <c r="C96" t="str">
+        <v>347bdea3-79f6-4991-9601-b2d86513429e</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96" t="str">
+        <v>A2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>3b230921-6709-4bb4-b5dc-fd764580c535</v>
+      </c>
+      <c r="B97" t="str">
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
+      </c>
+      <c r="C97" t="str">
+        <v>dc8716d3-5841-439f-a3e4-3e7bd8306e66</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97" t="str">
+        <v>A3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>8fd02704-d4d6-498b-a9f9-66180b64176b</v>
+      </c>
+      <c r="B98" t="str">
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
+      </c>
+      <c r="C98" t="str">
+        <v>93e72347-d9bf-4fb1-b06c-7cb5a2edcc2a</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98" t="str">
+        <v>A4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>40079e20-52ad-4652-afcd-333795a7592d</v>
+      </c>
+      <c r="B99" t="str">
+        <v>abce05e1-0917-4949-a374-ef5f941df712</v>
+      </c>
+      <c r="C99" t="str">
+        <v>d279968e-2739-4860-92b0-61f1c31b6a72</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99" t="str">
+        <v>B1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>0d5bf843-81f3-4a36-925e-2ac5a65f3543</v>
+      </c>
+      <c r="B100" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C100" t="str">
+        <v>bede75d6-a4ec-4fe3-907f-35108a2b4b10</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100" t="str">
+        <v>D1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>4186c00e-c265-4dd5-a5d0-4df7882a204b</v>
+      </c>
+      <c r="B101" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C101" t="str">
+        <v>42504e80-d5df-4b97-a283-eb96728c425f</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101" t="str">
+        <v>E1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>4714b65d-0643-42ca-a7a2-8459962131a8</v>
+      </c>
+      <c r="B102" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C102" t="str">
+        <v>4f5756e4-c006-4d04-a9bc-7a2de0fdf149</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102" t="str">
+        <v>D2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>f979bc94-69a6-4473-be4f-3533f76cae2b</v>
+      </c>
+      <c r="B103" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C103" t="str">
+        <v>49fbe592-0995-4321-b8af-fbe859ca414c</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103" t="str">
+        <v>C3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>b6f1d429-67e4-45b4-a204-d05480319da0</v>
+      </c>
+      <c r="B104" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C104" t="str">
+        <v>443fcd0e-727d-4035-ab6a-c3df01515271</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104" t="str">
+        <v>B2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>5ecac9a7-a6b9-48f1-a93b-557a39838f17</v>
+      </c>
+      <c r="B105" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C105" t="str">
+        <v>703385ff-46f6-4b8f-9998-1e18951304e0</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105" t="str">
+        <v>B1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>6bde6343-e29a-442a-9189-6dccf7f25850</v>
+      </c>
+      <c r="B106" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C106" t="str">
+        <v>bb319a54-7dbf-4a05-bd7f-8f2f6aa6b414</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106" t="str">
+        <v>E2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>1c3f244b-b164-4904-a5f1-1524195b494a</v>
+      </c>
+      <c r="B107" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C107" t="str">
+        <v>b498fd02-c816-4b07-976f-1100495bf38b</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107" t="str">
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>eef4b984-c474-4f43-aeed-197faa279405</v>
+      </c>
+      <c r="B108" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C108" t="str">
+        <v>a3363acf-3338-40ec-a745-9aef8dca39fc</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108" t="str">
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>313caa2c-fc70-4c67-992c-01c66df3af1f</v>
+      </c>
+      <c r="B109" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C109" t="str">
         <v>0ccaf8bc-6ade-4ad6-9537-92f9829a6502</v>
       </c>
-      <c r="D88">
+      <c r="D109">
         <v>2</v>
       </c>
-      <c r="E88" t="str">
+      <c r="E109" t="str">
         <v>D2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>385ae883-11fc-4366-bdc9-aa7d308cbed7</v>
+      </c>
+      <c r="B110" t="str">
+        <v>e432f0fe-1383-44a2-990c-5f787da5008a</v>
+      </c>
+      <c r="C110" t="str">
+        <v>cacb8de7-16c5-4332-9d25-a6794d8a23b3</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110" t="str">
+        <v>D3</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H88"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H110"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/storage/backups/automatic-backup.xlsx
+++ b/storage/backups/automatic-backup.xlsx
@@ -759,121 +759,121 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>992418b2-3029-4752-9552-0aa886433657</v>
+        <v>2738f18e-1f2e-44d7-aa26-778ed59438ac</v>
       </c>
       <c r="B3" t="str">
-        <v>Zoe Brown</v>
+        <v>Emilia Miller</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D3" t="str">
         <v>Female</v>
       </c>
       <c r="E3" t="str">
-        <v>zoe.brown45@outlook.com</v>
+        <v>emilia.miller56@outlook.com</v>
       </c>
       <c r="F3" t="str">
-        <v>0401 578 107</v>
+        <v>0403 506 698</v>
       </c>
       <c r="G3" t="str">
-        <v>Sydney</v>
+        <v>Melbourne</v>
       </c>
       <c r="H3" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I3" t="str">
         <v>assigned</v>
       </c>
       <c r="J3" t="str">
-        <v>Chloe Jones</v>
+        <v>Victoria Carter</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>bcc86f75-9a60-406c-be7c-4f31ea5c30ef</v>
+        <v>992418b2-3029-4752-9552-0aa886433657</v>
       </c>
       <c r="B4" t="str">
-        <v>Paisley Lee</v>
+        <v>Zoe Brown</v>
       </c>
       <c r="C4">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D4" t="str">
         <v>Female</v>
       </c>
       <c r="E4" t="str">
-        <v>paisley.lee78@hotmail.com</v>
+        <v>zoe.brown45@outlook.com</v>
       </c>
       <c r="F4" t="str">
-        <v>0400 179 607</v>
+        <v>0401 578 107</v>
       </c>
       <c r="G4" t="str">
-        <v>Ballarat</v>
+        <v>Sydney</v>
       </c>
       <c r="H4" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I4" t="str">
         <v>assigned</v>
       </c>
       <c r="J4" t="str">
-        <v>Aria Lopez</v>
+        <v>Chloe Jones</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>40a64316-1fb5-4a09-8c9d-14bbc19036d1</v>
+        <v>bcc86f75-9a60-406c-be7c-4f31ea5c30ef</v>
       </c>
       <c r="B5" t="str">
-        <v>Olivia Gonzalez</v>
+        <v>Paisley Lee</v>
       </c>
       <c r="C5">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D5" t="str">
         <v>Female</v>
       </c>
       <c r="E5" t="str">
-        <v>olivia.gonzalez77@hotmail.com</v>
+        <v>paisley.lee78@hotmail.com</v>
       </c>
       <c r="F5" t="str">
-        <v>(982) 690-7408</v>
+        <v>0400 179 607</v>
       </c>
       <c r="G5" t="str">
-        <v>Long Beach</v>
+        <v>Ballarat</v>
       </c>
       <c r="H5" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I5" t="str">
         <v>assigned</v>
       </c>
       <c r="J5" t="str">
-        <v>Eliana Green</v>
+        <v>Aria Lopez</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>dbb200b8-766c-4984-9724-f68192d88939</v>
+        <v>40a64316-1fb5-4a09-8c9d-14bbc19036d1</v>
       </c>
       <c r="B6" t="str">
-        <v>Hannah Torres</v>
+        <v>Olivia Gonzalez</v>
       </c>
       <c r="C6">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D6" t="str">
         <v>Female</v>
       </c>
       <c r="E6" t="str">
-        <v>hannah.torres86@yahoo.com</v>
+        <v>olivia.gonzalez77@hotmail.com</v>
       </c>
       <c r="F6" t="str">
-        <v>0402 688 409</v>
+        <v>(982) 690-7408</v>
       </c>
       <c r="G6" t="str">
-        <v>Wollongong</v>
+        <v>Long Beach</v>
       </c>
       <c r="H6" t="str">
         <v>B+</v>
@@ -882,68 +882,62 @@
         <v>assigned</v>
       </c>
       <c r="J6" t="str">
-        <v>Audrey Thomas</v>
+        <v>Eliana Green</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>42504e80-d5df-4b97-a283-eb96728c425f</v>
+        <v>dbb200b8-766c-4984-9724-f68192d88939</v>
       </c>
       <c r="B7" t="str">
-        <v>Ella Anderson</v>
+        <v>Hannah Torres</v>
       </c>
       <c r="C7">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D7" t="str">
         <v>Female</v>
       </c>
       <c r="E7" t="str">
-        <v>ella.anderson1@yahoo.com</v>
+        <v>hannah.torres86@yahoo.com</v>
       </c>
       <c r="F7" t="str">
-        <v>0412 908 910</v>
+        <v>0402 688 409</v>
       </c>
       <c r="G7" t="str">
-        <v>Geelong</v>
+        <v>Wollongong</v>
       </c>
       <c r="H7" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I7" t="str">
         <v>assigned</v>
       </c>
       <c r="J7" t="str">
-        <v>Isabella Brown</v>
-      </c>
-      <c r="L7" t="str">
-        <v/>
-      </c>
-      <c r="M7" t="str">
-        <v/>
+        <v>Audrey Thomas</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>d2e4b795-48d9-43e4-8ebe-6916a61a544e</v>
+        <v>42504e80-d5df-4b97-a283-eb96728c425f</v>
       </c>
       <c r="B8" t="str">
-        <v>Ella Gutierrez</v>
+        <v>Ella Anderson</v>
       </c>
       <c r="C8">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D8" t="str">
         <v>Female</v>
       </c>
       <c r="E8" t="str">
-        <v>ella.gutierrez43@gmail.com</v>
+        <v>ella.anderson1@yahoo.com</v>
       </c>
       <c r="F8" t="str">
-        <v>(220) 105-1876</v>
+        <v>0412 908 910</v>
       </c>
       <c r="G8" t="str">
-        <v>Irvine</v>
+        <v>Geelong</v>
       </c>
       <c r="H8" t="str">
         <v>B</v>
@@ -952,254 +946,260 @@
         <v>assigned</v>
       </c>
       <c r="J8" t="str">
-        <v>Nora Lee</v>
+        <v>Isabella Brown</v>
+      </c>
+      <c r="L8" t="str">
+        <v/>
+      </c>
+      <c r="M8" t="str">
+        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>292da493-0524-4ee4-b911-1bb34e328b8c</v>
+        <v>d2e4b795-48d9-43e4-8ebe-6916a61a544e</v>
       </c>
       <c r="B9" t="str">
-        <v>Jackson Young</v>
+        <v>Ella Gutierrez</v>
       </c>
       <c r="C9">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D9" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="E9" t="str">
-        <v>jackson.young79@yahoo.com</v>
+        <v>ella.gutierrez43@gmail.com</v>
       </c>
       <c r="F9" t="str">
-        <v>0412 940 993</v>
+        <v>(220) 105-1876</v>
       </c>
       <c r="G9" t="str">
-        <v>Ballarat</v>
+        <v>Irvine</v>
       </c>
       <c r="H9" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I9" t="str">
         <v>assigned</v>
+      </c>
+      <c r="J9" t="str">
+        <v>Nora Lee</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2738f18e-1f2e-44d7-aa26-778ed59438ac</v>
+        <v>292da493-0524-4ee4-b911-1bb34e328b8c</v>
       </c>
       <c r="B10" t="str">
-        <v>Emilia Miller</v>
+        <v>Jackson Young</v>
       </c>
       <c r="C10">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D10" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="E10" t="str">
-        <v>emilia.miller56@outlook.com</v>
+        <v>jackson.young79@yahoo.com</v>
       </c>
       <c r="F10" t="str">
-        <v>0403 506 698</v>
+        <v>0412 940 993</v>
       </c>
       <c r="G10" t="str">
-        <v>Melbourne</v>
+        <v>Ballarat</v>
       </c>
       <c r="H10" t="str">
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="I10" t="str">
-        <v>available</v>
-      </c>
-      <c r="J10" t="str">
-        <v>Victoria Carter</v>
+        <v>assigned</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>22cf4684-eeba-4ed3-8f61-746028381f4d</v>
+        <v>c49dde07-b870-477a-82b6-a0354611093f</v>
       </c>
       <c r="B11" t="str">
-        <v>Harper Lewis</v>
+        <v>Mia Carter</v>
       </c>
       <c r="C11">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D11" t="str">
         <v>Female</v>
       </c>
       <c r="E11" t="str">
-        <v>harper.lewis57@hotmail.com</v>
+        <v>mia.carter78@hotmail.com</v>
       </c>
       <c r="F11" t="str">
-        <v>0411 652 121</v>
+        <v>(419) 735-1016</v>
       </c>
       <c r="G11" t="str">
-        <v>Geelong</v>
+        <v>Newport Beach</v>
       </c>
       <c r="H11" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="I11" t="str">
-        <v>available</v>
+        <v>assigned</v>
       </c>
       <c r="J11" t="str">
-        <v>Audrey Ramirez</v>
-      </c>
-      <c r="M11" t="str">
-        <v>Back issues - needs lumbar support chair</v>
+        <v>Evelyn Ortiz</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>94116225-6732-4c15-9e4b-66f7727602d5</v>
+        <v>22cf4684-eeba-4ed3-8f61-746028381f4d</v>
       </c>
       <c r="B12" t="str">
-        <v>Audrey Ramirez</v>
+        <v>Harper Lewis</v>
       </c>
       <c r="C12">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D12" t="str">
         <v>Female</v>
       </c>
       <c r="E12" t="str">
-        <v>audrey.ramirez12@gmail.com</v>
+        <v>harper.lewis57@hotmail.com</v>
       </c>
       <c r="F12" t="str">
-        <v>0411 212 619</v>
+        <v>0411 652 121</v>
       </c>
       <c r="G12" t="str">
-        <v>Brisbane</v>
+        <v>Geelong</v>
       </c>
       <c r="H12" t="str">
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="I12" t="str">
         <v>available</v>
       </c>
       <c r="J12" t="str">
-        <v>Harper Lewis</v>
+        <v>Audrey Ramirez</v>
+      </c>
+      <c r="M12" t="str">
+        <v>Back issues - needs lumbar support chair</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>6849995e-3474-4988-87b0-1db2638461ca</v>
+  